--- a/docs/session_variables.xlsx
+++ b/docs/session_variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robhay/git_repo/share_screener/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{284CC595-8A55-1942-BA64-3C78E1453183}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1AE76A1-7EB9-5948-BC56-6438A613389D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5420" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{EB3C945B-FE01-FA47-AE59-A0DC3CDF521B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{EB3C945B-FE01-FA47-AE59-A0DC3CDF521B}"/>
   </bookViews>
   <sheets>
     <sheet name="Application Structure" sheetId="5" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="old o-view" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Overview!$A$8:$Q$85</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">scope!$B$7:$O$94</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="424">
   <si>
     <t>chart_colours</t>
   </si>
@@ -1107,9 +1108,6 @@
     <t>configured by</t>
   </si>
   <si>
-    <t>shorten this variablenme</t>
-  </si>
-  <si>
     <t>Utilised in the single ticker pages (not the share_screener) page</t>
   </si>
   <si>
@@ -1140,9 +1138,6 @@
     <t>tests</t>
   </si>
   <si>
-    <t>trend open</t>
-  </si>
-  <si>
     <t>various editable metrics required to create the chart</t>
   </si>
   <si>
@@ -1203,9 +1198,6 @@
     <t>update_dropdwons</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>{passesd:None, 'failed:None}</t>
   </si>
   <si>
@@ -1234,13 +1226,127 @@
   </si>
   <si>
     <t>print header</t>
+  </si>
+  <si>
+    <t>ticker files</t>
+  </si>
+  <si>
+    <t>selectors</t>
+  </si>
+  <si>
+    <t>MACD (example)</t>
+  </si>
+  <si>
+    <t>single / intra day
+ / volume/ research</t>
+  </si>
+  <si>
+    <t>page list</t>
+  </si>
+  <si>
+    <t>page_list</t>
+  </si>
+  <si>
+    <t>[single, volume, etc..]</t>
+  </si>
+  <si>
+    <t>A simple list of all pages used my the pages module for iteration</t>
+  </si>
+  <si>
+    <t>test list</t>
+  </si>
+  <si>
+    <t>test_lists</t>
+  </si>
+  <si>
+    <t>A list of all tests that can be iterated over by various functions</t>
+  </si>
+  <si>
+    <t>[trend_open, etc]</t>
+  </si>
+  <si>
+    <t>chart list</t>
+  </si>
+  <si>
+    <t>var1</t>
+  </si>
+  <si>
+    <t>var2</t>
+  </si>
+  <si>
+    <t>rename</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>level 5</t>
+  </si>
+  <si>
+    <t>{ticker:df}</t>
+  </si>
+  <si>
+    <t>ohlcv</t>
+  </si>
+  <si>
+    <t>refresh_df</t>
+  </si>
+  <si>
+    <t>trend</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>timespan</t>
+  </si>
+  <si>
+    <t>TRUE or FALSE</t>
+  </si>
+  <si>
+    <t>DataFrame</t>
+  </si>
+  <si>
+    <t>chart should be plural</t>
+  </si>
+  <si>
+    <t>{test_config}</t>
+  </si>
+  <si>
+    <t>{chart_confi}</t>
+  </si>
+  <si>
+    <t>chart - macd (example)</t>
+  </si>
+  <si>
+    <t>test - trend open (example)</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>{plot_config}
+chart</t>
+  </si>
+  <si>
+    <t>{tests_config}
+test</t>
+  </si>
+  <si>
+    <t>[cba, nab]</t>
+  </si>
+  <si>
+    <t>ticker_list</t>
+  </si>
+  <si>
+    <t>[anz, wbc]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1354,7 +1460,23 @@
     </font>
     <font>
       <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1429,6 +1551,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1441,6 +1570,36 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFC586C0"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1627,7 +1786,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1869,6 +2028,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1884,11 +2044,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1900,10 +2062,10 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1912,7 +2074,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1927,60 +2089,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1993,18 +2146,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2017,23 +2158,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2056,65 +2182,150 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2430,18 +2641,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38B2EA65-21F2-2F4D-89F2-3DF9C5011AEE}">
-  <dimension ref="A4:CA22"/>
+  <dimension ref="A4:CN28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="BA23" sqref="BA23"/>
+    <sheetView tabSelected="1" topLeftCell="AY5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BO12" sqref="BO12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
     <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" customWidth="1"/>
     <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
@@ -2449,127 +2660,150 @@
     <col min="10" max="10" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="8" bestFit="1" customWidth="1"/>
     <col min="13" max="16" width="8" customWidth="1"/>
-    <col min="17" max="17" width="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11" customWidth="1"/>
-    <col min="26" max="26" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11" customWidth="1"/>
-    <col min="34" max="34" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="8" bestFit="1" customWidth="1"/>
-    <col min="49" max="50" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="10" bestFit="1" customWidth="1"/>
-    <col min="55" max="56" width="10" customWidth="1"/>
-    <col min="57" max="57" width="7" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="61" max="64" width="6.83203125" customWidth="1"/>
-    <col min="65" max="65" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="8" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8" customWidth="1"/>
+    <col min="21" max="21" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.6640625" customWidth="1"/>
+    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.5" customWidth="1"/>
+    <col min="31" max="33" width="7.33203125" customWidth="1"/>
+    <col min="34" max="34" width="11.5" customWidth="1"/>
+    <col min="35" max="36" width="7.33203125" customWidth="1"/>
+    <col min="37" max="37" width="11" customWidth="1"/>
+    <col min="38" max="38" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="11" customWidth="1"/>
+    <col min="46" max="46" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="50" max="51" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="55" max="56" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="13.33203125" customWidth="1"/>
+    <col min="59" max="59" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="10.83203125" customWidth="1"/>
+    <col min="65" max="65" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="7.83203125" customWidth="1"/>
+    <col min="69" max="69" width="6.33203125" customWidth="1"/>
+    <col min="70" max="70" width="7" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="74" max="77" width="6.83203125" customWidth="1"/>
+    <col min="78" max="78" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="8" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="4.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:79" ht="67" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="82" t="s">
+    <row r="4" spans="1:92" ht="67" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="83" t="s">
         <v>264</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="82"/>
-      <c r="N4" s="82"/>
-      <c r="O4" s="82"/>
-      <c r="P4" s="82"/>
-      <c r="Q4" s="82"/>
-      <c r="R4" s="82"/>
-      <c r="S4" s="82"/>
-      <c r="T4" s="82"/>
-      <c r="U4" s="82"/>
-      <c r="V4" s="82"/>
-      <c r="W4" s="82"/>
-      <c r="X4" s="82"/>
-      <c r="Y4" s="82"/>
-      <c r="Z4" s="82"/>
-      <c r="AA4" s="82"/>
-      <c r="AB4" s="82"/>
-      <c r="AC4" s="82"/>
-      <c r="AD4" s="82"/>
-      <c r="AE4" s="82"/>
-      <c r="AF4" s="82"/>
-      <c r="AG4" s="82"/>
-      <c r="AH4" s="82"/>
-      <c r="AI4" s="82"/>
-      <c r="AJ4" s="82"/>
-      <c r="AK4" s="82"/>
-      <c r="AL4" s="82"/>
-      <c r="AM4" s="82"/>
-      <c r="AN4" s="82"/>
-      <c r="AO4" s="82"/>
-      <c r="AP4" s="82"/>
-      <c r="AQ4" s="82"/>
-      <c r="AR4" s="82"/>
-      <c r="AS4" s="82"/>
-      <c r="AT4" s="82"/>
-      <c r="AU4" s="82"/>
-      <c r="AV4" s="82"/>
-      <c r="AW4" s="82"/>
-      <c r="AX4" s="82"/>
-      <c r="AY4" s="82"/>
-      <c r="AZ4" s="82"/>
-      <c r="BA4" s="82"/>
-      <c r="BB4" s="82"/>
-      <c r="BC4" s="82"/>
-      <c r="BD4" s="82"/>
-      <c r="BE4" s="82"/>
-      <c r="BF4" s="82"/>
-      <c r="BG4" s="82"/>
-      <c r="BH4" s="82"/>
-      <c r="BI4" s="82"/>
-      <c r="BJ4" s="82"/>
-      <c r="BK4" s="82"/>
-      <c r="BL4" s="82"/>
-      <c r="BM4" s="82"/>
-      <c r="BN4" s="82"/>
-      <c r="BO4" s="82"/>
-      <c r="BP4" s="82"/>
-    </row>
-    <row r="6" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="83"/>
+      <c r="O4" s="83"/>
+      <c r="P4" s="83"/>
+      <c r="Q4" s="83"/>
+      <c r="R4" s="83"/>
+      <c r="S4" s="83"/>
+      <c r="T4" s="83"/>
+      <c r="U4" s="83"/>
+      <c r="V4" s="83"/>
+      <c r="W4" s="83"/>
+      <c r="X4" s="83"/>
+      <c r="Y4" s="83"/>
+      <c r="Z4" s="83"/>
+      <c r="AA4" s="83"/>
+      <c r="AB4" s="83"/>
+      <c r="AC4" s="83"/>
+      <c r="AD4" s="83"/>
+      <c r="AE4" s="83"/>
+      <c r="AF4" s="83"/>
+      <c r="AG4" s="83"/>
+      <c r="AH4" s="83"/>
+      <c r="AI4" s="83"/>
+      <c r="AJ4" s="83"/>
+      <c r="AK4" s="83"/>
+      <c r="AL4" s="83"/>
+      <c r="AM4" s="83"/>
+      <c r="AN4" s="83"/>
+      <c r="AO4" s="83"/>
+      <c r="AP4" s="83"/>
+      <c r="AQ4" s="83"/>
+      <c r="AR4" s="83"/>
+      <c r="AS4" s="83"/>
+      <c r="AT4" s="83"/>
+      <c r="AU4" s="83"/>
+      <c r="AV4" s="83"/>
+      <c r="AW4" s="83"/>
+      <c r="AX4" s="83"/>
+      <c r="AY4" s="83"/>
+      <c r="AZ4" s="83"/>
+      <c r="BA4" s="83"/>
+      <c r="BB4" s="83"/>
+      <c r="BC4" s="83"/>
+      <c r="BD4" s="83"/>
+      <c r="BE4" s="83"/>
+      <c r="BF4" s="83"/>
+      <c r="BG4" s="83"/>
+      <c r="BH4" s="83"/>
+      <c r="BI4" s="83"/>
+      <c r="BJ4" s="83"/>
+      <c r="BK4" s="83"/>
+      <c r="BL4" s="83"/>
+      <c r="BM4" s="83"/>
+      <c r="BN4" s="83"/>
+      <c r="BO4" s="83"/>
+      <c r="BP4" s="83"/>
+      <c r="BQ4" s="83"/>
+      <c r="BR4" s="83"/>
+      <c r="BS4" s="83"/>
+      <c r="BT4" s="83"/>
+      <c r="BU4" s="83"/>
+      <c r="BV4" s="83"/>
+      <c r="BW4" s="83"/>
+      <c r="BX4" s="83"/>
+      <c r="BY4" s="83"/>
+      <c r="BZ4" s="83"/>
+      <c r="CA4" s="83"/>
+      <c r="CB4" s="83"/>
+      <c r="CC4" s="83"/>
+    </row>
+    <row r="6" spans="1:92" x14ac:dyDescent="0.2">
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -2602,114 +2836,139 @@
       <c r="AE6" s="6"/>
       <c r="AF6" s="6"/>
       <c r="AG6" s="6"/>
-    </row>
-    <row r="7" spans="1:79" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="162" t="s">
+      <c r="AH6" s="6"/>
+      <c r="AI6" s="6"/>
+      <c r="AJ6" s="6"/>
+      <c r="AK6" s="6"/>
+      <c r="AL6" s="6"/>
+      <c r="AM6" s="6"/>
+      <c r="AN6" s="6"/>
+      <c r="AO6" s="6"/>
+      <c r="AP6" s="6"/>
+      <c r="AQ6" s="6"/>
+      <c r="AR6" s="6"/>
+      <c r="AS6" s="6"/>
+    </row>
+    <row r="7" spans="1:92" s="88" customFormat="1" ht="73" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="148" t="s">
         <v>343</v>
       </c>
-      <c r="B7" s="91" t="s">
+      <c r="B7" s="162" t="s">
         <v>289</v>
       </c>
-      <c r="C7" s="76" t="s">
+      <c r="C7" s="149" t="s">
         <v>263</v>
       </c>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="77"/>
-      <c r="L7" s="77"/>
-      <c r="M7" s="77"/>
-      <c r="N7" s="77"/>
-      <c r="O7" s="77"/>
-      <c r="P7" s="77"/>
-      <c r="Q7" s="77"/>
-      <c r="R7" s="77"/>
-      <c r="S7" s="77"/>
-      <c r="T7" s="77"/>
-      <c r="U7" s="77"/>
-      <c r="V7" s="77"/>
-      <c r="W7" s="77"/>
-      <c r="X7" s="77"/>
-      <c r="Y7" s="77"/>
-      <c r="Z7" s="78"/>
-      <c r="AA7" s="76" t="s">
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="150"/>
+      <c r="K7" s="150"/>
+      <c r="L7" s="150"/>
+      <c r="M7" s="150"/>
+      <c r="N7" s="150"/>
+      <c r="O7" s="150"/>
+      <c r="P7" s="150"/>
+      <c r="Q7" s="150"/>
+      <c r="R7" s="150"/>
+      <c r="S7" s="150"/>
+      <c r="T7" s="150"/>
+      <c r="U7" s="150"/>
+      <c r="V7" s="150"/>
+      <c r="W7" s="150"/>
+      <c r="X7" s="150"/>
+      <c r="Y7" s="150"/>
+      <c r="Z7" s="150"/>
+      <c r="AA7" s="150"/>
+      <c r="AB7" s="150"/>
+      <c r="AC7" s="150"/>
+      <c r="AD7" s="150"/>
+      <c r="AE7" s="150"/>
+      <c r="AF7" s="150"/>
+      <c r="AG7" s="150"/>
+      <c r="AH7" s="150"/>
+      <c r="AI7" s="150"/>
+      <c r="AJ7" s="150"/>
+      <c r="AK7" s="150"/>
+      <c r="AL7" s="151"/>
+      <c r="AM7" s="149" t="s">
         <v>258</v>
       </c>
-      <c r="AB7" s="77"/>
-      <c r="AC7" s="77"/>
-      <c r="AD7" s="77"/>
-      <c r="AE7" s="77"/>
-      <c r="AF7" s="77"/>
-      <c r="AG7" s="77"/>
-      <c r="AH7" s="78"/>
-      <c r="AI7" s="76" t="s">
+      <c r="AN7" s="150"/>
+      <c r="AO7" s="150"/>
+      <c r="AP7" s="150"/>
+      <c r="AQ7" s="150"/>
+      <c r="AR7" s="150"/>
+      <c r="AS7" s="150"/>
+      <c r="AT7" s="151"/>
+      <c r="AU7" s="149" t="s">
         <v>310</v>
       </c>
-      <c r="AJ7" s="77"/>
-      <c r="AK7" s="77"/>
-      <c r="AL7" s="77"/>
-      <c r="AM7" s="77"/>
-      <c r="AN7" s="77"/>
-      <c r="AO7" s="78"/>
-      <c r="AP7" s="73" t="s">
+      <c r="AV7" s="150"/>
+      <c r="AW7" s="150"/>
+      <c r="AX7" s="150"/>
+      <c r="AY7" s="150"/>
+      <c r="AZ7" s="150"/>
+      <c r="BA7" s="151"/>
+      <c r="BB7" s="152" t="s">
         <v>257</v>
       </c>
-      <c r="AQ7" s="73"/>
-      <c r="AR7" s="73"/>
-      <c r="AS7" s="73"/>
-      <c r="AT7" s="73"/>
-      <c r="AU7" s="73"/>
-      <c r="AV7" s="73"/>
-      <c r="AW7" s="73"/>
-      <c r="AX7" s="73"/>
-      <c r="AY7" s="73"/>
-      <c r="AZ7" s="73"/>
-      <c r="BA7" s="73"/>
-      <c r="BB7" s="73"/>
-      <c r="BC7" s="73"/>
-      <c r="BD7" s="73"/>
-      <c r="BE7" s="73"/>
-      <c r="BF7" s="73"/>
-      <c r="BG7" s="73"/>
-      <c r="BH7" s="76" t="s">
+      <c r="BC7" s="152"/>
+      <c r="BD7" s="152"/>
+      <c r="BE7" s="152"/>
+      <c r="BF7" s="152"/>
+      <c r="BG7" s="152"/>
+      <c r="BH7" s="152"/>
+      <c r="BI7" s="152"/>
+      <c r="BJ7" s="152"/>
+      <c r="BK7" s="152"/>
+      <c r="BL7" s="152"/>
+      <c r="BM7" s="152"/>
+      <c r="BN7" s="152"/>
+      <c r="BO7" s="152"/>
+      <c r="BP7" s="152"/>
+      <c r="BQ7" s="152"/>
+      <c r="BR7" s="152"/>
+      <c r="BS7" s="152"/>
+      <c r="BT7" s="152"/>
+      <c r="BU7" s="152" t="s">
         <v>260</v>
       </c>
-      <c r="BI7" s="77"/>
-      <c r="BJ7" s="77"/>
-      <c r="BK7" s="77"/>
-      <c r="BL7" s="77"/>
-      <c r="BM7" s="77"/>
-      <c r="BN7" s="77"/>
-      <c r="BO7" s="77"/>
-      <c r="BP7" s="77"/>
-      <c r="BS7" s="76" t="s">
+      <c r="BV7" s="152"/>
+      <c r="BW7" s="152"/>
+      <c r="BX7" s="152"/>
+      <c r="BY7" s="152"/>
+      <c r="BZ7" s="152"/>
+      <c r="CA7" s="152"/>
+      <c r="CB7" s="152"/>
+      <c r="CC7" s="152"/>
+      <c r="CF7" s="149" t="s">
         <v>31</v>
       </c>
-      <c r="BT7" s="77"/>
-      <c r="BU7" s="77"/>
-      <c r="BV7" s="77"/>
-      <c r="BW7" s="77"/>
-      <c r="BX7" s="77"/>
-      <c r="BY7" s="77"/>
-      <c r="BZ7" s="77"/>
-      <c r="CA7" s="78"/>
-    </row>
-    <row r="8" spans="1:79" ht="104" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="162" t="s">
+      <c r="CG7" s="150"/>
+      <c r="CH7" s="150"/>
+      <c r="CI7" s="150"/>
+      <c r="CJ7" s="150"/>
+      <c r="CK7" s="150"/>
+      <c r="CL7" s="150"/>
+      <c r="CM7" s="150"/>
+      <c r="CN7" s="151"/>
+    </row>
+    <row r="8" spans="1:92" s="87" customFormat="1" ht="104" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="147" t="s">
         <v>344</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="91" t="s">
+      <c r="B8" s="153"/>
+      <c r="C8" s="156" t="s">
         <v>286</v>
       </c>
-      <c r="D8" s="91" t="s">
+      <c r="D8" s="156" t="s">
         <v>285</v>
       </c>
-      <c r="E8" s="91" t="s">
+      <c r="E8" s="156" t="s">
         <v>288</v>
       </c>
       <c r="F8" s="157" t="s">
@@ -2721,282 +2980,310 @@
       <c r="J8" s="157"/>
       <c r="K8" s="157"/>
       <c r="L8" s="157"/>
-      <c r="M8" s="158" t="s">
-        <v>357</v>
-      </c>
-      <c r="N8" s="159"/>
-      <c r="O8" s="159"/>
-      <c r="P8" s="160"/>
-      <c r="Q8" s="157" t="s">
+      <c r="M8" s="154" t="s">
+        <v>356</v>
+      </c>
+      <c r="N8" s="155"/>
+      <c r="O8" s="155"/>
+      <c r="P8" s="155"/>
+      <c r="Q8" s="155"/>
+      <c r="R8" s="155"/>
+      <c r="S8" s="155"/>
+      <c r="T8" s="155"/>
+      <c r="U8" s="158"/>
+      <c r="V8" s="157" t="s">
         <v>1</v>
       </c>
-      <c r="R8" s="157"/>
-      <c r="S8" s="157"/>
-      <c r="T8" s="157"/>
-      <c r="U8" s="157"/>
-      <c r="V8" s="157"/>
       <c r="W8" s="157"/>
       <c r="X8" s="157"/>
       <c r="Y8" s="157"/>
-      <c r="Z8" s="161" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA8" s="157" t="s">
-        <v>275</v>
-      </c>
+      <c r="Z8" s="157"/>
+      <c r="AA8" s="157"/>
       <c r="AB8" s="157"/>
       <c r="AC8" s="157"/>
       <c r="AD8" s="157"/>
       <c r="AE8" s="157"/>
-      <c r="AF8" s="158" t="s">
-        <v>276</v>
-      </c>
-      <c r="AG8" s="159"/>
-      <c r="AH8" s="160"/>
-      <c r="AI8" s="91" t="s">
-        <v>290</v>
-      </c>
-      <c r="AJ8" s="91" t="s">
-        <v>291</v>
-      </c>
-      <c r="AK8" s="157" t="s">
-        <v>259</v>
-      </c>
-      <c r="AL8" s="157"/>
-      <c r="AM8" s="157"/>
+      <c r="AF8" s="157"/>
+      <c r="AG8" s="157"/>
+      <c r="AH8" s="157"/>
+      <c r="AI8" s="157"/>
+      <c r="AJ8" s="157"/>
+      <c r="AK8" s="157"/>
+      <c r="AL8" s="159" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM8" s="157" t="s">
+        <v>275</v>
+      </c>
       <c r="AN8" s="157"/>
       <c r="AO8" s="157"/>
-      <c r="AP8" s="37" t="s">
+      <c r="AP8" s="157"/>
+      <c r="AQ8" s="157"/>
+      <c r="AR8" s="154" t="s">
+        <v>276</v>
+      </c>
+      <c r="AS8" s="155"/>
+      <c r="AT8" s="158"/>
+      <c r="AU8" s="173" t="s">
+        <v>290</v>
+      </c>
+      <c r="AV8" s="173" t="s">
+        <v>387</v>
+      </c>
+      <c r="AW8" s="157" t="s">
+        <v>259</v>
+      </c>
+      <c r="AX8" s="157"/>
+      <c r="AY8" s="157"/>
+      <c r="AZ8" s="157"/>
+      <c r="BA8" s="157"/>
+      <c r="BB8" s="181" t="s">
+        <v>353</v>
+      </c>
+      <c r="BC8" s="181" t="s">
         <v>354</v>
       </c>
-      <c r="AQ8" s="37" t="s">
+      <c r="BD8" s="182" t="s">
+        <v>297</v>
+      </c>
+      <c r="BE8" s="182" t="s">
+        <v>391</v>
+      </c>
+      <c r="BF8" s="183" t="s">
+        <v>266</v>
+      </c>
+      <c r="BG8" s="183"/>
+      <c r="BH8" s="160" t="s">
+        <v>390</v>
+      </c>
+      <c r="BI8" s="161"/>
+      <c r="BJ8" s="161"/>
+      <c r="BK8" s="161"/>
+      <c r="BL8" s="154" t="s">
+        <v>265</v>
+      </c>
+      <c r="BM8" s="155"/>
+      <c r="BN8" s="155"/>
+      <c r="BO8" s="155"/>
+      <c r="BP8" s="155"/>
+      <c r="BQ8" s="155"/>
+      <c r="BR8" s="155"/>
+      <c r="BS8" s="155"/>
+      <c r="BT8" s="155"/>
+      <c r="BU8" s="156" t="s">
+        <v>137</v>
+      </c>
+      <c r="BV8" s="156" t="s">
+        <v>283</v>
+      </c>
+      <c r="BW8" s="156" t="s">
+        <v>306</v>
+      </c>
+      <c r="BX8" s="156" t="s">
+        <v>28</v>
+      </c>
+      <c r="BY8" s="156" t="s">
+        <v>386</v>
+      </c>
+      <c r="BZ8" s="160" t="s">
+        <v>305</v>
+      </c>
+      <c r="CA8" s="168"/>
+      <c r="CB8" s="169" t="s">
+        <v>307</v>
+      </c>
+      <c r="CC8" s="169"/>
+      <c r="CF8" s="87" t="s">
         <v>355</v>
       </c>
-      <c r="AR8" s="87" t="s">
-        <v>297</v>
-      </c>
-      <c r="AS8" s="73" t="s">
-        <v>266</v>
-      </c>
-      <c r="AT8" s="73"/>
-      <c r="AU8" s="76" t="s">
-        <v>311</v>
-      </c>
-      <c r="AV8" s="77"/>
-      <c r="AW8" s="77"/>
-      <c r="AX8" s="77"/>
-      <c r="AY8" s="76" t="s">
-        <v>265</v>
-      </c>
-      <c r="AZ8" s="77"/>
-      <c r="BA8" s="77"/>
-      <c r="BB8" s="77"/>
-      <c r="BC8" s="77"/>
-      <c r="BD8" s="77"/>
-      <c r="BE8" s="77"/>
-      <c r="BF8" s="77"/>
-      <c r="BG8" s="77"/>
-      <c r="BH8" s="91" t="s">
-        <v>137</v>
-      </c>
-      <c r="BI8" s="91" t="s">
-        <v>283</v>
-      </c>
-      <c r="BJ8" s="37" t="s">
-        <v>306</v>
-      </c>
-      <c r="BK8" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="BL8" s="91" t="s">
-        <v>389</v>
-      </c>
-      <c r="BM8" s="98" t="s">
-        <v>305</v>
-      </c>
-      <c r="BN8" s="100"/>
-      <c r="BO8" s="79" t="s">
-        <v>307</v>
-      </c>
-      <c r="BP8" s="79"/>
-      <c r="BS8" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="9" spans="1:79" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="162" t="s">
-        <v>375</v>
+    </row>
+    <row r="9" spans="1:92" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="137" t="s">
+        <v>373</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
-      <c r="F9" s="91" t="s">
-        <v>377</v>
-      </c>
-      <c r="G9" s="91" t="s">
+      <c r="F9" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="G9" s="131" t="s">
         <v>267</v>
       </c>
-      <c r="H9" s="91" t="s">
+      <c r="H9" s="131" t="s">
         <v>268</v>
       </c>
-      <c r="I9" s="91" t="s">
+      <c r="I9" s="131" t="s">
         <v>261</v>
       </c>
-      <c r="J9" s="91" t="s">
+      <c r="J9" s="131" t="s">
         <v>269</v>
       </c>
-      <c r="K9" s="91" t="s">
+      <c r="K9" s="131" t="s">
         <v>284</v>
       </c>
-      <c r="L9" s="91" t="s">
+      <c r="L9" s="131" t="s">
         <v>283</v>
       </c>
-      <c r="M9" s="151" t="s">
-        <v>365</v>
-      </c>
-      <c r="N9" s="152" t="s">
+      <c r="M9" s="131" t="s">
+        <v>363</v>
+      </c>
+      <c r="N9" s="167" t="s">
+        <v>395</v>
+      </c>
+      <c r="O9" s="163" t="s">
+        <v>417</v>
+      </c>
+      <c r="P9" s="164"/>
+      <c r="Q9" s="164"/>
+      <c r="R9" s="164"/>
+      <c r="S9" s="164"/>
+      <c r="T9" s="164"/>
+      <c r="U9" s="165"/>
+      <c r="V9" s="131" t="s">
+        <v>379</v>
+      </c>
+      <c r="W9" s="131" t="s">
+        <v>279</v>
+      </c>
+      <c r="X9" s="131" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y9" s="131" t="s">
+        <v>399</v>
+      </c>
+      <c r="Z9" s="166" t="s">
+        <v>416</v>
+      </c>
+      <c r="AA9" s="166"/>
+      <c r="AB9" s="166"/>
+      <c r="AC9" s="166"/>
+      <c r="AD9" s="166"/>
+      <c r="AE9" s="166"/>
+      <c r="AF9" s="166"/>
+      <c r="AG9" s="166"/>
+      <c r="AH9" s="166"/>
+      <c r="AI9" s="166"/>
+      <c r="AJ9" s="166"/>
+      <c r="AK9" s="166"/>
+      <c r="AL9" s="11"/>
+      <c r="AM9" s="131" t="s">
+        <v>258</v>
+      </c>
+      <c r="AN9" s="97" t="s">
+        <v>274</v>
+      </c>
+      <c r="AO9" s="131" t="s">
+        <v>277</v>
+      </c>
+      <c r="AP9" s="131" t="s">
+        <v>261</v>
+      </c>
+      <c r="AQ9" s="131" t="s">
+        <v>273</v>
+      </c>
+      <c r="AR9" s="131" t="s">
+        <v>272</v>
+      </c>
+      <c r="AS9" s="131" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT9" s="131" t="s">
+        <v>273</v>
+      </c>
+      <c r="AU9" s="172" t="s">
+        <v>405</v>
+      </c>
+      <c r="AV9" s="172" t="s">
+        <v>405</v>
+      </c>
+      <c r="AW9" s="131" t="s">
+        <v>270</v>
+      </c>
+      <c r="AX9" s="131" t="s">
+        <v>268</v>
+      </c>
+      <c r="AY9" s="167" t="s">
+        <v>314</v>
+      </c>
+      <c r="AZ9" s="131" t="s">
+        <v>313</v>
+      </c>
+      <c r="BA9" s="131" t="s">
+        <v>312</v>
+      </c>
+      <c r="BB9" s="11"/>
+      <c r="BC9" s="11"/>
+      <c r="BD9" s="11"/>
+      <c r="BE9" s="11"/>
+      <c r="BF9" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG9" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="BH9" s="131" t="s">
+        <v>422</v>
+      </c>
+      <c r="BI9" s="163" t="s">
+        <v>407</v>
+      </c>
+      <c r="BJ9" s="164"/>
+      <c r="BK9" s="167" t="s">
+        <v>403</v>
+      </c>
+      <c r="BL9" s="131" t="s">
+        <v>422</v>
+      </c>
+      <c r="BM9" s="163" t="s">
+        <v>407</v>
+      </c>
+      <c r="BN9" s="165"/>
+      <c r="BO9" s="167" t="s">
+        <v>403</v>
+      </c>
+      <c r="BP9" s="179" t="s">
+        <v>371</v>
+      </c>
+      <c r="BQ9" s="179" t="s">
         <v>372</v>
       </c>
-      <c r="O9" s="153"/>
-      <c r="P9" s="154"/>
-      <c r="Q9" s="91" t="s">
-        <v>382</v>
-      </c>
-      <c r="R9" s="91" t="s">
-        <v>279</v>
-      </c>
-      <c r="S9" s="91" t="s">
-        <v>280</v>
-      </c>
-      <c r="T9" s="163" t="s">
-        <v>271</v>
-      </c>
-      <c r="U9" s="163"/>
-      <c r="V9" s="163"/>
-      <c r="W9" s="163"/>
-      <c r="X9" s="163"/>
-      <c r="Y9" s="163"/>
-      <c r="Z9" s="11"/>
-      <c r="AA9" s="91" t="s">
-        <v>258</v>
-      </c>
-      <c r="AB9" s="94" t="s">
-        <v>274</v>
-      </c>
-      <c r="AC9" s="91" t="s">
-        <v>277</v>
-      </c>
-      <c r="AD9" s="91" t="s">
-        <v>261</v>
-      </c>
-      <c r="AE9" s="91" t="s">
-        <v>273</v>
-      </c>
-      <c r="AF9" s="91" t="s">
-        <v>272</v>
-      </c>
-      <c r="AG9" s="91" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH9" s="91" t="s">
-        <v>273</v>
-      </c>
-      <c r="AI9" s="11"/>
-      <c r="AJ9" s="11"/>
-      <c r="AK9" s="91" t="s">
-        <v>270</v>
-      </c>
-      <c r="AL9" s="91" t="s">
-        <v>268</v>
-      </c>
-      <c r="AM9" s="91" t="s">
-        <v>314</v>
-      </c>
-      <c r="AN9" s="91" t="s">
-        <v>313</v>
-      </c>
-      <c r="AO9" s="91" t="s">
-        <v>312</v>
-      </c>
-      <c r="AP9" s="11"/>
-      <c r="AQ9" s="11"/>
-      <c r="AR9" s="11"/>
-      <c r="AS9" s="37" t="s">
-        <v>294</v>
-      </c>
-      <c r="AT9" s="37" t="s">
-        <v>295</v>
-      </c>
-      <c r="AU9" s="140" t="s">
-        <v>298</v>
-      </c>
-      <c r="AV9" s="140" t="s">
-        <v>302</v>
-      </c>
-      <c r="AW9" s="140" t="s">
-        <v>300</v>
-      </c>
-      <c r="AX9" s="140" t="s">
-        <v>294</v>
-      </c>
-      <c r="AY9" s="140" t="s">
-        <v>298</v>
-      </c>
-      <c r="AZ9" s="140" t="s">
-        <v>299</v>
-      </c>
-      <c r="BA9" s="140" t="s">
-        <v>300</v>
-      </c>
-      <c r="BB9" s="140" t="s">
-        <v>295</v>
-      </c>
-      <c r="BC9" s="151" t="s">
-        <v>373</v>
-      </c>
-      <c r="BD9" s="151" t="s">
+      <c r="BR9" s="175" t="s">
+        <v>388</v>
+      </c>
+      <c r="BS9" s="176"/>
+      <c r="BT9" s="177"/>
+      <c r="BU9" s="91"/>
+      <c r="BV9" s="91"/>
+      <c r="BW9" s="91"/>
+      <c r="BX9" s="91"/>
+      <c r="BY9" s="91"/>
+      <c r="BZ9" s="131" t="s">
+        <v>384</v>
+      </c>
+      <c r="CA9" s="131" t="s">
+        <v>385</v>
+      </c>
+      <c r="CB9" s="131" t="s">
+        <v>308</v>
+      </c>
+      <c r="CC9" s="131" t="s">
+        <v>309</v>
+      </c>
+      <c r="CF9" t="s">
+        <v>136</v>
+      </c>
+      <c r="CG9" t="s">
+        <v>137</v>
+      </c>
+      <c r="CH9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:92" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="137" t="s">
         <v>374</v>
-      </c>
-      <c r="BE9" s="37" t="s">
-        <v>301</v>
-      </c>
-      <c r="BF9" s="37" t="s">
-        <v>268</v>
-      </c>
-      <c r="BG9" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="BH9" s="88"/>
-      <c r="BI9" s="88"/>
-      <c r="BJ9" s="88"/>
-      <c r="BK9" s="88"/>
-      <c r="BL9" s="88"/>
-      <c r="BM9" s="37" t="s">
-        <v>387</v>
-      </c>
-      <c r="BN9" s="37" t="s">
-        <v>388</v>
-      </c>
-      <c r="BO9" s="37" t="s">
-        <v>308</v>
-      </c>
-      <c r="BP9" s="37" t="s">
-        <v>309</v>
-      </c>
-      <c r="BS9" t="s">
-        <v>136</v>
-      </c>
-      <c r="BT9" t="s">
-        <v>137</v>
-      </c>
-      <c r="BU9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="10" spans="1:79" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="162" t="s">
-        <v>376</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -3010,48 +3297,48 @@
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
-      <c r="N10" s="151" t="s">
+      <c r="N10" s="11"/>
+      <c r="O10" s="131" t="s">
         <v>136</v>
       </c>
-      <c r="O10" s="151" t="s">
+      <c r="P10" s="131" t="s">
         <v>137</v>
       </c>
-      <c r="P10" s="155" t="s">
+      <c r="Q10" s="163" t="s">
         <v>145</v>
       </c>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="37" t="s">
+      <c r="R10" s="164"/>
+      <c r="S10" s="164"/>
+      <c r="T10" s="164"/>
+      <c r="U10" s="165"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="U10" s="37" t="s">
+      <c r="AA10" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="V10" s="37" t="s">
+      <c r="AB10" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="W10" s="37" t="s">
+      <c r="AC10" s="37" t="s">
         <v>281</v>
       </c>
-      <c r="X10" s="115" t="s">
+      <c r="AD10" s="101" t="s">
         <v>145</v>
       </c>
-      <c r="Y10" s="115" t="s">
+      <c r="AE10" s="102"/>
+      <c r="AF10" s="102"/>
+      <c r="AG10" s="103"/>
+      <c r="AH10" s="101" t="s">
         <v>140</v>
       </c>
-      <c r="Z10" s="11"/>
-      <c r="AA10" s="11"/>
-      <c r="AB10" s="11"/>
-      <c r="AC10" s="11"/>
-      <c r="AD10" s="11"/>
-      <c r="AE10" s="11"/>
-      <c r="AF10" s="11"/>
-      <c r="AG10" s="11"/>
-      <c r="AH10" s="11"/>
-      <c r="AI10" s="11"/>
-      <c r="AJ10" s="11"/>
-      <c r="AK10" s="11"/>
+      <c r="AI10" s="102"/>
+      <c r="AJ10" s="102"/>
+      <c r="AK10" s="103"/>
       <c r="AL10" s="11"/>
       <c r="AM10" s="11"/>
       <c r="AN10" s="11"/>
@@ -3065,96 +3352,355 @@
       <c r="AV10" s="11"/>
       <c r="AW10" s="11"/>
       <c r="AX10" s="11"/>
-      <c r="AY10" s="11"/>
+      <c r="AY10" s="172" t="s">
+        <v>405</v>
+      </c>
       <c r="AZ10" s="11"/>
       <c r="BA10" s="11"/>
       <c r="BB10" s="11"/>
       <c r="BC10" s="11"/>
       <c r="BD10" s="11"/>
       <c r="BE10" s="11"/>
-      <c r="BF10" s="11"/>
-      <c r="BG10" s="11"/>
+      <c r="BF10" s="37" t="s">
+        <v>419</v>
+      </c>
+      <c r="BG10" s="37" t="s">
+        <v>420</v>
+      </c>
       <c r="BH10" s="11"/>
-      <c r="BI10" s="11"/>
-      <c r="BJ10" s="11"/>
-      <c r="BK10" s="11"/>
+      <c r="BI10" s="172" t="s">
+        <v>406</v>
+      </c>
+      <c r="BJ10" s="174" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK10" s="20" t="s">
+        <v>269</v>
+      </c>
       <c r="BL10" s="11"/>
-      <c r="BM10" s="11"/>
-      <c r="BN10" s="11"/>
-      <c r="BO10" s="11"/>
+      <c r="BM10" s="172" t="s">
+        <v>406</v>
+      </c>
+      <c r="BN10" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="BO10" s="20" t="s">
+        <v>269</v>
+      </c>
       <c r="BP10" s="11"/>
-      <c r="BU10" t="s">
+      <c r="BQ10" s="11"/>
+      <c r="BR10" s="178" t="s">
+        <v>301</v>
+      </c>
+      <c r="BS10" s="178" t="s">
+        <v>268</v>
+      </c>
+      <c r="BT10" s="178" t="s">
+        <v>261</v>
+      </c>
+      <c r="BU10" s="11"/>
+      <c r="BV10" s="11"/>
+      <c r="BW10" s="11"/>
+      <c r="BX10" s="11"/>
+      <c r="BY10" s="11"/>
+      <c r="BZ10" s="11"/>
+      <c r="CA10" s="11"/>
+      <c r="CB10" s="11"/>
+      <c r="CC10" s="11"/>
+      <c r="CH10" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:79" x14ac:dyDescent="0.2">
-      <c r="K12" t="s">
-        <v>379</v>
-      </c>
-      <c r="L12" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>379</v>
-      </c>
-      <c r="R12" t="s">
-        <v>379</v>
-      </c>
-      <c r="S12" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="15" spans="1:79" x14ac:dyDescent="0.2">
-      <c r="X15" s="83"/>
-    </row>
-    <row r="16" spans="1:79" x14ac:dyDescent="0.2">
-      <c r="X16" s="83"/>
-    </row>
-    <row r="17" spans="4:24" x14ac:dyDescent="0.2">
-      <c r="X17" s="84"/>
-    </row>
-    <row r="19" spans="4:24" x14ac:dyDescent="0.2">
-      <c r="D19" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="20" spans="4:24" x14ac:dyDescent="0.2">
-      <c r="D20" t="s">
+    <row r="11" spans="1:92" ht="24" x14ac:dyDescent="0.2">
+      <c r="A11" s="137" t="s">
+        <v>404</v>
+      </c>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="131" t="s">
+        <v>141</v>
+      </c>
+      <c r="R11" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="S11" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="T11" s="20" t="s">
+        <v>409</v>
+      </c>
+      <c r="U11" s="20" t="s">
+        <v>410</v>
+      </c>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="171" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE11" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="AF11" s="37" t="s">
+        <v>400</v>
+      </c>
+      <c r="AG11" s="37" t="s">
+        <v>401</v>
+      </c>
+      <c r="AH11" s="171" t="s">
+        <v>141</v>
+      </c>
+      <c r="AI11" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="AJ11" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="AK11" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="BF11" s="180" t="s">
+        <v>418</v>
+      </c>
+      <c r="BG11" s="180" t="s">
+        <v>418</v>
+      </c>
+      <c r="BH11" s="11"/>
+      <c r="BI11" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="BJ11" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="BK11" s="180" t="s">
+        <v>418</v>
+      </c>
+      <c r="BL11" s="11"/>
+      <c r="BM11" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="BN11" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="BO11" s="180" t="s">
+        <v>418</v>
+      </c>
+      <c r="BP11" s="11"/>
+      <c r="BQ11" s="11"/>
+      <c r="BR11" s="11"/>
+      <c r="BS11" s="11"/>
+      <c r="BT11" s="11"/>
+    </row>
+    <row r="12" spans="1:92" x14ac:dyDescent="0.2">
+      <c r="BF12" s="180" t="s">
+        <v>418</v>
+      </c>
+      <c r="BG12" s="180" t="s">
+        <v>418</v>
+      </c>
+      <c r="BH12" s="11"/>
+      <c r="BI12" s="180" t="s">
+        <v>418</v>
+      </c>
+      <c r="BJ12" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="BK12" s="180" t="s">
+        <v>418</v>
+      </c>
+      <c r="BL12" s="11"/>
+      <c r="BM12" s="180" t="s">
+        <v>418</v>
+      </c>
+      <c r="BN12" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="BO12" s="180" t="s">
+        <v>418</v>
+      </c>
+      <c r="BP12" s="11"/>
+      <c r="BQ12" s="11"/>
+      <c r="BR12" s="11"/>
+      <c r="BS12" s="11"/>
+      <c r="BT12" s="11"/>
+    </row>
+    <row r="13" spans="1:92" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF13" s="171" t="s">
+        <v>411</v>
+      </c>
+      <c r="BG13" s="171" t="s">
+        <v>411</v>
+      </c>
+      <c r="BH13" s="171" t="s">
+        <v>421</v>
+      </c>
+      <c r="BI13" s="171" t="s">
+        <v>411</v>
+      </c>
+      <c r="BJ13" s="171" t="s">
+        <v>411</v>
+      </c>
+      <c r="BK13" s="96" t="s">
+        <v>412</v>
+      </c>
+      <c r="BL13" s="171" t="s">
+        <v>423</v>
+      </c>
+      <c r="BM13" s="171" t="s">
+        <v>411</v>
+      </c>
+      <c r="BN13" s="171" t="s">
+        <v>411</v>
+      </c>
+      <c r="BO13" s="96" t="s">
+        <v>412</v>
+      </c>
+      <c r="BR13" s="11"/>
+      <c r="BS13" s="11"/>
+      <c r="BT13" s="11"/>
+    </row>
+    <row r="14" spans="1:92" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>355</v>
+      </c>
+      <c r="C14" t="s">
+        <v>414</v>
+      </c>
+      <c r="BM14" s="81"/>
+    </row>
+    <row r="15" spans="1:92" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>220</v>
+      </c>
+      <c r="C15" t="s">
+        <v>415</v>
+      </c>
+      <c r="BN15" s="81"/>
+    </row>
+    <row r="17" spans="4:67" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF17" t="s">
+        <v>413</v>
+      </c>
+      <c r="BI17" t="s">
+        <v>272</v>
+      </c>
+      <c r="BJ17" t="s">
+        <v>145</v>
+      </c>
+      <c r="BK17" t="s">
+        <v>403</v>
+      </c>
+      <c r="BM17" t="s">
+        <v>272</v>
+      </c>
+      <c r="BN17" t="s">
+        <v>145</v>
+      </c>
+      <c r="BO17" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="18" spans="4:67" ht="17" x14ac:dyDescent="0.2">
+      <c r="BG18" t="s">
+        <v>402</v>
+      </c>
+      <c r="BK18" s="167" t="s">
+        <v>302</v>
+      </c>
+      <c r="BO18" s="167" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="19" spans="4:67" x14ac:dyDescent="0.2">
+      <c r="AE19" s="85"/>
+      <c r="AF19" s="85"/>
+    </row>
+    <row r="20" spans="4:67" x14ac:dyDescent="0.2">
+      <c r="AE20" s="85"/>
+      <c r="AF20" s="85"/>
+    </row>
+    <row r="21" spans="4:67" ht="21" x14ac:dyDescent="0.25">
+      <c r="Z21" s="170"/>
+      <c r="AE21" s="85"/>
+      <c r="AF21" s="85"/>
+      <c r="AG21" s="84"/>
+      <c r="AH21" s="84"/>
+      <c r="AI21" s="84"/>
+      <c r="AJ21" s="84"/>
+    </row>
+    <row r="22" spans="4:67" x14ac:dyDescent="0.2">
+      <c r="AD22" s="84"/>
+      <c r="AE22" s="84"/>
+      <c r="AF22" s="84"/>
+      <c r="AG22" s="84"/>
+      <c r="AH22" s="84"/>
+      <c r="AI22" s="84"/>
+      <c r="AJ22" s="84"/>
+    </row>
+    <row r="23" spans="4:67" x14ac:dyDescent="0.2">
+      <c r="AD23" s="85"/>
+      <c r="AE23" s="85"/>
+      <c r="AF23" s="85"/>
+      <c r="AG23" s="85"/>
+      <c r="AH23" s="85"/>
+      <c r="AI23" s="85"/>
+      <c r="AJ23" s="85"/>
+    </row>
+    <row r="25" spans="4:67" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="26" spans="4:67" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="27" spans="4:67" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="28" spans="4:67" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="21" spans="4:24" x14ac:dyDescent="0.2">
-      <c r="D21" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="22" spans="4:24" x14ac:dyDescent="0.2">
-      <c r="D22" t="s">
-        <v>386</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="BS7:CA7"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="C7:Z7"/>
-    <mergeCell ref="BM8:BN8"/>
-    <mergeCell ref="AY8:BG8"/>
-    <mergeCell ref="BO8:BP8"/>
-    <mergeCell ref="T9:Y9"/>
-    <mergeCell ref="B4:BP4"/>
-    <mergeCell ref="AI7:AO7"/>
-    <mergeCell ref="AP7:BG7"/>
-    <mergeCell ref="BH7:BP7"/>
-    <mergeCell ref="Q8:Y8"/>
-    <mergeCell ref="AA8:AE8"/>
-    <mergeCell ref="AF8:AH8"/>
-    <mergeCell ref="AK8:AO8"/>
-    <mergeCell ref="AS8:AT8"/>
-    <mergeCell ref="AU8:AX8"/>
+  <mergeCells count="26">
+    <mergeCell ref="BM9:BN9"/>
+    <mergeCell ref="Q10:U10"/>
+    <mergeCell ref="CF7:CN7"/>
+    <mergeCell ref="M8:U8"/>
+    <mergeCell ref="O9:U9"/>
+    <mergeCell ref="C7:AL7"/>
+    <mergeCell ref="BZ8:CA8"/>
+    <mergeCell ref="BR9:BT9"/>
+    <mergeCell ref="BL8:BT8"/>
+    <mergeCell ref="CB8:CC8"/>
+    <mergeCell ref="Z9:AK9"/>
+    <mergeCell ref="B4:CC4"/>
+    <mergeCell ref="BI9:BJ9"/>
+    <mergeCell ref="AU7:BA7"/>
+    <mergeCell ref="BB7:BT7"/>
+    <mergeCell ref="BU7:CC7"/>
+    <mergeCell ref="V8:AK8"/>
+    <mergeCell ref="AM8:AQ8"/>
+    <mergeCell ref="AR8:AT8"/>
+    <mergeCell ref="AW8:BA8"/>
+    <mergeCell ref="BF8:BG8"/>
+    <mergeCell ref="BH8:BK8"/>
+    <mergeCell ref="AH10:AK10"/>
+    <mergeCell ref="AD10:AG10"/>
     <mergeCell ref="F8:L8"/>
-    <mergeCell ref="AA7:AH7"/>
+    <mergeCell ref="AM7:AT7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3162,1881 +3708,1675 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6180D86-3E8D-DE43-B0D1-6D6FAA66BA84}">
-  <dimension ref="A1:Q95"/>
+  <dimension ref="A1:N86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="11" topLeftCell="E42" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="7" ySplit="8" topLeftCell="H56" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="O45" sqref="O45"/>
+      <selection pane="bottomRight" activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="4"/>
-    <col min="2" max="2" width="17" style="4" customWidth="1"/>
-    <col min="3" max="3" width="6.83203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="6.1640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="31.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.83203125" style="6" customWidth="1"/>
-    <col min="12" max="12" width="18.83203125" style="108" customWidth="1"/>
-    <col min="13" max="13" width="40.1640625" style="6" customWidth="1"/>
-    <col min="14" max="14" width="35.33203125" style="4" customWidth="1"/>
-    <col min="15" max="15" width="73.6640625" style="4" customWidth="1"/>
-    <col min="16" max="16" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="24" width="7.33203125" style="4" customWidth="1"/>
-    <col min="25" max="25" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="31.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="8.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.33203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.83203125" style="111" customWidth="1"/>
+    <col min="10" max="10" width="38.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.33203125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="172.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="21" width="7.33203125" style="4" customWidth="1"/>
+    <col min="22" max="22" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11" style="4" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="10.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="5.83203125" style="4" customWidth="1"/>
-    <col min="39" max="39" width="8" style="4" customWidth="1"/>
-    <col min="40" max="40" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="5.83203125" style="4" customWidth="1"/>
+    <col min="36" max="36" width="8" style="4" customWidth="1"/>
+    <col min="37" max="37" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="8.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="8.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="8.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="10" style="4" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="48" max="49" width="8.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="10.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="8.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="10" style="4" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="7" style="4" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="9.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="6.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="57" max="58" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="5.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="5.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="11" style="4" customWidth="1"/>
-    <col min="67" max="16384" width="10.83203125" style="4"/>
+    <col min="42" max="42" width="10" style="4" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="8" style="4" bestFit="1" customWidth="1"/>
+    <col min="45" max="46" width="8.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="8.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10" style="4" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="7" style="4" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="9.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="6.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="54" max="55" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="8" style="4" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="5.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="8" style="4" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="5.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="11" style="4" customWidth="1"/>
+    <col min="64" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="31" x14ac:dyDescent="0.2">
-      <c r="A1" s="126" t="s">
+    <row r="1" spans="1:14" ht="37" x14ac:dyDescent="0.2">
+      <c r="A1" s="142" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="29" x14ac:dyDescent="0.2">
+      <c r="A2" s="143" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="92" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B3" s="95" t="s">
         <v>331</v>
       </c>
-      <c r="C3" s="132"/>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="102" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B4" s="105" t="s">
         <v>332</v>
       </c>
-      <c r="C4" s="133"/>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="103" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B5" s="106" t="s">
         <v>333</v>
       </c>
-      <c r="C5" s="134"/>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="104" t="s">
+    <row r="6" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="B6" s="107" t="s">
         <v>334</v>
       </c>
-      <c r="C6" s="135"/>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="135"/>
-      <c r="C7" s="135"/>
-      <c r="E7" s="73" t="s">
-        <v>371</v>
-      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B7" s="73" t="s">
+        <v>369</v>
+      </c>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
       <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
+      <c r="H7" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="I7" s="113" t="s">
+        <v>319</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>346</v>
+      </c>
       <c r="K7" s="20" t="s">
-        <v>316</v>
-      </c>
-      <c r="L7" s="110" t="s">
-        <v>319</v>
-      </c>
-      <c r="M7" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="N7" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="O7" s="20" t="s">
+      <c r="L7" s="20" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="135"/>
-      <c r="C8" s="135"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-    </row>
-    <row r="9" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="135"/>
-      <c r="C9" s="135"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-    </row>
-    <row r="12" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="118" t="s">
-        <v>264</v>
-      </c>
-      <c r="C12" s="117">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+      <c r="B9" s="141" t="s">
+        <v>289</v>
+      </c>
+      <c r="C9" s="119"/>
+      <c r="D9" s="119"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="119"/>
+      <c r="H9" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="I9" s="113" t="b">
         <v>1</v>
       </c>
-      <c r="E12" s="131" t="s">
+      <c r="J9" s="119"/>
+      <c r="L9" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="M9" s="108"/>
+      <c r="N9" s="108"/>
+    </row>
+    <row r="10" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="B10" s="127" t="s">
         <v>263</v>
       </c>
-      <c r="F12" s="19" t="s">
-        <v>289</v>
-      </c>
-      <c r="G12" s="119"/>
-      <c r="H12" s="119"/>
-      <c r="I12" s="119"/>
-      <c r="K12" s="20" t="s">
+      <c r="C10" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
+      <c r="H10" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="I10" s="113" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" s="119"/>
+      <c r="L10" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="B11" s="127"/>
+      <c r="C11" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="119"/>
+      <c r="H11" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="I11" s="113" t="s">
+        <v>101</v>
+      </c>
+      <c r="J11" s="119"/>
+      <c r="L11" s="19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="B12" s="127"/>
+      <c r="C12" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="119"/>
+      <c r="H12" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="I12" s="113" t="s">
+        <v>102</v>
+      </c>
+      <c r="J12" s="119"/>
+      <c r="L12" s="19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="B13" s="127"/>
+      <c r="C13" s="120" t="s">
+        <v>262</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="E13" s="119"/>
+      <c r="F13" s="119"/>
+      <c r="H13" s="20" t="s">
         <v>317</v>
       </c>
-      <c r="L12" s="110" t="b">
+      <c r="I13" s="113" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="119"/>
+      <c r="L13" s="19" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="B14" s="127"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="E14" s="119"/>
+      <c r="F14" s="119"/>
+      <c r="H14" s="129" t="s">
+        <v>91</v>
+      </c>
+      <c r="I14" s="113" t="s">
+        <v>324</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="L14" s="19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="B15" s="127"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="E15" s="119"/>
+      <c r="F15" s="119"/>
+      <c r="H15" s="129" t="s">
+        <v>91</v>
+      </c>
+      <c r="I15" s="113" t="s">
+        <v>349</v>
+      </c>
+      <c r="J15" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="L15" s="19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="B16" s="127"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="E16" s="119"/>
+      <c r="F16" s="119"/>
+      <c r="H16" s="129" t="s">
+        <v>91</v>
+      </c>
+      <c r="I16" s="113" t="s">
+        <v>348</v>
+      </c>
+      <c r="J16" s="119"/>
+      <c r="L16" s="19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B17" s="127"/>
+      <c r="C17" s="120"/>
+      <c r="D17" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="E17" s="119"/>
+      <c r="F17" s="119"/>
+      <c r="H17" s="129" t="s">
+        <v>91</v>
+      </c>
+      <c r="I17" s="113" t="s">
+        <v>348</v>
+      </c>
+      <c r="J17" s="119"/>
+      <c r="L17" s="19" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B18" s="127"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="E18" s="119"/>
+      <c r="F18" s="119"/>
+      <c r="H18" s="129" t="s">
+        <v>91</v>
+      </c>
+      <c r="I18" s="113" t="s">
+        <v>325</v>
+      </c>
+      <c r="J18" s="119"/>
+      <c r="L18" s="19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B19" s="127"/>
+      <c r="C19" s="120"/>
+      <c r="D19" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="E19" s="119"/>
+      <c r="F19" s="119"/>
+      <c r="H19" s="129" t="s">
+        <v>91</v>
+      </c>
+      <c r="I19" s="113" t="s">
+        <v>326</v>
+      </c>
+      <c r="J19" s="119"/>
+      <c r="L19" s="19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B20" s="127"/>
+      <c r="C20" s="54" t="s">
+        <v>356</v>
+      </c>
+      <c r="D20" s="138" t="s">
+        <v>363</v>
+      </c>
+      <c r="E20" s="119"/>
+      <c r="F20" s="119"/>
+      <c r="H20" s="129" t="s">
+        <v>91</v>
+      </c>
+      <c r="I20" s="113" t="s">
+        <v>364</v>
+      </c>
+      <c r="J20" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="L20" s="19" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B21" s="127"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="138" t="s">
+        <v>396</v>
+      </c>
+      <c r="E21" s="119"/>
+      <c r="F21" s="119"/>
+      <c r="H21" s="129" t="s">
+        <v>91</v>
+      </c>
+      <c r="I21" s="113" t="s">
+        <v>398</v>
+      </c>
+      <c r="J21" s="119"/>
+      <c r="L21" s="19" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B22" s="127"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="144" t="s">
+        <v>370</v>
+      </c>
+      <c r="E22" s="139" t="s">
+        <v>136</v>
+      </c>
+      <c r="F22" s="119"/>
+      <c r="H22" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="I22" s="113" t="b">
         <v>1</v>
       </c>
-      <c r="M12" s="119"/>
-      <c r="O12" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="P12" s="105"/>
-      <c r="Q12" s="105"/>
-    </row>
-    <row r="13" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="118"/>
-      <c r="C13" s="117">
-        <v>2</v>
-      </c>
-      <c r="E13" s="131"/>
-      <c r="F13" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="G13" s="119"/>
-      <c r="H13" s="119"/>
-      <c r="I13" s="119"/>
-      <c r="K13" s="20" t="s">
+      <c r="J22" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="L22" s="19" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B23" s="127"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="145"/>
+      <c r="E23" s="139" t="s">
+        <v>137</v>
+      </c>
+      <c r="F23" s="119"/>
+      <c r="H23" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="L13" s="110" t="s">
+      <c r="I23" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="J23" s="73"/>
+      <c r="L23" s="19" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B24" s="127"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="145"/>
+      <c r="E24" s="140" t="s">
+        <v>145</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="H24" s="128" t="s">
+        <v>141</v>
+      </c>
+      <c r="I24" s="11"/>
+      <c r="J24" s="73"/>
+      <c r="L24" s="19" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B25" s="127"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="145"/>
+      <c r="E25" s="140"/>
+      <c r="F25" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="I25" s="11"/>
+      <c r="J25" s="73"/>
+      <c r="L25" s="19" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B26" s="127"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="146"/>
+      <c r="E26" s="140"/>
+      <c r="F26" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="H26" s="104" t="s">
+        <v>329</v>
+      </c>
+      <c r="I26" s="11"/>
+      <c r="J26" s="73"/>
+      <c r="L26" s="19" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B27" s="127"/>
+      <c r="C27" s="132" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="E27" s="119"/>
+      <c r="F27" s="119"/>
+      <c r="H27" s="129" t="s">
+        <v>91</v>
+      </c>
+      <c r="I27" s="113" t="s">
+        <v>323</v>
+      </c>
+      <c r="J27" s="119"/>
+      <c r="L27" s="32" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B28" s="127"/>
+      <c r="C28" s="133"/>
+      <c r="D28" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="E28" s="119"/>
+      <c r="F28" s="119"/>
+      <c r="H28" s="99" t="s">
+        <v>90</v>
+      </c>
+      <c r="I28" s="113">
+        <v>500</v>
+      </c>
+      <c r="J28" s="119"/>
+      <c r="L28" s="19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B29" s="127"/>
+      <c r="C29" s="133"/>
+      <c r="D29" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="E29" s="119"/>
+      <c r="F29" s="119"/>
+      <c r="H29" s="99" t="s">
+        <v>90</v>
+      </c>
+      <c r="I29" s="113">
+        <v>500</v>
+      </c>
+      <c r="J29" s="119"/>
+      <c r="L29" s="32" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="127"/>
+      <c r="C30" s="133"/>
+      <c r="D30" s="86" t="s">
+        <v>389</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F30" s="119"/>
+      <c r="H30" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="I30" s="113" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30" s="73" t="s">
+        <v>60</v>
+      </c>
+      <c r="L30" s="19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="127"/>
+      <c r="C31" s="133"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="F31" s="119"/>
+      <c r="H31" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="I31" s="113" t="s">
+        <v>150</v>
+      </c>
+      <c r="J31" s="73"/>
+      <c r="L31" s="19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="127"/>
+      <c r="C32" s="133"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="F32" s="119"/>
+      <c r="H32" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="I32" s="113" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" s="73"/>
+      <c r="L32" s="19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="127"/>
+      <c r="C33" s="133"/>
+      <c r="D33" s="86"/>
+      <c r="E33" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="F33" s="119"/>
+      <c r="H33" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="I33" s="113" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" s="73"/>
+      <c r="L33" s="19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="127"/>
+      <c r="C34" s="133"/>
+      <c r="D34" s="86"/>
+      <c r="E34" s="86" t="s">
+        <v>145</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="H34" s="128" t="s">
+        <v>141</v>
+      </c>
+      <c r="I34" s="11"/>
+      <c r="J34" s="73"/>
+      <c r="L34" s="19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="127"/>
+      <c r="C35" s="133"/>
+      <c r="D35" s="86"/>
+      <c r="E35" s="86"/>
+      <c r="F35" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="H35" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="I35" s="11"/>
+      <c r="J35" s="73"/>
+      <c r="L35" s="19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="127"/>
+      <c r="C36" s="133"/>
+      <c r="D36" s="86"/>
+      <c r="E36" s="86"/>
+      <c r="F36" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="H36" s="104" t="s">
+        <v>329</v>
+      </c>
+      <c r="I36" s="11"/>
+      <c r="J36" s="73"/>
+      <c r="L36" s="19" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="127"/>
+      <c r="C37" s="133"/>
+      <c r="D37" s="86"/>
+      <c r="E37" s="86" t="s">
+        <v>140</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="H37" s="128" t="s">
+        <v>141</v>
+      </c>
+      <c r="I37" s="113" t="s">
+        <v>158</v>
+      </c>
+      <c r="J37" s="73"/>
+      <c r="L37" s="19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="127"/>
+      <c r="C38" s="133"/>
+      <c r="D38" s="86"/>
+      <c r="E38" s="86"/>
+      <c r="F38" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="H38" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="I38" s="113" t="s">
+        <v>150</v>
+      </c>
+      <c r="J38" s="73"/>
+      <c r="L38" s="19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="127"/>
+      <c r="C39" s="133"/>
+      <c r="D39" s="86"/>
+      <c r="E39" s="86"/>
+      <c r="F39" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="H39" s="99" t="s">
+        <v>156</v>
+      </c>
+      <c r="I39" s="123">
+        <v>0.5</v>
+      </c>
+      <c r="J39" s="73"/>
+      <c r="L39" s="19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="127"/>
+      <c r="C40" s="134"/>
+      <c r="D40" s="86"/>
+      <c r="E40" s="86"/>
+      <c r="F40" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="H40" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="I40" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="J40" s="73"/>
+      <c r="L40" s="19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="B41" s="127"/>
+      <c r="C41" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" s="12"/>
+      <c r="E41" s="119"/>
+      <c r="F41" s="119"/>
+      <c r="H41" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="I41" s="136" t="s">
+        <v>377</v>
+      </c>
+      <c r="J41" s="119"/>
+      <c r="L41" s="19" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B42" s="127" t="s">
+        <v>258</v>
+      </c>
+      <c r="C42" s="120" t="s">
+        <v>275</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="E42" s="119"/>
+      <c r="F42" s="119"/>
+      <c r="H42" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="I42" s="11"/>
+      <c r="J42" s="119"/>
+      <c r="L42" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B43" s="127"/>
+      <c r="C43" s="120"/>
+      <c r="D43" s="121" t="s">
+        <v>274</v>
+      </c>
+      <c r="E43" s="119"/>
+      <c r="F43" s="119"/>
+      <c r="H43" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="I43" s="11"/>
+      <c r="J43" s="119"/>
+      <c r="K43" s="98" t="s">
+        <v>318</v>
+      </c>
+      <c r="L43" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B44" s="127"/>
+      <c r="C44" s="120"/>
+      <c r="D44" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="E44" s="119"/>
+      <c r="F44" s="119"/>
+      <c r="H44" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="I44" s="11"/>
+      <c r="J44" s="119"/>
+      <c r="L44" s="19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B45" s="127"/>
+      <c r="C45" s="120"/>
+      <c r="D45" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="E45" s="119"/>
+      <c r="F45" s="119"/>
+      <c r="H45" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="I45" s="11"/>
+      <c r="J45" s="119"/>
+      <c r="L45" s="19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B46" s="127"/>
+      <c r="C46" s="120"/>
+      <c r="D46" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="E46" s="119"/>
+      <c r="F46" s="119"/>
+      <c r="H46" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="I46" s="11"/>
+      <c r="J46" s="119"/>
+      <c r="L46" s="19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B47" s="127"/>
+      <c r="C47" s="120" t="s">
+        <v>276</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="E47" s="119"/>
+      <c r="F47" s="119"/>
+      <c r="H47" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="I47" s="11"/>
+      <c r="J47" s="119"/>
+      <c r="L47" s="19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B48" s="127"/>
+      <c r="C48" s="120"/>
+      <c r="D48" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E48" s="119"/>
+      <c r="F48" s="119"/>
+      <c r="H48" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="I48" s="11"/>
+      <c r="J48" s="119"/>
+      <c r="L48" s="19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B49" s="127"/>
+      <c r="C49" s="120"/>
+      <c r="D49" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="E49" s="119"/>
+      <c r="F49" s="119"/>
+      <c r="H49" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="I49" s="11"/>
+      <c r="J49" s="119"/>
+      <c r="L49" s="19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B50" s="127" t="s">
+        <v>310</v>
+      </c>
+      <c r="C50" s="122" t="s">
+        <v>290</v>
+      </c>
+      <c r="D50" s="119"/>
+      <c r="E50" s="119"/>
+      <c r="F50" s="119"/>
+      <c r="H50" s="95" t="s">
+        <v>331</v>
+      </c>
+      <c r="I50" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="J50" s="119"/>
+      <c r="L50" s="19" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B51" s="127"/>
+      <c r="C51" s="122" t="s">
+        <v>291</v>
+      </c>
+      <c r="D51" s="119"/>
+      <c r="E51" s="119"/>
+      <c r="F51" s="119"/>
+      <c r="H51" s="95" t="s">
+        <v>331</v>
+      </c>
+      <c r="I51" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="J51" s="119"/>
+      <c r="L51" s="19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B52" s="127"/>
+      <c r="C52" s="120" t="s">
+        <v>259</v>
+      </c>
+      <c r="D52" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="E52" s="119"/>
+      <c r="F52" s="119"/>
+      <c r="H52" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="I52" s="113">
+        <v>7</v>
+      </c>
+      <c r="J52" s="119"/>
+      <c r="L52" s="19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B53" s="127"/>
+      <c r="C53" s="120"/>
+      <c r="D53" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="E53" s="119"/>
+      <c r="F53" s="119"/>
+      <c r="H53" s="129" t="s">
+        <v>91</v>
+      </c>
+      <c r="I53" s="125" t="s">
+        <v>320</v>
+      </c>
+      <c r="J53" s="119"/>
+      <c r="L53" s="19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B54" s="127"/>
+      <c r="C54" s="120"/>
+      <c r="D54" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="E54" s="119"/>
+      <c r="F54" s="119"/>
+      <c r="H54" s="95" t="s">
+        <v>331</v>
+      </c>
+      <c r="I54" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="J54" s="119"/>
+      <c r="K54" s="97" t="s">
+        <v>341</v>
+      </c>
+      <c r="L54" s="19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B55" s="127"/>
+      <c r="C55" s="120"/>
+      <c r="D55" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="E55" s="119"/>
+      <c r="F55" s="119"/>
+      <c r="H55" s="129" t="s">
+        <v>91</v>
+      </c>
+      <c r="I55" s="125" t="s">
+        <v>320</v>
+      </c>
+      <c r="J55" s="119"/>
+      <c r="L55" s="19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="B56" s="127"/>
+      <c r="C56" s="120"/>
+      <c r="D56" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="E56" s="119"/>
+      <c r="F56" s="119"/>
+      <c r="H56" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="I56" s="125" t="s">
+        <v>320</v>
+      </c>
+      <c r="J56" s="119"/>
+      <c r="K56" s="97" t="s">
+        <v>342</v>
+      </c>
+      <c r="L56" s="19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B57" s="127" t="s">
+        <v>257</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="E57" s="119"/>
+      <c r="F57" s="119"/>
+      <c r="H57" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="I57" s="113">
         <v>100</v>
       </c>
-      <c r="M13" s="119"/>
-      <c r="O13" s="19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="118"/>
-      <c r="C14" s="117">
-        <v>2</v>
-      </c>
-      <c r="E14" s="131"/>
-      <c r="F14" s="19" t="s">
-        <v>285</v>
-      </c>
-      <c r="G14" s="119"/>
-      <c r="H14" s="119"/>
-      <c r="I14" s="119"/>
-      <c r="K14" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="L14" s="110" t="s">
-        <v>101</v>
-      </c>
-      <c r="M14" s="119"/>
-      <c r="O14" s="19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="118"/>
-      <c r="C15" s="117">
-        <v>2</v>
-      </c>
-      <c r="E15" s="131"/>
-      <c r="F15" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="G15" s="119"/>
-      <c r="H15" s="119"/>
-      <c r="I15" s="119"/>
-      <c r="K15" s="20" t="s">
+      <c r="J57" s="119"/>
+      <c r="K57" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="L57" s="19" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B58" s="127"/>
+      <c r="C58" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="D58" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="E58" s="119"/>
+      <c r="F58" s="119"/>
+      <c r="H58" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="L15" s="110" t="s">
-        <v>102</v>
-      </c>
-      <c r="M15" s="119"/>
-      <c r="O15" s="19" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="118"/>
-      <c r="C16" s="117">
-        <v>2</v>
-      </c>
-      <c r="E16" s="131"/>
-      <c r="F16" s="120" t="s">
-        <v>262</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>378</v>
-      </c>
-      <c r="H16" s="119"/>
-      <c r="I16" s="119"/>
-      <c r="K16" s="20" t="s">
+      <c r="I58" s="113" t="s">
+        <v>107</v>
+      </c>
+      <c r="J58" s="119"/>
+      <c r="K58" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="L58" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B59" s="127"/>
+      <c r="C59" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="D59" s="119"/>
+      <c r="E59" s="119"/>
+      <c r="F59" s="119"/>
+      <c r="H59" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="I59" s="11"/>
+      <c r="J59" s="119"/>
+      <c r="L59" s="48" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B60" s="127"/>
+      <c r="C60" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="D60" s="119"/>
+      <c r="E60" s="119"/>
+      <c r="F60" s="119"/>
+      <c r="H60" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="I60" s="113" t="s">
+        <v>393</v>
+      </c>
+      <c r="J60" s="119"/>
+      <c r="L60" s="48" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B61" s="127"/>
+      <c r="C61" s="120" t="s">
+        <v>266</v>
+      </c>
+      <c r="D61" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="E61" s="119"/>
+      <c r="F61" s="119"/>
+      <c r="H61" s="107" t="s">
+        <v>333</v>
+      </c>
+      <c r="I61" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="J61" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="L61" s="19" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B62" s="127"/>
+      <c r="C62" s="120"/>
+      <c r="D62" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="E62" s="119"/>
+      <c r="F62" s="119"/>
+      <c r="H62" s="107" t="s">
+        <v>334</v>
+      </c>
+      <c r="I62" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="J62" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="L62" s="19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B63" s="127"/>
+      <c r="C63" s="86" t="s">
+        <v>311</v>
+      </c>
+      <c r="D63" s="139" t="s">
+        <v>298</v>
+      </c>
+      <c r="E63" s="119"/>
+      <c r="F63" s="119"/>
+      <c r="H63" s="129" t="s">
+        <v>91</v>
+      </c>
+      <c r="I63" s="125" t="s">
+        <v>321</v>
+      </c>
+      <c r="J63" s="119"/>
+      <c r="L63" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B64" s="127"/>
+      <c r="C64" s="86"/>
+      <c r="D64" s="139" t="s">
+        <v>302</v>
+      </c>
+      <c r="E64" s="119"/>
+      <c r="F64" s="119"/>
+      <c r="H64" s="95" t="s">
+        <v>331</v>
+      </c>
+      <c r="I64" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="J64" s="119"/>
+      <c r="L64" s="19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B65" s="127"/>
+      <c r="C65" s="86"/>
+      <c r="D65" s="139" t="s">
+        <v>300</v>
+      </c>
+      <c r="E65" s="119"/>
+      <c r="F65" s="119"/>
+      <c r="H65" s="105" t="s">
+        <v>332</v>
+      </c>
+      <c r="I65" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="J65" s="119"/>
+      <c r="L65" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B66" s="127"/>
+      <c r="C66" s="86"/>
+      <c r="D66" s="139" t="s">
+        <v>294</v>
+      </c>
+      <c r="E66" s="119"/>
+      <c r="F66" s="119"/>
+      <c r="H66" s="107" t="s">
+        <v>333</v>
+      </c>
+      <c r="I66" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="J66" s="135" t="s">
+        <v>224</v>
+      </c>
+      <c r="L66" s="19" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B67" s="127"/>
+      <c r="C67" s="120" t="s">
+        <v>265</v>
+      </c>
+      <c r="D67" s="139" t="s">
+        <v>298</v>
+      </c>
+      <c r="E67" s="119"/>
+      <c r="F67" s="119"/>
+      <c r="H67" s="129" t="s">
+        <v>91</v>
+      </c>
+      <c r="I67" s="125" t="s">
+        <v>320</v>
+      </c>
+      <c r="J67" s="119"/>
+      <c r="L67" s="19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B68" s="127"/>
+      <c r="C68" s="120"/>
+      <c r="D68" s="139" t="s">
+        <v>299</v>
+      </c>
+      <c r="E68" s="119"/>
+      <c r="F68" s="119"/>
+      <c r="H68" s="95" t="s">
+        <v>331</v>
+      </c>
+      <c r="I68" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="J68" s="119"/>
+      <c r="L68" s="19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B69" s="127"/>
+      <c r="C69" s="120"/>
+      <c r="D69" s="139" t="s">
+        <v>300</v>
+      </c>
+      <c r="E69" s="119"/>
+      <c r="F69" s="119"/>
+      <c r="H69" s="105" t="s">
+        <v>332</v>
+      </c>
+      <c r="I69" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="J69" s="119"/>
+      <c r="L69" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B70" s="127"/>
+      <c r="C70" s="120"/>
+      <c r="D70" s="139" t="s">
+        <v>295</v>
+      </c>
+      <c r="E70" s="119"/>
+      <c r="F70" s="119"/>
+      <c r="H70" s="107" t="s">
+        <v>334</v>
+      </c>
+      <c r="I70" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="J70" s="40" t="s">
+        <v>223</v>
+      </c>
+      <c r="L70" s="19" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B71" s="127"/>
+      <c r="C71" s="120"/>
+      <c r="D71" s="139" t="s">
+        <v>367</v>
+      </c>
+      <c r="E71" s="119"/>
+      <c r="F71" s="119"/>
+      <c r="H71" s="126"/>
+      <c r="I71" s="125" t="s">
+        <v>320</v>
+      </c>
+      <c r="J71" s="119"/>
+      <c r="K71" s="124" t="s">
+        <v>366</v>
+      </c>
+      <c r="L71" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B72" s="127"/>
+      <c r="C72" s="120"/>
+      <c r="D72" s="139" t="s">
+        <v>368</v>
+      </c>
+      <c r="E72" s="119"/>
+      <c r="F72" s="119"/>
+      <c r="H72" s="126"/>
+      <c r="I72" s="126"/>
+      <c r="J72" s="119"/>
+      <c r="K72" s="124" t="s">
+        <v>366</v>
+      </c>
+      <c r="L72" s="19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B73" s="127"/>
+      <c r="C73" s="120"/>
+      <c r="D73" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="E73" s="119"/>
+      <c r="F73" s="119"/>
+      <c r="H73" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="I73" s="113" t="s">
+        <v>327</v>
+      </c>
+      <c r="J73" s="119"/>
+      <c r="L73" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B74" s="127"/>
+      <c r="C74" s="120"/>
+      <c r="D74" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="E74" s="119"/>
+      <c r="F74" s="119"/>
+      <c r="H74" s="129" t="s">
+        <v>91</v>
+      </c>
+      <c r="I74" s="125" t="s">
+        <v>99</v>
+      </c>
+      <c r="J74" s="119"/>
+      <c r="L74" s="19" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B75" s="127"/>
+      <c r="C75" s="120"/>
+      <c r="D75" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="E75" s="119"/>
+      <c r="F75" s="119"/>
+      <c r="H75" s="129" t="s">
+        <v>91</v>
+      </c>
+      <c r="I75" s="125" t="s">
+        <v>99</v>
+      </c>
+      <c r="J75" s="119"/>
+      <c r="L75" s="19" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B76" s="127" t="s">
+        <v>260</v>
+      </c>
+      <c r="C76" s="19" t="s">
+        <v>304</v>
+      </c>
+      <c r="D76" s="119"/>
+      <c r="E76" s="119"/>
+      <c r="F76" s="119"/>
+      <c r="H76" s="129" t="s">
         <v>317</v>
       </c>
-      <c r="L16" s="110" t="b">
+      <c r="I76" s="113" t="b">
+        <v>1</v>
+      </c>
+      <c r="J76" s="119"/>
+      <c r="L76" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" ht="21" x14ac:dyDescent="0.2">
+      <c r="B77" s="127"/>
+      <c r="C77" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="D77" s="119"/>
+      <c r="E77" s="119"/>
+      <c r="F77" s="119"/>
+      <c r="G77" s="118"/>
+      <c r="H77" s="129" t="s">
+        <v>338</v>
+      </c>
+      <c r="I77" s="113" t="s">
+        <v>125</v>
+      </c>
+      <c r="J77" s="119"/>
+      <c r="L77" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B78" s="127"/>
+      <c r="C78" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="D78" s="119"/>
+      <c r="E78" s="119"/>
+      <c r="F78" s="119"/>
+      <c r="H78" s="129" t="s">
+        <v>338</v>
+      </c>
+      <c r="I78" s="124" t="s">
+        <v>340</v>
+      </c>
+      <c r="J78" s="119"/>
+      <c r="L78" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B79" s="127"/>
+      <c r="C79" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="D79" s="119"/>
+      <c r="E79" s="119"/>
+      <c r="F79" s="119"/>
+      <c r="H79" s="129" t="s">
+        <v>97</v>
+      </c>
+      <c r="I79" s="126" t="s">
+        <v>339</v>
+      </c>
+      <c r="J79" s="119"/>
+      <c r="L79" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="80" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B80" s="127"/>
+      <c r="C80" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="D80" s="119"/>
+      <c r="E80" s="119"/>
+      <c r="F80" s="119"/>
+      <c r="H80" s="129" t="s">
+        <v>91</v>
+      </c>
+      <c r="I80" s="113" t="s">
+        <v>322</v>
+      </c>
+      <c r="J80" s="119"/>
+      <c r="L80" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="81" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B81" s="127"/>
+      <c r="C81" s="86" t="s">
+        <v>307</v>
+      </c>
+      <c r="D81" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="E81" s="119"/>
+      <c r="F81" s="119"/>
+      <c r="H81" s="129" t="s">
+        <v>90</v>
+      </c>
+      <c r="I81" s="113">
         <v>0</v>
       </c>
-      <c r="M16" s="119"/>
-      <c r="N16" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="O16" s="19" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="118"/>
-      <c r="C17" s="117"/>
-      <c r="E17" s="131"/>
-      <c r="F17" s="120"/>
-      <c r="G17" s="19" t="s">
-        <v>267</v>
-      </c>
-      <c r="H17" s="119"/>
-      <c r="I17" s="119"/>
-      <c r="K17" s="138" t="s">
-        <v>91</v>
-      </c>
-      <c r="L17" s="110" t="s">
-        <v>324</v>
-      </c>
-      <c r="M17" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="O17" s="19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="118"/>
-      <c r="C18" s="117"/>
-      <c r="E18" s="131"/>
-      <c r="F18" s="120"/>
-      <c r="G18" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="H18" s="119"/>
-      <c r="I18" s="119"/>
-      <c r="K18" s="138" t="s">
-        <v>91</v>
-      </c>
-      <c r="L18" s="110" t="s">
-        <v>350</v>
-      </c>
-      <c r="M18" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="O18" s="19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="118"/>
-      <c r="C19" s="117"/>
-      <c r="E19" s="131"/>
-      <c r="F19" s="120"/>
-      <c r="G19" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="H19" s="119"/>
-      <c r="I19" s="119"/>
-      <c r="K19" s="138" t="s">
-        <v>91</v>
-      </c>
-      <c r="L19" s="110" t="s">
-        <v>349</v>
-      </c>
-      <c r="M19" s="119"/>
-      <c r="O19" s="19" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="118"/>
-      <c r="C20" s="117"/>
-      <c r="E20" s="131"/>
-      <c r="F20" s="120"/>
-      <c r="G20" s="19" t="s">
-        <v>269</v>
-      </c>
-      <c r="H20" s="119"/>
-      <c r="I20" s="119"/>
-      <c r="K20" s="138" t="s">
-        <v>91</v>
-      </c>
-      <c r="L20" s="110" t="s">
-        <v>349</v>
-      </c>
-      <c r="M20" s="119"/>
-      <c r="O20" s="19" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="118"/>
-      <c r="C21" s="117"/>
-      <c r="E21" s="131"/>
-      <c r="F21" s="120"/>
-      <c r="G21" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="H21" s="119"/>
-      <c r="I21" s="119"/>
-      <c r="K21" s="138" t="s">
-        <v>91</v>
-      </c>
-      <c r="L21" s="110" t="s">
-        <v>325</v>
-      </c>
-      <c r="M21" s="119"/>
-      <c r="O21" s="19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="118"/>
-      <c r="C22" s="117"/>
-      <c r="E22" s="131"/>
-      <c r="F22" s="120"/>
-      <c r="G22" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="H22" s="119"/>
-      <c r="I22" s="119"/>
-      <c r="K22" s="138" t="s">
-        <v>91</v>
-      </c>
-      <c r="L22" s="110" t="s">
-        <v>326</v>
-      </c>
-      <c r="M22" s="119"/>
-      <c r="O22" s="19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="118"/>
-      <c r="C23" s="117"/>
-      <c r="E23" s="131"/>
-      <c r="F23" s="54" t="s">
-        <v>357</v>
-      </c>
-      <c r="G23" s="149" t="s">
-        <v>365</v>
-      </c>
-      <c r="H23" s="119"/>
-      <c r="I23" s="119"/>
-      <c r="K23" s="138" t="s">
-        <v>91</v>
-      </c>
-      <c r="L23" s="110" t="s">
-        <v>366</v>
-      </c>
-      <c r="M23" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="O23" s="19" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="118"/>
-      <c r="C24" s="117"/>
-      <c r="E24" s="131"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="119"/>
-      <c r="I24" s="119"/>
-      <c r="K24" s="138"/>
-      <c r="L24" s="110"/>
-      <c r="M24" s="119"/>
-      <c r="O24" s="19"/>
-    </row>
-    <row r="25" spans="2:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="118"/>
-      <c r="C25" s="117"/>
-      <c r="E25" s="131"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="119"/>
-      <c r="I25" s="119"/>
-      <c r="K25" s="138"/>
-      <c r="L25" s="110"/>
-      <c r="M25" s="119"/>
-      <c r="O25" s="19"/>
-    </row>
-    <row r="26" spans="2:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="118"/>
-      <c r="C26" s="117"/>
-      <c r="E26" s="131"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="145" t="s">
-        <v>358</v>
-      </c>
-      <c r="H26" s="144" t="s">
-        <v>136</v>
-      </c>
-      <c r="I26" s="119"/>
-      <c r="K26" s="20" t="s">
+      <c r="J81" s="119"/>
+      <c r="L81" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="82" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B82" s="127"/>
+      <c r="C82" s="86"/>
+      <c r="D82" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="E82" s="119"/>
+      <c r="F82" s="119"/>
+      <c r="H82" s="129" t="s">
         <v>317</v>
       </c>
-      <c r="L26" s="110" t="b">
+      <c r="I82" s="113" t="b">
         <v>1</v>
       </c>
-      <c r="M26" s="73" t="s">
-        <v>82</v>
-      </c>
-      <c r="O26" s="19" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="27" spans="2:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="118"/>
-      <c r="C27" s="117"/>
-      <c r="E27" s="131"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="146"/>
-      <c r="H27" s="144" t="s">
-        <v>137</v>
-      </c>
-      <c r="I27" s="119"/>
-      <c r="K27" s="20" t="s">
+      <c r="J82" s="119"/>
+      <c r="L82" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="83" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B83" s="127"/>
+      <c r="C83" s="86"/>
+      <c r="D83" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="E83" s="119"/>
+      <c r="F83" s="119"/>
+      <c r="H83" s="129" t="s">
         <v>97</v>
       </c>
-      <c r="L27" s="37" t="s">
-        <v>243</v>
-      </c>
-      <c r="M27" s="73"/>
-      <c r="O27" s="19" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="28" spans="2:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="118"/>
-      <c r="C28" s="117"/>
-      <c r="E28" s="131"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="146"/>
-      <c r="H28" s="147" t="s">
-        <v>145</v>
-      </c>
-      <c r="I28" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="K28" s="137" t="s">
-        <v>141</v>
-      </c>
-      <c r="L28" s="11"/>
-      <c r="M28" s="73"/>
-      <c r="O28" s="19" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="29" spans="2:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="118"/>
-      <c r="C29" s="117"/>
-      <c r="E29" s="131"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="146"/>
-      <c r="H29" s="147"/>
-      <c r="I29" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="K29" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="L29" s="11"/>
-      <c r="M29" s="73"/>
-      <c r="O29" s="19" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="30" spans="2:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="118"/>
-      <c r="C30" s="117"/>
-      <c r="E30" s="131"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="148"/>
-      <c r="H30" s="147"/>
-      <c r="I30" s="19" t="s">
-        <v>328</v>
-      </c>
-      <c r="K30" s="101" t="s">
-        <v>329</v>
-      </c>
-      <c r="L30" s="11"/>
-      <c r="M30" s="73"/>
-      <c r="O30" s="19" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="31" spans="2:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="118"/>
-      <c r="C31" s="117">
-        <v>7</v>
-      </c>
-      <c r="E31" s="131"/>
-      <c r="F31" s="141" t="s">
-        <v>1</v>
-      </c>
-      <c r="G31" s="19" t="s">
-        <v>278</v>
-      </c>
-      <c r="H31" s="119"/>
-      <c r="I31" s="119"/>
-      <c r="K31" s="138" t="s">
-        <v>91</v>
-      </c>
-      <c r="L31" s="110" t="s">
-        <v>323</v>
-      </c>
-      <c r="M31" s="119"/>
-      <c r="O31" s="32" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="32" spans="2:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="118"/>
-      <c r="C32" s="117">
-        <v>7</v>
-      </c>
-      <c r="E32" s="131"/>
-      <c r="F32" s="142"/>
-      <c r="G32" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="H32" s="119"/>
-      <c r="I32" s="119"/>
-      <c r="K32" s="96" t="s">
-        <v>90</v>
-      </c>
-      <c r="L32" s="110">
-        <v>500</v>
-      </c>
-      <c r="M32" s="119"/>
-      <c r="O32" s="19" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="118"/>
-      <c r="C33" s="117">
-        <v>7</v>
-      </c>
-      <c r="E33" s="131"/>
-      <c r="F33" s="142"/>
-      <c r="G33" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="H33" s="119"/>
-      <c r="I33" s="119"/>
-      <c r="K33" s="96" t="s">
-        <v>90</v>
-      </c>
-      <c r="L33" s="110">
-        <v>500</v>
-      </c>
-      <c r="M33" s="119"/>
-      <c r="O33" s="32" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="118"/>
-      <c r="C34" s="136">
-        <v>7</v>
-      </c>
-      <c r="E34" s="131"/>
-      <c r="F34" s="142"/>
-      <c r="G34" s="85" t="s">
-        <v>150</v>
-      </c>
-      <c r="H34" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="I34" s="119"/>
-      <c r="K34" s="20" t="s">
-        <v>317</v>
-      </c>
-      <c r="L34" s="110" t="b">
-        <v>1</v>
-      </c>
-      <c r="M34" s="73" t="s">
-        <v>60</v>
-      </c>
-      <c r="O34" s="19" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="35" spans="2:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="118"/>
-      <c r="C35" s="136"/>
-      <c r="E35" s="131"/>
-      <c r="F35" s="142"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="I35" s="119"/>
-      <c r="K35" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="L35" s="110" t="s">
-        <v>150</v>
-      </c>
-      <c r="M35" s="73"/>
-      <c r="O35" s="19" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="36" spans="2:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="118"/>
-      <c r="C36" s="136"/>
-      <c r="E36" s="131"/>
-      <c r="F36" s="142"/>
-      <c r="G36" s="85"/>
-      <c r="H36" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="I36" s="119"/>
-      <c r="K36" s="20" t="s">
-        <v>317</v>
-      </c>
-      <c r="L36" s="110" t="b">
-        <v>0</v>
-      </c>
-      <c r="M36" s="73"/>
-      <c r="O36" s="19" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="118"/>
-      <c r="C37" s="136"/>
-      <c r="E37" s="131"/>
-      <c r="F37" s="142"/>
-      <c r="G37" s="85"/>
-      <c r="H37" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="I37" s="119"/>
-      <c r="K37" s="20" t="s">
-        <v>317</v>
-      </c>
-      <c r="L37" s="110" t="b">
-        <v>0</v>
-      </c>
-      <c r="M37" s="73"/>
-      <c r="O37" s="19" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="38" spans="2:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="118"/>
-      <c r="C38" s="136"/>
-      <c r="E38" s="131"/>
-      <c r="F38" s="142"/>
-      <c r="G38" s="85"/>
-      <c r="H38" s="85" t="s">
-        <v>145</v>
-      </c>
-      <c r="I38" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="K38" s="137" t="s">
-        <v>141</v>
-      </c>
-      <c r="L38" s="11"/>
-      <c r="M38" s="73"/>
-      <c r="O38" s="19" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="39" spans="2:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="118"/>
-      <c r="C39" s="136"/>
-      <c r="E39" s="131"/>
-      <c r="F39" s="142"/>
-      <c r="G39" s="85"/>
-      <c r="H39" s="85"/>
-      <c r="I39" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="K39" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="L39" s="11"/>
-      <c r="M39" s="73"/>
-      <c r="O39" s="19" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="40" spans="2:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="118"/>
-      <c r="C40" s="136"/>
-      <c r="E40" s="131"/>
-      <c r="F40" s="142"/>
-      <c r="G40" s="85"/>
-      <c r="H40" s="85"/>
-      <c r="I40" s="19" t="s">
-        <v>328</v>
-      </c>
-      <c r="K40" s="101" t="s">
-        <v>329</v>
-      </c>
-      <c r="L40" s="11"/>
-      <c r="M40" s="73"/>
-      <c r="O40" s="19" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="41" spans="2:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="118"/>
-      <c r="C41" s="136"/>
-      <c r="E41" s="131"/>
-      <c r="F41" s="142"/>
-      <c r="G41" s="85"/>
-      <c r="H41" s="85" t="s">
-        <v>140</v>
-      </c>
-      <c r="I41" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="K41" s="137" t="s">
-        <v>141</v>
-      </c>
-      <c r="L41" s="110" t="s">
-        <v>158</v>
-      </c>
-      <c r="M41" s="73"/>
-      <c r="O41" s="19" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="42" spans="2:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="118"/>
-      <c r="C42" s="136"/>
-      <c r="E42" s="131"/>
-      <c r="F42" s="142"/>
-      <c r="G42" s="85"/>
-      <c r="H42" s="85"/>
-      <c r="I42" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="K42" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="L42" s="110" t="s">
-        <v>150</v>
-      </c>
-      <c r="M42" s="73"/>
-      <c r="O42" s="19" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="43" spans="2:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="118"/>
-      <c r="C43" s="136"/>
-      <c r="E43" s="131"/>
-      <c r="F43" s="142"/>
-      <c r="G43" s="85"/>
-      <c r="H43" s="85"/>
-      <c r="I43" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="K43" s="96" t="s">
-        <v>156</v>
-      </c>
-      <c r="L43" s="127">
-        <v>0.5</v>
-      </c>
-      <c r="M43" s="73"/>
-      <c r="O43" s="19" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="44" spans="2:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="118"/>
-      <c r="C44" s="136"/>
-      <c r="E44" s="131"/>
-      <c r="F44" s="143"/>
-      <c r="G44" s="85"/>
-      <c r="H44" s="85"/>
-      <c r="I44" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="K44" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="L44" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="M44" s="73"/>
-      <c r="O44" s="19" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="45" spans="2:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="118"/>
-      <c r="C45" s="117"/>
-      <c r="E45" s="131"/>
-      <c r="F45" s="12" t="s">
+      <c r="I83" s="125" t="s">
+        <v>106</v>
+      </c>
+      <c r="J83" s="119"/>
+      <c r="L83" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="84" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B84" s="127"/>
+      <c r="C84" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G45" s="12"/>
-      <c r="H45" s="119"/>
-      <c r="I45" s="119"/>
-      <c r="K45" s="20" t="s">
+      <c r="D84" s="119"/>
+      <c r="E84" s="119"/>
+      <c r="F84" s="119"/>
+      <c r="H84" s="129" t="s">
         <v>338</v>
       </c>
-      <c r="L45" s="156" t="s">
-        <v>380</v>
-      </c>
-      <c r="M45" s="119"/>
-      <c r="O45" s="19" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="46" spans="2:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="118"/>
-      <c r="C46" s="117"/>
-      <c r="E46" s="131" t="s">
-        <v>258</v>
-      </c>
-      <c r="F46" s="120" t="s">
-        <v>275</v>
-      </c>
-      <c r="G46" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="H46" s="119"/>
-      <c r="I46" s="119"/>
-      <c r="K46" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="L46" s="11"/>
-      <c r="M46" s="119"/>
-      <c r="O46" s="19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="47" spans="2:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="118"/>
-      <c r="C47" s="117"/>
-      <c r="E47" s="131"/>
-      <c r="F47" s="120"/>
-      <c r="G47" s="121" t="s">
-        <v>274</v>
-      </c>
-      <c r="H47" s="119"/>
-      <c r="I47" s="119"/>
-      <c r="K47" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="L47" s="11"/>
-      <c r="M47" s="119"/>
-      <c r="N47" s="95" t="s">
-        <v>318</v>
-      </c>
-      <c r="O47" s="19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="2:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="118"/>
-      <c r="C48" s="117"/>
-      <c r="E48" s="131"/>
-      <c r="F48" s="120"/>
-      <c r="G48" s="19" t="s">
-        <v>277</v>
-      </c>
-      <c r="H48" s="119"/>
-      <c r="I48" s="119"/>
-      <c r="K48" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="L48" s="11"/>
-      <c r="M48" s="119"/>
-      <c r="O48" s="19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="49" spans="2:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="118"/>
-      <c r="C49" s="117"/>
-      <c r="E49" s="131"/>
-      <c r="F49" s="120"/>
-      <c r="G49" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="H49" s="119"/>
-      <c r="I49" s="119"/>
-      <c r="K49" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="L49" s="11"/>
-      <c r="M49" s="119"/>
-      <c r="O49" s="19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50" spans="2:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="118"/>
-      <c r="C50" s="117"/>
-      <c r="E50" s="131"/>
-      <c r="F50" s="120"/>
-      <c r="G50" s="19" t="s">
-        <v>273</v>
-      </c>
-      <c r="H50" s="119"/>
-      <c r="I50" s="119"/>
-      <c r="K50" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="L50" s="11"/>
-      <c r="M50" s="119"/>
-      <c r="O50" s="19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="51" spans="2:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="118"/>
-      <c r="C51" s="117"/>
-      <c r="E51" s="131"/>
-      <c r="F51" s="120" t="s">
-        <v>276</v>
-      </c>
-      <c r="G51" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="H51" s="119"/>
-      <c r="I51" s="119"/>
-      <c r="K51" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="L51" s="11"/>
-      <c r="M51" s="119"/>
-      <c r="O51" s="19" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="52" spans="2:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="118"/>
-      <c r="C52" s="117"/>
-      <c r="E52" s="131"/>
-      <c r="F52" s="120"/>
-      <c r="G52" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H52" s="119"/>
-      <c r="I52" s="119"/>
-      <c r="K52" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="L52" s="11"/>
-      <c r="M52" s="119"/>
-      <c r="O52" s="19" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="53" spans="2:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="118"/>
-      <c r="C53" s="117"/>
-      <c r="E53" s="131"/>
-      <c r="F53" s="120"/>
-      <c r="G53" s="19" t="s">
-        <v>273</v>
-      </c>
-      <c r="H53" s="119"/>
-      <c r="I53" s="119"/>
-      <c r="K53" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="L53" s="11"/>
-      <c r="M53" s="119"/>
-      <c r="O53" s="19" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="54" spans="2:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="118"/>
-      <c r="C54" s="117"/>
-      <c r="E54" s="131" t="s">
-        <v>310</v>
-      </c>
-      <c r="F54" s="122" t="s">
-        <v>290</v>
-      </c>
-      <c r="G54" s="119"/>
-      <c r="H54" s="119"/>
-      <c r="I54" s="119"/>
-      <c r="K54" s="92" t="s">
-        <v>331</v>
-      </c>
-      <c r="L54" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="M54" s="119"/>
-      <c r="O54" s="19" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="55" spans="2:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="118"/>
-      <c r="C55" s="117"/>
-      <c r="E55" s="131"/>
-      <c r="F55" s="122" t="s">
-        <v>291</v>
-      </c>
-      <c r="G55" s="119"/>
-      <c r="H55" s="119"/>
-      <c r="I55" s="119"/>
-      <c r="K55" s="92" t="s">
-        <v>331</v>
-      </c>
-      <c r="L55" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="M55" s="119"/>
-      <c r="O55" s="19" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="56" spans="2:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="118"/>
-      <c r="C56" s="117"/>
-      <c r="E56" s="131"/>
-      <c r="F56" s="120" t="s">
-        <v>259</v>
-      </c>
-      <c r="G56" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="H56" s="119"/>
-      <c r="I56" s="119"/>
-      <c r="K56" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="L56" s="110">
-        <v>7</v>
-      </c>
-      <c r="M56" s="119"/>
-      <c r="O56" s="19" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="57" spans="2:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="118"/>
-      <c r="C57" s="117"/>
-      <c r="E57" s="131"/>
-      <c r="F57" s="120"/>
-      <c r="G57" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="H57" s="119"/>
-      <c r="I57" s="119"/>
-      <c r="K57" s="138" t="s">
-        <v>91</v>
-      </c>
-      <c r="L57" s="129" t="s">
-        <v>320</v>
-      </c>
-      <c r="M57" s="119"/>
-      <c r="O57" s="19" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="58" spans="2:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="118"/>
-      <c r="C58" s="117"/>
-      <c r="E58" s="131"/>
-      <c r="F58" s="120"/>
-      <c r="G58" s="19" t="s">
-        <v>314</v>
-      </c>
-      <c r="H58" s="119"/>
-      <c r="I58" s="119"/>
-      <c r="K58" s="92" t="s">
-        <v>331</v>
-      </c>
-      <c r="L58" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="M58" s="119"/>
-      <c r="N58" s="94" t="s">
-        <v>341</v>
-      </c>
-      <c r="O58" s="19" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="59" spans="2:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="118"/>
-      <c r="C59" s="117"/>
-      <c r="E59" s="131"/>
-      <c r="F59" s="120"/>
-      <c r="G59" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="H59" s="119"/>
-      <c r="I59" s="119"/>
-      <c r="K59" s="138" t="s">
-        <v>91</v>
-      </c>
-      <c r="L59" s="129" t="s">
-        <v>320</v>
-      </c>
-      <c r="M59" s="119"/>
-      <c r="O59" s="19" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="60" spans="2:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="118"/>
-      <c r="C60" s="117"/>
-      <c r="E60" s="131"/>
-      <c r="F60" s="120"/>
-      <c r="G60" s="19" t="s">
-        <v>312</v>
-      </c>
-      <c r="H60" s="119"/>
-      <c r="I60" s="119"/>
-      <c r="K60" s="20" t="s">
-        <v>338</v>
-      </c>
-      <c r="L60" s="128" t="s">
+      <c r="I84" s="124" t="s">
         <v>340</v>
       </c>
-      <c r="M60" s="119"/>
-      <c r="N60" s="94" t="s">
-        <v>342</v>
-      </c>
-      <c r="O60" s="19" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="61" spans="2:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="118"/>
-      <c r="C61" s="117"/>
-      <c r="E61" s="131" t="s">
-        <v>257</v>
-      </c>
-      <c r="F61" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="G61" s="19" t="s">
-        <v>292</v>
-      </c>
-      <c r="H61" s="119"/>
-      <c r="I61" s="119"/>
-      <c r="K61" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="L61" s="110">
-        <v>100</v>
-      </c>
-      <c r="M61" s="119"/>
-      <c r="N61" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="O61" s="19" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="62" spans="2:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="118"/>
-      <c r="C62" s="117"/>
-      <c r="E62" s="131"/>
-      <c r="F62" s="12" t="s">
-        <v>352</v>
-      </c>
-      <c r="G62" s="19" t="s">
-        <v>293</v>
-      </c>
-      <c r="H62" s="119"/>
-      <c r="I62" s="119"/>
-      <c r="K62" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="L62" s="110" t="s">
-        <v>107</v>
-      </c>
-      <c r="M62" s="119"/>
-      <c r="N62" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="O62" s="19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="2:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="118"/>
-      <c r="C63" s="117"/>
-      <c r="E63" s="131"/>
-      <c r="F63" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="G63" s="119"/>
-      <c r="H63" s="119"/>
-      <c r="I63" s="119"/>
-      <c r="K63" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="L63" s="11"/>
-      <c r="M63" s="119"/>
-      <c r="O63" s="48" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="64" spans="2:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="118"/>
-      <c r="C64" s="117"/>
-      <c r="E64" s="131"/>
-      <c r="F64" s="120" t="s">
-        <v>266</v>
-      </c>
-      <c r="G64" s="19" t="s">
-        <v>294</v>
-      </c>
-      <c r="H64" s="119"/>
-      <c r="I64" s="119"/>
-      <c r="K64" s="104" t="s">
-        <v>333</v>
-      </c>
-      <c r="L64" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="M64" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="O64" s="19" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="65" spans="2:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="118"/>
-      <c r="C65" s="117"/>
-      <c r="E65" s="131"/>
-      <c r="F65" s="120"/>
-      <c r="G65" s="19" t="s">
-        <v>295</v>
-      </c>
-      <c r="H65" s="119"/>
-      <c r="I65" s="119"/>
-      <c r="K65" s="104" t="s">
-        <v>334</v>
-      </c>
-      <c r="L65" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="M65" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="O65" s="19" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="66" spans="2:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="118"/>
-      <c r="C66" s="117"/>
-      <c r="E66" s="131"/>
-      <c r="F66" s="85" t="s">
-        <v>311</v>
-      </c>
-      <c r="G66" s="123" t="s">
-        <v>298</v>
-      </c>
-      <c r="H66" s="119"/>
-      <c r="I66" s="119"/>
-      <c r="K66" s="138" t="s">
-        <v>91</v>
-      </c>
-      <c r="L66" s="129" t="s">
-        <v>321</v>
-      </c>
-      <c r="M66" s="119"/>
-      <c r="O66" s="19" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="67" spans="2:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="118"/>
-      <c r="C67" s="117"/>
-      <c r="E67" s="131"/>
-      <c r="F67" s="85"/>
-      <c r="G67" s="124" t="s">
-        <v>302</v>
-      </c>
-      <c r="H67" s="119"/>
-      <c r="I67" s="119"/>
-      <c r="K67" s="92" t="s">
-        <v>331</v>
-      </c>
-      <c r="L67" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="M67" s="119"/>
-      <c r="O67" s="19" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="68" spans="2:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="118"/>
-      <c r="C68" s="117"/>
-      <c r="E68" s="131"/>
-      <c r="F68" s="85"/>
-      <c r="G68" s="125" t="s">
-        <v>300</v>
-      </c>
-      <c r="H68" s="119"/>
-      <c r="I68" s="119"/>
-      <c r="K68" s="102" t="s">
-        <v>332</v>
-      </c>
-      <c r="L68" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="M68" s="119"/>
-      <c r="O68" s="19" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="69" spans="2:15" ht="51" x14ac:dyDescent="0.2">
-      <c r="B69" s="118"/>
-      <c r="C69" s="117"/>
-      <c r="E69" s="131"/>
-      <c r="F69" s="85"/>
-      <c r="G69" s="125" t="s">
-        <v>294</v>
-      </c>
-      <c r="H69" s="119"/>
-      <c r="I69" s="119"/>
-      <c r="K69" s="104" t="s">
-        <v>333</v>
-      </c>
-      <c r="L69" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="M69" s="150" t="s">
-        <v>224</v>
-      </c>
-      <c r="O69" s="19" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="70" spans="2:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="118"/>
-      <c r="C70" s="117"/>
-      <c r="E70" s="131"/>
-      <c r="F70" s="120" t="s">
-        <v>265</v>
-      </c>
-      <c r="G70" s="123" t="s">
-        <v>298</v>
-      </c>
-      <c r="H70" s="119"/>
-      <c r="I70" s="119"/>
-      <c r="K70" s="138" t="s">
-        <v>91</v>
-      </c>
-      <c r="L70" s="129" t="s">
-        <v>320</v>
-      </c>
-      <c r="M70" s="119"/>
-      <c r="O70" s="19" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="71" spans="2:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="118"/>
-      <c r="C71" s="117"/>
-      <c r="E71" s="131"/>
-      <c r="F71" s="120"/>
-      <c r="G71" s="124" t="s">
-        <v>299</v>
-      </c>
-      <c r="H71" s="119"/>
-      <c r="I71" s="119"/>
-      <c r="K71" s="92" t="s">
-        <v>331</v>
-      </c>
-      <c r="L71" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="M71" s="119"/>
-      <c r="O71" s="19" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="72" spans="2:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="118"/>
-      <c r="C72" s="117"/>
-      <c r="E72" s="131"/>
-      <c r="F72" s="120"/>
-      <c r="G72" s="125" t="s">
-        <v>300</v>
-      </c>
-      <c r="H72" s="119"/>
-      <c r="I72" s="119"/>
-      <c r="K72" s="102" t="s">
-        <v>332</v>
-      </c>
-      <c r="L72" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="M72" s="119"/>
-      <c r="O72" s="19" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="73" spans="2:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="118"/>
-      <c r="C73" s="117"/>
-      <c r="E73" s="131"/>
-      <c r="F73" s="120"/>
-      <c r="G73" s="125" t="s">
-        <v>295</v>
-      </c>
-      <c r="H73" s="119"/>
-      <c r="I73" s="119"/>
-      <c r="K73" s="104" t="s">
-        <v>334</v>
-      </c>
-      <c r="L73" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="M73" s="40" t="s">
-        <v>223</v>
-      </c>
-      <c r="O73" s="19" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="74" spans="2:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="118"/>
-      <c r="C74" s="117"/>
-      <c r="E74" s="131"/>
-      <c r="F74" s="120"/>
-      <c r="G74" s="144" t="s">
-        <v>369</v>
-      </c>
-      <c r="H74" s="119"/>
-      <c r="I74" s="119"/>
-      <c r="K74" s="130" t="s">
-        <v>339</v>
-      </c>
-      <c r="L74" s="130" t="s">
-        <v>339</v>
-      </c>
-      <c r="M74" s="119"/>
-      <c r="N74" s="128" t="s">
-        <v>368</v>
-      </c>
-      <c r="O74" s="19" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="75" spans="2:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="118"/>
-      <c r="C75" s="117"/>
-      <c r="E75" s="131"/>
-      <c r="F75" s="120"/>
-      <c r="G75" s="144" t="s">
-        <v>370</v>
-      </c>
-      <c r="H75" s="119"/>
-      <c r="I75" s="119"/>
-      <c r="K75" s="130" t="s">
-        <v>339</v>
-      </c>
-      <c r="L75" s="130" t="s">
-        <v>339</v>
-      </c>
-      <c r="M75" s="119"/>
-      <c r="N75" s="128" t="s">
-        <v>368</v>
-      </c>
-      <c r="O75" s="19" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="76" spans="2:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="118"/>
-      <c r="C76" s="117"/>
-      <c r="E76" s="131"/>
-      <c r="F76" s="120"/>
-      <c r="G76" s="19" t="s">
-        <v>301</v>
-      </c>
-      <c r="H76" s="119"/>
-      <c r="I76" s="119"/>
-      <c r="K76" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="L76" s="110" t="s">
-        <v>327</v>
-      </c>
-      <c r="M76" s="119"/>
-      <c r="O76" s="19" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="77" spans="2:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="118"/>
-      <c r="C77" s="117"/>
-      <c r="E77" s="131"/>
-      <c r="F77" s="120"/>
-      <c r="G77" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="H77" s="119"/>
-      <c r="I77" s="119"/>
-      <c r="K77" s="138" t="s">
-        <v>91</v>
-      </c>
-      <c r="L77" s="129" t="s">
-        <v>99</v>
-      </c>
-      <c r="M77" s="119"/>
-      <c r="O77" s="19" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="78" spans="2:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="118"/>
-      <c r="C78" s="117"/>
-      <c r="E78" s="131"/>
-      <c r="F78" s="120"/>
-      <c r="G78" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="H78" s="119"/>
-      <c r="I78" s="119"/>
-      <c r="K78" s="138" t="s">
-        <v>91</v>
-      </c>
-      <c r="L78" s="129" t="s">
-        <v>99</v>
-      </c>
-      <c r="M78" s="119"/>
-      <c r="O78" s="19" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="79" spans="2:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="118"/>
-      <c r="C79" s="117"/>
-      <c r="E79" s="131" t="s">
-        <v>260</v>
-      </c>
-      <c r="F79" s="19" t="s">
-        <v>304</v>
-      </c>
-      <c r="G79" s="119"/>
-      <c r="H79" s="119"/>
-      <c r="I79" s="119"/>
-      <c r="K79" s="138" t="s">
-        <v>317</v>
-      </c>
-      <c r="L79" s="110" t="b">
-        <v>1</v>
-      </c>
-      <c r="M79" s="119"/>
-      <c r="O79" s="19" t="s">
+      <c r="J84" s="119"/>
+      <c r="L84" s="19" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="80" spans="2:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="118"/>
-      <c r="C80" s="117"/>
-      <c r="E80" s="131"/>
-      <c r="F80" s="19" t="s">
-        <v>305</v>
-      </c>
-      <c r="G80" s="119"/>
-      <c r="H80" s="119"/>
-      <c r="I80" s="119"/>
-      <c r="J80" s="116"/>
-      <c r="K80" s="138" t="s">
-        <v>338</v>
-      </c>
-      <c r="L80" s="110" t="s">
-        <v>125</v>
-      </c>
-      <c r="M80" s="119"/>
-      <c r="O80" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="81" spans="2:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="118"/>
-      <c r="C81" s="117"/>
-      <c r="E81" s="131"/>
-      <c r="F81" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="G81" s="119"/>
-      <c r="H81" s="119"/>
-      <c r="I81" s="119"/>
-      <c r="K81" s="138" t="s">
-        <v>338</v>
-      </c>
-      <c r="L81" s="128" t="s">
-        <v>340</v>
-      </c>
-      <c r="M81" s="119"/>
-      <c r="O81" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="82" spans="2:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="118"/>
-      <c r="C82" s="117"/>
-      <c r="E82" s="131"/>
-      <c r="F82" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="G82" s="119"/>
-      <c r="H82" s="119"/>
-      <c r="I82" s="119"/>
-      <c r="K82" s="138" t="s">
-        <v>97</v>
-      </c>
-      <c r="L82" s="130" t="s">
-        <v>339</v>
-      </c>
-      <c r="M82" s="119"/>
-      <c r="O82" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="83" spans="2:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="118"/>
-      <c r="C83" s="117"/>
-      <c r="E83" s="131"/>
-      <c r="F83" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="G83" s="119"/>
-      <c r="H83" s="119"/>
-      <c r="I83" s="119"/>
-      <c r="K83" s="138" t="s">
-        <v>91</v>
-      </c>
-      <c r="L83" s="110" t="s">
-        <v>322</v>
-      </c>
-      <c r="M83" s="119"/>
-      <c r="O83" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="84" spans="2:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="118"/>
-      <c r="C84" s="117"/>
-      <c r="E84" s="131"/>
-      <c r="F84" s="85" t="s">
-        <v>307</v>
-      </c>
-      <c r="G84" s="19" t="s">
-        <v>308</v>
-      </c>
-      <c r="H84" s="119"/>
-      <c r="I84" s="119"/>
-      <c r="K84" s="138" t="s">
-        <v>90</v>
-      </c>
-      <c r="L84" s="110">
-        <v>0</v>
-      </c>
-      <c r="M84" s="119"/>
-      <c r="O84" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="85" spans="2:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="118"/>
-      <c r="C85" s="117"/>
-      <c r="E85" s="131"/>
-      <c r="F85" s="85"/>
-      <c r="G85" s="19" t="s">
-        <v>305</v>
-      </c>
-      <c r="H85" s="119"/>
-      <c r="I85" s="119"/>
-      <c r="K85" s="138" t="s">
-        <v>317</v>
-      </c>
-      <c r="L85" s="110" t="b">
-        <v>1</v>
-      </c>
-      <c r="M85" s="119"/>
-      <c r="O85" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="86" spans="2:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="118"/>
-      <c r="C86" s="117"/>
-      <c r="E86" s="131"/>
-      <c r="F86" s="85"/>
-      <c r="G86" s="19" t="s">
-        <v>309</v>
-      </c>
-      <c r="H86" s="119"/>
-      <c r="I86" s="119"/>
-      <c r="K86" s="138" t="s">
-        <v>97</v>
-      </c>
-      <c r="L86" s="129" t="s">
-        <v>106</v>
-      </c>
-      <c r="M86" s="119"/>
-      <c r="O86" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="87" spans="2:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="118"/>
-      <c r="C87" s="117"/>
-      <c r="E87" s="131"/>
-      <c r="F87" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G87" s="119"/>
-      <c r="H87" s="119"/>
-      <c r="I87" s="119"/>
-      <c r="K87" s="138" t="s">
-        <v>338</v>
-      </c>
-      <c r="L87" s="128" t="s">
-        <v>340</v>
-      </c>
-      <c r="M87" s="119"/>
-      <c r="O87" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="88" spans="2:15" ht="21" x14ac:dyDescent="0.2">
-      <c r="B88" s="118"/>
-      <c r="C88" s="117"/>
-      <c r="E88" s="4"/>
-      <c r="K88" s="139"/>
-    </row>
-    <row r="89" spans="2:15" ht="21" x14ac:dyDescent="0.2">
-      <c r="B89" s="118"/>
-      <c r="C89" s="117"/>
-      <c r="E89" s="4"/>
-    </row>
-    <row r="90" spans="2:15" ht="21" x14ac:dyDescent="0.2">
-      <c r="B90" s="118"/>
-      <c r="C90" s="117"/>
-    </row>
-    <row r="91" spans="2:15" ht="21" x14ac:dyDescent="0.2">
-      <c r="B91" s="118"/>
-      <c r="C91" s="117"/>
-    </row>
-    <row r="92" spans="2:15" ht="21" x14ac:dyDescent="0.2">
-      <c r="B92" s="118"/>
-      <c r="C92" s="117"/>
-    </row>
-    <row r="93" spans="2:15" ht="21" x14ac:dyDescent="0.2">
-      <c r="B93" s="118"/>
-      <c r="C93" s="117"/>
-    </row>
-    <row r="94" spans="2:15" ht="21" x14ac:dyDescent="0.2">
-      <c r="B94" s="118"/>
-      <c r="C94" s="117"/>
-    </row>
-    <row r="95" spans="2:15" ht="21" x14ac:dyDescent="0.2">
-      <c r="B95" s="118"/>
-      <c r="C95" s="117"/>
+    <row r="85" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B85" s="4"/>
+      <c r="H85" s="130"/>
+    </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B86" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="M26:M30"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="F84:F86"/>
-    <mergeCell ref="E79:E87"/>
-    <mergeCell ref="B12:B95"/>
-    <mergeCell ref="C34:C44"/>
-    <mergeCell ref="M34:M44"/>
-    <mergeCell ref="F56:F60"/>
-    <mergeCell ref="E54:E60"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="F66:F69"/>
-    <mergeCell ref="F70:F78"/>
-    <mergeCell ref="E61:E78"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="H41:H44"/>
-    <mergeCell ref="E12:E45"/>
-    <mergeCell ref="F46:F50"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="E46:E53"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="G26:G30"/>
-    <mergeCell ref="F23:F30"/>
-    <mergeCell ref="F16:F22"/>
-    <mergeCell ref="F31:F44"/>
-    <mergeCell ref="G34:G44"/>
+  <autoFilter ref="A8:Q85" xr:uid="{A1BDED05-2692-1A4C-AE88-144C5CD07E39}"/>
+  <mergeCells count="23">
+    <mergeCell ref="J22:J26"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B10:B41"/>
+    <mergeCell ref="C81:C83"/>
+    <mergeCell ref="B76:B84"/>
+    <mergeCell ref="J30:J40"/>
+    <mergeCell ref="C52:C56"/>
+    <mergeCell ref="B50:B56"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="C63:C66"/>
+    <mergeCell ref="C67:C75"/>
+    <mergeCell ref="B57:B75"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="E37:E40"/>
+    <mergeCell ref="C42:C46"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="B42:B49"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="C20:C26"/>
+    <mergeCell ref="C13:C19"/>
+    <mergeCell ref="C27:C40"/>
+    <mergeCell ref="D30:D40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7049,7 +7389,7 @@
         <v>180</v>
       </c>
       <c r="M75" s="22"/>
-      <c r="O75" s="81" t="s">
+      <c r="O75" s="82" t="s">
         <v>95</v>
       </c>
       <c r="P75" s="4" t="s">
@@ -7684,12 +8024,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" ht="31" x14ac:dyDescent="0.35">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="89" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:70" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="95" t="s">
         <v>331</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -7697,7 +8037,7 @@
       </c>
     </row>
     <row r="4" spans="1:70" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="105" t="s">
         <v>332</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -7705,7 +8045,7 @@
       </c>
     </row>
     <row r="5" spans="1:70" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="103" t="s">
+      <c r="B5" s="106" t="s">
         <v>333</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -7713,7 +8053,7 @@
       </c>
     </row>
     <row r="6" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="104" t="s">
+      <c r="B6" s="107" t="s">
         <v>334</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -7721,74 +8061,74 @@
       </c>
     </row>
     <row r="13" spans="1:70" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E13" s="82" t="s">
+      <c r="E13" s="83" t="s">
         <v>264</v>
       </c>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="82"/>
-      <c r="M13" s="82"/>
-      <c r="N13" s="82"/>
-      <c r="O13" s="82"/>
-      <c r="P13" s="82"/>
-      <c r="Q13" s="82"/>
-      <c r="R13" s="82"/>
-      <c r="S13" s="82"/>
-      <c r="T13" s="82"/>
-      <c r="U13" s="82"/>
-      <c r="V13" s="82"/>
-      <c r="W13" s="82"/>
-      <c r="X13" s="82"/>
-      <c r="Y13" s="82"/>
-      <c r="Z13" s="82"/>
-      <c r="AA13" s="82"/>
-      <c r="AB13" s="82"/>
-      <c r="AC13" s="82"/>
-      <c r="AD13" s="82"/>
-      <c r="AE13" s="82"/>
-      <c r="AF13" s="82"/>
-      <c r="AG13" s="82"/>
-      <c r="AH13" s="82"/>
-      <c r="AI13" s="82"/>
-      <c r="AJ13" s="82"/>
-      <c r="AK13" s="82"/>
-      <c r="AL13" s="82"/>
-      <c r="AM13" s="82"/>
-      <c r="AN13" s="82"/>
-      <c r="AO13" s="82"/>
-      <c r="AP13" s="82"/>
-      <c r="AQ13" s="82"/>
-      <c r="AR13" s="82"/>
-      <c r="AS13" s="82"/>
-      <c r="AT13" s="82"/>
-      <c r="AU13" s="82"/>
-      <c r="AV13" s="82"/>
-      <c r="AW13" s="82"/>
-      <c r="AX13" s="82"/>
-      <c r="AY13" s="82"/>
-      <c r="AZ13" s="82"/>
-      <c r="BA13" s="82"/>
-      <c r="BB13" s="82"/>
-      <c r="BC13" s="82"/>
-      <c r="BD13" s="82"/>
-      <c r="BE13" s="82"/>
-      <c r="BF13" s="82"/>
-      <c r="BG13" s="82"/>
-      <c r="BH13" s="82"/>
-      <c r="BI13" s="82"/>
-      <c r="BJ13" s="82"/>
-      <c r="BK13" s="82"/>
-      <c r="BL13" s="82"/>
-      <c r="BM13" s="82"/>
-      <c r="BN13" s="82"/>
-      <c r="BO13" s="82"/>
-      <c r="BP13" s="82"/>
-      <c r="BQ13" s="82"/>
-      <c r="BR13" s="82"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="83"/>
+      <c r="L13" s="83"/>
+      <c r="M13" s="83"/>
+      <c r="N13" s="83"/>
+      <c r="O13" s="83"/>
+      <c r="P13" s="83"/>
+      <c r="Q13" s="83"/>
+      <c r="R13" s="83"/>
+      <c r="S13" s="83"/>
+      <c r="T13" s="83"/>
+      <c r="U13" s="83"/>
+      <c r="V13" s="83"/>
+      <c r="W13" s="83"/>
+      <c r="X13" s="83"/>
+      <c r="Y13" s="83"/>
+      <c r="Z13" s="83"/>
+      <c r="AA13" s="83"/>
+      <c r="AB13" s="83"/>
+      <c r="AC13" s="83"/>
+      <c r="AD13" s="83"/>
+      <c r="AE13" s="83"/>
+      <c r="AF13" s="83"/>
+      <c r="AG13" s="83"/>
+      <c r="AH13" s="83"/>
+      <c r="AI13" s="83"/>
+      <c r="AJ13" s="83"/>
+      <c r="AK13" s="83"/>
+      <c r="AL13" s="83"/>
+      <c r="AM13" s="83"/>
+      <c r="AN13" s="83"/>
+      <c r="AO13" s="83"/>
+      <c r="AP13" s="83"/>
+      <c r="AQ13" s="83"/>
+      <c r="AR13" s="83"/>
+      <c r="AS13" s="83"/>
+      <c r="AT13" s="83"/>
+      <c r="AU13" s="83"/>
+      <c r="AV13" s="83"/>
+      <c r="AW13" s="83"/>
+      <c r="AX13" s="83"/>
+      <c r="AY13" s="83"/>
+      <c r="AZ13" s="83"/>
+      <c r="BA13" s="83"/>
+      <c r="BB13" s="83"/>
+      <c r="BC13" s="83"/>
+      <c r="BD13" s="83"/>
+      <c r="BE13" s="83"/>
+      <c r="BF13" s="83"/>
+      <c r="BG13" s="83"/>
+      <c r="BH13" s="83"/>
+      <c r="BI13" s="83"/>
+      <c r="BJ13" s="83"/>
+      <c r="BK13" s="83"/>
+      <c r="BL13" s="83"/>
+      <c r="BM13" s="83"/>
+      <c r="BN13" s="83"/>
+      <c r="BO13" s="83"/>
+      <c r="BP13" s="83"/>
+      <c r="BQ13" s="83"/>
+      <c r="BR13" s="83"/>
     </row>
     <row r="15" spans="1:70" s="6" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="1:70" s="6" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.2">
@@ -7922,10 +8262,10 @@
       </c>
       <c r="AK17" s="77"/>
       <c r="AL17" s="78"/>
-      <c r="AM17" s="89" t="s">
+      <c r="AM17" s="92" t="s">
         <v>290</v>
       </c>
-      <c r="AN17" s="89" t="s">
+      <c r="AN17" s="92" t="s">
         <v>291</v>
       </c>
       <c r="AO17" s="73" t="s">
@@ -8035,7 +8375,7 @@
       <c r="AE18" s="37" t="s">
         <v>258</v>
       </c>
-      <c r="AF18" s="94" t="s">
+      <c r="AF18" s="97" t="s">
         <v>274</v>
       </c>
       <c r="AG18" s="37" t="s">
@@ -8073,13 +8413,13 @@
       <c r="AS18" s="37" t="s">
         <v>312</v>
       </c>
-      <c r="AT18" s="87" t="s">
+      <c r="AT18" s="90" t="s">
         <v>292</v>
       </c>
-      <c r="AU18" s="87" t="s">
+      <c r="AU18" s="90" t="s">
         <v>293</v>
       </c>
-      <c r="AV18" s="87" t="s">
+      <c r="AV18" s="90" t="s">
         <v>297</v>
       </c>
       <c r="AW18" s="37" t="s">
@@ -8088,28 +8428,28 @@
       <c r="AX18" s="37" t="s">
         <v>295</v>
       </c>
-      <c r="AY18" s="90" t="s">
+      <c r="AY18" s="93" t="s">
         <v>298</v>
       </c>
-      <c r="AZ18" s="89" t="s">
+      <c r="AZ18" s="92" t="s">
         <v>302</v>
       </c>
-      <c r="BA18" s="91" t="s">
+      <c r="BA18" s="94" t="s">
         <v>300</v>
       </c>
-      <c r="BB18" s="91" t="s">
+      <c r="BB18" s="94" t="s">
         <v>294</v>
       </c>
-      <c r="BC18" s="90" t="s">
+      <c r="BC18" s="93" t="s">
         <v>298</v>
       </c>
-      <c r="BD18" s="89" t="s">
+      <c r="BD18" s="92" t="s">
         <v>299</v>
       </c>
-      <c r="BE18" s="91" t="s">
+      <c r="BE18" s="94" t="s">
         <v>300</v>
       </c>
-      <c r="BF18" s="91" t="s">
+      <c r="BF18" s="94" t="s">
         <v>295</v>
       </c>
       <c r="BG18" s="37" t="s">
@@ -8121,11 +8461,11 @@
       <c r="BI18" s="37" t="s">
         <v>261</v>
       </c>
-      <c r="BJ18" s="88"/>
-      <c r="BK18" s="88"/>
-      <c r="BL18" s="88"/>
-      <c r="BM18" s="88"/>
-      <c r="BN18" s="88"/>
+      <c r="BJ18" s="91"/>
+      <c r="BK18" s="91"/>
+      <c r="BL18" s="91"/>
+      <c r="BM18" s="91"/>
+      <c r="BN18" s="91"/>
       <c r="BO18" s="37" t="s">
         <v>308</v>
       </c>
@@ -8135,7 +8475,7 @@
       <c r="BQ18" s="37" t="s">
         <v>309</v>
       </c>
-      <c r="BR18" s="88"/>
+      <c r="BR18" s="91"/>
     </row>
     <row r="19" spans="2:70" s="2" customFormat="1" ht="77" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E19" s="11"/>
@@ -8164,17 +8504,17 @@
       <c r="V19" s="37" t="s">
         <v>281</v>
       </c>
-      <c r="W19" s="98" t="s">
+      <c r="W19" s="101" t="s">
         <v>145</v>
       </c>
-      <c r="X19" s="99"/>
-      <c r="Y19" s="100"/>
-      <c r="Z19" s="98" t="s">
+      <c r="X19" s="102"/>
+      <c r="Y19" s="103"/>
+      <c r="Z19" s="101" t="s">
         <v>140</v>
       </c>
-      <c r="AA19" s="99"/>
-      <c r="AB19" s="99"/>
-      <c r="AC19" s="100"/>
+      <c r="AA19" s="102"/>
+      <c r="AB19" s="102"/>
+      <c r="AC19" s="103"/>
       <c r="AD19" s="11"/>
       <c r="AE19" s="11"/>
       <c r="AF19" s="11"/>
@@ -8327,31 +8667,31 @@
       <c r="I22" s="20" t="s">
         <v>317</v>
       </c>
-      <c r="J22" s="93" t="s">
+      <c r="J22" s="96" t="s">
         <v>91</v>
       </c>
-      <c r="K22" s="93" t="s">
+      <c r="K22" s="96" t="s">
         <v>91</v>
       </c>
-      <c r="L22" s="93" t="s">
+      <c r="L22" s="96" t="s">
         <v>91</v>
       </c>
-      <c r="M22" s="93" t="s">
+      <c r="M22" s="96" t="s">
         <v>91</v>
       </c>
-      <c r="N22" s="93" t="s">
+      <c r="N22" s="96" t="s">
         <v>91</v>
       </c>
-      <c r="O22" s="93" t="s">
+      <c r="O22" s="96" t="s">
         <v>91</v>
       </c>
-      <c r="P22" s="93" t="s">
+      <c r="P22" s="96" t="s">
         <v>91</v>
       </c>
-      <c r="Q22" s="96" t="s">
+      <c r="Q22" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="R22" s="96" t="s">
+      <c r="R22" s="99" t="s">
         <v>90</v>
       </c>
       <c r="S22" s="20" t="s">
@@ -8366,20 +8706,20 @@
       <c r="V22" s="20" t="s">
         <v>317</v>
       </c>
-      <c r="W22" s="97" t="s">
+      <c r="W22" s="100" t="s">
         <v>141</v>
       </c>
-      <c r="X22" s="94"/>
-      <c r="Y22" s="101" t="s">
+      <c r="X22" s="97"/>
+      <c r="Y22" s="104" t="s">
         <v>329</v>
       </c>
-      <c r="Z22" s="97" t="s">
+      <c r="Z22" s="100" t="s">
         <v>141</v>
       </c>
       <c r="AA22" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="AB22" s="96" t="s">
+      <c r="AB22" s="99" t="s">
         <v>156</v>
       </c>
       <c r="AC22" s="20" t="s">
@@ -8412,22 +8752,22 @@
       <c r="AL22" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="AM22" s="92" t="s">
+      <c r="AM22" s="95" t="s">
         <v>331</v>
       </c>
-      <c r="AN22" s="92" t="s">
+      <c r="AN22" s="95" t="s">
         <v>331</v>
       </c>
       <c r="AO22" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="AP22" s="93" t="s">
+      <c r="AP22" s="96" t="s">
         <v>91</v>
       </c>
-      <c r="AQ22" s="92" t="s">
+      <c r="AQ22" s="95" t="s">
         <v>331</v>
       </c>
-      <c r="AR22" s="93" t="s">
+      <c r="AR22" s="96" t="s">
         <v>91</v>
       </c>
       <c r="AS22" s="20" t="s">
@@ -8442,43 +8782,43 @@
       <c r="AV22" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="AW22" s="104" t="s">
+      <c r="AW22" s="107" t="s">
         <v>333</v>
       </c>
-      <c r="AX22" s="104" t="s">
+      <c r="AX22" s="107" t="s">
         <v>334</v>
       </c>
-      <c r="AY22" s="93" t="s">
+      <c r="AY22" s="96" t="s">
         <v>91</v>
       </c>
-      <c r="AZ22" s="92" t="s">
+      <c r="AZ22" s="95" t="s">
         <v>331</v>
       </c>
-      <c r="BA22" s="102" t="s">
+      <c r="BA22" s="105" t="s">
         <v>332</v>
       </c>
-      <c r="BB22" s="104" t="s">
+      <c r="BB22" s="107" t="s">
         <v>333</v>
       </c>
-      <c r="BC22" s="93" t="s">
+      <c r="BC22" s="96" t="s">
         <v>91</v>
       </c>
-      <c r="BD22" s="92" t="s">
+      <c r="BD22" s="95" t="s">
         <v>331</v>
       </c>
-      <c r="BE22" s="102" t="s">
+      <c r="BE22" s="105" t="s">
         <v>332</v>
       </c>
-      <c r="BF22" s="104" t="s">
+      <c r="BF22" s="107" t="s">
         <v>334</v>
       </c>
       <c r="BG22" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="BH22" s="93" t="s">
+      <c r="BH22" s="96" t="s">
         <v>91</v>
       </c>
-      <c r="BI22" s="93" t="s">
+      <c r="BI22" s="96" t="s">
         <v>91</v>
       </c>
       <c r="BJ22" s="20" t="s">
@@ -8493,7 +8833,7 @@
       <c r="BM22" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="BN22" s="93" t="s">
+      <c r="BN22" s="96" t="s">
         <v>91</v>
       </c>
       <c r="BO22" s="20" t="s">
@@ -8509,71 +8849,71 @@
         <v>338</v>
       </c>
     </row>
-    <row r="23" spans="2:70" s="105" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="108" t="s">
+    <row r="23" spans="2:70" s="108" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="111" t="s">
         <v>319</v>
       </c>
-      <c r="E23" s="107" t="b">
+      <c r="E23" s="110" t="b">
         <v>1</v>
       </c>
-      <c r="F23" s="107" t="s">
+      <c r="F23" s="110" t="s">
         <v>100</v>
       </c>
-      <c r="G23" s="107" t="s">
+      <c r="G23" s="110" t="s">
         <v>101</v>
       </c>
-      <c r="H23" s="107" t="s">
+      <c r="H23" s="110" t="s">
         <v>102</v>
       </c>
-      <c r="I23" s="107" t="b">
+      <c r="I23" s="110" t="b">
         <v>0</v>
       </c>
-      <c r="J23" s="107" t="s">
+      <c r="J23" s="110" t="s">
         <v>324</v>
       </c>
-      <c r="N23" s="107" t="s">
+      <c r="N23" s="110" t="s">
         <v>325</v>
       </c>
-      <c r="O23" s="107" t="s">
+      <c r="O23" s="110" t="s">
         <v>326</v>
       </c>
-      <c r="P23" s="107" t="s">
+      <c r="P23" s="110" t="s">
         <v>323</v>
       </c>
-      <c r="Q23" s="107">
+      <c r="Q23" s="110">
         <v>500</v>
       </c>
-      <c r="R23" s="107">
+      <c r="R23" s="110">
         <v>500</v>
       </c>
-      <c r="S23" s="107" t="b">
+      <c r="S23" s="110" t="b">
         <v>1</v>
       </c>
-      <c r="T23" s="107" t="s">
+      <c r="T23" s="110" t="s">
         <v>150</v>
       </c>
-      <c r="U23" s="107" t="b">
+      <c r="U23" s="110" t="b">
         <v>0</v>
       </c>
-      <c r="V23" s="107" t="b">
+      <c r="V23" s="110" t="b">
         <v>0</v>
       </c>
       <c r="W23" s="11"/>
       <c r="X23" s="11"/>
       <c r="Y23" s="11"/>
-      <c r="Z23" s="107" t="s">
+      <c r="Z23" s="110" t="s">
         <v>158</v>
       </c>
-      <c r="AA23" s="107" t="s">
+      <c r="AA23" s="110" t="s">
         <v>150</v>
       </c>
-      <c r="AB23" s="109">
+      <c r="AB23" s="112">
         <v>0.5</v>
       </c>
-      <c r="AC23" s="111" t="s">
+      <c r="AC23" s="114" t="s">
         <v>157</v>
       </c>
-      <c r="AD23" s="113" t="s">
+      <c r="AD23" s="116" t="s">
         <v>340</v>
       </c>
       <c r="AE23" s="11"/>
@@ -8584,108 +8924,108 @@
       <c r="AJ23" s="11"/>
       <c r="AK23" s="11"/>
       <c r="AL23" s="11"/>
-      <c r="AM23" s="106" t="s">
+      <c r="AM23" s="109" t="s">
         <v>337</v>
       </c>
-      <c r="AN23" s="106" t="s">
+      <c r="AN23" s="109" t="s">
         <v>337</v>
       </c>
-      <c r="AO23" s="107">
+      <c r="AO23" s="110">
         <v>7</v>
       </c>
-      <c r="AP23" s="112" t="s">
+      <c r="AP23" s="115" t="s">
         <v>320</v>
       </c>
-      <c r="AQ23" s="106" t="s">
+      <c r="AQ23" s="109" t="s">
         <v>337</v>
       </c>
-      <c r="AR23" s="112" t="s">
+      <c r="AR23" s="115" t="s">
         <v>320</v>
       </c>
-      <c r="AT23" s="110">
+      <c r="AT23" s="113">
         <v>100</v>
       </c>
-      <c r="AU23" s="107" t="s">
+      <c r="AU23" s="110" t="s">
         <v>107</v>
       </c>
       <c r="AV23" s="11"/>
-      <c r="AW23" s="106" t="s">
+      <c r="AW23" s="109" t="s">
         <v>337</v>
       </c>
-      <c r="AX23" s="106" t="s">
+      <c r="AX23" s="109" t="s">
         <v>337</v>
       </c>
-      <c r="AY23" s="112" t="s">
+      <c r="AY23" s="115" t="s">
         <v>321</v>
       </c>
-      <c r="AZ23" s="106" t="s">
+      <c r="AZ23" s="109" t="s">
         <v>337</v>
       </c>
-      <c r="BA23" s="106" t="s">
+      <c r="BA23" s="109" t="s">
         <v>337</v>
       </c>
-      <c r="BB23" s="106" t="s">
+      <c r="BB23" s="109" t="s">
         <v>337</v>
       </c>
-      <c r="BC23" s="112" t="s">
+      <c r="BC23" s="115" t="s">
         <v>320</v>
       </c>
-      <c r="BD23" s="106" t="s">
+      <c r="BD23" s="109" t="s">
         <v>337</v>
       </c>
-      <c r="BE23" s="106" t="s">
+      <c r="BE23" s="109" t="s">
         <v>337</v>
       </c>
-      <c r="BF23" s="106" t="s">
+      <c r="BF23" s="109" t="s">
         <v>337</v>
       </c>
-      <c r="BG23" s="107" t="s">
+      <c r="BG23" s="110" t="s">
         <v>327</v>
       </c>
-      <c r="BH23" s="112" t="s">
+      <c r="BH23" s="115" t="s">
         <v>99</v>
       </c>
-      <c r="BI23" s="112" t="s">
+      <c r="BI23" s="115" t="s">
         <v>99</v>
       </c>
-      <c r="BJ23" s="107" t="b">
+      <c r="BJ23" s="110" t="b">
         <v>1</v>
       </c>
-      <c r="BK23" s="107" t="s">
+      <c r="BK23" s="110" t="s">
         <v>125</v>
       </c>
-      <c r="BL23" s="113" t="s">
+      <c r="BL23" s="116" t="s">
         <v>340</v>
       </c>
-      <c r="BM23" s="114" t="s">
+      <c r="BM23" s="117" t="s">
         <v>339</v>
       </c>
-      <c r="BN23" s="107" t="s">
+      <c r="BN23" s="110" t="s">
         <v>322</v>
       </c>
-      <c r="BO23" s="107">
+      <c r="BO23" s="110">
         <v>0</v>
       </c>
-      <c r="BP23" s="107" t="b">
+      <c r="BP23" s="110" t="b">
         <v>1</v>
       </c>
-      <c r="BQ23" s="112" t="s">
+      <c r="BQ23" s="115" t="s">
         <v>106</v>
       </c>
-      <c r="BR23" s="113" t="s">
+      <c r="BR23" s="116" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="24" spans="2:70" s="6" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF24" s="95" t="s">
+      <c r="AF24" s="98" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="25" spans="2:70" s="6" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AQ25" s="94" t="s">
+      <c r="AQ25" s="97" t="s">
         <v>341</v>
       </c>
-      <c r="AS25" s="94" t="s">
+      <c r="AS25" s="97" t="s">
         <v>342</v>
       </c>
     </row>

--- a/docs/session_variables.xlsx
+++ b/docs/session_variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robhay/git_repo/share_screener/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C319076D-5436-1246-A35F-A5B0D8DE82C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0939092-AB04-BD48-A871-0D70F8C11225}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-68800" yWindow="-15420" windowWidth="68800" windowHeight="28300" xr2:uid="{EB3C945B-FE01-FA47-AE59-A0DC3CDF521B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{EB3C945B-FE01-FA47-AE59-A0DC3CDF521B}"/>
   </bookViews>
   <sheets>
     <sheet name="Application Structure" sheetId="6" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1510" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="488">
   <si>
     <t>chart_colours</t>
   </si>
@@ -1757,12 +1757,15 @@
       <t>macd</t>
     </r>
   </si>
+  <si>
+    <t>str</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="42">
+  <fonts count="44">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2073,6 +2076,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="14">
     <fill>
@@ -2154,7 +2171,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -2262,6 +2279,15 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -2313,11 +2339,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="271">
+  <cellXfs count="279">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2650,9 +2685,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2669,15 +2701,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2904,7 +2927,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2922,9 +2945,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2937,7 +2957,7 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2992,7 +3012,7 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3062,18 +3082,6 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3086,7 +3094,7 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3095,23 +3103,74 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3427,13 +3486,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB030FA-EA0F-904E-89A7-6D6B5810B515}">
-  <dimension ref="A1:FU39"/>
+  <dimension ref="A1:FV38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="7" topLeftCell="BK10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="BU13" sqref="BU13"/>
+      <selection pane="bottomRight" activeCell="BR2" sqref="BR2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3500,138 +3559,139 @@
     <col min="63" max="63" width="8.83203125" customWidth="1"/>
     <col min="64" max="65" width="12" customWidth="1"/>
     <col min="66" max="66" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="9.33203125" customWidth="1"/>
-    <col min="71" max="71" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="7.83203125" customWidth="1"/>
-    <col min="74" max="74" width="6.33203125" customWidth="1"/>
-    <col min="75" max="75" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="10.33203125" customWidth="1"/>
-    <col min="77" max="77" width="7.83203125" customWidth="1"/>
-    <col min="78" max="78" width="13.83203125" customWidth="1"/>
-    <col min="79" max="79" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="6.6640625" customWidth="1"/>
-    <col min="82" max="85" width="5.1640625" customWidth="1"/>
-    <col min="86" max="86" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="67" max="68" width="10.1640625" customWidth="1"/>
+    <col min="69" max="69" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="9.33203125" customWidth="1"/>
+    <col min="72" max="72" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="7.83203125" customWidth="1"/>
+    <col min="75" max="75" width="6.33203125" customWidth="1"/>
+    <col min="76" max="76" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="10.33203125" customWidth="1"/>
+    <col min="78" max="78" width="7.83203125" customWidth="1"/>
+    <col min="79" max="79" width="13.83203125" customWidth="1"/>
+    <col min="80" max="80" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="6.6640625" customWidth="1"/>
+    <col min="83" max="86" width="5.1640625" customWidth="1"/>
+    <col min="87" max="87" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="4.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:98">
-      <c r="A1" s="228" t="s">
+    <row r="1" spans="1:99">
+      <c r="A1" s="223" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="3" spans="1:98">
-      <c r="A3" s="129" t="s">
+    <row r="3" spans="1:99">
+      <c r="A3" s="125" t="s">
         <v>434</v>
       </c>
-      <c r="B3" s="197"/>
-    </row>
-    <row r="4" spans="1:98">
+      <c r="B3" s="193"/>
+    </row>
+    <row r="4" spans="1:99">
       <c r="A4" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="5" spans="1:98">
-      <c r="A5" s="196" t="s">
+    <row r="5" spans="1:99">
+      <c r="A5" s="192" t="s">
         <v>436</v>
       </c>
-      <c r="B5" s="196"/>
-    </row>
-    <row r="6" spans="1:98" ht="21">
-      <c r="C6" s="151" t="s">
+      <c r="B5" s="192"/>
+    </row>
+    <row r="6" spans="1:99" ht="21">
+      <c r="C6" s="147" t="s">
         <v>264</v>
       </c>
-      <c r="D6" s="151"/>
-      <c r="E6" s="151"/>
-      <c r="F6" s="151"/>
-      <c r="G6" s="151"/>
-      <c r="H6" s="151"/>
-      <c r="I6" s="151"/>
-      <c r="J6" s="151"/>
-      <c r="K6" s="151"/>
-      <c r="L6" s="151"/>
-      <c r="M6" s="151"/>
-      <c r="N6" s="151"/>
-      <c r="O6" s="151"/>
-      <c r="P6" s="151"/>
-      <c r="Q6" s="151"/>
-      <c r="R6" s="151"/>
-      <c r="S6" s="151"/>
-      <c r="T6" s="151"/>
-      <c r="U6" s="151"/>
-      <c r="V6" s="151"/>
-      <c r="W6" s="151"/>
-      <c r="X6" s="151"/>
-      <c r="Y6" s="151"/>
-      <c r="Z6" s="151"/>
-      <c r="AA6" s="151"/>
-      <c r="AB6" s="151"/>
-      <c r="AC6" s="151"/>
-      <c r="AD6" s="151"/>
-      <c r="AE6" s="151"/>
-      <c r="AF6" s="151"/>
-      <c r="AG6" s="151"/>
-      <c r="AH6" s="151"/>
-      <c r="AI6" s="151"/>
-      <c r="AJ6" s="151"/>
-      <c r="AK6" s="151"/>
-      <c r="AL6" s="151"/>
-      <c r="AM6" s="151"/>
-      <c r="AN6" s="151"/>
-      <c r="AO6" s="151"/>
-      <c r="AP6" s="151"/>
-      <c r="AQ6" s="151"/>
-      <c r="AR6" s="151"/>
-      <c r="AS6" s="151"/>
-      <c r="AT6" s="151"/>
-      <c r="AU6" s="151"/>
-      <c r="AV6" s="151"/>
-      <c r="AW6" s="151"/>
-      <c r="AX6" s="151"/>
-      <c r="AY6" s="151"/>
-      <c r="AZ6" s="151"/>
-      <c r="BA6" s="151"/>
-      <c r="BB6" s="151"/>
-      <c r="BC6" s="151"/>
-      <c r="BD6" s="151"/>
-      <c r="BE6" s="151"/>
-      <c r="BF6" s="151"/>
-      <c r="BG6" s="151"/>
-      <c r="BH6" s="151"/>
-      <c r="BI6" s="151"/>
-      <c r="BJ6" s="151"/>
-      <c r="BK6" s="151"/>
-      <c r="BL6" s="151"/>
-      <c r="BM6" s="151"/>
-      <c r="BN6" s="151"/>
-      <c r="BO6" s="151"/>
-      <c r="BP6" s="151"/>
-      <c r="BQ6" s="151"/>
-      <c r="BR6" s="151"/>
-      <c r="BS6" s="151"/>
-      <c r="BT6" s="151"/>
-      <c r="BU6" s="151"/>
-      <c r="BV6" s="151"/>
-      <c r="BW6" s="151"/>
-      <c r="BX6" s="151"/>
-      <c r="BY6" s="151"/>
-      <c r="BZ6" s="151"/>
-      <c r="CA6" s="151"/>
-      <c r="CB6" s="151"/>
-      <c r="CC6" s="151"/>
-      <c r="CD6" s="151"/>
-      <c r="CE6" s="151"/>
-      <c r="CF6" s="151"/>
-      <c r="CG6" s="151"/>
-      <c r="CH6" s="151"/>
-      <c r="CI6" s="151"/>
-    </row>
-    <row r="8" spans="1:98">
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="147"/>
+      <c r="K6" s="147"/>
+      <c r="L6" s="147"/>
+      <c r="M6" s="147"/>
+      <c r="N6" s="147"/>
+      <c r="O6" s="147"/>
+      <c r="P6" s="147"/>
+      <c r="Q6" s="147"/>
+      <c r="R6" s="147"/>
+      <c r="S6" s="147"/>
+      <c r="T6" s="147"/>
+      <c r="U6" s="147"/>
+      <c r="V6" s="147"/>
+      <c r="W6" s="147"/>
+      <c r="X6" s="147"/>
+      <c r="Y6" s="147"/>
+      <c r="Z6" s="147"/>
+      <c r="AA6" s="147"/>
+      <c r="AB6" s="147"/>
+      <c r="AC6" s="147"/>
+      <c r="AD6" s="147"/>
+      <c r="AE6" s="147"/>
+      <c r="AF6" s="147"/>
+      <c r="AG6" s="147"/>
+      <c r="AH6" s="147"/>
+      <c r="AI6" s="147"/>
+      <c r="AJ6" s="147"/>
+      <c r="AK6" s="147"/>
+      <c r="AL6" s="147"/>
+      <c r="AM6" s="147"/>
+      <c r="AN6" s="147"/>
+      <c r="AO6" s="147"/>
+      <c r="AP6" s="147"/>
+      <c r="AQ6" s="147"/>
+      <c r="AR6" s="147"/>
+      <c r="AS6" s="147"/>
+      <c r="AT6" s="147"/>
+      <c r="AU6" s="147"/>
+      <c r="AV6" s="147"/>
+      <c r="AW6" s="147"/>
+      <c r="AX6" s="147"/>
+      <c r="AY6" s="147"/>
+      <c r="AZ6" s="147"/>
+      <c r="BA6" s="147"/>
+      <c r="BB6" s="147"/>
+      <c r="BC6" s="147"/>
+      <c r="BD6" s="147"/>
+      <c r="BE6" s="147"/>
+      <c r="BF6" s="147"/>
+      <c r="BG6" s="147"/>
+      <c r="BH6" s="147"/>
+      <c r="BI6" s="147"/>
+      <c r="BJ6" s="147"/>
+      <c r="BK6" s="147"/>
+      <c r="BL6" s="147"/>
+      <c r="BM6" s="147"/>
+      <c r="BN6" s="147"/>
+      <c r="BO6" s="147"/>
+      <c r="BP6" s="147"/>
+      <c r="BQ6" s="147"/>
+      <c r="BR6" s="147"/>
+      <c r="BS6" s="147"/>
+      <c r="BT6" s="147"/>
+      <c r="BU6" s="147"/>
+      <c r="BV6" s="147"/>
+      <c r="BW6" s="147"/>
+      <c r="BX6" s="147"/>
+      <c r="BY6" s="147"/>
+      <c r="BZ6" s="147"/>
+      <c r="CA6" s="147"/>
+      <c r="CB6" s="147"/>
+      <c r="CC6" s="147"/>
+      <c r="CD6" s="147"/>
+      <c r="CE6" s="147"/>
+      <c r="CF6" s="147"/>
+      <c r="CG6" s="147"/>
+      <c r="CH6" s="147"/>
+      <c r="CI6" s="147"/>
+      <c r="CJ6" s="147"/>
+    </row>
+    <row r="8" spans="1:99">
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -3682,2218 +3742,2143 @@
       <c r="AX8" s="6"/>
       <c r="AY8" s="6"/>
     </row>
-    <row r="9" spans="1:98" s="60" customFormat="1" ht="37" customHeight="1">
+    <row r="9" spans="1:99" s="60" customFormat="1" ht="37" customHeight="1">
       <c r="A9" s="109" t="s">
         <v>343</v>
       </c>
       <c r="B9" s="108"/>
-      <c r="C9" s="214" t="s">
+      <c r="C9" s="209" t="s">
         <v>289</v>
       </c>
-      <c r="D9" s="243" t="s">
+      <c r="D9" s="238" t="s">
         <v>263</v>
       </c>
-      <c r="E9" s="244"/>
-      <c r="F9" s="244"/>
-      <c r="G9" s="244"/>
-      <c r="H9" s="244"/>
-      <c r="I9" s="244"/>
-      <c r="J9" s="244"/>
-      <c r="K9" s="244"/>
-      <c r="L9" s="244"/>
-      <c r="M9" s="244"/>
-      <c r="N9" s="244"/>
-      <c r="O9" s="244"/>
-      <c r="P9" s="244"/>
-      <c r="Q9" s="244"/>
-      <c r="R9" s="244"/>
-      <c r="S9" s="244"/>
-      <c r="T9" s="244"/>
-      <c r="U9" s="244"/>
-      <c r="V9" s="244"/>
-      <c r="W9" s="244"/>
-      <c r="X9" s="244"/>
-      <c r="Y9" s="244"/>
-      <c r="Z9" s="244"/>
-      <c r="AA9" s="244"/>
-      <c r="AB9" s="244"/>
-      <c r="AC9" s="244"/>
-      <c r="AD9" s="244"/>
-      <c r="AE9" s="244"/>
-      <c r="AF9" s="244"/>
-      <c r="AG9" s="244"/>
-      <c r="AH9" s="244"/>
-      <c r="AI9" s="244"/>
-      <c r="AJ9" s="244"/>
-      <c r="AK9" s="244"/>
-      <c r="AL9" s="244"/>
-      <c r="AM9" s="244"/>
-      <c r="AN9" s="244"/>
-      <c r="AO9" s="244"/>
-      <c r="AP9" s="244"/>
-      <c r="AQ9" s="244"/>
-      <c r="AR9" s="244"/>
-      <c r="AS9" s="243" t="s">
+      <c r="E9" s="239"/>
+      <c r="F9" s="239"/>
+      <c r="G9" s="239"/>
+      <c r="H9" s="239"/>
+      <c r="I9" s="239"/>
+      <c r="J9" s="239"/>
+      <c r="K9" s="239"/>
+      <c r="L9" s="239"/>
+      <c r="M9" s="239"/>
+      <c r="N9" s="239"/>
+      <c r="O9" s="239"/>
+      <c r="P9" s="239"/>
+      <c r="Q9" s="239"/>
+      <c r="R9" s="239"/>
+      <c r="S9" s="239"/>
+      <c r="T9" s="239"/>
+      <c r="U9" s="239"/>
+      <c r="V9" s="239"/>
+      <c r="W9" s="239"/>
+      <c r="X9" s="239"/>
+      <c r="Y9" s="239"/>
+      <c r="Z9" s="239"/>
+      <c r="AA9" s="239"/>
+      <c r="AB9" s="239"/>
+      <c r="AC9" s="239"/>
+      <c r="AD9" s="239"/>
+      <c r="AE9" s="239"/>
+      <c r="AF9" s="239"/>
+      <c r="AG9" s="239"/>
+      <c r="AH9" s="239"/>
+      <c r="AI9" s="239"/>
+      <c r="AJ9" s="239"/>
+      <c r="AK9" s="239"/>
+      <c r="AL9" s="239"/>
+      <c r="AM9" s="239"/>
+      <c r="AN9" s="239"/>
+      <c r="AO9" s="239"/>
+      <c r="AP9" s="239"/>
+      <c r="AQ9" s="239"/>
+      <c r="AR9" s="239"/>
+      <c r="AS9" s="238" t="s">
         <v>258</v>
       </c>
-      <c r="AT9" s="244"/>
-      <c r="AU9" s="244"/>
-      <c r="AV9" s="244"/>
-      <c r="AW9" s="244"/>
-      <c r="AX9" s="244"/>
-      <c r="AY9" s="244"/>
-      <c r="AZ9" s="245"/>
-      <c r="BA9" s="243" t="s">
+      <c r="AT9" s="239"/>
+      <c r="AU9" s="239"/>
+      <c r="AV9" s="239"/>
+      <c r="AW9" s="239"/>
+      <c r="AX9" s="239"/>
+      <c r="AY9" s="239"/>
+      <c r="AZ9" s="240"/>
+      <c r="BA9" s="238" t="s">
         <v>310</v>
       </c>
-      <c r="BB9" s="244"/>
-      <c r="BC9" s="244"/>
-      <c r="BD9" s="244"/>
-      <c r="BE9" s="244"/>
-      <c r="BF9" s="244"/>
-      <c r="BG9" s="245"/>
-      <c r="BH9" s="247" t="s">
+      <c r="BB9" s="239"/>
+      <c r="BC9" s="239"/>
+      <c r="BD9" s="239"/>
+      <c r="BE9" s="239"/>
+      <c r="BF9" s="239"/>
+      <c r="BG9" s="240"/>
+      <c r="BH9" s="242" t="s">
         <v>257</v>
       </c>
-      <c r="BI9" s="247"/>
-      <c r="BJ9" s="247"/>
-      <c r="BK9" s="247"/>
-      <c r="BL9" s="247"/>
-      <c r="BM9" s="247"/>
-      <c r="BN9" s="247"/>
-      <c r="BO9" s="247"/>
-      <c r="BP9" s="247"/>
-      <c r="BQ9" s="247"/>
-      <c r="BR9" s="247"/>
-      <c r="BS9" s="247"/>
-      <c r="BT9" s="247"/>
-      <c r="BU9" s="247"/>
-      <c r="BV9" s="247"/>
-      <c r="BW9" s="259" t="s">
+      <c r="BI9" s="242"/>
+      <c r="BJ9" s="242"/>
+      <c r="BK9" s="242"/>
+      <c r="BL9" s="242"/>
+      <c r="BM9" s="242"/>
+      <c r="BN9" s="242"/>
+      <c r="BO9" s="242"/>
+      <c r="BP9" s="242"/>
+      <c r="BQ9" s="242"/>
+      <c r="BR9" s="242"/>
+      <c r="BS9" s="242"/>
+      <c r="BT9" s="242"/>
+      <c r="BU9" s="242"/>
+      <c r="BV9" s="242"/>
+      <c r="BW9" s="242"/>
+      <c r="BX9" s="250" t="s">
         <v>475</v>
       </c>
-      <c r="BX9" s="259"/>
-      <c r="BY9" s="259"/>
-      <c r="BZ9" s="259"/>
-      <c r="CA9" s="259"/>
-      <c r="CB9" s="259"/>
-      <c r="CC9" s="259"/>
-      <c r="CD9" s="259"/>
-      <c r="CE9" s="259"/>
-      <c r="CF9" s="259"/>
-      <c r="CG9" s="259"/>
-      <c r="CH9" s="259"/>
-      <c r="CI9" s="259"/>
-      <c r="CL9" s="145" t="s">
+      <c r="BY9" s="250"/>
+      <c r="BZ9" s="250"/>
+      <c r="CA9" s="250"/>
+      <c r="CB9" s="250"/>
+      <c r="CC9" s="250"/>
+      <c r="CD9" s="250"/>
+      <c r="CE9" s="250"/>
+      <c r="CF9" s="250"/>
+      <c r="CG9" s="250"/>
+      <c r="CH9" s="250"/>
+      <c r="CI9" s="250"/>
+      <c r="CJ9" s="250"/>
+      <c r="CM9" s="141" t="s">
         <v>31</v>
       </c>
-      <c r="CM9" s="146"/>
-      <c r="CN9" s="146"/>
-      <c r="CO9" s="146"/>
-      <c r="CP9" s="146"/>
-      <c r="CQ9" s="146"/>
-      <c r="CR9" s="146"/>
-      <c r="CS9" s="146"/>
-      <c r="CT9" s="147"/>
-    </row>
-    <row r="10" spans="1:98" s="59" customFormat="1" ht="104" customHeight="1">
-      <c r="A10" s="198" t="s">
+      <c r="CN9" s="142"/>
+      <c r="CO9" s="142"/>
+      <c r="CP9" s="142"/>
+      <c r="CQ9" s="142"/>
+      <c r="CR9" s="142"/>
+      <c r="CS9" s="142"/>
+      <c r="CT9" s="142"/>
+      <c r="CU9" s="143"/>
+    </row>
+    <row r="10" spans="1:99" s="59" customFormat="1" ht="104" customHeight="1">
+      <c r="A10" s="194" t="s">
         <v>344</v>
       </c>
       <c r="B10" s="101"/>
-      <c r="C10" s="200"/>
-      <c r="D10" s="213" t="s">
+      <c r="C10" s="196"/>
+      <c r="D10" s="208" t="s">
         <v>286</v>
       </c>
-      <c r="E10" s="214" t="s">
+      <c r="E10" s="209" t="s">
         <v>285</v>
       </c>
-      <c r="F10" s="214" t="s">
+      <c r="F10" s="209" t="s">
         <v>288</v>
       </c>
-      <c r="G10" s="215" t="s">
+      <c r="G10" s="210" t="s">
         <v>262</v>
       </c>
-      <c r="H10" s="215"/>
-      <c r="I10" s="215"/>
-      <c r="J10" s="215"/>
-      <c r="K10" s="215"/>
-      <c r="L10" s="215"/>
-      <c r="M10" s="215"/>
-      <c r="N10" s="216" t="s">
+      <c r="H10" s="210"/>
+      <c r="I10" s="210"/>
+      <c r="J10" s="210"/>
+      <c r="K10" s="210"/>
+      <c r="L10" s="210"/>
+      <c r="M10" s="210"/>
+      <c r="N10" s="211" t="s">
         <v>432</v>
       </c>
-      <c r="O10" s="217"/>
-      <c r="P10" s="217"/>
-      <c r="Q10" s="217"/>
-      <c r="R10" s="217"/>
-      <c r="S10" s="217"/>
-      <c r="T10" s="217"/>
-      <c r="U10" s="217"/>
-      <c r="V10" s="218"/>
-      <c r="W10" s="253" t="s">
+      <c r="O10" s="212"/>
+      <c r="P10" s="212"/>
+      <c r="Q10" s="212"/>
+      <c r="R10" s="212"/>
+      <c r="S10" s="212"/>
+      <c r="T10" s="212"/>
+      <c r="U10" s="212"/>
+      <c r="V10" s="213"/>
+      <c r="W10" s="248" t="s">
         <v>433</v>
       </c>
-      <c r="X10" s="215"/>
-      <c r="Y10" s="215"/>
-      <c r="Z10" s="215"/>
-      <c r="AA10" s="215"/>
-      <c r="AB10" s="215"/>
-      <c r="AC10" s="215"/>
-      <c r="AD10" s="215"/>
-      <c r="AE10" s="215"/>
-      <c r="AF10" s="215"/>
-      <c r="AG10" s="215"/>
-      <c r="AH10" s="215"/>
-      <c r="AI10" s="215"/>
-      <c r="AJ10" s="215"/>
-      <c r="AK10" s="215"/>
-      <c r="AL10" s="215"/>
-      <c r="AM10" s="240" t="s">
+      <c r="X10" s="210"/>
+      <c r="Y10" s="210"/>
+      <c r="Z10" s="210"/>
+      <c r="AA10" s="210"/>
+      <c r="AB10" s="210"/>
+      <c r="AC10" s="210"/>
+      <c r="AD10" s="210"/>
+      <c r="AE10" s="210"/>
+      <c r="AF10" s="210"/>
+      <c r="AG10" s="210"/>
+      <c r="AH10" s="210"/>
+      <c r="AI10" s="210"/>
+      <c r="AJ10" s="210"/>
+      <c r="AK10" s="210"/>
+      <c r="AL10" s="210"/>
+      <c r="AM10" s="235" t="s">
         <v>28</v>
       </c>
-      <c r="AN10" s="217"/>
-      <c r="AO10" s="217"/>
-      <c r="AP10" s="217"/>
-      <c r="AQ10" s="217"/>
-      <c r="AR10" s="217"/>
-      <c r="AS10" s="215" t="s">
+      <c r="AN10" s="212"/>
+      <c r="AO10" s="212"/>
+      <c r="AP10" s="212"/>
+      <c r="AQ10" s="212"/>
+      <c r="AR10" s="212"/>
+      <c r="AS10" s="210" t="s">
         <v>275</v>
       </c>
-      <c r="AT10" s="215"/>
-      <c r="AU10" s="215"/>
-      <c r="AV10" s="215"/>
-      <c r="AW10" s="215"/>
-      <c r="AX10" s="240" t="s">
+      <c r="AT10" s="210"/>
+      <c r="AU10" s="210"/>
+      <c r="AV10" s="210"/>
+      <c r="AW10" s="210"/>
+      <c r="AX10" s="235" t="s">
         <v>276</v>
       </c>
-      <c r="AY10" s="217"/>
-      <c r="AZ10" s="218"/>
-      <c r="BA10" s="219" t="s">
+      <c r="AY10" s="212"/>
+      <c r="AZ10" s="213"/>
+      <c r="BA10" s="214" t="s">
         <v>290</v>
       </c>
-      <c r="BB10" s="219" t="s">
+      <c r="BB10" s="214" t="s">
         <v>387</v>
       </c>
-      <c r="BC10" s="215" t="s">
+      <c r="BC10" s="210" t="s">
         <v>259</v>
       </c>
-      <c r="BD10" s="215"/>
-      <c r="BE10" s="215"/>
-      <c r="BF10" s="215"/>
-      <c r="BG10" s="215"/>
-      <c r="BH10" s="214" t="s">
+      <c r="BD10" s="210"/>
+      <c r="BE10" s="210"/>
+      <c r="BF10" s="210"/>
+      <c r="BG10" s="210"/>
+      <c r="BH10" s="209" t="s">
         <v>353</v>
       </c>
-      <c r="BI10" s="214" t="s">
+      <c r="BI10" s="209" t="s">
         <v>354</v>
       </c>
-      <c r="BJ10" s="248" t="s">
+      <c r="BJ10" s="243" t="s">
         <v>297</v>
       </c>
-      <c r="BK10" s="248" t="s">
+      <c r="BK10" s="243" t="s">
         <v>391</v>
       </c>
-      <c r="BL10" s="215" t="s">
+      <c r="BL10" s="210" t="s">
         <v>266</v>
       </c>
-      <c r="BM10" s="215"/>
-      <c r="BN10" s="253" t="s">
+      <c r="BM10" s="210"/>
+      <c r="BN10" s="248" t="s">
         <v>474</v>
       </c>
-      <c r="BO10" s="253"/>
-      <c r="BP10" s="253"/>
-      <c r="BQ10" s="253"/>
-      <c r="BR10" s="253"/>
-      <c r="BS10" s="253"/>
-      <c r="BT10" s="253"/>
-      <c r="BU10" s="143" t="s">
-        <v>265</v>
-      </c>
-      <c r="BV10" s="144"/>
-      <c r="BW10" s="214" t="s">
+      <c r="BO10" s="248"/>
+      <c r="BP10" s="248"/>
+      <c r="BQ10" s="248"/>
+      <c r="BR10" s="248"/>
+      <c r="BS10" s="248"/>
+      <c r="BT10" s="248"/>
+      <c r="BU10" s="248"/>
+      <c r="BV10" s="235" t="s">
+        <v>356</v>
+      </c>
+      <c r="BW10" s="213"/>
+      <c r="BX10" s="209" t="s">
         <v>137</v>
       </c>
-      <c r="BX10" s="214" t="s">
+      <c r="BY10" s="209" t="s">
         <v>283</v>
       </c>
-      <c r="BY10" s="216" t="s">
+      <c r="BZ10" s="211" t="s">
         <v>306</v>
       </c>
-      <c r="BZ10" s="260"/>
-      <c r="CA10" s="214" t="s">
+      <c r="CA10" s="251"/>
+      <c r="CB10" s="209" t="s">
         <v>28</v>
       </c>
-      <c r="CB10" s="214" t="s">
+      <c r="CC10" s="209" t="s">
         <v>386</v>
       </c>
-      <c r="CC10" s="216" t="s">
+      <c r="CD10" s="211" t="s">
         <v>305</v>
       </c>
-      <c r="CD10" s="264"/>
-      <c r="CE10" s="264"/>
-      <c r="CF10" s="264"/>
-      <c r="CG10" s="264"/>
-      <c r="CH10" s="253" t="s">
+      <c r="CE10" s="255"/>
+      <c r="CF10" s="255"/>
+      <c r="CG10" s="255"/>
+      <c r="CH10" s="255"/>
+      <c r="CI10" s="248" t="s">
         <v>307</v>
       </c>
-      <c r="CI10" s="253"/>
-      <c r="CL10" s="59" t="s">
+      <c r="CJ10" s="248"/>
+      <c r="CM10" s="59" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="11" spans="1:98" ht="23" customHeight="1">
-      <c r="A11" s="225" t="s">
+    <row r="11" spans="1:99" ht="23" customHeight="1">
+      <c r="A11" s="220" t="s">
         <v>373</v>
       </c>
       <c r="B11" s="101"/>
-      <c r="C11" s="201"/>
-      <c r="D11" s="211"/>
-      <c r="E11" s="211"/>
-      <c r="F11" s="211"/>
-      <c r="G11" s="221" t="s">
+      <c r="C11" s="197"/>
+      <c r="D11" s="206"/>
+      <c r="E11" s="206"/>
+      <c r="F11" s="206"/>
+      <c r="G11" s="216" t="s">
         <v>375</v>
       </c>
-      <c r="H11" s="221" t="s">
+      <c r="H11" s="216" t="s">
         <v>267</v>
       </c>
-      <c r="I11" s="221" t="s">
+      <c r="I11" s="216" t="s">
         <v>268</v>
       </c>
-      <c r="J11" s="221" t="s">
+      <c r="J11" s="216" t="s">
         <v>261</v>
       </c>
-      <c r="K11" s="221" t="s">
+      <c r="K11" s="216" t="s">
         <v>269</v>
       </c>
-      <c r="L11" s="221" t="s">
+      <c r="L11" s="216" t="s">
         <v>284</v>
       </c>
-      <c r="M11" s="221" t="s">
+      <c r="M11" s="216" t="s">
         <v>283</v>
       </c>
-      <c r="N11" s="221" t="s">
+      <c r="N11" s="216" t="s">
         <v>435</v>
       </c>
-      <c r="O11" s="221" t="s">
+      <c r="O11" s="216" t="s">
         <v>395</v>
       </c>
-      <c r="P11" s="193" t="s">
+      <c r="P11" s="189" t="s">
         <v>451</v>
       </c>
-      <c r="Q11" s="194"/>
-      <c r="R11" s="194"/>
-      <c r="S11" s="194"/>
-      <c r="T11" s="194"/>
-      <c r="U11" s="194"/>
-      <c r="V11" s="195"/>
-      <c r="W11" s="221" t="s">
+      <c r="Q11" s="190"/>
+      <c r="R11" s="190"/>
+      <c r="S11" s="190"/>
+      <c r="T11" s="190"/>
+      <c r="U11" s="190"/>
+      <c r="V11" s="191"/>
+      <c r="W11" s="216" t="s">
         <v>379</v>
       </c>
-      <c r="X11" s="221" t="s">
+      <c r="X11" s="216" t="s">
         <v>279</v>
       </c>
-      <c r="Y11" s="221" t="s">
+      <c r="Y11" s="216" t="s">
         <v>280</v>
       </c>
-      <c r="Z11" s="221" t="s">
+      <c r="Z11" s="216" t="s">
         <v>399</v>
       </c>
-      <c r="AA11" s="232" t="s">
+      <c r="AA11" s="227" t="s">
         <v>449</v>
       </c>
-      <c r="AB11" s="232"/>
-      <c r="AC11" s="232"/>
-      <c r="AD11" s="232"/>
-      <c r="AE11" s="232"/>
-      <c r="AF11" s="232"/>
-      <c r="AG11" s="232"/>
-      <c r="AH11" s="232"/>
-      <c r="AI11" s="232"/>
-      <c r="AJ11" s="232"/>
-      <c r="AK11" s="232"/>
-      <c r="AL11" s="232"/>
-      <c r="AM11" s="223" t="s">
+      <c r="AB11" s="227"/>
+      <c r="AC11" s="227"/>
+      <c r="AD11" s="227"/>
+      <c r="AE11" s="227"/>
+      <c r="AF11" s="227"/>
+      <c r="AG11" s="227"/>
+      <c r="AH11" s="227"/>
+      <c r="AI11" s="227"/>
+      <c r="AJ11" s="227"/>
+      <c r="AK11" s="227"/>
+      <c r="AL11" s="227"/>
+      <c r="AM11" s="218" t="s">
         <v>453</v>
       </c>
-      <c r="AN11" s="223" t="s">
+      <c r="AN11" s="218" t="s">
         <v>454</v>
       </c>
-      <c r="AO11" s="223" t="s">
+      <c r="AO11" s="218" t="s">
         <v>455</v>
       </c>
-      <c r="AP11" s="223" t="s">
+      <c r="AP11" s="218" t="s">
         <v>456</v>
       </c>
-      <c r="AQ11" s="223" t="s">
+      <c r="AQ11" s="218" t="s">
         <v>457</v>
       </c>
-      <c r="AR11" s="223" t="s">
+      <c r="AR11" s="218" t="s">
         <v>458</v>
       </c>
-      <c r="AS11" s="221" t="s">
+      <c r="AS11" s="216" t="s">
         <v>258</v>
       </c>
-      <c r="AT11" s="221" t="s">
+      <c r="AT11" s="216" t="s">
         <v>274</v>
       </c>
-      <c r="AU11" s="221" t="s">
+      <c r="AU11" s="216" t="s">
         <v>277</v>
       </c>
-      <c r="AV11" s="221" t="s">
+      <c r="AV11" s="216" t="s">
         <v>261</v>
       </c>
-      <c r="AW11" s="221" t="s">
+      <c r="AW11" s="216" t="s">
         <v>273</v>
       </c>
-      <c r="AX11" s="221" t="s">
+      <c r="AX11" s="216" t="s">
         <v>272</v>
       </c>
-      <c r="AY11" s="221" t="s">
+      <c r="AY11" s="216" t="s">
         <v>44</v>
       </c>
-      <c r="AZ11" s="221" t="s">
+      <c r="AZ11" s="216" t="s">
         <v>273</v>
       </c>
-      <c r="BA11" s="241" t="s">
+      <c r="BA11" s="236" t="s">
         <v>269</v>
       </c>
-      <c r="BB11" s="241" t="s">
+      <c r="BB11" s="236" t="s">
         <v>269</v>
       </c>
-      <c r="BC11" s="221" t="s">
+      <c r="BC11" s="216" t="s">
         <v>270</v>
       </c>
-      <c r="BD11" s="221" t="s">
+      <c r="BD11" s="216" t="s">
         <v>268</v>
       </c>
-      <c r="BE11" s="221" t="s">
+      <c r="BE11" s="216" t="s">
         <v>314</v>
       </c>
-      <c r="BF11" s="221" t="s">
+      <c r="BF11" s="216" t="s">
         <v>313</v>
       </c>
-      <c r="BG11" s="221" t="s">
+      <c r="BG11" s="216" t="s">
         <v>312</v>
       </c>
-      <c r="BH11" s="211"/>
-      <c r="BI11" s="211"/>
-      <c r="BJ11" s="211"/>
-      <c r="BK11" s="211"/>
-      <c r="BL11" s="250" t="s">
+      <c r="BH11" s="206"/>
+      <c r="BI11" s="206"/>
+      <c r="BJ11" s="206"/>
+      <c r="BK11" s="206"/>
+      <c r="BL11" s="245" t="s">
         <v>356</v>
       </c>
-      <c r="BM11" s="250" t="s">
+      <c r="BM11" s="245" t="s">
         <v>1</v>
       </c>
-      <c r="BN11" s="137" t="s">
+      <c r="BN11" s="265" t="s">
         <v>388</v>
       </c>
-      <c r="BO11" s="138"/>
-      <c r="BP11" s="139"/>
-      <c r="BQ11" s="221" t="s">
+      <c r="BO11" s="266"/>
+      <c r="BP11" s="266"/>
+      <c r="BQ11" s="267"/>
+      <c r="BR11" s="271" t="s">
         <v>422</v>
       </c>
-      <c r="BR11" s="254" t="s">
+      <c r="BS11" s="273" t="s">
         <v>425</v>
       </c>
-      <c r="BS11" s="255"/>
-      <c r="BT11" s="221" t="s">
+      <c r="BT11" s="274"/>
+      <c r="BU11" s="216" t="s">
         <v>403</v>
       </c>
-      <c r="BU11" s="125" t="s">
-        <v>371</v>
-      </c>
-      <c r="BV11" s="125" t="s">
-        <v>372</v>
-      </c>
-      <c r="BW11" s="211"/>
-      <c r="BX11" s="211"/>
-      <c r="BY11" s="223" t="s">
+      <c r="BV11" s="216" t="s">
+        <v>28</v>
+      </c>
+      <c r="BW11" s="216" t="s">
+        <v>403</v>
+      </c>
+      <c r="BX11" s="206"/>
+      <c r="BY11" s="206"/>
+      <c r="BZ11" s="218" t="s">
         <v>478</v>
       </c>
-      <c r="BZ11" s="223" t="s">
+      <c r="CA11" s="218" t="s">
         <v>479</v>
       </c>
-      <c r="CA11" s="211"/>
-      <c r="CB11" s="211"/>
-      <c r="CC11" s="223" t="s">
+      <c r="CB11" s="206"/>
+      <c r="CC11" s="206"/>
+      <c r="CD11" s="218" t="s">
         <v>384</v>
       </c>
-      <c r="CD11" s="223" t="s">
+      <c r="CE11" s="218" t="s">
         <v>385</v>
       </c>
-      <c r="CE11" s="223"/>
-      <c r="CF11" s="223"/>
-      <c r="CG11" s="223"/>
-      <c r="CH11" s="223" t="s">
+      <c r="CF11" s="218"/>
+      <c r="CG11" s="218"/>
+      <c r="CH11" s="218"/>
+      <c r="CI11" s="218" t="s">
         <v>308</v>
       </c>
-      <c r="CI11" s="223" t="s">
+      <c r="CJ11" s="218" t="s">
         <v>309</v>
       </c>
-      <c r="CL11" t="s">
+      <c r="CM11" t="s">
         <v>136</v>
       </c>
-      <c r="CM11" t="s">
+      <c r="CN11" t="s">
         <v>137</v>
       </c>
-      <c r="CN11" t="s">
+      <c r="CO11" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:98" ht="47" customHeight="1">
-      <c r="A12" s="226"/>
+    <row r="12" spans="1:99" ht="47" customHeight="1">
+      <c r="A12" s="221"/>
       <c r="B12" s="101"/>
-      <c r="C12" s="201"/>
-      <c r="D12" s="212"/>
-      <c r="E12" s="212"/>
-      <c r="F12" s="212"/>
-      <c r="G12" s="222"/>
-      <c r="H12" s="222"/>
-      <c r="I12" s="222"/>
-      <c r="J12" s="222"/>
-      <c r="K12" s="222"/>
-      <c r="L12" s="222"/>
-      <c r="M12" s="222"/>
-      <c r="N12" s="222"/>
-      <c r="O12" s="222"/>
-      <c r="P12" s="131" t="s">
+      <c r="C12" s="197"/>
+      <c r="D12" s="207"/>
+      <c r="E12" s="207"/>
+      <c r="F12" s="207"/>
+      <c r="G12" s="217"/>
+      <c r="H12" s="217"/>
+      <c r="I12" s="217"/>
+      <c r="J12" s="217"/>
+      <c r="K12" s="217"/>
+      <c r="L12" s="217"/>
+      <c r="M12" s="217"/>
+      <c r="N12" s="217"/>
+      <c r="O12" s="217"/>
+      <c r="P12" s="127" t="s">
         <v>452</v>
       </c>
-      <c r="Q12" s="132"/>
-      <c r="R12" s="132"/>
-      <c r="S12" s="132"/>
-      <c r="T12" s="132"/>
-      <c r="U12" s="132"/>
-      <c r="V12" s="133"/>
-      <c r="W12" s="222"/>
-      <c r="X12" s="222"/>
-      <c r="Y12" s="222"/>
-      <c r="Z12" s="222"/>
-      <c r="AA12" s="130" t="s">
+      <c r="Q12" s="128"/>
+      <c r="R12" s="128"/>
+      <c r="S12" s="128"/>
+      <c r="T12" s="128"/>
+      <c r="U12" s="128"/>
+      <c r="V12" s="129"/>
+      <c r="W12" s="217"/>
+      <c r="X12" s="217"/>
+      <c r="Y12" s="217"/>
+      <c r="Z12" s="217"/>
+      <c r="AA12" s="126" t="s">
         <v>450</v>
       </c>
-      <c r="AB12" s="130"/>
-      <c r="AC12" s="130"/>
-      <c r="AD12" s="130"/>
-      <c r="AE12" s="130"/>
-      <c r="AF12" s="130"/>
-      <c r="AG12" s="130"/>
-      <c r="AH12" s="130"/>
-      <c r="AI12" s="130"/>
-      <c r="AJ12" s="130"/>
-      <c r="AK12" s="130"/>
-      <c r="AL12" s="130"/>
-      <c r="AM12" s="223"/>
-      <c r="AN12" s="223"/>
-      <c r="AO12" s="223"/>
-      <c r="AP12" s="223"/>
-      <c r="AQ12" s="223"/>
-      <c r="AR12" s="223"/>
-      <c r="AS12" s="222"/>
-      <c r="AT12" s="222"/>
-      <c r="AU12" s="222"/>
-      <c r="AV12" s="222"/>
-      <c r="AW12" s="222"/>
-      <c r="AX12" s="222"/>
-      <c r="AY12" s="222"/>
-      <c r="AZ12" s="222"/>
+      <c r="AB12" s="126"/>
+      <c r="AC12" s="126"/>
+      <c r="AD12" s="126"/>
+      <c r="AE12" s="126"/>
+      <c r="AF12" s="126"/>
+      <c r="AG12" s="126"/>
+      <c r="AH12" s="126"/>
+      <c r="AI12" s="126"/>
+      <c r="AJ12" s="126"/>
+      <c r="AK12" s="126"/>
+      <c r="AL12" s="126"/>
+      <c r="AM12" s="218"/>
+      <c r="AN12" s="218"/>
+      <c r="AO12" s="218"/>
+      <c r="AP12" s="218"/>
+      <c r="AQ12" s="218"/>
+      <c r="AR12" s="218"/>
+      <c r="AS12" s="217"/>
+      <c r="AT12" s="217"/>
+      <c r="AU12" s="217"/>
+      <c r="AV12" s="217"/>
+      <c r="AW12" s="217"/>
+      <c r="AX12" s="217"/>
+      <c r="AY12" s="217"/>
+      <c r="AZ12" s="217"/>
       <c r="BA12" s="96" t="s">
         <v>462</v>
       </c>
       <c r="BB12" s="96" t="s">
         <v>463</v>
       </c>
-      <c r="BC12" s="222"/>
-      <c r="BD12" s="222"/>
-      <c r="BE12" s="222"/>
-      <c r="BF12" s="222"/>
-      <c r="BG12" s="222"/>
-      <c r="BH12" s="212"/>
-      <c r="BI12" s="212"/>
-      <c r="BJ12" s="212"/>
-      <c r="BK12" s="212"/>
-      <c r="BL12" s="251"/>
-      <c r="BM12" s="251"/>
-      <c r="BN12" s="121"/>
-      <c r="BO12" s="122"/>
-      <c r="BP12" s="123"/>
-      <c r="BQ12" s="222"/>
-      <c r="BR12" s="256"/>
-      <c r="BS12" s="257"/>
-      <c r="BT12" s="222"/>
-      <c r="BU12" s="125"/>
-      <c r="BV12" s="125"/>
-      <c r="BW12" s="212"/>
-      <c r="BX12" s="212"/>
-      <c r="BY12" s="223"/>
-      <c r="BZ12" s="223"/>
-      <c r="CA12" s="212"/>
-      <c r="CB12" s="212"/>
-      <c r="CC12" s="223"/>
-      <c r="CD12" s="223"/>
-      <c r="CE12" s="223"/>
-      <c r="CF12" s="223"/>
-      <c r="CG12" s="223"/>
-      <c r="CH12" s="223"/>
-      <c r="CI12" s="223"/>
-    </row>
-    <row r="13" spans="1:98" ht="32" customHeight="1">
-      <c r="A13" s="199" t="s">
+      <c r="BC12" s="217"/>
+      <c r="BD12" s="217"/>
+      <c r="BE12" s="217"/>
+      <c r="BF12" s="217"/>
+      <c r="BG12" s="217"/>
+      <c r="BH12" s="207"/>
+      <c r="BI12" s="207"/>
+      <c r="BJ12" s="207"/>
+      <c r="BK12" s="207"/>
+      <c r="BL12" s="246"/>
+      <c r="BM12" s="246"/>
+      <c r="BN12" s="268"/>
+      <c r="BO12" s="269"/>
+      <c r="BP12" s="269"/>
+      <c r="BQ12" s="270"/>
+      <c r="BR12" s="272"/>
+      <c r="BS12" s="275"/>
+      <c r="BT12" s="276"/>
+      <c r="BU12" s="217"/>
+      <c r="BV12" s="217"/>
+      <c r="BW12" s="217"/>
+      <c r="BX12" s="207"/>
+      <c r="BY12" s="207"/>
+      <c r="BZ12" s="218"/>
+      <c r="CA12" s="218"/>
+      <c r="CB12" s="207"/>
+      <c r="CC12" s="207"/>
+      <c r="CD12" s="218"/>
+      <c r="CE12" s="218"/>
+      <c r="CF12" s="218"/>
+      <c r="CG12" s="218"/>
+      <c r="CH12" s="218"/>
+      <c r="CI12" s="218"/>
+      <c r="CJ12" s="218"/>
+    </row>
+    <row r="13" spans="1:99" ht="32" customHeight="1">
+      <c r="A13" s="195" t="s">
         <v>374</v>
       </c>
-      <c r="B13" s="202"/>
-      <c r="C13" s="201"/>
-      <c r="D13" s="212"/>
-      <c r="E13" s="212"/>
-      <c r="F13" s="212"/>
-      <c r="G13" s="230"/>
-      <c r="H13" s="230"/>
-      <c r="I13" s="230"/>
-      <c r="J13" s="230"/>
-      <c r="K13" s="230"/>
-      <c r="L13" s="230"/>
-      <c r="M13" s="230"/>
-      <c r="N13" s="230"/>
-      <c r="O13" s="230"/>
-      <c r="P13" s="193" t="s">
+      <c r="B13" s="198"/>
+      <c r="C13" s="197"/>
+      <c r="D13" s="207"/>
+      <c r="E13" s="207"/>
+      <c r="F13" s="207"/>
+      <c r="G13" s="225"/>
+      <c r="H13" s="225"/>
+      <c r="I13" s="225"/>
+      <c r="J13" s="225"/>
+      <c r="K13" s="225"/>
+      <c r="L13" s="225"/>
+      <c r="M13" s="225"/>
+      <c r="N13" s="225"/>
+      <c r="O13" s="225"/>
+      <c r="P13" s="189" t="s">
         <v>263</v>
       </c>
-      <c r="Q13" s="194"/>
-      <c r="R13" s="194"/>
-      <c r="S13" s="194"/>
-      <c r="T13" s="194"/>
-      <c r="U13" s="194"/>
-      <c r="V13" s="195"/>
-      <c r="W13" s="230"/>
-      <c r="X13" s="230"/>
-      <c r="Y13" s="230"/>
-      <c r="Z13" s="230"/>
-      <c r="AA13" s="232" t="s">
+      <c r="Q13" s="190"/>
+      <c r="R13" s="190"/>
+      <c r="S13" s="190"/>
+      <c r="T13" s="190"/>
+      <c r="U13" s="190"/>
+      <c r="V13" s="191"/>
+      <c r="W13" s="225"/>
+      <c r="X13" s="225"/>
+      <c r="Y13" s="225"/>
+      <c r="Z13" s="225"/>
+      <c r="AA13" s="227" t="s">
         <v>263</v>
       </c>
-      <c r="AB13" s="232"/>
-      <c r="AC13" s="232"/>
-      <c r="AD13" s="232"/>
-      <c r="AE13" s="232"/>
-      <c r="AF13" s="232"/>
-      <c r="AG13" s="232"/>
-      <c r="AH13" s="232"/>
-      <c r="AI13" s="232"/>
-      <c r="AJ13" s="232"/>
-      <c r="AK13" s="232"/>
-      <c r="AL13" s="232"/>
-      <c r="AM13" s="230"/>
-      <c r="AN13" s="230"/>
-      <c r="AO13" s="230"/>
-      <c r="AP13" s="230"/>
-      <c r="AQ13" s="230"/>
-      <c r="AR13" s="230"/>
-      <c r="AS13" s="230"/>
-      <c r="AT13" s="230"/>
-      <c r="AU13" s="230"/>
-      <c r="AV13" s="230"/>
-      <c r="AW13" s="230"/>
-      <c r="AX13" s="230"/>
-      <c r="AY13" s="230"/>
-      <c r="AZ13" s="230"/>
-      <c r="BA13" s="230"/>
-      <c r="BB13" s="230"/>
-      <c r="BC13" s="230"/>
-      <c r="BD13" s="230"/>
-      <c r="BE13" s="241" t="s">
+      <c r="AB13" s="227"/>
+      <c r="AC13" s="227"/>
+      <c r="AD13" s="227"/>
+      <c r="AE13" s="227"/>
+      <c r="AF13" s="227"/>
+      <c r="AG13" s="227"/>
+      <c r="AH13" s="227"/>
+      <c r="AI13" s="227"/>
+      <c r="AJ13" s="227"/>
+      <c r="AK13" s="227"/>
+      <c r="AL13" s="227"/>
+      <c r="AM13" s="225"/>
+      <c r="AN13" s="225"/>
+      <c r="AO13" s="225"/>
+      <c r="AP13" s="225"/>
+      <c r="AQ13" s="225"/>
+      <c r="AR13" s="225"/>
+      <c r="AS13" s="225"/>
+      <c r="AT13" s="225"/>
+      <c r="AU13" s="225"/>
+      <c r="AV13" s="225"/>
+      <c r="AW13" s="225"/>
+      <c r="AX13" s="225"/>
+      <c r="AY13" s="225"/>
+      <c r="AZ13" s="225"/>
+      <c r="BA13" s="225"/>
+      <c r="BB13" s="225"/>
+      <c r="BC13" s="225"/>
+      <c r="BD13" s="225"/>
+      <c r="BE13" s="236" t="s">
         <v>269</v>
       </c>
-      <c r="BF13" s="230"/>
+      <c r="BF13" s="225"/>
       <c r="BG13" s="69"/>
-      <c r="BH13" s="212"/>
-      <c r="BI13" s="212"/>
-      <c r="BJ13" s="212"/>
-      <c r="BK13" s="212"/>
-      <c r="BL13" s="252" t="s">
+      <c r="BH13" s="207"/>
+      <c r="BI13" s="207"/>
+      <c r="BJ13" s="207"/>
+      <c r="BK13" s="207"/>
+      <c r="BL13" s="247" t="s">
         <v>473</v>
       </c>
-      <c r="BM13" s="252" t="s">
+      <c r="BM13" s="247" t="s">
         <v>472</v>
       </c>
-      <c r="BN13" s="121"/>
-      <c r="BO13" s="122"/>
-      <c r="BP13" s="123"/>
-      <c r="BQ13" s="114"/>
-      <c r="BR13" s="221" t="s">
+      <c r="BN13" s="218" t="s">
+        <v>301</v>
+      </c>
+      <c r="BO13" s="218" t="s">
+        <v>268</v>
+      </c>
+      <c r="BP13" s="218" t="s">
+        <v>261</v>
+      </c>
+      <c r="BQ13" s="218" t="s">
+        <v>269</v>
+      </c>
+      <c r="BR13" s="206"/>
+      <c r="BS13" s="277" t="s">
         <v>428</v>
       </c>
-      <c r="BS13" s="221" t="s">
+      <c r="BT13" s="216" t="s">
         <v>426</v>
       </c>
-      <c r="BT13" s="241" t="s">
+      <c r="BU13" s="236" t="s">
         <v>269</v>
       </c>
-      <c r="BU13" s="125"/>
-      <c r="BV13" s="125"/>
-      <c r="BW13" s="212"/>
-      <c r="BX13" s="212"/>
-      <c r="BY13" s="262"/>
-      <c r="BZ13" s="262"/>
-      <c r="CA13" s="212"/>
-      <c r="CB13" s="212"/>
-      <c r="CC13" s="262"/>
-      <c r="CD13" s="223">
+      <c r="BV13" s="253"/>
+      <c r="BW13" s="253"/>
+      <c r="BX13" s="207"/>
+      <c r="BY13" s="207"/>
+      <c r="BZ13" s="253"/>
+      <c r="CA13" s="253"/>
+      <c r="CB13" s="207"/>
+      <c r="CC13" s="207"/>
+      <c r="CD13" s="253"/>
+      <c r="CE13" s="218">
         <v>1</v>
       </c>
-      <c r="CE13" s="223">
+      <c r="CF13" s="218">
         <v>2</v>
       </c>
-      <c r="CF13" s="223">
+      <c r="CG13" s="218">
         <v>3</v>
       </c>
-      <c r="CG13" s="223">
+      <c r="CH13" s="218">
         <v>4</v>
       </c>
-      <c r="CH13" s="262"/>
-      <c r="CI13" s="262"/>
-    </row>
-    <row r="14" spans="1:98" ht="34">
-      <c r="A14" s="199"/>
-      <c r="B14" s="202"/>
-      <c r="C14" s="201"/>
-      <c r="D14" s="212"/>
-      <c r="E14" s="212"/>
-      <c r="F14" s="212"/>
-      <c r="G14" s="231"/>
-      <c r="H14" s="231"/>
-      <c r="I14" s="231"/>
-      <c r="J14" s="231"/>
-      <c r="K14" s="231"/>
-      <c r="L14" s="231"/>
-      <c r="M14" s="231"/>
-      <c r="N14" s="231"/>
-      <c r="O14" s="231"/>
-      <c r="P14" s="204" t="s">
+      <c r="CI13" s="253"/>
+      <c r="CJ13" s="253"/>
+    </row>
+    <row r="14" spans="1:99" ht="34">
+      <c r="A14" s="195"/>
+      <c r="B14" s="198"/>
+      <c r="C14" s="197"/>
+      <c r="D14" s="207"/>
+      <c r="E14" s="207"/>
+      <c r="F14" s="207"/>
+      <c r="G14" s="226"/>
+      <c r="H14" s="226"/>
+      <c r="I14" s="226"/>
+      <c r="J14" s="226"/>
+      <c r="K14" s="226"/>
+      <c r="L14" s="226"/>
+      <c r="M14" s="226"/>
+      <c r="N14" s="226"/>
+      <c r="O14" s="226"/>
+      <c r="P14" s="200" t="s">
         <v>136</v>
       </c>
-      <c r="Q14" s="204" t="s">
+      <c r="Q14" s="200" t="s">
         <v>137</v>
       </c>
-      <c r="R14" s="220" t="s">
+      <c r="R14" s="215" t="s">
         <v>429</v>
       </c>
-      <c r="S14" s="227"/>
-      <c r="T14" s="227"/>
-      <c r="U14" s="227"/>
-      <c r="V14" s="224"/>
-      <c r="W14" s="231"/>
-      <c r="X14" s="231"/>
-      <c r="Y14" s="231"/>
-      <c r="Z14" s="231"/>
-      <c r="AA14" s="233" t="s">
+      <c r="S14" s="222"/>
+      <c r="T14" s="222"/>
+      <c r="U14" s="222"/>
+      <c r="V14" s="219"/>
+      <c r="W14" s="226"/>
+      <c r="X14" s="226"/>
+      <c r="Y14" s="226"/>
+      <c r="Z14" s="226"/>
+      <c r="AA14" s="228" t="s">
         <v>136</v>
       </c>
-      <c r="AB14" s="233" t="s">
+      <c r="AB14" s="228" t="s">
         <v>137</v>
       </c>
-      <c r="AC14" s="233" t="s">
+      <c r="AC14" s="228" t="s">
         <v>282</v>
       </c>
-      <c r="AD14" s="233" t="s">
+      <c r="AD14" s="228" t="s">
         <v>281</v>
       </c>
-      <c r="AE14" s="234" t="s">
+      <c r="AE14" s="229" t="s">
         <v>429</v>
       </c>
-      <c r="AF14" s="235"/>
-      <c r="AG14" s="235"/>
-      <c r="AH14" s="236"/>
-      <c r="AI14" s="234" t="s">
+      <c r="AF14" s="230"/>
+      <c r="AG14" s="230"/>
+      <c r="AH14" s="231"/>
+      <c r="AI14" s="229" t="s">
         <v>140</v>
       </c>
-      <c r="AJ14" s="235"/>
-      <c r="AK14" s="235"/>
-      <c r="AL14" s="236"/>
-      <c r="AM14" s="231"/>
-      <c r="AN14" s="231"/>
-      <c r="AO14" s="231"/>
-      <c r="AP14" s="231"/>
-      <c r="AQ14" s="231"/>
-      <c r="AR14" s="231"/>
-      <c r="AS14" s="231"/>
-      <c r="AT14" s="231"/>
-      <c r="AU14" s="231"/>
-      <c r="AV14" s="231"/>
-      <c r="AW14" s="231"/>
-      <c r="AX14" s="231"/>
-      <c r="AY14" s="231"/>
-      <c r="AZ14" s="231"/>
-      <c r="BA14" s="231"/>
-      <c r="BB14" s="231"/>
-      <c r="BC14" s="231"/>
-      <c r="BD14" s="231"/>
+      <c r="AJ14" s="230"/>
+      <c r="AK14" s="230"/>
+      <c r="AL14" s="231"/>
+      <c r="AM14" s="226"/>
+      <c r="AN14" s="226"/>
+      <c r="AO14" s="226"/>
+      <c r="AP14" s="226"/>
+      <c r="AQ14" s="226"/>
+      <c r="AR14" s="226"/>
+      <c r="AS14" s="226"/>
+      <c r="AT14" s="226"/>
+      <c r="AU14" s="226"/>
+      <c r="AV14" s="226"/>
+      <c r="AW14" s="226"/>
+      <c r="AX14" s="226"/>
+      <c r="AY14" s="226"/>
+      <c r="AZ14" s="226"/>
+      <c r="BA14" s="226"/>
+      <c r="BB14" s="226"/>
+      <c r="BC14" s="226"/>
+      <c r="BD14" s="226"/>
       <c r="BE14" s="96" t="s">
         <v>465</v>
       </c>
-      <c r="BF14" s="231"/>
+      <c r="BF14" s="226"/>
       <c r="BG14" s="69"/>
-      <c r="BH14" s="212"/>
-      <c r="BI14" s="212"/>
-      <c r="BJ14" s="212"/>
-      <c r="BK14" s="212"/>
+      <c r="BH14" s="207"/>
+      <c r="BI14" s="207"/>
+      <c r="BJ14" s="207"/>
+      <c r="BK14" s="207"/>
       <c r="BL14" s="54" t="s">
         <v>471</v>
       </c>
       <c r="BM14" s="54" t="s">
         <v>450</v>
       </c>
-      <c r="BN14" s="124" t="s">
-        <v>301</v>
-      </c>
-      <c r="BO14" s="124" t="s">
-        <v>268</v>
-      </c>
-      <c r="BP14" s="124" t="s">
-        <v>261</v>
-      </c>
-      <c r="BQ14" s="11"/>
-      <c r="BR14" s="222"/>
-      <c r="BS14" s="222"/>
-      <c r="BT14" s="96" t="s">
+      <c r="BN14" s="218"/>
+      <c r="BO14" s="218"/>
+      <c r="BP14" s="218"/>
+      <c r="BQ14" s="218"/>
+      <c r="BR14" s="207"/>
+      <c r="BS14" s="278"/>
+      <c r="BT14" s="217"/>
+      <c r="BU14" s="96" t="s">
         <v>462</v>
       </c>
-      <c r="BU14" s="11"/>
-      <c r="BV14" s="11"/>
-      <c r="BW14" s="212"/>
-      <c r="BX14" s="212"/>
-      <c r="BY14" s="263"/>
-      <c r="BZ14" s="263"/>
-      <c r="CA14" s="212"/>
-      <c r="CB14" s="212"/>
-      <c r="CC14" s="263"/>
-      <c r="CD14" s="223"/>
-      <c r="CE14" s="223"/>
-      <c r="CF14" s="223"/>
-      <c r="CG14" s="223"/>
-      <c r="CH14" s="263"/>
-      <c r="CI14" s="263"/>
-      <c r="CN14" t="s">
+      <c r="BV14" s="254"/>
+      <c r="BW14" s="254"/>
+      <c r="BX14" s="207"/>
+      <c r="BY14" s="207"/>
+      <c r="BZ14" s="254"/>
+      <c r="CA14" s="254"/>
+      <c r="CB14" s="207"/>
+      <c r="CC14" s="207"/>
+      <c r="CD14" s="254"/>
+      <c r="CE14" s="218"/>
+      <c r="CF14" s="218"/>
+      <c r="CG14" s="218"/>
+      <c r="CH14" s="218"/>
+      <c r="CI14" s="254"/>
+      <c r="CJ14" s="254"/>
+      <c r="CO14" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:98" ht="24">
-      <c r="A15" s="225" t="s">
+    <row r="15" spans="1:99" ht="24">
+      <c r="A15" s="220" t="s">
         <v>404</v>
       </c>
-      <c r="B15" s="202"/>
-      <c r="C15" s="201"/>
-      <c r="D15" s="212"/>
-      <c r="E15" s="212"/>
-      <c r="F15" s="212"/>
-      <c r="G15" s="231"/>
-      <c r="H15" s="231"/>
-      <c r="I15" s="231"/>
-      <c r="J15" s="231"/>
-      <c r="K15" s="231"/>
-      <c r="L15" s="231"/>
-      <c r="M15" s="231"/>
-      <c r="N15" s="231"/>
-      <c r="O15" s="231"/>
-      <c r="P15" s="268"/>
-      <c r="Q15" s="268"/>
-      <c r="R15" s="223" t="s">
+      <c r="B15" s="198"/>
+      <c r="C15" s="197"/>
+      <c r="D15" s="207"/>
+      <c r="E15" s="207"/>
+      <c r="F15" s="207"/>
+      <c r="G15" s="226"/>
+      <c r="H15" s="226"/>
+      <c r="I15" s="226"/>
+      <c r="J15" s="226"/>
+      <c r="K15" s="226"/>
+      <c r="L15" s="226"/>
+      <c r="M15" s="226"/>
+      <c r="N15" s="226"/>
+      <c r="O15" s="226"/>
+      <c r="P15" s="259"/>
+      <c r="Q15" s="259"/>
+      <c r="R15" s="218" t="s">
         <v>141</v>
       </c>
-      <c r="S15" s="258" t="s">
+      <c r="S15" s="249" t="s">
         <v>146</v>
       </c>
-      <c r="T15" s="258" t="s">
+      <c r="T15" s="249" t="s">
         <v>408</v>
       </c>
-      <c r="U15" s="258" t="s">
+      <c r="U15" s="249" t="s">
         <v>409</v>
       </c>
-      <c r="V15" s="258" t="s">
+      <c r="V15" s="249" t="s">
         <v>410</v>
       </c>
-      <c r="W15" s="231"/>
-      <c r="X15" s="231"/>
-      <c r="Y15" s="231"/>
-      <c r="Z15" s="231"/>
-      <c r="AA15" s="268"/>
-      <c r="AB15" s="268"/>
-      <c r="AC15" s="268"/>
-      <c r="AD15" s="268"/>
-      <c r="AE15" s="249" t="s">
+      <c r="W15" s="226"/>
+      <c r="X15" s="226"/>
+      <c r="Y15" s="226"/>
+      <c r="Z15" s="226"/>
+      <c r="AA15" s="259"/>
+      <c r="AB15" s="259"/>
+      <c r="AC15" s="259"/>
+      <c r="AD15" s="259"/>
+      <c r="AE15" s="244" t="s">
         <v>141</v>
       </c>
-      <c r="AF15" s="249" t="s">
+      <c r="AF15" s="244" t="s">
         <v>146</v>
       </c>
-      <c r="AG15" s="249" t="s">
+      <c r="AG15" s="244" t="s">
         <v>400</v>
       </c>
-      <c r="AH15" s="249" t="s">
+      <c r="AH15" s="244" t="s">
         <v>401</v>
       </c>
-      <c r="AI15" s="249" t="s">
+      <c r="AI15" s="244" t="s">
         <v>141</v>
       </c>
-      <c r="AJ15" s="249" t="s">
+      <c r="AJ15" s="244" t="s">
         <v>142</v>
       </c>
-      <c r="AK15" s="249" t="s">
+      <c r="AK15" s="244" t="s">
         <v>143</v>
       </c>
-      <c r="AL15" s="249" t="s">
+      <c r="AL15" s="244" t="s">
         <v>144</v>
       </c>
-      <c r="AM15" s="231"/>
-      <c r="AN15" s="231"/>
-      <c r="AO15" s="231"/>
-      <c r="AP15" s="231"/>
-      <c r="AQ15" s="231"/>
-      <c r="AR15" s="231"/>
-      <c r="AS15" s="231"/>
-      <c r="AT15" s="231"/>
-      <c r="AU15" s="231"/>
-      <c r="AV15" s="231"/>
-      <c r="AW15" s="231"/>
-      <c r="AX15" s="231"/>
-      <c r="AY15" s="231"/>
-      <c r="AZ15" s="231"/>
-      <c r="BA15" s="231"/>
-      <c r="BB15" s="231"/>
-      <c r="BC15" s="231"/>
-      <c r="BD15" s="231"/>
-      <c r="BE15" s="269"/>
-      <c r="BF15" s="231"/>
+      <c r="AM15" s="226"/>
+      <c r="AN15" s="226"/>
+      <c r="AO15" s="226"/>
+      <c r="AP15" s="226"/>
+      <c r="AQ15" s="226"/>
+      <c r="AR15" s="226"/>
+      <c r="AS15" s="226"/>
+      <c r="AT15" s="226"/>
+      <c r="AU15" s="226"/>
+      <c r="AV15" s="226"/>
+      <c r="AW15" s="226"/>
+      <c r="AX15" s="226"/>
+      <c r="AY15" s="226"/>
+      <c r="AZ15" s="226"/>
+      <c r="BA15" s="226"/>
+      <c r="BB15" s="226"/>
+      <c r="BC15" s="226"/>
+      <c r="BD15" s="226"/>
+      <c r="BE15" s="260"/>
+      <c r="BF15" s="226"/>
       <c r="BG15" s="69"/>
-      <c r="BH15" s="212"/>
-      <c r="BI15" s="212"/>
-      <c r="BJ15" s="212"/>
-      <c r="BK15" s="212"/>
-      <c r="BL15" s="269"/>
-      <c r="BM15" s="269"/>
-      <c r="BN15" s="269"/>
-      <c r="BO15" s="269"/>
-      <c r="BP15" s="269"/>
-      <c r="BQ15" s="11"/>
-      <c r="BR15" s="241" t="s">
+      <c r="BH15" s="207"/>
+      <c r="BI15" s="207"/>
+      <c r="BJ15" s="207"/>
+      <c r="BK15" s="207"/>
+      <c r="BL15" s="260"/>
+      <c r="BM15" s="260"/>
+      <c r="BN15" s="260"/>
+      <c r="BO15" s="260"/>
+      <c r="BP15" s="264"/>
+      <c r="BQ15" s="260"/>
+      <c r="BR15" s="207"/>
+      <c r="BS15" s="236" t="s">
         <v>269</v>
       </c>
-      <c r="BS15" s="241" t="s">
+      <c r="BT15" s="236" t="s">
         <v>269</v>
       </c>
-      <c r="BT15" s="269"/>
-      <c r="BU15" s="11"/>
-      <c r="BV15" s="11"/>
-      <c r="BW15" s="212"/>
-      <c r="BX15" s="212"/>
-      <c r="BY15" s="263"/>
-      <c r="BZ15" s="263"/>
-      <c r="CA15" s="212"/>
-      <c r="CB15" s="212"/>
-      <c r="CC15" s="263"/>
-      <c r="CD15" s="269"/>
-      <c r="CE15" s="269"/>
-      <c r="CF15" s="269"/>
-      <c r="CG15" s="269"/>
-      <c r="CH15" s="263"/>
-      <c r="CI15" s="263"/>
-    </row>
-    <row r="16" spans="1:98" ht="47" customHeight="1">
-      <c r="A16" s="226"/>
+      <c r="BU15" s="260"/>
+      <c r="BV15" s="254"/>
+      <c r="BW15" s="254"/>
+      <c r="BX15" s="207"/>
+      <c r="BY15" s="207"/>
+      <c r="BZ15" s="254"/>
+      <c r="CA15" s="254"/>
+      <c r="CB15" s="207"/>
+      <c r="CC15" s="207"/>
+      <c r="CD15" s="254"/>
+      <c r="CE15" s="260"/>
+      <c r="CF15" s="260"/>
+      <c r="CG15" s="260"/>
+      <c r="CH15" s="260"/>
+      <c r="CI15" s="254"/>
+      <c r="CJ15" s="254"/>
+    </row>
+    <row r="16" spans="1:99" ht="47" customHeight="1">
+      <c r="A16" s="221"/>
       <c r="B16" s="101"/>
-      <c r="C16" s="201"/>
-      <c r="D16" s="212"/>
-      <c r="E16" s="212"/>
-      <c r="F16" s="212"/>
-      <c r="G16" s="231"/>
-      <c r="H16" s="231"/>
-      <c r="I16" s="231"/>
-      <c r="J16" s="231"/>
-      <c r="K16" s="231"/>
-      <c r="L16" s="231"/>
-      <c r="M16" s="231"/>
-      <c r="N16" s="231"/>
-      <c r="O16" s="231"/>
-      <c r="P16" s="267"/>
-      <c r="Q16" s="267"/>
-      <c r="R16" s="223"/>
-      <c r="S16" s="258"/>
-      <c r="T16" s="258"/>
-      <c r="U16" s="258"/>
-      <c r="V16" s="258"/>
-      <c r="W16" s="231"/>
-      <c r="X16" s="231"/>
-      <c r="Y16" s="231"/>
-      <c r="Z16" s="231"/>
-      <c r="AA16" s="267"/>
-      <c r="AB16" s="267"/>
-      <c r="AC16" s="267"/>
-      <c r="AD16" s="267"/>
-      <c r="AE16" s="249"/>
-      <c r="AF16" s="249"/>
-      <c r="AG16" s="249"/>
-      <c r="AH16" s="249"/>
-      <c r="AI16" s="249"/>
-      <c r="AJ16" s="249"/>
-      <c r="AK16" s="249"/>
-      <c r="AL16" s="249"/>
-      <c r="AM16" s="231"/>
-      <c r="AN16" s="231"/>
-      <c r="AO16" s="231"/>
-      <c r="AP16" s="231"/>
-      <c r="AQ16" s="231"/>
-      <c r="AR16" s="231"/>
-      <c r="AS16" s="231"/>
-      <c r="AT16" s="231"/>
-      <c r="AU16" s="231"/>
-      <c r="AV16" s="231"/>
-      <c r="AW16" s="231"/>
-      <c r="AX16" s="231"/>
-      <c r="AY16" s="231"/>
-      <c r="AZ16" s="231"/>
-      <c r="BA16" s="231"/>
-      <c r="BB16" s="231"/>
-      <c r="BC16" s="231"/>
-      <c r="BD16" s="231"/>
-      <c r="BE16" s="270"/>
-      <c r="BF16" s="231"/>
+      <c r="C16" s="197"/>
+      <c r="D16" s="207"/>
+      <c r="E16" s="207"/>
+      <c r="F16" s="207"/>
+      <c r="G16" s="226"/>
+      <c r="H16" s="226"/>
+      <c r="I16" s="226"/>
+      <c r="J16" s="226"/>
+      <c r="K16" s="226"/>
+      <c r="L16" s="226"/>
+      <c r="M16" s="226"/>
+      <c r="N16" s="226"/>
+      <c r="O16" s="226"/>
+      <c r="P16" s="258"/>
+      <c r="Q16" s="258"/>
+      <c r="R16" s="218"/>
+      <c r="S16" s="249"/>
+      <c r="T16" s="249"/>
+      <c r="U16" s="249"/>
+      <c r="V16" s="249"/>
+      <c r="W16" s="226"/>
+      <c r="X16" s="226"/>
+      <c r="Y16" s="226"/>
+      <c r="Z16" s="226"/>
+      <c r="AA16" s="258"/>
+      <c r="AB16" s="258"/>
+      <c r="AC16" s="258"/>
+      <c r="AD16" s="258"/>
+      <c r="AE16" s="244"/>
+      <c r="AF16" s="244"/>
+      <c r="AG16" s="244"/>
+      <c r="AH16" s="244"/>
+      <c r="AI16" s="244"/>
+      <c r="AJ16" s="244"/>
+      <c r="AK16" s="244"/>
+      <c r="AL16" s="244"/>
+      <c r="AM16" s="226"/>
+      <c r="AN16" s="226"/>
+      <c r="AO16" s="226"/>
+      <c r="AP16" s="226"/>
+      <c r="AQ16" s="226"/>
+      <c r="AR16" s="226"/>
+      <c r="AS16" s="226"/>
+      <c r="AT16" s="226"/>
+      <c r="AU16" s="226"/>
+      <c r="AV16" s="226"/>
+      <c r="AW16" s="226"/>
+      <c r="AX16" s="226"/>
+      <c r="AY16" s="226"/>
+      <c r="AZ16" s="226"/>
+      <c r="BA16" s="226"/>
+      <c r="BB16" s="226"/>
+      <c r="BC16" s="226"/>
+      <c r="BD16" s="226"/>
+      <c r="BE16" s="261"/>
+      <c r="BF16" s="226"/>
       <c r="BG16" s="69"/>
-      <c r="BH16" s="212"/>
-      <c r="BI16" s="212"/>
-      <c r="BJ16" s="212"/>
-      <c r="BK16" s="212"/>
-      <c r="BL16" s="270"/>
-      <c r="BM16" s="270"/>
-      <c r="BN16" s="270"/>
-      <c r="BO16" s="270"/>
-      <c r="BP16" s="270"/>
-      <c r="BQ16" s="11"/>
-      <c r="BR16" s="96" t="s">
+      <c r="BH16" s="207"/>
+      <c r="BI16" s="207"/>
+      <c r="BJ16" s="207"/>
+      <c r="BK16" s="207"/>
+      <c r="BL16" s="261"/>
+      <c r="BM16" s="261"/>
+      <c r="BN16" s="261"/>
+      <c r="BO16" s="261"/>
+      <c r="BP16" s="256"/>
+      <c r="BQ16" s="261"/>
+      <c r="BR16" s="207"/>
+      <c r="BS16" s="96" t="s">
         <v>465</v>
       </c>
-      <c r="BS16" s="96" t="s">
+      <c r="BT16" s="96" t="s">
         <v>462</v>
       </c>
-      <c r="BT16" s="270"/>
-      <c r="BU16" s="11"/>
-      <c r="BV16" s="11"/>
-      <c r="BW16" s="212"/>
-      <c r="BX16" s="212"/>
-      <c r="BY16" s="263"/>
-      <c r="BZ16" s="263"/>
-      <c r="CA16" s="212"/>
-      <c r="CB16" s="212"/>
-      <c r="CC16" s="263"/>
-      <c r="CD16" s="270"/>
-      <c r="CE16" s="270"/>
-      <c r="CF16" s="270"/>
-      <c r="CG16" s="270"/>
-      <c r="CH16" s="263"/>
-      <c r="CI16" s="263"/>
-    </row>
-    <row r="17" spans="1:177" ht="34">
-      <c r="A17" s="199" t="s">
+      <c r="BU16" s="261"/>
+      <c r="BV16" s="254"/>
+      <c r="BW16" s="254"/>
+      <c r="BX16" s="207"/>
+      <c r="BY16" s="207"/>
+      <c r="BZ16" s="254"/>
+      <c r="CA16" s="254"/>
+      <c r="CB16" s="207"/>
+      <c r="CC16" s="207"/>
+      <c r="CD16" s="254"/>
+      <c r="CE16" s="261"/>
+      <c r="CF16" s="261"/>
+      <c r="CG16" s="261"/>
+      <c r="CH16" s="261"/>
+      <c r="CI16" s="254"/>
+      <c r="CJ16" s="254"/>
+    </row>
+    <row r="17" spans="1:178" ht="34">
+      <c r="A17" s="195" t="s">
         <v>484</v>
       </c>
       <c r="B17" s="101"/>
-      <c r="C17" s="201"/>
-      <c r="D17" s="212"/>
-      <c r="E17" s="212"/>
-      <c r="F17" s="212"/>
-      <c r="G17" s="231"/>
-      <c r="H17" s="231"/>
-      <c r="I17" s="231"/>
-      <c r="J17" s="231"/>
-      <c r="K17" s="231"/>
-      <c r="L17" s="231"/>
-      <c r="M17" s="231"/>
-      <c r="N17" s="231"/>
-      <c r="O17" s="231"/>
-      <c r="P17" s="267"/>
-      <c r="Q17" s="267"/>
-      <c r="R17" s="268"/>
-      <c r="S17" s="268"/>
-      <c r="T17" s="268"/>
-      <c r="U17" s="268"/>
-      <c r="V17" s="268"/>
-      <c r="W17" s="231"/>
-      <c r="X17" s="231"/>
-      <c r="Y17" s="231"/>
-      <c r="Z17" s="231"/>
-      <c r="AA17" s="267"/>
-      <c r="AB17" s="267"/>
-      <c r="AC17" s="267"/>
-      <c r="AD17" s="267"/>
-      <c r="AE17" s="268"/>
-      <c r="AF17" s="268"/>
-      <c r="AG17" s="268"/>
-      <c r="AH17" s="268"/>
-      <c r="AI17" s="268"/>
-      <c r="AJ17" s="268"/>
-      <c r="AK17" s="268"/>
-      <c r="AL17" s="268"/>
-      <c r="AM17" s="231"/>
-      <c r="AN17" s="231"/>
-      <c r="AO17" s="231"/>
-      <c r="AP17" s="231"/>
-      <c r="AQ17" s="231"/>
-      <c r="AR17" s="231"/>
-      <c r="AS17" s="231"/>
-      <c r="AT17" s="231"/>
-      <c r="AU17" s="231"/>
-      <c r="AV17" s="231"/>
-      <c r="AW17" s="231"/>
-      <c r="AX17" s="231"/>
-      <c r="AY17" s="231"/>
-      <c r="AZ17" s="231"/>
-      <c r="BA17" s="231"/>
-      <c r="BB17" s="231"/>
-      <c r="BC17" s="231"/>
-      <c r="BD17" s="231"/>
-      <c r="BE17" s="270"/>
-      <c r="BF17" s="231"/>
-      <c r="BG17" s="265"/>
-      <c r="BH17" s="212"/>
-      <c r="BI17" s="212"/>
-      <c r="BJ17" s="212"/>
-      <c r="BK17" s="212"/>
-      <c r="BL17" s="270"/>
-      <c r="BM17" s="270"/>
-      <c r="BN17" s="270"/>
-      <c r="BO17" s="270"/>
-      <c r="BP17" s="270"/>
-      <c r="BQ17" s="206"/>
-      <c r="BR17" s="266"/>
-      <c r="BS17" s="252" t="s">
+      <c r="C17" s="197"/>
+      <c r="D17" s="207"/>
+      <c r="E17" s="207"/>
+      <c r="F17" s="207"/>
+      <c r="G17" s="226"/>
+      <c r="H17" s="226"/>
+      <c r="I17" s="226"/>
+      <c r="J17" s="226"/>
+      <c r="K17" s="226"/>
+      <c r="L17" s="226"/>
+      <c r="M17" s="226"/>
+      <c r="N17" s="226"/>
+      <c r="O17" s="226"/>
+      <c r="P17" s="258"/>
+      <c r="Q17" s="258"/>
+      <c r="R17" s="259"/>
+      <c r="S17" s="259"/>
+      <c r="T17" s="259"/>
+      <c r="U17" s="259"/>
+      <c r="V17" s="259"/>
+      <c r="W17" s="226"/>
+      <c r="X17" s="226"/>
+      <c r="Y17" s="226"/>
+      <c r="Z17" s="226"/>
+      <c r="AA17" s="258"/>
+      <c r="AB17" s="258"/>
+      <c r="AC17" s="258"/>
+      <c r="AD17" s="258"/>
+      <c r="AE17" s="259"/>
+      <c r="AF17" s="259"/>
+      <c r="AG17" s="259"/>
+      <c r="AH17" s="259"/>
+      <c r="AI17" s="259"/>
+      <c r="AJ17" s="259"/>
+      <c r="AK17" s="259"/>
+      <c r="AL17" s="259"/>
+      <c r="AM17" s="226"/>
+      <c r="AN17" s="226"/>
+      <c r="AO17" s="226"/>
+      <c r="AP17" s="226"/>
+      <c r="AQ17" s="226"/>
+      <c r="AR17" s="226"/>
+      <c r="AS17" s="226"/>
+      <c r="AT17" s="226"/>
+      <c r="AU17" s="226"/>
+      <c r="AV17" s="226"/>
+      <c r="AW17" s="226"/>
+      <c r="AX17" s="226"/>
+      <c r="AY17" s="226"/>
+      <c r="AZ17" s="226"/>
+      <c r="BA17" s="226"/>
+      <c r="BB17" s="226"/>
+      <c r="BC17" s="226"/>
+      <c r="BD17" s="226"/>
+      <c r="BE17" s="261"/>
+      <c r="BF17" s="226"/>
+      <c r="BG17" s="257"/>
+      <c r="BH17" s="207"/>
+      <c r="BI17" s="207"/>
+      <c r="BJ17" s="207"/>
+      <c r="BK17" s="207"/>
+      <c r="BL17" s="261"/>
+      <c r="BM17" s="261"/>
+      <c r="BN17" s="261"/>
+      <c r="BO17" s="261"/>
+      <c r="BP17" s="256"/>
+      <c r="BQ17" s="261"/>
+      <c r="BR17" s="207"/>
+      <c r="BS17" s="262"/>
+      <c r="BT17" s="247" t="s">
         <v>485</v>
       </c>
-      <c r="BT17" s="270"/>
-      <c r="BU17" s="206"/>
-      <c r="BV17" s="206"/>
-      <c r="BW17" s="212"/>
-      <c r="BX17" s="212"/>
-      <c r="BY17" s="263"/>
-      <c r="BZ17" s="263"/>
-      <c r="CA17" s="212"/>
-      <c r="CB17" s="212"/>
-      <c r="CC17" s="263"/>
-      <c r="CD17" s="270"/>
-      <c r="CE17" s="270"/>
-      <c r="CF17" s="270"/>
-      <c r="CG17" s="270"/>
-      <c r="CH17" s="263"/>
-      <c r="CI17" s="263"/>
-    </row>
-    <row r="18" spans="1:177" ht="47" customHeight="1">
-      <c r="A18" s="199"/>
+      <c r="BU17" s="261"/>
+      <c r="BV17" s="254"/>
+      <c r="BW17" s="254"/>
+      <c r="BX17" s="207"/>
+      <c r="BY17" s="207"/>
+      <c r="BZ17" s="254"/>
+      <c r="CA17" s="254"/>
+      <c r="CB17" s="207"/>
+      <c r="CC17" s="207"/>
+      <c r="CD17" s="254"/>
+      <c r="CE17" s="261"/>
+      <c r="CF17" s="261"/>
+      <c r="CG17" s="261"/>
+      <c r="CH17" s="261"/>
+      <c r="CI17" s="254"/>
+      <c r="CJ17" s="254"/>
+    </row>
+    <row r="18" spans="1:178" ht="47" customHeight="1">
+      <c r="A18" s="195"/>
       <c r="B18" s="101"/>
-      <c r="C18" s="201"/>
-      <c r="D18" s="212"/>
-      <c r="E18" s="212"/>
-      <c r="F18" s="212"/>
-      <c r="G18" s="231"/>
-      <c r="H18" s="231"/>
-      <c r="I18" s="231"/>
-      <c r="J18" s="231"/>
-      <c r="K18" s="231"/>
-      <c r="L18" s="231"/>
-      <c r="M18" s="231"/>
-      <c r="N18" s="231"/>
-      <c r="O18" s="231"/>
-      <c r="P18" s="267"/>
-      <c r="Q18" s="267"/>
-      <c r="R18" s="267"/>
-      <c r="S18" s="267"/>
-      <c r="T18" s="267"/>
-      <c r="U18" s="267"/>
-      <c r="V18" s="267"/>
-      <c r="W18" s="231"/>
-      <c r="X18" s="231"/>
-      <c r="Y18" s="231"/>
-      <c r="Z18" s="231"/>
-      <c r="AA18" s="267"/>
-      <c r="AB18" s="267"/>
-      <c r="AC18" s="267"/>
-      <c r="AD18" s="267"/>
-      <c r="AE18" s="267"/>
-      <c r="AF18" s="267"/>
-      <c r="AG18" s="267"/>
-      <c r="AH18" s="267"/>
-      <c r="AI18" s="267"/>
-      <c r="AJ18" s="267"/>
-      <c r="AK18" s="267"/>
-      <c r="AL18" s="267"/>
-      <c r="AM18" s="231"/>
-      <c r="AN18" s="231"/>
-      <c r="AO18" s="231"/>
-      <c r="AP18" s="231"/>
-      <c r="AQ18" s="231"/>
-      <c r="AR18" s="231"/>
-      <c r="AS18" s="231"/>
-      <c r="AT18" s="231"/>
-      <c r="AU18" s="231"/>
-      <c r="AV18" s="231"/>
-      <c r="AW18" s="231"/>
-      <c r="AX18" s="231"/>
-      <c r="AY18" s="231"/>
-      <c r="AZ18" s="231"/>
-      <c r="BA18" s="231"/>
-      <c r="BB18" s="231"/>
-      <c r="BC18" s="231"/>
-      <c r="BD18" s="231"/>
-      <c r="BE18" s="270"/>
-      <c r="BF18" s="231"/>
-      <c r="BG18" s="265"/>
-      <c r="BH18" s="212"/>
-      <c r="BI18" s="212"/>
-      <c r="BJ18" s="212"/>
-      <c r="BK18" s="212"/>
-      <c r="BL18" s="270"/>
-      <c r="BM18" s="270"/>
-      <c r="BN18" s="270"/>
-      <c r="BO18" s="270"/>
-      <c r="BP18" s="270"/>
-      <c r="BQ18" s="206"/>
-      <c r="BR18" s="266"/>
-      <c r="BS18" s="96" t="s">
+      <c r="C18" s="197"/>
+      <c r="D18" s="207"/>
+      <c r="E18" s="207"/>
+      <c r="F18" s="207"/>
+      <c r="G18" s="226"/>
+      <c r="H18" s="226"/>
+      <c r="I18" s="226"/>
+      <c r="J18" s="226"/>
+      <c r="K18" s="226"/>
+      <c r="L18" s="226"/>
+      <c r="M18" s="226"/>
+      <c r="N18" s="226"/>
+      <c r="O18" s="226"/>
+      <c r="P18" s="258"/>
+      <c r="Q18" s="258"/>
+      <c r="R18" s="258"/>
+      <c r="S18" s="258"/>
+      <c r="T18" s="258"/>
+      <c r="U18" s="258"/>
+      <c r="V18" s="258"/>
+      <c r="W18" s="226"/>
+      <c r="X18" s="226"/>
+      <c r="Y18" s="226"/>
+      <c r="Z18" s="226"/>
+      <c r="AA18" s="258"/>
+      <c r="AB18" s="258"/>
+      <c r="AC18" s="258"/>
+      <c r="AD18" s="258"/>
+      <c r="AE18" s="258"/>
+      <c r="AF18" s="258"/>
+      <c r="AG18" s="258"/>
+      <c r="AH18" s="258"/>
+      <c r="AI18" s="258"/>
+      <c r="AJ18" s="258"/>
+      <c r="AK18" s="258"/>
+      <c r="AL18" s="258"/>
+      <c r="AM18" s="226"/>
+      <c r="AN18" s="226"/>
+      <c r="AO18" s="226"/>
+      <c r="AP18" s="226"/>
+      <c r="AQ18" s="226"/>
+      <c r="AR18" s="226"/>
+      <c r="AS18" s="226"/>
+      <c r="AT18" s="226"/>
+      <c r="AU18" s="226"/>
+      <c r="AV18" s="226"/>
+      <c r="AW18" s="226"/>
+      <c r="AX18" s="226"/>
+      <c r="AY18" s="226"/>
+      <c r="AZ18" s="226"/>
+      <c r="BA18" s="226"/>
+      <c r="BB18" s="226"/>
+      <c r="BC18" s="226"/>
+      <c r="BD18" s="226"/>
+      <c r="BE18" s="261"/>
+      <c r="BF18" s="226"/>
+      <c r="BG18" s="257"/>
+      <c r="BH18" s="207"/>
+      <c r="BI18" s="207"/>
+      <c r="BJ18" s="207"/>
+      <c r="BK18" s="207"/>
+      <c r="BL18" s="261"/>
+      <c r="BM18" s="261"/>
+      <c r="BN18" s="261"/>
+      <c r="BO18" s="261"/>
+      <c r="BP18" s="256"/>
+      <c r="BQ18" s="261"/>
+      <c r="BR18" s="207"/>
+      <c r="BS18" s="263"/>
+      <c r="BT18" s="96" t="s">
         <v>486</v>
       </c>
-      <c r="BT18" s="270"/>
-      <c r="BU18" s="206"/>
-      <c r="BV18" s="206"/>
-      <c r="BW18" s="212"/>
-      <c r="BX18" s="212"/>
-      <c r="BY18" s="263"/>
-      <c r="BZ18" s="263"/>
-      <c r="CA18" s="212"/>
-      <c r="CB18" s="212"/>
-      <c r="CC18" s="263"/>
-      <c r="CD18" s="270"/>
-      <c r="CE18" s="270"/>
-      <c r="CF18" s="270"/>
-      <c r="CG18" s="270"/>
-      <c r="CH18" s="263"/>
-      <c r="CI18" s="263"/>
-    </row>
-    <row r="19" spans="1:177" ht="47" customHeight="1">
-      <c r="A19" s="202"/>
-      <c r="B19" s="202"/>
-      <c r="C19" s="202"/>
-      <c r="D19" s="202"/>
-      <c r="E19" s="202"/>
-      <c r="F19" s="202"/>
-      <c r="G19" s="202"/>
-      <c r="H19" s="202"/>
-      <c r="I19" s="202"/>
-      <c r="J19" s="202"/>
-      <c r="K19" s="202"/>
-      <c r="L19" s="202"/>
-      <c r="M19" s="202"/>
-      <c r="N19" s="202"/>
-      <c r="O19" s="202"/>
-      <c r="P19" s="202"/>
-      <c r="Q19" s="202"/>
-      <c r="R19" s="202"/>
-      <c r="S19" s="202"/>
-      <c r="T19" s="202"/>
-      <c r="U19" s="202"/>
-      <c r="V19" s="202"/>
-      <c r="W19" s="202"/>
-      <c r="X19" s="202"/>
-      <c r="Y19" s="202"/>
-      <c r="Z19" s="202"/>
-      <c r="AA19" s="202"/>
-      <c r="AB19" s="202"/>
-      <c r="AC19" s="202"/>
-      <c r="AD19" s="202"/>
-      <c r="AE19" s="202"/>
-      <c r="AF19" s="202"/>
-      <c r="AG19" s="202"/>
-      <c r="AH19" s="202"/>
-      <c r="AI19" s="202"/>
-      <c r="AJ19" s="202"/>
-      <c r="AK19" s="202"/>
-      <c r="AL19" s="202"/>
-      <c r="AM19" s="202"/>
-      <c r="AN19" s="202"/>
-      <c r="AO19" s="202"/>
-      <c r="AP19" s="202"/>
-      <c r="AQ19" s="202"/>
-      <c r="AR19" s="202"/>
-      <c r="AS19" s="202"/>
-      <c r="AT19" s="202"/>
-      <c r="AU19" s="202"/>
-      <c r="AV19" s="202"/>
-      <c r="AW19" s="202"/>
-      <c r="AX19" s="202"/>
-      <c r="AY19" s="202"/>
-      <c r="AZ19" s="202"/>
-      <c r="BA19" s="202"/>
-      <c r="BB19" s="202"/>
-      <c r="BC19" s="202"/>
-      <c r="BD19" s="202"/>
-      <c r="BE19" s="202"/>
-      <c r="BF19" s="202"/>
-      <c r="BG19" s="202"/>
-      <c r="BH19" s="202"/>
-      <c r="BI19" s="202"/>
-      <c r="BJ19" s="202"/>
-      <c r="BK19" s="202"/>
-      <c r="BL19" s="202"/>
-      <c r="BM19" s="202"/>
-      <c r="BN19" s="202"/>
-      <c r="BO19" s="202"/>
-      <c r="BP19" s="202"/>
-      <c r="BQ19" s="202"/>
-      <c r="BR19" s="202"/>
-      <c r="BS19" s="202"/>
-      <c r="BT19" s="202"/>
-      <c r="BU19" s="202"/>
-      <c r="BV19" s="202"/>
-      <c r="BW19" s="202"/>
-      <c r="BX19" s="202"/>
-      <c r="BY19" s="202"/>
-      <c r="BZ19" s="202"/>
-      <c r="CA19" s="202"/>
-      <c r="CB19" s="202"/>
-      <c r="CC19" s="202"/>
-      <c r="CD19" s="202"/>
-      <c r="CE19" s="202"/>
-      <c r="CF19" s="202"/>
-      <c r="CG19" s="202"/>
-      <c r="CH19" s="202"/>
-      <c r="CI19" s="202"/>
-      <c r="CJ19" s="202"/>
-      <c r="CK19" s="202"/>
-      <c r="CL19" s="202"/>
-      <c r="CM19" s="202"/>
-      <c r="CN19" s="202"/>
-      <c r="CO19" s="202"/>
-      <c r="CP19" s="202"/>
-      <c r="CQ19" s="202"/>
-      <c r="CR19" s="202"/>
-      <c r="CS19" s="202"/>
-      <c r="CT19" s="202"/>
-      <c r="CU19" s="202"/>
-      <c r="CV19" s="202"/>
-      <c r="CW19" s="202"/>
-      <c r="CX19" s="202"/>
-      <c r="CY19" s="202"/>
-      <c r="CZ19" s="202"/>
-      <c r="DA19" s="202"/>
-      <c r="DB19" s="202"/>
-      <c r="DC19" s="202"/>
-      <c r="DD19" s="202"/>
-      <c r="DE19" s="202"/>
-      <c r="DF19" s="202"/>
-      <c r="DG19" s="202"/>
-      <c r="DH19" s="202"/>
-      <c r="DI19" s="202"/>
-      <c r="DJ19" s="202"/>
-      <c r="DK19" s="202"/>
-      <c r="DL19" s="202"/>
-      <c r="DM19" s="202"/>
-      <c r="DN19" s="202"/>
-      <c r="DO19" s="202"/>
-      <c r="DP19" s="202"/>
-      <c r="DQ19" s="202"/>
-      <c r="DR19" s="202"/>
-      <c r="DS19" s="202"/>
-      <c r="DT19" s="202"/>
-      <c r="DU19" s="202"/>
-      <c r="DV19" s="202"/>
-      <c r="DW19" s="202"/>
-      <c r="DX19" s="202"/>
-      <c r="DY19" s="202"/>
-      <c r="DZ19" s="202"/>
-      <c r="EA19" s="202"/>
-      <c r="EB19" s="202"/>
-      <c r="EC19" s="202"/>
-      <c r="ED19" s="202"/>
-      <c r="EE19" s="202"/>
-      <c r="EF19" s="202"/>
-      <c r="EG19" s="202"/>
-      <c r="EH19" s="202"/>
-      <c r="EI19" s="202"/>
-      <c r="EJ19" s="202"/>
-      <c r="EK19" s="202"/>
-      <c r="EL19" s="202"/>
-      <c r="EM19" s="202"/>
-      <c r="EN19" s="202"/>
-      <c r="EO19" s="202"/>
-      <c r="EP19" s="202"/>
-      <c r="EQ19" s="202"/>
-      <c r="ER19" s="202"/>
-      <c r="ES19" s="202"/>
-      <c r="ET19" s="202"/>
-      <c r="EU19" s="202"/>
-      <c r="EV19" s="202"/>
-      <c r="EW19" s="202"/>
-      <c r="EX19" s="202"/>
-      <c r="EY19" s="202"/>
-      <c r="EZ19" s="202"/>
-      <c r="FA19" s="202"/>
-      <c r="FB19" s="202"/>
-      <c r="FC19" s="202"/>
-      <c r="FD19" s="202"/>
-      <c r="FE19" s="202"/>
-      <c r="FF19" s="202"/>
-      <c r="FG19" s="202"/>
-      <c r="FH19" s="202"/>
-      <c r="FI19" s="202"/>
-      <c r="FJ19" s="202"/>
-      <c r="FK19" s="202"/>
-      <c r="FL19" s="202"/>
-      <c r="FM19" s="202"/>
-      <c r="FN19" s="202"/>
-      <c r="FO19" s="202"/>
-      <c r="FP19" s="202"/>
-      <c r="FQ19" s="202"/>
-      <c r="FR19" s="202"/>
-      <c r="FS19" s="202"/>
-      <c r="FT19" s="202"/>
-      <c r="FU19" s="202"/>
-    </row>
-    <row r="20" spans="1:177" ht="34">
-      <c r="A20" s="208" t="s">
+      <c r="BU18" s="261"/>
+      <c r="BV18" s="254"/>
+      <c r="BW18" s="254"/>
+      <c r="BX18" s="207"/>
+      <c r="BY18" s="207"/>
+      <c r="BZ18" s="254"/>
+      <c r="CA18" s="254"/>
+      <c r="CB18" s="207"/>
+      <c r="CC18" s="207"/>
+      <c r="CD18" s="254"/>
+      <c r="CE18" s="261"/>
+      <c r="CF18" s="261"/>
+      <c r="CG18" s="261"/>
+      <c r="CH18" s="261"/>
+      <c r="CI18" s="254"/>
+      <c r="CJ18" s="254"/>
+    </row>
+    <row r="19" spans="1:178" ht="47" customHeight="1">
+      <c r="A19" s="198"/>
+      <c r="B19" s="198"/>
+      <c r="C19" s="198"/>
+      <c r="D19" s="198"/>
+      <c r="E19" s="198"/>
+      <c r="F19" s="198"/>
+      <c r="G19" s="198"/>
+      <c r="H19" s="198"/>
+      <c r="I19" s="198"/>
+      <c r="J19" s="198"/>
+      <c r="K19" s="198"/>
+      <c r="L19" s="198"/>
+      <c r="M19" s="198"/>
+      <c r="N19" s="198"/>
+      <c r="O19" s="198"/>
+      <c r="P19" s="198"/>
+      <c r="Q19" s="198"/>
+      <c r="R19" s="198"/>
+      <c r="S19" s="198"/>
+      <c r="T19" s="198"/>
+      <c r="U19" s="198"/>
+      <c r="V19" s="198"/>
+      <c r="W19" s="198"/>
+      <c r="X19" s="198"/>
+      <c r="Y19" s="198"/>
+      <c r="Z19" s="198"/>
+      <c r="AA19" s="198"/>
+      <c r="AB19" s="198"/>
+      <c r="AC19" s="198"/>
+      <c r="AD19" s="198"/>
+      <c r="AE19" s="198"/>
+      <c r="AF19" s="198"/>
+      <c r="AG19" s="198"/>
+      <c r="AH19" s="198"/>
+      <c r="AI19" s="198"/>
+      <c r="AJ19" s="198"/>
+      <c r="AK19" s="198"/>
+      <c r="AL19" s="198"/>
+      <c r="AM19" s="198"/>
+      <c r="AN19" s="198"/>
+      <c r="AO19" s="198"/>
+      <c r="AP19" s="198"/>
+      <c r="AQ19" s="198"/>
+      <c r="AR19" s="198"/>
+      <c r="AS19" s="198"/>
+      <c r="AT19" s="198"/>
+      <c r="AU19" s="198"/>
+      <c r="AV19" s="198"/>
+      <c r="AW19" s="198"/>
+      <c r="AX19" s="198"/>
+      <c r="AY19" s="198"/>
+      <c r="AZ19" s="198"/>
+      <c r="BA19" s="198"/>
+      <c r="BB19" s="198"/>
+      <c r="BC19" s="198"/>
+      <c r="BD19" s="198"/>
+      <c r="BE19" s="198"/>
+      <c r="BF19" s="198"/>
+      <c r="BG19" s="198"/>
+      <c r="BH19" s="198"/>
+      <c r="BI19" s="198"/>
+      <c r="BJ19" s="198"/>
+      <c r="BK19" s="198"/>
+      <c r="BL19" s="198"/>
+      <c r="BM19" s="198"/>
+      <c r="BN19" s="198"/>
+      <c r="BO19" s="198"/>
+      <c r="BP19" s="198"/>
+      <c r="BQ19" s="198"/>
+      <c r="BR19" s="198"/>
+      <c r="BS19" s="198"/>
+      <c r="BT19" s="198"/>
+      <c r="BU19" s="198"/>
+      <c r="BV19" s="198"/>
+      <c r="BW19" s="198"/>
+      <c r="BX19" s="198"/>
+      <c r="BY19" s="198"/>
+      <c r="BZ19" s="198"/>
+      <c r="CA19" s="198"/>
+      <c r="CB19" s="198"/>
+      <c r="CC19" s="198"/>
+      <c r="CD19" s="198"/>
+      <c r="CE19" s="198"/>
+      <c r="CF19" s="198"/>
+      <c r="CG19" s="198"/>
+      <c r="CH19" s="198"/>
+      <c r="CI19" s="198"/>
+      <c r="CJ19" s="198"/>
+      <c r="CK19" s="198"/>
+      <c r="CL19" s="198"/>
+      <c r="CM19" s="198"/>
+      <c r="CN19" s="198"/>
+      <c r="CO19" s="198"/>
+      <c r="CP19" s="198"/>
+      <c r="CQ19" s="198"/>
+      <c r="CR19" s="198"/>
+      <c r="CS19" s="198"/>
+      <c r="CT19" s="198"/>
+      <c r="CU19" s="198"/>
+      <c r="CV19" s="198"/>
+      <c r="CW19" s="198"/>
+      <c r="CX19" s="198"/>
+      <c r="CY19" s="198"/>
+      <c r="CZ19" s="198"/>
+      <c r="DA19" s="198"/>
+      <c r="DB19" s="198"/>
+      <c r="DC19" s="198"/>
+      <c r="DD19" s="198"/>
+      <c r="DE19" s="198"/>
+      <c r="DF19" s="198"/>
+      <c r="DG19" s="198"/>
+      <c r="DH19" s="198"/>
+      <c r="DI19" s="198"/>
+      <c r="DJ19" s="198"/>
+      <c r="DK19" s="198"/>
+      <c r="DL19" s="198"/>
+      <c r="DM19" s="198"/>
+      <c r="DN19" s="198"/>
+      <c r="DO19" s="198"/>
+      <c r="DP19" s="198"/>
+      <c r="DQ19" s="198"/>
+      <c r="DR19" s="198"/>
+      <c r="DS19" s="198"/>
+      <c r="DT19" s="198"/>
+      <c r="DU19" s="198"/>
+      <c r="DV19" s="198"/>
+      <c r="DW19" s="198"/>
+      <c r="DX19" s="198"/>
+      <c r="DY19" s="198"/>
+      <c r="DZ19" s="198"/>
+      <c r="EA19" s="198"/>
+      <c r="EB19" s="198"/>
+      <c r="EC19" s="198"/>
+      <c r="ED19" s="198"/>
+      <c r="EE19" s="198"/>
+      <c r="EF19" s="198"/>
+      <c r="EG19" s="198"/>
+      <c r="EH19" s="198"/>
+      <c r="EI19" s="198"/>
+      <c r="EJ19" s="198"/>
+      <c r="EK19" s="198"/>
+      <c r="EL19" s="198"/>
+      <c r="EM19" s="198"/>
+      <c r="EN19" s="198"/>
+      <c r="EO19" s="198"/>
+      <c r="EP19" s="198"/>
+      <c r="EQ19" s="198"/>
+      <c r="ER19" s="198"/>
+      <c r="ES19" s="198"/>
+      <c r="ET19" s="198"/>
+      <c r="EU19" s="198"/>
+      <c r="EV19" s="198"/>
+      <c r="EW19" s="198"/>
+      <c r="EX19" s="198"/>
+      <c r="EY19" s="198"/>
+      <c r="EZ19" s="198"/>
+      <c r="FA19" s="198"/>
+      <c r="FB19" s="198"/>
+      <c r="FC19" s="198"/>
+      <c r="FD19" s="198"/>
+      <c r="FE19" s="198"/>
+      <c r="FF19" s="198"/>
+      <c r="FG19" s="198"/>
+      <c r="FH19" s="198"/>
+      <c r="FI19" s="198"/>
+      <c r="FJ19" s="198"/>
+      <c r="FK19" s="198"/>
+      <c r="FL19" s="198"/>
+      <c r="FM19" s="198"/>
+      <c r="FN19" s="198"/>
+      <c r="FO19" s="198"/>
+      <c r="FP19" s="198"/>
+      <c r="FQ19" s="198"/>
+      <c r="FR19" s="198"/>
+      <c r="FS19" s="198"/>
+      <c r="FT19" s="198"/>
+      <c r="FU19" s="198"/>
+      <c r="FV19" s="198"/>
+    </row>
+    <row r="20" spans="1:178" ht="25">
+      <c r="A20" s="203" t="s">
+        <v>437</v>
+      </c>
+      <c r="C20" s="205" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="205" t="s">
+        <v>439</v>
+      </c>
+      <c r="E20" s="205" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="205" t="s">
+        <v>439</v>
+      </c>
+      <c r="G20" s="205" t="s">
+        <v>96</v>
+      </c>
+      <c r="H20" s="205" t="s">
+        <v>91</v>
+      </c>
+      <c r="I20" s="205" t="s">
+        <v>91</v>
+      </c>
+      <c r="J20" s="205" t="s">
+        <v>91</v>
+      </c>
+      <c r="K20" s="205" t="s">
+        <v>91</v>
+      </c>
+      <c r="L20" s="205" t="s">
+        <v>91</v>
+      </c>
+      <c r="M20" s="205" t="s">
+        <v>91</v>
+      </c>
+      <c r="N20" s="205" t="s">
+        <v>91</v>
+      </c>
+      <c r="O20" s="205" t="s">
+        <v>91</v>
+      </c>
+      <c r="P20" s="205" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q20" s="205" t="s">
+        <v>439</v>
+      </c>
+      <c r="R20" s="205" t="s">
+        <v>141</v>
+      </c>
+      <c r="S20" s="205" t="s">
+        <v>439</v>
+      </c>
+      <c r="T20" s="205" t="s">
+        <v>439</v>
+      </c>
+      <c r="U20" s="205" t="s">
+        <v>90</v>
+      </c>
+      <c r="V20" s="205" t="s">
+        <v>90</v>
+      </c>
+      <c r="W20" s="205" t="s">
+        <v>91</v>
+      </c>
+      <c r="X20" s="205" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y20" s="205" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z20" s="205" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA20" s="205" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB20" s="205" t="s">
+        <v>439</v>
+      </c>
+      <c r="AC20" s="205" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD20" s="205" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE20" s="205" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF20" s="205" t="s">
+        <v>439</v>
+      </c>
+      <c r="AG20" s="205" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH20" s="205" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI20" s="205" t="s">
+        <v>141</v>
+      </c>
+      <c r="AJ20" s="205" t="s">
+        <v>439</v>
+      </c>
+      <c r="AK20" s="205" t="s">
+        <v>447</v>
+      </c>
+      <c r="AL20" s="205" t="s">
+        <v>439</v>
+      </c>
+      <c r="AM20" s="205" t="s">
+        <v>439</v>
+      </c>
+      <c r="AN20" s="205" t="s">
+        <v>439</v>
+      </c>
+      <c r="AO20" s="205" t="s">
+        <v>439</v>
+      </c>
+      <c r="AP20" s="205" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ20" s="205" t="s">
+        <v>90</v>
+      </c>
+      <c r="AR20" s="205" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS20" s="205" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT20" s="205" t="s">
+        <v>113</v>
+      </c>
+      <c r="AU20" s="205" t="s">
+        <v>113</v>
+      </c>
+      <c r="AV20" s="205" t="s">
+        <v>113</v>
+      </c>
+      <c r="AW20" s="205" t="s">
+        <v>113</v>
+      </c>
+      <c r="AX20" s="205" t="s">
+        <v>97</v>
+      </c>
+      <c r="AY20" s="205" t="s">
+        <v>113</v>
+      </c>
+      <c r="AZ20" s="205" t="s">
+        <v>113</v>
+      </c>
+      <c r="BA20" s="205" t="s">
+        <v>460</v>
+      </c>
+      <c r="BB20" s="205" t="s">
+        <v>460</v>
+      </c>
+      <c r="BC20" s="205" t="s">
+        <v>90</v>
+      </c>
+      <c r="BD20" s="205" t="s">
+        <v>91</v>
+      </c>
+      <c r="BE20" s="205" t="s">
+        <v>460</v>
+      </c>
+      <c r="BF20" s="205" t="s">
+        <v>91</v>
+      </c>
+      <c r="BG20" s="237" t="s">
+        <v>464</v>
+      </c>
+      <c r="BH20" s="205" t="s">
+        <v>90</v>
+      </c>
+      <c r="BI20" s="205" t="s">
+        <v>97</v>
+      </c>
+      <c r="BJ20" s="205" t="s">
+        <v>468</v>
+      </c>
+      <c r="BK20" s="205" t="s">
+        <v>91</v>
+      </c>
+      <c r="BL20" s="205" t="s">
+        <v>122</v>
+      </c>
+      <c r="BM20" s="205" t="s">
+        <v>122</v>
+      </c>
+      <c r="BN20" s="205" t="s">
+        <v>487</v>
+      </c>
+      <c r="BO20" s="205" t="s">
+        <v>476</v>
+      </c>
+      <c r="BP20" s="205" t="s">
+        <v>476</v>
+      </c>
+      <c r="BQ20" s="205" t="s">
+        <v>487</v>
+      </c>
+      <c r="BR20" s="205" t="s">
+        <v>476</v>
+      </c>
+      <c r="BS20" s="205" t="s">
+        <v>122</v>
+      </c>
+      <c r="BT20" s="205" t="s">
+        <v>122</v>
+      </c>
+      <c r="BU20" s="205" t="s">
+        <v>460</v>
+      </c>
+      <c r="BX20" s="205" t="s">
+        <v>97</v>
+      </c>
+      <c r="BY20" s="205" t="s">
+        <v>476</v>
+      </c>
+      <c r="BZ20" s="205" t="s">
+        <v>482</v>
+      </c>
+      <c r="CA20" s="205" t="s">
+        <v>476</v>
+      </c>
+      <c r="CB20" s="205" t="s">
+        <v>482</v>
+      </c>
+      <c r="CC20" s="205" t="s">
+        <v>122</v>
+      </c>
+      <c r="CD20" s="205" t="s">
+        <v>122</v>
+      </c>
+      <c r="CE20" s="205" t="s">
+        <v>483</v>
+      </c>
+      <c r="CF20" s="205" t="s">
+        <v>483</v>
+      </c>
+      <c r="CG20" s="205" t="s">
+        <v>483</v>
+      </c>
+      <c r="CH20" s="205" t="s">
+        <v>483</v>
+      </c>
+      <c r="CI20" s="205" t="s">
+        <v>90</v>
+      </c>
+      <c r="CJ20" s="205" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="21" spans="1:178" ht="60">
+      <c r="A21" s="203" t="s">
+        <v>438</v>
+      </c>
+      <c r="C21" s="116" t="s">
+        <v>411</v>
+      </c>
+      <c r="D21" s="199" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="116" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21" s="208" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" s="116" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="233" t="s">
+        <v>480</v>
+      </c>
+      <c r="I21" s="233" t="s">
+        <v>480</v>
+      </c>
+      <c r="J21" s="233" t="s">
+        <v>480</v>
+      </c>
+      <c r="K21" s="233" t="s">
+        <v>480</v>
+      </c>
+      <c r="L21" s="224" t="s">
+        <v>442</v>
+      </c>
+      <c r="M21" s="224" t="s">
+        <v>442</v>
+      </c>
+      <c r="N21" s="224" t="s">
+        <v>443</v>
+      </c>
+      <c r="O21" s="224" t="s">
+        <v>444</v>
+      </c>
+      <c r="P21" s="116" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="116">
+        <v>500</v>
+      </c>
+      <c r="Y21" s="116">
+        <v>500</v>
+      </c>
+      <c r="Z21" s="224" t="s">
+        <v>448</v>
+      </c>
+      <c r="AA21" s="116" t="s">
+        <v>411</v>
+      </c>
+      <c r="AB21" s="11"/>
+      <c r="AC21" s="11"/>
+      <c r="AD21" s="11"/>
+      <c r="AE21" s="11"/>
+      <c r="AF21" s="11"/>
+      <c r="AG21" s="11"/>
+      <c r="AH21" s="11"/>
+      <c r="AI21" s="11"/>
+      <c r="AJ21" s="11"/>
+      <c r="AK21" s="11"/>
+      <c r="AL21" s="11"/>
+      <c r="AM21" s="233" t="s">
+        <v>467</v>
+      </c>
+      <c r="AN21" s="233" t="s">
+        <v>467</v>
+      </c>
+      <c r="AO21" s="233" t="s">
+        <v>467</v>
+      </c>
+      <c r="AP21" s="116">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="116">
+        <v>0</v>
+      </c>
+      <c r="AR21" s="116">
+        <v>0</v>
+      </c>
+      <c r="AS21" s="11"/>
+      <c r="AT21" s="11"/>
+      <c r="AU21" s="11"/>
+      <c r="AV21" s="11"/>
+      <c r="AW21" s="11"/>
+      <c r="AX21" s="200" t="s">
+        <v>114</v>
+      </c>
+      <c r="AY21" s="11"/>
+      <c r="AZ21" s="11"/>
+      <c r="BA21" s="233" t="s">
+        <v>481</v>
+      </c>
+      <c r="BB21" s="233" t="s">
+        <v>481</v>
+      </c>
+      <c r="BC21" s="116">
+        <v>7</v>
+      </c>
+      <c r="BD21" s="233" t="s">
+        <v>480</v>
+      </c>
+      <c r="BE21" s="233" t="s">
+        <v>481</v>
+      </c>
+      <c r="BF21" s="233" t="s">
+        <v>480</v>
+      </c>
+      <c r="BG21" s="233" t="s">
+        <v>481</v>
+      </c>
+      <c r="BH21" s="116">
+        <v>100</v>
+      </c>
+      <c r="BI21" s="209" t="s">
+        <v>107</v>
+      </c>
+      <c r="BJ21" s="116" t="s">
+        <v>99</v>
+      </c>
+      <c r="BK21" s="224" t="s">
+        <v>470</v>
+      </c>
+      <c r="BL21" s="116" t="s">
+        <v>411</v>
+      </c>
+      <c r="BM21" s="116" t="s">
+        <v>411</v>
+      </c>
+      <c r="BN21" s="252" t="s">
+        <v>108</v>
+      </c>
+      <c r="BO21" s="233" t="s">
+        <v>480</v>
+      </c>
+      <c r="BP21" s="233" t="s">
+        <v>480</v>
+      </c>
+      <c r="BQ21" s="252" t="s">
+        <v>109</v>
+      </c>
+      <c r="BR21" s="233" t="s">
+        <v>480</v>
+      </c>
+      <c r="BS21" s="233" t="s">
+        <v>481</v>
+      </c>
+      <c r="BT21" s="233" t="s">
+        <v>481</v>
+      </c>
+      <c r="BU21" s="233" t="s">
+        <v>481</v>
+      </c>
+      <c r="BV21" s="233" t="s">
+        <v>481</v>
+      </c>
+      <c r="BW21" s="233" t="s">
+        <v>481</v>
+      </c>
+      <c r="BX21" s="252" t="s">
+        <v>129</v>
+      </c>
+      <c r="BY21" s="224" t="s">
+        <v>477</v>
+      </c>
+      <c r="BZ21" s="233" t="s">
+        <v>481</v>
+      </c>
+      <c r="CA21" s="233" t="s">
+        <v>480</v>
+      </c>
+      <c r="CB21" s="233" t="s">
+        <v>481</v>
+      </c>
+      <c r="CC21" s="116" t="b">
+        <v>1</v>
+      </c>
+      <c r="CD21" s="116" t="b">
+        <v>1</v>
+      </c>
+      <c r="CE21" s="233" t="s">
+        <v>467</v>
+      </c>
+      <c r="CF21" s="233" t="s">
+        <v>467</v>
+      </c>
+      <c r="CG21" s="233" t="s">
+        <v>467</v>
+      </c>
+      <c r="CH21" s="233" t="s">
+        <v>467</v>
+      </c>
+      <c r="CI21" s="116">
+        <v>0</v>
+      </c>
+      <c r="CJ21" s="233" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="22" spans="1:178" ht="34">
+      <c r="A22" s="203" t="s">
         <v>219</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="204" t="s">
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="200" t="s">
         <v>441</v>
       </c>
-      <c r="R20" s="238" t="s">
+      <c r="R22" s="233" t="s">
         <v>244</v>
       </c>
-      <c r="S20" s="204" t="s">
+      <c r="S22" s="200" t="s">
         <v>245</v>
       </c>
-      <c r="T20" s="204" t="s">
+      <c r="T22" s="200" t="s">
         <v>246</v>
       </c>
-      <c r="U20" s="68">
+      <c r="U22" s="68">
         <v>4</v>
       </c>
-      <c r="V20" s="68">
+      <c r="V22" s="68">
         <v>10</v>
       </c>
-      <c r="W20" s="229" t="s">
+      <c r="W22" s="224" t="s">
         <v>445</v>
       </c>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="11"/>
-      <c r="AA20" s="11"/>
-      <c r="AB20" s="204" t="s">
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="200" t="s">
         <v>150</v>
       </c>
-      <c r="AC20" s="117" t="b">
+      <c r="AC22" s="116" t="b">
         <v>0</v>
       </c>
-      <c r="AD20" s="117" t="b">
+      <c r="AD22" s="116" t="b">
         <v>0</v>
       </c>
-      <c r="AE20" s="238" t="s">
+      <c r="AE22" s="233" t="s">
         <v>159</v>
       </c>
-      <c r="AF20" s="204" t="s">
+      <c r="AF22" s="200" t="s">
         <v>160</v>
       </c>
-      <c r="AG20" s="117">
+      <c r="AG22" s="116">
         <v>26</v>
       </c>
-      <c r="AH20" s="117">
+      <c r="AH22" s="116">
         <v>12</v>
       </c>
-      <c r="AI20" s="238" t="s">
+      <c r="AI22" s="233" t="s">
         <v>158</v>
       </c>
-      <c r="AJ20" s="204" t="s">
+      <c r="AJ22" s="200" t="s">
         <v>150</v>
       </c>
-      <c r="AK20" s="237" t="s">
+      <c r="AK22" s="232" t="s">
         <v>446</v>
       </c>
-      <c r="AL20" s="204" t="s">
+      <c r="AL22" s="200" t="s">
         <v>157</v>
       </c>
-      <c r="AM20" s="11"/>
-      <c r="AN20" s="11"/>
-      <c r="AO20" s="11"/>
-      <c r="AP20" s="11"/>
-      <c r="AQ20" s="11"/>
-      <c r="AR20" s="11"/>
-      <c r="AS20" s="11"/>
-      <c r="AT20" s="11"/>
-      <c r="AU20" s="11"/>
-      <c r="AV20" s="11"/>
-      <c r="AW20" s="11"/>
-      <c r="AX20" s="11"/>
-      <c r="AY20" s="11"/>
-      <c r="AZ20" s="11"/>
-      <c r="BA20" s="117" t="s">
-        <v>461</v>
-      </c>
-      <c r="BB20" s="117" t="s">
-        <v>461</v>
-      </c>
-      <c r="BC20" s="11"/>
-      <c r="BD20" s="11"/>
-      <c r="BE20" s="117" t="s">
-        <v>461</v>
-      </c>
-      <c r="BF20" s="11"/>
-      <c r="BG20" s="11"/>
-      <c r="BH20" s="11"/>
-      <c r="BI20" s="11"/>
-      <c r="BJ20" s="11"/>
-      <c r="BK20" s="11"/>
-      <c r="BL20" s="11"/>
-      <c r="BM20" s="11"/>
-      <c r="BN20" s="11"/>
-      <c r="BO20" s="11"/>
-      <c r="BP20" s="11"/>
-      <c r="BQ20" s="117" t="s">
-        <v>421</v>
-      </c>
-      <c r="BR20" s="117" t="s">
-        <v>411</v>
-      </c>
-      <c r="BS20" s="117" t="s">
-        <v>411</v>
-      </c>
-      <c r="BT20" s="68" t="s">
-        <v>412</v>
-      </c>
-      <c r="BW20" s="11"/>
-      <c r="BX20" s="11"/>
-      <c r="BY20" s="11"/>
-      <c r="BZ20" s="11"/>
-      <c r="CA20" s="11"/>
-      <c r="CB20" s="11"/>
-      <c r="CC20" s="11"/>
-      <c r="CD20" s="11"/>
-      <c r="CE20" s="11"/>
-      <c r="CF20" s="11"/>
-      <c r="CG20" s="11"/>
-      <c r="CH20" s="11"/>
-      <c r="CI20" s="11"/>
-    </row>
-    <row r="21" spans="1:177" ht="25">
-      <c r="A21" s="208" t="s">
-        <v>437</v>
-      </c>
-      <c r="C21" s="210" t="s">
-        <v>96</v>
-      </c>
-      <c r="D21" s="210" t="s">
-        <v>439</v>
-      </c>
-      <c r="E21" s="210" t="s">
-        <v>98</v>
-      </c>
-      <c r="F21" s="210" t="s">
-        <v>439</v>
-      </c>
-      <c r="G21" s="210" t="s">
-        <v>96</v>
-      </c>
-      <c r="H21" s="210" t="s">
-        <v>91</v>
-      </c>
-      <c r="I21" s="210" t="s">
-        <v>91</v>
-      </c>
-      <c r="J21" s="210" t="s">
-        <v>91</v>
-      </c>
-      <c r="K21" s="210" t="s">
-        <v>91</v>
-      </c>
-      <c r="L21" s="210" t="s">
-        <v>91</v>
-      </c>
-      <c r="M21" s="210" t="s">
-        <v>91</v>
-      </c>
-      <c r="N21" s="210" t="s">
-        <v>91</v>
-      </c>
-      <c r="O21" s="210" t="s">
-        <v>91</v>
-      </c>
-      <c r="P21" s="210" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q21" s="210" t="s">
-        <v>439</v>
-      </c>
-      <c r="R21" s="210" t="s">
-        <v>141</v>
-      </c>
-      <c r="S21" s="210" t="s">
-        <v>439</v>
-      </c>
-      <c r="T21" s="210" t="s">
-        <v>439</v>
-      </c>
-      <c r="U21" s="210" t="s">
-        <v>90</v>
-      </c>
-      <c r="V21" s="210" t="s">
-        <v>90</v>
-      </c>
-      <c r="W21" s="210" t="s">
-        <v>91</v>
-      </c>
-      <c r="X21" s="210" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y21" s="210" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z21" s="210" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA21" s="210" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB21" s="210" t="s">
-        <v>439</v>
-      </c>
-      <c r="AC21" s="210" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD21" s="210" t="s">
-        <v>122</v>
-      </c>
-      <c r="AE21" s="210" t="s">
-        <v>141</v>
-      </c>
-      <c r="AF21" s="210" t="s">
-        <v>439</v>
-      </c>
-      <c r="AG21" s="210" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH21" s="210" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI21" s="210" t="s">
-        <v>141</v>
-      </c>
-      <c r="AJ21" s="210" t="s">
-        <v>439</v>
-      </c>
-      <c r="AK21" s="210" t="s">
-        <v>447</v>
-      </c>
-      <c r="AL21" s="210" t="s">
-        <v>439</v>
-      </c>
-      <c r="AM21" s="210" t="s">
-        <v>439</v>
-      </c>
-      <c r="AN21" s="210" t="s">
-        <v>439</v>
-      </c>
-      <c r="AO21" s="210" t="s">
-        <v>439</v>
-      </c>
-      <c r="AP21" s="210" t="s">
-        <v>90</v>
-      </c>
-      <c r="AQ21" s="210" t="s">
-        <v>90</v>
-      </c>
-      <c r="AR21" s="210" t="s">
-        <v>90</v>
-      </c>
-      <c r="AS21" s="210" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT21" s="210" t="s">
-        <v>113</v>
-      </c>
-      <c r="AU21" s="210" t="s">
-        <v>113</v>
-      </c>
-      <c r="AV21" s="210" t="s">
-        <v>113</v>
-      </c>
-      <c r="AW21" s="210" t="s">
-        <v>113</v>
-      </c>
-      <c r="AX21" s="210" t="s">
-        <v>97</v>
-      </c>
-      <c r="AY21" s="210" t="s">
-        <v>113</v>
-      </c>
-      <c r="AZ21" s="210" t="s">
-        <v>113</v>
-      </c>
-      <c r="BA21" s="210" t="s">
-        <v>460</v>
-      </c>
-      <c r="BB21" s="210" t="s">
-        <v>460</v>
-      </c>
-      <c r="BC21" s="210" t="s">
-        <v>90</v>
-      </c>
-      <c r="BD21" s="210" t="s">
-        <v>91</v>
-      </c>
-      <c r="BE21" s="210" t="s">
-        <v>460</v>
-      </c>
-      <c r="BF21" s="210" t="s">
-        <v>91</v>
-      </c>
-      <c r="BG21" s="242" t="s">
-        <v>464</v>
-      </c>
-      <c r="BH21" s="210" t="s">
-        <v>90</v>
-      </c>
-      <c r="BI21" s="210" t="s">
-        <v>97</v>
-      </c>
-      <c r="BJ21" s="210" t="s">
-        <v>468</v>
-      </c>
-      <c r="BK21" s="210" t="s">
-        <v>91</v>
-      </c>
-      <c r="BL21" s="210" t="s">
-        <v>122</v>
-      </c>
-      <c r="BM21" s="210" t="s">
-        <v>122</v>
-      </c>
-      <c r="BN21" s="206"/>
-      <c r="BO21" s="206"/>
-      <c r="BP21" s="206"/>
-      <c r="BQ21" s="205"/>
-      <c r="BR21" s="210" t="s">
-        <v>122</v>
-      </c>
-      <c r="BS21" s="210" t="s">
-        <v>122</v>
-      </c>
-      <c r="BT21" s="210" t="s">
-        <v>460</v>
-      </c>
-      <c r="BW21" s="210" t="s">
-        <v>97</v>
-      </c>
-      <c r="BX21" s="210" t="s">
-        <v>476</v>
-      </c>
-      <c r="BY21" s="210" t="s">
-        <v>482</v>
-      </c>
-      <c r="BZ21" s="210" t="s">
-        <v>476</v>
-      </c>
-      <c r="CA21" s="210" t="s">
-        <v>482</v>
-      </c>
-      <c r="CB21" s="210" t="s">
-        <v>122</v>
-      </c>
-      <c r="CC21" s="210" t="s">
-        <v>122</v>
-      </c>
-      <c r="CD21" s="210" t="s">
-        <v>483</v>
-      </c>
-      <c r="CE21" s="210" t="s">
-        <v>483</v>
-      </c>
-      <c r="CF21" s="210" t="s">
-        <v>483</v>
-      </c>
-      <c r="CG21" s="210" t="s">
-        <v>483</v>
-      </c>
-      <c r="CH21" s="210" t="s">
-        <v>90</v>
-      </c>
-      <c r="CI21" s="210" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="22" spans="1:177" ht="60">
-      <c r="A22" s="208" t="s">
-        <v>438</v>
-      </c>
-      <c r="C22" s="117" t="s">
-        <v>411</v>
-      </c>
-      <c r="D22" s="203" t="s">
-        <v>100</v>
-      </c>
-      <c r="E22" s="117" t="s">
-        <v>101</v>
-      </c>
-      <c r="F22" s="213" t="s">
-        <v>102</v>
-      </c>
-      <c r="G22" s="117" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" s="238" t="s">
-        <v>480</v>
-      </c>
-      <c r="I22" s="238" t="s">
-        <v>480</v>
-      </c>
-      <c r="J22" s="238" t="s">
-        <v>480</v>
-      </c>
-      <c r="K22" s="238" t="s">
-        <v>480</v>
-      </c>
-      <c r="L22" s="229" t="s">
-        <v>442</v>
-      </c>
-      <c r="M22" s="229" t="s">
-        <v>442</v>
-      </c>
-      <c r="N22" s="229" t="s">
-        <v>443</v>
-      </c>
-      <c r="O22" s="229" t="s">
-        <v>444</v>
-      </c>
-      <c r="P22" s="117" t="s">
-        <v>411</v>
-      </c>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="117">
-        <v>500</v>
-      </c>
-      <c r="Y22" s="117">
-        <v>500</v>
-      </c>
-      <c r="Z22" s="229" t="s">
-        <v>448</v>
-      </c>
-      <c r="AA22" s="117" t="s">
-        <v>411</v>
-      </c>
-      <c r="AB22" s="11"/>
-      <c r="AC22" s="11"/>
-      <c r="AD22" s="11"/>
-      <c r="AE22" s="11"/>
-      <c r="AF22" s="11"/>
-      <c r="AG22" s="11"/>
-      <c r="AH22" s="11"/>
-      <c r="AI22" s="11"/>
-      <c r="AJ22" s="11"/>
-      <c r="AK22" s="11"/>
-      <c r="AL22" s="11"/>
-      <c r="AM22" s="238" t="s">
-        <v>467</v>
-      </c>
-      <c r="AN22" s="238" t="s">
-        <v>467</v>
-      </c>
-      <c r="AO22" s="238" t="s">
-        <v>467</v>
-      </c>
-      <c r="AP22" s="117">
-        <v>0</v>
-      </c>
-      <c r="AQ22" s="117">
-        <v>0</v>
-      </c>
-      <c r="AR22" s="117">
-        <v>0</v>
-      </c>
+      <c r="AM22" s="11"/>
+      <c r="AN22" s="11"/>
+      <c r="AO22" s="11"/>
+      <c r="AP22" s="11"/>
+      <c r="AQ22" s="11"/>
+      <c r="AR22" s="11"/>
       <c r="AS22" s="11"/>
       <c r="AT22" s="11"/>
       <c r="AU22" s="11"/>
       <c r="AV22" s="11"/>
       <c r="AW22" s="11"/>
-      <c r="AX22" s="204" t="s">
-        <v>114</v>
-      </c>
+      <c r="AX22" s="11"/>
       <c r="AY22" s="11"/>
       <c r="AZ22" s="11"/>
-      <c r="BA22" s="238" t="s">
-        <v>481</v>
-      </c>
-      <c r="BB22" s="238" t="s">
-        <v>481</v>
-      </c>
-      <c r="BC22" s="117">
-        <v>7</v>
-      </c>
-      <c r="BD22" s="238" t="s">
-        <v>480</v>
-      </c>
-      <c r="BE22" s="238" t="s">
-        <v>481</v>
-      </c>
-      <c r="BF22" s="238" t="s">
-        <v>480</v>
-      </c>
-      <c r="BG22" s="238" t="s">
-        <v>481</v>
-      </c>
-      <c r="BH22" s="117">
-        <v>100</v>
-      </c>
-      <c r="BI22" s="214" t="s">
-        <v>107</v>
-      </c>
-      <c r="BJ22" s="117" t="s">
-        <v>99</v>
-      </c>
-      <c r="BK22" s="229" t="s">
-        <v>470</v>
-      </c>
-      <c r="BL22" s="117" t="s">
+      <c r="BA22" s="116" t="s">
+        <v>461</v>
+      </c>
+      <c r="BB22" s="116" t="s">
+        <v>461</v>
+      </c>
+      <c r="BC22" s="11"/>
+      <c r="BD22" s="11"/>
+      <c r="BE22" s="116" t="s">
+        <v>461</v>
+      </c>
+      <c r="BF22" s="11"/>
+      <c r="BG22" s="11"/>
+      <c r="BH22" s="11"/>
+      <c r="BI22" s="11"/>
+      <c r="BJ22" s="11"/>
+      <c r="BK22" s="11"/>
+      <c r="BL22" s="11"/>
+      <c r="BM22" s="11"/>
+      <c r="BN22" s="11"/>
+      <c r="BO22" s="11"/>
+      <c r="BP22" s="11"/>
+      <c r="BQ22" s="11"/>
+      <c r="BR22" s="116" t="s">
+        <v>421</v>
+      </c>
+      <c r="BS22" s="116" t="s">
         <v>411</v>
       </c>
-      <c r="BM22" s="117" t="s">
+      <c r="BT22" s="116" t="s">
         <v>411</v>
       </c>
-      <c r="BN22" s="206"/>
-      <c r="BO22" s="206"/>
-      <c r="BP22" s="206"/>
-      <c r="BQ22" s="205"/>
-      <c r="BR22" s="238" t="s">
-        <v>481</v>
-      </c>
-      <c r="BS22" s="238" t="s">
-        <v>481</v>
-      </c>
-      <c r="BT22" s="238" t="s">
-        <v>481</v>
-      </c>
-      <c r="BW22" s="261" t="s">
-        <v>129</v>
-      </c>
-      <c r="BX22" s="229" t="s">
-        <v>477</v>
-      </c>
-      <c r="BY22" s="238" t="s">
-        <v>481</v>
-      </c>
-      <c r="BZ22" s="238" t="s">
-        <v>480</v>
-      </c>
-      <c r="CA22" s="238" t="s">
-        <v>481</v>
-      </c>
-      <c r="CB22" s="117" t="b">
-        <v>1</v>
-      </c>
-      <c r="CC22" s="117" t="b">
-        <v>1</v>
-      </c>
-      <c r="CD22" s="238" t="s">
-        <v>467</v>
-      </c>
-      <c r="CE22" s="238" t="s">
-        <v>467</v>
-      </c>
-      <c r="CF22" s="238" t="s">
-        <v>467</v>
-      </c>
-      <c r="CG22" s="238" t="s">
-        <v>467</v>
-      </c>
-      <c r="CH22" s="117">
-        <v>0</v>
-      </c>
-      <c r="CI22" s="238" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="23" spans="1:177" ht="34">
-      <c r="A23" s="208" t="s">
-        <v>219</v>
-      </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="204" t="s">
-        <v>441</v>
-      </c>
-      <c r="R23" s="238" t="s">
-        <v>244</v>
-      </c>
-      <c r="S23" s="204" t="s">
-        <v>245</v>
-      </c>
-      <c r="T23" s="204" t="s">
-        <v>246</v>
-      </c>
-      <c r="U23" s="68">
-        <v>4</v>
-      </c>
-      <c r="V23" s="68">
-        <v>10</v>
-      </c>
-      <c r="W23" s="229" t="s">
-        <v>445</v>
-      </c>
-      <c r="X23" s="11"/>
-      <c r="Y23" s="11"/>
-      <c r="Z23" s="11"/>
-      <c r="AA23" s="11"/>
-      <c r="AB23" s="204" t="s">
-        <v>150</v>
-      </c>
-      <c r="AC23" s="117" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD23" s="117" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE23" s="238" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF23" s="204" t="s">
-        <v>160</v>
-      </c>
-      <c r="AG23" s="117">
-        <v>26</v>
-      </c>
-      <c r="AH23" s="117">
-        <v>12</v>
-      </c>
-      <c r="AI23" s="238" t="s">
-        <v>158</v>
-      </c>
-      <c r="AJ23" s="204" t="s">
-        <v>150</v>
-      </c>
-      <c r="AK23" s="237" t="s">
-        <v>446</v>
-      </c>
-      <c r="AL23" s="204" t="s">
-        <v>157</v>
-      </c>
-      <c r="AM23" s="11"/>
-      <c r="AN23" s="11"/>
-      <c r="AO23" s="11"/>
-      <c r="AP23" s="11"/>
-      <c r="AQ23" s="11"/>
-      <c r="AR23" s="11"/>
-      <c r="AS23" s="11"/>
-      <c r="AT23" s="11"/>
-      <c r="AU23" s="11"/>
-      <c r="AV23" s="11"/>
-      <c r="AW23" s="11"/>
-      <c r="AX23" s="11"/>
-      <c r="AY23" s="11"/>
-      <c r="AZ23" s="11"/>
-      <c r="BA23" s="117" t="s">
-        <v>461</v>
-      </c>
-      <c r="BB23" s="117" t="s">
-        <v>461</v>
-      </c>
-      <c r="BC23" s="11"/>
-      <c r="BD23" s="11"/>
-      <c r="BE23" s="117" t="s">
-        <v>461</v>
-      </c>
-      <c r="BF23" s="11"/>
-      <c r="BG23" s="11"/>
-      <c r="BH23" s="11"/>
-      <c r="BI23" s="11"/>
-      <c r="BJ23" s="11"/>
-      <c r="BK23" s="11"/>
-      <c r="BL23" s="11"/>
-      <c r="BM23" s="11"/>
-      <c r="BN23" s="11"/>
-      <c r="BO23" s="11"/>
-      <c r="BP23" s="11"/>
-      <c r="BQ23" s="117" t="s">
-        <v>421</v>
-      </c>
-      <c r="BR23" s="117" t="s">
-        <v>411</v>
-      </c>
-      <c r="BS23" s="117" t="s">
-        <v>411</v>
-      </c>
-      <c r="BT23" s="68" t="s">
+      <c r="BU22" s="68" t="s">
         <v>412</v>
       </c>
-      <c r="BW23" s="11"/>
-      <c r="BX23" s="11"/>
-      <c r="BY23" s="11"/>
-      <c r="BZ23" s="11"/>
-      <c r="CA23" s="11"/>
-      <c r="CB23" s="11"/>
-      <c r="CC23" s="11"/>
-      <c r="CD23" s="11"/>
-      <c r="CE23" s="11"/>
-      <c r="CF23" s="11"/>
-      <c r="CG23" s="11"/>
-      <c r="CH23" s="11"/>
-      <c r="CI23" s="11"/>
-    </row>
-    <row r="24" spans="1:177" ht="24">
-      <c r="A24" s="209"/>
-      <c r="C24" s="205"/>
-      <c r="G24" s="205"/>
+      <c r="BX22" s="11"/>
+      <c r="BY22" s="11"/>
+      <c r="BZ22" s="11"/>
+      <c r="CA22" s="11"/>
+      <c r="CB22" s="11"/>
+      <c r="CC22" s="11"/>
+      <c r="CD22" s="11"/>
+      <c r="CE22" s="11"/>
+      <c r="CF22" s="11"/>
+      <c r="CG22" s="11"/>
+      <c r="CH22" s="11"/>
+      <c r="CI22" s="11"/>
+      <c r="CJ22" s="11"/>
+    </row>
+    <row r="23" spans="1:178" ht="24">
+      <c r="A23" s="204"/>
+      <c r="C23" s="201"/>
+      <c r="G23" s="201"/>
+      <c r="AF23" s="58"/>
+      <c r="AG23" s="58"/>
+      <c r="BL23" s="201"/>
+      <c r="BM23" s="201"/>
+      <c r="BN23" s="201"/>
+      <c r="BO23" s="201"/>
+      <c r="BP23" s="201"/>
+      <c r="BQ23" s="201"/>
+      <c r="BR23" s="201"/>
+      <c r="BS23" s="201"/>
+      <c r="BT23" s="201"/>
+      <c r="BU23" s="202"/>
+    </row>
+    <row r="24" spans="1:178" ht="36" customHeight="1">
+      <c r="C24" t="s">
+        <v>355</v>
+      </c>
+      <c r="D24" t="s">
+        <v>414</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>431</v>
+      </c>
       <c r="AF24" s="58"/>
       <c r="AG24" s="58"/>
-      <c r="BL24" s="205"/>
-      <c r="BM24" s="205"/>
-      <c r="BN24" s="206"/>
-      <c r="BO24" s="206"/>
-      <c r="BP24" s="206"/>
-      <c r="BQ24" s="205"/>
-      <c r="BR24" s="205"/>
-      <c r="BS24" s="205"/>
-      <c r="BT24" s="207"/>
-    </row>
-    <row r="25" spans="1:177" ht="36" customHeight="1">
+      <c r="AH24" s="57"/>
+      <c r="AI24" s="57"/>
+      <c r="AJ24" s="57"/>
+      <c r="AK24" s="57"/>
+      <c r="AT24" s="234" t="s">
+        <v>459</v>
+      </c>
+      <c r="BG24" s="241" t="s">
+        <v>466</v>
+      </c>
+      <c r="BJ24" s="241" t="s">
+        <v>469</v>
+      </c>
+      <c r="BO24" s="241"/>
+      <c r="BP24" s="241"/>
+      <c r="BV24" s="241" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="25" spans="1:178">
       <c r="C25" t="s">
-        <v>355</v>
+        <v>220</v>
       </c>
       <c r="D25" t="s">
-        <v>414</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>431</v>
-      </c>
-      <c r="AF25" s="58"/>
-      <c r="AG25" s="58"/>
+        <v>415</v>
+      </c>
+      <c r="AE25" s="57"/>
+      <c r="AF25" s="57"/>
+      <c r="AG25" s="57"/>
       <c r="AH25" s="57"/>
       <c r="AI25" s="57"/>
       <c r="AJ25" s="57"/>
       <c r="AK25" s="57"/>
-      <c r="AT25" s="239" t="s">
-        <v>459</v>
-      </c>
-      <c r="BG25" s="246" t="s">
-        <v>466</v>
-      </c>
-      <c r="BJ25" s="246" t="s">
+      <c r="BW25" s="241" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="26" spans="1:177">
-      <c r="C26" t="s">
-        <v>220</v>
-      </c>
-      <c r="D26" t="s">
-        <v>415</v>
-      </c>
-      <c r="AE26" s="57"/>
-      <c r="AF26" s="57"/>
-      <c r="AG26" s="57"/>
-      <c r="AH26" s="57"/>
-      <c r="AI26" s="57"/>
-      <c r="AJ26" s="57"/>
-      <c r="AK26" s="57"/>
-    </row>
-    <row r="27" spans="1:177">
-      <c r="AE27" s="58"/>
-      <c r="AF27" s="58"/>
-      <c r="AG27" s="58"/>
-      <c r="AH27" s="58"/>
-      <c r="AI27" s="58"/>
-      <c r="AJ27" s="58"/>
-      <c r="AK27" s="58"/>
-    </row>
-    <row r="28" spans="1:177" ht="44" customHeight="1">
-      <c r="BL28" t="s">
+    <row r="26" spans="1:178">
+      <c r="AE26" s="58"/>
+      <c r="AF26" s="58"/>
+      <c r="AG26" s="58"/>
+      <c r="AH26" s="58"/>
+      <c r="AI26" s="58"/>
+      <c r="AJ26" s="58"/>
+      <c r="AK26" s="58"/>
+    </row>
+    <row r="27" spans="1:178" ht="44" customHeight="1">
+      <c r="BL27" t="s">
         <v>413</v>
       </c>
-      <c r="BN28" s="141" t="s">
+      <c r="BN27" s="137" t="s">
         <v>424</v>
       </c>
-      <c r="BO28" s="141"/>
-      <c r="BP28" s="141"/>
-    </row>
-    <row r="29" spans="1:177">
-      <c r="BM29" t="s">
+      <c r="BO27" s="137"/>
+      <c r="BP27" s="137"/>
+      <c r="BQ27" s="137"/>
+    </row>
+    <row r="28" spans="1:178">
+      <c r="BM28" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="32" spans="1:177">
-      <c r="O32" t="s">
+    <row r="31" spans="1:178">
+      <c r="O31" t="s">
         <v>430</v>
+      </c>
+    </row>
+    <row r="35" spans="5:5">
+      <c r="E35" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="36" spans="5:5">
       <c r="E36" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="37" spans="5:5">
       <c r="E37" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="38" spans="5:5">
       <c r="E38" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="39" spans="5:5">
-      <c r="E39" t="s">
         <v>383</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="176">
-    <mergeCell ref="CH13:CH18"/>
+  <mergeCells count="186">
     <mergeCell ref="CI13:CI18"/>
-    <mergeCell ref="CE15:CE18"/>
+    <mergeCell ref="CJ13:CJ18"/>
+    <mergeCell ref="BS17:BS18"/>
+    <mergeCell ref="BN11:BQ12"/>
+    <mergeCell ref="BV11:BV12"/>
+    <mergeCell ref="BW11:BW12"/>
+    <mergeCell ref="BV13:BV18"/>
+    <mergeCell ref="BW13:BW18"/>
+    <mergeCell ref="BQ13:BQ14"/>
+    <mergeCell ref="BO13:BO14"/>
+    <mergeCell ref="BN13:BN14"/>
+    <mergeCell ref="BP13:BP14"/>
+    <mergeCell ref="BR13:BR18"/>
     <mergeCell ref="CF15:CF18"/>
     <mergeCell ref="CG15:CG18"/>
-    <mergeCell ref="BY13:BY18"/>
+    <mergeCell ref="CH15:CH18"/>
     <mergeCell ref="BZ13:BZ18"/>
-    <mergeCell ref="CC13:CC18"/>
+    <mergeCell ref="CA13:CA18"/>
+    <mergeCell ref="CD13:CD18"/>
     <mergeCell ref="BN15:BN18"/>
     <mergeCell ref="BO15:BO18"/>
-    <mergeCell ref="BP15:BP18"/>
-    <mergeCell ref="BT15:BT18"/>
-    <mergeCell ref="CD15:CD18"/>
+    <mergeCell ref="BQ15:BQ18"/>
+    <mergeCell ref="BU15:BU18"/>
+    <mergeCell ref="CE15:CE18"/>
     <mergeCell ref="AD15:AD18"/>
     <mergeCell ref="P15:P18"/>
     <mergeCell ref="Q15:Q18"/>
@@ -5919,7 +5904,7 @@
     <mergeCell ref="AV13:AV18"/>
     <mergeCell ref="AW13:AW18"/>
     <mergeCell ref="AX13:AX18"/>
-    <mergeCell ref="CI11:CI12"/>
+    <mergeCell ref="CJ11:CJ12"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="C10:C18"/>
     <mergeCell ref="D11:D18"/>
@@ -5932,20 +5917,20 @@
     <mergeCell ref="K13:K18"/>
     <mergeCell ref="L13:L18"/>
     <mergeCell ref="M13:M18"/>
-    <mergeCell ref="BW11:BW18"/>
     <mergeCell ref="BX11:BX18"/>
-    <mergeCell ref="CA11:CA18"/>
+    <mergeCell ref="BY11:BY18"/>
     <mergeCell ref="CB11:CB18"/>
-    <mergeCell ref="CH11:CH12"/>
-    <mergeCell ref="CC11:CC12"/>
-    <mergeCell ref="CD11:CG12"/>
-    <mergeCell ref="CD13:CD14"/>
+    <mergeCell ref="CC11:CC18"/>
+    <mergeCell ref="CI11:CI12"/>
+    <mergeCell ref="CD11:CD12"/>
+    <mergeCell ref="CE11:CH12"/>
     <mergeCell ref="CE13:CE14"/>
     <mergeCell ref="CF13:CF14"/>
     <mergeCell ref="CG13:CG14"/>
-    <mergeCell ref="BY10:BZ10"/>
-    <mergeCell ref="BY11:BY12"/>
+    <mergeCell ref="CH13:CH14"/>
+    <mergeCell ref="BZ10:CA10"/>
     <mergeCell ref="BZ11:BZ12"/>
+    <mergeCell ref="CA11:CA12"/>
     <mergeCell ref="W13:W18"/>
     <mergeCell ref="X13:X18"/>
     <mergeCell ref="Y13:Y18"/>
@@ -5969,11 +5954,11 @@
     <mergeCell ref="AH15:AH16"/>
     <mergeCell ref="AG15:AG16"/>
     <mergeCell ref="AF15:AF16"/>
-    <mergeCell ref="BQ11:BQ12"/>
-    <mergeCell ref="BT11:BT12"/>
-    <mergeCell ref="BR11:BS12"/>
-    <mergeCell ref="BR13:BR14"/>
+    <mergeCell ref="BR11:BR12"/>
+    <mergeCell ref="BU11:BU12"/>
+    <mergeCell ref="BS11:BT12"/>
     <mergeCell ref="BS13:BS14"/>
+    <mergeCell ref="BT13:BT14"/>
     <mergeCell ref="BM11:BM12"/>
     <mergeCell ref="BL11:BL12"/>
     <mergeCell ref="BJ11:BJ18"/>
@@ -6012,13 +5997,13 @@
     <mergeCell ref="R15:R16"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="P13:V13"/>
-    <mergeCell ref="C6:CI6"/>
+    <mergeCell ref="C6:CJ6"/>
     <mergeCell ref="D9:AR9"/>
     <mergeCell ref="AS9:AZ9"/>
     <mergeCell ref="BA9:BG9"/>
-    <mergeCell ref="BH9:BV9"/>
-    <mergeCell ref="BW9:CI9"/>
-    <mergeCell ref="CL9:CT9"/>
+    <mergeCell ref="BH9:BW9"/>
+    <mergeCell ref="BX9:CJ9"/>
+    <mergeCell ref="CM9:CU9"/>
     <mergeCell ref="G10:M10"/>
     <mergeCell ref="N10:V10"/>
     <mergeCell ref="W10:AL10"/>
@@ -6027,11 +6012,11 @@
     <mergeCell ref="BC10:BG10"/>
     <mergeCell ref="BL10:BM10"/>
     <mergeCell ref="AM10:AR10"/>
-    <mergeCell ref="CC10:CG10"/>
-    <mergeCell ref="CH10:CI10"/>
+    <mergeCell ref="CD10:CH10"/>
+    <mergeCell ref="CI10:CJ10"/>
     <mergeCell ref="P11:V11"/>
     <mergeCell ref="AA11:AL11"/>
-    <mergeCell ref="BU10:BV10"/>
+    <mergeCell ref="BV10:BW10"/>
     <mergeCell ref="Z11:Z12"/>
     <mergeCell ref="Y11:Y12"/>
     <mergeCell ref="X11:X12"/>
@@ -6042,15 +6027,14 @@
     <mergeCell ref="AO11:AO12"/>
     <mergeCell ref="AP11:AP12"/>
     <mergeCell ref="AQ11:AQ12"/>
-    <mergeCell ref="BN10:BT10"/>
-    <mergeCell ref="BN28:BP28"/>
+    <mergeCell ref="BN10:BU10"/>
+    <mergeCell ref="BN27:BQ27"/>
     <mergeCell ref="AA13:AL13"/>
     <mergeCell ref="AR11:AR12"/>
     <mergeCell ref="AW11:AW12"/>
     <mergeCell ref="R14:V14"/>
     <mergeCell ref="AE14:AH14"/>
     <mergeCell ref="AI14:AL14"/>
-    <mergeCell ref="BN11:BP11"/>
     <mergeCell ref="AV11:AV12"/>
     <mergeCell ref="AU11:AU12"/>
     <mergeCell ref="AT11:AT12"/>
@@ -6143,88 +6127,88 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:92" ht="67" customHeight="1">
-      <c r="B4" s="151" t="s">
+      <c r="B4" s="147" t="s">
         <v>264</v>
       </c>
-      <c r="C4" s="151"/>
-      <c r="D4" s="151"/>
-      <c r="E4" s="151"/>
-      <c r="F4" s="151"/>
-      <c r="G4" s="151"/>
-      <c r="H4" s="151"/>
-      <c r="I4" s="151"/>
-      <c r="J4" s="151"/>
-      <c r="K4" s="151"/>
-      <c r="L4" s="151"/>
-      <c r="M4" s="151"/>
-      <c r="N4" s="151"/>
-      <c r="O4" s="151"/>
-      <c r="P4" s="151"/>
-      <c r="Q4" s="151"/>
-      <c r="R4" s="151"/>
-      <c r="S4" s="151"/>
-      <c r="T4" s="151"/>
-      <c r="U4" s="151"/>
-      <c r="V4" s="151"/>
-      <c r="W4" s="151"/>
-      <c r="X4" s="151"/>
-      <c r="Y4" s="151"/>
-      <c r="Z4" s="151"/>
-      <c r="AA4" s="151"/>
-      <c r="AB4" s="151"/>
-      <c r="AC4" s="151"/>
-      <c r="AD4" s="151"/>
-      <c r="AE4" s="151"/>
-      <c r="AF4" s="151"/>
-      <c r="AG4" s="151"/>
-      <c r="AH4" s="151"/>
-      <c r="AI4" s="151"/>
-      <c r="AJ4" s="151"/>
-      <c r="AK4" s="151"/>
-      <c r="AL4" s="151"/>
-      <c r="AM4" s="151"/>
-      <c r="AN4" s="151"/>
-      <c r="AO4" s="151"/>
-      <c r="AP4" s="151"/>
-      <c r="AQ4" s="151"/>
-      <c r="AR4" s="151"/>
-      <c r="AS4" s="151"/>
-      <c r="AT4" s="151"/>
-      <c r="AU4" s="151"/>
-      <c r="AV4" s="151"/>
-      <c r="AW4" s="151"/>
-      <c r="AX4" s="151"/>
-      <c r="AY4" s="151"/>
-      <c r="AZ4" s="151"/>
-      <c r="BA4" s="151"/>
-      <c r="BB4" s="151"/>
-      <c r="BC4" s="151"/>
-      <c r="BD4" s="151"/>
-      <c r="BE4" s="151"/>
-      <c r="BF4" s="151"/>
-      <c r="BG4" s="151"/>
-      <c r="BH4" s="151"/>
-      <c r="BI4" s="151"/>
-      <c r="BJ4" s="151"/>
-      <c r="BK4" s="151"/>
-      <c r="BL4" s="151"/>
-      <c r="BM4" s="151"/>
-      <c r="BN4" s="151"/>
-      <c r="BO4" s="151"/>
-      <c r="BP4" s="151"/>
-      <c r="BQ4" s="151"/>
-      <c r="BR4" s="151"/>
-      <c r="BS4" s="151"/>
-      <c r="BT4" s="151"/>
-      <c r="BU4" s="151"/>
-      <c r="BV4" s="151"/>
-      <c r="BW4" s="151"/>
-      <c r="BX4" s="151"/>
-      <c r="BY4" s="151"/>
-      <c r="BZ4" s="151"/>
-      <c r="CA4" s="151"/>
-      <c r="CB4" s="151"/>
-      <c r="CC4" s="151"/>
+      <c r="C4" s="147"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="147"/>
+      <c r="F4" s="147"/>
+      <c r="G4" s="147"/>
+      <c r="H4" s="147"/>
+      <c r="I4" s="147"/>
+      <c r="J4" s="147"/>
+      <c r="K4" s="147"/>
+      <c r="L4" s="147"/>
+      <c r="M4" s="147"/>
+      <c r="N4" s="147"/>
+      <c r="O4" s="147"/>
+      <c r="P4" s="147"/>
+      <c r="Q4" s="147"/>
+      <c r="R4" s="147"/>
+      <c r="S4" s="147"/>
+      <c r="T4" s="147"/>
+      <c r="U4" s="147"/>
+      <c r="V4" s="147"/>
+      <c r="W4" s="147"/>
+      <c r="X4" s="147"/>
+      <c r="Y4" s="147"/>
+      <c r="Z4" s="147"/>
+      <c r="AA4" s="147"/>
+      <c r="AB4" s="147"/>
+      <c r="AC4" s="147"/>
+      <c r="AD4" s="147"/>
+      <c r="AE4" s="147"/>
+      <c r="AF4" s="147"/>
+      <c r="AG4" s="147"/>
+      <c r="AH4" s="147"/>
+      <c r="AI4" s="147"/>
+      <c r="AJ4" s="147"/>
+      <c r="AK4" s="147"/>
+      <c r="AL4" s="147"/>
+      <c r="AM4" s="147"/>
+      <c r="AN4" s="147"/>
+      <c r="AO4" s="147"/>
+      <c r="AP4" s="147"/>
+      <c r="AQ4" s="147"/>
+      <c r="AR4" s="147"/>
+      <c r="AS4" s="147"/>
+      <c r="AT4" s="147"/>
+      <c r="AU4" s="147"/>
+      <c r="AV4" s="147"/>
+      <c r="AW4" s="147"/>
+      <c r="AX4" s="147"/>
+      <c r="AY4" s="147"/>
+      <c r="AZ4" s="147"/>
+      <c r="BA4" s="147"/>
+      <c r="BB4" s="147"/>
+      <c r="BC4" s="147"/>
+      <c r="BD4" s="147"/>
+      <c r="BE4" s="147"/>
+      <c r="BF4" s="147"/>
+      <c r="BG4" s="147"/>
+      <c r="BH4" s="147"/>
+      <c r="BI4" s="147"/>
+      <c r="BJ4" s="147"/>
+      <c r="BK4" s="147"/>
+      <c r="BL4" s="147"/>
+      <c r="BM4" s="147"/>
+      <c r="BN4" s="147"/>
+      <c r="BO4" s="147"/>
+      <c r="BP4" s="147"/>
+      <c r="BQ4" s="147"/>
+      <c r="BR4" s="147"/>
+      <c r="BS4" s="147"/>
+      <c r="BT4" s="147"/>
+      <c r="BU4" s="147"/>
+      <c r="BV4" s="147"/>
+      <c r="BW4" s="147"/>
+      <c r="BX4" s="147"/>
+      <c r="BY4" s="147"/>
+      <c r="BZ4" s="147"/>
+      <c r="CA4" s="147"/>
+      <c r="CB4" s="147"/>
+      <c r="CC4" s="147"/>
     </row>
     <row r="6" spans="1:92">
       <c r="B6" s="6"/>
@@ -6279,106 +6263,106 @@
       <c r="B7" s="113" t="s">
         <v>289</v>
       </c>
-      <c r="C7" s="145" t="s">
+      <c r="C7" s="141" t="s">
         <v>263</v>
       </c>
-      <c r="D7" s="146"/>
-      <c r="E7" s="146"/>
-      <c r="F7" s="146"/>
-      <c r="G7" s="146"/>
-      <c r="H7" s="146"/>
-      <c r="I7" s="146"/>
-      <c r="J7" s="146"/>
-      <c r="K7" s="146"/>
-      <c r="L7" s="146"/>
-      <c r="M7" s="146"/>
-      <c r="N7" s="146"/>
-      <c r="O7" s="146"/>
-      <c r="P7" s="146"/>
-      <c r="Q7" s="146"/>
-      <c r="R7" s="146"/>
-      <c r="S7" s="146"/>
-      <c r="T7" s="146"/>
-      <c r="U7" s="146"/>
-      <c r="V7" s="146"/>
-      <c r="W7" s="146"/>
-      <c r="X7" s="146"/>
-      <c r="Y7" s="146"/>
-      <c r="Z7" s="146"/>
-      <c r="AA7" s="146"/>
-      <c r="AB7" s="146"/>
-      <c r="AC7" s="146"/>
-      <c r="AD7" s="146"/>
-      <c r="AE7" s="146"/>
-      <c r="AF7" s="146"/>
-      <c r="AG7" s="146"/>
-      <c r="AH7" s="146"/>
-      <c r="AI7" s="146"/>
-      <c r="AJ7" s="146"/>
-      <c r="AK7" s="146"/>
-      <c r="AL7" s="147"/>
-      <c r="AM7" s="145" t="s">
+      <c r="D7" s="142"/>
+      <c r="E7" s="142"/>
+      <c r="F7" s="142"/>
+      <c r="G7" s="142"/>
+      <c r="H7" s="142"/>
+      <c r="I7" s="142"/>
+      <c r="J7" s="142"/>
+      <c r="K7" s="142"/>
+      <c r="L7" s="142"/>
+      <c r="M7" s="142"/>
+      <c r="N7" s="142"/>
+      <c r="O7" s="142"/>
+      <c r="P7" s="142"/>
+      <c r="Q7" s="142"/>
+      <c r="R7" s="142"/>
+      <c r="S7" s="142"/>
+      <c r="T7" s="142"/>
+      <c r="U7" s="142"/>
+      <c r="V7" s="142"/>
+      <c r="W7" s="142"/>
+      <c r="X7" s="142"/>
+      <c r="Y7" s="142"/>
+      <c r="Z7" s="142"/>
+      <c r="AA7" s="142"/>
+      <c r="AB7" s="142"/>
+      <c r="AC7" s="142"/>
+      <c r="AD7" s="142"/>
+      <c r="AE7" s="142"/>
+      <c r="AF7" s="142"/>
+      <c r="AG7" s="142"/>
+      <c r="AH7" s="142"/>
+      <c r="AI7" s="142"/>
+      <c r="AJ7" s="142"/>
+      <c r="AK7" s="142"/>
+      <c r="AL7" s="143"/>
+      <c r="AM7" s="141" t="s">
         <v>258</v>
       </c>
-      <c r="AN7" s="146"/>
-      <c r="AO7" s="146"/>
-      <c r="AP7" s="146"/>
-      <c r="AQ7" s="146"/>
-      <c r="AR7" s="146"/>
-      <c r="AS7" s="146"/>
-      <c r="AT7" s="147"/>
-      <c r="AU7" s="145" t="s">
+      <c r="AN7" s="142"/>
+      <c r="AO7" s="142"/>
+      <c r="AP7" s="142"/>
+      <c r="AQ7" s="142"/>
+      <c r="AR7" s="142"/>
+      <c r="AS7" s="142"/>
+      <c r="AT7" s="143"/>
+      <c r="AU7" s="141" t="s">
         <v>310</v>
       </c>
-      <c r="AV7" s="146"/>
-      <c r="AW7" s="146"/>
-      <c r="AX7" s="146"/>
-      <c r="AY7" s="146"/>
-      <c r="AZ7" s="146"/>
-      <c r="BA7" s="147"/>
-      <c r="BB7" s="152" t="s">
+      <c r="AV7" s="142"/>
+      <c r="AW7" s="142"/>
+      <c r="AX7" s="142"/>
+      <c r="AY7" s="142"/>
+      <c r="AZ7" s="142"/>
+      <c r="BA7" s="143"/>
+      <c r="BB7" s="148" t="s">
         <v>257</v>
       </c>
-      <c r="BC7" s="152"/>
-      <c r="BD7" s="152"/>
-      <c r="BE7" s="152"/>
-      <c r="BF7" s="152"/>
-      <c r="BG7" s="152"/>
-      <c r="BH7" s="152"/>
-      <c r="BI7" s="152"/>
-      <c r="BJ7" s="152"/>
-      <c r="BK7" s="152"/>
-      <c r="BL7" s="152"/>
-      <c r="BM7" s="152"/>
-      <c r="BN7" s="152"/>
-      <c r="BO7" s="152"/>
-      <c r="BP7" s="152"/>
-      <c r="BQ7" s="152"/>
-      <c r="BR7" s="152"/>
-      <c r="BS7" s="152"/>
-      <c r="BT7" s="152"/>
-      <c r="BU7" s="152" t="s">
+      <c r="BC7" s="148"/>
+      <c r="BD7" s="148"/>
+      <c r="BE7" s="148"/>
+      <c r="BF7" s="148"/>
+      <c r="BG7" s="148"/>
+      <c r="BH7" s="148"/>
+      <c r="BI7" s="148"/>
+      <c r="BJ7" s="148"/>
+      <c r="BK7" s="148"/>
+      <c r="BL7" s="148"/>
+      <c r="BM7" s="148"/>
+      <c r="BN7" s="148"/>
+      <c r="BO7" s="148"/>
+      <c r="BP7" s="148"/>
+      <c r="BQ7" s="148"/>
+      <c r="BR7" s="148"/>
+      <c r="BS7" s="148"/>
+      <c r="BT7" s="148"/>
+      <c r="BU7" s="148" t="s">
         <v>260</v>
       </c>
-      <c r="BV7" s="152"/>
-      <c r="BW7" s="152"/>
-      <c r="BX7" s="152"/>
-      <c r="BY7" s="152"/>
-      <c r="BZ7" s="152"/>
-      <c r="CA7" s="152"/>
-      <c r="CB7" s="152"/>
-      <c r="CC7" s="152"/>
-      <c r="CF7" s="145" t="s">
+      <c r="BV7" s="148"/>
+      <c r="BW7" s="148"/>
+      <c r="BX7" s="148"/>
+      <c r="BY7" s="148"/>
+      <c r="BZ7" s="148"/>
+      <c r="CA7" s="148"/>
+      <c r="CB7" s="148"/>
+      <c r="CC7" s="148"/>
+      <c r="CF7" s="141" t="s">
         <v>31</v>
       </c>
-      <c r="CG7" s="146"/>
-      <c r="CH7" s="146"/>
-      <c r="CI7" s="146"/>
-      <c r="CJ7" s="146"/>
-      <c r="CK7" s="146"/>
-      <c r="CL7" s="146"/>
-      <c r="CM7" s="146"/>
-      <c r="CN7" s="147"/>
+      <c r="CG7" s="142"/>
+      <c r="CH7" s="142"/>
+      <c r="CI7" s="142"/>
+      <c r="CJ7" s="142"/>
+      <c r="CK7" s="142"/>
+      <c r="CL7" s="142"/>
+      <c r="CM7" s="142"/>
+      <c r="CN7" s="143"/>
     </row>
     <row r="8" spans="1:92" s="59" customFormat="1" ht="104" customHeight="1">
       <c r="A8" s="107" t="s">
@@ -6394,105 +6378,105 @@
       <c r="E8" s="111" t="s">
         <v>288</v>
       </c>
-      <c r="F8" s="148" t="s">
+      <c r="F8" s="144" t="s">
         <v>262</v>
       </c>
-      <c r="G8" s="148"/>
-      <c r="H8" s="148"/>
-      <c r="I8" s="148"/>
-      <c r="J8" s="148"/>
-      <c r="K8" s="148"/>
-      <c r="L8" s="148"/>
-      <c r="M8" s="143" t="s">
+      <c r="G8" s="144"/>
+      <c r="H8" s="144"/>
+      <c r="I8" s="144"/>
+      <c r="J8" s="144"/>
+      <c r="K8" s="144"/>
+      <c r="L8" s="144"/>
+      <c r="M8" s="139" t="s">
         <v>356</v>
       </c>
-      <c r="N8" s="149"/>
-      <c r="O8" s="149"/>
-      <c r="P8" s="149"/>
-      <c r="Q8" s="149"/>
-      <c r="R8" s="149"/>
-      <c r="S8" s="149"/>
-      <c r="T8" s="149"/>
-      <c r="U8" s="144"/>
-      <c r="V8" s="148" t="s">
+      <c r="N8" s="145"/>
+      <c r="O8" s="145"/>
+      <c r="P8" s="145"/>
+      <c r="Q8" s="145"/>
+      <c r="R8" s="145"/>
+      <c r="S8" s="145"/>
+      <c r="T8" s="145"/>
+      <c r="U8" s="140"/>
+      <c r="V8" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="W8" s="148"/>
-      <c r="X8" s="148"/>
-      <c r="Y8" s="148"/>
-      <c r="Z8" s="148"/>
-      <c r="AA8" s="148"/>
-      <c r="AB8" s="148"/>
-      <c r="AC8" s="148"/>
-      <c r="AD8" s="148"/>
-      <c r="AE8" s="148"/>
-      <c r="AF8" s="148"/>
-      <c r="AG8" s="148"/>
-      <c r="AH8" s="148"/>
-      <c r="AI8" s="148"/>
-      <c r="AJ8" s="148"/>
-      <c r="AK8" s="148"/>
+      <c r="W8" s="144"/>
+      <c r="X8" s="144"/>
+      <c r="Y8" s="144"/>
+      <c r="Z8" s="144"/>
+      <c r="AA8" s="144"/>
+      <c r="AB8" s="144"/>
+      <c r="AC8" s="144"/>
+      <c r="AD8" s="144"/>
+      <c r="AE8" s="144"/>
+      <c r="AF8" s="144"/>
+      <c r="AG8" s="144"/>
+      <c r="AH8" s="144"/>
+      <c r="AI8" s="144"/>
+      <c r="AJ8" s="144"/>
+      <c r="AK8" s="144"/>
       <c r="AL8" s="112" t="s">
         <v>28</v>
       </c>
-      <c r="AM8" s="148" t="s">
+      <c r="AM8" s="144" t="s">
         <v>275</v>
       </c>
-      <c r="AN8" s="148"/>
-      <c r="AO8" s="148"/>
-      <c r="AP8" s="148"/>
-      <c r="AQ8" s="148"/>
-      <c r="AR8" s="143" t="s">
+      <c r="AN8" s="144"/>
+      <c r="AO8" s="144"/>
+      <c r="AP8" s="144"/>
+      <c r="AQ8" s="144"/>
+      <c r="AR8" s="139" t="s">
         <v>276</v>
       </c>
-      <c r="AS8" s="149"/>
-      <c r="AT8" s="144"/>
-      <c r="AU8" s="119" t="s">
+      <c r="AS8" s="145"/>
+      <c r="AT8" s="140"/>
+      <c r="AU8" s="118" t="s">
         <v>290</v>
       </c>
-      <c r="AV8" s="119" t="s">
+      <c r="AV8" s="118" t="s">
         <v>387</v>
       </c>
-      <c r="AW8" s="148" t="s">
+      <c r="AW8" s="144" t="s">
         <v>259</v>
       </c>
-      <c r="AX8" s="148"/>
-      <c r="AY8" s="148"/>
-      <c r="AZ8" s="148"/>
-      <c r="BA8" s="148"/>
-      <c r="BB8" s="127" t="s">
+      <c r="AX8" s="144"/>
+      <c r="AY8" s="144"/>
+      <c r="AZ8" s="144"/>
+      <c r="BA8" s="144"/>
+      <c r="BB8" s="123" t="s">
         <v>353</v>
       </c>
-      <c r="BC8" s="127" t="s">
+      <c r="BC8" s="123" t="s">
         <v>354</v>
       </c>
-      <c r="BD8" s="128" t="s">
+      <c r="BD8" s="124" t="s">
         <v>297</v>
       </c>
-      <c r="BE8" s="128" t="s">
+      <c r="BE8" s="124" t="s">
         <v>391</v>
       </c>
-      <c r="BF8" s="150" t="s">
+      <c r="BF8" s="146" t="s">
         <v>266</v>
       </c>
-      <c r="BG8" s="150"/>
-      <c r="BH8" s="153" t="s">
+      <c r="BG8" s="146"/>
+      <c r="BH8" s="149" t="s">
         <v>390</v>
       </c>
-      <c r="BI8" s="155"/>
-      <c r="BJ8" s="155"/>
-      <c r="BK8" s="155"/>
-      <c r="BL8" s="143" t="s">
+      <c r="BI8" s="151"/>
+      <c r="BJ8" s="151"/>
+      <c r="BK8" s="151"/>
+      <c r="BL8" s="139" t="s">
         <v>265</v>
       </c>
-      <c r="BM8" s="149"/>
-      <c r="BN8" s="149"/>
-      <c r="BO8" s="149"/>
-      <c r="BP8" s="149"/>
-      <c r="BQ8" s="149"/>
-      <c r="BR8" s="149"/>
-      <c r="BS8" s="149"/>
-      <c r="BT8" s="149"/>
+      <c r="BM8" s="145"/>
+      <c r="BN8" s="145"/>
+      <c r="BO8" s="145"/>
+      <c r="BP8" s="145"/>
+      <c r="BQ8" s="145"/>
+      <c r="BR8" s="145"/>
+      <c r="BS8" s="145"/>
+      <c r="BT8" s="145"/>
       <c r="BU8" s="111" t="s">
         <v>137</v>
       </c>
@@ -6508,14 +6492,14 @@
       <c r="BY8" s="111" t="s">
         <v>386</v>
       </c>
-      <c r="BZ8" s="153" t="s">
+      <c r="BZ8" s="149" t="s">
         <v>305</v>
       </c>
-      <c r="CA8" s="154"/>
-      <c r="CB8" s="140" t="s">
+      <c r="CA8" s="150"/>
+      <c r="CB8" s="136" t="s">
         <v>307</v>
       </c>
-      <c r="CC8" s="140"/>
+      <c r="CC8" s="136"/>
       <c r="CF8" s="59" t="s">
         <v>355</v>
       </c>
@@ -6552,18 +6536,18 @@
       <c r="M9" s="98" t="s">
         <v>363</v>
       </c>
-      <c r="N9" s="115" t="s">
+      <c r="N9" s="114" t="s">
         <v>395</v>
       </c>
-      <c r="O9" s="131" t="s">
+      <c r="O9" s="127" t="s">
         <v>417</v>
       </c>
-      <c r="P9" s="132"/>
-      <c r="Q9" s="132"/>
-      <c r="R9" s="132"/>
-      <c r="S9" s="132"/>
-      <c r="T9" s="132"/>
-      <c r="U9" s="133"/>
+      <c r="P9" s="128"/>
+      <c r="Q9" s="128"/>
+      <c r="R9" s="128"/>
+      <c r="S9" s="128"/>
+      <c r="T9" s="128"/>
+      <c r="U9" s="129"/>
       <c r="V9" s="98" t="s">
         <v>379</v>
       </c>
@@ -6576,20 +6560,20 @@
       <c r="Y9" s="98" t="s">
         <v>399</v>
       </c>
-      <c r="Z9" s="130" t="s">
+      <c r="Z9" s="126" t="s">
         <v>416</v>
       </c>
-      <c r="AA9" s="130"/>
-      <c r="AB9" s="130"/>
-      <c r="AC9" s="130"/>
-      <c r="AD9" s="130"/>
-      <c r="AE9" s="130"/>
-      <c r="AF9" s="130"/>
-      <c r="AG9" s="130"/>
-      <c r="AH9" s="130"/>
-      <c r="AI9" s="130"/>
-      <c r="AJ9" s="130"/>
-      <c r="AK9" s="130"/>
+      <c r="AA9" s="126"/>
+      <c r="AB9" s="126"/>
+      <c r="AC9" s="126"/>
+      <c r="AD9" s="126"/>
+      <c r="AE9" s="126"/>
+      <c r="AF9" s="126"/>
+      <c r="AG9" s="126"/>
+      <c r="AH9" s="126"/>
+      <c r="AI9" s="126"/>
+      <c r="AJ9" s="126"/>
+      <c r="AK9" s="126"/>
       <c r="AL9" s="11"/>
       <c r="AM9" s="98" t="s">
         <v>258</v>
@@ -6615,10 +6599,10 @@
       <c r="AT9" s="98" t="s">
         <v>273</v>
       </c>
-      <c r="AU9" s="118" t="s">
+      <c r="AU9" s="117" t="s">
         <v>405</v>
       </c>
-      <c r="AV9" s="118" t="s">
+      <c r="AV9" s="117" t="s">
         <v>405</v>
       </c>
       <c r="AW9" s="98" t="s">
@@ -6627,7 +6611,7 @@
       <c r="AX9" s="98" t="s">
         <v>268</v>
       </c>
-      <c r="AY9" s="115" t="s">
+      <c r="AY9" s="114" t="s">
         <v>314</v>
       </c>
       <c r="AZ9" s="98" t="s">
@@ -6649,34 +6633,34 @@
       <c r="BH9" s="98" t="s">
         <v>422</v>
       </c>
-      <c r="BI9" s="131" t="s">
+      <c r="BI9" s="127" t="s">
         <v>407</v>
       </c>
-      <c r="BJ9" s="132"/>
-      <c r="BK9" s="115" t="s">
+      <c r="BJ9" s="128"/>
+      <c r="BK9" s="114" t="s">
         <v>403</v>
       </c>
       <c r="BL9" s="98" t="s">
         <v>422</v>
       </c>
-      <c r="BM9" s="131" t="s">
+      <c r="BM9" s="127" t="s">
         <v>407</v>
       </c>
-      <c r="BN9" s="133"/>
-      <c r="BO9" s="115" t="s">
+      <c r="BN9" s="129"/>
+      <c r="BO9" s="114" t="s">
         <v>403</v>
       </c>
-      <c r="BP9" s="125" t="s">
+      <c r="BP9" s="121" t="s">
         <v>371</v>
       </c>
-      <c r="BQ9" s="125" t="s">
+      <c r="BQ9" s="121" t="s">
         <v>372</v>
       </c>
-      <c r="BR9" s="137" t="s">
+      <c r="BR9" s="133" t="s">
         <v>388</v>
       </c>
-      <c r="BS9" s="138"/>
-      <c r="BT9" s="139"/>
+      <c r="BS9" s="134"/>
+      <c r="BT9" s="135"/>
       <c r="BU9" s="63"/>
       <c r="BV9" s="63"/>
       <c r="BW9" s="63"/>
@@ -6727,13 +6711,13 @@
       <c r="P10" s="98" t="s">
         <v>137</v>
       </c>
-      <c r="Q10" s="131" t="s">
+      <c r="Q10" s="127" t="s">
         <v>145</v>
       </c>
-      <c r="R10" s="132"/>
-      <c r="S10" s="132"/>
-      <c r="T10" s="132"/>
-      <c r="U10" s="133"/>
+      <c r="R10" s="128"/>
+      <c r="S10" s="128"/>
+      <c r="T10" s="128"/>
+      <c r="U10" s="129"/>
       <c r="V10" s="11"/>
       <c r="W10" s="11"/>
       <c r="X10" s="11"/>
@@ -6750,18 +6734,18 @@
       <c r="AC10" s="37" t="s">
         <v>281</v>
       </c>
-      <c r="AD10" s="134" t="s">
+      <c r="AD10" s="130" t="s">
         <v>145</v>
       </c>
-      <c r="AE10" s="135"/>
-      <c r="AF10" s="135"/>
-      <c r="AG10" s="136"/>
-      <c r="AH10" s="134" t="s">
+      <c r="AE10" s="131"/>
+      <c r="AF10" s="131"/>
+      <c r="AG10" s="132"/>
+      <c r="AH10" s="130" t="s">
         <v>140</v>
       </c>
-      <c r="AI10" s="135"/>
-      <c r="AJ10" s="135"/>
-      <c r="AK10" s="136"/>
+      <c r="AI10" s="131"/>
+      <c r="AJ10" s="131"/>
+      <c r="AK10" s="132"/>
       <c r="AL10" s="11"/>
       <c r="AM10" s="11"/>
       <c r="AN10" s="11"/>
@@ -6775,7 +6759,7 @@
       <c r="AV10" s="11"/>
       <c r="AW10" s="11"/>
       <c r="AX10" s="11"/>
-      <c r="AY10" s="118" t="s">
+      <c r="AY10" s="117" t="s">
         <v>405</v>
       </c>
       <c r="AZ10" s="11"/>
@@ -6791,17 +6775,17 @@
         <v>420</v>
       </c>
       <c r="BH10" s="11"/>
-      <c r="BI10" s="118" t="s">
+      <c r="BI10" s="117" t="s">
         <v>406</v>
       </c>
-      <c r="BJ10" s="120" t="s">
+      <c r="BJ10" s="119" t="s">
         <v>1</v>
       </c>
       <c r="BK10" s="20" t="s">
         <v>269</v>
       </c>
       <c r="BL10" s="11"/>
-      <c r="BM10" s="118" t="s">
+      <c r="BM10" s="117" t="s">
         <v>406</v>
       </c>
       <c r="BN10" s="20" t="s">
@@ -6812,13 +6796,13 @@
       </c>
       <c r="BP10" s="11"/>
       <c r="BQ10" s="11"/>
-      <c r="BR10" s="124" t="s">
+      <c r="BR10" s="120" t="s">
         <v>301</v>
       </c>
-      <c r="BS10" s="124" t="s">
+      <c r="BS10" s="120" t="s">
         <v>268</v>
       </c>
-      <c r="BT10" s="124" t="s">
+      <c r="BT10" s="120" t="s">
         <v>261</v>
       </c>
       <c r="BU10" s="11"/>
@@ -6865,7 +6849,7 @@
       <c r="AA11" s="11"/>
       <c r="AB11" s="11"/>
       <c r="AC11" s="11"/>
-      <c r="AD11" s="117" t="s">
+      <c r="AD11" s="116" t="s">
         <v>141</v>
       </c>
       <c r="AE11" s="37" t="s">
@@ -6877,7 +6861,7 @@
       <c r="AG11" s="37" t="s">
         <v>401</v>
       </c>
-      <c r="AH11" s="117" t="s">
+      <c r="AH11" s="116" t="s">
         <v>141</v>
       </c>
       <c r="AI11" s="37" t="s">
@@ -6889,10 +6873,10 @@
       <c r="AK11" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="BF11" s="126" t="s">
+      <c r="BF11" s="122" t="s">
         <v>418</v>
       </c>
-      <c r="BG11" s="126" t="s">
+      <c r="BG11" s="122" t="s">
         <v>418</v>
       </c>
       <c r="BH11" s="11"/>
@@ -6902,7 +6886,7 @@
       <c r="BJ11" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="BK11" s="126" t="s">
+      <c r="BK11" s="122" t="s">
         <v>418</v>
       </c>
       <c r="BL11" s="11"/>
@@ -6912,7 +6896,7 @@
       <c r="BN11" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="BO11" s="126" t="s">
+      <c r="BO11" s="122" t="s">
         <v>418</v>
       </c>
       <c r="BP11" s="11"/>
@@ -6922,30 +6906,30 @@
       <c r="BT11" s="11"/>
     </row>
     <row r="12" spans="1:92">
-      <c r="BF12" s="126" t="s">
+      <c r="BF12" s="122" t="s">
         <v>418</v>
       </c>
-      <c r="BG12" s="126" t="s">
+      <c r="BG12" s="122" t="s">
         <v>418</v>
       </c>
       <c r="BH12" s="11"/>
-      <c r="BI12" s="126" t="s">
+      <c r="BI12" s="122" t="s">
         <v>418</v>
       </c>
       <c r="BJ12" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="BK12" s="126" t="s">
+      <c r="BK12" s="122" t="s">
         <v>418</v>
       </c>
       <c r="BL12" s="11"/>
-      <c r="BM12" s="126" t="s">
+      <c r="BM12" s="122" t="s">
         <v>418</v>
       </c>
       <c r="BN12" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="BO12" s="126" t="s">
+      <c r="BO12" s="122" t="s">
         <v>418</v>
       </c>
       <c r="BP12" s="11"/>
@@ -6955,31 +6939,31 @@
       <c r="BT12" s="11"/>
     </row>
     <row r="13" spans="1:92" ht="38" customHeight="1">
-      <c r="BF13" s="117" t="s">
+      <c r="BF13" s="116" t="s">
         <v>411</v>
       </c>
-      <c r="BG13" s="117" t="s">
+      <c r="BG13" s="116" t="s">
         <v>411</v>
       </c>
-      <c r="BH13" s="117" t="s">
+      <c r="BH13" s="116" t="s">
         <v>421</v>
       </c>
-      <c r="BI13" s="117" t="s">
+      <c r="BI13" s="116" t="s">
         <v>411</v>
       </c>
-      <c r="BJ13" s="117" t="s">
+      <c r="BJ13" s="116" t="s">
         <v>411</v>
       </c>
       <c r="BK13" s="68" t="s">
         <v>412</v>
       </c>
-      <c r="BL13" s="117" t="s">
+      <c r="BL13" s="116" t="s">
         <v>423</v>
       </c>
-      <c r="BM13" s="117" t="s">
+      <c r="BM13" s="116" t="s">
         <v>411</v>
       </c>
-      <c r="BN13" s="117" t="s">
+      <c r="BN13" s="116" t="s">
         <v>411</v>
       </c>
       <c r="BO13" s="68" t="s">
@@ -7008,10 +6992,10 @@
       <c r="BN15" s="55"/>
     </row>
     <row r="16" spans="1:92">
-      <c r="BM16" s="142" t="s">
+      <c r="BM16" s="138" t="s">
         <v>425</v>
       </c>
-      <c r="BN16" s="142"/>
+      <c r="BN16" s="138"/>
     </row>
     <row r="17" spans="4:67" ht="44" customHeight="1">
       <c r="BF17" t="s">
@@ -7040,10 +7024,10 @@
       <c r="BG18" t="s">
         <v>402</v>
       </c>
-      <c r="BK18" s="115" t="s">
+      <c r="BK18" s="114" t="s">
         <v>302</v>
       </c>
-      <c r="BO18" s="115" t="s">
+      <c r="BO18" s="114" t="s">
         <v>299</v>
       </c>
     </row>
@@ -7056,7 +7040,7 @@
       <c r="AF20" s="58"/>
     </row>
     <row r="21" spans="4:67" ht="21">
-      <c r="Z21" s="116"/>
+      <c r="Z21" s="115"/>
       <c r="AE21" s="58"/>
       <c r="AF21" s="58"/>
       <c r="AG21" s="57"/>
@@ -7253,13 +7237,13 @@
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="B7" s="156" t="s">
+      <c r="B7" s="152" t="s">
         <v>369</v>
       </c>
-      <c r="C7" s="156"/>
-      <c r="D7" s="156"/>
-      <c r="E7" s="156"/>
-      <c r="F7" s="156"/>
+      <c r="C7" s="152"/>
+      <c r="D7" s="152"/>
+      <c r="E7" s="152"/>
+      <c r="F7" s="152"/>
       <c r="H7" s="20" t="s">
         <v>316</v>
       </c>
@@ -7302,7 +7286,7 @@
       <c r="N9" s="77"/>
     </row>
     <row r="10" spans="1:14" ht="17">
-      <c r="B10" s="157" t="s">
+      <c r="B10" s="153" t="s">
         <v>263</v>
       </c>
       <c r="C10" s="19" t="s">
@@ -7323,7 +7307,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="17">
-      <c r="B11" s="157"/>
+      <c r="B11" s="153"/>
       <c r="C11" s="19" t="s">
         <v>285</v>
       </c>
@@ -7342,7 +7326,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="17">
-      <c r="B12" s="157"/>
+      <c r="B12" s="153"/>
       <c r="C12" s="19" t="s">
         <v>288</v>
       </c>
@@ -7361,8 +7345,8 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="17">
-      <c r="B13" s="157"/>
-      <c r="C13" s="159" t="s">
+      <c r="B13" s="153"/>
+      <c r="C13" s="155" t="s">
         <v>262</v>
       </c>
       <c r="D13" s="19" t="s">
@@ -7382,8 +7366,8 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="17">
-      <c r="B14" s="157"/>
-      <c r="C14" s="159"/>
+      <c r="B14" s="153"/>
+      <c r="C14" s="155"/>
       <c r="D14" s="19" t="s">
         <v>267</v>
       </c>
@@ -7403,8 +7387,8 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="17">
-      <c r="B15" s="157"/>
-      <c r="C15" s="159"/>
+      <c r="B15" s="153"/>
+      <c r="C15" s="155"/>
       <c r="D15" s="19" t="s">
         <v>268</v>
       </c>
@@ -7424,8 +7408,8 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="17">
-      <c r="B16" s="157"/>
-      <c r="C16" s="159"/>
+      <c r="B16" s="153"/>
+      <c r="C16" s="155"/>
       <c r="D16" s="19" t="s">
         <v>261</v>
       </c>
@@ -7443,8 +7427,8 @@
       </c>
     </row>
     <row r="17" spans="2:12" ht="17">
-      <c r="B17" s="157"/>
-      <c r="C17" s="159"/>
+      <c r="B17" s="153"/>
+      <c r="C17" s="155"/>
       <c r="D17" s="19" t="s">
         <v>269</v>
       </c>
@@ -7462,8 +7446,8 @@
       </c>
     </row>
     <row r="18" spans="2:12" ht="17">
-      <c r="B18" s="157"/>
-      <c r="C18" s="159"/>
+      <c r="B18" s="153"/>
+      <c r="C18" s="155"/>
       <c r="D18" s="19" t="s">
         <v>284</v>
       </c>
@@ -7481,8 +7465,8 @@
       </c>
     </row>
     <row r="19" spans="2:12" ht="17">
-      <c r="B19" s="157"/>
-      <c r="C19" s="159"/>
+      <c r="B19" s="153"/>
+      <c r="C19" s="155"/>
       <c r="D19" s="19" t="s">
         <v>283</v>
       </c>
@@ -7500,8 +7484,8 @@
       </c>
     </row>
     <row r="20" spans="2:12" ht="17">
-      <c r="B20" s="157"/>
-      <c r="C20" s="164" t="s">
+      <c r="B20" s="153"/>
+      <c r="C20" s="160" t="s">
         <v>356</v>
       </c>
       <c r="D20" s="102" t="s">
@@ -7523,8 +7507,8 @@
       </c>
     </row>
     <row r="21" spans="2:12" ht="17">
-      <c r="B21" s="157"/>
-      <c r="C21" s="165"/>
+      <c r="B21" s="153"/>
+      <c r="C21" s="161"/>
       <c r="D21" s="102" t="s">
         <v>396</v>
       </c>
@@ -7542,9 +7526,9 @@
       </c>
     </row>
     <row r="22" spans="2:12" ht="17">
-      <c r="B22" s="157"/>
-      <c r="C22" s="165"/>
-      <c r="D22" s="161" t="s">
+      <c r="B22" s="153"/>
+      <c r="C22" s="161"/>
+      <c r="D22" s="157" t="s">
         <v>370</v>
       </c>
       <c r="E22" s="103" t="s">
@@ -7557,7 +7541,7 @@
       <c r="I22" s="82" t="b">
         <v>1</v>
       </c>
-      <c r="J22" s="156" t="s">
+      <c r="J22" s="152" t="s">
         <v>82</v>
       </c>
       <c r="L22" s="19" t="s">
@@ -7565,9 +7549,9 @@
       </c>
     </row>
     <row r="23" spans="2:12" ht="17">
-      <c r="B23" s="157"/>
-      <c r="C23" s="165"/>
-      <c r="D23" s="162"/>
+      <c r="B23" s="153"/>
+      <c r="C23" s="161"/>
+      <c r="D23" s="158"/>
       <c r="E23" s="103" t="s">
         <v>137</v>
       </c>
@@ -7578,16 +7562,16 @@
       <c r="I23" s="37" t="s">
         <v>243</v>
       </c>
-      <c r="J23" s="156"/>
+      <c r="J23" s="152"/>
       <c r="L23" s="19" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="24" spans="2:12" ht="17">
-      <c r="B24" s="157"/>
-      <c r="C24" s="165"/>
-      <c r="D24" s="162"/>
-      <c r="E24" s="160" t="s">
+      <c r="B24" s="153"/>
+      <c r="C24" s="161"/>
+      <c r="D24" s="158"/>
+      <c r="E24" s="156" t="s">
         <v>145</v>
       </c>
       <c r="F24" s="19" t="s">
@@ -7597,16 +7581,16 @@
         <v>141</v>
       </c>
       <c r="I24" s="11"/>
-      <c r="J24" s="156"/>
+      <c r="J24" s="152"/>
       <c r="L24" s="19" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="25" spans="2:12" ht="17">
-      <c r="B25" s="157"/>
-      <c r="C25" s="165"/>
-      <c r="D25" s="162"/>
-      <c r="E25" s="160"/>
+      <c r="B25" s="153"/>
+      <c r="C25" s="161"/>
+      <c r="D25" s="158"/>
+      <c r="E25" s="156"/>
       <c r="F25" s="19" t="s">
         <v>146</v>
       </c>
@@ -7614,16 +7598,16 @@
         <v>97</v>
       </c>
       <c r="I25" s="11"/>
-      <c r="J25" s="156"/>
+      <c r="J25" s="152"/>
       <c r="L25" s="19" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="26" spans="2:12" ht="17">
-      <c r="B26" s="157"/>
-      <c r="C26" s="165"/>
-      <c r="D26" s="163"/>
-      <c r="E26" s="160"/>
+      <c r="B26" s="153"/>
+      <c r="C26" s="161"/>
+      <c r="D26" s="159"/>
+      <c r="E26" s="156"/>
       <c r="F26" s="19" t="s">
         <v>328</v>
       </c>
@@ -7631,14 +7615,14 @@
         <v>329</v>
       </c>
       <c r="I26" s="11"/>
-      <c r="J26" s="156"/>
+      <c r="J26" s="152"/>
       <c r="L26" s="19" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="27" spans="2:12" ht="17">
-      <c r="B27" s="157"/>
-      <c r="C27" s="166" t="s">
+      <c r="B27" s="153"/>
+      <c r="C27" s="162" t="s">
         <v>1</v>
       </c>
       <c r="D27" s="19" t="s">
@@ -7658,8 +7642,8 @@
       </c>
     </row>
     <row r="28" spans="2:12" ht="17">
-      <c r="B28" s="157"/>
-      <c r="C28" s="167"/>
+      <c r="B28" s="153"/>
+      <c r="C28" s="163"/>
       <c r="D28" s="19" t="s">
         <v>279</v>
       </c>
@@ -7677,8 +7661,8 @@
       </c>
     </row>
     <row r="29" spans="2:12" ht="17">
-      <c r="B29" s="157"/>
-      <c r="C29" s="167"/>
+      <c r="B29" s="153"/>
+      <c r="C29" s="163"/>
       <c r="D29" s="19" t="s">
         <v>280</v>
       </c>
@@ -7696,9 +7680,9 @@
       </c>
     </row>
     <row r="30" spans="2:12" ht="17" customHeight="1">
-      <c r="B30" s="157"/>
-      <c r="C30" s="167"/>
-      <c r="D30" s="158" t="s">
+      <c r="B30" s="153"/>
+      <c r="C30" s="163"/>
+      <c r="D30" s="154" t="s">
         <v>389</v>
       </c>
       <c r="E30" s="19" t="s">
@@ -7711,7 +7695,7 @@
       <c r="I30" s="82" t="b">
         <v>1</v>
       </c>
-      <c r="J30" s="156" t="s">
+      <c r="J30" s="152" t="s">
         <v>60</v>
       </c>
       <c r="L30" s="19" t="s">
@@ -7719,9 +7703,9 @@
       </c>
     </row>
     <row r="31" spans="2:12" ht="17" customHeight="1">
-      <c r="B31" s="157"/>
-      <c r="C31" s="167"/>
-      <c r="D31" s="158"/>
+      <c r="B31" s="153"/>
+      <c r="C31" s="163"/>
+      <c r="D31" s="154"/>
       <c r="E31" s="19" t="s">
         <v>137</v>
       </c>
@@ -7732,15 +7716,15 @@
       <c r="I31" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="J31" s="156"/>
+      <c r="J31" s="152"/>
       <c r="L31" s="19" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="32" spans="2:12" ht="17" customHeight="1">
-      <c r="B32" s="157"/>
-      <c r="C32" s="167"/>
-      <c r="D32" s="158"/>
+      <c r="B32" s="153"/>
+      <c r="C32" s="163"/>
+      <c r="D32" s="154"/>
       <c r="E32" s="19" t="s">
         <v>282</v>
       </c>
@@ -7751,15 +7735,15 @@
       <c r="I32" s="82" t="b">
         <v>0</v>
       </c>
-      <c r="J32" s="156"/>
+      <c r="J32" s="152"/>
       <c r="L32" s="19" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="33" spans="2:12" ht="17" customHeight="1">
-      <c r="B33" s="157"/>
-      <c r="C33" s="167"/>
-      <c r="D33" s="158"/>
+      <c r="B33" s="153"/>
+      <c r="C33" s="163"/>
+      <c r="D33" s="154"/>
       <c r="E33" s="19" t="s">
         <v>281</v>
       </c>
@@ -7770,16 +7754,16 @@
       <c r="I33" s="82" t="b">
         <v>0</v>
       </c>
-      <c r="J33" s="156"/>
+      <c r="J33" s="152"/>
       <c r="L33" s="19" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="34" spans="2:12" ht="17" customHeight="1">
-      <c r="B34" s="157"/>
-      <c r="C34" s="167"/>
-      <c r="D34" s="158"/>
-      <c r="E34" s="158" t="s">
+      <c r="B34" s="153"/>
+      <c r="C34" s="163"/>
+      <c r="D34" s="154"/>
+      <c r="E34" s="154" t="s">
         <v>145</v>
       </c>
       <c r="F34" s="19" t="s">
@@ -7789,16 +7773,16 @@
         <v>141</v>
       </c>
       <c r="I34" s="11"/>
-      <c r="J34" s="156"/>
+      <c r="J34" s="152"/>
       <c r="L34" s="19" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="35" spans="2:12" ht="17" customHeight="1">
-      <c r="B35" s="157"/>
-      <c r="C35" s="167"/>
-      <c r="D35" s="158"/>
-      <c r="E35" s="158"/>
+      <c r="B35" s="153"/>
+      <c r="C35" s="163"/>
+      <c r="D35" s="154"/>
+      <c r="E35" s="154"/>
       <c r="F35" s="19" t="s">
         <v>146</v>
       </c>
@@ -7806,16 +7790,16 @@
         <v>97</v>
       </c>
       <c r="I35" s="11"/>
-      <c r="J35" s="156"/>
+      <c r="J35" s="152"/>
       <c r="L35" s="19" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="36" spans="2:12" ht="17" customHeight="1">
-      <c r="B36" s="157"/>
-      <c r="C36" s="167"/>
-      <c r="D36" s="158"/>
-      <c r="E36" s="158"/>
+      <c r="B36" s="153"/>
+      <c r="C36" s="163"/>
+      <c r="D36" s="154"/>
+      <c r="E36" s="154"/>
       <c r="F36" s="19" t="s">
         <v>328</v>
       </c>
@@ -7823,16 +7807,16 @@
         <v>329</v>
       </c>
       <c r="I36" s="11"/>
-      <c r="J36" s="156"/>
+      <c r="J36" s="152"/>
       <c r="L36" s="19" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="37" spans="2:12" ht="17" customHeight="1">
-      <c r="B37" s="157"/>
-      <c r="C37" s="167"/>
-      <c r="D37" s="158"/>
-      <c r="E37" s="158" t="s">
+      <c r="B37" s="153"/>
+      <c r="C37" s="163"/>
+      <c r="D37" s="154"/>
+      <c r="E37" s="154" t="s">
         <v>140</v>
       </c>
       <c r="F37" s="19" t="s">
@@ -7844,16 +7828,16 @@
       <c r="I37" s="82" t="s">
         <v>158</v>
       </c>
-      <c r="J37" s="156"/>
+      <c r="J37" s="152"/>
       <c r="L37" s="19" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="38" spans="2:12" ht="17" customHeight="1">
-      <c r="B38" s="157"/>
-      <c r="C38" s="167"/>
-      <c r="D38" s="158"/>
-      <c r="E38" s="158"/>
+      <c r="B38" s="153"/>
+      <c r="C38" s="163"/>
+      <c r="D38" s="154"/>
+      <c r="E38" s="154"/>
       <c r="F38" s="19" t="s">
         <v>142</v>
       </c>
@@ -7863,16 +7847,16 @@
       <c r="I38" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="J38" s="156"/>
+      <c r="J38" s="152"/>
       <c r="L38" s="19" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="39" spans="2:12" ht="17" customHeight="1">
-      <c r="B39" s="157"/>
-      <c r="C39" s="167"/>
-      <c r="D39" s="158"/>
-      <c r="E39" s="158"/>
+      <c r="B39" s="153"/>
+      <c r="C39" s="163"/>
+      <c r="D39" s="154"/>
+      <c r="E39" s="154"/>
       <c r="F39" s="19" t="s">
         <v>143</v>
       </c>
@@ -7882,16 +7866,16 @@
       <c r="I39" s="91">
         <v>0.5</v>
       </c>
-      <c r="J39" s="156"/>
+      <c r="J39" s="152"/>
       <c r="L39" s="19" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="40" spans="2:12" ht="17" customHeight="1">
-      <c r="B40" s="157"/>
-      <c r="C40" s="168"/>
-      <c r="D40" s="158"/>
-      <c r="E40" s="158"/>
+      <c r="B40" s="153"/>
+      <c r="C40" s="164"/>
+      <c r="D40" s="154"/>
+      <c r="E40" s="154"/>
       <c r="F40" s="19" t="s">
         <v>144</v>
       </c>
@@ -7901,13 +7885,13 @@
       <c r="I40" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="J40" s="156"/>
+      <c r="J40" s="152"/>
       <c r="L40" s="19" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="41" spans="2:12" ht="34">
-      <c r="B41" s="157"/>
+      <c r="B41" s="153"/>
       <c r="C41" s="12" t="s">
         <v>28</v>
       </c>
@@ -7926,10 +7910,10 @@
       </c>
     </row>
     <row r="42" spans="2:12" ht="17">
-      <c r="B42" s="157" t="s">
+      <c r="B42" s="153" t="s">
         <v>258</v>
       </c>
-      <c r="C42" s="159" t="s">
+      <c r="C42" s="155" t="s">
         <v>275</v>
       </c>
       <c r="D42" s="19" t="s">
@@ -7947,8 +7931,8 @@
       </c>
     </row>
     <row r="43" spans="2:12" ht="17">
-      <c r="B43" s="157"/>
-      <c r="C43" s="159"/>
+      <c r="B43" s="153"/>
+      <c r="C43" s="155"/>
       <c r="D43" s="89" t="s">
         <v>274</v>
       </c>
@@ -7967,8 +7951,8 @@
       </c>
     </row>
     <row r="44" spans="2:12" ht="17">
-      <c r="B44" s="157"/>
-      <c r="C44" s="159"/>
+      <c r="B44" s="153"/>
+      <c r="C44" s="155"/>
       <c r="D44" s="19" t="s">
         <v>277</v>
       </c>
@@ -7984,8 +7968,8 @@
       </c>
     </row>
     <row r="45" spans="2:12" ht="17">
-      <c r="B45" s="157"/>
-      <c r="C45" s="159"/>
+      <c r="B45" s="153"/>
+      <c r="C45" s="155"/>
       <c r="D45" s="19" t="s">
         <v>261</v>
       </c>
@@ -8001,8 +7985,8 @@
       </c>
     </row>
     <row r="46" spans="2:12" ht="17">
-      <c r="B46" s="157"/>
-      <c r="C46" s="159"/>
+      <c r="B46" s="153"/>
+      <c r="C46" s="155"/>
       <c r="D46" s="19" t="s">
         <v>273</v>
       </c>
@@ -8018,8 +8002,8 @@
       </c>
     </row>
     <row r="47" spans="2:12" ht="17">
-      <c r="B47" s="157"/>
-      <c r="C47" s="159" t="s">
+      <c r="B47" s="153"/>
+      <c r="C47" s="155" t="s">
         <v>276</v>
       </c>
       <c r="D47" s="19" t="s">
@@ -8037,8 +8021,8 @@
       </c>
     </row>
     <row r="48" spans="2:12" ht="17">
-      <c r="B48" s="157"/>
-      <c r="C48" s="159"/>
+      <c r="B48" s="153"/>
+      <c r="C48" s="155"/>
       <c r="D48" s="19" t="s">
         <v>44</v>
       </c>
@@ -8054,8 +8038,8 @@
       </c>
     </row>
     <row r="49" spans="2:12" ht="17">
-      <c r="B49" s="157"/>
-      <c r="C49" s="159"/>
+      <c r="B49" s="153"/>
+      <c r="C49" s="155"/>
       <c r="D49" s="19" t="s">
         <v>273</v>
       </c>
@@ -8071,7 +8055,7 @@
       </c>
     </row>
     <row r="50" spans="2:12" ht="17">
-      <c r="B50" s="157" t="s">
+      <c r="B50" s="153" t="s">
         <v>310</v>
       </c>
       <c r="C50" s="90" t="s">
@@ -8092,7 +8076,7 @@
       </c>
     </row>
     <row r="51" spans="2:12" ht="17">
-      <c r="B51" s="157"/>
+      <c r="B51" s="153"/>
       <c r="C51" s="90" t="s">
         <v>291</v>
       </c>
@@ -8111,8 +8095,8 @@
       </c>
     </row>
     <row r="52" spans="2:12" ht="17">
-      <c r="B52" s="157"/>
-      <c r="C52" s="159" t="s">
+      <c r="B52" s="153"/>
+      <c r="C52" s="155" t="s">
         <v>259</v>
       </c>
       <c r="D52" s="19" t="s">
@@ -8132,8 +8116,8 @@
       </c>
     </row>
     <row r="53" spans="2:12" ht="17">
-      <c r="B53" s="157"/>
-      <c r="C53" s="159"/>
+      <c r="B53" s="153"/>
+      <c r="C53" s="155"/>
       <c r="D53" s="19" t="s">
         <v>268</v>
       </c>
@@ -8151,8 +8135,8 @@
       </c>
     </row>
     <row r="54" spans="2:12" ht="17">
-      <c r="B54" s="157"/>
-      <c r="C54" s="159"/>
+      <c r="B54" s="153"/>
+      <c r="C54" s="155"/>
       <c r="D54" s="19" t="s">
         <v>314</v>
       </c>
@@ -8173,8 +8157,8 @@
       </c>
     </row>
     <row r="55" spans="2:12" ht="17">
-      <c r="B55" s="157"/>
-      <c r="C55" s="159"/>
+      <c r="B55" s="153"/>
+      <c r="C55" s="155"/>
       <c r="D55" s="19" t="s">
         <v>313</v>
       </c>
@@ -8192,8 +8176,8 @@
       </c>
     </row>
     <row r="56" spans="2:12" ht="34">
-      <c r="B56" s="157"/>
-      <c r="C56" s="159"/>
+      <c r="B56" s="153"/>
+      <c r="C56" s="155"/>
       <c r="D56" s="19" t="s">
         <v>312</v>
       </c>
@@ -8214,7 +8198,7 @@
       </c>
     </row>
     <row r="57" spans="2:12" ht="17">
-      <c r="B57" s="157" t="s">
+      <c r="B57" s="153" t="s">
         <v>257</v>
       </c>
       <c r="C57" s="12" t="s">
@@ -8240,7 +8224,7 @@
       </c>
     </row>
     <row r="58" spans="2:12" ht="17">
-      <c r="B58" s="157"/>
+      <c r="B58" s="153"/>
       <c r="C58" s="12" t="s">
         <v>351</v>
       </c>
@@ -8264,7 +8248,7 @@
       </c>
     </row>
     <row r="59" spans="2:12" ht="17">
-      <c r="B59" s="157"/>
+      <c r="B59" s="153"/>
       <c r="C59" s="19" t="s">
         <v>297</v>
       </c>
@@ -8281,7 +8265,7 @@
       </c>
     </row>
     <row r="60" spans="2:12" ht="17">
-      <c r="B60" s="157"/>
+      <c r="B60" s="153"/>
       <c r="C60" s="19" t="s">
         <v>392</v>
       </c>
@@ -8300,8 +8284,8 @@
       </c>
     </row>
     <row r="61" spans="2:12" ht="17">
-      <c r="B61" s="157"/>
-      <c r="C61" s="159" t="s">
+      <c r="B61" s="153"/>
+      <c r="C61" s="155" t="s">
         <v>266</v>
       </c>
       <c r="D61" s="19" t="s">
@@ -8323,8 +8307,8 @@
       </c>
     </row>
     <row r="62" spans="2:12" ht="17">
-      <c r="B62" s="157"/>
-      <c r="C62" s="159"/>
+      <c r="B62" s="153"/>
+      <c r="C62" s="155"/>
       <c r="D62" s="19" t="s">
         <v>295</v>
       </c>
@@ -8344,8 +8328,8 @@
       </c>
     </row>
     <row r="63" spans="2:12" ht="17">
-      <c r="B63" s="157"/>
-      <c r="C63" s="158" t="s">
+      <c r="B63" s="153"/>
+      <c r="C63" s="154" t="s">
         <v>311</v>
       </c>
       <c r="D63" s="103" t="s">
@@ -8365,8 +8349,8 @@
       </c>
     </row>
     <row r="64" spans="2:12" ht="17">
-      <c r="B64" s="157"/>
-      <c r="C64" s="158"/>
+      <c r="B64" s="153"/>
+      <c r="C64" s="154"/>
       <c r="D64" s="103" t="s">
         <v>302</v>
       </c>
@@ -8384,8 +8368,8 @@
       </c>
     </row>
     <row r="65" spans="2:12" ht="17">
-      <c r="B65" s="157"/>
-      <c r="C65" s="158"/>
+      <c r="B65" s="153"/>
+      <c r="C65" s="154"/>
       <c r="D65" s="103" t="s">
         <v>300</v>
       </c>
@@ -8403,8 +8387,8 @@
       </c>
     </row>
     <row r="66" spans="2:12" ht="17">
-      <c r="B66" s="157"/>
-      <c r="C66" s="158"/>
+      <c r="B66" s="153"/>
+      <c r="C66" s="154"/>
       <c r="D66" s="103" t="s">
         <v>294</v>
       </c>
@@ -8424,8 +8408,8 @@
       </c>
     </row>
     <row r="67" spans="2:12" ht="17">
-      <c r="B67" s="157"/>
-      <c r="C67" s="159" t="s">
+      <c r="B67" s="153"/>
+      <c r="C67" s="155" t="s">
         <v>265</v>
       </c>
       <c r="D67" s="103" t="s">
@@ -8445,8 +8429,8 @@
       </c>
     </row>
     <row r="68" spans="2:12" ht="17">
-      <c r="B68" s="157"/>
-      <c r="C68" s="159"/>
+      <c r="B68" s="153"/>
+      <c r="C68" s="155"/>
       <c r="D68" s="103" t="s">
         <v>299</v>
       </c>
@@ -8464,8 +8448,8 @@
       </c>
     </row>
     <row r="69" spans="2:12" ht="17">
-      <c r="B69" s="157"/>
-      <c r="C69" s="159"/>
+      <c r="B69" s="153"/>
+      <c r="C69" s="155"/>
       <c r="D69" s="103" t="s">
         <v>300</v>
       </c>
@@ -8483,8 +8467,8 @@
       </c>
     </row>
     <row r="70" spans="2:12" ht="17">
-      <c r="B70" s="157"/>
-      <c r="C70" s="159"/>
+      <c r="B70" s="153"/>
+      <c r="C70" s="155"/>
       <c r="D70" s="103" t="s">
         <v>295</v>
       </c>
@@ -8504,8 +8488,8 @@
       </c>
     </row>
     <row r="71" spans="2:12" ht="17">
-      <c r="B71" s="157"/>
-      <c r="C71" s="159"/>
+      <c r="B71" s="153"/>
+      <c r="C71" s="155"/>
       <c r="D71" s="103" t="s">
         <v>367</v>
       </c>
@@ -8524,8 +8508,8 @@
       </c>
     </row>
     <row r="72" spans="2:12" ht="17">
-      <c r="B72" s="157"/>
-      <c r="C72" s="159"/>
+      <c r="B72" s="153"/>
+      <c r="C72" s="155"/>
       <c r="D72" s="103" t="s">
         <v>368</v>
       </c>
@@ -8542,8 +8526,8 @@
       </c>
     </row>
     <row r="73" spans="2:12" ht="17">
-      <c r="B73" s="157"/>
-      <c r="C73" s="159"/>
+      <c r="B73" s="153"/>
+      <c r="C73" s="155"/>
       <c r="D73" s="19" t="s">
         <v>301</v>
       </c>
@@ -8561,8 +8545,8 @@
       </c>
     </row>
     <row r="74" spans="2:12" ht="17">
-      <c r="B74" s="157"/>
-      <c r="C74" s="159"/>
+      <c r="B74" s="153"/>
+      <c r="C74" s="155"/>
       <c r="D74" s="19" t="s">
         <v>268</v>
       </c>
@@ -8580,8 +8564,8 @@
       </c>
     </row>
     <row r="75" spans="2:12" ht="17">
-      <c r="B75" s="157"/>
-      <c r="C75" s="159"/>
+      <c r="B75" s="153"/>
+      <c r="C75" s="155"/>
       <c r="D75" s="19" t="s">
         <v>261</v>
       </c>
@@ -8599,7 +8583,7 @@
       </c>
     </row>
     <row r="76" spans="2:12" ht="17">
-      <c r="B76" s="157" t="s">
+      <c r="B76" s="153" t="s">
         <v>260</v>
       </c>
       <c r="C76" s="19" t="s">
@@ -8620,7 +8604,7 @@
       </c>
     </row>
     <row r="77" spans="2:12" ht="21">
-      <c r="B77" s="157"/>
+      <c r="B77" s="153"/>
       <c r="C77" s="19" t="s">
         <v>305</v>
       </c>
@@ -8640,7 +8624,7 @@
       </c>
     </row>
     <row r="78" spans="2:12" ht="17">
-      <c r="B78" s="157"/>
+      <c r="B78" s="153"/>
       <c r="C78" s="19" t="s">
         <v>306</v>
       </c>
@@ -8659,7 +8643,7 @@
       </c>
     </row>
     <row r="79" spans="2:12" ht="17">
-      <c r="B79" s="157"/>
+      <c r="B79" s="153"/>
       <c r="C79" s="19" t="s">
         <v>137</v>
       </c>
@@ -8678,7 +8662,7 @@
       </c>
     </row>
     <row r="80" spans="2:12" ht="17">
-      <c r="B80" s="157"/>
+      <c r="B80" s="153"/>
       <c r="C80" s="19" t="s">
         <v>283</v>
       </c>
@@ -8697,8 +8681,8 @@
       </c>
     </row>
     <row r="81" spans="2:12" ht="17">
-      <c r="B81" s="157"/>
-      <c r="C81" s="158" t="s">
+      <c r="B81" s="153"/>
+      <c r="C81" s="154" t="s">
         <v>307</v>
       </c>
       <c r="D81" s="19" t="s">
@@ -8718,8 +8702,8 @@
       </c>
     </row>
     <row r="82" spans="2:12" ht="17">
-      <c r="B82" s="157"/>
-      <c r="C82" s="158"/>
+      <c r="B82" s="153"/>
+      <c r="C82" s="154"/>
       <c r="D82" s="19" t="s">
         <v>305</v>
       </c>
@@ -8737,8 +8721,8 @@
       </c>
     </row>
     <row r="83" spans="2:12" ht="17">
-      <c r="B83" s="157"/>
-      <c r="C83" s="158"/>
+      <c r="B83" s="153"/>
+      <c r="C83" s="154"/>
       <c r="D83" s="19" t="s">
         <v>309</v>
       </c>
@@ -8756,7 +8740,7 @@
       </c>
     </row>
     <row r="84" spans="2:12" ht="17">
-      <c r="B84" s="157"/>
+      <c r="B84" s="153"/>
       <c r="C84" s="19" t="s">
         <v>28</v>
       </c>
@@ -8896,12 +8880,12 @@
       <c r="D5" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E5" s="170" t="s">
+      <c r="E5" s="166" t="s">
         <v>116</v>
       </c>
-      <c r="F5" s="171"/>
-      <c r="G5" s="171"/>
-      <c r="H5" s="172"/>
+      <c r="F5" s="167"/>
+      <c r="G5" s="167"/>
+      <c r="H5" s="168"/>
       <c r="I5" s="10" t="s">
         <v>89</v>
       </c>
@@ -9176,16 +9160,16 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="17">
-      <c r="B16" s="156">
+      <c r="B16" s="152">
         <v>3</v>
       </c>
-      <c r="C16" s="174" t="s">
+      <c r="C16" s="170" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="174" t="s">
+      <c r="D16" s="170" t="s">
         <v>185</v>
       </c>
-      <c r="E16" s="156" t="s">
+      <c r="E16" s="152" t="s">
         <v>186</v>
       </c>
       <c r="F16" s="40" t="s">
@@ -9209,10 +9193,10 @@
       </c>
     </row>
     <row r="17" spans="2:16" ht="34">
-      <c r="B17" s="156"/>
-      <c r="C17" s="174"/>
-      <c r="D17" s="174"/>
-      <c r="E17" s="156"/>
+      <c r="B17" s="152"/>
+      <c r="C17" s="170"/>
+      <c r="D17" s="170"/>
+      <c r="E17" s="152"/>
       <c r="F17" s="40" t="s">
         <v>193</v>
       </c>
@@ -9236,10 +9220,10 @@
       </c>
     </row>
     <row r="18" spans="2:16" ht="51">
-      <c r="B18" s="156"/>
-      <c r="C18" s="174"/>
-      <c r="D18" s="174"/>
-      <c r="E18" s="156"/>
+      <c r="B18" s="152"/>
+      <c r="C18" s="170"/>
+      <c r="D18" s="170"/>
+      <c r="E18" s="152"/>
       <c r="F18" s="40" t="s">
         <v>190</v>
       </c>
@@ -9263,79 +9247,79 @@
       </c>
     </row>
     <row r="19" spans="2:16" ht="68">
-      <c r="B19" s="156"/>
-      <c r="C19" s="174"/>
-      <c r="D19" s="174"/>
-      <c r="E19" s="156"/>
-      <c r="F19" s="179" t="s">
+      <c r="B19" s="152"/>
+      <c r="C19" s="170"/>
+      <c r="D19" s="170"/>
+      <c r="E19" s="152"/>
+      <c r="F19" s="175" t="s">
         <v>191</v>
       </c>
-      <c r="G19" s="179" t="s">
+      <c r="G19" s="175" t="s">
         <v>199</v>
       </c>
       <c r="H19" s="11"/>
-      <c r="I19" s="156" t="s">
+      <c r="I19" s="152" t="s">
         <v>92</v>
       </c>
-      <c r="J19" s="183" t="s">
+      <c r="J19" s="179" t="s">
         <v>127</v>
       </c>
-      <c r="K19" s="183" t="s">
+      <c r="K19" s="179" t="s">
         <v>201</v>
       </c>
       <c r="L19" s="45" t="s">
         <v>213</v>
       </c>
-      <c r="M19" s="179" t="s">
+      <c r="M19" s="175" t="s">
         <v>223</v>
       </c>
-      <c r="O19" s="182" t="s">
+      <c r="O19" s="178" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="20" spans="2:16" ht="17">
-      <c r="B20" s="156"/>
-      <c r="C20" s="174"/>
-      <c r="D20" s="174"/>
-      <c r="E20" s="156"/>
-      <c r="F20" s="180"/>
-      <c r="G20" s="180"/>
+      <c r="B20" s="152"/>
+      <c r="C20" s="170"/>
+      <c r="D20" s="170"/>
+      <c r="E20" s="152"/>
+      <c r="F20" s="176"/>
+      <c r="G20" s="176"/>
       <c r="H20" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="I20" s="156"/>
-      <c r="J20" s="183"/>
-      <c r="K20" s="183"/>
+      <c r="I20" s="152"/>
+      <c r="J20" s="179"/>
+      <c r="K20" s="179"/>
       <c r="L20" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="M20" s="180"/>
-      <c r="O20" s="182"/>
+      <c r="M20" s="176"/>
+      <c r="O20" s="178"/>
     </row>
     <row r="21" spans="2:16" ht="17">
-      <c r="B21" s="156"/>
-      <c r="C21" s="174"/>
-      <c r="D21" s="174"/>
-      <c r="E21" s="156"/>
-      <c r="F21" s="181"/>
-      <c r="G21" s="181"/>
+      <c r="B21" s="152"/>
+      <c r="C21" s="170"/>
+      <c r="D21" s="170"/>
+      <c r="E21" s="152"/>
+      <c r="F21" s="177"/>
+      <c r="G21" s="177"/>
       <c r="H21" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="I21" s="156"/>
-      <c r="J21" s="183"/>
-      <c r="K21" s="183"/>
+      <c r="I21" s="152"/>
+      <c r="J21" s="179"/>
+      <c r="K21" s="179"/>
       <c r="L21" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="M21" s="181"/>
-      <c r="O21" s="182"/>
+      <c r="M21" s="177"/>
+      <c r="O21" s="178"/>
     </row>
     <row r="22" spans="2:16" ht="17">
-      <c r="B22" s="156"/>
-      <c r="C22" s="174"/>
-      <c r="D22" s="174"/>
-      <c r="E22" s="156"/>
+      <c r="B22" s="152"/>
+      <c r="C22" s="170"/>
+      <c r="D22" s="170"/>
+      <c r="E22" s="152"/>
       <c r="F22" s="12" t="s">
         <v>194</v>
       </c>
@@ -9357,10 +9341,10 @@
       </c>
     </row>
     <row r="23" spans="2:16" ht="17">
-      <c r="B23" s="156"/>
-      <c r="C23" s="174"/>
-      <c r="D23" s="174"/>
-      <c r="E23" s="156"/>
+      <c r="B23" s="152"/>
+      <c r="C23" s="170"/>
+      <c r="D23" s="170"/>
+      <c r="E23" s="152"/>
       <c r="F23" s="12" t="s">
         <v>195</v>
       </c>
@@ -9382,10 +9366,10 @@
       </c>
     </row>
     <row r="24" spans="2:16" ht="17">
-      <c r="B24" s="156"/>
-      <c r="C24" s="174"/>
-      <c r="D24" s="174"/>
-      <c r="E24" s="156"/>
+      <c r="B24" s="152"/>
+      <c r="C24" s="170"/>
+      <c r="D24" s="170"/>
+      <c r="E24" s="152"/>
       <c r="F24" s="12" t="s">
         <v>196</v>
       </c>
@@ -9407,10 +9391,10 @@
       </c>
     </row>
     <row r="25" spans="2:16" ht="17">
-      <c r="B25" s="156"/>
-      <c r="C25" s="174"/>
-      <c r="D25" s="174"/>
-      <c r="E25" s="173" t="s">
+      <c r="B25" s="152"/>
+      <c r="C25" s="170"/>
+      <c r="D25" s="170"/>
+      <c r="E25" s="169" t="s">
         <v>187</v>
       </c>
       <c r="F25" s="40" t="s">
@@ -9434,10 +9418,10 @@
       </c>
     </row>
     <row r="26" spans="2:16" ht="34">
-      <c r="B26" s="156"/>
-      <c r="C26" s="174"/>
-      <c r="D26" s="174"/>
-      <c r="E26" s="173"/>
+      <c r="B26" s="152"/>
+      <c r="C26" s="170"/>
+      <c r="D26" s="170"/>
+      <c r="E26" s="169"/>
       <c r="F26" s="46" t="s">
         <v>189</v>
       </c>
@@ -9459,10 +9443,10 @@
       </c>
     </row>
     <row r="27" spans="2:16" ht="51">
-      <c r="B27" s="156"/>
-      <c r="C27" s="174"/>
-      <c r="D27" s="174"/>
-      <c r="E27" s="173"/>
+      <c r="B27" s="152"/>
+      <c r="C27" s="170"/>
+      <c r="D27" s="170"/>
+      <c r="E27" s="169"/>
       <c r="F27" s="40" t="s">
         <v>190</v>
       </c>
@@ -9486,73 +9470,73 @@
       </c>
     </row>
     <row r="28" spans="2:16" ht="68">
-      <c r="B28" s="156"/>
-      <c r="C28" s="174"/>
-      <c r="D28" s="174"/>
-      <c r="E28" s="173"/>
-      <c r="F28" s="179" t="s">
+      <c r="B28" s="152"/>
+      <c r="C28" s="170"/>
+      <c r="D28" s="170"/>
+      <c r="E28" s="169"/>
+      <c r="F28" s="175" t="s">
         <v>192</v>
       </c>
-      <c r="G28" s="179" t="s">
+      <c r="G28" s="175" t="s">
         <v>199</v>
       </c>
       <c r="H28" s="11"/>
-      <c r="I28" s="175" t="s">
+      <c r="I28" s="171" t="s">
         <v>92</v>
       </c>
-      <c r="J28" s="184" t="s">
+      <c r="J28" s="180" t="s">
         <v>127</v>
       </c>
-      <c r="K28" s="184" t="s">
+      <c r="K28" s="180" t="s">
         <v>209</v>
       </c>
       <c r="L28" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="M28" s="187" t="s">
+      <c r="M28" s="183" t="s">
         <v>224</v>
       </c>
-      <c r="O28" s="182" t="s">
+      <c r="O28" s="178" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="29" spans="2:16" ht="17">
-      <c r="B29" s="156"/>
-      <c r="C29" s="174"/>
-      <c r="D29" s="174"/>
-      <c r="E29" s="173"/>
-      <c r="F29" s="180"/>
-      <c r="G29" s="180"/>
+      <c r="B29" s="152"/>
+      <c r="C29" s="170"/>
+      <c r="D29" s="170"/>
+      <c r="E29" s="169"/>
+      <c r="F29" s="176"/>
+      <c r="G29" s="176"/>
       <c r="H29" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="I29" s="176"/>
-      <c r="J29" s="185"/>
-      <c r="K29" s="185"/>
+      <c r="I29" s="172"/>
+      <c r="J29" s="181"/>
+      <c r="K29" s="181"/>
       <c r="L29" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="M29" s="188"/>
-      <c r="O29" s="182"/>
+      <c r="M29" s="184"/>
+      <c r="O29" s="178"/>
     </row>
     <row r="30" spans="2:16" ht="17">
-      <c r="B30" s="156"/>
-      <c r="C30" s="174"/>
-      <c r="D30" s="174"/>
-      <c r="E30" s="173"/>
-      <c r="F30" s="181"/>
-      <c r="G30" s="181"/>
+      <c r="B30" s="152"/>
+      <c r="C30" s="170"/>
+      <c r="D30" s="170"/>
+      <c r="E30" s="169"/>
+      <c r="F30" s="177"/>
+      <c r="G30" s="177"/>
       <c r="H30" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="I30" s="177"/>
-      <c r="J30" s="186"/>
-      <c r="K30" s="186"/>
+      <c r="I30" s="173"/>
+      <c r="J30" s="182"/>
+      <c r="K30" s="182"/>
       <c r="L30" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="M30" s="189"/>
-      <c r="O30" s="182"/>
+      <c r="M30" s="185"/>
+      <c r="O30" s="178"/>
     </row>
     <row r="31" spans="2:16" ht="68">
       <c r="B31" s="10">
@@ -10325,16 +10309,16 @@
       </c>
     </row>
     <row r="57" spans="2:16" ht="34">
-      <c r="B57" s="175">
+      <c r="B57" s="171">
         <v>7</v>
       </c>
-      <c r="C57" s="164" t="s">
+      <c r="C57" s="160" t="s">
         <v>74</v>
       </c>
-      <c r="D57" s="164" t="s">
+      <c r="D57" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="E57" s="175" t="s">
+      <c r="E57" s="171" t="s">
         <v>151</v>
       </c>
       <c r="F57" s="36" t="s">
@@ -10356,15 +10340,15 @@
       <c r="O57" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="P57" s="169" t="s">
+      <c r="P57" s="165" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="58" spans="2:16" ht="17" customHeight="1">
-      <c r="B58" s="176"/>
-      <c r="C58" s="165"/>
-      <c r="D58" s="165"/>
-      <c r="E58" s="176"/>
+      <c r="B58" s="172"/>
+      <c r="C58" s="161"/>
+      <c r="D58" s="161"/>
+      <c r="E58" s="172"/>
       <c r="F58" s="36" t="s">
         <v>137</v>
       </c>
@@ -10384,13 +10368,13 @@
       <c r="O58" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="P58" s="169"/>
+      <c r="P58" s="165"/>
     </row>
     <row r="59" spans="2:16" ht="34">
-      <c r="B59" s="176"/>
-      <c r="C59" s="165"/>
-      <c r="D59" s="165"/>
-      <c r="E59" s="176"/>
+      <c r="B59" s="172"/>
+      <c r="C59" s="161"/>
+      <c r="D59" s="161"/>
+      <c r="E59" s="172"/>
       <c r="F59" s="36" t="s">
         <v>138</v>
       </c>
@@ -10410,13 +10394,13 @@
       <c r="O59" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="P59" s="169"/>
+      <c r="P59" s="165"/>
     </row>
     <row r="60" spans="2:16" ht="34">
-      <c r="B60" s="176"/>
-      <c r="C60" s="165"/>
-      <c r="D60" s="165"/>
-      <c r="E60" s="176"/>
+      <c r="B60" s="172"/>
+      <c r="C60" s="161"/>
+      <c r="D60" s="161"/>
+      <c r="E60" s="172"/>
       <c r="F60" s="36" t="s">
         <v>139</v>
       </c>
@@ -10436,14 +10420,14 @@
       <c r="O60" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="P60" s="169"/>
+      <c r="P60" s="165"/>
     </row>
     <row r="61" spans="2:16" ht="51">
-      <c r="B61" s="176"/>
-      <c r="C61" s="165"/>
-      <c r="D61" s="165"/>
-      <c r="E61" s="176"/>
-      <c r="F61" s="164" t="s">
+      <c r="B61" s="172"/>
+      <c r="C61" s="161"/>
+      <c r="D61" s="161"/>
+      <c r="E61" s="172"/>
+      <c r="F61" s="160" t="s">
         <v>145</v>
       </c>
       <c r="G61" s="39"/>
@@ -10458,14 +10442,14 @@
       <c r="O61" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="P61" s="169"/>
+      <c r="P61" s="165"/>
     </row>
     <row r="62" spans="2:16" ht="34">
-      <c r="B62" s="176"/>
-      <c r="C62" s="165"/>
-      <c r="D62" s="165"/>
-      <c r="E62" s="176"/>
-      <c r="F62" s="165"/>
+      <c r="B62" s="172"/>
+      <c r="C62" s="161"/>
+      <c r="D62" s="161"/>
+      <c r="E62" s="172"/>
+      <c r="F62" s="161"/>
       <c r="G62" s="39"/>
       <c r="H62" s="12" t="s">
         <v>141</v>
@@ -10484,14 +10468,14 @@
       <c r="O62" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="P62" s="169"/>
+      <c r="P62" s="165"/>
     </row>
     <row r="63" spans="2:16" ht="17">
-      <c r="B63" s="176"/>
-      <c r="C63" s="165"/>
-      <c r="D63" s="165"/>
-      <c r="E63" s="176"/>
-      <c r="F63" s="165"/>
+      <c r="B63" s="172"/>
+      <c r="C63" s="161"/>
+      <c r="D63" s="161"/>
+      <c r="E63" s="172"/>
+      <c r="F63" s="161"/>
       <c r="G63" s="39"/>
       <c r="H63" s="12" t="s">
         <v>146</v>
@@ -10510,14 +10494,14 @@
       <c r="O63" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="P63" s="169"/>
+      <c r="P63" s="165"/>
     </row>
     <row r="64" spans="2:16" ht="17">
-      <c r="B64" s="176"/>
-      <c r="C64" s="165"/>
-      <c r="D64" s="165"/>
-      <c r="E64" s="176"/>
-      <c r="F64" s="165"/>
+      <c r="B64" s="172"/>
+      <c r="C64" s="161"/>
+      <c r="D64" s="161"/>
+      <c r="E64" s="172"/>
+      <c r="F64" s="161"/>
       <c r="G64" s="39"/>
       <c r="H64" s="12" t="s">
         <v>147</v>
@@ -10534,14 +10518,14 @@
       <c r="O64" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="P64" s="169"/>
+      <c r="P64" s="165"/>
     </row>
     <row r="65" spans="2:16" ht="17">
-      <c r="B65" s="176"/>
-      <c r="C65" s="165"/>
-      <c r="D65" s="165"/>
-      <c r="E65" s="176"/>
-      <c r="F65" s="165"/>
+      <c r="B65" s="172"/>
+      <c r="C65" s="161"/>
+      <c r="D65" s="161"/>
+      <c r="E65" s="172"/>
+      <c r="F65" s="161"/>
       <c r="G65" s="39"/>
       <c r="H65" s="12" t="s">
         <v>148</v>
@@ -10558,14 +10542,14 @@
       <c r="O65" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="P65" s="169"/>
+      <c r="P65" s="165"/>
     </row>
     <row r="66" spans="2:16" ht="18" customHeight="1">
-      <c r="B66" s="176"/>
-      <c r="C66" s="165"/>
-      <c r="D66" s="165"/>
-      <c r="E66" s="176"/>
-      <c r="F66" s="178"/>
+      <c r="B66" s="172"/>
+      <c r="C66" s="161"/>
+      <c r="D66" s="161"/>
+      <c r="E66" s="172"/>
+      <c r="F66" s="174"/>
       <c r="G66" s="39"/>
       <c r="H66" s="12" t="s">
         <v>149</v>
@@ -10582,14 +10566,14 @@
       <c r="O66" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="P66" s="169"/>
+      <c r="P66" s="165"/>
     </row>
     <row r="67" spans="2:16" ht="34">
-      <c r="B67" s="176"/>
-      <c r="C67" s="165"/>
-      <c r="D67" s="165"/>
-      <c r="E67" s="176"/>
-      <c r="F67" s="164" t="s">
+      <c r="B67" s="172"/>
+      <c r="C67" s="161"/>
+      <c r="D67" s="161"/>
+      <c r="E67" s="172"/>
+      <c r="F67" s="160" t="s">
         <v>140</v>
       </c>
       <c r="G67" s="31"/>
@@ -10604,14 +10588,14 @@
       <c r="O67" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="P67" s="169"/>
+      <c r="P67" s="165"/>
     </row>
     <row r="68" spans="2:16" ht="17" customHeight="1">
-      <c r="B68" s="176"/>
-      <c r="C68" s="165"/>
-      <c r="D68" s="165"/>
-      <c r="E68" s="176"/>
-      <c r="F68" s="165"/>
+      <c r="B68" s="172"/>
+      <c r="C68" s="161"/>
+      <c r="D68" s="161"/>
+      <c r="E68" s="172"/>
+      <c r="F68" s="161"/>
       <c r="G68" s="31"/>
       <c r="H68" s="12" t="s">
         <v>141</v>
@@ -10630,14 +10614,14 @@
       <c r="O68" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="P68" s="169"/>
+      <c r="P68" s="165"/>
     </row>
     <row r="69" spans="2:16" ht="17" customHeight="1">
-      <c r="B69" s="176"/>
-      <c r="C69" s="165"/>
-      <c r="D69" s="165"/>
-      <c r="E69" s="176"/>
-      <c r="F69" s="165"/>
+      <c r="B69" s="172"/>
+      <c r="C69" s="161"/>
+      <c r="D69" s="161"/>
+      <c r="E69" s="172"/>
+      <c r="F69" s="161"/>
       <c r="G69" s="31"/>
       <c r="H69" s="12" t="s">
         <v>142</v>
@@ -10656,14 +10640,14 @@
       <c r="O69" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="P69" s="169"/>
+      <c r="P69" s="165"/>
     </row>
     <row r="70" spans="2:16" ht="17" customHeight="1">
-      <c r="B70" s="176"/>
-      <c r="C70" s="165"/>
-      <c r="D70" s="165"/>
-      <c r="E70" s="176"/>
-      <c r="F70" s="165"/>
+      <c r="B70" s="172"/>
+      <c r="C70" s="161"/>
+      <c r="D70" s="161"/>
+      <c r="E70" s="172"/>
+      <c r="F70" s="161"/>
       <c r="G70" s="31"/>
       <c r="H70" s="12" t="s">
         <v>143</v>
@@ -10682,14 +10666,14 @@
       <c r="O70" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="P70" s="169"/>
+      <c r="P70" s="165"/>
     </row>
     <row r="71" spans="2:16" ht="17" customHeight="1">
-      <c r="B71" s="176"/>
-      <c r="C71" s="165"/>
-      <c r="D71" s="165"/>
-      <c r="E71" s="176"/>
-      <c r="F71" s="178"/>
+      <c r="B71" s="172"/>
+      <c r="C71" s="161"/>
+      <c r="D71" s="161"/>
+      <c r="E71" s="172"/>
+      <c r="F71" s="174"/>
       <c r="G71" s="31"/>
       <c r="H71" s="12" t="s">
         <v>144</v>
@@ -10708,12 +10692,12 @@
       <c r="O71" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="P71" s="169"/>
+      <c r="P71" s="165"/>
     </row>
     <row r="72" spans="2:16">
-      <c r="B72" s="177"/>
-      <c r="C72" s="178"/>
-      <c r="D72" s="178"/>
+      <c r="B72" s="173"/>
+      <c r="C72" s="174"/>
+      <c r="D72" s="174"/>
       <c r="E72" s="12" t="s">
         <v>255</v>
       </c>
@@ -10728,7 +10712,7 @@
       <c r="O72" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="P72" s="169"/>
+      <c r="P72" s="165"/>
     </row>
     <row r="73" spans="2:16" ht="34">
       <c r="B73" s="10">
@@ -10880,13 +10864,13 @@
       <c r="B78" s="10">
         <v>9</v>
       </c>
-      <c r="C78" s="164" t="s">
+      <c r="C78" s="160" t="s">
         <v>79</v>
       </c>
-      <c r="D78" s="164" t="s">
+      <c r="D78" s="160" t="s">
         <v>31</v>
       </c>
-      <c r="E78" s="175" t="s">
+      <c r="E78" s="171" t="s">
         <v>232</v>
       </c>
       <c r="F78" s="49"/>
@@ -10898,13 +10882,13 @@
       <c r="J78" s="51" t="s">
         <v>241</v>
       </c>
-      <c r="K78" s="190" t="s">
+      <c r="K78" s="186" t="s">
         <v>231</v>
       </c>
       <c r="L78" s="48" t="s">
         <v>247</v>
       </c>
-      <c r="M78" s="175" t="s">
+      <c r="M78" s="171" t="s">
         <v>82</v>
       </c>
       <c r="O78" s="4" t="s">
@@ -10916,9 +10900,9 @@
     </row>
     <row r="79" spans="2:16">
       <c r="B79" s="10"/>
-      <c r="C79" s="165"/>
-      <c r="D79" s="165"/>
-      <c r="E79" s="176"/>
+      <c r="C79" s="161"/>
+      <c r="D79" s="161"/>
+      <c r="E79" s="172"/>
       <c r="F79" s="10" t="s">
         <v>233</v>
       </c>
@@ -10930,15 +10914,15 @@
       <c r="J79" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="K79" s="191"/>
+      <c r="K79" s="187"/>
       <c r="L79" s="53"/>
-      <c r="M79" s="176"/>
+      <c r="M79" s="172"/>
     </row>
     <row r="80" spans="2:16" ht="17">
       <c r="B80" s="10"/>
-      <c r="C80" s="165"/>
-      <c r="D80" s="165"/>
-      <c r="E80" s="176"/>
+      <c r="C80" s="161"/>
+      <c r="D80" s="161"/>
+      <c r="E80" s="172"/>
       <c r="F80" s="10" t="s">
         <v>235</v>
       </c>
@@ -10950,16 +10934,16 @@
       <c r="J80" s="29" t="s">
         <v>243</v>
       </c>
-      <c r="K80" s="191"/>
+      <c r="K80" s="187"/>
       <c r="L80" s="53"/>
-      <c r="M80" s="176"/>
+      <c r="M80" s="172"/>
     </row>
     <row r="81" spans="2:16" ht="17">
       <c r="B81" s="10"/>
-      <c r="C81" s="165"/>
-      <c r="D81" s="165"/>
-      <c r="E81" s="176"/>
-      <c r="F81" s="156" t="s">
+      <c r="C81" s="161"/>
+      <c r="D81" s="161"/>
+      <c r="E81" s="172"/>
+      <c r="F81" s="152" t="s">
         <v>234</v>
       </c>
       <c r="G81" s="10" t="s">
@@ -10972,16 +10956,16 @@
       <c r="J81" s="29" t="s">
         <v>244</v>
       </c>
-      <c r="K81" s="191"/>
+      <c r="K81" s="187"/>
       <c r="L81" s="53"/>
-      <c r="M81" s="176"/>
+      <c r="M81" s="172"/>
     </row>
     <row r="82" spans="2:16" ht="17">
       <c r="B82" s="10"/>
-      <c r="C82" s="165"/>
-      <c r="D82" s="165"/>
-      <c r="E82" s="176"/>
-      <c r="F82" s="156"/>
+      <c r="C82" s="161"/>
+      <c r="D82" s="161"/>
+      <c r="E82" s="172"/>
+      <c r="F82" s="152"/>
       <c r="G82" s="52" t="s">
         <v>237</v>
       </c>
@@ -10992,16 +10976,16 @@
       <c r="J82" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="K82" s="191"/>
+      <c r="K82" s="187"/>
       <c r="L82" s="53"/>
-      <c r="M82" s="176"/>
+      <c r="M82" s="172"/>
     </row>
     <row r="83" spans="2:16" ht="17">
       <c r="B83" s="10"/>
-      <c r="C83" s="165"/>
-      <c r="D83" s="165"/>
-      <c r="E83" s="176"/>
-      <c r="F83" s="156"/>
+      <c r="C83" s="161"/>
+      <c r="D83" s="161"/>
+      <c r="E83" s="172"/>
+      <c r="F83" s="152"/>
       <c r="G83" s="52" t="s">
         <v>238</v>
       </c>
@@ -11012,16 +10996,16 @@
       <c r="J83" s="29" t="s">
         <v>246</v>
       </c>
-      <c r="K83" s="191"/>
+      <c r="K83" s="187"/>
       <c r="L83" s="53"/>
-      <c r="M83" s="176"/>
+      <c r="M83" s="172"/>
     </row>
     <row r="84" spans="2:16">
       <c r="B84" s="10"/>
-      <c r="C84" s="165"/>
-      <c r="D84" s="165"/>
-      <c r="E84" s="176"/>
-      <c r="F84" s="156"/>
+      <c r="C84" s="161"/>
+      <c r="D84" s="161"/>
+      <c r="E84" s="172"/>
+      <c r="F84" s="152"/>
       <c r="G84" s="52" t="s">
         <v>239</v>
       </c>
@@ -11032,16 +11016,16 @@
       <c r="J84" s="29">
         <v>4</v>
       </c>
-      <c r="K84" s="191"/>
+      <c r="K84" s="187"/>
       <c r="L84" s="53"/>
-      <c r="M84" s="176"/>
+      <c r="M84" s="172"/>
     </row>
     <row r="85" spans="2:16">
       <c r="B85" s="10"/>
-      <c r="C85" s="178"/>
-      <c r="D85" s="178"/>
-      <c r="E85" s="177"/>
-      <c r="F85" s="156"/>
+      <c r="C85" s="174"/>
+      <c r="D85" s="174"/>
+      <c r="E85" s="173"/>
+      <c r="F85" s="152"/>
       <c r="G85" s="52" t="s">
         <v>240</v>
       </c>
@@ -11052,9 +11036,9 @@
       <c r="J85" s="29">
         <v>10</v>
       </c>
-      <c r="K85" s="192"/>
+      <c r="K85" s="188"/>
       <c r="L85" s="53"/>
-      <c r="M85" s="177"/>
+      <c r="M85" s="173"/>
     </row>
     <row r="86" spans="2:16" ht="17">
       <c r="B86" s="10">
@@ -11491,153 +11475,153 @@
       </c>
     </row>
     <row r="13" spans="1:70" ht="48" customHeight="1">
-      <c r="E13" s="151" t="s">
+      <c r="E13" s="147" t="s">
         <v>264</v>
       </c>
-      <c r="F13" s="151"/>
-      <c r="G13" s="151"/>
-      <c r="H13" s="151"/>
-      <c r="I13" s="151"/>
-      <c r="J13" s="151"/>
-      <c r="K13" s="151"/>
-      <c r="L13" s="151"/>
-      <c r="M13" s="151"/>
-      <c r="N13" s="151"/>
-      <c r="O13" s="151"/>
-      <c r="P13" s="151"/>
-      <c r="Q13" s="151"/>
-      <c r="R13" s="151"/>
-      <c r="S13" s="151"/>
-      <c r="T13" s="151"/>
-      <c r="U13" s="151"/>
-      <c r="V13" s="151"/>
-      <c r="W13" s="151"/>
-      <c r="X13" s="151"/>
-      <c r="Y13" s="151"/>
-      <c r="Z13" s="151"/>
-      <c r="AA13" s="151"/>
-      <c r="AB13" s="151"/>
-      <c r="AC13" s="151"/>
-      <c r="AD13" s="151"/>
-      <c r="AE13" s="151"/>
-      <c r="AF13" s="151"/>
-      <c r="AG13" s="151"/>
-      <c r="AH13" s="151"/>
-      <c r="AI13" s="151"/>
-      <c r="AJ13" s="151"/>
-      <c r="AK13" s="151"/>
-      <c r="AL13" s="151"/>
-      <c r="AM13" s="151"/>
-      <c r="AN13" s="151"/>
-      <c r="AO13" s="151"/>
-      <c r="AP13" s="151"/>
-      <c r="AQ13" s="151"/>
-      <c r="AR13" s="151"/>
-      <c r="AS13" s="151"/>
-      <c r="AT13" s="151"/>
-      <c r="AU13" s="151"/>
-      <c r="AV13" s="151"/>
-      <c r="AW13" s="151"/>
-      <c r="AX13" s="151"/>
-      <c r="AY13" s="151"/>
-      <c r="AZ13" s="151"/>
-      <c r="BA13" s="151"/>
-      <c r="BB13" s="151"/>
-      <c r="BC13" s="151"/>
-      <c r="BD13" s="151"/>
-      <c r="BE13" s="151"/>
-      <c r="BF13" s="151"/>
-      <c r="BG13" s="151"/>
-      <c r="BH13" s="151"/>
-      <c r="BI13" s="151"/>
-      <c r="BJ13" s="151"/>
-      <c r="BK13" s="151"/>
-      <c r="BL13" s="151"/>
-      <c r="BM13" s="151"/>
-      <c r="BN13" s="151"/>
-      <c r="BO13" s="151"/>
-      <c r="BP13" s="151"/>
-      <c r="BQ13" s="151"/>
-      <c r="BR13" s="151"/>
+      <c r="F13" s="147"/>
+      <c r="G13" s="147"/>
+      <c r="H13" s="147"/>
+      <c r="I13" s="147"/>
+      <c r="J13" s="147"/>
+      <c r="K13" s="147"/>
+      <c r="L13" s="147"/>
+      <c r="M13" s="147"/>
+      <c r="N13" s="147"/>
+      <c r="O13" s="147"/>
+      <c r="P13" s="147"/>
+      <c r="Q13" s="147"/>
+      <c r="R13" s="147"/>
+      <c r="S13" s="147"/>
+      <c r="T13" s="147"/>
+      <c r="U13" s="147"/>
+      <c r="V13" s="147"/>
+      <c r="W13" s="147"/>
+      <c r="X13" s="147"/>
+      <c r="Y13" s="147"/>
+      <c r="Z13" s="147"/>
+      <c r="AA13" s="147"/>
+      <c r="AB13" s="147"/>
+      <c r="AC13" s="147"/>
+      <c r="AD13" s="147"/>
+      <c r="AE13" s="147"/>
+      <c r="AF13" s="147"/>
+      <c r="AG13" s="147"/>
+      <c r="AH13" s="147"/>
+      <c r="AI13" s="147"/>
+      <c r="AJ13" s="147"/>
+      <c r="AK13" s="147"/>
+      <c r="AL13" s="147"/>
+      <c r="AM13" s="147"/>
+      <c r="AN13" s="147"/>
+      <c r="AO13" s="147"/>
+      <c r="AP13" s="147"/>
+      <c r="AQ13" s="147"/>
+      <c r="AR13" s="147"/>
+      <c r="AS13" s="147"/>
+      <c r="AT13" s="147"/>
+      <c r="AU13" s="147"/>
+      <c r="AV13" s="147"/>
+      <c r="AW13" s="147"/>
+      <c r="AX13" s="147"/>
+      <c r="AY13" s="147"/>
+      <c r="AZ13" s="147"/>
+      <c r="BA13" s="147"/>
+      <c r="BB13" s="147"/>
+      <c r="BC13" s="147"/>
+      <c r="BD13" s="147"/>
+      <c r="BE13" s="147"/>
+      <c r="BF13" s="147"/>
+      <c r="BG13" s="147"/>
+      <c r="BH13" s="147"/>
+      <c r="BI13" s="147"/>
+      <c r="BJ13" s="147"/>
+      <c r="BK13" s="147"/>
+      <c r="BL13" s="147"/>
+      <c r="BM13" s="147"/>
+      <c r="BN13" s="147"/>
+      <c r="BO13" s="147"/>
+      <c r="BP13" s="147"/>
+      <c r="BQ13" s="147"/>
+      <c r="BR13" s="147"/>
     </row>
     <row r="15" spans="1:70" s="6" customFormat="1" ht="43" customHeight="1"/>
     <row r="16" spans="1:70" s="6" customFormat="1" ht="43" customHeight="1">
-      <c r="E16" s="156" t="s">
+      <c r="E16" s="152" t="s">
         <v>263</v>
       </c>
-      <c r="F16" s="156"/>
-      <c r="G16" s="156"/>
-      <c r="H16" s="156"/>
-      <c r="I16" s="156"/>
-      <c r="J16" s="156"/>
-      <c r="K16" s="156"/>
-      <c r="L16" s="156"/>
-      <c r="M16" s="156"/>
-      <c r="N16" s="156"/>
-      <c r="O16" s="156"/>
-      <c r="P16" s="156"/>
-      <c r="Q16" s="156"/>
-      <c r="R16" s="156"/>
-      <c r="S16" s="156"/>
-      <c r="T16" s="156"/>
-      <c r="U16" s="156"/>
-      <c r="V16" s="156"/>
-      <c r="W16" s="156"/>
-      <c r="X16" s="156"/>
-      <c r="Y16" s="156"/>
-      <c r="Z16" s="156"/>
-      <c r="AA16" s="156"/>
-      <c r="AB16" s="156"/>
-      <c r="AC16" s="156"/>
-      <c r="AD16" s="156"/>
-      <c r="AE16" s="170" t="s">
+      <c r="F16" s="152"/>
+      <c r="G16" s="152"/>
+      <c r="H16" s="152"/>
+      <c r="I16" s="152"/>
+      <c r="J16" s="152"/>
+      <c r="K16" s="152"/>
+      <c r="L16" s="152"/>
+      <c r="M16" s="152"/>
+      <c r="N16" s="152"/>
+      <c r="O16" s="152"/>
+      <c r="P16" s="152"/>
+      <c r="Q16" s="152"/>
+      <c r="R16" s="152"/>
+      <c r="S16" s="152"/>
+      <c r="T16" s="152"/>
+      <c r="U16" s="152"/>
+      <c r="V16" s="152"/>
+      <c r="W16" s="152"/>
+      <c r="X16" s="152"/>
+      <c r="Y16" s="152"/>
+      <c r="Z16" s="152"/>
+      <c r="AA16" s="152"/>
+      <c r="AB16" s="152"/>
+      <c r="AC16" s="152"/>
+      <c r="AD16" s="152"/>
+      <c r="AE16" s="166" t="s">
         <v>258</v>
       </c>
-      <c r="AF16" s="171"/>
-      <c r="AG16" s="171"/>
-      <c r="AH16" s="171"/>
-      <c r="AI16" s="171"/>
-      <c r="AJ16" s="171"/>
-      <c r="AK16" s="171"/>
-      <c r="AL16" s="172"/>
-      <c r="AM16" s="170" t="s">
+      <c r="AF16" s="167"/>
+      <c r="AG16" s="167"/>
+      <c r="AH16" s="167"/>
+      <c r="AI16" s="167"/>
+      <c r="AJ16" s="167"/>
+      <c r="AK16" s="167"/>
+      <c r="AL16" s="168"/>
+      <c r="AM16" s="166" t="s">
         <v>310</v>
       </c>
-      <c r="AN16" s="171"/>
-      <c r="AO16" s="171"/>
-      <c r="AP16" s="171"/>
-      <c r="AQ16" s="171"/>
-      <c r="AR16" s="171"/>
-      <c r="AS16" s="172"/>
-      <c r="AT16" s="156" t="s">
+      <c r="AN16" s="167"/>
+      <c r="AO16" s="167"/>
+      <c r="AP16" s="167"/>
+      <c r="AQ16" s="167"/>
+      <c r="AR16" s="167"/>
+      <c r="AS16" s="168"/>
+      <c r="AT16" s="152" t="s">
         <v>257</v>
       </c>
-      <c r="AU16" s="156"/>
-      <c r="AV16" s="156"/>
-      <c r="AW16" s="156"/>
-      <c r="AX16" s="156"/>
-      <c r="AY16" s="156"/>
-      <c r="AZ16" s="156"/>
-      <c r="BA16" s="156"/>
-      <c r="BB16" s="156"/>
-      <c r="BC16" s="156"/>
-      <c r="BD16" s="156"/>
-      <c r="BE16" s="156"/>
-      <c r="BF16" s="156"/>
-      <c r="BG16" s="156"/>
-      <c r="BH16" s="156"/>
-      <c r="BI16" s="156"/>
-      <c r="BJ16" s="170" t="s">
+      <c r="AU16" s="152"/>
+      <c r="AV16" s="152"/>
+      <c r="AW16" s="152"/>
+      <c r="AX16" s="152"/>
+      <c r="AY16" s="152"/>
+      <c r="AZ16" s="152"/>
+      <c r="BA16" s="152"/>
+      <c r="BB16" s="152"/>
+      <c r="BC16" s="152"/>
+      <c r="BD16" s="152"/>
+      <c r="BE16" s="152"/>
+      <c r="BF16" s="152"/>
+      <c r="BG16" s="152"/>
+      <c r="BH16" s="152"/>
+      <c r="BI16" s="152"/>
+      <c r="BJ16" s="166" t="s">
         <v>260</v>
       </c>
-      <c r="BK16" s="171"/>
-      <c r="BL16" s="171"/>
-      <c r="BM16" s="171"/>
-      <c r="BN16" s="171"/>
-      <c r="BO16" s="171"/>
-      <c r="BP16" s="171"/>
-      <c r="BQ16" s="171"/>
-      <c r="BR16" s="172"/>
+      <c r="BK16" s="167"/>
+      <c r="BL16" s="167"/>
+      <c r="BM16" s="167"/>
+      <c r="BN16" s="167"/>
+      <c r="BO16" s="167"/>
+      <c r="BP16" s="167"/>
+      <c r="BQ16" s="167"/>
+      <c r="BR16" s="168"/>
     </row>
     <row r="17" spans="2:70" s="6" customFormat="1" ht="60" customHeight="1">
       <c r="E17" s="37" t="s">
@@ -11652,83 +11636,83 @@
       <c r="H17" s="37" t="s">
         <v>288</v>
       </c>
-      <c r="I17" s="156" t="s">
+      <c r="I17" s="152" t="s">
         <v>262</v>
       </c>
-      <c r="J17" s="156"/>
-      <c r="K17" s="156"/>
-      <c r="L17" s="156"/>
-      <c r="M17" s="156"/>
-      <c r="N17" s="156"/>
-      <c r="O17" s="156"/>
-      <c r="P17" s="156" t="s">
+      <c r="J17" s="152"/>
+      <c r="K17" s="152"/>
+      <c r="L17" s="152"/>
+      <c r="M17" s="152"/>
+      <c r="N17" s="152"/>
+      <c r="O17" s="152"/>
+      <c r="P17" s="152" t="s">
         <v>1</v>
       </c>
-      <c r="Q17" s="156"/>
-      <c r="R17" s="156"/>
-      <c r="S17" s="156"/>
-      <c r="T17" s="156"/>
-      <c r="U17" s="156"/>
-      <c r="V17" s="156"/>
-      <c r="W17" s="156"/>
-      <c r="X17" s="156"/>
-      <c r="Y17" s="156"/>
-      <c r="Z17" s="156"/>
-      <c r="AA17" s="156"/>
-      <c r="AB17" s="156"/>
-      <c r="AC17" s="156"/>
+      <c r="Q17" s="152"/>
+      <c r="R17" s="152"/>
+      <c r="S17" s="152"/>
+      <c r="T17" s="152"/>
+      <c r="U17" s="152"/>
+      <c r="V17" s="152"/>
+      <c r="W17" s="152"/>
+      <c r="X17" s="152"/>
+      <c r="Y17" s="152"/>
+      <c r="Z17" s="152"/>
+      <c r="AA17" s="152"/>
+      <c r="AB17" s="152"/>
+      <c r="AC17" s="152"/>
       <c r="AD17" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="AE17" s="156" t="s">
+      <c r="AE17" s="152" t="s">
         <v>275</v>
       </c>
-      <c r="AF17" s="156"/>
-      <c r="AG17" s="156"/>
-      <c r="AH17" s="156"/>
-      <c r="AI17" s="156"/>
-      <c r="AJ17" s="170" t="s">
+      <c r="AF17" s="152"/>
+      <c r="AG17" s="152"/>
+      <c r="AH17" s="152"/>
+      <c r="AI17" s="152"/>
+      <c r="AJ17" s="166" t="s">
         <v>276</v>
       </c>
-      <c r="AK17" s="171"/>
-      <c r="AL17" s="172"/>
+      <c r="AK17" s="167"/>
+      <c r="AL17" s="168"/>
       <c r="AM17" s="64" t="s">
         <v>290</v>
       </c>
       <c r="AN17" s="64" t="s">
         <v>291</v>
       </c>
-      <c r="AO17" s="156" t="s">
+      <c r="AO17" s="152" t="s">
         <v>259</v>
       </c>
-      <c r="AP17" s="156"/>
-      <c r="AQ17" s="156"/>
-      <c r="AR17" s="156"/>
-      <c r="AS17" s="156"/>
-      <c r="AT17" s="156" t="s">
+      <c r="AP17" s="152"/>
+      <c r="AQ17" s="152"/>
+      <c r="AR17" s="152"/>
+      <c r="AS17" s="152"/>
+      <c r="AT17" s="152" t="s">
         <v>263</v>
       </c>
-      <c r="AU17" s="156"/>
-      <c r="AV17" s="156"/>
-      <c r="AW17" s="156" t="s">
+      <c r="AU17" s="152"/>
+      <c r="AV17" s="152"/>
+      <c r="AW17" s="152" t="s">
         <v>266</v>
       </c>
-      <c r="AX17" s="156"/>
-      <c r="AY17" s="170" t="s">
+      <c r="AX17" s="152"/>
+      <c r="AY17" s="166" t="s">
         <v>311</v>
       </c>
-      <c r="AZ17" s="171"/>
-      <c r="BA17" s="171"/>
-      <c r="BB17" s="171"/>
-      <c r="BC17" s="170" t="s">
+      <c r="AZ17" s="167"/>
+      <c r="BA17" s="167"/>
+      <c r="BB17" s="167"/>
+      <c r="BC17" s="166" t="s">
         <v>265</v>
       </c>
-      <c r="BD17" s="171"/>
-      <c r="BE17" s="171"/>
-      <c r="BF17" s="171"/>
-      <c r="BG17" s="171"/>
-      <c r="BH17" s="171"/>
-      <c r="BI17" s="171"/>
+      <c r="BD17" s="167"/>
+      <c r="BE17" s="167"/>
+      <c r="BF17" s="167"/>
+      <c r="BG17" s="167"/>
+      <c r="BH17" s="167"/>
+      <c r="BI17" s="167"/>
       <c r="BJ17" s="37" t="s">
         <v>304</v>
       </c>
@@ -11744,11 +11728,11 @@
       <c r="BN17" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="BO17" s="173" t="s">
+      <c r="BO17" s="169" t="s">
         <v>307</v>
       </c>
-      <c r="BP17" s="173"/>
-      <c r="BQ17" s="173"/>
+      <c r="BP17" s="169"/>
+      <c r="BQ17" s="169"/>
       <c r="BR17" s="37" t="s">
         <v>28</v>
       </c>
@@ -11788,19 +11772,19 @@
       <c r="R18" s="37" t="s">
         <v>280</v>
       </c>
-      <c r="S18" s="173" t="s">
+      <c r="S18" s="169" t="s">
         <v>271</v>
       </c>
-      <c r="T18" s="173"/>
-      <c r="U18" s="173"/>
-      <c r="V18" s="173"/>
-      <c r="W18" s="173"/>
-      <c r="X18" s="173"/>
-      <c r="Y18" s="173"/>
-      <c r="Z18" s="173"/>
-      <c r="AA18" s="173"/>
-      <c r="AB18" s="173"/>
-      <c r="AC18" s="173"/>
+      <c r="T18" s="169"/>
+      <c r="U18" s="169"/>
+      <c r="V18" s="169"/>
+      <c r="W18" s="169"/>
+      <c r="X18" s="169"/>
+      <c r="Y18" s="169"/>
+      <c r="Z18" s="169"/>
+      <c r="AA18" s="169"/>
+      <c r="AB18" s="169"/>
+      <c r="AC18" s="169"/>
       <c r="AD18" s="11"/>
       <c r="AE18" s="37" t="s">
         <v>258</v>
@@ -11934,17 +11918,17 @@
       <c r="V19" s="37" t="s">
         <v>281</v>
       </c>
-      <c r="W19" s="134" t="s">
+      <c r="W19" s="130" t="s">
         <v>145</v>
       </c>
-      <c r="X19" s="135"/>
-      <c r="Y19" s="136"/>
-      <c r="Z19" s="134" t="s">
+      <c r="X19" s="131"/>
+      <c r="Y19" s="132"/>
+      <c r="Z19" s="130" t="s">
         <v>140</v>
       </c>
-      <c r="AA19" s="135"/>
-      <c r="AB19" s="135"/>
-      <c r="AC19" s="136"/>
+      <c r="AA19" s="131"/>
+      <c r="AB19" s="131"/>
+      <c r="AC19" s="132"/>
       <c r="AD19" s="11"/>
       <c r="AE19" s="11"/>
       <c r="AF19" s="11"/>

--- a/docs/session_variables.xlsx
+++ b/docs/session_variables.xlsx
@@ -2,26 +2,27 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robhay/git_repo/share_screener/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0939092-AB04-BD48-A871-0D70F8C11225}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09235E72-7474-BA4D-B8E9-E70F33C7C3EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{EB3C945B-FE01-FA47-AE59-A0DC3CDF521B}"/>
+    <workbookView xWindow="-20" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{EB3C945B-FE01-FA47-AE59-A0DC3CDF521B}"/>
   </bookViews>
   <sheets>
     <sheet name="Application Structure" sheetId="6" r:id="rId1"/>
-    <sheet name="Application Structure - backup" sheetId="5" r:id="rId2"/>
-    <sheet name="Overview" sheetId="4" r:id="rId3"/>
-    <sheet name="scope" sheetId="1" r:id="rId4"/>
-    <sheet name="old o-view" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
+    <sheet name="Application Structure - backup" sheetId="5" r:id="rId3"/>
+    <sheet name="Overview" sheetId="4" r:id="rId4"/>
+    <sheet name="scope" sheetId="1" r:id="rId5"/>
+    <sheet name="old o-view" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Overview!$A$8:$Q$85</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">scope!$B$7:$O$94</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Overview!$A$8:$Q$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">scope!$B$7:$O$94</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1523" uniqueCount="511">
   <si>
     <t>chart_colours</t>
   </si>
@@ -1352,12 +1353,6 @@
     <t>expanders</t>
   </si>
   <si>
-    <t>Black = group name for object - not the actual data</t>
-  </si>
-  <si>
-    <t>ticker data</t>
-  </si>
-  <si>
     <t>add_columns</t>
   </si>
   <si>
@@ -1375,13 +1370,7 @@
 {charts_config}</t>
   </si>
   <si>
-    <t>Blue = this is an actual object name</t>
-  </si>
-  <si>
     <t>trends</t>
-  </si>
-  <si>
-    <t>general nme for the data below</t>
   </si>
   <si>
     <t>Datatype</t>
@@ -1522,9 +1511,6 @@
     </r>
   </si>
   <si>
-    <t>expanders - chart</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">i.e. </t>
     </r>
@@ -1536,9 +1522,6 @@
       </rPr>
       <t>macd</t>
     </r>
-  </si>
-  <si>
-    <t>expanders - test</t>
   </si>
   <si>
     <r>
@@ -1688,9 +1671,6 @@
     <t>test active status</t>
   </si>
   <si>
-    <t>single : intra day : volume : research : screener</t>
-  </si>
-  <si>
     <t>strategy</t>
   </si>
   <si>
@@ -1741,10 +1721,6 @@
     <t>level 6</t>
   </si>
   <si>
-    <t>expander
-(test or chart)</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">ie </t>
     </r>
@@ -1760,12 +1736,117 @@
   <si>
     <t>str</t>
   </si>
+  <si>
+    <t>single | intra day | volume | research | screener</t>
+  </si>
+  <si>
+    <t>Tourist Map
+Share Screener Application</t>
+  </si>
+  <si>
+    <t>test (trend_high)</t>
+  </si>
+  <si>
+    <t>this looks like the congi</t>
+  </si>
+  <si>
+    <t>active test list</t>
+  </si>
+  <si>
+    <t>active chart list</t>
+  </si>
+  <si>
+    <t>[ random tickers ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ie </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>trend_open</t>
+    </r>
+  </si>
+  <si>
+    <t>dfs</t>
+  </si>
+  <si>
+    <t>col adders
+(test or chart)</t>
+  </si>
+  <si>
+    <t>renew_page_df_status</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>copy into DFS</t>
+  </si>
+  <si>
+    <t>don’t copy into dfs</t>
+  </si>
+  <si>
+    <t>add_cols</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>specific</t>
+  </si>
+  <si>
+    <t>for every add_cols - set refresh cols to True</t>
+  </si>
+  <si>
+    <t>for spcific add_cols set the add_cols = True</t>
+  </si>
+  <si>
+    <t>Don’t do anything</t>
+  </si>
+  <si>
+    <t>tikcers</t>
+  </si>
+  <si>
+    <t>every ticker</t>
+  </si>
+  <si>
+    <t>only this one ticker</t>
+  </si>
+  <si>
+    <t>column_adders - test</t>
+  </si>
+  <si>
+    <t>column_adders - chart</t>
+  </si>
+  <si>
+    <t>replace_df</t>
+  </si>
+  <si>
+    <t>replace_cols</t>
+  </si>
+  <si>
+    <t>column_adders ( config_name )</t>
+  </si>
+  <si>
+    <t>general group name for the data below</t>
+  </si>
+  <si>
+    <t>ahf</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="44">
+  <fonts count="42">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2076,20 +2157,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="16"/>
-      <color theme="5"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="28"/>
-      <color theme="5"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="14">
     <fill>
@@ -2171,7 +2238,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -2279,15 +2346,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -2352,7 +2410,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="279">
+  <cellXfs count="294">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2716,223 +2774,10 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2945,9 +2790,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2957,9 +2799,6 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2969,70 +2808,22 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3040,9 +2831,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3067,110 +2855,425 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3486,18 +3589,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB030FA-EA0F-904E-89A7-6D6B5810B515}">
-  <dimension ref="A1:FV38"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:FW38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="BK10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="BR2" sqref="BR2"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="34.1640625" customWidth="1"/>
     <col min="2" max="2" width="3.5" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" customWidth="1"/>
     <col min="4" max="4" width="13.5" customWidth="1"/>
@@ -3510,2544 +3614,2669 @@
     <col min="11" max="11" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="8" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8" customWidth="1"/>
-    <col min="15" max="15" width="13.33203125" customWidth="1"/>
-    <col min="16" max="16" width="8" customWidth="1"/>
-    <col min="17" max="17" width="11.5" customWidth="1"/>
-    <col min="18" max="18" width="10.33203125" customWidth="1"/>
-    <col min="19" max="19" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8" customWidth="1"/>
-    <col min="22" max="22" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" customWidth="1"/>
-    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.83203125" customWidth="1"/>
-    <col min="27" max="27" width="7.83203125" customWidth="1"/>
-    <col min="28" max="28" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.33203125" customWidth="1"/>
-    <col min="31" max="31" width="10.6640625" customWidth="1"/>
-    <col min="32" max="32" width="7.5" customWidth="1"/>
-    <col min="33" max="34" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.33203125" customWidth="1"/>
-    <col min="36" max="36" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="7.1640625" customWidth="1"/>
-    <col min="40" max="40" width="9.1640625" customWidth="1"/>
-    <col min="41" max="41" width="7.1640625" customWidth="1"/>
-    <col min="42" max="42" width="12.1640625" customWidth="1"/>
-    <col min="43" max="43" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="11" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="6.6640625" customWidth="1"/>
-    <col min="46" max="46" width="6.83203125" customWidth="1"/>
-    <col min="47" max="47" width="7.6640625" customWidth="1"/>
-    <col min="48" max="48" width="6.5" customWidth="1"/>
+    <col min="15" max="16" width="13.33203125" customWidth="1"/>
+    <col min="17" max="17" width="8" customWidth="1"/>
+    <col min="18" max="18" width="11.5" customWidth="1"/>
+    <col min="19" max="19" width="10.33203125" customWidth="1"/>
+    <col min="20" max="20" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8" customWidth="1"/>
+    <col min="23" max="23" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.33203125" customWidth="1"/>
+    <col min="26" max="26" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="9.83203125" customWidth="1"/>
+    <col min="29" max="29" width="7.83203125" customWidth="1"/>
+    <col min="30" max="30" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.33203125" customWidth="1"/>
+    <col min="33" max="33" width="10.6640625" customWidth="1"/>
+    <col min="34" max="34" width="7.5" customWidth="1"/>
+    <col min="35" max="36" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.33203125" customWidth="1"/>
+    <col min="38" max="38" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="46" width="7" customWidth="1"/>
+    <col min="47" max="47" width="6.6640625" customWidth="1"/>
+    <col min="48" max="48" width="6.83203125" customWidth="1"/>
     <col min="49" max="49" width="7.6640625" customWidth="1"/>
-    <col min="50" max="50" width="10.33203125" customWidth="1"/>
-    <col min="51" max="51" width="11" customWidth="1"/>
-    <col min="52" max="52" width="7.6640625" customWidth="1"/>
-    <col min="53" max="53" width="10.5" customWidth="1"/>
-    <col min="54" max="54" width="9.83203125" customWidth="1"/>
-    <col min="55" max="55" width="4.83203125" customWidth="1"/>
-    <col min="56" max="56" width="9.1640625" customWidth="1"/>
-    <col min="57" max="58" width="10.5" customWidth="1"/>
-    <col min="59" max="59" width="9.6640625" customWidth="1"/>
-    <col min="60" max="60" width="5.33203125" customWidth="1"/>
-    <col min="61" max="61" width="13.1640625" customWidth="1"/>
-    <col min="62" max="62" width="7.5" customWidth="1"/>
-    <col min="63" max="63" width="8.83203125" customWidth="1"/>
-    <col min="64" max="65" width="12" customWidth="1"/>
-    <col min="66" max="66" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="67" max="68" width="10.1640625" customWidth="1"/>
-    <col min="69" max="69" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="9.33203125" customWidth="1"/>
-    <col min="72" max="72" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="7.83203125" customWidth="1"/>
-    <col min="75" max="75" width="6.33203125" customWidth="1"/>
-    <col min="76" max="76" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="10.33203125" customWidth="1"/>
-    <col min="78" max="78" width="7.83203125" customWidth="1"/>
-    <col min="79" max="79" width="13.83203125" customWidth="1"/>
-    <col min="80" max="80" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="6.6640625" customWidth="1"/>
-    <col min="83" max="86" width="5.1640625" customWidth="1"/>
-    <col min="87" max="87" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="6.5" customWidth="1"/>
+    <col min="51" max="51" width="7.6640625" customWidth="1"/>
+    <col min="52" max="52" width="10.33203125" customWidth="1"/>
+    <col min="53" max="53" width="11" customWidth="1"/>
+    <col min="54" max="54" width="7.6640625" customWidth="1"/>
+    <col min="55" max="55" width="10.5" customWidth="1"/>
+    <col min="56" max="56" width="9.83203125" customWidth="1"/>
+    <col min="57" max="57" width="4.83203125" customWidth="1"/>
+    <col min="58" max="58" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="59" max="60" width="10.5" customWidth="1"/>
+    <col min="61" max="61" width="9.6640625" customWidth="1"/>
+    <col min="62" max="62" width="5.33203125" customWidth="1"/>
+    <col min="63" max="63" width="13.1640625" customWidth="1"/>
+    <col min="64" max="64" width="7.5" customWidth="1"/>
+    <col min="65" max="65" width="8.83203125" customWidth="1"/>
+    <col min="66" max="67" width="12" customWidth="1"/>
+    <col min="68" max="68" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="69" max="70" width="10.1640625" customWidth="1"/>
+    <col min="71" max="71" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="11.5" customWidth="1"/>
+    <col min="74" max="76" width="9.33203125" customWidth="1"/>
+    <col min="77" max="77" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="10.33203125" customWidth="1"/>
+    <col min="79" max="79" width="7.83203125" customWidth="1"/>
+    <col min="80" max="80" width="13.83203125" customWidth="1"/>
+    <col min="81" max="81" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="6.6640625" customWidth="1"/>
+    <col min="84" max="87" width="5.1640625" customWidth="1"/>
+    <col min="88" max="88" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="4.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:99">
-      <c r="A1" s="223" t="s">
+    <row r="1" spans="1:179" ht="44">
+      <c r="A1" s="277" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="2" spans="1:179">
+      <c r="A2" s="138" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="3" spans="1:179">
+      <c r="A3" s="126" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="4" spans="1:179">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="6"/>
+      <c r="AG4" s="6"/>
+      <c r="AH4" s="6"/>
+      <c r="AI4" s="6"/>
+      <c r="AJ4" s="6"/>
+      <c r="AK4" s="6"/>
+      <c r="AL4" s="6"/>
+      <c r="AM4" s="6"/>
+      <c r="AN4" s="6"/>
+      <c r="AO4" s="6"/>
+      <c r="AP4" s="6"/>
+      <c r="AQ4" s="6"/>
+      <c r="AR4" s="6"/>
+      <c r="AS4" s="6"/>
+      <c r="AT4" s="6"/>
+      <c r="AU4" s="6"/>
+      <c r="AV4" s="6"/>
+      <c r="AW4" s="6"/>
+      <c r="AX4" s="6"/>
+      <c r="AY4" s="6"/>
+      <c r="AZ4" s="6"/>
+      <c r="BA4" s="6"/>
+    </row>
+    <row r="5" spans="1:179" s="60" customFormat="1" ht="37" customHeight="1">
+      <c r="A5" s="109" t="s">
+        <v>343</v>
+      </c>
+      <c r="B5" s="108"/>
+      <c r="C5" s="136" t="s">
+        <v>289</v>
+      </c>
+      <c r="D5" s="194" t="s">
+        <v>263</v>
+      </c>
+      <c r="E5" s="195"/>
+      <c r="F5" s="195"/>
+      <c r="G5" s="195"/>
+      <c r="H5" s="195"/>
+      <c r="I5" s="195"/>
+      <c r="J5" s="195"/>
+      <c r="K5" s="195"/>
+      <c r="L5" s="195"/>
+      <c r="M5" s="195"/>
+      <c r="N5" s="195"/>
+      <c r="O5" s="195"/>
+      <c r="P5" s="195"/>
+      <c r="Q5" s="195"/>
+      <c r="R5" s="195"/>
+      <c r="S5" s="195"/>
+      <c r="T5" s="195"/>
+      <c r="U5" s="195"/>
+      <c r="V5" s="195"/>
+      <c r="W5" s="195"/>
+      <c r="X5" s="195"/>
+      <c r="Y5" s="195"/>
+      <c r="Z5" s="195"/>
+      <c r="AA5" s="195"/>
+      <c r="AB5" s="195"/>
+      <c r="AC5" s="195"/>
+      <c r="AD5" s="195"/>
+      <c r="AE5" s="195"/>
+      <c r="AF5" s="195"/>
+      <c r="AG5" s="195"/>
+      <c r="AH5" s="195"/>
+      <c r="AI5" s="195"/>
+      <c r="AJ5" s="195"/>
+      <c r="AK5" s="195"/>
+      <c r="AL5" s="195"/>
+      <c r="AM5" s="195"/>
+      <c r="AN5" s="195"/>
+      <c r="AO5" s="195"/>
+      <c r="AP5" s="195"/>
+      <c r="AQ5" s="195"/>
+      <c r="AR5" s="195"/>
+      <c r="AS5" s="195"/>
+      <c r="AT5" s="195"/>
+      <c r="AU5" s="194" t="s">
+        <v>258</v>
+      </c>
+      <c r="AV5" s="195"/>
+      <c r="AW5" s="195"/>
+      <c r="AX5" s="195"/>
+      <c r="AY5" s="195"/>
+      <c r="AZ5" s="195"/>
+      <c r="BA5" s="195"/>
+      <c r="BB5" s="196"/>
+      <c r="BC5" s="194" t="s">
+        <v>310</v>
+      </c>
+      <c r="BD5" s="195"/>
+      <c r="BE5" s="195"/>
+      <c r="BF5" s="195"/>
+      <c r="BG5" s="195"/>
+      <c r="BH5" s="195"/>
+      <c r="BI5" s="196"/>
+      <c r="BJ5" s="197" t="s">
+        <v>257</v>
+      </c>
+      <c r="BK5" s="197"/>
+      <c r="BL5" s="197"/>
+      <c r="BM5" s="197"/>
+      <c r="BN5" s="197"/>
+      <c r="BO5" s="197"/>
+      <c r="BP5" s="197"/>
+      <c r="BQ5" s="197"/>
+      <c r="BR5" s="197"/>
+      <c r="BS5" s="197"/>
+      <c r="BT5" s="197"/>
+      <c r="BU5" s="197"/>
+      <c r="BV5" s="197"/>
+      <c r="BW5" s="197"/>
+      <c r="BX5" s="197"/>
+      <c r="BY5" s="198" t="s">
+        <v>468</v>
+      </c>
+      <c r="BZ5" s="198"/>
+      <c r="CA5" s="198"/>
+      <c r="CB5" s="198"/>
+      <c r="CC5" s="198"/>
+      <c r="CD5" s="198"/>
+      <c r="CE5" s="198"/>
+      <c r="CF5" s="198"/>
+      <c r="CG5" s="198"/>
+      <c r="CH5" s="198"/>
+      <c r="CI5" s="198"/>
+      <c r="CJ5" s="198"/>
+      <c r="CK5" s="198"/>
+      <c r="CN5" s="199" t="s">
+        <v>31</v>
+      </c>
+      <c r="CO5" s="200"/>
+      <c r="CP5" s="200"/>
+      <c r="CQ5" s="200"/>
+      <c r="CR5" s="200"/>
+      <c r="CS5" s="200"/>
+      <c r="CT5" s="200"/>
+      <c r="CU5" s="200"/>
+      <c r="CV5" s="201"/>
+    </row>
+    <row r="6" spans="1:179" s="60" customFormat="1" ht="26">
+      <c r="A6" s="174" t="s">
+        <v>344</v>
+      </c>
+      <c r="B6" s="108"/>
+      <c r="C6" s="281"/>
+      <c r="D6" s="149"/>
+      <c r="E6" s="149"/>
+      <c r="F6" s="149"/>
+      <c r="G6" s="149"/>
+      <c r="H6" s="149"/>
+      <c r="I6" s="149"/>
+      <c r="J6" s="149"/>
+      <c r="K6" s="149"/>
+      <c r="L6" s="149"/>
+      <c r="M6" s="149"/>
+      <c r="N6" s="208" t="s">
+        <v>508</v>
+      </c>
+      <c r="O6" s="208"/>
+      <c r="P6" s="208"/>
+      <c r="Q6" s="208"/>
+      <c r="R6" s="208"/>
+      <c r="S6" s="208"/>
+      <c r="T6" s="208"/>
+      <c r="U6" s="208"/>
+      <c r="V6" s="208"/>
+      <c r="W6" s="208"/>
+      <c r="X6" s="208"/>
+      <c r="Y6" s="208"/>
+      <c r="Z6" s="208"/>
+      <c r="AA6" s="208"/>
+      <c r="AB6" s="208"/>
+      <c r="AC6" s="208"/>
+      <c r="AD6" s="208"/>
+      <c r="AE6" s="208"/>
+      <c r="AF6" s="208"/>
+      <c r="AG6" s="208"/>
+      <c r="AH6" s="208"/>
+      <c r="AI6" s="208"/>
+      <c r="AJ6" s="208"/>
+      <c r="AK6" s="208"/>
+      <c r="AL6" s="208"/>
+      <c r="AM6" s="208"/>
+      <c r="AN6" s="208"/>
+      <c r="AO6" s="149"/>
+      <c r="AP6" s="149"/>
+      <c r="AQ6" s="149"/>
+      <c r="AR6" s="149"/>
+      <c r="AS6" s="149"/>
+      <c r="AT6" s="149"/>
+      <c r="AU6" s="148"/>
+      <c r="AV6" s="149"/>
+      <c r="AW6" s="149"/>
+      <c r="AX6" s="149"/>
+      <c r="AY6" s="149"/>
+      <c r="AZ6" s="149"/>
+      <c r="BA6" s="149"/>
+      <c r="BB6" s="150"/>
+      <c r="BC6" s="148"/>
+      <c r="BD6" s="149"/>
+      <c r="BE6" s="149"/>
+      <c r="BF6" s="149"/>
+      <c r="BG6" s="149"/>
+      <c r="BH6" s="149"/>
+      <c r="BI6" s="150"/>
+      <c r="BJ6" s="152"/>
+      <c r="BK6" s="152"/>
+      <c r="BL6" s="282"/>
+      <c r="BM6" s="282"/>
+      <c r="BN6" s="152"/>
+      <c r="BO6" s="152"/>
+      <c r="BP6" s="152"/>
+      <c r="BQ6" s="152"/>
+      <c r="BR6" s="152"/>
+      <c r="BS6" s="152"/>
+      <c r="BT6" s="152"/>
+      <c r="BU6" s="152"/>
+      <c r="BV6" s="152"/>
+      <c r="BW6" s="152"/>
+      <c r="BX6" s="152"/>
+      <c r="BY6" s="156"/>
+      <c r="BZ6" s="156"/>
+      <c r="CA6" s="283"/>
+      <c r="CB6" s="284"/>
+      <c r="CC6" s="156"/>
+      <c r="CD6" s="156"/>
+      <c r="CE6" s="283"/>
+      <c r="CF6" s="285"/>
+      <c r="CG6" s="285"/>
+      <c r="CH6" s="285"/>
+      <c r="CI6" s="285"/>
+      <c r="CJ6" s="156"/>
+      <c r="CK6" s="156"/>
+      <c r="CN6" s="286"/>
+      <c r="CO6" s="286"/>
+      <c r="CP6" s="286"/>
+      <c r="CQ6" s="287"/>
+      <c r="CR6" s="287"/>
+      <c r="CS6" s="287"/>
+      <c r="CT6" s="287"/>
+      <c r="CU6" s="287"/>
+      <c r="CV6" s="287"/>
+    </row>
+    <row r="7" spans="1:179" s="59" customFormat="1" ht="104" customHeight="1">
+      <c r="A7" s="174"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="175"/>
+      <c r="D7" s="155" t="s">
+        <v>286</v>
+      </c>
+      <c r="E7" s="136" t="s">
+        <v>285</v>
+      </c>
+      <c r="F7" s="136" t="s">
+        <v>288</v>
+      </c>
+      <c r="G7" s="202" t="s">
+        <v>262</v>
+      </c>
+      <c r="H7" s="202"/>
+      <c r="I7" s="202"/>
+      <c r="J7" s="202"/>
+      <c r="K7" s="202"/>
+      <c r="L7" s="202"/>
+      <c r="M7" s="202"/>
+      <c r="N7" s="177" t="s">
+        <v>430</v>
+      </c>
+      <c r="O7" s="203"/>
+      <c r="P7" s="203"/>
+      <c r="Q7" s="203"/>
+      <c r="R7" s="203"/>
+      <c r="S7" s="203"/>
+      <c r="T7" s="203"/>
+      <c r="U7" s="203"/>
+      <c r="V7" s="203"/>
+      <c r="W7" s="204"/>
+      <c r="X7" s="205" t="s">
+        <v>431</v>
+      </c>
+      <c r="Y7" s="202"/>
+      <c r="Z7" s="202"/>
+      <c r="AA7" s="202"/>
+      <c r="AB7" s="202"/>
+      <c r="AC7" s="202"/>
+      <c r="AD7" s="202"/>
+      <c r="AE7" s="202"/>
+      <c r="AF7" s="202"/>
+      <c r="AG7" s="202"/>
+      <c r="AH7" s="202"/>
+      <c r="AI7" s="202"/>
+      <c r="AJ7" s="202"/>
+      <c r="AK7" s="202"/>
+      <c r="AL7" s="202"/>
+      <c r="AM7" s="202"/>
+      <c r="AN7" s="202"/>
+      <c r="AO7" s="206" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP7" s="203"/>
+      <c r="AQ7" s="203"/>
+      <c r="AR7" s="203"/>
+      <c r="AS7" s="203"/>
+      <c r="AT7" s="203"/>
+      <c r="AU7" s="202" t="s">
+        <v>275</v>
+      </c>
+      <c r="AV7" s="202"/>
+      <c r="AW7" s="202"/>
+      <c r="AX7" s="202"/>
+      <c r="AY7" s="202"/>
+      <c r="AZ7" s="206" t="s">
+        <v>276</v>
+      </c>
+      <c r="BA7" s="203"/>
+      <c r="BB7" s="204"/>
+      <c r="BC7" s="137" t="s">
+        <v>290</v>
+      </c>
+      <c r="BD7" s="137" t="s">
+        <v>387</v>
+      </c>
+      <c r="BE7" s="202" t="s">
+        <v>259</v>
+      </c>
+      <c r="BF7" s="202"/>
+      <c r="BG7" s="202"/>
+      <c r="BH7" s="202"/>
+      <c r="BI7" s="202"/>
+      <c r="BJ7" s="136" t="s">
+        <v>353</v>
+      </c>
+      <c r="BK7" s="136" t="s">
+        <v>354</v>
+      </c>
+      <c r="BL7" s="153" t="s">
+        <v>297</v>
+      </c>
+      <c r="BM7" s="153" t="s">
+        <v>391</v>
+      </c>
+      <c r="BN7" s="202" t="s">
+        <v>266</v>
+      </c>
+      <c r="BO7" s="202"/>
+      <c r="BP7" s="205" t="s">
+        <v>480</v>
+      </c>
+      <c r="BQ7" s="205"/>
+      <c r="BR7" s="205"/>
+      <c r="BS7" s="205"/>
+      <c r="BT7" s="205"/>
+      <c r="BU7" s="205"/>
+      <c r="BV7" s="205"/>
+      <c r="BW7" s="205"/>
+      <c r="BX7" s="205"/>
+      <c r="BY7" s="136" t="s">
+        <v>137</v>
+      </c>
+      <c r="BZ7" s="136" t="s">
+        <v>283</v>
+      </c>
+      <c r="CA7" s="177" t="s">
+        <v>306</v>
+      </c>
+      <c r="CB7" s="178"/>
+      <c r="CC7" s="136" t="s">
+        <v>28</v>
+      </c>
+      <c r="CD7" s="136" t="s">
+        <v>386</v>
+      </c>
+      <c r="CE7" s="177" t="s">
+        <v>305</v>
+      </c>
+      <c r="CF7" s="207"/>
+      <c r="CG7" s="207"/>
+      <c r="CH7" s="207"/>
+      <c r="CI7" s="207"/>
+      <c r="CJ7" s="205" t="s">
+        <v>307</v>
+      </c>
+      <c r="CK7" s="205"/>
+      <c r="CN7" s="278" t="s">
+        <v>482</v>
+      </c>
+      <c r="CO7" s="278"/>
+      <c r="CP7" s="278"/>
+      <c r="CR7" s="59" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="8" spans="1:179" ht="23" customHeight="1">
+      <c r="A8" s="185" t="s">
+        <v>373</v>
+      </c>
+      <c r="B8" s="101"/>
+      <c r="C8" s="176"/>
+      <c r="D8" s="166"/>
+      <c r="E8" s="166"/>
+      <c r="F8" s="166"/>
+      <c r="G8" s="163" t="s">
+        <v>375</v>
+      </c>
+      <c r="H8" s="163" t="s">
+        <v>267</v>
+      </c>
+      <c r="I8" s="163" t="s">
+        <v>268</v>
+      </c>
+      <c r="J8" s="163" t="s">
+        <v>261</v>
+      </c>
+      <c r="K8" s="163" t="s">
+        <v>269</v>
+      </c>
+      <c r="L8" s="163" t="s">
+        <v>284</v>
+      </c>
+      <c r="M8" s="163" t="s">
+        <v>283</v>
+      </c>
+      <c r="N8" s="163" t="s">
+        <v>432</v>
+      </c>
+      <c r="O8" s="163" t="s">
+        <v>395</v>
+      </c>
+      <c r="P8" s="181" t="s">
+        <v>484</v>
+      </c>
+      <c r="Q8" s="190" t="s">
+        <v>504</v>
+      </c>
+      <c r="R8" s="191"/>
+      <c r="S8" s="191"/>
+      <c r="T8" s="191"/>
+      <c r="U8" s="191"/>
+      <c r="V8" s="191"/>
+      <c r="W8" s="192"/>
+      <c r="X8" s="163" t="s">
+        <v>379</v>
+      </c>
+      <c r="Y8" s="163" t="s">
+        <v>279</v>
+      </c>
+      <c r="Z8" s="163" t="s">
+        <v>280</v>
+      </c>
+      <c r="AA8" s="163" t="s">
+        <v>399</v>
+      </c>
+      <c r="AB8" s="181" t="s">
+        <v>485</v>
+      </c>
+      <c r="AC8" s="208" t="s">
+        <v>505</v>
+      </c>
+      <c r="AD8" s="208"/>
+      <c r="AE8" s="208"/>
+      <c r="AF8" s="208"/>
+      <c r="AG8" s="208"/>
+      <c r="AH8" s="208"/>
+      <c r="AI8" s="208"/>
+      <c r="AJ8" s="208"/>
+      <c r="AK8" s="208"/>
+      <c r="AL8" s="208"/>
+      <c r="AM8" s="208"/>
+      <c r="AN8" s="208"/>
+      <c r="AO8" s="288" t="s">
+        <v>447</v>
+      </c>
+      <c r="AP8" s="288" t="s">
+        <v>448</v>
+      </c>
+      <c r="AQ8" s="288" t="s">
+        <v>449</v>
+      </c>
+      <c r="AR8" s="288" t="s">
+        <v>450</v>
+      </c>
+      <c r="AS8" s="288" t="s">
+        <v>451</v>
+      </c>
+      <c r="AT8" s="288" t="s">
+        <v>452</v>
+      </c>
+      <c r="AU8" s="163" t="s">
+        <v>258</v>
+      </c>
+      <c r="AV8" s="163" t="s">
+        <v>274</v>
+      </c>
+      <c r="AW8" s="163" t="s">
+        <v>277</v>
+      </c>
+      <c r="AX8" s="163" t="s">
+        <v>261</v>
+      </c>
+      <c r="AY8" s="163" t="s">
+        <v>273</v>
+      </c>
+      <c r="AZ8" s="163" t="s">
+        <v>272</v>
+      </c>
+      <c r="BA8" s="163" t="s">
+        <v>44</v>
+      </c>
+      <c r="BB8" s="163" t="s">
+        <v>273</v>
+      </c>
+      <c r="BC8" s="146" t="s">
+        <v>269</v>
+      </c>
+      <c r="BD8" s="146" t="s">
+        <v>269</v>
+      </c>
+      <c r="BE8" s="163" t="s">
+        <v>270</v>
+      </c>
+      <c r="BF8" s="163" t="s">
+        <v>268</v>
+      </c>
+      <c r="BG8" s="163" t="s">
+        <v>314</v>
+      </c>
+      <c r="BH8" s="163" t="s">
+        <v>313</v>
+      </c>
+      <c r="BI8" s="163" t="s">
+        <v>312</v>
+      </c>
+      <c r="BJ8" s="166"/>
+      <c r="BK8" s="166"/>
+      <c r="BL8" s="166"/>
+      <c r="BM8" s="166"/>
+      <c r="BN8" s="183" t="s">
+        <v>356</v>
+      </c>
+      <c r="BO8" s="183" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP8" s="271" t="s">
+        <v>388</v>
+      </c>
+      <c r="BQ8" s="272"/>
+      <c r="BR8" s="272"/>
+      <c r="BS8" s="273"/>
+      <c r="BT8" s="163" t="s">
+        <v>422</v>
+      </c>
+      <c r="BU8" s="163" t="s">
+        <v>506</v>
+      </c>
+      <c r="BV8" s="271" t="s">
+        <v>507</v>
+      </c>
+      <c r="BW8" s="273"/>
+      <c r="BX8" s="163" t="s">
+        <v>488</v>
+      </c>
+      <c r="BY8" s="166"/>
+      <c r="BZ8" s="166"/>
+      <c r="CA8" s="165" t="s">
+        <v>471</v>
+      </c>
+      <c r="CB8" s="165" t="s">
+        <v>472</v>
+      </c>
+      <c r="CC8" s="166"/>
+      <c r="CD8" s="166"/>
+      <c r="CE8" s="165" t="s">
+        <v>384</v>
+      </c>
+      <c r="CF8" s="165" t="s">
+        <v>385</v>
+      </c>
+      <c r="CG8" s="165"/>
+      <c r="CH8" s="165"/>
+      <c r="CI8" s="165"/>
+      <c r="CJ8" s="165" t="s">
+        <v>308</v>
+      </c>
+      <c r="CK8" s="165" t="s">
+        <v>309</v>
+      </c>
+      <c r="CN8" t="s">
+        <v>136</v>
+      </c>
+      <c r="CO8" t="s">
+        <v>137</v>
+      </c>
+      <c r="CP8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:179" ht="47" customHeight="1">
+      <c r="A9" s="186"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="176"/>
+      <c r="D9" s="167"/>
+      <c r="E9" s="167"/>
+      <c r="F9" s="167"/>
+      <c r="G9" s="164"/>
+      <c r="H9" s="164"/>
+      <c r="I9" s="164"/>
+      <c r="J9" s="164"/>
+      <c r="K9" s="164"/>
+      <c r="L9" s="164"/>
+      <c r="M9" s="164"/>
+      <c r="N9" s="164"/>
+      <c r="O9" s="164"/>
+      <c r="P9" s="182"/>
+      <c r="Q9" s="187" t="s">
+        <v>446</v>
+      </c>
+      <c r="R9" s="188"/>
+      <c r="S9" s="188"/>
+      <c r="T9" s="188"/>
+      <c r="U9" s="188"/>
+      <c r="V9" s="188"/>
+      <c r="W9" s="189"/>
+      <c r="X9" s="164"/>
+      <c r="Y9" s="164"/>
+      <c r="Z9" s="164"/>
+      <c r="AA9" s="164"/>
+      <c r="AB9" s="182"/>
+      <c r="AC9" s="209" t="s">
+        <v>445</v>
+      </c>
+      <c r="AD9" s="209"/>
+      <c r="AE9" s="209"/>
+      <c r="AF9" s="209"/>
+      <c r="AG9" s="209"/>
+      <c r="AH9" s="209"/>
+      <c r="AI9" s="209"/>
+      <c r="AJ9" s="209"/>
+      <c r="AK9" s="209"/>
+      <c r="AL9" s="209"/>
+      <c r="AM9" s="209"/>
+      <c r="AN9" s="209"/>
+      <c r="AO9" s="288"/>
+      <c r="AP9" s="288"/>
+      <c r="AQ9" s="288"/>
+      <c r="AR9" s="288"/>
+      <c r="AS9" s="288"/>
+      <c r="AT9" s="288"/>
+      <c r="AU9" s="164"/>
+      <c r="AV9" s="164"/>
+      <c r="AW9" s="164"/>
+      <c r="AX9" s="164"/>
+      <c r="AY9" s="164"/>
+      <c r="AZ9" s="164"/>
+      <c r="BA9" s="164"/>
+      <c r="BB9" s="164"/>
+      <c r="BC9" s="96" t="s">
+        <v>456</v>
+      </c>
+      <c r="BD9" s="96" t="s">
+        <v>457</v>
+      </c>
+      <c r="BE9" s="164"/>
+      <c r="BF9" s="164"/>
+      <c r="BG9" s="164"/>
+      <c r="BH9" s="164"/>
+      <c r="BI9" s="164"/>
+      <c r="BJ9" s="167"/>
+      <c r="BK9" s="167"/>
+      <c r="BL9" s="167"/>
+      <c r="BM9" s="167"/>
+      <c r="BN9" s="184"/>
+      <c r="BO9" s="184"/>
+      <c r="BP9" s="274"/>
+      <c r="BQ9" s="275"/>
+      <c r="BR9" s="275"/>
+      <c r="BS9" s="276"/>
+      <c r="BT9" s="164"/>
+      <c r="BU9" s="164"/>
+      <c r="BV9" s="274"/>
+      <c r="BW9" s="276"/>
+      <c r="BX9" s="164"/>
+      <c r="BY9" s="167"/>
+      <c r="BZ9" s="167"/>
+      <c r="CA9" s="165"/>
+      <c r="CB9" s="165"/>
+      <c r="CC9" s="167"/>
+      <c r="CD9" s="167"/>
+      <c r="CE9" s="165"/>
+      <c r="CF9" s="165"/>
+      <c r="CG9" s="165"/>
+      <c r="CH9" s="165"/>
+      <c r="CI9" s="165"/>
+      <c r="CJ9" s="165"/>
+      <c r="CK9" s="165"/>
+    </row>
+    <row r="10" spans="1:179" ht="32" customHeight="1">
+      <c r="A10" s="174" t="s">
+        <v>374</v>
+      </c>
+      <c r="B10" s="127"/>
+      <c r="C10" s="176"/>
+      <c r="D10" s="167"/>
+      <c r="E10" s="167"/>
+      <c r="F10" s="167"/>
+      <c r="G10" s="172"/>
+      <c r="H10" s="172"/>
+      <c r="I10" s="172"/>
+      <c r="J10" s="172"/>
+      <c r="K10" s="172"/>
+      <c r="L10" s="172"/>
+      <c r="M10" s="172"/>
+      <c r="N10" s="172"/>
+      <c r="O10" s="172"/>
+      <c r="P10" s="140"/>
+      <c r="Q10" s="190" t="s">
+        <v>263</v>
+      </c>
+      <c r="R10" s="191"/>
+      <c r="S10" s="191"/>
+      <c r="T10" s="191"/>
+      <c r="U10" s="191"/>
+      <c r="V10" s="191"/>
+      <c r="W10" s="192"/>
+      <c r="X10" s="172"/>
+      <c r="Y10" s="172"/>
+      <c r="Z10" s="172"/>
+      <c r="AA10" s="172"/>
+      <c r="AB10" s="140"/>
+      <c r="AC10" s="208" t="s">
+        <v>263</v>
+      </c>
+      <c r="AD10" s="208"/>
+      <c r="AE10" s="208"/>
+      <c r="AF10" s="208"/>
+      <c r="AG10" s="208"/>
+      <c r="AH10" s="208"/>
+      <c r="AI10" s="208"/>
+      <c r="AJ10" s="208"/>
+      <c r="AK10" s="208"/>
+      <c r="AL10" s="208"/>
+      <c r="AM10" s="208"/>
+      <c r="AN10" s="208"/>
+      <c r="AO10" s="172"/>
+      <c r="AP10" s="172"/>
+      <c r="AQ10" s="172"/>
+      <c r="AR10" s="172"/>
+      <c r="AS10" s="172"/>
+      <c r="AT10" s="172"/>
+      <c r="AU10" s="172"/>
+      <c r="AV10" s="172"/>
+      <c r="AW10" s="172"/>
+      <c r="AX10" s="172"/>
+      <c r="AY10" s="172"/>
+      <c r="AZ10" s="172"/>
+      <c r="BA10" s="172"/>
+      <c r="BB10" s="172"/>
+      <c r="BC10" s="172"/>
+      <c r="BD10" s="172"/>
+      <c r="BE10" s="172"/>
+      <c r="BF10" s="172"/>
+      <c r="BG10" s="146" t="s">
+        <v>269</v>
+      </c>
+      <c r="BH10" s="172"/>
+      <c r="BI10" s="69"/>
+      <c r="BJ10" s="167"/>
+      <c r="BK10" s="167"/>
+      <c r="BL10" s="167"/>
+      <c r="BM10" s="167"/>
+      <c r="BN10" s="154" t="s">
+        <v>467</v>
+      </c>
+      <c r="BO10" s="154" t="s">
+        <v>466</v>
+      </c>
+      <c r="BP10" s="165" t="s">
+        <v>301</v>
+      </c>
+      <c r="BQ10" s="165" t="s">
+        <v>268</v>
+      </c>
+      <c r="BR10" s="165" t="s">
+        <v>261</v>
+      </c>
+      <c r="BS10" s="165" t="s">
+        <v>269</v>
+      </c>
+      <c r="BT10" s="166"/>
+      <c r="BU10" s="146" t="s">
+        <v>269</v>
+      </c>
+      <c r="BV10" s="279" t="s">
+        <v>269</v>
+      </c>
+      <c r="BW10" s="279"/>
+      <c r="BX10" s="292" t="s">
+        <v>269</v>
+      </c>
+      <c r="BY10" s="167"/>
+      <c r="BZ10" s="167"/>
+      <c r="CA10" s="161"/>
+      <c r="CB10" s="161"/>
+      <c r="CC10" s="167"/>
+      <c r="CD10" s="167"/>
+      <c r="CE10" s="161"/>
+      <c r="CF10" s="165">
+        <v>1</v>
+      </c>
+      <c r="CG10" s="165">
+        <v>2</v>
+      </c>
+      <c r="CH10" s="165">
+        <v>3</v>
+      </c>
+      <c r="CI10" s="165">
+        <v>4</v>
+      </c>
+      <c r="CJ10" s="161"/>
+      <c r="CK10" s="161"/>
+    </row>
+    <row r="11" spans="1:179" ht="34">
+      <c r="A11" s="174"/>
+      <c r="B11" s="127"/>
+      <c r="C11" s="176"/>
+      <c r="D11" s="167"/>
+      <c r="E11" s="167"/>
+      <c r="F11" s="167"/>
+      <c r="G11" s="173"/>
+      <c r="H11" s="173"/>
+      <c r="I11" s="173"/>
+      <c r="J11" s="173"/>
+      <c r="K11" s="173"/>
+      <c r="L11" s="173"/>
+      <c r="M11" s="173"/>
+      <c r="N11" s="173"/>
+      <c r="O11" s="173"/>
+      <c r="P11" s="141"/>
+      <c r="Q11" s="129" t="s">
+        <v>136</v>
+      </c>
+      <c r="R11" s="129" t="s">
+        <v>137</v>
+      </c>
+      <c r="S11" s="211" t="s">
+        <v>427</v>
+      </c>
+      <c r="T11" s="212"/>
+      <c r="U11" s="212"/>
+      <c r="V11" s="212"/>
+      <c r="W11" s="213"/>
+      <c r="X11" s="173"/>
+      <c r="Y11" s="173"/>
+      <c r="Z11" s="173"/>
+      <c r="AA11" s="173"/>
+      <c r="AB11" s="141"/>
+      <c r="AC11" s="142" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD11" s="142" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE11" s="142" t="s">
+        <v>282</v>
+      </c>
+      <c r="AF11" s="142" t="s">
+        <v>281</v>
+      </c>
+      <c r="AG11" s="214" t="s">
+        <v>427</v>
+      </c>
+      <c r="AH11" s="215"/>
+      <c r="AI11" s="215"/>
+      <c r="AJ11" s="216"/>
+      <c r="AK11" s="214" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL11" s="215"/>
+      <c r="AM11" s="215"/>
+      <c r="AN11" s="216"/>
+      <c r="AO11" s="173"/>
+      <c r="AP11" s="173"/>
+      <c r="AQ11" s="173"/>
+      <c r="AR11" s="173"/>
+      <c r="AS11" s="173"/>
+      <c r="AT11" s="173"/>
+      <c r="AU11" s="173"/>
+      <c r="AV11" s="173"/>
+      <c r="AW11" s="173"/>
+      <c r="AX11" s="173"/>
+      <c r="AY11" s="173"/>
+      <c r="AZ11" s="173"/>
+      <c r="BA11" s="173"/>
+      <c r="BB11" s="173"/>
+      <c r="BC11" s="173"/>
+      <c r="BD11" s="173"/>
+      <c r="BE11" s="173"/>
+      <c r="BF11" s="173"/>
+      <c r="BG11" s="96" t="s">
+        <v>459</v>
+      </c>
+      <c r="BH11" s="173"/>
+      <c r="BI11" s="69"/>
+      <c r="BJ11" s="167"/>
+      <c r="BK11" s="167"/>
+      <c r="BL11" s="167"/>
+      <c r="BM11" s="167"/>
+      <c r="BN11" s="54" t="s">
+        <v>465</v>
+      </c>
+      <c r="BO11" s="54" t="s">
+        <v>445</v>
+      </c>
+      <c r="BP11" s="165"/>
+      <c r="BQ11" s="165"/>
+      <c r="BR11" s="165"/>
+      <c r="BS11" s="165"/>
+      <c r="BT11" s="167"/>
+      <c r="BU11" s="96" t="s">
+        <v>459</v>
+      </c>
+      <c r="BV11" s="280" t="s">
+        <v>456</v>
+      </c>
+      <c r="BW11" s="280"/>
+      <c r="BX11" s="293" t="s">
+        <v>456</v>
+      </c>
+      <c r="BY11" s="167"/>
+      <c r="BZ11" s="167"/>
+      <c r="CA11" s="162"/>
+      <c r="CB11" s="162"/>
+      <c r="CC11" s="167"/>
+      <c r="CD11" s="167"/>
+      <c r="CE11" s="162"/>
+      <c r="CF11" s="165"/>
+      <c r="CG11" s="165"/>
+      <c r="CH11" s="165"/>
+      <c r="CI11" s="165"/>
+      <c r="CJ11" s="162"/>
+      <c r="CK11" s="162"/>
+      <c r="CP11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:179" ht="37" customHeight="1">
+      <c r="A12" s="185" t="s">
+        <v>404</v>
+      </c>
+      <c r="B12" s="127"/>
+      <c r="C12" s="176"/>
+      <c r="D12" s="167"/>
+      <c r="E12" s="167"/>
+      <c r="F12" s="167"/>
+      <c r="G12" s="173"/>
+      <c r="H12" s="173"/>
+      <c r="I12" s="173"/>
+      <c r="J12" s="173"/>
+      <c r="K12" s="173"/>
+      <c r="L12" s="173"/>
+      <c r="M12" s="173"/>
+      <c r="N12" s="173"/>
+      <c r="O12" s="173"/>
+      <c r="P12" s="141"/>
+      <c r="Q12" s="170"/>
+      <c r="R12" s="170"/>
+      <c r="S12" s="165" t="s">
+        <v>141</v>
+      </c>
+      <c r="T12" s="179" t="s">
+        <v>146</v>
+      </c>
+      <c r="U12" s="179" t="s">
+        <v>408</v>
+      </c>
+      <c r="V12" s="179" t="s">
+        <v>409</v>
+      </c>
+      <c r="W12" s="179" t="s">
+        <v>410</v>
+      </c>
+      <c r="X12" s="173"/>
+      <c r="Y12" s="173"/>
+      <c r="Z12" s="173"/>
+      <c r="AA12" s="173"/>
+      <c r="AB12" s="141"/>
+      <c r="AC12" s="170"/>
+      <c r="AD12" s="170"/>
+      <c r="AE12" s="170"/>
+      <c r="AF12" s="170"/>
+      <c r="AG12" s="180" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH12" s="180" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI12" s="180" t="s">
+        <v>400</v>
+      </c>
+      <c r="AJ12" s="180" t="s">
+        <v>401</v>
+      </c>
+      <c r="AK12" s="180" t="s">
+        <v>141</v>
+      </c>
+      <c r="AL12" s="180" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM12" s="180" t="s">
+        <v>143</v>
+      </c>
+      <c r="AN12" s="180" t="s">
+        <v>144</v>
+      </c>
+      <c r="AO12" s="173"/>
+      <c r="AP12" s="173"/>
+      <c r="AQ12" s="173"/>
+      <c r="AR12" s="173"/>
+      <c r="AS12" s="173"/>
+      <c r="AT12" s="173"/>
+      <c r="AU12" s="173"/>
+      <c r="AV12" s="173"/>
+      <c r="AW12" s="173"/>
+      <c r="AX12" s="173"/>
+      <c r="AY12" s="173"/>
+      <c r="AZ12" s="173"/>
+      <c r="BA12" s="173"/>
+      <c r="BB12" s="173"/>
+      <c r="BC12" s="173"/>
+      <c r="BD12" s="173"/>
+      <c r="BE12" s="173"/>
+      <c r="BF12" s="173"/>
+      <c r="BG12" s="168"/>
+      <c r="BH12" s="173"/>
+      <c r="BI12" s="69"/>
+      <c r="BJ12" s="167"/>
+      <c r="BK12" s="167"/>
+      <c r="BL12" s="167"/>
+      <c r="BM12" s="167"/>
+      <c r="BN12" s="168"/>
+      <c r="BO12" s="168"/>
+      <c r="BP12" s="168"/>
+      <c r="BQ12" s="168"/>
+      <c r="BR12" s="160"/>
+      <c r="BS12" s="168"/>
+      <c r="BT12" s="167"/>
+      <c r="BU12" s="134"/>
+      <c r="BV12" s="289" t="s">
+        <v>489</v>
+      </c>
+      <c r="BW12" s="289"/>
+      <c r="BX12" s="168"/>
+      <c r="BY12" s="167"/>
+      <c r="BZ12" s="167"/>
+      <c r="CA12" s="162"/>
+      <c r="CB12" s="162"/>
+      <c r="CC12" s="167"/>
+      <c r="CD12" s="167"/>
+      <c r="CE12" s="162"/>
+      <c r="CF12" s="168"/>
+      <c r="CG12" s="168"/>
+      <c r="CH12" s="168"/>
+      <c r="CI12" s="168"/>
+      <c r="CJ12" s="162"/>
+      <c r="CK12" s="162"/>
+    </row>
+    <row r="13" spans="1:179" ht="47" customHeight="1">
+      <c r="A13" s="186"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="176"/>
+      <c r="D13" s="167"/>
+      <c r="E13" s="167"/>
+      <c r="F13" s="167"/>
+      <c r="G13" s="173"/>
+      <c r="H13" s="173"/>
+      <c r="I13" s="173"/>
+      <c r="J13" s="173"/>
+      <c r="K13" s="173"/>
+      <c r="L13" s="173"/>
+      <c r="M13" s="173"/>
+      <c r="N13" s="173"/>
+      <c r="O13" s="173"/>
+      <c r="P13" s="141"/>
+      <c r="Q13" s="171"/>
+      <c r="R13" s="171"/>
+      <c r="S13" s="165"/>
+      <c r="T13" s="179"/>
+      <c r="U13" s="179"/>
+      <c r="V13" s="179"/>
+      <c r="W13" s="179"/>
+      <c r="X13" s="173"/>
+      <c r="Y13" s="173"/>
+      <c r="Z13" s="173"/>
+      <c r="AA13" s="173"/>
+      <c r="AB13" s="141"/>
+      <c r="AC13" s="171"/>
+      <c r="AD13" s="171"/>
+      <c r="AE13" s="171"/>
+      <c r="AF13" s="171"/>
+      <c r="AG13" s="180"/>
+      <c r="AH13" s="180"/>
+      <c r="AI13" s="180"/>
+      <c r="AJ13" s="180"/>
+      <c r="AK13" s="180"/>
+      <c r="AL13" s="180"/>
+      <c r="AM13" s="180"/>
+      <c r="AN13" s="180"/>
+      <c r="AO13" s="173"/>
+      <c r="AP13" s="173"/>
+      <c r="AQ13" s="173"/>
+      <c r="AR13" s="173"/>
+      <c r="AS13" s="173"/>
+      <c r="AT13" s="173"/>
+      <c r="AU13" s="173"/>
+      <c r="AV13" s="173"/>
+      <c r="AW13" s="173"/>
+      <c r="AX13" s="173"/>
+      <c r="AY13" s="173"/>
+      <c r="AZ13" s="173"/>
+      <c r="BA13" s="173"/>
+      <c r="BB13" s="173"/>
+      <c r="BC13" s="173"/>
+      <c r="BD13" s="173"/>
+      <c r="BE13" s="173"/>
+      <c r="BF13" s="173"/>
+      <c r="BG13" s="169"/>
+      <c r="BH13" s="173"/>
+      <c r="BI13" s="69"/>
+      <c r="BJ13" s="167"/>
+      <c r="BK13" s="167"/>
+      <c r="BL13" s="167"/>
+      <c r="BM13" s="167"/>
+      <c r="BN13" s="169"/>
+      <c r="BO13" s="169"/>
+      <c r="BP13" s="169"/>
+      <c r="BQ13" s="169"/>
+      <c r="BR13" s="158"/>
+      <c r="BS13" s="169"/>
+      <c r="BT13" s="167"/>
+      <c r="BU13" s="134"/>
+      <c r="BV13" s="96" t="s">
+        <v>478</v>
+      </c>
+      <c r="BW13" s="96" t="s">
+        <v>487</v>
+      </c>
+      <c r="BX13" s="169"/>
+      <c r="BY13" s="167"/>
+      <c r="BZ13" s="167"/>
+      <c r="CA13" s="162"/>
+      <c r="CB13" s="162"/>
+      <c r="CC13" s="167"/>
+      <c r="CD13" s="167"/>
+      <c r="CE13" s="162"/>
+      <c r="CF13" s="169"/>
+      <c r="CG13" s="169"/>
+      <c r="CH13" s="169"/>
+      <c r="CI13" s="169"/>
+      <c r="CJ13" s="162"/>
+      <c r="CK13" s="162"/>
+    </row>
+    <row r="14" spans="1:179" ht="51" customHeight="1">
+      <c r="A14" s="174" t="s">
+        <v>477</v>
+      </c>
+      <c r="B14" s="101"/>
+      <c r="C14" s="176"/>
+      <c r="D14" s="167"/>
+      <c r="E14" s="167"/>
+      <c r="F14" s="167"/>
+      <c r="G14" s="173"/>
+      <c r="H14" s="173"/>
+      <c r="I14" s="173"/>
+      <c r="J14" s="173"/>
+      <c r="K14" s="173"/>
+      <c r="L14" s="173"/>
+      <c r="M14" s="173"/>
+      <c r="N14" s="173"/>
+      <c r="O14" s="173"/>
+      <c r="P14" s="141"/>
+      <c r="Q14" s="171"/>
+      <c r="R14" s="171"/>
+      <c r="S14" s="170"/>
+      <c r="T14" s="170"/>
+      <c r="U14" s="170"/>
+      <c r="V14" s="170"/>
+      <c r="W14" s="170"/>
+      <c r="X14" s="173"/>
+      <c r="Y14" s="173"/>
+      <c r="Z14" s="173"/>
+      <c r="AA14" s="173"/>
+      <c r="AB14" s="141"/>
+      <c r="AC14" s="171"/>
+      <c r="AD14" s="171"/>
+      <c r="AE14" s="171"/>
+      <c r="AF14" s="171"/>
+      <c r="AG14" s="170"/>
+      <c r="AH14" s="170"/>
+      <c r="AI14" s="170"/>
+      <c r="AJ14" s="170"/>
+      <c r="AK14" s="170"/>
+      <c r="AL14" s="170"/>
+      <c r="AM14" s="170"/>
+      <c r="AN14" s="170"/>
+      <c r="AO14" s="173"/>
+      <c r="AP14" s="173"/>
+      <c r="AQ14" s="173"/>
+      <c r="AR14" s="173"/>
+      <c r="AS14" s="173"/>
+      <c r="AT14" s="173"/>
+      <c r="AU14" s="173"/>
+      <c r="AV14" s="173"/>
+      <c r="AW14" s="173"/>
+      <c r="AX14" s="173"/>
+      <c r="AY14" s="173"/>
+      <c r="AZ14" s="173"/>
+      <c r="BA14" s="173"/>
+      <c r="BB14" s="173"/>
+      <c r="BC14" s="173"/>
+      <c r="BD14" s="173"/>
+      <c r="BE14" s="173"/>
+      <c r="BF14" s="173"/>
+      <c r="BG14" s="169"/>
+      <c r="BH14" s="173"/>
+      <c r="BI14" s="159"/>
+      <c r="BJ14" s="167"/>
+      <c r="BK14" s="167"/>
+      <c r="BL14" s="167"/>
+      <c r="BM14" s="167"/>
+      <c r="BN14" s="169"/>
+      <c r="BO14" s="169"/>
+      <c r="BP14" s="169"/>
+      <c r="BQ14" s="169"/>
+      <c r="BR14" s="158"/>
+      <c r="BS14" s="169"/>
+      <c r="BT14" s="167"/>
+      <c r="BU14" s="134"/>
+      <c r="BV14" s="134"/>
+      <c r="BW14" s="134"/>
+      <c r="BX14" s="169"/>
+      <c r="BY14" s="167"/>
+      <c r="BZ14" s="167"/>
+      <c r="CA14" s="162"/>
+      <c r="CB14" s="162"/>
+      <c r="CC14" s="167"/>
+      <c r="CD14" s="167"/>
+      <c r="CE14" s="162"/>
+      <c r="CF14" s="169"/>
+      <c r="CG14" s="169"/>
+      <c r="CH14" s="169"/>
+      <c r="CI14" s="169"/>
+      <c r="CJ14" s="162"/>
+      <c r="CK14" s="162"/>
+    </row>
+    <row r="15" spans="1:179" ht="47" customHeight="1">
+      <c r="A15" s="174"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="176"/>
+      <c r="D15" s="167"/>
+      <c r="E15" s="167"/>
+      <c r="F15" s="167"/>
+      <c r="G15" s="173"/>
+      <c r="H15" s="173"/>
+      <c r="I15" s="173"/>
+      <c r="J15" s="173"/>
+      <c r="K15" s="173"/>
+      <c r="L15" s="173"/>
+      <c r="M15" s="173"/>
+      <c r="N15" s="173"/>
+      <c r="O15" s="173"/>
+      <c r="P15" s="141"/>
+      <c r="Q15" s="171"/>
+      <c r="R15" s="171"/>
+      <c r="S15" s="171"/>
+      <c r="T15" s="171"/>
+      <c r="U15" s="171"/>
+      <c r="V15" s="171"/>
+      <c r="W15" s="171"/>
+      <c r="X15" s="173"/>
+      <c r="Y15" s="173"/>
+      <c r="Z15" s="173"/>
+      <c r="AA15" s="173"/>
+      <c r="AB15" s="141"/>
+      <c r="AC15" s="171"/>
+      <c r="AD15" s="171"/>
+      <c r="AE15" s="171"/>
+      <c r="AF15" s="171"/>
+      <c r="AG15" s="171"/>
+      <c r="AH15" s="171"/>
+      <c r="AI15" s="171"/>
+      <c r="AJ15" s="171"/>
+      <c r="AK15" s="171"/>
+      <c r="AL15" s="171"/>
+      <c r="AM15" s="171"/>
+      <c r="AN15" s="171"/>
+      <c r="AO15" s="173"/>
+      <c r="AP15" s="173"/>
+      <c r="AQ15" s="173"/>
+      <c r="AR15" s="173"/>
+      <c r="AS15" s="173"/>
+      <c r="AT15" s="173"/>
+      <c r="AU15" s="173"/>
+      <c r="AV15" s="173"/>
+      <c r="AW15" s="173"/>
+      <c r="AX15" s="173"/>
+      <c r="AY15" s="173"/>
+      <c r="AZ15" s="173"/>
+      <c r="BA15" s="173"/>
+      <c r="BB15" s="173"/>
+      <c r="BC15" s="173"/>
+      <c r="BD15" s="173"/>
+      <c r="BE15" s="173"/>
+      <c r="BF15" s="173"/>
+      <c r="BG15" s="169"/>
+      <c r="BH15" s="173"/>
+      <c r="BI15" s="159"/>
+      <c r="BJ15" s="167"/>
+      <c r="BK15" s="167"/>
+      <c r="BL15" s="167"/>
+      <c r="BM15" s="167"/>
+      <c r="BN15" s="169"/>
+      <c r="BO15" s="169"/>
+      <c r="BP15" s="169"/>
+      <c r="BQ15" s="169"/>
+      <c r="BR15" s="158"/>
+      <c r="BS15" s="169"/>
+      <c r="BT15" s="167"/>
+      <c r="BU15" s="134"/>
+      <c r="BV15" s="134"/>
+      <c r="BW15" s="134"/>
+      <c r="BX15" s="169"/>
+      <c r="BY15" s="167"/>
+      <c r="BZ15" s="167"/>
+      <c r="CA15" s="162"/>
+      <c r="CB15" s="162"/>
+      <c r="CC15" s="167"/>
+      <c r="CD15" s="167"/>
+      <c r="CE15" s="162"/>
+      <c r="CF15" s="169"/>
+      <c r="CG15" s="169"/>
+      <c r="CH15" s="169"/>
+      <c r="CI15" s="169"/>
+      <c r="CJ15" s="162"/>
+      <c r="CK15" s="162"/>
+    </row>
+    <row r="16" spans="1:179" ht="24">
+      <c r="A16" s="127"/>
+      <c r="B16" s="127"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="127"/>
+      <c r="F16" s="127"/>
+      <c r="G16" s="127"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="127"/>
+      <c r="J16" s="127"/>
+      <c r="K16" s="127"/>
+      <c r="L16" s="127"/>
+      <c r="M16" s="127"/>
+      <c r="N16" s="127"/>
+      <c r="O16" s="127"/>
+      <c r="P16" s="127"/>
+      <c r="Q16" s="127"/>
+      <c r="R16" s="127"/>
+      <c r="S16" s="127"/>
+      <c r="T16" s="127"/>
+      <c r="U16" s="127"/>
+      <c r="V16" s="127"/>
+      <c r="W16" s="127"/>
+      <c r="X16" s="127"/>
+      <c r="Y16" s="127"/>
+      <c r="Z16" s="127"/>
+      <c r="AA16" s="127"/>
+      <c r="AB16" s="127"/>
+      <c r="AC16" s="127"/>
+      <c r="AD16" s="127"/>
+      <c r="AE16" s="127"/>
+      <c r="AF16" s="127"/>
+      <c r="AG16" s="127"/>
+      <c r="AH16" s="127"/>
+      <c r="AI16" s="127"/>
+      <c r="AJ16" s="127"/>
+      <c r="AK16" s="127"/>
+      <c r="AL16" s="127"/>
+      <c r="AM16" s="127"/>
+      <c r="AN16" s="127"/>
+      <c r="AO16" s="127"/>
+      <c r="AP16" s="127"/>
+      <c r="AQ16" s="127"/>
+      <c r="AR16" s="127"/>
+      <c r="AS16" s="127"/>
+      <c r="AT16" s="127"/>
+      <c r="AU16" s="127"/>
+      <c r="AV16" s="127"/>
+      <c r="AW16" s="127"/>
+      <c r="AX16" s="127"/>
+      <c r="AY16" s="127"/>
+      <c r="AZ16" s="127"/>
+      <c r="BA16" s="127"/>
+      <c r="BB16" s="127"/>
+      <c r="BC16" s="127"/>
+      <c r="BD16" s="127"/>
+      <c r="BE16" s="127"/>
+      <c r="BF16" s="127"/>
+      <c r="BG16" s="127"/>
+      <c r="BH16" s="127"/>
+      <c r="BI16" s="127"/>
+      <c r="BJ16" s="127"/>
+      <c r="BK16" s="127"/>
+      <c r="BL16" s="127"/>
+      <c r="BM16" s="127"/>
+      <c r="BN16" s="127"/>
+      <c r="BO16" s="127"/>
+      <c r="BP16" s="127"/>
+      <c r="BQ16" s="127"/>
+      <c r="BR16" s="127"/>
+      <c r="BS16" s="127"/>
+      <c r="BT16" s="127"/>
+      <c r="BU16" s="127"/>
+      <c r="BV16" s="127"/>
+      <c r="BW16" s="127"/>
+      <c r="BX16" s="127"/>
+      <c r="BY16" s="127"/>
+      <c r="BZ16" s="127"/>
+      <c r="CA16" s="127"/>
+      <c r="CB16" s="127"/>
+      <c r="CC16" s="127"/>
+      <c r="CD16" s="127"/>
+      <c r="CE16" s="127"/>
+      <c r="CF16" s="127"/>
+      <c r="CG16" s="127"/>
+      <c r="CH16" s="127"/>
+      <c r="CI16" s="127"/>
+      <c r="CJ16" s="127"/>
+      <c r="CK16" s="127"/>
+      <c r="CL16" s="127"/>
+      <c r="CM16" s="127"/>
+      <c r="CN16" s="127"/>
+      <c r="CO16" s="127"/>
+      <c r="CP16" s="127"/>
+      <c r="CQ16" s="127"/>
+      <c r="CR16" s="127"/>
+      <c r="CS16" s="127"/>
+      <c r="CT16" s="127"/>
+      <c r="CU16" s="127"/>
+      <c r="CV16" s="127"/>
+      <c r="CW16" s="127"/>
+      <c r="CX16" s="127"/>
+      <c r="CY16" s="127"/>
+      <c r="CZ16" s="127"/>
+      <c r="DA16" s="127"/>
+      <c r="DB16" s="127"/>
+      <c r="DC16" s="127"/>
+      <c r="DD16" s="127"/>
+      <c r="DE16" s="127"/>
+      <c r="DF16" s="127"/>
+      <c r="DG16" s="127"/>
+      <c r="DH16" s="127"/>
+      <c r="DI16" s="127"/>
+      <c r="DJ16" s="127"/>
+      <c r="DK16" s="127"/>
+      <c r="DL16" s="127"/>
+      <c r="DM16" s="127"/>
+      <c r="DN16" s="127"/>
+      <c r="DO16" s="127"/>
+      <c r="DP16" s="127"/>
+      <c r="DQ16" s="127"/>
+      <c r="DR16" s="127"/>
+      <c r="DS16" s="127"/>
+      <c r="DT16" s="127"/>
+      <c r="DU16" s="127"/>
+      <c r="DV16" s="127"/>
+      <c r="DW16" s="127"/>
+      <c r="DX16" s="127"/>
+      <c r="DY16" s="127"/>
+      <c r="DZ16" s="127"/>
+      <c r="EA16" s="127"/>
+      <c r="EB16" s="127"/>
+      <c r="EC16" s="127"/>
+      <c r="ED16" s="127"/>
+      <c r="EE16" s="127"/>
+      <c r="EF16" s="127"/>
+      <c r="EG16" s="127"/>
+      <c r="EH16" s="127"/>
+      <c r="EI16" s="127"/>
+      <c r="EJ16" s="127"/>
+      <c r="EK16" s="127"/>
+      <c r="EL16" s="127"/>
+      <c r="EM16" s="127"/>
+      <c r="EN16" s="127"/>
+      <c r="EO16" s="127"/>
+      <c r="EP16" s="127"/>
+      <c r="EQ16" s="127"/>
+      <c r="ER16" s="127"/>
+      <c r="ES16" s="127"/>
+      <c r="ET16" s="127"/>
+      <c r="EU16" s="127"/>
+      <c r="EV16" s="127"/>
+      <c r="EW16" s="127"/>
+      <c r="EX16" s="127"/>
+      <c r="EY16" s="127"/>
+      <c r="EZ16" s="127"/>
+      <c r="FA16" s="127"/>
+      <c r="FB16" s="127"/>
+      <c r="FC16" s="127"/>
+      <c r="FD16" s="127"/>
+      <c r="FE16" s="127"/>
+      <c r="FF16" s="127"/>
+      <c r="FG16" s="127"/>
+      <c r="FH16" s="127"/>
+      <c r="FI16" s="127"/>
+      <c r="FJ16" s="127"/>
+      <c r="FK16" s="127"/>
+      <c r="FL16" s="127"/>
+      <c r="FM16" s="127"/>
+      <c r="FN16" s="127"/>
+      <c r="FO16" s="127"/>
+      <c r="FP16" s="127"/>
+      <c r="FQ16" s="127"/>
+      <c r="FR16" s="127"/>
+      <c r="FS16" s="127"/>
+      <c r="FT16" s="127"/>
+      <c r="FU16" s="127"/>
+      <c r="FV16" s="127"/>
+      <c r="FW16" s="127"/>
+    </row>
+    <row r="17" spans="1:89" ht="25">
+      <c r="A17" s="131" t="s">
+        <v>433</v>
+      </c>
+      <c r="C17" s="133" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="133" t="s">
+        <v>435</v>
+      </c>
+      <c r="E17" s="133" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" s="133" t="s">
+        <v>435</v>
+      </c>
+      <c r="G17" s="133" t="s">
+        <v>96</v>
+      </c>
+      <c r="H17" s="133" t="s">
+        <v>91</v>
+      </c>
+      <c r="I17" s="133" t="s">
+        <v>91</v>
+      </c>
+      <c r="J17" s="133" t="s">
+        <v>91</v>
+      </c>
+      <c r="K17" s="133" t="s">
+        <v>91</v>
+      </c>
+      <c r="L17" s="133" t="s">
+        <v>91</v>
+      </c>
+      <c r="M17" s="133" t="s">
+        <v>91</v>
+      </c>
+      <c r="N17" s="133" t="s">
+        <v>91</v>
+      </c>
+      <c r="O17" s="133" t="s">
+        <v>91</v>
+      </c>
+      <c r="P17" s="133"/>
+      <c r="Q17" s="133" t="s">
+        <v>96</v>
+      </c>
+      <c r="R17" s="133" t="s">
+        <v>435</v>
+      </c>
+      <c r="S17" s="133" t="s">
+        <v>141</v>
+      </c>
+      <c r="T17" s="133" t="s">
+        <v>435</v>
+      </c>
+      <c r="U17" s="133" t="s">
+        <v>435</v>
+      </c>
+      <c r="V17" s="133" t="s">
+        <v>90</v>
+      </c>
+      <c r="W17" s="133" t="s">
+        <v>90</v>
+      </c>
+      <c r="X17" s="133" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y17" s="133" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z17" s="133" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA17" s="133" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB17" s="133"/>
+      <c r="AC17" s="133" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD17" s="133" t="s">
+        <v>435</v>
+      </c>
+      <c r="AE17" s="133" t="s">
+        <v>122</v>
+      </c>
+      <c r="AF17" s="133" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG17" s="133" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH17" s="133" t="s">
+        <v>435</v>
+      </c>
+      <c r="AI17" s="133" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ17" s="133" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK17" s="133" t="s">
+        <v>141</v>
+      </c>
+      <c r="AL17" s="133" t="s">
+        <v>435</v>
+      </c>
+      <c r="AM17" s="133" t="s">
+        <v>443</v>
+      </c>
+      <c r="AN17" s="133" t="s">
+        <v>435</v>
+      </c>
+      <c r="AO17" s="133" t="s">
+        <v>435</v>
+      </c>
+      <c r="AP17" s="133" t="s">
+        <v>435</v>
+      </c>
+      <c r="AQ17" s="133" t="s">
+        <v>435</v>
+      </c>
+      <c r="AR17" s="133" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS17" s="133" t="s">
+        <v>90</v>
+      </c>
+      <c r="AT17" s="133" t="s">
+        <v>90</v>
+      </c>
+      <c r="AU17" s="133" t="s">
+        <v>113</v>
+      </c>
+      <c r="AV17" s="133" t="s">
+        <v>113</v>
+      </c>
+      <c r="AW17" s="133" t="s">
+        <v>113</v>
+      </c>
+      <c r="AX17" s="133" t="s">
+        <v>113</v>
+      </c>
+      <c r="AY17" s="133" t="s">
+        <v>113</v>
+      </c>
+      <c r="AZ17" s="133" t="s">
+        <v>97</v>
+      </c>
+      <c r="BA17" s="133" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB17" s="133" t="s">
+        <v>113</v>
+      </c>
+      <c r="BC17" s="133" t="s">
+        <v>454</v>
+      </c>
+      <c r="BD17" s="133" t="s">
+        <v>454</v>
+      </c>
+      <c r="BE17" s="133" t="s">
+        <v>90</v>
+      </c>
+      <c r="BF17" s="133" t="s">
+        <v>91</v>
+      </c>
+      <c r="BG17" s="133" t="s">
+        <v>454</v>
+      </c>
+      <c r="BH17" s="133" t="s">
+        <v>91</v>
+      </c>
+      <c r="BI17" s="147" t="s">
+        <v>458</v>
+      </c>
+      <c r="BJ17" s="133" t="s">
+        <v>90</v>
+      </c>
+      <c r="BK17" s="133" t="s">
+        <v>97</v>
+      </c>
+      <c r="BL17" s="133" t="s">
+        <v>462</v>
+      </c>
+      <c r="BM17" s="133" t="s">
+        <v>91</v>
+      </c>
+      <c r="BN17" s="133" t="s">
+        <v>122</v>
+      </c>
+      <c r="BO17" s="133" t="s">
+        <v>122</v>
+      </c>
+      <c r="BP17" s="133" t="s">
+        <v>479</v>
+      </c>
+      <c r="BQ17" s="133" t="s">
+        <v>469</v>
+      </c>
+      <c r="BR17" s="133" t="s">
+        <v>469</v>
+      </c>
+      <c r="BS17" s="133" t="s">
+        <v>479</v>
+      </c>
+      <c r="BT17" s="133" t="s">
+        <v>469</v>
+      </c>
+      <c r="BU17" s="133" t="s">
+        <v>122</v>
+      </c>
+      <c r="BV17" s="133" t="s">
+        <v>122</v>
+      </c>
+      <c r="BW17" s="133" t="s">
+        <v>122</v>
+      </c>
+      <c r="BX17" s="133" t="s">
+        <v>454</v>
+      </c>
+      <c r="BY17" s="133" t="s">
+        <v>97</v>
+      </c>
+      <c r="BZ17" s="133" t="s">
+        <v>469</v>
+      </c>
+      <c r="CA17" s="133" t="s">
+        <v>475</v>
+      </c>
+      <c r="CB17" s="133" t="s">
+        <v>469</v>
+      </c>
+      <c r="CC17" s="133" t="s">
+        <v>475</v>
+      </c>
+      <c r="CD17" s="133" t="s">
+        <v>122</v>
+      </c>
+      <c r="CE17" s="133" t="s">
+        <v>122</v>
+      </c>
+      <c r="CF17" s="133" t="s">
+        <v>476</v>
+      </c>
+      <c r="CG17" s="133" t="s">
+        <v>476</v>
+      </c>
+      <c r="CH17" s="133" t="s">
+        <v>476</v>
+      </c>
+      <c r="CI17" s="133" t="s">
+        <v>476</v>
+      </c>
+      <c r="CJ17" s="133" t="s">
+        <v>90</v>
+      </c>
+      <c r="CK17" s="133" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="18" spans="1:89" ht="60">
+      <c r="A18" s="131" t="s">
+        <v>434</v>
+      </c>
+      <c r="C18" s="116" t="s">
+        <v>411</v>
+      </c>
+      <c r="D18" s="128" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="116" t="s">
+        <v>101</v>
+      </c>
+      <c r="F18" s="135" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" s="116" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="144" t="s">
+        <v>473</v>
+      </c>
+      <c r="I18" s="144" t="s">
+        <v>473</v>
+      </c>
+      <c r="J18" s="144" t="s">
+        <v>473</v>
+      </c>
+      <c r="K18" s="144" t="s">
+        <v>473</v>
+      </c>
+      <c r="L18" s="139" t="s">
+        <v>438</v>
+      </c>
+      <c r="M18" s="139" t="s">
+        <v>438</v>
+      </c>
+      <c r="N18" s="139" t="s">
+        <v>439</v>
+      </c>
+      <c r="O18" s="139" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="3" spans="1:99">
-      <c r="A3" s="125" t="s">
-        <v>434</v>
-      </c>
-      <c r="B3" s="193"/>
-    </row>
-    <row r="4" spans="1:99">
-      <c r="A4" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="5" spans="1:99">
-      <c r="A5" s="192" t="s">
-        <v>436</v>
-      </c>
-      <c r="B5" s="192"/>
-    </row>
-    <row r="6" spans="1:99" ht="21">
-      <c r="C6" s="147" t="s">
-        <v>264</v>
-      </c>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="147"/>
-      <c r="K6" s="147"/>
-      <c r="L6" s="147"/>
-      <c r="M6" s="147"/>
-      <c r="N6" s="147"/>
-      <c r="O6" s="147"/>
-      <c r="P6" s="147"/>
-      <c r="Q6" s="147"/>
-      <c r="R6" s="147"/>
-      <c r="S6" s="147"/>
-      <c r="T6" s="147"/>
-      <c r="U6" s="147"/>
-      <c r="V6" s="147"/>
-      <c r="W6" s="147"/>
-      <c r="X6" s="147"/>
-      <c r="Y6" s="147"/>
-      <c r="Z6" s="147"/>
-      <c r="AA6" s="147"/>
-      <c r="AB6" s="147"/>
-      <c r="AC6" s="147"/>
-      <c r="AD6" s="147"/>
-      <c r="AE6" s="147"/>
-      <c r="AF6" s="147"/>
-      <c r="AG6" s="147"/>
-      <c r="AH6" s="147"/>
-      <c r="AI6" s="147"/>
-      <c r="AJ6" s="147"/>
-      <c r="AK6" s="147"/>
-      <c r="AL6" s="147"/>
-      <c r="AM6" s="147"/>
-      <c r="AN6" s="147"/>
-      <c r="AO6" s="147"/>
-      <c r="AP6" s="147"/>
-      <c r="AQ6" s="147"/>
-      <c r="AR6" s="147"/>
-      <c r="AS6" s="147"/>
-      <c r="AT6" s="147"/>
-      <c r="AU6" s="147"/>
-      <c r="AV6" s="147"/>
-      <c r="AW6" s="147"/>
-      <c r="AX6" s="147"/>
-      <c r="AY6" s="147"/>
-      <c r="AZ6" s="147"/>
-      <c r="BA6" s="147"/>
-      <c r="BB6" s="147"/>
-      <c r="BC6" s="147"/>
-      <c r="BD6" s="147"/>
-      <c r="BE6" s="147"/>
-      <c r="BF6" s="147"/>
-      <c r="BG6" s="147"/>
-      <c r="BH6" s="147"/>
-      <c r="BI6" s="147"/>
-      <c r="BJ6" s="147"/>
-      <c r="BK6" s="147"/>
-      <c r="BL6" s="147"/>
-      <c r="BM6" s="147"/>
-      <c r="BN6" s="147"/>
-      <c r="BO6" s="147"/>
-      <c r="BP6" s="147"/>
-      <c r="BQ6" s="147"/>
-      <c r="BR6" s="147"/>
-      <c r="BS6" s="147"/>
-      <c r="BT6" s="147"/>
-      <c r="BU6" s="147"/>
-      <c r="BV6" s="147"/>
-      <c r="BW6" s="147"/>
-      <c r="BX6" s="147"/>
-      <c r="BY6" s="147"/>
-      <c r="BZ6" s="147"/>
-      <c r="CA6" s="147"/>
-      <c r="CB6" s="147"/>
-      <c r="CC6" s="147"/>
-      <c r="CD6" s="147"/>
-      <c r="CE6" s="147"/>
-      <c r="CF6" s="147"/>
-      <c r="CG6" s="147"/>
-      <c r="CH6" s="147"/>
-      <c r="CI6" s="147"/>
-      <c r="CJ6" s="147"/>
-    </row>
-    <row r="8" spans="1:99">
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="6"/>
-      <c r="AD8" s="6"/>
-      <c r="AE8" s="6"/>
-      <c r="AF8" s="6"/>
-      <c r="AG8" s="6"/>
-      <c r="AH8" s="6"/>
-      <c r="AI8" s="6"/>
-      <c r="AJ8" s="6"/>
-      <c r="AK8" s="6"/>
-      <c r="AL8" s="6"/>
-      <c r="AM8" s="6"/>
-      <c r="AN8" s="6"/>
-      <c r="AO8" s="6"/>
-      <c r="AP8" s="6"/>
-      <c r="AQ8" s="6"/>
-      <c r="AR8" s="6"/>
-      <c r="AS8" s="6"/>
-      <c r="AT8" s="6"/>
-      <c r="AU8" s="6"/>
-      <c r="AV8" s="6"/>
-      <c r="AW8" s="6"/>
-      <c r="AX8" s="6"/>
-      <c r="AY8" s="6"/>
-    </row>
-    <row r="9" spans="1:99" s="60" customFormat="1" ht="37" customHeight="1">
-      <c r="A9" s="109" t="s">
-        <v>343</v>
-      </c>
-      <c r="B9" s="108"/>
-      <c r="C9" s="209" t="s">
-        <v>289</v>
-      </c>
-      <c r="D9" s="238" t="s">
-        <v>263</v>
-      </c>
-      <c r="E9" s="239"/>
-      <c r="F9" s="239"/>
-      <c r="G9" s="239"/>
-      <c r="H9" s="239"/>
-      <c r="I9" s="239"/>
-      <c r="J9" s="239"/>
-      <c r="K9" s="239"/>
-      <c r="L9" s="239"/>
-      <c r="M9" s="239"/>
-      <c r="N9" s="239"/>
-      <c r="O9" s="239"/>
-      <c r="P9" s="239"/>
-      <c r="Q9" s="239"/>
-      <c r="R9" s="239"/>
-      <c r="S9" s="239"/>
-      <c r="T9" s="239"/>
-      <c r="U9" s="239"/>
-      <c r="V9" s="239"/>
-      <c r="W9" s="239"/>
-      <c r="X9" s="239"/>
-      <c r="Y9" s="239"/>
-      <c r="Z9" s="239"/>
-      <c r="AA9" s="239"/>
-      <c r="AB9" s="239"/>
-      <c r="AC9" s="239"/>
-      <c r="AD9" s="239"/>
-      <c r="AE9" s="239"/>
-      <c r="AF9" s="239"/>
-      <c r="AG9" s="239"/>
-      <c r="AH9" s="239"/>
-      <c r="AI9" s="239"/>
-      <c r="AJ9" s="239"/>
-      <c r="AK9" s="239"/>
-      <c r="AL9" s="239"/>
-      <c r="AM9" s="239"/>
-      <c r="AN9" s="239"/>
-      <c r="AO9" s="239"/>
-      <c r="AP9" s="239"/>
-      <c r="AQ9" s="239"/>
-      <c r="AR9" s="239"/>
-      <c r="AS9" s="238" t="s">
-        <v>258</v>
-      </c>
-      <c r="AT9" s="239"/>
-      <c r="AU9" s="239"/>
-      <c r="AV9" s="239"/>
-      <c r="AW9" s="239"/>
-      <c r="AX9" s="239"/>
-      <c r="AY9" s="239"/>
-      <c r="AZ9" s="240"/>
-      <c r="BA9" s="238" t="s">
-        <v>310</v>
-      </c>
-      <c r="BB9" s="239"/>
-      <c r="BC9" s="239"/>
-      <c r="BD9" s="239"/>
-      <c r="BE9" s="239"/>
-      <c r="BF9" s="239"/>
-      <c r="BG9" s="240"/>
-      <c r="BH9" s="242" t="s">
-        <v>257</v>
-      </c>
-      <c r="BI9" s="242"/>
-      <c r="BJ9" s="242"/>
-      <c r="BK9" s="242"/>
-      <c r="BL9" s="242"/>
-      <c r="BM9" s="242"/>
-      <c r="BN9" s="242"/>
-      <c r="BO9" s="242"/>
-      <c r="BP9" s="242"/>
-      <c r="BQ9" s="242"/>
-      <c r="BR9" s="242"/>
-      <c r="BS9" s="242"/>
-      <c r="BT9" s="242"/>
-      <c r="BU9" s="242"/>
-      <c r="BV9" s="242"/>
-      <c r="BW9" s="242"/>
-      <c r="BX9" s="250" t="s">
-        <v>475</v>
-      </c>
-      <c r="BY9" s="250"/>
-      <c r="BZ9" s="250"/>
-      <c r="CA9" s="250"/>
-      <c r="CB9" s="250"/>
-      <c r="CC9" s="250"/>
-      <c r="CD9" s="250"/>
-      <c r="CE9" s="250"/>
-      <c r="CF9" s="250"/>
-      <c r="CG9" s="250"/>
-      <c r="CH9" s="250"/>
-      <c r="CI9" s="250"/>
-      <c r="CJ9" s="250"/>
-      <c r="CM9" s="141" t="s">
-        <v>31</v>
-      </c>
-      <c r="CN9" s="142"/>
-      <c r="CO9" s="142"/>
-      <c r="CP9" s="142"/>
-      <c r="CQ9" s="142"/>
-      <c r="CR9" s="142"/>
-      <c r="CS9" s="142"/>
-      <c r="CT9" s="142"/>
-      <c r="CU9" s="143"/>
-    </row>
-    <row r="10" spans="1:99" s="59" customFormat="1" ht="104" customHeight="1">
-      <c r="A10" s="194" t="s">
-        <v>344</v>
-      </c>
-      <c r="B10" s="101"/>
-      <c r="C10" s="196"/>
-      <c r="D10" s="208" t="s">
-        <v>286</v>
-      </c>
-      <c r="E10" s="209" t="s">
-        <v>285</v>
-      </c>
-      <c r="F10" s="209" t="s">
-        <v>288</v>
-      </c>
-      <c r="G10" s="210" t="s">
-        <v>262</v>
-      </c>
-      <c r="H10" s="210"/>
-      <c r="I10" s="210"/>
-      <c r="J10" s="210"/>
-      <c r="K10" s="210"/>
-      <c r="L10" s="210"/>
-      <c r="M10" s="210"/>
-      <c r="N10" s="211" t="s">
-        <v>432</v>
-      </c>
-      <c r="O10" s="212"/>
-      <c r="P10" s="212"/>
-      <c r="Q10" s="212"/>
-      <c r="R10" s="212"/>
-      <c r="S10" s="212"/>
-      <c r="T10" s="212"/>
-      <c r="U10" s="212"/>
-      <c r="V10" s="213"/>
-      <c r="W10" s="248" t="s">
-        <v>433</v>
-      </c>
-      <c r="X10" s="210"/>
-      <c r="Y10" s="210"/>
-      <c r="Z10" s="210"/>
-      <c r="AA10" s="210"/>
-      <c r="AB10" s="210"/>
-      <c r="AC10" s="210"/>
-      <c r="AD10" s="210"/>
-      <c r="AE10" s="210"/>
-      <c r="AF10" s="210"/>
-      <c r="AG10" s="210"/>
-      <c r="AH10" s="210"/>
-      <c r="AI10" s="210"/>
-      <c r="AJ10" s="210"/>
-      <c r="AK10" s="210"/>
-      <c r="AL10" s="210"/>
-      <c r="AM10" s="235" t="s">
-        <v>28</v>
-      </c>
-      <c r="AN10" s="212"/>
-      <c r="AO10" s="212"/>
-      <c r="AP10" s="212"/>
-      <c r="AQ10" s="212"/>
-      <c r="AR10" s="212"/>
-      <c r="AS10" s="210" t="s">
-        <v>275</v>
-      </c>
-      <c r="AT10" s="210"/>
-      <c r="AU10" s="210"/>
-      <c r="AV10" s="210"/>
-      <c r="AW10" s="210"/>
-      <c r="AX10" s="235" t="s">
-        <v>276</v>
-      </c>
-      <c r="AY10" s="212"/>
-      <c r="AZ10" s="213"/>
-      <c r="BA10" s="214" t="s">
-        <v>290</v>
-      </c>
-      <c r="BB10" s="214" t="s">
-        <v>387</v>
-      </c>
-      <c r="BC10" s="210" t="s">
-        <v>259</v>
-      </c>
-      <c r="BD10" s="210"/>
-      <c r="BE10" s="210"/>
-      <c r="BF10" s="210"/>
-      <c r="BG10" s="210"/>
-      <c r="BH10" s="209" t="s">
-        <v>353</v>
-      </c>
-      <c r="BI10" s="209" t="s">
-        <v>354</v>
-      </c>
-      <c r="BJ10" s="243" t="s">
-        <v>297</v>
-      </c>
-      <c r="BK10" s="243" t="s">
-        <v>391</v>
-      </c>
-      <c r="BL10" s="210" t="s">
-        <v>266</v>
-      </c>
-      <c r="BM10" s="210"/>
-      <c r="BN10" s="248" t="s">
+      <c r="P18" s="139"/>
+      <c r="Q18" s="116" t="s">
+        <v>411</v>
+      </c>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="116">
+        <v>500</v>
+      </c>
+      <c r="Z18" s="116">
+        <v>500</v>
+      </c>
+      <c r="AA18" s="139" t="s">
+        <v>444</v>
+      </c>
+      <c r="AB18" s="139"/>
+      <c r="AC18" s="116" t="s">
+        <v>411</v>
+      </c>
+      <c r="AD18" s="11"/>
+      <c r="AE18" s="11"/>
+      <c r="AF18" s="11"/>
+      <c r="AG18" s="11"/>
+      <c r="AH18" s="11"/>
+      <c r="AI18" s="11"/>
+      <c r="AJ18" s="11"/>
+      <c r="AK18" s="11"/>
+      <c r="AL18" s="11"/>
+      <c r="AM18" s="11"/>
+      <c r="AN18" s="11"/>
+      <c r="AO18" s="144" t="s">
+        <v>461</v>
+      </c>
+      <c r="AP18" s="144" t="s">
+        <v>461</v>
+      </c>
+      <c r="AQ18" s="144" t="s">
+        <v>461</v>
+      </c>
+      <c r="AR18" s="116">
+        <v>0</v>
+      </c>
+      <c r="AS18" s="116">
+        <v>0</v>
+      </c>
+      <c r="AT18" s="116">
+        <v>0</v>
+      </c>
+      <c r="AU18" s="11"/>
+      <c r="AV18" s="11"/>
+      <c r="AW18" s="11"/>
+      <c r="AX18" s="11"/>
+      <c r="AY18" s="11"/>
+      <c r="AZ18" s="129" t="s">
+        <v>114</v>
+      </c>
+      <c r="BA18" s="11"/>
+      <c r="BB18" s="11"/>
+      <c r="BC18" s="144" t="s">
         <v>474</v>
       </c>
-      <c r="BO10" s="248"/>
-      <c r="BP10" s="248"/>
-      <c r="BQ10" s="248"/>
-      <c r="BR10" s="248"/>
-      <c r="BS10" s="248"/>
-      <c r="BT10" s="248"/>
-      <c r="BU10" s="248"/>
-      <c r="BV10" s="235" t="s">
-        <v>356</v>
-      </c>
-      <c r="BW10" s="213"/>
-      <c r="BX10" s="209" t="s">
-        <v>137</v>
-      </c>
-      <c r="BY10" s="209" t="s">
-        <v>283</v>
-      </c>
-      <c r="BZ10" s="211" t="s">
-        <v>306</v>
-      </c>
-      <c r="CA10" s="251"/>
-      <c r="CB10" s="209" t="s">
-        <v>28</v>
-      </c>
-      <c r="CC10" s="209" t="s">
-        <v>386</v>
-      </c>
-      <c r="CD10" s="211" t="s">
-        <v>305</v>
-      </c>
-      <c r="CE10" s="255"/>
-      <c r="CF10" s="255"/>
-      <c r="CG10" s="255"/>
-      <c r="CH10" s="255"/>
-      <c r="CI10" s="248" t="s">
-        <v>307</v>
-      </c>
-      <c r="CJ10" s="248"/>
-      <c r="CM10" s="59" t="s">
+      <c r="BD18" s="144" t="s">
+        <v>474</v>
+      </c>
+      <c r="BE18" s="116">
+        <v>7</v>
+      </c>
+      <c r="BF18" s="144" t="s">
+        <v>486</v>
+      </c>
+      <c r="BG18" s="144" t="s">
+        <v>474</v>
+      </c>
+      <c r="BH18" s="144" t="s">
+        <v>473</v>
+      </c>
+      <c r="BI18" s="144" t="s">
+        <v>474</v>
+      </c>
+      <c r="BJ18" s="116">
+        <v>100</v>
+      </c>
+      <c r="BK18" s="136" t="s">
+        <v>107</v>
+      </c>
+      <c r="BL18" s="116" t="s">
+        <v>99</v>
+      </c>
+      <c r="BM18" s="139" t="s">
+        <v>464</v>
+      </c>
+      <c r="BN18" s="116" t="s">
+        <v>411</v>
+      </c>
+      <c r="BO18" s="116" t="s">
+        <v>411</v>
+      </c>
+      <c r="BP18" s="157" t="s">
+        <v>108</v>
+      </c>
+      <c r="BQ18" s="144" t="s">
+        <v>473</v>
+      </c>
+      <c r="BR18" s="144" t="s">
+        <v>473</v>
+      </c>
+      <c r="BS18" s="157" t="s">
+        <v>109</v>
+      </c>
+      <c r="BT18" s="144" t="s">
+        <v>473</v>
+      </c>
+      <c r="BU18" s="144" t="s">
+        <v>474</v>
+      </c>
+      <c r="BV18" s="144" t="s">
+        <v>474</v>
+      </c>
+      <c r="BW18" s="144" t="s">
+        <v>474</v>
+      </c>
+      <c r="BX18" s="144" t="s">
+        <v>474</v>
+      </c>
+      <c r="BY18" s="157" t="s">
+        <v>129</v>
+      </c>
+      <c r="BZ18" s="139" t="s">
+        <v>470</v>
+      </c>
+      <c r="CA18" s="144" t="s">
+        <v>474</v>
+      </c>
+      <c r="CB18" s="144" t="s">
+        <v>473</v>
+      </c>
+      <c r="CC18" s="144" t="s">
+        <v>474</v>
+      </c>
+      <c r="CD18" s="116" t="b">
+        <v>1</v>
+      </c>
+      <c r="CE18" s="116" t="b">
+        <v>1</v>
+      </c>
+      <c r="CF18" s="144" t="s">
+        <v>461</v>
+      </c>
+      <c r="CG18" s="144" t="s">
+        <v>461</v>
+      </c>
+      <c r="CH18" s="144" t="s">
+        <v>461</v>
+      </c>
+      <c r="CI18" s="144" t="s">
+        <v>461</v>
+      </c>
+      <c r="CJ18" s="116">
+        <v>0</v>
+      </c>
+      <c r="CK18" s="144" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="19" spans="1:89" ht="34">
+      <c r="A19" s="131" t="s">
+        <v>219</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="129" t="s">
+        <v>437</v>
+      </c>
+      <c r="S19" s="144" t="s">
+        <v>244</v>
+      </c>
+      <c r="T19" s="129" t="s">
+        <v>245</v>
+      </c>
+      <c r="U19" s="129" t="s">
+        <v>246</v>
+      </c>
+      <c r="V19" s="68">
+        <v>4</v>
+      </c>
+      <c r="W19" s="68">
+        <v>10</v>
+      </c>
+      <c r="X19" s="139" t="s">
+        <v>441</v>
+      </c>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="11"/>
+      <c r="AC19" s="11"/>
+      <c r="AD19" s="129" t="s">
+        <v>150</v>
+      </c>
+      <c r="AE19" s="116" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="116" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="144" t="s">
+        <v>159</v>
+      </c>
+      <c r="AH19" s="129" t="s">
+        <v>160</v>
+      </c>
+      <c r="AI19" s="116">
+        <v>26</v>
+      </c>
+      <c r="AJ19" s="116">
+        <v>12</v>
+      </c>
+      <c r="AK19" s="144" t="s">
+        <v>158</v>
+      </c>
+      <c r="AL19" s="129" t="s">
+        <v>150</v>
+      </c>
+      <c r="AM19" s="143" t="s">
+        <v>442</v>
+      </c>
+      <c r="AN19" s="129" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO19" s="11"/>
+      <c r="AP19" s="11"/>
+      <c r="AQ19" s="11"/>
+      <c r="AR19" s="11"/>
+      <c r="AS19" s="11"/>
+      <c r="AT19" s="11"/>
+      <c r="AU19" s="11"/>
+      <c r="AV19" s="11"/>
+      <c r="AW19" s="11"/>
+      <c r="AX19" s="11"/>
+      <c r="AY19" s="11"/>
+      <c r="AZ19" s="11"/>
+      <c r="BA19" s="11"/>
+      <c r="BB19" s="11"/>
+      <c r="BC19" s="116" t="s">
+        <v>455</v>
+      </c>
+      <c r="BD19" s="116" t="s">
+        <v>455</v>
+      </c>
+      <c r="BE19" s="11"/>
+      <c r="BF19" s="11"/>
+      <c r="BG19" s="116" t="s">
+        <v>455</v>
+      </c>
+      <c r="BH19" s="11"/>
+      <c r="BI19" s="11"/>
+      <c r="BJ19" s="11"/>
+      <c r="BK19" s="11"/>
+      <c r="BL19" s="11"/>
+      <c r="BM19" s="11"/>
+      <c r="BN19" s="11"/>
+      <c r="BO19" s="11"/>
+      <c r="BP19" s="11"/>
+      <c r="BQ19" s="11"/>
+      <c r="BR19" s="11"/>
+      <c r="BS19" s="11"/>
+      <c r="BT19" s="116" t="s">
+        <v>421</v>
+      </c>
+      <c r="BU19" s="116" t="s">
+        <v>411</v>
+      </c>
+      <c r="BV19" s="116" t="s">
+        <v>411</v>
+      </c>
+      <c r="BW19" s="116" t="s">
+        <v>411</v>
+      </c>
+      <c r="BX19" s="68" t="s">
+        <v>412</v>
+      </c>
+      <c r="BY19" s="11"/>
+      <c r="BZ19" s="11"/>
+      <c r="CA19" s="11"/>
+      <c r="CB19" s="11"/>
+      <c r="CC19" s="11"/>
+      <c r="CD19" s="11"/>
+      <c r="CE19" s="11"/>
+      <c r="CF19" s="11"/>
+      <c r="CG19" s="11"/>
+      <c r="CH19" s="11"/>
+      <c r="CI19" s="11"/>
+      <c r="CJ19" s="11"/>
+      <c r="CK19" s="11"/>
+    </row>
+    <row r="20" spans="1:89" ht="24">
+      <c r="A20" s="132"/>
+      <c r="C20" s="130"/>
+      <c r="G20" s="130"/>
+      <c r="AH20" s="58"/>
+      <c r="AI20" s="58"/>
+      <c r="BN20" s="130"/>
+      <c r="BO20" s="130"/>
+      <c r="BP20" s="130"/>
+      <c r="BQ20" s="130"/>
+      <c r="BR20" s="130"/>
+      <c r="BS20" s="130"/>
+      <c r="BT20" s="130"/>
+      <c r="BU20" s="130"/>
+      <c r="BV20" s="130"/>
+      <c r="BW20" s="130"/>
+      <c r="BX20" s="130"/>
+    </row>
+    <row r="21" spans="1:89" ht="36" customHeight="1">
+      <c r="C21" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="11" spans="1:99" ht="23" customHeight="1">
-      <c r="A11" s="220" t="s">
-        <v>373</v>
-      </c>
-      <c r="B11" s="101"/>
-      <c r="C11" s="197"/>
-      <c r="D11" s="206"/>
-      <c r="E11" s="206"/>
-      <c r="F11" s="206"/>
-      <c r="G11" s="216" t="s">
-        <v>375</v>
-      </c>
-      <c r="H11" s="216" t="s">
-        <v>267</v>
-      </c>
-      <c r="I11" s="216" t="s">
-        <v>268</v>
-      </c>
-      <c r="J11" s="216" t="s">
-        <v>261</v>
-      </c>
-      <c r="K11" s="216" t="s">
-        <v>269</v>
-      </c>
-      <c r="L11" s="216" t="s">
-        <v>284</v>
-      </c>
-      <c r="M11" s="216" t="s">
-        <v>283</v>
-      </c>
-      <c r="N11" s="216" t="s">
-        <v>435</v>
-      </c>
-      <c r="O11" s="216" t="s">
-        <v>395</v>
-      </c>
-      <c r="P11" s="189" t="s">
-        <v>451</v>
-      </c>
-      <c r="Q11" s="190"/>
-      <c r="R11" s="190"/>
-      <c r="S11" s="190"/>
-      <c r="T11" s="190"/>
-      <c r="U11" s="190"/>
-      <c r="V11" s="191"/>
-      <c r="W11" s="216" t="s">
-        <v>379</v>
-      </c>
-      <c r="X11" s="216" t="s">
-        <v>279</v>
-      </c>
-      <c r="Y11" s="216" t="s">
-        <v>280</v>
-      </c>
-      <c r="Z11" s="216" t="s">
-        <v>399</v>
-      </c>
-      <c r="AA11" s="227" t="s">
-        <v>449</v>
-      </c>
-      <c r="AB11" s="227"/>
-      <c r="AC11" s="227"/>
-      <c r="AD11" s="227"/>
-      <c r="AE11" s="227"/>
-      <c r="AF11" s="227"/>
-      <c r="AG11" s="227"/>
-      <c r="AH11" s="227"/>
-      <c r="AI11" s="227"/>
-      <c r="AJ11" s="227"/>
-      <c r="AK11" s="227"/>
-      <c r="AL11" s="227"/>
-      <c r="AM11" s="218" t="s">
+      <c r="D21" t="s">
+        <v>414</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>429</v>
+      </c>
+      <c r="AH21" s="58"/>
+      <c r="AI21" s="58"/>
+      <c r="AJ21" s="57"/>
+      <c r="AK21" s="57"/>
+      <c r="AL21" s="57"/>
+      <c r="AM21" s="57"/>
+      <c r="AV21" s="145" t="s">
         <v>453</v>
       </c>
-      <c r="AN11" s="218" t="s">
-        <v>454</v>
-      </c>
-      <c r="AO11" s="218" t="s">
-        <v>455</v>
-      </c>
-      <c r="AP11" s="218" t="s">
-        <v>456</v>
-      </c>
-      <c r="AQ11" s="218" t="s">
-        <v>457</v>
-      </c>
-      <c r="AR11" s="218" t="s">
-        <v>458</v>
-      </c>
-      <c r="AS11" s="216" t="s">
-        <v>258</v>
-      </c>
-      <c r="AT11" s="216" t="s">
-        <v>274</v>
-      </c>
-      <c r="AU11" s="216" t="s">
-        <v>277</v>
-      </c>
-      <c r="AV11" s="216" t="s">
-        <v>261</v>
-      </c>
-      <c r="AW11" s="216" t="s">
-        <v>273</v>
-      </c>
-      <c r="AX11" s="216" t="s">
-        <v>272</v>
-      </c>
-      <c r="AY11" s="216" t="s">
-        <v>44</v>
-      </c>
-      <c r="AZ11" s="216" t="s">
-        <v>273</v>
-      </c>
-      <c r="BA11" s="236" t="s">
-        <v>269</v>
-      </c>
-      <c r="BB11" s="236" t="s">
-        <v>269</v>
-      </c>
-      <c r="BC11" s="216" t="s">
-        <v>270</v>
-      </c>
-      <c r="BD11" s="216" t="s">
-        <v>268</v>
-      </c>
-      <c r="BE11" s="216" t="s">
-        <v>314</v>
-      </c>
-      <c r="BF11" s="216" t="s">
-        <v>313</v>
-      </c>
-      <c r="BG11" s="216" t="s">
-        <v>312</v>
-      </c>
-      <c r="BH11" s="206"/>
-      <c r="BI11" s="206"/>
-      <c r="BJ11" s="206"/>
-      <c r="BK11" s="206"/>
-      <c r="BL11" s="245" t="s">
-        <v>356</v>
-      </c>
-      <c r="BM11" s="245" t="s">
-        <v>1</v>
-      </c>
-      <c r="BN11" s="265" t="s">
-        <v>388</v>
-      </c>
-      <c r="BO11" s="266"/>
-      <c r="BP11" s="266"/>
-      <c r="BQ11" s="267"/>
-      <c r="BR11" s="271" t="s">
-        <v>422</v>
-      </c>
-      <c r="BS11" s="273" t="s">
-        <v>425</v>
-      </c>
-      <c r="BT11" s="274"/>
-      <c r="BU11" s="216" t="s">
-        <v>403</v>
-      </c>
-      <c r="BV11" s="216" t="s">
-        <v>28</v>
-      </c>
-      <c r="BW11" s="216" t="s">
-        <v>403</v>
-      </c>
-      <c r="BX11" s="206"/>
-      <c r="BY11" s="206"/>
-      <c r="BZ11" s="218" t="s">
-        <v>478</v>
-      </c>
-      <c r="CA11" s="218" t="s">
-        <v>479</v>
-      </c>
-      <c r="CB11" s="206"/>
-      <c r="CC11" s="206"/>
-      <c r="CD11" s="218" t="s">
-        <v>384</v>
-      </c>
-      <c r="CE11" s="218" t="s">
-        <v>385</v>
-      </c>
-      <c r="CF11" s="218"/>
-      <c r="CG11" s="218"/>
-      <c r="CH11" s="218"/>
-      <c r="CI11" s="218" t="s">
-        <v>308</v>
-      </c>
-      <c r="CJ11" s="218" t="s">
-        <v>309</v>
-      </c>
-      <c r="CM11" t="s">
-        <v>136</v>
-      </c>
-      <c r="CN11" t="s">
-        <v>137</v>
-      </c>
-      <c r="CO11" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="12" spans="1:99" ht="47" customHeight="1">
-      <c r="A12" s="221"/>
-      <c r="B12" s="101"/>
-      <c r="C12" s="197"/>
-      <c r="D12" s="207"/>
-      <c r="E12" s="207"/>
-      <c r="F12" s="207"/>
-      <c r="G12" s="217"/>
-      <c r="H12" s="217"/>
-      <c r="I12" s="217"/>
-      <c r="J12" s="217"/>
-      <c r="K12" s="217"/>
-      <c r="L12" s="217"/>
-      <c r="M12" s="217"/>
-      <c r="N12" s="217"/>
-      <c r="O12" s="217"/>
-      <c r="P12" s="127" t="s">
-        <v>452</v>
-      </c>
-      <c r="Q12" s="128"/>
-      <c r="R12" s="128"/>
-      <c r="S12" s="128"/>
-      <c r="T12" s="128"/>
-      <c r="U12" s="128"/>
-      <c r="V12" s="129"/>
-      <c r="W12" s="217"/>
-      <c r="X12" s="217"/>
-      <c r="Y12" s="217"/>
-      <c r="Z12" s="217"/>
-      <c r="AA12" s="126" t="s">
-        <v>450</v>
-      </c>
-      <c r="AB12" s="126"/>
-      <c r="AC12" s="126"/>
-      <c r="AD12" s="126"/>
-      <c r="AE12" s="126"/>
-      <c r="AF12" s="126"/>
-      <c r="AG12" s="126"/>
-      <c r="AH12" s="126"/>
-      <c r="AI12" s="126"/>
-      <c r="AJ12" s="126"/>
-      <c r="AK12" s="126"/>
-      <c r="AL12" s="126"/>
-      <c r="AM12" s="218"/>
-      <c r="AN12" s="218"/>
-      <c r="AO12" s="218"/>
-      <c r="AP12" s="218"/>
-      <c r="AQ12" s="218"/>
-      <c r="AR12" s="218"/>
-      <c r="AS12" s="217"/>
-      <c r="AT12" s="217"/>
-      <c r="AU12" s="217"/>
-      <c r="AV12" s="217"/>
-      <c r="AW12" s="217"/>
-      <c r="AX12" s="217"/>
-      <c r="AY12" s="217"/>
-      <c r="AZ12" s="217"/>
-      <c r="BA12" s="96" t="s">
-        <v>462</v>
-      </c>
-      <c r="BB12" s="96" t="s">
+      <c r="BI21" s="151" t="s">
+        <v>460</v>
+      </c>
+      <c r="BL21" s="151" t="s">
         <v>463</v>
       </c>
-      <c r="BC12" s="217"/>
-      <c r="BD12" s="217"/>
-      <c r="BE12" s="217"/>
-      <c r="BF12" s="217"/>
-      <c r="BG12" s="217"/>
-      <c r="BH12" s="207"/>
-      <c r="BI12" s="207"/>
-      <c r="BJ12" s="207"/>
-      <c r="BK12" s="207"/>
-      <c r="BL12" s="246"/>
-      <c r="BM12" s="246"/>
-      <c r="BN12" s="268"/>
-      <c r="BO12" s="269"/>
-      <c r="BP12" s="269"/>
-      <c r="BQ12" s="270"/>
-      <c r="BR12" s="272"/>
-      <c r="BS12" s="275"/>
-      <c r="BT12" s="276"/>
-      <c r="BU12" s="217"/>
-      <c r="BV12" s="217"/>
-      <c r="BW12" s="217"/>
-      <c r="BX12" s="207"/>
-      <c r="BY12" s="207"/>
-      <c r="BZ12" s="218"/>
-      <c r="CA12" s="218"/>
-      <c r="CB12" s="207"/>
-      <c r="CC12" s="207"/>
-      <c r="CD12" s="218"/>
-      <c r="CE12" s="218"/>
-      <c r="CF12" s="218"/>
-      <c r="CG12" s="218"/>
-      <c r="CH12" s="218"/>
-      <c r="CI12" s="218"/>
-      <c r="CJ12" s="218"/>
-    </row>
-    <row r="13" spans="1:99" ht="32" customHeight="1">
-      <c r="A13" s="195" t="s">
-        <v>374</v>
-      </c>
-      <c r="B13" s="198"/>
-      <c r="C13" s="197"/>
-      <c r="D13" s="207"/>
-      <c r="E13" s="207"/>
-      <c r="F13" s="207"/>
-      <c r="G13" s="225"/>
-      <c r="H13" s="225"/>
-      <c r="I13" s="225"/>
-      <c r="J13" s="225"/>
-      <c r="K13" s="225"/>
-      <c r="L13" s="225"/>
-      <c r="M13" s="225"/>
-      <c r="N13" s="225"/>
-      <c r="O13" s="225"/>
-      <c r="P13" s="189" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q13" s="190"/>
-      <c r="R13" s="190"/>
-      <c r="S13" s="190"/>
-      <c r="T13" s="190"/>
-      <c r="U13" s="190"/>
-      <c r="V13" s="191"/>
-      <c r="W13" s="225"/>
-      <c r="X13" s="225"/>
-      <c r="Y13" s="225"/>
-      <c r="Z13" s="225"/>
-      <c r="AA13" s="227" t="s">
-        <v>263</v>
-      </c>
-      <c r="AB13" s="227"/>
-      <c r="AC13" s="227"/>
-      <c r="AD13" s="227"/>
-      <c r="AE13" s="227"/>
-      <c r="AF13" s="227"/>
-      <c r="AG13" s="227"/>
-      <c r="AH13" s="227"/>
-      <c r="AI13" s="227"/>
-      <c r="AJ13" s="227"/>
-      <c r="AK13" s="227"/>
-      <c r="AL13" s="227"/>
-      <c r="AM13" s="225"/>
-      <c r="AN13" s="225"/>
-      <c r="AO13" s="225"/>
-      <c r="AP13" s="225"/>
-      <c r="AQ13" s="225"/>
-      <c r="AR13" s="225"/>
-      <c r="AS13" s="225"/>
-      <c r="AT13" s="225"/>
-      <c r="AU13" s="225"/>
-      <c r="AV13" s="225"/>
-      <c r="AW13" s="225"/>
-      <c r="AX13" s="225"/>
-      <c r="AY13" s="225"/>
-      <c r="AZ13" s="225"/>
-      <c r="BA13" s="225"/>
-      <c r="BB13" s="225"/>
-      <c r="BC13" s="225"/>
-      <c r="BD13" s="225"/>
-      <c r="BE13" s="236" t="s">
-        <v>269</v>
-      </c>
-      <c r="BF13" s="225"/>
-      <c r="BG13" s="69"/>
-      <c r="BH13" s="207"/>
-      <c r="BI13" s="207"/>
-      <c r="BJ13" s="207"/>
-      <c r="BK13" s="207"/>
-      <c r="BL13" s="247" t="s">
-        <v>473</v>
-      </c>
-      <c r="BM13" s="247" t="s">
-        <v>472</v>
-      </c>
-      <c r="BN13" s="218" t="s">
-        <v>301</v>
-      </c>
-      <c r="BO13" s="218" t="s">
-        <v>268</v>
-      </c>
-      <c r="BP13" s="218" t="s">
-        <v>261</v>
-      </c>
-      <c r="BQ13" s="218" t="s">
-        <v>269</v>
-      </c>
-      <c r="BR13" s="206"/>
-      <c r="BS13" s="277" t="s">
+    </row>
+    <row r="22" spans="1:89">
+      <c r="C22" t="s">
+        <v>220</v>
+      </c>
+      <c r="D22" t="s">
+        <v>415</v>
+      </c>
+      <c r="AG22" s="57"/>
+      <c r="AH22" s="57"/>
+      <c r="AI22" s="57"/>
+      <c r="AJ22" s="57"/>
+      <c r="AK22" s="57"/>
+      <c r="AL22" s="57"/>
+      <c r="AM22" s="57"/>
+    </row>
+    <row r="23" spans="1:89">
+      <c r="AG23" s="58"/>
+      <c r="AH23" s="58"/>
+      <c r="AI23" s="58"/>
+      <c r="AJ23" s="58"/>
+      <c r="AK23" s="58"/>
+      <c r="AL23" s="58"/>
+      <c r="AM23" s="58"/>
+    </row>
+    <row r="24" spans="1:89" ht="44" customHeight="1">
+      <c r="BN24" t="s">
+        <v>413</v>
+      </c>
+      <c r="BP24" s="210" t="s">
+        <v>424</v>
+      </c>
+      <c r="BQ24" s="210"/>
+      <c r="BR24" s="210"/>
+      <c r="BS24" s="210"/>
+    </row>
+    <row r="25" spans="1:89">
+      <c r="BO25" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="28" spans="1:89">
+      <c r="O28" t="s">
         <v>428</v>
       </c>
-      <c r="BT13" s="216" t="s">
-        <v>426</v>
-      </c>
-      <c r="BU13" s="236" t="s">
-        <v>269</v>
-      </c>
-      <c r="BV13" s="253"/>
-      <c r="BW13" s="253"/>
-      <c r="BX13" s="207"/>
-      <c r="BY13" s="207"/>
-      <c r="BZ13" s="253"/>
-      <c r="CA13" s="253"/>
-      <c r="CB13" s="207"/>
-      <c r="CC13" s="207"/>
-      <c r="CD13" s="253"/>
-      <c r="CE13" s="218">
-        <v>1</v>
-      </c>
-      <c r="CF13" s="218">
-        <v>2</v>
-      </c>
-      <c r="CG13" s="218">
-        <v>3</v>
-      </c>
-      <c r="CH13" s="218">
-        <v>4</v>
-      </c>
-      <c r="CI13" s="253"/>
-      <c r="CJ13" s="253"/>
-    </row>
-    <row r="14" spans="1:99" ht="34">
-      <c r="A14" s="195"/>
-      <c r="B14" s="198"/>
-      <c r="C14" s="197"/>
-      <c r="D14" s="207"/>
-      <c r="E14" s="207"/>
-      <c r="F14" s="207"/>
-      <c r="G14" s="226"/>
-      <c r="H14" s="226"/>
-      <c r="I14" s="226"/>
-      <c r="J14" s="226"/>
-      <c r="K14" s="226"/>
-      <c r="L14" s="226"/>
-      <c r="M14" s="226"/>
-      <c r="N14" s="226"/>
-      <c r="O14" s="226"/>
-      <c r="P14" s="200" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q14" s="200" t="s">
-        <v>137</v>
-      </c>
-      <c r="R14" s="215" t="s">
-        <v>429</v>
-      </c>
-      <c r="S14" s="222"/>
-      <c r="T14" s="222"/>
-      <c r="U14" s="222"/>
-      <c r="V14" s="219"/>
-      <c r="W14" s="226"/>
-      <c r="X14" s="226"/>
-      <c r="Y14" s="226"/>
-      <c r="Z14" s="226"/>
-      <c r="AA14" s="228" t="s">
-        <v>136</v>
-      </c>
-      <c r="AB14" s="228" t="s">
-        <v>137</v>
-      </c>
-      <c r="AC14" s="228" t="s">
-        <v>282</v>
-      </c>
-      <c r="AD14" s="228" t="s">
-        <v>281</v>
-      </c>
-      <c r="AE14" s="229" t="s">
-        <v>429</v>
-      </c>
-      <c r="AF14" s="230"/>
-      <c r="AG14" s="230"/>
-      <c r="AH14" s="231"/>
-      <c r="AI14" s="229" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ14" s="230"/>
-      <c r="AK14" s="230"/>
-      <c r="AL14" s="231"/>
-      <c r="AM14" s="226"/>
-      <c r="AN14" s="226"/>
-      <c r="AO14" s="226"/>
-      <c r="AP14" s="226"/>
-      <c r="AQ14" s="226"/>
-      <c r="AR14" s="226"/>
-      <c r="AS14" s="226"/>
-      <c r="AT14" s="226"/>
-      <c r="AU14" s="226"/>
-      <c r="AV14" s="226"/>
-      <c r="AW14" s="226"/>
-      <c r="AX14" s="226"/>
-      <c r="AY14" s="226"/>
-      <c r="AZ14" s="226"/>
-      <c r="BA14" s="226"/>
-      <c r="BB14" s="226"/>
-      <c r="BC14" s="226"/>
-      <c r="BD14" s="226"/>
-      <c r="BE14" s="96" t="s">
-        <v>465</v>
-      </c>
-      <c r="BF14" s="226"/>
-      <c r="BG14" s="69"/>
-      <c r="BH14" s="207"/>
-      <c r="BI14" s="207"/>
-      <c r="BJ14" s="207"/>
-      <c r="BK14" s="207"/>
-      <c r="BL14" s="54" t="s">
-        <v>471</v>
-      </c>
-      <c r="BM14" s="54" t="s">
-        <v>450</v>
-      </c>
-      <c r="BN14" s="218"/>
-      <c r="BO14" s="218"/>
-      <c r="BP14" s="218"/>
-      <c r="BQ14" s="218"/>
-      <c r="BR14" s="207"/>
-      <c r="BS14" s="278"/>
-      <c r="BT14" s="217"/>
-      <c r="BU14" s="96" t="s">
-        <v>462</v>
-      </c>
-      <c r="BV14" s="254"/>
-      <c r="BW14" s="254"/>
-      <c r="BX14" s="207"/>
-      <c r="BY14" s="207"/>
-      <c r="BZ14" s="254"/>
-      <c r="CA14" s="254"/>
-      <c r="CB14" s="207"/>
-      <c r="CC14" s="207"/>
-      <c r="CD14" s="254"/>
-      <c r="CE14" s="218"/>
-      <c r="CF14" s="218"/>
-      <c r="CG14" s="218"/>
-      <c r="CH14" s="218"/>
-      <c r="CI14" s="254"/>
-      <c r="CJ14" s="254"/>
-      <c r="CO14" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="15" spans="1:99" ht="24">
-      <c r="A15" s="220" t="s">
-        <v>404</v>
-      </c>
-      <c r="B15" s="198"/>
-      <c r="C15" s="197"/>
-      <c r="D15" s="207"/>
-      <c r="E15" s="207"/>
-      <c r="F15" s="207"/>
-      <c r="G15" s="226"/>
-      <c r="H15" s="226"/>
-      <c r="I15" s="226"/>
-      <c r="J15" s="226"/>
-      <c r="K15" s="226"/>
-      <c r="L15" s="226"/>
-      <c r="M15" s="226"/>
-      <c r="N15" s="226"/>
-      <c r="O15" s="226"/>
-      <c r="P15" s="259"/>
-      <c r="Q15" s="259"/>
-      <c r="R15" s="218" t="s">
-        <v>141</v>
-      </c>
-      <c r="S15" s="249" t="s">
-        <v>146</v>
-      </c>
-      <c r="T15" s="249" t="s">
-        <v>408</v>
-      </c>
-      <c r="U15" s="249" t="s">
-        <v>409</v>
-      </c>
-      <c r="V15" s="249" t="s">
-        <v>410</v>
-      </c>
-      <c r="W15" s="226"/>
-      <c r="X15" s="226"/>
-      <c r="Y15" s="226"/>
-      <c r="Z15" s="226"/>
-      <c r="AA15" s="259"/>
-      <c r="AB15" s="259"/>
-      <c r="AC15" s="259"/>
-      <c r="AD15" s="259"/>
-      <c r="AE15" s="244" t="s">
-        <v>141</v>
-      </c>
-      <c r="AF15" s="244" t="s">
-        <v>146</v>
-      </c>
-      <c r="AG15" s="244" t="s">
-        <v>400</v>
-      </c>
-      <c r="AH15" s="244" t="s">
-        <v>401</v>
-      </c>
-      <c r="AI15" s="244" t="s">
-        <v>141</v>
-      </c>
-      <c r="AJ15" s="244" t="s">
-        <v>142</v>
-      </c>
-      <c r="AK15" s="244" t="s">
-        <v>143</v>
-      </c>
-      <c r="AL15" s="244" t="s">
-        <v>144</v>
-      </c>
-      <c r="AM15" s="226"/>
-      <c r="AN15" s="226"/>
-      <c r="AO15" s="226"/>
-      <c r="AP15" s="226"/>
-      <c r="AQ15" s="226"/>
-      <c r="AR15" s="226"/>
-      <c r="AS15" s="226"/>
-      <c r="AT15" s="226"/>
-      <c r="AU15" s="226"/>
-      <c r="AV15" s="226"/>
-      <c r="AW15" s="226"/>
-      <c r="AX15" s="226"/>
-      <c r="AY15" s="226"/>
-      <c r="AZ15" s="226"/>
-      <c r="BA15" s="226"/>
-      <c r="BB15" s="226"/>
-      <c r="BC15" s="226"/>
-      <c r="BD15" s="226"/>
-      <c r="BE15" s="260"/>
-      <c r="BF15" s="226"/>
-      <c r="BG15" s="69"/>
-      <c r="BH15" s="207"/>
-      <c r="BI15" s="207"/>
-      <c r="BJ15" s="207"/>
-      <c r="BK15" s="207"/>
-      <c r="BL15" s="260"/>
-      <c r="BM15" s="260"/>
-      <c r="BN15" s="260"/>
-      <c r="BO15" s="260"/>
-      <c r="BP15" s="264"/>
-      <c r="BQ15" s="260"/>
-      <c r="BR15" s="207"/>
-      <c r="BS15" s="236" t="s">
-        <v>269</v>
-      </c>
-      <c r="BT15" s="236" t="s">
-        <v>269</v>
-      </c>
-      <c r="BU15" s="260"/>
-      <c r="BV15" s="254"/>
-      <c r="BW15" s="254"/>
-      <c r="BX15" s="207"/>
-      <c r="BY15" s="207"/>
-      <c r="BZ15" s="254"/>
-      <c r="CA15" s="254"/>
-      <c r="CB15" s="207"/>
-      <c r="CC15" s="207"/>
-      <c r="CD15" s="254"/>
-      <c r="CE15" s="260"/>
-      <c r="CF15" s="260"/>
-      <c r="CG15" s="260"/>
-      <c r="CH15" s="260"/>
-      <c r="CI15" s="254"/>
-      <c r="CJ15" s="254"/>
-    </row>
-    <row r="16" spans="1:99" ht="47" customHeight="1">
-      <c r="A16" s="221"/>
-      <c r="B16" s="101"/>
-      <c r="C16" s="197"/>
-      <c r="D16" s="207"/>
-      <c r="E16" s="207"/>
-      <c r="F16" s="207"/>
-      <c r="G16" s="226"/>
-      <c r="H16" s="226"/>
-      <c r="I16" s="226"/>
-      <c r="J16" s="226"/>
-      <c r="K16" s="226"/>
-      <c r="L16" s="226"/>
-      <c r="M16" s="226"/>
-      <c r="N16" s="226"/>
-      <c r="O16" s="226"/>
-      <c r="P16" s="258"/>
-      <c r="Q16" s="258"/>
-      <c r="R16" s="218"/>
-      <c r="S16" s="249"/>
-      <c r="T16" s="249"/>
-      <c r="U16" s="249"/>
-      <c r="V16" s="249"/>
-      <c r="W16" s="226"/>
-      <c r="X16" s="226"/>
-      <c r="Y16" s="226"/>
-      <c r="Z16" s="226"/>
-      <c r="AA16" s="258"/>
-      <c r="AB16" s="258"/>
-      <c r="AC16" s="258"/>
-      <c r="AD16" s="258"/>
-      <c r="AE16" s="244"/>
-      <c r="AF16" s="244"/>
-      <c r="AG16" s="244"/>
-      <c r="AH16" s="244"/>
-      <c r="AI16" s="244"/>
-      <c r="AJ16" s="244"/>
-      <c r="AK16" s="244"/>
-      <c r="AL16" s="244"/>
-      <c r="AM16" s="226"/>
-      <c r="AN16" s="226"/>
-      <c r="AO16" s="226"/>
-      <c r="AP16" s="226"/>
-      <c r="AQ16" s="226"/>
-      <c r="AR16" s="226"/>
-      <c r="AS16" s="226"/>
-      <c r="AT16" s="226"/>
-      <c r="AU16" s="226"/>
-      <c r="AV16" s="226"/>
-      <c r="AW16" s="226"/>
-      <c r="AX16" s="226"/>
-      <c r="AY16" s="226"/>
-      <c r="AZ16" s="226"/>
-      <c r="BA16" s="226"/>
-      <c r="BB16" s="226"/>
-      <c r="BC16" s="226"/>
-      <c r="BD16" s="226"/>
-      <c r="BE16" s="261"/>
-      <c r="BF16" s="226"/>
-      <c r="BG16" s="69"/>
-      <c r="BH16" s="207"/>
-      <c r="BI16" s="207"/>
-      <c r="BJ16" s="207"/>
-      <c r="BK16" s="207"/>
-      <c r="BL16" s="261"/>
-      <c r="BM16" s="261"/>
-      <c r="BN16" s="261"/>
-      <c r="BO16" s="261"/>
-      <c r="BP16" s="256"/>
-      <c r="BQ16" s="261"/>
-      <c r="BR16" s="207"/>
-      <c r="BS16" s="96" t="s">
-        <v>465</v>
-      </c>
-      <c r="BT16" s="96" t="s">
-        <v>462</v>
-      </c>
-      <c r="BU16" s="261"/>
-      <c r="BV16" s="254"/>
-      <c r="BW16" s="254"/>
-      <c r="BX16" s="207"/>
-      <c r="BY16" s="207"/>
-      <c r="BZ16" s="254"/>
-      <c r="CA16" s="254"/>
-      <c r="CB16" s="207"/>
-      <c r="CC16" s="207"/>
-      <c r="CD16" s="254"/>
-      <c r="CE16" s="261"/>
-      <c r="CF16" s="261"/>
-      <c r="CG16" s="261"/>
-      <c r="CH16" s="261"/>
-      <c r="CI16" s="254"/>
-      <c r="CJ16" s="254"/>
-    </row>
-    <row r="17" spans="1:178" ht="34">
-      <c r="A17" s="195" t="s">
-        <v>484</v>
-      </c>
-      <c r="B17" s="101"/>
-      <c r="C17" s="197"/>
-      <c r="D17" s="207"/>
-      <c r="E17" s="207"/>
-      <c r="F17" s="207"/>
-      <c r="G17" s="226"/>
-      <c r="H17" s="226"/>
-      <c r="I17" s="226"/>
-      <c r="J17" s="226"/>
-      <c r="K17" s="226"/>
-      <c r="L17" s="226"/>
-      <c r="M17" s="226"/>
-      <c r="N17" s="226"/>
-      <c r="O17" s="226"/>
-      <c r="P17" s="258"/>
-      <c r="Q17" s="258"/>
-      <c r="R17" s="259"/>
-      <c r="S17" s="259"/>
-      <c r="T17" s="259"/>
-      <c r="U17" s="259"/>
-      <c r="V17" s="259"/>
-      <c r="W17" s="226"/>
-      <c r="X17" s="226"/>
-      <c r="Y17" s="226"/>
-      <c r="Z17" s="226"/>
-      <c r="AA17" s="258"/>
-      <c r="AB17" s="258"/>
-      <c r="AC17" s="258"/>
-      <c r="AD17" s="258"/>
-      <c r="AE17" s="259"/>
-      <c r="AF17" s="259"/>
-      <c r="AG17" s="259"/>
-      <c r="AH17" s="259"/>
-      <c r="AI17" s="259"/>
-      <c r="AJ17" s="259"/>
-      <c r="AK17" s="259"/>
-      <c r="AL17" s="259"/>
-      <c r="AM17" s="226"/>
-      <c r="AN17" s="226"/>
-      <c r="AO17" s="226"/>
-      <c r="AP17" s="226"/>
-      <c r="AQ17" s="226"/>
-      <c r="AR17" s="226"/>
-      <c r="AS17" s="226"/>
-      <c r="AT17" s="226"/>
-      <c r="AU17" s="226"/>
-      <c r="AV17" s="226"/>
-      <c r="AW17" s="226"/>
-      <c r="AX17" s="226"/>
-      <c r="AY17" s="226"/>
-      <c r="AZ17" s="226"/>
-      <c r="BA17" s="226"/>
-      <c r="BB17" s="226"/>
-      <c r="BC17" s="226"/>
-      <c r="BD17" s="226"/>
-      <c r="BE17" s="261"/>
-      <c r="BF17" s="226"/>
-      <c r="BG17" s="257"/>
-      <c r="BH17" s="207"/>
-      <c r="BI17" s="207"/>
-      <c r="BJ17" s="207"/>
-      <c r="BK17" s="207"/>
-      <c r="BL17" s="261"/>
-      <c r="BM17" s="261"/>
-      <c r="BN17" s="261"/>
-      <c r="BO17" s="261"/>
-      <c r="BP17" s="256"/>
-      <c r="BQ17" s="261"/>
-      <c r="BR17" s="207"/>
-      <c r="BS17" s="262"/>
-      <c r="BT17" s="247" t="s">
-        <v>485</v>
-      </c>
-      <c r="BU17" s="261"/>
-      <c r="BV17" s="254"/>
-      <c r="BW17" s="254"/>
-      <c r="BX17" s="207"/>
-      <c r="BY17" s="207"/>
-      <c r="BZ17" s="254"/>
-      <c r="CA17" s="254"/>
-      <c r="CB17" s="207"/>
-      <c r="CC17" s="207"/>
-      <c r="CD17" s="254"/>
-      <c r="CE17" s="261"/>
-      <c r="CF17" s="261"/>
-      <c r="CG17" s="261"/>
-      <c r="CH17" s="261"/>
-      <c r="CI17" s="254"/>
-      <c r="CJ17" s="254"/>
-    </row>
-    <row r="18" spans="1:178" ht="47" customHeight="1">
-      <c r="A18" s="195"/>
-      <c r="B18" s="101"/>
-      <c r="C18" s="197"/>
-      <c r="D18" s="207"/>
-      <c r="E18" s="207"/>
-      <c r="F18" s="207"/>
-      <c r="G18" s="226"/>
-      <c r="H18" s="226"/>
-      <c r="I18" s="226"/>
-      <c r="J18" s="226"/>
-      <c r="K18" s="226"/>
-      <c r="L18" s="226"/>
-      <c r="M18" s="226"/>
-      <c r="N18" s="226"/>
-      <c r="O18" s="226"/>
-      <c r="P18" s="258"/>
-      <c r="Q18" s="258"/>
-      <c r="R18" s="258"/>
-      <c r="S18" s="258"/>
-      <c r="T18" s="258"/>
-      <c r="U18" s="258"/>
-      <c r="V18" s="258"/>
-      <c r="W18" s="226"/>
-      <c r="X18" s="226"/>
-      <c r="Y18" s="226"/>
-      <c r="Z18" s="226"/>
-      <c r="AA18" s="258"/>
-      <c r="AB18" s="258"/>
-      <c r="AC18" s="258"/>
-      <c r="AD18" s="258"/>
-      <c r="AE18" s="258"/>
-      <c r="AF18" s="258"/>
-      <c r="AG18" s="258"/>
-      <c r="AH18" s="258"/>
-      <c r="AI18" s="258"/>
-      <c r="AJ18" s="258"/>
-      <c r="AK18" s="258"/>
-      <c r="AL18" s="258"/>
-      <c r="AM18" s="226"/>
-      <c r="AN18" s="226"/>
-      <c r="AO18" s="226"/>
-      <c r="AP18" s="226"/>
-      <c r="AQ18" s="226"/>
-      <c r="AR18" s="226"/>
-      <c r="AS18" s="226"/>
-      <c r="AT18" s="226"/>
-      <c r="AU18" s="226"/>
-      <c r="AV18" s="226"/>
-      <c r="AW18" s="226"/>
-      <c r="AX18" s="226"/>
-      <c r="AY18" s="226"/>
-      <c r="AZ18" s="226"/>
-      <c r="BA18" s="226"/>
-      <c r="BB18" s="226"/>
-      <c r="BC18" s="226"/>
-      <c r="BD18" s="226"/>
-      <c r="BE18" s="261"/>
-      <c r="BF18" s="226"/>
-      <c r="BG18" s="257"/>
-      <c r="BH18" s="207"/>
-      <c r="BI18" s="207"/>
-      <c r="BJ18" s="207"/>
-      <c r="BK18" s="207"/>
-      <c r="BL18" s="261"/>
-      <c r="BM18" s="261"/>
-      <c r="BN18" s="261"/>
-      <c r="BO18" s="261"/>
-      <c r="BP18" s="256"/>
-      <c r="BQ18" s="261"/>
-      <c r="BR18" s="207"/>
-      <c r="BS18" s="263"/>
-      <c r="BT18" s="96" t="s">
-        <v>486</v>
-      </c>
-      <c r="BU18" s="261"/>
-      <c r="BV18" s="254"/>
-      <c r="BW18" s="254"/>
-      <c r="BX18" s="207"/>
-      <c r="BY18" s="207"/>
-      <c r="BZ18" s="254"/>
-      <c r="CA18" s="254"/>
-      <c r="CB18" s="207"/>
-      <c r="CC18" s="207"/>
-      <c r="CD18" s="254"/>
-      <c r="CE18" s="261"/>
-      <c r="CF18" s="261"/>
-      <c r="CG18" s="261"/>
-      <c r="CH18" s="261"/>
-      <c r="CI18" s="254"/>
-      <c r="CJ18" s="254"/>
-    </row>
-    <row r="19" spans="1:178" ht="47" customHeight="1">
-      <c r="A19" s="198"/>
-      <c r="B19" s="198"/>
-      <c r="C19" s="198"/>
-      <c r="D19" s="198"/>
-      <c r="E19" s="198"/>
-      <c r="F19" s="198"/>
-      <c r="G19" s="198"/>
-      <c r="H19" s="198"/>
-      <c r="I19" s="198"/>
-      <c r="J19" s="198"/>
-      <c r="K19" s="198"/>
-      <c r="L19" s="198"/>
-      <c r="M19" s="198"/>
-      <c r="N19" s="198"/>
-      <c r="O19" s="198"/>
-      <c r="P19" s="198"/>
-      <c r="Q19" s="198"/>
-      <c r="R19" s="198"/>
-      <c r="S19" s="198"/>
-      <c r="T19" s="198"/>
-      <c r="U19" s="198"/>
-      <c r="V19" s="198"/>
-      <c r="W19" s="198"/>
-      <c r="X19" s="198"/>
-      <c r="Y19" s="198"/>
-      <c r="Z19" s="198"/>
-      <c r="AA19" s="198"/>
-      <c r="AB19" s="198"/>
-      <c r="AC19" s="198"/>
-      <c r="AD19" s="198"/>
-      <c r="AE19" s="198"/>
-      <c r="AF19" s="198"/>
-      <c r="AG19" s="198"/>
-      <c r="AH19" s="198"/>
-      <c r="AI19" s="198"/>
-      <c r="AJ19" s="198"/>
-      <c r="AK19" s="198"/>
-      <c r="AL19" s="198"/>
-      <c r="AM19" s="198"/>
-      <c r="AN19" s="198"/>
-      <c r="AO19" s="198"/>
-      <c r="AP19" s="198"/>
-      <c r="AQ19" s="198"/>
-      <c r="AR19" s="198"/>
-      <c r="AS19" s="198"/>
-      <c r="AT19" s="198"/>
-      <c r="AU19" s="198"/>
-      <c r="AV19" s="198"/>
-      <c r="AW19" s="198"/>
-      <c r="AX19" s="198"/>
-      <c r="AY19" s="198"/>
-      <c r="AZ19" s="198"/>
-      <c r="BA19" s="198"/>
-      <c r="BB19" s="198"/>
-      <c r="BC19" s="198"/>
-      <c r="BD19" s="198"/>
-      <c r="BE19" s="198"/>
-      <c r="BF19" s="198"/>
-      <c r="BG19" s="198"/>
-      <c r="BH19" s="198"/>
-      <c r="BI19" s="198"/>
-      <c r="BJ19" s="198"/>
-      <c r="BK19" s="198"/>
-      <c r="BL19" s="198"/>
-      <c r="BM19" s="198"/>
-      <c r="BN19" s="198"/>
-      <c r="BO19" s="198"/>
-      <c r="BP19" s="198"/>
-      <c r="BQ19" s="198"/>
-      <c r="BR19" s="198"/>
-      <c r="BS19" s="198"/>
-      <c r="BT19" s="198"/>
-      <c r="BU19" s="198"/>
-      <c r="BV19" s="198"/>
-      <c r="BW19" s="198"/>
-      <c r="BX19" s="198"/>
-      <c r="BY19" s="198"/>
-      <c r="BZ19" s="198"/>
-      <c r="CA19" s="198"/>
-      <c r="CB19" s="198"/>
-      <c r="CC19" s="198"/>
-      <c r="CD19" s="198"/>
-      <c r="CE19" s="198"/>
-      <c r="CF19" s="198"/>
-      <c r="CG19" s="198"/>
-      <c r="CH19" s="198"/>
-      <c r="CI19" s="198"/>
-      <c r="CJ19" s="198"/>
-      <c r="CK19" s="198"/>
-      <c r="CL19" s="198"/>
-      <c r="CM19" s="198"/>
-      <c r="CN19" s="198"/>
-      <c r="CO19" s="198"/>
-      <c r="CP19" s="198"/>
-      <c r="CQ19" s="198"/>
-      <c r="CR19" s="198"/>
-      <c r="CS19" s="198"/>
-      <c r="CT19" s="198"/>
-      <c r="CU19" s="198"/>
-      <c r="CV19" s="198"/>
-      <c r="CW19" s="198"/>
-      <c r="CX19" s="198"/>
-      <c r="CY19" s="198"/>
-      <c r="CZ19" s="198"/>
-      <c r="DA19" s="198"/>
-      <c r="DB19" s="198"/>
-      <c r="DC19" s="198"/>
-      <c r="DD19" s="198"/>
-      <c r="DE19" s="198"/>
-      <c r="DF19" s="198"/>
-      <c r="DG19" s="198"/>
-      <c r="DH19" s="198"/>
-      <c r="DI19" s="198"/>
-      <c r="DJ19" s="198"/>
-      <c r="DK19" s="198"/>
-      <c r="DL19" s="198"/>
-      <c r="DM19" s="198"/>
-      <c r="DN19" s="198"/>
-      <c r="DO19" s="198"/>
-      <c r="DP19" s="198"/>
-      <c r="DQ19" s="198"/>
-      <c r="DR19" s="198"/>
-      <c r="DS19" s="198"/>
-      <c r="DT19" s="198"/>
-      <c r="DU19" s="198"/>
-      <c r="DV19" s="198"/>
-      <c r="DW19" s="198"/>
-      <c r="DX19" s="198"/>
-      <c r="DY19" s="198"/>
-      <c r="DZ19" s="198"/>
-      <c r="EA19" s="198"/>
-      <c r="EB19" s="198"/>
-      <c r="EC19" s="198"/>
-      <c r="ED19" s="198"/>
-      <c r="EE19" s="198"/>
-      <c r="EF19" s="198"/>
-      <c r="EG19" s="198"/>
-      <c r="EH19" s="198"/>
-      <c r="EI19" s="198"/>
-      <c r="EJ19" s="198"/>
-      <c r="EK19" s="198"/>
-      <c r="EL19" s="198"/>
-      <c r="EM19" s="198"/>
-      <c r="EN19" s="198"/>
-      <c r="EO19" s="198"/>
-      <c r="EP19" s="198"/>
-      <c r="EQ19" s="198"/>
-      <c r="ER19" s="198"/>
-      <c r="ES19" s="198"/>
-      <c r="ET19" s="198"/>
-      <c r="EU19" s="198"/>
-      <c r="EV19" s="198"/>
-      <c r="EW19" s="198"/>
-      <c r="EX19" s="198"/>
-      <c r="EY19" s="198"/>
-      <c r="EZ19" s="198"/>
-      <c r="FA19" s="198"/>
-      <c r="FB19" s="198"/>
-      <c r="FC19" s="198"/>
-      <c r="FD19" s="198"/>
-      <c r="FE19" s="198"/>
-      <c r="FF19" s="198"/>
-      <c r="FG19" s="198"/>
-      <c r="FH19" s="198"/>
-      <c r="FI19" s="198"/>
-      <c r="FJ19" s="198"/>
-      <c r="FK19" s="198"/>
-      <c r="FL19" s="198"/>
-      <c r="FM19" s="198"/>
-      <c r="FN19" s="198"/>
-      <c r="FO19" s="198"/>
-      <c r="FP19" s="198"/>
-      <c r="FQ19" s="198"/>
-      <c r="FR19" s="198"/>
-      <c r="FS19" s="198"/>
-      <c r="FT19" s="198"/>
-      <c r="FU19" s="198"/>
-      <c r="FV19" s="198"/>
-    </row>
-    <row r="20" spans="1:178" ht="25">
-      <c r="A20" s="203" t="s">
-        <v>437</v>
-      </c>
-      <c r="C20" s="205" t="s">
-        <v>96</v>
-      </c>
-      <c r="D20" s="205" t="s">
-        <v>439</v>
-      </c>
-      <c r="E20" s="205" t="s">
-        <v>98</v>
-      </c>
-      <c r="F20" s="205" t="s">
-        <v>439</v>
-      </c>
-      <c r="G20" s="205" t="s">
-        <v>96</v>
-      </c>
-      <c r="H20" s="205" t="s">
-        <v>91</v>
-      </c>
-      <c r="I20" s="205" t="s">
-        <v>91</v>
-      </c>
-      <c r="J20" s="205" t="s">
-        <v>91</v>
-      </c>
-      <c r="K20" s="205" t="s">
-        <v>91</v>
-      </c>
-      <c r="L20" s="205" t="s">
-        <v>91</v>
-      </c>
-      <c r="M20" s="205" t="s">
-        <v>91</v>
-      </c>
-      <c r="N20" s="205" t="s">
-        <v>91</v>
-      </c>
-      <c r="O20" s="205" t="s">
-        <v>91</v>
-      </c>
-      <c r="P20" s="205" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q20" s="205" t="s">
-        <v>439</v>
-      </c>
-      <c r="R20" s="205" t="s">
-        <v>141</v>
-      </c>
-      <c r="S20" s="205" t="s">
-        <v>439</v>
-      </c>
-      <c r="T20" s="205" t="s">
-        <v>439</v>
-      </c>
-      <c r="U20" s="205" t="s">
-        <v>90</v>
-      </c>
-      <c r="V20" s="205" t="s">
-        <v>90</v>
-      </c>
-      <c r="W20" s="205" t="s">
-        <v>91</v>
-      </c>
-      <c r="X20" s="205" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y20" s="205" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z20" s="205" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA20" s="205" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB20" s="205" t="s">
-        <v>439</v>
-      </c>
-      <c r="AC20" s="205" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD20" s="205" t="s">
-        <v>122</v>
-      </c>
-      <c r="AE20" s="205" t="s">
-        <v>141</v>
-      </c>
-      <c r="AF20" s="205" t="s">
-        <v>439</v>
-      </c>
-      <c r="AG20" s="205" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH20" s="205" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI20" s="205" t="s">
-        <v>141</v>
-      </c>
-      <c r="AJ20" s="205" t="s">
-        <v>439</v>
-      </c>
-      <c r="AK20" s="205" t="s">
-        <v>447</v>
-      </c>
-      <c r="AL20" s="205" t="s">
-        <v>439</v>
-      </c>
-      <c r="AM20" s="205" t="s">
-        <v>439</v>
-      </c>
-      <c r="AN20" s="205" t="s">
-        <v>439</v>
-      </c>
-      <c r="AO20" s="205" t="s">
-        <v>439</v>
-      </c>
-      <c r="AP20" s="205" t="s">
-        <v>90</v>
-      </c>
-      <c r="AQ20" s="205" t="s">
-        <v>90</v>
-      </c>
-      <c r="AR20" s="205" t="s">
-        <v>90</v>
-      </c>
-      <c r="AS20" s="205" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT20" s="205" t="s">
-        <v>113</v>
-      </c>
-      <c r="AU20" s="205" t="s">
-        <v>113</v>
-      </c>
-      <c r="AV20" s="205" t="s">
-        <v>113</v>
-      </c>
-      <c r="AW20" s="205" t="s">
-        <v>113</v>
-      </c>
-      <c r="AX20" s="205" t="s">
-        <v>97</v>
-      </c>
-      <c r="AY20" s="205" t="s">
-        <v>113</v>
-      </c>
-      <c r="AZ20" s="205" t="s">
-        <v>113</v>
-      </c>
-      <c r="BA20" s="205" t="s">
-        <v>460</v>
-      </c>
-      <c r="BB20" s="205" t="s">
-        <v>460</v>
-      </c>
-      <c r="BC20" s="205" t="s">
-        <v>90</v>
-      </c>
-      <c r="BD20" s="205" t="s">
-        <v>91</v>
-      </c>
-      <c r="BE20" s="205" t="s">
-        <v>460</v>
-      </c>
-      <c r="BF20" s="205" t="s">
-        <v>91</v>
-      </c>
-      <c r="BG20" s="237" t="s">
-        <v>464</v>
-      </c>
-      <c r="BH20" s="205" t="s">
-        <v>90</v>
-      </c>
-      <c r="BI20" s="205" t="s">
-        <v>97</v>
-      </c>
-      <c r="BJ20" s="205" t="s">
-        <v>468</v>
-      </c>
-      <c r="BK20" s="205" t="s">
-        <v>91</v>
-      </c>
-      <c r="BL20" s="205" t="s">
-        <v>122</v>
-      </c>
-      <c r="BM20" s="205" t="s">
-        <v>122</v>
-      </c>
-      <c r="BN20" s="205" t="s">
-        <v>487</v>
-      </c>
-      <c r="BO20" s="205" t="s">
-        <v>476</v>
-      </c>
-      <c r="BP20" s="205" t="s">
-        <v>476</v>
-      </c>
-      <c r="BQ20" s="205" t="s">
-        <v>487</v>
-      </c>
-      <c r="BR20" s="205" t="s">
-        <v>476</v>
-      </c>
-      <c r="BS20" s="205" t="s">
-        <v>122</v>
-      </c>
-      <c r="BT20" s="205" t="s">
-        <v>122</v>
-      </c>
-      <c r="BU20" s="205" t="s">
-        <v>460</v>
-      </c>
-      <c r="BX20" s="205" t="s">
-        <v>97</v>
-      </c>
-      <c r="BY20" s="205" t="s">
-        <v>476</v>
-      </c>
-      <c r="BZ20" s="205" t="s">
-        <v>482</v>
-      </c>
-      <c r="CA20" s="205" t="s">
-        <v>476</v>
-      </c>
-      <c r="CB20" s="205" t="s">
-        <v>482</v>
-      </c>
-      <c r="CC20" s="205" t="s">
-        <v>122</v>
-      </c>
-      <c r="CD20" s="205" t="s">
-        <v>122</v>
-      </c>
-      <c r="CE20" s="205" t="s">
-        <v>483</v>
-      </c>
-      <c r="CF20" s="205" t="s">
-        <v>483</v>
-      </c>
-      <c r="CG20" s="205" t="s">
-        <v>483</v>
-      </c>
-      <c r="CH20" s="205" t="s">
-        <v>483</v>
-      </c>
-      <c r="CI20" s="205" t="s">
-        <v>90</v>
-      </c>
-      <c r="CJ20" s="205" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="21" spans="1:178" ht="60">
-      <c r="A21" s="203" t="s">
-        <v>438</v>
-      </c>
-      <c r="C21" s="116" t="s">
-        <v>411</v>
-      </c>
-      <c r="D21" s="199" t="s">
-        <v>100</v>
-      </c>
-      <c r="E21" s="116" t="s">
-        <v>101</v>
-      </c>
-      <c r="F21" s="208" t="s">
-        <v>102</v>
-      </c>
-      <c r="G21" s="116" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" s="233" t="s">
-        <v>480</v>
-      </c>
-      <c r="I21" s="233" t="s">
-        <v>480</v>
-      </c>
-      <c r="J21" s="233" t="s">
-        <v>480</v>
-      </c>
-      <c r="K21" s="233" t="s">
-        <v>480</v>
-      </c>
-      <c r="L21" s="224" t="s">
-        <v>442</v>
-      </c>
-      <c r="M21" s="224" t="s">
-        <v>442</v>
-      </c>
-      <c r="N21" s="224" t="s">
-        <v>443</v>
-      </c>
-      <c r="O21" s="224" t="s">
-        <v>444</v>
-      </c>
-      <c r="P21" s="116" t="s">
-        <v>411</v>
-      </c>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="11"/>
-      <c r="X21" s="116">
-        <v>500</v>
-      </c>
-      <c r="Y21" s="116">
-        <v>500</v>
-      </c>
-      <c r="Z21" s="224" t="s">
-        <v>448</v>
-      </c>
-      <c r="AA21" s="116" t="s">
-        <v>411</v>
-      </c>
-      <c r="AB21" s="11"/>
-      <c r="AC21" s="11"/>
-      <c r="AD21" s="11"/>
-      <c r="AE21" s="11"/>
-      <c r="AF21" s="11"/>
-      <c r="AG21" s="11"/>
-      <c r="AH21" s="11"/>
-      <c r="AI21" s="11"/>
-      <c r="AJ21" s="11"/>
-      <c r="AK21" s="11"/>
-      <c r="AL21" s="11"/>
-      <c r="AM21" s="233" t="s">
-        <v>467</v>
-      </c>
-      <c r="AN21" s="233" t="s">
-        <v>467</v>
-      </c>
-      <c r="AO21" s="233" t="s">
-        <v>467</v>
-      </c>
-      <c r="AP21" s="116">
-        <v>0</v>
-      </c>
-      <c r="AQ21" s="116">
-        <v>0</v>
-      </c>
-      <c r="AR21" s="116">
-        <v>0</v>
-      </c>
-      <c r="AS21" s="11"/>
-      <c r="AT21" s="11"/>
-      <c r="AU21" s="11"/>
-      <c r="AV21" s="11"/>
-      <c r="AW21" s="11"/>
-      <c r="AX21" s="200" t="s">
-        <v>114</v>
-      </c>
-      <c r="AY21" s="11"/>
-      <c r="AZ21" s="11"/>
-      <c r="BA21" s="233" t="s">
-        <v>481</v>
-      </c>
-      <c r="BB21" s="233" t="s">
-        <v>481</v>
-      </c>
-      <c r="BC21" s="116">
-        <v>7</v>
-      </c>
-      <c r="BD21" s="233" t="s">
-        <v>480</v>
-      </c>
-      <c r="BE21" s="233" t="s">
-        <v>481</v>
-      </c>
-      <c r="BF21" s="233" t="s">
-        <v>480</v>
-      </c>
-      <c r="BG21" s="233" t="s">
-        <v>481</v>
-      </c>
-      <c r="BH21" s="116">
-        <v>100</v>
-      </c>
-      <c r="BI21" s="209" t="s">
-        <v>107</v>
-      </c>
-      <c r="BJ21" s="116" t="s">
-        <v>99</v>
-      </c>
-      <c r="BK21" s="224" t="s">
-        <v>470</v>
-      </c>
-      <c r="BL21" s="116" t="s">
-        <v>411</v>
-      </c>
-      <c r="BM21" s="116" t="s">
-        <v>411</v>
-      </c>
-      <c r="BN21" s="252" t="s">
-        <v>108</v>
-      </c>
-      <c r="BO21" s="233" t="s">
-        <v>480</v>
-      </c>
-      <c r="BP21" s="233" t="s">
-        <v>480</v>
-      </c>
-      <c r="BQ21" s="252" t="s">
-        <v>109</v>
-      </c>
-      <c r="BR21" s="233" t="s">
-        <v>480</v>
-      </c>
-      <c r="BS21" s="233" t="s">
-        <v>481</v>
-      </c>
-      <c r="BT21" s="233" t="s">
-        <v>481</v>
-      </c>
-      <c r="BU21" s="233" t="s">
-        <v>481</v>
-      </c>
-      <c r="BV21" s="233" t="s">
-        <v>481</v>
-      </c>
-      <c r="BW21" s="233" t="s">
-        <v>481</v>
-      </c>
-      <c r="BX21" s="252" t="s">
-        <v>129</v>
-      </c>
-      <c r="BY21" s="224" t="s">
-        <v>477</v>
-      </c>
-      <c r="BZ21" s="233" t="s">
-        <v>481</v>
-      </c>
-      <c r="CA21" s="233" t="s">
-        <v>480</v>
-      </c>
-      <c r="CB21" s="233" t="s">
-        <v>481</v>
-      </c>
-      <c r="CC21" s="116" t="b">
-        <v>1</v>
-      </c>
-      <c r="CD21" s="116" t="b">
-        <v>1</v>
-      </c>
-      <c r="CE21" s="233" t="s">
-        <v>467</v>
-      </c>
-      <c r="CF21" s="233" t="s">
-        <v>467</v>
-      </c>
-      <c r="CG21" s="233" t="s">
-        <v>467</v>
-      </c>
-      <c r="CH21" s="233" t="s">
-        <v>467</v>
-      </c>
-      <c r="CI21" s="116">
-        <v>0</v>
-      </c>
-      <c r="CJ21" s="233" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="22" spans="1:178" ht="34">
-      <c r="A22" s="203" t="s">
-        <v>219</v>
-      </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="200" t="s">
-        <v>441</v>
-      </c>
-      <c r="R22" s="233" t="s">
-        <v>244</v>
-      </c>
-      <c r="S22" s="200" t="s">
-        <v>245</v>
-      </c>
-      <c r="T22" s="200" t="s">
-        <v>246</v>
-      </c>
-      <c r="U22" s="68">
-        <v>4</v>
-      </c>
-      <c r="V22" s="68">
-        <v>10</v>
-      </c>
-      <c r="W22" s="224" t="s">
-        <v>445</v>
-      </c>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="11"/>
-      <c r="Z22" s="11"/>
-      <c r="AA22" s="11"/>
-      <c r="AB22" s="200" t="s">
-        <v>150</v>
-      </c>
-      <c r="AC22" s="116" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD22" s="116" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE22" s="233" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF22" s="200" t="s">
-        <v>160</v>
-      </c>
-      <c r="AG22" s="116">
-        <v>26</v>
-      </c>
-      <c r="AH22" s="116">
-        <v>12</v>
-      </c>
-      <c r="AI22" s="233" t="s">
-        <v>158</v>
-      </c>
-      <c r="AJ22" s="200" t="s">
-        <v>150</v>
-      </c>
-      <c r="AK22" s="232" t="s">
-        <v>446</v>
-      </c>
-      <c r="AL22" s="200" t="s">
-        <v>157</v>
-      </c>
-      <c r="AM22" s="11"/>
-      <c r="AN22" s="11"/>
-      <c r="AO22" s="11"/>
-      <c r="AP22" s="11"/>
-      <c r="AQ22" s="11"/>
-      <c r="AR22" s="11"/>
-      <c r="AS22" s="11"/>
-      <c r="AT22" s="11"/>
-      <c r="AU22" s="11"/>
-      <c r="AV22" s="11"/>
-      <c r="AW22" s="11"/>
-      <c r="AX22" s="11"/>
-      <c r="AY22" s="11"/>
-      <c r="AZ22" s="11"/>
-      <c r="BA22" s="116" t="s">
-        <v>461</v>
-      </c>
-      <c r="BB22" s="116" t="s">
-        <v>461</v>
-      </c>
-      <c r="BC22" s="11"/>
-      <c r="BD22" s="11"/>
-      <c r="BE22" s="116" t="s">
-        <v>461</v>
-      </c>
-      <c r="BF22" s="11"/>
-      <c r="BG22" s="11"/>
-      <c r="BH22" s="11"/>
-      <c r="BI22" s="11"/>
-      <c r="BJ22" s="11"/>
-      <c r="BK22" s="11"/>
-      <c r="BL22" s="11"/>
-      <c r="BM22" s="11"/>
-      <c r="BN22" s="11"/>
-      <c r="BO22" s="11"/>
-      <c r="BP22" s="11"/>
-      <c r="BQ22" s="11"/>
-      <c r="BR22" s="116" t="s">
-        <v>421</v>
-      </c>
-      <c r="BS22" s="116" t="s">
-        <v>411</v>
-      </c>
-      <c r="BT22" s="116" t="s">
-        <v>411</v>
-      </c>
-      <c r="BU22" s="68" t="s">
-        <v>412</v>
-      </c>
-      <c r="BX22" s="11"/>
-      <c r="BY22" s="11"/>
-      <c r="BZ22" s="11"/>
-      <c r="CA22" s="11"/>
-      <c r="CB22" s="11"/>
-      <c r="CC22" s="11"/>
-      <c r="CD22" s="11"/>
-      <c r="CE22" s="11"/>
-      <c r="CF22" s="11"/>
-      <c r="CG22" s="11"/>
-      <c r="CH22" s="11"/>
-      <c r="CI22" s="11"/>
-      <c r="CJ22" s="11"/>
-    </row>
-    <row r="23" spans="1:178" ht="24">
-      <c r="A23" s="204"/>
-      <c r="C23" s="201"/>
-      <c r="G23" s="201"/>
-      <c r="AF23" s="58"/>
-      <c r="AG23" s="58"/>
-      <c r="BL23" s="201"/>
-      <c r="BM23" s="201"/>
-      <c r="BN23" s="201"/>
-      <c r="BO23" s="201"/>
-      <c r="BP23" s="201"/>
-      <c r="BQ23" s="201"/>
-      <c r="BR23" s="201"/>
-      <c r="BS23" s="201"/>
-      <c r="BT23" s="201"/>
-      <c r="BU23" s="202"/>
-    </row>
-    <row r="24" spans="1:178" ht="36" customHeight="1">
-      <c r="C24" t="s">
-        <v>355</v>
-      </c>
-      <c r="D24" t="s">
-        <v>414</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>431</v>
-      </c>
-      <c r="AF24" s="58"/>
-      <c r="AG24" s="58"/>
-      <c r="AH24" s="57"/>
-      <c r="AI24" s="57"/>
-      <c r="AJ24" s="57"/>
-      <c r="AK24" s="57"/>
-      <c r="AT24" s="234" t="s">
-        <v>459</v>
-      </c>
-      <c r="BG24" s="241" t="s">
-        <v>466</v>
-      </c>
-      <c r="BJ24" s="241" t="s">
-        <v>469</v>
-      </c>
-      <c r="BO24" s="241"/>
-      <c r="BP24" s="241"/>
-      <c r="BV24" s="241" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="25" spans="1:178">
-      <c r="C25" t="s">
-        <v>220</v>
-      </c>
-      <c r="D25" t="s">
-        <v>415</v>
-      </c>
-      <c r="AE25" s="57"/>
-      <c r="AF25" s="57"/>
-      <c r="AG25" s="57"/>
-      <c r="AH25" s="57"/>
-      <c r="AI25" s="57"/>
-      <c r="AJ25" s="57"/>
-      <c r="AK25" s="57"/>
-      <c r="BW25" s="241" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="26" spans="1:178">
-      <c r="AE26" s="58"/>
-      <c r="AF26" s="58"/>
-      <c r="AG26" s="58"/>
-      <c r="AH26" s="58"/>
-      <c r="AI26" s="58"/>
-      <c r="AJ26" s="58"/>
-      <c r="AK26" s="58"/>
-    </row>
-    <row r="27" spans="1:178" ht="44" customHeight="1">
-      <c r="BL27" t="s">
-        <v>413</v>
-      </c>
-      <c r="BN27" s="137" t="s">
-        <v>424</v>
-      </c>
-      <c r="BO27" s="137"/>
-      <c r="BP27" s="137"/>
-      <c r="BQ27" s="137"/>
-    </row>
-    <row r="28" spans="1:178">
-      <c r="BM28" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="31" spans="1:178">
-      <c r="O31" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="35" spans="5:5">
+    </row>
+    <row r="32" spans="1:89">
+      <c r="E32" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="33" spans="5:67">
+      <c r="E33" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="34" spans="5:67">
+      <c r="E34" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="35" spans="5:67">
       <c r="E35" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="36" spans="5:5">
-      <c r="E36" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="37" spans="5:5">
-      <c r="E37" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="38" spans="5:5">
-      <c r="E38" t="s">
         <v>383</v>
+      </c>
+    </row>
+    <row r="37" spans="5:67">
+      <c r="BO37">
+        <v>5.6109999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="5:67">
+      <c r="BO38">
+        <f>BO37*11</f>
+        <v>61.720999999999997</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="186">
-    <mergeCell ref="CI13:CI18"/>
-    <mergeCell ref="CJ13:CJ18"/>
-    <mergeCell ref="BS17:BS18"/>
-    <mergeCell ref="BN11:BQ12"/>
-    <mergeCell ref="BV11:BV12"/>
-    <mergeCell ref="BW11:BW12"/>
-    <mergeCell ref="BV13:BV18"/>
-    <mergeCell ref="BW13:BW18"/>
-    <mergeCell ref="BQ13:BQ14"/>
-    <mergeCell ref="BO13:BO14"/>
-    <mergeCell ref="BN13:BN14"/>
-    <mergeCell ref="BP13:BP14"/>
-    <mergeCell ref="BR13:BR18"/>
-    <mergeCell ref="CF15:CF18"/>
-    <mergeCell ref="CG15:CG18"/>
-    <mergeCell ref="CH15:CH18"/>
-    <mergeCell ref="BZ13:BZ18"/>
-    <mergeCell ref="CA13:CA18"/>
-    <mergeCell ref="CD13:CD18"/>
-    <mergeCell ref="BN15:BN18"/>
-    <mergeCell ref="BO15:BO18"/>
-    <mergeCell ref="BQ15:BQ18"/>
-    <mergeCell ref="BU15:BU18"/>
-    <mergeCell ref="CE15:CE18"/>
-    <mergeCell ref="AD15:AD18"/>
-    <mergeCell ref="P15:P18"/>
-    <mergeCell ref="Q15:Q18"/>
-    <mergeCell ref="BH11:BH18"/>
-    <mergeCell ref="BI11:BI18"/>
-    <mergeCell ref="BE15:BE18"/>
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="S17:S18"/>
-    <mergeCell ref="T17:T18"/>
-    <mergeCell ref="U17:U18"/>
-    <mergeCell ref="V17:V18"/>
-    <mergeCell ref="BF13:BF18"/>
-    <mergeCell ref="AE17:AE18"/>
-    <mergeCell ref="AF17:AF18"/>
-    <mergeCell ref="AG17:AG18"/>
-    <mergeCell ref="AH17:AH18"/>
-    <mergeCell ref="AI17:AI18"/>
-    <mergeCell ref="AJ17:AJ18"/>
-    <mergeCell ref="AK17:AK18"/>
-    <mergeCell ref="AL17:AL18"/>
-    <mergeCell ref="AT13:AT18"/>
-    <mergeCell ref="AU13:AU18"/>
-    <mergeCell ref="AV13:AV18"/>
-    <mergeCell ref="AW13:AW18"/>
-    <mergeCell ref="AX13:AX18"/>
-    <mergeCell ref="CJ11:CJ12"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="C10:C18"/>
-    <mergeCell ref="D11:D18"/>
-    <mergeCell ref="E11:E18"/>
-    <mergeCell ref="F11:F18"/>
-    <mergeCell ref="G13:G18"/>
-    <mergeCell ref="H13:H18"/>
-    <mergeCell ref="I13:I18"/>
-    <mergeCell ref="J13:J18"/>
-    <mergeCell ref="K13:K18"/>
-    <mergeCell ref="L13:L18"/>
-    <mergeCell ref="M13:M18"/>
-    <mergeCell ref="BX11:BX18"/>
-    <mergeCell ref="BY11:BY18"/>
-    <mergeCell ref="CB11:CB18"/>
-    <mergeCell ref="CC11:CC18"/>
-    <mergeCell ref="CI11:CI12"/>
-    <mergeCell ref="CD11:CD12"/>
-    <mergeCell ref="CE11:CH12"/>
-    <mergeCell ref="CE13:CE14"/>
-    <mergeCell ref="CF13:CF14"/>
-    <mergeCell ref="CG13:CG14"/>
-    <mergeCell ref="CH13:CH14"/>
-    <mergeCell ref="BZ10:CA10"/>
-    <mergeCell ref="BZ11:BZ12"/>
-    <mergeCell ref="CA11:CA12"/>
-    <mergeCell ref="W13:W18"/>
-    <mergeCell ref="X13:X18"/>
-    <mergeCell ref="Y13:Y18"/>
-    <mergeCell ref="Z13:Z18"/>
-    <mergeCell ref="AM13:AM18"/>
-    <mergeCell ref="AN13:AN18"/>
-    <mergeCell ref="AO13:AO18"/>
-    <mergeCell ref="AP13:AP18"/>
-    <mergeCell ref="AQ13:AQ18"/>
-    <mergeCell ref="AR13:AR18"/>
-    <mergeCell ref="AS13:AS18"/>
-    <mergeCell ref="V15:V16"/>
-    <mergeCell ref="AA15:AA18"/>
-    <mergeCell ref="AB15:AB18"/>
-    <mergeCell ref="AC15:AC18"/>
-    <mergeCell ref="AE15:AE16"/>
-    <mergeCell ref="AL15:AL16"/>
-    <mergeCell ref="AK15:AK16"/>
-    <mergeCell ref="AJ15:AJ16"/>
-    <mergeCell ref="AI15:AI16"/>
-    <mergeCell ref="AH15:AH16"/>
-    <mergeCell ref="AG15:AG16"/>
-    <mergeCell ref="AF15:AF16"/>
-    <mergeCell ref="BR11:BR12"/>
-    <mergeCell ref="BU11:BU12"/>
-    <mergeCell ref="BS11:BT12"/>
-    <mergeCell ref="BS13:BS14"/>
-    <mergeCell ref="BT13:BT14"/>
-    <mergeCell ref="BM11:BM12"/>
-    <mergeCell ref="BL11:BL12"/>
-    <mergeCell ref="BJ11:BJ18"/>
-    <mergeCell ref="BK11:BK18"/>
-    <mergeCell ref="BL15:BL18"/>
-    <mergeCell ref="BM15:BM18"/>
-    <mergeCell ref="BG11:BG12"/>
-    <mergeCell ref="BF11:BF12"/>
-    <mergeCell ref="BE11:BE12"/>
-    <mergeCell ref="BD11:BD12"/>
-    <mergeCell ref="BC11:BC12"/>
-    <mergeCell ref="BA13:BA18"/>
-    <mergeCell ref="BB13:BB18"/>
-    <mergeCell ref="BC13:BC18"/>
-    <mergeCell ref="BD13:BD18"/>
-    <mergeCell ref="AX11:AX12"/>
-    <mergeCell ref="AY13:AY18"/>
-    <mergeCell ref="AZ13:AZ18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="N13:N18"/>
-    <mergeCell ref="O13:O18"/>
-    <mergeCell ref="P12:V12"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="U15:U16"/>
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="P13:V13"/>
-    <mergeCell ref="C6:CJ6"/>
-    <mergeCell ref="D9:AR9"/>
-    <mergeCell ref="AS9:AZ9"/>
-    <mergeCell ref="BA9:BG9"/>
-    <mergeCell ref="BH9:BW9"/>
-    <mergeCell ref="BX9:CJ9"/>
-    <mergeCell ref="CM9:CU9"/>
-    <mergeCell ref="G10:M10"/>
-    <mergeCell ref="N10:V10"/>
-    <mergeCell ref="W10:AL10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="AX10:AZ10"/>
-    <mergeCell ref="BC10:BG10"/>
-    <mergeCell ref="BL10:BM10"/>
-    <mergeCell ref="AM10:AR10"/>
-    <mergeCell ref="CD10:CH10"/>
-    <mergeCell ref="CI10:CJ10"/>
-    <mergeCell ref="P11:V11"/>
-    <mergeCell ref="AA11:AL11"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="BX8:BX9"/>
+    <mergeCell ref="BX12:BX15"/>
+    <mergeCell ref="BU8:BU9"/>
+    <mergeCell ref="CN7:CP7"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="N6:AN6"/>
+    <mergeCell ref="BV8:BW9"/>
     <mergeCell ref="BV10:BW10"/>
-    <mergeCell ref="Z11:Z12"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="W11:W12"/>
-    <mergeCell ref="AA12:AL12"/>
-    <mergeCell ref="AM11:AM12"/>
-    <mergeCell ref="AN11:AN12"/>
-    <mergeCell ref="AO11:AO12"/>
-    <mergeCell ref="AP11:AP12"/>
-    <mergeCell ref="AQ11:AQ12"/>
-    <mergeCell ref="BN10:BU10"/>
-    <mergeCell ref="BN27:BQ27"/>
-    <mergeCell ref="AA13:AL13"/>
-    <mergeCell ref="AR11:AR12"/>
-    <mergeCell ref="AW11:AW12"/>
-    <mergeCell ref="R14:V14"/>
-    <mergeCell ref="AE14:AH14"/>
-    <mergeCell ref="AI14:AL14"/>
-    <mergeCell ref="AV11:AV12"/>
-    <mergeCell ref="AU11:AU12"/>
-    <mergeCell ref="AT11:AT12"/>
-    <mergeCell ref="AS11:AS12"/>
-    <mergeCell ref="AZ11:AZ12"/>
-    <mergeCell ref="AY11:AY12"/>
+    <mergeCell ref="BV11:BW11"/>
+    <mergeCell ref="BV12:BW12"/>
+    <mergeCell ref="BP24:BS24"/>
+    <mergeCell ref="AC10:AN10"/>
+    <mergeCell ref="AT8:AT9"/>
+    <mergeCell ref="AY8:AY9"/>
+    <mergeCell ref="S11:W11"/>
+    <mergeCell ref="AG11:AJ11"/>
+    <mergeCell ref="AK11:AN11"/>
+    <mergeCell ref="AX8:AX9"/>
+    <mergeCell ref="AW8:AW9"/>
+    <mergeCell ref="AV8:AV9"/>
+    <mergeCell ref="AU8:AU9"/>
+    <mergeCell ref="BB8:BB9"/>
+    <mergeCell ref="BA8:BA9"/>
+    <mergeCell ref="AC8:AN8"/>
+    <mergeCell ref="AA8:AA9"/>
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="AC9:AN9"/>
+    <mergeCell ref="AO8:AO9"/>
+    <mergeCell ref="AP8:AP9"/>
+    <mergeCell ref="AQ8:AQ9"/>
+    <mergeCell ref="AR8:AR9"/>
+    <mergeCell ref="AS8:AS9"/>
+    <mergeCell ref="BP7:BX7"/>
+    <mergeCell ref="D5:AT5"/>
+    <mergeCell ref="AU5:BB5"/>
+    <mergeCell ref="BC5:BI5"/>
+    <mergeCell ref="BJ5:BX5"/>
+    <mergeCell ref="BY5:CK5"/>
+    <mergeCell ref="CN5:CV5"/>
+    <mergeCell ref="G7:M7"/>
+    <mergeCell ref="N7:W7"/>
+    <mergeCell ref="X7:AN7"/>
+    <mergeCell ref="AU7:AY7"/>
+    <mergeCell ref="AZ7:BB7"/>
+    <mergeCell ref="BE7:BI7"/>
+    <mergeCell ref="BN7:BO7"/>
+    <mergeCell ref="AO7:AT7"/>
+    <mergeCell ref="CE7:CI7"/>
+    <mergeCell ref="CJ7:CK7"/>
+    <mergeCell ref="AZ8:AZ9"/>
+    <mergeCell ref="BA10:BA15"/>
+    <mergeCell ref="BB10:BB15"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="N10:N15"/>
+    <mergeCell ref="O10:O15"/>
+    <mergeCell ref="Q9:W9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="V12:V13"/>
+    <mergeCell ref="U12:U13"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="Q10:W10"/>
+    <mergeCell ref="Q8:W8"/>
+    <mergeCell ref="BN12:BN15"/>
+    <mergeCell ref="BO12:BO15"/>
+    <mergeCell ref="BI8:BI9"/>
+    <mergeCell ref="BH8:BH9"/>
+    <mergeCell ref="BG8:BG9"/>
+    <mergeCell ref="BF8:BF9"/>
+    <mergeCell ref="BE8:BE9"/>
+    <mergeCell ref="BC10:BC15"/>
+    <mergeCell ref="BD10:BD15"/>
+    <mergeCell ref="BE10:BE15"/>
+    <mergeCell ref="BF10:BF15"/>
+    <mergeCell ref="W12:W13"/>
+    <mergeCell ref="AC12:AC15"/>
+    <mergeCell ref="AD12:AD15"/>
+    <mergeCell ref="AE12:AE15"/>
+    <mergeCell ref="AG12:AG13"/>
+    <mergeCell ref="AN12:AN13"/>
+    <mergeCell ref="AM12:AM13"/>
+    <mergeCell ref="AL12:AL13"/>
+    <mergeCell ref="AK12:AK13"/>
+    <mergeCell ref="AJ12:AJ13"/>
+    <mergeCell ref="AI12:AI13"/>
+    <mergeCell ref="AH12:AH13"/>
+    <mergeCell ref="CI10:CI11"/>
+    <mergeCell ref="CA7:CB7"/>
+    <mergeCell ref="CA8:CA9"/>
+    <mergeCell ref="CB8:CB9"/>
+    <mergeCell ref="X10:X15"/>
+    <mergeCell ref="Y10:Y15"/>
+    <mergeCell ref="Z10:Z15"/>
+    <mergeCell ref="AA10:AA15"/>
+    <mergeCell ref="AO10:AO15"/>
+    <mergeCell ref="AP10:AP15"/>
+    <mergeCell ref="AQ10:AQ15"/>
+    <mergeCell ref="AR10:AR15"/>
+    <mergeCell ref="AS10:AS15"/>
+    <mergeCell ref="AT10:AT15"/>
+    <mergeCell ref="AU10:AU15"/>
+    <mergeCell ref="BT8:BT9"/>
+    <mergeCell ref="BO8:BO9"/>
+    <mergeCell ref="BN8:BN9"/>
+    <mergeCell ref="BL8:BL15"/>
+    <mergeCell ref="BM8:BM15"/>
+    <mergeCell ref="AZ10:AZ15"/>
+    <mergeCell ref="CK8:CK9"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C7:C15"/>
+    <mergeCell ref="D8:D15"/>
+    <mergeCell ref="E8:E15"/>
+    <mergeCell ref="F8:F15"/>
+    <mergeCell ref="G10:G15"/>
+    <mergeCell ref="H10:H15"/>
+    <mergeCell ref="I10:I15"/>
+    <mergeCell ref="J10:J15"/>
+    <mergeCell ref="K10:K15"/>
+    <mergeCell ref="L10:L15"/>
+    <mergeCell ref="M10:M15"/>
+    <mergeCell ref="BY8:BY15"/>
+    <mergeCell ref="BZ8:BZ15"/>
+    <mergeCell ref="CC8:CC15"/>
+    <mergeCell ref="CD8:CD15"/>
+    <mergeCell ref="CJ8:CJ9"/>
+    <mergeCell ref="CE8:CE9"/>
+    <mergeCell ref="CF8:CI9"/>
+    <mergeCell ref="CF10:CF11"/>
+    <mergeCell ref="CG10:CG11"/>
+    <mergeCell ref="CH10:CH11"/>
+    <mergeCell ref="AF12:AF15"/>
+    <mergeCell ref="Q12:Q15"/>
+    <mergeCell ref="R12:R15"/>
+    <mergeCell ref="BJ8:BJ15"/>
+    <mergeCell ref="BK8:BK15"/>
+    <mergeCell ref="BG12:BG15"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="U14:U15"/>
+    <mergeCell ref="V14:V15"/>
+    <mergeCell ref="W14:W15"/>
+    <mergeCell ref="BH10:BH15"/>
+    <mergeCell ref="AG14:AG15"/>
+    <mergeCell ref="AH14:AH15"/>
+    <mergeCell ref="AI14:AI15"/>
+    <mergeCell ref="AJ14:AJ15"/>
+    <mergeCell ref="AK14:AK15"/>
+    <mergeCell ref="AL14:AL15"/>
+    <mergeCell ref="AM14:AM15"/>
+    <mergeCell ref="AN14:AN15"/>
+    <mergeCell ref="AV10:AV15"/>
+    <mergeCell ref="AW10:AW15"/>
+    <mergeCell ref="AX10:AX15"/>
+    <mergeCell ref="AY10:AY15"/>
+    <mergeCell ref="CJ10:CJ15"/>
+    <mergeCell ref="CK10:CK15"/>
+    <mergeCell ref="BP8:BS9"/>
+    <mergeCell ref="BS10:BS11"/>
+    <mergeCell ref="BQ10:BQ11"/>
+    <mergeCell ref="BP10:BP11"/>
+    <mergeCell ref="BR10:BR11"/>
+    <mergeCell ref="BT10:BT15"/>
+    <mergeCell ref="CG12:CG15"/>
+    <mergeCell ref="CH12:CH15"/>
+    <mergeCell ref="CI12:CI15"/>
+    <mergeCell ref="CA10:CA15"/>
+    <mergeCell ref="CB10:CB15"/>
+    <mergeCell ref="CE10:CE15"/>
+    <mergeCell ref="BP12:BP15"/>
+    <mergeCell ref="BQ12:BQ15"/>
+    <mergeCell ref="BS12:BS15"/>
+    <mergeCell ref="CF12:CF15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AF16E0C-747B-414A-A49D-22BD454448D6}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="21.83203125" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="E1" s="225" t="s">
+        <v>495</v>
+      </c>
+      <c r="F1" s="225"/>
+      <c r="G1" s="225"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>490</v>
+      </c>
+      <c r="B3" s="225" t="s">
+        <v>403</v>
+      </c>
+      <c r="C3" s="225"/>
+      <c r="E3" s="225" t="s">
+        <v>426</v>
+      </c>
+      <c r="F3" s="225"/>
+      <c r="G3" s="225"/>
+      <c r="I3" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="B4" s="125" t="s">
+        <v>491</v>
+      </c>
+      <c r="C4" s="125" t="s">
+        <v>492</v>
+      </c>
+      <c r="E4" s="125" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" s="125" t="s">
+        <v>496</v>
+      </c>
+      <c r="G4" s="125" t="s">
+        <v>497</v>
+      </c>
+      <c r="I4" s="125" t="s">
+        <v>496</v>
+      </c>
+      <c r="J4" s="125" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="290" customFormat="1" ht="68">
+      <c r="B5" s="291" t="s">
+        <v>493</v>
+      </c>
+      <c r="C5" s="291" t="s">
+        <v>494</v>
+      </c>
+      <c r="E5" s="291" t="s">
+        <v>500</v>
+      </c>
+      <c r="F5" s="291" t="s">
+        <v>498</v>
+      </c>
+      <c r="G5" s="291" t="s">
+        <v>499</v>
+      </c>
+      <c r="I5" s="290" t="s">
+        <v>502</v>
+      </c>
+      <c r="J5" s="291" t="s">
+        <v>503</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38B2EA65-21F2-2F4D-89F2-3DF9C5011AEE}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A4:CN28"/>
   <sheetViews>
     <sheetView topLeftCell="AY5" zoomScaleNormal="100" workbookViewId="0">
@@ -6127,88 +6356,88 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:92" ht="67" customHeight="1">
-      <c r="B4" s="147" t="s">
+      <c r="B4" s="193" t="s">
         <v>264</v>
       </c>
-      <c r="C4" s="147"/>
-      <c r="D4" s="147"/>
-      <c r="E4" s="147"/>
-      <c r="F4" s="147"/>
-      <c r="G4" s="147"/>
-      <c r="H4" s="147"/>
-      <c r="I4" s="147"/>
-      <c r="J4" s="147"/>
-      <c r="K4" s="147"/>
-      <c r="L4" s="147"/>
-      <c r="M4" s="147"/>
-      <c r="N4" s="147"/>
-      <c r="O4" s="147"/>
-      <c r="P4" s="147"/>
-      <c r="Q4" s="147"/>
-      <c r="R4" s="147"/>
-      <c r="S4" s="147"/>
-      <c r="T4" s="147"/>
-      <c r="U4" s="147"/>
-      <c r="V4" s="147"/>
-      <c r="W4" s="147"/>
-      <c r="X4" s="147"/>
-      <c r="Y4" s="147"/>
-      <c r="Z4" s="147"/>
-      <c r="AA4" s="147"/>
-      <c r="AB4" s="147"/>
-      <c r="AC4" s="147"/>
-      <c r="AD4" s="147"/>
-      <c r="AE4" s="147"/>
-      <c r="AF4" s="147"/>
-      <c r="AG4" s="147"/>
-      <c r="AH4" s="147"/>
-      <c r="AI4" s="147"/>
-      <c r="AJ4" s="147"/>
-      <c r="AK4" s="147"/>
-      <c r="AL4" s="147"/>
-      <c r="AM4" s="147"/>
-      <c r="AN4" s="147"/>
-      <c r="AO4" s="147"/>
-      <c r="AP4" s="147"/>
-      <c r="AQ4" s="147"/>
-      <c r="AR4" s="147"/>
-      <c r="AS4" s="147"/>
-      <c r="AT4" s="147"/>
-      <c r="AU4" s="147"/>
-      <c r="AV4" s="147"/>
-      <c r="AW4" s="147"/>
-      <c r="AX4" s="147"/>
-      <c r="AY4" s="147"/>
-      <c r="AZ4" s="147"/>
-      <c r="BA4" s="147"/>
-      <c r="BB4" s="147"/>
-      <c r="BC4" s="147"/>
-      <c r="BD4" s="147"/>
-      <c r="BE4" s="147"/>
-      <c r="BF4" s="147"/>
-      <c r="BG4" s="147"/>
-      <c r="BH4" s="147"/>
-      <c r="BI4" s="147"/>
-      <c r="BJ4" s="147"/>
-      <c r="BK4" s="147"/>
-      <c r="BL4" s="147"/>
-      <c r="BM4" s="147"/>
-      <c r="BN4" s="147"/>
-      <c r="BO4" s="147"/>
-      <c r="BP4" s="147"/>
-      <c r="BQ4" s="147"/>
-      <c r="BR4" s="147"/>
-      <c r="BS4" s="147"/>
-      <c r="BT4" s="147"/>
-      <c r="BU4" s="147"/>
-      <c r="BV4" s="147"/>
-      <c r="BW4" s="147"/>
-      <c r="BX4" s="147"/>
-      <c r="BY4" s="147"/>
-      <c r="BZ4" s="147"/>
-      <c r="CA4" s="147"/>
-      <c r="CB4" s="147"/>
-      <c r="CC4" s="147"/>
+      <c r="C4" s="193"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="193"/>
+      <c r="H4" s="193"/>
+      <c r="I4" s="193"/>
+      <c r="J4" s="193"/>
+      <c r="K4" s="193"/>
+      <c r="L4" s="193"/>
+      <c r="M4" s="193"/>
+      <c r="N4" s="193"/>
+      <c r="O4" s="193"/>
+      <c r="P4" s="193"/>
+      <c r="Q4" s="193"/>
+      <c r="R4" s="193"/>
+      <c r="S4" s="193"/>
+      <c r="T4" s="193"/>
+      <c r="U4" s="193"/>
+      <c r="V4" s="193"/>
+      <c r="W4" s="193"/>
+      <c r="X4" s="193"/>
+      <c r="Y4" s="193"/>
+      <c r="Z4" s="193"/>
+      <c r="AA4" s="193"/>
+      <c r="AB4" s="193"/>
+      <c r="AC4" s="193"/>
+      <c r="AD4" s="193"/>
+      <c r="AE4" s="193"/>
+      <c r="AF4" s="193"/>
+      <c r="AG4" s="193"/>
+      <c r="AH4" s="193"/>
+      <c r="AI4" s="193"/>
+      <c r="AJ4" s="193"/>
+      <c r="AK4" s="193"/>
+      <c r="AL4" s="193"/>
+      <c r="AM4" s="193"/>
+      <c r="AN4" s="193"/>
+      <c r="AO4" s="193"/>
+      <c r="AP4" s="193"/>
+      <c r="AQ4" s="193"/>
+      <c r="AR4" s="193"/>
+      <c r="AS4" s="193"/>
+      <c r="AT4" s="193"/>
+      <c r="AU4" s="193"/>
+      <c r="AV4" s="193"/>
+      <c r="AW4" s="193"/>
+      <c r="AX4" s="193"/>
+      <c r="AY4" s="193"/>
+      <c r="AZ4" s="193"/>
+      <c r="BA4" s="193"/>
+      <c r="BB4" s="193"/>
+      <c r="BC4" s="193"/>
+      <c r="BD4" s="193"/>
+      <c r="BE4" s="193"/>
+      <c r="BF4" s="193"/>
+      <c r="BG4" s="193"/>
+      <c r="BH4" s="193"/>
+      <c r="BI4" s="193"/>
+      <c r="BJ4" s="193"/>
+      <c r="BK4" s="193"/>
+      <c r="BL4" s="193"/>
+      <c r="BM4" s="193"/>
+      <c r="BN4" s="193"/>
+      <c r="BO4" s="193"/>
+      <c r="BP4" s="193"/>
+      <c r="BQ4" s="193"/>
+      <c r="BR4" s="193"/>
+      <c r="BS4" s="193"/>
+      <c r="BT4" s="193"/>
+      <c r="BU4" s="193"/>
+      <c r="BV4" s="193"/>
+      <c r="BW4" s="193"/>
+      <c r="BX4" s="193"/>
+      <c r="BY4" s="193"/>
+      <c r="BZ4" s="193"/>
+      <c r="CA4" s="193"/>
+      <c r="CB4" s="193"/>
+      <c r="CC4" s="193"/>
     </row>
     <row r="6" spans="1:92">
       <c r="B6" s="6"/>
@@ -6263,106 +6492,106 @@
       <c r="B7" s="113" t="s">
         <v>289</v>
       </c>
-      <c r="C7" s="141" t="s">
+      <c r="C7" s="199" t="s">
         <v>263</v>
       </c>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="142"/>
-      <c r="H7" s="142"/>
-      <c r="I7" s="142"/>
-      <c r="J7" s="142"/>
-      <c r="K7" s="142"/>
-      <c r="L7" s="142"/>
-      <c r="M7" s="142"/>
-      <c r="N7" s="142"/>
-      <c r="O7" s="142"/>
-      <c r="P7" s="142"/>
-      <c r="Q7" s="142"/>
-      <c r="R7" s="142"/>
-      <c r="S7" s="142"/>
-      <c r="T7" s="142"/>
-      <c r="U7" s="142"/>
-      <c r="V7" s="142"/>
-      <c r="W7" s="142"/>
-      <c r="X7" s="142"/>
-      <c r="Y7" s="142"/>
-      <c r="Z7" s="142"/>
-      <c r="AA7" s="142"/>
-      <c r="AB7" s="142"/>
-      <c r="AC7" s="142"/>
-      <c r="AD7" s="142"/>
-      <c r="AE7" s="142"/>
-      <c r="AF7" s="142"/>
-      <c r="AG7" s="142"/>
-      <c r="AH7" s="142"/>
-      <c r="AI7" s="142"/>
-      <c r="AJ7" s="142"/>
-      <c r="AK7" s="142"/>
-      <c r="AL7" s="143"/>
-      <c r="AM7" s="141" t="s">
+      <c r="D7" s="200"/>
+      <c r="E7" s="200"/>
+      <c r="F7" s="200"/>
+      <c r="G7" s="200"/>
+      <c r="H7" s="200"/>
+      <c r="I7" s="200"/>
+      <c r="J7" s="200"/>
+      <c r="K7" s="200"/>
+      <c r="L7" s="200"/>
+      <c r="M7" s="200"/>
+      <c r="N7" s="200"/>
+      <c r="O7" s="200"/>
+      <c r="P7" s="200"/>
+      <c r="Q7" s="200"/>
+      <c r="R7" s="200"/>
+      <c r="S7" s="200"/>
+      <c r="T7" s="200"/>
+      <c r="U7" s="200"/>
+      <c r="V7" s="200"/>
+      <c r="W7" s="200"/>
+      <c r="X7" s="200"/>
+      <c r="Y7" s="200"/>
+      <c r="Z7" s="200"/>
+      <c r="AA7" s="200"/>
+      <c r="AB7" s="200"/>
+      <c r="AC7" s="200"/>
+      <c r="AD7" s="200"/>
+      <c r="AE7" s="200"/>
+      <c r="AF7" s="200"/>
+      <c r="AG7" s="200"/>
+      <c r="AH7" s="200"/>
+      <c r="AI7" s="200"/>
+      <c r="AJ7" s="200"/>
+      <c r="AK7" s="200"/>
+      <c r="AL7" s="201"/>
+      <c r="AM7" s="199" t="s">
         <v>258</v>
       </c>
-      <c r="AN7" s="142"/>
-      <c r="AO7" s="142"/>
-      <c r="AP7" s="142"/>
-      <c r="AQ7" s="142"/>
-      <c r="AR7" s="142"/>
-      <c r="AS7" s="142"/>
-      <c r="AT7" s="143"/>
-      <c r="AU7" s="141" t="s">
+      <c r="AN7" s="200"/>
+      <c r="AO7" s="200"/>
+      <c r="AP7" s="200"/>
+      <c r="AQ7" s="200"/>
+      <c r="AR7" s="200"/>
+      <c r="AS7" s="200"/>
+      <c r="AT7" s="201"/>
+      <c r="AU7" s="199" t="s">
         <v>310</v>
       </c>
-      <c r="AV7" s="142"/>
-      <c r="AW7" s="142"/>
-      <c r="AX7" s="142"/>
-      <c r="AY7" s="142"/>
-      <c r="AZ7" s="142"/>
-      <c r="BA7" s="143"/>
-      <c r="BB7" s="148" t="s">
+      <c r="AV7" s="200"/>
+      <c r="AW7" s="200"/>
+      <c r="AX7" s="200"/>
+      <c r="AY7" s="200"/>
+      <c r="AZ7" s="200"/>
+      <c r="BA7" s="201"/>
+      <c r="BB7" s="217" t="s">
         <v>257</v>
       </c>
-      <c r="BC7" s="148"/>
-      <c r="BD7" s="148"/>
-      <c r="BE7" s="148"/>
-      <c r="BF7" s="148"/>
-      <c r="BG7" s="148"/>
-      <c r="BH7" s="148"/>
-      <c r="BI7" s="148"/>
-      <c r="BJ7" s="148"/>
-      <c r="BK7" s="148"/>
-      <c r="BL7" s="148"/>
-      <c r="BM7" s="148"/>
-      <c r="BN7" s="148"/>
-      <c r="BO7" s="148"/>
-      <c r="BP7" s="148"/>
-      <c r="BQ7" s="148"/>
-      <c r="BR7" s="148"/>
-      <c r="BS7" s="148"/>
-      <c r="BT7" s="148"/>
-      <c r="BU7" s="148" t="s">
+      <c r="BC7" s="217"/>
+      <c r="BD7" s="217"/>
+      <c r="BE7" s="217"/>
+      <c r="BF7" s="217"/>
+      <c r="BG7" s="217"/>
+      <c r="BH7" s="217"/>
+      <c r="BI7" s="217"/>
+      <c r="BJ7" s="217"/>
+      <c r="BK7" s="217"/>
+      <c r="BL7" s="217"/>
+      <c r="BM7" s="217"/>
+      <c r="BN7" s="217"/>
+      <c r="BO7" s="217"/>
+      <c r="BP7" s="217"/>
+      <c r="BQ7" s="217"/>
+      <c r="BR7" s="217"/>
+      <c r="BS7" s="217"/>
+      <c r="BT7" s="217"/>
+      <c r="BU7" s="217" t="s">
         <v>260</v>
       </c>
-      <c r="BV7" s="148"/>
-      <c r="BW7" s="148"/>
-      <c r="BX7" s="148"/>
-      <c r="BY7" s="148"/>
-      <c r="BZ7" s="148"/>
-      <c r="CA7" s="148"/>
-      <c r="CB7" s="148"/>
-      <c r="CC7" s="148"/>
-      <c r="CF7" s="141" t="s">
+      <c r="BV7" s="217"/>
+      <c r="BW7" s="217"/>
+      <c r="BX7" s="217"/>
+      <c r="BY7" s="217"/>
+      <c r="BZ7" s="217"/>
+      <c r="CA7" s="217"/>
+      <c r="CB7" s="217"/>
+      <c r="CC7" s="217"/>
+      <c r="CF7" s="199" t="s">
         <v>31</v>
       </c>
-      <c r="CG7" s="142"/>
-      <c r="CH7" s="142"/>
-      <c r="CI7" s="142"/>
-      <c r="CJ7" s="142"/>
-      <c r="CK7" s="142"/>
-      <c r="CL7" s="142"/>
-      <c r="CM7" s="142"/>
-      <c r="CN7" s="143"/>
+      <c r="CG7" s="200"/>
+      <c r="CH7" s="200"/>
+      <c r="CI7" s="200"/>
+      <c r="CJ7" s="200"/>
+      <c r="CK7" s="200"/>
+      <c r="CL7" s="200"/>
+      <c r="CM7" s="200"/>
+      <c r="CN7" s="201"/>
     </row>
     <row r="8" spans="1:92" s="59" customFormat="1" ht="104" customHeight="1">
       <c r="A8" s="107" t="s">
@@ -6378,72 +6607,72 @@
       <c r="E8" s="111" t="s">
         <v>288</v>
       </c>
-      <c r="F8" s="144" t="s">
+      <c r="F8" s="218" t="s">
         <v>262</v>
       </c>
-      <c r="G8" s="144"/>
-      <c r="H8" s="144"/>
-      <c r="I8" s="144"/>
-      <c r="J8" s="144"/>
-      <c r="K8" s="144"/>
-      <c r="L8" s="144"/>
-      <c r="M8" s="139" t="s">
+      <c r="G8" s="218"/>
+      <c r="H8" s="218"/>
+      <c r="I8" s="218"/>
+      <c r="J8" s="218"/>
+      <c r="K8" s="218"/>
+      <c r="L8" s="218"/>
+      <c r="M8" s="219" t="s">
         <v>356</v>
       </c>
-      <c r="N8" s="145"/>
-      <c r="O8" s="145"/>
-      <c r="P8" s="145"/>
-      <c r="Q8" s="145"/>
-      <c r="R8" s="145"/>
-      <c r="S8" s="145"/>
-      <c r="T8" s="145"/>
-      <c r="U8" s="140"/>
-      <c r="V8" s="144" t="s">
+      <c r="N8" s="220"/>
+      <c r="O8" s="220"/>
+      <c r="P8" s="220"/>
+      <c r="Q8" s="220"/>
+      <c r="R8" s="220"/>
+      <c r="S8" s="220"/>
+      <c r="T8" s="220"/>
+      <c r="U8" s="221"/>
+      <c r="V8" s="218" t="s">
         <v>1</v>
       </c>
-      <c r="W8" s="144"/>
-      <c r="X8" s="144"/>
-      <c r="Y8" s="144"/>
-      <c r="Z8" s="144"/>
-      <c r="AA8" s="144"/>
-      <c r="AB8" s="144"/>
-      <c r="AC8" s="144"/>
-      <c r="AD8" s="144"/>
-      <c r="AE8" s="144"/>
-      <c r="AF8" s="144"/>
-      <c r="AG8" s="144"/>
-      <c r="AH8" s="144"/>
-      <c r="AI8" s="144"/>
-      <c r="AJ8" s="144"/>
-      <c r="AK8" s="144"/>
+      <c r="W8" s="218"/>
+      <c r="X8" s="218"/>
+      <c r="Y8" s="218"/>
+      <c r="Z8" s="218"/>
+      <c r="AA8" s="218"/>
+      <c r="AB8" s="218"/>
+      <c r="AC8" s="218"/>
+      <c r="AD8" s="218"/>
+      <c r="AE8" s="218"/>
+      <c r="AF8" s="218"/>
+      <c r="AG8" s="218"/>
+      <c r="AH8" s="218"/>
+      <c r="AI8" s="218"/>
+      <c r="AJ8" s="218"/>
+      <c r="AK8" s="218"/>
       <c r="AL8" s="112" t="s">
         <v>28</v>
       </c>
-      <c r="AM8" s="144" t="s">
+      <c r="AM8" s="218" t="s">
         <v>275</v>
       </c>
-      <c r="AN8" s="144"/>
-      <c r="AO8" s="144"/>
-      <c r="AP8" s="144"/>
-      <c r="AQ8" s="144"/>
-      <c r="AR8" s="139" t="s">
+      <c r="AN8" s="218"/>
+      <c r="AO8" s="218"/>
+      <c r="AP8" s="218"/>
+      <c r="AQ8" s="218"/>
+      <c r="AR8" s="219" t="s">
         <v>276</v>
       </c>
-      <c r="AS8" s="145"/>
-      <c r="AT8" s="140"/>
+      <c r="AS8" s="220"/>
+      <c r="AT8" s="221"/>
       <c r="AU8" s="118" t="s">
         <v>290</v>
       </c>
       <c r="AV8" s="118" t="s">
         <v>387</v>
       </c>
-      <c r="AW8" s="144" t="s">
+      <c r="AW8" s="218" t="s">
         <v>259</v>
       </c>
-      <c r="AX8" s="144"/>
-      <c r="AY8" s="144"/>
-      <c r="AZ8" s="144"/>
-      <c r="BA8" s="144"/>
+      <c r="AX8" s="218"/>
+      <c r="AY8" s="218"/>
+      <c r="AZ8" s="218"/>
+      <c r="BA8" s="218"/>
       <c r="BB8" s="123" t="s">
         <v>353</v>
       </c>
@@ -6456,27 +6685,27 @@
       <c r="BE8" s="124" t="s">
         <v>391</v>
       </c>
-      <c r="BF8" s="146" t="s">
+      <c r="BF8" s="222" t="s">
         <v>266</v>
       </c>
-      <c r="BG8" s="146"/>
-      <c r="BH8" s="149" t="s">
+      <c r="BG8" s="222"/>
+      <c r="BH8" s="223" t="s">
         <v>390</v>
       </c>
-      <c r="BI8" s="151"/>
-      <c r="BJ8" s="151"/>
-      <c r="BK8" s="151"/>
-      <c r="BL8" s="139" t="s">
+      <c r="BI8" s="224"/>
+      <c r="BJ8" s="224"/>
+      <c r="BK8" s="224"/>
+      <c r="BL8" s="219" t="s">
         <v>265</v>
       </c>
-      <c r="BM8" s="145"/>
-      <c r="BN8" s="145"/>
-      <c r="BO8" s="145"/>
-      <c r="BP8" s="145"/>
-      <c r="BQ8" s="145"/>
-      <c r="BR8" s="145"/>
-      <c r="BS8" s="145"/>
-      <c r="BT8" s="145"/>
+      <c r="BM8" s="220"/>
+      <c r="BN8" s="220"/>
+      <c r="BO8" s="220"/>
+      <c r="BP8" s="220"/>
+      <c r="BQ8" s="220"/>
+      <c r="BR8" s="220"/>
+      <c r="BS8" s="220"/>
+      <c r="BT8" s="220"/>
       <c r="BU8" s="111" t="s">
         <v>137</v>
       </c>
@@ -6492,14 +6721,14 @@
       <c r="BY8" s="111" t="s">
         <v>386</v>
       </c>
-      <c r="BZ8" s="149" t="s">
+      <c r="BZ8" s="223" t="s">
         <v>305</v>
       </c>
-      <c r="CA8" s="150"/>
-      <c r="CB8" s="136" t="s">
+      <c r="CA8" s="226"/>
+      <c r="CB8" s="230" t="s">
         <v>307</v>
       </c>
-      <c r="CC8" s="136"/>
+      <c r="CC8" s="230"/>
       <c r="CF8" s="59" t="s">
         <v>355</v>
       </c>
@@ -6539,15 +6768,15 @@
       <c r="N9" s="114" t="s">
         <v>395</v>
       </c>
-      <c r="O9" s="127" t="s">
+      <c r="O9" s="187" t="s">
         <v>417</v>
       </c>
-      <c r="P9" s="128"/>
-      <c r="Q9" s="128"/>
-      <c r="R9" s="128"/>
-      <c r="S9" s="128"/>
-      <c r="T9" s="128"/>
-      <c r="U9" s="129"/>
+      <c r="P9" s="188"/>
+      <c r="Q9" s="188"/>
+      <c r="R9" s="188"/>
+      <c r="S9" s="188"/>
+      <c r="T9" s="188"/>
+      <c r="U9" s="189"/>
       <c r="V9" s="98" t="s">
         <v>379</v>
       </c>
@@ -6560,20 +6789,20 @@
       <c r="Y9" s="98" t="s">
         <v>399</v>
       </c>
-      <c r="Z9" s="126" t="s">
+      <c r="Z9" s="209" t="s">
         <v>416</v>
       </c>
-      <c r="AA9" s="126"/>
-      <c r="AB9" s="126"/>
-      <c r="AC9" s="126"/>
-      <c r="AD9" s="126"/>
-      <c r="AE9" s="126"/>
-      <c r="AF9" s="126"/>
-      <c r="AG9" s="126"/>
-      <c r="AH9" s="126"/>
-      <c r="AI9" s="126"/>
-      <c r="AJ9" s="126"/>
-      <c r="AK9" s="126"/>
+      <c r="AA9" s="209"/>
+      <c r="AB9" s="209"/>
+      <c r="AC9" s="209"/>
+      <c r="AD9" s="209"/>
+      <c r="AE9" s="209"/>
+      <c r="AF9" s="209"/>
+      <c r="AG9" s="209"/>
+      <c r="AH9" s="209"/>
+      <c r="AI9" s="209"/>
+      <c r="AJ9" s="209"/>
+      <c r="AK9" s="209"/>
       <c r="AL9" s="11"/>
       <c r="AM9" s="98" t="s">
         <v>258</v>
@@ -6633,20 +6862,20 @@
       <c r="BH9" s="98" t="s">
         <v>422</v>
       </c>
-      <c r="BI9" s="127" t="s">
+      <c r="BI9" s="187" t="s">
         <v>407</v>
       </c>
-      <c r="BJ9" s="128"/>
+      <c r="BJ9" s="188"/>
       <c r="BK9" s="114" t="s">
         <v>403</v>
       </c>
       <c r="BL9" s="98" t="s">
         <v>422</v>
       </c>
-      <c r="BM9" s="127" t="s">
+      <c r="BM9" s="187" t="s">
         <v>407</v>
       </c>
-      <c r="BN9" s="129"/>
+      <c r="BN9" s="189"/>
       <c r="BO9" s="114" t="s">
         <v>403</v>
       </c>
@@ -6656,11 +6885,11 @@
       <c r="BQ9" s="121" t="s">
         <v>372</v>
       </c>
-      <c r="BR9" s="133" t="s">
+      <c r="BR9" s="227" t="s">
         <v>388</v>
       </c>
-      <c r="BS9" s="134"/>
-      <c r="BT9" s="135"/>
+      <c r="BS9" s="228"/>
+      <c r="BT9" s="229"/>
       <c r="BU9" s="63"/>
       <c r="BV9" s="63"/>
       <c r="BW9" s="63"/>
@@ -6711,13 +6940,13 @@
       <c r="P10" s="98" t="s">
         <v>137</v>
       </c>
-      <c r="Q10" s="127" t="s">
+      <c r="Q10" s="187" t="s">
         <v>145</v>
       </c>
-      <c r="R10" s="128"/>
-      <c r="S10" s="128"/>
-      <c r="T10" s="128"/>
-      <c r="U10" s="129"/>
+      <c r="R10" s="188"/>
+      <c r="S10" s="188"/>
+      <c r="T10" s="188"/>
+      <c r="U10" s="189"/>
       <c r="V10" s="11"/>
       <c r="W10" s="11"/>
       <c r="X10" s="11"/>
@@ -6734,18 +6963,18 @@
       <c r="AC10" s="37" t="s">
         <v>281</v>
       </c>
-      <c r="AD10" s="130" t="s">
+      <c r="AD10" s="231" t="s">
         <v>145</v>
       </c>
-      <c r="AE10" s="131"/>
-      <c r="AF10" s="131"/>
-      <c r="AG10" s="132"/>
-      <c r="AH10" s="130" t="s">
+      <c r="AE10" s="232"/>
+      <c r="AF10" s="232"/>
+      <c r="AG10" s="233"/>
+      <c r="AH10" s="231" t="s">
         <v>140</v>
       </c>
-      <c r="AI10" s="131"/>
-      <c r="AJ10" s="131"/>
-      <c r="AK10" s="132"/>
+      <c r="AI10" s="232"/>
+      <c r="AJ10" s="232"/>
+      <c r="AK10" s="233"/>
       <c r="AL10" s="11"/>
       <c r="AM10" s="11"/>
       <c r="AN10" s="11"/>
@@ -6992,10 +7221,10 @@
       <c r="BN15" s="55"/>
     </row>
     <row r="16" spans="1:92">
-      <c r="BM16" s="138" t="s">
+      <c r="BM16" s="225" t="s">
         <v>425</v>
       </c>
-      <c r="BN16" s="138"/>
+      <c r="BN16" s="225"/>
     </row>
     <row r="17" spans="4:67" ht="44" customHeight="1">
       <c r="BF17" t="s">
@@ -7088,6 +7317,19 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="Q10:U10"/>
+    <mergeCell ref="BM16:BN16"/>
+    <mergeCell ref="CF7:CN7"/>
+    <mergeCell ref="M8:U8"/>
+    <mergeCell ref="O9:U9"/>
+    <mergeCell ref="C7:AL7"/>
+    <mergeCell ref="BZ8:CA8"/>
+    <mergeCell ref="BR9:BT9"/>
+    <mergeCell ref="BL8:BT8"/>
+    <mergeCell ref="CB8:CC8"/>
+    <mergeCell ref="Z9:AK9"/>
+    <mergeCell ref="AH10:AK10"/>
+    <mergeCell ref="AD10:AG10"/>
     <mergeCell ref="B4:CC4"/>
     <mergeCell ref="BI9:BJ9"/>
     <mergeCell ref="AU7:BA7"/>
@@ -7102,26 +7344,14 @@
     <mergeCell ref="F8:L8"/>
     <mergeCell ref="AM7:AT7"/>
     <mergeCell ref="BM9:BN9"/>
-    <mergeCell ref="Q10:U10"/>
-    <mergeCell ref="BM16:BN16"/>
-    <mergeCell ref="CF7:CN7"/>
-    <mergeCell ref="M8:U8"/>
-    <mergeCell ref="O9:U9"/>
-    <mergeCell ref="C7:AL7"/>
-    <mergeCell ref="BZ8:CA8"/>
-    <mergeCell ref="BR9:BT9"/>
-    <mergeCell ref="BL8:BT8"/>
-    <mergeCell ref="CB8:CC8"/>
-    <mergeCell ref="Z9:AK9"/>
-    <mergeCell ref="AH10:AK10"/>
-    <mergeCell ref="AD10:AG10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6180D86-3E8D-DE43-B0D1-6D6FAA66BA84}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:N86"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -7237,13 +7467,13 @@
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="B7" s="152" t="s">
+      <c r="B7" s="246" t="s">
         <v>369</v>
       </c>
-      <c r="C7" s="152"/>
-      <c r="D7" s="152"/>
-      <c r="E7" s="152"/>
-      <c r="F7" s="152"/>
+      <c r="C7" s="246"/>
+      <c r="D7" s="246"/>
+      <c r="E7" s="246"/>
+      <c r="F7" s="246"/>
       <c r="H7" s="20" t="s">
         <v>316</v>
       </c>
@@ -7286,7 +7516,7 @@
       <c r="N9" s="77"/>
     </row>
     <row r="10" spans="1:14" ht="17">
-      <c r="B10" s="153" t="s">
+      <c r="B10" s="234" t="s">
         <v>263</v>
       </c>
       <c r="C10" s="19" t="s">
@@ -7307,7 +7537,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="17">
-      <c r="B11" s="153"/>
+      <c r="B11" s="234"/>
       <c r="C11" s="19" t="s">
         <v>285</v>
       </c>
@@ -7326,7 +7556,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="17">
-      <c r="B12" s="153"/>
+      <c r="B12" s="234"/>
       <c r="C12" s="19" t="s">
         <v>288</v>
       </c>
@@ -7345,8 +7575,8 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="17">
-      <c r="B13" s="153"/>
-      <c r="C13" s="155" t="s">
+      <c r="B13" s="234"/>
+      <c r="C13" s="241" t="s">
         <v>262</v>
       </c>
       <c r="D13" s="19" t="s">
@@ -7366,8 +7596,8 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="17">
-      <c r="B14" s="153"/>
-      <c r="C14" s="155"/>
+      <c r="B14" s="234"/>
+      <c r="C14" s="241"/>
       <c r="D14" s="19" t="s">
         <v>267</v>
       </c>
@@ -7387,8 +7617,8 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="17">
-      <c r="B15" s="153"/>
-      <c r="C15" s="155"/>
+      <c r="B15" s="234"/>
+      <c r="C15" s="241"/>
       <c r="D15" s="19" t="s">
         <v>268</v>
       </c>
@@ -7408,8 +7638,8 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="17">
-      <c r="B16" s="153"/>
-      <c r="C16" s="155"/>
+      <c r="B16" s="234"/>
+      <c r="C16" s="241"/>
       <c r="D16" s="19" t="s">
         <v>261</v>
       </c>
@@ -7427,8 +7657,8 @@
       </c>
     </row>
     <row r="17" spans="2:12" ht="17">
-      <c r="B17" s="153"/>
-      <c r="C17" s="155"/>
+      <c r="B17" s="234"/>
+      <c r="C17" s="241"/>
       <c r="D17" s="19" t="s">
         <v>269</v>
       </c>
@@ -7446,8 +7676,8 @@
       </c>
     </row>
     <row r="18" spans="2:12" ht="17">
-      <c r="B18" s="153"/>
-      <c r="C18" s="155"/>
+      <c r="B18" s="234"/>
+      <c r="C18" s="241"/>
       <c r="D18" s="19" t="s">
         <v>284</v>
       </c>
@@ -7465,8 +7695,8 @@
       </c>
     </row>
     <row r="19" spans="2:12" ht="17">
-      <c r="B19" s="153"/>
-      <c r="C19" s="155"/>
+      <c r="B19" s="234"/>
+      <c r="C19" s="241"/>
       <c r="D19" s="19" t="s">
         <v>283</v>
       </c>
@@ -7484,8 +7714,8 @@
       </c>
     </row>
     <row r="20" spans="2:12" ht="17">
-      <c r="B20" s="153"/>
-      <c r="C20" s="160" t="s">
+      <c r="B20" s="234"/>
+      <c r="C20" s="239" t="s">
         <v>356</v>
       </c>
       <c r="D20" s="102" t="s">
@@ -7507,8 +7737,8 @@
       </c>
     </row>
     <row r="21" spans="2:12" ht="17">
-      <c r="B21" s="153"/>
-      <c r="C21" s="161"/>
+      <c r="B21" s="234"/>
+      <c r="C21" s="240"/>
       <c r="D21" s="102" t="s">
         <v>396</v>
       </c>
@@ -7526,9 +7756,9 @@
       </c>
     </row>
     <row r="22" spans="2:12" ht="17">
-      <c r="B22" s="153"/>
-      <c r="C22" s="161"/>
-      <c r="D22" s="157" t="s">
+      <c r="B22" s="234"/>
+      <c r="C22" s="240"/>
+      <c r="D22" s="236" t="s">
         <v>370</v>
       </c>
       <c r="E22" s="103" t="s">
@@ -7541,7 +7771,7 @@
       <c r="I22" s="82" t="b">
         <v>1</v>
       </c>
-      <c r="J22" s="152" t="s">
+      <c r="J22" s="246" t="s">
         <v>82</v>
       </c>
       <c r="L22" s="19" t="s">
@@ -7549,9 +7779,9 @@
       </c>
     </row>
     <row r="23" spans="2:12" ht="17">
-      <c r="B23" s="153"/>
-      <c r="C23" s="161"/>
-      <c r="D23" s="158"/>
+      <c r="B23" s="234"/>
+      <c r="C23" s="240"/>
+      <c r="D23" s="237"/>
       <c r="E23" s="103" t="s">
         <v>137</v>
       </c>
@@ -7562,16 +7792,16 @@
       <c r="I23" s="37" t="s">
         <v>243</v>
       </c>
-      <c r="J23" s="152"/>
+      <c r="J23" s="246"/>
       <c r="L23" s="19" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="24" spans="2:12" ht="17">
-      <c r="B24" s="153"/>
-      <c r="C24" s="161"/>
-      <c r="D24" s="158"/>
-      <c r="E24" s="156" t="s">
+      <c r="B24" s="234"/>
+      <c r="C24" s="240"/>
+      <c r="D24" s="237"/>
+      <c r="E24" s="235" t="s">
         <v>145</v>
       </c>
       <c r="F24" s="19" t="s">
@@ -7581,16 +7811,16 @@
         <v>141</v>
       </c>
       <c r="I24" s="11"/>
-      <c r="J24" s="152"/>
+      <c r="J24" s="246"/>
       <c r="L24" s="19" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="25" spans="2:12" ht="17">
-      <c r="B25" s="153"/>
-      <c r="C25" s="161"/>
-      <c r="D25" s="158"/>
-      <c r="E25" s="156"/>
+      <c r="B25" s="234"/>
+      <c r="C25" s="240"/>
+      <c r="D25" s="237"/>
+      <c r="E25" s="235"/>
       <c r="F25" s="19" t="s">
         <v>146</v>
       </c>
@@ -7598,16 +7828,16 @@
         <v>97</v>
       </c>
       <c r="I25" s="11"/>
-      <c r="J25" s="152"/>
+      <c r="J25" s="246"/>
       <c r="L25" s="19" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="26" spans="2:12" ht="17">
-      <c r="B26" s="153"/>
-      <c r="C26" s="161"/>
-      <c r="D26" s="159"/>
-      <c r="E26" s="156"/>
+      <c r="B26" s="234"/>
+      <c r="C26" s="240"/>
+      <c r="D26" s="238"/>
+      <c r="E26" s="235"/>
       <c r="F26" s="19" t="s">
         <v>328</v>
       </c>
@@ -7615,14 +7845,14 @@
         <v>329</v>
       </c>
       <c r="I26" s="11"/>
-      <c r="J26" s="152"/>
+      <c r="J26" s="246"/>
       <c r="L26" s="19" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="27" spans="2:12" ht="17">
-      <c r="B27" s="153"/>
-      <c r="C27" s="162" t="s">
+      <c r="B27" s="234"/>
+      <c r="C27" s="242" t="s">
         <v>1</v>
       </c>
       <c r="D27" s="19" t="s">
@@ -7642,8 +7872,8 @@
       </c>
     </row>
     <row r="28" spans="2:12" ht="17">
-      <c r="B28" s="153"/>
-      <c r="C28" s="163"/>
+      <c r="B28" s="234"/>
+      <c r="C28" s="243"/>
       <c r="D28" s="19" t="s">
         <v>279</v>
       </c>
@@ -7661,8 +7891,8 @@
       </c>
     </row>
     <row r="29" spans="2:12" ht="17">
-      <c r="B29" s="153"/>
-      <c r="C29" s="163"/>
+      <c r="B29" s="234"/>
+      <c r="C29" s="243"/>
       <c r="D29" s="19" t="s">
         <v>280</v>
       </c>
@@ -7680,9 +7910,9 @@
       </c>
     </row>
     <row r="30" spans="2:12" ht="17" customHeight="1">
-      <c r="B30" s="153"/>
-      <c r="C30" s="163"/>
-      <c r="D30" s="154" t="s">
+      <c r="B30" s="234"/>
+      <c r="C30" s="243"/>
+      <c r="D30" s="245" t="s">
         <v>389</v>
       </c>
       <c r="E30" s="19" t="s">
@@ -7695,7 +7925,7 @@
       <c r="I30" s="82" t="b">
         <v>1</v>
       </c>
-      <c r="J30" s="152" t="s">
+      <c r="J30" s="246" t="s">
         <v>60</v>
       </c>
       <c r="L30" s="19" t="s">
@@ -7703,9 +7933,9 @@
       </c>
     </row>
     <row r="31" spans="2:12" ht="17" customHeight="1">
-      <c r="B31" s="153"/>
-      <c r="C31" s="163"/>
-      <c r="D31" s="154"/>
+      <c r="B31" s="234"/>
+      <c r="C31" s="243"/>
+      <c r="D31" s="245"/>
       <c r="E31" s="19" t="s">
         <v>137</v>
       </c>
@@ -7716,15 +7946,15 @@
       <c r="I31" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="J31" s="152"/>
+      <c r="J31" s="246"/>
       <c r="L31" s="19" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="32" spans="2:12" ht="17" customHeight="1">
-      <c r="B32" s="153"/>
-      <c r="C32" s="163"/>
-      <c r="D32" s="154"/>
+      <c r="B32" s="234"/>
+      <c r="C32" s="243"/>
+      <c r="D32" s="245"/>
       <c r="E32" s="19" t="s">
         <v>282</v>
       </c>
@@ -7735,15 +7965,15 @@
       <c r="I32" s="82" t="b">
         <v>0</v>
       </c>
-      <c r="J32" s="152"/>
+      <c r="J32" s="246"/>
       <c r="L32" s="19" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="33" spans="2:12" ht="17" customHeight="1">
-      <c r="B33" s="153"/>
-      <c r="C33" s="163"/>
-      <c r="D33" s="154"/>
+      <c r="B33" s="234"/>
+      <c r="C33" s="243"/>
+      <c r="D33" s="245"/>
       <c r="E33" s="19" t="s">
         <v>281</v>
       </c>
@@ -7754,16 +7984,16 @@
       <c r="I33" s="82" t="b">
         <v>0</v>
       </c>
-      <c r="J33" s="152"/>
+      <c r="J33" s="246"/>
       <c r="L33" s="19" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="34" spans="2:12" ht="17" customHeight="1">
-      <c r="B34" s="153"/>
-      <c r="C34" s="163"/>
-      <c r="D34" s="154"/>
-      <c r="E34" s="154" t="s">
+      <c r="B34" s="234"/>
+      <c r="C34" s="243"/>
+      <c r="D34" s="245"/>
+      <c r="E34" s="245" t="s">
         <v>145</v>
       </c>
       <c r="F34" s="19" t="s">
@@ -7773,16 +8003,16 @@
         <v>141</v>
       </c>
       <c r="I34" s="11"/>
-      <c r="J34" s="152"/>
+      <c r="J34" s="246"/>
       <c r="L34" s="19" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="35" spans="2:12" ht="17" customHeight="1">
-      <c r="B35" s="153"/>
-      <c r="C35" s="163"/>
-      <c r="D35" s="154"/>
-      <c r="E35" s="154"/>
+      <c r="B35" s="234"/>
+      <c r="C35" s="243"/>
+      <c r="D35" s="245"/>
+      <c r="E35" s="245"/>
       <c r="F35" s="19" t="s">
         <v>146</v>
       </c>
@@ -7790,16 +8020,16 @@
         <v>97</v>
       </c>
       <c r="I35" s="11"/>
-      <c r="J35" s="152"/>
+      <c r="J35" s="246"/>
       <c r="L35" s="19" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="36" spans="2:12" ht="17" customHeight="1">
-      <c r="B36" s="153"/>
-      <c r="C36" s="163"/>
-      <c r="D36" s="154"/>
-      <c r="E36" s="154"/>
+      <c r="B36" s="234"/>
+      <c r="C36" s="243"/>
+      <c r="D36" s="245"/>
+      <c r="E36" s="245"/>
       <c r="F36" s="19" t="s">
         <v>328</v>
       </c>
@@ -7807,16 +8037,16 @@
         <v>329</v>
       </c>
       <c r="I36" s="11"/>
-      <c r="J36" s="152"/>
+      <c r="J36" s="246"/>
       <c r="L36" s="19" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="37" spans="2:12" ht="17" customHeight="1">
-      <c r="B37" s="153"/>
-      <c r="C37" s="163"/>
-      <c r="D37" s="154"/>
-      <c r="E37" s="154" t="s">
+      <c r="B37" s="234"/>
+      <c r="C37" s="243"/>
+      <c r="D37" s="245"/>
+      <c r="E37" s="245" t="s">
         <v>140</v>
       </c>
       <c r="F37" s="19" t="s">
@@ -7828,16 +8058,16 @@
       <c r="I37" s="82" t="s">
         <v>158</v>
       </c>
-      <c r="J37" s="152"/>
+      <c r="J37" s="246"/>
       <c r="L37" s="19" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="38" spans="2:12" ht="17" customHeight="1">
-      <c r="B38" s="153"/>
-      <c r="C38" s="163"/>
-      <c r="D38" s="154"/>
-      <c r="E38" s="154"/>
+      <c r="B38" s="234"/>
+      <c r="C38" s="243"/>
+      <c r="D38" s="245"/>
+      <c r="E38" s="245"/>
       <c r="F38" s="19" t="s">
         <v>142</v>
       </c>
@@ -7847,16 +8077,16 @@
       <c r="I38" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="J38" s="152"/>
+      <c r="J38" s="246"/>
       <c r="L38" s="19" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="39" spans="2:12" ht="17" customHeight="1">
-      <c r="B39" s="153"/>
-      <c r="C39" s="163"/>
-      <c r="D39" s="154"/>
-      <c r="E39" s="154"/>
+      <c r="B39" s="234"/>
+      <c r="C39" s="243"/>
+      <c r="D39" s="245"/>
+      <c r="E39" s="245"/>
       <c r="F39" s="19" t="s">
         <v>143</v>
       </c>
@@ -7866,16 +8096,16 @@
       <c r="I39" s="91">
         <v>0.5</v>
       </c>
-      <c r="J39" s="152"/>
+      <c r="J39" s="246"/>
       <c r="L39" s="19" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="40" spans="2:12" ht="17" customHeight="1">
-      <c r="B40" s="153"/>
-      <c r="C40" s="164"/>
-      <c r="D40" s="154"/>
-      <c r="E40" s="154"/>
+      <c r="B40" s="234"/>
+      <c r="C40" s="244"/>
+      <c r="D40" s="245"/>
+      <c r="E40" s="245"/>
       <c r="F40" s="19" t="s">
         <v>144</v>
       </c>
@@ -7885,13 +8115,13 @@
       <c r="I40" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="J40" s="152"/>
+      <c r="J40" s="246"/>
       <c r="L40" s="19" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="41" spans="2:12" ht="34">
-      <c r="B41" s="153"/>
+      <c r="B41" s="234"/>
       <c r="C41" s="12" t="s">
         <v>28</v>
       </c>
@@ -7910,10 +8140,10 @@
       </c>
     </row>
     <row r="42" spans="2:12" ht="17">
-      <c r="B42" s="153" t="s">
+      <c r="B42" s="234" t="s">
         <v>258</v>
       </c>
-      <c r="C42" s="155" t="s">
+      <c r="C42" s="241" t="s">
         <v>275</v>
       </c>
       <c r="D42" s="19" t="s">
@@ -7931,8 +8161,8 @@
       </c>
     </row>
     <row r="43" spans="2:12" ht="17">
-      <c r="B43" s="153"/>
-      <c r="C43" s="155"/>
+      <c r="B43" s="234"/>
+      <c r="C43" s="241"/>
       <c r="D43" s="89" t="s">
         <v>274</v>
       </c>
@@ -7951,8 +8181,8 @@
       </c>
     </row>
     <row r="44" spans="2:12" ht="17">
-      <c r="B44" s="153"/>
-      <c r="C44" s="155"/>
+      <c r="B44" s="234"/>
+      <c r="C44" s="241"/>
       <c r="D44" s="19" t="s">
         <v>277</v>
       </c>
@@ -7968,8 +8198,8 @@
       </c>
     </row>
     <row r="45" spans="2:12" ht="17">
-      <c r="B45" s="153"/>
-      <c r="C45" s="155"/>
+      <c r="B45" s="234"/>
+      <c r="C45" s="241"/>
       <c r="D45" s="19" t="s">
         <v>261</v>
       </c>
@@ -7985,8 +8215,8 @@
       </c>
     </row>
     <row r="46" spans="2:12" ht="17">
-      <c r="B46" s="153"/>
-      <c r="C46" s="155"/>
+      <c r="B46" s="234"/>
+      <c r="C46" s="241"/>
       <c r="D46" s="19" t="s">
         <v>273</v>
       </c>
@@ -8002,8 +8232,8 @@
       </c>
     </row>
     <row r="47" spans="2:12" ht="17">
-      <c r="B47" s="153"/>
-      <c r="C47" s="155" t="s">
+      <c r="B47" s="234"/>
+      <c r="C47" s="241" t="s">
         <v>276</v>
       </c>
       <c r="D47" s="19" t="s">
@@ -8021,8 +8251,8 @@
       </c>
     </row>
     <row r="48" spans="2:12" ht="17">
-      <c r="B48" s="153"/>
-      <c r="C48" s="155"/>
+      <c r="B48" s="234"/>
+      <c r="C48" s="241"/>
       <c r="D48" s="19" t="s">
         <v>44</v>
       </c>
@@ -8038,8 +8268,8 @@
       </c>
     </row>
     <row r="49" spans="2:12" ht="17">
-      <c r="B49" s="153"/>
-      <c r="C49" s="155"/>
+      <c r="B49" s="234"/>
+      <c r="C49" s="241"/>
       <c r="D49" s="19" t="s">
         <v>273</v>
       </c>
@@ -8055,7 +8285,7 @@
       </c>
     </row>
     <row r="50" spans="2:12" ht="17">
-      <c r="B50" s="153" t="s">
+      <c r="B50" s="234" t="s">
         <v>310</v>
       </c>
       <c r="C50" s="90" t="s">
@@ -8076,7 +8306,7 @@
       </c>
     </row>
     <row r="51" spans="2:12" ht="17">
-      <c r="B51" s="153"/>
+      <c r="B51" s="234"/>
       <c r="C51" s="90" t="s">
         <v>291</v>
       </c>
@@ -8095,8 +8325,8 @@
       </c>
     </row>
     <row r="52" spans="2:12" ht="17">
-      <c r="B52" s="153"/>
-      <c r="C52" s="155" t="s">
+      <c r="B52" s="234"/>
+      <c r="C52" s="241" t="s">
         <v>259</v>
       </c>
       <c r="D52" s="19" t="s">
@@ -8116,8 +8346,8 @@
       </c>
     </row>
     <row r="53" spans="2:12" ht="17">
-      <c r="B53" s="153"/>
-      <c r="C53" s="155"/>
+      <c r="B53" s="234"/>
+      <c r="C53" s="241"/>
       <c r="D53" s="19" t="s">
         <v>268</v>
       </c>
@@ -8135,8 +8365,8 @@
       </c>
     </row>
     <row r="54" spans="2:12" ht="17">
-      <c r="B54" s="153"/>
-      <c r="C54" s="155"/>
+      <c r="B54" s="234"/>
+      <c r="C54" s="241"/>
       <c r="D54" s="19" t="s">
         <v>314</v>
       </c>
@@ -8157,8 +8387,8 @@
       </c>
     </row>
     <row r="55" spans="2:12" ht="17">
-      <c r="B55" s="153"/>
-      <c r="C55" s="155"/>
+      <c r="B55" s="234"/>
+      <c r="C55" s="241"/>
       <c r="D55" s="19" t="s">
         <v>313</v>
       </c>
@@ -8176,8 +8406,8 @@
       </c>
     </row>
     <row r="56" spans="2:12" ht="34">
-      <c r="B56" s="153"/>
-      <c r="C56" s="155"/>
+      <c r="B56" s="234"/>
+      <c r="C56" s="241"/>
       <c r="D56" s="19" t="s">
         <v>312</v>
       </c>
@@ -8198,7 +8428,7 @@
       </c>
     </row>
     <row r="57" spans="2:12" ht="17">
-      <c r="B57" s="153" t="s">
+      <c r="B57" s="234" t="s">
         <v>257</v>
       </c>
       <c r="C57" s="12" t="s">
@@ -8224,7 +8454,7 @@
       </c>
     </row>
     <row r="58" spans="2:12" ht="17">
-      <c r="B58" s="153"/>
+      <c r="B58" s="234"/>
       <c r="C58" s="12" t="s">
         <v>351</v>
       </c>
@@ -8248,7 +8478,7 @@
       </c>
     </row>
     <row r="59" spans="2:12" ht="17">
-      <c r="B59" s="153"/>
+      <c r="B59" s="234"/>
       <c r="C59" s="19" t="s">
         <v>297</v>
       </c>
@@ -8265,7 +8495,7 @@
       </c>
     </row>
     <row r="60" spans="2:12" ht="17">
-      <c r="B60" s="153"/>
+      <c r="B60" s="234"/>
       <c r="C60" s="19" t="s">
         <v>392</v>
       </c>
@@ -8284,8 +8514,8 @@
       </c>
     </row>
     <row r="61" spans="2:12" ht="17">
-      <c r="B61" s="153"/>
-      <c r="C61" s="155" t="s">
+      <c r="B61" s="234"/>
+      <c r="C61" s="241" t="s">
         <v>266</v>
       </c>
       <c r="D61" s="19" t="s">
@@ -8307,8 +8537,8 @@
       </c>
     </row>
     <row r="62" spans="2:12" ht="17">
-      <c r="B62" s="153"/>
-      <c r="C62" s="155"/>
+      <c r="B62" s="234"/>
+      <c r="C62" s="241"/>
       <c r="D62" s="19" t="s">
         <v>295</v>
       </c>
@@ -8328,8 +8558,8 @@
       </c>
     </row>
     <row r="63" spans="2:12" ht="17">
-      <c r="B63" s="153"/>
-      <c r="C63" s="154" t="s">
+      <c r="B63" s="234"/>
+      <c r="C63" s="245" t="s">
         <v>311</v>
       </c>
       <c r="D63" s="103" t="s">
@@ -8349,8 +8579,8 @@
       </c>
     </row>
     <row r="64" spans="2:12" ht="17">
-      <c r="B64" s="153"/>
-      <c r="C64" s="154"/>
+      <c r="B64" s="234"/>
+      <c r="C64" s="245"/>
       <c r="D64" s="103" t="s">
         <v>302</v>
       </c>
@@ -8368,8 +8598,8 @@
       </c>
     </row>
     <row r="65" spans="2:12" ht="17">
-      <c r="B65" s="153"/>
-      <c r="C65" s="154"/>
+      <c r="B65" s="234"/>
+      <c r="C65" s="245"/>
       <c r="D65" s="103" t="s">
         <v>300</v>
       </c>
@@ -8387,8 +8617,8 @@
       </c>
     </row>
     <row r="66" spans="2:12" ht="17">
-      <c r="B66" s="153"/>
-      <c r="C66" s="154"/>
+      <c r="B66" s="234"/>
+      <c r="C66" s="245"/>
       <c r="D66" s="103" t="s">
         <v>294</v>
       </c>
@@ -8408,8 +8638,8 @@
       </c>
     </row>
     <row r="67" spans="2:12" ht="17">
-      <c r="B67" s="153"/>
-      <c r="C67" s="155" t="s">
+      <c r="B67" s="234"/>
+      <c r="C67" s="241" t="s">
         <v>265</v>
       </c>
       <c r="D67" s="103" t="s">
@@ -8429,8 +8659,8 @@
       </c>
     </row>
     <row r="68" spans="2:12" ht="17">
-      <c r="B68" s="153"/>
-      <c r="C68" s="155"/>
+      <c r="B68" s="234"/>
+      <c r="C68" s="241"/>
       <c r="D68" s="103" t="s">
         <v>299</v>
       </c>
@@ -8448,8 +8678,8 @@
       </c>
     </row>
     <row r="69" spans="2:12" ht="17">
-      <c r="B69" s="153"/>
-      <c r="C69" s="155"/>
+      <c r="B69" s="234"/>
+      <c r="C69" s="241"/>
       <c r="D69" s="103" t="s">
         <v>300</v>
       </c>
@@ -8467,8 +8697,8 @@
       </c>
     </row>
     <row r="70" spans="2:12" ht="17">
-      <c r="B70" s="153"/>
-      <c r="C70" s="155"/>
+      <c r="B70" s="234"/>
+      <c r="C70" s="241"/>
       <c r="D70" s="103" t="s">
         <v>295</v>
       </c>
@@ -8488,8 +8718,8 @@
       </c>
     </row>
     <row r="71" spans="2:12" ht="17">
-      <c r="B71" s="153"/>
-      <c r="C71" s="155"/>
+      <c r="B71" s="234"/>
+      <c r="C71" s="241"/>
       <c r="D71" s="103" t="s">
         <v>367</v>
       </c>
@@ -8508,8 +8738,8 @@
       </c>
     </row>
     <row r="72" spans="2:12" ht="17">
-      <c r="B72" s="153"/>
-      <c r="C72" s="155"/>
+      <c r="B72" s="234"/>
+      <c r="C72" s="241"/>
       <c r="D72" s="103" t="s">
         <v>368</v>
       </c>
@@ -8526,8 +8756,8 @@
       </c>
     </row>
     <row r="73" spans="2:12" ht="17">
-      <c r="B73" s="153"/>
-      <c r="C73" s="155"/>
+      <c r="B73" s="234"/>
+      <c r="C73" s="241"/>
       <c r="D73" s="19" t="s">
         <v>301</v>
       </c>
@@ -8545,8 +8775,8 @@
       </c>
     </row>
     <row r="74" spans="2:12" ht="17">
-      <c r="B74" s="153"/>
-      <c r="C74" s="155"/>
+      <c r="B74" s="234"/>
+      <c r="C74" s="241"/>
       <c r="D74" s="19" t="s">
         <v>268</v>
       </c>
@@ -8564,8 +8794,8 @@
       </c>
     </row>
     <row r="75" spans="2:12" ht="17">
-      <c r="B75" s="153"/>
-      <c r="C75" s="155"/>
+      <c r="B75" s="234"/>
+      <c r="C75" s="241"/>
       <c r="D75" s="19" t="s">
         <v>261</v>
       </c>
@@ -8583,7 +8813,7 @@
       </c>
     </row>
     <row r="76" spans="2:12" ht="17">
-      <c r="B76" s="153" t="s">
+      <c r="B76" s="234" t="s">
         <v>260</v>
       </c>
       <c r="C76" s="19" t="s">
@@ -8604,7 +8834,7 @@
       </c>
     </row>
     <row r="77" spans="2:12" ht="21">
-      <c r="B77" s="153"/>
+      <c r="B77" s="234"/>
       <c r="C77" s="19" t="s">
         <v>305</v>
       </c>
@@ -8624,7 +8854,7 @@
       </c>
     </row>
     <row r="78" spans="2:12" ht="17">
-      <c r="B78" s="153"/>
+      <c r="B78" s="234"/>
       <c r="C78" s="19" t="s">
         <v>306</v>
       </c>
@@ -8643,7 +8873,7 @@
       </c>
     </row>
     <row r="79" spans="2:12" ht="17">
-      <c r="B79" s="153"/>
+      <c r="B79" s="234"/>
       <c r="C79" s="19" t="s">
         <v>137</v>
       </c>
@@ -8662,7 +8892,7 @@
       </c>
     </row>
     <row r="80" spans="2:12" ht="17">
-      <c r="B80" s="153"/>
+      <c r="B80" s="234"/>
       <c r="C80" s="19" t="s">
         <v>283</v>
       </c>
@@ -8681,8 +8911,8 @@
       </c>
     </row>
     <row r="81" spans="2:12" ht="17">
-      <c r="B81" s="153"/>
-      <c r="C81" s="154" t="s">
+      <c r="B81" s="234"/>
+      <c r="C81" s="245" t="s">
         <v>307</v>
       </c>
       <c r="D81" s="19" t="s">
@@ -8702,8 +8932,8 @@
       </c>
     </row>
     <row r="82" spans="2:12" ht="17">
-      <c r="B82" s="153"/>
-      <c r="C82" s="154"/>
+      <c r="B82" s="234"/>
+      <c r="C82" s="245"/>
       <c r="D82" s="19" t="s">
         <v>305</v>
       </c>
@@ -8721,8 +8951,8 @@
       </c>
     </row>
     <row r="83" spans="2:12" ht="17">
-      <c r="B83" s="153"/>
-      <c r="C83" s="154"/>
+      <c r="B83" s="234"/>
+      <c r="C83" s="245"/>
       <c r="D83" s="19" t="s">
         <v>309</v>
       </c>
@@ -8740,7 +8970,7 @@
       </c>
     </row>
     <row r="84" spans="2:12" ht="17">
-      <c r="B84" s="153"/>
+      <c r="B84" s="234"/>
       <c r="C84" s="19" t="s">
         <v>28</v>
       </c>
@@ -8768,13 +8998,6 @@
   </sheetData>
   <autoFilter ref="A8:Q85" xr:uid="{A1BDED05-2692-1A4C-AE88-144C5CD07E39}"/>
   <mergeCells count="23">
-    <mergeCell ref="B42:B49"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="C20:C26"/>
-    <mergeCell ref="C13:C19"/>
-    <mergeCell ref="C27:C40"/>
-    <mergeCell ref="D30:D40"/>
     <mergeCell ref="J22:J26"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B10:B41"/>
@@ -8791,13 +9014,21 @@
     <mergeCell ref="E37:E40"/>
     <mergeCell ref="C42:C46"/>
     <mergeCell ref="C47:C49"/>
+    <mergeCell ref="B42:B49"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="C20:C26"/>
+    <mergeCell ref="C13:C19"/>
+    <mergeCell ref="C27:C40"/>
+    <mergeCell ref="D30:D40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B3883BC-C9C7-0743-A4D3-9B3F0EDC8175}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:P97"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -8880,12 +9111,12 @@
       <c r="D5" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E5" s="166" t="s">
+      <c r="E5" s="262" t="s">
         <v>116</v>
       </c>
-      <c r="F5" s="167"/>
-      <c r="G5" s="167"/>
-      <c r="H5" s="168"/>
+      <c r="F5" s="263"/>
+      <c r="G5" s="263"/>
+      <c r="H5" s="264"/>
       <c r="I5" s="10" t="s">
         <v>89</v>
       </c>
@@ -9160,16 +9391,16 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="17">
-      <c r="B16" s="152">
+      <c r="B16" s="246">
         <v>3</v>
       </c>
-      <c r="C16" s="170" t="s">
+      <c r="C16" s="257" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="170" t="s">
+      <c r="D16" s="257" t="s">
         <v>185</v>
       </c>
-      <c r="E16" s="152" t="s">
+      <c r="E16" s="246" t="s">
         <v>186</v>
       </c>
       <c r="F16" s="40" t="s">
@@ -9193,10 +9424,10 @@
       </c>
     </row>
     <row r="17" spans="2:16" ht="34">
-      <c r="B17" s="152"/>
-      <c r="C17" s="170"/>
-      <c r="D17" s="170"/>
-      <c r="E17" s="152"/>
+      <c r="B17" s="246"/>
+      <c r="C17" s="257"/>
+      <c r="D17" s="257"/>
+      <c r="E17" s="246"/>
       <c r="F17" s="40" t="s">
         <v>193</v>
       </c>
@@ -9220,10 +9451,10 @@
       </c>
     </row>
     <row r="18" spans="2:16" ht="51">
-      <c r="B18" s="152"/>
-      <c r="C18" s="170"/>
-      <c r="D18" s="170"/>
-      <c r="E18" s="152"/>
+      <c r="B18" s="246"/>
+      <c r="C18" s="257"/>
+      <c r="D18" s="257"/>
+      <c r="E18" s="246"/>
       <c r="F18" s="40" t="s">
         <v>190</v>
       </c>
@@ -9247,79 +9478,79 @@
       </c>
     </row>
     <row r="19" spans="2:16" ht="68">
-      <c r="B19" s="152"/>
-      <c r="C19" s="170"/>
-      <c r="D19" s="170"/>
-      <c r="E19" s="152"/>
-      <c r="F19" s="175" t="s">
+      <c r="B19" s="246"/>
+      <c r="C19" s="257"/>
+      <c r="D19" s="257"/>
+      <c r="E19" s="246"/>
+      <c r="F19" s="258" t="s">
         <v>191</v>
       </c>
-      <c r="G19" s="175" t="s">
+      <c r="G19" s="258" t="s">
         <v>199</v>
       </c>
       <c r="H19" s="11"/>
-      <c r="I19" s="152" t="s">
+      <c r="I19" s="246" t="s">
         <v>92</v>
       </c>
-      <c r="J19" s="179" t="s">
+      <c r="J19" s="267" t="s">
         <v>127</v>
       </c>
-      <c r="K19" s="179" t="s">
+      <c r="K19" s="267" t="s">
         <v>201</v>
       </c>
       <c r="L19" s="45" t="s">
         <v>213</v>
       </c>
-      <c r="M19" s="175" t="s">
+      <c r="M19" s="258" t="s">
         <v>223</v>
       </c>
-      <c r="O19" s="178" t="s">
+      <c r="O19" s="266" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="20" spans="2:16" ht="17">
-      <c r="B20" s="152"/>
-      <c r="C20" s="170"/>
-      <c r="D20" s="170"/>
-      <c r="E20" s="152"/>
-      <c r="F20" s="176"/>
-      <c r="G20" s="176"/>
+      <c r="B20" s="246"/>
+      <c r="C20" s="257"/>
+      <c r="D20" s="257"/>
+      <c r="E20" s="246"/>
+      <c r="F20" s="259"/>
+      <c r="G20" s="259"/>
       <c r="H20" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="I20" s="152"/>
-      <c r="J20" s="179"/>
-      <c r="K20" s="179"/>
+      <c r="I20" s="246"/>
+      <c r="J20" s="267"/>
+      <c r="K20" s="267"/>
       <c r="L20" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="M20" s="176"/>
-      <c r="O20" s="178"/>
+      <c r="M20" s="259"/>
+      <c r="O20" s="266"/>
     </row>
     <row r="21" spans="2:16" ht="17">
-      <c r="B21" s="152"/>
-      <c r="C21" s="170"/>
-      <c r="D21" s="170"/>
-      <c r="E21" s="152"/>
-      <c r="F21" s="177"/>
-      <c r="G21" s="177"/>
+      <c r="B21" s="246"/>
+      <c r="C21" s="257"/>
+      <c r="D21" s="257"/>
+      <c r="E21" s="246"/>
+      <c r="F21" s="260"/>
+      <c r="G21" s="260"/>
       <c r="H21" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="I21" s="152"/>
-      <c r="J21" s="179"/>
-      <c r="K21" s="179"/>
+      <c r="I21" s="246"/>
+      <c r="J21" s="267"/>
+      <c r="K21" s="267"/>
       <c r="L21" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="M21" s="177"/>
-      <c r="O21" s="178"/>
+      <c r="M21" s="260"/>
+      <c r="O21" s="266"/>
     </row>
     <row r="22" spans="2:16" ht="17">
-      <c r="B22" s="152"/>
-      <c r="C22" s="170"/>
-      <c r="D22" s="170"/>
-      <c r="E22" s="152"/>
+      <c r="B22" s="246"/>
+      <c r="C22" s="257"/>
+      <c r="D22" s="257"/>
+      <c r="E22" s="246"/>
       <c r="F22" s="12" t="s">
         <v>194</v>
       </c>
@@ -9341,10 +9572,10 @@
       </c>
     </row>
     <row r="23" spans="2:16" ht="17">
-      <c r="B23" s="152"/>
-      <c r="C23" s="170"/>
-      <c r="D23" s="170"/>
-      <c r="E23" s="152"/>
+      <c r="B23" s="246"/>
+      <c r="C23" s="257"/>
+      <c r="D23" s="257"/>
+      <c r="E23" s="246"/>
       <c r="F23" s="12" t="s">
         <v>195</v>
       </c>
@@ -9366,10 +9597,10 @@
       </c>
     </row>
     <row r="24" spans="2:16" ht="17">
-      <c r="B24" s="152"/>
-      <c r="C24" s="170"/>
-      <c r="D24" s="170"/>
-      <c r="E24" s="152"/>
+      <c r="B24" s="246"/>
+      <c r="C24" s="257"/>
+      <c r="D24" s="257"/>
+      <c r="E24" s="246"/>
       <c r="F24" s="12" t="s">
         <v>196</v>
       </c>
@@ -9391,10 +9622,10 @@
       </c>
     </row>
     <row r="25" spans="2:16" ht="17">
-      <c r="B25" s="152"/>
-      <c r="C25" s="170"/>
-      <c r="D25" s="170"/>
-      <c r="E25" s="169" t="s">
+      <c r="B25" s="246"/>
+      <c r="C25" s="257"/>
+      <c r="D25" s="257"/>
+      <c r="E25" s="265" t="s">
         <v>187</v>
       </c>
       <c r="F25" s="40" t="s">
@@ -9418,10 +9649,10 @@
       </c>
     </row>
     <row r="26" spans="2:16" ht="34">
-      <c r="B26" s="152"/>
-      <c r="C26" s="170"/>
-      <c r="D26" s="170"/>
-      <c r="E26" s="169"/>
+      <c r="B26" s="246"/>
+      <c r="C26" s="257"/>
+      <c r="D26" s="257"/>
+      <c r="E26" s="265"/>
       <c r="F26" s="46" t="s">
         <v>189</v>
       </c>
@@ -9443,10 +9674,10 @@
       </c>
     </row>
     <row r="27" spans="2:16" ht="51">
-      <c r="B27" s="152"/>
-      <c r="C27" s="170"/>
-      <c r="D27" s="170"/>
-      <c r="E27" s="169"/>
+      <c r="B27" s="246"/>
+      <c r="C27" s="257"/>
+      <c r="D27" s="257"/>
+      <c r="E27" s="265"/>
       <c r="F27" s="40" t="s">
         <v>190</v>
       </c>
@@ -9470,73 +9701,73 @@
       </c>
     </row>
     <row r="28" spans="2:16" ht="68">
-      <c r="B28" s="152"/>
-      <c r="C28" s="170"/>
-      <c r="D28" s="170"/>
-      <c r="E28" s="169"/>
-      <c r="F28" s="175" t="s">
+      <c r="B28" s="246"/>
+      <c r="C28" s="257"/>
+      <c r="D28" s="257"/>
+      <c r="E28" s="265"/>
+      <c r="F28" s="258" t="s">
         <v>192</v>
       </c>
-      <c r="G28" s="175" t="s">
+      <c r="G28" s="258" t="s">
         <v>199</v>
       </c>
       <c r="H28" s="11"/>
-      <c r="I28" s="171" t="s">
+      <c r="I28" s="250" t="s">
         <v>92</v>
       </c>
-      <c r="J28" s="180" t="s">
+      <c r="J28" s="254" t="s">
         <v>127</v>
       </c>
-      <c r="K28" s="180" t="s">
+      <c r="K28" s="254" t="s">
         <v>209</v>
       </c>
       <c r="L28" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="M28" s="183" t="s">
+      <c r="M28" s="268" t="s">
         <v>224</v>
       </c>
-      <c r="O28" s="178" t="s">
+      <c r="O28" s="266" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="29" spans="2:16" ht="17">
-      <c r="B29" s="152"/>
-      <c r="C29" s="170"/>
-      <c r="D29" s="170"/>
-      <c r="E29" s="169"/>
-      <c r="F29" s="176"/>
-      <c r="G29" s="176"/>
+      <c r="B29" s="246"/>
+      <c r="C29" s="257"/>
+      <c r="D29" s="257"/>
+      <c r="E29" s="265"/>
+      <c r="F29" s="259"/>
+      <c r="G29" s="259"/>
       <c r="H29" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="I29" s="172"/>
-      <c r="J29" s="181"/>
-      <c r="K29" s="181"/>
+      <c r="I29" s="251"/>
+      <c r="J29" s="255"/>
+      <c r="K29" s="255"/>
       <c r="L29" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="M29" s="184"/>
-      <c r="O29" s="178"/>
+      <c r="M29" s="269"/>
+      <c r="O29" s="266"/>
     </row>
     <row r="30" spans="2:16" ht="17">
-      <c r="B30" s="152"/>
-      <c r="C30" s="170"/>
-      <c r="D30" s="170"/>
-      <c r="E30" s="169"/>
-      <c r="F30" s="177"/>
-      <c r="G30" s="177"/>
+      <c r="B30" s="246"/>
+      <c r="C30" s="257"/>
+      <c r="D30" s="257"/>
+      <c r="E30" s="265"/>
+      <c r="F30" s="260"/>
+      <c r="G30" s="260"/>
       <c r="H30" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="I30" s="173"/>
-      <c r="J30" s="182"/>
-      <c r="K30" s="182"/>
+      <c r="I30" s="252"/>
+      <c r="J30" s="256"/>
+      <c r="K30" s="256"/>
       <c r="L30" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="M30" s="185"/>
-      <c r="O30" s="178"/>
+      <c r="M30" s="270"/>
+      <c r="O30" s="266"/>
     </row>
     <row r="31" spans="2:16" ht="68">
       <c r="B31" s="10">
@@ -10309,16 +10540,16 @@
       </c>
     </row>
     <row r="57" spans="2:16" ht="34">
-      <c r="B57" s="171">
+      <c r="B57" s="250">
         <v>7</v>
       </c>
-      <c r="C57" s="160" t="s">
+      <c r="C57" s="239" t="s">
         <v>74</v>
       </c>
-      <c r="D57" s="160" t="s">
+      <c r="D57" s="239" t="s">
         <v>1</v>
       </c>
-      <c r="E57" s="171" t="s">
+      <c r="E57" s="250" t="s">
         <v>151</v>
       </c>
       <c r="F57" s="36" t="s">
@@ -10340,15 +10571,15 @@
       <c r="O57" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="P57" s="165" t="s">
+      <c r="P57" s="261" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="58" spans="2:16" ht="17" customHeight="1">
-      <c r="B58" s="172"/>
-      <c r="C58" s="161"/>
-      <c r="D58" s="161"/>
-      <c r="E58" s="172"/>
+      <c r="B58" s="251"/>
+      <c r="C58" s="240"/>
+      <c r="D58" s="240"/>
+      <c r="E58" s="251"/>
       <c r="F58" s="36" t="s">
         <v>137</v>
       </c>
@@ -10368,13 +10599,13 @@
       <c r="O58" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="P58" s="165"/>
+      <c r="P58" s="261"/>
     </row>
     <row r="59" spans="2:16" ht="34">
-      <c r="B59" s="172"/>
-      <c r="C59" s="161"/>
-      <c r="D59" s="161"/>
-      <c r="E59" s="172"/>
+      <c r="B59" s="251"/>
+      <c r="C59" s="240"/>
+      <c r="D59" s="240"/>
+      <c r="E59" s="251"/>
       <c r="F59" s="36" t="s">
         <v>138</v>
       </c>
@@ -10394,13 +10625,13 @@
       <c r="O59" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="P59" s="165"/>
+      <c r="P59" s="261"/>
     </row>
     <row r="60" spans="2:16" ht="34">
-      <c r="B60" s="172"/>
-      <c r="C60" s="161"/>
-      <c r="D60" s="161"/>
-      <c r="E60" s="172"/>
+      <c r="B60" s="251"/>
+      <c r="C60" s="240"/>
+      <c r="D60" s="240"/>
+      <c r="E60" s="251"/>
       <c r="F60" s="36" t="s">
         <v>139</v>
       </c>
@@ -10420,14 +10651,14 @@
       <c r="O60" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="P60" s="165"/>
+      <c r="P60" s="261"/>
     </row>
     <row r="61" spans="2:16" ht="51">
-      <c r="B61" s="172"/>
-      <c r="C61" s="161"/>
-      <c r="D61" s="161"/>
-      <c r="E61" s="172"/>
-      <c r="F61" s="160" t="s">
+      <c r="B61" s="251"/>
+      <c r="C61" s="240"/>
+      <c r="D61" s="240"/>
+      <c r="E61" s="251"/>
+      <c r="F61" s="239" t="s">
         <v>145</v>
       </c>
       <c r="G61" s="39"/>
@@ -10442,14 +10673,14 @@
       <c r="O61" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="P61" s="165"/>
+      <c r="P61" s="261"/>
     </row>
     <row r="62" spans="2:16" ht="34">
-      <c r="B62" s="172"/>
-      <c r="C62" s="161"/>
-      <c r="D62" s="161"/>
-      <c r="E62" s="172"/>
-      <c r="F62" s="161"/>
+      <c r="B62" s="251"/>
+      <c r="C62" s="240"/>
+      <c r="D62" s="240"/>
+      <c r="E62" s="251"/>
+      <c r="F62" s="240"/>
       <c r="G62" s="39"/>
       <c r="H62" s="12" t="s">
         <v>141</v>
@@ -10468,14 +10699,14 @@
       <c r="O62" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="P62" s="165"/>
+      <c r="P62" s="261"/>
     </row>
     <row r="63" spans="2:16" ht="17">
-      <c r="B63" s="172"/>
-      <c r="C63" s="161"/>
-      <c r="D63" s="161"/>
-      <c r="E63" s="172"/>
-      <c r="F63" s="161"/>
+      <c r="B63" s="251"/>
+      <c r="C63" s="240"/>
+      <c r="D63" s="240"/>
+      <c r="E63" s="251"/>
+      <c r="F63" s="240"/>
       <c r="G63" s="39"/>
       <c r="H63" s="12" t="s">
         <v>146</v>
@@ -10494,14 +10725,14 @@
       <c r="O63" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="P63" s="165"/>
+      <c r="P63" s="261"/>
     </row>
     <row r="64" spans="2:16" ht="17">
-      <c r="B64" s="172"/>
-      <c r="C64" s="161"/>
-      <c r="D64" s="161"/>
-      <c r="E64" s="172"/>
-      <c r="F64" s="161"/>
+      <c r="B64" s="251"/>
+      <c r="C64" s="240"/>
+      <c r="D64" s="240"/>
+      <c r="E64" s="251"/>
+      <c r="F64" s="240"/>
       <c r="G64" s="39"/>
       <c r="H64" s="12" t="s">
         <v>147</v>
@@ -10518,14 +10749,14 @@
       <c r="O64" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="P64" s="165"/>
+      <c r="P64" s="261"/>
     </row>
     <row r="65" spans="2:16" ht="17">
-      <c r="B65" s="172"/>
-      <c r="C65" s="161"/>
-      <c r="D65" s="161"/>
-      <c r="E65" s="172"/>
-      <c r="F65" s="161"/>
+      <c r="B65" s="251"/>
+      <c r="C65" s="240"/>
+      <c r="D65" s="240"/>
+      <c r="E65" s="251"/>
+      <c r="F65" s="240"/>
       <c r="G65" s="39"/>
       <c r="H65" s="12" t="s">
         <v>148</v>
@@ -10542,14 +10773,14 @@
       <c r="O65" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="P65" s="165"/>
+      <c r="P65" s="261"/>
     </row>
     <row r="66" spans="2:16" ht="18" customHeight="1">
-      <c r="B66" s="172"/>
-      <c r="C66" s="161"/>
-      <c r="D66" s="161"/>
-      <c r="E66" s="172"/>
-      <c r="F66" s="174"/>
+      <c r="B66" s="251"/>
+      <c r="C66" s="240"/>
+      <c r="D66" s="240"/>
+      <c r="E66" s="251"/>
+      <c r="F66" s="253"/>
       <c r="G66" s="39"/>
       <c r="H66" s="12" t="s">
         <v>149</v>
@@ -10566,14 +10797,14 @@
       <c r="O66" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="P66" s="165"/>
+      <c r="P66" s="261"/>
     </row>
     <row r="67" spans="2:16" ht="34">
-      <c r="B67" s="172"/>
-      <c r="C67" s="161"/>
-      <c r="D67" s="161"/>
-      <c r="E67" s="172"/>
-      <c r="F67" s="160" t="s">
+      <c r="B67" s="251"/>
+      <c r="C67" s="240"/>
+      <c r="D67" s="240"/>
+      <c r="E67" s="251"/>
+      <c r="F67" s="239" t="s">
         <v>140</v>
       </c>
       <c r="G67" s="31"/>
@@ -10588,14 +10819,14 @@
       <c r="O67" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="P67" s="165"/>
+      <c r="P67" s="261"/>
     </row>
     <row r="68" spans="2:16" ht="17" customHeight="1">
-      <c r="B68" s="172"/>
-      <c r="C68" s="161"/>
-      <c r="D68" s="161"/>
-      <c r="E68" s="172"/>
-      <c r="F68" s="161"/>
+      <c r="B68" s="251"/>
+      <c r="C68" s="240"/>
+      <c r="D68" s="240"/>
+      <c r="E68" s="251"/>
+      <c r="F68" s="240"/>
       <c r="G68" s="31"/>
       <c r="H68" s="12" t="s">
         <v>141</v>
@@ -10614,14 +10845,14 @@
       <c r="O68" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="P68" s="165"/>
+      <c r="P68" s="261"/>
     </row>
     <row r="69" spans="2:16" ht="17" customHeight="1">
-      <c r="B69" s="172"/>
-      <c r="C69" s="161"/>
-      <c r="D69" s="161"/>
-      <c r="E69" s="172"/>
-      <c r="F69" s="161"/>
+      <c r="B69" s="251"/>
+      <c r="C69" s="240"/>
+      <c r="D69" s="240"/>
+      <c r="E69" s="251"/>
+      <c r="F69" s="240"/>
       <c r="G69" s="31"/>
       <c r="H69" s="12" t="s">
         <v>142</v>
@@ -10640,14 +10871,14 @@
       <c r="O69" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="P69" s="165"/>
+      <c r="P69" s="261"/>
     </row>
     <row r="70" spans="2:16" ht="17" customHeight="1">
-      <c r="B70" s="172"/>
-      <c r="C70" s="161"/>
-      <c r="D70" s="161"/>
-      <c r="E70" s="172"/>
-      <c r="F70" s="161"/>
+      <c r="B70" s="251"/>
+      <c r="C70" s="240"/>
+      <c r="D70" s="240"/>
+      <c r="E70" s="251"/>
+      <c r="F70" s="240"/>
       <c r="G70" s="31"/>
       <c r="H70" s="12" t="s">
         <v>143</v>
@@ -10666,14 +10897,14 @@
       <c r="O70" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="P70" s="165"/>
+      <c r="P70" s="261"/>
     </row>
     <row r="71" spans="2:16" ht="17" customHeight="1">
-      <c r="B71" s="172"/>
-      <c r="C71" s="161"/>
-      <c r="D71" s="161"/>
-      <c r="E71" s="172"/>
-      <c r="F71" s="174"/>
+      <c r="B71" s="251"/>
+      <c r="C71" s="240"/>
+      <c r="D71" s="240"/>
+      <c r="E71" s="251"/>
+      <c r="F71" s="253"/>
       <c r="G71" s="31"/>
       <c r="H71" s="12" t="s">
         <v>144</v>
@@ -10692,12 +10923,12 @@
       <c r="O71" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="P71" s="165"/>
+      <c r="P71" s="261"/>
     </row>
     <row r="72" spans="2:16">
-      <c r="B72" s="173"/>
-      <c r="C72" s="174"/>
-      <c r="D72" s="174"/>
+      <c r="B72" s="252"/>
+      <c r="C72" s="253"/>
+      <c r="D72" s="253"/>
       <c r="E72" s="12" t="s">
         <v>255</v>
       </c>
@@ -10712,7 +10943,7 @@
       <c r="O72" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="P72" s="165"/>
+      <c r="P72" s="261"/>
     </row>
     <row r="73" spans="2:16" ht="34">
       <c r="B73" s="10">
@@ -10864,13 +11095,13 @@
       <c r="B78" s="10">
         <v>9</v>
       </c>
-      <c r="C78" s="160" t="s">
+      <c r="C78" s="239" t="s">
         <v>79</v>
       </c>
-      <c r="D78" s="160" t="s">
+      <c r="D78" s="239" t="s">
         <v>31</v>
       </c>
-      <c r="E78" s="171" t="s">
+      <c r="E78" s="250" t="s">
         <v>232</v>
       </c>
       <c r="F78" s="49"/>
@@ -10882,13 +11113,13 @@
       <c r="J78" s="51" t="s">
         <v>241</v>
       </c>
-      <c r="K78" s="186" t="s">
+      <c r="K78" s="247" t="s">
         <v>231</v>
       </c>
       <c r="L78" s="48" t="s">
         <v>247</v>
       </c>
-      <c r="M78" s="171" t="s">
+      <c r="M78" s="250" t="s">
         <v>82</v>
       </c>
       <c r="O78" s="4" t="s">
@@ -10900,9 +11131,9 @@
     </row>
     <row r="79" spans="2:16">
       <c r="B79" s="10"/>
-      <c r="C79" s="161"/>
-      <c r="D79" s="161"/>
-      <c r="E79" s="172"/>
+      <c r="C79" s="240"/>
+      <c r="D79" s="240"/>
+      <c r="E79" s="251"/>
       <c r="F79" s="10" t="s">
         <v>233</v>
       </c>
@@ -10914,15 +11145,15 @@
       <c r="J79" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="K79" s="187"/>
+      <c r="K79" s="248"/>
       <c r="L79" s="53"/>
-      <c r="M79" s="172"/>
+      <c r="M79" s="251"/>
     </row>
     <row r="80" spans="2:16" ht="17">
       <c r="B80" s="10"/>
-      <c r="C80" s="161"/>
-      <c r="D80" s="161"/>
-      <c r="E80" s="172"/>
+      <c r="C80" s="240"/>
+      <c r="D80" s="240"/>
+      <c r="E80" s="251"/>
       <c r="F80" s="10" t="s">
         <v>235</v>
       </c>
@@ -10934,16 +11165,16 @@
       <c r="J80" s="29" t="s">
         <v>243</v>
       </c>
-      <c r="K80" s="187"/>
+      <c r="K80" s="248"/>
       <c r="L80" s="53"/>
-      <c r="M80" s="172"/>
+      <c r="M80" s="251"/>
     </row>
     <row r="81" spans="2:16" ht="17">
       <c r="B81" s="10"/>
-      <c r="C81" s="161"/>
-      <c r="D81" s="161"/>
-      <c r="E81" s="172"/>
-      <c r="F81" s="152" t="s">
+      <c r="C81" s="240"/>
+      <c r="D81" s="240"/>
+      <c r="E81" s="251"/>
+      <c r="F81" s="246" t="s">
         <v>234</v>
       </c>
       <c r="G81" s="10" t="s">
@@ -10956,16 +11187,16 @@
       <c r="J81" s="29" t="s">
         <v>244</v>
       </c>
-      <c r="K81" s="187"/>
+      <c r="K81" s="248"/>
       <c r="L81" s="53"/>
-      <c r="M81" s="172"/>
+      <c r="M81" s="251"/>
     </row>
     <row r="82" spans="2:16" ht="17">
       <c r="B82" s="10"/>
-      <c r="C82" s="161"/>
-      <c r="D82" s="161"/>
-      <c r="E82" s="172"/>
-      <c r="F82" s="152"/>
+      <c r="C82" s="240"/>
+      <c r="D82" s="240"/>
+      <c r="E82" s="251"/>
+      <c r="F82" s="246"/>
       <c r="G82" s="52" t="s">
         <v>237</v>
       </c>
@@ -10976,16 +11207,16 @@
       <c r="J82" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="K82" s="187"/>
+      <c r="K82" s="248"/>
       <c r="L82" s="53"/>
-      <c r="M82" s="172"/>
+      <c r="M82" s="251"/>
     </row>
     <row r="83" spans="2:16" ht="17">
       <c r="B83" s="10"/>
-      <c r="C83" s="161"/>
-      <c r="D83" s="161"/>
-      <c r="E83" s="172"/>
-      <c r="F83" s="152"/>
+      <c r="C83" s="240"/>
+      <c r="D83" s="240"/>
+      <c r="E83" s="251"/>
+      <c r="F83" s="246"/>
       <c r="G83" s="52" t="s">
         <v>238</v>
       </c>
@@ -10996,16 +11227,16 @@
       <c r="J83" s="29" t="s">
         <v>246</v>
       </c>
-      <c r="K83" s="187"/>
+      <c r="K83" s="248"/>
       <c r="L83" s="53"/>
-      <c r="M83" s="172"/>
+      <c r="M83" s="251"/>
     </row>
     <row r="84" spans="2:16">
       <c r="B84" s="10"/>
-      <c r="C84" s="161"/>
-      <c r="D84" s="161"/>
-      <c r="E84" s="172"/>
-      <c r="F84" s="152"/>
+      <c r="C84" s="240"/>
+      <c r="D84" s="240"/>
+      <c r="E84" s="251"/>
+      <c r="F84" s="246"/>
       <c r="G84" s="52" t="s">
         <v>239</v>
       </c>
@@ -11016,16 +11247,16 @@
       <c r="J84" s="29">
         <v>4</v>
       </c>
-      <c r="K84" s="187"/>
+      <c r="K84" s="248"/>
       <c r="L84" s="53"/>
-      <c r="M84" s="172"/>
+      <c r="M84" s="251"/>
     </row>
     <row r="85" spans="2:16">
       <c r="B85" s="10"/>
-      <c r="C85" s="174"/>
-      <c r="D85" s="174"/>
-      <c r="E85" s="173"/>
-      <c r="F85" s="152"/>
+      <c r="C85" s="253"/>
+      <c r="D85" s="253"/>
+      <c r="E85" s="252"/>
+      <c r="F85" s="246"/>
       <c r="G85" s="52" t="s">
         <v>240</v>
       </c>
@@ -11036,9 +11267,9 @@
       <c r="J85" s="29">
         <v>10</v>
       </c>
-      <c r="K85" s="188"/>
+      <c r="K85" s="249"/>
       <c r="L85" s="53"/>
-      <c r="M85" s="173"/>
+      <c r="M85" s="252"/>
     </row>
     <row r="86" spans="2:16" ht="17">
       <c r="B86" s="10">
@@ -11328,24 +11559,6 @@
     </sortState>
   </autoFilter>
   <mergeCells count="33">
-    <mergeCell ref="K78:K85"/>
-    <mergeCell ref="M78:M85"/>
-    <mergeCell ref="D78:D85"/>
-    <mergeCell ref="F81:F85"/>
-    <mergeCell ref="I28:I30"/>
-    <mergeCell ref="J28:J30"/>
-    <mergeCell ref="C78:C85"/>
-    <mergeCell ref="E78:E85"/>
-    <mergeCell ref="B16:B30"/>
-    <mergeCell ref="B57:B72"/>
-    <mergeCell ref="C16:C30"/>
-    <mergeCell ref="C57:C72"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="F28:F30"/>
-    <mergeCell ref="E57:E71"/>
-    <mergeCell ref="F67:F71"/>
-    <mergeCell ref="F61:F66"/>
-    <mergeCell ref="D57:D72"/>
     <mergeCell ref="P57:P72"/>
     <mergeCell ref="E5:H5"/>
     <mergeCell ref="E25:E30"/>
@@ -11361,13 +11574,32 @@
     <mergeCell ref="K28:K30"/>
     <mergeCell ref="M19:M21"/>
     <mergeCell ref="M28:M30"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="E57:E71"/>
+    <mergeCell ref="F67:F71"/>
+    <mergeCell ref="F61:F66"/>
+    <mergeCell ref="C78:C85"/>
+    <mergeCell ref="E78:E85"/>
+    <mergeCell ref="B16:B30"/>
+    <mergeCell ref="B57:B72"/>
+    <mergeCell ref="C16:C30"/>
+    <mergeCell ref="C57:C72"/>
+    <mergeCell ref="D57:D72"/>
+    <mergeCell ref="K78:K85"/>
+    <mergeCell ref="M78:M85"/>
+    <mergeCell ref="D78:D85"/>
+    <mergeCell ref="F81:F85"/>
+    <mergeCell ref="I28:I30"/>
+    <mergeCell ref="J28:J30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C504361-025B-B148-928B-4225D2B7DF53}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:BR28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11475,153 +11707,153 @@
       </c>
     </row>
     <row r="13" spans="1:70" ht="48" customHeight="1">
-      <c r="E13" s="147" t="s">
+      <c r="E13" s="193" t="s">
         <v>264</v>
       </c>
-      <c r="F13" s="147"/>
-      <c r="G13" s="147"/>
-      <c r="H13" s="147"/>
-      <c r="I13" s="147"/>
-      <c r="J13" s="147"/>
-      <c r="K13" s="147"/>
-      <c r="L13" s="147"/>
-      <c r="M13" s="147"/>
-      <c r="N13" s="147"/>
-      <c r="O13" s="147"/>
-      <c r="P13" s="147"/>
-      <c r="Q13" s="147"/>
-      <c r="R13" s="147"/>
-      <c r="S13" s="147"/>
-      <c r="T13" s="147"/>
-      <c r="U13" s="147"/>
-      <c r="V13" s="147"/>
-      <c r="W13" s="147"/>
-      <c r="X13" s="147"/>
-      <c r="Y13" s="147"/>
-      <c r="Z13" s="147"/>
-      <c r="AA13" s="147"/>
-      <c r="AB13" s="147"/>
-      <c r="AC13" s="147"/>
-      <c r="AD13" s="147"/>
-      <c r="AE13" s="147"/>
-      <c r="AF13" s="147"/>
-      <c r="AG13" s="147"/>
-      <c r="AH13" s="147"/>
-      <c r="AI13" s="147"/>
-      <c r="AJ13" s="147"/>
-      <c r="AK13" s="147"/>
-      <c r="AL13" s="147"/>
-      <c r="AM13" s="147"/>
-      <c r="AN13" s="147"/>
-      <c r="AO13" s="147"/>
-      <c r="AP13" s="147"/>
-      <c r="AQ13" s="147"/>
-      <c r="AR13" s="147"/>
-      <c r="AS13" s="147"/>
-      <c r="AT13" s="147"/>
-      <c r="AU13" s="147"/>
-      <c r="AV13" s="147"/>
-      <c r="AW13" s="147"/>
-      <c r="AX13" s="147"/>
-      <c r="AY13" s="147"/>
-      <c r="AZ13" s="147"/>
-      <c r="BA13" s="147"/>
-      <c r="BB13" s="147"/>
-      <c r="BC13" s="147"/>
-      <c r="BD13" s="147"/>
-      <c r="BE13" s="147"/>
-      <c r="BF13" s="147"/>
-      <c r="BG13" s="147"/>
-      <c r="BH13" s="147"/>
-      <c r="BI13" s="147"/>
-      <c r="BJ13" s="147"/>
-      <c r="BK13" s="147"/>
-      <c r="BL13" s="147"/>
-      <c r="BM13" s="147"/>
-      <c r="BN13" s="147"/>
-      <c r="BO13" s="147"/>
-      <c r="BP13" s="147"/>
-      <c r="BQ13" s="147"/>
-      <c r="BR13" s="147"/>
+      <c r="F13" s="193"/>
+      <c r="G13" s="193"/>
+      <c r="H13" s="193"/>
+      <c r="I13" s="193"/>
+      <c r="J13" s="193"/>
+      <c r="K13" s="193"/>
+      <c r="L13" s="193"/>
+      <c r="M13" s="193"/>
+      <c r="N13" s="193"/>
+      <c r="O13" s="193"/>
+      <c r="P13" s="193"/>
+      <c r="Q13" s="193"/>
+      <c r="R13" s="193"/>
+      <c r="S13" s="193"/>
+      <c r="T13" s="193"/>
+      <c r="U13" s="193"/>
+      <c r="V13" s="193"/>
+      <c r="W13" s="193"/>
+      <c r="X13" s="193"/>
+      <c r="Y13" s="193"/>
+      <c r="Z13" s="193"/>
+      <c r="AA13" s="193"/>
+      <c r="AB13" s="193"/>
+      <c r="AC13" s="193"/>
+      <c r="AD13" s="193"/>
+      <c r="AE13" s="193"/>
+      <c r="AF13" s="193"/>
+      <c r="AG13" s="193"/>
+      <c r="AH13" s="193"/>
+      <c r="AI13" s="193"/>
+      <c r="AJ13" s="193"/>
+      <c r="AK13" s="193"/>
+      <c r="AL13" s="193"/>
+      <c r="AM13" s="193"/>
+      <c r="AN13" s="193"/>
+      <c r="AO13" s="193"/>
+      <c r="AP13" s="193"/>
+      <c r="AQ13" s="193"/>
+      <c r="AR13" s="193"/>
+      <c r="AS13" s="193"/>
+      <c r="AT13" s="193"/>
+      <c r="AU13" s="193"/>
+      <c r="AV13" s="193"/>
+      <c r="AW13" s="193"/>
+      <c r="AX13" s="193"/>
+      <c r="AY13" s="193"/>
+      <c r="AZ13" s="193"/>
+      <c r="BA13" s="193"/>
+      <c r="BB13" s="193"/>
+      <c r="BC13" s="193"/>
+      <c r="BD13" s="193"/>
+      <c r="BE13" s="193"/>
+      <c r="BF13" s="193"/>
+      <c r="BG13" s="193"/>
+      <c r="BH13" s="193"/>
+      <c r="BI13" s="193"/>
+      <c r="BJ13" s="193"/>
+      <c r="BK13" s="193"/>
+      <c r="BL13" s="193"/>
+      <c r="BM13" s="193"/>
+      <c r="BN13" s="193"/>
+      <c r="BO13" s="193"/>
+      <c r="BP13" s="193"/>
+      <c r="BQ13" s="193"/>
+      <c r="BR13" s="193"/>
     </row>
     <row r="15" spans="1:70" s="6" customFormat="1" ht="43" customHeight="1"/>
     <row r="16" spans="1:70" s="6" customFormat="1" ht="43" customHeight="1">
-      <c r="E16" s="152" t="s">
+      <c r="E16" s="246" t="s">
         <v>263</v>
       </c>
-      <c r="F16" s="152"/>
-      <c r="G16" s="152"/>
-      <c r="H16" s="152"/>
-      <c r="I16" s="152"/>
-      <c r="J16" s="152"/>
-      <c r="K16" s="152"/>
-      <c r="L16" s="152"/>
-      <c r="M16" s="152"/>
-      <c r="N16" s="152"/>
-      <c r="O16" s="152"/>
-      <c r="P16" s="152"/>
-      <c r="Q16" s="152"/>
-      <c r="R16" s="152"/>
-      <c r="S16" s="152"/>
-      <c r="T16" s="152"/>
-      <c r="U16" s="152"/>
-      <c r="V16" s="152"/>
-      <c r="W16" s="152"/>
-      <c r="X16" s="152"/>
-      <c r="Y16" s="152"/>
-      <c r="Z16" s="152"/>
-      <c r="AA16" s="152"/>
-      <c r="AB16" s="152"/>
-      <c r="AC16" s="152"/>
-      <c r="AD16" s="152"/>
-      <c r="AE16" s="166" t="s">
+      <c r="F16" s="246"/>
+      <c r="G16" s="246"/>
+      <c r="H16" s="246"/>
+      <c r="I16" s="246"/>
+      <c r="J16" s="246"/>
+      <c r="K16" s="246"/>
+      <c r="L16" s="246"/>
+      <c r="M16" s="246"/>
+      <c r="N16" s="246"/>
+      <c r="O16" s="246"/>
+      <c r="P16" s="246"/>
+      <c r="Q16" s="246"/>
+      <c r="R16" s="246"/>
+      <c r="S16" s="246"/>
+      <c r="T16" s="246"/>
+      <c r="U16" s="246"/>
+      <c r="V16" s="246"/>
+      <c r="W16" s="246"/>
+      <c r="X16" s="246"/>
+      <c r="Y16" s="246"/>
+      <c r="Z16" s="246"/>
+      <c r="AA16" s="246"/>
+      <c r="AB16" s="246"/>
+      <c r="AC16" s="246"/>
+      <c r="AD16" s="246"/>
+      <c r="AE16" s="262" t="s">
         <v>258</v>
       </c>
-      <c r="AF16" s="167"/>
-      <c r="AG16" s="167"/>
-      <c r="AH16" s="167"/>
-      <c r="AI16" s="167"/>
-      <c r="AJ16" s="167"/>
-      <c r="AK16" s="167"/>
-      <c r="AL16" s="168"/>
-      <c r="AM16" s="166" t="s">
+      <c r="AF16" s="263"/>
+      <c r="AG16" s="263"/>
+      <c r="AH16" s="263"/>
+      <c r="AI16" s="263"/>
+      <c r="AJ16" s="263"/>
+      <c r="AK16" s="263"/>
+      <c r="AL16" s="264"/>
+      <c r="AM16" s="262" t="s">
         <v>310</v>
       </c>
-      <c r="AN16" s="167"/>
-      <c r="AO16" s="167"/>
-      <c r="AP16" s="167"/>
-      <c r="AQ16" s="167"/>
-      <c r="AR16" s="167"/>
-      <c r="AS16" s="168"/>
-      <c r="AT16" s="152" t="s">
+      <c r="AN16" s="263"/>
+      <c r="AO16" s="263"/>
+      <c r="AP16" s="263"/>
+      <c r="AQ16" s="263"/>
+      <c r="AR16" s="263"/>
+      <c r="AS16" s="264"/>
+      <c r="AT16" s="246" t="s">
         <v>257</v>
       </c>
-      <c r="AU16" s="152"/>
-      <c r="AV16" s="152"/>
-      <c r="AW16" s="152"/>
-      <c r="AX16" s="152"/>
-      <c r="AY16" s="152"/>
-      <c r="AZ16" s="152"/>
-      <c r="BA16" s="152"/>
-      <c r="BB16" s="152"/>
-      <c r="BC16" s="152"/>
-      <c r="BD16" s="152"/>
-      <c r="BE16" s="152"/>
-      <c r="BF16" s="152"/>
-      <c r="BG16" s="152"/>
-      <c r="BH16" s="152"/>
-      <c r="BI16" s="152"/>
-      <c r="BJ16" s="166" t="s">
+      <c r="AU16" s="246"/>
+      <c r="AV16" s="246"/>
+      <c r="AW16" s="246"/>
+      <c r="AX16" s="246"/>
+      <c r="AY16" s="246"/>
+      <c r="AZ16" s="246"/>
+      <c r="BA16" s="246"/>
+      <c r="BB16" s="246"/>
+      <c r="BC16" s="246"/>
+      <c r="BD16" s="246"/>
+      <c r="BE16" s="246"/>
+      <c r="BF16" s="246"/>
+      <c r="BG16" s="246"/>
+      <c r="BH16" s="246"/>
+      <c r="BI16" s="246"/>
+      <c r="BJ16" s="262" t="s">
         <v>260</v>
       </c>
-      <c r="BK16" s="167"/>
-      <c r="BL16" s="167"/>
-      <c r="BM16" s="167"/>
-      <c r="BN16" s="167"/>
-      <c r="BO16" s="167"/>
-      <c r="BP16" s="167"/>
-      <c r="BQ16" s="167"/>
-      <c r="BR16" s="168"/>
+      <c r="BK16" s="263"/>
+      <c r="BL16" s="263"/>
+      <c r="BM16" s="263"/>
+      <c r="BN16" s="263"/>
+      <c r="BO16" s="263"/>
+      <c r="BP16" s="263"/>
+      <c r="BQ16" s="263"/>
+      <c r="BR16" s="264"/>
     </row>
     <row r="17" spans="2:70" s="6" customFormat="1" ht="60" customHeight="1">
       <c r="E17" s="37" t="s">
@@ -11636,83 +11868,83 @@
       <c r="H17" s="37" t="s">
         <v>288</v>
       </c>
-      <c r="I17" s="152" t="s">
+      <c r="I17" s="246" t="s">
         <v>262</v>
       </c>
-      <c r="J17" s="152"/>
-      <c r="K17" s="152"/>
-      <c r="L17" s="152"/>
-      <c r="M17" s="152"/>
-      <c r="N17" s="152"/>
-      <c r="O17" s="152"/>
-      <c r="P17" s="152" t="s">
+      <c r="J17" s="246"/>
+      <c r="K17" s="246"/>
+      <c r="L17" s="246"/>
+      <c r="M17" s="246"/>
+      <c r="N17" s="246"/>
+      <c r="O17" s="246"/>
+      <c r="P17" s="246" t="s">
         <v>1</v>
       </c>
-      <c r="Q17" s="152"/>
-      <c r="R17" s="152"/>
-      <c r="S17" s="152"/>
-      <c r="T17" s="152"/>
-      <c r="U17" s="152"/>
-      <c r="V17" s="152"/>
-      <c r="W17" s="152"/>
-      <c r="X17" s="152"/>
-      <c r="Y17" s="152"/>
-      <c r="Z17" s="152"/>
-      <c r="AA17" s="152"/>
-      <c r="AB17" s="152"/>
-      <c r="AC17" s="152"/>
+      <c r="Q17" s="246"/>
+      <c r="R17" s="246"/>
+      <c r="S17" s="246"/>
+      <c r="T17" s="246"/>
+      <c r="U17" s="246"/>
+      <c r="V17" s="246"/>
+      <c r="W17" s="246"/>
+      <c r="X17" s="246"/>
+      <c r="Y17" s="246"/>
+      <c r="Z17" s="246"/>
+      <c r="AA17" s="246"/>
+      <c r="AB17" s="246"/>
+      <c r="AC17" s="246"/>
       <c r="AD17" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="AE17" s="152" t="s">
+      <c r="AE17" s="246" t="s">
         <v>275</v>
       </c>
-      <c r="AF17" s="152"/>
-      <c r="AG17" s="152"/>
-      <c r="AH17" s="152"/>
-      <c r="AI17" s="152"/>
-      <c r="AJ17" s="166" t="s">
+      <c r="AF17" s="246"/>
+      <c r="AG17" s="246"/>
+      <c r="AH17" s="246"/>
+      <c r="AI17" s="246"/>
+      <c r="AJ17" s="262" t="s">
         <v>276</v>
       </c>
-      <c r="AK17" s="167"/>
-      <c r="AL17" s="168"/>
+      <c r="AK17" s="263"/>
+      <c r="AL17" s="264"/>
       <c r="AM17" s="64" t="s">
         <v>290</v>
       </c>
       <c r="AN17" s="64" t="s">
         <v>291</v>
       </c>
-      <c r="AO17" s="152" t="s">
+      <c r="AO17" s="246" t="s">
         <v>259</v>
       </c>
-      <c r="AP17" s="152"/>
-      <c r="AQ17" s="152"/>
-      <c r="AR17" s="152"/>
-      <c r="AS17" s="152"/>
-      <c r="AT17" s="152" t="s">
+      <c r="AP17" s="246"/>
+      <c r="AQ17" s="246"/>
+      <c r="AR17" s="246"/>
+      <c r="AS17" s="246"/>
+      <c r="AT17" s="246" t="s">
         <v>263</v>
       </c>
-      <c r="AU17" s="152"/>
-      <c r="AV17" s="152"/>
-      <c r="AW17" s="152" t="s">
+      <c r="AU17" s="246"/>
+      <c r="AV17" s="246"/>
+      <c r="AW17" s="246" t="s">
         <v>266</v>
       </c>
-      <c r="AX17" s="152"/>
-      <c r="AY17" s="166" t="s">
+      <c r="AX17" s="246"/>
+      <c r="AY17" s="262" t="s">
         <v>311</v>
       </c>
-      <c r="AZ17" s="167"/>
-      <c r="BA17" s="167"/>
-      <c r="BB17" s="167"/>
-      <c r="BC17" s="166" t="s">
+      <c r="AZ17" s="263"/>
+      <c r="BA17" s="263"/>
+      <c r="BB17" s="263"/>
+      <c r="BC17" s="262" t="s">
         <v>265</v>
       </c>
-      <c r="BD17" s="167"/>
-      <c r="BE17" s="167"/>
-      <c r="BF17" s="167"/>
-      <c r="BG17" s="167"/>
-      <c r="BH17" s="167"/>
-      <c r="BI17" s="167"/>
+      <c r="BD17" s="263"/>
+      <c r="BE17" s="263"/>
+      <c r="BF17" s="263"/>
+      <c r="BG17" s="263"/>
+      <c r="BH17" s="263"/>
+      <c r="BI17" s="263"/>
       <c r="BJ17" s="37" t="s">
         <v>304</v>
       </c>
@@ -11728,11 +11960,11 @@
       <c r="BN17" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="BO17" s="169" t="s">
+      <c r="BO17" s="265" t="s">
         <v>307</v>
       </c>
-      <c r="BP17" s="169"/>
-      <c r="BQ17" s="169"/>
+      <c r="BP17" s="265"/>
+      <c r="BQ17" s="265"/>
       <c r="BR17" s="37" t="s">
         <v>28</v>
       </c>
@@ -11772,19 +12004,19 @@
       <c r="R18" s="37" t="s">
         <v>280</v>
       </c>
-      <c r="S18" s="169" t="s">
+      <c r="S18" s="265" t="s">
         <v>271</v>
       </c>
-      <c r="T18" s="169"/>
-      <c r="U18" s="169"/>
-      <c r="V18" s="169"/>
-      <c r="W18" s="169"/>
-      <c r="X18" s="169"/>
-      <c r="Y18" s="169"/>
-      <c r="Z18" s="169"/>
-      <c r="AA18" s="169"/>
-      <c r="AB18" s="169"/>
-      <c r="AC18" s="169"/>
+      <c r="T18" s="265"/>
+      <c r="U18" s="265"/>
+      <c r="V18" s="265"/>
+      <c r="W18" s="265"/>
+      <c r="X18" s="265"/>
+      <c r="Y18" s="265"/>
+      <c r="Z18" s="265"/>
+      <c r="AA18" s="265"/>
+      <c r="AB18" s="265"/>
+      <c r="AC18" s="265"/>
       <c r="AD18" s="11"/>
       <c r="AE18" s="37" t="s">
         <v>258</v>
@@ -11918,17 +12150,17 @@
       <c r="V19" s="37" t="s">
         <v>281</v>
       </c>
-      <c r="W19" s="130" t="s">
+      <c r="W19" s="231" t="s">
         <v>145</v>
       </c>
-      <c r="X19" s="131"/>
-      <c r="Y19" s="132"/>
-      <c r="Z19" s="130" t="s">
+      <c r="X19" s="232"/>
+      <c r="Y19" s="233"/>
+      <c r="Z19" s="231" t="s">
         <v>140</v>
       </c>
-      <c r="AA19" s="131"/>
-      <c r="AB19" s="131"/>
-      <c r="AC19" s="132"/>
+      <c r="AA19" s="232"/>
+      <c r="AB19" s="232"/>
+      <c r="AC19" s="233"/>
       <c r="AD19" s="11"/>
       <c r="AE19" s="11"/>
       <c r="AF19" s="11"/>
@@ -12448,11 +12680,6 @@
     <row r="28" spans="2:70" s="6" customFormat="1" ht="43" customHeight="1"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="E13:BR13"/>
-    <mergeCell ref="AT16:BI16"/>
-    <mergeCell ref="I17:O17"/>
-    <mergeCell ref="AW17:AX17"/>
-    <mergeCell ref="AO17:AS17"/>
     <mergeCell ref="Z19:AC19"/>
     <mergeCell ref="W19:Y19"/>
     <mergeCell ref="BC17:BI17"/>
@@ -12467,6 +12694,11 @@
     <mergeCell ref="AJ17:AL17"/>
     <mergeCell ref="AE17:AI17"/>
     <mergeCell ref="AT17:AV17"/>
+    <mergeCell ref="E13:BR13"/>
+    <mergeCell ref="AT16:BI16"/>
+    <mergeCell ref="I17:O17"/>
+    <mergeCell ref="AW17:AX17"/>
+    <mergeCell ref="AO17:AS17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/session_variables.xlsx
+++ b/docs/session_variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robhay/git_repo/share_screener/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09235E72-7474-BA4D-B8E9-E70F33C7C3EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6667071-6BF0-DE42-B272-59D28EA6ACB4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{EB3C945B-FE01-FA47-AE59-A0DC3CDF521B}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="25600" windowHeight="14300" xr2:uid="{EB3C945B-FE01-FA47-AE59-A0DC3CDF521B}"/>
   </bookViews>
   <sheets>
     <sheet name="Application Structure" sheetId="6" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1523" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="509">
   <si>
     <t>chart_colours</t>
   </si>
@@ -1744,18 +1744,6 @@
 Share Screener Application</t>
   </si>
   <si>
-    <t>test (trend_high)</t>
-  </si>
-  <si>
-    <t>this looks like the congi</t>
-  </si>
-  <si>
-    <t>active test list</t>
-  </si>
-  <si>
-    <t>active chart list</t>
-  </si>
-  <si>
     <t>[ random tickers ]</t>
   </si>
   <si>
@@ -1827,9 +1815,6 @@
     <t>column_adders - chart</t>
   </si>
   <si>
-    <t>replace_df</t>
-  </si>
-  <si>
     <t>replace_cols</t>
   </si>
   <si>
@@ -1840,6 +1825,15 @@
   </si>
   <si>
     <t>ahf</t>
+  </si>
+  <si>
+    <t>replace_dfs</t>
+  </si>
+  <si>
+    <t>\</t>
+  </si>
+  <si>
+    <t>primary height</t>
   </si>
 </sst>
 </file>
@@ -2410,7 +2404,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="294">
+  <cellXfs count="293">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2808,72 +2802,162 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2882,222 +2966,72 @@
     <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3116,9 +3050,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3128,10 +3059,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3143,137 +3131,140 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3590,13 +3581,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB030FA-EA0F-904E-89A7-6D6B5810B515}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:FW38"/>
+  <dimension ref="A1:FJ47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomRight" activeCell="CK1" sqref="CK1:CU1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3614,86 +3605,86 @@
     <col min="11" max="11" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="8" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8" customWidth="1"/>
-    <col min="15" max="16" width="13.33203125" customWidth="1"/>
-    <col min="17" max="17" width="8" customWidth="1"/>
-    <col min="18" max="18" width="11.5" customWidth="1"/>
-    <col min="19" max="19" width="10.33203125" customWidth="1"/>
-    <col min="20" max="20" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8" customWidth="1"/>
-    <col min="23" max="23" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.33203125" customWidth="1"/>
-    <col min="26" max="26" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="9.83203125" customWidth="1"/>
-    <col min="29" max="29" width="7.83203125" customWidth="1"/>
-    <col min="30" max="30" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.33203125" customWidth="1"/>
-    <col min="33" max="33" width="10.6640625" customWidth="1"/>
-    <col min="34" max="34" width="7.5" customWidth="1"/>
-    <col min="35" max="36" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.33203125" customWidth="1"/>
-    <col min="38" max="38" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="41" max="46" width="7" customWidth="1"/>
-    <col min="47" max="47" width="6.6640625" customWidth="1"/>
-    <col min="48" max="48" width="6.83203125" customWidth="1"/>
+    <col min="15" max="15" width="13.33203125" customWidth="1"/>
+    <col min="16" max="16" width="8" customWidth="1"/>
+    <col min="17" max="17" width="11.5" customWidth="1"/>
+    <col min="18" max="18" width="10.33203125" customWidth="1"/>
+    <col min="19" max="19" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8" customWidth="1"/>
+    <col min="22" max="22" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" customWidth="1"/>
+    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.83203125" customWidth="1"/>
+    <col min="27" max="27" width="7.83203125" customWidth="1"/>
+    <col min="28" max="28" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.33203125" customWidth="1"/>
+    <col min="31" max="31" width="10.6640625" customWidth="1"/>
+    <col min="32" max="32" width="7.5" customWidth="1"/>
+    <col min="33" max="34" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.33203125" customWidth="1"/>
+    <col min="36" max="36" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="44" width="7" customWidth="1"/>
+    <col min="45" max="45" width="6.6640625" customWidth="1"/>
+    <col min="46" max="46" width="6.83203125" customWidth="1"/>
+    <col min="47" max="47" width="7.6640625" customWidth="1"/>
+    <col min="48" max="48" width="6.5" customWidth="1"/>
     <col min="49" max="49" width="7.6640625" customWidth="1"/>
-    <col min="50" max="50" width="6.5" customWidth="1"/>
-    <col min="51" max="51" width="7.6640625" customWidth="1"/>
-    <col min="52" max="52" width="10.33203125" customWidth="1"/>
-    <col min="53" max="53" width="11" customWidth="1"/>
-    <col min="54" max="54" width="7.6640625" customWidth="1"/>
-    <col min="55" max="55" width="10.5" customWidth="1"/>
-    <col min="56" max="56" width="9.83203125" customWidth="1"/>
-    <col min="57" max="57" width="4.83203125" customWidth="1"/>
-    <col min="58" max="58" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="59" max="60" width="10.5" customWidth="1"/>
-    <col min="61" max="61" width="9.6640625" customWidth="1"/>
-    <col min="62" max="62" width="5.33203125" customWidth="1"/>
-    <col min="63" max="63" width="13.1640625" customWidth="1"/>
-    <col min="64" max="64" width="7.5" customWidth="1"/>
-    <col min="65" max="65" width="8.83203125" customWidth="1"/>
-    <col min="66" max="67" width="12" customWidth="1"/>
-    <col min="68" max="68" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="69" max="70" width="10.1640625" customWidth="1"/>
-    <col min="71" max="71" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="11.5" customWidth="1"/>
-    <col min="74" max="76" width="9.33203125" customWidth="1"/>
-    <col min="77" max="77" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="10.33203125" customWidth="1"/>
-    <col min="79" max="79" width="7.83203125" customWidth="1"/>
-    <col min="80" max="80" width="13.83203125" customWidth="1"/>
-    <col min="81" max="81" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="6.6640625" customWidth="1"/>
-    <col min="84" max="87" width="5.1640625" customWidth="1"/>
-    <col min="88" max="88" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.33203125" customWidth="1"/>
+    <col min="51" max="51" width="11" customWidth="1"/>
+    <col min="52" max="52" width="7.6640625" customWidth="1"/>
+    <col min="53" max="53" width="10.5" customWidth="1"/>
+    <col min="54" max="54" width="9.83203125" customWidth="1"/>
+    <col min="55" max="55" width="4.83203125" customWidth="1"/>
+    <col min="56" max="56" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="57" max="58" width="10.5" customWidth="1"/>
+    <col min="59" max="59" width="9.6640625" customWidth="1"/>
+    <col min="60" max="60" width="5.33203125" customWidth="1"/>
+    <col min="61" max="61" width="13.1640625" customWidth="1"/>
+    <col min="62" max="62" width="7.5" customWidth="1"/>
+    <col min="63" max="63" width="8.83203125" customWidth="1"/>
+    <col min="64" max="65" width="12" customWidth="1"/>
+    <col min="66" max="66" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="67" max="68" width="10.1640625" customWidth="1"/>
+    <col min="69" max="69" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="11.5" customWidth="1"/>
+    <col min="72" max="74" width="9.33203125" customWidth="1"/>
+    <col min="75" max="75" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="10.33203125" customWidth="1"/>
+    <col min="77" max="77" width="7.83203125" customWidth="1"/>
+    <col min="78" max="78" width="13.83203125" customWidth="1"/>
+    <col min="79" max="79" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="6.6640625" customWidth="1"/>
+    <col min="82" max="85" width="5.1640625" customWidth="1"/>
+    <col min="86" max="86" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="4.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:179" ht="44">
-      <c r="A1" s="277" t="s">
+    <row r="1" spans="1:166" ht="44">
+      <c r="A1" s="150" t="s">
         <v>481</v>
       </c>
       <c r="G1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="2" spans="1:179">
-      <c r="A2" s="138" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="2" spans="1:166">
+      <c r="A2" s="137" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="3" spans="1:179">
+    <row r="3" spans="1:166">
       <c r="A3" s="126" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="4" spans="1:179">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="4" spans="1:166">
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -3743,1331 +3734,1265 @@
       <c r="AW4" s="6"/>
       <c r="AX4" s="6"/>
       <c r="AY4" s="6"/>
-      <c r="AZ4" s="6"/>
-      <c r="BA4" s="6"/>
-    </row>
-    <row r="5" spans="1:179" s="60" customFormat="1" ht="37" customHeight="1">
+    </row>
+    <row r="5" spans="1:166" s="60" customFormat="1" ht="37" customHeight="1">
       <c r="A5" s="109" t="s">
         <v>343</v>
       </c>
       <c r="B5" s="108"/>
-      <c r="C5" s="136" t="s">
+      <c r="C5" s="255" t="s">
         <v>289</v>
       </c>
-      <c r="D5" s="194" t="s">
+      <c r="D5" s="266" t="s">
         <v>263</v>
       </c>
-      <c r="E5" s="195"/>
-      <c r="F5" s="195"/>
-      <c r="G5" s="195"/>
-      <c r="H5" s="195"/>
-      <c r="I5" s="195"/>
-      <c r="J5" s="195"/>
-      <c r="K5" s="195"/>
-      <c r="L5" s="195"/>
-      <c r="M5" s="195"/>
-      <c r="N5" s="195"/>
-      <c r="O5" s="195"/>
-      <c r="P5" s="195"/>
-      <c r="Q5" s="195"/>
-      <c r="R5" s="195"/>
-      <c r="S5" s="195"/>
-      <c r="T5" s="195"/>
-      <c r="U5" s="195"/>
-      <c r="V5" s="195"/>
-      <c r="W5" s="195"/>
-      <c r="X5" s="195"/>
-      <c r="Y5" s="195"/>
-      <c r="Z5" s="195"/>
-      <c r="AA5" s="195"/>
-      <c r="AB5" s="195"/>
-      <c r="AC5" s="195"/>
-      <c r="AD5" s="195"/>
-      <c r="AE5" s="195"/>
-      <c r="AF5" s="195"/>
-      <c r="AG5" s="195"/>
-      <c r="AH5" s="195"/>
-      <c r="AI5" s="195"/>
-      <c r="AJ5" s="195"/>
-      <c r="AK5" s="195"/>
-      <c r="AL5" s="195"/>
-      <c r="AM5" s="195"/>
-      <c r="AN5" s="195"/>
-      <c r="AO5" s="195"/>
-      <c r="AP5" s="195"/>
-      <c r="AQ5" s="195"/>
-      <c r="AR5" s="195"/>
-      <c r="AS5" s="195"/>
-      <c r="AT5" s="195"/>
-      <c r="AU5" s="194" t="s">
+      <c r="E5" s="267"/>
+      <c r="F5" s="267"/>
+      <c r="G5" s="267"/>
+      <c r="H5" s="267"/>
+      <c r="I5" s="267"/>
+      <c r="J5" s="267"/>
+      <c r="K5" s="267"/>
+      <c r="L5" s="267"/>
+      <c r="M5" s="267"/>
+      <c r="N5" s="267"/>
+      <c r="O5" s="267"/>
+      <c r="P5" s="267"/>
+      <c r="Q5" s="267"/>
+      <c r="R5" s="267"/>
+      <c r="S5" s="267"/>
+      <c r="T5" s="267"/>
+      <c r="U5" s="267"/>
+      <c r="V5" s="267"/>
+      <c r="W5" s="267"/>
+      <c r="X5" s="267"/>
+      <c r="Y5" s="267"/>
+      <c r="Z5" s="267"/>
+      <c r="AA5" s="267"/>
+      <c r="AB5" s="267"/>
+      <c r="AC5" s="267"/>
+      <c r="AD5" s="267"/>
+      <c r="AE5" s="267"/>
+      <c r="AF5" s="267"/>
+      <c r="AG5" s="267"/>
+      <c r="AH5" s="267"/>
+      <c r="AI5" s="267"/>
+      <c r="AJ5" s="267"/>
+      <c r="AK5" s="267"/>
+      <c r="AL5" s="267"/>
+      <c r="AM5" s="267"/>
+      <c r="AN5" s="267"/>
+      <c r="AO5" s="267"/>
+      <c r="AP5" s="267"/>
+      <c r="AQ5" s="267"/>
+      <c r="AR5" s="267"/>
+      <c r="AS5" s="266" t="s">
         <v>258</v>
       </c>
-      <c r="AV5" s="195"/>
-      <c r="AW5" s="195"/>
-      <c r="AX5" s="195"/>
-      <c r="AY5" s="195"/>
-      <c r="AZ5" s="195"/>
-      <c r="BA5" s="195"/>
-      <c r="BB5" s="196"/>
-      <c r="BC5" s="194" t="s">
+      <c r="AT5" s="267"/>
+      <c r="AU5" s="267"/>
+      <c r="AV5" s="267"/>
+      <c r="AW5" s="267"/>
+      <c r="AX5" s="267"/>
+      <c r="AY5" s="267"/>
+      <c r="AZ5" s="268"/>
+      <c r="BA5" s="266" t="s">
         <v>310</v>
       </c>
-      <c r="BD5" s="195"/>
-      <c r="BE5" s="195"/>
-      <c r="BF5" s="195"/>
-      <c r="BG5" s="195"/>
-      <c r="BH5" s="195"/>
-      <c r="BI5" s="196"/>
-      <c r="BJ5" s="197" t="s">
+      <c r="BB5" s="267"/>
+      <c r="BC5" s="267"/>
+      <c r="BD5" s="267"/>
+      <c r="BE5" s="267"/>
+      <c r="BF5" s="267"/>
+      <c r="BG5" s="268"/>
+      <c r="BH5" s="170" t="s">
         <v>257</v>
       </c>
-      <c r="BK5" s="197"/>
-      <c r="BL5" s="197"/>
-      <c r="BM5" s="197"/>
-      <c r="BN5" s="197"/>
-      <c r="BO5" s="197"/>
-      <c r="BP5" s="197"/>
-      <c r="BQ5" s="197"/>
-      <c r="BR5" s="197"/>
-      <c r="BS5" s="197"/>
-      <c r="BT5" s="197"/>
-      <c r="BU5" s="197"/>
-      <c r="BV5" s="197"/>
-      <c r="BW5" s="197"/>
-      <c r="BX5" s="197"/>
-      <c r="BY5" s="198" t="s">
+      <c r="BI5" s="170"/>
+      <c r="BJ5" s="170"/>
+      <c r="BK5" s="170"/>
+      <c r="BL5" s="170"/>
+      <c r="BM5" s="170"/>
+      <c r="BN5" s="170"/>
+      <c r="BO5" s="170"/>
+      <c r="BP5" s="170"/>
+      <c r="BQ5" s="170"/>
+      <c r="BR5" s="170"/>
+      <c r="BS5" s="170"/>
+      <c r="BT5" s="170"/>
+      <c r="BU5" s="170"/>
+      <c r="BV5" s="170"/>
+      <c r="BW5" s="281" t="s">
         <v>468</v>
       </c>
-      <c r="BZ5" s="198"/>
-      <c r="CA5" s="198"/>
-      <c r="CB5" s="198"/>
-      <c r="CC5" s="198"/>
-      <c r="CD5" s="198"/>
-      <c r="CE5" s="198"/>
-      <c r="CF5" s="198"/>
-      <c r="CG5" s="198"/>
-      <c r="CH5" s="198"/>
-      <c r="CI5" s="198"/>
-      <c r="CJ5" s="198"/>
-      <c r="CK5" s="198"/>
-      <c r="CN5" s="199" t="s">
-        <v>31</v>
-      </c>
-      <c r="CO5" s="200"/>
-      <c r="CP5" s="200"/>
-      <c r="CQ5" s="200"/>
-      <c r="CR5" s="200"/>
-      <c r="CS5" s="200"/>
-      <c r="CT5" s="200"/>
-      <c r="CU5" s="200"/>
-      <c r="CV5" s="201"/>
-    </row>
-    <row r="6" spans="1:179" s="60" customFormat="1" ht="26">
-      <c r="A6" s="174" t="s">
+      <c r="BX5" s="281"/>
+      <c r="BY5" s="281"/>
+      <c r="BZ5" s="281"/>
+      <c r="CA5" s="281"/>
+      <c r="CB5" s="281"/>
+      <c r="CC5" s="281"/>
+      <c r="CD5" s="281"/>
+      <c r="CE5" s="281"/>
+      <c r="CF5" s="281"/>
+      <c r="CG5" s="281"/>
+      <c r="CH5" s="281"/>
+      <c r="CI5" s="281"/>
+    </row>
+    <row r="6" spans="1:166" s="60" customFormat="1" ht="26" customHeight="1">
+      <c r="A6" s="155" t="s">
         <v>344</v>
       </c>
       <c r="B6" s="108"/>
-      <c r="C6" s="281"/>
-      <c r="D6" s="149"/>
-      <c r="E6" s="149"/>
-      <c r="F6" s="149"/>
-      <c r="G6" s="149"/>
-      <c r="H6" s="149"/>
-      <c r="I6" s="149"/>
-      <c r="J6" s="149"/>
-      <c r="K6" s="149"/>
-      <c r="L6" s="149"/>
-      <c r="M6" s="149"/>
-      <c r="N6" s="208" t="s">
+      <c r="C6" s="248"/>
+      <c r="D6" s="254" t="s">
+        <v>286</v>
+      </c>
+      <c r="E6" s="254" t="s">
+        <v>285</v>
+      </c>
+      <c r="F6" s="254" t="s">
+        <v>288</v>
+      </c>
+      <c r="G6" s="258" t="s">
+        <v>262</v>
+      </c>
+      <c r="H6" s="258"/>
+      <c r="I6" s="258"/>
+      <c r="J6" s="258"/>
+      <c r="K6" s="258"/>
+      <c r="L6" s="258"/>
+      <c r="M6" s="258"/>
+      <c r="N6" s="158" t="s">
+        <v>503</v>
+      </c>
+      <c r="O6" s="158"/>
+      <c r="P6" s="158"/>
+      <c r="Q6" s="158"/>
+      <c r="R6" s="158"/>
+      <c r="S6" s="158"/>
+      <c r="T6" s="158"/>
+      <c r="U6" s="158"/>
+      <c r="V6" s="158"/>
+      <c r="W6" s="158"/>
+      <c r="X6" s="158"/>
+      <c r="Y6" s="158"/>
+      <c r="Z6" s="158"/>
+      <c r="AA6" s="158"/>
+      <c r="AB6" s="158"/>
+      <c r="AC6" s="158"/>
+      <c r="AD6" s="158"/>
+      <c r="AE6" s="158"/>
+      <c r="AF6" s="158"/>
+      <c r="AG6" s="158"/>
+      <c r="AH6" s="158"/>
+      <c r="AI6" s="158"/>
+      <c r="AJ6" s="158"/>
+      <c r="AK6" s="158"/>
+      <c r="AL6" s="158"/>
+      <c r="AM6" s="259" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN6" s="260"/>
+      <c r="AO6" s="260"/>
+      <c r="AP6" s="260"/>
+      <c r="AQ6" s="260"/>
+      <c r="AR6" s="261"/>
+      <c r="AS6" s="258" t="s">
+        <v>275</v>
+      </c>
+      <c r="AT6" s="258"/>
+      <c r="AU6" s="258"/>
+      <c r="AV6" s="258"/>
+      <c r="AW6" s="258"/>
+      <c r="AX6" s="258" t="s">
+        <v>276</v>
+      </c>
+      <c r="AY6" s="258"/>
+      <c r="AZ6" s="258"/>
+      <c r="BA6" s="254" t="s">
+        <v>290</v>
+      </c>
+      <c r="BB6" s="254" t="s">
+        <v>387</v>
+      </c>
+      <c r="BC6" s="258" t="s">
+        <v>259</v>
+      </c>
+      <c r="BD6" s="258"/>
+      <c r="BE6" s="258"/>
+      <c r="BF6" s="258"/>
+      <c r="BG6" s="258"/>
+      <c r="BH6" s="276" t="s">
+        <v>353</v>
+      </c>
+      <c r="BI6" s="276" t="s">
+        <v>354</v>
+      </c>
+      <c r="BJ6" s="276" t="s">
+        <v>297</v>
+      </c>
+      <c r="BK6" s="276" t="s">
+        <v>391</v>
+      </c>
+      <c r="BL6" s="259" t="s">
+        <v>266</v>
+      </c>
+      <c r="BM6" s="261"/>
+      <c r="BN6" s="272" t="s">
+        <v>480</v>
+      </c>
+      <c r="BO6" s="278"/>
+      <c r="BP6" s="278"/>
+      <c r="BQ6" s="278"/>
+      <c r="BR6" s="278"/>
+      <c r="BS6" s="278"/>
+      <c r="BT6" s="278"/>
+      <c r="BU6" s="278"/>
+      <c r="BV6" s="273"/>
+      <c r="BW6" s="276" t="s">
+        <v>137</v>
+      </c>
+      <c r="BX6" s="276" t="s">
+        <v>283</v>
+      </c>
+      <c r="BY6" s="272" t="s">
+        <v>306</v>
+      </c>
+      <c r="BZ6" s="273"/>
+      <c r="CA6" s="276" t="s">
+        <v>28</v>
+      </c>
+      <c r="CB6" s="276" t="s">
+        <v>386</v>
+      </c>
+      <c r="CC6" s="272" t="s">
+        <v>305</v>
+      </c>
+      <c r="CD6" s="278"/>
+      <c r="CE6" s="278"/>
+      <c r="CF6" s="278"/>
+      <c r="CG6" s="273"/>
+      <c r="CH6" s="250" t="s">
+        <v>307</v>
+      </c>
+      <c r="CI6" s="252"/>
+    </row>
+    <row r="7" spans="1:166" s="59" customFormat="1" ht="104" customHeight="1">
+      <c r="A7" s="155"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="249"/>
+      <c r="D7" s="254"/>
+      <c r="E7" s="254"/>
+      <c r="F7" s="254"/>
+      <c r="G7" s="258"/>
+      <c r="H7" s="258"/>
+      <c r="I7" s="258"/>
+      <c r="J7" s="258"/>
+      <c r="K7" s="258"/>
+      <c r="L7" s="258"/>
+      <c r="M7" s="258"/>
+      <c r="N7" s="292" t="s">
+        <v>430</v>
+      </c>
+      <c r="O7" s="267"/>
+      <c r="P7" s="267"/>
+      <c r="Q7" s="267"/>
+      <c r="R7" s="267"/>
+      <c r="S7" s="267"/>
+      <c r="T7" s="267"/>
+      <c r="U7" s="267"/>
+      <c r="V7" s="268"/>
+      <c r="W7" s="254" t="s">
+        <v>431</v>
+      </c>
+      <c r="X7" s="258"/>
+      <c r="Y7" s="258"/>
+      <c r="Z7" s="258"/>
+      <c r="AA7" s="258"/>
+      <c r="AB7" s="258"/>
+      <c r="AC7" s="258"/>
+      <c r="AD7" s="258"/>
+      <c r="AE7" s="258"/>
+      <c r="AF7" s="258"/>
+      <c r="AG7" s="258"/>
+      <c r="AH7" s="258"/>
+      <c r="AI7" s="258"/>
+      <c r="AJ7" s="258"/>
+      <c r="AK7" s="258"/>
+      <c r="AL7" s="258"/>
+      <c r="AM7" s="262"/>
+      <c r="AN7" s="263"/>
+      <c r="AO7" s="263"/>
+      <c r="AP7" s="263"/>
+      <c r="AQ7" s="263"/>
+      <c r="AR7" s="264"/>
+      <c r="AS7" s="258"/>
+      <c r="AT7" s="258"/>
+      <c r="AU7" s="258"/>
+      <c r="AV7" s="258"/>
+      <c r="AW7" s="258"/>
+      <c r="AX7" s="258"/>
+      <c r="AY7" s="258"/>
+      <c r="AZ7" s="258"/>
+      <c r="BA7" s="254"/>
+      <c r="BB7" s="254"/>
+      <c r="BC7" s="258"/>
+      <c r="BD7" s="258"/>
+      <c r="BE7" s="258"/>
+      <c r="BF7" s="258"/>
+      <c r="BG7" s="258"/>
+      <c r="BH7" s="277"/>
+      <c r="BI7" s="277"/>
+      <c r="BJ7" s="277"/>
+      <c r="BK7" s="277"/>
+      <c r="BL7" s="262"/>
+      <c r="BM7" s="264"/>
+      <c r="BN7" s="274"/>
+      <c r="BO7" s="279"/>
+      <c r="BP7" s="279"/>
+      <c r="BQ7" s="279"/>
+      <c r="BR7" s="279"/>
+      <c r="BS7" s="279"/>
+      <c r="BT7" s="279"/>
+      <c r="BU7" s="279"/>
+      <c r="BV7" s="275"/>
+      <c r="BW7" s="277"/>
+      <c r="BX7" s="277"/>
+      <c r="BY7" s="274"/>
+      <c r="BZ7" s="275"/>
+      <c r="CA7" s="277"/>
+      <c r="CB7" s="277"/>
+      <c r="CC7" s="274"/>
+      <c r="CD7" s="279"/>
+      <c r="CE7" s="279"/>
+      <c r="CF7" s="279"/>
+      <c r="CG7" s="275"/>
+      <c r="CH7" s="251"/>
+      <c r="CI7" s="253"/>
+    </row>
+    <row r="8" spans="1:166" ht="23" customHeight="1">
+      <c r="A8" s="176" t="s">
+        <v>373</v>
+      </c>
+      <c r="B8" s="101"/>
+      <c r="C8" s="249"/>
+      <c r="D8" s="189"/>
+      <c r="E8" s="189"/>
+      <c r="F8" s="189"/>
+      <c r="G8" s="256" t="s">
+        <v>375</v>
+      </c>
+      <c r="H8" s="256" t="s">
+        <v>267</v>
+      </c>
+      <c r="I8" s="256" t="s">
+        <v>268</v>
+      </c>
+      <c r="J8" s="256" t="s">
+        <v>261</v>
+      </c>
+      <c r="K8" s="256" t="s">
+        <v>269</v>
+      </c>
+      <c r="L8" s="256" t="s">
+        <v>284</v>
+      </c>
+      <c r="M8" s="256" t="s">
+        <v>283</v>
+      </c>
+      <c r="N8" s="256" t="s">
+        <v>432</v>
+      </c>
+      <c r="O8" s="256" t="s">
+        <v>395</v>
+      </c>
+      <c r="P8" s="183" t="s">
+        <v>500</v>
+      </c>
+      <c r="Q8" s="184"/>
+      <c r="R8" s="184"/>
+      <c r="S8" s="184"/>
+      <c r="T8" s="184"/>
+      <c r="U8" s="184"/>
+      <c r="V8" s="185"/>
+      <c r="W8" s="256" t="s">
+        <v>379</v>
+      </c>
+      <c r="X8" s="256" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y8" s="256" t="s">
         <v>508</v>
       </c>
-      <c r="O6" s="208"/>
-      <c r="P6" s="208"/>
-      <c r="Q6" s="208"/>
-      <c r="R6" s="208"/>
-      <c r="S6" s="208"/>
-      <c r="T6" s="208"/>
-      <c r="U6" s="208"/>
-      <c r="V6" s="208"/>
-      <c r="W6" s="208"/>
-      <c r="X6" s="208"/>
-      <c r="Y6" s="208"/>
-      <c r="Z6" s="208"/>
-      <c r="AA6" s="208"/>
-      <c r="AB6" s="208"/>
-      <c r="AC6" s="208"/>
-      <c r="AD6" s="208"/>
-      <c r="AE6" s="208"/>
-      <c r="AF6" s="208"/>
-      <c r="AG6" s="208"/>
-      <c r="AH6" s="208"/>
-      <c r="AI6" s="208"/>
-      <c r="AJ6" s="208"/>
-      <c r="AK6" s="208"/>
-      <c r="AL6" s="208"/>
-      <c r="AM6" s="208"/>
-      <c r="AN6" s="208"/>
-      <c r="AO6" s="149"/>
-      <c r="AP6" s="149"/>
-      <c r="AQ6" s="149"/>
-      <c r="AR6" s="149"/>
-      <c r="AS6" s="149"/>
-      <c r="AT6" s="149"/>
-      <c r="AU6" s="148"/>
-      <c r="AV6" s="149"/>
-      <c r="AW6" s="149"/>
-      <c r="AX6" s="149"/>
-      <c r="AY6" s="149"/>
-      <c r="AZ6" s="149"/>
-      <c r="BA6" s="149"/>
-      <c r="BB6" s="150"/>
-      <c r="BC6" s="148"/>
-      <c r="BD6" s="149"/>
-      <c r="BE6" s="149"/>
-      <c r="BF6" s="149"/>
-      <c r="BG6" s="149"/>
-      <c r="BH6" s="149"/>
-      <c r="BI6" s="150"/>
-      <c r="BJ6" s="152"/>
-      <c r="BK6" s="152"/>
-      <c r="BL6" s="282"/>
-      <c r="BM6" s="282"/>
-      <c r="BN6" s="152"/>
-      <c r="BO6" s="152"/>
-      <c r="BP6" s="152"/>
-      <c r="BQ6" s="152"/>
-      <c r="BR6" s="152"/>
-      <c r="BS6" s="152"/>
-      <c r="BT6" s="152"/>
-      <c r="BU6" s="152"/>
-      <c r="BV6" s="152"/>
-      <c r="BW6" s="152"/>
-      <c r="BX6" s="152"/>
-      <c r="BY6" s="156"/>
-      <c r="BZ6" s="156"/>
-      <c r="CA6" s="283"/>
-      <c r="CB6" s="284"/>
-      <c r="CC6" s="156"/>
-      <c r="CD6" s="156"/>
-      <c r="CE6" s="283"/>
-      <c r="CF6" s="285"/>
-      <c r="CG6" s="285"/>
-      <c r="CH6" s="285"/>
-      <c r="CI6" s="285"/>
-      <c r="CJ6" s="156"/>
-      <c r="CK6" s="156"/>
-      <c r="CN6" s="286"/>
-      <c r="CO6" s="286"/>
-      <c r="CP6" s="286"/>
-      <c r="CQ6" s="287"/>
-      <c r="CR6" s="287"/>
-      <c r="CS6" s="287"/>
-      <c r="CT6" s="287"/>
-      <c r="CU6" s="287"/>
-      <c r="CV6" s="287"/>
-    </row>
-    <row r="7" spans="1:179" s="59" customFormat="1" ht="104" customHeight="1">
-      <c r="A7" s="174"/>
-      <c r="B7" s="101"/>
-      <c r="C7" s="175"/>
-      <c r="D7" s="155" t="s">
-        <v>286</v>
-      </c>
-      <c r="E7" s="136" t="s">
-        <v>285</v>
-      </c>
-      <c r="F7" s="136" t="s">
-        <v>288</v>
-      </c>
-      <c r="G7" s="202" t="s">
-        <v>262</v>
-      </c>
-      <c r="H7" s="202"/>
-      <c r="I7" s="202"/>
-      <c r="J7" s="202"/>
-      <c r="K7" s="202"/>
-      <c r="L7" s="202"/>
-      <c r="M7" s="202"/>
-      <c r="N7" s="177" t="s">
-        <v>430</v>
-      </c>
-      <c r="O7" s="203"/>
-      <c r="P7" s="203"/>
-      <c r="Q7" s="203"/>
-      <c r="R7" s="203"/>
-      <c r="S7" s="203"/>
-      <c r="T7" s="203"/>
-      <c r="U7" s="203"/>
-      <c r="V7" s="203"/>
-      <c r="W7" s="204"/>
-      <c r="X7" s="205" t="s">
-        <v>431</v>
-      </c>
-      <c r="Y7" s="202"/>
-      <c r="Z7" s="202"/>
-      <c r="AA7" s="202"/>
-      <c r="AB7" s="202"/>
-      <c r="AC7" s="202"/>
-      <c r="AD7" s="202"/>
-      <c r="AE7" s="202"/>
-      <c r="AF7" s="202"/>
-      <c r="AG7" s="202"/>
-      <c r="AH7" s="202"/>
-      <c r="AI7" s="202"/>
-      <c r="AJ7" s="202"/>
-      <c r="AK7" s="202"/>
-      <c r="AL7" s="202"/>
-      <c r="AM7" s="202"/>
-      <c r="AN7" s="202"/>
-      <c r="AO7" s="206" t="s">
-        <v>28</v>
-      </c>
-      <c r="AP7" s="203"/>
-      <c r="AQ7" s="203"/>
-      <c r="AR7" s="203"/>
-      <c r="AS7" s="203"/>
-      <c r="AT7" s="203"/>
-      <c r="AU7" s="202" t="s">
-        <v>275</v>
-      </c>
-      <c r="AV7" s="202"/>
-      <c r="AW7" s="202"/>
-      <c r="AX7" s="202"/>
-      <c r="AY7" s="202"/>
-      <c r="AZ7" s="206" t="s">
-        <v>276</v>
-      </c>
-      <c r="BA7" s="203"/>
-      <c r="BB7" s="204"/>
-      <c r="BC7" s="137" t="s">
-        <v>290</v>
-      </c>
-      <c r="BD7" s="137" t="s">
-        <v>387</v>
-      </c>
-      <c r="BE7" s="202" t="s">
-        <v>259</v>
-      </c>
-      <c r="BF7" s="202"/>
-      <c r="BG7" s="202"/>
-      <c r="BH7" s="202"/>
-      <c r="BI7" s="202"/>
-      <c r="BJ7" s="136" t="s">
-        <v>353</v>
-      </c>
-      <c r="BK7" s="136" t="s">
-        <v>354</v>
-      </c>
-      <c r="BL7" s="153" t="s">
-        <v>297</v>
-      </c>
-      <c r="BM7" s="153" t="s">
-        <v>391</v>
-      </c>
-      <c r="BN7" s="202" t="s">
-        <v>266</v>
-      </c>
-      <c r="BO7" s="202"/>
-      <c r="BP7" s="205" t="s">
-        <v>480</v>
-      </c>
-      <c r="BQ7" s="205"/>
-      <c r="BR7" s="205"/>
-      <c r="BS7" s="205"/>
-      <c r="BT7" s="205"/>
-      <c r="BU7" s="205"/>
-      <c r="BV7" s="205"/>
-      <c r="BW7" s="205"/>
-      <c r="BX7" s="205"/>
-      <c r="BY7" s="136" t="s">
+      <c r="Z8" s="256" t="s">
+        <v>399</v>
+      </c>
+      <c r="AA8" s="158" t="s">
+        <v>501</v>
+      </c>
+      <c r="AB8" s="158"/>
+      <c r="AC8" s="158"/>
+      <c r="AD8" s="158"/>
+      <c r="AE8" s="158"/>
+      <c r="AF8" s="158"/>
+      <c r="AG8" s="158"/>
+      <c r="AH8" s="158"/>
+      <c r="AI8" s="158"/>
+      <c r="AJ8" s="158"/>
+      <c r="AK8" s="158"/>
+      <c r="AL8" s="158"/>
+      <c r="AM8" s="265" t="s">
+        <v>447</v>
+      </c>
+      <c r="AN8" s="265" t="s">
+        <v>448</v>
+      </c>
+      <c r="AO8" s="265" t="s">
+        <v>449</v>
+      </c>
+      <c r="AP8" s="265" t="s">
+        <v>450</v>
+      </c>
+      <c r="AQ8" s="265" t="s">
+        <v>451</v>
+      </c>
+      <c r="AR8" s="265" t="s">
+        <v>452</v>
+      </c>
+      <c r="AS8" s="256" t="s">
+        <v>258</v>
+      </c>
+      <c r="AT8" s="256" t="s">
+        <v>274</v>
+      </c>
+      <c r="AU8" s="256" t="s">
+        <v>277</v>
+      </c>
+      <c r="AV8" s="256" t="s">
+        <v>261</v>
+      </c>
+      <c r="AW8" s="256" t="s">
+        <v>273</v>
+      </c>
+      <c r="AX8" s="256" t="s">
+        <v>272</v>
+      </c>
+      <c r="AY8" s="256" t="s">
+        <v>44</v>
+      </c>
+      <c r="AZ8" s="256" t="s">
+        <v>273</v>
+      </c>
+      <c r="BA8" s="269" t="s">
+        <v>269</v>
+      </c>
+      <c r="BB8" s="269" t="s">
+        <v>269</v>
+      </c>
+      <c r="BC8" s="256" t="s">
+        <v>270</v>
+      </c>
+      <c r="BD8" s="256" t="s">
+        <v>268</v>
+      </c>
+      <c r="BE8" s="256" t="s">
+        <v>314</v>
+      </c>
+      <c r="BF8" s="256" t="s">
+        <v>313</v>
+      </c>
+      <c r="BG8" s="256" t="s">
+        <v>312</v>
+      </c>
+      <c r="BH8" s="189"/>
+      <c r="BI8" s="189"/>
+      <c r="BJ8" s="189"/>
+      <c r="BK8" s="189"/>
+      <c r="BL8" s="256" t="s">
+        <v>356</v>
+      </c>
+      <c r="BM8" s="256" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN8" s="282" t="s">
+        <v>388</v>
+      </c>
+      <c r="BO8" s="283"/>
+      <c r="BP8" s="283"/>
+      <c r="BQ8" s="284"/>
+      <c r="BR8" s="256" t="s">
+        <v>422</v>
+      </c>
+      <c r="BS8" s="256" t="s">
+        <v>506</v>
+      </c>
+      <c r="BT8" s="282" t="s">
+        <v>502</v>
+      </c>
+      <c r="BU8" s="284"/>
+      <c r="BV8" s="256" t="s">
+        <v>484</v>
+      </c>
+      <c r="BW8" s="189"/>
+      <c r="BX8" s="189"/>
+      <c r="BY8" s="182" t="s">
+        <v>471</v>
+      </c>
+      <c r="BZ8" s="182" t="s">
+        <v>472</v>
+      </c>
+      <c r="CA8" s="189"/>
+      <c r="CB8" s="189"/>
+      <c r="CC8" s="280" t="s">
+        <v>384</v>
+      </c>
+      <c r="CD8" s="280" t="s">
+        <v>385</v>
+      </c>
+      <c r="CE8" s="280"/>
+      <c r="CF8" s="280"/>
+      <c r="CG8" s="280"/>
+      <c r="CH8" s="182" t="s">
+        <v>308</v>
+      </c>
+      <c r="CI8" s="182" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="9" spans="1:166" ht="47" customHeight="1">
+      <c r="A9" s="177"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="249"/>
+      <c r="D9" s="190"/>
+      <c r="E9" s="190"/>
+      <c r="F9" s="190"/>
+      <c r="G9" s="257"/>
+      <c r="H9" s="257"/>
+      <c r="I9" s="257"/>
+      <c r="J9" s="257"/>
+      <c r="K9" s="257"/>
+      <c r="L9" s="257"/>
+      <c r="M9" s="257"/>
+      <c r="N9" s="257"/>
+      <c r="O9" s="257"/>
+      <c r="P9" s="288" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q9" s="289"/>
+      <c r="R9" s="289"/>
+      <c r="S9" s="289"/>
+      <c r="T9" s="289"/>
+      <c r="U9" s="289"/>
+      <c r="V9" s="290"/>
+      <c r="W9" s="257"/>
+      <c r="X9" s="257"/>
+      <c r="Y9" s="257"/>
+      <c r="Z9" s="257"/>
+      <c r="AA9" s="291" t="s">
+        <v>445</v>
+      </c>
+      <c r="AB9" s="291"/>
+      <c r="AC9" s="291"/>
+      <c r="AD9" s="291"/>
+      <c r="AE9" s="291"/>
+      <c r="AF9" s="291"/>
+      <c r="AG9" s="291"/>
+      <c r="AH9" s="291"/>
+      <c r="AI9" s="291"/>
+      <c r="AJ9" s="291"/>
+      <c r="AK9" s="291"/>
+      <c r="AL9" s="291"/>
+      <c r="AM9" s="265"/>
+      <c r="AN9" s="265"/>
+      <c r="AO9" s="265"/>
+      <c r="AP9" s="265"/>
+      <c r="AQ9" s="265"/>
+      <c r="AR9" s="265"/>
+      <c r="AS9" s="257"/>
+      <c r="AT9" s="257"/>
+      <c r="AU9" s="257"/>
+      <c r="AV9" s="257"/>
+      <c r="AW9" s="257"/>
+      <c r="AX9" s="257"/>
+      <c r="AY9" s="257"/>
+      <c r="AZ9" s="257"/>
+      <c r="BA9" s="270" t="s">
+        <v>456</v>
+      </c>
+      <c r="BB9" s="270" t="s">
+        <v>457</v>
+      </c>
+      <c r="BC9" s="257"/>
+      <c r="BD9" s="257"/>
+      <c r="BE9" s="257"/>
+      <c r="BF9" s="257"/>
+      <c r="BG9" s="257"/>
+      <c r="BH9" s="190"/>
+      <c r="BI9" s="190"/>
+      <c r="BJ9" s="190"/>
+      <c r="BK9" s="190"/>
+      <c r="BL9" s="257"/>
+      <c r="BM9" s="257"/>
+      <c r="BN9" s="285"/>
+      <c r="BO9" s="286"/>
+      <c r="BP9" s="286"/>
+      <c r="BQ9" s="287"/>
+      <c r="BR9" s="257"/>
+      <c r="BS9" s="257"/>
+      <c r="BT9" s="285"/>
+      <c r="BU9" s="287"/>
+      <c r="BV9" s="257"/>
+      <c r="BW9" s="190"/>
+      <c r="BX9" s="190"/>
+      <c r="BY9" s="182"/>
+      <c r="BZ9" s="182"/>
+      <c r="CA9" s="190"/>
+      <c r="CB9" s="190"/>
+      <c r="CC9" s="280"/>
+      <c r="CD9" s="280"/>
+      <c r="CE9" s="280"/>
+      <c r="CF9" s="280"/>
+      <c r="CG9" s="280"/>
+      <c r="CH9" s="182"/>
+      <c r="CI9" s="182"/>
+    </row>
+    <row r="10" spans="1:166" ht="32" customHeight="1">
+      <c r="A10" s="155" t="s">
+        <v>374</v>
+      </c>
+      <c r="B10" s="127"/>
+      <c r="C10" s="249"/>
+      <c r="D10" s="190"/>
+      <c r="E10" s="190"/>
+      <c r="F10" s="190"/>
+      <c r="G10" s="174"/>
+      <c r="H10" s="174"/>
+      <c r="I10" s="174"/>
+      <c r="J10" s="174"/>
+      <c r="K10" s="174"/>
+      <c r="L10" s="174"/>
+      <c r="M10" s="174"/>
+      <c r="N10" s="174"/>
+      <c r="O10" s="174"/>
+      <c r="P10" s="183" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q10" s="184"/>
+      <c r="R10" s="184"/>
+      <c r="S10" s="184"/>
+      <c r="T10" s="184"/>
+      <c r="U10" s="184"/>
+      <c r="V10" s="185"/>
+      <c r="W10" s="174"/>
+      <c r="X10" s="174"/>
+      <c r="Y10" s="174" t="s">
+        <v>507</v>
+      </c>
+      <c r="Z10" s="174"/>
+      <c r="AA10" s="158" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB10" s="158"/>
+      <c r="AC10" s="158"/>
+      <c r="AD10" s="158"/>
+      <c r="AE10" s="158"/>
+      <c r="AF10" s="158"/>
+      <c r="AG10" s="158"/>
+      <c r="AH10" s="158"/>
+      <c r="AI10" s="158"/>
+      <c r="AJ10" s="158"/>
+      <c r="AK10" s="158"/>
+      <c r="AL10" s="158"/>
+      <c r="AM10" s="174"/>
+      <c r="AN10" s="174"/>
+      <c r="AO10" s="174"/>
+      <c r="AP10" s="174"/>
+      <c r="AQ10" s="174"/>
+      <c r="AR10" s="174"/>
+      <c r="AS10" s="174"/>
+      <c r="AT10" s="174"/>
+      <c r="AU10" s="174"/>
+      <c r="AV10" s="174"/>
+      <c r="AW10" s="174"/>
+      <c r="AX10" s="174"/>
+      <c r="AY10" s="174"/>
+      <c r="AZ10" s="174"/>
+      <c r="BA10" s="174"/>
+      <c r="BB10" s="174"/>
+      <c r="BC10" s="174"/>
+      <c r="BD10" s="174"/>
+      <c r="BE10" s="143" t="s">
+        <v>269</v>
+      </c>
+      <c r="BF10" s="174"/>
+      <c r="BG10" s="69"/>
+      <c r="BH10" s="190"/>
+      <c r="BI10" s="190"/>
+      <c r="BJ10" s="190"/>
+      <c r="BK10" s="190"/>
+      <c r="BL10" s="146" t="s">
+        <v>467</v>
+      </c>
+      <c r="BM10" s="146" t="s">
+        <v>466</v>
+      </c>
+      <c r="BN10" s="280" t="s">
+        <v>301</v>
+      </c>
+      <c r="BO10" s="280" t="s">
+        <v>268</v>
+      </c>
+      <c r="BP10" s="280" t="s">
+        <v>261</v>
+      </c>
+      <c r="BQ10" s="280" t="s">
+        <v>269</v>
+      </c>
+      <c r="BR10" s="189"/>
+      <c r="BS10" s="143" t="s">
+        <v>269</v>
+      </c>
+      <c r="BT10" s="159" t="s">
+        <v>269</v>
+      </c>
+      <c r="BU10" s="159"/>
+      <c r="BV10" s="153" t="s">
+        <v>269</v>
+      </c>
+      <c r="BW10" s="190"/>
+      <c r="BX10" s="190"/>
+      <c r="BY10" s="191"/>
+      <c r="BZ10" s="191"/>
+      <c r="CA10" s="190"/>
+      <c r="CB10" s="190"/>
+      <c r="CC10" s="191"/>
+      <c r="CD10" s="182">
+        <v>1</v>
+      </c>
+      <c r="CE10" s="182">
+        <v>2</v>
+      </c>
+      <c r="CF10" s="182">
+        <v>3</v>
+      </c>
+      <c r="CG10" s="182">
+        <v>4</v>
+      </c>
+      <c r="CH10" s="191"/>
+      <c r="CI10" s="191"/>
+    </row>
+    <row r="11" spans="1:166" ht="34">
+      <c r="A11" s="155"/>
+      <c r="B11" s="127"/>
+      <c r="C11" s="249"/>
+      <c r="D11" s="190"/>
+      <c r="E11" s="190"/>
+      <c r="F11" s="190"/>
+      <c r="G11" s="175"/>
+      <c r="H11" s="175"/>
+      <c r="I11" s="175"/>
+      <c r="J11" s="175"/>
+      <c r="K11" s="175"/>
+      <c r="L11" s="175"/>
+      <c r="M11" s="175"/>
+      <c r="N11" s="175"/>
+      <c r="O11" s="175"/>
+      <c r="P11" s="129" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q11" s="129" t="s">
         <v>137</v>
       </c>
-      <c r="BZ7" s="136" t="s">
-        <v>283</v>
-      </c>
-      <c r="CA7" s="177" t="s">
-        <v>306</v>
-      </c>
-      <c r="CB7" s="178"/>
-      <c r="CC7" s="136" t="s">
-        <v>28</v>
-      </c>
-      <c r="CD7" s="136" t="s">
-        <v>386</v>
-      </c>
-      <c r="CE7" s="177" t="s">
-        <v>305</v>
-      </c>
-      <c r="CF7" s="207"/>
-      <c r="CG7" s="207"/>
-      <c r="CH7" s="207"/>
-      <c r="CI7" s="207"/>
-      <c r="CJ7" s="205" t="s">
-        <v>307</v>
-      </c>
-      <c r="CK7" s="205"/>
-      <c r="CN7" s="278" t="s">
-        <v>482</v>
-      </c>
-      <c r="CO7" s="278"/>
-      <c r="CP7" s="278"/>
-      <c r="CR7" s="59" t="s">
+      <c r="R11" s="163" t="s">
+        <v>427</v>
+      </c>
+      <c r="S11" s="164"/>
+      <c r="T11" s="164"/>
+      <c r="U11" s="164"/>
+      <c r="V11" s="165"/>
+      <c r="W11" s="175"/>
+      <c r="X11" s="175"/>
+      <c r="Y11" s="175"/>
+      <c r="Z11" s="175"/>
+      <c r="AA11" s="139" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB11" s="139" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC11" s="139" t="s">
+        <v>282</v>
+      </c>
+      <c r="AD11" s="139" t="s">
+        <v>281</v>
+      </c>
+      <c r="AE11" s="166" t="s">
+        <v>427</v>
+      </c>
+      <c r="AF11" s="167"/>
+      <c r="AG11" s="167"/>
+      <c r="AH11" s="168"/>
+      <c r="AI11" s="166" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ11" s="167"/>
+      <c r="AK11" s="167"/>
+      <c r="AL11" s="168"/>
+      <c r="AM11" s="175"/>
+      <c r="AN11" s="175"/>
+      <c r="AO11" s="175"/>
+      <c r="AP11" s="175"/>
+      <c r="AQ11" s="175"/>
+      <c r="AR11" s="175"/>
+      <c r="AS11" s="175"/>
+      <c r="AT11" s="175"/>
+      <c r="AU11" s="175"/>
+      <c r="AV11" s="175"/>
+      <c r="AW11" s="175"/>
+      <c r="AX11" s="175"/>
+      <c r="AY11" s="175"/>
+      <c r="AZ11" s="175"/>
+      <c r="BA11" s="175"/>
+      <c r="BB11" s="175"/>
+      <c r="BC11" s="175"/>
+      <c r="BD11" s="175"/>
+      <c r="BE11" s="96" t="s">
+        <v>459</v>
+      </c>
+      <c r="BF11" s="175"/>
+      <c r="BG11" s="69"/>
+      <c r="BH11" s="190"/>
+      <c r="BI11" s="190"/>
+      <c r="BJ11" s="190"/>
+      <c r="BK11" s="190"/>
+      <c r="BL11" s="54" t="s">
+        <v>465</v>
+      </c>
+      <c r="BM11" s="54" t="s">
+        <v>445</v>
+      </c>
+      <c r="BN11" s="280"/>
+      <c r="BO11" s="280"/>
+      <c r="BP11" s="280"/>
+      <c r="BQ11" s="280"/>
+      <c r="BR11" s="190"/>
+      <c r="BS11" s="96" t="s">
+        <v>459</v>
+      </c>
+      <c r="BT11" s="160" t="s">
+        <v>456</v>
+      </c>
+      <c r="BU11" s="160"/>
+      <c r="BV11" s="154" t="s">
+        <v>456</v>
+      </c>
+      <c r="BW11" s="190"/>
+      <c r="BX11" s="190"/>
+      <c r="BY11" s="192"/>
+      <c r="BZ11" s="192"/>
+      <c r="CA11" s="190"/>
+      <c r="CB11" s="190"/>
+      <c r="CC11" s="192"/>
+      <c r="CD11" s="182"/>
+      <c r="CE11" s="182"/>
+      <c r="CF11" s="182"/>
+      <c r="CG11" s="182"/>
+      <c r="CH11" s="192"/>
+      <c r="CI11" s="192"/>
+    </row>
+    <row r="12" spans="1:166" ht="37" customHeight="1">
+      <c r="A12" s="176" t="s">
+        <v>404</v>
+      </c>
+      <c r="B12" s="127"/>
+      <c r="C12" s="249"/>
+      <c r="D12" s="190"/>
+      <c r="E12" s="190"/>
+      <c r="F12" s="190"/>
+      <c r="G12" s="175"/>
+      <c r="H12" s="175"/>
+      <c r="I12" s="175"/>
+      <c r="J12" s="175"/>
+      <c r="K12" s="175"/>
+      <c r="L12" s="175"/>
+      <c r="M12" s="175"/>
+      <c r="N12" s="175"/>
+      <c r="O12" s="175"/>
+      <c r="P12" s="186"/>
+      <c r="Q12" s="186"/>
+      <c r="R12" s="182" t="s">
+        <v>141</v>
+      </c>
+      <c r="S12" s="181" t="s">
+        <v>146</v>
+      </c>
+      <c r="T12" s="181" t="s">
+        <v>408</v>
+      </c>
+      <c r="U12" s="181" t="s">
+        <v>409</v>
+      </c>
+      <c r="V12" s="181" t="s">
+        <v>410</v>
+      </c>
+      <c r="W12" s="175"/>
+      <c r="X12" s="175"/>
+      <c r="Y12" s="175"/>
+      <c r="Z12" s="175"/>
+      <c r="AA12" s="186"/>
+      <c r="AB12" s="186"/>
+      <c r="AC12" s="186"/>
+      <c r="AD12" s="186"/>
+      <c r="AE12" s="188" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF12" s="188" t="s">
+        <v>146</v>
+      </c>
+      <c r="AG12" s="188" t="s">
+        <v>400</v>
+      </c>
+      <c r="AH12" s="188" t="s">
+        <v>401</v>
+      </c>
+      <c r="AI12" s="188" t="s">
+        <v>141</v>
+      </c>
+      <c r="AJ12" s="188" t="s">
+        <v>142</v>
+      </c>
+      <c r="AK12" s="188" t="s">
+        <v>143</v>
+      </c>
+      <c r="AL12" s="188" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM12" s="175"/>
+      <c r="AN12" s="175"/>
+      <c r="AO12" s="175"/>
+      <c r="AP12" s="175"/>
+      <c r="AQ12" s="175"/>
+      <c r="AR12" s="175"/>
+      <c r="AS12" s="175"/>
+      <c r="AT12" s="175"/>
+      <c r="AU12" s="175"/>
+      <c r="AV12" s="175"/>
+      <c r="AW12" s="175"/>
+      <c r="AX12" s="175"/>
+      <c r="AY12" s="175"/>
+      <c r="AZ12" s="175"/>
+      <c r="BA12" s="175"/>
+      <c r="BB12" s="175"/>
+      <c r="BC12" s="175"/>
+      <c r="BD12" s="175"/>
+      <c r="BE12" s="156"/>
+      <c r="BF12" s="175"/>
+      <c r="BG12" s="69"/>
+      <c r="BH12" s="190"/>
+      <c r="BI12" s="190"/>
+      <c r="BJ12" s="190"/>
+      <c r="BK12" s="190"/>
+      <c r="BL12" s="156"/>
+      <c r="BM12" s="156"/>
+      <c r="BN12" s="156"/>
+      <c r="BO12" s="156"/>
+      <c r="BP12" s="149"/>
+      <c r="BQ12" s="156"/>
+      <c r="BR12" s="190"/>
+      <c r="BS12" s="134"/>
+      <c r="BT12" s="161" t="s">
+        <v>485</v>
+      </c>
+      <c r="BU12" s="161"/>
+      <c r="BV12" s="156"/>
+      <c r="BW12" s="190"/>
+      <c r="BX12" s="190"/>
+      <c r="BY12" s="192"/>
+      <c r="BZ12" s="192"/>
+      <c r="CA12" s="190"/>
+      <c r="CB12" s="190"/>
+      <c r="CC12" s="192"/>
+      <c r="CD12" s="156"/>
+      <c r="CE12" s="156"/>
+      <c r="CF12" s="156"/>
+      <c r="CG12" s="156"/>
+      <c r="CH12" s="192"/>
+      <c r="CI12" s="192"/>
+    </row>
+    <row r="13" spans="1:166" ht="47" customHeight="1">
+      <c r="A13" s="177"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="249"/>
+      <c r="D13" s="190"/>
+      <c r="E13" s="190"/>
+      <c r="F13" s="190"/>
+      <c r="G13" s="175"/>
+      <c r="H13" s="175"/>
+      <c r="I13" s="175"/>
+      <c r="J13" s="175"/>
+      <c r="K13" s="175"/>
+      <c r="L13" s="175"/>
+      <c r="M13" s="175"/>
+      <c r="N13" s="175"/>
+      <c r="O13" s="175"/>
+      <c r="P13" s="187"/>
+      <c r="Q13" s="187"/>
+      <c r="R13" s="182"/>
+      <c r="S13" s="181"/>
+      <c r="T13" s="181"/>
+      <c r="U13" s="181"/>
+      <c r="V13" s="181"/>
+      <c r="W13" s="175"/>
+      <c r="X13" s="175"/>
+      <c r="Y13" s="175"/>
+      <c r="Z13" s="175"/>
+      <c r="AA13" s="187"/>
+      <c r="AB13" s="187"/>
+      <c r="AC13" s="187"/>
+      <c r="AD13" s="187"/>
+      <c r="AE13" s="188"/>
+      <c r="AF13" s="188"/>
+      <c r="AG13" s="188"/>
+      <c r="AH13" s="188"/>
+      <c r="AI13" s="188"/>
+      <c r="AJ13" s="188"/>
+      <c r="AK13" s="188"/>
+      <c r="AL13" s="188"/>
+      <c r="AM13" s="175"/>
+      <c r="AN13" s="175"/>
+      <c r="AO13" s="175"/>
+      <c r="AP13" s="175"/>
+      <c r="AQ13" s="175"/>
+      <c r="AR13" s="175"/>
+      <c r="AS13" s="175"/>
+      <c r="AT13" s="175"/>
+      <c r="AU13" s="175"/>
+      <c r="AV13" s="175"/>
+      <c r="AW13" s="175"/>
+      <c r="AX13" s="175"/>
+      <c r="AY13" s="175"/>
+      <c r="AZ13" s="175"/>
+      <c r="BA13" s="175"/>
+      <c r="BB13" s="175"/>
+      <c r="BC13" s="175"/>
+      <c r="BD13" s="175"/>
+      <c r="BE13" s="157"/>
+      <c r="BF13" s="175"/>
+      <c r="BG13" s="69"/>
+      <c r="BH13" s="190"/>
+      <c r="BI13" s="190"/>
+      <c r="BJ13" s="190"/>
+      <c r="BK13" s="190"/>
+      <c r="BL13" s="157"/>
+      <c r="BM13" s="157"/>
+      <c r="BN13" s="157"/>
+      <c r="BO13" s="157"/>
+      <c r="BP13" s="148"/>
+      <c r="BQ13" s="157"/>
+      <c r="BR13" s="190"/>
+      <c r="BS13" s="134"/>
+      <c r="BT13" s="96" t="s">
+        <v>478</v>
+      </c>
+      <c r="BU13" s="96" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="8" spans="1:179" ht="23" customHeight="1">
-      <c r="A8" s="185" t="s">
-        <v>373</v>
-      </c>
-      <c r="B8" s="101"/>
-      <c r="C8" s="176"/>
-      <c r="D8" s="166"/>
-      <c r="E8" s="166"/>
-      <c r="F8" s="166"/>
-      <c r="G8" s="163" t="s">
-        <v>375</v>
-      </c>
-      <c r="H8" s="163" t="s">
-        <v>267</v>
-      </c>
-      <c r="I8" s="163" t="s">
-        <v>268</v>
-      </c>
-      <c r="J8" s="163" t="s">
-        <v>261</v>
-      </c>
-      <c r="K8" s="163" t="s">
-        <v>269</v>
-      </c>
-      <c r="L8" s="163" t="s">
-        <v>284</v>
-      </c>
-      <c r="M8" s="163" t="s">
-        <v>283</v>
-      </c>
-      <c r="N8" s="163" t="s">
-        <v>432</v>
-      </c>
-      <c r="O8" s="163" t="s">
-        <v>395</v>
-      </c>
-      <c r="P8" s="181" t="s">
-        <v>484</v>
-      </c>
-      <c r="Q8" s="190" t="s">
-        <v>504</v>
-      </c>
-      <c r="R8" s="191"/>
-      <c r="S8" s="191"/>
-      <c r="T8" s="191"/>
-      <c r="U8" s="191"/>
-      <c r="V8" s="191"/>
-      <c r="W8" s="192"/>
-      <c r="X8" s="163" t="s">
-        <v>379</v>
-      </c>
-      <c r="Y8" s="163" t="s">
-        <v>279</v>
-      </c>
-      <c r="Z8" s="163" t="s">
-        <v>280</v>
-      </c>
-      <c r="AA8" s="163" t="s">
-        <v>399</v>
-      </c>
-      <c r="AB8" s="181" t="s">
-        <v>485</v>
-      </c>
-      <c r="AC8" s="208" t="s">
-        <v>505</v>
-      </c>
-      <c r="AD8" s="208"/>
-      <c r="AE8" s="208"/>
-      <c r="AF8" s="208"/>
-      <c r="AG8" s="208"/>
-      <c r="AH8" s="208"/>
-      <c r="AI8" s="208"/>
-      <c r="AJ8" s="208"/>
-      <c r="AK8" s="208"/>
-      <c r="AL8" s="208"/>
-      <c r="AM8" s="208"/>
-      <c r="AN8" s="208"/>
-      <c r="AO8" s="288" t="s">
-        <v>447</v>
-      </c>
-      <c r="AP8" s="288" t="s">
-        <v>448</v>
-      </c>
-      <c r="AQ8" s="288" t="s">
-        <v>449</v>
-      </c>
-      <c r="AR8" s="288" t="s">
-        <v>450</v>
-      </c>
-      <c r="AS8" s="288" t="s">
-        <v>451</v>
-      </c>
-      <c r="AT8" s="288" t="s">
-        <v>452</v>
-      </c>
-      <c r="AU8" s="163" t="s">
-        <v>258</v>
-      </c>
-      <c r="AV8" s="163" t="s">
-        <v>274</v>
-      </c>
-      <c r="AW8" s="163" t="s">
-        <v>277</v>
-      </c>
-      <c r="AX8" s="163" t="s">
-        <v>261</v>
-      </c>
-      <c r="AY8" s="163" t="s">
-        <v>273</v>
-      </c>
-      <c r="AZ8" s="163" t="s">
-        <v>272</v>
-      </c>
-      <c r="BA8" s="163" t="s">
-        <v>44</v>
-      </c>
-      <c r="BB8" s="163" t="s">
-        <v>273</v>
-      </c>
-      <c r="BC8" s="146" t="s">
-        <v>269</v>
-      </c>
-      <c r="BD8" s="146" t="s">
-        <v>269</v>
-      </c>
-      <c r="BE8" s="163" t="s">
-        <v>270</v>
-      </c>
-      <c r="BF8" s="163" t="s">
-        <v>268</v>
-      </c>
-      <c r="BG8" s="163" t="s">
-        <v>314</v>
-      </c>
-      <c r="BH8" s="163" t="s">
-        <v>313</v>
-      </c>
-      <c r="BI8" s="163" t="s">
-        <v>312</v>
-      </c>
-      <c r="BJ8" s="166"/>
-      <c r="BK8" s="166"/>
-      <c r="BL8" s="166"/>
-      <c r="BM8" s="166"/>
-      <c r="BN8" s="183" t="s">
-        <v>356</v>
-      </c>
-      <c r="BO8" s="183" t="s">
-        <v>1</v>
-      </c>
-      <c r="BP8" s="271" t="s">
-        <v>388</v>
-      </c>
-      <c r="BQ8" s="272"/>
-      <c r="BR8" s="272"/>
-      <c r="BS8" s="273"/>
-      <c r="BT8" s="163" t="s">
-        <v>422</v>
-      </c>
-      <c r="BU8" s="163" t="s">
-        <v>506</v>
-      </c>
-      <c r="BV8" s="271" t="s">
-        <v>507</v>
-      </c>
-      <c r="BW8" s="273"/>
-      <c r="BX8" s="163" t="s">
-        <v>488</v>
-      </c>
-      <c r="BY8" s="166"/>
-      <c r="BZ8" s="166"/>
-      <c r="CA8" s="165" t="s">
-        <v>471</v>
-      </c>
-      <c r="CB8" s="165" t="s">
-        <v>472</v>
-      </c>
-      <c r="CC8" s="166"/>
-      <c r="CD8" s="166"/>
-      <c r="CE8" s="165" t="s">
-        <v>384</v>
-      </c>
-      <c r="CF8" s="165" t="s">
-        <v>385</v>
-      </c>
-      <c r="CG8" s="165"/>
-      <c r="CH8" s="165"/>
-      <c r="CI8" s="165"/>
-      <c r="CJ8" s="165" t="s">
-        <v>308</v>
-      </c>
-      <c r="CK8" s="165" t="s">
-        <v>309</v>
-      </c>
-      <c r="CN8" t="s">
-        <v>136</v>
-      </c>
-      <c r="CO8" t="s">
-        <v>137</v>
-      </c>
-      <c r="CP8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:179" ht="47" customHeight="1">
-      <c r="A9" s="186"/>
-      <c r="B9" s="101"/>
-      <c r="C9" s="176"/>
-      <c r="D9" s="167"/>
-      <c r="E9" s="167"/>
-      <c r="F9" s="167"/>
-      <c r="G9" s="164"/>
-      <c r="H9" s="164"/>
-      <c r="I9" s="164"/>
-      <c r="J9" s="164"/>
-      <c r="K9" s="164"/>
-      <c r="L9" s="164"/>
-      <c r="M9" s="164"/>
-      <c r="N9" s="164"/>
-      <c r="O9" s="164"/>
-      <c r="P9" s="182"/>
-      <c r="Q9" s="187" t="s">
-        <v>446</v>
-      </c>
-      <c r="R9" s="188"/>
-      <c r="S9" s="188"/>
-      <c r="T9" s="188"/>
-      <c r="U9" s="188"/>
-      <c r="V9" s="188"/>
-      <c r="W9" s="189"/>
-      <c r="X9" s="164"/>
-      <c r="Y9" s="164"/>
-      <c r="Z9" s="164"/>
-      <c r="AA9" s="164"/>
-      <c r="AB9" s="182"/>
-      <c r="AC9" s="209" t="s">
-        <v>445</v>
-      </c>
-      <c r="AD9" s="209"/>
-      <c r="AE9" s="209"/>
-      <c r="AF9" s="209"/>
-      <c r="AG9" s="209"/>
-      <c r="AH9" s="209"/>
-      <c r="AI9" s="209"/>
-      <c r="AJ9" s="209"/>
-      <c r="AK9" s="209"/>
-      <c r="AL9" s="209"/>
-      <c r="AM9" s="209"/>
-      <c r="AN9" s="209"/>
-      <c r="AO9" s="288"/>
-      <c r="AP9" s="288"/>
-      <c r="AQ9" s="288"/>
-      <c r="AR9" s="288"/>
-      <c r="AS9" s="288"/>
-      <c r="AT9" s="288"/>
-      <c r="AU9" s="164"/>
-      <c r="AV9" s="164"/>
-      <c r="AW9" s="164"/>
-      <c r="AX9" s="164"/>
-      <c r="AY9" s="164"/>
-      <c r="AZ9" s="164"/>
-      <c r="BA9" s="164"/>
-      <c r="BB9" s="164"/>
-      <c r="BC9" s="96" t="s">
-        <v>456</v>
-      </c>
-      <c r="BD9" s="96" t="s">
-        <v>457</v>
-      </c>
-      <c r="BE9" s="164"/>
-      <c r="BF9" s="164"/>
-      <c r="BG9" s="164"/>
-      <c r="BH9" s="164"/>
-      <c r="BI9" s="164"/>
-      <c r="BJ9" s="167"/>
-      <c r="BK9" s="167"/>
-      <c r="BL9" s="167"/>
-      <c r="BM9" s="167"/>
-      <c r="BN9" s="184"/>
-      <c r="BO9" s="184"/>
-      <c r="BP9" s="274"/>
-      <c r="BQ9" s="275"/>
-      <c r="BR9" s="275"/>
-      <c r="BS9" s="276"/>
-      <c r="BT9" s="164"/>
-      <c r="BU9" s="164"/>
-      <c r="BV9" s="274"/>
-      <c r="BW9" s="276"/>
-      <c r="BX9" s="164"/>
-      <c r="BY9" s="167"/>
-      <c r="BZ9" s="167"/>
-      <c r="CA9" s="165"/>
-      <c r="CB9" s="165"/>
-      <c r="CC9" s="167"/>
-      <c r="CD9" s="167"/>
-      <c r="CE9" s="165"/>
-      <c r="CF9" s="165"/>
-      <c r="CG9" s="165"/>
-      <c r="CH9" s="165"/>
-      <c r="CI9" s="165"/>
-      <c r="CJ9" s="165"/>
-      <c r="CK9" s="165"/>
-    </row>
-    <row r="10" spans="1:179" ht="32" customHeight="1">
-      <c r="A10" s="174" t="s">
-        <v>374</v>
-      </c>
-      <c r="B10" s="127"/>
-      <c r="C10" s="176"/>
-      <c r="D10" s="167"/>
-      <c r="E10" s="167"/>
-      <c r="F10" s="167"/>
-      <c r="G10" s="172"/>
-      <c r="H10" s="172"/>
-      <c r="I10" s="172"/>
-      <c r="J10" s="172"/>
-      <c r="K10" s="172"/>
-      <c r="L10" s="172"/>
-      <c r="M10" s="172"/>
-      <c r="N10" s="172"/>
-      <c r="O10" s="172"/>
-      <c r="P10" s="140"/>
-      <c r="Q10" s="190" t="s">
-        <v>263</v>
-      </c>
-      <c r="R10" s="191"/>
-      <c r="S10" s="191"/>
-      <c r="T10" s="191"/>
-      <c r="U10" s="191"/>
-      <c r="V10" s="191"/>
-      <c r="W10" s="192"/>
-      <c r="X10" s="172"/>
-      <c r="Y10" s="172"/>
-      <c r="Z10" s="172"/>
-      <c r="AA10" s="172"/>
-      <c r="AB10" s="140"/>
-      <c r="AC10" s="208" t="s">
-        <v>263</v>
-      </c>
-      <c r="AD10" s="208"/>
-      <c r="AE10" s="208"/>
-      <c r="AF10" s="208"/>
-      <c r="AG10" s="208"/>
-      <c r="AH10" s="208"/>
-      <c r="AI10" s="208"/>
-      <c r="AJ10" s="208"/>
-      <c r="AK10" s="208"/>
-      <c r="AL10" s="208"/>
-      <c r="AM10" s="208"/>
-      <c r="AN10" s="208"/>
-      <c r="AO10" s="172"/>
-      <c r="AP10" s="172"/>
-      <c r="AQ10" s="172"/>
-      <c r="AR10" s="172"/>
-      <c r="AS10" s="172"/>
-      <c r="AT10" s="172"/>
-      <c r="AU10" s="172"/>
-      <c r="AV10" s="172"/>
-      <c r="AW10" s="172"/>
-      <c r="AX10" s="172"/>
-      <c r="AY10" s="172"/>
-      <c r="AZ10" s="172"/>
-      <c r="BA10" s="172"/>
-      <c r="BB10" s="172"/>
-      <c r="BC10" s="172"/>
-      <c r="BD10" s="172"/>
-      <c r="BE10" s="172"/>
-      <c r="BF10" s="172"/>
-      <c r="BG10" s="146" t="s">
-        <v>269</v>
-      </c>
-      <c r="BH10" s="172"/>
-      <c r="BI10" s="69"/>
-      <c r="BJ10" s="167"/>
-      <c r="BK10" s="167"/>
-      <c r="BL10" s="167"/>
-      <c r="BM10" s="167"/>
-      <c r="BN10" s="154" t="s">
-        <v>467</v>
-      </c>
-      <c r="BO10" s="154" t="s">
-        <v>466</v>
-      </c>
-      <c r="BP10" s="165" t="s">
-        <v>301</v>
-      </c>
-      <c r="BQ10" s="165" t="s">
-        <v>268</v>
-      </c>
-      <c r="BR10" s="165" t="s">
-        <v>261</v>
-      </c>
-      <c r="BS10" s="165" t="s">
-        <v>269</v>
-      </c>
-      <c r="BT10" s="166"/>
-      <c r="BU10" s="146" t="s">
-        <v>269</v>
-      </c>
-      <c r="BV10" s="279" t="s">
-        <v>269</v>
-      </c>
-      <c r="BW10" s="279"/>
-      <c r="BX10" s="292" t="s">
-        <v>269</v>
-      </c>
-      <c r="BY10" s="167"/>
-      <c r="BZ10" s="167"/>
-      <c r="CA10" s="161"/>
-      <c r="CB10" s="161"/>
-      <c r="CC10" s="167"/>
-      <c r="CD10" s="167"/>
-      <c r="CE10" s="161"/>
-      <c r="CF10" s="165">
-        <v>1</v>
-      </c>
-      <c r="CG10" s="165">
-        <v>2</v>
-      </c>
-      <c r="CH10" s="165">
-        <v>3</v>
-      </c>
-      <c r="CI10" s="165">
-        <v>4</v>
-      </c>
-      <c r="CJ10" s="161"/>
-      <c r="CK10" s="161"/>
-    </row>
-    <row r="11" spans="1:179" ht="34">
-      <c r="A11" s="174"/>
-      <c r="B11" s="127"/>
-      <c r="C11" s="176"/>
-      <c r="D11" s="167"/>
-      <c r="E11" s="167"/>
-      <c r="F11" s="167"/>
-      <c r="G11" s="173"/>
-      <c r="H11" s="173"/>
-      <c r="I11" s="173"/>
-      <c r="J11" s="173"/>
-      <c r="K11" s="173"/>
-      <c r="L11" s="173"/>
-      <c r="M11" s="173"/>
-      <c r="N11" s="173"/>
-      <c r="O11" s="173"/>
-      <c r="P11" s="141"/>
-      <c r="Q11" s="129" t="s">
-        <v>136</v>
-      </c>
-      <c r="R11" s="129" t="s">
-        <v>137</v>
-      </c>
-      <c r="S11" s="211" t="s">
-        <v>427</v>
-      </c>
-      <c r="T11" s="212"/>
-      <c r="U11" s="212"/>
-      <c r="V11" s="212"/>
-      <c r="W11" s="213"/>
-      <c r="X11" s="173"/>
-      <c r="Y11" s="173"/>
-      <c r="Z11" s="173"/>
-      <c r="AA11" s="173"/>
-      <c r="AB11" s="141"/>
-      <c r="AC11" s="142" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD11" s="142" t="s">
-        <v>137</v>
-      </c>
-      <c r="AE11" s="142" t="s">
-        <v>282</v>
-      </c>
-      <c r="AF11" s="142" t="s">
-        <v>281</v>
-      </c>
-      <c r="AG11" s="214" t="s">
-        <v>427</v>
-      </c>
-      <c r="AH11" s="215"/>
-      <c r="AI11" s="215"/>
-      <c r="AJ11" s="216"/>
-      <c r="AK11" s="214" t="s">
-        <v>140</v>
-      </c>
-      <c r="AL11" s="215"/>
-      <c r="AM11" s="215"/>
-      <c r="AN11" s="216"/>
-      <c r="AO11" s="173"/>
-      <c r="AP11" s="173"/>
-      <c r="AQ11" s="173"/>
-      <c r="AR11" s="173"/>
-      <c r="AS11" s="173"/>
-      <c r="AT11" s="173"/>
-      <c r="AU11" s="173"/>
-      <c r="AV11" s="173"/>
-      <c r="AW11" s="173"/>
-      <c r="AX11" s="173"/>
-      <c r="AY11" s="173"/>
-      <c r="AZ11" s="173"/>
-      <c r="BA11" s="173"/>
-      <c r="BB11" s="173"/>
-      <c r="BC11" s="173"/>
-      <c r="BD11" s="173"/>
-      <c r="BE11" s="173"/>
-      <c r="BF11" s="173"/>
-      <c r="BG11" s="96" t="s">
-        <v>459</v>
-      </c>
-      <c r="BH11" s="173"/>
-      <c r="BI11" s="69"/>
-      <c r="BJ11" s="167"/>
-      <c r="BK11" s="167"/>
-      <c r="BL11" s="167"/>
-      <c r="BM11" s="167"/>
-      <c r="BN11" s="54" t="s">
-        <v>465</v>
-      </c>
-      <c r="BO11" s="54" t="s">
-        <v>445</v>
-      </c>
-      <c r="BP11" s="165"/>
-      <c r="BQ11" s="165"/>
-      <c r="BR11" s="165"/>
-      <c r="BS11" s="165"/>
-      <c r="BT11" s="167"/>
-      <c r="BU11" s="96" t="s">
-        <v>459</v>
-      </c>
-      <c r="BV11" s="280" t="s">
-        <v>456</v>
-      </c>
-      <c r="BW11" s="280"/>
-      <c r="BX11" s="293" t="s">
-        <v>456</v>
-      </c>
-      <c r="BY11" s="167"/>
-      <c r="BZ11" s="167"/>
-      <c r="CA11" s="162"/>
-      <c r="CB11" s="162"/>
-      <c r="CC11" s="167"/>
-      <c r="CD11" s="167"/>
-      <c r="CE11" s="162"/>
-      <c r="CF11" s="165"/>
-      <c r="CG11" s="165"/>
-      <c r="CH11" s="165"/>
-      <c r="CI11" s="165"/>
-      <c r="CJ11" s="162"/>
-      <c r="CK11" s="162"/>
-      <c r="CP11" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="12" spans="1:179" ht="37" customHeight="1">
-      <c r="A12" s="185" t="s">
-        <v>404</v>
-      </c>
-      <c r="B12" s="127"/>
-      <c r="C12" s="176"/>
-      <c r="D12" s="167"/>
-      <c r="E12" s="167"/>
-      <c r="F12" s="167"/>
-      <c r="G12" s="173"/>
-      <c r="H12" s="173"/>
-      <c r="I12" s="173"/>
-      <c r="J12" s="173"/>
-      <c r="K12" s="173"/>
-      <c r="L12" s="173"/>
-      <c r="M12" s="173"/>
-      <c r="N12" s="173"/>
-      <c r="O12" s="173"/>
-      <c r="P12" s="141"/>
-      <c r="Q12" s="170"/>
-      <c r="R12" s="170"/>
-      <c r="S12" s="165" t="s">
-        <v>141</v>
-      </c>
-      <c r="T12" s="179" t="s">
-        <v>146</v>
-      </c>
-      <c r="U12" s="179" t="s">
-        <v>408</v>
-      </c>
-      <c r="V12" s="179" t="s">
-        <v>409</v>
-      </c>
-      <c r="W12" s="179" t="s">
-        <v>410</v>
-      </c>
-      <c r="X12" s="173"/>
-      <c r="Y12" s="173"/>
-      <c r="Z12" s="173"/>
-      <c r="AA12" s="173"/>
-      <c r="AB12" s="141"/>
-      <c r="AC12" s="170"/>
-      <c r="AD12" s="170"/>
-      <c r="AE12" s="170"/>
-      <c r="AF12" s="170"/>
-      <c r="AG12" s="180" t="s">
-        <v>141</v>
-      </c>
-      <c r="AH12" s="180" t="s">
-        <v>146</v>
-      </c>
-      <c r="AI12" s="180" t="s">
-        <v>400</v>
-      </c>
-      <c r="AJ12" s="180" t="s">
-        <v>401</v>
-      </c>
-      <c r="AK12" s="180" t="s">
-        <v>141</v>
-      </c>
-      <c r="AL12" s="180" t="s">
-        <v>142</v>
-      </c>
-      <c r="AM12" s="180" t="s">
-        <v>143</v>
-      </c>
-      <c r="AN12" s="180" t="s">
-        <v>144</v>
-      </c>
-      <c r="AO12" s="173"/>
-      <c r="AP12" s="173"/>
-      <c r="AQ12" s="173"/>
-      <c r="AR12" s="173"/>
-      <c r="AS12" s="173"/>
-      <c r="AT12" s="173"/>
-      <c r="AU12" s="173"/>
-      <c r="AV12" s="173"/>
-      <c r="AW12" s="173"/>
-      <c r="AX12" s="173"/>
-      <c r="AY12" s="173"/>
-      <c r="AZ12" s="173"/>
-      <c r="BA12" s="173"/>
-      <c r="BB12" s="173"/>
-      <c r="BC12" s="173"/>
-      <c r="BD12" s="173"/>
-      <c r="BE12" s="173"/>
-      <c r="BF12" s="173"/>
-      <c r="BG12" s="168"/>
-      <c r="BH12" s="173"/>
-      <c r="BI12" s="69"/>
-      <c r="BJ12" s="167"/>
-      <c r="BK12" s="167"/>
-      <c r="BL12" s="167"/>
-      <c r="BM12" s="167"/>
-      <c r="BN12" s="168"/>
-      <c r="BO12" s="168"/>
-      <c r="BP12" s="168"/>
-      <c r="BQ12" s="168"/>
-      <c r="BR12" s="160"/>
-      <c r="BS12" s="168"/>
-      <c r="BT12" s="167"/>
-      <c r="BU12" s="134"/>
-      <c r="BV12" s="289" t="s">
-        <v>489</v>
-      </c>
-      <c r="BW12" s="289"/>
-      <c r="BX12" s="168"/>
-      <c r="BY12" s="167"/>
-      <c r="BZ12" s="167"/>
-      <c r="CA12" s="162"/>
-      <c r="CB12" s="162"/>
-      <c r="CC12" s="167"/>
-      <c r="CD12" s="167"/>
-      <c r="CE12" s="162"/>
-      <c r="CF12" s="168"/>
-      <c r="CG12" s="168"/>
-      <c r="CH12" s="168"/>
-      <c r="CI12" s="168"/>
-      <c r="CJ12" s="162"/>
-      <c r="CK12" s="162"/>
-    </row>
-    <row r="13" spans="1:179" ht="47" customHeight="1">
-      <c r="A13" s="186"/>
-      <c r="B13" s="101"/>
-      <c r="C13" s="176"/>
-      <c r="D13" s="167"/>
-      <c r="E13" s="167"/>
-      <c r="F13" s="167"/>
-      <c r="G13" s="173"/>
-      <c r="H13" s="173"/>
-      <c r="I13" s="173"/>
-      <c r="J13" s="173"/>
-      <c r="K13" s="173"/>
-      <c r="L13" s="173"/>
-      <c r="M13" s="173"/>
-      <c r="N13" s="173"/>
-      <c r="O13" s="173"/>
-      <c r="P13" s="141"/>
-      <c r="Q13" s="171"/>
-      <c r="R13" s="171"/>
-      <c r="S13" s="165"/>
-      <c r="T13" s="179"/>
-      <c r="U13" s="179"/>
-      <c r="V13" s="179"/>
-      <c r="W13" s="179"/>
-      <c r="X13" s="173"/>
-      <c r="Y13" s="173"/>
-      <c r="Z13" s="173"/>
-      <c r="AA13" s="173"/>
-      <c r="AB13" s="141"/>
-      <c r="AC13" s="171"/>
-      <c r="AD13" s="171"/>
-      <c r="AE13" s="171"/>
-      <c r="AF13" s="171"/>
-      <c r="AG13" s="180"/>
-      <c r="AH13" s="180"/>
-      <c r="AI13" s="180"/>
-      <c r="AJ13" s="180"/>
-      <c r="AK13" s="180"/>
-      <c r="AL13" s="180"/>
-      <c r="AM13" s="180"/>
-      <c r="AN13" s="180"/>
-      <c r="AO13" s="173"/>
-      <c r="AP13" s="173"/>
-      <c r="AQ13" s="173"/>
-      <c r="AR13" s="173"/>
-      <c r="AS13" s="173"/>
-      <c r="AT13" s="173"/>
-      <c r="AU13" s="173"/>
-      <c r="AV13" s="173"/>
-      <c r="AW13" s="173"/>
-      <c r="AX13" s="173"/>
-      <c r="AY13" s="173"/>
-      <c r="AZ13" s="173"/>
-      <c r="BA13" s="173"/>
-      <c r="BB13" s="173"/>
-      <c r="BC13" s="173"/>
-      <c r="BD13" s="173"/>
-      <c r="BE13" s="173"/>
-      <c r="BF13" s="173"/>
-      <c r="BG13" s="169"/>
-      <c r="BH13" s="173"/>
-      <c r="BI13" s="69"/>
-      <c r="BJ13" s="167"/>
-      <c r="BK13" s="167"/>
-      <c r="BL13" s="167"/>
-      <c r="BM13" s="167"/>
-      <c r="BN13" s="169"/>
-      <c r="BO13" s="169"/>
-      <c r="BP13" s="169"/>
-      <c r="BQ13" s="169"/>
-      <c r="BR13" s="158"/>
-      <c r="BS13" s="169"/>
-      <c r="BT13" s="167"/>
-      <c r="BU13" s="134"/>
-      <c r="BV13" s="96" t="s">
-        <v>478</v>
-      </c>
-      <c r="BW13" s="96" t="s">
-        <v>487</v>
-      </c>
-      <c r="BX13" s="169"/>
-      <c r="BY13" s="167"/>
-      <c r="BZ13" s="167"/>
-      <c r="CA13" s="162"/>
-      <c r="CB13" s="162"/>
-      <c r="CC13" s="167"/>
-      <c r="CD13" s="167"/>
-      <c r="CE13" s="162"/>
-      <c r="CF13" s="169"/>
-      <c r="CG13" s="169"/>
-      <c r="CH13" s="169"/>
-      <c r="CI13" s="169"/>
-      <c r="CJ13" s="162"/>
-      <c r="CK13" s="162"/>
-    </row>
-    <row r="14" spans="1:179" ht="51" customHeight="1">
-      <c r="A14" s="174" t="s">
+      <c r="BV13" s="157"/>
+      <c r="BW13" s="190"/>
+      <c r="BX13" s="190"/>
+      <c r="BY13" s="192"/>
+      <c r="BZ13" s="192"/>
+      <c r="CA13" s="190"/>
+      <c r="CB13" s="190"/>
+      <c r="CC13" s="192"/>
+      <c r="CD13" s="157"/>
+      <c r="CE13" s="157"/>
+      <c r="CF13" s="157"/>
+      <c r="CG13" s="157"/>
+      <c r="CH13" s="192"/>
+      <c r="CI13" s="192"/>
+    </row>
+    <row r="14" spans="1:166" ht="51" customHeight="1">
+      <c r="A14" s="155" t="s">
         <v>477</v>
       </c>
       <c r="B14" s="101"/>
-      <c r="C14" s="176"/>
-      <c r="D14" s="167"/>
-      <c r="E14" s="167"/>
-      <c r="F14" s="167"/>
-      <c r="G14" s="173"/>
-      <c r="H14" s="173"/>
-      <c r="I14" s="173"/>
-      <c r="J14" s="173"/>
-      <c r="K14" s="173"/>
-      <c r="L14" s="173"/>
-      <c r="M14" s="173"/>
-      <c r="N14" s="173"/>
-      <c r="O14" s="173"/>
-      <c r="P14" s="141"/>
-      <c r="Q14" s="171"/>
-      <c r="R14" s="171"/>
-      <c r="S14" s="170"/>
-      <c r="T14" s="170"/>
-      <c r="U14" s="170"/>
-      <c r="V14" s="170"/>
-      <c r="W14" s="170"/>
-      <c r="X14" s="173"/>
-      <c r="Y14" s="173"/>
-      <c r="Z14" s="173"/>
-      <c r="AA14" s="173"/>
-      <c r="AB14" s="141"/>
-      <c r="AC14" s="171"/>
-      <c r="AD14" s="171"/>
-      <c r="AE14" s="171"/>
-      <c r="AF14" s="171"/>
-      <c r="AG14" s="170"/>
-      <c r="AH14" s="170"/>
-      <c r="AI14" s="170"/>
-      <c r="AJ14" s="170"/>
-      <c r="AK14" s="170"/>
-      <c r="AL14" s="170"/>
-      <c r="AM14" s="170"/>
-      <c r="AN14" s="170"/>
-      <c r="AO14" s="173"/>
-      <c r="AP14" s="173"/>
-      <c r="AQ14" s="173"/>
-      <c r="AR14" s="173"/>
-      <c r="AS14" s="173"/>
-      <c r="AT14" s="173"/>
-      <c r="AU14" s="173"/>
-      <c r="AV14" s="173"/>
-      <c r="AW14" s="173"/>
-      <c r="AX14" s="173"/>
-      <c r="AY14" s="173"/>
-      <c r="AZ14" s="173"/>
-      <c r="BA14" s="173"/>
-      <c r="BB14" s="173"/>
-      <c r="BC14" s="173"/>
-      <c r="BD14" s="173"/>
-      <c r="BE14" s="173"/>
-      <c r="BF14" s="173"/>
-      <c r="BG14" s="169"/>
-      <c r="BH14" s="173"/>
-      <c r="BI14" s="159"/>
-      <c r="BJ14" s="167"/>
-      <c r="BK14" s="167"/>
-      <c r="BL14" s="167"/>
-      <c r="BM14" s="167"/>
-      <c r="BN14" s="169"/>
-      <c r="BO14" s="169"/>
-      <c r="BP14" s="169"/>
-      <c r="BQ14" s="169"/>
-      <c r="BR14" s="158"/>
-      <c r="BS14" s="169"/>
-      <c r="BT14" s="167"/>
+      <c r="C14" s="249"/>
+      <c r="D14" s="190"/>
+      <c r="E14" s="190"/>
+      <c r="F14" s="190"/>
+      <c r="G14" s="175"/>
+      <c r="H14" s="175"/>
+      <c r="I14" s="175"/>
+      <c r="J14" s="175"/>
+      <c r="K14" s="175"/>
+      <c r="L14" s="175"/>
+      <c r="M14" s="175"/>
+      <c r="N14" s="175"/>
+      <c r="O14" s="175"/>
+      <c r="P14" s="187"/>
+      <c r="Q14" s="187"/>
+      <c r="R14" s="186"/>
+      <c r="S14" s="186"/>
+      <c r="T14" s="186"/>
+      <c r="U14" s="186"/>
+      <c r="V14" s="186"/>
+      <c r="W14" s="175"/>
+      <c r="X14" s="175"/>
+      <c r="Y14" s="175"/>
+      <c r="Z14" s="175"/>
+      <c r="AA14" s="187"/>
+      <c r="AB14" s="187"/>
+      <c r="AC14" s="187"/>
+      <c r="AD14" s="187"/>
+      <c r="AE14" s="186"/>
+      <c r="AF14" s="186"/>
+      <c r="AG14" s="186"/>
+      <c r="AH14" s="186"/>
+      <c r="AI14" s="186"/>
+      <c r="AJ14" s="186"/>
+      <c r="AK14" s="186"/>
+      <c r="AL14" s="186"/>
+      <c r="AM14" s="175"/>
+      <c r="AN14" s="175"/>
+      <c r="AO14" s="175"/>
+      <c r="AP14" s="175"/>
+      <c r="AQ14" s="175"/>
+      <c r="AR14" s="175"/>
+      <c r="AS14" s="175"/>
+      <c r="AT14" s="175"/>
+      <c r="AU14" s="175"/>
+      <c r="AV14" s="175"/>
+      <c r="AW14" s="175"/>
+      <c r="AX14" s="175"/>
+      <c r="AY14" s="175"/>
+      <c r="AZ14" s="175"/>
+      <c r="BA14" s="175"/>
+      <c r="BB14" s="175"/>
+      <c r="BC14" s="175"/>
+      <c r="BD14" s="175"/>
+      <c r="BE14" s="157"/>
+      <c r="BF14" s="175"/>
+      <c r="BG14" s="271"/>
+      <c r="BH14" s="190"/>
+      <c r="BI14" s="190"/>
+      <c r="BJ14" s="190"/>
+      <c r="BK14" s="190"/>
+      <c r="BL14" s="157"/>
+      <c r="BM14" s="157"/>
+      <c r="BN14" s="157"/>
+      <c r="BO14" s="157"/>
+      <c r="BP14" s="148"/>
+      <c r="BQ14" s="157"/>
+      <c r="BR14" s="190"/>
+      <c r="BS14" s="134"/>
+      <c r="BT14" s="134"/>
       <c r="BU14" s="134"/>
-      <c r="BV14" s="134"/>
-      <c r="BW14" s="134"/>
-      <c r="BX14" s="169"/>
-      <c r="BY14" s="167"/>
-      <c r="BZ14" s="167"/>
-      <c r="CA14" s="162"/>
-      <c r="CB14" s="162"/>
-      <c r="CC14" s="167"/>
-      <c r="CD14" s="167"/>
-      <c r="CE14" s="162"/>
-      <c r="CF14" s="169"/>
-      <c r="CG14" s="169"/>
-      <c r="CH14" s="169"/>
-      <c r="CI14" s="169"/>
-      <c r="CJ14" s="162"/>
-      <c r="CK14" s="162"/>
-    </row>
-    <row r="15" spans="1:179" ht="47" customHeight="1">
-      <c r="A15" s="174"/>
+      <c r="BV14" s="157"/>
+      <c r="BW14" s="190"/>
+      <c r="BX14" s="190"/>
+      <c r="BY14" s="192"/>
+      <c r="BZ14" s="192"/>
+      <c r="CA14" s="190"/>
+      <c r="CB14" s="190"/>
+      <c r="CC14" s="192"/>
+      <c r="CD14" s="157"/>
+      <c r="CE14" s="157"/>
+      <c r="CF14" s="157"/>
+      <c r="CG14" s="157"/>
+      <c r="CH14" s="192"/>
+      <c r="CI14" s="192"/>
+    </row>
+    <row r="15" spans="1:166" ht="47" customHeight="1">
+      <c r="A15" s="155"/>
       <c r="B15" s="101"/>
-      <c r="C15" s="176"/>
-      <c r="D15" s="167"/>
-      <c r="E15" s="167"/>
-      <c r="F15" s="167"/>
-      <c r="G15" s="173"/>
-      <c r="H15" s="173"/>
-      <c r="I15" s="173"/>
-      <c r="J15" s="173"/>
-      <c r="K15" s="173"/>
-      <c r="L15" s="173"/>
-      <c r="M15" s="173"/>
-      <c r="N15" s="173"/>
-      <c r="O15" s="173"/>
-      <c r="P15" s="141"/>
-      <c r="Q15" s="171"/>
-      <c r="R15" s="171"/>
-      <c r="S15" s="171"/>
-      <c r="T15" s="171"/>
-      <c r="U15" s="171"/>
-      <c r="V15" s="171"/>
-      <c r="W15" s="171"/>
-      <c r="X15" s="173"/>
-      <c r="Y15" s="173"/>
-      <c r="Z15" s="173"/>
-      <c r="AA15" s="173"/>
-      <c r="AB15" s="141"/>
-      <c r="AC15" s="171"/>
-      <c r="AD15" s="171"/>
-      <c r="AE15" s="171"/>
-      <c r="AF15" s="171"/>
-      <c r="AG15" s="171"/>
-      <c r="AH15" s="171"/>
-      <c r="AI15" s="171"/>
-      <c r="AJ15" s="171"/>
-      <c r="AK15" s="171"/>
-      <c r="AL15" s="171"/>
-      <c r="AM15" s="171"/>
-      <c r="AN15" s="171"/>
-      <c r="AO15" s="173"/>
-      <c r="AP15" s="173"/>
-      <c r="AQ15" s="173"/>
-      <c r="AR15" s="173"/>
-      <c r="AS15" s="173"/>
-      <c r="AT15" s="173"/>
-      <c r="AU15" s="173"/>
-      <c r="AV15" s="173"/>
-      <c r="AW15" s="173"/>
-      <c r="AX15" s="173"/>
-      <c r="AY15" s="173"/>
-      <c r="AZ15" s="173"/>
-      <c r="BA15" s="173"/>
-      <c r="BB15" s="173"/>
-      <c r="BC15" s="173"/>
-      <c r="BD15" s="173"/>
-      <c r="BE15" s="173"/>
-      <c r="BF15" s="173"/>
-      <c r="BG15" s="169"/>
-      <c r="BH15" s="173"/>
-      <c r="BI15" s="159"/>
-      <c r="BJ15" s="167"/>
-      <c r="BK15" s="167"/>
-      <c r="BL15" s="167"/>
-      <c r="BM15" s="167"/>
-      <c r="BN15" s="169"/>
-      <c r="BO15" s="169"/>
-      <c r="BP15" s="169"/>
-      <c r="BQ15" s="169"/>
-      <c r="BR15" s="158"/>
-      <c r="BS15" s="169"/>
-      <c r="BT15" s="167"/>
+      <c r="C15" s="249"/>
+      <c r="D15" s="190"/>
+      <c r="E15" s="190"/>
+      <c r="F15" s="190"/>
+      <c r="G15" s="175"/>
+      <c r="H15" s="175"/>
+      <c r="I15" s="175"/>
+      <c r="J15" s="175"/>
+      <c r="K15" s="175"/>
+      <c r="L15" s="175"/>
+      <c r="M15" s="175"/>
+      <c r="N15" s="175"/>
+      <c r="O15" s="175"/>
+      <c r="P15" s="187"/>
+      <c r="Q15" s="187"/>
+      <c r="R15" s="187"/>
+      <c r="S15" s="187"/>
+      <c r="T15" s="187"/>
+      <c r="U15" s="187"/>
+      <c r="V15" s="187"/>
+      <c r="W15" s="175"/>
+      <c r="X15" s="175"/>
+      <c r="Y15" s="175"/>
+      <c r="Z15" s="175"/>
+      <c r="AA15" s="187"/>
+      <c r="AB15" s="187"/>
+      <c r="AC15" s="187"/>
+      <c r="AD15" s="187"/>
+      <c r="AE15" s="187"/>
+      <c r="AF15" s="187"/>
+      <c r="AG15" s="187"/>
+      <c r="AH15" s="187"/>
+      <c r="AI15" s="187"/>
+      <c r="AJ15" s="187"/>
+      <c r="AK15" s="187"/>
+      <c r="AL15" s="187"/>
+      <c r="AM15" s="175"/>
+      <c r="AN15" s="175"/>
+      <c r="AO15" s="175"/>
+      <c r="AP15" s="175"/>
+      <c r="AQ15" s="175"/>
+      <c r="AR15" s="175"/>
+      <c r="AS15" s="175"/>
+      <c r="AT15" s="175"/>
+      <c r="AU15" s="175"/>
+      <c r="AV15" s="175"/>
+      <c r="AW15" s="175"/>
+      <c r="AX15" s="175"/>
+      <c r="AY15" s="175"/>
+      <c r="AZ15" s="175"/>
+      <c r="BA15" s="175"/>
+      <c r="BB15" s="175"/>
+      <c r="BC15" s="175"/>
+      <c r="BD15" s="175"/>
+      <c r="BE15" s="157"/>
+      <c r="BF15" s="175"/>
+      <c r="BG15" s="271"/>
+      <c r="BH15" s="190"/>
+      <c r="BI15" s="190"/>
+      <c r="BJ15" s="190"/>
+      <c r="BK15" s="190"/>
+      <c r="BL15" s="157"/>
+      <c r="BM15" s="157"/>
+      <c r="BN15" s="157"/>
+      <c r="BO15" s="157"/>
+      <c r="BP15" s="148"/>
+      <c r="BQ15" s="157"/>
+      <c r="BR15" s="190"/>
+      <c r="BS15" s="134"/>
+      <c r="BT15" s="134"/>
       <c r="BU15" s="134"/>
-      <c r="BV15" s="134"/>
-      <c r="BW15" s="134"/>
-      <c r="BX15" s="169"/>
-      <c r="BY15" s="167"/>
-      <c r="BZ15" s="167"/>
-      <c r="CA15" s="162"/>
-      <c r="CB15" s="162"/>
-      <c r="CC15" s="167"/>
-      <c r="CD15" s="167"/>
-      <c r="CE15" s="162"/>
-      <c r="CF15" s="169"/>
-      <c r="CG15" s="169"/>
-      <c r="CH15" s="169"/>
-      <c r="CI15" s="169"/>
-      <c r="CJ15" s="162"/>
-      <c r="CK15" s="162"/>
-    </row>
-    <row r="16" spans="1:179" ht="24">
+      <c r="BV15" s="157"/>
+      <c r="BW15" s="190"/>
+      <c r="BX15" s="190"/>
+      <c r="BY15" s="192"/>
+      <c r="BZ15" s="192"/>
+      <c r="CA15" s="190"/>
+      <c r="CB15" s="190"/>
+      <c r="CC15" s="192"/>
+      <c r="CD15" s="157"/>
+      <c r="CE15" s="157"/>
+      <c r="CF15" s="157"/>
+      <c r="CG15" s="157"/>
+      <c r="CH15" s="192"/>
+      <c r="CI15" s="192"/>
+    </row>
+    <row r="16" spans="1:166" ht="24">
       <c r="A16" s="127"/>
       <c r="B16" s="127"/>
       <c r="C16" s="127"/>
@@ -5234,21 +5159,8 @@
       <c r="FH16" s="127"/>
       <c r="FI16" s="127"/>
       <c r="FJ16" s="127"/>
-      <c r="FK16" s="127"/>
-      <c r="FL16" s="127"/>
-      <c r="FM16" s="127"/>
-      <c r="FN16" s="127"/>
-      <c r="FO16" s="127"/>
-      <c r="FP16" s="127"/>
-      <c r="FQ16" s="127"/>
-      <c r="FR16" s="127"/>
-      <c r="FS16" s="127"/>
-      <c r="FT16" s="127"/>
-      <c r="FU16" s="127"/>
-      <c r="FV16" s="127"/>
-      <c r="FW16" s="127"/>
-    </row>
-    <row r="17" spans="1:89" ht="25">
+    </row>
+    <row r="17" spans="1:87" ht="25">
       <c r="A17" s="131" t="s">
         <v>433</v>
       </c>
@@ -5291,73 +5203,77 @@
       <c r="O17" s="133" t="s">
         <v>91</v>
       </c>
-      <c r="P17" s="133"/>
+      <c r="P17" s="133" t="s">
+        <v>96</v>
+      </c>
       <c r="Q17" s="133" t="s">
-        <v>96</v>
+        <v>435</v>
       </c>
       <c r="R17" s="133" t="s">
+        <v>141</v>
+      </c>
+      <c r="S17" s="133" t="s">
         <v>435</v>
-      </c>
-      <c r="S17" s="133" t="s">
-        <v>141</v>
       </c>
       <c r="T17" s="133" t="s">
         <v>435</v>
       </c>
       <c r="U17" s="133" t="s">
-        <v>435</v>
+        <v>90</v>
       </c>
       <c r="V17" s="133" t="s">
         <v>90</v>
       </c>
       <c r="W17" s="133" t="s">
+        <v>91</v>
+      </c>
+      <c r="X17" s="133" t="s">
         <v>90</v>
-      </c>
-      <c r="X17" s="133" t="s">
-        <v>91</v>
       </c>
       <c r="Y17" s="133" t="s">
         <v>90</v>
       </c>
       <c r="Z17" s="133" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AA17" s="133" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB17" s="133"/>
+        <v>122</v>
+      </c>
+      <c r="AB17" s="133" t="s">
+        <v>435</v>
+      </c>
       <c r="AC17" s="133" t="s">
         <v>122</v>
       </c>
       <c r="AD17" s="133" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE17" s="133" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF17" s="133" t="s">
         <v>435</v>
       </c>
-      <c r="AE17" s="133" t="s">
-        <v>122</v>
-      </c>
-      <c r="AF17" s="133" t="s">
-        <v>122</v>
-      </c>
       <c r="AG17" s="133" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH17" s="133" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI17" s="133" t="s">
         <v>141</v>
       </c>
-      <c r="AH17" s="133" t="s">
+      <c r="AJ17" s="133" t="s">
         <v>435</v>
       </c>
-      <c r="AI17" s="133" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ17" s="133" t="s">
-        <v>90</v>
-      </c>
       <c r="AK17" s="133" t="s">
-        <v>141</v>
+        <v>443</v>
       </c>
       <c r="AL17" s="133" t="s">
         <v>435</v>
       </c>
       <c r="AM17" s="133" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="AN17" s="133" t="s">
         <v>435</v>
@@ -5366,19 +5282,19 @@
         <v>435</v>
       </c>
       <c r="AP17" s="133" t="s">
-        <v>435</v>
+        <v>90</v>
       </c>
       <c r="AQ17" s="133" t="s">
-        <v>435</v>
+        <v>90</v>
       </c>
       <c r="AR17" s="133" t="s">
         <v>90</v>
       </c>
       <c r="AS17" s="133" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="AT17" s="133" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="AU17" s="133" t="s">
         <v>113</v>
@@ -5390,88 +5306,88 @@
         <v>113</v>
       </c>
       <c r="AX17" s="133" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="AY17" s="133" t="s">
         <v>113</v>
       </c>
       <c r="AZ17" s="133" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="BA17" s="133" t="s">
-        <v>113</v>
+        <v>454</v>
       </c>
       <c r="BB17" s="133" t="s">
-        <v>113</v>
+        <v>454</v>
       </c>
       <c r="BC17" s="133" t="s">
+        <v>90</v>
+      </c>
+      <c r="BD17" s="133" t="s">
+        <v>91</v>
+      </c>
+      <c r="BE17" s="133" t="s">
         <v>454</v>
-      </c>
-      <c r="BD17" s="133" t="s">
-        <v>454</v>
-      </c>
-      <c r="BE17" s="133" t="s">
-        <v>90</v>
       </c>
       <c r="BF17" s="133" t="s">
         <v>91</v>
       </c>
-      <c r="BG17" s="133" t="s">
-        <v>454</v>
+      <c r="BG17" s="144" t="s">
+        <v>458</v>
       </c>
       <c r="BH17" s="133" t="s">
+        <v>90</v>
+      </c>
+      <c r="BI17" s="133" t="s">
+        <v>97</v>
+      </c>
+      <c r="BJ17" s="133" t="s">
+        <v>462</v>
+      </c>
+      <c r="BK17" s="133" t="s">
         <v>91</v>
       </c>
-      <c r="BI17" s="147" t="s">
-        <v>458</v>
-      </c>
-      <c r="BJ17" s="133" t="s">
-        <v>90</v>
-      </c>
-      <c r="BK17" s="133" t="s">
-        <v>97</v>
-      </c>
       <c r="BL17" s="133" t="s">
-        <v>462</v>
+        <v>122</v>
       </c>
       <c r="BM17" s="133" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="BN17" s="133" t="s">
-        <v>122</v>
+        <v>479</v>
       </c>
       <c r="BO17" s="133" t="s">
-        <v>122</v>
+        <v>469</v>
       </c>
       <c r="BP17" s="133" t="s">
+        <v>469</v>
+      </c>
+      <c r="BQ17" s="133" t="s">
         <v>479</v>
-      </c>
-      <c r="BQ17" s="133" t="s">
-        <v>469</v>
       </c>
       <c r="BR17" s="133" t="s">
         <v>469</v>
       </c>
       <c r="BS17" s="133" t="s">
-        <v>479</v>
+        <v>122</v>
       </c>
       <c r="BT17" s="133" t="s">
-        <v>469</v>
+        <v>122</v>
       </c>
       <c r="BU17" s="133" t="s">
         <v>122</v>
       </c>
       <c r="BV17" s="133" t="s">
-        <v>122</v>
+        <v>454</v>
       </c>
       <c r="BW17" s="133" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="BX17" s="133" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="BY17" s="133" t="s">
-        <v>97</v>
+        <v>475</v>
       </c>
       <c r="BZ17" s="133" t="s">
         <v>469</v>
@@ -5480,16 +5396,16 @@
         <v>475</v>
       </c>
       <c r="CB17" s="133" t="s">
-        <v>469</v>
+        <v>122</v>
       </c>
       <c r="CC17" s="133" t="s">
-        <v>475</v>
+        <v>122</v>
       </c>
       <c r="CD17" s="133" t="s">
-        <v>122</v>
+        <v>476</v>
       </c>
       <c r="CE17" s="133" t="s">
-        <v>122</v>
+        <v>476</v>
       </c>
       <c r="CF17" s="133" t="s">
         <v>476</v>
@@ -5498,19 +5414,13 @@
         <v>476</v>
       </c>
       <c r="CH17" s="133" t="s">
-        <v>476</v>
+        <v>90</v>
       </c>
       <c r="CI17" s="133" t="s">
         <v>476</v>
       </c>
-      <c r="CJ17" s="133" t="s">
-        <v>90</v>
-      </c>
-      <c r="CK17" s="133" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="18" spans="1:89" ht="60">
+    </row>
+    <row r="18" spans="1:87" ht="60">
       <c r="A18" s="131" t="s">
         <v>434</v>
       </c>
@@ -5529,54 +5439,54 @@
       <c r="G18" s="116" t="b">
         <v>0</v>
       </c>
-      <c r="H18" s="144" t="s">
+      <c r="H18" s="141" t="s">
         <v>473</v>
       </c>
-      <c r="I18" s="144" t="s">
+      <c r="I18" s="141" t="s">
         <v>473</v>
       </c>
-      <c r="J18" s="144" t="s">
+      <c r="J18" s="141" t="s">
         <v>473</v>
       </c>
-      <c r="K18" s="144" t="s">
+      <c r="K18" s="141" t="s">
         <v>473</v>
       </c>
-      <c r="L18" s="139" t="s">
+      <c r="L18" s="138" t="s">
         <v>438</v>
       </c>
-      <c r="M18" s="139" t="s">
+      <c r="M18" s="138" t="s">
         <v>438</v>
       </c>
-      <c r="N18" s="139" t="s">
+      <c r="N18" s="138" t="s">
         <v>439</v>
       </c>
-      <c r="O18" s="139" t="s">
+      <c r="O18" s="138" t="s">
         <v>440</v>
       </c>
-      <c r="P18" s="139"/>
-      <c r="Q18" s="116" t="s">
+      <c r="P18" s="116" t="s">
         <v>411</v>
       </c>
+      <c r="Q18" s="11"/>
       <c r="R18" s="11"/>
       <c r="S18" s="11"/>
       <c r="T18" s="11"/>
       <c r="U18" s="11"/>
       <c r="V18" s="11"/>
       <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
+      <c r="X18" s="116">
+        <v>500</v>
+      </c>
       <c r="Y18" s="116">
         <v>500</v>
       </c>
-      <c r="Z18" s="116">
-        <v>500</v>
-      </c>
-      <c r="AA18" s="139" t="s">
+      <c r="Z18" s="138" t="s">
         <v>444</v>
       </c>
-      <c r="AB18" s="139"/>
-      <c r="AC18" s="116" t="s">
+      <c r="AA18" s="116" t="s">
         <v>411</v>
       </c>
+      <c r="AB18" s="11"/>
+      <c r="AC18" s="11"/>
       <c r="AD18" s="11"/>
       <c r="AE18" s="11"/>
       <c r="AF18" s="11"/>
@@ -5586,143 +5496,141 @@
       <c r="AJ18" s="11"/>
       <c r="AK18" s="11"/>
       <c r="AL18" s="11"/>
-      <c r="AM18" s="11"/>
-      <c r="AN18" s="11"/>
-      <c r="AO18" s="144" t="s">
+      <c r="AM18" s="141" t="s">
         <v>461</v>
       </c>
-      <c r="AP18" s="144" t="s">
+      <c r="AN18" s="141" t="s">
         <v>461</v>
       </c>
-      <c r="AQ18" s="144" t="s">
+      <c r="AO18" s="141" t="s">
         <v>461</v>
+      </c>
+      <c r="AP18" s="116">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="116">
+        <v>0</v>
       </c>
       <c r="AR18" s="116">
         <v>0</v>
       </c>
-      <c r="AS18" s="116">
-        <v>0</v>
-      </c>
-      <c r="AT18" s="116">
-        <v>0</v>
-      </c>
+      <c r="AS18" s="11"/>
+      <c r="AT18" s="11"/>
       <c r="AU18" s="11"/>
       <c r="AV18" s="11"/>
       <c r="AW18" s="11"/>
-      <c r="AX18" s="11"/>
+      <c r="AX18" s="129" t="s">
+        <v>114</v>
+      </c>
       <c r="AY18" s="11"/>
-      <c r="AZ18" s="129" t="s">
-        <v>114</v>
-      </c>
-      <c r="BA18" s="11"/>
-      <c r="BB18" s="11"/>
-      <c r="BC18" s="144" t="s">
+      <c r="AZ18" s="11"/>
+      <c r="BA18" s="141" t="s">
         <v>474</v>
       </c>
-      <c r="BD18" s="144" t="s">
+      <c r="BB18" s="141" t="s">
         <v>474</v>
       </c>
-      <c r="BE18" s="116">
+      <c r="BC18" s="116">
         <v>7</v>
       </c>
-      <c r="BF18" s="144" t="s">
-        <v>486</v>
-      </c>
-      <c r="BG18" s="144" t="s">
+      <c r="BD18" s="141" t="s">
+        <v>482</v>
+      </c>
+      <c r="BE18" s="141" t="s">
         <v>474</v>
       </c>
-      <c r="BH18" s="144" t="s">
+      <c r="BF18" s="141" t="s">
         <v>473</v>
       </c>
-      <c r="BI18" s="144" t="s">
+      <c r="BG18" s="141" t="s">
         <v>474</v>
       </c>
-      <c r="BJ18" s="116">
+      <c r="BH18" s="116">
         <v>100</v>
       </c>
-      <c r="BK18" s="136" t="s">
+      <c r="BI18" s="136" t="s">
         <v>107</v>
       </c>
+      <c r="BJ18" s="116" t="s">
+        <v>99</v>
+      </c>
+      <c r="BK18" s="138" t="s">
+        <v>464</v>
+      </c>
       <c r="BL18" s="116" t="s">
-        <v>99</v>
-      </c>
-      <c r="BM18" s="139" t="s">
-        <v>464</v>
-      </c>
-      <c r="BN18" s="116" t="s">
         <v>411</v>
       </c>
-      <c r="BO18" s="116" t="s">
+      <c r="BM18" s="116" t="s">
         <v>411</v>
       </c>
-      <c r="BP18" s="157" t="s">
+      <c r="BN18" s="147" t="s">
         <v>108</v>
       </c>
-      <c r="BQ18" s="144" t="s">
+      <c r="BO18" s="141" t="s">
         <v>473</v>
       </c>
-      <c r="BR18" s="144" t="s">
+      <c r="BP18" s="141" t="s">
         <v>473</v>
       </c>
-      <c r="BS18" s="157" t="s">
+      <c r="BQ18" s="147" t="s">
         <v>109</v>
       </c>
-      <c r="BT18" s="144" t="s">
+      <c r="BR18" s="141" t="s">
         <v>473</v>
       </c>
-      <c r="BU18" s="144" t="s">
+      <c r="BS18" s="141" t="s">
         <v>474</v>
       </c>
-      <c r="BV18" s="144" t="s">
+      <c r="BT18" s="141" t="s">
         <v>474</v>
       </c>
-      <c r="BW18" s="144" t="s">
+      <c r="BU18" s="141" t="s">
         <v>474</v>
       </c>
-      <c r="BX18" s="144" t="s">
+      <c r="BV18" s="141" t="s">
         <v>474</v>
       </c>
-      <c r="BY18" s="157" t="s">
+      <c r="BW18" s="147" t="s">
         <v>129</v>
       </c>
-      <c r="BZ18" s="139" t="s">
+      <c r="BX18" s="138" t="s">
         <v>470</v>
       </c>
-      <c r="CA18" s="144" t="s">
+      <c r="BY18" s="141" t="s">
         <v>474</v>
       </c>
-      <c r="CB18" s="144" t="s">
+      <c r="BZ18" s="141" t="s">
         <v>473</v>
       </c>
-      <c r="CC18" s="144" t="s">
+      <c r="CA18" s="141" t="s">
         <v>474</v>
       </c>
-      <c r="CD18" s="116" t="b">
+      <c r="CB18" s="116" t="b">
         <v>1</v>
       </c>
-      <c r="CE18" s="116" t="b">
+      <c r="CC18" s="116" t="b">
         <v>1</v>
       </c>
-      <c r="CF18" s="144" t="s">
+      <c r="CD18" s="141" t="s">
         <v>461</v>
       </c>
-      <c r="CG18" s="144" t="s">
+      <c r="CE18" s="141" t="s">
         <v>461</v>
       </c>
-      <c r="CH18" s="144" t="s">
+      <c r="CF18" s="141" t="s">
         <v>461</v>
       </c>
-      <c r="CI18" s="144" t="s">
+      <c r="CG18" s="141" t="s">
         <v>461</v>
       </c>
-      <c r="CJ18" s="116">
+      <c r="CH18" s="116">
         <v>0</v>
       </c>
-      <c r="CK18" s="144" t="s">
+      <c r="CI18" s="141" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="19" spans="1:89" ht="34">
+    <row r="19" spans="1:87" ht="34">
       <c r="A19" s="131" t="s">
         <v>219</v>
       </c>
@@ -5740,66 +5648,66 @@
       <c r="N19" s="11"/>
       <c r="O19" s="11"/>
       <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="129" t="s">
+      <c r="Q19" s="129" t="s">
         <v>437</v>
       </c>
-      <c r="S19" s="144" t="s">
+      <c r="R19" s="141" t="s">
         <v>244</v>
       </c>
+      <c r="S19" s="129" t="s">
+        <v>245</v>
+      </c>
       <c r="T19" s="129" t="s">
-        <v>245</v>
-      </c>
-      <c r="U19" s="129" t="s">
         <v>246</v>
       </c>
+      <c r="U19" s="68">
+        <v>4</v>
+      </c>
       <c r="V19" s="68">
-        <v>4</v>
-      </c>
-      <c r="W19" s="68">
         <v>10</v>
       </c>
-      <c r="X19" s="139" t="s">
+      <c r="W19" s="138" t="s">
         <v>441</v>
       </c>
+      <c r="X19" s="11"/>
       <c r="Y19" s="11"/>
       <c r="Z19" s="11"/>
       <c r="AA19" s="11"/>
-      <c r="AB19" s="11"/>
-      <c r="AC19" s="11"/>
-      <c r="AD19" s="129" t="s">
+      <c r="AB19" s="129" t="s">
         <v>150</v>
       </c>
-      <c r="AE19" s="116" t="b">
+      <c r="AC19" s="116" t="b">
         <v>0</v>
       </c>
-      <c r="AF19" s="116" t="b">
+      <c r="AD19" s="116" t="b">
         <v>0</v>
       </c>
-      <c r="AG19" s="144" t="s">
+      <c r="AE19" s="141" t="s">
         <v>159</v>
       </c>
-      <c r="AH19" s="129" t="s">
+      <c r="AF19" s="129" t="s">
         <v>160</v>
       </c>
-      <c r="AI19" s="116">
+      <c r="AG19" s="116">
         <v>26</v>
       </c>
-      <c r="AJ19" s="116">
+      <c r="AH19" s="116">
         <v>12</v>
       </c>
-      <c r="AK19" s="144" t="s">
+      <c r="AI19" s="141" t="s">
         <v>158</v>
       </c>
+      <c r="AJ19" s="129" t="s">
+        <v>150</v>
+      </c>
+      <c r="AK19" s="140" t="s">
+        <v>442</v>
+      </c>
       <c r="AL19" s="129" t="s">
-        <v>150</v>
-      </c>
-      <c r="AM19" s="143" t="s">
-        <v>442</v>
-      </c>
-      <c r="AN19" s="129" t="s">
         <v>157</v>
       </c>
+      <c r="AM19" s="11"/>
+      <c r="AN19" s="11"/>
       <c r="AO19" s="11"/>
       <c r="AP19" s="11"/>
       <c r="AQ19" s="11"/>
@@ -5812,19 +5720,19 @@
       <c r="AX19" s="11"/>
       <c r="AY19" s="11"/>
       <c r="AZ19" s="11"/>
-      <c r="BA19" s="11"/>
-      <c r="BB19" s="11"/>
-      <c r="BC19" s="116" t="s">
+      <c r="BA19" s="116" t="s">
         <v>455</v>
       </c>
-      <c r="BD19" s="116" t="s">
+      <c r="BB19" s="116" t="s">
         <v>455</v>
       </c>
-      <c r="BE19" s="11"/>
+      <c r="BC19" s="11"/>
+      <c r="BD19" s="11"/>
+      <c r="BE19" s="116" t="s">
+        <v>455</v>
+      </c>
       <c r="BF19" s="11"/>
-      <c r="BG19" s="116" t="s">
-        <v>455</v>
-      </c>
+      <c r="BG19" s="11"/>
       <c r="BH19" s="11"/>
       <c r="BI19" s="11"/>
       <c r="BJ19" s="11"/>
@@ -5835,23 +5743,23 @@
       <c r="BO19" s="11"/>
       <c r="BP19" s="11"/>
       <c r="BQ19" s="11"/>
-      <c r="BR19" s="11"/>
-      <c r="BS19" s="11"/>
+      <c r="BR19" s="116" t="s">
+        <v>421</v>
+      </c>
+      <c r="BS19" s="116" t="s">
+        <v>411</v>
+      </c>
       <c r="BT19" s="116" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="BU19" s="116" t="s">
         <v>411</v>
       </c>
-      <c r="BV19" s="116" t="s">
-        <v>411</v>
-      </c>
-      <c r="BW19" s="116" t="s">
-        <v>411</v>
-      </c>
-      <c r="BX19" s="68" t="s">
+      <c r="BV19" s="68" t="s">
         <v>412</v>
       </c>
+      <c r="BW19" s="11"/>
+      <c r="BX19" s="11"/>
       <c r="BY19" s="11"/>
       <c r="BZ19" s="11"/>
       <c r="CA19" s="11"/>
@@ -5863,15 +5771,15 @@
       <c r="CG19" s="11"/>
       <c r="CH19" s="11"/>
       <c r="CI19" s="11"/>
-      <c r="CJ19" s="11"/>
-      <c r="CK19" s="11"/>
-    </row>
-    <row r="20" spans="1:89" ht="24">
+    </row>
+    <row r="20" spans="1:87" ht="24">
       <c r="A20" s="132"/>
       <c r="C20" s="130"/>
       <c r="G20" s="130"/>
-      <c r="AH20" s="58"/>
-      <c r="AI20" s="58"/>
+      <c r="AF20" s="58"/>
+      <c r="AG20" s="58"/>
+      <c r="BL20" s="130"/>
+      <c r="BM20" s="130"/>
       <c r="BN20" s="130"/>
       <c r="BO20" s="130"/>
       <c r="BP20" s="130"/>
@@ -5881,237 +5789,190 @@
       <c r="BT20" s="130"/>
       <c r="BU20" s="130"/>
       <c r="BV20" s="130"/>
-      <c r="BW20" s="130"/>
-      <c r="BX20" s="130"/>
-    </row>
-    <row r="21" spans="1:89" ht="36" customHeight="1">
+    </row>
+    <row r="21" spans="1:87" ht="36" customHeight="1">
       <c r="C21" t="s">
         <v>355</v>
       </c>
       <c r="D21" t="s">
         <v>414</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AA21" t="s">
         <v>429</v>
       </c>
-      <c r="AH21" s="58"/>
-      <c r="AI21" s="58"/>
+      <c r="AF21" s="58"/>
+      <c r="AG21" s="58"/>
+      <c r="AH21" s="57"/>
+      <c r="AI21" s="57"/>
       <c r="AJ21" s="57"/>
       <c r="AK21" s="57"/>
-      <c r="AL21" s="57"/>
-      <c r="AM21" s="57"/>
-      <c r="AV21" s="145" t="s">
+      <c r="AT21" s="142" t="s">
         <v>453</v>
       </c>
-      <c r="BI21" s="151" t="s">
+      <c r="BG21" s="145" t="s">
         <v>460</v>
       </c>
-      <c r="BL21" s="151" t="s">
+      <c r="BJ21" s="145" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="22" spans="1:89">
+    <row r="22" spans="1:87">
       <c r="C22" t="s">
         <v>220</v>
       </c>
       <c r="D22" t="s">
         <v>415</v>
       </c>
+      <c r="AE22" s="57"/>
+      <c r="AF22" s="57"/>
       <c r="AG22" s="57"/>
       <c r="AH22" s="57"/>
       <c r="AI22" s="57"/>
       <c r="AJ22" s="57"/>
       <c r="AK22" s="57"/>
-      <c r="AL22" s="57"/>
-      <c r="AM22" s="57"/>
-    </row>
-    <row r="23" spans="1:89">
+    </row>
+    <row r="23" spans="1:87">
+      <c r="AE23" s="58"/>
+      <c r="AF23" s="58"/>
       <c r="AG23" s="58"/>
       <c r="AH23" s="58"/>
       <c r="AI23" s="58"/>
       <c r="AJ23" s="58"/>
       <c r="AK23" s="58"/>
-      <c r="AL23" s="58"/>
-      <c r="AM23" s="58"/>
-    </row>
-    <row r="24" spans="1:89" ht="44" customHeight="1">
-      <c r="BN24" t="s">
+    </row>
+    <row r="24" spans="1:87" ht="44" customHeight="1">
+      <c r="BL24" t="s">
         <v>413</v>
       </c>
-      <c r="BP24" s="210" t="s">
+      <c r="BN24" s="162" t="s">
         <v>424</v>
       </c>
-      <c r="BQ24" s="210"/>
-      <c r="BR24" s="210"/>
-      <c r="BS24" s="210"/>
-    </row>
-    <row r="25" spans="1:89">
-      <c r="BO25" t="s">
+      <c r="BO24" s="162"/>
+      <c r="BP24" s="162"/>
+      <c r="BQ24" s="162"/>
+    </row>
+    <row r="25" spans="1:87">
+      <c r="BM25" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="28" spans="1:89">
+    <row r="28" spans="1:87">
       <c r="O28" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="32" spans="1:89">
+    <row r="32" spans="1:87">
       <c r="E32" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="33" spans="5:67">
+    <row r="33" spans="5:65">
       <c r="E33" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="34" spans="5:67">
+    <row r="34" spans="5:65">
       <c r="E34" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="35" spans="5:67">
+    <row r="35" spans="5:65">
       <c r="E35" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="37" spans="5:67">
-      <c r="BO37">
+    <row r="37" spans="5:65">
+      <c r="BM37">
         <v>5.6109999999999998</v>
       </c>
     </row>
-    <row r="38" spans="5:67">
-      <c r="BO38">
-        <f>BO37*11</f>
+    <row r="38" spans="5:65">
+      <c r="BM38">
+        <f>BM37*11</f>
         <v>61.720999999999997</v>
       </c>
     </row>
+    <row r="44" spans="5:65">
+      <c r="BM44">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="45" spans="5:65">
+      <c r="BM45">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="46" spans="5:65">
+      <c r="BM46">
+        <f>BM45-BM44</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="5:65">
+      <c r="BM47">
+        <f>BM46/BM44</f>
+        <v>7.1005917159763315E-2</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="186">
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="BX8:BX9"/>
-    <mergeCell ref="BX12:BX15"/>
-    <mergeCell ref="BU8:BU9"/>
-    <mergeCell ref="CN7:CP7"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="AB8:AB9"/>
-    <mergeCell ref="N6:AN6"/>
-    <mergeCell ref="BV8:BW9"/>
-    <mergeCell ref="BV10:BW10"/>
-    <mergeCell ref="BV11:BW11"/>
-    <mergeCell ref="BV12:BW12"/>
-    <mergeCell ref="BP24:BS24"/>
-    <mergeCell ref="AC10:AN10"/>
-    <mergeCell ref="AT8:AT9"/>
-    <mergeCell ref="AY8:AY9"/>
-    <mergeCell ref="S11:W11"/>
-    <mergeCell ref="AG11:AJ11"/>
-    <mergeCell ref="AK11:AN11"/>
-    <mergeCell ref="AX8:AX9"/>
-    <mergeCell ref="AW8:AW9"/>
-    <mergeCell ref="AV8:AV9"/>
-    <mergeCell ref="AU8:AU9"/>
-    <mergeCell ref="BB8:BB9"/>
-    <mergeCell ref="BA8:BA9"/>
-    <mergeCell ref="AC8:AN8"/>
-    <mergeCell ref="AA8:AA9"/>
-    <mergeCell ref="Z8:Z9"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="AC9:AN9"/>
-    <mergeCell ref="AO8:AO9"/>
-    <mergeCell ref="AP8:AP9"/>
-    <mergeCell ref="AQ8:AQ9"/>
-    <mergeCell ref="AR8:AR9"/>
-    <mergeCell ref="AS8:AS9"/>
-    <mergeCell ref="BP7:BX7"/>
-    <mergeCell ref="D5:AT5"/>
-    <mergeCell ref="AU5:BB5"/>
-    <mergeCell ref="BC5:BI5"/>
-    <mergeCell ref="BJ5:BX5"/>
-    <mergeCell ref="BY5:CK5"/>
-    <mergeCell ref="CN5:CV5"/>
-    <mergeCell ref="G7:M7"/>
-    <mergeCell ref="N7:W7"/>
-    <mergeCell ref="X7:AN7"/>
-    <mergeCell ref="AU7:AY7"/>
-    <mergeCell ref="AZ7:BB7"/>
-    <mergeCell ref="BE7:BI7"/>
-    <mergeCell ref="BN7:BO7"/>
-    <mergeCell ref="AO7:AT7"/>
-    <mergeCell ref="CE7:CI7"/>
-    <mergeCell ref="CJ7:CK7"/>
-    <mergeCell ref="AZ8:AZ9"/>
-    <mergeCell ref="BA10:BA15"/>
-    <mergeCell ref="BB10:BB15"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="N10:N15"/>
-    <mergeCell ref="O10:O15"/>
-    <mergeCell ref="Q9:W9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="V12:V13"/>
-    <mergeCell ref="U12:U13"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="Q10:W10"/>
-    <mergeCell ref="Q8:W8"/>
+  <mergeCells count="196">
+    <mergeCell ref="BW6:BW7"/>
+    <mergeCell ref="BX6:BX7"/>
+    <mergeCell ref="BY6:BZ7"/>
+    <mergeCell ref="CA6:CA7"/>
+    <mergeCell ref="CB6:CB7"/>
+    <mergeCell ref="CC6:CG7"/>
+    <mergeCell ref="CH6:CI7"/>
+    <mergeCell ref="BG14:BG15"/>
+    <mergeCell ref="C6:C15"/>
+    <mergeCell ref="AM6:AR7"/>
+    <mergeCell ref="AS6:AW7"/>
+    <mergeCell ref="AX6:AZ7"/>
+    <mergeCell ref="BA6:BA7"/>
+    <mergeCell ref="BB6:BB7"/>
+    <mergeCell ref="BC6:BG7"/>
+    <mergeCell ref="BH6:BH7"/>
+    <mergeCell ref="BI6:BI7"/>
+    <mergeCell ref="CH10:CH15"/>
+    <mergeCell ref="CI10:CI15"/>
+    <mergeCell ref="BN8:BQ9"/>
+    <mergeCell ref="BQ10:BQ11"/>
+    <mergeCell ref="BO10:BO11"/>
+    <mergeCell ref="BN10:BN11"/>
+    <mergeCell ref="BP10:BP11"/>
+    <mergeCell ref="BR10:BR15"/>
+    <mergeCell ref="CE12:CE15"/>
+    <mergeCell ref="CF12:CF15"/>
+    <mergeCell ref="CG12:CG15"/>
+    <mergeCell ref="BY10:BY15"/>
+    <mergeCell ref="BZ10:BZ15"/>
+    <mergeCell ref="CC10:CC15"/>
     <mergeCell ref="BN12:BN15"/>
     <mergeCell ref="BO12:BO15"/>
-    <mergeCell ref="BI8:BI9"/>
-    <mergeCell ref="BH8:BH9"/>
-    <mergeCell ref="BG8:BG9"/>
-    <mergeCell ref="BF8:BF9"/>
-    <mergeCell ref="BE8:BE9"/>
-    <mergeCell ref="BC10:BC15"/>
-    <mergeCell ref="BD10:BD15"/>
-    <mergeCell ref="BE10:BE15"/>
+    <mergeCell ref="BQ12:BQ15"/>
+    <mergeCell ref="CD12:CD15"/>
+    <mergeCell ref="BI8:BI15"/>
+    <mergeCell ref="BE12:BE15"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="U14:U15"/>
+    <mergeCell ref="V14:V15"/>
     <mergeCell ref="BF10:BF15"/>
-    <mergeCell ref="W12:W13"/>
-    <mergeCell ref="AC12:AC15"/>
-    <mergeCell ref="AD12:AD15"/>
-    <mergeCell ref="AE12:AE15"/>
-    <mergeCell ref="AG12:AG13"/>
-    <mergeCell ref="AN12:AN13"/>
-    <mergeCell ref="AM12:AM13"/>
-    <mergeCell ref="AL12:AL13"/>
-    <mergeCell ref="AK12:AK13"/>
-    <mergeCell ref="AJ12:AJ13"/>
-    <mergeCell ref="AI12:AI13"/>
-    <mergeCell ref="AH12:AH13"/>
-    <mergeCell ref="CI10:CI11"/>
-    <mergeCell ref="CA7:CB7"/>
-    <mergeCell ref="CA8:CA9"/>
-    <mergeCell ref="CB8:CB9"/>
-    <mergeCell ref="X10:X15"/>
-    <mergeCell ref="Y10:Y15"/>
-    <mergeCell ref="Z10:Z15"/>
-    <mergeCell ref="AA10:AA15"/>
-    <mergeCell ref="AO10:AO15"/>
-    <mergeCell ref="AP10:AP15"/>
-    <mergeCell ref="AQ10:AQ15"/>
-    <mergeCell ref="AR10:AR15"/>
-    <mergeCell ref="AS10:AS15"/>
+    <mergeCell ref="AE14:AE15"/>
+    <mergeCell ref="AF14:AF15"/>
+    <mergeCell ref="AG14:AG15"/>
+    <mergeCell ref="AH14:AH15"/>
+    <mergeCell ref="AI14:AI15"/>
+    <mergeCell ref="AJ14:AJ15"/>
+    <mergeCell ref="AK14:AK15"/>
+    <mergeCell ref="AL14:AL15"/>
     <mergeCell ref="AT10:AT15"/>
     <mergeCell ref="AU10:AU15"/>
-    <mergeCell ref="BT8:BT9"/>
-    <mergeCell ref="BO8:BO9"/>
-    <mergeCell ref="BN8:BN9"/>
-    <mergeCell ref="BL8:BL15"/>
-    <mergeCell ref="BM8:BM15"/>
-    <mergeCell ref="AZ10:AZ15"/>
-    <mergeCell ref="CK8:CK9"/>
+    <mergeCell ref="AV10:AV15"/>
+    <mergeCell ref="AW10:AW15"/>
+    <mergeCell ref="CI8:CI9"/>
     <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C7:C15"/>
     <mergeCell ref="D8:D15"/>
     <mergeCell ref="E8:E15"/>
     <mergeCell ref="F8:F15"/>
@@ -6122,58 +5983,135 @@
     <mergeCell ref="K10:K15"/>
     <mergeCell ref="L10:L15"/>
     <mergeCell ref="M10:M15"/>
-    <mergeCell ref="BY8:BY15"/>
-    <mergeCell ref="BZ8:BZ15"/>
-    <mergeCell ref="CC8:CC15"/>
-    <mergeCell ref="CD8:CD15"/>
-    <mergeCell ref="CJ8:CJ9"/>
-    <mergeCell ref="CE8:CE9"/>
-    <mergeCell ref="CF8:CI9"/>
+    <mergeCell ref="BW8:BW15"/>
+    <mergeCell ref="BX8:BX15"/>
+    <mergeCell ref="CA8:CA15"/>
+    <mergeCell ref="CB8:CB15"/>
+    <mergeCell ref="CH8:CH9"/>
+    <mergeCell ref="CC8:CC9"/>
+    <mergeCell ref="CD8:CG9"/>
+    <mergeCell ref="CD10:CD11"/>
+    <mergeCell ref="CE10:CE11"/>
     <mergeCell ref="CF10:CF11"/>
+    <mergeCell ref="AD12:AD15"/>
+    <mergeCell ref="AG12:AG13"/>
+    <mergeCell ref="AF12:AF13"/>
     <mergeCell ref="CG10:CG11"/>
-    <mergeCell ref="CH10:CH11"/>
-    <mergeCell ref="AF12:AF15"/>
-    <mergeCell ref="Q12:Q15"/>
-    <mergeCell ref="R12:R15"/>
+    <mergeCell ref="BY8:BY9"/>
+    <mergeCell ref="BZ8:BZ9"/>
+    <mergeCell ref="W10:W15"/>
+    <mergeCell ref="X10:X15"/>
+    <mergeCell ref="Y10:Y15"/>
+    <mergeCell ref="Z10:Z15"/>
+    <mergeCell ref="AM10:AM15"/>
+    <mergeCell ref="AN10:AN15"/>
+    <mergeCell ref="AO10:AO15"/>
+    <mergeCell ref="AP10:AP15"/>
+    <mergeCell ref="AQ10:AQ15"/>
+    <mergeCell ref="AR10:AR15"/>
+    <mergeCell ref="AS10:AS15"/>
+    <mergeCell ref="BR8:BR9"/>
+    <mergeCell ref="BM8:BM9"/>
+    <mergeCell ref="BL8:BL9"/>
     <mergeCell ref="BJ8:BJ15"/>
     <mergeCell ref="BK8:BK15"/>
-    <mergeCell ref="BG12:BG15"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="T14:T15"/>
-    <mergeCell ref="U14:U15"/>
-    <mergeCell ref="V14:V15"/>
-    <mergeCell ref="W14:W15"/>
-    <mergeCell ref="BH10:BH15"/>
-    <mergeCell ref="AG14:AG15"/>
-    <mergeCell ref="AH14:AH15"/>
-    <mergeCell ref="AI14:AI15"/>
-    <mergeCell ref="AJ14:AJ15"/>
-    <mergeCell ref="AK14:AK15"/>
-    <mergeCell ref="AL14:AL15"/>
-    <mergeCell ref="AM14:AM15"/>
-    <mergeCell ref="AN14:AN15"/>
-    <mergeCell ref="AV10:AV15"/>
-    <mergeCell ref="AW10:AW15"/>
     <mergeCell ref="AX10:AX15"/>
+    <mergeCell ref="BH8:BH15"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="P10:V10"/>
+    <mergeCell ref="P8:V8"/>
+    <mergeCell ref="BL12:BL15"/>
+    <mergeCell ref="BM12:BM15"/>
+    <mergeCell ref="BG8:BG9"/>
+    <mergeCell ref="BF8:BF9"/>
+    <mergeCell ref="BE8:BE9"/>
+    <mergeCell ref="BD8:BD9"/>
+    <mergeCell ref="BC8:BC9"/>
+    <mergeCell ref="BA10:BA15"/>
+    <mergeCell ref="BB10:BB15"/>
+    <mergeCell ref="BC10:BC15"/>
+    <mergeCell ref="BD10:BD15"/>
+    <mergeCell ref="V12:V13"/>
+    <mergeCell ref="AA12:AA15"/>
+    <mergeCell ref="AB12:AB15"/>
+    <mergeCell ref="AC12:AC15"/>
+    <mergeCell ref="AE12:AE13"/>
+    <mergeCell ref="AL12:AL13"/>
+    <mergeCell ref="AK12:AK13"/>
+    <mergeCell ref="AJ12:AJ13"/>
+    <mergeCell ref="AI12:AI13"/>
+    <mergeCell ref="AH12:AH13"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="U12:U13"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="P12:P15"/>
+    <mergeCell ref="Q12:Q15"/>
+    <mergeCell ref="D5:AR5"/>
+    <mergeCell ref="AS5:AZ5"/>
+    <mergeCell ref="BA5:BG5"/>
+    <mergeCell ref="BH5:BV5"/>
+    <mergeCell ref="BW5:CI5"/>
+    <mergeCell ref="N7:V7"/>
+    <mergeCell ref="W7:AL7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:M7"/>
+    <mergeCell ref="BJ6:BJ7"/>
+    <mergeCell ref="BK6:BK7"/>
+    <mergeCell ref="BL6:BM7"/>
+    <mergeCell ref="BN6:BV7"/>
+    <mergeCell ref="BN24:BQ24"/>
+    <mergeCell ref="AA10:AL10"/>
+    <mergeCell ref="AR8:AR9"/>
+    <mergeCell ref="AW8:AW9"/>
+    <mergeCell ref="R11:V11"/>
+    <mergeCell ref="AE11:AH11"/>
+    <mergeCell ref="AI11:AL11"/>
+    <mergeCell ref="AV8:AV9"/>
+    <mergeCell ref="AU8:AU9"/>
+    <mergeCell ref="AT8:AT9"/>
+    <mergeCell ref="AS8:AS9"/>
+    <mergeCell ref="AZ8:AZ9"/>
+    <mergeCell ref="AY8:AY9"/>
+    <mergeCell ref="AA8:AL8"/>
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="AA9:AL9"/>
+    <mergeCell ref="AM8:AM9"/>
+    <mergeCell ref="AN8:AN9"/>
+    <mergeCell ref="AO8:AO9"/>
+    <mergeCell ref="AP8:AP9"/>
+    <mergeCell ref="AQ8:AQ9"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="BV8:BV9"/>
+    <mergeCell ref="BV12:BV15"/>
+    <mergeCell ref="BS8:BS9"/>
+    <mergeCell ref="N6:AL6"/>
+    <mergeCell ref="BT8:BU9"/>
+    <mergeCell ref="BT10:BU10"/>
+    <mergeCell ref="BT11:BU11"/>
+    <mergeCell ref="BT12:BU12"/>
+    <mergeCell ref="AX8:AX9"/>
     <mergeCell ref="AY10:AY15"/>
-    <mergeCell ref="CJ10:CJ15"/>
-    <mergeCell ref="CK10:CK15"/>
-    <mergeCell ref="BP8:BS9"/>
-    <mergeCell ref="BS10:BS11"/>
-    <mergeCell ref="BQ10:BQ11"/>
-    <mergeCell ref="BP10:BP11"/>
-    <mergeCell ref="BR10:BR11"/>
-    <mergeCell ref="BT10:BT15"/>
-    <mergeCell ref="CG12:CG15"/>
-    <mergeCell ref="CH12:CH15"/>
-    <mergeCell ref="CI12:CI15"/>
-    <mergeCell ref="CA10:CA15"/>
-    <mergeCell ref="CB10:CB15"/>
-    <mergeCell ref="CE10:CE15"/>
-    <mergeCell ref="BP12:BP15"/>
-    <mergeCell ref="BQ12:BQ15"/>
-    <mergeCell ref="BS12:BS15"/>
-    <mergeCell ref="CF12:CF15"/>
+    <mergeCell ref="AZ10:AZ15"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="N10:N15"/>
+    <mergeCell ref="O10:O15"/>
+    <mergeCell ref="P9:V9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="M8:M9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6195,73 +6133,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="E1" s="225" t="s">
-        <v>495</v>
-      </c>
-      <c r="F1" s="225"/>
-      <c r="G1" s="225"/>
+      <c r="E1" s="193" t="s">
+        <v>491</v>
+      </c>
+      <c r="F1" s="193"/>
+      <c r="G1" s="193"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>490</v>
-      </c>
-      <c r="B3" s="225" t="s">
+        <v>486</v>
+      </c>
+      <c r="B3" s="193" t="s">
         <v>403</v>
       </c>
-      <c r="C3" s="225"/>
-      <c r="E3" s="225" t="s">
+      <c r="C3" s="193"/>
+      <c r="E3" s="193" t="s">
         <v>426</v>
       </c>
-      <c r="F3" s="225"/>
-      <c r="G3" s="225"/>
+      <c r="F3" s="193"/>
+      <c r="G3" s="193"/>
       <c r="I3" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="B4" s="125" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C4" s="125" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="E4" s="125" t="s">
         <v>99</v>
       </c>
       <c r="F4" s="125" t="s">
+        <v>492</v>
+      </c>
+      <c r="G4" s="125" t="s">
+        <v>493</v>
+      </c>
+      <c r="I4" s="125" t="s">
+        <v>492</v>
+      </c>
+      <c r="J4" s="125" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="151" customFormat="1" ht="68">
+      <c r="B5" s="152" t="s">
+        <v>489</v>
+      </c>
+      <c r="C5" s="152" t="s">
+        <v>490</v>
+      </c>
+      <c r="E5" s="152" t="s">
         <v>496</v>
       </c>
-      <c r="G4" s="125" t="s">
-        <v>497</v>
-      </c>
-      <c r="I4" s="125" t="s">
-        <v>496</v>
-      </c>
-      <c r="J4" s="125" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="290" customFormat="1" ht="68">
-      <c r="B5" s="291" t="s">
-        <v>493</v>
-      </c>
-      <c r="C5" s="291" t="s">
+      <c r="F5" s="152" t="s">
         <v>494</v>
       </c>
-      <c r="E5" s="291" t="s">
-        <v>500</v>
-      </c>
-      <c r="F5" s="291" t="s">
+      <c r="G5" s="152" t="s">
+        <v>495</v>
+      </c>
+      <c r="I5" s="151" t="s">
         <v>498</v>
       </c>
-      <c r="G5" s="291" t="s">
+      <c r="J5" s="152" t="s">
         <v>499</v>
-      </c>
-      <c r="I5" s="290" t="s">
-        <v>502</v>
-      </c>
-      <c r="J5" s="291" t="s">
-        <v>503</v>
       </c>
     </row>
   </sheetData>
@@ -6356,88 +6294,88 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:92" ht="67" customHeight="1">
-      <c r="B4" s="193" t="s">
+      <c r="B4" s="206" t="s">
         <v>264</v>
       </c>
-      <c r="C4" s="193"/>
-      <c r="D4" s="193"/>
-      <c r="E4" s="193"/>
-      <c r="F4" s="193"/>
-      <c r="G4" s="193"/>
-      <c r="H4" s="193"/>
-      <c r="I4" s="193"/>
-      <c r="J4" s="193"/>
-      <c r="K4" s="193"/>
-      <c r="L4" s="193"/>
-      <c r="M4" s="193"/>
-      <c r="N4" s="193"/>
-      <c r="O4" s="193"/>
-      <c r="P4" s="193"/>
-      <c r="Q4" s="193"/>
-      <c r="R4" s="193"/>
-      <c r="S4" s="193"/>
-      <c r="T4" s="193"/>
-      <c r="U4" s="193"/>
-      <c r="V4" s="193"/>
-      <c r="W4" s="193"/>
-      <c r="X4" s="193"/>
-      <c r="Y4" s="193"/>
-      <c r="Z4" s="193"/>
-      <c r="AA4" s="193"/>
-      <c r="AB4" s="193"/>
-      <c r="AC4" s="193"/>
-      <c r="AD4" s="193"/>
-      <c r="AE4" s="193"/>
-      <c r="AF4" s="193"/>
-      <c r="AG4" s="193"/>
-      <c r="AH4" s="193"/>
-      <c r="AI4" s="193"/>
-      <c r="AJ4" s="193"/>
-      <c r="AK4" s="193"/>
-      <c r="AL4" s="193"/>
-      <c r="AM4" s="193"/>
-      <c r="AN4" s="193"/>
-      <c r="AO4" s="193"/>
-      <c r="AP4" s="193"/>
-      <c r="AQ4" s="193"/>
-      <c r="AR4" s="193"/>
-      <c r="AS4" s="193"/>
-      <c r="AT4" s="193"/>
-      <c r="AU4" s="193"/>
-      <c r="AV4" s="193"/>
-      <c r="AW4" s="193"/>
-      <c r="AX4" s="193"/>
-      <c r="AY4" s="193"/>
-      <c r="AZ4" s="193"/>
-      <c r="BA4" s="193"/>
-      <c r="BB4" s="193"/>
-      <c r="BC4" s="193"/>
-      <c r="BD4" s="193"/>
-      <c r="BE4" s="193"/>
-      <c r="BF4" s="193"/>
-      <c r="BG4" s="193"/>
-      <c r="BH4" s="193"/>
-      <c r="BI4" s="193"/>
-      <c r="BJ4" s="193"/>
-      <c r="BK4" s="193"/>
-      <c r="BL4" s="193"/>
-      <c r="BM4" s="193"/>
-      <c r="BN4" s="193"/>
-      <c r="BO4" s="193"/>
-      <c r="BP4" s="193"/>
-      <c r="BQ4" s="193"/>
-      <c r="BR4" s="193"/>
-      <c r="BS4" s="193"/>
-      <c r="BT4" s="193"/>
-      <c r="BU4" s="193"/>
-      <c r="BV4" s="193"/>
-      <c r="BW4" s="193"/>
-      <c r="BX4" s="193"/>
-      <c r="BY4" s="193"/>
-      <c r="BZ4" s="193"/>
-      <c r="CA4" s="193"/>
-      <c r="CB4" s="193"/>
-      <c r="CC4" s="193"/>
+      <c r="C4" s="206"/>
+      <c r="D4" s="206"/>
+      <c r="E4" s="206"/>
+      <c r="F4" s="206"/>
+      <c r="G4" s="206"/>
+      <c r="H4" s="206"/>
+      <c r="I4" s="206"/>
+      <c r="J4" s="206"/>
+      <c r="K4" s="206"/>
+      <c r="L4" s="206"/>
+      <c r="M4" s="206"/>
+      <c r="N4" s="206"/>
+      <c r="O4" s="206"/>
+      <c r="P4" s="206"/>
+      <c r="Q4" s="206"/>
+      <c r="R4" s="206"/>
+      <c r="S4" s="206"/>
+      <c r="T4" s="206"/>
+      <c r="U4" s="206"/>
+      <c r="V4" s="206"/>
+      <c r="W4" s="206"/>
+      <c r="X4" s="206"/>
+      <c r="Y4" s="206"/>
+      <c r="Z4" s="206"/>
+      <c r="AA4" s="206"/>
+      <c r="AB4" s="206"/>
+      <c r="AC4" s="206"/>
+      <c r="AD4" s="206"/>
+      <c r="AE4" s="206"/>
+      <c r="AF4" s="206"/>
+      <c r="AG4" s="206"/>
+      <c r="AH4" s="206"/>
+      <c r="AI4" s="206"/>
+      <c r="AJ4" s="206"/>
+      <c r="AK4" s="206"/>
+      <c r="AL4" s="206"/>
+      <c r="AM4" s="206"/>
+      <c r="AN4" s="206"/>
+      <c r="AO4" s="206"/>
+      <c r="AP4" s="206"/>
+      <c r="AQ4" s="206"/>
+      <c r="AR4" s="206"/>
+      <c r="AS4" s="206"/>
+      <c r="AT4" s="206"/>
+      <c r="AU4" s="206"/>
+      <c r="AV4" s="206"/>
+      <c r="AW4" s="206"/>
+      <c r="AX4" s="206"/>
+      <c r="AY4" s="206"/>
+      <c r="AZ4" s="206"/>
+      <c r="BA4" s="206"/>
+      <c r="BB4" s="206"/>
+      <c r="BC4" s="206"/>
+      <c r="BD4" s="206"/>
+      <c r="BE4" s="206"/>
+      <c r="BF4" s="206"/>
+      <c r="BG4" s="206"/>
+      <c r="BH4" s="206"/>
+      <c r="BI4" s="206"/>
+      <c r="BJ4" s="206"/>
+      <c r="BK4" s="206"/>
+      <c r="BL4" s="206"/>
+      <c r="BM4" s="206"/>
+      <c r="BN4" s="206"/>
+      <c r="BO4" s="206"/>
+      <c r="BP4" s="206"/>
+      <c r="BQ4" s="206"/>
+      <c r="BR4" s="206"/>
+      <c r="BS4" s="206"/>
+      <c r="BT4" s="206"/>
+      <c r="BU4" s="206"/>
+      <c r="BV4" s="206"/>
+      <c r="BW4" s="206"/>
+      <c r="BX4" s="206"/>
+      <c r="BY4" s="206"/>
+      <c r="BZ4" s="206"/>
+      <c r="CA4" s="206"/>
+      <c r="CB4" s="206"/>
+      <c r="CC4" s="206"/>
     </row>
     <row r="6" spans="1:92">
       <c r="B6" s="6"/>
@@ -6492,106 +6430,106 @@
       <c r="B7" s="113" t="s">
         <v>289</v>
       </c>
-      <c r="C7" s="199" t="s">
+      <c r="C7" s="171" t="s">
         <v>263</v>
       </c>
-      <c r="D7" s="200"/>
-      <c r="E7" s="200"/>
-      <c r="F7" s="200"/>
-      <c r="G7" s="200"/>
-      <c r="H7" s="200"/>
-      <c r="I7" s="200"/>
-      <c r="J7" s="200"/>
-      <c r="K7" s="200"/>
-      <c r="L7" s="200"/>
-      <c r="M7" s="200"/>
-      <c r="N7" s="200"/>
-      <c r="O7" s="200"/>
-      <c r="P7" s="200"/>
-      <c r="Q7" s="200"/>
-      <c r="R7" s="200"/>
-      <c r="S7" s="200"/>
-      <c r="T7" s="200"/>
-      <c r="U7" s="200"/>
-      <c r="V7" s="200"/>
-      <c r="W7" s="200"/>
-      <c r="X7" s="200"/>
-      <c r="Y7" s="200"/>
-      <c r="Z7" s="200"/>
-      <c r="AA7" s="200"/>
-      <c r="AB7" s="200"/>
-      <c r="AC7" s="200"/>
-      <c r="AD7" s="200"/>
-      <c r="AE7" s="200"/>
-      <c r="AF7" s="200"/>
-      <c r="AG7" s="200"/>
-      <c r="AH7" s="200"/>
-      <c r="AI7" s="200"/>
-      <c r="AJ7" s="200"/>
-      <c r="AK7" s="200"/>
-      <c r="AL7" s="201"/>
-      <c r="AM7" s="199" t="s">
+      <c r="D7" s="172"/>
+      <c r="E7" s="172"/>
+      <c r="F7" s="172"/>
+      <c r="G7" s="172"/>
+      <c r="H7" s="172"/>
+      <c r="I7" s="172"/>
+      <c r="J7" s="172"/>
+      <c r="K7" s="172"/>
+      <c r="L7" s="172"/>
+      <c r="M7" s="172"/>
+      <c r="N7" s="172"/>
+      <c r="O7" s="172"/>
+      <c r="P7" s="172"/>
+      <c r="Q7" s="172"/>
+      <c r="R7" s="172"/>
+      <c r="S7" s="172"/>
+      <c r="T7" s="172"/>
+      <c r="U7" s="172"/>
+      <c r="V7" s="172"/>
+      <c r="W7" s="172"/>
+      <c r="X7" s="172"/>
+      <c r="Y7" s="172"/>
+      <c r="Z7" s="172"/>
+      <c r="AA7" s="172"/>
+      <c r="AB7" s="172"/>
+      <c r="AC7" s="172"/>
+      <c r="AD7" s="172"/>
+      <c r="AE7" s="172"/>
+      <c r="AF7" s="172"/>
+      <c r="AG7" s="172"/>
+      <c r="AH7" s="172"/>
+      <c r="AI7" s="172"/>
+      <c r="AJ7" s="172"/>
+      <c r="AK7" s="172"/>
+      <c r="AL7" s="173"/>
+      <c r="AM7" s="171" t="s">
         <v>258</v>
       </c>
-      <c r="AN7" s="200"/>
-      <c r="AO7" s="200"/>
-      <c r="AP7" s="200"/>
-      <c r="AQ7" s="200"/>
-      <c r="AR7" s="200"/>
-      <c r="AS7" s="200"/>
-      <c r="AT7" s="201"/>
-      <c r="AU7" s="199" t="s">
+      <c r="AN7" s="172"/>
+      <c r="AO7" s="172"/>
+      <c r="AP7" s="172"/>
+      <c r="AQ7" s="172"/>
+      <c r="AR7" s="172"/>
+      <c r="AS7" s="172"/>
+      <c r="AT7" s="173"/>
+      <c r="AU7" s="171" t="s">
         <v>310</v>
       </c>
-      <c r="AV7" s="200"/>
-      <c r="AW7" s="200"/>
-      <c r="AX7" s="200"/>
-      <c r="AY7" s="200"/>
-      <c r="AZ7" s="200"/>
-      <c r="BA7" s="201"/>
-      <c r="BB7" s="217" t="s">
+      <c r="AV7" s="172"/>
+      <c r="AW7" s="172"/>
+      <c r="AX7" s="172"/>
+      <c r="AY7" s="172"/>
+      <c r="AZ7" s="172"/>
+      <c r="BA7" s="173"/>
+      <c r="BB7" s="207" t="s">
         <v>257</v>
       </c>
-      <c r="BC7" s="217"/>
-      <c r="BD7" s="217"/>
-      <c r="BE7" s="217"/>
-      <c r="BF7" s="217"/>
-      <c r="BG7" s="217"/>
-      <c r="BH7" s="217"/>
-      <c r="BI7" s="217"/>
-      <c r="BJ7" s="217"/>
-      <c r="BK7" s="217"/>
-      <c r="BL7" s="217"/>
-      <c r="BM7" s="217"/>
-      <c r="BN7" s="217"/>
-      <c r="BO7" s="217"/>
-      <c r="BP7" s="217"/>
-      <c r="BQ7" s="217"/>
-      <c r="BR7" s="217"/>
-      <c r="BS7" s="217"/>
-      <c r="BT7" s="217"/>
-      <c r="BU7" s="217" t="s">
+      <c r="BC7" s="207"/>
+      <c r="BD7" s="207"/>
+      <c r="BE7" s="207"/>
+      <c r="BF7" s="207"/>
+      <c r="BG7" s="207"/>
+      <c r="BH7" s="207"/>
+      <c r="BI7" s="207"/>
+      <c r="BJ7" s="207"/>
+      <c r="BK7" s="207"/>
+      <c r="BL7" s="207"/>
+      <c r="BM7" s="207"/>
+      <c r="BN7" s="207"/>
+      <c r="BO7" s="207"/>
+      <c r="BP7" s="207"/>
+      <c r="BQ7" s="207"/>
+      <c r="BR7" s="207"/>
+      <c r="BS7" s="207"/>
+      <c r="BT7" s="207"/>
+      <c r="BU7" s="207" t="s">
         <v>260</v>
       </c>
-      <c r="BV7" s="217"/>
-      <c r="BW7" s="217"/>
-      <c r="BX7" s="217"/>
-      <c r="BY7" s="217"/>
-      <c r="BZ7" s="217"/>
-      <c r="CA7" s="217"/>
-      <c r="CB7" s="217"/>
-      <c r="CC7" s="217"/>
-      <c r="CF7" s="199" t="s">
+      <c r="BV7" s="207"/>
+      <c r="BW7" s="207"/>
+      <c r="BX7" s="207"/>
+      <c r="BY7" s="207"/>
+      <c r="BZ7" s="207"/>
+      <c r="CA7" s="207"/>
+      <c r="CB7" s="207"/>
+      <c r="CC7" s="207"/>
+      <c r="CF7" s="171" t="s">
         <v>31</v>
       </c>
-      <c r="CG7" s="200"/>
-      <c r="CH7" s="200"/>
-      <c r="CI7" s="200"/>
-      <c r="CJ7" s="200"/>
-      <c r="CK7" s="200"/>
-      <c r="CL7" s="200"/>
-      <c r="CM7" s="200"/>
-      <c r="CN7" s="201"/>
+      <c r="CG7" s="172"/>
+      <c r="CH7" s="172"/>
+      <c r="CI7" s="172"/>
+      <c r="CJ7" s="172"/>
+      <c r="CK7" s="172"/>
+      <c r="CL7" s="172"/>
+      <c r="CM7" s="172"/>
+      <c r="CN7" s="173"/>
     </row>
     <row r="8" spans="1:92" s="59" customFormat="1" ht="104" customHeight="1">
       <c r="A8" s="107" t="s">
@@ -6607,72 +6545,72 @@
       <c r="E8" s="111" t="s">
         <v>288</v>
       </c>
-      <c r="F8" s="218" t="s">
+      <c r="F8" s="208" t="s">
         <v>262</v>
       </c>
-      <c r="G8" s="218"/>
-      <c r="H8" s="218"/>
-      <c r="I8" s="218"/>
-      <c r="J8" s="218"/>
-      <c r="K8" s="218"/>
-      <c r="L8" s="218"/>
-      <c r="M8" s="219" t="s">
+      <c r="G8" s="208"/>
+      <c r="H8" s="208"/>
+      <c r="I8" s="208"/>
+      <c r="J8" s="208"/>
+      <c r="K8" s="208"/>
+      <c r="L8" s="208"/>
+      <c r="M8" s="194" t="s">
         <v>356</v>
       </c>
-      <c r="N8" s="220"/>
-      <c r="O8" s="220"/>
-      <c r="P8" s="220"/>
-      <c r="Q8" s="220"/>
-      <c r="R8" s="220"/>
-      <c r="S8" s="220"/>
-      <c r="T8" s="220"/>
-      <c r="U8" s="221"/>
-      <c r="V8" s="218" t="s">
+      <c r="N8" s="195"/>
+      <c r="O8" s="195"/>
+      <c r="P8" s="195"/>
+      <c r="Q8" s="195"/>
+      <c r="R8" s="195"/>
+      <c r="S8" s="195"/>
+      <c r="T8" s="195"/>
+      <c r="U8" s="196"/>
+      <c r="V8" s="208" t="s">
         <v>1</v>
       </c>
-      <c r="W8" s="218"/>
-      <c r="X8" s="218"/>
-      <c r="Y8" s="218"/>
-      <c r="Z8" s="218"/>
-      <c r="AA8" s="218"/>
-      <c r="AB8" s="218"/>
-      <c r="AC8" s="218"/>
-      <c r="AD8" s="218"/>
-      <c r="AE8" s="218"/>
-      <c r="AF8" s="218"/>
-      <c r="AG8" s="218"/>
-      <c r="AH8" s="218"/>
-      <c r="AI8" s="218"/>
-      <c r="AJ8" s="218"/>
-      <c r="AK8" s="218"/>
+      <c r="W8" s="208"/>
+      <c r="X8" s="208"/>
+      <c r="Y8" s="208"/>
+      <c r="Z8" s="208"/>
+      <c r="AA8" s="208"/>
+      <c r="AB8" s="208"/>
+      <c r="AC8" s="208"/>
+      <c r="AD8" s="208"/>
+      <c r="AE8" s="208"/>
+      <c r="AF8" s="208"/>
+      <c r="AG8" s="208"/>
+      <c r="AH8" s="208"/>
+      <c r="AI8" s="208"/>
+      <c r="AJ8" s="208"/>
+      <c r="AK8" s="208"/>
       <c r="AL8" s="112" t="s">
         <v>28</v>
       </c>
-      <c r="AM8" s="218" t="s">
+      <c r="AM8" s="208" t="s">
         <v>275</v>
       </c>
-      <c r="AN8" s="218"/>
-      <c r="AO8" s="218"/>
-      <c r="AP8" s="218"/>
-      <c r="AQ8" s="218"/>
-      <c r="AR8" s="219" t="s">
+      <c r="AN8" s="208"/>
+      <c r="AO8" s="208"/>
+      <c r="AP8" s="208"/>
+      <c r="AQ8" s="208"/>
+      <c r="AR8" s="194" t="s">
         <v>276</v>
       </c>
-      <c r="AS8" s="220"/>
-      <c r="AT8" s="221"/>
+      <c r="AS8" s="195"/>
+      <c r="AT8" s="196"/>
       <c r="AU8" s="118" t="s">
         <v>290</v>
       </c>
       <c r="AV8" s="118" t="s">
         <v>387</v>
       </c>
-      <c r="AW8" s="218" t="s">
+      <c r="AW8" s="208" t="s">
         <v>259</v>
       </c>
-      <c r="AX8" s="218"/>
-      <c r="AY8" s="218"/>
-      <c r="AZ8" s="218"/>
-      <c r="BA8" s="218"/>
+      <c r="AX8" s="208"/>
+      <c r="AY8" s="208"/>
+      <c r="AZ8" s="208"/>
+      <c r="BA8" s="208"/>
       <c r="BB8" s="123" t="s">
         <v>353</v>
       </c>
@@ -6685,27 +6623,27 @@
       <c r="BE8" s="124" t="s">
         <v>391</v>
       </c>
-      <c r="BF8" s="222" t="s">
+      <c r="BF8" s="209" t="s">
         <v>266</v>
       </c>
-      <c r="BG8" s="222"/>
-      <c r="BH8" s="223" t="s">
+      <c r="BG8" s="209"/>
+      <c r="BH8" s="197" t="s">
         <v>390</v>
       </c>
-      <c r="BI8" s="224"/>
-      <c r="BJ8" s="224"/>
-      <c r="BK8" s="224"/>
-      <c r="BL8" s="219" t="s">
+      <c r="BI8" s="210"/>
+      <c r="BJ8" s="210"/>
+      <c r="BK8" s="210"/>
+      <c r="BL8" s="194" t="s">
         <v>265</v>
       </c>
-      <c r="BM8" s="220"/>
-      <c r="BN8" s="220"/>
-      <c r="BO8" s="220"/>
-      <c r="BP8" s="220"/>
-      <c r="BQ8" s="220"/>
-      <c r="BR8" s="220"/>
-      <c r="BS8" s="220"/>
-      <c r="BT8" s="220"/>
+      <c r="BM8" s="195"/>
+      <c r="BN8" s="195"/>
+      <c r="BO8" s="195"/>
+      <c r="BP8" s="195"/>
+      <c r="BQ8" s="195"/>
+      <c r="BR8" s="195"/>
+      <c r="BS8" s="195"/>
+      <c r="BT8" s="195"/>
       <c r="BU8" s="111" t="s">
         <v>137</v>
       </c>
@@ -6721,14 +6659,14 @@
       <c r="BY8" s="111" t="s">
         <v>386</v>
       </c>
-      <c r="BZ8" s="223" t="s">
+      <c r="BZ8" s="197" t="s">
         <v>305</v>
       </c>
-      <c r="CA8" s="226"/>
-      <c r="CB8" s="230" t="s">
+      <c r="CA8" s="198"/>
+      <c r="CB8" s="202" t="s">
         <v>307</v>
       </c>
-      <c r="CC8" s="230"/>
+      <c r="CC8" s="202"/>
       <c r="CF8" s="59" t="s">
         <v>355</v>
       </c>
@@ -6768,15 +6706,15 @@
       <c r="N9" s="114" t="s">
         <v>395</v>
       </c>
-      <c r="O9" s="187" t="s">
+      <c r="O9" s="178" t="s">
         <v>417</v>
       </c>
-      <c r="P9" s="188"/>
-      <c r="Q9" s="188"/>
-      <c r="R9" s="188"/>
-      <c r="S9" s="188"/>
-      <c r="T9" s="188"/>
-      <c r="U9" s="189"/>
+      <c r="P9" s="179"/>
+      <c r="Q9" s="179"/>
+      <c r="R9" s="179"/>
+      <c r="S9" s="179"/>
+      <c r="T9" s="179"/>
+      <c r="U9" s="180"/>
       <c r="V9" s="98" t="s">
         <v>379</v>
       </c>
@@ -6789,20 +6727,20 @@
       <c r="Y9" s="98" t="s">
         <v>399</v>
       </c>
-      <c r="Z9" s="209" t="s">
+      <c r="Z9" s="169" t="s">
         <v>416</v>
       </c>
-      <c r="AA9" s="209"/>
-      <c r="AB9" s="209"/>
-      <c r="AC9" s="209"/>
-      <c r="AD9" s="209"/>
-      <c r="AE9" s="209"/>
-      <c r="AF9" s="209"/>
-      <c r="AG9" s="209"/>
-      <c r="AH9" s="209"/>
-      <c r="AI9" s="209"/>
-      <c r="AJ9" s="209"/>
-      <c r="AK9" s="209"/>
+      <c r="AA9" s="169"/>
+      <c r="AB9" s="169"/>
+      <c r="AC9" s="169"/>
+      <c r="AD9" s="169"/>
+      <c r="AE9" s="169"/>
+      <c r="AF9" s="169"/>
+      <c r="AG9" s="169"/>
+      <c r="AH9" s="169"/>
+      <c r="AI9" s="169"/>
+      <c r="AJ9" s="169"/>
+      <c r="AK9" s="169"/>
       <c r="AL9" s="11"/>
       <c r="AM9" s="98" t="s">
         <v>258</v>
@@ -6862,20 +6800,20 @@
       <c r="BH9" s="98" t="s">
         <v>422</v>
       </c>
-      <c r="BI9" s="187" t="s">
+      <c r="BI9" s="178" t="s">
         <v>407</v>
       </c>
-      <c r="BJ9" s="188"/>
+      <c r="BJ9" s="179"/>
       <c r="BK9" s="114" t="s">
         <v>403</v>
       </c>
       <c r="BL9" s="98" t="s">
         <v>422</v>
       </c>
-      <c r="BM9" s="187" t="s">
+      <c r="BM9" s="178" t="s">
         <v>407</v>
       </c>
-      <c r="BN9" s="189"/>
+      <c r="BN9" s="180"/>
       <c r="BO9" s="114" t="s">
         <v>403</v>
       </c>
@@ -6885,11 +6823,11 @@
       <c r="BQ9" s="121" t="s">
         <v>372</v>
       </c>
-      <c r="BR9" s="227" t="s">
+      <c r="BR9" s="199" t="s">
         <v>388</v>
       </c>
-      <c r="BS9" s="228"/>
-      <c r="BT9" s="229"/>
+      <c r="BS9" s="200"/>
+      <c r="BT9" s="201"/>
       <c r="BU9" s="63"/>
       <c r="BV9" s="63"/>
       <c r="BW9" s="63"/>
@@ -6940,13 +6878,13 @@
       <c r="P10" s="98" t="s">
         <v>137</v>
       </c>
-      <c r="Q10" s="187" t="s">
+      <c r="Q10" s="178" t="s">
         <v>145</v>
       </c>
-      <c r="R10" s="188"/>
-      <c r="S10" s="188"/>
-      <c r="T10" s="188"/>
-      <c r="U10" s="189"/>
+      <c r="R10" s="179"/>
+      <c r="S10" s="179"/>
+      <c r="T10" s="179"/>
+      <c r="U10" s="180"/>
       <c r="V10" s="11"/>
       <c r="W10" s="11"/>
       <c r="X10" s="11"/>
@@ -6963,18 +6901,18 @@
       <c r="AC10" s="37" t="s">
         <v>281</v>
       </c>
-      <c r="AD10" s="231" t="s">
+      <c r="AD10" s="203" t="s">
         <v>145</v>
       </c>
-      <c r="AE10" s="232"/>
-      <c r="AF10" s="232"/>
-      <c r="AG10" s="233"/>
-      <c r="AH10" s="231" t="s">
+      <c r="AE10" s="204"/>
+      <c r="AF10" s="204"/>
+      <c r="AG10" s="205"/>
+      <c r="AH10" s="203" t="s">
         <v>140</v>
       </c>
-      <c r="AI10" s="232"/>
-      <c r="AJ10" s="232"/>
-      <c r="AK10" s="233"/>
+      <c r="AI10" s="204"/>
+      <c r="AJ10" s="204"/>
+      <c r="AK10" s="205"/>
       <c r="AL10" s="11"/>
       <c r="AM10" s="11"/>
       <c r="AN10" s="11"/>
@@ -7221,10 +7159,10 @@
       <c r="BN15" s="55"/>
     </row>
     <row r="16" spans="1:92">
-      <c r="BM16" s="225" t="s">
+      <c r="BM16" s="193" t="s">
         <v>425</v>
       </c>
-      <c r="BN16" s="225"/>
+      <c r="BN16" s="193"/>
     </row>
     <row r="17" spans="4:67" ht="44" customHeight="1">
       <c r="BF17" t="s">
@@ -7317,19 +7255,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="Q10:U10"/>
-    <mergeCell ref="BM16:BN16"/>
-    <mergeCell ref="CF7:CN7"/>
-    <mergeCell ref="M8:U8"/>
-    <mergeCell ref="O9:U9"/>
-    <mergeCell ref="C7:AL7"/>
-    <mergeCell ref="BZ8:CA8"/>
-    <mergeCell ref="BR9:BT9"/>
-    <mergeCell ref="BL8:BT8"/>
-    <mergeCell ref="CB8:CC8"/>
-    <mergeCell ref="Z9:AK9"/>
-    <mergeCell ref="AH10:AK10"/>
-    <mergeCell ref="AD10:AG10"/>
     <mergeCell ref="B4:CC4"/>
     <mergeCell ref="BI9:BJ9"/>
     <mergeCell ref="AU7:BA7"/>
@@ -7344,6 +7269,19 @@
     <mergeCell ref="F8:L8"/>
     <mergeCell ref="AM7:AT7"/>
     <mergeCell ref="BM9:BN9"/>
+    <mergeCell ref="Q10:U10"/>
+    <mergeCell ref="BM16:BN16"/>
+    <mergeCell ref="CF7:CN7"/>
+    <mergeCell ref="M8:U8"/>
+    <mergeCell ref="O9:U9"/>
+    <mergeCell ref="C7:AL7"/>
+    <mergeCell ref="BZ8:CA8"/>
+    <mergeCell ref="BR9:BT9"/>
+    <mergeCell ref="BL8:BT8"/>
+    <mergeCell ref="CB8:CC8"/>
+    <mergeCell ref="Z9:AK9"/>
+    <mergeCell ref="AH10:AK10"/>
+    <mergeCell ref="AD10:AG10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7467,13 +7405,13 @@
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="B7" s="246" t="s">
+      <c r="B7" s="211" t="s">
         <v>369</v>
       </c>
-      <c r="C7" s="246"/>
-      <c r="D7" s="246"/>
-      <c r="E7" s="246"/>
-      <c r="F7" s="246"/>
+      <c r="C7" s="211"/>
+      <c r="D7" s="211"/>
+      <c r="E7" s="211"/>
+      <c r="F7" s="211"/>
       <c r="H7" s="20" t="s">
         <v>316</v>
       </c>
@@ -7516,7 +7454,7 @@
       <c r="N9" s="77"/>
     </row>
     <row r="10" spans="1:14" ht="17">
-      <c r="B10" s="234" t="s">
+      <c r="B10" s="212" t="s">
         <v>263</v>
       </c>
       <c r="C10" s="19" t="s">
@@ -7537,7 +7475,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="17">
-      <c r="B11" s="234"/>
+      <c r="B11" s="212"/>
       <c r="C11" s="19" t="s">
         <v>285</v>
       </c>
@@ -7556,7 +7494,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="17">
-      <c r="B12" s="234"/>
+      <c r="B12" s="212"/>
       <c r="C12" s="19" t="s">
         <v>288</v>
       </c>
@@ -7575,8 +7513,8 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="17">
-      <c r="B13" s="234"/>
-      <c r="C13" s="241" t="s">
+      <c r="B13" s="212"/>
+      <c r="C13" s="214" t="s">
         <v>262</v>
       </c>
       <c r="D13" s="19" t="s">
@@ -7596,8 +7534,8 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="17">
-      <c r="B14" s="234"/>
-      <c r="C14" s="241"/>
+      <c r="B14" s="212"/>
+      <c r="C14" s="214"/>
       <c r="D14" s="19" t="s">
         <v>267</v>
       </c>
@@ -7617,8 +7555,8 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="17">
-      <c r="B15" s="234"/>
-      <c r="C15" s="241"/>
+      <c r="B15" s="212"/>
+      <c r="C15" s="214"/>
       <c r="D15" s="19" t="s">
         <v>268</v>
       </c>
@@ -7638,8 +7576,8 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="17">
-      <c r="B16" s="234"/>
-      <c r="C16" s="241"/>
+      <c r="B16" s="212"/>
+      <c r="C16" s="214"/>
       <c r="D16" s="19" t="s">
         <v>261</v>
       </c>
@@ -7657,8 +7595,8 @@
       </c>
     </row>
     <row r="17" spans="2:12" ht="17">
-      <c r="B17" s="234"/>
-      <c r="C17" s="241"/>
+      <c r="B17" s="212"/>
+      <c r="C17" s="214"/>
       <c r="D17" s="19" t="s">
         <v>269</v>
       </c>
@@ -7676,8 +7614,8 @@
       </c>
     </row>
     <row r="18" spans="2:12" ht="17">
-      <c r="B18" s="234"/>
-      <c r="C18" s="241"/>
+      <c r="B18" s="212"/>
+      <c r="C18" s="214"/>
       <c r="D18" s="19" t="s">
         <v>284</v>
       </c>
@@ -7695,8 +7633,8 @@
       </c>
     </row>
     <row r="19" spans="2:12" ht="17">
-      <c r="B19" s="234"/>
-      <c r="C19" s="241"/>
+      <c r="B19" s="212"/>
+      <c r="C19" s="214"/>
       <c r="D19" s="19" t="s">
         <v>283</v>
       </c>
@@ -7714,8 +7652,8 @@
       </c>
     </row>
     <row r="20" spans="2:12" ht="17">
-      <c r="B20" s="234"/>
-      <c r="C20" s="239" t="s">
+      <c r="B20" s="212"/>
+      <c r="C20" s="219" t="s">
         <v>356</v>
       </c>
       <c r="D20" s="102" t="s">
@@ -7737,8 +7675,8 @@
       </c>
     </row>
     <row r="21" spans="2:12" ht="17">
-      <c r="B21" s="234"/>
-      <c r="C21" s="240"/>
+      <c r="B21" s="212"/>
+      <c r="C21" s="220"/>
       <c r="D21" s="102" t="s">
         <v>396</v>
       </c>
@@ -7756,9 +7694,9 @@
       </c>
     </row>
     <row r="22" spans="2:12" ht="17">
-      <c r="B22" s="234"/>
-      <c r="C22" s="240"/>
-      <c r="D22" s="236" t="s">
+      <c r="B22" s="212"/>
+      <c r="C22" s="220"/>
+      <c r="D22" s="216" t="s">
         <v>370</v>
       </c>
       <c r="E22" s="103" t="s">
@@ -7771,7 +7709,7 @@
       <c r="I22" s="82" t="b">
         <v>1</v>
       </c>
-      <c r="J22" s="246" t="s">
+      <c r="J22" s="211" t="s">
         <v>82</v>
       </c>
       <c r="L22" s="19" t="s">
@@ -7779,9 +7717,9 @@
       </c>
     </row>
     <row r="23" spans="2:12" ht="17">
-      <c r="B23" s="234"/>
-      <c r="C23" s="240"/>
-      <c r="D23" s="237"/>
+      <c r="B23" s="212"/>
+      <c r="C23" s="220"/>
+      <c r="D23" s="217"/>
       <c r="E23" s="103" t="s">
         <v>137</v>
       </c>
@@ -7792,16 +7730,16 @@
       <c r="I23" s="37" t="s">
         <v>243</v>
       </c>
-      <c r="J23" s="246"/>
+      <c r="J23" s="211"/>
       <c r="L23" s="19" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="24" spans="2:12" ht="17">
-      <c r="B24" s="234"/>
-      <c r="C24" s="240"/>
-      <c r="D24" s="237"/>
-      <c r="E24" s="235" t="s">
+      <c r="B24" s="212"/>
+      <c r="C24" s="220"/>
+      <c r="D24" s="217"/>
+      <c r="E24" s="215" t="s">
         <v>145</v>
       </c>
       <c r="F24" s="19" t="s">
@@ -7811,16 +7749,16 @@
         <v>141</v>
       </c>
       <c r="I24" s="11"/>
-      <c r="J24" s="246"/>
+      <c r="J24" s="211"/>
       <c r="L24" s="19" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="25" spans="2:12" ht="17">
-      <c r="B25" s="234"/>
-      <c r="C25" s="240"/>
-      <c r="D25" s="237"/>
-      <c r="E25" s="235"/>
+      <c r="B25" s="212"/>
+      <c r="C25" s="220"/>
+      <c r="D25" s="217"/>
+      <c r="E25" s="215"/>
       <c r="F25" s="19" t="s">
         <v>146</v>
       </c>
@@ -7828,16 +7766,16 @@
         <v>97</v>
       </c>
       <c r="I25" s="11"/>
-      <c r="J25" s="246"/>
+      <c r="J25" s="211"/>
       <c r="L25" s="19" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="26" spans="2:12" ht="17">
-      <c r="B26" s="234"/>
-      <c r="C26" s="240"/>
-      <c r="D26" s="238"/>
-      <c r="E26" s="235"/>
+      <c r="B26" s="212"/>
+      <c r="C26" s="220"/>
+      <c r="D26" s="218"/>
+      <c r="E26" s="215"/>
       <c r="F26" s="19" t="s">
         <v>328</v>
       </c>
@@ -7845,14 +7783,14 @@
         <v>329</v>
       </c>
       <c r="I26" s="11"/>
-      <c r="J26" s="246"/>
+      <c r="J26" s="211"/>
       <c r="L26" s="19" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="27" spans="2:12" ht="17">
-      <c r="B27" s="234"/>
-      <c r="C27" s="242" t="s">
+      <c r="B27" s="212"/>
+      <c r="C27" s="221" t="s">
         <v>1</v>
       </c>
       <c r="D27" s="19" t="s">
@@ -7872,8 +7810,8 @@
       </c>
     </row>
     <row r="28" spans="2:12" ht="17">
-      <c r="B28" s="234"/>
-      <c r="C28" s="243"/>
+      <c r="B28" s="212"/>
+      <c r="C28" s="222"/>
       <c r="D28" s="19" t="s">
         <v>279</v>
       </c>
@@ -7891,8 +7829,8 @@
       </c>
     </row>
     <row r="29" spans="2:12" ht="17">
-      <c r="B29" s="234"/>
-      <c r="C29" s="243"/>
+      <c r="B29" s="212"/>
+      <c r="C29" s="222"/>
       <c r="D29" s="19" t="s">
         <v>280</v>
       </c>
@@ -7910,9 +7848,9 @@
       </c>
     </row>
     <row r="30" spans="2:12" ht="17" customHeight="1">
-      <c r="B30" s="234"/>
-      <c r="C30" s="243"/>
-      <c r="D30" s="245" t="s">
+      <c r="B30" s="212"/>
+      <c r="C30" s="222"/>
+      <c r="D30" s="213" t="s">
         <v>389</v>
       </c>
       <c r="E30" s="19" t="s">
@@ -7925,7 +7863,7 @@
       <c r="I30" s="82" t="b">
         <v>1</v>
       </c>
-      <c r="J30" s="246" t="s">
+      <c r="J30" s="211" t="s">
         <v>60</v>
       </c>
       <c r="L30" s="19" t="s">
@@ -7933,9 +7871,9 @@
       </c>
     </row>
     <row r="31" spans="2:12" ht="17" customHeight="1">
-      <c r="B31" s="234"/>
-      <c r="C31" s="243"/>
-      <c r="D31" s="245"/>
+      <c r="B31" s="212"/>
+      <c r="C31" s="222"/>
+      <c r="D31" s="213"/>
       <c r="E31" s="19" t="s">
         <v>137</v>
       </c>
@@ -7946,15 +7884,15 @@
       <c r="I31" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="J31" s="246"/>
+      <c r="J31" s="211"/>
       <c r="L31" s="19" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="32" spans="2:12" ht="17" customHeight="1">
-      <c r="B32" s="234"/>
-      <c r="C32" s="243"/>
-      <c r="D32" s="245"/>
+      <c r="B32" s="212"/>
+      <c r="C32" s="222"/>
+      <c r="D32" s="213"/>
       <c r="E32" s="19" t="s">
         <v>282</v>
       </c>
@@ -7965,15 +7903,15 @@
       <c r="I32" s="82" t="b">
         <v>0</v>
       </c>
-      <c r="J32" s="246"/>
+      <c r="J32" s="211"/>
       <c r="L32" s="19" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="33" spans="2:12" ht="17" customHeight="1">
-      <c r="B33" s="234"/>
-      <c r="C33" s="243"/>
-      <c r="D33" s="245"/>
+      <c r="B33" s="212"/>
+      <c r="C33" s="222"/>
+      <c r="D33" s="213"/>
       <c r="E33" s="19" t="s">
         <v>281</v>
       </c>
@@ -7984,16 +7922,16 @@
       <c r="I33" s="82" t="b">
         <v>0</v>
       </c>
-      <c r="J33" s="246"/>
+      <c r="J33" s="211"/>
       <c r="L33" s="19" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="34" spans="2:12" ht="17" customHeight="1">
-      <c r="B34" s="234"/>
-      <c r="C34" s="243"/>
-      <c r="D34" s="245"/>
-      <c r="E34" s="245" t="s">
+      <c r="B34" s="212"/>
+      <c r="C34" s="222"/>
+      <c r="D34" s="213"/>
+      <c r="E34" s="213" t="s">
         <v>145</v>
       </c>
       <c r="F34" s="19" t="s">
@@ -8003,16 +7941,16 @@
         <v>141</v>
       </c>
       <c r="I34" s="11"/>
-      <c r="J34" s="246"/>
+      <c r="J34" s="211"/>
       <c r="L34" s="19" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="35" spans="2:12" ht="17" customHeight="1">
-      <c r="B35" s="234"/>
-      <c r="C35" s="243"/>
-      <c r="D35" s="245"/>
-      <c r="E35" s="245"/>
+      <c r="B35" s="212"/>
+      <c r="C35" s="222"/>
+      <c r="D35" s="213"/>
+      <c r="E35" s="213"/>
       <c r="F35" s="19" t="s">
         <v>146</v>
       </c>
@@ -8020,16 +7958,16 @@
         <v>97</v>
       </c>
       <c r="I35" s="11"/>
-      <c r="J35" s="246"/>
+      <c r="J35" s="211"/>
       <c r="L35" s="19" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="36" spans="2:12" ht="17" customHeight="1">
-      <c r="B36" s="234"/>
-      <c r="C36" s="243"/>
-      <c r="D36" s="245"/>
-      <c r="E36" s="245"/>
+      <c r="B36" s="212"/>
+      <c r="C36" s="222"/>
+      <c r="D36" s="213"/>
+      <c r="E36" s="213"/>
       <c r="F36" s="19" t="s">
         <v>328</v>
       </c>
@@ -8037,16 +7975,16 @@
         <v>329</v>
       </c>
       <c r="I36" s="11"/>
-      <c r="J36" s="246"/>
+      <c r="J36" s="211"/>
       <c r="L36" s="19" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="37" spans="2:12" ht="17" customHeight="1">
-      <c r="B37" s="234"/>
-      <c r="C37" s="243"/>
-      <c r="D37" s="245"/>
-      <c r="E37" s="245" t="s">
+      <c r="B37" s="212"/>
+      <c r="C37" s="222"/>
+      <c r="D37" s="213"/>
+      <c r="E37" s="213" t="s">
         <v>140</v>
       </c>
       <c r="F37" s="19" t="s">
@@ -8058,16 +7996,16 @@
       <c r="I37" s="82" t="s">
         <v>158</v>
       </c>
-      <c r="J37" s="246"/>
+      <c r="J37" s="211"/>
       <c r="L37" s="19" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="38" spans="2:12" ht="17" customHeight="1">
-      <c r="B38" s="234"/>
-      <c r="C38" s="243"/>
-      <c r="D38" s="245"/>
-      <c r="E38" s="245"/>
+      <c r="B38" s="212"/>
+      <c r="C38" s="222"/>
+      <c r="D38" s="213"/>
+      <c r="E38" s="213"/>
       <c r="F38" s="19" t="s">
         <v>142</v>
       </c>
@@ -8077,16 +8015,16 @@
       <c r="I38" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="J38" s="246"/>
+      <c r="J38" s="211"/>
       <c r="L38" s="19" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="39" spans="2:12" ht="17" customHeight="1">
-      <c r="B39" s="234"/>
-      <c r="C39" s="243"/>
-      <c r="D39" s="245"/>
-      <c r="E39" s="245"/>
+      <c r="B39" s="212"/>
+      <c r="C39" s="222"/>
+      <c r="D39" s="213"/>
+      <c r="E39" s="213"/>
       <c r="F39" s="19" t="s">
         <v>143</v>
       </c>
@@ -8096,16 +8034,16 @@
       <c r="I39" s="91">
         <v>0.5</v>
       </c>
-      <c r="J39" s="246"/>
+      <c r="J39" s="211"/>
       <c r="L39" s="19" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="40" spans="2:12" ht="17" customHeight="1">
-      <c r="B40" s="234"/>
-      <c r="C40" s="244"/>
-      <c r="D40" s="245"/>
-      <c r="E40" s="245"/>
+      <c r="B40" s="212"/>
+      <c r="C40" s="223"/>
+      <c r="D40" s="213"/>
+      <c r="E40" s="213"/>
       <c r="F40" s="19" t="s">
         <v>144</v>
       </c>
@@ -8115,13 +8053,13 @@
       <c r="I40" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="J40" s="246"/>
+      <c r="J40" s="211"/>
       <c r="L40" s="19" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="41" spans="2:12" ht="34">
-      <c r="B41" s="234"/>
+      <c r="B41" s="212"/>
       <c r="C41" s="12" t="s">
         <v>28</v>
       </c>
@@ -8140,10 +8078,10 @@
       </c>
     </row>
     <row r="42" spans="2:12" ht="17">
-      <c r="B42" s="234" t="s">
+      <c r="B42" s="212" t="s">
         <v>258</v>
       </c>
-      <c r="C42" s="241" t="s">
+      <c r="C42" s="214" t="s">
         <v>275</v>
       </c>
       <c r="D42" s="19" t="s">
@@ -8161,8 +8099,8 @@
       </c>
     </row>
     <row r="43" spans="2:12" ht="17">
-      <c r="B43" s="234"/>
-      <c r="C43" s="241"/>
+      <c r="B43" s="212"/>
+      <c r="C43" s="214"/>
       <c r="D43" s="89" t="s">
         <v>274</v>
       </c>
@@ -8181,8 +8119,8 @@
       </c>
     </row>
     <row r="44" spans="2:12" ht="17">
-      <c r="B44" s="234"/>
-      <c r="C44" s="241"/>
+      <c r="B44" s="212"/>
+      <c r="C44" s="214"/>
       <c r="D44" s="19" t="s">
         <v>277</v>
       </c>
@@ -8198,8 +8136,8 @@
       </c>
     </row>
     <row r="45" spans="2:12" ht="17">
-      <c r="B45" s="234"/>
-      <c r="C45" s="241"/>
+      <c r="B45" s="212"/>
+      <c r="C45" s="214"/>
       <c r="D45" s="19" t="s">
         <v>261</v>
       </c>
@@ -8215,8 +8153,8 @@
       </c>
     </row>
     <row r="46" spans="2:12" ht="17">
-      <c r="B46" s="234"/>
-      <c r="C46" s="241"/>
+      <c r="B46" s="212"/>
+      <c r="C46" s="214"/>
       <c r="D46" s="19" t="s">
         <v>273</v>
       </c>
@@ -8232,8 +8170,8 @@
       </c>
     </row>
     <row r="47" spans="2:12" ht="17">
-      <c r="B47" s="234"/>
-      <c r="C47" s="241" t="s">
+      <c r="B47" s="212"/>
+      <c r="C47" s="214" t="s">
         <v>276</v>
       </c>
       <c r="D47" s="19" t="s">
@@ -8251,8 +8189,8 @@
       </c>
     </row>
     <row r="48" spans="2:12" ht="17">
-      <c r="B48" s="234"/>
-      <c r="C48" s="241"/>
+      <c r="B48" s="212"/>
+      <c r="C48" s="214"/>
       <c r="D48" s="19" t="s">
         <v>44</v>
       </c>
@@ -8268,8 +8206,8 @@
       </c>
     </row>
     <row r="49" spans="2:12" ht="17">
-      <c r="B49" s="234"/>
-      <c r="C49" s="241"/>
+      <c r="B49" s="212"/>
+      <c r="C49" s="214"/>
       <c r="D49" s="19" t="s">
         <v>273</v>
       </c>
@@ -8285,7 +8223,7 @@
       </c>
     </row>
     <row r="50" spans="2:12" ht="17">
-      <c r="B50" s="234" t="s">
+      <c r="B50" s="212" t="s">
         <v>310</v>
       </c>
       <c r="C50" s="90" t="s">
@@ -8306,7 +8244,7 @@
       </c>
     </row>
     <row r="51" spans="2:12" ht="17">
-      <c r="B51" s="234"/>
+      <c r="B51" s="212"/>
       <c r="C51" s="90" t="s">
         <v>291</v>
       </c>
@@ -8325,8 +8263,8 @@
       </c>
     </row>
     <row r="52" spans="2:12" ht="17">
-      <c r="B52" s="234"/>
-      <c r="C52" s="241" t="s">
+      <c r="B52" s="212"/>
+      <c r="C52" s="214" t="s">
         <v>259</v>
       </c>
       <c r="D52" s="19" t="s">
@@ -8346,8 +8284,8 @@
       </c>
     </row>
     <row r="53" spans="2:12" ht="17">
-      <c r="B53" s="234"/>
-      <c r="C53" s="241"/>
+      <c r="B53" s="212"/>
+      <c r="C53" s="214"/>
       <c r="D53" s="19" t="s">
         <v>268</v>
       </c>
@@ -8365,8 +8303,8 @@
       </c>
     </row>
     <row r="54" spans="2:12" ht="17">
-      <c r="B54" s="234"/>
-      <c r="C54" s="241"/>
+      <c r="B54" s="212"/>
+      <c r="C54" s="214"/>
       <c r="D54" s="19" t="s">
         <v>314</v>
       </c>
@@ -8387,8 +8325,8 @@
       </c>
     </row>
     <row r="55" spans="2:12" ht="17">
-      <c r="B55" s="234"/>
-      <c r="C55" s="241"/>
+      <c r="B55" s="212"/>
+      <c r="C55" s="214"/>
       <c r="D55" s="19" t="s">
         <v>313</v>
       </c>
@@ -8406,8 +8344,8 @@
       </c>
     </row>
     <row r="56" spans="2:12" ht="34">
-      <c r="B56" s="234"/>
-      <c r="C56" s="241"/>
+      <c r="B56" s="212"/>
+      <c r="C56" s="214"/>
       <c r="D56" s="19" t="s">
         <v>312</v>
       </c>
@@ -8428,7 +8366,7 @@
       </c>
     </row>
     <row r="57" spans="2:12" ht="17">
-      <c r="B57" s="234" t="s">
+      <c r="B57" s="212" t="s">
         <v>257</v>
       </c>
       <c r="C57" s="12" t="s">
@@ -8454,7 +8392,7 @@
       </c>
     </row>
     <row r="58" spans="2:12" ht="17">
-      <c r="B58" s="234"/>
+      <c r="B58" s="212"/>
       <c r="C58" s="12" t="s">
         <v>351</v>
       </c>
@@ -8478,7 +8416,7 @@
       </c>
     </row>
     <row r="59" spans="2:12" ht="17">
-      <c r="B59" s="234"/>
+      <c r="B59" s="212"/>
       <c r="C59" s="19" t="s">
         <v>297</v>
       </c>
@@ -8495,7 +8433,7 @@
       </c>
     </row>
     <row r="60" spans="2:12" ht="17">
-      <c r="B60" s="234"/>
+      <c r="B60" s="212"/>
       <c r="C60" s="19" t="s">
         <v>392</v>
       </c>
@@ -8514,8 +8452,8 @@
       </c>
     </row>
     <row r="61" spans="2:12" ht="17">
-      <c r="B61" s="234"/>
-      <c r="C61" s="241" t="s">
+      <c r="B61" s="212"/>
+      <c r="C61" s="214" t="s">
         <v>266</v>
       </c>
       <c r="D61" s="19" t="s">
@@ -8537,8 +8475,8 @@
       </c>
     </row>
     <row r="62" spans="2:12" ht="17">
-      <c r="B62" s="234"/>
-      <c r="C62" s="241"/>
+      <c r="B62" s="212"/>
+      <c r="C62" s="214"/>
       <c r="D62" s="19" t="s">
         <v>295</v>
       </c>
@@ -8558,8 +8496,8 @@
       </c>
     </row>
     <row r="63" spans="2:12" ht="17">
-      <c r="B63" s="234"/>
-      <c r="C63" s="245" t="s">
+      <c r="B63" s="212"/>
+      <c r="C63" s="213" t="s">
         <v>311</v>
       </c>
       <c r="D63" s="103" t="s">
@@ -8579,8 +8517,8 @@
       </c>
     </row>
     <row r="64" spans="2:12" ht="17">
-      <c r="B64" s="234"/>
-      <c r="C64" s="245"/>
+      <c r="B64" s="212"/>
+      <c r="C64" s="213"/>
       <c r="D64" s="103" t="s">
         <v>302</v>
       </c>
@@ -8598,8 +8536,8 @@
       </c>
     </row>
     <row r="65" spans="2:12" ht="17">
-      <c r="B65" s="234"/>
-      <c r="C65" s="245"/>
+      <c r="B65" s="212"/>
+      <c r="C65" s="213"/>
       <c r="D65" s="103" t="s">
         <v>300</v>
       </c>
@@ -8617,8 +8555,8 @@
       </c>
     </row>
     <row r="66" spans="2:12" ht="17">
-      <c r="B66" s="234"/>
-      <c r="C66" s="245"/>
+      <c r="B66" s="212"/>
+      <c r="C66" s="213"/>
       <c r="D66" s="103" t="s">
         <v>294</v>
       </c>
@@ -8638,8 +8576,8 @@
       </c>
     </row>
     <row r="67" spans="2:12" ht="17">
-      <c r="B67" s="234"/>
-      <c r="C67" s="241" t="s">
+      <c r="B67" s="212"/>
+      <c r="C67" s="214" t="s">
         <v>265</v>
       </c>
       <c r="D67" s="103" t="s">
@@ -8659,8 +8597,8 @@
       </c>
     </row>
     <row r="68" spans="2:12" ht="17">
-      <c r="B68" s="234"/>
-      <c r="C68" s="241"/>
+      <c r="B68" s="212"/>
+      <c r="C68" s="214"/>
       <c r="D68" s="103" t="s">
         <v>299</v>
       </c>
@@ -8678,8 +8616,8 @@
       </c>
     </row>
     <row r="69" spans="2:12" ht="17">
-      <c r="B69" s="234"/>
-      <c r="C69" s="241"/>
+      <c r="B69" s="212"/>
+      <c r="C69" s="214"/>
       <c r="D69" s="103" t="s">
         <v>300</v>
       </c>
@@ -8697,8 +8635,8 @@
       </c>
     </row>
     <row r="70" spans="2:12" ht="17">
-      <c r="B70" s="234"/>
-      <c r="C70" s="241"/>
+      <c r="B70" s="212"/>
+      <c r="C70" s="214"/>
       <c r="D70" s="103" t="s">
         <v>295</v>
       </c>
@@ -8718,8 +8656,8 @@
       </c>
     </row>
     <row r="71" spans="2:12" ht="17">
-      <c r="B71" s="234"/>
-      <c r="C71" s="241"/>
+      <c r="B71" s="212"/>
+      <c r="C71" s="214"/>
       <c r="D71" s="103" t="s">
         <v>367</v>
       </c>
@@ -8738,8 +8676,8 @@
       </c>
     </row>
     <row r="72" spans="2:12" ht="17">
-      <c r="B72" s="234"/>
-      <c r="C72" s="241"/>
+      <c r="B72" s="212"/>
+      <c r="C72" s="214"/>
       <c r="D72" s="103" t="s">
         <v>368</v>
       </c>
@@ -8756,8 +8694,8 @@
       </c>
     </row>
     <row r="73" spans="2:12" ht="17">
-      <c r="B73" s="234"/>
-      <c r="C73" s="241"/>
+      <c r="B73" s="212"/>
+      <c r="C73" s="214"/>
       <c r="D73" s="19" t="s">
         <v>301</v>
       </c>
@@ -8775,8 +8713,8 @@
       </c>
     </row>
     <row r="74" spans="2:12" ht="17">
-      <c r="B74" s="234"/>
-      <c r="C74" s="241"/>
+      <c r="B74" s="212"/>
+      <c r="C74" s="214"/>
       <c r="D74" s="19" t="s">
         <v>268</v>
       </c>
@@ -8794,8 +8732,8 @@
       </c>
     </row>
     <row r="75" spans="2:12" ht="17">
-      <c r="B75" s="234"/>
-      <c r="C75" s="241"/>
+      <c r="B75" s="212"/>
+      <c r="C75" s="214"/>
       <c r="D75" s="19" t="s">
         <v>261</v>
       </c>
@@ -8813,7 +8751,7 @@
       </c>
     </row>
     <row r="76" spans="2:12" ht="17">
-      <c r="B76" s="234" t="s">
+      <c r="B76" s="212" t="s">
         <v>260</v>
       </c>
       <c r="C76" s="19" t="s">
@@ -8834,7 +8772,7 @@
       </c>
     </row>
     <row r="77" spans="2:12" ht="21">
-      <c r="B77" s="234"/>
+      <c r="B77" s="212"/>
       <c r="C77" s="19" t="s">
         <v>305</v>
       </c>
@@ -8854,7 +8792,7 @@
       </c>
     </row>
     <row r="78" spans="2:12" ht="17">
-      <c r="B78" s="234"/>
+      <c r="B78" s="212"/>
       <c r="C78" s="19" t="s">
         <v>306</v>
       </c>
@@ -8873,7 +8811,7 @@
       </c>
     </row>
     <row r="79" spans="2:12" ht="17">
-      <c r="B79" s="234"/>
+      <c r="B79" s="212"/>
       <c r="C79" s="19" t="s">
         <v>137</v>
       </c>
@@ -8892,7 +8830,7 @@
       </c>
     </row>
     <row r="80" spans="2:12" ht="17">
-      <c r="B80" s="234"/>
+      <c r="B80" s="212"/>
       <c r="C80" s="19" t="s">
         <v>283</v>
       </c>
@@ -8911,8 +8849,8 @@
       </c>
     </row>
     <row r="81" spans="2:12" ht="17">
-      <c r="B81" s="234"/>
-      <c r="C81" s="245" t="s">
+      <c r="B81" s="212"/>
+      <c r="C81" s="213" t="s">
         <v>307</v>
       </c>
       <c r="D81" s="19" t="s">
@@ -8932,8 +8870,8 @@
       </c>
     </row>
     <row r="82" spans="2:12" ht="17">
-      <c r="B82" s="234"/>
-      <c r="C82" s="245"/>
+      <c r="B82" s="212"/>
+      <c r="C82" s="213"/>
       <c r="D82" s="19" t="s">
         <v>305</v>
       </c>
@@ -8951,8 +8889,8 @@
       </c>
     </row>
     <row r="83" spans="2:12" ht="17">
-      <c r="B83" s="234"/>
-      <c r="C83" s="245"/>
+      <c r="B83" s="212"/>
+      <c r="C83" s="213"/>
       <c r="D83" s="19" t="s">
         <v>309</v>
       </c>
@@ -8970,7 +8908,7 @@
       </c>
     </row>
     <row r="84" spans="2:12" ht="17">
-      <c r="B84" s="234"/>
+      <c r="B84" s="212"/>
       <c r="C84" s="19" t="s">
         <v>28</v>
       </c>
@@ -8998,6 +8936,13 @@
   </sheetData>
   <autoFilter ref="A8:Q85" xr:uid="{A1BDED05-2692-1A4C-AE88-144C5CD07E39}"/>
   <mergeCells count="23">
+    <mergeCell ref="B42:B49"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="C20:C26"/>
+    <mergeCell ref="C13:C19"/>
+    <mergeCell ref="C27:C40"/>
+    <mergeCell ref="D30:D40"/>
     <mergeCell ref="J22:J26"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B10:B41"/>
@@ -9014,13 +8959,6 @@
     <mergeCell ref="E37:E40"/>
     <mergeCell ref="C42:C46"/>
     <mergeCell ref="C47:C49"/>
-    <mergeCell ref="B42:B49"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="C20:C26"/>
-    <mergeCell ref="C13:C19"/>
-    <mergeCell ref="C27:C40"/>
-    <mergeCell ref="D30:D40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9111,12 +9049,12 @@
       <c r="D5" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E5" s="262" t="s">
+      <c r="E5" s="225" t="s">
         <v>116</v>
       </c>
-      <c r="F5" s="263"/>
-      <c r="G5" s="263"/>
-      <c r="H5" s="264"/>
+      <c r="F5" s="226"/>
+      <c r="G5" s="226"/>
+      <c r="H5" s="227"/>
       <c r="I5" s="10" t="s">
         <v>89</v>
       </c>
@@ -9391,16 +9329,16 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="17">
-      <c r="B16" s="246">
+      <c r="B16" s="211">
         <v>3</v>
       </c>
-      <c r="C16" s="257" t="s">
+      <c r="C16" s="229" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="257" t="s">
+      <c r="D16" s="229" t="s">
         <v>185</v>
       </c>
-      <c r="E16" s="246" t="s">
+      <c r="E16" s="211" t="s">
         <v>186</v>
       </c>
       <c r="F16" s="40" t="s">
@@ -9424,10 +9362,10 @@
       </c>
     </row>
     <row r="17" spans="2:16" ht="34">
-      <c r="B17" s="246"/>
-      <c r="C17" s="257"/>
-      <c r="D17" s="257"/>
-      <c r="E17" s="246"/>
+      <c r="B17" s="211"/>
+      <c r="C17" s="229"/>
+      <c r="D17" s="229"/>
+      <c r="E17" s="211"/>
       <c r="F17" s="40" t="s">
         <v>193</v>
       </c>
@@ -9451,10 +9389,10 @@
       </c>
     </row>
     <row r="18" spans="2:16" ht="51">
-      <c r="B18" s="246"/>
-      <c r="C18" s="257"/>
-      <c r="D18" s="257"/>
-      <c r="E18" s="246"/>
+      <c r="B18" s="211"/>
+      <c r="C18" s="229"/>
+      <c r="D18" s="229"/>
+      <c r="E18" s="211"/>
       <c r="F18" s="40" t="s">
         <v>190</v>
       </c>
@@ -9478,79 +9416,79 @@
       </c>
     </row>
     <row r="19" spans="2:16" ht="68">
-      <c r="B19" s="246"/>
-      <c r="C19" s="257"/>
-      <c r="D19" s="257"/>
-      <c r="E19" s="246"/>
-      <c r="F19" s="258" t="s">
+      <c r="B19" s="211"/>
+      <c r="C19" s="229"/>
+      <c r="D19" s="229"/>
+      <c r="E19" s="211"/>
+      <c r="F19" s="230" t="s">
         <v>191</v>
       </c>
-      <c r="G19" s="258" t="s">
+      <c r="G19" s="230" t="s">
         <v>199</v>
       </c>
       <c r="H19" s="11"/>
-      <c r="I19" s="246" t="s">
+      <c r="I19" s="211" t="s">
         <v>92</v>
       </c>
-      <c r="J19" s="267" t="s">
+      <c r="J19" s="234" t="s">
         <v>127</v>
       </c>
-      <c r="K19" s="267" t="s">
+      <c r="K19" s="234" t="s">
         <v>201</v>
       </c>
       <c r="L19" s="45" t="s">
         <v>213</v>
       </c>
-      <c r="M19" s="258" t="s">
+      <c r="M19" s="230" t="s">
         <v>223</v>
       </c>
-      <c r="O19" s="266" t="s">
+      <c r="O19" s="233" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="20" spans="2:16" ht="17">
-      <c r="B20" s="246"/>
-      <c r="C20" s="257"/>
-      <c r="D20" s="257"/>
-      <c r="E20" s="246"/>
-      <c r="F20" s="259"/>
-      <c r="G20" s="259"/>
+      <c r="B20" s="211"/>
+      <c r="C20" s="229"/>
+      <c r="D20" s="229"/>
+      <c r="E20" s="211"/>
+      <c r="F20" s="231"/>
+      <c r="G20" s="231"/>
       <c r="H20" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="I20" s="246"/>
-      <c r="J20" s="267"/>
-      <c r="K20" s="267"/>
+      <c r="I20" s="211"/>
+      <c r="J20" s="234"/>
+      <c r="K20" s="234"/>
       <c r="L20" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="M20" s="259"/>
-      <c r="O20" s="266"/>
+      <c r="M20" s="231"/>
+      <c r="O20" s="233"/>
     </row>
     <row r="21" spans="2:16" ht="17">
-      <c r="B21" s="246"/>
-      <c r="C21" s="257"/>
-      <c r="D21" s="257"/>
-      <c r="E21" s="246"/>
-      <c r="F21" s="260"/>
-      <c r="G21" s="260"/>
+      <c r="B21" s="211"/>
+      <c r="C21" s="229"/>
+      <c r="D21" s="229"/>
+      <c r="E21" s="211"/>
+      <c r="F21" s="232"/>
+      <c r="G21" s="232"/>
       <c r="H21" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="I21" s="246"/>
-      <c r="J21" s="267"/>
-      <c r="K21" s="267"/>
+      <c r="I21" s="211"/>
+      <c r="J21" s="234"/>
+      <c r="K21" s="234"/>
       <c r="L21" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="M21" s="260"/>
-      <c r="O21" s="266"/>
+      <c r="M21" s="232"/>
+      <c r="O21" s="233"/>
     </row>
     <row r="22" spans="2:16" ht="17">
-      <c r="B22" s="246"/>
-      <c r="C22" s="257"/>
-      <c r="D22" s="257"/>
-      <c r="E22" s="246"/>
+      <c r="B22" s="211"/>
+      <c r="C22" s="229"/>
+      <c r="D22" s="229"/>
+      <c r="E22" s="211"/>
       <c r="F22" s="12" t="s">
         <v>194</v>
       </c>
@@ -9572,10 +9510,10 @@
       </c>
     </row>
     <row r="23" spans="2:16" ht="17">
-      <c r="B23" s="246"/>
-      <c r="C23" s="257"/>
-      <c r="D23" s="257"/>
-      <c r="E23" s="246"/>
+      <c r="B23" s="211"/>
+      <c r="C23" s="229"/>
+      <c r="D23" s="229"/>
+      <c r="E23" s="211"/>
       <c r="F23" s="12" t="s">
         <v>195</v>
       </c>
@@ -9597,10 +9535,10 @@
       </c>
     </row>
     <row r="24" spans="2:16" ht="17">
-      <c r="B24" s="246"/>
-      <c r="C24" s="257"/>
-      <c r="D24" s="257"/>
-      <c r="E24" s="246"/>
+      <c r="B24" s="211"/>
+      <c r="C24" s="229"/>
+      <c r="D24" s="229"/>
+      <c r="E24" s="211"/>
       <c r="F24" s="12" t="s">
         <v>196</v>
       </c>
@@ -9622,10 +9560,10 @@
       </c>
     </row>
     <row r="25" spans="2:16" ht="17">
-      <c r="B25" s="246"/>
-      <c r="C25" s="257"/>
-      <c r="D25" s="257"/>
-      <c r="E25" s="265" t="s">
+      <c r="B25" s="211"/>
+      <c r="C25" s="229"/>
+      <c r="D25" s="229"/>
+      <c r="E25" s="228" t="s">
         <v>187</v>
       </c>
       <c r="F25" s="40" t="s">
@@ -9649,10 +9587,10 @@
       </c>
     </row>
     <row r="26" spans="2:16" ht="34">
-      <c r="B26" s="246"/>
-      <c r="C26" s="257"/>
-      <c r="D26" s="257"/>
-      <c r="E26" s="265"/>
+      <c r="B26" s="211"/>
+      <c r="C26" s="229"/>
+      <c r="D26" s="229"/>
+      <c r="E26" s="228"/>
       <c r="F26" s="46" t="s">
         <v>189</v>
       </c>
@@ -9674,10 +9612,10 @@
       </c>
     </row>
     <row r="27" spans="2:16" ht="51">
-      <c r="B27" s="246"/>
-      <c r="C27" s="257"/>
-      <c r="D27" s="257"/>
-      <c r="E27" s="265"/>
+      <c r="B27" s="211"/>
+      <c r="C27" s="229"/>
+      <c r="D27" s="229"/>
+      <c r="E27" s="228"/>
       <c r="F27" s="40" t="s">
         <v>190</v>
       </c>
@@ -9701,73 +9639,73 @@
       </c>
     </row>
     <row r="28" spans="2:16" ht="68">
-      <c r="B28" s="246"/>
-      <c r="C28" s="257"/>
-      <c r="D28" s="257"/>
-      <c r="E28" s="265"/>
-      <c r="F28" s="258" t="s">
+      <c r="B28" s="211"/>
+      <c r="C28" s="229"/>
+      <c r="D28" s="229"/>
+      <c r="E28" s="228"/>
+      <c r="F28" s="230" t="s">
         <v>192</v>
       </c>
-      <c r="G28" s="258" t="s">
+      <c r="G28" s="230" t="s">
         <v>199</v>
       </c>
       <c r="H28" s="11"/>
-      <c r="I28" s="250" t="s">
+      <c r="I28" s="241" t="s">
         <v>92</v>
       </c>
-      <c r="J28" s="254" t="s">
+      <c r="J28" s="235" t="s">
         <v>127</v>
       </c>
-      <c r="K28" s="254" t="s">
+      <c r="K28" s="235" t="s">
         <v>209</v>
       </c>
       <c r="L28" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="M28" s="268" t="s">
+      <c r="M28" s="238" t="s">
         <v>224</v>
       </c>
-      <c r="O28" s="266" t="s">
+      <c r="O28" s="233" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="29" spans="2:16" ht="17">
-      <c r="B29" s="246"/>
-      <c r="C29" s="257"/>
-      <c r="D29" s="257"/>
-      <c r="E29" s="265"/>
-      <c r="F29" s="259"/>
-      <c r="G29" s="259"/>
+      <c r="B29" s="211"/>
+      <c r="C29" s="229"/>
+      <c r="D29" s="229"/>
+      <c r="E29" s="228"/>
+      <c r="F29" s="231"/>
+      <c r="G29" s="231"/>
       <c r="H29" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="I29" s="251"/>
-      <c r="J29" s="255"/>
-      <c r="K29" s="255"/>
+      <c r="I29" s="242"/>
+      <c r="J29" s="236"/>
+      <c r="K29" s="236"/>
       <c r="L29" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="M29" s="269"/>
-      <c r="O29" s="266"/>
+      <c r="M29" s="239"/>
+      <c r="O29" s="233"/>
     </row>
     <row r="30" spans="2:16" ht="17">
-      <c r="B30" s="246"/>
-      <c r="C30" s="257"/>
-      <c r="D30" s="257"/>
-      <c r="E30" s="265"/>
-      <c r="F30" s="260"/>
-      <c r="G30" s="260"/>
+      <c r="B30" s="211"/>
+      <c r="C30" s="229"/>
+      <c r="D30" s="229"/>
+      <c r="E30" s="228"/>
+      <c r="F30" s="232"/>
+      <c r="G30" s="232"/>
       <c r="H30" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="I30" s="252"/>
-      <c r="J30" s="256"/>
-      <c r="K30" s="256"/>
+      <c r="I30" s="244"/>
+      <c r="J30" s="237"/>
+      <c r="K30" s="237"/>
       <c r="L30" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="M30" s="270"/>
-      <c r="O30" s="266"/>
+      <c r="M30" s="240"/>
+      <c r="O30" s="233"/>
     </row>
     <row r="31" spans="2:16" ht="68">
       <c r="B31" s="10">
@@ -10540,16 +10478,16 @@
       </c>
     </row>
     <row r="57" spans="2:16" ht="34">
-      <c r="B57" s="250">
+      <c r="B57" s="241">
         <v>7</v>
       </c>
-      <c r="C57" s="239" t="s">
+      <c r="C57" s="219" t="s">
         <v>74</v>
       </c>
-      <c r="D57" s="239" t="s">
+      <c r="D57" s="219" t="s">
         <v>1</v>
       </c>
-      <c r="E57" s="250" t="s">
+      <c r="E57" s="241" t="s">
         <v>151</v>
       </c>
       <c r="F57" s="36" t="s">
@@ -10571,15 +10509,15 @@
       <c r="O57" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="P57" s="261" t="s">
+      <c r="P57" s="224" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="58" spans="2:16" ht="17" customHeight="1">
-      <c r="B58" s="251"/>
-      <c r="C58" s="240"/>
-      <c r="D58" s="240"/>
-      <c r="E58" s="251"/>
+      <c r="B58" s="242"/>
+      <c r="C58" s="220"/>
+      <c r="D58" s="220"/>
+      <c r="E58" s="242"/>
       <c r="F58" s="36" t="s">
         <v>137</v>
       </c>
@@ -10599,13 +10537,13 @@
       <c r="O58" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="P58" s="261"/>
+      <c r="P58" s="224"/>
     </row>
     <row r="59" spans="2:16" ht="34">
-      <c r="B59" s="251"/>
-      <c r="C59" s="240"/>
-      <c r="D59" s="240"/>
-      <c r="E59" s="251"/>
+      <c r="B59" s="242"/>
+      <c r="C59" s="220"/>
+      <c r="D59" s="220"/>
+      <c r="E59" s="242"/>
       <c r="F59" s="36" t="s">
         <v>138</v>
       </c>
@@ -10625,13 +10563,13 @@
       <c r="O59" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="P59" s="261"/>
+      <c r="P59" s="224"/>
     </row>
     <row r="60" spans="2:16" ht="34">
-      <c r="B60" s="251"/>
-      <c r="C60" s="240"/>
-      <c r="D60" s="240"/>
-      <c r="E60" s="251"/>
+      <c r="B60" s="242"/>
+      <c r="C60" s="220"/>
+      <c r="D60" s="220"/>
+      <c r="E60" s="242"/>
       <c r="F60" s="36" t="s">
         <v>139</v>
       </c>
@@ -10651,14 +10589,14 @@
       <c r="O60" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="P60" s="261"/>
+      <c r="P60" s="224"/>
     </row>
     <row r="61" spans="2:16" ht="51">
-      <c r="B61" s="251"/>
-      <c r="C61" s="240"/>
-      <c r="D61" s="240"/>
-      <c r="E61" s="251"/>
-      <c r="F61" s="239" t="s">
+      <c r="B61" s="242"/>
+      <c r="C61" s="220"/>
+      <c r="D61" s="220"/>
+      <c r="E61" s="242"/>
+      <c r="F61" s="219" t="s">
         <v>145</v>
       </c>
       <c r="G61" s="39"/>
@@ -10673,14 +10611,14 @@
       <c r="O61" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="P61" s="261"/>
+      <c r="P61" s="224"/>
     </row>
     <row r="62" spans="2:16" ht="34">
-      <c r="B62" s="251"/>
-      <c r="C62" s="240"/>
-      <c r="D62" s="240"/>
-      <c r="E62" s="251"/>
-      <c r="F62" s="240"/>
+      <c r="B62" s="242"/>
+      <c r="C62" s="220"/>
+      <c r="D62" s="220"/>
+      <c r="E62" s="242"/>
+      <c r="F62" s="220"/>
       <c r="G62" s="39"/>
       <c r="H62" s="12" t="s">
         <v>141</v>
@@ -10699,14 +10637,14 @@
       <c r="O62" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="P62" s="261"/>
+      <c r="P62" s="224"/>
     </row>
     <row r="63" spans="2:16" ht="17">
-      <c r="B63" s="251"/>
-      <c r="C63" s="240"/>
-      <c r="D63" s="240"/>
-      <c r="E63" s="251"/>
-      <c r="F63" s="240"/>
+      <c r="B63" s="242"/>
+      <c r="C63" s="220"/>
+      <c r="D63" s="220"/>
+      <c r="E63" s="242"/>
+      <c r="F63" s="220"/>
       <c r="G63" s="39"/>
       <c r="H63" s="12" t="s">
         <v>146</v>
@@ -10725,14 +10663,14 @@
       <c r="O63" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="P63" s="261"/>
+      <c r="P63" s="224"/>
     </row>
     <row r="64" spans="2:16" ht="17">
-      <c r="B64" s="251"/>
-      <c r="C64" s="240"/>
-      <c r="D64" s="240"/>
-      <c r="E64" s="251"/>
-      <c r="F64" s="240"/>
+      <c r="B64" s="242"/>
+      <c r="C64" s="220"/>
+      <c r="D64" s="220"/>
+      <c r="E64" s="242"/>
+      <c r="F64" s="220"/>
       <c r="G64" s="39"/>
       <c r="H64" s="12" t="s">
         <v>147</v>
@@ -10749,14 +10687,14 @@
       <c r="O64" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="P64" s="261"/>
+      <c r="P64" s="224"/>
     </row>
     <row r="65" spans="2:16" ht="17">
-      <c r="B65" s="251"/>
-      <c r="C65" s="240"/>
-      <c r="D65" s="240"/>
-      <c r="E65" s="251"/>
-      <c r="F65" s="240"/>
+      <c r="B65" s="242"/>
+      <c r="C65" s="220"/>
+      <c r="D65" s="220"/>
+      <c r="E65" s="242"/>
+      <c r="F65" s="220"/>
       <c r="G65" s="39"/>
       <c r="H65" s="12" t="s">
         <v>148</v>
@@ -10773,14 +10711,14 @@
       <c r="O65" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="P65" s="261"/>
+      <c r="P65" s="224"/>
     </row>
     <row r="66" spans="2:16" ht="18" customHeight="1">
-      <c r="B66" s="251"/>
-      <c r="C66" s="240"/>
-      <c r="D66" s="240"/>
-      <c r="E66" s="251"/>
-      <c r="F66" s="253"/>
+      <c r="B66" s="242"/>
+      <c r="C66" s="220"/>
+      <c r="D66" s="220"/>
+      <c r="E66" s="242"/>
+      <c r="F66" s="243"/>
       <c r="G66" s="39"/>
       <c r="H66" s="12" t="s">
         <v>149</v>
@@ -10797,14 +10735,14 @@
       <c r="O66" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="P66" s="261"/>
+      <c r="P66" s="224"/>
     </row>
     <row r="67" spans="2:16" ht="34">
-      <c r="B67" s="251"/>
-      <c r="C67" s="240"/>
-      <c r="D67" s="240"/>
-      <c r="E67" s="251"/>
-      <c r="F67" s="239" t="s">
+      <c r="B67" s="242"/>
+      <c r="C67" s="220"/>
+      <c r="D67" s="220"/>
+      <c r="E67" s="242"/>
+      <c r="F67" s="219" t="s">
         <v>140</v>
       </c>
       <c r="G67" s="31"/>
@@ -10819,14 +10757,14 @@
       <c r="O67" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="P67" s="261"/>
+      <c r="P67" s="224"/>
     </row>
     <row r="68" spans="2:16" ht="17" customHeight="1">
-      <c r="B68" s="251"/>
-      <c r="C68" s="240"/>
-      <c r="D68" s="240"/>
-      <c r="E68" s="251"/>
-      <c r="F68" s="240"/>
+      <c r="B68" s="242"/>
+      <c r="C68" s="220"/>
+      <c r="D68" s="220"/>
+      <c r="E68" s="242"/>
+      <c r="F68" s="220"/>
       <c r="G68" s="31"/>
       <c r="H68" s="12" t="s">
         <v>141</v>
@@ -10845,14 +10783,14 @@
       <c r="O68" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="P68" s="261"/>
+      <c r="P68" s="224"/>
     </row>
     <row r="69" spans="2:16" ht="17" customHeight="1">
-      <c r="B69" s="251"/>
-      <c r="C69" s="240"/>
-      <c r="D69" s="240"/>
-      <c r="E69" s="251"/>
-      <c r="F69" s="240"/>
+      <c r="B69" s="242"/>
+      <c r="C69" s="220"/>
+      <c r="D69" s="220"/>
+      <c r="E69" s="242"/>
+      <c r="F69" s="220"/>
       <c r="G69" s="31"/>
       <c r="H69" s="12" t="s">
         <v>142</v>
@@ -10871,14 +10809,14 @@
       <c r="O69" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="P69" s="261"/>
+      <c r="P69" s="224"/>
     </row>
     <row r="70" spans="2:16" ht="17" customHeight="1">
-      <c r="B70" s="251"/>
-      <c r="C70" s="240"/>
-      <c r="D70" s="240"/>
-      <c r="E70" s="251"/>
-      <c r="F70" s="240"/>
+      <c r="B70" s="242"/>
+      <c r="C70" s="220"/>
+      <c r="D70" s="220"/>
+      <c r="E70" s="242"/>
+      <c r="F70" s="220"/>
       <c r="G70" s="31"/>
       <c r="H70" s="12" t="s">
         <v>143</v>
@@ -10897,14 +10835,14 @@
       <c r="O70" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="P70" s="261"/>
+      <c r="P70" s="224"/>
     </row>
     <row r="71" spans="2:16" ht="17" customHeight="1">
-      <c r="B71" s="251"/>
-      <c r="C71" s="240"/>
-      <c r="D71" s="240"/>
-      <c r="E71" s="251"/>
-      <c r="F71" s="253"/>
+      <c r="B71" s="242"/>
+      <c r="C71" s="220"/>
+      <c r="D71" s="220"/>
+      <c r="E71" s="242"/>
+      <c r="F71" s="243"/>
       <c r="G71" s="31"/>
       <c r="H71" s="12" t="s">
         <v>144</v>
@@ -10923,12 +10861,12 @@
       <c r="O71" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="P71" s="261"/>
+      <c r="P71" s="224"/>
     </row>
     <row r="72" spans="2:16">
-      <c r="B72" s="252"/>
-      <c r="C72" s="253"/>
-      <c r="D72" s="253"/>
+      <c r="B72" s="244"/>
+      <c r="C72" s="243"/>
+      <c r="D72" s="243"/>
       <c r="E72" s="12" t="s">
         <v>255</v>
       </c>
@@ -10943,7 +10881,7 @@
       <c r="O72" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="P72" s="261"/>
+      <c r="P72" s="224"/>
     </row>
     <row r="73" spans="2:16" ht="34">
       <c r="B73" s="10">
@@ -11095,13 +11033,13 @@
       <c r="B78" s="10">
         <v>9</v>
       </c>
-      <c r="C78" s="239" t="s">
+      <c r="C78" s="219" t="s">
         <v>79</v>
       </c>
-      <c r="D78" s="239" t="s">
+      <c r="D78" s="219" t="s">
         <v>31</v>
       </c>
-      <c r="E78" s="250" t="s">
+      <c r="E78" s="241" t="s">
         <v>232</v>
       </c>
       <c r="F78" s="49"/>
@@ -11113,13 +11051,13 @@
       <c r="J78" s="51" t="s">
         <v>241</v>
       </c>
-      <c r="K78" s="247" t="s">
+      <c r="K78" s="245" t="s">
         <v>231</v>
       </c>
       <c r="L78" s="48" t="s">
         <v>247</v>
       </c>
-      <c r="M78" s="250" t="s">
+      <c r="M78" s="241" t="s">
         <v>82</v>
       </c>
       <c r="O78" s="4" t="s">
@@ -11131,9 +11069,9 @@
     </row>
     <row r="79" spans="2:16">
       <c r="B79" s="10"/>
-      <c r="C79" s="240"/>
-      <c r="D79" s="240"/>
-      <c r="E79" s="251"/>
+      <c r="C79" s="220"/>
+      <c r="D79" s="220"/>
+      <c r="E79" s="242"/>
       <c r="F79" s="10" t="s">
         <v>233</v>
       </c>
@@ -11145,15 +11083,15 @@
       <c r="J79" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="K79" s="248"/>
+      <c r="K79" s="246"/>
       <c r="L79" s="53"/>
-      <c r="M79" s="251"/>
+      <c r="M79" s="242"/>
     </row>
     <row r="80" spans="2:16" ht="17">
       <c r="B80" s="10"/>
-      <c r="C80" s="240"/>
-      <c r="D80" s="240"/>
-      <c r="E80" s="251"/>
+      <c r="C80" s="220"/>
+      <c r="D80" s="220"/>
+      <c r="E80" s="242"/>
       <c r="F80" s="10" t="s">
         <v>235</v>
       </c>
@@ -11165,16 +11103,16 @@
       <c r="J80" s="29" t="s">
         <v>243</v>
       </c>
-      <c r="K80" s="248"/>
+      <c r="K80" s="246"/>
       <c r="L80" s="53"/>
-      <c r="M80" s="251"/>
+      <c r="M80" s="242"/>
     </row>
     <row r="81" spans="2:16" ht="17">
       <c r="B81" s="10"/>
-      <c r="C81" s="240"/>
-      <c r="D81" s="240"/>
-      <c r="E81" s="251"/>
-      <c r="F81" s="246" t="s">
+      <c r="C81" s="220"/>
+      <c r="D81" s="220"/>
+      <c r="E81" s="242"/>
+      <c r="F81" s="211" t="s">
         <v>234</v>
       </c>
       <c r="G81" s="10" t="s">
@@ -11187,16 +11125,16 @@
       <c r="J81" s="29" t="s">
         <v>244</v>
       </c>
-      <c r="K81" s="248"/>
+      <c r="K81" s="246"/>
       <c r="L81" s="53"/>
-      <c r="M81" s="251"/>
+      <c r="M81" s="242"/>
     </row>
     <row r="82" spans="2:16" ht="17">
       <c r="B82" s="10"/>
-      <c r="C82" s="240"/>
-      <c r="D82" s="240"/>
-      <c r="E82" s="251"/>
-      <c r="F82" s="246"/>
+      <c r="C82" s="220"/>
+      <c r="D82" s="220"/>
+      <c r="E82" s="242"/>
+      <c r="F82" s="211"/>
       <c r="G82" s="52" t="s">
         <v>237</v>
       </c>
@@ -11207,16 +11145,16 @@
       <c r="J82" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="K82" s="248"/>
+      <c r="K82" s="246"/>
       <c r="L82" s="53"/>
-      <c r="M82" s="251"/>
+      <c r="M82" s="242"/>
     </row>
     <row r="83" spans="2:16" ht="17">
       <c r="B83" s="10"/>
-      <c r="C83" s="240"/>
-      <c r="D83" s="240"/>
-      <c r="E83" s="251"/>
-      <c r="F83" s="246"/>
+      <c r="C83" s="220"/>
+      <c r="D83" s="220"/>
+      <c r="E83" s="242"/>
+      <c r="F83" s="211"/>
       <c r="G83" s="52" t="s">
         <v>238</v>
       </c>
@@ -11227,16 +11165,16 @@
       <c r="J83" s="29" t="s">
         <v>246</v>
       </c>
-      <c r="K83" s="248"/>
+      <c r="K83" s="246"/>
       <c r="L83" s="53"/>
-      <c r="M83" s="251"/>
+      <c r="M83" s="242"/>
     </row>
     <row r="84" spans="2:16">
       <c r="B84" s="10"/>
-      <c r="C84" s="240"/>
-      <c r="D84" s="240"/>
-      <c r="E84" s="251"/>
-      <c r="F84" s="246"/>
+      <c r="C84" s="220"/>
+      <c r="D84" s="220"/>
+      <c r="E84" s="242"/>
+      <c r="F84" s="211"/>
       <c r="G84" s="52" t="s">
         <v>239</v>
       </c>
@@ -11247,16 +11185,16 @@
       <c r="J84" s="29">
         <v>4</v>
       </c>
-      <c r="K84" s="248"/>
+      <c r="K84" s="246"/>
       <c r="L84" s="53"/>
-      <c r="M84" s="251"/>
+      <c r="M84" s="242"/>
     </row>
     <row r="85" spans="2:16">
       <c r="B85" s="10"/>
-      <c r="C85" s="253"/>
-      <c r="D85" s="253"/>
-      <c r="E85" s="252"/>
-      <c r="F85" s="246"/>
+      <c r="C85" s="243"/>
+      <c r="D85" s="243"/>
+      <c r="E85" s="244"/>
+      <c r="F85" s="211"/>
       <c r="G85" s="52" t="s">
         <v>240</v>
       </c>
@@ -11267,9 +11205,9 @@
       <c r="J85" s="29">
         <v>10</v>
       </c>
-      <c r="K85" s="249"/>
+      <c r="K85" s="247"/>
       <c r="L85" s="53"/>
-      <c r="M85" s="252"/>
+      <c r="M85" s="244"/>
     </row>
     <row r="86" spans="2:16" ht="17">
       <c r="B86" s="10">
@@ -11559,6 +11497,23 @@
     </sortState>
   </autoFilter>
   <mergeCells count="33">
+    <mergeCell ref="K78:K85"/>
+    <mergeCell ref="M78:M85"/>
+    <mergeCell ref="D78:D85"/>
+    <mergeCell ref="F81:F85"/>
+    <mergeCell ref="I28:I30"/>
+    <mergeCell ref="J28:J30"/>
+    <mergeCell ref="B16:B30"/>
+    <mergeCell ref="B57:B72"/>
+    <mergeCell ref="C16:C30"/>
+    <mergeCell ref="C57:C72"/>
+    <mergeCell ref="D57:D72"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="E57:E71"/>
+    <mergeCell ref="F67:F71"/>
+    <mergeCell ref="F61:F66"/>
+    <mergeCell ref="C78:C85"/>
+    <mergeCell ref="E78:E85"/>
     <mergeCell ref="P57:P72"/>
     <mergeCell ref="E5:H5"/>
     <mergeCell ref="E25:E30"/>
@@ -11575,23 +11530,6 @@
     <mergeCell ref="M19:M21"/>
     <mergeCell ref="M28:M30"/>
     <mergeCell ref="F19:F21"/>
-    <mergeCell ref="F28:F30"/>
-    <mergeCell ref="E57:E71"/>
-    <mergeCell ref="F67:F71"/>
-    <mergeCell ref="F61:F66"/>
-    <mergeCell ref="C78:C85"/>
-    <mergeCell ref="E78:E85"/>
-    <mergeCell ref="B16:B30"/>
-    <mergeCell ref="B57:B72"/>
-    <mergeCell ref="C16:C30"/>
-    <mergeCell ref="C57:C72"/>
-    <mergeCell ref="D57:D72"/>
-    <mergeCell ref="K78:K85"/>
-    <mergeCell ref="M78:M85"/>
-    <mergeCell ref="D78:D85"/>
-    <mergeCell ref="F81:F85"/>
-    <mergeCell ref="I28:I30"/>
-    <mergeCell ref="J28:J30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11707,153 +11645,153 @@
       </c>
     </row>
     <row r="13" spans="1:70" ht="48" customHeight="1">
-      <c r="E13" s="193" t="s">
+      <c r="E13" s="206" t="s">
         <v>264</v>
       </c>
-      <c r="F13" s="193"/>
-      <c r="G13" s="193"/>
-      <c r="H13" s="193"/>
-      <c r="I13" s="193"/>
-      <c r="J13" s="193"/>
-      <c r="K13" s="193"/>
-      <c r="L13" s="193"/>
-      <c r="M13" s="193"/>
-      <c r="N13" s="193"/>
-      <c r="O13" s="193"/>
-      <c r="P13" s="193"/>
-      <c r="Q13" s="193"/>
-      <c r="R13" s="193"/>
-      <c r="S13" s="193"/>
-      <c r="T13" s="193"/>
-      <c r="U13" s="193"/>
-      <c r="V13" s="193"/>
-      <c r="W13" s="193"/>
-      <c r="X13" s="193"/>
-      <c r="Y13" s="193"/>
-      <c r="Z13" s="193"/>
-      <c r="AA13" s="193"/>
-      <c r="AB13" s="193"/>
-      <c r="AC13" s="193"/>
-      <c r="AD13" s="193"/>
-      <c r="AE13" s="193"/>
-      <c r="AF13" s="193"/>
-      <c r="AG13" s="193"/>
-      <c r="AH13" s="193"/>
-      <c r="AI13" s="193"/>
-      <c r="AJ13" s="193"/>
-      <c r="AK13" s="193"/>
-      <c r="AL13" s="193"/>
-      <c r="AM13" s="193"/>
-      <c r="AN13" s="193"/>
-      <c r="AO13" s="193"/>
-      <c r="AP13" s="193"/>
-      <c r="AQ13" s="193"/>
-      <c r="AR13" s="193"/>
-      <c r="AS13" s="193"/>
-      <c r="AT13" s="193"/>
-      <c r="AU13" s="193"/>
-      <c r="AV13" s="193"/>
-      <c r="AW13" s="193"/>
-      <c r="AX13" s="193"/>
-      <c r="AY13" s="193"/>
-      <c r="AZ13" s="193"/>
-      <c r="BA13" s="193"/>
-      <c r="BB13" s="193"/>
-      <c r="BC13" s="193"/>
-      <c r="BD13" s="193"/>
-      <c r="BE13" s="193"/>
-      <c r="BF13" s="193"/>
-      <c r="BG13" s="193"/>
-      <c r="BH13" s="193"/>
-      <c r="BI13" s="193"/>
-      <c r="BJ13" s="193"/>
-      <c r="BK13" s="193"/>
-      <c r="BL13" s="193"/>
-      <c r="BM13" s="193"/>
-      <c r="BN13" s="193"/>
-      <c r="BO13" s="193"/>
-      <c r="BP13" s="193"/>
-      <c r="BQ13" s="193"/>
-      <c r="BR13" s="193"/>
+      <c r="F13" s="206"/>
+      <c r="G13" s="206"/>
+      <c r="H13" s="206"/>
+      <c r="I13" s="206"/>
+      <c r="J13" s="206"/>
+      <c r="K13" s="206"/>
+      <c r="L13" s="206"/>
+      <c r="M13" s="206"/>
+      <c r="N13" s="206"/>
+      <c r="O13" s="206"/>
+      <c r="P13" s="206"/>
+      <c r="Q13" s="206"/>
+      <c r="R13" s="206"/>
+      <c r="S13" s="206"/>
+      <c r="T13" s="206"/>
+      <c r="U13" s="206"/>
+      <c r="V13" s="206"/>
+      <c r="W13" s="206"/>
+      <c r="X13" s="206"/>
+      <c r="Y13" s="206"/>
+      <c r="Z13" s="206"/>
+      <c r="AA13" s="206"/>
+      <c r="AB13" s="206"/>
+      <c r="AC13" s="206"/>
+      <c r="AD13" s="206"/>
+      <c r="AE13" s="206"/>
+      <c r="AF13" s="206"/>
+      <c r="AG13" s="206"/>
+      <c r="AH13" s="206"/>
+      <c r="AI13" s="206"/>
+      <c r="AJ13" s="206"/>
+      <c r="AK13" s="206"/>
+      <c r="AL13" s="206"/>
+      <c r="AM13" s="206"/>
+      <c r="AN13" s="206"/>
+      <c r="AO13" s="206"/>
+      <c r="AP13" s="206"/>
+      <c r="AQ13" s="206"/>
+      <c r="AR13" s="206"/>
+      <c r="AS13" s="206"/>
+      <c r="AT13" s="206"/>
+      <c r="AU13" s="206"/>
+      <c r="AV13" s="206"/>
+      <c r="AW13" s="206"/>
+      <c r="AX13" s="206"/>
+      <c r="AY13" s="206"/>
+      <c r="AZ13" s="206"/>
+      <c r="BA13" s="206"/>
+      <c r="BB13" s="206"/>
+      <c r="BC13" s="206"/>
+      <c r="BD13" s="206"/>
+      <c r="BE13" s="206"/>
+      <c r="BF13" s="206"/>
+      <c r="BG13" s="206"/>
+      <c r="BH13" s="206"/>
+      <c r="BI13" s="206"/>
+      <c r="BJ13" s="206"/>
+      <c r="BK13" s="206"/>
+      <c r="BL13" s="206"/>
+      <c r="BM13" s="206"/>
+      <c r="BN13" s="206"/>
+      <c r="BO13" s="206"/>
+      <c r="BP13" s="206"/>
+      <c r="BQ13" s="206"/>
+      <c r="BR13" s="206"/>
     </row>
     <row r="15" spans="1:70" s="6" customFormat="1" ht="43" customHeight="1"/>
     <row r="16" spans="1:70" s="6" customFormat="1" ht="43" customHeight="1">
-      <c r="E16" s="246" t="s">
+      <c r="E16" s="211" t="s">
         <v>263</v>
       </c>
-      <c r="F16" s="246"/>
-      <c r="G16" s="246"/>
-      <c r="H16" s="246"/>
-      <c r="I16" s="246"/>
-      <c r="J16" s="246"/>
-      <c r="K16" s="246"/>
-      <c r="L16" s="246"/>
-      <c r="M16" s="246"/>
-      <c r="N16" s="246"/>
-      <c r="O16" s="246"/>
-      <c r="P16" s="246"/>
-      <c r="Q16" s="246"/>
-      <c r="R16" s="246"/>
-      <c r="S16" s="246"/>
-      <c r="T16" s="246"/>
-      <c r="U16" s="246"/>
-      <c r="V16" s="246"/>
-      <c r="W16" s="246"/>
-      <c r="X16" s="246"/>
-      <c r="Y16" s="246"/>
-      <c r="Z16" s="246"/>
-      <c r="AA16" s="246"/>
-      <c r="AB16" s="246"/>
-      <c r="AC16" s="246"/>
-      <c r="AD16" s="246"/>
-      <c r="AE16" s="262" t="s">
+      <c r="F16" s="211"/>
+      <c r="G16" s="211"/>
+      <c r="H16" s="211"/>
+      <c r="I16" s="211"/>
+      <c r="J16" s="211"/>
+      <c r="K16" s="211"/>
+      <c r="L16" s="211"/>
+      <c r="M16" s="211"/>
+      <c r="N16" s="211"/>
+      <c r="O16" s="211"/>
+      <c r="P16" s="211"/>
+      <c r="Q16" s="211"/>
+      <c r="R16" s="211"/>
+      <c r="S16" s="211"/>
+      <c r="T16" s="211"/>
+      <c r="U16" s="211"/>
+      <c r="V16" s="211"/>
+      <c r="W16" s="211"/>
+      <c r="X16" s="211"/>
+      <c r="Y16" s="211"/>
+      <c r="Z16" s="211"/>
+      <c r="AA16" s="211"/>
+      <c r="AB16" s="211"/>
+      <c r="AC16" s="211"/>
+      <c r="AD16" s="211"/>
+      <c r="AE16" s="225" t="s">
         <v>258</v>
       </c>
-      <c r="AF16" s="263"/>
-      <c r="AG16" s="263"/>
-      <c r="AH16" s="263"/>
-      <c r="AI16" s="263"/>
-      <c r="AJ16" s="263"/>
-      <c r="AK16" s="263"/>
-      <c r="AL16" s="264"/>
-      <c r="AM16" s="262" t="s">
+      <c r="AF16" s="226"/>
+      <c r="AG16" s="226"/>
+      <c r="AH16" s="226"/>
+      <c r="AI16" s="226"/>
+      <c r="AJ16" s="226"/>
+      <c r="AK16" s="226"/>
+      <c r="AL16" s="227"/>
+      <c r="AM16" s="225" t="s">
         <v>310</v>
       </c>
-      <c r="AN16" s="263"/>
-      <c r="AO16" s="263"/>
-      <c r="AP16" s="263"/>
-      <c r="AQ16" s="263"/>
-      <c r="AR16" s="263"/>
-      <c r="AS16" s="264"/>
-      <c r="AT16" s="246" t="s">
+      <c r="AN16" s="226"/>
+      <c r="AO16" s="226"/>
+      <c r="AP16" s="226"/>
+      <c r="AQ16" s="226"/>
+      <c r="AR16" s="226"/>
+      <c r="AS16" s="227"/>
+      <c r="AT16" s="211" t="s">
         <v>257</v>
       </c>
-      <c r="AU16" s="246"/>
-      <c r="AV16" s="246"/>
-      <c r="AW16" s="246"/>
-      <c r="AX16" s="246"/>
-      <c r="AY16" s="246"/>
-      <c r="AZ16" s="246"/>
-      <c r="BA16" s="246"/>
-      <c r="BB16" s="246"/>
-      <c r="BC16" s="246"/>
-      <c r="BD16" s="246"/>
-      <c r="BE16" s="246"/>
-      <c r="BF16" s="246"/>
-      <c r="BG16" s="246"/>
-      <c r="BH16" s="246"/>
-      <c r="BI16" s="246"/>
-      <c r="BJ16" s="262" t="s">
+      <c r="AU16" s="211"/>
+      <c r="AV16" s="211"/>
+      <c r="AW16" s="211"/>
+      <c r="AX16" s="211"/>
+      <c r="AY16" s="211"/>
+      <c r="AZ16" s="211"/>
+      <c r="BA16" s="211"/>
+      <c r="BB16" s="211"/>
+      <c r="BC16" s="211"/>
+      <c r="BD16" s="211"/>
+      <c r="BE16" s="211"/>
+      <c r="BF16" s="211"/>
+      <c r="BG16" s="211"/>
+      <c r="BH16" s="211"/>
+      <c r="BI16" s="211"/>
+      <c r="BJ16" s="225" t="s">
         <v>260</v>
       </c>
-      <c r="BK16" s="263"/>
-      <c r="BL16" s="263"/>
-      <c r="BM16" s="263"/>
-      <c r="BN16" s="263"/>
-      <c r="BO16" s="263"/>
-      <c r="BP16" s="263"/>
-      <c r="BQ16" s="263"/>
-      <c r="BR16" s="264"/>
+      <c r="BK16" s="226"/>
+      <c r="BL16" s="226"/>
+      <c r="BM16" s="226"/>
+      <c r="BN16" s="226"/>
+      <c r="BO16" s="226"/>
+      <c r="BP16" s="226"/>
+      <c r="BQ16" s="226"/>
+      <c r="BR16" s="227"/>
     </row>
     <row r="17" spans="2:70" s="6" customFormat="1" ht="60" customHeight="1">
       <c r="E17" s="37" t="s">
@@ -11868,83 +11806,83 @@
       <c r="H17" s="37" t="s">
         <v>288</v>
       </c>
-      <c r="I17" s="246" t="s">
+      <c r="I17" s="211" t="s">
         <v>262</v>
       </c>
-      <c r="J17" s="246"/>
-      <c r="K17" s="246"/>
-      <c r="L17" s="246"/>
-      <c r="M17" s="246"/>
-      <c r="N17" s="246"/>
-      <c r="O17" s="246"/>
-      <c r="P17" s="246" t="s">
+      <c r="J17" s="211"/>
+      <c r="K17" s="211"/>
+      <c r="L17" s="211"/>
+      <c r="M17" s="211"/>
+      <c r="N17" s="211"/>
+      <c r="O17" s="211"/>
+      <c r="P17" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="Q17" s="246"/>
-      <c r="R17" s="246"/>
-      <c r="S17" s="246"/>
-      <c r="T17" s="246"/>
-      <c r="U17" s="246"/>
-      <c r="V17" s="246"/>
-      <c r="W17" s="246"/>
-      <c r="X17" s="246"/>
-      <c r="Y17" s="246"/>
-      <c r="Z17" s="246"/>
-      <c r="AA17" s="246"/>
-      <c r="AB17" s="246"/>
-      <c r="AC17" s="246"/>
+      <c r="Q17" s="211"/>
+      <c r="R17" s="211"/>
+      <c r="S17" s="211"/>
+      <c r="T17" s="211"/>
+      <c r="U17" s="211"/>
+      <c r="V17" s="211"/>
+      <c r="W17" s="211"/>
+      <c r="X17" s="211"/>
+      <c r="Y17" s="211"/>
+      <c r="Z17" s="211"/>
+      <c r="AA17" s="211"/>
+      <c r="AB17" s="211"/>
+      <c r="AC17" s="211"/>
       <c r="AD17" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="AE17" s="246" t="s">
+      <c r="AE17" s="211" t="s">
         <v>275</v>
       </c>
-      <c r="AF17" s="246"/>
-      <c r="AG17" s="246"/>
-      <c r="AH17" s="246"/>
-      <c r="AI17" s="246"/>
-      <c r="AJ17" s="262" t="s">
+      <c r="AF17" s="211"/>
+      <c r="AG17" s="211"/>
+      <c r="AH17" s="211"/>
+      <c r="AI17" s="211"/>
+      <c r="AJ17" s="225" t="s">
         <v>276</v>
       </c>
-      <c r="AK17" s="263"/>
-      <c r="AL17" s="264"/>
+      <c r="AK17" s="226"/>
+      <c r="AL17" s="227"/>
       <c r="AM17" s="64" t="s">
         <v>290</v>
       </c>
       <c r="AN17" s="64" t="s">
         <v>291</v>
       </c>
-      <c r="AO17" s="246" t="s">
+      <c r="AO17" s="211" t="s">
         <v>259</v>
       </c>
-      <c r="AP17" s="246"/>
-      <c r="AQ17" s="246"/>
-      <c r="AR17" s="246"/>
-      <c r="AS17" s="246"/>
-      <c r="AT17" s="246" t="s">
+      <c r="AP17" s="211"/>
+      <c r="AQ17" s="211"/>
+      <c r="AR17" s="211"/>
+      <c r="AS17" s="211"/>
+      <c r="AT17" s="211" t="s">
         <v>263</v>
       </c>
-      <c r="AU17" s="246"/>
-      <c r="AV17" s="246"/>
-      <c r="AW17" s="246" t="s">
+      <c r="AU17" s="211"/>
+      <c r="AV17" s="211"/>
+      <c r="AW17" s="211" t="s">
         <v>266</v>
       </c>
-      <c r="AX17" s="246"/>
-      <c r="AY17" s="262" t="s">
+      <c r="AX17" s="211"/>
+      <c r="AY17" s="225" t="s">
         <v>311</v>
       </c>
-      <c r="AZ17" s="263"/>
-      <c r="BA17" s="263"/>
-      <c r="BB17" s="263"/>
-      <c r="BC17" s="262" t="s">
+      <c r="AZ17" s="226"/>
+      <c r="BA17" s="226"/>
+      <c r="BB17" s="226"/>
+      <c r="BC17" s="225" t="s">
         <v>265</v>
       </c>
-      <c r="BD17" s="263"/>
-      <c r="BE17" s="263"/>
-      <c r="BF17" s="263"/>
-      <c r="BG17" s="263"/>
-      <c r="BH17" s="263"/>
-      <c r="BI17" s="263"/>
+      <c r="BD17" s="226"/>
+      <c r="BE17" s="226"/>
+      <c r="BF17" s="226"/>
+      <c r="BG17" s="226"/>
+      <c r="BH17" s="226"/>
+      <c r="BI17" s="226"/>
       <c r="BJ17" s="37" t="s">
         <v>304</v>
       </c>
@@ -11960,11 +11898,11 @@
       <c r="BN17" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="BO17" s="265" t="s">
+      <c r="BO17" s="228" t="s">
         <v>307</v>
       </c>
-      <c r="BP17" s="265"/>
-      <c r="BQ17" s="265"/>
+      <c r="BP17" s="228"/>
+      <c r="BQ17" s="228"/>
       <c r="BR17" s="37" t="s">
         <v>28</v>
       </c>
@@ -12004,19 +11942,19 @@
       <c r="R18" s="37" t="s">
         <v>280</v>
       </c>
-      <c r="S18" s="265" t="s">
+      <c r="S18" s="228" t="s">
         <v>271</v>
       </c>
-      <c r="T18" s="265"/>
-      <c r="U18" s="265"/>
-      <c r="V18" s="265"/>
-      <c r="W18" s="265"/>
-      <c r="X18" s="265"/>
-      <c r="Y18" s="265"/>
-      <c r="Z18" s="265"/>
-      <c r="AA18" s="265"/>
-      <c r="AB18" s="265"/>
-      <c r="AC18" s="265"/>
+      <c r="T18" s="228"/>
+      <c r="U18" s="228"/>
+      <c r="V18" s="228"/>
+      <c r="W18" s="228"/>
+      <c r="X18" s="228"/>
+      <c r="Y18" s="228"/>
+      <c r="Z18" s="228"/>
+      <c r="AA18" s="228"/>
+      <c r="AB18" s="228"/>
+      <c r="AC18" s="228"/>
       <c r="AD18" s="11"/>
       <c r="AE18" s="37" t="s">
         <v>258</v>
@@ -12150,17 +12088,17 @@
       <c r="V19" s="37" t="s">
         <v>281</v>
       </c>
-      <c r="W19" s="231" t="s">
+      <c r="W19" s="203" t="s">
         <v>145</v>
       </c>
-      <c r="X19" s="232"/>
-      <c r="Y19" s="233"/>
-      <c r="Z19" s="231" t="s">
+      <c r="X19" s="204"/>
+      <c r="Y19" s="205"/>
+      <c r="Z19" s="203" t="s">
         <v>140</v>
       </c>
-      <c r="AA19" s="232"/>
-      <c r="AB19" s="232"/>
-      <c r="AC19" s="233"/>
+      <c r="AA19" s="204"/>
+      <c r="AB19" s="204"/>
+      <c r="AC19" s="205"/>
       <c r="AD19" s="11"/>
       <c r="AE19" s="11"/>
       <c r="AF19" s="11"/>
@@ -12680,6 +12618,11 @@
     <row r="28" spans="2:70" s="6" customFormat="1" ht="43" customHeight="1"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="E13:BR13"/>
+    <mergeCell ref="AT16:BI16"/>
+    <mergeCell ref="I17:O17"/>
+    <mergeCell ref="AW17:AX17"/>
+    <mergeCell ref="AO17:AS17"/>
     <mergeCell ref="Z19:AC19"/>
     <mergeCell ref="W19:Y19"/>
     <mergeCell ref="BC17:BI17"/>
@@ -12694,11 +12637,6 @@
     <mergeCell ref="AJ17:AL17"/>
     <mergeCell ref="AE17:AI17"/>
     <mergeCell ref="AT17:AV17"/>
-    <mergeCell ref="E13:BR13"/>
-    <mergeCell ref="AT16:BI16"/>
-    <mergeCell ref="I17:O17"/>
-    <mergeCell ref="AW17:AX17"/>
-    <mergeCell ref="AO17:AS17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/session_variables.xlsx
+++ b/docs/session_variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robhay/git_repo/share_screener/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6667071-6BF0-DE42-B272-59D28EA6ACB4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8907D4-EFF6-024D-A5EB-1A4C2B368E96}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="500" windowWidth="25600" windowHeight="14300" xr2:uid="{EB3C945B-FE01-FA47-AE59-A0DC3CDF521B}"/>
   </bookViews>
@@ -3587,7 +3587,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="CK1" sqref="CK1:CU1048576"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/docs/session_variables.xlsx
+++ b/docs/session_variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robhay/git_repo/share_screener/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8907D4-EFF6-024D-A5EB-1A4C2B368E96}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FB1273-FFD1-5341-B04F-9B40A0E5C995}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="25600" windowHeight="14300" xr2:uid="{EB3C945B-FE01-FA47-AE59-A0DC3CDF521B}"/>
+    <workbookView xWindow="-25620" yWindow="12040" windowWidth="25600" windowHeight="15500" xr2:uid="{EB3C945B-FE01-FA47-AE59-A0DC3CDF521B}"/>
   </bookViews>
   <sheets>
     <sheet name="Application Structure" sheetId="6" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="511">
   <si>
     <t>chart_colours</t>
   </si>
@@ -1835,12 +1835,18 @@
   <si>
     <t>primary height</t>
   </si>
+  <si>
+    <t>users</t>
+  </si>
+  <si>
+    <t>Login to Use the Application</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="42">
+  <fonts count="43">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2151,6 +2157,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="14">
     <fill>
@@ -2404,7 +2417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="293">
+  <cellXfs count="299">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2852,18 +2865,225 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2873,129 +3093,87 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3005,59 +3183,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3074,33 +3279,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3110,160 +3294,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3581,13 +3612,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB030FA-EA0F-904E-89A7-6D6B5810B515}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:FJ47"/>
+  <dimension ref="A1:FO47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="AQ7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomRight" activeCell="BC18" sqref="BC18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3634,39 +3665,41 @@
     <col min="47" max="47" width="7.6640625" customWidth="1"/>
     <col min="48" max="48" width="6.5" customWidth="1"/>
     <col min="49" max="49" width="7.6640625" customWidth="1"/>
-    <col min="50" max="50" width="10.33203125" customWidth="1"/>
-    <col min="51" max="51" width="11" customWidth="1"/>
-    <col min="52" max="52" width="7.6640625" customWidth="1"/>
-    <col min="53" max="53" width="10.5" customWidth="1"/>
-    <col min="54" max="54" width="9.83203125" customWidth="1"/>
-    <col min="55" max="55" width="4.83203125" customWidth="1"/>
-    <col min="56" max="56" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="57" max="58" width="10.5" customWidth="1"/>
-    <col min="59" max="59" width="9.6640625" customWidth="1"/>
-    <col min="60" max="60" width="5.33203125" customWidth="1"/>
-    <col min="61" max="61" width="13.1640625" customWidth="1"/>
-    <col min="62" max="62" width="7.5" customWidth="1"/>
-    <col min="63" max="63" width="8.83203125" customWidth="1"/>
-    <col min="64" max="65" width="12" customWidth="1"/>
-    <col min="66" max="66" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="67" max="68" width="10.1640625" customWidth="1"/>
-    <col min="69" max="69" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="11.5" customWidth="1"/>
-    <col min="72" max="74" width="9.33203125" customWidth="1"/>
-    <col min="75" max="75" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="10.33203125" customWidth="1"/>
-    <col min="77" max="77" width="7.83203125" customWidth="1"/>
-    <col min="78" max="78" width="13.83203125" customWidth="1"/>
-    <col min="79" max="79" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="6.6640625" customWidth="1"/>
-    <col min="82" max="85" width="5.1640625" customWidth="1"/>
-    <col min="86" max="86" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="50" max="51" width="10.33203125" customWidth="1"/>
+    <col min="52" max="52" width="11" customWidth="1"/>
+    <col min="53" max="53" width="7.6640625" customWidth="1"/>
+    <col min="54" max="54" width="12.6640625" customWidth="1"/>
+    <col min="55" max="57" width="7.6640625" customWidth="1"/>
+    <col min="58" max="58" width="10.5" customWidth="1"/>
+    <col min="59" max="59" width="9.83203125" customWidth="1"/>
+    <col min="60" max="60" width="4.83203125" customWidth="1"/>
+    <col min="61" max="61" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="62" max="63" width="10.5" customWidth="1"/>
+    <col min="64" max="64" width="9.6640625" customWidth="1"/>
+    <col min="65" max="65" width="5.33203125" customWidth="1"/>
+    <col min="66" max="66" width="13.1640625" customWidth="1"/>
+    <col min="67" max="67" width="7.5" customWidth="1"/>
+    <col min="68" max="68" width="8.83203125" customWidth="1"/>
+    <col min="69" max="70" width="12" customWidth="1"/>
+    <col min="71" max="71" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="72" max="73" width="10.1640625" customWidth="1"/>
+    <col min="74" max="74" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="11.5" customWidth="1"/>
+    <col min="77" max="79" width="9.33203125" customWidth="1"/>
+    <col min="80" max="80" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="10.33203125" customWidth="1"/>
+    <col min="82" max="82" width="7.83203125" customWidth="1"/>
+    <col min="83" max="83" width="13.83203125" customWidth="1"/>
+    <col min="84" max="84" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="6.6640625" customWidth="1"/>
+    <col min="87" max="90" width="5.1640625" customWidth="1"/>
+    <col min="91" max="91" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="4.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:166" ht="44">
+    <row r="1" spans="1:171" ht="44">
       <c r="A1" s="150" t="s">
         <v>481</v>
       </c>
@@ -3674,17 +3707,17 @@
         <v>505</v>
       </c>
     </row>
-    <row r="2" spans="1:166">
+    <row r="2" spans="1:171">
       <c r="A2" s="137" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="3" spans="1:166">
+    <row r="3" spans="1:171">
       <c r="A3" s="126" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="4" spans="1:166">
+    <row r="4" spans="1:171">
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -3734,786 +3767,825 @@
       <c r="AW4" s="6"/>
       <c r="AX4" s="6"/>
       <c r="AY4" s="6"/>
-    </row>
-    <row r="5" spans="1:166" s="60" customFormat="1" ht="37" customHeight="1">
+      <c r="AZ4" s="6"/>
+    </row>
+    <row r="5" spans="1:171" s="60" customFormat="1" ht="37" customHeight="1">
       <c r="A5" s="109" t="s">
         <v>343</v>
       </c>
       <c r="B5" s="108"/>
-      <c r="C5" s="255" t="s">
+      <c r="C5" s="158" t="s">
         <v>289</v>
       </c>
-      <c r="D5" s="266" t="s">
+      <c r="D5" s="212" t="s">
         <v>263</v>
       </c>
-      <c r="E5" s="267"/>
-      <c r="F5" s="267"/>
-      <c r="G5" s="267"/>
-      <c r="H5" s="267"/>
-      <c r="I5" s="267"/>
-      <c r="J5" s="267"/>
-      <c r="K5" s="267"/>
-      <c r="L5" s="267"/>
-      <c r="M5" s="267"/>
-      <c r="N5" s="267"/>
-      <c r="O5" s="267"/>
-      <c r="P5" s="267"/>
-      <c r="Q5" s="267"/>
-      <c r="R5" s="267"/>
-      <c r="S5" s="267"/>
-      <c r="T5" s="267"/>
-      <c r="U5" s="267"/>
-      <c r="V5" s="267"/>
-      <c r="W5" s="267"/>
-      <c r="X5" s="267"/>
-      <c r="Y5" s="267"/>
-      <c r="Z5" s="267"/>
-      <c r="AA5" s="267"/>
-      <c r="AB5" s="267"/>
-      <c r="AC5" s="267"/>
-      <c r="AD5" s="267"/>
-      <c r="AE5" s="267"/>
-      <c r="AF5" s="267"/>
-      <c r="AG5" s="267"/>
-      <c r="AH5" s="267"/>
-      <c r="AI5" s="267"/>
-      <c r="AJ5" s="267"/>
-      <c r="AK5" s="267"/>
-      <c r="AL5" s="267"/>
-      <c r="AM5" s="267"/>
-      <c r="AN5" s="267"/>
-      <c r="AO5" s="267"/>
-      <c r="AP5" s="267"/>
-      <c r="AQ5" s="267"/>
-      <c r="AR5" s="267"/>
-      <c r="AS5" s="266" t="s">
+      <c r="E5" s="213"/>
+      <c r="F5" s="213"/>
+      <c r="G5" s="213"/>
+      <c r="H5" s="213"/>
+      <c r="I5" s="213"/>
+      <c r="J5" s="213"/>
+      <c r="K5" s="213"/>
+      <c r="L5" s="213"/>
+      <c r="M5" s="213"/>
+      <c r="N5" s="213"/>
+      <c r="O5" s="213"/>
+      <c r="P5" s="213"/>
+      <c r="Q5" s="213"/>
+      <c r="R5" s="213"/>
+      <c r="S5" s="213"/>
+      <c r="T5" s="213"/>
+      <c r="U5" s="213"/>
+      <c r="V5" s="213"/>
+      <c r="W5" s="213"/>
+      <c r="X5" s="213"/>
+      <c r="Y5" s="213"/>
+      <c r="Z5" s="213"/>
+      <c r="AA5" s="213"/>
+      <c r="AB5" s="213"/>
+      <c r="AC5" s="213"/>
+      <c r="AD5" s="213"/>
+      <c r="AE5" s="213"/>
+      <c r="AF5" s="213"/>
+      <c r="AG5" s="213"/>
+      <c r="AH5" s="213"/>
+      <c r="AI5" s="213"/>
+      <c r="AJ5" s="213"/>
+      <c r="AK5" s="213"/>
+      <c r="AL5" s="213"/>
+      <c r="AM5" s="213"/>
+      <c r="AN5" s="213"/>
+      <c r="AO5" s="213"/>
+      <c r="AP5" s="213"/>
+      <c r="AQ5" s="213"/>
+      <c r="AR5" s="213"/>
+      <c r="AS5" s="212" t="s">
         <v>258</v>
       </c>
-      <c r="AT5" s="267"/>
-      <c r="AU5" s="267"/>
-      <c r="AV5" s="267"/>
-      <c r="AW5" s="267"/>
-      <c r="AX5" s="267"/>
-      <c r="AY5" s="267"/>
-      <c r="AZ5" s="268"/>
-      <c r="BA5" s="266" t="s">
+      <c r="AT5" s="213"/>
+      <c r="AU5" s="213"/>
+      <c r="AV5" s="213"/>
+      <c r="AW5" s="213"/>
+      <c r="AX5" s="213"/>
+      <c r="AY5" s="213"/>
+      <c r="AZ5" s="213"/>
+      <c r="BA5" s="214"/>
+      <c r="BB5" s="212" t="s">
+        <v>509</v>
+      </c>
+      <c r="BC5" s="213"/>
+      <c r="BD5" s="213"/>
+      <c r="BE5" s="214"/>
+      <c r="BF5" s="212" t="s">
         <v>310</v>
       </c>
-      <c r="BB5" s="267"/>
-      <c r="BC5" s="267"/>
-      <c r="BD5" s="267"/>
-      <c r="BE5" s="267"/>
-      <c r="BF5" s="267"/>
-      <c r="BG5" s="268"/>
-      <c r="BH5" s="170" t="s">
+      <c r="BG5" s="213"/>
+      <c r="BH5" s="213"/>
+      <c r="BI5" s="213"/>
+      <c r="BJ5" s="213"/>
+      <c r="BK5" s="213"/>
+      <c r="BL5" s="214"/>
+      <c r="BM5" s="215" t="s">
         <v>257</v>
       </c>
-      <c r="BI5" s="170"/>
-      <c r="BJ5" s="170"/>
-      <c r="BK5" s="170"/>
-      <c r="BL5" s="170"/>
-      <c r="BM5" s="170"/>
-      <c r="BN5" s="170"/>
-      <c r="BO5" s="170"/>
-      <c r="BP5" s="170"/>
-      <c r="BQ5" s="170"/>
-      <c r="BR5" s="170"/>
-      <c r="BS5" s="170"/>
-      <c r="BT5" s="170"/>
-      <c r="BU5" s="170"/>
-      <c r="BV5" s="170"/>
-      <c r="BW5" s="281" t="s">
+      <c r="BN5" s="215"/>
+      <c r="BO5" s="215"/>
+      <c r="BP5" s="215"/>
+      <c r="BQ5" s="215"/>
+      <c r="BR5" s="215"/>
+      <c r="BS5" s="215"/>
+      <c r="BT5" s="215"/>
+      <c r="BU5" s="215"/>
+      <c r="BV5" s="215"/>
+      <c r="BW5" s="215"/>
+      <c r="BX5" s="215"/>
+      <c r="BY5" s="215"/>
+      <c r="BZ5" s="215"/>
+      <c r="CA5" s="215"/>
+      <c r="CB5" s="216" t="s">
         <v>468</v>
       </c>
-      <c r="BX5" s="281"/>
-      <c r="BY5" s="281"/>
-      <c r="BZ5" s="281"/>
-      <c r="CA5" s="281"/>
-      <c r="CB5" s="281"/>
-      <c r="CC5" s="281"/>
-      <c r="CD5" s="281"/>
-      <c r="CE5" s="281"/>
-      <c r="CF5" s="281"/>
-      <c r="CG5" s="281"/>
-      <c r="CH5" s="281"/>
-      <c r="CI5" s="281"/>
-    </row>
-    <row r="6" spans="1:166" s="60" customFormat="1" ht="26" customHeight="1">
-      <c r="A6" s="155" t="s">
+      <c r="CC5" s="216"/>
+      <c r="CD5" s="216"/>
+      <c r="CE5" s="216"/>
+      <c r="CF5" s="216"/>
+      <c r="CG5" s="216"/>
+      <c r="CH5" s="216"/>
+      <c r="CI5" s="216"/>
+      <c r="CJ5" s="216"/>
+      <c r="CK5" s="216"/>
+      <c r="CL5" s="216"/>
+      <c r="CM5" s="216"/>
+      <c r="CN5" s="216"/>
+    </row>
+    <row r="6" spans="1:171" s="60" customFormat="1" ht="26" customHeight="1">
+      <c r="A6" s="204" t="s">
         <v>344</v>
       </c>
       <c r="B6" s="108"/>
-      <c r="C6" s="248"/>
-      <c r="D6" s="254" t="s">
+      <c r="C6" s="176"/>
+      <c r="D6" s="185" t="s">
         <v>286</v>
       </c>
-      <c r="E6" s="254" t="s">
+      <c r="E6" s="185" t="s">
         <v>285</v>
       </c>
-      <c r="F6" s="254" t="s">
+      <c r="F6" s="185" t="s">
         <v>288</v>
       </c>
-      <c r="G6" s="258" t="s">
+      <c r="G6" s="184" t="s">
         <v>262</v>
       </c>
-      <c r="H6" s="258"/>
-      <c r="I6" s="258"/>
-      <c r="J6" s="258"/>
-      <c r="K6" s="258"/>
-      <c r="L6" s="258"/>
-      <c r="M6" s="258"/>
-      <c r="N6" s="158" t="s">
+      <c r="H6" s="184"/>
+      <c r="I6" s="184"/>
+      <c r="J6" s="184"/>
+      <c r="K6" s="184"/>
+      <c r="L6" s="184"/>
+      <c r="M6" s="184"/>
+      <c r="N6" s="219" t="s">
         <v>503</v>
       </c>
-      <c r="O6" s="158"/>
-      <c r="P6" s="158"/>
-      <c r="Q6" s="158"/>
-      <c r="R6" s="158"/>
-      <c r="S6" s="158"/>
-      <c r="T6" s="158"/>
-      <c r="U6" s="158"/>
-      <c r="V6" s="158"/>
-      <c r="W6" s="158"/>
-      <c r="X6" s="158"/>
-      <c r="Y6" s="158"/>
-      <c r="Z6" s="158"/>
-      <c r="AA6" s="158"/>
-      <c r="AB6" s="158"/>
-      <c r="AC6" s="158"/>
-      <c r="AD6" s="158"/>
-      <c r="AE6" s="158"/>
-      <c r="AF6" s="158"/>
-      <c r="AG6" s="158"/>
-      <c r="AH6" s="158"/>
-      <c r="AI6" s="158"/>
-      <c r="AJ6" s="158"/>
-      <c r="AK6" s="158"/>
-      <c r="AL6" s="158"/>
-      <c r="AM6" s="259" t="s">
+      <c r="O6" s="219"/>
+      <c r="P6" s="219"/>
+      <c r="Q6" s="219"/>
+      <c r="R6" s="219"/>
+      <c r="S6" s="219"/>
+      <c r="T6" s="219"/>
+      <c r="U6" s="219"/>
+      <c r="V6" s="219"/>
+      <c r="W6" s="219"/>
+      <c r="X6" s="219"/>
+      <c r="Y6" s="219"/>
+      <c r="Z6" s="219"/>
+      <c r="AA6" s="219"/>
+      <c r="AB6" s="219"/>
+      <c r="AC6" s="219"/>
+      <c r="AD6" s="219"/>
+      <c r="AE6" s="219"/>
+      <c r="AF6" s="219"/>
+      <c r="AG6" s="219"/>
+      <c r="AH6" s="219"/>
+      <c r="AI6" s="219"/>
+      <c r="AJ6" s="219"/>
+      <c r="AK6" s="219"/>
+      <c r="AL6" s="219"/>
+      <c r="AM6" s="178" t="s">
         <v>28</v>
       </c>
-      <c r="AN6" s="260"/>
-      <c r="AO6" s="260"/>
-      <c r="AP6" s="260"/>
-      <c r="AQ6" s="260"/>
-      <c r="AR6" s="261"/>
-      <c r="AS6" s="258" t="s">
+      <c r="AN6" s="179"/>
+      <c r="AO6" s="179"/>
+      <c r="AP6" s="179"/>
+      <c r="AQ6" s="179"/>
+      <c r="AR6" s="180"/>
+      <c r="AS6" s="184" t="s">
         <v>275</v>
       </c>
-      <c r="AT6" s="258"/>
-      <c r="AU6" s="258"/>
-      <c r="AV6" s="258"/>
-      <c r="AW6" s="258"/>
-      <c r="AX6" s="258" t="s">
+      <c r="AT6" s="184"/>
+      <c r="AU6" s="184"/>
+      <c r="AV6" s="184"/>
+      <c r="AW6" s="184"/>
+      <c r="AX6" s="184" t="s">
         <v>276</v>
       </c>
-      <c r="AY6" s="258"/>
-      <c r="AZ6" s="258"/>
-      <c r="BA6" s="254" t="s">
+      <c r="AY6" s="184"/>
+      <c r="AZ6" s="184"/>
+      <c r="BA6" s="184"/>
+      <c r="BB6" s="185" t="s">
+        <v>509</v>
+      </c>
+      <c r="BC6" s="185" t="s">
+        <v>137</v>
+      </c>
+      <c r="BD6" s="185"/>
+      <c r="BE6" s="185"/>
+      <c r="BF6" s="185" t="s">
         <v>290</v>
       </c>
-      <c r="BB6" s="254" t="s">
+      <c r="BG6" s="185" t="s">
         <v>387</v>
       </c>
-      <c r="BC6" s="258" t="s">
+      <c r="BH6" s="184" t="s">
         <v>259</v>
       </c>
-      <c r="BD6" s="258"/>
-      <c r="BE6" s="258"/>
-      <c r="BF6" s="258"/>
-      <c r="BG6" s="258"/>
-      <c r="BH6" s="276" t="s">
+      <c r="BI6" s="184"/>
+      <c r="BJ6" s="184"/>
+      <c r="BK6" s="184"/>
+      <c r="BL6" s="184"/>
+      <c r="BM6" s="163" t="s">
         <v>353</v>
       </c>
-      <c r="BI6" s="276" t="s">
+      <c r="BN6" s="163" t="s">
         <v>354</v>
       </c>
-      <c r="BJ6" s="276" t="s">
+      <c r="BO6" s="163" t="s">
         <v>297</v>
       </c>
-      <c r="BK6" s="276" t="s">
+      <c r="BP6" s="163" t="s">
         <v>391</v>
       </c>
-      <c r="BL6" s="259" t="s">
+      <c r="BQ6" s="178" t="s">
         <v>266</v>
       </c>
-      <c r="BM6" s="261"/>
-      <c r="BN6" s="272" t="s">
+      <c r="BR6" s="180"/>
+      <c r="BS6" s="165" t="s">
         <v>480</v>
       </c>
-      <c r="BO6" s="278"/>
-      <c r="BP6" s="278"/>
-      <c r="BQ6" s="278"/>
-      <c r="BR6" s="278"/>
-      <c r="BS6" s="278"/>
-      <c r="BT6" s="278"/>
-      <c r="BU6" s="278"/>
-      <c r="BV6" s="273"/>
-      <c r="BW6" s="276" t="s">
+      <c r="BT6" s="169"/>
+      <c r="BU6" s="169"/>
+      <c r="BV6" s="169"/>
+      <c r="BW6" s="169"/>
+      <c r="BX6" s="169"/>
+      <c r="BY6" s="169"/>
+      <c r="BZ6" s="169"/>
+      <c r="CA6" s="166"/>
+      <c r="CB6" s="163" t="s">
         <v>137</v>
       </c>
-      <c r="BX6" s="276" t="s">
+      <c r="CC6" s="163" t="s">
         <v>283</v>
       </c>
-      <c r="BY6" s="272" t="s">
+      <c r="CD6" s="165" t="s">
         <v>306</v>
       </c>
-      <c r="BZ6" s="273"/>
-      <c r="CA6" s="276" t="s">
+      <c r="CE6" s="166"/>
+      <c r="CF6" s="163" t="s">
         <v>28</v>
       </c>
-      <c r="CB6" s="276" t="s">
+      <c r="CG6" s="163" t="s">
         <v>386</v>
       </c>
-      <c r="CC6" s="272" t="s">
+      <c r="CH6" s="165" t="s">
         <v>305</v>
       </c>
-      <c r="CD6" s="278"/>
-      <c r="CE6" s="278"/>
-      <c r="CF6" s="278"/>
-      <c r="CG6" s="273"/>
-      <c r="CH6" s="250" t="s">
+      <c r="CI6" s="169"/>
+      <c r="CJ6" s="169"/>
+      <c r="CK6" s="169"/>
+      <c r="CL6" s="166"/>
+      <c r="CM6" s="171" t="s">
         <v>307</v>
       </c>
-      <c r="CI6" s="252"/>
-    </row>
-    <row r="7" spans="1:166" s="59" customFormat="1" ht="104" customHeight="1">
-      <c r="A7" s="155"/>
+      <c r="CN6" s="172"/>
+    </row>
+    <row r="7" spans="1:171" s="59" customFormat="1" ht="104" customHeight="1">
+      <c r="A7" s="204"/>
       <c r="B7" s="101"/>
-      <c r="C7" s="249"/>
-      <c r="D7" s="254"/>
-      <c r="E7" s="254"/>
-      <c r="F7" s="254"/>
-      <c r="G7" s="258"/>
-      <c r="H7" s="258"/>
-      <c r="I7" s="258"/>
-      <c r="J7" s="258"/>
-      <c r="K7" s="258"/>
-      <c r="L7" s="258"/>
-      <c r="M7" s="258"/>
-      <c r="N7" s="292" t="s">
+      <c r="C7" s="177"/>
+      <c r="D7" s="185"/>
+      <c r="E7" s="185"/>
+      <c r="F7" s="185"/>
+      <c r="G7" s="184"/>
+      <c r="H7" s="184"/>
+      <c r="I7" s="184"/>
+      <c r="J7" s="184"/>
+      <c r="K7" s="184"/>
+      <c r="L7" s="184"/>
+      <c r="M7" s="184"/>
+      <c r="N7" s="217" t="s">
         <v>430</v>
       </c>
-      <c r="O7" s="267"/>
-      <c r="P7" s="267"/>
-      <c r="Q7" s="267"/>
-      <c r="R7" s="267"/>
-      <c r="S7" s="267"/>
-      <c r="T7" s="267"/>
-      <c r="U7" s="267"/>
-      <c r="V7" s="268"/>
-      <c r="W7" s="254" t="s">
+      <c r="O7" s="213"/>
+      <c r="P7" s="213"/>
+      <c r="Q7" s="213"/>
+      <c r="R7" s="213"/>
+      <c r="S7" s="213"/>
+      <c r="T7" s="213"/>
+      <c r="U7" s="213"/>
+      <c r="V7" s="214"/>
+      <c r="W7" s="185" t="s">
         <v>431</v>
       </c>
-      <c r="X7" s="258"/>
-      <c r="Y7" s="258"/>
-      <c r="Z7" s="258"/>
-      <c r="AA7" s="258"/>
-      <c r="AB7" s="258"/>
-      <c r="AC7" s="258"/>
-      <c r="AD7" s="258"/>
-      <c r="AE7" s="258"/>
-      <c r="AF7" s="258"/>
-      <c r="AG7" s="258"/>
-      <c r="AH7" s="258"/>
-      <c r="AI7" s="258"/>
-      <c r="AJ7" s="258"/>
-      <c r="AK7" s="258"/>
-      <c r="AL7" s="258"/>
-      <c r="AM7" s="262"/>
-      <c r="AN7" s="263"/>
-      <c r="AO7" s="263"/>
-      <c r="AP7" s="263"/>
-      <c r="AQ7" s="263"/>
-      <c r="AR7" s="264"/>
-      <c r="AS7" s="258"/>
-      <c r="AT7" s="258"/>
-      <c r="AU7" s="258"/>
-      <c r="AV7" s="258"/>
-      <c r="AW7" s="258"/>
-      <c r="AX7" s="258"/>
-      <c r="AY7" s="258"/>
-      <c r="AZ7" s="258"/>
-      <c r="BA7" s="254"/>
-      <c r="BB7" s="254"/>
-      <c r="BC7" s="258"/>
-      <c r="BD7" s="258"/>
-      <c r="BE7" s="258"/>
-      <c r="BF7" s="258"/>
-      <c r="BG7" s="258"/>
-      <c r="BH7" s="277"/>
-      <c r="BI7" s="277"/>
-      <c r="BJ7" s="277"/>
-      <c r="BK7" s="277"/>
-      <c r="BL7" s="262"/>
-      <c r="BM7" s="264"/>
-      <c r="BN7" s="274"/>
-      <c r="BO7" s="279"/>
-      <c r="BP7" s="279"/>
-      <c r="BQ7" s="279"/>
-      <c r="BR7" s="279"/>
-      <c r="BS7" s="279"/>
-      <c r="BT7" s="279"/>
-      <c r="BU7" s="279"/>
-      <c r="BV7" s="275"/>
-      <c r="BW7" s="277"/>
-      <c r="BX7" s="277"/>
-      <c r="BY7" s="274"/>
-      <c r="BZ7" s="275"/>
-      <c r="CA7" s="277"/>
-      <c r="CB7" s="277"/>
-      <c r="CC7" s="274"/>
-      <c r="CD7" s="279"/>
-      <c r="CE7" s="279"/>
-      <c r="CF7" s="279"/>
-      <c r="CG7" s="275"/>
-      <c r="CH7" s="251"/>
-      <c r="CI7" s="253"/>
-    </row>
-    <row r="8" spans="1:166" ht="23" customHeight="1">
-      <c r="A8" s="176" t="s">
+      <c r="X7" s="184"/>
+      <c r="Y7" s="184"/>
+      <c r="Z7" s="184"/>
+      <c r="AA7" s="184"/>
+      <c r="AB7" s="184"/>
+      <c r="AC7" s="184"/>
+      <c r="AD7" s="184"/>
+      <c r="AE7" s="184"/>
+      <c r="AF7" s="184"/>
+      <c r="AG7" s="184"/>
+      <c r="AH7" s="184"/>
+      <c r="AI7" s="184"/>
+      <c r="AJ7" s="184"/>
+      <c r="AK7" s="184"/>
+      <c r="AL7" s="184"/>
+      <c r="AM7" s="181"/>
+      <c r="AN7" s="182"/>
+      <c r="AO7" s="182"/>
+      <c r="AP7" s="182"/>
+      <c r="AQ7" s="182"/>
+      <c r="AR7" s="183"/>
+      <c r="AS7" s="184"/>
+      <c r="AT7" s="184"/>
+      <c r="AU7" s="184"/>
+      <c r="AV7" s="184"/>
+      <c r="AW7" s="184"/>
+      <c r="AX7" s="184"/>
+      <c r="AY7" s="184"/>
+      <c r="AZ7" s="184"/>
+      <c r="BA7" s="184"/>
+      <c r="BB7" s="185"/>
+      <c r="BC7" s="185"/>
+      <c r="BD7" s="185"/>
+      <c r="BE7" s="185"/>
+      <c r="BF7" s="185"/>
+      <c r="BG7" s="185"/>
+      <c r="BH7" s="184"/>
+      <c r="BI7" s="184"/>
+      <c r="BJ7" s="184"/>
+      <c r="BK7" s="184"/>
+      <c r="BL7" s="184"/>
+      <c r="BM7" s="164"/>
+      <c r="BN7" s="164"/>
+      <c r="BO7" s="164"/>
+      <c r="BP7" s="164"/>
+      <c r="BQ7" s="181"/>
+      <c r="BR7" s="183"/>
+      <c r="BS7" s="167"/>
+      <c r="BT7" s="170"/>
+      <c r="BU7" s="170"/>
+      <c r="BV7" s="170"/>
+      <c r="BW7" s="170"/>
+      <c r="BX7" s="170"/>
+      <c r="BY7" s="170"/>
+      <c r="BZ7" s="170"/>
+      <c r="CA7" s="168"/>
+      <c r="CB7" s="164"/>
+      <c r="CC7" s="164"/>
+      <c r="CD7" s="167"/>
+      <c r="CE7" s="168"/>
+      <c r="CF7" s="164"/>
+      <c r="CG7" s="164"/>
+      <c r="CH7" s="167"/>
+      <c r="CI7" s="170"/>
+      <c r="CJ7" s="170"/>
+      <c r="CK7" s="170"/>
+      <c r="CL7" s="168"/>
+      <c r="CM7" s="173"/>
+      <c r="CN7" s="174"/>
+    </row>
+    <row r="8" spans="1:171" ht="23" customHeight="1">
+      <c r="A8" s="231" t="s">
         <v>373</v>
       </c>
       <c r="B8" s="101"/>
-      <c r="C8" s="249"/>
-      <c r="D8" s="189"/>
-      <c r="E8" s="189"/>
-      <c r="F8" s="189"/>
-      <c r="G8" s="256" t="s">
+      <c r="C8" s="177"/>
+      <c r="D8" s="195"/>
+      <c r="E8" s="195"/>
+      <c r="F8" s="195"/>
+      <c r="G8" s="206" t="s">
         <v>375</v>
       </c>
-      <c r="H8" s="256" t="s">
+      <c r="H8" s="206" t="s">
         <v>267</v>
       </c>
-      <c r="I8" s="256" t="s">
+      <c r="I8" s="206" t="s">
         <v>268</v>
       </c>
-      <c r="J8" s="256" t="s">
+      <c r="J8" s="206" t="s">
         <v>261</v>
       </c>
-      <c r="K8" s="256" t="s">
+      <c r="K8" s="206" t="s">
         <v>269</v>
       </c>
-      <c r="L8" s="256" t="s">
+      <c r="L8" s="206" t="s">
         <v>284</v>
       </c>
-      <c r="M8" s="256" t="s">
+      <c r="M8" s="206" t="s">
         <v>283</v>
       </c>
-      <c r="N8" s="256" t="s">
+      <c r="N8" s="206" t="s">
         <v>432</v>
       </c>
-      <c r="O8" s="256" t="s">
+      <c r="O8" s="206" t="s">
         <v>395</v>
       </c>
-      <c r="P8" s="183" t="s">
+      <c r="P8" s="208" t="s">
         <v>500</v>
       </c>
-      <c r="Q8" s="184"/>
-      <c r="R8" s="184"/>
-      <c r="S8" s="184"/>
-      <c r="T8" s="184"/>
-      <c r="U8" s="184"/>
-      <c r="V8" s="185"/>
-      <c r="W8" s="256" t="s">
+      <c r="Q8" s="209"/>
+      <c r="R8" s="209"/>
+      <c r="S8" s="209"/>
+      <c r="T8" s="209"/>
+      <c r="U8" s="209"/>
+      <c r="V8" s="210"/>
+      <c r="W8" s="206" t="s">
         <v>379</v>
       </c>
-      <c r="X8" s="256" t="s">
+      <c r="X8" s="206" t="s">
         <v>279</v>
       </c>
-      <c r="Y8" s="256" t="s">
+      <c r="Y8" s="206" t="s">
         <v>508</v>
       </c>
-      <c r="Z8" s="256" t="s">
+      <c r="Z8" s="206" t="s">
         <v>399</v>
       </c>
-      <c r="AA8" s="158" t="s">
+      <c r="AA8" s="219" t="s">
         <v>501</v>
       </c>
-      <c r="AB8" s="158"/>
-      <c r="AC8" s="158"/>
-      <c r="AD8" s="158"/>
-      <c r="AE8" s="158"/>
-      <c r="AF8" s="158"/>
-      <c r="AG8" s="158"/>
-      <c r="AH8" s="158"/>
-      <c r="AI8" s="158"/>
-      <c r="AJ8" s="158"/>
-      <c r="AK8" s="158"/>
-      <c r="AL8" s="158"/>
-      <c r="AM8" s="265" t="s">
+      <c r="AB8" s="219"/>
+      <c r="AC8" s="219"/>
+      <c r="AD8" s="219"/>
+      <c r="AE8" s="219"/>
+      <c r="AF8" s="219"/>
+      <c r="AG8" s="219"/>
+      <c r="AH8" s="219"/>
+      <c r="AI8" s="219"/>
+      <c r="AJ8" s="219"/>
+      <c r="AK8" s="219"/>
+      <c r="AL8" s="219"/>
+      <c r="AM8" s="220" t="s">
         <v>447</v>
       </c>
-      <c r="AN8" s="265" t="s">
+      <c r="AN8" s="220" t="s">
         <v>448</v>
       </c>
-      <c r="AO8" s="265" t="s">
+      <c r="AO8" s="220" t="s">
         <v>449</v>
       </c>
-      <c r="AP8" s="265" t="s">
+      <c r="AP8" s="220" t="s">
         <v>450</v>
       </c>
-      <c r="AQ8" s="265" t="s">
+      <c r="AQ8" s="220" t="s">
         <v>451</v>
       </c>
-      <c r="AR8" s="265" t="s">
+      <c r="AR8" s="220" t="s">
         <v>452</v>
       </c>
-      <c r="AS8" s="256" t="s">
+      <c r="AS8" s="206" t="s">
         <v>258</v>
       </c>
-      <c r="AT8" s="256" t="s">
+      <c r="AT8" s="206" t="s">
         <v>274</v>
       </c>
-      <c r="AU8" s="256" t="s">
+      <c r="AU8" s="206" t="s">
         <v>277</v>
       </c>
-      <c r="AV8" s="256" t="s">
+      <c r="AV8" s="206" t="s">
         <v>261</v>
       </c>
-      <c r="AW8" s="256" t="s">
+      <c r="AW8" s="206" t="s">
         <v>273</v>
       </c>
-      <c r="AX8" s="256" t="s">
+      <c r="AX8" s="206" t="s">
+        <v>509</v>
+      </c>
+      <c r="AY8" s="206" t="s">
         <v>272</v>
       </c>
-      <c r="AY8" s="256" t="s">
+      <c r="AZ8" s="206" t="s">
         <v>44</v>
       </c>
-      <c r="AZ8" s="256" t="s">
+      <c r="BA8" s="206" t="s">
         <v>273</v>
       </c>
-      <c r="BA8" s="269" t="s">
+      <c r="BB8" s="159"/>
+      <c r="BC8" s="159"/>
+      <c r="BD8" s="159"/>
+      <c r="BE8" s="159"/>
+      <c r="BF8" s="161" t="s">
         <v>269</v>
       </c>
-      <c r="BB8" s="269" t="s">
+      <c r="BG8" s="161" t="s">
         <v>269</v>
       </c>
-      <c r="BC8" s="256" t="s">
+      <c r="BH8" s="206" t="s">
         <v>270</v>
       </c>
-      <c r="BD8" s="256" t="s">
+      <c r="BI8" s="206" t="s">
         <v>268</v>
       </c>
-      <c r="BE8" s="256" t="s">
+      <c r="BJ8" s="206" t="s">
         <v>314</v>
       </c>
-      <c r="BF8" s="256" t="s">
+      <c r="BK8" s="206" t="s">
         <v>313</v>
       </c>
-      <c r="BG8" s="256" t="s">
+      <c r="BL8" s="206" t="s">
         <v>312</v>
       </c>
-      <c r="BH8" s="189"/>
-      <c r="BI8" s="189"/>
-      <c r="BJ8" s="189"/>
-      <c r="BK8" s="189"/>
-      <c r="BL8" s="256" t="s">
+      <c r="BM8" s="195"/>
+      <c r="BN8" s="195"/>
+      <c r="BO8" s="195"/>
+      <c r="BP8" s="195"/>
+      <c r="BQ8" s="206" t="s">
         <v>356</v>
       </c>
-      <c r="BM8" s="256" t="s">
+      <c r="BR8" s="206" t="s">
         <v>1</v>
       </c>
-      <c r="BN8" s="282" t="s">
+      <c r="BS8" s="188" t="s">
         <v>388</v>
       </c>
-      <c r="BO8" s="283"/>
-      <c r="BP8" s="283"/>
-      <c r="BQ8" s="284"/>
-      <c r="BR8" s="256" t="s">
+      <c r="BT8" s="189"/>
+      <c r="BU8" s="189"/>
+      <c r="BV8" s="190"/>
+      <c r="BW8" s="206" t="s">
         <v>422</v>
       </c>
-      <c r="BS8" s="256" t="s">
+      <c r="BX8" s="206" t="s">
         <v>506</v>
       </c>
-      <c r="BT8" s="282" t="s">
+      <c r="BY8" s="188" t="s">
         <v>502</v>
       </c>
-      <c r="BU8" s="284"/>
-      <c r="BV8" s="256" t="s">
+      <c r="BZ8" s="190"/>
+      <c r="CA8" s="206" t="s">
         <v>484</v>
       </c>
-      <c r="BW8" s="189"/>
-      <c r="BX8" s="189"/>
-      <c r="BY8" s="182" t="s">
+      <c r="CB8" s="195"/>
+      <c r="CC8" s="195"/>
+      <c r="CD8" s="203" t="s">
         <v>471</v>
       </c>
-      <c r="BZ8" s="182" t="s">
+      <c r="CE8" s="203" t="s">
         <v>472</v>
       </c>
-      <c r="CA8" s="189"/>
-      <c r="CB8" s="189"/>
-      <c r="CC8" s="280" t="s">
+      <c r="CF8" s="195"/>
+      <c r="CG8" s="195"/>
+      <c r="CH8" s="194" t="s">
         <v>384</v>
       </c>
-      <c r="CD8" s="280" t="s">
+      <c r="CI8" s="194" t="s">
         <v>385</v>
       </c>
-      <c r="CE8" s="280"/>
-      <c r="CF8" s="280"/>
-      <c r="CG8" s="280"/>
-      <c r="CH8" s="182" t="s">
+      <c r="CJ8" s="194"/>
+      <c r="CK8" s="194"/>
+      <c r="CL8" s="194"/>
+      <c r="CM8" s="203" t="s">
         <v>308</v>
       </c>
-      <c r="CI8" s="182" t="s">
+      <c r="CN8" s="203" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="9" spans="1:166" ht="47" customHeight="1">
-      <c r="A9" s="177"/>
+    <row r="9" spans="1:171" ht="47" customHeight="1">
+      <c r="A9" s="232"/>
       <c r="B9" s="101"/>
-      <c r="C9" s="249"/>
-      <c r="D9" s="190"/>
-      <c r="E9" s="190"/>
-      <c r="F9" s="190"/>
-      <c r="G9" s="257"/>
-      <c r="H9" s="257"/>
-      <c r="I9" s="257"/>
-      <c r="J9" s="257"/>
-      <c r="K9" s="257"/>
-      <c r="L9" s="257"/>
-      <c r="M9" s="257"/>
-      <c r="N9" s="257"/>
-      <c r="O9" s="257"/>
-      <c r="P9" s="288" t="s">
+      <c r="C9" s="177"/>
+      <c r="D9" s="196"/>
+      <c r="E9" s="196"/>
+      <c r="F9" s="196"/>
+      <c r="G9" s="207"/>
+      <c r="H9" s="207"/>
+      <c r="I9" s="207"/>
+      <c r="J9" s="207"/>
+      <c r="K9" s="207"/>
+      <c r="L9" s="207"/>
+      <c r="M9" s="207"/>
+      <c r="N9" s="207"/>
+      <c r="O9" s="207"/>
+      <c r="P9" s="233" t="s">
         <v>446</v>
       </c>
-      <c r="Q9" s="289"/>
-      <c r="R9" s="289"/>
-      <c r="S9" s="289"/>
-      <c r="T9" s="289"/>
-      <c r="U9" s="289"/>
-      <c r="V9" s="290"/>
-      <c r="W9" s="257"/>
-      <c r="X9" s="257"/>
-      <c r="Y9" s="257"/>
-      <c r="Z9" s="257"/>
-      <c r="AA9" s="291" t="s">
+      <c r="Q9" s="234"/>
+      <c r="R9" s="234"/>
+      <c r="S9" s="234"/>
+      <c r="T9" s="234"/>
+      <c r="U9" s="234"/>
+      <c r="V9" s="235"/>
+      <c r="W9" s="207"/>
+      <c r="X9" s="207"/>
+      <c r="Y9" s="207"/>
+      <c r="Z9" s="207"/>
+      <c r="AA9" s="227" t="s">
         <v>445</v>
       </c>
-      <c r="AB9" s="291"/>
-      <c r="AC9" s="291"/>
-      <c r="AD9" s="291"/>
-      <c r="AE9" s="291"/>
-      <c r="AF9" s="291"/>
-      <c r="AG9" s="291"/>
-      <c r="AH9" s="291"/>
-      <c r="AI9" s="291"/>
-      <c r="AJ9" s="291"/>
-      <c r="AK9" s="291"/>
-      <c r="AL9" s="291"/>
-      <c r="AM9" s="265"/>
-      <c r="AN9" s="265"/>
-      <c r="AO9" s="265"/>
-      <c r="AP9" s="265"/>
-      <c r="AQ9" s="265"/>
-      <c r="AR9" s="265"/>
-      <c r="AS9" s="257"/>
-      <c r="AT9" s="257"/>
-      <c r="AU9" s="257"/>
-      <c r="AV9" s="257"/>
-      <c r="AW9" s="257"/>
-      <c r="AX9" s="257"/>
-      <c r="AY9" s="257"/>
-      <c r="AZ9" s="257"/>
-      <c r="BA9" s="270" t="s">
+      <c r="AB9" s="227"/>
+      <c r="AC9" s="227"/>
+      <c r="AD9" s="227"/>
+      <c r="AE9" s="227"/>
+      <c r="AF9" s="227"/>
+      <c r="AG9" s="227"/>
+      <c r="AH9" s="227"/>
+      <c r="AI9" s="227"/>
+      <c r="AJ9" s="227"/>
+      <c r="AK9" s="227"/>
+      <c r="AL9" s="227"/>
+      <c r="AM9" s="220"/>
+      <c r="AN9" s="220"/>
+      <c r="AO9" s="220"/>
+      <c r="AP9" s="220"/>
+      <c r="AQ9" s="220"/>
+      <c r="AR9" s="220"/>
+      <c r="AS9" s="207"/>
+      <c r="AT9" s="207"/>
+      <c r="AU9" s="207"/>
+      <c r="AV9" s="207"/>
+      <c r="AW9" s="207"/>
+      <c r="AX9" s="207"/>
+      <c r="AY9" s="207"/>
+      <c r="AZ9" s="207"/>
+      <c r="BA9" s="207"/>
+      <c r="BB9" s="160"/>
+      <c r="BC9" s="160"/>
+      <c r="BD9" s="160"/>
+      <c r="BE9" s="160"/>
+      <c r="BF9" s="162" t="s">
         <v>456</v>
       </c>
-      <c r="BB9" s="270" t="s">
+      <c r="BG9" s="162" t="s">
         <v>457</v>
       </c>
-      <c r="BC9" s="257"/>
-      <c r="BD9" s="257"/>
-      <c r="BE9" s="257"/>
-      <c r="BF9" s="257"/>
-      <c r="BG9" s="257"/>
-      <c r="BH9" s="190"/>
-      <c r="BI9" s="190"/>
-      <c r="BJ9" s="190"/>
-      <c r="BK9" s="190"/>
-      <c r="BL9" s="257"/>
-      <c r="BM9" s="257"/>
-      <c r="BN9" s="285"/>
-      <c r="BO9" s="286"/>
-      <c r="BP9" s="286"/>
-      <c r="BQ9" s="287"/>
-      <c r="BR9" s="257"/>
-      <c r="BS9" s="257"/>
-      <c r="BT9" s="285"/>
-      <c r="BU9" s="287"/>
-      <c r="BV9" s="257"/>
-      <c r="BW9" s="190"/>
-      <c r="BX9" s="190"/>
-      <c r="BY9" s="182"/>
-      <c r="BZ9" s="182"/>
-      <c r="CA9" s="190"/>
-      <c r="CB9" s="190"/>
-      <c r="CC9" s="280"/>
-      <c r="CD9" s="280"/>
-      <c r="CE9" s="280"/>
-      <c r="CF9" s="280"/>
-      <c r="CG9" s="280"/>
-      <c r="CH9" s="182"/>
-      <c r="CI9" s="182"/>
-    </row>
-    <row r="10" spans="1:166" ht="32" customHeight="1">
-      <c r="A10" s="155" t="s">
+      <c r="BH9" s="207"/>
+      <c r="BI9" s="207"/>
+      <c r="BJ9" s="207"/>
+      <c r="BK9" s="207"/>
+      <c r="BL9" s="207"/>
+      <c r="BM9" s="196"/>
+      <c r="BN9" s="196"/>
+      <c r="BO9" s="196"/>
+      <c r="BP9" s="196"/>
+      <c r="BQ9" s="207"/>
+      <c r="BR9" s="207"/>
+      <c r="BS9" s="191"/>
+      <c r="BT9" s="192"/>
+      <c r="BU9" s="192"/>
+      <c r="BV9" s="193"/>
+      <c r="BW9" s="207"/>
+      <c r="BX9" s="207"/>
+      <c r="BY9" s="191"/>
+      <c r="BZ9" s="193"/>
+      <c r="CA9" s="207"/>
+      <c r="CB9" s="196"/>
+      <c r="CC9" s="196"/>
+      <c r="CD9" s="203"/>
+      <c r="CE9" s="203"/>
+      <c r="CF9" s="196"/>
+      <c r="CG9" s="196"/>
+      <c r="CH9" s="194"/>
+      <c r="CI9" s="194"/>
+      <c r="CJ9" s="194"/>
+      <c r="CK9" s="194"/>
+      <c r="CL9" s="194"/>
+      <c r="CM9" s="203"/>
+      <c r="CN9" s="203"/>
+    </row>
+    <row r="10" spans="1:171" ht="32" customHeight="1">
+      <c r="A10" s="204" t="s">
         <v>374</v>
       </c>
       <c r="B10" s="127"/>
-      <c r="C10" s="249"/>
-      <c r="D10" s="190"/>
-      <c r="E10" s="190"/>
-      <c r="F10" s="190"/>
-      <c r="G10" s="174"/>
-      <c r="H10" s="174"/>
-      <c r="I10" s="174"/>
-      <c r="J10" s="174"/>
-      <c r="K10" s="174"/>
-      <c r="L10" s="174"/>
-      <c r="M10" s="174"/>
-      <c r="N10" s="174"/>
-      <c r="O10" s="174"/>
-      <c r="P10" s="183" t="s">
+      <c r="C10" s="177"/>
+      <c r="D10" s="196"/>
+      <c r="E10" s="196"/>
+      <c r="F10" s="196"/>
+      <c r="G10" s="201"/>
+      <c r="H10" s="201"/>
+      <c r="I10" s="201"/>
+      <c r="J10" s="201"/>
+      <c r="K10" s="201"/>
+      <c r="L10" s="201"/>
+      <c r="M10" s="201"/>
+      <c r="N10" s="201"/>
+      <c r="O10" s="201"/>
+      <c r="P10" s="208" t="s">
         <v>263</v>
       </c>
-      <c r="Q10" s="184"/>
-      <c r="R10" s="184"/>
-      <c r="S10" s="184"/>
-      <c r="T10" s="184"/>
-      <c r="U10" s="184"/>
-      <c r="V10" s="185"/>
-      <c r="W10" s="174"/>
-      <c r="X10" s="174"/>
-      <c r="Y10" s="174" t="s">
+      <c r="Q10" s="209"/>
+      <c r="R10" s="209"/>
+      <c r="S10" s="209"/>
+      <c r="T10" s="209"/>
+      <c r="U10" s="209"/>
+      <c r="V10" s="210"/>
+      <c r="W10" s="201"/>
+      <c r="X10" s="201"/>
+      <c r="Y10" s="201" t="s">
         <v>507</v>
       </c>
-      <c r="Z10" s="174"/>
-      <c r="AA10" s="158" t="s">
+      <c r="Z10" s="201"/>
+      <c r="AA10" s="219" t="s">
         <v>263</v>
       </c>
-      <c r="AB10" s="158"/>
-      <c r="AC10" s="158"/>
-      <c r="AD10" s="158"/>
-      <c r="AE10" s="158"/>
-      <c r="AF10" s="158"/>
-      <c r="AG10" s="158"/>
-      <c r="AH10" s="158"/>
-      <c r="AI10" s="158"/>
-      <c r="AJ10" s="158"/>
-      <c r="AK10" s="158"/>
-      <c r="AL10" s="158"/>
-      <c r="AM10" s="174"/>
-      <c r="AN10" s="174"/>
-      <c r="AO10" s="174"/>
-      <c r="AP10" s="174"/>
-      <c r="AQ10" s="174"/>
-      <c r="AR10" s="174"/>
-      <c r="AS10" s="174"/>
-      <c r="AT10" s="174"/>
-      <c r="AU10" s="174"/>
-      <c r="AV10" s="174"/>
-      <c r="AW10" s="174"/>
-      <c r="AX10" s="174"/>
-      <c r="AY10" s="174"/>
-      <c r="AZ10" s="174"/>
-      <c r="BA10" s="174"/>
-      <c r="BB10" s="174"/>
-      <c r="BC10" s="174"/>
-      <c r="BD10" s="174"/>
-      <c r="BE10" s="143" t="s">
+      <c r="AB10" s="219"/>
+      <c r="AC10" s="219"/>
+      <c r="AD10" s="219"/>
+      <c r="AE10" s="219"/>
+      <c r="AF10" s="219"/>
+      <c r="AG10" s="219"/>
+      <c r="AH10" s="219"/>
+      <c r="AI10" s="219"/>
+      <c r="AJ10" s="219"/>
+      <c r="AK10" s="219"/>
+      <c r="AL10" s="219"/>
+      <c r="AM10" s="201"/>
+      <c r="AN10" s="201"/>
+      <c r="AO10" s="201"/>
+      <c r="AP10" s="201"/>
+      <c r="AQ10" s="201"/>
+      <c r="AR10" s="201"/>
+      <c r="AS10" s="201"/>
+      <c r="AT10" s="201"/>
+      <c r="AU10" s="201"/>
+      <c r="AV10" s="201"/>
+      <c r="AW10" s="201"/>
+      <c r="AX10" s="201"/>
+      <c r="AY10" s="155"/>
+      <c r="AZ10" s="201"/>
+      <c r="BA10" s="201"/>
+      <c r="BB10" s="155"/>
+      <c r="BC10" s="155"/>
+      <c r="BD10" s="155"/>
+      <c r="BE10" s="155"/>
+      <c r="BF10" s="201"/>
+      <c r="BG10" s="201"/>
+      <c r="BH10" s="201"/>
+      <c r="BI10" s="201"/>
+      <c r="BJ10" s="143" t="s">
         <v>269</v>
       </c>
-      <c r="BF10" s="174"/>
-      <c r="BG10" s="69"/>
-      <c r="BH10" s="190"/>
-      <c r="BI10" s="190"/>
-      <c r="BJ10" s="190"/>
-      <c r="BK10" s="190"/>
-      <c r="BL10" s="146" t="s">
+      <c r="BK10" s="201"/>
+      <c r="BL10" s="69"/>
+      <c r="BM10" s="196"/>
+      <c r="BN10" s="196"/>
+      <c r="BO10" s="196"/>
+      <c r="BP10" s="196"/>
+      <c r="BQ10" s="146" t="s">
         <v>467</v>
       </c>
-      <c r="BM10" s="146" t="s">
+      <c r="BR10" s="146" t="s">
         <v>466</v>
       </c>
-      <c r="BN10" s="280" t="s">
+      <c r="BS10" s="194" t="s">
         <v>301</v>
       </c>
-      <c r="BO10" s="280" t="s">
+      <c r="BT10" s="194" t="s">
         <v>268</v>
       </c>
-      <c r="BP10" s="280" t="s">
+      <c r="BU10" s="194" t="s">
         <v>261</v>
       </c>
-      <c r="BQ10" s="280" t="s">
+      <c r="BV10" s="194" t="s">
         <v>269</v>
       </c>
-      <c r="BR10" s="189"/>
-      <c r="BS10" s="143" t="s">
+      <c r="BW10" s="195"/>
+      <c r="BX10" s="143" t="s">
         <v>269</v>
       </c>
-      <c r="BT10" s="159" t="s">
+      <c r="BY10" s="228" t="s">
         <v>269</v>
       </c>
-      <c r="BU10" s="159"/>
-      <c r="BV10" s="153" t="s">
+      <c r="BZ10" s="228"/>
+      <c r="CA10" s="153" t="s">
         <v>269</v>
       </c>
-      <c r="BW10" s="190"/>
-      <c r="BX10" s="190"/>
-      <c r="BY10" s="191"/>
-      <c r="BZ10" s="191"/>
-      <c r="CA10" s="190"/>
-      <c r="CB10" s="190"/>
-      <c r="CC10" s="191"/>
-      <c r="CD10" s="182">
+      <c r="CB10" s="196"/>
+      <c r="CC10" s="196"/>
+      <c r="CD10" s="186"/>
+      <c r="CE10" s="186"/>
+      <c r="CF10" s="196"/>
+      <c r="CG10" s="196"/>
+      <c r="CH10" s="186"/>
+      <c r="CI10" s="203">
         <v>1</v>
       </c>
-      <c r="CE10" s="182">
+      <c r="CJ10" s="203">
         <v>2</v>
       </c>
-      <c r="CF10" s="182">
+      <c r="CK10" s="203">
         <v>3</v>
       </c>
-      <c r="CG10" s="182">
+      <c r="CL10" s="203">
         <v>4</v>
       </c>
-      <c r="CH10" s="191"/>
-      <c r="CI10" s="191"/>
-    </row>
-    <row r="11" spans="1:166" ht="34">
-      <c r="A11" s="155"/>
+      <c r="CM10" s="186"/>
+      <c r="CN10" s="186"/>
+    </row>
+    <row r="11" spans="1:171" ht="34">
+      <c r="A11" s="204"/>
       <c r="B11" s="127"/>
-      <c r="C11" s="249"/>
-      <c r="D11" s="190"/>
-      <c r="E11" s="190"/>
-      <c r="F11" s="190"/>
-      <c r="G11" s="175"/>
-      <c r="H11" s="175"/>
-      <c r="I11" s="175"/>
-      <c r="J11" s="175"/>
-      <c r="K11" s="175"/>
-      <c r="L11" s="175"/>
-      <c r="M11" s="175"/>
-      <c r="N11" s="175"/>
-      <c r="O11" s="175"/>
+      <c r="C11" s="177"/>
+      <c r="D11" s="196"/>
+      <c r="E11" s="196"/>
+      <c r="F11" s="196"/>
+      <c r="G11" s="202"/>
+      <c r="H11" s="202"/>
+      <c r="I11" s="202"/>
+      <c r="J11" s="202"/>
+      <c r="K11" s="202"/>
+      <c r="L11" s="202"/>
+      <c r="M11" s="202"/>
+      <c r="N11" s="202"/>
+      <c r="O11" s="202"/>
       <c r="P11" s="129" t="s">
         <v>136</v>
       </c>
       <c r="Q11" s="129" t="s">
         <v>137</v>
       </c>
-      <c r="R11" s="163" t="s">
+      <c r="R11" s="221" t="s">
         <v>427</v>
       </c>
-      <c r="S11" s="164"/>
-      <c r="T11" s="164"/>
-      <c r="U11" s="164"/>
-      <c r="V11" s="165"/>
-      <c r="W11" s="175"/>
-      <c r="X11" s="175"/>
-      <c r="Y11" s="175"/>
-      <c r="Z11" s="175"/>
+      <c r="S11" s="222"/>
+      <c r="T11" s="222"/>
+      <c r="U11" s="222"/>
+      <c r="V11" s="223"/>
+      <c r="W11" s="202"/>
+      <c r="X11" s="202"/>
+      <c r="Y11" s="202"/>
+      <c r="Z11" s="202"/>
       <c r="AA11" s="139" t="s">
         <v>136</v>
       </c>
@@ -4526,473 +4598,498 @@
       <c r="AD11" s="139" t="s">
         <v>281</v>
       </c>
-      <c r="AE11" s="166" t="s">
+      <c r="AE11" s="224" t="s">
         <v>427</v>
       </c>
-      <c r="AF11" s="167"/>
-      <c r="AG11" s="167"/>
-      <c r="AH11" s="168"/>
-      <c r="AI11" s="166" t="s">
+      <c r="AF11" s="225"/>
+      <c r="AG11" s="225"/>
+      <c r="AH11" s="226"/>
+      <c r="AI11" s="224" t="s">
         <v>140</v>
       </c>
-      <c r="AJ11" s="167"/>
-      <c r="AK11" s="167"/>
-      <c r="AL11" s="168"/>
-      <c r="AM11" s="175"/>
-      <c r="AN11" s="175"/>
-      <c r="AO11" s="175"/>
-      <c r="AP11" s="175"/>
-      <c r="AQ11" s="175"/>
-      <c r="AR11" s="175"/>
-      <c r="AS11" s="175"/>
-      <c r="AT11" s="175"/>
-      <c r="AU11" s="175"/>
-      <c r="AV11" s="175"/>
-      <c r="AW11" s="175"/>
-      <c r="AX11" s="175"/>
-      <c r="AY11" s="175"/>
-      <c r="AZ11" s="175"/>
-      <c r="BA11" s="175"/>
-      <c r="BB11" s="175"/>
-      <c r="BC11" s="175"/>
-      <c r="BD11" s="175"/>
-      <c r="BE11" s="96" t="s">
+      <c r="AJ11" s="225"/>
+      <c r="AK11" s="225"/>
+      <c r="AL11" s="226"/>
+      <c r="AM11" s="202"/>
+      <c r="AN11" s="202"/>
+      <c r="AO11" s="202"/>
+      <c r="AP11" s="202"/>
+      <c r="AQ11" s="202"/>
+      <c r="AR11" s="202"/>
+      <c r="AS11" s="202"/>
+      <c r="AT11" s="202"/>
+      <c r="AU11" s="202"/>
+      <c r="AV11" s="202"/>
+      <c r="AW11" s="202"/>
+      <c r="AX11" s="202"/>
+      <c r="AY11" s="156"/>
+      <c r="AZ11" s="202"/>
+      <c r="BA11" s="202"/>
+      <c r="BB11" s="156"/>
+      <c r="BC11" s="156"/>
+      <c r="BD11" s="156"/>
+      <c r="BE11" s="156"/>
+      <c r="BF11" s="202"/>
+      <c r="BG11" s="202"/>
+      <c r="BH11" s="202"/>
+      <c r="BI11" s="202"/>
+      <c r="BJ11" s="96" t="s">
         <v>459</v>
       </c>
-      <c r="BF11" s="175"/>
-      <c r="BG11" s="69"/>
-      <c r="BH11" s="190"/>
-      <c r="BI11" s="190"/>
-      <c r="BJ11" s="190"/>
-      <c r="BK11" s="190"/>
-      <c r="BL11" s="54" t="s">
+      <c r="BK11" s="202"/>
+      <c r="BL11" s="69"/>
+      <c r="BM11" s="196"/>
+      <c r="BN11" s="196"/>
+      <c r="BO11" s="196"/>
+      <c r="BP11" s="196"/>
+      <c r="BQ11" s="54" t="s">
         <v>465</v>
       </c>
-      <c r="BM11" s="54" t="s">
+      <c r="BR11" s="54" t="s">
         <v>445</v>
       </c>
-      <c r="BN11" s="280"/>
-      <c r="BO11" s="280"/>
-      <c r="BP11" s="280"/>
-      <c r="BQ11" s="280"/>
-      <c r="BR11" s="190"/>
-      <c r="BS11" s="96" t="s">
+      <c r="BS11" s="194"/>
+      <c r="BT11" s="194"/>
+      <c r="BU11" s="194"/>
+      <c r="BV11" s="194"/>
+      <c r="BW11" s="196"/>
+      <c r="BX11" s="96" t="s">
         <v>459</v>
       </c>
-      <c r="BT11" s="160" t="s">
+      <c r="BY11" s="229" t="s">
         <v>456</v>
       </c>
-      <c r="BU11" s="160"/>
-      <c r="BV11" s="154" t="s">
+      <c r="BZ11" s="229"/>
+      <c r="CA11" s="154" t="s">
         <v>456</v>
       </c>
-      <c r="BW11" s="190"/>
-      <c r="BX11" s="190"/>
-      <c r="BY11" s="192"/>
-      <c r="BZ11" s="192"/>
-      <c r="CA11" s="190"/>
-      <c r="CB11" s="190"/>
-      <c r="CC11" s="192"/>
-      <c r="CD11" s="182"/>
-      <c r="CE11" s="182"/>
-      <c r="CF11" s="182"/>
-      <c r="CG11" s="182"/>
-      <c r="CH11" s="192"/>
-      <c r="CI11" s="192"/>
-    </row>
-    <row r="12" spans="1:166" ht="37" customHeight="1">
-      <c r="A12" s="176" t="s">
+      <c r="CB11" s="196"/>
+      <c r="CC11" s="196"/>
+      <c r="CD11" s="187"/>
+      <c r="CE11" s="187"/>
+      <c r="CF11" s="196"/>
+      <c r="CG11" s="196"/>
+      <c r="CH11" s="187"/>
+      <c r="CI11" s="203"/>
+      <c r="CJ11" s="203"/>
+      <c r="CK11" s="203"/>
+      <c r="CL11" s="203"/>
+      <c r="CM11" s="187"/>
+      <c r="CN11" s="187"/>
+    </row>
+    <row r="12" spans="1:171" ht="37" customHeight="1">
+      <c r="A12" s="231" t="s">
         <v>404</v>
       </c>
       <c r="B12" s="127"/>
-      <c r="C12" s="249"/>
-      <c r="D12" s="190"/>
-      <c r="E12" s="190"/>
-      <c r="F12" s="190"/>
-      <c r="G12" s="175"/>
-      <c r="H12" s="175"/>
-      <c r="I12" s="175"/>
-      <c r="J12" s="175"/>
-      <c r="K12" s="175"/>
-      <c r="L12" s="175"/>
-      <c r="M12" s="175"/>
-      <c r="N12" s="175"/>
-      <c r="O12" s="175"/>
-      <c r="P12" s="186"/>
-      <c r="Q12" s="186"/>
-      <c r="R12" s="182" t="s">
+      <c r="C12" s="177"/>
+      <c r="D12" s="196"/>
+      <c r="E12" s="196"/>
+      <c r="F12" s="196"/>
+      <c r="G12" s="202"/>
+      <c r="H12" s="202"/>
+      <c r="I12" s="202"/>
+      <c r="J12" s="202"/>
+      <c r="K12" s="202"/>
+      <c r="L12" s="202"/>
+      <c r="M12" s="202"/>
+      <c r="N12" s="202"/>
+      <c r="O12" s="202"/>
+      <c r="P12" s="199"/>
+      <c r="Q12" s="199"/>
+      <c r="R12" s="203" t="s">
         <v>141</v>
       </c>
-      <c r="S12" s="181" t="s">
+      <c r="S12" s="211" t="s">
         <v>146</v>
       </c>
-      <c r="T12" s="181" t="s">
+      <c r="T12" s="211" t="s">
         <v>408</v>
       </c>
-      <c r="U12" s="181" t="s">
+      <c r="U12" s="211" t="s">
         <v>409</v>
       </c>
-      <c r="V12" s="181" t="s">
+      <c r="V12" s="211" t="s">
         <v>410</v>
       </c>
-      <c r="W12" s="175"/>
-      <c r="X12" s="175"/>
-      <c r="Y12" s="175"/>
-      <c r="Z12" s="175"/>
-      <c r="AA12" s="186"/>
-      <c r="AB12" s="186"/>
-      <c r="AC12" s="186"/>
-      <c r="AD12" s="186"/>
-      <c r="AE12" s="188" t="s">
+      <c r="W12" s="202"/>
+      <c r="X12" s="202"/>
+      <c r="Y12" s="202"/>
+      <c r="Z12" s="202"/>
+      <c r="AA12" s="199"/>
+      <c r="AB12" s="199"/>
+      <c r="AC12" s="199"/>
+      <c r="AD12" s="199"/>
+      <c r="AE12" s="205" t="s">
         <v>141</v>
       </c>
-      <c r="AF12" s="188" t="s">
+      <c r="AF12" s="205" t="s">
         <v>146</v>
       </c>
-      <c r="AG12" s="188" t="s">
+      <c r="AG12" s="205" t="s">
         <v>400</v>
       </c>
-      <c r="AH12" s="188" t="s">
+      <c r="AH12" s="205" t="s">
         <v>401</v>
       </c>
-      <c r="AI12" s="188" t="s">
+      <c r="AI12" s="205" t="s">
         <v>141</v>
       </c>
-      <c r="AJ12" s="188" t="s">
+      <c r="AJ12" s="205" t="s">
         <v>142</v>
       </c>
-      <c r="AK12" s="188" t="s">
+      <c r="AK12" s="205" t="s">
         <v>143</v>
       </c>
-      <c r="AL12" s="188" t="s">
+      <c r="AL12" s="205" t="s">
         <v>144</v>
       </c>
-      <c r="AM12" s="175"/>
-      <c r="AN12" s="175"/>
-      <c r="AO12" s="175"/>
-      <c r="AP12" s="175"/>
-      <c r="AQ12" s="175"/>
-      <c r="AR12" s="175"/>
-      <c r="AS12" s="175"/>
-      <c r="AT12" s="175"/>
-      <c r="AU12" s="175"/>
-      <c r="AV12" s="175"/>
-      <c r="AW12" s="175"/>
-      <c r="AX12" s="175"/>
-      <c r="AY12" s="175"/>
-      <c r="AZ12" s="175"/>
-      <c r="BA12" s="175"/>
-      <c r="BB12" s="175"/>
-      <c r="BC12" s="175"/>
-      <c r="BD12" s="175"/>
+      <c r="AM12" s="202"/>
+      <c r="AN12" s="202"/>
+      <c r="AO12" s="202"/>
+      <c r="AP12" s="202"/>
+      <c r="AQ12" s="202"/>
+      <c r="AR12" s="202"/>
+      <c r="AS12" s="202"/>
+      <c r="AT12" s="202"/>
+      <c r="AU12" s="202"/>
+      <c r="AV12" s="202"/>
+      <c r="AW12" s="202"/>
+      <c r="AX12" s="202"/>
+      <c r="AY12" s="156"/>
+      <c r="AZ12" s="202"/>
+      <c r="BA12" s="202"/>
+      <c r="BB12" s="156"/>
+      <c r="BC12" s="156"/>
+      <c r="BD12" s="156"/>
       <c r="BE12" s="156"/>
-      <c r="BF12" s="175"/>
-      <c r="BG12" s="69"/>
-      <c r="BH12" s="190"/>
-      <c r="BI12" s="190"/>
-      <c r="BJ12" s="190"/>
-      <c r="BK12" s="190"/>
-      <c r="BL12" s="156"/>
-      <c r="BM12" s="156"/>
-      <c r="BN12" s="156"/>
-      <c r="BO12" s="156"/>
-      <c r="BP12" s="149"/>
-      <c r="BQ12" s="156"/>
-      <c r="BR12" s="190"/>
-      <c r="BS12" s="134"/>
-      <c r="BT12" s="161" t="s">
+      <c r="BF12" s="202"/>
+      <c r="BG12" s="202"/>
+      <c r="BH12" s="202"/>
+      <c r="BI12" s="202"/>
+      <c r="BJ12" s="197"/>
+      <c r="BK12" s="202"/>
+      <c r="BL12" s="69"/>
+      <c r="BM12" s="196"/>
+      <c r="BN12" s="196"/>
+      <c r="BO12" s="196"/>
+      <c r="BP12" s="196"/>
+      <c r="BQ12" s="197"/>
+      <c r="BR12" s="197"/>
+      <c r="BS12" s="197"/>
+      <c r="BT12" s="197"/>
+      <c r="BU12" s="149"/>
+      <c r="BV12" s="197"/>
+      <c r="BW12" s="196"/>
+      <c r="BX12" s="134"/>
+      <c r="BY12" s="230" t="s">
         <v>485</v>
       </c>
-      <c r="BU12" s="161"/>
-      <c r="BV12" s="156"/>
-      <c r="BW12" s="190"/>
-      <c r="BX12" s="190"/>
-      <c r="BY12" s="192"/>
-      <c r="BZ12" s="192"/>
-      <c r="CA12" s="190"/>
-      <c r="CB12" s="190"/>
-      <c r="CC12" s="192"/>
-      <c r="CD12" s="156"/>
-      <c r="CE12" s="156"/>
-      <c r="CF12" s="156"/>
-      <c r="CG12" s="156"/>
-      <c r="CH12" s="192"/>
-      <c r="CI12" s="192"/>
-    </row>
-    <row r="13" spans="1:166" ht="47" customHeight="1">
-      <c r="A13" s="177"/>
+      <c r="BZ12" s="230"/>
+      <c r="CA12" s="197"/>
+      <c r="CB12" s="196"/>
+      <c r="CC12" s="196"/>
+      <c r="CD12" s="187"/>
+      <c r="CE12" s="187"/>
+      <c r="CF12" s="196"/>
+      <c r="CG12" s="196"/>
+      <c r="CH12" s="187"/>
+      <c r="CI12" s="197"/>
+      <c r="CJ12" s="197"/>
+      <c r="CK12" s="197"/>
+      <c r="CL12" s="197"/>
+      <c r="CM12" s="187"/>
+      <c r="CN12" s="187"/>
+    </row>
+    <row r="13" spans="1:171" ht="47" customHeight="1">
+      <c r="A13" s="232"/>
       <c r="B13" s="101"/>
-      <c r="C13" s="249"/>
-      <c r="D13" s="190"/>
-      <c r="E13" s="190"/>
-      <c r="F13" s="190"/>
-      <c r="G13" s="175"/>
-      <c r="H13" s="175"/>
-      <c r="I13" s="175"/>
-      <c r="J13" s="175"/>
-      <c r="K13" s="175"/>
-      <c r="L13" s="175"/>
-      <c r="M13" s="175"/>
-      <c r="N13" s="175"/>
-      <c r="O13" s="175"/>
-      <c r="P13" s="187"/>
-      <c r="Q13" s="187"/>
-      <c r="R13" s="182"/>
-      <c r="S13" s="181"/>
-      <c r="T13" s="181"/>
-      <c r="U13" s="181"/>
-      <c r="V13" s="181"/>
-      <c r="W13" s="175"/>
-      <c r="X13" s="175"/>
-      <c r="Y13" s="175"/>
-      <c r="Z13" s="175"/>
-      <c r="AA13" s="187"/>
-      <c r="AB13" s="187"/>
-      <c r="AC13" s="187"/>
-      <c r="AD13" s="187"/>
-      <c r="AE13" s="188"/>
-      <c r="AF13" s="188"/>
-      <c r="AG13" s="188"/>
-      <c r="AH13" s="188"/>
-      <c r="AI13" s="188"/>
-      <c r="AJ13" s="188"/>
-      <c r="AK13" s="188"/>
-      <c r="AL13" s="188"/>
-      <c r="AM13" s="175"/>
-      <c r="AN13" s="175"/>
-      <c r="AO13" s="175"/>
-      <c r="AP13" s="175"/>
-      <c r="AQ13" s="175"/>
-      <c r="AR13" s="175"/>
-      <c r="AS13" s="175"/>
-      <c r="AT13" s="175"/>
-      <c r="AU13" s="175"/>
-      <c r="AV13" s="175"/>
-      <c r="AW13" s="175"/>
-      <c r="AX13" s="175"/>
-      <c r="AY13" s="175"/>
-      <c r="AZ13" s="175"/>
-      <c r="BA13" s="175"/>
-      <c r="BB13" s="175"/>
-      <c r="BC13" s="175"/>
-      <c r="BD13" s="175"/>
-      <c r="BE13" s="157"/>
-      <c r="BF13" s="175"/>
-      <c r="BG13" s="69"/>
-      <c r="BH13" s="190"/>
-      <c r="BI13" s="190"/>
-      <c r="BJ13" s="190"/>
-      <c r="BK13" s="190"/>
-      <c r="BL13" s="157"/>
-      <c r="BM13" s="157"/>
-      <c r="BN13" s="157"/>
-      <c r="BO13" s="157"/>
-      <c r="BP13" s="148"/>
-      <c r="BQ13" s="157"/>
-      <c r="BR13" s="190"/>
-      <c r="BS13" s="134"/>
-      <c r="BT13" s="96" t="s">
+      <c r="C13" s="177"/>
+      <c r="D13" s="196"/>
+      <c r="E13" s="196"/>
+      <c r="F13" s="196"/>
+      <c r="G13" s="202"/>
+      <c r="H13" s="202"/>
+      <c r="I13" s="202"/>
+      <c r="J13" s="202"/>
+      <c r="K13" s="202"/>
+      <c r="L13" s="202"/>
+      <c r="M13" s="202"/>
+      <c r="N13" s="202"/>
+      <c r="O13" s="202"/>
+      <c r="P13" s="200"/>
+      <c r="Q13" s="200"/>
+      <c r="R13" s="203"/>
+      <c r="S13" s="211"/>
+      <c r="T13" s="211"/>
+      <c r="U13" s="211"/>
+      <c r="V13" s="211"/>
+      <c r="W13" s="202"/>
+      <c r="X13" s="202"/>
+      <c r="Y13" s="202"/>
+      <c r="Z13" s="202"/>
+      <c r="AA13" s="200"/>
+      <c r="AB13" s="200"/>
+      <c r="AC13" s="200"/>
+      <c r="AD13" s="200"/>
+      <c r="AE13" s="205"/>
+      <c r="AF13" s="205"/>
+      <c r="AG13" s="205"/>
+      <c r="AH13" s="205"/>
+      <c r="AI13" s="205"/>
+      <c r="AJ13" s="205"/>
+      <c r="AK13" s="205"/>
+      <c r="AL13" s="205"/>
+      <c r="AM13" s="202"/>
+      <c r="AN13" s="202"/>
+      <c r="AO13" s="202"/>
+      <c r="AP13" s="202"/>
+      <c r="AQ13" s="202"/>
+      <c r="AR13" s="202"/>
+      <c r="AS13" s="202"/>
+      <c r="AT13" s="202"/>
+      <c r="AU13" s="202"/>
+      <c r="AV13" s="202"/>
+      <c r="AW13" s="202"/>
+      <c r="AX13" s="202"/>
+      <c r="AY13" s="156"/>
+      <c r="AZ13" s="202"/>
+      <c r="BA13" s="202"/>
+      <c r="BB13" s="156"/>
+      <c r="BC13" s="156"/>
+      <c r="BD13" s="156"/>
+      <c r="BE13" s="156"/>
+      <c r="BF13" s="202"/>
+      <c r="BG13" s="202"/>
+      <c r="BH13" s="202"/>
+      <c r="BI13" s="202"/>
+      <c r="BJ13" s="198"/>
+      <c r="BK13" s="202"/>
+      <c r="BL13" s="69"/>
+      <c r="BM13" s="196"/>
+      <c r="BN13" s="196"/>
+      <c r="BO13" s="196"/>
+      <c r="BP13" s="196"/>
+      <c r="BQ13" s="198"/>
+      <c r="BR13" s="198"/>
+      <c r="BS13" s="198"/>
+      <c r="BT13" s="198"/>
+      <c r="BU13" s="148"/>
+      <c r="BV13" s="198"/>
+      <c r="BW13" s="196"/>
+      <c r="BX13" s="134"/>
+      <c r="BY13" s="96" t="s">
         <v>478</v>
       </c>
-      <c r="BU13" s="96" t="s">
+      <c r="BZ13" s="96" t="s">
         <v>483</v>
       </c>
-      <c r="BV13" s="157"/>
-      <c r="BW13" s="190"/>
-      <c r="BX13" s="190"/>
-      <c r="BY13" s="192"/>
-      <c r="BZ13" s="192"/>
-      <c r="CA13" s="190"/>
-      <c r="CB13" s="190"/>
-      <c r="CC13" s="192"/>
-      <c r="CD13" s="157"/>
-      <c r="CE13" s="157"/>
-      <c r="CF13" s="157"/>
-      <c r="CG13" s="157"/>
-      <c r="CH13" s="192"/>
-      <c r="CI13" s="192"/>
-    </row>
-    <row r="14" spans="1:166" ht="51" customHeight="1">
-      <c r="A14" s="155" t="s">
+      <c r="CA13" s="198"/>
+      <c r="CB13" s="196"/>
+      <c r="CC13" s="196"/>
+      <c r="CD13" s="187"/>
+      <c r="CE13" s="187"/>
+      <c r="CF13" s="196"/>
+      <c r="CG13" s="196"/>
+      <c r="CH13" s="187"/>
+      <c r="CI13" s="198"/>
+      <c r="CJ13" s="198"/>
+      <c r="CK13" s="198"/>
+      <c r="CL13" s="198"/>
+      <c r="CM13" s="187"/>
+      <c r="CN13" s="187"/>
+    </row>
+    <row r="14" spans="1:171" ht="51" customHeight="1">
+      <c r="A14" s="204" t="s">
         <v>477</v>
       </c>
       <c r="B14" s="101"/>
-      <c r="C14" s="249"/>
-      <c r="D14" s="190"/>
-      <c r="E14" s="190"/>
-      <c r="F14" s="190"/>
-      <c r="G14" s="175"/>
-      <c r="H14" s="175"/>
-      <c r="I14" s="175"/>
-      <c r="J14" s="175"/>
-      <c r="K14" s="175"/>
-      <c r="L14" s="175"/>
-      <c r="M14" s="175"/>
-      <c r="N14" s="175"/>
-      <c r="O14" s="175"/>
-      <c r="P14" s="187"/>
-      <c r="Q14" s="187"/>
-      <c r="R14" s="186"/>
-      <c r="S14" s="186"/>
-      <c r="T14" s="186"/>
-      <c r="U14" s="186"/>
-      <c r="V14" s="186"/>
-      <c r="W14" s="175"/>
-      <c r="X14" s="175"/>
-      <c r="Y14" s="175"/>
-      <c r="Z14" s="175"/>
-      <c r="AA14" s="187"/>
-      <c r="AB14" s="187"/>
-      <c r="AC14" s="187"/>
-      <c r="AD14" s="187"/>
-      <c r="AE14" s="186"/>
-      <c r="AF14" s="186"/>
-      <c r="AG14" s="186"/>
-      <c r="AH14" s="186"/>
-      <c r="AI14" s="186"/>
-      <c r="AJ14" s="186"/>
-      <c r="AK14" s="186"/>
-      <c r="AL14" s="186"/>
-      <c r="AM14" s="175"/>
-      <c r="AN14" s="175"/>
-      <c r="AO14" s="175"/>
-      <c r="AP14" s="175"/>
-      <c r="AQ14" s="175"/>
-      <c r="AR14" s="175"/>
-      <c r="AS14" s="175"/>
-      <c r="AT14" s="175"/>
-      <c r="AU14" s="175"/>
-      <c r="AV14" s="175"/>
-      <c r="AW14" s="175"/>
-      <c r="AX14" s="175"/>
-      <c r="AY14" s="175"/>
-      <c r="AZ14" s="175"/>
-      <c r="BA14" s="175"/>
-      <c r="BB14" s="175"/>
-      <c r="BC14" s="175"/>
-      <c r="BD14" s="175"/>
-      <c r="BE14" s="157"/>
-      <c r="BF14" s="175"/>
-      <c r="BG14" s="271"/>
-      <c r="BH14" s="190"/>
-      <c r="BI14" s="190"/>
-      <c r="BJ14" s="190"/>
-      <c r="BK14" s="190"/>
-      <c r="BL14" s="157"/>
-      <c r="BM14" s="157"/>
-      <c r="BN14" s="157"/>
-      <c r="BO14" s="157"/>
-      <c r="BP14" s="148"/>
-      <c r="BQ14" s="157"/>
-      <c r="BR14" s="190"/>
-      <c r="BS14" s="134"/>
-      <c r="BT14" s="134"/>
-      <c r="BU14" s="134"/>
-      <c r="BV14" s="157"/>
-      <c r="BW14" s="190"/>
-      <c r="BX14" s="190"/>
-      <c r="BY14" s="192"/>
-      <c r="BZ14" s="192"/>
-      <c r="CA14" s="190"/>
-      <c r="CB14" s="190"/>
-      <c r="CC14" s="192"/>
-      <c r="CD14" s="157"/>
-      <c r="CE14" s="157"/>
-      <c r="CF14" s="157"/>
-      <c r="CG14" s="157"/>
-      <c r="CH14" s="192"/>
-      <c r="CI14" s="192"/>
-    </row>
-    <row r="15" spans="1:166" ht="47" customHeight="1">
-      <c r="A15" s="155"/>
+      <c r="C14" s="177"/>
+      <c r="D14" s="196"/>
+      <c r="E14" s="196"/>
+      <c r="F14" s="196"/>
+      <c r="G14" s="202"/>
+      <c r="H14" s="202"/>
+      <c r="I14" s="202"/>
+      <c r="J14" s="202"/>
+      <c r="K14" s="202"/>
+      <c r="L14" s="202"/>
+      <c r="M14" s="202"/>
+      <c r="N14" s="202"/>
+      <c r="O14" s="202"/>
+      <c r="P14" s="200"/>
+      <c r="Q14" s="200"/>
+      <c r="R14" s="199"/>
+      <c r="S14" s="199"/>
+      <c r="T14" s="199"/>
+      <c r="U14" s="199"/>
+      <c r="V14" s="199"/>
+      <c r="W14" s="202"/>
+      <c r="X14" s="202"/>
+      <c r="Y14" s="202"/>
+      <c r="Z14" s="202"/>
+      <c r="AA14" s="200"/>
+      <c r="AB14" s="200"/>
+      <c r="AC14" s="200"/>
+      <c r="AD14" s="200"/>
+      <c r="AE14" s="199"/>
+      <c r="AF14" s="199"/>
+      <c r="AG14" s="199"/>
+      <c r="AH14" s="199"/>
+      <c r="AI14" s="199"/>
+      <c r="AJ14" s="199"/>
+      <c r="AK14" s="199"/>
+      <c r="AL14" s="199"/>
+      <c r="AM14" s="202"/>
+      <c r="AN14" s="202"/>
+      <c r="AO14" s="202"/>
+      <c r="AP14" s="202"/>
+      <c r="AQ14" s="202"/>
+      <c r="AR14" s="202"/>
+      <c r="AS14" s="202"/>
+      <c r="AT14" s="202"/>
+      <c r="AU14" s="202"/>
+      <c r="AV14" s="202"/>
+      <c r="AW14" s="202"/>
+      <c r="AX14" s="202"/>
+      <c r="AY14" s="156"/>
+      <c r="AZ14" s="202"/>
+      <c r="BA14" s="202"/>
+      <c r="BB14" s="156"/>
+      <c r="BC14" s="156"/>
+      <c r="BD14" s="156"/>
+      <c r="BE14" s="156"/>
+      <c r="BF14" s="202"/>
+      <c r="BG14" s="202"/>
+      <c r="BH14" s="202"/>
+      <c r="BI14" s="202"/>
+      <c r="BJ14" s="198"/>
+      <c r="BK14" s="202"/>
+      <c r="BL14" s="175"/>
+      <c r="BM14" s="196"/>
+      <c r="BN14" s="196"/>
+      <c r="BO14" s="196"/>
+      <c r="BP14" s="196"/>
+      <c r="BQ14" s="198"/>
+      <c r="BR14" s="198"/>
+      <c r="BS14" s="198"/>
+      <c r="BT14" s="198"/>
+      <c r="BU14" s="148"/>
+      <c r="BV14" s="198"/>
+      <c r="BW14" s="196"/>
+      <c r="BX14" s="134"/>
+      <c r="BY14" s="134"/>
+      <c r="BZ14" s="134"/>
+      <c r="CA14" s="198"/>
+      <c r="CB14" s="196"/>
+      <c r="CC14" s="196"/>
+      <c r="CD14" s="187"/>
+      <c r="CE14" s="187"/>
+      <c r="CF14" s="196"/>
+      <c r="CG14" s="196"/>
+      <c r="CH14" s="187"/>
+      <c r="CI14" s="198"/>
+      <c r="CJ14" s="198"/>
+      <c r="CK14" s="198"/>
+      <c r="CL14" s="198"/>
+      <c r="CM14" s="187"/>
+      <c r="CN14" s="187"/>
+    </row>
+    <row r="15" spans="1:171" ht="47" customHeight="1">
+      <c r="A15" s="204"/>
       <c r="B15" s="101"/>
-      <c r="C15" s="249"/>
-      <c r="D15" s="190"/>
-      <c r="E15" s="190"/>
-      <c r="F15" s="190"/>
-      <c r="G15" s="175"/>
-      <c r="H15" s="175"/>
-      <c r="I15" s="175"/>
-      <c r="J15" s="175"/>
-      <c r="K15" s="175"/>
-      <c r="L15" s="175"/>
-      <c r="M15" s="175"/>
-      <c r="N15" s="175"/>
-      <c r="O15" s="175"/>
-      <c r="P15" s="187"/>
-      <c r="Q15" s="187"/>
-      <c r="R15" s="187"/>
-      <c r="S15" s="187"/>
-      <c r="T15" s="187"/>
-      <c r="U15" s="187"/>
-      <c r="V15" s="187"/>
-      <c r="W15" s="175"/>
-      <c r="X15" s="175"/>
-      <c r="Y15" s="175"/>
-      <c r="Z15" s="175"/>
-      <c r="AA15" s="187"/>
-      <c r="AB15" s="187"/>
-      <c r="AC15" s="187"/>
-      <c r="AD15" s="187"/>
-      <c r="AE15" s="187"/>
-      <c r="AF15" s="187"/>
-      <c r="AG15" s="187"/>
-      <c r="AH15" s="187"/>
-      <c r="AI15" s="187"/>
-      <c r="AJ15" s="187"/>
-      <c r="AK15" s="187"/>
-      <c r="AL15" s="187"/>
-      <c r="AM15" s="175"/>
-      <c r="AN15" s="175"/>
-      <c r="AO15" s="175"/>
-      <c r="AP15" s="175"/>
-      <c r="AQ15" s="175"/>
-      <c r="AR15" s="175"/>
-      <c r="AS15" s="175"/>
-      <c r="AT15" s="175"/>
-      <c r="AU15" s="175"/>
-      <c r="AV15" s="175"/>
-      <c r="AW15" s="175"/>
-      <c r="AX15" s="175"/>
-      <c r="AY15" s="175"/>
-      <c r="AZ15" s="175"/>
-      <c r="BA15" s="175"/>
-      <c r="BB15" s="175"/>
-      <c r="BC15" s="175"/>
-      <c r="BD15" s="175"/>
-      <c r="BE15" s="157"/>
-      <c r="BF15" s="175"/>
-      <c r="BG15" s="271"/>
-      <c r="BH15" s="190"/>
-      <c r="BI15" s="190"/>
-      <c r="BJ15" s="190"/>
-      <c r="BK15" s="190"/>
-      <c r="BL15" s="157"/>
-      <c r="BM15" s="157"/>
-      <c r="BN15" s="157"/>
-      <c r="BO15" s="157"/>
-      <c r="BP15" s="148"/>
-      <c r="BQ15" s="157"/>
-      <c r="BR15" s="190"/>
-      <c r="BS15" s="134"/>
-      <c r="BT15" s="134"/>
-      <c r="BU15" s="134"/>
-      <c r="BV15" s="157"/>
-      <c r="BW15" s="190"/>
-      <c r="BX15" s="190"/>
-      <c r="BY15" s="192"/>
-      <c r="BZ15" s="192"/>
-      <c r="CA15" s="190"/>
-      <c r="CB15" s="190"/>
-      <c r="CC15" s="192"/>
-      <c r="CD15" s="157"/>
-      <c r="CE15" s="157"/>
-      <c r="CF15" s="157"/>
-      <c r="CG15" s="157"/>
-      <c r="CH15" s="192"/>
-      <c r="CI15" s="192"/>
-    </row>
-    <row r="16" spans="1:166" ht="24">
+      <c r="C15" s="177"/>
+      <c r="D15" s="196"/>
+      <c r="E15" s="196"/>
+      <c r="F15" s="196"/>
+      <c r="G15" s="202"/>
+      <c r="H15" s="202"/>
+      <c r="I15" s="202"/>
+      <c r="J15" s="202"/>
+      <c r="K15" s="202"/>
+      <c r="L15" s="202"/>
+      <c r="M15" s="202"/>
+      <c r="N15" s="202"/>
+      <c r="O15" s="202"/>
+      <c r="P15" s="200"/>
+      <c r="Q15" s="200"/>
+      <c r="R15" s="200"/>
+      <c r="S15" s="200"/>
+      <c r="T15" s="200"/>
+      <c r="U15" s="200"/>
+      <c r="V15" s="200"/>
+      <c r="W15" s="202"/>
+      <c r="X15" s="202"/>
+      <c r="Y15" s="202"/>
+      <c r="Z15" s="202"/>
+      <c r="AA15" s="200"/>
+      <c r="AB15" s="200"/>
+      <c r="AC15" s="200"/>
+      <c r="AD15" s="200"/>
+      <c r="AE15" s="200"/>
+      <c r="AF15" s="200"/>
+      <c r="AG15" s="200"/>
+      <c r="AH15" s="200"/>
+      <c r="AI15" s="200"/>
+      <c r="AJ15" s="200"/>
+      <c r="AK15" s="200"/>
+      <c r="AL15" s="200"/>
+      <c r="AM15" s="202"/>
+      <c r="AN15" s="202"/>
+      <c r="AO15" s="202"/>
+      <c r="AP15" s="202"/>
+      <c r="AQ15" s="202"/>
+      <c r="AR15" s="202"/>
+      <c r="AS15" s="202"/>
+      <c r="AT15" s="202"/>
+      <c r="AU15" s="202"/>
+      <c r="AV15" s="202"/>
+      <c r="AW15" s="202"/>
+      <c r="AX15" s="202"/>
+      <c r="AY15" s="156"/>
+      <c r="AZ15" s="202"/>
+      <c r="BA15" s="202"/>
+      <c r="BB15" s="156"/>
+      <c r="BC15" s="156"/>
+      <c r="BD15" s="156"/>
+      <c r="BE15" s="156"/>
+      <c r="BF15" s="202"/>
+      <c r="BG15" s="202"/>
+      <c r="BH15" s="202"/>
+      <c r="BI15" s="202"/>
+      <c r="BJ15" s="198"/>
+      <c r="BK15" s="202"/>
+      <c r="BL15" s="175"/>
+      <c r="BM15" s="196"/>
+      <c r="BN15" s="196"/>
+      <c r="BO15" s="196"/>
+      <c r="BP15" s="196"/>
+      <c r="BQ15" s="198"/>
+      <c r="BR15" s="198"/>
+      <c r="BS15" s="198"/>
+      <c r="BT15" s="198"/>
+      <c r="BU15" s="148"/>
+      <c r="BV15" s="198"/>
+      <c r="BW15" s="196"/>
+      <c r="BX15" s="134"/>
+      <c r="BY15" s="134"/>
+      <c r="BZ15" s="134"/>
+      <c r="CA15" s="198"/>
+      <c r="CB15" s="196"/>
+      <c r="CC15" s="196"/>
+      <c r="CD15" s="187"/>
+      <c r="CE15" s="187"/>
+      <c r="CF15" s="196"/>
+      <c r="CG15" s="196"/>
+      <c r="CH15" s="187"/>
+      <c r="CI15" s="198"/>
+      <c r="CJ15" s="198"/>
+      <c r="CK15" s="198"/>
+      <c r="CL15" s="198"/>
+      <c r="CM15" s="187"/>
+      <c r="CN15" s="187"/>
+    </row>
+    <row r="16" spans="1:171" ht="24">
       <c r="A16" s="127"/>
       <c r="B16" s="127"/>
       <c r="C16" s="127"/>
@@ -5159,8 +5256,13 @@
       <c r="FH16" s="127"/>
       <c r="FI16" s="127"/>
       <c r="FJ16" s="127"/>
-    </row>
-    <row r="17" spans="1:87" ht="25">
+      <c r="FK16" s="127"/>
+      <c r="FL16" s="127"/>
+      <c r="FM16" s="127"/>
+      <c r="FN16" s="127"/>
+      <c r="FO16" s="127"/>
+    </row>
+    <row r="17" spans="1:92" ht="25">
       <c r="A17" s="131" t="s">
         <v>433</v>
       </c>
@@ -5309,118 +5411,129 @@
         <v>97</v>
       </c>
       <c r="AY17" s="133" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="AZ17" s="133" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="BA17" s="133" t="s">
-        <v>454</v>
+        <v>97</v>
       </c>
       <c r="BB17" s="133" t="s">
         <v>454</v>
       </c>
       <c r="BC17" s="133" t="s">
-        <v>90</v>
-      </c>
-      <c r="BD17" s="133" t="s">
-        <v>91</v>
-      </c>
-      <c r="BE17" s="133" t="s">
+        <v>97</v>
+      </c>
+      <c r="BD17" s="133"/>
+      <c r="BE17" s="133"/>
+      <c r="BF17" s="133" t="s">
         <v>454</v>
       </c>
-      <c r="BF17" s="133" t="s">
-        <v>91</v>
-      </c>
-      <c r="BG17" s="144" t="s">
-        <v>458</v>
+      <c r="BG17" s="133" t="s">
+        <v>454</v>
       </c>
       <c r="BH17" s="133" t="s">
         <v>90</v>
       </c>
       <c r="BI17" s="133" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="BJ17" s="133" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="BK17" s="133" t="s">
         <v>91</v>
       </c>
-      <c r="BL17" s="133" t="s">
+      <c r="BL17" s="144" t="s">
+        <v>458</v>
+      </c>
+      <c r="BM17" s="133" t="s">
+        <v>90</v>
+      </c>
+      <c r="BN17" s="133" t="s">
+        <v>97</v>
+      </c>
+      <c r="BO17" s="133" t="s">
+        <v>462</v>
+      </c>
+      <c r="BP17" s="133" t="s">
+        <v>91</v>
+      </c>
+      <c r="BQ17" s="133" t="s">
         <v>122</v>
       </c>
-      <c r="BM17" s="133" t="s">
+      <c r="BR17" s="133" t="s">
         <v>122</v>
       </c>
-      <c r="BN17" s="133" t="s">
+      <c r="BS17" s="133" t="s">
         <v>479</v>
       </c>
-      <c r="BO17" s="133" t="s">
+      <c r="BT17" s="133" t="s">
         <v>469</v>
       </c>
-      <c r="BP17" s="133" t="s">
+      <c r="BU17" s="133" t="s">
         <v>469</v>
       </c>
-      <c r="BQ17" s="133" t="s">
+      <c r="BV17" s="133" t="s">
         <v>479</v>
       </c>
-      <c r="BR17" s="133" t="s">
+      <c r="BW17" s="133" t="s">
         <v>469</v>
       </c>
-      <c r="BS17" s="133" t="s">
+      <c r="BX17" s="133" t="s">
         <v>122</v>
       </c>
-      <c r="BT17" s="133" t="s">
+      <c r="BY17" s="133" t="s">
         <v>122</v>
       </c>
-      <c r="BU17" s="133" t="s">
+      <c r="BZ17" s="133" t="s">
         <v>122</v>
       </c>
-      <c r="BV17" s="133" t="s">
+      <c r="CA17" s="133" t="s">
         <v>454</v>
       </c>
-      <c r="BW17" s="133" t="s">
+      <c r="CB17" s="133" t="s">
         <v>97</v>
       </c>
-      <c r="BX17" s="133" t="s">
+      <c r="CC17" s="133" t="s">
         <v>469</v>
       </c>
-      <c r="BY17" s="133" t="s">
+      <c r="CD17" s="133" t="s">
         <v>475</v>
       </c>
-      <c r="BZ17" s="133" t="s">
+      <c r="CE17" s="133" t="s">
         <v>469</v>
       </c>
-      <c r="CA17" s="133" t="s">
+      <c r="CF17" s="133" t="s">
         <v>475</v>
       </c>
-      <c r="CB17" s="133" t="s">
+      <c r="CG17" s="133" t="s">
         <v>122</v>
       </c>
-      <c r="CC17" s="133" t="s">
+      <c r="CH17" s="133" t="s">
         <v>122</v>
-      </c>
-      <c r="CD17" s="133" t="s">
-        <v>476</v>
-      </c>
-      <c r="CE17" s="133" t="s">
-        <v>476</v>
-      </c>
-      <c r="CF17" s="133" t="s">
-        <v>476</v>
-      </c>
-      <c r="CG17" s="133" t="s">
-        <v>476</v>
-      </c>
-      <c r="CH17" s="133" t="s">
-        <v>90</v>
       </c>
       <c r="CI17" s="133" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="18" spans="1:87" ht="60">
+      <c r="CJ17" s="133" t="s">
+        <v>476</v>
+      </c>
+      <c r="CK17" s="133" t="s">
+        <v>476</v>
+      </c>
+      <c r="CL17" s="133" t="s">
+        <v>476</v>
+      </c>
+      <c r="CM17" s="133" t="s">
+        <v>90</v>
+      </c>
+      <c r="CN17" s="133" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="18" spans="1:92" ht="60">
       <c r="A18" s="131" t="s">
         <v>434</v>
       </c>
@@ -5519,118 +5632,125 @@
       <c r="AU18" s="11"/>
       <c r="AV18" s="11"/>
       <c r="AW18" s="11"/>
-      <c r="AX18" s="129" t="s">
+      <c r="AX18" s="11"/>
+      <c r="AY18" s="157" t="s">
         <v>114</v>
       </c>
-      <c r="AY18" s="11"/>
       <c r="AZ18" s="11"/>
-      <c r="BA18" s="141" t="s">
+      <c r="BA18" s="11"/>
+      <c r="BB18" s="11"/>
+      <c r="BC18" s="298" t="s">
+        <v>510</v>
+      </c>
+      <c r="BD18" s="11"/>
+      <c r="BE18" s="11"/>
+      <c r="BF18" s="141" t="s">
         <v>474</v>
-      </c>
-      <c r="BB18" s="141" t="s">
-        <v>474</v>
-      </c>
-      <c r="BC18" s="116">
-        <v>7</v>
-      </c>
-      <c r="BD18" s="141" t="s">
-        <v>482</v>
-      </c>
-      <c r="BE18" s="141" t="s">
-        <v>474</v>
-      </c>
-      <c r="BF18" s="141" t="s">
-        <v>473</v>
       </c>
       <c r="BG18" s="141" t="s">
         <v>474</v>
       </c>
       <c r="BH18" s="116">
+        <v>7</v>
+      </c>
+      <c r="BI18" s="141" t="s">
+        <v>482</v>
+      </c>
+      <c r="BJ18" s="141" t="s">
+        <v>474</v>
+      </c>
+      <c r="BK18" s="141" t="s">
+        <v>473</v>
+      </c>
+      <c r="BL18" s="141" t="s">
+        <v>474</v>
+      </c>
+      <c r="BM18" s="116">
         <v>100</v>
       </c>
-      <c r="BI18" s="136" t="s">
+      <c r="BN18" s="136" t="s">
         <v>107</v>
       </c>
-      <c r="BJ18" s="116" t="s">
+      <c r="BO18" s="116" t="s">
         <v>99</v>
       </c>
-      <c r="BK18" s="138" t="s">
+      <c r="BP18" s="138" t="s">
         <v>464</v>
       </c>
-      <c r="BL18" s="116" t="s">
+      <c r="BQ18" s="116" t="s">
         <v>411</v>
       </c>
-      <c r="BM18" s="116" t="s">
+      <c r="BR18" s="116" t="s">
         <v>411</v>
       </c>
-      <c r="BN18" s="147" t="s">
+      <c r="BS18" s="147" t="s">
         <v>108</v>
       </c>
-      <c r="BO18" s="141" t="s">
+      <c r="BT18" s="141" t="s">
         <v>473</v>
       </c>
-      <c r="BP18" s="141" t="s">
+      <c r="BU18" s="141" t="s">
         <v>473</v>
       </c>
-      <c r="BQ18" s="147" t="s">
+      <c r="BV18" s="147" t="s">
         <v>109</v>
       </c>
-      <c r="BR18" s="141" t="s">
+      <c r="BW18" s="141" t="s">
         <v>473</v>
       </c>
-      <c r="BS18" s="141" t="s">
+      <c r="BX18" s="141" t="s">
         <v>474</v>
-      </c>
-      <c r="BT18" s="141" t="s">
-        <v>474</v>
-      </c>
-      <c r="BU18" s="141" t="s">
-        <v>474</v>
-      </c>
-      <c r="BV18" s="141" t="s">
-        <v>474</v>
-      </c>
-      <c r="BW18" s="147" t="s">
-        <v>129</v>
-      </c>
-      <c r="BX18" s="138" t="s">
-        <v>470</v>
       </c>
       <c r="BY18" s="141" t="s">
         <v>474</v>
       </c>
       <c r="BZ18" s="141" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="CA18" s="141" t="s">
         <v>474</v>
       </c>
-      <c r="CB18" s="116" t="b">
+      <c r="CB18" s="147" t="s">
+        <v>129</v>
+      </c>
+      <c r="CC18" s="138" t="s">
+        <v>470</v>
+      </c>
+      <c r="CD18" s="141" t="s">
+        <v>474</v>
+      </c>
+      <c r="CE18" s="141" t="s">
+        <v>473</v>
+      </c>
+      <c r="CF18" s="141" t="s">
+        <v>474</v>
+      </c>
+      <c r="CG18" s="116" t="b">
         <v>1</v>
       </c>
-      <c r="CC18" s="116" t="b">
+      <c r="CH18" s="116" t="b">
         <v>1</v>
-      </c>
-      <c r="CD18" s="141" t="s">
-        <v>461</v>
-      </c>
-      <c r="CE18" s="141" t="s">
-        <v>461</v>
-      </c>
-      <c r="CF18" s="141" t="s">
-        <v>461</v>
-      </c>
-      <c r="CG18" s="141" t="s">
-        <v>461</v>
-      </c>
-      <c r="CH18" s="116">
-        <v>0</v>
       </c>
       <c r="CI18" s="141" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="19" spans="1:87" ht="34">
+      <c r="CJ18" s="141" t="s">
+        <v>461</v>
+      </c>
+      <c r="CK18" s="141" t="s">
+        <v>461</v>
+      </c>
+      <c r="CL18" s="141" t="s">
+        <v>461</v>
+      </c>
+      <c r="CM18" s="116">
+        <v>0</v>
+      </c>
+      <c r="CN18" s="141" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="19" spans="1:92" ht="34">
       <c r="A19" s="131" t="s">
         <v>219</v>
       </c>
@@ -5720,22 +5840,24 @@
       <c r="AX19" s="11"/>
       <c r="AY19" s="11"/>
       <c r="AZ19" s="11"/>
-      <c r="BA19" s="116" t="s">
-        <v>455</v>
-      </c>
+      <c r="BA19" s="11"/>
       <c r="BB19" s="116" t="s">
         <v>455</v>
       </c>
       <c r="BC19" s="11"/>
       <c r="BD19" s="11"/>
-      <c r="BE19" s="116" t="s">
+      <c r="BE19" s="11"/>
+      <c r="BF19" s="116" t="s">
         <v>455</v>
       </c>
-      <c r="BF19" s="11"/>
-      <c r="BG19" s="11"/>
+      <c r="BG19" s="116" t="s">
+        <v>455</v>
+      </c>
       <c r="BH19" s="11"/>
       <c r="BI19" s="11"/>
-      <c r="BJ19" s="11"/>
+      <c r="BJ19" s="116" t="s">
+        <v>455</v>
+      </c>
       <c r="BK19" s="11"/>
       <c r="BL19" s="11"/>
       <c r="BM19" s="11"/>
@@ -5743,26 +5865,26 @@
       <c r="BO19" s="11"/>
       <c r="BP19" s="11"/>
       <c r="BQ19" s="11"/>
-      <c r="BR19" s="116" t="s">
+      <c r="BR19" s="11"/>
+      <c r="BS19" s="11"/>
+      <c r="BT19" s="11"/>
+      <c r="BU19" s="11"/>
+      <c r="BV19" s="11"/>
+      <c r="BW19" s="116" t="s">
         <v>421</v>
       </c>
-      <c r="BS19" s="116" t="s">
+      <c r="BX19" s="116" t="s">
         <v>411</v>
       </c>
-      <c r="BT19" s="116" t="s">
+      <c r="BY19" s="116" t="s">
         <v>411</v>
       </c>
-      <c r="BU19" s="116" t="s">
+      <c r="BZ19" s="116" t="s">
         <v>411</v>
       </c>
-      <c r="BV19" s="68" t="s">
+      <c r="CA19" s="68" t="s">
         <v>412</v>
       </c>
-      <c r="BW19" s="11"/>
-      <c r="BX19" s="11"/>
-      <c r="BY19" s="11"/>
-      <c r="BZ19" s="11"/>
-      <c r="CA19" s="11"/>
       <c r="CB19" s="11"/>
       <c r="CC19" s="11"/>
       <c r="CD19" s="11"/>
@@ -5771,26 +5893,31 @@
       <c r="CG19" s="11"/>
       <c r="CH19" s="11"/>
       <c r="CI19" s="11"/>
-    </row>
-    <row r="20" spans="1:87" ht="24">
+      <c r="CJ19" s="11"/>
+      <c r="CK19" s="11"/>
+      <c r="CL19" s="11"/>
+      <c r="CM19" s="11"/>
+      <c r="CN19" s="11"/>
+    </row>
+    <row r="20" spans="1:92" ht="24">
       <c r="A20" s="132"/>
       <c r="C20" s="130"/>
       <c r="G20" s="130"/>
       <c r="AF20" s="58"/>
       <c r="AG20" s="58"/>
-      <c r="BL20" s="130"/>
-      <c r="BM20" s="130"/>
-      <c r="BN20" s="130"/>
-      <c r="BO20" s="130"/>
-      <c r="BP20" s="130"/>
       <c r="BQ20" s="130"/>
       <c r="BR20" s="130"/>
       <c r="BS20" s="130"/>
       <c r="BT20" s="130"/>
       <c r="BU20" s="130"/>
       <c r="BV20" s="130"/>
-    </row>
-    <row r="21" spans="1:87" ht="36" customHeight="1">
+      <c r="BW20" s="130"/>
+      <c r="BX20" s="130"/>
+      <c r="BY20" s="130"/>
+      <c r="BZ20" s="130"/>
+      <c r="CA20" s="130"/>
+    </row>
+    <row r="21" spans="1:92" ht="36" customHeight="1">
       <c r="C21" t="s">
         <v>355</v>
       </c>
@@ -5809,14 +5936,14 @@
       <c r="AT21" s="142" t="s">
         <v>453</v>
       </c>
-      <c r="BG21" s="145" t="s">
+      <c r="BL21" s="145" t="s">
         <v>460</v>
       </c>
-      <c r="BJ21" s="145" t="s">
+      <c r="BO21" s="145" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="22" spans="1:87">
+    <row r="22" spans="1:92">
       <c r="C22" t="s">
         <v>220</v>
       </c>
@@ -5831,7 +5958,7 @@
       <c r="AJ22" s="57"/>
       <c r="AK22" s="57"/>
     </row>
-    <row r="23" spans="1:87">
+    <row r="23" spans="1:92">
       <c r="AE23" s="58"/>
       <c r="AF23" s="58"/>
       <c r="AG23" s="58"/>
@@ -5840,125 +5967,235 @@
       <c r="AJ23" s="58"/>
       <c r="AK23" s="58"/>
     </row>
-    <row r="24" spans="1:87" ht="44" customHeight="1">
-      <c r="BL24" t="s">
+    <row r="24" spans="1:92" ht="44" customHeight="1">
+      <c r="BQ24" t="s">
         <v>413</v>
       </c>
-      <c r="BN24" s="162" t="s">
+      <c r="BS24" s="218" t="s">
         <v>424</v>
       </c>
-      <c r="BO24" s="162"/>
-      <c r="BP24" s="162"/>
-      <c r="BQ24" s="162"/>
-    </row>
-    <row r="25" spans="1:87">
-      <c r="BM25" t="s">
+      <c r="BT24" s="218"/>
+      <c r="BU24" s="218"/>
+      <c r="BV24" s="218"/>
+    </row>
+    <row r="25" spans="1:92">
+      <c r="BR25" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="28" spans="1:87">
+    <row r="28" spans="1:92">
       <c r="O28" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="32" spans="1:87">
+    <row r="32" spans="1:92">
       <c r="E32" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="33" spans="5:65">
+    <row r="33" spans="5:70">
       <c r="E33" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="34" spans="5:65">
+    <row r="34" spans="5:70">
       <c r="E34" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="35" spans="5:65">
+    <row r="35" spans="5:70">
       <c r="E35" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="37" spans="5:65">
-      <c r="BM37">
+    <row r="37" spans="5:70">
+      <c r="BR37">
         <v>5.6109999999999998</v>
       </c>
     </row>
-    <row r="38" spans="5:65">
-      <c r="BM38">
-        <f>BM37*11</f>
+    <row r="38" spans="5:70">
+      <c r="BR38">
+        <f>BR37*11</f>
         <v>61.720999999999997</v>
       </c>
     </row>
-    <row r="44" spans="5:65">
-      <c r="BM44">
+    <row r="44" spans="5:70">
+      <c r="BR44">
         <v>169</v>
       </c>
     </row>
-    <row r="45" spans="5:65">
-      <c r="BM45">
+    <row r="45" spans="5:70">
+      <c r="BR45">
         <v>181</v>
       </c>
     </row>
-    <row r="46" spans="5:65">
-      <c r="BM46">
-        <f>BM45-BM44</f>
+    <row r="46" spans="5:70">
+      <c r="BR46">
+        <f>BR45-BR44</f>
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="5:65">
-      <c r="BM47">
-        <f>BM46/BM44</f>
+    <row r="47" spans="5:70">
+      <c r="BR47">
+        <f>BR46/BR44</f>
         <v>7.1005917159763315E-2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="196">
-    <mergeCell ref="BW6:BW7"/>
-    <mergeCell ref="BX6:BX7"/>
-    <mergeCell ref="BY6:BZ7"/>
-    <mergeCell ref="CA6:CA7"/>
-    <mergeCell ref="CB6:CB7"/>
-    <mergeCell ref="CC6:CG7"/>
-    <mergeCell ref="CH6:CI7"/>
-    <mergeCell ref="BG14:BG15"/>
-    <mergeCell ref="C6:C15"/>
-    <mergeCell ref="AM6:AR7"/>
-    <mergeCell ref="AS6:AW7"/>
-    <mergeCell ref="AX6:AZ7"/>
-    <mergeCell ref="BA6:BA7"/>
+  <mergeCells count="202">
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="CA8:CA9"/>
+    <mergeCell ref="CA12:CA15"/>
+    <mergeCell ref="BX8:BX9"/>
+    <mergeCell ref="N6:AL6"/>
+    <mergeCell ref="BY8:BZ9"/>
+    <mergeCell ref="BY10:BZ10"/>
+    <mergeCell ref="BY11:BZ11"/>
+    <mergeCell ref="BY12:BZ12"/>
+    <mergeCell ref="AX8:AX9"/>
+    <mergeCell ref="AZ10:AZ15"/>
+    <mergeCell ref="BA10:BA15"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="N10:N15"/>
+    <mergeCell ref="O10:O15"/>
+    <mergeCell ref="P9:V9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="AY8:AY9"/>
+    <mergeCell ref="BC6:BC7"/>
     <mergeCell ref="BB6:BB7"/>
-    <mergeCell ref="BC6:BG7"/>
-    <mergeCell ref="BH6:BH7"/>
-    <mergeCell ref="BI6:BI7"/>
-    <mergeCell ref="CH10:CH15"/>
-    <mergeCell ref="CI10:CI15"/>
-    <mergeCell ref="BN8:BQ9"/>
-    <mergeCell ref="BQ10:BQ11"/>
-    <mergeCell ref="BO10:BO11"/>
-    <mergeCell ref="BN10:BN11"/>
-    <mergeCell ref="BP10:BP11"/>
-    <mergeCell ref="BR10:BR15"/>
-    <mergeCell ref="CE12:CE15"/>
-    <mergeCell ref="CF12:CF15"/>
-    <mergeCell ref="CG12:CG15"/>
-    <mergeCell ref="BY10:BY15"/>
-    <mergeCell ref="BZ10:BZ15"/>
-    <mergeCell ref="CC10:CC15"/>
-    <mergeCell ref="BN12:BN15"/>
-    <mergeCell ref="BO12:BO15"/>
+    <mergeCell ref="BS24:BV24"/>
+    <mergeCell ref="AA10:AL10"/>
+    <mergeCell ref="AR8:AR9"/>
+    <mergeCell ref="AW8:AW9"/>
+    <mergeCell ref="R11:V11"/>
+    <mergeCell ref="AE11:AH11"/>
+    <mergeCell ref="AI11:AL11"/>
+    <mergeCell ref="AV8:AV9"/>
+    <mergeCell ref="AU8:AU9"/>
+    <mergeCell ref="AT8:AT9"/>
+    <mergeCell ref="AS8:AS9"/>
+    <mergeCell ref="BA8:BA9"/>
+    <mergeCell ref="AZ8:AZ9"/>
+    <mergeCell ref="AA8:AL8"/>
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="AA9:AL9"/>
+    <mergeCell ref="AM8:AM9"/>
+    <mergeCell ref="AN8:AN9"/>
+    <mergeCell ref="AO8:AO9"/>
+    <mergeCell ref="AP8:AP9"/>
+    <mergeCell ref="AQ8:AQ9"/>
+    <mergeCell ref="D5:AR5"/>
+    <mergeCell ref="AS5:BA5"/>
+    <mergeCell ref="BF5:BL5"/>
+    <mergeCell ref="BM5:CA5"/>
+    <mergeCell ref="CB5:CN5"/>
+    <mergeCell ref="N7:V7"/>
+    <mergeCell ref="W7:AL7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:M7"/>
+    <mergeCell ref="BO6:BO7"/>
+    <mergeCell ref="BP6:BP7"/>
+    <mergeCell ref="BQ6:BR7"/>
+    <mergeCell ref="BS6:CA7"/>
+    <mergeCell ref="BB5:BE5"/>
+    <mergeCell ref="BD6:BD7"/>
+    <mergeCell ref="BE6:BE7"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="U12:U13"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="P12:P15"/>
+    <mergeCell ref="Q12:Q15"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="P10:V10"/>
+    <mergeCell ref="P8:V8"/>
     <mergeCell ref="BQ12:BQ15"/>
-    <mergeCell ref="CD12:CD15"/>
-    <mergeCell ref="BI8:BI15"/>
-    <mergeCell ref="BE12:BE15"/>
+    <mergeCell ref="BR12:BR15"/>
+    <mergeCell ref="BL8:BL9"/>
+    <mergeCell ref="BK8:BK9"/>
+    <mergeCell ref="BJ8:BJ9"/>
+    <mergeCell ref="BI8:BI9"/>
+    <mergeCell ref="BH8:BH9"/>
+    <mergeCell ref="BF10:BF15"/>
+    <mergeCell ref="BG10:BG15"/>
+    <mergeCell ref="BH10:BH15"/>
+    <mergeCell ref="BI10:BI15"/>
+    <mergeCell ref="V12:V13"/>
+    <mergeCell ref="AA12:AA15"/>
+    <mergeCell ref="AB12:AB15"/>
+    <mergeCell ref="AC12:AC15"/>
+    <mergeCell ref="AE12:AE13"/>
+    <mergeCell ref="AL12:AL13"/>
+    <mergeCell ref="AK12:AK13"/>
+    <mergeCell ref="AJ12:AJ13"/>
+    <mergeCell ref="AI12:AI13"/>
+    <mergeCell ref="AH12:AH13"/>
+    <mergeCell ref="CD8:CD9"/>
+    <mergeCell ref="CE8:CE9"/>
+    <mergeCell ref="W10:W15"/>
+    <mergeCell ref="X10:X15"/>
+    <mergeCell ref="Y10:Y15"/>
+    <mergeCell ref="Z10:Z15"/>
+    <mergeCell ref="AM10:AM15"/>
+    <mergeCell ref="AN10:AN15"/>
+    <mergeCell ref="AO10:AO15"/>
+    <mergeCell ref="AP10:AP15"/>
+    <mergeCell ref="AQ10:AQ15"/>
+    <mergeCell ref="AR10:AR15"/>
+    <mergeCell ref="AS10:AS15"/>
+    <mergeCell ref="BW8:BW9"/>
+    <mergeCell ref="BR8:BR9"/>
+    <mergeCell ref="BQ8:BQ9"/>
+    <mergeCell ref="BO8:BO15"/>
+    <mergeCell ref="BP8:BP15"/>
+    <mergeCell ref="AX10:AX15"/>
+    <mergeCell ref="BM8:BM15"/>
+    <mergeCell ref="CN8:CN9"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="D8:D15"/>
+    <mergeCell ref="E8:E15"/>
+    <mergeCell ref="F8:F15"/>
+    <mergeCell ref="G10:G15"/>
+    <mergeCell ref="H10:H15"/>
+    <mergeCell ref="I10:I15"/>
+    <mergeCell ref="J10:J15"/>
+    <mergeCell ref="K10:K15"/>
+    <mergeCell ref="L10:L15"/>
+    <mergeCell ref="M10:M15"/>
+    <mergeCell ref="CB8:CB15"/>
+    <mergeCell ref="CC8:CC15"/>
+    <mergeCell ref="CF8:CF15"/>
+    <mergeCell ref="CG8:CG15"/>
+    <mergeCell ref="CM8:CM9"/>
+    <mergeCell ref="CH8:CH9"/>
+    <mergeCell ref="CI8:CL9"/>
+    <mergeCell ref="CI10:CI11"/>
+    <mergeCell ref="CJ10:CJ11"/>
+    <mergeCell ref="CK10:CK11"/>
+    <mergeCell ref="AD12:AD15"/>
+    <mergeCell ref="AG12:AG13"/>
+    <mergeCell ref="BN8:BN15"/>
+    <mergeCell ref="BJ12:BJ15"/>
     <mergeCell ref="R14:R15"/>
     <mergeCell ref="S14:S15"/>
     <mergeCell ref="T14:T15"/>
     <mergeCell ref="U14:U15"/>
     <mergeCell ref="V14:V15"/>
-    <mergeCell ref="BF10:BF15"/>
+    <mergeCell ref="BK10:BK15"/>
     <mergeCell ref="AE14:AE15"/>
     <mergeCell ref="AF14:AF15"/>
     <mergeCell ref="AG14:AG15"/>
@@ -5971,147 +6208,43 @@
     <mergeCell ref="AU10:AU15"/>
     <mergeCell ref="AV10:AV15"/>
     <mergeCell ref="AW10:AW15"/>
-    <mergeCell ref="CI8:CI9"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="D8:D15"/>
-    <mergeCell ref="E8:E15"/>
-    <mergeCell ref="F8:F15"/>
-    <mergeCell ref="G10:G15"/>
-    <mergeCell ref="H10:H15"/>
-    <mergeCell ref="I10:I15"/>
-    <mergeCell ref="J10:J15"/>
-    <mergeCell ref="K10:K15"/>
-    <mergeCell ref="L10:L15"/>
-    <mergeCell ref="M10:M15"/>
-    <mergeCell ref="BW8:BW15"/>
-    <mergeCell ref="BX8:BX15"/>
-    <mergeCell ref="CA8:CA15"/>
-    <mergeCell ref="CB8:CB15"/>
-    <mergeCell ref="CH8:CH9"/>
-    <mergeCell ref="CC8:CC9"/>
-    <mergeCell ref="CD8:CG9"/>
-    <mergeCell ref="CD10:CD11"/>
-    <mergeCell ref="CE10:CE11"/>
-    <mergeCell ref="CF10:CF11"/>
-    <mergeCell ref="AD12:AD15"/>
-    <mergeCell ref="AG12:AG13"/>
     <mergeCell ref="AF12:AF13"/>
-    <mergeCell ref="CG10:CG11"/>
-    <mergeCell ref="BY8:BY9"/>
-    <mergeCell ref="BZ8:BZ9"/>
-    <mergeCell ref="W10:W15"/>
-    <mergeCell ref="X10:X15"/>
-    <mergeCell ref="Y10:Y15"/>
-    <mergeCell ref="Z10:Z15"/>
-    <mergeCell ref="AM10:AM15"/>
-    <mergeCell ref="AN10:AN15"/>
-    <mergeCell ref="AO10:AO15"/>
-    <mergeCell ref="AP10:AP15"/>
-    <mergeCell ref="AQ10:AQ15"/>
-    <mergeCell ref="AR10:AR15"/>
-    <mergeCell ref="AS10:AS15"/>
-    <mergeCell ref="BR8:BR9"/>
-    <mergeCell ref="BM8:BM9"/>
-    <mergeCell ref="BL8:BL9"/>
-    <mergeCell ref="BJ8:BJ15"/>
-    <mergeCell ref="BK8:BK15"/>
-    <mergeCell ref="AX10:AX15"/>
-    <mergeCell ref="BH8:BH15"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="P10:V10"/>
-    <mergeCell ref="P8:V8"/>
-    <mergeCell ref="BL12:BL15"/>
-    <mergeCell ref="BM12:BM15"/>
-    <mergeCell ref="BG8:BG9"/>
-    <mergeCell ref="BF8:BF9"/>
-    <mergeCell ref="BE8:BE9"/>
-    <mergeCell ref="BD8:BD9"/>
-    <mergeCell ref="BC8:BC9"/>
-    <mergeCell ref="BA10:BA15"/>
-    <mergeCell ref="BB10:BB15"/>
-    <mergeCell ref="BC10:BC15"/>
-    <mergeCell ref="BD10:BD15"/>
-    <mergeCell ref="V12:V13"/>
-    <mergeCell ref="AA12:AA15"/>
-    <mergeCell ref="AB12:AB15"/>
-    <mergeCell ref="AC12:AC15"/>
-    <mergeCell ref="AE12:AE13"/>
-    <mergeCell ref="AL12:AL13"/>
-    <mergeCell ref="AK12:AK13"/>
-    <mergeCell ref="AJ12:AJ13"/>
-    <mergeCell ref="AI12:AI13"/>
-    <mergeCell ref="AH12:AH13"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="U12:U13"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="P12:P15"/>
-    <mergeCell ref="Q12:Q15"/>
-    <mergeCell ref="D5:AR5"/>
-    <mergeCell ref="AS5:AZ5"/>
-    <mergeCell ref="BA5:BG5"/>
-    <mergeCell ref="BH5:BV5"/>
-    <mergeCell ref="BW5:CI5"/>
-    <mergeCell ref="N7:V7"/>
-    <mergeCell ref="W7:AL7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:M7"/>
-    <mergeCell ref="BJ6:BJ7"/>
-    <mergeCell ref="BK6:BK7"/>
-    <mergeCell ref="BL6:BM7"/>
-    <mergeCell ref="BN6:BV7"/>
-    <mergeCell ref="BN24:BQ24"/>
-    <mergeCell ref="AA10:AL10"/>
-    <mergeCell ref="AR8:AR9"/>
-    <mergeCell ref="AW8:AW9"/>
-    <mergeCell ref="R11:V11"/>
-    <mergeCell ref="AE11:AH11"/>
-    <mergeCell ref="AI11:AL11"/>
-    <mergeCell ref="AV8:AV9"/>
-    <mergeCell ref="AU8:AU9"/>
-    <mergeCell ref="AT8:AT9"/>
-    <mergeCell ref="AS8:AS9"/>
-    <mergeCell ref="AZ8:AZ9"/>
-    <mergeCell ref="AY8:AY9"/>
-    <mergeCell ref="AA8:AL8"/>
-    <mergeCell ref="Z8:Z9"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="AA9:AL9"/>
-    <mergeCell ref="AM8:AM9"/>
-    <mergeCell ref="AN8:AN9"/>
-    <mergeCell ref="AO8:AO9"/>
-    <mergeCell ref="AP8:AP9"/>
-    <mergeCell ref="AQ8:AQ9"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="BV8:BV9"/>
+    <mergeCell ref="BW10:BW15"/>
+    <mergeCell ref="CJ12:CJ15"/>
+    <mergeCell ref="CK12:CK15"/>
+    <mergeCell ref="CL12:CL15"/>
+    <mergeCell ref="CD10:CD15"/>
+    <mergeCell ref="CE10:CE15"/>
+    <mergeCell ref="CH10:CH15"/>
+    <mergeCell ref="BS12:BS15"/>
+    <mergeCell ref="BT12:BT15"/>
     <mergeCell ref="BV12:BV15"/>
-    <mergeCell ref="BS8:BS9"/>
-    <mergeCell ref="N6:AL6"/>
-    <mergeCell ref="BT8:BU9"/>
-    <mergeCell ref="BT10:BU10"/>
-    <mergeCell ref="BT11:BU11"/>
-    <mergeCell ref="BT12:BU12"/>
-    <mergeCell ref="AX8:AX9"/>
-    <mergeCell ref="AY10:AY15"/>
-    <mergeCell ref="AZ10:AZ15"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="N10:N15"/>
-    <mergeCell ref="O10:O15"/>
-    <mergeCell ref="P9:V9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="CI12:CI15"/>
+    <mergeCell ref="CL10:CL11"/>
+    <mergeCell ref="CB6:CB7"/>
+    <mergeCell ref="CC6:CC7"/>
+    <mergeCell ref="CD6:CE7"/>
+    <mergeCell ref="CF6:CF7"/>
+    <mergeCell ref="CG6:CG7"/>
+    <mergeCell ref="CH6:CL7"/>
+    <mergeCell ref="CM6:CN7"/>
+    <mergeCell ref="BL14:BL15"/>
+    <mergeCell ref="C6:C15"/>
+    <mergeCell ref="AM6:AR7"/>
+    <mergeCell ref="AS6:AW7"/>
+    <mergeCell ref="AX6:BA7"/>
+    <mergeCell ref="BF6:BF7"/>
+    <mergeCell ref="BG6:BG7"/>
+    <mergeCell ref="BH6:BL7"/>
+    <mergeCell ref="BM6:BM7"/>
+    <mergeCell ref="BN6:BN7"/>
+    <mergeCell ref="CM10:CM15"/>
+    <mergeCell ref="CN10:CN15"/>
+    <mergeCell ref="BS8:BV9"/>
+    <mergeCell ref="BV10:BV11"/>
+    <mergeCell ref="BT10:BT11"/>
+    <mergeCell ref="BS10:BS11"/>
+    <mergeCell ref="BU10:BU11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6133,25 +6266,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="E1" s="193" t="s">
+      <c r="E1" s="236" t="s">
         <v>491</v>
       </c>
-      <c r="F1" s="193"/>
-      <c r="G1" s="193"/>
+      <c r="F1" s="236"/>
+      <c r="G1" s="236"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>486</v>
       </c>
-      <c r="B3" s="193" t="s">
+      <c r="B3" s="236" t="s">
         <v>403</v>
       </c>
-      <c r="C3" s="193"/>
-      <c r="E3" s="193" t="s">
+      <c r="C3" s="236"/>
+      <c r="E3" s="236" t="s">
         <v>426</v>
       </c>
-      <c r="F3" s="193"/>
-      <c r="G3" s="193"/>
+      <c r="F3" s="236"/>
+      <c r="G3" s="236"/>
       <c r="I3" t="s">
         <v>497</v>
       </c>
@@ -6294,88 +6427,88 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:92" ht="67" customHeight="1">
-      <c r="B4" s="206" t="s">
+      <c r="B4" s="237" t="s">
         <v>264</v>
       </c>
-      <c r="C4" s="206"/>
-      <c r="D4" s="206"/>
-      <c r="E4" s="206"/>
-      <c r="F4" s="206"/>
-      <c r="G4" s="206"/>
-      <c r="H4" s="206"/>
-      <c r="I4" s="206"/>
-      <c r="J4" s="206"/>
-      <c r="K4" s="206"/>
-      <c r="L4" s="206"/>
-      <c r="M4" s="206"/>
-      <c r="N4" s="206"/>
-      <c r="O4" s="206"/>
-      <c r="P4" s="206"/>
-      <c r="Q4" s="206"/>
-      <c r="R4" s="206"/>
-      <c r="S4" s="206"/>
-      <c r="T4" s="206"/>
-      <c r="U4" s="206"/>
-      <c r="V4" s="206"/>
-      <c r="W4" s="206"/>
-      <c r="X4" s="206"/>
-      <c r="Y4" s="206"/>
-      <c r="Z4" s="206"/>
-      <c r="AA4" s="206"/>
-      <c r="AB4" s="206"/>
-      <c r="AC4" s="206"/>
-      <c r="AD4" s="206"/>
-      <c r="AE4" s="206"/>
-      <c r="AF4" s="206"/>
-      <c r="AG4" s="206"/>
-      <c r="AH4" s="206"/>
-      <c r="AI4" s="206"/>
-      <c r="AJ4" s="206"/>
-      <c r="AK4" s="206"/>
-      <c r="AL4" s="206"/>
-      <c r="AM4" s="206"/>
-      <c r="AN4" s="206"/>
-      <c r="AO4" s="206"/>
-      <c r="AP4" s="206"/>
-      <c r="AQ4" s="206"/>
-      <c r="AR4" s="206"/>
-      <c r="AS4" s="206"/>
-      <c r="AT4" s="206"/>
-      <c r="AU4" s="206"/>
-      <c r="AV4" s="206"/>
-      <c r="AW4" s="206"/>
-      <c r="AX4" s="206"/>
-      <c r="AY4" s="206"/>
-      <c r="AZ4" s="206"/>
-      <c r="BA4" s="206"/>
-      <c r="BB4" s="206"/>
-      <c r="BC4" s="206"/>
-      <c r="BD4" s="206"/>
-      <c r="BE4" s="206"/>
-      <c r="BF4" s="206"/>
-      <c r="BG4" s="206"/>
-      <c r="BH4" s="206"/>
-      <c r="BI4" s="206"/>
-      <c r="BJ4" s="206"/>
-      <c r="BK4" s="206"/>
-      <c r="BL4" s="206"/>
-      <c r="BM4" s="206"/>
-      <c r="BN4" s="206"/>
-      <c r="BO4" s="206"/>
-      <c r="BP4" s="206"/>
-      <c r="BQ4" s="206"/>
-      <c r="BR4" s="206"/>
-      <c r="BS4" s="206"/>
-      <c r="BT4" s="206"/>
-      <c r="BU4" s="206"/>
-      <c r="BV4" s="206"/>
-      <c r="BW4" s="206"/>
-      <c r="BX4" s="206"/>
-      <c r="BY4" s="206"/>
-      <c r="BZ4" s="206"/>
-      <c r="CA4" s="206"/>
-      <c r="CB4" s="206"/>
-      <c r="CC4" s="206"/>
+      <c r="C4" s="237"/>
+      <c r="D4" s="237"/>
+      <c r="E4" s="237"/>
+      <c r="F4" s="237"/>
+      <c r="G4" s="237"/>
+      <c r="H4" s="237"/>
+      <c r="I4" s="237"/>
+      <c r="J4" s="237"/>
+      <c r="K4" s="237"/>
+      <c r="L4" s="237"/>
+      <c r="M4" s="237"/>
+      <c r="N4" s="237"/>
+      <c r="O4" s="237"/>
+      <c r="P4" s="237"/>
+      <c r="Q4" s="237"/>
+      <c r="R4" s="237"/>
+      <c r="S4" s="237"/>
+      <c r="T4" s="237"/>
+      <c r="U4" s="237"/>
+      <c r="V4" s="237"/>
+      <c r="W4" s="237"/>
+      <c r="X4" s="237"/>
+      <c r="Y4" s="237"/>
+      <c r="Z4" s="237"/>
+      <c r="AA4" s="237"/>
+      <c r="AB4" s="237"/>
+      <c r="AC4" s="237"/>
+      <c r="AD4" s="237"/>
+      <c r="AE4" s="237"/>
+      <c r="AF4" s="237"/>
+      <c r="AG4" s="237"/>
+      <c r="AH4" s="237"/>
+      <c r="AI4" s="237"/>
+      <c r="AJ4" s="237"/>
+      <c r="AK4" s="237"/>
+      <c r="AL4" s="237"/>
+      <c r="AM4" s="237"/>
+      <c r="AN4" s="237"/>
+      <c r="AO4" s="237"/>
+      <c r="AP4" s="237"/>
+      <c r="AQ4" s="237"/>
+      <c r="AR4" s="237"/>
+      <c r="AS4" s="237"/>
+      <c r="AT4" s="237"/>
+      <c r="AU4" s="237"/>
+      <c r="AV4" s="237"/>
+      <c r="AW4" s="237"/>
+      <c r="AX4" s="237"/>
+      <c r="AY4" s="237"/>
+      <c r="AZ4" s="237"/>
+      <c r="BA4" s="237"/>
+      <c r="BB4" s="237"/>
+      <c r="BC4" s="237"/>
+      <c r="BD4" s="237"/>
+      <c r="BE4" s="237"/>
+      <c r="BF4" s="237"/>
+      <c r="BG4" s="237"/>
+      <c r="BH4" s="237"/>
+      <c r="BI4" s="237"/>
+      <c r="BJ4" s="237"/>
+      <c r="BK4" s="237"/>
+      <c r="BL4" s="237"/>
+      <c r="BM4" s="237"/>
+      <c r="BN4" s="237"/>
+      <c r="BO4" s="237"/>
+      <c r="BP4" s="237"/>
+      <c r="BQ4" s="237"/>
+      <c r="BR4" s="237"/>
+      <c r="BS4" s="237"/>
+      <c r="BT4" s="237"/>
+      <c r="BU4" s="237"/>
+      <c r="BV4" s="237"/>
+      <c r="BW4" s="237"/>
+      <c r="BX4" s="237"/>
+      <c r="BY4" s="237"/>
+      <c r="BZ4" s="237"/>
+      <c r="CA4" s="237"/>
+      <c r="CB4" s="237"/>
+      <c r="CC4" s="237"/>
     </row>
     <row r="6" spans="1:92">
       <c r="B6" s="6"/>
@@ -6430,106 +6563,106 @@
       <c r="B7" s="113" t="s">
         <v>289</v>
       </c>
-      <c r="C7" s="171" t="s">
+      <c r="C7" s="240" t="s">
         <v>263</v>
       </c>
-      <c r="D7" s="172"/>
-      <c r="E7" s="172"/>
-      <c r="F7" s="172"/>
-      <c r="G7" s="172"/>
-      <c r="H7" s="172"/>
-      <c r="I7" s="172"/>
-      <c r="J7" s="172"/>
-      <c r="K7" s="172"/>
-      <c r="L7" s="172"/>
-      <c r="M7" s="172"/>
-      <c r="N7" s="172"/>
-      <c r="O7" s="172"/>
-      <c r="P7" s="172"/>
-      <c r="Q7" s="172"/>
-      <c r="R7" s="172"/>
-      <c r="S7" s="172"/>
-      <c r="T7" s="172"/>
-      <c r="U7" s="172"/>
-      <c r="V7" s="172"/>
-      <c r="W7" s="172"/>
-      <c r="X7" s="172"/>
-      <c r="Y7" s="172"/>
-      <c r="Z7" s="172"/>
-      <c r="AA7" s="172"/>
-      <c r="AB7" s="172"/>
-      <c r="AC7" s="172"/>
-      <c r="AD7" s="172"/>
-      <c r="AE7" s="172"/>
-      <c r="AF7" s="172"/>
-      <c r="AG7" s="172"/>
-      <c r="AH7" s="172"/>
-      <c r="AI7" s="172"/>
-      <c r="AJ7" s="172"/>
-      <c r="AK7" s="172"/>
-      <c r="AL7" s="173"/>
-      <c r="AM7" s="171" t="s">
+      <c r="D7" s="241"/>
+      <c r="E7" s="241"/>
+      <c r="F7" s="241"/>
+      <c r="G7" s="241"/>
+      <c r="H7" s="241"/>
+      <c r="I7" s="241"/>
+      <c r="J7" s="241"/>
+      <c r="K7" s="241"/>
+      <c r="L7" s="241"/>
+      <c r="M7" s="241"/>
+      <c r="N7" s="241"/>
+      <c r="O7" s="241"/>
+      <c r="P7" s="241"/>
+      <c r="Q7" s="241"/>
+      <c r="R7" s="241"/>
+      <c r="S7" s="241"/>
+      <c r="T7" s="241"/>
+      <c r="U7" s="241"/>
+      <c r="V7" s="241"/>
+      <c r="W7" s="241"/>
+      <c r="X7" s="241"/>
+      <c r="Y7" s="241"/>
+      <c r="Z7" s="241"/>
+      <c r="AA7" s="241"/>
+      <c r="AB7" s="241"/>
+      <c r="AC7" s="241"/>
+      <c r="AD7" s="241"/>
+      <c r="AE7" s="241"/>
+      <c r="AF7" s="241"/>
+      <c r="AG7" s="241"/>
+      <c r="AH7" s="241"/>
+      <c r="AI7" s="241"/>
+      <c r="AJ7" s="241"/>
+      <c r="AK7" s="241"/>
+      <c r="AL7" s="242"/>
+      <c r="AM7" s="240" t="s">
         <v>258</v>
       </c>
-      <c r="AN7" s="172"/>
-      <c r="AO7" s="172"/>
-      <c r="AP7" s="172"/>
-      <c r="AQ7" s="172"/>
-      <c r="AR7" s="172"/>
-      <c r="AS7" s="172"/>
-      <c r="AT7" s="173"/>
-      <c r="AU7" s="171" t="s">
+      <c r="AN7" s="241"/>
+      <c r="AO7" s="241"/>
+      <c r="AP7" s="241"/>
+      <c r="AQ7" s="241"/>
+      <c r="AR7" s="241"/>
+      <c r="AS7" s="241"/>
+      <c r="AT7" s="242"/>
+      <c r="AU7" s="240" t="s">
         <v>310</v>
       </c>
-      <c r="AV7" s="172"/>
-      <c r="AW7" s="172"/>
-      <c r="AX7" s="172"/>
-      <c r="AY7" s="172"/>
-      <c r="AZ7" s="172"/>
-      <c r="BA7" s="173"/>
-      <c r="BB7" s="207" t="s">
+      <c r="AV7" s="241"/>
+      <c r="AW7" s="241"/>
+      <c r="AX7" s="241"/>
+      <c r="AY7" s="241"/>
+      <c r="AZ7" s="241"/>
+      <c r="BA7" s="242"/>
+      <c r="BB7" s="243" t="s">
         <v>257</v>
       </c>
-      <c r="BC7" s="207"/>
-      <c r="BD7" s="207"/>
-      <c r="BE7" s="207"/>
-      <c r="BF7" s="207"/>
-      <c r="BG7" s="207"/>
-      <c r="BH7" s="207"/>
-      <c r="BI7" s="207"/>
-      <c r="BJ7" s="207"/>
-      <c r="BK7" s="207"/>
-      <c r="BL7" s="207"/>
-      <c r="BM7" s="207"/>
-      <c r="BN7" s="207"/>
-      <c r="BO7" s="207"/>
-      <c r="BP7" s="207"/>
-      <c r="BQ7" s="207"/>
-      <c r="BR7" s="207"/>
-      <c r="BS7" s="207"/>
-      <c r="BT7" s="207"/>
-      <c r="BU7" s="207" t="s">
+      <c r="BC7" s="243"/>
+      <c r="BD7" s="243"/>
+      <c r="BE7" s="243"/>
+      <c r="BF7" s="243"/>
+      <c r="BG7" s="243"/>
+      <c r="BH7" s="243"/>
+      <c r="BI7" s="243"/>
+      <c r="BJ7" s="243"/>
+      <c r="BK7" s="243"/>
+      <c r="BL7" s="243"/>
+      <c r="BM7" s="243"/>
+      <c r="BN7" s="243"/>
+      <c r="BO7" s="243"/>
+      <c r="BP7" s="243"/>
+      <c r="BQ7" s="243"/>
+      <c r="BR7" s="243"/>
+      <c r="BS7" s="243"/>
+      <c r="BT7" s="243"/>
+      <c r="BU7" s="243" t="s">
         <v>260</v>
       </c>
-      <c r="BV7" s="207"/>
-      <c r="BW7" s="207"/>
-      <c r="BX7" s="207"/>
-      <c r="BY7" s="207"/>
-      <c r="BZ7" s="207"/>
-      <c r="CA7" s="207"/>
-      <c r="CB7" s="207"/>
-      <c r="CC7" s="207"/>
-      <c r="CF7" s="171" t="s">
+      <c r="BV7" s="243"/>
+      <c r="BW7" s="243"/>
+      <c r="BX7" s="243"/>
+      <c r="BY7" s="243"/>
+      <c r="BZ7" s="243"/>
+      <c r="CA7" s="243"/>
+      <c r="CB7" s="243"/>
+      <c r="CC7" s="243"/>
+      <c r="CF7" s="240" t="s">
         <v>31</v>
       </c>
-      <c r="CG7" s="172"/>
-      <c r="CH7" s="172"/>
-      <c r="CI7" s="172"/>
-      <c r="CJ7" s="172"/>
-      <c r="CK7" s="172"/>
-      <c r="CL7" s="172"/>
-      <c r="CM7" s="172"/>
-      <c r="CN7" s="173"/>
+      <c r="CG7" s="241"/>
+      <c r="CH7" s="241"/>
+      <c r="CI7" s="241"/>
+      <c r="CJ7" s="241"/>
+      <c r="CK7" s="241"/>
+      <c r="CL7" s="241"/>
+      <c r="CM7" s="241"/>
+      <c r="CN7" s="242"/>
     </row>
     <row r="8" spans="1:92" s="59" customFormat="1" ht="104" customHeight="1">
       <c r="A8" s="107" t="s">
@@ -6545,72 +6678,72 @@
       <c r="E8" s="111" t="s">
         <v>288</v>
       </c>
-      <c r="F8" s="208" t="s">
+      <c r="F8" s="244" t="s">
         <v>262</v>
       </c>
-      <c r="G8" s="208"/>
-      <c r="H8" s="208"/>
-      <c r="I8" s="208"/>
-      <c r="J8" s="208"/>
-      <c r="K8" s="208"/>
-      <c r="L8" s="208"/>
-      <c r="M8" s="194" t="s">
+      <c r="G8" s="244"/>
+      <c r="H8" s="244"/>
+      <c r="I8" s="244"/>
+      <c r="J8" s="244"/>
+      <c r="K8" s="244"/>
+      <c r="L8" s="244"/>
+      <c r="M8" s="245" t="s">
         <v>356</v>
       </c>
-      <c r="N8" s="195"/>
-      <c r="O8" s="195"/>
-      <c r="P8" s="195"/>
-      <c r="Q8" s="195"/>
-      <c r="R8" s="195"/>
-      <c r="S8" s="195"/>
-      <c r="T8" s="195"/>
-      <c r="U8" s="196"/>
-      <c r="V8" s="208" t="s">
+      <c r="N8" s="246"/>
+      <c r="O8" s="246"/>
+      <c r="P8" s="246"/>
+      <c r="Q8" s="246"/>
+      <c r="R8" s="246"/>
+      <c r="S8" s="246"/>
+      <c r="T8" s="246"/>
+      <c r="U8" s="247"/>
+      <c r="V8" s="244" t="s">
         <v>1</v>
       </c>
-      <c r="W8" s="208"/>
-      <c r="X8" s="208"/>
-      <c r="Y8" s="208"/>
-      <c r="Z8" s="208"/>
-      <c r="AA8" s="208"/>
-      <c r="AB8" s="208"/>
-      <c r="AC8" s="208"/>
-      <c r="AD8" s="208"/>
-      <c r="AE8" s="208"/>
-      <c r="AF8" s="208"/>
-      <c r="AG8" s="208"/>
-      <c r="AH8" s="208"/>
-      <c r="AI8" s="208"/>
-      <c r="AJ8" s="208"/>
-      <c r="AK8" s="208"/>
+      <c r="W8" s="244"/>
+      <c r="X8" s="244"/>
+      <c r="Y8" s="244"/>
+      <c r="Z8" s="244"/>
+      <c r="AA8" s="244"/>
+      <c r="AB8" s="244"/>
+      <c r="AC8" s="244"/>
+      <c r="AD8" s="244"/>
+      <c r="AE8" s="244"/>
+      <c r="AF8" s="244"/>
+      <c r="AG8" s="244"/>
+      <c r="AH8" s="244"/>
+      <c r="AI8" s="244"/>
+      <c r="AJ8" s="244"/>
+      <c r="AK8" s="244"/>
       <c r="AL8" s="112" t="s">
         <v>28</v>
       </c>
-      <c r="AM8" s="208" t="s">
+      <c r="AM8" s="244" t="s">
         <v>275</v>
       </c>
-      <c r="AN8" s="208"/>
-      <c r="AO8" s="208"/>
-      <c r="AP8" s="208"/>
-      <c r="AQ8" s="208"/>
-      <c r="AR8" s="194" t="s">
+      <c r="AN8" s="244"/>
+      <c r="AO8" s="244"/>
+      <c r="AP8" s="244"/>
+      <c r="AQ8" s="244"/>
+      <c r="AR8" s="245" t="s">
         <v>276</v>
       </c>
-      <c r="AS8" s="195"/>
-      <c r="AT8" s="196"/>
+      <c r="AS8" s="246"/>
+      <c r="AT8" s="247"/>
       <c r="AU8" s="118" t="s">
         <v>290</v>
       </c>
       <c r="AV8" s="118" t="s">
         <v>387</v>
       </c>
-      <c r="AW8" s="208" t="s">
+      <c r="AW8" s="244" t="s">
         <v>259</v>
       </c>
-      <c r="AX8" s="208"/>
-      <c r="AY8" s="208"/>
-      <c r="AZ8" s="208"/>
-      <c r="BA8" s="208"/>
+      <c r="AX8" s="244"/>
+      <c r="AY8" s="244"/>
+      <c r="AZ8" s="244"/>
+      <c r="BA8" s="244"/>
       <c r="BB8" s="123" t="s">
         <v>353</v>
       </c>
@@ -6623,27 +6756,27 @@
       <c r="BE8" s="124" t="s">
         <v>391</v>
       </c>
-      <c r="BF8" s="209" t="s">
+      <c r="BF8" s="248" t="s">
         <v>266</v>
       </c>
-      <c r="BG8" s="209"/>
-      <c r="BH8" s="197" t="s">
+      <c r="BG8" s="248"/>
+      <c r="BH8" s="249" t="s">
         <v>390</v>
       </c>
-      <c r="BI8" s="210"/>
-      <c r="BJ8" s="210"/>
-      <c r="BK8" s="210"/>
-      <c r="BL8" s="194" t="s">
+      <c r="BI8" s="250"/>
+      <c r="BJ8" s="250"/>
+      <c r="BK8" s="250"/>
+      <c r="BL8" s="245" t="s">
         <v>265</v>
       </c>
-      <c r="BM8" s="195"/>
-      <c r="BN8" s="195"/>
-      <c r="BO8" s="195"/>
-      <c r="BP8" s="195"/>
-      <c r="BQ8" s="195"/>
-      <c r="BR8" s="195"/>
-      <c r="BS8" s="195"/>
-      <c r="BT8" s="195"/>
+      <c r="BM8" s="246"/>
+      <c r="BN8" s="246"/>
+      <c r="BO8" s="246"/>
+      <c r="BP8" s="246"/>
+      <c r="BQ8" s="246"/>
+      <c r="BR8" s="246"/>
+      <c r="BS8" s="246"/>
+      <c r="BT8" s="246"/>
       <c r="BU8" s="111" t="s">
         <v>137</v>
       </c>
@@ -6659,14 +6792,14 @@
       <c r="BY8" s="111" t="s">
         <v>386</v>
       </c>
-      <c r="BZ8" s="197" t="s">
+      <c r="BZ8" s="249" t="s">
         <v>305</v>
       </c>
-      <c r="CA8" s="198"/>
-      <c r="CB8" s="202" t="s">
+      <c r="CA8" s="252"/>
+      <c r="CB8" s="256" t="s">
         <v>307</v>
       </c>
-      <c r="CC8" s="202"/>
+      <c r="CC8" s="256"/>
       <c r="CF8" s="59" t="s">
         <v>355</v>
       </c>
@@ -6706,15 +6839,15 @@
       <c r="N9" s="114" t="s">
         <v>395</v>
       </c>
-      <c r="O9" s="178" t="s">
+      <c r="O9" s="238" t="s">
         <v>417</v>
       </c>
-      <c r="P9" s="179"/>
-      <c r="Q9" s="179"/>
-      <c r="R9" s="179"/>
-      <c r="S9" s="179"/>
-      <c r="T9" s="179"/>
-      <c r="U9" s="180"/>
+      <c r="P9" s="239"/>
+      <c r="Q9" s="239"/>
+      <c r="R9" s="239"/>
+      <c r="S9" s="239"/>
+      <c r="T9" s="239"/>
+      <c r="U9" s="251"/>
       <c r="V9" s="98" t="s">
         <v>379</v>
       </c>
@@ -6727,20 +6860,20 @@
       <c r="Y9" s="98" t="s">
         <v>399</v>
       </c>
-      <c r="Z9" s="169" t="s">
+      <c r="Z9" s="257" t="s">
         <v>416</v>
       </c>
-      <c r="AA9" s="169"/>
-      <c r="AB9" s="169"/>
-      <c r="AC9" s="169"/>
-      <c r="AD9" s="169"/>
-      <c r="AE9" s="169"/>
-      <c r="AF9" s="169"/>
-      <c r="AG9" s="169"/>
-      <c r="AH9" s="169"/>
-      <c r="AI9" s="169"/>
-      <c r="AJ9" s="169"/>
-      <c r="AK9" s="169"/>
+      <c r="AA9" s="257"/>
+      <c r="AB9" s="257"/>
+      <c r="AC9" s="257"/>
+      <c r="AD9" s="257"/>
+      <c r="AE9" s="257"/>
+      <c r="AF9" s="257"/>
+      <c r="AG9" s="257"/>
+      <c r="AH9" s="257"/>
+      <c r="AI9" s="257"/>
+      <c r="AJ9" s="257"/>
+      <c r="AK9" s="257"/>
       <c r="AL9" s="11"/>
       <c r="AM9" s="98" t="s">
         <v>258</v>
@@ -6800,20 +6933,20 @@
       <c r="BH9" s="98" t="s">
         <v>422</v>
       </c>
-      <c r="BI9" s="178" t="s">
+      <c r="BI9" s="238" t="s">
         <v>407</v>
       </c>
-      <c r="BJ9" s="179"/>
+      <c r="BJ9" s="239"/>
       <c r="BK9" s="114" t="s">
         <v>403</v>
       </c>
       <c r="BL9" s="98" t="s">
         <v>422</v>
       </c>
-      <c r="BM9" s="178" t="s">
+      <c r="BM9" s="238" t="s">
         <v>407</v>
       </c>
-      <c r="BN9" s="180"/>
+      <c r="BN9" s="251"/>
       <c r="BO9" s="114" t="s">
         <v>403</v>
       </c>
@@ -6823,11 +6956,11 @@
       <c r="BQ9" s="121" t="s">
         <v>372</v>
       </c>
-      <c r="BR9" s="199" t="s">
+      <c r="BR9" s="253" t="s">
         <v>388</v>
       </c>
-      <c r="BS9" s="200"/>
-      <c r="BT9" s="201"/>
+      <c r="BS9" s="254"/>
+      <c r="BT9" s="255"/>
       <c r="BU9" s="63"/>
       <c r="BV9" s="63"/>
       <c r="BW9" s="63"/>
@@ -6878,13 +7011,13 @@
       <c r="P10" s="98" t="s">
         <v>137</v>
       </c>
-      <c r="Q10" s="178" t="s">
+      <c r="Q10" s="238" t="s">
         <v>145</v>
       </c>
-      <c r="R10" s="179"/>
-      <c r="S10" s="179"/>
-      <c r="T10" s="179"/>
-      <c r="U10" s="180"/>
+      <c r="R10" s="239"/>
+      <c r="S10" s="239"/>
+      <c r="T10" s="239"/>
+      <c r="U10" s="251"/>
       <c r="V10" s="11"/>
       <c r="W10" s="11"/>
       <c r="X10" s="11"/>
@@ -6901,18 +7034,18 @@
       <c r="AC10" s="37" t="s">
         <v>281</v>
       </c>
-      <c r="AD10" s="203" t="s">
+      <c r="AD10" s="258" t="s">
         <v>145</v>
       </c>
-      <c r="AE10" s="204"/>
-      <c r="AF10" s="204"/>
-      <c r="AG10" s="205"/>
-      <c r="AH10" s="203" t="s">
+      <c r="AE10" s="259"/>
+      <c r="AF10" s="259"/>
+      <c r="AG10" s="260"/>
+      <c r="AH10" s="258" t="s">
         <v>140</v>
       </c>
-      <c r="AI10" s="204"/>
-      <c r="AJ10" s="204"/>
-      <c r="AK10" s="205"/>
+      <c r="AI10" s="259"/>
+      <c r="AJ10" s="259"/>
+      <c r="AK10" s="260"/>
       <c r="AL10" s="11"/>
       <c r="AM10" s="11"/>
       <c r="AN10" s="11"/>
@@ -7159,10 +7292,10 @@
       <c r="BN15" s="55"/>
     </row>
     <row r="16" spans="1:92">
-      <c r="BM16" s="193" t="s">
+      <c r="BM16" s="236" t="s">
         <v>425</v>
       </c>
-      <c r="BN16" s="193"/>
+      <c r="BN16" s="236"/>
     </row>
     <row r="17" spans="4:67" ht="44" customHeight="1">
       <c r="BF17" t="s">
@@ -7255,6 +7388,19 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="Q10:U10"/>
+    <mergeCell ref="BM16:BN16"/>
+    <mergeCell ref="CF7:CN7"/>
+    <mergeCell ref="M8:U8"/>
+    <mergeCell ref="O9:U9"/>
+    <mergeCell ref="C7:AL7"/>
+    <mergeCell ref="BZ8:CA8"/>
+    <mergeCell ref="BR9:BT9"/>
+    <mergeCell ref="BL8:BT8"/>
+    <mergeCell ref="CB8:CC8"/>
+    <mergeCell ref="Z9:AK9"/>
+    <mergeCell ref="AH10:AK10"/>
+    <mergeCell ref="AD10:AG10"/>
     <mergeCell ref="B4:CC4"/>
     <mergeCell ref="BI9:BJ9"/>
     <mergeCell ref="AU7:BA7"/>
@@ -7269,19 +7415,6 @@
     <mergeCell ref="F8:L8"/>
     <mergeCell ref="AM7:AT7"/>
     <mergeCell ref="BM9:BN9"/>
-    <mergeCell ref="Q10:U10"/>
-    <mergeCell ref="BM16:BN16"/>
-    <mergeCell ref="CF7:CN7"/>
-    <mergeCell ref="M8:U8"/>
-    <mergeCell ref="O9:U9"/>
-    <mergeCell ref="C7:AL7"/>
-    <mergeCell ref="BZ8:CA8"/>
-    <mergeCell ref="BR9:BT9"/>
-    <mergeCell ref="BL8:BT8"/>
-    <mergeCell ref="CB8:CC8"/>
-    <mergeCell ref="Z9:AK9"/>
-    <mergeCell ref="AH10:AK10"/>
-    <mergeCell ref="AD10:AG10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7405,13 +7538,13 @@
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="B7" s="211" t="s">
+      <c r="B7" s="273" t="s">
         <v>369</v>
       </c>
-      <c r="C7" s="211"/>
-      <c r="D7" s="211"/>
-      <c r="E7" s="211"/>
-      <c r="F7" s="211"/>
+      <c r="C7" s="273"/>
+      <c r="D7" s="273"/>
+      <c r="E7" s="273"/>
+      <c r="F7" s="273"/>
       <c r="H7" s="20" t="s">
         <v>316</v>
       </c>
@@ -7454,7 +7587,7 @@
       <c r="N9" s="77"/>
     </row>
     <row r="10" spans="1:14" ht="17">
-      <c r="B10" s="212" t="s">
+      <c r="B10" s="261" t="s">
         <v>263</v>
       </c>
       <c r="C10" s="19" t="s">
@@ -7475,7 +7608,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="17">
-      <c r="B11" s="212"/>
+      <c r="B11" s="261"/>
       <c r="C11" s="19" t="s">
         <v>285</v>
       </c>
@@ -7494,7 +7627,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="17">
-      <c r="B12" s="212"/>
+      <c r="B12" s="261"/>
       <c r="C12" s="19" t="s">
         <v>288</v>
       </c>
@@ -7513,8 +7646,8 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="17">
-      <c r="B13" s="212"/>
-      <c r="C13" s="214" t="s">
+      <c r="B13" s="261"/>
+      <c r="C13" s="268" t="s">
         <v>262</v>
       </c>
       <c r="D13" s="19" t="s">
@@ -7534,8 +7667,8 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="17">
-      <c r="B14" s="212"/>
-      <c r="C14" s="214"/>
+      <c r="B14" s="261"/>
+      <c r="C14" s="268"/>
       <c r="D14" s="19" t="s">
         <v>267</v>
       </c>
@@ -7555,8 +7688,8 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="17">
-      <c r="B15" s="212"/>
-      <c r="C15" s="214"/>
+      <c r="B15" s="261"/>
+      <c r="C15" s="268"/>
       <c r="D15" s="19" t="s">
         <v>268</v>
       </c>
@@ -7576,8 +7709,8 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="17">
-      <c r="B16" s="212"/>
-      <c r="C16" s="214"/>
+      <c r="B16" s="261"/>
+      <c r="C16" s="268"/>
       <c r="D16" s="19" t="s">
         <v>261</v>
       </c>
@@ -7595,8 +7728,8 @@
       </c>
     </row>
     <row r="17" spans="2:12" ht="17">
-      <c r="B17" s="212"/>
-      <c r="C17" s="214"/>
+      <c r="B17" s="261"/>
+      <c r="C17" s="268"/>
       <c r="D17" s="19" t="s">
         <v>269</v>
       </c>
@@ -7614,8 +7747,8 @@
       </c>
     </row>
     <row r="18" spans="2:12" ht="17">
-      <c r="B18" s="212"/>
-      <c r="C18" s="214"/>
+      <c r="B18" s="261"/>
+      <c r="C18" s="268"/>
       <c r="D18" s="19" t="s">
         <v>284</v>
       </c>
@@ -7633,8 +7766,8 @@
       </c>
     </row>
     <row r="19" spans="2:12" ht="17">
-      <c r="B19" s="212"/>
-      <c r="C19" s="214"/>
+      <c r="B19" s="261"/>
+      <c r="C19" s="268"/>
       <c r="D19" s="19" t="s">
         <v>283</v>
       </c>
@@ -7652,8 +7785,8 @@
       </c>
     </row>
     <row r="20" spans="2:12" ht="17">
-      <c r="B20" s="212"/>
-      <c r="C20" s="219" t="s">
+      <c r="B20" s="261"/>
+      <c r="C20" s="266" t="s">
         <v>356</v>
       </c>
       <c r="D20" s="102" t="s">
@@ -7675,8 +7808,8 @@
       </c>
     </row>
     <row r="21" spans="2:12" ht="17">
-      <c r="B21" s="212"/>
-      <c r="C21" s="220"/>
+      <c r="B21" s="261"/>
+      <c r="C21" s="267"/>
       <c r="D21" s="102" t="s">
         <v>396</v>
       </c>
@@ -7694,9 +7827,9 @@
       </c>
     </row>
     <row r="22" spans="2:12" ht="17">
-      <c r="B22" s="212"/>
-      <c r="C22" s="220"/>
-      <c r="D22" s="216" t="s">
+      <c r="B22" s="261"/>
+      <c r="C22" s="267"/>
+      <c r="D22" s="263" t="s">
         <v>370</v>
       </c>
       <c r="E22" s="103" t="s">
@@ -7709,7 +7842,7 @@
       <c r="I22" s="82" t="b">
         <v>1</v>
       </c>
-      <c r="J22" s="211" t="s">
+      <c r="J22" s="273" t="s">
         <v>82</v>
       </c>
       <c r="L22" s="19" t="s">
@@ -7717,9 +7850,9 @@
       </c>
     </row>
     <row r="23" spans="2:12" ht="17">
-      <c r="B23" s="212"/>
-      <c r="C23" s="220"/>
-      <c r="D23" s="217"/>
+      <c r="B23" s="261"/>
+      <c r="C23" s="267"/>
+      <c r="D23" s="264"/>
       <c r="E23" s="103" t="s">
         <v>137</v>
       </c>
@@ -7730,16 +7863,16 @@
       <c r="I23" s="37" t="s">
         <v>243</v>
       </c>
-      <c r="J23" s="211"/>
+      <c r="J23" s="273"/>
       <c r="L23" s="19" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="24" spans="2:12" ht="17">
-      <c r="B24" s="212"/>
-      <c r="C24" s="220"/>
-      <c r="D24" s="217"/>
-      <c r="E24" s="215" t="s">
+      <c r="B24" s="261"/>
+      <c r="C24" s="267"/>
+      <c r="D24" s="264"/>
+      <c r="E24" s="262" t="s">
         <v>145</v>
       </c>
       <c r="F24" s="19" t="s">
@@ -7749,16 +7882,16 @@
         <v>141</v>
       </c>
       <c r="I24" s="11"/>
-      <c r="J24" s="211"/>
+      <c r="J24" s="273"/>
       <c r="L24" s="19" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="25" spans="2:12" ht="17">
-      <c r="B25" s="212"/>
-      <c r="C25" s="220"/>
-      <c r="D25" s="217"/>
-      <c r="E25" s="215"/>
+      <c r="B25" s="261"/>
+      <c r="C25" s="267"/>
+      <c r="D25" s="264"/>
+      <c r="E25" s="262"/>
       <c r="F25" s="19" t="s">
         <v>146</v>
       </c>
@@ -7766,16 +7899,16 @@
         <v>97</v>
       </c>
       <c r="I25" s="11"/>
-      <c r="J25" s="211"/>
+      <c r="J25" s="273"/>
       <c r="L25" s="19" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="26" spans="2:12" ht="17">
-      <c r="B26" s="212"/>
-      <c r="C26" s="220"/>
-      <c r="D26" s="218"/>
-      <c r="E26" s="215"/>
+      <c r="B26" s="261"/>
+      <c r="C26" s="267"/>
+      <c r="D26" s="265"/>
+      <c r="E26" s="262"/>
       <c r="F26" s="19" t="s">
         <v>328</v>
       </c>
@@ -7783,14 +7916,14 @@
         <v>329</v>
       </c>
       <c r="I26" s="11"/>
-      <c r="J26" s="211"/>
+      <c r="J26" s="273"/>
       <c r="L26" s="19" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="27" spans="2:12" ht="17">
-      <c r="B27" s="212"/>
-      <c r="C27" s="221" t="s">
+      <c r="B27" s="261"/>
+      <c r="C27" s="269" t="s">
         <v>1</v>
       </c>
       <c r="D27" s="19" t="s">
@@ -7810,8 +7943,8 @@
       </c>
     </row>
     <row r="28" spans="2:12" ht="17">
-      <c r="B28" s="212"/>
-      <c r="C28" s="222"/>
+      <c r="B28" s="261"/>
+      <c r="C28" s="270"/>
       <c r="D28" s="19" t="s">
         <v>279</v>
       </c>
@@ -7829,8 +7962,8 @@
       </c>
     </row>
     <row r="29" spans="2:12" ht="17">
-      <c r="B29" s="212"/>
-      <c r="C29" s="222"/>
+      <c r="B29" s="261"/>
+      <c r="C29" s="270"/>
       <c r="D29" s="19" t="s">
         <v>280</v>
       </c>
@@ -7848,9 +7981,9 @@
       </c>
     </row>
     <row r="30" spans="2:12" ht="17" customHeight="1">
-      <c r="B30" s="212"/>
-      <c r="C30" s="222"/>
-      <c r="D30" s="213" t="s">
+      <c r="B30" s="261"/>
+      <c r="C30" s="270"/>
+      <c r="D30" s="272" t="s">
         <v>389</v>
       </c>
       <c r="E30" s="19" t="s">
@@ -7863,7 +7996,7 @@
       <c r="I30" s="82" t="b">
         <v>1</v>
       </c>
-      <c r="J30" s="211" t="s">
+      <c r="J30" s="273" t="s">
         <v>60</v>
       </c>
       <c r="L30" s="19" t="s">
@@ -7871,9 +8004,9 @@
       </c>
     </row>
     <row r="31" spans="2:12" ht="17" customHeight="1">
-      <c r="B31" s="212"/>
-      <c r="C31" s="222"/>
-      <c r="D31" s="213"/>
+      <c r="B31" s="261"/>
+      <c r="C31" s="270"/>
+      <c r="D31" s="272"/>
       <c r="E31" s="19" t="s">
         <v>137</v>
       </c>
@@ -7884,15 +8017,15 @@
       <c r="I31" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="J31" s="211"/>
+      <c r="J31" s="273"/>
       <c r="L31" s="19" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="32" spans="2:12" ht="17" customHeight="1">
-      <c r="B32" s="212"/>
-      <c r="C32" s="222"/>
-      <c r="D32" s="213"/>
+      <c r="B32" s="261"/>
+      <c r="C32" s="270"/>
+      <c r="D32" s="272"/>
       <c r="E32" s="19" t="s">
         <v>282</v>
       </c>
@@ -7903,15 +8036,15 @@
       <c r="I32" s="82" t="b">
         <v>0</v>
       </c>
-      <c r="J32" s="211"/>
+      <c r="J32" s="273"/>
       <c r="L32" s="19" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="33" spans="2:12" ht="17" customHeight="1">
-      <c r="B33" s="212"/>
-      <c r="C33" s="222"/>
-      <c r="D33" s="213"/>
+      <c r="B33" s="261"/>
+      <c r="C33" s="270"/>
+      <c r="D33" s="272"/>
       <c r="E33" s="19" t="s">
         <v>281</v>
       </c>
@@ -7922,16 +8055,16 @@
       <c r="I33" s="82" t="b">
         <v>0</v>
       </c>
-      <c r="J33" s="211"/>
+      <c r="J33" s="273"/>
       <c r="L33" s="19" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="34" spans="2:12" ht="17" customHeight="1">
-      <c r="B34" s="212"/>
-      <c r="C34" s="222"/>
-      <c r="D34" s="213"/>
-      <c r="E34" s="213" t="s">
+      <c r="B34" s="261"/>
+      <c r="C34" s="270"/>
+      <c r="D34" s="272"/>
+      <c r="E34" s="272" t="s">
         <v>145</v>
       </c>
       <c r="F34" s="19" t="s">
@@ -7941,16 +8074,16 @@
         <v>141</v>
       </c>
       <c r="I34" s="11"/>
-      <c r="J34" s="211"/>
+      <c r="J34" s="273"/>
       <c r="L34" s="19" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="35" spans="2:12" ht="17" customHeight="1">
-      <c r="B35" s="212"/>
-      <c r="C35" s="222"/>
-      <c r="D35" s="213"/>
-      <c r="E35" s="213"/>
+      <c r="B35" s="261"/>
+      <c r="C35" s="270"/>
+      <c r="D35" s="272"/>
+      <c r="E35" s="272"/>
       <c r="F35" s="19" t="s">
         <v>146</v>
       </c>
@@ -7958,16 +8091,16 @@
         <v>97</v>
       </c>
       <c r="I35" s="11"/>
-      <c r="J35" s="211"/>
+      <c r="J35" s="273"/>
       <c r="L35" s="19" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="36" spans="2:12" ht="17" customHeight="1">
-      <c r="B36" s="212"/>
-      <c r="C36" s="222"/>
-      <c r="D36" s="213"/>
-      <c r="E36" s="213"/>
+      <c r="B36" s="261"/>
+      <c r="C36" s="270"/>
+      <c r="D36" s="272"/>
+      <c r="E36" s="272"/>
       <c r="F36" s="19" t="s">
         <v>328</v>
       </c>
@@ -7975,16 +8108,16 @@
         <v>329</v>
       </c>
       <c r="I36" s="11"/>
-      <c r="J36" s="211"/>
+      <c r="J36" s="273"/>
       <c r="L36" s="19" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="37" spans="2:12" ht="17" customHeight="1">
-      <c r="B37" s="212"/>
-      <c r="C37" s="222"/>
-      <c r="D37" s="213"/>
-      <c r="E37" s="213" t="s">
+      <c r="B37" s="261"/>
+      <c r="C37" s="270"/>
+      <c r="D37" s="272"/>
+      <c r="E37" s="272" t="s">
         <v>140</v>
       </c>
       <c r="F37" s="19" t="s">
@@ -7996,16 +8129,16 @@
       <c r="I37" s="82" t="s">
         <v>158</v>
       </c>
-      <c r="J37" s="211"/>
+      <c r="J37" s="273"/>
       <c r="L37" s="19" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="38" spans="2:12" ht="17" customHeight="1">
-      <c r="B38" s="212"/>
-      <c r="C38" s="222"/>
-      <c r="D38" s="213"/>
-      <c r="E38" s="213"/>
+      <c r="B38" s="261"/>
+      <c r="C38" s="270"/>
+      <c r="D38" s="272"/>
+      <c r="E38" s="272"/>
       <c r="F38" s="19" t="s">
         <v>142</v>
       </c>
@@ -8015,16 +8148,16 @@
       <c r="I38" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="J38" s="211"/>
+      <c r="J38" s="273"/>
       <c r="L38" s="19" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="39" spans="2:12" ht="17" customHeight="1">
-      <c r="B39" s="212"/>
-      <c r="C39" s="222"/>
-      <c r="D39" s="213"/>
-      <c r="E39" s="213"/>
+      <c r="B39" s="261"/>
+      <c r="C39" s="270"/>
+      <c r="D39" s="272"/>
+      <c r="E39" s="272"/>
       <c r="F39" s="19" t="s">
         <v>143</v>
       </c>
@@ -8034,16 +8167,16 @@
       <c r="I39" s="91">
         <v>0.5</v>
       </c>
-      <c r="J39" s="211"/>
+      <c r="J39" s="273"/>
       <c r="L39" s="19" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="40" spans="2:12" ht="17" customHeight="1">
-      <c r="B40" s="212"/>
-      <c r="C40" s="223"/>
-      <c r="D40" s="213"/>
-      <c r="E40" s="213"/>
+      <c r="B40" s="261"/>
+      <c r="C40" s="271"/>
+      <c r="D40" s="272"/>
+      <c r="E40" s="272"/>
       <c r="F40" s="19" t="s">
         <v>144</v>
       </c>
@@ -8053,13 +8186,13 @@
       <c r="I40" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="J40" s="211"/>
+      <c r="J40" s="273"/>
       <c r="L40" s="19" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="41" spans="2:12" ht="34">
-      <c r="B41" s="212"/>
+      <c r="B41" s="261"/>
       <c r="C41" s="12" t="s">
         <v>28</v>
       </c>
@@ -8078,10 +8211,10 @@
       </c>
     </row>
     <row r="42" spans="2:12" ht="17">
-      <c r="B42" s="212" t="s">
+      <c r="B42" s="261" t="s">
         <v>258</v>
       </c>
-      <c r="C42" s="214" t="s">
+      <c r="C42" s="268" t="s">
         <v>275</v>
       </c>
       <c r="D42" s="19" t="s">
@@ -8099,8 +8232,8 @@
       </c>
     </row>
     <row r="43" spans="2:12" ht="17">
-      <c r="B43" s="212"/>
-      <c r="C43" s="214"/>
+      <c r="B43" s="261"/>
+      <c r="C43" s="268"/>
       <c r="D43" s="89" t="s">
         <v>274</v>
       </c>
@@ -8119,8 +8252,8 @@
       </c>
     </row>
     <row r="44" spans="2:12" ht="17">
-      <c r="B44" s="212"/>
-      <c r="C44" s="214"/>
+      <c r="B44" s="261"/>
+      <c r="C44" s="268"/>
       <c r="D44" s="19" t="s">
         <v>277</v>
       </c>
@@ -8136,8 +8269,8 @@
       </c>
     </row>
     <row r="45" spans="2:12" ht="17">
-      <c r="B45" s="212"/>
-      <c r="C45" s="214"/>
+      <c r="B45" s="261"/>
+      <c r="C45" s="268"/>
       <c r="D45" s="19" t="s">
         <v>261</v>
       </c>
@@ -8153,8 +8286,8 @@
       </c>
     </row>
     <row r="46" spans="2:12" ht="17">
-      <c r="B46" s="212"/>
-      <c r="C46" s="214"/>
+      <c r="B46" s="261"/>
+      <c r="C46" s="268"/>
       <c r="D46" s="19" t="s">
         <v>273</v>
       </c>
@@ -8170,8 +8303,8 @@
       </c>
     </row>
     <row r="47" spans="2:12" ht="17">
-      <c r="B47" s="212"/>
-      <c r="C47" s="214" t="s">
+      <c r="B47" s="261"/>
+      <c r="C47" s="268" t="s">
         <v>276</v>
       </c>
       <c r="D47" s="19" t="s">
@@ -8189,8 +8322,8 @@
       </c>
     </row>
     <row r="48" spans="2:12" ht="17">
-      <c r="B48" s="212"/>
-      <c r="C48" s="214"/>
+      <c r="B48" s="261"/>
+      <c r="C48" s="268"/>
       <c r="D48" s="19" t="s">
         <v>44</v>
       </c>
@@ -8206,8 +8339,8 @@
       </c>
     </row>
     <row r="49" spans="2:12" ht="17">
-      <c r="B49" s="212"/>
-      <c r="C49" s="214"/>
+      <c r="B49" s="261"/>
+      <c r="C49" s="268"/>
       <c r="D49" s="19" t="s">
         <v>273</v>
       </c>
@@ -8223,7 +8356,7 @@
       </c>
     </row>
     <row r="50" spans="2:12" ht="17">
-      <c r="B50" s="212" t="s">
+      <c r="B50" s="261" t="s">
         <v>310</v>
       </c>
       <c r="C50" s="90" t="s">
@@ -8244,7 +8377,7 @@
       </c>
     </row>
     <row r="51" spans="2:12" ht="17">
-      <c r="B51" s="212"/>
+      <c r="B51" s="261"/>
       <c r="C51" s="90" t="s">
         <v>291</v>
       </c>
@@ -8263,8 +8396,8 @@
       </c>
     </row>
     <row r="52" spans="2:12" ht="17">
-      <c r="B52" s="212"/>
-      <c r="C52" s="214" t="s">
+      <c r="B52" s="261"/>
+      <c r="C52" s="268" t="s">
         <v>259</v>
       </c>
       <c r="D52" s="19" t="s">
@@ -8284,8 +8417,8 @@
       </c>
     </row>
     <row r="53" spans="2:12" ht="17">
-      <c r="B53" s="212"/>
-      <c r="C53" s="214"/>
+      <c r="B53" s="261"/>
+      <c r="C53" s="268"/>
       <c r="D53" s="19" t="s">
         <v>268</v>
       </c>
@@ -8303,8 +8436,8 @@
       </c>
     </row>
     <row r="54" spans="2:12" ht="17">
-      <c r="B54" s="212"/>
-      <c r="C54" s="214"/>
+      <c r="B54" s="261"/>
+      <c r="C54" s="268"/>
       <c r="D54" s="19" t="s">
         <v>314</v>
       </c>
@@ -8325,8 +8458,8 @@
       </c>
     </row>
     <row r="55" spans="2:12" ht="17">
-      <c r="B55" s="212"/>
-      <c r="C55" s="214"/>
+      <c r="B55" s="261"/>
+      <c r="C55" s="268"/>
       <c r="D55" s="19" t="s">
         <v>313</v>
       </c>
@@ -8344,8 +8477,8 @@
       </c>
     </row>
     <row r="56" spans="2:12" ht="34">
-      <c r="B56" s="212"/>
-      <c r="C56" s="214"/>
+      <c r="B56" s="261"/>
+      <c r="C56" s="268"/>
       <c r="D56" s="19" t="s">
         <v>312</v>
       </c>
@@ -8366,7 +8499,7 @@
       </c>
     </row>
     <row r="57" spans="2:12" ht="17">
-      <c r="B57" s="212" t="s">
+      <c r="B57" s="261" t="s">
         <v>257</v>
       </c>
       <c r="C57" s="12" t="s">
@@ -8392,7 +8525,7 @@
       </c>
     </row>
     <row r="58" spans="2:12" ht="17">
-      <c r="B58" s="212"/>
+      <c r="B58" s="261"/>
       <c r="C58" s="12" t="s">
         <v>351</v>
       </c>
@@ -8416,7 +8549,7 @@
       </c>
     </row>
     <row r="59" spans="2:12" ht="17">
-      <c r="B59" s="212"/>
+      <c r="B59" s="261"/>
       <c r="C59" s="19" t="s">
         <v>297</v>
       </c>
@@ -8433,7 +8566,7 @@
       </c>
     </row>
     <row r="60" spans="2:12" ht="17">
-      <c r="B60" s="212"/>
+      <c r="B60" s="261"/>
       <c r="C60" s="19" t="s">
         <v>392</v>
       </c>
@@ -8452,8 +8585,8 @@
       </c>
     </row>
     <row r="61" spans="2:12" ht="17">
-      <c r="B61" s="212"/>
-      <c r="C61" s="214" t="s">
+      <c r="B61" s="261"/>
+      <c r="C61" s="268" t="s">
         <v>266</v>
       </c>
       <c r="D61" s="19" t="s">
@@ -8475,8 +8608,8 @@
       </c>
     </row>
     <row r="62" spans="2:12" ht="17">
-      <c r="B62" s="212"/>
-      <c r="C62" s="214"/>
+      <c r="B62" s="261"/>
+      <c r="C62" s="268"/>
       <c r="D62" s="19" t="s">
         <v>295</v>
       </c>
@@ -8496,8 +8629,8 @@
       </c>
     </row>
     <row r="63" spans="2:12" ht="17">
-      <c r="B63" s="212"/>
-      <c r="C63" s="213" t="s">
+      <c r="B63" s="261"/>
+      <c r="C63" s="272" t="s">
         <v>311</v>
       </c>
       <c r="D63" s="103" t="s">
@@ -8517,8 +8650,8 @@
       </c>
     </row>
     <row r="64" spans="2:12" ht="17">
-      <c r="B64" s="212"/>
-      <c r="C64" s="213"/>
+      <c r="B64" s="261"/>
+      <c r="C64" s="272"/>
       <c r="D64" s="103" t="s">
         <v>302</v>
       </c>
@@ -8536,8 +8669,8 @@
       </c>
     </row>
     <row r="65" spans="2:12" ht="17">
-      <c r="B65" s="212"/>
-      <c r="C65" s="213"/>
+      <c r="B65" s="261"/>
+      <c r="C65" s="272"/>
       <c r="D65" s="103" t="s">
         <v>300</v>
       </c>
@@ -8555,8 +8688,8 @@
       </c>
     </row>
     <row r="66" spans="2:12" ht="17">
-      <c r="B66" s="212"/>
-      <c r="C66" s="213"/>
+      <c r="B66" s="261"/>
+      <c r="C66" s="272"/>
       <c r="D66" s="103" t="s">
         <v>294</v>
       </c>
@@ -8576,8 +8709,8 @@
       </c>
     </row>
     <row r="67" spans="2:12" ht="17">
-      <c r="B67" s="212"/>
-      <c r="C67" s="214" t="s">
+      <c r="B67" s="261"/>
+      <c r="C67" s="268" t="s">
         <v>265</v>
       </c>
       <c r="D67" s="103" t="s">
@@ -8597,8 +8730,8 @@
       </c>
     </row>
     <row r="68" spans="2:12" ht="17">
-      <c r="B68" s="212"/>
-      <c r="C68" s="214"/>
+      <c r="B68" s="261"/>
+      <c r="C68" s="268"/>
       <c r="D68" s="103" t="s">
         <v>299</v>
       </c>
@@ -8616,8 +8749,8 @@
       </c>
     </row>
     <row r="69" spans="2:12" ht="17">
-      <c r="B69" s="212"/>
-      <c r="C69" s="214"/>
+      <c r="B69" s="261"/>
+      <c r="C69" s="268"/>
       <c r="D69" s="103" t="s">
         <v>300</v>
       </c>
@@ -8635,8 +8768,8 @@
       </c>
     </row>
     <row r="70" spans="2:12" ht="17">
-      <c r="B70" s="212"/>
-      <c r="C70" s="214"/>
+      <c r="B70" s="261"/>
+      <c r="C70" s="268"/>
       <c r="D70" s="103" t="s">
         <v>295</v>
       </c>
@@ -8656,8 +8789,8 @@
       </c>
     </row>
     <row r="71" spans="2:12" ht="17">
-      <c r="B71" s="212"/>
-      <c r="C71" s="214"/>
+      <c r="B71" s="261"/>
+      <c r="C71" s="268"/>
       <c r="D71" s="103" t="s">
         <v>367</v>
       </c>
@@ -8676,8 +8809,8 @@
       </c>
     </row>
     <row r="72" spans="2:12" ht="17">
-      <c r="B72" s="212"/>
-      <c r="C72" s="214"/>
+      <c r="B72" s="261"/>
+      <c r="C72" s="268"/>
       <c r="D72" s="103" t="s">
         <v>368</v>
       </c>
@@ -8694,8 +8827,8 @@
       </c>
     </row>
     <row r="73" spans="2:12" ht="17">
-      <c r="B73" s="212"/>
-      <c r="C73" s="214"/>
+      <c r="B73" s="261"/>
+      <c r="C73" s="268"/>
       <c r="D73" s="19" t="s">
         <v>301</v>
       </c>
@@ -8713,8 +8846,8 @@
       </c>
     </row>
     <row r="74" spans="2:12" ht="17">
-      <c r="B74" s="212"/>
-      <c r="C74" s="214"/>
+      <c r="B74" s="261"/>
+      <c r="C74" s="268"/>
       <c r="D74" s="19" t="s">
         <v>268</v>
       </c>
@@ -8732,8 +8865,8 @@
       </c>
     </row>
     <row r="75" spans="2:12" ht="17">
-      <c r="B75" s="212"/>
-      <c r="C75" s="214"/>
+      <c r="B75" s="261"/>
+      <c r="C75" s="268"/>
       <c r="D75" s="19" t="s">
         <v>261</v>
       </c>
@@ -8751,7 +8884,7 @@
       </c>
     </row>
     <row r="76" spans="2:12" ht="17">
-      <c r="B76" s="212" t="s">
+      <c r="B76" s="261" t="s">
         <v>260</v>
       </c>
       <c r="C76" s="19" t="s">
@@ -8772,7 +8905,7 @@
       </c>
     </row>
     <row r="77" spans="2:12" ht="21">
-      <c r="B77" s="212"/>
+      <c r="B77" s="261"/>
       <c r="C77" s="19" t="s">
         <v>305</v>
       </c>
@@ -8792,7 +8925,7 @@
       </c>
     </row>
     <row r="78" spans="2:12" ht="17">
-      <c r="B78" s="212"/>
+      <c r="B78" s="261"/>
       <c r="C78" s="19" t="s">
         <v>306</v>
       </c>
@@ -8811,7 +8944,7 @@
       </c>
     </row>
     <row r="79" spans="2:12" ht="17">
-      <c r="B79" s="212"/>
+      <c r="B79" s="261"/>
       <c r="C79" s="19" t="s">
         <v>137</v>
       </c>
@@ -8830,7 +8963,7 @@
       </c>
     </row>
     <row r="80" spans="2:12" ht="17">
-      <c r="B80" s="212"/>
+      <c r="B80" s="261"/>
       <c r="C80" s="19" t="s">
         <v>283</v>
       </c>
@@ -8849,8 +8982,8 @@
       </c>
     </row>
     <row r="81" spans="2:12" ht="17">
-      <c r="B81" s="212"/>
-      <c r="C81" s="213" t="s">
+      <c r="B81" s="261"/>
+      <c r="C81" s="272" t="s">
         <v>307</v>
       </c>
       <c r="D81" s="19" t="s">
@@ -8870,8 +9003,8 @@
       </c>
     </row>
     <row r="82" spans="2:12" ht="17">
-      <c r="B82" s="212"/>
-      <c r="C82" s="213"/>
+      <c r="B82" s="261"/>
+      <c r="C82" s="272"/>
       <c r="D82" s="19" t="s">
         <v>305</v>
       </c>
@@ -8889,8 +9022,8 @@
       </c>
     </row>
     <row r="83" spans="2:12" ht="17">
-      <c r="B83" s="212"/>
-      <c r="C83" s="213"/>
+      <c r="B83" s="261"/>
+      <c r="C83" s="272"/>
       <c r="D83" s="19" t="s">
         <v>309</v>
       </c>
@@ -8908,7 +9041,7 @@
       </c>
     </row>
     <row r="84" spans="2:12" ht="17">
-      <c r="B84" s="212"/>
+      <c r="B84" s="261"/>
       <c r="C84" s="19" t="s">
         <v>28</v>
       </c>
@@ -8936,13 +9069,6 @@
   </sheetData>
   <autoFilter ref="A8:Q85" xr:uid="{A1BDED05-2692-1A4C-AE88-144C5CD07E39}"/>
   <mergeCells count="23">
-    <mergeCell ref="B42:B49"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="C20:C26"/>
-    <mergeCell ref="C13:C19"/>
-    <mergeCell ref="C27:C40"/>
-    <mergeCell ref="D30:D40"/>
     <mergeCell ref="J22:J26"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B10:B41"/>
@@ -8959,6 +9085,13 @@
     <mergeCell ref="E37:E40"/>
     <mergeCell ref="C42:C46"/>
     <mergeCell ref="C47:C49"/>
+    <mergeCell ref="B42:B49"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="C20:C26"/>
+    <mergeCell ref="C13:C19"/>
+    <mergeCell ref="C27:C40"/>
+    <mergeCell ref="D30:D40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9049,12 +9182,12 @@
       <c r="D5" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E5" s="225" t="s">
+      <c r="E5" s="289" t="s">
         <v>116</v>
       </c>
-      <c r="F5" s="226"/>
-      <c r="G5" s="226"/>
-      <c r="H5" s="227"/>
+      <c r="F5" s="290"/>
+      <c r="G5" s="290"/>
+      <c r="H5" s="291"/>
       <c r="I5" s="10" t="s">
         <v>89</v>
       </c>
@@ -9329,16 +9462,16 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="17">
-      <c r="B16" s="211">
+      <c r="B16" s="273">
         <v>3</v>
       </c>
-      <c r="C16" s="229" t="s">
+      <c r="C16" s="284" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="229" t="s">
+      <c r="D16" s="284" t="s">
         <v>185</v>
       </c>
-      <c r="E16" s="211" t="s">
+      <c r="E16" s="273" t="s">
         <v>186</v>
       </c>
       <c r="F16" s="40" t="s">
@@ -9362,10 +9495,10 @@
       </c>
     </row>
     <row r="17" spans="2:16" ht="34">
-      <c r="B17" s="211"/>
-      <c r="C17" s="229"/>
-      <c r="D17" s="229"/>
-      <c r="E17" s="211"/>
+      <c r="B17" s="273"/>
+      <c r="C17" s="284"/>
+      <c r="D17" s="284"/>
+      <c r="E17" s="273"/>
       <c r="F17" s="40" t="s">
         <v>193</v>
       </c>
@@ -9389,10 +9522,10 @@
       </c>
     </row>
     <row r="18" spans="2:16" ht="51">
-      <c r="B18" s="211"/>
-      <c r="C18" s="229"/>
-      <c r="D18" s="229"/>
-      <c r="E18" s="211"/>
+      <c r="B18" s="273"/>
+      <c r="C18" s="284"/>
+      <c r="D18" s="284"/>
+      <c r="E18" s="273"/>
       <c r="F18" s="40" t="s">
         <v>190</v>
       </c>
@@ -9416,79 +9549,79 @@
       </c>
     </row>
     <row r="19" spans="2:16" ht="68">
-      <c r="B19" s="211"/>
-      <c r="C19" s="229"/>
-      <c r="D19" s="229"/>
-      <c r="E19" s="211"/>
-      <c r="F19" s="230" t="s">
+      <c r="B19" s="273"/>
+      <c r="C19" s="284"/>
+      <c r="D19" s="284"/>
+      <c r="E19" s="273"/>
+      <c r="F19" s="285" t="s">
         <v>191</v>
       </c>
-      <c r="G19" s="230" t="s">
+      <c r="G19" s="285" t="s">
         <v>199</v>
       </c>
       <c r="H19" s="11"/>
-      <c r="I19" s="211" t="s">
+      <c r="I19" s="273" t="s">
         <v>92</v>
       </c>
-      <c r="J19" s="234" t="s">
+      <c r="J19" s="294" t="s">
         <v>127</v>
       </c>
-      <c r="K19" s="234" t="s">
+      <c r="K19" s="294" t="s">
         <v>201</v>
       </c>
       <c r="L19" s="45" t="s">
         <v>213</v>
       </c>
-      <c r="M19" s="230" t="s">
+      <c r="M19" s="285" t="s">
         <v>223</v>
       </c>
-      <c r="O19" s="233" t="s">
+      <c r="O19" s="293" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="20" spans="2:16" ht="17">
-      <c r="B20" s="211"/>
-      <c r="C20" s="229"/>
-      <c r="D20" s="229"/>
-      <c r="E20" s="211"/>
-      <c r="F20" s="231"/>
-      <c r="G20" s="231"/>
+      <c r="B20" s="273"/>
+      <c r="C20" s="284"/>
+      <c r="D20" s="284"/>
+      <c r="E20" s="273"/>
+      <c r="F20" s="286"/>
+      <c r="G20" s="286"/>
       <c r="H20" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="I20" s="211"/>
-      <c r="J20" s="234"/>
-      <c r="K20" s="234"/>
+      <c r="I20" s="273"/>
+      <c r="J20" s="294"/>
+      <c r="K20" s="294"/>
       <c r="L20" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="M20" s="231"/>
-      <c r="O20" s="233"/>
+      <c r="M20" s="286"/>
+      <c r="O20" s="293"/>
     </row>
     <row r="21" spans="2:16" ht="17">
-      <c r="B21" s="211"/>
-      <c r="C21" s="229"/>
-      <c r="D21" s="229"/>
-      <c r="E21" s="211"/>
-      <c r="F21" s="232"/>
-      <c r="G21" s="232"/>
+      <c r="B21" s="273"/>
+      <c r="C21" s="284"/>
+      <c r="D21" s="284"/>
+      <c r="E21" s="273"/>
+      <c r="F21" s="287"/>
+      <c r="G21" s="287"/>
       <c r="H21" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="I21" s="211"/>
-      <c r="J21" s="234"/>
-      <c r="K21" s="234"/>
+      <c r="I21" s="273"/>
+      <c r="J21" s="294"/>
+      <c r="K21" s="294"/>
       <c r="L21" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="M21" s="232"/>
-      <c r="O21" s="233"/>
+      <c r="M21" s="287"/>
+      <c r="O21" s="293"/>
     </row>
     <row r="22" spans="2:16" ht="17">
-      <c r="B22" s="211"/>
-      <c r="C22" s="229"/>
-      <c r="D22" s="229"/>
-      <c r="E22" s="211"/>
+      <c r="B22" s="273"/>
+      <c r="C22" s="284"/>
+      <c r="D22" s="284"/>
+      <c r="E22" s="273"/>
       <c r="F22" s="12" t="s">
         <v>194</v>
       </c>
@@ -9510,10 +9643,10 @@
       </c>
     </row>
     <row r="23" spans="2:16" ht="17">
-      <c r="B23" s="211"/>
-      <c r="C23" s="229"/>
-      <c r="D23" s="229"/>
-      <c r="E23" s="211"/>
+      <c r="B23" s="273"/>
+      <c r="C23" s="284"/>
+      <c r="D23" s="284"/>
+      <c r="E23" s="273"/>
       <c r="F23" s="12" t="s">
         <v>195</v>
       </c>
@@ -9535,10 +9668,10 @@
       </c>
     </row>
     <row r="24" spans="2:16" ht="17">
-      <c r="B24" s="211"/>
-      <c r="C24" s="229"/>
-      <c r="D24" s="229"/>
-      <c r="E24" s="211"/>
+      <c r="B24" s="273"/>
+      <c r="C24" s="284"/>
+      <c r="D24" s="284"/>
+      <c r="E24" s="273"/>
       <c r="F24" s="12" t="s">
         <v>196</v>
       </c>
@@ -9560,10 +9693,10 @@
       </c>
     </row>
     <row r="25" spans="2:16" ht="17">
-      <c r="B25" s="211"/>
-      <c r="C25" s="229"/>
-      <c r="D25" s="229"/>
-      <c r="E25" s="228" t="s">
+      <c r="B25" s="273"/>
+      <c r="C25" s="284"/>
+      <c r="D25" s="284"/>
+      <c r="E25" s="292" t="s">
         <v>187</v>
       </c>
       <c r="F25" s="40" t="s">
@@ -9587,10 +9720,10 @@
       </c>
     </row>
     <row r="26" spans="2:16" ht="34">
-      <c r="B26" s="211"/>
-      <c r="C26" s="229"/>
-      <c r="D26" s="229"/>
-      <c r="E26" s="228"/>
+      <c r="B26" s="273"/>
+      <c r="C26" s="284"/>
+      <c r="D26" s="284"/>
+      <c r="E26" s="292"/>
       <c r="F26" s="46" t="s">
         <v>189</v>
       </c>
@@ -9612,10 +9745,10 @@
       </c>
     </row>
     <row r="27" spans="2:16" ht="51">
-      <c r="B27" s="211"/>
-      <c r="C27" s="229"/>
-      <c r="D27" s="229"/>
-      <c r="E27" s="228"/>
+      <c r="B27" s="273"/>
+      <c r="C27" s="284"/>
+      <c r="D27" s="284"/>
+      <c r="E27" s="292"/>
       <c r="F27" s="40" t="s">
         <v>190</v>
       </c>
@@ -9639,73 +9772,73 @@
       </c>
     </row>
     <row r="28" spans="2:16" ht="68">
-      <c r="B28" s="211"/>
-      <c r="C28" s="229"/>
-      <c r="D28" s="229"/>
-      <c r="E28" s="228"/>
-      <c r="F28" s="230" t="s">
+      <c r="B28" s="273"/>
+      <c r="C28" s="284"/>
+      <c r="D28" s="284"/>
+      <c r="E28" s="292"/>
+      <c r="F28" s="285" t="s">
         <v>192</v>
       </c>
-      <c r="G28" s="230" t="s">
+      <c r="G28" s="285" t="s">
         <v>199</v>
       </c>
       <c r="H28" s="11"/>
-      <c r="I28" s="241" t="s">
+      <c r="I28" s="277" t="s">
         <v>92</v>
       </c>
-      <c r="J28" s="235" t="s">
+      <c r="J28" s="281" t="s">
         <v>127</v>
       </c>
-      <c r="K28" s="235" t="s">
+      <c r="K28" s="281" t="s">
         <v>209</v>
       </c>
       <c r="L28" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="M28" s="238" t="s">
+      <c r="M28" s="295" t="s">
         <v>224</v>
       </c>
-      <c r="O28" s="233" t="s">
+      <c r="O28" s="293" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="29" spans="2:16" ht="17">
-      <c r="B29" s="211"/>
-      <c r="C29" s="229"/>
-      <c r="D29" s="229"/>
-      <c r="E29" s="228"/>
-      <c r="F29" s="231"/>
-      <c r="G29" s="231"/>
+      <c r="B29" s="273"/>
+      <c r="C29" s="284"/>
+      <c r="D29" s="284"/>
+      <c r="E29" s="292"/>
+      <c r="F29" s="286"/>
+      <c r="G29" s="286"/>
       <c r="H29" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="I29" s="242"/>
-      <c r="J29" s="236"/>
-      <c r="K29" s="236"/>
+      <c r="I29" s="278"/>
+      <c r="J29" s="282"/>
+      <c r="K29" s="282"/>
       <c r="L29" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="M29" s="239"/>
-      <c r="O29" s="233"/>
+      <c r="M29" s="296"/>
+      <c r="O29" s="293"/>
     </row>
     <row r="30" spans="2:16" ht="17">
-      <c r="B30" s="211"/>
-      <c r="C30" s="229"/>
-      <c r="D30" s="229"/>
-      <c r="E30" s="228"/>
-      <c r="F30" s="232"/>
-      <c r="G30" s="232"/>
+      <c r="B30" s="273"/>
+      <c r="C30" s="284"/>
+      <c r="D30" s="284"/>
+      <c r="E30" s="292"/>
+      <c r="F30" s="287"/>
+      <c r="G30" s="287"/>
       <c r="H30" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="I30" s="244"/>
-      <c r="J30" s="237"/>
-      <c r="K30" s="237"/>
+      <c r="I30" s="279"/>
+      <c r="J30" s="283"/>
+      <c r="K30" s="283"/>
       <c r="L30" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="M30" s="240"/>
-      <c r="O30" s="233"/>
+      <c r="M30" s="297"/>
+      <c r="O30" s="293"/>
     </row>
     <row r="31" spans="2:16" ht="68">
       <c r="B31" s="10">
@@ -10478,16 +10611,16 @@
       </c>
     </row>
     <row r="57" spans="2:16" ht="34">
-      <c r="B57" s="241">
+      <c r="B57" s="277">
         <v>7</v>
       </c>
-      <c r="C57" s="219" t="s">
+      <c r="C57" s="266" t="s">
         <v>74</v>
       </c>
-      <c r="D57" s="219" t="s">
+      <c r="D57" s="266" t="s">
         <v>1</v>
       </c>
-      <c r="E57" s="241" t="s">
+      <c r="E57" s="277" t="s">
         <v>151</v>
       </c>
       <c r="F57" s="36" t="s">
@@ -10509,15 +10642,15 @@
       <c r="O57" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="P57" s="224" t="s">
+      <c r="P57" s="288" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="58" spans="2:16" ht="17" customHeight="1">
-      <c r="B58" s="242"/>
-      <c r="C58" s="220"/>
-      <c r="D58" s="220"/>
-      <c r="E58" s="242"/>
+      <c r="B58" s="278"/>
+      <c r="C58" s="267"/>
+      <c r="D58" s="267"/>
+      <c r="E58" s="278"/>
       <c r="F58" s="36" t="s">
         <v>137</v>
       </c>
@@ -10537,13 +10670,13 @@
       <c r="O58" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="P58" s="224"/>
+      <c r="P58" s="288"/>
     </row>
     <row r="59" spans="2:16" ht="34">
-      <c r="B59" s="242"/>
-      <c r="C59" s="220"/>
-      <c r="D59" s="220"/>
-      <c r="E59" s="242"/>
+      <c r="B59" s="278"/>
+      <c r="C59" s="267"/>
+      <c r="D59" s="267"/>
+      <c r="E59" s="278"/>
       <c r="F59" s="36" t="s">
         <v>138</v>
       </c>
@@ -10563,13 +10696,13 @@
       <c r="O59" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="P59" s="224"/>
+      <c r="P59" s="288"/>
     </row>
     <row r="60" spans="2:16" ht="34">
-      <c r="B60" s="242"/>
-      <c r="C60" s="220"/>
-      <c r="D60" s="220"/>
-      <c r="E60" s="242"/>
+      <c r="B60" s="278"/>
+      <c r="C60" s="267"/>
+      <c r="D60" s="267"/>
+      <c r="E60" s="278"/>
       <c r="F60" s="36" t="s">
         <v>139</v>
       </c>
@@ -10589,14 +10722,14 @@
       <c r="O60" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="P60" s="224"/>
+      <c r="P60" s="288"/>
     </row>
     <row r="61" spans="2:16" ht="51">
-      <c r="B61" s="242"/>
-      <c r="C61" s="220"/>
-      <c r="D61" s="220"/>
-      <c r="E61" s="242"/>
-      <c r="F61" s="219" t="s">
+      <c r="B61" s="278"/>
+      <c r="C61" s="267"/>
+      <c r="D61" s="267"/>
+      <c r="E61" s="278"/>
+      <c r="F61" s="266" t="s">
         <v>145</v>
       </c>
       <c r="G61" s="39"/>
@@ -10611,14 +10744,14 @@
       <c r="O61" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="P61" s="224"/>
+      <c r="P61" s="288"/>
     </row>
     <row r="62" spans="2:16" ht="34">
-      <c r="B62" s="242"/>
-      <c r="C62" s="220"/>
-      <c r="D62" s="220"/>
-      <c r="E62" s="242"/>
-      <c r="F62" s="220"/>
+      <c r="B62" s="278"/>
+      <c r="C62" s="267"/>
+      <c r="D62" s="267"/>
+      <c r="E62" s="278"/>
+      <c r="F62" s="267"/>
       <c r="G62" s="39"/>
       <c r="H62" s="12" t="s">
         <v>141</v>
@@ -10637,14 +10770,14 @@
       <c r="O62" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="P62" s="224"/>
+      <c r="P62" s="288"/>
     </row>
     <row r="63" spans="2:16" ht="17">
-      <c r="B63" s="242"/>
-      <c r="C63" s="220"/>
-      <c r="D63" s="220"/>
-      <c r="E63" s="242"/>
-      <c r="F63" s="220"/>
+      <c r="B63" s="278"/>
+      <c r="C63" s="267"/>
+      <c r="D63" s="267"/>
+      <c r="E63" s="278"/>
+      <c r="F63" s="267"/>
       <c r="G63" s="39"/>
       <c r="H63" s="12" t="s">
         <v>146</v>
@@ -10663,14 +10796,14 @@
       <c r="O63" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="P63" s="224"/>
+      <c r="P63" s="288"/>
     </row>
     <row r="64" spans="2:16" ht="17">
-      <c r="B64" s="242"/>
-      <c r="C64" s="220"/>
-      <c r="D64" s="220"/>
-      <c r="E64" s="242"/>
-      <c r="F64" s="220"/>
+      <c r="B64" s="278"/>
+      <c r="C64" s="267"/>
+      <c r="D64" s="267"/>
+      <c r="E64" s="278"/>
+      <c r="F64" s="267"/>
       <c r="G64" s="39"/>
       <c r="H64" s="12" t="s">
         <v>147</v>
@@ -10687,14 +10820,14 @@
       <c r="O64" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="P64" s="224"/>
+      <c r="P64" s="288"/>
     </row>
     <row r="65" spans="2:16" ht="17">
-      <c r="B65" s="242"/>
-      <c r="C65" s="220"/>
-      <c r="D65" s="220"/>
-      <c r="E65" s="242"/>
-      <c r="F65" s="220"/>
+      <c r="B65" s="278"/>
+      <c r="C65" s="267"/>
+      <c r="D65" s="267"/>
+      <c r="E65" s="278"/>
+      <c r="F65" s="267"/>
       <c r="G65" s="39"/>
       <c r="H65" s="12" t="s">
         <v>148</v>
@@ -10711,14 +10844,14 @@
       <c r="O65" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="P65" s="224"/>
+      <c r="P65" s="288"/>
     </row>
     <row r="66" spans="2:16" ht="18" customHeight="1">
-      <c r="B66" s="242"/>
-      <c r="C66" s="220"/>
-      <c r="D66" s="220"/>
-      <c r="E66" s="242"/>
-      <c r="F66" s="243"/>
+      <c r="B66" s="278"/>
+      <c r="C66" s="267"/>
+      <c r="D66" s="267"/>
+      <c r="E66" s="278"/>
+      <c r="F66" s="280"/>
       <c r="G66" s="39"/>
       <c r="H66" s="12" t="s">
         <v>149</v>
@@ -10735,14 +10868,14 @@
       <c r="O66" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="P66" s="224"/>
+      <c r="P66" s="288"/>
     </row>
     <row r="67" spans="2:16" ht="34">
-      <c r="B67" s="242"/>
-      <c r="C67" s="220"/>
-      <c r="D67" s="220"/>
-      <c r="E67" s="242"/>
-      <c r="F67" s="219" t="s">
+      <c r="B67" s="278"/>
+      <c r="C67" s="267"/>
+      <c r="D67" s="267"/>
+      <c r="E67" s="278"/>
+      <c r="F67" s="266" t="s">
         <v>140</v>
       </c>
       <c r="G67" s="31"/>
@@ -10757,14 +10890,14 @@
       <c r="O67" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="P67" s="224"/>
+      <c r="P67" s="288"/>
     </row>
     <row r="68" spans="2:16" ht="17" customHeight="1">
-      <c r="B68" s="242"/>
-      <c r="C68" s="220"/>
-      <c r="D68" s="220"/>
-      <c r="E68" s="242"/>
-      <c r="F68" s="220"/>
+      <c r="B68" s="278"/>
+      <c r="C68" s="267"/>
+      <c r="D68" s="267"/>
+      <c r="E68" s="278"/>
+      <c r="F68" s="267"/>
       <c r="G68" s="31"/>
       <c r="H68" s="12" t="s">
         <v>141</v>
@@ -10783,14 +10916,14 @@
       <c r="O68" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="P68" s="224"/>
+      <c r="P68" s="288"/>
     </row>
     <row r="69" spans="2:16" ht="17" customHeight="1">
-      <c r="B69" s="242"/>
-      <c r="C69" s="220"/>
-      <c r="D69" s="220"/>
-      <c r="E69" s="242"/>
-      <c r="F69" s="220"/>
+      <c r="B69" s="278"/>
+      <c r="C69" s="267"/>
+      <c r="D69" s="267"/>
+      <c r="E69" s="278"/>
+      <c r="F69" s="267"/>
       <c r="G69" s="31"/>
       <c r="H69" s="12" t="s">
         <v>142</v>
@@ -10809,14 +10942,14 @@
       <c r="O69" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="P69" s="224"/>
+      <c r="P69" s="288"/>
     </row>
     <row r="70" spans="2:16" ht="17" customHeight="1">
-      <c r="B70" s="242"/>
-      <c r="C70" s="220"/>
-      <c r="D70" s="220"/>
-      <c r="E70" s="242"/>
-      <c r="F70" s="220"/>
+      <c r="B70" s="278"/>
+      <c r="C70" s="267"/>
+      <c r="D70" s="267"/>
+      <c r="E70" s="278"/>
+      <c r="F70" s="267"/>
       <c r="G70" s="31"/>
       <c r="H70" s="12" t="s">
         <v>143</v>
@@ -10835,14 +10968,14 @@
       <c r="O70" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="P70" s="224"/>
+      <c r="P70" s="288"/>
     </row>
     <row r="71" spans="2:16" ht="17" customHeight="1">
-      <c r="B71" s="242"/>
-      <c r="C71" s="220"/>
-      <c r="D71" s="220"/>
-      <c r="E71" s="242"/>
-      <c r="F71" s="243"/>
+      <c r="B71" s="278"/>
+      <c r="C71" s="267"/>
+      <c r="D71" s="267"/>
+      <c r="E71" s="278"/>
+      <c r="F71" s="280"/>
       <c r="G71" s="31"/>
       <c r="H71" s="12" t="s">
         <v>144</v>
@@ -10861,12 +10994,12 @@
       <c r="O71" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="P71" s="224"/>
+      <c r="P71" s="288"/>
     </row>
     <row r="72" spans="2:16">
-      <c r="B72" s="244"/>
-      <c r="C72" s="243"/>
-      <c r="D72" s="243"/>
+      <c r="B72" s="279"/>
+      <c r="C72" s="280"/>
+      <c r="D72" s="280"/>
       <c r="E72" s="12" t="s">
         <v>255</v>
       </c>
@@ -10881,7 +11014,7 @@
       <c r="O72" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="P72" s="224"/>
+      <c r="P72" s="288"/>
     </row>
     <row r="73" spans="2:16" ht="34">
       <c r="B73" s="10">
@@ -11033,13 +11166,13 @@
       <c r="B78" s="10">
         <v>9</v>
       </c>
-      <c r="C78" s="219" t="s">
+      <c r="C78" s="266" t="s">
         <v>79</v>
       </c>
-      <c r="D78" s="219" t="s">
+      <c r="D78" s="266" t="s">
         <v>31</v>
       </c>
-      <c r="E78" s="241" t="s">
+      <c r="E78" s="277" t="s">
         <v>232</v>
       </c>
       <c r="F78" s="49"/>
@@ -11051,13 +11184,13 @@
       <c r="J78" s="51" t="s">
         <v>241</v>
       </c>
-      <c r="K78" s="245" t="s">
+      <c r="K78" s="274" t="s">
         <v>231</v>
       </c>
       <c r="L78" s="48" t="s">
         <v>247</v>
       </c>
-      <c r="M78" s="241" t="s">
+      <c r="M78" s="277" t="s">
         <v>82</v>
       </c>
       <c r="O78" s="4" t="s">
@@ -11069,9 +11202,9 @@
     </row>
     <row r="79" spans="2:16">
       <c r="B79" s="10"/>
-      <c r="C79" s="220"/>
-      <c r="D79" s="220"/>
-      <c r="E79" s="242"/>
+      <c r="C79" s="267"/>
+      <c r="D79" s="267"/>
+      <c r="E79" s="278"/>
       <c r="F79" s="10" t="s">
         <v>233</v>
       </c>
@@ -11083,15 +11216,15 @@
       <c r="J79" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="K79" s="246"/>
+      <c r="K79" s="275"/>
       <c r="L79" s="53"/>
-      <c r="M79" s="242"/>
+      <c r="M79" s="278"/>
     </row>
     <row r="80" spans="2:16" ht="17">
       <c r="B80" s="10"/>
-      <c r="C80" s="220"/>
-      <c r="D80" s="220"/>
-      <c r="E80" s="242"/>
+      <c r="C80" s="267"/>
+      <c r="D80" s="267"/>
+      <c r="E80" s="278"/>
       <c r="F80" s="10" t="s">
         <v>235</v>
       </c>
@@ -11103,16 +11236,16 @@
       <c r="J80" s="29" t="s">
         <v>243</v>
       </c>
-      <c r="K80" s="246"/>
+      <c r="K80" s="275"/>
       <c r="L80" s="53"/>
-      <c r="M80" s="242"/>
+      <c r="M80" s="278"/>
     </row>
     <row r="81" spans="2:16" ht="17">
       <c r="B81" s="10"/>
-      <c r="C81" s="220"/>
-      <c r="D81" s="220"/>
-      <c r="E81" s="242"/>
-      <c r="F81" s="211" t="s">
+      <c r="C81" s="267"/>
+      <c r="D81" s="267"/>
+      <c r="E81" s="278"/>
+      <c r="F81" s="273" t="s">
         <v>234</v>
       </c>
       <c r="G81" s="10" t="s">
@@ -11125,16 +11258,16 @@
       <c r="J81" s="29" t="s">
         <v>244</v>
       </c>
-      <c r="K81" s="246"/>
+      <c r="K81" s="275"/>
       <c r="L81" s="53"/>
-      <c r="M81" s="242"/>
+      <c r="M81" s="278"/>
     </row>
     <row r="82" spans="2:16" ht="17">
       <c r="B82" s="10"/>
-      <c r="C82" s="220"/>
-      <c r="D82" s="220"/>
-      <c r="E82" s="242"/>
-      <c r="F82" s="211"/>
+      <c r="C82" s="267"/>
+      <c r="D82" s="267"/>
+      <c r="E82" s="278"/>
+      <c r="F82" s="273"/>
       <c r="G82" s="52" t="s">
         <v>237</v>
       </c>
@@ -11145,16 +11278,16 @@
       <c r="J82" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="K82" s="246"/>
+      <c r="K82" s="275"/>
       <c r="L82" s="53"/>
-      <c r="M82" s="242"/>
+      <c r="M82" s="278"/>
     </row>
     <row r="83" spans="2:16" ht="17">
       <c r="B83" s="10"/>
-      <c r="C83" s="220"/>
-      <c r="D83" s="220"/>
-      <c r="E83" s="242"/>
-      <c r="F83" s="211"/>
+      <c r="C83" s="267"/>
+      <c r="D83" s="267"/>
+      <c r="E83" s="278"/>
+      <c r="F83" s="273"/>
       <c r="G83" s="52" t="s">
         <v>238</v>
       </c>
@@ -11165,16 +11298,16 @@
       <c r="J83" s="29" t="s">
         <v>246</v>
       </c>
-      <c r="K83" s="246"/>
+      <c r="K83" s="275"/>
       <c r="L83" s="53"/>
-      <c r="M83" s="242"/>
+      <c r="M83" s="278"/>
     </row>
     <row r="84" spans="2:16">
       <c r="B84" s="10"/>
-      <c r="C84" s="220"/>
-      <c r="D84" s="220"/>
-      <c r="E84" s="242"/>
-      <c r="F84" s="211"/>
+      <c r="C84" s="267"/>
+      <c r="D84" s="267"/>
+      <c r="E84" s="278"/>
+      <c r="F84" s="273"/>
       <c r="G84" s="52" t="s">
         <v>239</v>
       </c>
@@ -11185,16 +11318,16 @@
       <c r="J84" s="29">
         <v>4</v>
       </c>
-      <c r="K84" s="246"/>
+      <c r="K84" s="275"/>
       <c r="L84" s="53"/>
-      <c r="M84" s="242"/>
+      <c r="M84" s="278"/>
     </row>
     <row r="85" spans="2:16">
       <c r="B85" s="10"/>
-      <c r="C85" s="243"/>
-      <c r="D85" s="243"/>
-      <c r="E85" s="244"/>
-      <c r="F85" s="211"/>
+      <c r="C85" s="280"/>
+      <c r="D85" s="280"/>
+      <c r="E85" s="279"/>
+      <c r="F85" s="273"/>
       <c r="G85" s="52" t="s">
         <v>240</v>
       </c>
@@ -11205,9 +11338,9 @@
       <c r="J85" s="29">
         <v>10</v>
       </c>
-      <c r="K85" s="247"/>
+      <c r="K85" s="276"/>
       <c r="L85" s="53"/>
-      <c r="M85" s="244"/>
+      <c r="M85" s="279"/>
     </row>
     <row r="86" spans="2:16" ht="17">
       <c r="B86" s="10">
@@ -11497,21 +11630,7 @@
     </sortState>
   </autoFilter>
   <mergeCells count="33">
-    <mergeCell ref="K78:K85"/>
-    <mergeCell ref="M78:M85"/>
-    <mergeCell ref="D78:D85"/>
-    <mergeCell ref="F81:F85"/>
-    <mergeCell ref="I28:I30"/>
-    <mergeCell ref="J28:J30"/>
-    <mergeCell ref="B16:B30"/>
-    <mergeCell ref="B57:B72"/>
-    <mergeCell ref="C16:C30"/>
-    <mergeCell ref="C57:C72"/>
-    <mergeCell ref="D57:D72"/>
-    <mergeCell ref="F28:F30"/>
-    <mergeCell ref="E57:E71"/>
-    <mergeCell ref="F67:F71"/>
-    <mergeCell ref="F61:F66"/>
+    <mergeCell ref="F19:F21"/>
     <mergeCell ref="C78:C85"/>
     <mergeCell ref="E78:E85"/>
     <mergeCell ref="P57:P72"/>
@@ -11528,8 +11647,22 @@
     <mergeCell ref="K19:K21"/>
     <mergeCell ref="K28:K30"/>
     <mergeCell ref="M19:M21"/>
+    <mergeCell ref="B16:B30"/>
+    <mergeCell ref="B57:B72"/>
+    <mergeCell ref="C16:C30"/>
+    <mergeCell ref="C57:C72"/>
+    <mergeCell ref="D57:D72"/>
+    <mergeCell ref="K78:K85"/>
+    <mergeCell ref="M78:M85"/>
+    <mergeCell ref="D78:D85"/>
+    <mergeCell ref="F81:F85"/>
+    <mergeCell ref="I28:I30"/>
+    <mergeCell ref="J28:J30"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="E57:E71"/>
+    <mergeCell ref="F67:F71"/>
+    <mergeCell ref="F61:F66"/>
     <mergeCell ref="M28:M30"/>
-    <mergeCell ref="F19:F21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11645,153 +11778,153 @@
       </c>
     </row>
     <row r="13" spans="1:70" ht="48" customHeight="1">
-      <c r="E13" s="206" t="s">
+      <c r="E13" s="237" t="s">
         <v>264</v>
       </c>
-      <c r="F13" s="206"/>
-      <c r="G13" s="206"/>
-      <c r="H13" s="206"/>
-      <c r="I13" s="206"/>
-      <c r="J13" s="206"/>
-      <c r="K13" s="206"/>
-      <c r="L13" s="206"/>
-      <c r="M13" s="206"/>
-      <c r="N13" s="206"/>
-      <c r="O13" s="206"/>
-      <c r="P13" s="206"/>
-      <c r="Q13" s="206"/>
-      <c r="R13" s="206"/>
-      <c r="S13" s="206"/>
-      <c r="T13" s="206"/>
-      <c r="U13" s="206"/>
-      <c r="V13" s="206"/>
-      <c r="W13" s="206"/>
-      <c r="X13" s="206"/>
-      <c r="Y13" s="206"/>
-      <c r="Z13" s="206"/>
-      <c r="AA13" s="206"/>
-      <c r="AB13" s="206"/>
-      <c r="AC13" s="206"/>
-      <c r="AD13" s="206"/>
-      <c r="AE13" s="206"/>
-      <c r="AF13" s="206"/>
-      <c r="AG13" s="206"/>
-      <c r="AH13" s="206"/>
-      <c r="AI13" s="206"/>
-      <c r="AJ13" s="206"/>
-      <c r="AK13" s="206"/>
-      <c r="AL13" s="206"/>
-      <c r="AM13" s="206"/>
-      <c r="AN13" s="206"/>
-      <c r="AO13" s="206"/>
-      <c r="AP13" s="206"/>
-      <c r="AQ13" s="206"/>
-      <c r="AR13" s="206"/>
-      <c r="AS13" s="206"/>
-      <c r="AT13" s="206"/>
-      <c r="AU13" s="206"/>
-      <c r="AV13" s="206"/>
-      <c r="AW13" s="206"/>
-      <c r="AX13" s="206"/>
-      <c r="AY13" s="206"/>
-      <c r="AZ13" s="206"/>
-      <c r="BA13" s="206"/>
-      <c r="BB13" s="206"/>
-      <c r="BC13" s="206"/>
-      <c r="BD13" s="206"/>
-      <c r="BE13" s="206"/>
-      <c r="BF13" s="206"/>
-      <c r="BG13" s="206"/>
-      <c r="BH13" s="206"/>
-      <c r="BI13" s="206"/>
-      <c r="BJ13" s="206"/>
-      <c r="BK13" s="206"/>
-      <c r="BL13" s="206"/>
-      <c r="BM13" s="206"/>
-      <c r="BN13" s="206"/>
-      <c r="BO13" s="206"/>
-      <c r="BP13" s="206"/>
-      <c r="BQ13" s="206"/>
-      <c r="BR13" s="206"/>
+      <c r="F13" s="237"/>
+      <c r="G13" s="237"/>
+      <c r="H13" s="237"/>
+      <c r="I13" s="237"/>
+      <c r="J13" s="237"/>
+      <c r="K13" s="237"/>
+      <c r="L13" s="237"/>
+      <c r="M13" s="237"/>
+      <c r="N13" s="237"/>
+      <c r="O13" s="237"/>
+      <c r="P13" s="237"/>
+      <c r="Q13" s="237"/>
+      <c r="R13" s="237"/>
+      <c r="S13" s="237"/>
+      <c r="T13" s="237"/>
+      <c r="U13" s="237"/>
+      <c r="V13" s="237"/>
+      <c r="W13" s="237"/>
+      <c r="X13" s="237"/>
+      <c r="Y13" s="237"/>
+      <c r="Z13" s="237"/>
+      <c r="AA13" s="237"/>
+      <c r="AB13" s="237"/>
+      <c r="AC13" s="237"/>
+      <c r="AD13" s="237"/>
+      <c r="AE13" s="237"/>
+      <c r="AF13" s="237"/>
+      <c r="AG13" s="237"/>
+      <c r="AH13" s="237"/>
+      <c r="AI13" s="237"/>
+      <c r="AJ13" s="237"/>
+      <c r="AK13" s="237"/>
+      <c r="AL13" s="237"/>
+      <c r="AM13" s="237"/>
+      <c r="AN13" s="237"/>
+      <c r="AO13" s="237"/>
+      <c r="AP13" s="237"/>
+      <c r="AQ13" s="237"/>
+      <c r="AR13" s="237"/>
+      <c r="AS13" s="237"/>
+      <c r="AT13" s="237"/>
+      <c r="AU13" s="237"/>
+      <c r="AV13" s="237"/>
+      <c r="AW13" s="237"/>
+      <c r="AX13" s="237"/>
+      <c r="AY13" s="237"/>
+      <c r="AZ13" s="237"/>
+      <c r="BA13" s="237"/>
+      <c r="BB13" s="237"/>
+      <c r="BC13" s="237"/>
+      <c r="BD13" s="237"/>
+      <c r="BE13" s="237"/>
+      <c r="BF13" s="237"/>
+      <c r="BG13" s="237"/>
+      <c r="BH13" s="237"/>
+      <c r="BI13" s="237"/>
+      <c r="BJ13" s="237"/>
+      <c r="BK13" s="237"/>
+      <c r="BL13" s="237"/>
+      <c r="BM13" s="237"/>
+      <c r="BN13" s="237"/>
+      <c r="BO13" s="237"/>
+      <c r="BP13" s="237"/>
+      <c r="BQ13" s="237"/>
+      <c r="BR13" s="237"/>
     </row>
     <row r="15" spans="1:70" s="6" customFormat="1" ht="43" customHeight="1"/>
     <row r="16" spans="1:70" s="6" customFormat="1" ht="43" customHeight="1">
-      <c r="E16" s="211" t="s">
+      <c r="E16" s="273" t="s">
         <v>263</v>
       </c>
-      <c r="F16" s="211"/>
-      <c r="G16" s="211"/>
-      <c r="H16" s="211"/>
-      <c r="I16" s="211"/>
-      <c r="J16" s="211"/>
-      <c r="K16" s="211"/>
-      <c r="L16" s="211"/>
-      <c r="M16" s="211"/>
-      <c r="N16" s="211"/>
-      <c r="O16" s="211"/>
-      <c r="P16" s="211"/>
-      <c r="Q16" s="211"/>
-      <c r="R16" s="211"/>
-      <c r="S16" s="211"/>
-      <c r="T16" s="211"/>
-      <c r="U16" s="211"/>
-      <c r="V16" s="211"/>
-      <c r="W16" s="211"/>
-      <c r="X16" s="211"/>
-      <c r="Y16" s="211"/>
-      <c r="Z16" s="211"/>
-      <c r="AA16" s="211"/>
-      <c r="AB16" s="211"/>
-      <c r="AC16" s="211"/>
-      <c r="AD16" s="211"/>
-      <c r="AE16" s="225" t="s">
+      <c r="F16" s="273"/>
+      <c r="G16" s="273"/>
+      <c r="H16" s="273"/>
+      <c r="I16" s="273"/>
+      <c r="J16" s="273"/>
+      <c r="K16" s="273"/>
+      <c r="L16" s="273"/>
+      <c r="M16" s="273"/>
+      <c r="N16" s="273"/>
+      <c r="O16" s="273"/>
+      <c r="P16" s="273"/>
+      <c r="Q16" s="273"/>
+      <c r="R16" s="273"/>
+      <c r="S16" s="273"/>
+      <c r="T16" s="273"/>
+      <c r="U16" s="273"/>
+      <c r="V16" s="273"/>
+      <c r="W16" s="273"/>
+      <c r="X16" s="273"/>
+      <c r="Y16" s="273"/>
+      <c r="Z16" s="273"/>
+      <c r="AA16" s="273"/>
+      <c r="AB16" s="273"/>
+      <c r="AC16" s="273"/>
+      <c r="AD16" s="273"/>
+      <c r="AE16" s="289" t="s">
         <v>258</v>
       </c>
-      <c r="AF16" s="226"/>
-      <c r="AG16" s="226"/>
-      <c r="AH16" s="226"/>
-      <c r="AI16" s="226"/>
-      <c r="AJ16" s="226"/>
-      <c r="AK16" s="226"/>
-      <c r="AL16" s="227"/>
-      <c r="AM16" s="225" t="s">
+      <c r="AF16" s="290"/>
+      <c r="AG16" s="290"/>
+      <c r="AH16" s="290"/>
+      <c r="AI16" s="290"/>
+      <c r="AJ16" s="290"/>
+      <c r="AK16" s="290"/>
+      <c r="AL16" s="291"/>
+      <c r="AM16" s="289" t="s">
         <v>310</v>
       </c>
-      <c r="AN16" s="226"/>
-      <c r="AO16" s="226"/>
-      <c r="AP16" s="226"/>
-      <c r="AQ16" s="226"/>
-      <c r="AR16" s="226"/>
-      <c r="AS16" s="227"/>
-      <c r="AT16" s="211" t="s">
+      <c r="AN16" s="290"/>
+      <c r="AO16" s="290"/>
+      <c r="AP16" s="290"/>
+      <c r="AQ16" s="290"/>
+      <c r="AR16" s="290"/>
+      <c r="AS16" s="291"/>
+      <c r="AT16" s="273" t="s">
         <v>257</v>
       </c>
-      <c r="AU16" s="211"/>
-      <c r="AV16" s="211"/>
-      <c r="AW16" s="211"/>
-      <c r="AX16" s="211"/>
-      <c r="AY16" s="211"/>
-      <c r="AZ16" s="211"/>
-      <c r="BA16" s="211"/>
-      <c r="BB16" s="211"/>
-      <c r="BC16" s="211"/>
-      <c r="BD16" s="211"/>
-      <c r="BE16" s="211"/>
-      <c r="BF16" s="211"/>
-      <c r="BG16" s="211"/>
-      <c r="BH16" s="211"/>
-      <c r="BI16" s="211"/>
-      <c r="BJ16" s="225" t="s">
+      <c r="AU16" s="273"/>
+      <c r="AV16" s="273"/>
+      <c r="AW16" s="273"/>
+      <c r="AX16" s="273"/>
+      <c r="AY16" s="273"/>
+      <c r="AZ16" s="273"/>
+      <c r="BA16" s="273"/>
+      <c r="BB16" s="273"/>
+      <c r="BC16" s="273"/>
+      <c r="BD16" s="273"/>
+      <c r="BE16" s="273"/>
+      <c r="BF16" s="273"/>
+      <c r="BG16" s="273"/>
+      <c r="BH16" s="273"/>
+      <c r="BI16" s="273"/>
+      <c r="BJ16" s="289" t="s">
         <v>260</v>
       </c>
-      <c r="BK16" s="226"/>
-      <c r="BL16" s="226"/>
-      <c r="BM16" s="226"/>
-      <c r="BN16" s="226"/>
-      <c r="BO16" s="226"/>
-      <c r="BP16" s="226"/>
-      <c r="BQ16" s="226"/>
-      <c r="BR16" s="227"/>
+      <c r="BK16" s="290"/>
+      <c r="BL16" s="290"/>
+      <c r="BM16" s="290"/>
+      <c r="BN16" s="290"/>
+      <c r="BO16" s="290"/>
+      <c r="BP16" s="290"/>
+      <c r="BQ16" s="290"/>
+      <c r="BR16" s="291"/>
     </row>
     <row r="17" spans="2:70" s="6" customFormat="1" ht="60" customHeight="1">
       <c r="E17" s="37" t="s">
@@ -11806,83 +11939,83 @@
       <c r="H17" s="37" t="s">
         <v>288</v>
       </c>
-      <c r="I17" s="211" t="s">
+      <c r="I17" s="273" t="s">
         <v>262</v>
       </c>
-      <c r="J17" s="211"/>
-      <c r="K17" s="211"/>
-      <c r="L17" s="211"/>
-      <c r="M17" s="211"/>
-      <c r="N17" s="211"/>
-      <c r="O17" s="211"/>
-      <c r="P17" s="211" t="s">
+      <c r="J17" s="273"/>
+      <c r="K17" s="273"/>
+      <c r="L17" s="273"/>
+      <c r="M17" s="273"/>
+      <c r="N17" s="273"/>
+      <c r="O17" s="273"/>
+      <c r="P17" s="273" t="s">
         <v>1</v>
       </c>
-      <c r="Q17" s="211"/>
-      <c r="R17" s="211"/>
-      <c r="S17" s="211"/>
-      <c r="T17" s="211"/>
-      <c r="U17" s="211"/>
-      <c r="V17" s="211"/>
-      <c r="W17" s="211"/>
-      <c r="X17" s="211"/>
-      <c r="Y17" s="211"/>
-      <c r="Z17" s="211"/>
-      <c r="AA17" s="211"/>
-      <c r="AB17" s="211"/>
-      <c r="AC17" s="211"/>
+      <c r="Q17" s="273"/>
+      <c r="R17" s="273"/>
+      <c r="S17" s="273"/>
+      <c r="T17" s="273"/>
+      <c r="U17" s="273"/>
+      <c r="V17" s="273"/>
+      <c r="W17" s="273"/>
+      <c r="X17" s="273"/>
+      <c r="Y17" s="273"/>
+      <c r="Z17" s="273"/>
+      <c r="AA17" s="273"/>
+      <c r="AB17" s="273"/>
+      <c r="AC17" s="273"/>
       <c r="AD17" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="AE17" s="211" t="s">
+      <c r="AE17" s="273" t="s">
         <v>275</v>
       </c>
-      <c r="AF17" s="211"/>
-      <c r="AG17" s="211"/>
-      <c r="AH17" s="211"/>
-      <c r="AI17" s="211"/>
-      <c r="AJ17" s="225" t="s">
+      <c r="AF17" s="273"/>
+      <c r="AG17" s="273"/>
+      <c r="AH17" s="273"/>
+      <c r="AI17" s="273"/>
+      <c r="AJ17" s="289" t="s">
         <v>276</v>
       </c>
-      <c r="AK17" s="226"/>
-      <c r="AL17" s="227"/>
+      <c r="AK17" s="290"/>
+      <c r="AL17" s="291"/>
       <c r="AM17" s="64" t="s">
         <v>290</v>
       </c>
       <c r="AN17" s="64" t="s">
         <v>291</v>
       </c>
-      <c r="AO17" s="211" t="s">
+      <c r="AO17" s="273" t="s">
         <v>259</v>
       </c>
-      <c r="AP17" s="211"/>
-      <c r="AQ17" s="211"/>
-      <c r="AR17" s="211"/>
-      <c r="AS17" s="211"/>
-      <c r="AT17" s="211" t="s">
+      <c r="AP17" s="273"/>
+      <c r="AQ17" s="273"/>
+      <c r="AR17" s="273"/>
+      <c r="AS17" s="273"/>
+      <c r="AT17" s="273" t="s">
         <v>263</v>
       </c>
-      <c r="AU17" s="211"/>
-      <c r="AV17" s="211"/>
-      <c r="AW17" s="211" t="s">
+      <c r="AU17" s="273"/>
+      <c r="AV17" s="273"/>
+      <c r="AW17" s="273" t="s">
         <v>266</v>
       </c>
-      <c r="AX17" s="211"/>
-      <c r="AY17" s="225" t="s">
+      <c r="AX17" s="273"/>
+      <c r="AY17" s="289" t="s">
         <v>311</v>
       </c>
-      <c r="AZ17" s="226"/>
-      <c r="BA17" s="226"/>
-      <c r="BB17" s="226"/>
-      <c r="BC17" s="225" t="s">
+      <c r="AZ17" s="290"/>
+      <c r="BA17" s="290"/>
+      <c r="BB17" s="290"/>
+      <c r="BC17" s="289" t="s">
         <v>265</v>
       </c>
-      <c r="BD17" s="226"/>
-      <c r="BE17" s="226"/>
-      <c r="BF17" s="226"/>
-      <c r="BG17" s="226"/>
-      <c r="BH17" s="226"/>
-      <c r="BI17" s="226"/>
+      <c r="BD17" s="290"/>
+      <c r="BE17" s="290"/>
+      <c r="BF17" s="290"/>
+      <c r="BG17" s="290"/>
+      <c r="BH17" s="290"/>
+      <c r="BI17" s="290"/>
       <c r="BJ17" s="37" t="s">
         <v>304</v>
       </c>
@@ -11898,11 +12031,11 @@
       <c r="BN17" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="BO17" s="228" t="s">
+      <c r="BO17" s="292" t="s">
         <v>307</v>
       </c>
-      <c r="BP17" s="228"/>
-      <c r="BQ17" s="228"/>
+      <c r="BP17" s="292"/>
+      <c r="BQ17" s="292"/>
       <c r="BR17" s="37" t="s">
         <v>28</v>
       </c>
@@ -11942,19 +12075,19 @@
       <c r="R18" s="37" t="s">
         <v>280</v>
       </c>
-      <c r="S18" s="228" t="s">
+      <c r="S18" s="292" t="s">
         <v>271</v>
       </c>
-      <c r="T18" s="228"/>
-      <c r="U18" s="228"/>
-      <c r="V18" s="228"/>
-      <c r="W18" s="228"/>
-      <c r="X18" s="228"/>
-      <c r="Y18" s="228"/>
-      <c r="Z18" s="228"/>
-      <c r="AA18" s="228"/>
-      <c r="AB18" s="228"/>
-      <c r="AC18" s="228"/>
+      <c r="T18" s="292"/>
+      <c r="U18" s="292"/>
+      <c r="V18" s="292"/>
+      <c r="W18" s="292"/>
+      <c r="X18" s="292"/>
+      <c r="Y18" s="292"/>
+      <c r="Z18" s="292"/>
+      <c r="AA18" s="292"/>
+      <c r="AB18" s="292"/>
+      <c r="AC18" s="292"/>
       <c r="AD18" s="11"/>
       <c r="AE18" s="37" t="s">
         <v>258</v>
@@ -12088,17 +12221,17 @@
       <c r="V19" s="37" t="s">
         <v>281</v>
       </c>
-      <c r="W19" s="203" t="s">
+      <c r="W19" s="258" t="s">
         <v>145</v>
       </c>
-      <c r="X19" s="204"/>
-      <c r="Y19" s="205"/>
-      <c r="Z19" s="203" t="s">
+      <c r="X19" s="259"/>
+      <c r="Y19" s="260"/>
+      <c r="Z19" s="258" t="s">
         <v>140</v>
       </c>
-      <c r="AA19" s="204"/>
-      <c r="AB19" s="204"/>
-      <c r="AC19" s="205"/>
+      <c r="AA19" s="259"/>
+      <c r="AB19" s="259"/>
+      <c r="AC19" s="260"/>
       <c r="AD19" s="11"/>
       <c r="AE19" s="11"/>
       <c r="AF19" s="11"/>
@@ -12618,11 +12751,6 @@
     <row r="28" spans="2:70" s="6" customFormat="1" ht="43" customHeight="1"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="E13:BR13"/>
-    <mergeCell ref="AT16:BI16"/>
-    <mergeCell ref="I17:O17"/>
-    <mergeCell ref="AW17:AX17"/>
-    <mergeCell ref="AO17:AS17"/>
     <mergeCell ref="Z19:AC19"/>
     <mergeCell ref="W19:Y19"/>
     <mergeCell ref="BC17:BI17"/>
@@ -12637,6 +12765,11 @@
     <mergeCell ref="AJ17:AL17"/>
     <mergeCell ref="AE17:AI17"/>
     <mergeCell ref="AT17:AV17"/>
+    <mergeCell ref="E13:BR13"/>
+    <mergeCell ref="AT16:BI16"/>
+    <mergeCell ref="I17:O17"/>
+    <mergeCell ref="AW17:AX17"/>
+    <mergeCell ref="AO17:AS17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/session_variables.xlsx
+++ b/docs/session_variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robhay/git_repo/share_screener/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FB1273-FFD1-5341-B04F-9B40A0E5C995}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752C6711-90D1-BE4F-BD05-366E79C23321}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25620" yWindow="12040" windowWidth="25600" windowHeight="15500" xr2:uid="{EB3C945B-FE01-FA47-AE59-A0DC3CDF521B}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14300" xr2:uid="{EB3C945B-FE01-FA47-AE59-A0DC3CDF521B}"/>
   </bookViews>
   <sheets>
     <sheet name="Application Structure" sheetId="6" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="518">
   <si>
     <t>chart_colours</t>
   </si>
@@ -1840,6 +1840,48 @@
   </si>
   <si>
     <t>Login to Use the Application</t>
+  </si>
+  <si>
+    <t>user_list</t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>Rob,
+Fliss</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="7" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>login_name</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>ticker_search</t>
+  </si>
+  <si>
+    <t>search_results</t>
   </si>
 </sst>
 </file>
@@ -2417,7 +2459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="299">
+  <cellXfs count="313">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2865,6 +2907,12 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2877,153 +2925,147 @@
     <xf numFmtId="0" fontId="38" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3296,6 +3338,48 @@
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3612,13 +3696,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB030FA-EA0F-904E-89A7-6D6B5810B515}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:FO47"/>
+  <dimension ref="A1:FR47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AQ7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="BH4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="BC18" sqref="BC18"/>
+      <selection pane="bottomRight" activeCell="BN3" sqref="BN3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3668,38 +3752,40 @@
     <col min="50" max="51" width="10.33203125" customWidth="1"/>
     <col min="52" max="52" width="11" customWidth="1"/>
     <col min="53" max="53" width="7.6640625" customWidth="1"/>
-    <col min="54" max="54" width="12.6640625" customWidth="1"/>
-    <col min="55" max="57" width="7.6640625" customWidth="1"/>
-    <col min="58" max="58" width="10.5" customWidth="1"/>
-    <col min="59" max="59" width="9.83203125" customWidth="1"/>
-    <col min="60" max="60" width="4.83203125" customWidth="1"/>
-    <col min="61" max="61" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="62" max="63" width="10.5" customWidth="1"/>
-    <col min="64" max="64" width="9.6640625" customWidth="1"/>
-    <col min="65" max="65" width="5.33203125" customWidth="1"/>
-    <col min="66" max="66" width="13.1640625" customWidth="1"/>
-    <col min="67" max="67" width="7.5" customWidth="1"/>
-    <col min="68" max="68" width="8.83203125" customWidth="1"/>
-    <col min="69" max="70" width="12" customWidth="1"/>
-    <col min="71" max="71" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="72" max="73" width="10.1640625" customWidth="1"/>
-    <col min="74" max="74" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="11.5" customWidth="1"/>
-    <col min="77" max="79" width="9.33203125" customWidth="1"/>
-    <col min="80" max="80" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="10.33203125" customWidth="1"/>
-    <col min="82" max="82" width="7.83203125" customWidth="1"/>
-    <col min="83" max="83" width="13.83203125" customWidth="1"/>
-    <col min="84" max="84" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="6.6640625" customWidth="1"/>
-    <col min="87" max="90" width="5.1640625" customWidth="1"/>
-    <col min="91" max="91" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="54" max="55" width="12.6640625" customWidth="1"/>
+    <col min="56" max="58" width="7.6640625" customWidth="1"/>
+    <col min="59" max="59" width="10.5" customWidth="1"/>
+    <col min="60" max="60" width="9.83203125" customWidth="1"/>
+    <col min="61" max="61" width="16.1640625" customWidth="1"/>
+    <col min="62" max="62" width="4.83203125" customWidth="1"/>
+    <col min="63" max="63" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="64" max="65" width="10.5" customWidth="1"/>
+    <col min="66" max="66" width="9.6640625" customWidth="1"/>
+    <col min="67" max="67" width="5.33203125" customWidth="1"/>
+    <col min="68" max="68" width="13.1640625" customWidth="1"/>
+    <col min="69" max="69" width="7.5" customWidth="1"/>
+    <col min="70" max="70" width="8.83203125" customWidth="1"/>
+    <col min="71" max="72" width="12" customWidth="1"/>
+    <col min="73" max="73" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="74" max="75" width="10.1640625" customWidth="1"/>
+    <col min="76" max="76" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="6.6640625" customWidth="1"/>
+    <col min="78" max="78" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="11.5" customWidth="1"/>
+    <col min="80" max="82" width="9.33203125" customWidth="1"/>
+    <col min="83" max="83" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="10.33203125" customWidth="1"/>
+    <col min="85" max="85" width="7.83203125" customWidth="1"/>
+    <col min="86" max="86" width="13.83203125" customWidth="1"/>
+    <col min="87" max="87" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="6.6640625" customWidth="1"/>
+    <col min="90" max="93" width="5.1640625" customWidth="1"/>
+    <col min="94" max="94" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="4.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:171" ht="44">
+    <row r="1" spans="1:174" ht="44">
       <c r="A1" s="150" t="s">
         <v>481</v>
       </c>
@@ -3707,17 +3793,17 @@
         <v>505</v>
       </c>
     </row>
-    <row r="2" spans="1:171">
+    <row r="2" spans="1:174">
       <c r="A2" s="137" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="3" spans="1:171">
+    <row r="3" spans="1:174">
       <c r="A3" s="126" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="4" spans="1:171">
+    <row r="4" spans="1:174">
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -3769,12 +3855,12 @@
       <c r="AY4" s="6"/>
       <c r="AZ4" s="6"/>
     </row>
-    <row r="5" spans="1:171" s="60" customFormat="1" ht="37" customHeight="1">
+    <row r="5" spans="1:174" s="60" customFormat="1" ht="37" customHeight="1">
       <c r="A5" s="109" t="s">
         <v>343</v>
       </c>
       <c r="B5" s="108"/>
-      <c r="C5" s="158" t="s">
+      <c r="C5" s="160" t="s">
         <v>289</v>
       </c>
       <c r="D5" s="212" t="s">
@@ -3831,26 +3917,26 @@
       <c r="AY5" s="213"/>
       <c r="AZ5" s="213"/>
       <c r="BA5" s="214"/>
-      <c r="BB5" s="212" t="s">
+      <c r="BB5" s="299" t="s">
         <v>509</v>
       </c>
-      <c r="BC5" s="213"/>
-      <c r="BD5" s="213"/>
-      <c r="BE5" s="214"/>
-      <c r="BF5" s="212" t="s">
+      <c r="BC5" s="300"/>
+      <c r="BD5" s="300"/>
+      <c r="BE5" s="300"/>
+      <c r="BF5" s="301"/>
+      <c r="BG5" s="212" t="s">
         <v>310</v>
       </c>
-      <c r="BG5" s="213"/>
       <c r="BH5" s="213"/>
       <c r="BI5" s="213"/>
       <c r="BJ5" s="213"/>
       <c r="BK5" s="213"/>
-      <c r="BL5" s="214"/>
-      <c r="BM5" s="215" t="s">
+      <c r="BL5" s="213"/>
+      <c r="BM5" s="213"/>
+      <c r="BN5" s="214"/>
+      <c r="BO5" s="215" t="s">
         <v>257</v>
       </c>
-      <c r="BN5" s="215"/>
-      <c r="BO5" s="215"/>
       <c r="BP5" s="215"/>
       <c r="BQ5" s="215"/>
       <c r="BR5" s="215"/>
@@ -3863,12 +3949,12 @@
       <c r="BY5" s="215"/>
       <c r="BZ5" s="215"/>
       <c r="CA5" s="215"/>
-      <c r="CB5" s="216" t="s">
+      <c r="CB5" s="215"/>
+      <c r="CC5" s="215"/>
+      <c r="CD5" s="215"/>
+      <c r="CE5" s="216" t="s">
         <v>468</v>
       </c>
-      <c r="CC5" s="216"/>
-      <c r="CD5" s="216"/>
-      <c r="CE5" s="216"/>
       <c r="CF5" s="216"/>
       <c r="CG5" s="216"/>
       <c r="CH5" s="216"/>
@@ -3878,8 +3964,11 @@
       <c r="CL5" s="216"/>
       <c r="CM5" s="216"/>
       <c r="CN5" s="216"/>
-    </row>
-    <row r="6" spans="1:171" s="60" customFormat="1" ht="26" customHeight="1">
+      <c r="CO5" s="216"/>
+      <c r="CP5" s="216"/>
+      <c r="CQ5" s="216"/>
+    </row>
+    <row r="6" spans="1:174" s="60" customFormat="1" ht="26" customHeight="1">
       <c r="A6" s="204" t="s">
         <v>344</v>
       </c>
@@ -3951,83 +4040,90 @@
       <c r="AY6" s="184"/>
       <c r="AZ6" s="184"/>
       <c r="BA6" s="184"/>
-      <c r="BB6" s="185" t="s">
-        <v>509</v>
-      </c>
-      <c r="BC6" s="185" t="s">
-        <v>137</v>
-      </c>
-      <c r="BD6" s="185"/>
-      <c r="BE6" s="185"/>
-      <c r="BF6" s="185" t="s">
+      <c r="BB6" s="302" t="s">
+        <v>514</v>
+      </c>
+      <c r="BC6" s="303" t="s">
+        <v>511</v>
+      </c>
+      <c r="BD6" s="302" t="s">
+        <v>513</v>
+      </c>
+      <c r="BE6" s="304"/>
+      <c r="BF6" s="305"/>
+      <c r="BG6" s="185" t="s">
         <v>290</v>
       </c>
-      <c r="BG6" s="185" t="s">
+      <c r="BH6" s="185" t="s">
         <v>387</v>
       </c>
-      <c r="BH6" s="184" t="s">
+      <c r="BI6" s="185" t="s">
+        <v>516</v>
+      </c>
+      <c r="BJ6" s="184" t="s">
         <v>259</v>
       </c>
-      <c r="BI6" s="184"/>
-      <c r="BJ6" s="184"/>
       <c r="BK6" s="184"/>
       <c r="BL6" s="184"/>
-      <c r="BM6" s="163" t="s">
+      <c r="BM6" s="184"/>
+      <c r="BN6" s="184"/>
+      <c r="BO6" s="163" t="s">
         <v>353</v>
       </c>
-      <c r="BN6" s="163" t="s">
+      <c r="BP6" s="163" t="s">
         <v>354</v>
       </c>
-      <c r="BO6" s="163" t="s">
+      <c r="BQ6" s="163" t="s">
         <v>297</v>
       </c>
-      <c r="BP6" s="163" t="s">
+      <c r="BR6" s="163" t="s">
         <v>391</v>
       </c>
-      <c r="BQ6" s="178" t="s">
+      <c r="BS6" s="178" t="s">
         <v>266</v>
       </c>
-      <c r="BR6" s="180"/>
-      <c r="BS6" s="165" t="s">
+      <c r="BT6" s="180"/>
+      <c r="BU6" s="165" t="s">
         <v>480</v>
       </c>
-      <c r="BT6" s="169"/>
-      <c r="BU6" s="169"/>
       <c r="BV6" s="169"/>
       <c r="BW6" s="169"/>
       <c r="BX6" s="169"/>
       <c r="BY6" s="169"/>
       <c r="BZ6" s="169"/>
-      <c r="CA6" s="166"/>
-      <c r="CB6" s="163" t="s">
+      <c r="CA6" s="169"/>
+      <c r="CB6" s="169"/>
+      <c r="CC6" s="169"/>
+      <c r="CD6" s="166"/>
+      <c r="CE6" s="163" t="s">
         <v>137</v>
       </c>
-      <c r="CC6" s="163" t="s">
+      <c r="CF6" s="163" t="s">
         <v>283</v>
       </c>
-      <c r="CD6" s="165" t="s">
+      <c r="CG6" s="165" t="s">
         <v>306</v>
       </c>
-      <c r="CE6" s="166"/>
-      <c r="CF6" s="163" t="s">
+      <c r="CH6" s="166"/>
+      <c r="CI6" s="163" t="s">
         <v>28</v>
       </c>
-      <c r="CG6" s="163" t="s">
+      <c r="CJ6" s="163" t="s">
         <v>386</v>
       </c>
-      <c r="CH6" s="165" t="s">
+      <c r="CK6" s="165" t="s">
         <v>305</v>
       </c>
-      <c r="CI6" s="169"/>
-      <c r="CJ6" s="169"/>
-      <c r="CK6" s="169"/>
-      <c r="CL6" s="166"/>
-      <c r="CM6" s="171" t="s">
+      <c r="CL6" s="169"/>
+      <c r="CM6" s="169"/>
+      <c r="CN6" s="169"/>
+      <c r="CO6" s="166"/>
+      <c r="CP6" s="171" t="s">
         <v>307</v>
       </c>
-      <c r="CN6" s="172"/>
-    </row>
-    <row r="7" spans="1:171" s="59" customFormat="1" ht="104" customHeight="1">
+      <c r="CQ6" s="172"/>
+    </row>
+    <row r="7" spans="1:174" s="59" customFormat="1" ht="104" customHeight="1">
       <c r="A7" s="204"/>
       <c r="B7" s="101"/>
       <c r="C7" s="177"/>
@@ -4085,47 +4181,50 @@
       <c r="AY7" s="184"/>
       <c r="AZ7" s="184"/>
       <c r="BA7" s="184"/>
-      <c r="BB7" s="185"/>
-      <c r="BC7" s="185"/>
-      <c r="BD7" s="185"/>
-      <c r="BE7" s="185"/>
-      <c r="BF7" s="185"/>
+      <c r="BB7" s="302"/>
+      <c r="BC7" s="306"/>
+      <c r="BD7" s="302"/>
+      <c r="BE7" s="307"/>
+      <c r="BF7" s="308"/>
       <c r="BG7" s="185"/>
-      <c r="BH7" s="184"/>
-      <c r="BI7" s="184"/>
+      <c r="BH7" s="185"/>
+      <c r="BI7" s="185"/>
       <c r="BJ7" s="184"/>
       <c r="BK7" s="184"/>
       <c r="BL7" s="184"/>
-      <c r="BM7" s="164"/>
-      <c r="BN7" s="164"/>
+      <c r="BM7" s="184"/>
+      <c r="BN7" s="184"/>
       <c r="BO7" s="164"/>
       <c r="BP7" s="164"/>
-      <c r="BQ7" s="181"/>
-      <c r="BR7" s="183"/>
-      <c r="BS7" s="167"/>
-      <c r="BT7" s="170"/>
-      <c r="BU7" s="170"/>
+      <c r="BQ7" s="164"/>
+      <c r="BR7" s="164"/>
+      <c r="BS7" s="181"/>
+      <c r="BT7" s="183"/>
+      <c r="BU7" s="167"/>
       <c r="BV7" s="170"/>
       <c r="BW7" s="170"/>
       <c r="BX7" s="170"/>
       <c r="BY7" s="170"/>
       <c r="BZ7" s="170"/>
-      <c r="CA7" s="168"/>
-      <c r="CB7" s="164"/>
-      <c r="CC7" s="164"/>
-      <c r="CD7" s="167"/>
-      <c r="CE7" s="168"/>
+      <c r="CA7" s="170"/>
+      <c r="CB7" s="170"/>
+      <c r="CC7" s="170"/>
+      <c r="CD7" s="168"/>
+      <c r="CE7" s="164"/>
       <c r="CF7" s="164"/>
-      <c r="CG7" s="164"/>
-      <c r="CH7" s="167"/>
-      <c r="CI7" s="170"/>
-      <c r="CJ7" s="170"/>
-      <c r="CK7" s="170"/>
-      <c r="CL7" s="168"/>
-      <c r="CM7" s="173"/>
-      <c r="CN7" s="174"/>
-    </row>
-    <row r="8" spans="1:171" ht="23" customHeight="1">
+      <c r="CG7" s="167"/>
+      <c r="CH7" s="168"/>
+      <c r="CI7" s="164"/>
+      <c r="CJ7" s="164"/>
+      <c r="CK7" s="167"/>
+      <c r="CL7" s="170"/>
+      <c r="CM7" s="170"/>
+      <c r="CN7" s="170"/>
+      <c r="CO7" s="168"/>
+      <c r="CP7" s="173"/>
+      <c r="CQ7" s="174"/>
+    </row>
+    <row r="8" spans="1:174" ht="23" customHeight="1">
       <c r="A8" s="231" t="s">
         <v>373</v>
       </c>
@@ -4241,87 +4340,96 @@
       <c r="BA8" s="206" t="s">
         <v>273</v>
       </c>
-      <c r="BB8" s="159"/>
-      <c r="BC8" s="159"/>
-      <c r="BD8" s="159"/>
-      <c r="BE8" s="159"/>
-      <c r="BF8" s="161" t="s">
-        <v>269</v>
-      </c>
+      <c r="BB8" s="309" t="s">
+        <v>515</v>
+      </c>
+      <c r="BC8" s="309" t="s">
+        <v>515</v>
+      </c>
+      <c r="BD8" s="302"/>
+      <c r="BE8" s="309"/>
+      <c r="BF8" s="309"/>
       <c r="BG8" s="161" t="s">
         <v>269</v>
       </c>
-      <c r="BH8" s="206" t="s">
+      <c r="BH8" s="161" t="s">
+        <v>269</v>
+      </c>
+      <c r="BI8" s="311"/>
+      <c r="BJ8" s="206" t="s">
         <v>270</v>
       </c>
-      <c r="BI8" s="206" t="s">
+      <c r="BK8" s="206" t="s">
         <v>268</v>
       </c>
-      <c r="BJ8" s="206" t="s">
+      <c r="BL8" s="206" t="s">
         <v>314</v>
       </c>
-      <c r="BK8" s="206" t="s">
+      <c r="BM8" s="206" t="s">
         <v>313</v>
       </c>
-      <c r="BL8" s="206" t="s">
+      <c r="BN8" s="206" t="s">
         <v>312</v>
       </c>
-      <c r="BM8" s="195"/>
-      <c r="BN8" s="195"/>
       <c r="BO8" s="195"/>
       <c r="BP8" s="195"/>
-      <c r="BQ8" s="206" t="s">
+      <c r="BQ8" s="195"/>
+      <c r="BR8" s="195"/>
+      <c r="BS8" s="206" t="s">
         <v>356</v>
       </c>
-      <c r="BR8" s="206" t="s">
+      <c r="BT8" s="206" t="s">
         <v>1</v>
       </c>
-      <c r="BS8" s="188" t="s">
+      <c r="BU8" s="188" t="s">
         <v>388</v>
       </c>
-      <c r="BT8" s="189"/>
-      <c r="BU8" s="189"/>
-      <c r="BV8" s="190"/>
-      <c r="BW8" s="206" t="s">
+      <c r="BV8" s="189"/>
+      <c r="BW8" s="189"/>
+      <c r="BX8" s="190"/>
+      <c r="BY8" s="206" t="s">
+        <v>517</v>
+      </c>
+      <c r="BZ8" s="206" t="s">
         <v>422</v>
       </c>
-      <c r="BX8" s="206" t="s">
+      <c r="CA8" s="206" t="s">
         <v>506</v>
       </c>
-      <c r="BY8" s="188" t="s">
+      <c r="CB8" s="188" t="s">
         <v>502</v>
       </c>
-      <c r="BZ8" s="190"/>
-      <c r="CA8" s="206" t="s">
+      <c r="CC8" s="190"/>
+      <c r="CD8" s="206" t="s">
         <v>484</v>
       </c>
-      <c r="CB8" s="195"/>
-      <c r="CC8" s="195"/>
-      <c r="CD8" s="203" t="s">
+      <c r="CE8" s="195"/>
+      <c r="CF8" s="195"/>
+      <c r="CG8" s="203" t="s">
         <v>471</v>
       </c>
-      <c r="CE8" s="203" t="s">
+      <c r="CH8" s="203" t="s">
         <v>472</v>
       </c>
-      <c r="CF8" s="195"/>
-      <c r="CG8" s="195"/>
-      <c r="CH8" s="194" t="s">
+      <c r="CI8" s="195"/>
+      <c r="CJ8" s="195"/>
+      <c r="CK8" s="194" t="s">
         <v>384</v>
       </c>
-      <c r="CI8" s="194" t="s">
+      <c r="CL8" s="194" t="s">
         <v>385</v>
       </c>
-      <c r="CJ8" s="194"/>
-      <c r="CK8" s="194"/>
-      <c r="CL8" s="194"/>
-      <c r="CM8" s="203" t="s">
+      <c r="CM8" s="194"/>
+      <c r="CN8" s="194"/>
+      <c r="CO8" s="194"/>
+      <c r="CP8" s="203" t="s">
         <v>308</v>
       </c>
-      <c r="CN8" s="203" t="s">
+      <c r="CQ8" s="203" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="9" spans="1:171" ht="47" customHeight="1">
+    <row r="9" spans="1:174" ht="47" customHeight="1">
       <c r="A9" s="232"/>
       <c r="B9" s="101"/>
       <c r="C9" s="177"/>
@@ -4379,51 +4487,54 @@
       <c r="AY9" s="207"/>
       <c r="AZ9" s="207"/>
       <c r="BA9" s="207"/>
-      <c r="BB9" s="160"/>
-      <c r="BC9" s="160"/>
-      <c r="BD9" s="160"/>
-      <c r="BE9" s="160"/>
-      <c r="BF9" s="162" t="s">
+      <c r="BB9" s="310"/>
+      <c r="BC9" s="310"/>
+      <c r="BD9" s="302"/>
+      <c r="BE9" s="310"/>
+      <c r="BF9" s="310"/>
+      <c r="BG9" s="162" t="s">
         <v>456</v>
       </c>
-      <c r="BG9" s="162" t="s">
+      <c r="BH9" s="162" t="s">
         <v>457</v>
       </c>
-      <c r="BH9" s="207"/>
-      <c r="BI9" s="207"/>
+      <c r="BI9" s="312"/>
       <c r="BJ9" s="207"/>
       <c r="BK9" s="207"/>
       <c r="BL9" s="207"/>
-      <c r="BM9" s="196"/>
-      <c r="BN9" s="196"/>
+      <c r="BM9" s="207"/>
+      <c r="BN9" s="207"/>
       <c r="BO9" s="196"/>
       <c r="BP9" s="196"/>
-      <c r="BQ9" s="207"/>
-      <c r="BR9" s="207"/>
-      <c r="BS9" s="191"/>
-      <c r="BT9" s="192"/>
-      <c r="BU9" s="192"/>
-      <c r="BV9" s="193"/>
-      <c r="BW9" s="207"/>
-      <c r="BX9" s="207"/>
-      <c r="BY9" s="191"/>
-      <c r="BZ9" s="193"/>
+      <c r="BQ9" s="196"/>
+      <c r="BR9" s="196"/>
+      <c r="BS9" s="207"/>
+      <c r="BT9" s="207"/>
+      <c r="BU9" s="191"/>
+      <c r="BV9" s="192"/>
+      <c r="BW9" s="192"/>
+      <c r="BX9" s="193"/>
+      <c r="BY9" s="207"/>
+      <c r="BZ9" s="207"/>
       <c r="CA9" s="207"/>
-      <c r="CB9" s="196"/>
-      <c r="CC9" s="196"/>
-      <c r="CD9" s="203"/>
-      <c r="CE9" s="203"/>
+      <c r="CB9" s="191"/>
+      <c r="CC9" s="193"/>
+      <c r="CD9" s="207"/>
+      <c r="CE9" s="196"/>
       <c r="CF9" s="196"/>
-      <c r="CG9" s="196"/>
-      <c r="CH9" s="194"/>
-      <c r="CI9" s="194"/>
-      <c r="CJ9" s="194"/>
+      <c r="CG9" s="203"/>
+      <c r="CH9" s="203"/>
+      <c r="CI9" s="196"/>
+      <c r="CJ9" s="196"/>
       <c r="CK9" s="194"/>
       <c r="CL9" s="194"/>
-      <c r="CM9" s="203"/>
-      <c r="CN9" s="203"/>
-    </row>
-    <row r="10" spans="1:171" ht="32" customHeight="1">
+      <c r="CM9" s="194"/>
+      <c r="CN9" s="194"/>
+      <c r="CO9" s="194"/>
+      <c r="CP9" s="203"/>
+      <c r="CQ9" s="203"/>
+    </row>
+    <row r="10" spans="1:174" ht="32" customHeight="1">
       <c r="A10" s="204" t="s">
         <v>374</v>
       </c>
@@ -4482,78 +4593,81 @@
       <c r="AV10" s="201"/>
       <c r="AW10" s="201"/>
       <c r="AX10" s="201"/>
-      <c r="AY10" s="155"/>
+      <c r="AY10" s="157"/>
       <c r="AZ10" s="201"/>
       <c r="BA10" s="201"/>
-      <c r="BB10" s="155"/>
-      <c r="BC10" s="155"/>
-      <c r="BD10" s="155"/>
-      <c r="BE10" s="155"/>
-      <c r="BF10" s="201"/>
+      <c r="BB10" s="157"/>
+      <c r="BC10" s="157"/>
+      <c r="BD10" s="157"/>
+      <c r="BE10" s="157"/>
+      <c r="BF10" s="157"/>
       <c r="BG10" s="201"/>
       <c r="BH10" s="201"/>
-      <c r="BI10" s="201"/>
-      <c r="BJ10" s="143" t="s">
+      <c r="BI10" s="157"/>
+      <c r="BJ10" s="201"/>
+      <c r="BK10" s="201"/>
+      <c r="BL10" s="143" t="s">
         <v>269</v>
       </c>
-      <c r="BK10" s="201"/>
-      <c r="BL10" s="69"/>
-      <c r="BM10" s="196"/>
-      <c r="BN10" s="196"/>
+      <c r="BM10" s="201"/>
+      <c r="BN10" s="69"/>
       <c r="BO10" s="196"/>
       <c r="BP10" s="196"/>
-      <c r="BQ10" s="146" t="s">
+      <c r="BQ10" s="196"/>
+      <c r="BR10" s="196"/>
+      <c r="BS10" s="146" t="s">
         <v>467</v>
       </c>
-      <c r="BR10" s="146" t="s">
+      <c r="BT10" s="146" t="s">
         <v>466</v>
       </c>
-      <c r="BS10" s="194" t="s">
+      <c r="BU10" s="194" t="s">
         <v>301</v>
       </c>
-      <c r="BT10" s="194" t="s">
+      <c r="BV10" s="194" t="s">
         <v>268</v>
       </c>
-      <c r="BU10" s="194" t="s">
+      <c r="BW10" s="194" t="s">
         <v>261</v>
       </c>
-      <c r="BV10" s="194" t="s">
+      <c r="BX10" s="194" t="s">
         <v>269</v>
       </c>
-      <c r="BW10" s="195"/>
-      <c r="BX10" s="143" t="s">
+      <c r="BY10" s="155"/>
+      <c r="BZ10" s="195"/>
+      <c r="CA10" s="143" t="s">
         <v>269</v>
       </c>
-      <c r="BY10" s="228" t="s">
+      <c r="CB10" s="228" t="s">
         <v>269</v>
       </c>
-      <c r="BZ10" s="228"/>
-      <c r="CA10" s="153" t="s">
+      <c r="CC10" s="228"/>
+      <c r="CD10" s="153" t="s">
         <v>269</v>
       </c>
-      <c r="CB10" s="196"/>
-      <c r="CC10" s="196"/>
-      <c r="CD10" s="186"/>
-      <c r="CE10" s="186"/>
+      <c r="CE10" s="196"/>
       <c r="CF10" s="196"/>
-      <c r="CG10" s="196"/>
+      <c r="CG10" s="186"/>
       <c r="CH10" s="186"/>
-      <c r="CI10" s="203">
+      <c r="CI10" s="196"/>
+      <c r="CJ10" s="196"/>
+      <c r="CK10" s="186"/>
+      <c r="CL10" s="203">
         <v>1</v>
       </c>
-      <c r="CJ10" s="203">
+      <c r="CM10" s="203">
         <v>2</v>
       </c>
-      <c r="CK10" s="203">
+      <c r="CN10" s="203">
         <v>3</v>
       </c>
-      <c r="CL10" s="203">
+      <c r="CO10" s="203">
         <v>4</v>
       </c>
-      <c r="CM10" s="186"/>
-      <c r="CN10" s="186"/>
-    </row>
-    <row r="11" spans="1:171" ht="34">
+      <c r="CP10" s="186"/>
+      <c r="CQ10" s="186"/>
+    </row>
+    <row r="11" spans="1:174" ht="34">
       <c r="A11" s="204"/>
       <c r="B11" s="127"/>
       <c r="C11" s="177"/>
@@ -4622,62 +4736,65 @@
       <c r="AV11" s="202"/>
       <c r="AW11" s="202"/>
       <c r="AX11" s="202"/>
-      <c r="AY11" s="156"/>
+      <c r="AY11" s="158"/>
       <c r="AZ11" s="202"/>
       <c r="BA11" s="202"/>
-      <c r="BB11" s="156"/>
-      <c r="BC11" s="156"/>
-      <c r="BD11" s="156"/>
-      <c r="BE11" s="156"/>
-      <c r="BF11" s="202"/>
+      <c r="BB11" s="158"/>
+      <c r="BC11" s="158"/>
+      <c r="BD11" s="158"/>
+      <c r="BE11" s="158"/>
+      <c r="BF11" s="158"/>
       <c r="BG11" s="202"/>
       <c r="BH11" s="202"/>
-      <c r="BI11" s="202"/>
-      <c r="BJ11" s="96" t="s">
+      <c r="BI11" s="158"/>
+      <c r="BJ11" s="202"/>
+      <c r="BK11" s="202"/>
+      <c r="BL11" s="96" t="s">
         <v>459</v>
       </c>
-      <c r="BK11" s="202"/>
-      <c r="BL11" s="69"/>
-      <c r="BM11" s="196"/>
-      <c r="BN11" s="196"/>
+      <c r="BM11" s="202"/>
+      <c r="BN11" s="69"/>
       <c r="BO11" s="196"/>
       <c r="BP11" s="196"/>
-      <c r="BQ11" s="54" t="s">
+      <c r="BQ11" s="196"/>
+      <c r="BR11" s="196"/>
+      <c r="BS11" s="54" t="s">
         <v>465</v>
       </c>
-      <c r="BR11" s="54" t="s">
+      <c r="BT11" s="54" t="s">
         <v>445</v>
       </c>
-      <c r="BS11" s="194"/>
-      <c r="BT11" s="194"/>
       <c r="BU11" s="194"/>
       <c r="BV11" s="194"/>
-      <c r="BW11" s="196"/>
-      <c r="BX11" s="96" t="s">
+      <c r="BW11" s="194"/>
+      <c r="BX11" s="194"/>
+      <c r="BY11" s="155"/>
+      <c r="BZ11" s="196"/>
+      <c r="CA11" s="96" t="s">
         <v>459</v>
       </c>
-      <c r="BY11" s="229" t="s">
+      <c r="CB11" s="229" t="s">
         <v>456</v>
       </c>
-      <c r="BZ11" s="229"/>
-      <c r="CA11" s="154" t="s">
+      <c r="CC11" s="229"/>
+      <c r="CD11" s="154" t="s">
         <v>456</v>
       </c>
-      <c r="CB11" s="196"/>
-      <c r="CC11" s="196"/>
-      <c r="CD11" s="187"/>
-      <c r="CE11" s="187"/>
+      <c r="CE11" s="196"/>
       <c r="CF11" s="196"/>
-      <c r="CG11" s="196"/>
+      <c r="CG11" s="187"/>
       <c r="CH11" s="187"/>
-      <c r="CI11" s="203"/>
-      <c r="CJ11" s="203"/>
-      <c r="CK11" s="203"/>
+      <c r="CI11" s="196"/>
+      <c r="CJ11" s="196"/>
+      <c r="CK11" s="187"/>
       <c r="CL11" s="203"/>
-      <c r="CM11" s="187"/>
-      <c r="CN11" s="187"/>
-    </row>
-    <row r="12" spans="1:171" ht="37" customHeight="1">
+      <c r="CM11" s="203"/>
+      <c r="CN11" s="203"/>
+      <c r="CO11" s="203"/>
+      <c r="CP11" s="187"/>
+      <c r="CQ11" s="187"/>
+    </row>
+    <row r="12" spans="1:174" ht="37" customHeight="1">
       <c r="A12" s="231" t="s">
         <v>404</v>
       </c>
@@ -4756,52 +4873,55 @@
       <c r="AV12" s="202"/>
       <c r="AW12" s="202"/>
       <c r="AX12" s="202"/>
-      <c r="AY12" s="156"/>
+      <c r="AY12" s="158"/>
       <c r="AZ12" s="202"/>
       <c r="BA12" s="202"/>
-      <c r="BB12" s="156"/>
-      <c r="BC12" s="156"/>
-      <c r="BD12" s="156"/>
-      <c r="BE12" s="156"/>
-      <c r="BF12" s="202"/>
+      <c r="BB12" s="158"/>
+      <c r="BC12" s="158"/>
+      <c r="BD12" s="158"/>
+      <c r="BE12" s="158"/>
+      <c r="BF12" s="158"/>
       <c r="BG12" s="202"/>
       <c r="BH12" s="202"/>
-      <c r="BI12" s="202"/>
-      <c r="BJ12" s="197"/>
+      <c r="BI12" s="158"/>
+      <c r="BJ12" s="202"/>
       <c r="BK12" s="202"/>
-      <c r="BL12" s="69"/>
-      <c r="BM12" s="196"/>
-      <c r="BN12" s="196"/>
+      <c r="BL12" s="197"/>
+      <c r="BM12" s="202"/>
+      <c r="BN12" s="69"/>
       <c r="BO12" s="196"/>
       <c r="BP12" s="196"/>
-      <c r="BQ12" s="197"/>
-      <c r="BR12" s="197"/>
+      <c r="BQ12" s="196"/>
+      <c r="BR12" s="196"/>
       <c r="BS12" s="197"/>
       <c r="BT12" s="197"/>
-      <c r="BU12" s="149"/>
+      <c r="BU12" s="197"/>
       <c r="BV12" s="197"/>
-      <c r="BW12" s="196"/>
-      <c r="BX12" s="134"/>
-      <c r="BY12" s="230" t="s">
+      <c r="BW12" s="149"/>
+      <c r="BX12" s="197"/>
+      <c r="BY12" s="155"/>
+      <c r="BZ12" s="196"/>
+      <c r="CA12" s="134"/>
+      <c r="CB12" s="230" t="s">
         <v>485</v>
       </c>
-      <c r="BZ12" s="230"/>
-      <c r="CA12" s="197"/>
-      <c r="CB12" s="196"/>
-      <c r="CC12" s="196"/>
-      <c r="CD12" s="187"/>
-      <c r="CE12" s="187"/>
+      <c r="CC12" s="230"/>
+      <c r="CD12" s="197"/>
+      <c r="CE12" s="196"/>
       <c r="CF12" s="196"/>
-      <c r="CG12" s="196"/>
+      <c r="CG12" s="187"/>
       <c r="CH12" s="187"/>
-      <c r="CI12" s="197"/>
-      <c r="CJ12" s="197"/>
-      <c r="CK12" s="197"/>
+      <c r="CI12" s="196"/>
+      <c r="CJ12" s="196"/>
+      <c r="CK12" s="187"/>
       <c r="CL12" s="197"/>
-      <c r="CM12" s="187"/>
-      <c r="CN12" s="187"/>
-    </row>
-    <row r="13" spans="1:171" ht="47" customHeight="1">
+      <c r="CM12" s="197"/>
+      <c r="CN12" s="197"/>
+      <c r="CO12" s="197"/>
+      <c r="CP12" s="187"/>
+      <c r="CQ12" s="187"/>
+    </row>
+    <row r="13" spans="1:174" ht="47" customHeight="1">
       <c r="A13" s="232"/>
       <c r="B13" s="101"/>
       <c r="C13" s="177"/>
@@ -4852,54 +4972,57 @@
       <c r="AV13" s="202"/>
       <c r="AW13" s="202"/>
       <c r="AX13" s="202"/>
-      <c r="AY13" s="156"/>
+      <c r="AY13" s="158"/>
       <c r="AZ13" s="202"/>
       <c r="BA13" s="202"/>
-      <c r="BB13" s="156"/>
-      <c r="BC13" s="156"/>
-      <c r="BD13" s="156"/>
-      <c r="BE13" s="156"/>
-      <c r="BF13" s="202"/>
+      <c r="BB13" s="158"/>
+      <c r="BC13" s="158"/>
+      <c r="BD13" s="158"/>
+      <c r="BE13" s="158"/>
+      <c r="BF13" s="158"/>
       <c r="BG13" s="202"/>
       <c r="BH13" s="202"/>
-      <c r="BI13" s="202"/>
-      <c r="BJ13" s="198"/>
+      <c r="BI13" s="158"/>
+      <c r="BJ13" s="202"/>
       <c r="BK13" s="202"/>
-      <c r="BL13" s="69"/>
-      <c r="BM13" s="196"/>
-      <c r="BN13" s="196"/>
+      <c r="BL13" s="198"/>
+      <c r="BM13" s="202"/>
+      <c r="BN13" s="69"/>
       <c r="BO13" s="196"/>
       <c r="BP13" s="196"/>
-      <c r="BQ13" s="198"/>
-      <c r="BR13" s="198"/>
+      <c r="BQ13" s="196"/>
+      <c r="BR13" s="196"/>
       <c r="BS13" s="198"/>
       <c r="BT13" s="198"/>
-      <c r="BU13" s="148"/>
+      <c r="BU13" s="198"/>
       <c r="BV13" s="198"/>
-      <c r="BW13" s="196"/>
-      <c r="BX13" s="134"/>
-      <c r="BY13" s="96" t="s">
+      <c r="BW13" s="148"/>
+      <c r="BX13" s="198"/>
+      <c r="BY13" s="155"/>
+      <c r="BZ13" s="196"/>
+      <c r="CA13" s="134"/>
+      <c r="CB13" s="96" t="s">
         <v>478</v>
       </c>
-      <c r="BZ13" s="96" t="s">
+      <c r="CC13" s="96" t="s">
         <v>483</v>
       </c>
-      <c r="CA13" s="198"/>
-      <c r="CB13" s="196"/>
-      <c r="CC13" s="196"/>
-      <c r="CD13" s="187"/>
-      <c r="CE13" s="187"/>
+      <c r="CD13" s="198"/>
+      <c r="CE13" s="196"/>
       <c r="CF13" s="196"/>
-      <c r="CG13" s="196"/>
+      <c r="CG13" s="187"/>
       <c r="CH13" s="187"/>
-      <c r="CI13" s="198"/>
-      <c r="CJ13" s="198"/>
-      <c r="CK13" s="198"/>
+      <c r="CI13" s="196"/>
+      <c r="CJ13" s="196"/>
+      <c r="CK13" s="187"/>
       <c r="CL13" s="198"/>
-      <c r="CM13" s="187"/>
-      <c r="CN13" s="187"/>
-    </row>
-    <row r="14" spans="1:171" ht="51" customHeight="1">
+      <c r="CM13" s="198"/>
+      <c r="CN13" s="198"/>
+      <c r="CO13" s="198"/>
+      <c r="CP13" s="187"/>
+      <c r="CQ13" s="187"/>
+    </row>
+    <row r="14" spans="1:174" ht="51" customHeight="1">
       <c r="A14" s="204" t="s">
         <v>477</v>
       </c>
@@ -4952,50 +5075,53 @@
       <c r="AV14" s="202"/>
       <c r="AW14" s="202"/>
       <c r="AX14" s="202"/>
-      <c r="AY14" s="156"/>
+      <c r="AY14" s="158"/>
       <c r="AZ14" s="202"/>
       <c r="BA14" s="202"/>
-      <c r="BB14" s="156"/>
-      <c r="BC14" s="156"/>
-      <c r="BD14" s="156"/>
-      <c r="BE14" s="156"/>
-      <c r="BF14" s="202"/>
+      <c r="BB14" s="158"/>
+      <c r="BC14" s="158"/>
+      <c r="BD14" s="158"/>
+      <c r="BE14" s="158"/>
+      <c r="BF14" s="158"/>
       <c r="BG14" s="202"/>
       <c r="BH14" s="202"/>
-      <c r="BI14" s="202"/>
-      <c r="BJ14" s="198"/>
+      <c r="BI14" s="158"/>
+      <c r="BJ14" s="202"/>
       <c r="BK14" s="202"/>
-      <c r="BL14" s="175"/>
-      <c r="BM14" s="196"/>
-      <c r="BN14" s="196"/>
+      <c r="BL14" s="198"/>
+      <c r="BM14" s="202"/>
+      <c r="BN14" s="175"/>
       <c r="BO14" s="196"/>
       <c r="BP14" s="196"/>
-      <c r="BQ14" s="198"/>
-      <c r="BR14" s="198"/>
+      <c r="BQ14" s="196"/>
+      <c r="BR14" s="196"/>
       <c r="BS14" s="198"/>
       <c r="BT14" s="198"/>
-      <c r="BU14" s="148"/>
+      <c r="BU14" s="198"/>
       <c r="BV14" s="198"/>
-      <c r="BW14" s="196"/>
-      <c r="BX14" s="134"/>
-      <c r="BY14" s="134"/>
-      <c r="BZ14" s="134"/>
-      <c r="CA14" s="198"/>
-      <c r="CB14" s="196"/>
-      <c r="CC14" s="196"/>
-      <c r="CD14" s="187"/>
-      <c r="CE14" s="187"/>
+      <c r="BW14" s="148"/>
+      <c r="BX14" s="198"/>
+      <c r="BY14" s="155"/>
+      <c r="BZ14" s="196"/>
+      <c r="CA14" s="134"/>
+      <c r="CB14" s="134"/>
+      <c r="CC14" s="134"/>
+      <c r="CD14" s="198"/>
+      <c r="CE14" s="196"/>
       <c r="CF14" s="196"/>
-      <c r="CG14" s="196"/>
+      <c r="CG14" s="187"/>
       <c r="CH14" s="187"/>
-      <c r="CI14" s="198"/>
-      <c r="CJ14" s="198"/>
-      <c r="CK14" s="198"/>
+      <c r="CI14" s="196"/>
+      <c r="CJ14" s="196"/>
+      <c r="CK14" s="187"/>
       <c r="CL14" s="198"/>
-      <c r="CM14" s="187"/>
-      <c r="CN14" s="187"/>
-    </row>
-    <row r="15" spans="1:171" ht="47" customHeight="1">
+      <c r="CM14" s="198"/>
+      <c r="CN14" s="198"/>
+      <c r="CO14" s="198"/>
+      <c r="CP14" s="187"/>
+      <c r="CQ14" s="187"/>
+    </row>
+    <row r="15" spans="1:174" ht="47" customHeight="1">
       <c r="A15" s="204"/>
       <c r="B15" s="101"/>
       <c r="C15" s="177"/>
@@ -5046,50 +5172,53 @@
       <c r="AV15" s="202"/>
       <c r="AW15" s="202"/>
       <c r="AX15" s="202"/>
-      <c r="AY15" s="156"/>
+      <c r="AY15" s="158"/>
       <c r="AZ15" s="202"/>
       <c r="BA15" s="202"/>
-      <c r="BB15" s="156"/>
-      <c r="BC15" s="156"/>
-      <c r="BD15" s="156"/>
-      <c r="BE15" s="156"/>
-      <c r="BF15" s="202"/>
+      <c r="BB15" s="158"/>
+      <c r="BC15" s="158"/>
+      <c r="BD15" s="158"/>
+      <c r="BE15" s="158"/>
+      <c r="BF15" s="158"/>
       <c r="BG15" s="202"/>
       <c r="BH15" s="202"/>
-      <c r="BI15" s="202"/>
-      <c r="BJ15" s="198"/>
+      <c r="BI15" s="158"/>
+      <c r="BJ15" s="202"/>
       <c r="BK15" s="202"/>
-      <c r="BL15" s="175"/>
-      <c r="BM15" s="196"/>
-      <c r="BN15" s="196"/>
+      <c r="BL15" s="198"/>
+      <c r="BM15" s="202"/>
+      <c r="BN15" s="175"/>
       <c r="BO15" s="196"/>
       <c r="BP15" s="196"/>
-      <c r="BQ15" s="198"/>
-      <c r="BR15" s="198"/>
+      <c r="BQ15" s="196"/>
+      <c r="BR15" s="196"/>
       <c r="BS15" s="198"/>
       <c r="BT15" s="198"/>
-      <c r="BU15" s="148"/>
+      <c r="BU15" s="198"/>
       <c r="BV15" s="198"/>
-      <c r="BW15" s="196"/>
-      <c r="BX15" s="134"/>
-      <c r="BY15" s="134"/>
-      <c r="BZ15" s="134"/>
-      <c r="CA15" s="198"/>
-      <c r="CB15" s="196"/>
-      <c r="CC15" s="196"/>
-      <c r="CD15" s="187"/>
-      <c r="CE15" s="187"/>
+      <c r="BW15" s="148"/>
+      <c r="BX15" s="198"/>
+      <c r="BY15" s="155"/>
+      <c r="BZ15" s="196"/>
+      <c r="CA15" s="134"/>
+      <c r="CB15" s="134"/>
+      <c r="CC15" s="134"/>
+      <c r="CD15" s="198"/>
+      <c r="CE15" s="196"/>
       <c r="CF15" s="196"/>
-      <c r="CG15" s="196"/>
+      <c r="CG15" s="187"/>
       <c r="CH15" s="187"/>
-      <c r="CI15" s="198"/>
-      <c r="CJ15" s="198"/>
-      <c r="CK15" s="198"/>
+      <c r="CI15" s="196"/>
+      <c r="CJ15" s="196"/>
+      <c r="CK15" s="187"/>
       <c r="CL15" s="198"/>
-      <c r="CM15" s="187"/>
-      <c r="CN15" s="187"/>
-    </row>
-    <row r="16" spans="1:171" ht="24">
+      <c r="CM15" s="198"/>
+      <c r="CN15" s="198"/>
+      <c r="CO15" s="198"/>
+      <c r="CP15" s="187"/>
+      <c r="CQ15" s="187"/>
+    </row>
+    <row r="16" spans="1:174" ht="24">
       <c r="A16" s="127"/>
       <c r="B16" s="127"/>
       <c r="C16" s="127"/>
@@ -5261,8 +5390,11 @@
       <c r="FM16" s="127"/>
       <c r="FN16" s="127"/>
       <c r="FO16" s="127"/>
-    </row>
-    <row r="17" spans="1:92" ht="25">
+      <c r="FP16" s="127"/>
+      <c r="FQ16" s="127"/>
+      <c r="FR16" s="127"/>
+    </row>
+    <row r="17" spans="1:95" ht="25">
       <c r="A17" s="131" t="s">
         <v>433</v>
       </c>
@@ -5423,117 +5555,126 @@
         <v>454</v>
       </c>
       <c r="BC17" s="133" t="s">
+        <v>91</v>
+      </c>
+      <c r="BD17" s="133" t="s">
         <v>97</v>
       </c>
-      <c r="BD17" s="133"/>
       <c r="BE17" s="133"/>
-      <c r="BF17" s="133" t="s">
-        <v>454</v>
-      </c>
+      <c r="BF17" s="133"/>
       <c r="BG17" s="133" t="s">
         <v>454</v>
       </c>
       <c r="BH17" s="133" t="s">
+        <v>454</v>
+      </c>
+      <c r="BI17" s="133" t="s">
+        <v>475</v>
+      </c>
+      <c r="BJ17" s="133" t="s">
         <v>90</v>
-      </c>
-      <c r="BI17" s="133" t="s">
-        <v>91</v>
-      </c>
-      <c r="BJ17" s="133" t="s">
-        <v>454</v>
       </c>
       <c r="BK17" s="133" t="s">
         <v>91</v>
       </c>
-      <c r="BL17" s="144" t="s">
+      <c r="BL17" s="133" t="s">
+        <v>454</v>
+      </c>
+      <c r="BM17" s="133" t="s">
+        <v>91</v>
+      </c>
+      <c r="BN17" s="144" t="s">
         <v>458</v>
       </c>
-      <c r="BM17" s="133" t="s">
+      <c r="BO17" s="133" t="s">
         <v>90</v>
       </c>
-      <c r="BN17" s="133" t="s">
+      <c r="BP17" s="133" t="s">
         <v>97</v>
       </c>
-      <c r="BO17" s="133" t="s">
+      <c r="BQ17" s="133" t="s">
         <v>462</v>
       </c>
-      <c r="BP17" s="133" t="s">
+      <c r="BR17" s="133" t="s">
         <v>91</v>
       </c>
-      <c r="BQ17" s="133" t="s">
+      <c r="BS17" s="133" t="s">
         <v>122</v>
       </c>
-      <c r="BR17" s="133" t="s">
+      <c r="BT17" s="133" t="s">
         <v>122</v>
       </c>
-      <c r="BS17" s="133" t="s">
+      <c r="BU17" s="133" t="s">
         <v>479</v>
       </c>
-      <c r="BT17" s="133" t="s">
+      <c r="BV17" s="133" t="s">
         <v>469</v>
-      </c>
-      <c r="BU17" s="133" t="s">
-        <v>469</v>
-      </c>
-      <c r="BV17" s="133" t="s">
-        <v>479</v>
       </c>
       <c r="BW17" s="133" t="s">
         <v>469</v>
       </c>
       <c r="BX17" s="133" t="s">
+        <v>479</v>
+      </c>
+      <c r="BY17" s="133" t="s">
+        <v>475</v>
+      </c>
+      <c r="BZ17" s="133" t="s">
+        <v>469</v>
+      </c>
+      <c r="CA17" s="133" t="s">
         <v>122</v>
       </c>
-      <c r="BY17" s="133" t="s">
+      <c r="CB17" s="133" t="s">
         <v>122</v>
       </c>
-      <c r="BZ17" s="133" t="s">
+      <c r="CC17" s="133" t="s">
         <v>122</v>
       </c>
-      <c r="CA17" s="133" t="s">
+      <c r="CD17" s="133" t="s">
         <v>454</v>
       </c>
-      <c r="CB17" s="133" t="s">
+      <c r="CE17" s="133" t="s">
         <v>97</v>
       </c>
-      <c r="CC17" s="133" t="s">
+      <c r="CF17" s="133" t="s">
         <v>469</v>
       </c>
-      <c r="CD17" s="133" t="s">
+      <c r="CG17" s="133" t="s">
         <v>475</v>
       </c>
-      <c r="CE17" s="133" t="s">
+      <c r="CH17" s="133" t="s">
         <v>469</v>
       </c>
-      <c r="CF17" s="133" t="s">
+      <c r="CI17" s="133" t="s">
         <v>475</v>
       </c>
-      <c r="CG17" s="133" t="s">
+      <c r="CJ17" s="133" t="s">
         <v>122</v>
       </c>
-      <c r="CH17" s="133" t="s">
+      <c r="CK17" s="133" t="s">
         <v>122</v>
-      </c>
-      <c r="CI17" s="133" t="s">
-        <v>476</v>
-      </c>
-      <c r="CJ17" s="133" t="s">
-        <v>476</v>
-      </c>
-      <c r="CK17" s="133" t="s">
-        <v>476</v>
       </c>
       <c r="CL17" s="133" t="s">
         <v>476</v>
       </c>
       <c r="CM17" s="133" t="s">
-        <v>90</v>
+        <v>476</v>
       </c>
       <c r="CN17" s="133" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="18" spans="1:92" ht="60">
+      <c r="CO17" s="133" t="s">
+        <v>476</v>
+      </c>
+      <c r="CP17" s="133" t="s">
+        <v>90</v>
+      </c>
+      <c r="CQ17" s="133" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="18" spans="1:95" ht="60">
       <c r="A18" s="131" t="s">
         <v>434</v>
       </c>
@@ -5633,124 +5774,129 @@
       <c r="AV18" s="11"/>
       <c r="AW18" s="11"/>
       <c r="AX18" s="11"/>
-      <c r="AY18" s="157" t="s">
+      <c r="AY18" s="159" t="s">
         <v>114</v>
       </c>
       <c r="AZ18" s="11"/>
       <c r="BA18" s="11"/>
       <c r="BB18" s="11"/>
-      <c r="BC18" s="298" t="s">
+      <c r="BC18" s="11"/>
+      <c r="BD18" s="298" t="s">
         <v>510</v>
       </c>
-      <c r="BD18" s="11"/>
       <c r="BE18" s="11"/>
-      <c r="BF18" s="141" t="s">
-        <v>474</v>
-      </c>
+      <c r="BF18" s="11"/>
       <c r="BG18" s="141" t="s">
         <v>474</v>
       </c>
-      <c r="BH18" s="116">
+      <c r="BH18" s="141" t="s">
+        <v>474</v>
+      </c>
+      <c r="BI18" s="141"/>
+      <c r="BJ18" s="116">
         <v>7</v>
       </c>
-      <c r="BI18" s="141" t="s">
+      <c r="BK18" s="141" t="s">
         <v>482</v>
-      </c>
-      <c r="BJ18" s="141" t="s">
-        <v>474</v>
-      </c>
-      <c r="BK18" s="141" t="s">
-        <v>473</v>
       </c>
       <c r="BL18" s="141" t="s">
         <v>474</v>
       </c>
-      <c r="BM18" s="116">
+      <c r="BM18" s="141" t="s">
+        <v>473</v>
+      </c>
+      <c r="BN18" s="141" t="s">
+        <v>474</v>
+      </c>
+      <c r="BO18" s="116">
         <v>100</v>
       </c>
-      <c r="BN18" s="136" t="s">
+      <c r="BP18" s="136" t="s">
         <v>107</v>
       </c>
-      <c r="BO18" s="116" t="s">
+      <c r="BQ18" s="116" t="s">
         <v>99</v>
       </c>
-      <c r="BP18" s="138" t="s">
+      <c r="BR18" s="138" t="s">
         <v>464</v>
       </c>
-      <c r="BQ18" s="116" t="s">
+      <c r="BS18" s="116" t="s">
         <v>411</v>
       </c>
-      <c r="BR18" s="116" t="s">
+      <c r="BT18" s="116" t="s">
         <v>411</v>
       </c>
-      <c r="BS18" s="147" t="s">
+      <c r="BU18" s="147" t="s">
         <v>108</v>
       </c>
-      <c r="BT18" s="141" t="s">
+      <c r="BV18" s="141" t="s">
         <v>473</v>
-      </c>
-      <c r="BU18" s="141" t="s">
-        <v>473</v>
-      </c>
-      <c r="BV18" s="147" t="s">
-        <v>109</v>
       </c>
       <c r="BW18" s="141" t="s">
         <v>473</v>
       </c>
-      <c r="BX18" s="141" t="s">
-        <v>474</v>
+      <c r="BX18" s="147" t="s">
+        <v>109</v>
       </c>
       <c r="BY18" s="141" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="BZ18" s="141" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="CA18" s="141" t="s">
         <v>474</v>
       </c>
-      <c r="CB18" s="147" t="s">
-        <v>129</v>
-      </c>
-      <c r="CC18" s="138" t="s">
-        <v>470</v>
+      <c r="CB18" s="141" t="s">
+        <v>474</v>
+      </c>
+      <c r="CC18" s="141" t="s">
+        <v>474</v>
       </c>
       <c r="CD18" s="141" t="s">
         <v>474</v>
       </c>
-      <c r="CE18" s="141" t="s">
+      <c r="CE18" s="147" t="s">
+        <v>129</v>
+      </c>
+      <c r="CF18" s="138" t="s">
+        <v>470</v>
+      </c>
+      <c r="CG18" s="141" t="s">
+        <v>474</v>
+      </c>
+      <c r="CH18" s="141" t="s">
         <v>473</v>
       </c>
-      <c r="CF18" s="141" t="s">
+      <c r="CI18" s="141" t="s">
         <v>474</v>
       </c>
-      <c r="CG18" s="116" t="b">
+      <c r="CJ18" s="116" t="b">
         <v>1</v>
       </c>
-      <c r="CH18" s="116" t="b">
+      <c r="CK18" s="116" t="b">
         <v>1</v>
-      </c>
-      <c r="CI18" s="141" t="s">
-        <v>461</v>
-      </c>
-      <c r="CJ18" s="141" t="s">
-        <v>461</v>
-      </c>
-      <c r="CK18" s="141" t="s">
-        <v>461</v>
       </c>
       <c r="CL18" s="141" t="s">
         <v>461</v>
       </c>
-      <c r="CM18" s="116">
-        <v>0</v>
+      <c r="CM18" s="141" t="s">
+        <v>461</v>
       </c>
       <c r="CN18" s="141" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="19" spans="1:92" ht="34">
+      <c r="CO18" s="141" t="s">
+        <v>461</v>
+      </c>
+      <c r="CP18" s="116">
+        <v>0</v>
+      </c>
+      <c r="CQ18" s="141" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="19" spans="1:95" ht="34">
       <c r="A19" s="131" t="s">
         <v>219</v>
       </c>
@@ -5844,22 +5990,24 @@
       <c r="BB19" s="116" t="s">
         <v>455</v>
       </c>
-      <c r="BC19" s="11"/>
+      <c r="BC19" s="138" t="s">
+        <v>512</v>
+      </c>
       <c r="BD19" s="11"/>
       <c r="BE19" s="11"/>
-      <c r="BF19" s="116" t="s">
-        <v>455</v>
-      </c>
+      <c r="BF19" s="11"/>
       <c r="BG19" s="116" t="s">
         <v>455</v>
       </c>
-      <c r="BH19" s="11"/>
-      <c r="BI19" s="11"/>
-      <c r="BJ19" s="116" t="s">
+      <c r="BH19" s="116" t="s">
         <v>455</v>
       </c>
+      <c r="BI19" s="116"/>
+      <c r="BJ19" s="11"/>
       <c r="BK19" s="11"/>
-      <c r="BL19" s="11"/>
+      <c r="BL19" s="116" t="s">
+        <v>455</v>
+      </c>
       <c r="BM19" s="11"/>
       <c r="BN19" s="11"/>
       <c r="BO19" s="11"/>
@@ -5870,24 +6018,24 @@
       <c r="BT19" s="11"/>
       <c r="BU19" s="11"/>
       <c r="BV19" s="11"/>
-      <c r="BW19" s="116" t="s">
+      <c r="BW19" s="11"/>
+      <c r="BX19" s="11"/>
+      <c r="BY19" s="11"/>
+      <c r="BZ19" s="116" t="s">
         <v>421</v>
       </c>
-      <c r="BX19" s="116" t="s">
+      <c r="CA19" s="116" t="s">
         <v>411</v>
       </c>
-      <c r="BY19" s="116" t="s">
+      <c r="CB19" s="116" t="s">
         <v>411</v>
       </c>
-      <c r="BZ19" s="116" t="s">
+      <c r="CC19" s="116" t="s">
         <v>411</v>
       </c>
-      <c r="CA19" s="68" t="s">
+      <c r="CD19" s="68" t="s">
         <v>412</v>
       </c>
-      <c r="CB19" s="11"/>
-      <c r="CC19" s="11"/>
-      <c r="CD19" s="11"/>
       <c r="CE19" s="11"/>
       <c r="CF19" s="11"/>
       <c r="CG19" s="11"/>
@@ -5898,15 +6046,16 @@
       <c r="CL19" s="11"/>
       <c r="CM19" s="11"/>
       <c r="CN19" s="11"/>
-    </row>
-    <row r="20" spans="1:92" ht="24">
+      <c r="CO19" s="11"/>
+      <c r="CP19" s="11"/>
+      <c r="CQ19" s="11"/>
+    </row>
+    <row r="20" spans="1:95" ht="24">
       <c r="A20" s="132"/>
       <c r="C20" s="130"/>
       <c r="G20" s="130"/>
       <c r="AF20" s="58"/>
       <c r="AG20" s="58"/>
-      <c r="BQ20" s="130"/>
-      <c r="BR20" s="130"/>
       <c r="BS20" s="130"/>
       <c r="BT20" s="130"/>
       <c r="BU20" s="130"/>
@@ -5916,8 +6065,11 @@
       <c r="BY20" s="130"/>
       <c r="BZ20" s="130"/>
       <c r="CA20" s="130"/>
-    </row>
-    <row r="21" spans="1:92" ht="36" customHeight="1">
+      <c r="CB20" s="130"/>
+      <c r="CC20" s="130"/>
+      <c r="CD20" s="130"/>
+    </row>
+    <row r="21" spans="1:95" ht="36" customHeight="1">
       <c r="C21" t="s">
         <v>355</v>
       </c>
@@ -5936,14 +6088,14 @@
       <c r="AT21" s="142" t="s">
         <v>453</v>
       </c>
-      <c r="BL21" s="145" t="s">
+      <c r="BN21" s="145" t="s">
         <v>460</v>
       </c>
-      <c r="BO21" s="145" t="s">
+      <c r="BQ21" s="145" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="22" spans="1:92">
+    <row r="22" spans="1:95">
       <c r="C22" t="s">
         <v>220</v>
       </c>
@@ -5958,7 +6110,7 @@
       <c r="AJ22" s="57"/>
       <c r="AK22" s="57"/>
     </row>
-    <row r="23" spans="1:92">
+    <row r="23" spans="1:95">
       <c r="AE23" s="58"/>
       <c r="AF23" s="58"/>
       <c r="AG23" s="58"/>
@@ -5967,91 +6119,92 @@
       <c r="AJ23" s="58"/>
       <c r="AK23" s="58"/>
     </row>
-    <row r="24" spans="1:92" ht="44" customHeight="1">
-      <c r="BQ24" t="s">
+    <row r="24" spans="1:95" ht="44" customHeight="1">
+      <c r="BS24" t="s">
         <v>413</v>
       </c>
-      <c r="BS24" s="218" t="s">
+      <c r="BU24" s="218" t="s">
         <v>424</v>
       </c>
-      <c r="BT24" s="218"/>
-      <c r="BU24" s="218"/>
       <c r="BV24" s="218"/>
-    </row>
-    <row r="25" spans="1:92">
-      <c r="BR25" t="s">
+      <c r="BW24" s="218"/>
+      <c r="BX24" s="218"/>
+      <c r="BY24" s="156"/>
+    </row>
+    <row r="25" spans="1:95">
+      <c r="BT25" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="28" spans="1:92">
+    <row r="28" spans="1:95">
       <c r="O28" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="32" spans="1:92">
+    <row r="32" spans="1:95">
       <c r="E32" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="33" spans="5:70">
+    <row r="33" spans="5:72">
       <c r="E33" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="34" spans="5:70">
+    <row r="34" spans="5:72">
       <c r="E34" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="35" spans="5:70">
+    <row r="35" spans="5:72">
       <c r="E35" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="37" spans="5:70">
-      <c r="BR37">
+    <row r="37" spans="5:72">
+      <c r="BT37">
         <v>5.6109999999999998</v>
       </c>
     </row>
-    <row r="38" spans="5:70">
-      <c r="BR38">
-        <f>BR37*11</f>
+    <row r="38" spans="5:72">
+      <c r="BT38">
+        <f>BT37*11</f>
         <v>61.720999999999997</v>
       </c>
     </row>
-    <row r="44" spans="5:70">
-      <c r="BR44">
+    <row r="44" spans="5:72">
+      <c r="BT44">
         <v>169</v>
       </c>
     </row>
-    <row r="45" spans="5:70">
-      <c r="BR45">
+    <row r="45" spans="5:72">
+      <c r="BT45">
         <v>181</v>
       </c>
     </row>
-    <row r="46" spans="5:70">
-      <c r="BR46">
-        <f>BR45-BR44</f>
+    <row r="46" spans="5:72">
+      <c r="BT46">
+        <f>BT45-BT44</f>
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="5:70">
-      <c r="BR47">
-        <f>BR46/BR44</f>
+    <row r="47" spans="5:72">
+      <c r="BT47">
+        <f>BT46/BT44</f>
         <v>7.1005917159763315E-2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="202">
+  <mergeCells count="204">
     <mergeCell ref="A6:A7"/>
+    <mergeCell ref="CD8:CD9"/>
+    <mergeCell ref="CD12:CD15"/>
     <mergeCell ref="CA8:CA9"/>
-    <mergeCell ref="CA12:CA15"/>
-    <mergeCell ref="BX8:BX9"/>
     <mergeCell ref="N6:AL6"/>
-    <mergeCell ref="BY8:BZ9"/>
-    <mergeCell ref="BY10:BZ10"/>
-    <mergeCell ref="BY11:BZ11"/>
-    <mergeCell ref="BY12:BZ12"/>
+    <mergeCell ref="CB8:CC9"/>
+    <mergeCell ref="CB10:CC10"/>
+    <mergeCell ref="CB11:CC11"/>
+    <mergeCell ref="CB12:CC12"/>
     <mergeCell ref="AX8:AX9"/>
     <mergeCell ref="AZ10:AZ15"/>
     <mergeCell ref="BA10:BA15"/>
@@ -6064,9 +6217,9 @@
     <mergeCell ref="N8:N9"/>
     <mergeCell ref="M8:M9"/>
     <mergeCell ref="AY8:AY9"/>
-    <mergeCell ref="BC6:BC7"/>
+    <mergeCell ref="BD6:BD7"/>
     <mergeCell ref="BB6:BB7"/>
-    <mergeCell ref="BS24:BV24"/>
+    <mergeCell ref="BU24:BX24"/>
     <mergeCell ref="AA10:AL10"/>
     <mergeCell ref="AR8:AR9"/>
     <mergeCell ref="AW8:AW9"/>
@@ -6092,22 +6245,22 @@
     <mergeCell ref="AQ8:AQ9"/>
     <mergeCell ref="D5:AR5"/>
     <mergeCell ref="AS5:BA5"/>
-    <mergeCell ref="BF5:BL5"/>
-    <mergeCell ref="BM5:CA5"/>
-    <mergeCell ref="CB5:CN5"/>
+    <mergeCell ref="BG5:BN5"/>
+    <mergeCell ref="BO5:CD5"/>
+    <mergeCell ref="CE5:CQ5"/>
     <mergeCell ref="N7:V7"/>
     <mergeCell ref="W7:AL7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="G6:M7"/>
-    <mergeCell ref="BO6:BO7"/>
-    <mergeCell ref="BP6:BP7"/>
-    <mergeCell ref="BQ6:BR7"/>
-    <mergeCell ref="BS6:CA7"/>
-    <mergeCell ref="BB5:BE5"/>
-    <mergeCell ref="BD6:BD7"/>
-    <mergeCell ref="BE6:BE7"/>
+    <mergeCell ref="BQ6:BQ7"/>
+    <mergeCell ref="BR6:BR7"/>
+    <mergeCell ref="BS6:BT7"/>
+    <mergeCell ref="BU6:CD7"/>
+    <mergeCell ref="BB5:BF5"/>
+    <mergeCell ref="BC6:BC7"/>
+    <mergeCell ref="BI6:BI7"/>
     <mergeCell ref="L8:L9"/>
     <mergeCell ref="K8:K9"/>
     <mergeCell ref="J8:J9"/>
@@ -6123,17 +6276,17 @@
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="P10:V10"/>
     <mergeCell ref="P8:V8"/>
-    <mergeCell ref="BQ12:BQ15"/>
-    <mergeCell ref="BR12:BR15"/>
+    <mergeCell ref="BS12:BS15"/>
+    <mergeCell ref="BT12:BT15"/>
+    <mergeCell ref="BN8:BN9"/>
+    <mergeCell ref="BM8:BM9"/>
     <mergeCell ref="BL8:BL9"/>
     <mergeCell ref="BK8:BK9"/>
     <mergeCell ref="BJ8:BJ9"/>
-    <mergeCell ref="BI8:BI9"/>
-    <mergeCell ref="BH8:BH9"/>
-    <mergeCell ref="BF10:BF15"/>
     <mergeCell ref="BG10:BG15"/>
     <mergeCell ref="BH10:BH15"/>
-    <mergeCell ref="BI10:BI15"/>
+    <mergeCell ref="BJ10:BJ15"/>
+    <mergeCell ref="BK10:BK15"/>
     <mergeCell ref="V12:V13"/>
     <mergeCell ref="AA12:AA15"/>
     <mergeCell ref="AB12:AB15"/>
@@ -6144,8 +6297,8 @@
     <mergeCell ref="AJ12:AJ13"/>
     <mergeCell ref="AI12:AI13"/>
     <mergeCell ref="AH12:AH13"/>
-    <mergeCell ref="CD8:CD9"/>
-    <mergeCell ref="CE8:CE9"/>
+    <mergeCell ref="CG8:CG9"/>
+    <mergeCell ref="CH8:CH9"/>
     <mergeCell ref="W10:W15"/>
     <mergeCell ref="X10:X15"/>
     <mergeCell ref="Y10:Y15"/>
@@ -6157,14 +6310,16 @@
     <mergeCell ref="AQ10:AQ15"/>
     <mergeCell ref="AR10:AR15"/>
     <mergeCell ref="AS10:AS15"/>
-    <mergeCell ref="BW8:BW9"/>
-    <mergeCell ref="BR8:BR9"/>
-    <mergeCell ref="BQ8:BQ9"/>
+    <mergeCell ref="BZ8:BZ9"/>
+    <mergeCell ref="BT8:BT9"/>
+    <mergeCell ref="BS8:BS9"/>
+    <mergeCell ref="BQ8:BQ15"/>
+    <mergeCell ref="BR8:BR15"/>
+    <mergeCell ref="AX10:AX15"/>
     <mergeCell ref="BO8:BO15"/>
-    <mergeCell ref="BP8:BP15"/>
-    <mergeCell ref="AX10:AX15"/>
-    <mergeCell ref="BM8:BM15"/>
-    <mergeCell ref="CN8:CN9"/>
+    <mergeCell ref="BD8:BD9"/>
+    <mergeCell ref="BY8:BY9"/>
+    <mergeCell ref="CQ8:CQ9"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="D8:D15"/>
     <mergeCell ref="E8:E15"/>
@@ -6176,26 +6331,26 @@
     <mergeCell ref="K10:K15"/>
     <mergeCell ref="L10:L15"/>
     <mergeCell ref="M10:M15"/>
-    <mergeCell ref="CB8:CB15"/>
-    <mergeCell ref="CC8:CC15"/>
+    <mergeCell ref="CE8:CE15"/>
     <mergeCell ref="CF8:CF15"/>
-    <mergeCell ref="CG8:CG15"/>
-    <mergeCell ref="CM8:CM9"/>
-    <mergeCell ref="CH8:CH9"/>
-    <mergeCell ref="CI8:CL9"/>
-    <mergeCell ref="CI10:CI11"/>
-    <mergeCell ref="CJ10:CJ11"/>
-    <mergeCell ref="CK10:CK11"/>
+    <mergeCell ref="CI8:CI15"/>
+    <mergeCell ref="CJ8:CJ15"/>
+    <mergeCell ref="CP8:CP9"/>
+    <mergeCell ref="CK8:CK9"/>
+    <mergeCell ref="CL8:CO9"/>
+    <mergeCell ref="CL10:CL11"/>
+    <mergeCell ref="CM10:CM11"/>
+    <mergeCell ref="CN10:CN11"/>
     <mergeCell ref="AD12:AD15"/>
     <mergeCell ref="AG12:AG13"/>
-    <mergeCell ref="BN8:BN15"/>
-    <mergeCell ref="BJ12:BJ15"/>
+    <mergeCell ref="BP8:BP15"/>
+    <mergeCell ref="BL12:BL15"/>
     <mergeCell ref="R14:R15"/>
     <mergeCell ref="S14:S15"/>
     <mergeCell ref="T14:T15"/>
     <mergeCell ref="U14:U15"/>
     <mergeCell ref="V14:V15"/>
-    <mergeCell ref="BK10:BK15"/>
+    <mergeCell ref="BM10:BM15"/>
     <mergeCell ref="AE14:AE15"/>
     <mergeCell ref="AF14:AF15"/>
     <mergeCell ref="AG14:AG15"/>
@@ -6209,42 +6364,42 @@
     <mergeCell ref="AV10:AV15"/>
     <mergeCell ref="AW10:AW15"/>
     <mergeCell ref="AF12:AF13"/>
-    <mergeCell ref="BW10:BW15"/>
-    <mergeCell ref="CJ12:CJ15"/>
-    <mergeCell ref="CK12:CK15"/>
+    <mergeCell ref="BZ10:BZ15"/>
+    <mergeCell ref="CM12:CM15"/>
+    <mergeCell ref="CN12:CN15"/>
+    <mergeCell ref="CO12:CO15"/>
+    <mergeCell ref="CG10:CG15"/>
+    <mergeCell ref="CH10:CH15"/>
+    <mergeCell ref="CK10:CK15"/>
+    <mergeCell ref="BU12:BU15"/>
+    <mergeCell ref="BV12:BV15"/>
+    <mergeCell ref="BX12:BX15"/>
     <mergeCell ref="CL12:CL15"/>
-    <mergeCell ref="CD10:CD15"/>
-    <mergeCell ref="CE10:CE15"/>
-    <mergeCell ref="CH10:CH15"/>
-    <mergeCell ref="BS12:BS15"/>
-    <mergeCell ref="BT12:BT15"/>
-    <mergeCell ref="BV12:BV15"/>
-    <mergeCell ref="CI12:CI15"/>
-    <mergeCell ref="CL10:CL11"/>
-    <mergeCell ref="CB6:CB7"/>
-    <mergeCell ref="CC6:CC7"/>
-    <mergeCell ref="CD6:CE7"/>
+    <mergeCell ref="CO10:CO11"/>
+    <mergeCell ref="CE6:CE7"/>
     <mergeCell ref="CF6:CF7"/>
-    <mergeCell ref="CG6:CG7"/>
-    <mergeCell ref="CH6:CL7"/>
-    <mergeCell ref="CM6:CN7"/>
-    <mergeCell ref="BL14:BL15"/>
+    <mergeCell ref="CG6:CH7"/>
+    <mergeCell ref="CI6:CI7"/>
+    <mergeCell ref="CJ6:CJ7"/>
+    <mergeCell ref="CK6:CO7"/>
+    <mergeCell ref="CP6:CQ7"/>
+    <mergeCell ref="BN14:BN15"/>
     <mergeCell ref="C6:C15"/>
     <mergeCell ref="AM6:AR7"/>
     <mergeCell ref="AS6:AW7"/>
     <mergeCell ref="AX6:BA7"/>
-    <mergeCell ref="BF6:BF7"/>
     <mergeCell ref="BG6:BG7"/>
-    <mergeCell ref="BH6:BL7"/>
-    <mergeCell ref="BM6:BM7"/>
-    <mergeCell ref="BN6:BN7"/>
-    <mergeCell ref="CM10:CM15"/>
-    <mergeCell ref="CN10:CN15"/>
-    <mergeCell ref="BS8:BV9"/>
+    <mergeCell ref="BH6:BH7"/>
+    <mergeCell ref="BJ6:BN7"/>
+    <mergeCell ref="BO6:BO7"/>
+    <mergeCell ref="BP6:BP7"/>
+    <mergeCell ref="CP10:CP15"/>
+    <mergeCell ref="CQ10:CQ15"/>
+    <mergeCell ref="BU8:BX9"/>
+    <mergeCell ref="BX10:BX11"/>
     <mergeCell ref="BV10:BV11"/>
-    <mergeCell ref="BT10:BT11"/>
-    <mergeCell ref="BS10:BS11"/>
     <mergeCell ref="BU10:BU11"/>
+    <mergeCell ref="BW10:BW11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/session_variables.xlsx
+++ b/docs/session_variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robhay/git_repo/share_screener/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642555AB-5074-EB45-8D18-4E4790931B8A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75B742F-57D3-8A4E-B405-026DF97362AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25600" yWindow="-7580" windowWidth="38400" windowHeight="21100" xr2:uid="{EB3C945B-FE01-FA47-AE59-A0DC3CDF521B}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1953" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="599">
   <si>
     <t>chart_colours</t>
   </si>
@@ -2221,6 +2221,12 @@
   <si>
     <t>streamlit object</t>
   </si>
+  <si>
+    <t>Dictionary</t>
+  </si>
+  <si>
+    <t>ie NAB.AX</t>
+  </si>
 </sst>
 </file>
 
@@ -2233,7 +2239,7 @@
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.000_);_(&quot;$&quot;* \(#,##0.000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="60">
+  <fonts count="61">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2662,6 +2668,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="14">
     <fill>
@@ -2743,7 +2756,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -2922,13 +2935,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="403">
+  <cellXfs count="422">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3425,9 +3447,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3928,17 +3947,20 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3964,9 +3986,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3982,12 +4001,6 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4000,9 +4013,6 @@
     <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4015,9 +4025,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4040,6 +4047,78 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4358,13 +4437,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4BE9BCD-FFB7-0845-95F9-377ADF3DB526}">
-  <dimension ref="A1:T99"/>
+  <dimension ref="A1:T107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E90" sqref="E90:J90"/>
+      <selection pane="bottomRight" activeCell="G72" sqref="G72:J72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -4375,10 +4454,10 @@
     <col min="4" max="4" width="15.33203125" style="70" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.1640625" style="70" customWidth="1"/>
     <col min="6" max="6" width="13.5" style="70" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="70" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" style="70" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="70" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.1640625" style="70" customWidth="1"/>
-    <col min="10" max="10" width="39.1640625" style="70" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="70" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" style="70" customWidth="1"/>
     <col min="11" max="11" width="8.5" style="4" customWidth="1"/>
     <col min="12" max="12" width="14.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="21.83203125" style="4" bestFit="1" customWidth="1"/>
@@ -4401,49 +4480,46 @@
     <col min="34" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="46" customHeight="1">
-      <c r="A1" s="367" t="s">
+    <row r="1" spans="1:20" ht="59" customHeight="1">
+      <c r="A1" s="420" t="s">
         <v>480</v>
       </c>
-      <c r="B1" s="368"/>
-      <c r="C1" s="368"/>
-      <c r="D1" s="368"/>
-      <c r="E1" s="368"/>
-      <c r="F1" s="368"/>
-      <c r="G1" s="368"/>
-      <c r="H1" s="368"/>
-      <c r="I1" s="368"/>
-      <c r="J1" s="377" t="s">
+      <c r="B1" s="421"/>
+      <c r="C1" s="421"/>
+      <c r="D1" s="421"/>
+      <c r="E1" s="421"/>
+      <c r="F1" s="421"/>
+      <c r="G1" s="421"/>
+      <c r="H1" s="421"/>
+      <c r="J1" s="418" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="2" spans="1:20">
-      <c r="J2" s="378" t="s">
+      <c r="J2" s="419" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="6" customFormat="1" ht="25">
-      <c r="B3" s="177" t="s">
+      <c r="B3" s="176" t="s">
         <v>343</v>
       </c>
-      <c r="C3" s="363" t="s">
+      <c r="C3" s="362" t="s">
         <v>344</v>
       </c>
-      <c r="D3" s="364"/>
-      <c r="E3" s="363" t="s">
+      <c r="D3" s="363"/>
+      <c r="E3" s="362" t="s">
         <v>373</v>
       </c>
-      <c r="F3" s="364"/>
-      <c r="G3" s="363" t="s">
+      <c r="F3" s="363"/>
+      <c r="G3" s="362" t="s">
         <v>374</v>
       </c>
-      <c r="H3" s="364"/>
-      <c r="I3" s="172" t="s">
+      <c r="H3" s="363"/>
+      <c r="I3" s="362" t="s">
         <v>404</v>
       </c>
-      <c r="J3" s="172" t="s">
-        <v>476</v>
-      </c>
+      <c r="J3" s="363"/>
       <c r="L3" s="131" t="s">
         <v>432</v>
       </c>
@@ -4457,14 +4533,14 @@
     <row r="4" spans="1:20">
       <c r="A4" s="369"/>
       <c r="B4" s="374"/>
-      <c r="C4" s="378"/>
-      <c r="D4" s="378"/>
-      <c r="E4" s="378"/>
-      <c r="F4" s="378"/>
-      <c r="G4" s="378"/>
-      <c r="H4" s="378"/>
-      <c r="I4" s="378"/>
-      <c r="J4" s="378"/>
+      <c r="C4" s="377"/>
+      <c r="D4" s="377"/>
+      <c r="E4" s="377"/>
+      <c r="F4" s="377"/>
+      <c r="G4" s="377"/>
+      <c r="H4" s="377"/>
+      <c r="I4" s="377"/>
+      <c r="J4" s="377"/>
       <c r="K4" s="6"/>
       <c r="L4" s="369"/>
       <c r="M4" s="369"/>
@@ -4477,17 +4553,17 @@
       <c r="T4" s="369"/>
     </row>
     <row r="5" spans="1:20" ht="31" customHeight="1">
-      <c r="B5" s="397" t="s">
+      <c r="B5" s="392" t="s">
         <v>289</v>
       </c>
-      <c r="C5" s="379"/>
-      <c r="D5" s="379"/>
-      <c r="E5" s="379"/>
-      <c r="F5" s="379"/>
-      <c r="G5" s="379"/>
-      <c r="H5" s="379"/>
-      <c r="I5" s="379"/>
-      <c r="J5" s="379"/>
+      <c r="C5" s="378"/>
+      <c r="D5" s="378"/>
+      <c r="E5" s="378"/>
+      <c r="F5" s="378"/>
+      <c r="G5" s="378"/>
+      <c r="H5" s="378"/>
+      <c r="I5" s="378"/>
+      <c r="J5" s="378"/>
       <c r="K5" s="6"/>
       <c r="L5" s="133" t="s">
         <v>96</v>
@@ -4501,16 +4577,16 @@
       <c r="B6" s="375" t="s">
         <v>263</v>
       </c>
-      <c r="C6" s="395" t="s">
+      <c r="C6" s="390" t="s">
         <v>286</v>
       </c>
-      <c r="D6" s="395"/>
-      <c r="E6" s="380"/>
-      <c r="F6" s="380"/>
-      <c r="G6" s="380"/>
-      <c r="H6" s="380"/>
-      <c r="I6" s="380"/>
-      <c r="J6" s="380"/>
+      <c r="D6" s="390"/>
+      <c r="E6" s="379"/>
+      <c r="F6" s="379"/>
+      <c r="G6" s="379"/>
+      <c r="H6" s="379"/>
+      <c r="I6" s="379"/>
+      <c r="J6" s="379"/>
       <c r="K6" s="6"/>
       <c r="L6" s="133" t="s">
         <v>434</v>
@@ -4522,16 +4598,16 @@
     </row>
     <row r="7" spans="1:20" ht="31" customHeight="1">
       <c r="B7" s="375"/>
-      <c r="C7" s="395" t="s">
+      <c r="C7" s="390" t="s">
         <v>285</v>
       </c>
-      <c r="D7" s="395"/>
-      <c r="E7" s="380"/>
-      <c r="F7" s="380"/>
-      <c r="G7" s="380"/>
-      <c r="H7" s="380"/>
-      <c r="I7" s="380"/>
-      <c r="J7" s="380"/>
+      <c r="D7" s="390"/>
+      <c r="E7" s="379"/>
+      <c r="F7" s="379"/>
+      <c r="G7" s="379"/>
+      <c r="H7" s="379"/>
+      <c r="I7" s="379"/>
+      <c r="J7" s="379"/>
       <c r="K7" s="6"/>
       <c r="L7" s="133" t="s">
         <v>98</v>
@@ -4543,21 +4619,21 @@
     </row>
     <row r="8" spans="1:20" ht="31" customHeight="1">
       <c r="B8" s="375"/>
-      <c r="C8" s="395" t="s">
+      <c r="C8" s="390" t="s">
         <v>288</v>
       </c>
-      <c r="D8" s="395"/>
-      <c r="E8" s="380"/>
-      <c r="F8" s="380"/>
-      <c r="G8" s="380"/>
-      <c r="H8" s="380"/>
-      <c r="I8" s="380"/>
-      <c r="J8" s="380"/>
+      <c r="D8" s="390"/>
+      <c r="E8" s="379"/>
+      <c r="F8" s="379"/>
+      <c r="G8" s="379"/>
+      <c r="H8" s="379"/>
+      <c r="I8" s="379"/>
+      <c r="J8" s="379"/>
       <c r="K8" s="6"/>
       <c r="L8" s="133" t="s">
         <v>434</v>
       </c>
-      <c r="M8" s="175" t="s">
+      <c r="M8" s="174" t="s">
         <v>102</v>
       </c>
       <c r="N8" s="11"/>
@@ -4568,14 +4644,14 @@
         <v>262</v>
       </c>
       <c r="D9" s="371"/>
-      <c r="E9" s="382" t="s">
+      <c r="E9" s="381" t="s">
         <v>375</v>
       </c>
-      <c r="F9" s="382"/>
-      <c r="G9" s="380"/>
-      <c r="H9" s="380"/>
-      <c r="I9" s="380"/>
-      <c r="J9" s="380"/>
+      <c r="F9" s="381"/>
+      <c r="G9" s="379"/>
+      <c r="H9" s="379"/>
+      <c r="I9" s="379"/>
+      <c r="J9" s="379"/>
       <c r="K9" s="6"/>
       <c r="L9" s="133" t="s">
         <v>96</v>
@@ -4589,14 +4665,14 @@
       <c r="B10" s="375"/>
       <c r="C10" s="371"/>
       <c r="D10" s="371"/>
-      <c r="E10" s="382" t="s">
+      <c r="E10" s="381" t="s">
         <v>267</v>
       </c>
-      <c r="F10" s="382"/>
-      <c r="G10" s="380"/>
-      <c r="H10" s="380"/>
-      <c r="I10" s="380"/>
-      <c r="J10" s="380"/>
+      <c r="F10" s="381"/>
+      <c r="G10" s="379"/>
+      <c r="H10" s="379"/>
+      <c r="I10" s="379"/>
+      <c r="J10" s="379"/>
       <c r="K10" s="6"/>
       <c r="L10" s="133" t="s">
         <v>91</v>
@@ -4610,14 +4686,14 @@
       <c r="B11" s="375"/>
       <c r="C11" s="371"/>
       <c r="D11" s="371"/>
-      <c r="E11" s="382" t="s">
+      <c r="E11" s="381" t="s">
         <v>268</v>
       </c>
-      <c r="F11" s="382"/>
-      <c r="G11" s="380"/>
-      <c r="H11" s="380"/>
-      <c r="I11" s="380"/>
-      <c r="J11" s="380"/>
+      <c r="F11" s="381"/>
+      <c r="G11" s="379"/>
+      <c r="H11" s="379"/>
+      <c r="I11" s="379"/>
+      <c r="J11" s="379"/>
       <c r="K11" s="6"/>
       <c r="L11" s="133" t="s">
         <v>91</v>
@@ -4631,14 +4707,14 @@
       <c r="B12" s="375"/>
       <c r="C12" s="371"/>
       <c r="D12" s="371"/>
-      <c r="E12" s="382" t="s">
+      <c r="E12" s="381" t="s">
         <v>261</v>
       </c>
-      <c r="F12" s="382"/>
-      <c r="G12" s="380"/>
-      <c r="H12" s="380"/>
-      <c r="I12" s="380"/>
-      <c r="J12" s="380"/>
+      <c r="F12" s="381"/>
+      <c r="G12" s="379"/>
+      <c r="H12" s="379"/>
+      <c r="I12" s="379"/>
+      <c r="J12" s="379"/>
       <c r="K12" s="6"/>
       <c r="L12" s="133" t="s">
         <v>91</v>
@@ -4652,14 +4728,14 @@
       <c r="B13" s="375"/>
       <c r="C13" s="371"/>
       <c r="D13" s="371"/>
-      <c r="E13" s="382" t="s">
+      <c r="E13" s="381" t="s">
         <v>269</v>
       </c>
-      <c r="F13" s="382"/>
-      <c r="G13" s="380"/>
-      <c r="H13" s="380"/>
-      <c r="I13" s="380"/>
-      <c r="J13" s="380"/>
+      <c r="F13" s="381"/>
+      <c r="G13" s="379"/>
+      <c r="H13" s="379"/>
+      <c r="I13" s="379"/>
+      <c r="J13" s="379"/>
       <c r="K13" s="6"/>
       <c r="L13" s="133" t="s">
         <v>91</v>
@@ -4673,14 +4749,14 @@
       <c r="B14" s="375"/>
       <c r="C14" s="371"/>
       <c r="D14" s="371"/>
-      <c r="E14" s="382" t="s">
+      <c r="E14" s="381" t="s">
         <v>284</v>
       </c>
-      <c r="F14" s="382"/>
-      <c r="G14" s="380"/>
-      <c r="H14" s="380"/>
-      <c r="I14" s="380"/>
-      <c r="J14" s="380"/>
+      <c r="F14" s="381"/>
+      <c r="G14" s="379"/>
+      <c r="H14" s="379"/>
+      <c r="I14" s="379"/>
+      <c r="J14" s="379"/>
       <c r="K14" s="6"/>
       <c r="L14" s="133" t="s">
         <v>91</v>
@@ -4694,14 +4770,14 @@
       <c r="B15" s="375"/>
       <c r="C15" s="371"/>
       <c r="D15" s="371"/>
-      <c r="E15" s="382" t="s">
+      <c r="E15" s="381" t="s">
         <v>283</v>
       </c>
-      <c r="F15" s="382"/>
-      <c r="G15" s="380"/>
-      <c r="H15" s="380"/>
-      <c r="I15" s="380"/>
-      <c r="J15" s="380"/>
+      <c r="F15" s="381"/>
+      <c r="G15" s="379"/>
+      <c r="H15" s="379"/>
+      <c r="I15" s="379"/>
+      <c r="J15" s="379"/>
       <c r="K15" s="6"/>
       <c r="L15" s="133" t="s">
         <v>91</v>
@@ -4716,17 +4792,17 @@
       <c r="C16" s="365" t="s">
         <v>502</v>
       </c>
-      <c r="D16" s="395" t="s">
+      <c r="D16" s="390" t="s">
         <v>429</v>
       </c>
-      <c r="E16" s="382" t="s">
+      <c r="E16" s="381" t="s">
         <v>431</v>
       </c>
-      <c r="F16" s="382"/>
-      <c r="G16" s="380"/>
-      <c r="H16" s="380"/>
-      <c r="I16" s="380"/>
-      <c r="J16" s="380"/>
+      <c r="F16" s="381"/>
+      <c r="G16" s="379"/>
+      <c r="H16" s="379"/>
+      <c r="I16" s="379"/>
+      <c r="J16" s="379"/>
       <c r="K16" s="6"/>
       <c r="L16" s="133" t="s">
         <v>91</v>
@@ -4739,15 +4815,15 @@
     <row r="17" spans="2:14" ht="31" customHeight="1">
       <c r="B17" s="375"/>
       <c r="C17" s="365"/>
-      <c r="D17" s="395"/>
-      <c r="E17" s="382" t="s">
+      <c r="D17" s="390"/>
+      <c r="E17" s="381" t="s">
         <v>395</v>
       </c>
-      <c r="F17" s="382"/>
-      <c r="G17" s="380"/>
-      <c r="H17" s="380"/>
-      <c r="I17" s="380"/>
-      <c r="J17" s="380"/>
+      <c r="F17" s="381"/>
+      <c r="G17" s="379"/>
+      <c r="H17" s="379"/>
+      <c r="I17" s="379"/>
+      <c r="J17" s="379"/>
       <c r="K17" s="6"/>
       <c r="L17" s="133" t="s">
         <v>91</v>
@@ -4760,21 +4836,21 @@
     <row r="18" spans="2:14" ht="31" customHeight="1">
       <c r="B18" s="375"/>
       <c r="C18" s="365"/>
-      <c r="D18" s="395"/>
+      <c r="D18" s="390"/>
       <c r="E18" s="365" t="s">
         <v>499</v>
       </c>
-      <c r="F18" s="402" t="s">
+      <c r="F18" s="397" t="s">
         <v>445</v>
       </c>
       <c r="G18" s="365" t="s">
         <v>263</v>
       </c>
-      <c r="H18" s="381" t="s">
+      <c r="H18" s="380" t="s">
         <v>136</v>
       </c>
-      <c r="I18" s="380"/>
-      <c r="J18" s="380"/>
+      <c r="I18" s="364"/>
+      <c r="J18" s="364"/>
       <c r="K18" s="6"/>
       <c r="L18" s="133" t="s">
         <v>96</v>
@@ -4787,38 +4863,38 @@
     <row r="19" spans="2:14" ht="31" customHeight="1">
       <c r="B19" s="375"/>
       <c r="C19" s="365"/>
-      <c r="D19" s="395"/>
+      <c r="D19" s="390"/>
       <c r="E19" s="365"/>
-      <c r="F19" s="402"/>
+      <c r="F19" s="397"/>
       <c r="G19" s="365"/>
-      <c r="H19" s="381" t="s">
+      <c r="H19" s="380" t="s">
         <v>137</v>
       </c>
-      <c r="I19" s="380"/>
-      <c r="J19" s="380"/>
+      <c r="I19" s="364"/>
+      <c r="J19" s="364"/>
       <c r="K19" s="6"/>
       <c r="L19" s="133" t="s">
         <v>434</v>
       </c>
       <c r="M19" s="11"/>
-      <c r="N19" s="176" t="s">
+      <c r="N19" s="175" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="20" spans="2:14" ht="31" customHeight="1">
       <c r="B20" s="375"/>
       <c r="C20" s="365"/>
-      <c r="D20" s="395"/>
+      <c r="D20" s="390"/>
       <c r="E20" s="365"/>
-      <c r="F20" s="402"/>
+      <c r="F20" s="397"/>
       <c r="G20" s="365"/>
-      <c r="H20" s="382" t="s">
+      <c r="H20" s="381" t="s">
         <v>426</v>
       </c>
-      <c r="I20" s="381" t="s">
+      <c r="I20" s="412" t="s">
         <v>141</v>
       </c>
-      <c r="J20" s="383"/>
+      <c r="J20" s="413"/>
       <c r="K20" s="6"/>
       <c r="L20" s="133" t="s">
         <v>141</v>
@@ -4831,57 +4907,57 @@
     <row r="21" spans="2:14" ht="31" customHeight="1">
       <c r="B21" s="375"/>
       <c r="C21" s="365"/>
-      <c r="D21" s="395"/>
+      <c r="D21" s="390"/>
       <c r="E21" s="365"/>
-      <c r="F21" s="402"/>
+      <c r="F21" s="397"/>
       <c r="G21" s="365"/>
-      <c r="H21" s="382"/>
-      <c r="I21" s="384" t="s">
+      <c r="H21" s="381"/>
+      <c r="I21" s="410" t="s">
         <v>146</v>
       </c>
-      <c r="J21" s="383"/>
+      <c r="J21" s="411"/>
       <c r="K21" s="6"/>
       <c r="L21" s="133" t="s">
         <v>434</v>
       </c>
       <c r="M21" s="11"/>
-      <c r="N21" s="176" t="s">
+      <c r="N21" s="175" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="22" spans="2:14" ht="31" customHeight="1">
       <c r="B22" s="375"/>
       <c r="C22" s="365"/>
-      <c r="D22" s="395"/>
+      <c r="D22" s="390"/>
       <c r="E22" s="365"/>
-      <c r="F22" s="402"/>
+      <c r="F22" s="397"/>
       <c r="G22" s="365"/>
-      <c r="H22" s="382"/>
-      <c r="I22" s="384" t="s">
+      <c r="H22" s="381"/>
+      <c r="I22" s="410" t="s">
         <v>408</v>
       </c>
-      <c r="J22" s="383"/>
+      <c r="J22" s="411"/>
       <c r="K22" s="6"/>
       <c r="L22" s="133" t="s">
         <v>434</v>
       </c>
       <c r="M22" s="11"/>
-      <c r="N22" s="176" t="s">
+      <c r="N22" s="175" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="23" spans="2:14" ht="31" customHeight="1">
       <c r="B23" s="375"/>
       <c r="C23" s="365"/>
-      <c r="D23" s="395"/>
+      <c r="D23" s="390"/>
       <c r="E23" s="365"/>
-      <c r="F23" s="402"/>
+      <c r="F23" s="397"/>
       <c r="G23" s="365"/>
-      <c r="H23" s="382"/>
-      <c r="I23" s="384" t="s">
+      <c r="H23" s="381"/>
+      <c r="I23" s="410" t="s">
         <v>409</v>
       </c>
-      <c r="J23" s="383"/>
+      <c r="J23" s="411"/>
       <c r="K23" s="6"/>
       <c r="L23" s="133" t="s">
         <v>90</v>
@@ -4894,15 +4970,15 @@
     <row r="24" spans="2:14" ht="31" customHeight="1">
       <c r="B24" s="375"/>
       <c r="C24" s="365"/>
-      <c r="D24" s="395"/>
+      <c r="D24" s="390"/>
       <c r="E24" s="365"/>
-      <c r="F24" s="402"/>
+      <c r="F24" s="397"/>
       <c r="G24" s="365"/>
-      <c r="H24" s="382"/>
-      <c r="I24" s="384" t="s">
+      <c r="H24" s="381"/>
+      <c r="I24" s="410" t="s">
         <v>410</v>
       </c>
-      <c r="J24" s="383"/>
+      <c r="J24" s="411"/>
       <c r="K24" s="6"/>
       <c r="L24" s="133" t="s">
         <v>90</v>
@@ -4915,22 +4991,22 @@
     <row r="25" spans="2:14" ht="31" customHeight="1">
       <c r="B25" s="375"/>
       <c r="C25" s="365"/>
-      <c r="D25" s="395" t="s">
+      <c r="D25" s="390" t="s">
         <v>430</v>
       </c>
-      <c r="E25" s="382" t="s">
+      <c r="E25" s="381" t="s">
         <v>379</v>
       </c>
-      <c r="F25" s="382"/>
-      <c r="G25" s="385"/>
-      <c r="H25" s="385"/>
-      <c r="I25" s="385"/>
-      <c r="J25" s="385"/>
+      <c r="F25" s="381"/>
+      <c r="G25" s="382"/>
+      <c r="H25" s="382"/>
+      <c r="I25" s="382"/>
+      <c r="J25" s="382"/>
       <c r="K25" s="6"/>
       <c r="L25" s="133" t="s">
         <v>91</v>
       </c>
-      <c r="M25" s="178"/>
+      <c r="M25" s="177"/>
       <c r="N25" s="138" t="s">
         <v>440</v>
       </c>
@@ -4938,15 +5014,15 @@
     <row r="26" spans="2:14" ht="31" customHeight="1">
       <c r="B26" s="375"/>
       <c r="C26" s="365"/>
-      <c r="D26" s="395"/>
-      <c r="E26" s="382" t="s">
+      <c r="D26" s="390"/>
+      <c r="E26" s="381" t="s">
         <v>279</v>
       </c>
-      <c r="F26" s="382"/>
-      <c r="G26" s="385"/>
-      <c r="H26" s="385"/>
-      <c r="I26" s="385"/>
-      <c r="J26" s="385"/>
+      <c r="F26" s="381"/>
+      <c r="G26" s="382"/>
+      <c r="H26" s="382"/>
+      <c r="I26" s="382"/>
+      <c r="J26" s="382"/>
       <c r="K26" s="6"/>
       <c r="L26" s="133" t="s">
         <v>90</v>
@@ -4959,15 +5035,15 @@
     <row r="27" spans="2:14" ht="31" customHeight="1">
       <c r="B27" s="375"/>
       <c r="C27" s="365"/>
-      <c r="D27" s="395"/>
-      <c r="E27" s="382" t="s">
+      <c r="D27" s="390"/>
+      <c r="E27" s="381" t="s">
         <v>507</v>
       </c>
-      <c r="F27" s="382"/>
-      <c r="G27" s="385"/>
-      <c r="H27" s="385"/>
-      <c r="I27" s="385"/>
-      <c r="J27" s="385"/>
+      <c r="F27" s="381"/>
+      <c r="G27" s="382"/>
+      <c r="H27" s="382"/>
+      <c r="I27" s="382"/>
+      <c r="J27" s="382"/>
       <c r="K27" s="6"/>
       <c r="L27" s="133" t="s">
         <v>90</v>
@@ -4980,15 +5056,15 @@
     <row r="28" spans="2:14" ht="31" customHeight="1">
       <c r="B28" s="375"/>
       <c r="C28" s="365"/>
-      <c r="D28" s="395"/>
-      <c r="E28" s="382" t="s">
+      <c r="D28" s="390"/>
+      <c r="E28" s="381" t="s">
         <v>399</v>
       </c>
-      <c r="F28" s="382"/>
-      <c r="G28" s="385"/>
-      <c r="H28" s="385"/>
-      <c r="I28" s="385"/>
-      <c r="J28" s="385"/>
+      <c r="F28" s="381"/>
+      <c r="G28" s="382"/>
+      <c r="H28" s="382"/>
+      <c r="I28" s="382"/>
+      <c r="J28" s="382"/>
       <c r="K28" s="6"/>
       <c r="L28" s="133" t="s">
         <v>91</v>
@@ -5001,21 +5077,21 @@
     <row r="29" spans="2:14" ht="31" customHeight="1">
       <c r="B29" s="375"/>
       <c r="C29" s="365"/>
-      <c r="D29" s="395"/>
+      <c r="D29" s="390"/>
       <c r="E29" s="365" t="s">
         <v>500</v>
       </c>
-      <c r="F29" s="402" t="s">
+      <c r="F29" s="397" t="s">
         <v>444</v>
       </c>
       <c r="G29" s="365" t="s">
         <v>263</v>
       </c>
-      <c r="H29" s="386" t="s">
+      <c r="H29" s="383" t="s">
         <v>136</v>
       </c>
-      <c r="I29" s="385"/>
-      <c r="J29" s="385"/>
+      <c r="I29" s="364"/>
+      <c r="J29" s="364"/>
       <c r="K29" s="6"/>
       <c r="L29" s="133" t="s">
         <v>122</v>
@@ -5028,36 +5104,36 @@
     <row r="30" spans="2:14" ht="31" customHeight="1">
       <c r="B30" s="375"/>
       <c r="C30" s="365"/>
-      <c r="D30" s="395"/>
+      <c r="D30" s="390"/>
       <c r="E30" s="365"/>
-      <c r="F30" s="402"/>
+      <c r="F30" s="397"/>
       <c r="G30" s="365"/>
-      <c r="H30" s="386" t="s">
+      <c r="H30" s="383" t="s">
         <v>137</v>
       </c>
-      <c r="I30" s="385"/>
-      <c r="J30" s="385"/>
+      <c r="I30" s="364"/>
+      <c r="J30" s="364"/>
       <c r="K30" s="6"/>
       <c r="L30" s="133" t="s">
         <v>434</v>
       </c>
       <c r="M30" s="11"/>
-      <c r="N30" s="176" t="s">
+      <c r="N30" s="175" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="31" spans="2:14" ht="31" customHeight="1">
       <c r="B31" s="375"/>
       <c r="C31" s="365"/>
-      <c r="D31" s="395"/>
+      <c r="D31" s="390"/>
       <c r="E31" s="365"/>
-      <c r="F31" s="402"/>
+      <c r="F31" s="397"/>
       <c r="G31" s="365"/>
-      <c r="H31" s="386" t="s">
+      <c r="H31" s="383" t="s">
         <v>282</v>
       </c>
-      <c r="I31" s="385"/>
-      <c r="J31" s="385"/>
+      <c r="I31" s="364"/>
+      <c r="J31" s="364"/>
       <c r="K31" s="6"/>
       <c r="L31" s="133" t="s">
         <v>122</v>
@@ -5070,15 +5146,15 @@
     <row r="32" spans="2:14" ht="31" customHeight="1">
       <c r="B32" s="375"/>
       <c r="C32" s="365"/>
-      <c r="D32" s="395"/>
+      <c r="D32" s="390"/>
       <c r="E32" s="365"/>
-      <c r="F32" s="402"/>
+      <c r="F32" s="397"/>
       <c r="G32" s="365"/>
-      <c r="H32" s="386" t="s">
+      <c r="H32" s="383" t="s">
         <v>281</v>
       </c>
-      <c r="I32" s="385"/>
-      <c r="J32" s="385"/>
+      <c r="I32" s="364"/>
+      <c r="J32" s="364"/>
       <c r="K32" s="6"/>
       <c r="L32" s="133" t="s">
         <v>122</v>
@@ -5091,17 +5167,17 @@
     <row r="33" spans="2:14" ht="31" customHeight="1">
       <c r="B33" s="375"/>
       <c r="C33" s="365"/>
-      <c r="D33" s="395"/>
+      <c r="D33" s="390"/>
       <c r="E33" s="365"/>
-      <c r="F33" s="402"/>
+      <c r="F33" s="397"/>
       <c r="G33" s="365"/>
-      <c r="H33" s="387" t="s">
+      <c r="H33" s="384" t="s">
         <v>426</v>
       </c>
-      <c r="I33" s="386" t="s">
+      <c r="I33" s="384" t="s">
         <v>141</v>
       </c>
-      <c r="J33" s="388"/>
+      <c r="J33" s="384"/>
       <c r="K33" s="6"/>
       <c r="L33" s="133" t="s">
         <v>141</v>
@@ -5114,36 +5190,36 @@
     <row r="34" spans="2:14" ht="31" customHeight="1">
       <c r="B34" s="375"/>
       <c r="C34" s="365"/>
-      <c r="D34" s="395"/>
+      <c r="D34" s="390"/>
       <c r="E34" s="365"/>
-      <c r="F34" s="402"/>
+      <c r="F34" s="397"/>
       <c r="G34" s="365"/>
-      <c r="H34" s="387"/>
-      <c r="I34" s="386" t="s">
+      <c r="H34" s="384"/>
+      <c r="I34" s="384" t="s">
         <v>146</v>
       </c>
-      <c r="J34" s="388"/>
+      <c r="J34" s="384"/>
       <c r="K34" s="6"/>
       <c r="L34" s="133" t="s">
         <v>434</v>
       </c>
       <c r="M34" s="11"/>
-      <c r="N34" s="176" t="s">
+      <c r="N34" s="175" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="35" spans="2:14" ht="31" customHeight="1">
       <c r="B35" s="375"/>
       <c r="C35" s="365"/>
-      <c r="D35" s="395"/>
+      <c r="D35" s="390"/>
       <c r="E35" s="365"/>
-      <c r="F35" s="402"/>
+      <c r="F35" s="397"/>
       <c r="G35" s="365"/>
-      <c r="H35" s="387"/>
-      <c r="I35" s="386" t="s">
+      <c r="H35" s="384"/>
+      <c r="I35" s="384" t="s">
         <v>400</v>
       </c>
-      <c r="J35" s="388"/>
+      <c r="J35" s="384"/>
       <c r="K35" s="6"/>
       <c r="L35" s="133" t="s">
         <v>90</v>
@@ -5156,15 +5232,15 @@
     <row r="36" spans="2:14" ht="31" customHeight="1">
       <c r="B36" s="375"/>
       <c r="C36" s="365"/>
-      <c r="D36" s="395"/>
+      <c r="D36" s="390"/>
       <c r="E36" s="365"/>
-      <c r="F36" s="402"/>
+      <c r="F36" s="397"/>
       <c r="G36" s="365"/>
-      <c r="H36" s="387"/>
-      <c r="I36" s="386" t="s">
+      <c r="H36" s="384"/>
+      <c r="I36" s="384" t="s">
         <v>401</v>
       </c>
-      <c r="J36" s="388"/>
+      <c r="J36" s="384"/>
       <c r="K36" s="6"/>
       <c r="L36" s="133" t="s">
         <v>90</v>
@@ -5177,17 +5253,17 @@
     <row r="37" spans="2:14" ht="31" customHeight="1">
       <c r="B37" s="375"/>
       <c r="C37" s="365"/>
-      <c r="D37" s="395"/>
+      <c r="D37" s="390"/>
       <c r="E37" s="365"/>
-      <c r="F37" s="402"/>
+      <c r="F37" s="397"/>
       <c r="G37" s="365"/>
-      <c r="H37" s="387" t="s">
+      <c r="H37" s="384" t="s">
         <v>140</v>
       </c>
-      <c r="I37" s="386" t="s">
+      <c r="I37" s="384" t="s">
         <v>141</v>
       </c>
-      <c r="J37" s="388"/>
+      <c r="J37" s="384"/>
       <c r="K37" s="6"/>
       <c r="L37" s="133" t="s">
         <v>141</v>
@@ -5200,36 +5276,36 @@
     <row r="38" spans="2:14" ht="31" customHeight="1">
       <c r="B38" s="375"/>
       <c r="C38" s="365"/>
-      <c r="D38" s="395"/>
+      <c r="D38" s="390"/>
       <c r="E38" s="365"/>
-      <c r="F38" s="402"/>
+      <c r="F38" s="397"/>
       <c r="G38" s="365"/>
-      <c r="H38" s="387"/>
-      <c r="I38" s="386" t="s">
+      <c r="H38" s="384"/>
+      <c r="I38" s="384" t="s">
         <v>142</v>
       </c>
-      <c r="J38" s="388"/>
+      <c r="J38" s="384"/>
       <c r="K38" s="6"/>
       <c r="L38" s="133" t="s">
         <v>434</v>
       </c>
       <c r="M38" s="11"/>
-      <c r="N38" s="176" t="s">
+      <c r="N38" s="175" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="39" spans="2:14" ht="31" customHeight="1">
       <c r="B39" s="375"/>
       <c r="C39" s="365"/>
-      <c r="D39" s="395"/>
+      <c r="D39" s="390"/>
       <c r="E39" s="365"/>
-      <c r="F39" s="402"/>
+      <c r="F39" s="397"/>
       <c r="G39" s="365"/>
-      <c r="H39" s="387"/>
-      <c r="I39" s="386" t="s">
+      <c r="H39" s="384"/>
+      <c r="I39" s="384" t="s">
         <v>143</v>
       </c>
-      <c r="J39" s="388"/>
+      <c r="J39" s="384"/>
       <c r="K39" s="6"/>
       <c r="L39" s="133" t="s">
         <v>442</v>
@@ -5242,21 +5318,21 @@
     <row r="40" spans="2:14" ht="31" customHeight="1">
       <c r="B40" s="375"/>
       <c r="C40" s="365"/>
-      <c r="D40" s="395"/>
+      <c r="D40" s="390"/>
       <c r="E40" s="365"/>
-      <c r="F40" s="402"/>
+      <c r="F40" s="397"/>
       <c r="G40" s="365"/>
-      <c r="H40" s="387"/>
-      <c r="I40" s="386" t="s">
+      <c r="H40" s="384"/>
+      <c r="I40" s="384" t="s">
         <v>144</v>
       </c>
-      <c r="J40" s="388"/>
+      <c r="J40" s="384"/>
       <c r="K40" s="6"/>
       <c r="L40" s="133" t="s">
         <v>434</v>
       </c>
       <c r="M40" s="11"/>
-      <c r="N40" s="176" t="s">
+      <c r="N40" s="175" t="s">
         <v>157</v>
       </c>
     </row>
@@ -5265,15 +5341,15 @@
       <c r="C41" s="371" t="s">
         <v>28</v>
       </c>
-      <c r="D41" s="401" t="s">
+      <c r="D41" s="396" t="s">
         <v>446</v>
       </c>
-      <c r="E41" s="389"/>
-      <c r="F41" s="389"/>
-      <c r="G41" s="389"/>
-      <c r="H41" s="389"/>
-      <c r="I41" s="389"/>
-      <c r="J41" s="389"/>
+      <c r="E41" s="385"/>
+      <c r="F41" s="385"/>
+      <c r="G41" s="385"/>
+      <c r="H41" s="385"/>
+      <c r="I41" s="385"/>
+      <c r="J41" s="385"/>
       <c r="K41" s="6"/>
       <c r="L41" s="133" t="s">
         <v>434</v>
@@ -5286,15 +5362,15 @@
     <row r="42" spans="2:14" ht="31" customHeight="1">
       <c r="B42" s="375"/>
       <c r="C42" s="371"/>
-      <c r="D42" s="401" t="s">
+      <c r="D42" s="396" t="s">
         <v>447</v>
       </c>
-      <c r="E42" s="389"/>
-      <c r="F42" s="389"/>
-      <c r="G42" s="389"/>
-      <c r="H42" s="389"/>
-      <c r="I42" s="389"/>
-      <c r="J42" s="389"/>
+      <c r="E42" s="385"/>
+      <c r="F42" s="385"/>
+      <c r="G42" s="385"/>
+      <c r="H42" s="385"/>
+      <c r="I42" s="385"/>
+      <c r="J42" s="385"/>
       <c r="K42" s="6"/>
       <c r="L42" s="133" t="s">
         <v>434</v>
@@ -5307,15 +5383,15 @@
     <row r="43" spans="2:14" ht="31" customHeight="1">
       <c r="B43" s="375"/>
       <c r="C43" s="371"/>
-      <c r="D43" s="401" t="s">
+      <c r="D43" s="396" t="s">
         <v>448</v>
       </c>
-      <c r="E43" s="389"/>
-      <c r="F43" s="389"/>
-      <c r="G43" s="389"/>
-      <c r="H43" s="389"/>
-      <c r="I43" s="389"/>
-      <c r="J43" s="389"/>
+      <c r="E43" s="385"/>
+      <c r="F43" s="385"/>
+      <c r="G43" s="385"/>
+      <c r="H43" s="385"/>
+      <c r="I43" s="385"/>
+      <c r="J43" s="385"/>
       <c r="K43" s="6"/>
       <c r="L43" s="133" t="s">
         <v>434</v>
@@ -5328,15 +5404,15 @@
     <row r="44" spans="2:14" ht="31" customHeight="1">
       <c r="B44" s="375"/>
       <c r="C44" s="371"/>
-      <c r="D44" s="401" t="s">
+      <c r="D44" s="396" t="s">
         <v>449</v>
       </c>
-      <c r="E44" s="389"/>
-      <c r="F44" s="389"/>
-      <c r="G44" s="389"/>
-      <c r="H44" s="389"/>
-      <c r="I44" s="389"/>
-      <c r="J44" s="389"/>
+      <c r="E44" s="385"/>
+      <c r="F44" s="385"/>
+      <c r="G44" s="385"/>
+      <c r="H44" s="385"/>
+      <c r="I44" s="385"/>
+      <c r="J44" s="385"/>
       <c r="K44" s="6"/>
       <c r="L44" s="133" t="s">
         <v>90</v>
@@ -5349,15 +5425,15 @@
     <row r="45" spans="2:14" ht="31" customHeight="1">
       <c r="B45" s="375"/>
       <c r="C45" s="371"/>
-      <c r="D45" s="401" t="s">
+      <c r="D45" s="396" t="s">
         <v>450</v>
       </c>
-      <c r="E45" s="389"/>
-      <c r="F45" s="389"/>
-      <c r="G45" s="389"/>
-      <c r="H45" s="389"/>
-      <c r="I45" s="389"/>
-      <c r="J45" s="389"/>
+      <c r="E45" s="385"/>
+      <c r="F45" s="385"/>
+      <c r="G45" s="385"/>
+      <c r="H45" s="385"/>
+      <c r="I45" s="385"/>
+      <c r="J45" s="385"/>
       <c r="K45" s="6"/>
       <c r="L45" s="133" t="s">
         <v>90</v>
@@ -5370,15 +5446,15 @@
     <row r="46" spans="2:14" ht="31" customHeight="1">
       <c r="B46" s="375"/>
       <c r="C46" s="371"/>
-      <c r="D46" s="401" t="s">
+      <c r="D46" s="396" t="s">
         <v>451</v>
       </c>
-      <c r="E46" s="389"/>
-      <c r="F46" s="389"/>
-      <c r="G46" s="389"/>
-      <c r="H46" s="389"/>
-      <c r="I46" s="389"/>
-      <c r="J46" s="389"/>
+      <c r="E46" s="385"/>
+      <c r="F46" s="385"/>
+      <c r="G46" s="385"/>
+      <c r="H46" s="385"/>
+      <c r="I46" s="385"/>
+      <c r="J46" s="385"/>
       <c r="K46" s="6"/>
       <c r="L46" s="133" t="s">
         <v>90</v>
@@ -5396,14 +5472,14 @@
         <v>275</v>
       </c>
       <c r="D47" s="371"/>
-      <c r="E47" s="382" t="s">
+      <c r="E47" s="381" t="s">
         <v>258</v>
       </c>
-      <c r="F47" s="382"/>
-      <c r="G47" s="380"/>
-      <c r="H47" s="380"/>
-      <c r="I47" s="380"/>
-      <c r="J47" s="380"/>
+      <c r="F47" s="381"/>
+      <c r="G47" s="379"/>
+      <c r="H47" s="379"/>
+      <c r="I47" s="379"/>
+      <c r="J47" s="379"/>
       <c r="K47" s="6"/>
       <c r="L47" s="133" t="s">
         <v>113</v>
@@ -5415,14 +5491,14 @@
       <c r="B48" s="375"/>
       <c r="C48" s="371"/>
       <c r="D48" s="371"/>
-      <c r="E48" s="382" t="s">
+      <c r="E48" s="381" t="s">
         <v>274</v>
       </c>
-      <c r="F48" s="382"/>
-      <c r="G48" s="380"/>
-      <c r="H48" s="380"/>
-      <c r="I48" s="380"/>
-      <c r="J48" s="380"/>
+      <c r="F48" s="381"/>
+      <c r="G48" s="379"/>
+      <c r="H48" s="379"/>
+      <c r="I48" s="379"/>
+      <c r="J48" s="379"/>
       <c r="L48" s="133" t="s">
         <v>113</v>
       </c>
@@ -5433,14 +5509,14 @@
       <c r="B49" s="375"/>
       <c r="C49" s="371"/>
       <c r="D49" s="371"/>
-      <c r="E49" s="382" t="s">
+      <c r="E49" s="381" t="s">
         <v>277</v>
       </c>
-      <c r="F49" s="382"/>
-      <c r="G49" s="380"/>
-      <c r="H49" s="380"/>
-      <c r="I49" s="380"/>
-      <c r="J49" s="380"/>
+      <c r="F49" s="381"/>
+      <c r="G49" s="379"/>
+      <c r="H49" s="379"/>
+      <c r="I49" s="379"/>
+      <c r="J49" s="379"/>
       <c r="L49" s="133" t="s">
         <v>113</v>
       </c>
@@ -5451,14 +5527,14 @@
       <c r="B50" s="375"/>
       <c r="C50" s="371"/>
       <c r="D50" s="371"/>
-      <c r="E50" s="382" t="s">
+      <c r="E50" s="381" t="s">
         <v>261</v>
       </c>
-      <c r="F50" s="382"/>
-      <c r="G50" s="380"/>
-      <c r="H50" s="380"/>
-      <c r="I50" s="380"/>
-      <c r="J50" s="380"/>
+      <c r="F50" s="381"/>
+      <c r="G50" s="379"/>
+      <c r="H50" s="379"/>
+      <c r="I50" s="379"/>
+      <c r="J50" s="379"/>
       <c r="L50" s="133" t="s">
         <v>113</v>
       </c>
@@ -5469,14 +5545,14 @@
       <c r="B51" s="375"/>
       <c r="C51" s="371"/>
       <c r="D51" s="371"/>
-      <c r="E51" s="382" t="s">
+      <c r="E51" s="381" t="s">
         <v>273</v>
       </c>
-      <c r="F51" s="382"/>
-      <c r="G51" s="380"/>
-      <c r="H51" s="380"/>
-      <c r="I51" s="380"/>
-      <c r="J51" s="380"/>
+      <c r="F51" s="381"/>
+      <c r="G51" s="379"/>
+      <c r="H51" s="379"/>
+      <c r="I51" s="379"/>
+      <c r="J51" s="379"/>
       <c r="L51" s="133" t="s">
         <v>113</v>
       </c>
@@ -5489,14 +5565,14 @@
         <v>276</v>
       </c>
       <c r="D52" s="371"/>
-      <c r="E52" s="382" t="s">
+      <c r="E52" s="381" t="s">
         <v>508</v>
       </c>
-      <c r="F52" s="382"/>
-      <c r="G52" s="380"/>
-      <c r="H52" s="380"/>
-      <c r="I52" s="380"/>
-      <c r="J52" s="380"/>
+      <c r="F52" s="381"/>
+      <c r="G52" s="379"/>
+      <c r="H52" s="379"/>
+      <c r="I52" s="379"/>
+      <c r="J52" s="379"/>
       <c r="L52" s="133" t="s">
         <v>97</v>
       </c>
@@ -5507,18 +5583,18 @@
       <c r="B53" s="375"/>
       <c r="C53" s="371"/>
       <c r="D53" s="371"/>
-      <c r="E53" s="382" t="s">
+      <c r="E53" s="381" t="s">
         <v>272</v>
       </c>
-      <c r="F53" s="382"/>
-      <c r="G53" s="380"/>
-      <c r="H53" s="380"/>
-      <c r="I53" s="380"/>
-      <c r="J53" s="380"/>
+      <c r="F53" s="381"/>
+      <c r="G53" s="379"/>
+      <c r="H53" s="379"/>
+      <c r="I53" s="379"/>
+      <c r="J53" s="379"/>
       <c r="L53" s="133" t="s">
         <v>97</v>
       </c>
-      <c r="M53" s="176" t="s">
+      <c r="M53" s="175" t="s">
         <v>114</v>
       </c>
       <c r="N53" s="11"/>
@@ -5527,14 +5603,14 @@
       <c r="B54" s="375"/>
       <c r="C54" s="371"/>
       <c r="D54" s="371"/>
-      <c r="E54" s="382" t="s">
+      <c r="E54" s="381" t="s">
         <v>44</v>
       </c>
-      <c r="F54" s="382"/>
-      <c r="G54" s="380"/>
-      <c r="H54" s="380"/>
-      <c r="I54" s="380"/>
-      <c r="J54" s="380"/>
+      <c r="F54" s="381"/>
+      <c r="G54" s="379"/>
+      <c r="H54" s="379"/>
+      <c r="I54" s="379"/>
+      <c r="J54" s="379"/>
       <c r="L54" s="133" t="s">
         <v>97</v>
       </c>
@@ -5545,14 +5621,14 @@
       <c r="B55" s="375"/>
       <c r="C55" s="371"/>
       <c r="D55" s="371"/>
-      <c r="E55" s="382" t="s">
+      <c r="E55" s="381" t="s">
         <v>273</v>
       </c>
-      <c r="F55" s="382"/>
-      <c r="G55" s="380"/>
-      <c r="H55" s="380"/>
-      <c r="I55" s="380"/>
-      <c r="J55" s="380"/>
+      <c r="F55" s="381"/>
+      <c r="G55" s="379"/>
+      <c r="H55" s="379"/>
+      <c r="I55" s="379"/>
+      <c r="J55" s="379"/>
       <c r="L55" s="133" t="s">
         <v>97</v>
       </c>
@@ -5567,16 +5643,16 @@
         <v>513</v>
       </c>
       <c r="D56" s="371"/>
-      <c r="E56" s="380"/>
-      <c r="F56" s="380"/>
-      <c r="G56" s="380"/>
-      <c r="H56" s="380"/>
-      <c r="I56" s="380"/>
-      <c r="J56" s="380"/>
+      <c r="E56" s="379"/>
+      <c r="F56" s="379"/>
+      <c r="G56" s="379"/>
+      <c r="H56" s="379"/>
+      <c r="I56" s="379"/>
+      <c r="J56" s="379"/>
       <c r="L56" s="133" t="s">
         <v>453</v>
       </c>
-      <c r="M56" s="178"/>
+      <c r="M56" s="177"/>
       <c r="N56" s="116" t="s">
         <v>454</v>
       </c>
@@ -5587,12 +5663,12 @@
         <v>510</v>
       </c>
       <c r="D57" s="371"/>
-      <c r="E57" s="380"/>
-      <c r="F57" s="380"/>
-      <c r="G57" s="380"/>
-      <c r="H57" s="380"/>
-      <c r="I57" s="380"/>
-      <c r="J57" s="380"/>
+      <c r="E57" s="379"/>
+      <c r="F57" s="379"/>
+      <c r="G57" s="379"/>
+      <c r="H57" s="379"/>
+      <c r="I57" s="379"/>
+      <c r="J57" s="379"/>
       <c r="L57" s="133" t="s">
         <v>91</v>
       </c>
@@ -5607,12 +5683,12 @@
         <v>512</v>
       </c>
       <c r="D58" s="371"/>
-      <c r="E58" s="380"/>
-      <c r="F58" s="380"/>
-      <c r="G58" s="380"/>
-      <c r="H58" s="380"/>
-      <c r="I58" s="380"/>
-      <c r="J58" s="380"/>
+      <c r="E58" s="379"/>
+      <c r="F58" s="379"/>
+      <c r="G58" s="379"/>
+      <c r="H58" s="379"/>
+      <c r="I58" s="379"/>
+      <c r="J58" s="379"/>
       <c r="L58" s="133" t="s">
         <v>97</v>
       </c>
@@ -5623,54 +5699,54 @@
     </row>
     <row r="59" spans="2:15" ht="31" customHeight="1">
       <c r="B59" s="375"/>
-      <c r="C59" s="390"/>
-      <c r="D59" s="390"/>
-      <c r="E59" s="390"/>
-      <c r="F59" s="390"/>
-      <c r="G59" s="390"/>
-      <c r="H59" s="390"/>
-      <c r="I59" s="390"/>
-      <c r="J59" s="390"/>
-      <c r="K59" s="362"/>
+      <c r="C59" s="386"/>
+      <c r="D59" s="386"/>
+      <c r="E59" s="386"/>
+      <c r="F59" s="386"/>
+      <c r="G59" s="386"/>
+      <c r="H59" s="386"/>
+      <c r="I59" s="386"/>
+      <c r="J59" s="386"/>
+      <c r="K59" s="361"/>
       <c r="L59" s="366"/>
       <c r="M59" s="366"/>
       <c r="N59" s="366"/>
-      <c r="O59" s="362"/>
+      <c r="O59" s="361"/>
     </row>
     <row r="60" spans="2:15" ht="31" customHeight="1">
       <c r="B60" s="375"/>
-      <c r="C60" s="390"/>
-      <c r="D60" s="390"/>
-      <c r="E60" s="390"/>
-      <c r="F60" s="390"/>
-      <c r="G60" s="390"/>
-      <c r="H60" s="390"/>
-      <c r="I60" s="390"/>
-      <c r="J60" s="390"/>
-      <c r="K60" s="362"/>
+      <c r="C60" s="386"/>
+      <c r="D60" s="386"/>
+      <c r="E60" s="386"/>
+      <c r="F60" s="386"/>
+      <c r="G60" s="386"/>
+      <c r="H60" s="386"/>
+      <c r="I60" s="386"/>
+      <c r="J60" s="386"/>
+      <c r="K60" s="361"/>
       <c r="L60" s="366"/>
       <c r="M60" s="366"/>
       <c r="N60" s="366"/>
-      <c r="O60" s="362"/>
+      <c r="O60" s="361"/>
     </row>
     <row r="61" spans="2:15" ht="31" customHeight="1">
       <c r="B61" s="375" t="s">
         <v>310</v>
       </c>
-      <c r="C61" s="395" t="s">
+      <c r="C61" s="390" t="s">
         <v>290</v>
       </c>
-      <c r="D61" s="395"/>
-      <c r="E61" s="399" t="s">
+      <c r="D61" s="390"/>
+      <c r="E61" s="394" t="s">
         <v>269</v>
       </c>
-      <c r="F61" s="400" t="s">
+      <c r="F61" s="395" t="s">
         <v>455</v>
       </c>
-      <c r="G61" s="380"/>
-      <c r="H61" s="380"/>
-      <c r="I61" s="380"/>
-      <c r="J61" s="380"/>
+      <c r="G61" s="379"/>
+      <c r="H61" s="379"/>
+      <c r="I61" s="379"/>
+      <c r="J61" s="379"/>
       <c r="L61" s="133" t="s">
         <v>453</v>
       </c>
@@ -5683,20 +5759,20 @@
     </row>
     <row r="62" spans="2:15" ht="31" customHeight="1">
       <c r="B62" s="375"/>
-      <c r="C62" s="395" t="s">
+      <c r="C62" s="390" t="s">
         <v>387</v>
       </c>
-      <c r="D62" s="395"/>
-      <c r="E62" s="399" t="s">
+      <c r="D62" s="390"/>
+      <c r="E62" s="394" t="s">
         <v>269</v>
       </c>
-      <c r="F62" s="400" t="s">
+      <c r="F62" s="395" t="s">
         <v>456</v>
       </c>
-      <c r="G62" s="380"/>
-      <c r="H62" s="380"/>
-      <c r="I62" s="380"/>
-      <c r="J62" s="380"/>
+      <c r="G62" s="379"/>
+      <c r="H62" s="379"/>
+      <c r="I62" s="379"/>
+      <c r="J62" s="379"/>
       <c r="L62" s="133" t="s">
         <v>453</v>
       </c>
@@ -5709,238 +5785,223 @@
     </row>
     <row r="63" spans="2:15" ht="31" customHeight="1">
       <c r="B63" s="375"/>
-      <c r="C63" s="395" t="s">
-        <v>515</v>
-      </c>
-      <c r="D63" s="395"/>
-      <c r="E63" s="380"/>
-      <c r="F63" s="380"/>
-      <c r="G63" s="380"/>
-      <c r="H63" s="380"/>
-      <c r="I63" s="380"/>
-      <c r="J63" s="380"/>
+      <c r="C63" s="398" t="s">
+        <v>387</v>
+      </c>
+      <c r="D63" s="399"/>
+      <c r="E63" s="404" t="s">
+        <v>269</v>
+      </c>
+      <c r="F63" s="407" t="s">
+        <v>455</v>
+      </c>
+      <c r="G63" s="381" t="s">
+        <v>591</v>
+      </c>
+      <c r="H63" s="381"/>
+      <c r="I63" s="364"/>
+      <c r="J63" s="364"/>
       <c r="L63" s="133" t="s">
-        <v>474</v>
-      </c>
-      <c r="M63" s="141"/>
+        <v>597</v>
+      </c>
+      <c r="M63" s="141" t="s">
+        <v>473</v>
+      </c>
       <c r="N63" s="11"/>
     </row>
     <row r="64" spans="2:15" ht="31" customHeight="1">
       <c r="B64" s="375"/>
-      <c r="C64" s="371" t="s">
-        <v>259</v>
-      </c>
-      <c r="D64" s="371"/>
-      <c r="E64" s="382" t="s">
-        <v>270</v>
-      </c>
-      <c r="F64" s="382"/>
-      <c r="G64" s="380"/>
-      <c r="H64" s="380"/>
-      <c r="I64" s="380"/>
-      <c r="J64" s="380"/>
+      <c r="C64" s="400"/>
+      <c r="D64" s="401"/>
+      <c r="E64" s="405"/>
+      <c r="F64" s="408"/>
+      <c r="G64" s="412" t="s">
+        <v>505</v>
+      </c>
+      <c r="H64" s="413"/>
+      <c r="I64" s="364"/>
+      <c r="J64" s="364"/>
       <c r="L64" s="133" t="s">
-        <v>90</v>
-      </c>
-      <c r="M64" s="116">
-        <v>7</v>
+        <v>122</v>
+      </c>
+      <c r="M64" s="116" t="s">
+        <v>411</v>
       </c>
       <c r="N64" s="11"/>
     </row>
     <row r="65" spans="2:15" ht="31" customHeight="1">
       <c r="B65" s="375"/>
-      <c r="C65" s="371"/>
-      <c r="D65" s="371"/>
-      <c r="E65" s="382" t="s">
-        <v>268</v>
-      </c>
-      <c r="F65" s="382"/>
-      <c r="G65" s="380"/>
-      <c r="H65" s="380"/>
-      <c r="I65" s="380"/>
-      <c r="J65" s="380"/>
+      <c r="C65" s="400"/>
+      <c r="D65" s="401"/>
+      <c r="E65" s="405"/>
+      <c r="F65" s="408"/>
+      <c r="G65" s="414" t="s">
+        <v>501</v>
+      </c>
+      <c r="H65" s="415"/>
+      <c r="I65" s="367" t="s">
+        <v>484</v>
+      </c>
+      <c r="J65" s="387" t="s">
+        <v>477</v>
+      </c>
       <c r="L65" s="133" t="s">
-        <v>91</v>
-      </c>
-      <c r="M65" s="141" t="s">
-        <v>481</v>
+        <v>122</v>
+      </c>
+      <c r="M65" s="116" t="s">
+        <v>411</v>
       </c>
       <c r="N65" s="11"/>
     </row>
     <row r="66" spans="2:15" ht="31" customHeight="1">
       <c r="B66" s="375"/>
-      <c r="C66" s="371"/>
-      <c r="D66" s="371"/>
-      <c r="E66" s="382" t="s">
-        <v>314</v>
-      </c>
-      <c r="F66" s="382"/>
-      <c r="G66" s="173" t="s">
-        <v>269</v>
-      </c>
-      <c r="H66" s="391" t="s">
-        <v>458</v>
-      </c>
-      <c r="I66" s="380"/>
-      <c r="J66" s="380"/>
+      <c r="C66" s="400"/>
+      <c r="D66" s="401"/>
+      <c r="E66" s="406"/>
+      <c r="F66" s="409"/>
+      <c r="G66" s="416"/>
+      <c r="H66" s="417"/>
+      <c r="I66" s="368"/>
+      <c r="J66" s="387" t="s">
+        <v>482</v>
+      </c>
       <c r="L66" s="133" t="s">
-        <v>453</v>
-      </c>
-      <c r="M66" s="141" t="s">
-        <v>473</v>
-      </c>
-      <c r="N66" s="116" t="s">
-        <v>454</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="M66" s="116" t="s">
+        <v>411</v>
+      </c>
+      <c r="N66" s="11"/>
     </row>
     <row r="67" spans="2:15" ht="31" customHeight="1">
       <c r="B67" s="375"/>
-      <c r="C67" s="371"/>
-      <c r="D67" s="371"/>
-      <c r="E67" s="382" t="s">
-        <v>313</v>
-      </c>
-      <c r="F67" s="382"/>
-      <c r="G67" s="380"/>
-      <c r="H67" s="380"/>
-      <c r="I67" s="380"/>
-      <c r="J67" s="380"/>
-      <c r="L67" s="133" t="s">
-        <v>91</v>
-      </c>
-      <c r="M67" s="141" t="s">
-        <v>472</v>
-      </c>
+      <c r="C67" s="400"/>
+      <c r="D67" s="401"/>
+      <c r="E67" s="404" t="s">
+        <v>269</v>
+      </c>
+      <c r="F67" s="407" t="s">
+        <v>598</v>
+      </c>
+      <c r="G67" s="381" t="s">
+        <v>591</v>
+      </c>
+      <c r="H67" s="381"/>
+      <c r="I67" s="364"/>
+      <c r="J67" s="364"/>
+      <c r="L67" s="133"/>
+      <c r="M67" s="116"/>
       <c r="N67" s="11"/>
     </row>
     <row r="68" spans="2:15" ht="31" customHeight="1">
       <c r="B68" s="375"/>
-      <c r="C68" s="371"/>
-      <c r="D68" s="371"/>
-      <c r="E68" s="382" t="s">
-        <v>312</v>
-      </c>
-      <c r="F68" s="382"/>
-      <c r="G68" s="380"/>
-      <c r="H68" s="380"/>
-      <c r="I68" s="380"/>
-      <c r="J68" s="380"/>
-      <c r="L68" s="144" t="s">
-        <v>457</v>
-      </c>
-      <c r="M68" s="141" t="s">
-        <v>473</v>
-      </c>
-      <c r="N68" s="11"/>
-      <c r="O68" s="370" t="s">
-        <v>459</v>
-      </c>
+      <c r="C68" s="400"/>
+      <c r="D68" s="401"/>
+      <c r="E68" s="405"/>
+      <c r="F68" s="408"/>
+      <c r="G68" s="412" t="s">
+        <v>505</v>
+      </c>
+      <c r="H68" s="413"/>
+      <c r="I68" s="364"/>
+      <c r="J68" s="364"/>
+      <c r="L68" s="133"/>
+      <c r="M68" s="141"/>
+      <c r="N68" s="116"/>
     </row>
     <row r="69" spans="2:15" ht="31" customHeight="1">
-      <c r="B69" s="375" t="s">
-        <v>257</v>
-      </c>
-      <c r="C69" s="395" t="s">
-        <v>353</v>
-      </c>
-      <c r="D69" s="395"/>
-      <c r="E69" s="380"/>
-      <c r="F69" s="380"/>
-      <c r="G69" s="380"/>
-      <c r="H69" s="380"/>
-      <c r="I69" s="380"/>
-      <c r="J69" s="380"/>
-      <c r="L69" s="133" t="s">
-        <v>90</v>
-      </c>
-      <c r="M69" s="116">
-        <v>100</v>
-      </c>
-      <c r="N69" s="11"/>
+      <c r="B69" s="375"/>
+      <c r="C69" s="400"/>
+      <c r="D69" s="401"/>
+      <c r="E69" s="405"/>
+      <c r="F69" s="408"/>
+      <c r="G69" s="414" t="s">
+        <v>501</v>
+      </c>
+      <c r="H69" s="415"/>
+      <c r="I69" s="367" t="s">
+        <v>484</v>
+      </c>
+      <c r="J69" s="387" t="s">
+        <v>477</v>
+      </c>
+      <c r="L69" s="133"/>
+      <c r="M69" s="141"/>
+      <c r="N69" s="116"/>
     </row>
     <row r="70" spans="2:15" ht="31" customHeight="1">
       <c r="B70" s="375"/>
-      <c r="C70" s="395" t="s">
-        <v>354</v>
-      </c>
-      <c r="D70" s="395"/>
-      <c r="E70" s="380"/>
-      <c r="F70" s="380"/>
-      <c r="G70" s="380"/>
-      <c r="H70" s="380"/>
-      <c r="I70" s="380"/>
-      <c r="J70" s="380"/>
-      <c r="L70" s="133" t="s">
-        <v>97</v>
-      </c>
-      <c r="M70" s="175" t="s">
-        <v>107</v>
-      </c>
-      <c r="N70" s="11"/>
+      <c r="C70" s="402"/>
+      <c r="D70" s="403"/>
+      <c r="E70" s="406"/>
+      <c r="F70" s="409"/>
+      <c r="G70" s="416"/>
+      <c r="H70" s="417"/>
+      <c r="I70" s="368"/>
+      <c r="J70" s="387" t="s">
+        <v>482</v>
+      </c>
+      <c r="L70" s="133"/>
+      <c r="M70" s="141"/>
+      <c r="N70" s="116"/>
     </row>
     <row r="71" spans="2:15" ht="31" customHeight="1">
       <c r="B71" s="375"/>
-      <c r="C71" s="395" t="s">
-        <v>297</v>
-      </c>
-      <c r="D71" s="395"/>
-      <c r="E71" s="380"/>
-      <c r="F71" s="380"/>
-      <c r="G71" s="380"/>
-      <c r="H71" s="380"/>
-      <c r="I71" s="380"/>
-      <c r="J71" s="380"/>
+      <c r="C71" s="390" t="s">
+        <v>515</v>
+      </c>
+      <c r="D71" s="390"/>
+      <c r="E71" s="379"/>
+      <c r="F71" s="379"/>
+      <c r="G71" s="379"/>
+      <c r="H71" s="379"/>
+      <c r="I71" s="379"/>
+      <c r="J71" s="379"/>
       <c r="L71" s="133" t="s">
-        <v>596</v>
-      </c>
-      <c r="M71" s="116" t="s">
-        <v>99</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="M71" s="141"/>
       <c r="N71" s="11"/>
     </row>
     <row r="72" spans="2:15" ht="31" customHeight="1">
       <c r="B72" s="375"/>
-      <c r="C72" s="395" t="s">
-        <v>391</v>
-      </c>
-      <c r="D72" s="395"/>
-      <c r="E72" s="380"/>
-      <c r="F72" s="380"/>
-      <c r="G72" s="380"/>
-      <c r="H72" s="380"/>
-      <c r="I72" s="380"/>
-      <c r="J72" s="380"/>
+      <c r="C72" s="371" t="s">
+        <v>259</v>
+      </c>
+      <c r="D72" s="371"/>
+      <c r="E72" s="381" t="s">
+        <v>270</v>
+      </c>
+      <c r="F72" s="381"/>
+      <c r="G72" s="379"/>
+      <c r="H72" s="379"/>
+      <c r="I72" s="379"/>
+      <c r="J72" s="379"/>
       <c r="L72" s="133" t="s">
-        <v>91</v>
-      </c>
-      <c r="M72" s="138" t="s">
-        <v>595</v>
+        <v>90</v>
+      </c>
+      <c r="M72" s="116">
+        <v>7</v>
       </c>
       <c r="N72" s="11"/>
     </row>
     <row r="73" spans="2:15" ht="31" customHeight="1">
       <c r="B73" s="375"/>
-      <c r="C73" s="371" t="s">
-        <v>266</v>
-      </c>
+      <c r="C73" s="371"/>
       <c r="D73" s="371"/>
-      <c r="E73" s="382" t="s">
-        <v>356</v>
-      </c>
-      <c r="F73" s="382"/>
-      <c r="G73" s="174" t="s">
-        <v>466</v>
-      </c>
-      <c r="H73" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="I73" s="380"/>
-      <c r="J73" s="380"/>
+      <c r="E73" s="381" t="s">
+        <v>268</v>
+      </c>
+      <c r="F73" s="381"/>
+      <c r="G73" s="379"/>
+      <c r="H73" s="379"/>
+      <c r="I73" s="379"/>
+      <c r="J73" s="379"/>
       <c r="L73" s="133" t="s">
-        <v>122</v>
-      </c>
-      <c r="M73" s="116" t="s">
-        <v>411</v>
+        <v>91</v>
+      </c>
+      <c r="M73" s="141" t="s">
+        <v>481</v>
       </c>
       <c r="N73" s="11"/>
     </row>
@@ -5948,595 +6009,809 @@
       <c r="B74" s="375"/>
       <c r="C74" s="371"/>
       <c r="D74" s="371"/>
-      <c r="E74" s="382" t="s">
-        <v>1</v>
-      </c>
-      <c r="F74" s="382"/>
-      <c r="G74" s="174" t="s">
-        <v>465</v>
-      </c>
-      <c r="H74" s="29" t="s">
-        <v>444</v>
-      </c>
-      <c r="I74" s="380"/>
-      <c r="J74" s="380"/>
+      <c r="E74" s="381" t="s">
+        <v>314</v>
+      </c>
+      <c r="F74" s="381"/>
+      <c r="G74" s="172" t="s">
+        <v>269</v>
+      </c>
+      <c r="H74" s="387" t="s">
+        <v>458</v>
+      </c>
+      <c r="I74" s="364"/>
+      <c r="J74" s="364"/>
       <c r="L74" s="133" t="s">
-        <v>122</v>
-      </c>
-      <c r="M74" s="116" t="s">
-        <v>411</v>
-      </c>
-      <c r="N74" s="11"/>
+        <v>453</v>
+      </c>
+      <c r="M74" s="141" t="s">
+        <v>473</v>
+      </c>
+      <c r="N74" s="116" t="s">
+        <v>454</v>
+      </c>
     </row>
     <row r="75" spans="2:15" ht="31" customHeight="1">
       <c r="B75" s="375"/>
-      <c r="C75" s="395" t="s">
-        <v>479</v>
-      </c>
-      <c r="D75" s="395"/>
-      <c r="E75" s="382" t="s">
-        <v>388</v>
-      </c>
-      <c r="F75" s="382"/>
-      <c r="G75" s="380"/>
-      <c r="H75" s="380"/>
-      <c r="I75" s="380"/>
-      <c r="J75" s="380"/>
+      <c r="C75" s="371"/>
+      <c r="D75" s="371"/>
+      <c r="E75" s="381" t="s">
+        <v>313</v>
+      </c>
+      <c r="F75" s="381"/>
+      <c r="G75" s="379"/>
+      <c r="H75" s="379"/>
+      <c r="I75" s="379"/>
+      <c r="J75" s="379"/>
       <c r="L75" s="133" t="s">
-        <v>478</v>
-      </c>
-      <c r="M75" s="147" t="s">
-        <v>108</v>
+        <v>91</v>
+      </c>
+      <c r="M75" s="141" t="s">
+        <v>472</v>
       </c>
       <c r="N75" s="11"/>
     </row>
     <row r="76" spans="2:15" ht="31" customHeight="1">
       <c r="B76" s="375"/>
-      <c r="C76" s="395"/>
-      <c r="D76" s="395"/>
-      <c r="E76" s="382"/>
-      <c r="F76" s="382"/>
-      <c r="G76" s="380"/>
-      <c r="H76" s="380"/>
-      <c r="I76" s="380"/>
-      <c r="J76" s="380"/>
-      <c r="L76" s="133" t="s">
-        <v>468</v>
+      <c r="C76" s="371"/>
+      <c r="D76" s="371"/>
+      <c r="E76" s="381" t="s">
+        <v>312</v>
+      </c>
+      <c r="F76" s="381"/>
+      <c r="G76" s="379"/>
+      <c r="H76" s="379"/>
+      <c r="I76" s="379"/>
+      <c r="J76" s="379"/>
+      <c r="L76" s="144" t="s">
+        <v>457</v>
       </c>
       <c r="M76" s="141" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="N76" s="11"/>
+      <c r="O76" s="370" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="77" spans="2:15" ht="31" customHeight="1">
-      <c r="B77" s="375"/>
-      <c r="C77" s="395"/>
-      <c r="D77" s="395"/>
-      <c r="E77" s="382"/>
-      <c r="F77" s="382"/>
-      <c r="G77" s="380"/>
-      <c r="H77" s="380"/>
-      <c r="I77" s="380"/>
-      <c r="J77" s="380"/>
+      <c r="B77" s="375" t="s">
+        <v>257</v>
+      </c>
+      <c r="C77" s="390" t="s">
+        <v>353</v>
+      </c>
+      <c r="D77" s="390"/>
+      <c r="E77" s="379"/>
+      <c r="F77" s="379"/>
+      <c r="G77" s="379"/>
+      <c r="H77" s="379"/>
+      <c r="I77" s="379"/>
+      <c r="J77" s="379"/>
       <c r="L77" s="133" t="s">
-        <v>468</v>
-      </c>
-      <c r="M77" s="141" t="s">
-        <v>472</v>
+        <v>90</v>
+      </c>
+      <c r="M77" s="116">
+        <v>100</v>
       </c>
       <c r="N77" s="11"/>
     </row>
     <row r="78" spans="2:15" ht="31" customHeight="1">
       <c r="B78" s="375"/>
-      <c r="C78" s="395"/>
-      <c r="D78" s="395"/>
-      <c r="E78" s="382"/>
-      <c r="F78" s="382"/>
-      <c r="G78" s="380"/>
-      <c r="H78" s="380"/>
-      <c r="I78" s="380"/>
-      <c r="J78" s="380"/>
+      <c r="C78" s="390" t="s">
+        <v>354</v>
+      </c>
+      <c r="D78" s="390"/>
+      <c r="E78" s="379"/>
+      <c r="F78" s="379"/>
+      <c r="G78" s="379"/>
+      <c r="H78" s="379"/>
+      <c r="I78" s="379"/>
+      <c r="J78" s="379"/>
       <c r="L78" s="133" t="s">
-        <v>478</v>
-      </c>
-      <c r="M78" s="147" t="s">
-        <v>109</v>
+        <v>97</v>
+      </c>
+      <c r="M78" s="174" t="s">
+        <v>107</v>
       </c>
       <c r="N78" s="11"/>
     </row>
     <row r="79" spans="2:15" ht="31" customHeight="1">
       <c r="B79" s="375"/>
-      <c r="C79" s="395"/>
-      <c r="D79" s="395"/>
-      <c r="E79" s="382" t="s">
-        <v>516</v>
-      </c>
-      <c r="F79" s="382"/>
-      <c r="G79" s="380"/>
-      <c r="H79" s="380"/>
-      <c r="I79" s="380"/>
-      <c r="J79" s="380"/>
+      <c r="C79" s="390" t="s">
+        <v>297</v>
+      </c>
+      <c r="D79" s="390"/>
+      <c r="E79" s="379"/>
+      <c r="F79" s="379"/>
+      <c r="G79" s="379"/>
+      <c r="H79" s="379"/>
+      <c r="I79" s="379"/>
+      <c r="J79" s="379"/>
       <c r="L79" s="133" t="s">
-        <v>474</v>
-      </c>
-      <c r="M79" s="141" t="s">
-        <v>472</v>
+        <v>596</v>
+      </c>
+      <c r="M79" s="116" t="s">
+        <v>99</v>
       </c>
       <c r="N79" s="11"/>
     </row>
     <row r="80" spans="2:15" ht="31" customHeight="1">
       <c r="B80" s="375"/>
-      <c r="C80" s="395"/>
-      <c r="D80" s="395"/>
-      <c r="E80" s="382" t="s">
-        <v>422</v>
-      </c>
-      <c r="F80" s="382"/>
-      <c r="G80" s="380"/>
-      <c r="H80" s="380"/>
-      <c r="I80" s="380"/>
-      <c r="J80" s="380"/>
+      <c r="C80" s="390" t="s">
+        <v>391</v>
+      </c>
+      <c r="D80" s="390"/>
+      <c r="E80" s="379"/>
+      <c r="F80" s="379"/>
+      <c r="G80" s="379"/>
+      <c r="H80" s="379"/>
+      <c r="I80" s="379"/>
+      <c r="J80" s="379"/>
       <c r="L80" s="133" t="s">
-        <v>468</v>
-      </c>
-      <c r="M80" s="141" t="s">
-        <v>472</v>
-      </c>
-      <c r="N80" s="116" t="s">
-        <v>421</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="M80" s="138" t="s">
+        <v>595</v>
+      </c>
+      <c r="N80" s="11"/>
     </row>
     <row r="81" spans="2:14" ht="31" customHeight="1">
       <c r="B81" s="375"/>
-      <c r="C81" s="395"/>
-      <c r="D81" s="395"/>
-      <c r="E81" s="382" t="s">
-        <v>505</v>
-      </c>
-      <c r="F81" s="382"/>
-      <c r="G81" s="380"/>
-      <c r="H81" s="380"/>
-      <c r="I81" s="380"/>
-      <c r="J81" s="380"/>
+      <c r="C81" s="371" t="s">
+        <v>266</v>
+      </c>
+      <c r="D81" s="371"/>
+      <c r="E81" s="381" t="s">
+        <v>356</v>
+      </c>
+      <c r="F81" s="381"/>
+      <c r="G81" s="173" t="s">
+        <v>466</v>
+      </c>
+      <c r="H81" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="I81" s="364"/>
+      <c r="J81" s="364"/>
       <c r="L81" s="133" t="s">
         <v>122</v>
       </c>
-      <c r="M81" s="141" t="s">
-        <v>473</v>
-      </c>
-      <c r="N81" s="116" t="s">
+      <c r="M81" s="116" t="s">
         <v>411</v>
       </c>
+      <c r="N81" s="11"/>
     </row>
     <row r="82" spans="2:14" ht="31" customHeight="1">
       <c r="B82" s="375"/>
-      <c r="C82" s="395"/>
-      <c r="D82" s="395"/>
-      <c r="E82" s="382" t="s">
-        <v>501</v>
-      </c>
-      <c r="F82" s="382"/>
-      <c r="G82" s="392" t="s">
-        <v>269</v>
-      </c>
-      <c r="H82" s="393" t="s">
-        <v>455</v>
-      </c>
-      <c r="I82" s="394" t="s">
-        <v>484</v>
-      </c>
-      <c r="J82" s="391" t="s">
-        <v>477</v>
-      </c>
+      <c r="C82" s="371"/>
+      <c r="D82" s="371"/>
+      <c r="E82" s="381" t="s">
+        <v>1</v>
+      </c>
+      <c r="F82" s="381"/>
+      <c r="G82" s="173" t="s">
+        <v>465</v>
+      </c>
+      <c r="H82" s="29" t="s">
+        <v>444</v>
+      </c>
+      <c r="I82" s="364"/>
+      <c r="J82" s="364"/>
       <c r="L82" s="133" t="s">
         <v>122</v>
       </c>
-      <c r="M82" s="141" t="s">
-        <v>473</v>
-      </c>
-      <c r="N82" s="116" t="s">
+      <c r="M82" s="116" t="s">
         <v>411</v>
       </c>
+      <c r="N82" s="11"/>
     </row>
     <row r="83" spans="2:14" ht="31" customHeight="1">
       <c r="B83" s="375"/>
-      <c r="C83" s="395"/>
-      <c r="D83" s="395"/>
-      <c r="E83" s="382"/>
-      <c r="F83" s="382"/>
-      <c r="G83" s="392"/>
-      <c r="H83" s="393"/>
-      <c r="I83" s="394"/>
-      <c r="J83" s="391" t="s">
-        <v>482</v>
-      </c>
+      <c r="C83" s="390" t="s">
+        <v>479</v>
+      </c>
+      <c r="D83" s="390"/>
+      <c r="E83" s="381" t="s">
+        <v>388</v>
+      </c>
+      <c r="F83" s="381"/>
+      <c r="G83" s="379"/>
+      <c r="H83" s="379"/>
+      <c r="I83" s="379"/>
+      <c r="J83" s="379"/>
       <c r="L83" s="133" t="s">
-        <v>122</v>
-      </c>
-      <c r="M83" s="141" t="s">
-        <v>473</v>
-      </c>
-      <c r="N83" s="116" t="s">
-        <v>411</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="M83" s="147" t="s">
+        <v>108</v>
+      </c>
+      <c r="N83" s="11"/>
     </row>
     <row r="84" spans="2:14" ht="31" customHeight="1">
       <c r="B84" s="375"/>
-      <c r="C84" s="395"/>
-      <c r="D84" s="395"/>
-      <c r="E84" s="382" t="s">
-        <v>483</v>
-      </c>
-      <c r="F84" s="382"/>
-      <c r="G84" s="380"/>
-      <c r="H84" s="380"/>
-      <c r="I84" s="380"/>
-      <c r="J84" s="380"/>
+      <c r="C84" s="390"/>
+      <c r="D84" s="390"/>
+      <c r="E84" s="381"/>
+      <c r="F84" s="381"/>
+      <c r="G84" s="379"/>
+      <c r="H84" s="379"/>
+      <c r="I84" s="379"/>
+      <c r="J84" s="379"/>
       <c r="L84" s="133" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="M84" s="141" t="s">
-        <v>473</v>
-      </c>
-      <c r="N84" s="68" t="s">
-        <v>412</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="N84" s="11"/>
     </row>
     <row r="85" spans="2:14" ht="31" customHeight="1">
-      <c r="B85" s="398" t="s">
-        <v>467</v>
-      </c>
-      <c r="C85" s="395" t="s">
-        <v>137</v>
-      </c>
-      <c r="D85" s="395"/>
-      <c r="E85" s="380"/>
-      <c r="F85" s="380"/>
-      <c r="G85" s="380"/>
-      <c r="H85" s="380"/>
-      <c r="I85" s="380"/>
-      <c r="J85" s="380"/>
+      <c r="B85" s="375"/>
+      <c r="C85" s="390"/>
+      <c r="D85" s="390"/>
+      <c r="E85" s="381"/>
+      <c r="F85" s="381"/>
+      <c r="G85" s="379"/>
+      <c r="H85" s="379"/>
+      <c r="I85" s="379"/>
+      <c r="J85" s="379"/>
       <c r="L85" s="133" t="s">
-        <v>97</v>
-      </c>
-      <c r="M85" s="147" t="s">
-        <v>129</v>
+        <v>468</v>
+      </c>
+      <c r="M85" s="141" t="s">
+        <v>472</v>
       </c>
       <c r="N85" s="11"/>
     </row>
     <row r="86" spans="2:14" ht="31" customHeight="1">
-      <c r="B86" s="398"/>
-      <c r="C86" s="395" t="s">
-        <v>283</v>
-      </c>
-      <c r="D86" s="395"/>
-      <c r="E86" s="380"/>
-      <c r="F86" s="380"/>
-      <c r="G86" s="380"/>
-      <c r="H86" s="380"/>
-      <c r="I86" s="380"/>
-      <c r="J86" s="380"/>
+      <c r="B86" s="375"/>
+      <c r="C86" s="390"/>
+      <c r="D86" s="390"/>
+      <c r="E86" s="381"/>
+      <c r="F86" s="381"/>
+      <c r="G86" s="379"/>
+      <c r="H86" s="379"/>
+      <c r="I86" s="379"/>
+      <c r="J86" s="379"/>
       <c r="L86" s="133" t="s">
-        <v>468</v>
-      </c>
-      <c r="M86" s="138" t="s">
-        <v>469</v>
+        <v>478</v>
+      </c>
+      <c r="M86" s="147" t="s">
+        <v>109</v>
       </c>
       <c r="N86" s="11"/>
     </row>
     <row r="87" spans="2:14" ht="31" customHeight="1">
-      <c r="B87" s="398"/>
-      <c r="C87" s="395" t="s">
-        <v>306</v>
-      </c>
-      <c r="D87" s="395"/>
-      <c r="E87" s="382" t="s">
-        <v>470</v>
-      </c>
-      <c r="F87" s="382"/>
-      <c r="G87" s="380"/>
-      <c r="H87" s="380"/>
-      <c r="I87" s="380"/>
-      <c r="J87" s="380"/>
+      <c r="B87" s="375"/>
+      <c r="C87" s="390"/>
+      <c r="D87" s="390"/>
+      <c r="E87" s="381" t="s">
+        <v>516</v>
+      </c>
+      <c r="F87" s="381"/>
+      <c r="G87" s="379"/>
+      <c r="H87" s="379"/>
+      <c r="I87" s="379"/>
+      <c r="J87" s="379"/>
       <c r="L87" s="133" t="s">
         <v>474</v>
       </c>
       <c r="M87" s="141" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="N87" s="11"/>
     </row>
     <row r="88" spans="2:14" ht="31" customHeight="1">
-      <c r="B88" s="398"/>
-      <c r="C88" s="395"/>
-      <c r="D88" s="395"/>
-      <c r="E88" s="382" t="s">
-        <v>471</v>
-      </c>
-      <c r="F88" s="382"/>
-      <c r="G88" s="380"/>
-      <c r="H88" s="380"/>
-      <c r="I88" s="380"/>
-      <c r="J88" s="380"/>
+      <c r="B88" s="375"/>
+      <c r="C88" s="390"/>
+      <c r="D88" s="390"/>
+      <c r="E88" s="381" t="s">
+        <v>422</v>
+      </c>
+      <c r="F88" s="381"/>
+      <c r="G88" s="379"/>
+      <c r="H88" s="379"/>
+      <c r="I88" s="379"/>
+      <c r="J88" s="379"/>
       <c r="L88" s="133" t="s">
         <v>468</v>
       </c>
       <c r="M88" s="141" t="s">
         <v>472</v>
       </c>
-      <c r="N88" s="11"/>
+      <c r="N88" s="116" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="89" spans="2:14" ht="31" customHeight="1">
-      <c r="B89" s="398"/>
-      <c r="C89" s="395" t="s">
-        <v>28</v>
-      </c>
-      <c r="D89" s="395"/>
-      <c r="E89" s="380"/>
-      <c r="F89" s="380"/>
-      <c r="G89" s="380"/>
-      <c r="H89" s="380"/>
-      <c r="I89" s="380"/>
-      <c r="J89" s="380"/>
+      <c r="B89" s="375"/>
+      <c r="C89" s="390"/>
+      <c r="D89" s="390"/>
+      <c r="E89" s="381" t="s">
+        <v>505</v>
+      </c>
+      <c r="F89" s="381"/>
+      <c r="G89" s="379"/>
+      <c r="H89" s="379"/>
+      <c r="I89" s="379"/>
+      <c r="J89" s="379"/>
       <c r="L89" s="133" t="s">
-        <v>474</v>
+        <v>122</v>
       </c>
       <c r="M89" s="141" t="s">
         <v>473</v>
       </c>
-      <c r="N89" s="11"/>
+      <c r="N89" s="116" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="90" spans="2:14" ht="31" customHeight="1">
-      <c r="B90" s="398"/>
-      <c r="C90" s="395" t="s">
-        <v>386</v>
-      </c>
-      <c r="D90" s="395"/>
-      <c r="E90" s="380"/>
-      <c r="F90" s="380"/>
-      <c r="G90" s="380"/>
-      <c r="H90" s="380"/>
-      <c r="I90" s="380"/>
-      <c r="J90" s="380"/>
+      <c r="B90" s="375"/>
+      <c r="C90" s="390"/>
+      <c r="D90" s="390"/>
+      <c r="E90" s="381" t="s">
+        <v>501</v>
+      </c>
+      <c r="F90" s="381"/>
+      <c r="G90" s="388" t="s">
+        <v>269</v>
+      </c>
+      <c r="H90" s="389" t="s">
+        <v>455</v>
+      </c>
+      <c r="I90" s="367" t="s">
+        <v>484</v>
+      </c>
+      <c r="J90" s="387" t="s">
+        <v>477</v>
+      </c>
       <c r="L90" s="133" t="s">
         <v>122</v>
       </c>
-      <c r="M90" s="116" t="b">
-        <v>1</v>
-      </c>
-      <c r="N90" s="11"/>
+      <c r="M90" s="141" t="s">
+        <v>473</v>
+      </c>
+      <c r="N90" s="116" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="91" spans="2:14" ht="31" customHeight="1">
-      <c r="B91" s="398"/>
-      <c r="C91" s="395" t="s">
-        <v>305</v>
-      </c>
-      <c r="D91" s="395"/>
-      <c r="E91" s="382" t="s">
-        <v>384</v>
-      </c>
-      <c r="F91" s="382"/>
-      <c r="G91" s="380"/>
-      <c r="H91" s="380"/>
-      <c r="I91" s="380"/>
-      <c r="J91" s="380"/>
+      <c r="B91" s="375"/>
+      <c r="C91" s="390"/>
+      <c r="D91" s="390"/>
+      <c r="E91" s="381"/>
+      <c r="F91" s="381"/>
+      <c r="G91" s="388"/>
+      <c r="H91" s="389"/>
+      <c r="I91" s="368"/>
+      <c r="J91" s="387" t="s">
+        <v>482</v>
+      </c>
       <c r="L91" s="133" t="s">
         <v>122</v>
       </c>
-      <c r="M91" s="116" t="b">
+      <c r="M91" s="141" t="s">
+        <v>473</v>
+      </c>
+      <c r="N91" s="116" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" ht="31" customHeight="1">
+      <c r="B92" s="375"/>
+      <c r="C92" s="390"/>
+      <c r="D92" s="390"/>
+      <c r="E92" s="381" t="s">
+        <v>483</v>
+      </c>
+      <c r="F92" s="381"/>
+      <c r="G92" s="379"/>
+      <c r="H92" s="379"/>
+      <c r="I92" s="379"/>
+      <c r="J92" s="379"/>
+      <c r="L92" s="133" t="s">
+        <v>453</v>
+      </c>
+      <c r="M92" s="141" t="s">
+        <v>473</v>
+      </c>
+      <c r="N92" s="68" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" ht="31" customHeight="1">
+      <c r="B93" s="393" t="s">
+        <v>467</v>
+      </c>
+      <c r="C93" s="390" t="s">
+        <v>137</v>
+      </c>
+      <c r="D93" s="390"/>
+      <c r="E93" s="379"/>
+      <c r="F93" s="379"/>
+      <c r="G93" s="379"/>
+      <c r="H93" s="379"/>
+      <c r="I93" s="379"/>
+      <c r="J93" s="379"/>
+      <c r="L93" s="133" t="s">
+        <v>97</v>
+      </c>
+      <c r="M93" s="147" t="s">
+        <v>129</v>
+      </c>
+      <c r="N93" s="11"/>
+    </row>
+    <row r="94" spans="2:14" ht="31" customHeight="1">
+      <c r="B94" s="393"/>
+      <c r="C94" s="390" t="s">
+        <v>283</v>
+      </c>
+      <c r="D94" s="390"/>
+      <c r="E94" s="379"/>
+      <c r="F94" s="379"/>
+      <c r="G94" s="379"/>
+      <c r="H94" s="379"/>
+      <c r="I94" s="379"/>
+      <c r="J94" s="379"/>
+      <c r="L94" s="133" t="s">
+        <v>468</v>
+      </c>
+      <c r="M94" s="138" t="s">
+        <v>469</v>
+      </c>
+      <c r="N94" s="11"/>
+    </row>
+    <row r="95" spans="2:14" ht="31" customHeight="1">
+      <c r="B95" s="393"/>
+      <c r="C95" s="390" t="s">
+        <v>306</v>
+      </c>
+      <c r="D95" s="390"/>
+      <c r="E95" s="381" t="s">
+        <v>470</v>
+      </c>
+      <c r="F95" s="381"/>
+      <c r="G95" s="379"/>
+      <c r="H95" s="379"/>
+      <c r="I95" s="379"/>
+      <c r="J95" s="379"/>
+      <c r="L95" s="133" t="s">
+        <v>474</v>
+      </c>
+      <c r="M95" s="141" t="s">
+        <v>473</v>
+      </c>
+      <c r="N95" s="11"/>
+    </row>
+    <row r="96" spans="2:14" ht="31" customHeight="1">
+      <c r="B96" s="393"/>
+      <c r="C96" s="390"/>
+      <c r="D96" s="390"/>
+      <c r="E96" s="381" t="s">
+        <v>471</v>
+      </c>
+      <c r="F96" s="381"/>
+      <c r="G96" s="379"/>
+      <c r="H96" s="379"/>
+      <c r="I96" s="379"/>
+      <c r="J96" s="379"/>
+      <c r="L96" s="133" t="s">
+        <v>468</v>
+      </c>
+      <c r="M96" s="141" t="s">
+        <v>472</v>
+      </c>
+      <c r="N96" s="11"/>
+    </row>
+    <row r="97" spans="2:14" ht="31" customHeight="1">
+      <c r="B97" s="393"/>
+      <c r="C97" s="390" t="s">
+        <v>28</v>
+      </c>
+      <c r="D97" s="390"/>
+      <c r="E97" s="379"/>
+      <c r="F97" s="379"/>
+      <c r="G97" s="379"/>
+      <c r="H97" s="379"/>
+      <c r="I97" s="379"/>
+      <c r="J97" s="379"/>
+      <c r="L97" s="133" t="s">
+        <v>474</v>
+      </c>
+      <c r="M97" s="141" t="s">
+        <v>473</v>
+      </c>
+      <c r="N97" s="11"/>
+    </row>
+    <row r="98" spans="2:14" ht="31" customHeight="1">
+      <c r="B98" s="393"/>
+      <c r="C98" s="390" t="s">
+        <v>386</v>
+      </c>
+      <c r="D98" s="390"/>
+      <c r="E98" s="379"/>
+      <c r="F98" s="379"/>
+      <c r="G98" s="379"/>
+      <c r="H98" s="379"/>
+      <c r="I98" s="379"/>
+      <c r="J98" s="379"/>
+      <c r="L98" s="133" t="s">
+        <v>122</v>
+      </c>
+      <c r="M98" s="116" t="b">
         <v>1</v>
       </c>
-      <c r="N91" s="11"/>
-    </row>
-    <row r="92" spans="2:14" ht="31" customHeight="1">
-      <c r="B92" s="398"/>
-      <c r="C92" s="395"/>
-      <c r="D92" s="395"/>
-      <c r="E92" s="382" t="s">
+      <c r="N98" s="11"/>
+    </row>
+    <row r="99" spans="2:14" ht="31" customHeight="1">
+      <c r="B99" s="393"/>
+      <c r="C99" s="390" t="s">
+        <v>305</v>
+      </c>
+      <c r="D99" s="390"/>
+      <c r="E99" s="381" t="s">
+        <v>384</v>
+      </c>
+      <c r="F99" s="381"/>
+      <c r="G99" s="379"/>
+      <c r="H99" s="379"/>
+      <c r="I99" s="379"/>
+      <c r="J99" s="379"/>
+      <c r="L99" s="133" t="s">
+        <v>122</v>
+      </c>
+      <c r="M99" s="116" t="b">
+        <v>1</v>
+      </c>
+      <c r="N99" s="11"/>
+    </row>
+    <row r="100" spans="2:14" ht="31" customHeight="1">
+      <c r="B100" s="393"/>
+      <c r="C100" s="390"/>
+      <c r="D100" s="390"/>
+      <c r="E100" s="381" t="s">
         <v>385</v>
       </c>
-      <c r="F92" s="382"/>
-      <c r="G92" s="382">
+      <c r="F100" s="381"/>
+      <c r="G100" s="249">
         <v>1</v>
       </c>
-      <c r="H92" s="382"/>
-      <c r="I92" s="380"/>
-      <c r="J92" s="380"/>
-      <c r="L92" s="133" t="s">
+      <c r="H100" s="249"/>
+      <c r="I100" s="364"/>
+      <c r="J100" s="364"/>
+      <c r="L100" s="133" t="s">
         <v>475</v>
       </c>
-      <c r="M92" s="141" t="s">
+      <c r="M100" s="141" t="s">
         <v>460</v>
       </c>
-      <c r="N92" s="11"/>
-    </row>
-    <row r="93" spans="2:14" ht="31" customHeight="1">
-      <c r="B93" s="398"/>
-      <c r="C93" s="395"/>
-      <c r="D93" s="395"/>
-      <c r="E93" s="382"/>
-      <c r="F93" s="382"/>
-      <c r="G93" s="382">
+      <c r="N100" s="11"/>
+    </row>
+    <row r="101" spans="2:14" ht="31" customHeight="1">
+      <c r="B101" s="393"/>
+      <c r="C101" s="390"/>
+      <c r="D101" s="390"/>
+      <c r="E101" s="381"/>
+      <c r="F101" s="381"/>
+      <c r="G101" s="249">
         <v>2</v>
       </c>
-      <c r="H93" s="382"/>
-      <c r="I93" s="380"/>
-      <c r="J93" s="380"/>
-      <c r="L93" s="133" t="s">
+      <c r="H101" s="249"/>
+      <c r="I101" s="364"/>
+      <c r="J101" s="364"/>
+      <c r="L101" s="133" t="s">
         <v>475</v>
       </c>
-      <c r="M93" s="141" t="s">
+      <c r="M101" s="141" t="s">
         <v>460</v>
       </c>
-      <c r="N93" s="11"/>
-    </row>
-    <row r="94" spans="2:14" ht="31" customHeight="1">
-      <c r="B94" s="398"/>
-      <c r="C94" s="395"/>
-      <c r="D94" s="395"/>
-      <c r="E94" s="382"/>
-      <c r="F94" s="382"/>
-      <c r="G94" s="382">
+      <c r="N101" s="11"/>
+    </row>
+    <row r="102" spans="2:14" ht="31" customHeight="1">
+      <c r="B102" s="393"/>
+      <c r="C102" s="390"/>
+      <c r="D102" s="390"/>
+      <c r="E102" s="381"/>
+      <c r="F102" s="381"/>
+      <c r="G102" s="249">
         <v>3</v>
       </c>
-      <c r="H94" s="382"/>
-      <c r="I94" s="380"/>
-      <c r="J94" s="380"/>
-      <c r="L94" s="133" t="s">
+      <c r="H102" s="249"/>
+      <c r="I102" s="364"/>
+      <c r="J102" s="364"/>
+      <c r="L102" s="133" t="s">
         <v>475</v>
       </c>
-      <c r="M94" s="141" t="s">
+      <c r="M102" s="141" t="s">
         <v>460</v>
       </c>
-      <c r="N94" s="11"/>
-    </row>
-    <row r="95" spans="2:14" ht="31" customHeight="1">
-      <c r="B95" s="398"/>
-      <c r="C95" s="395"/>
-      <c r="D95" s="395"/>
-      <c r="E95" s="382"/>
-      <c r="F95" s="382"/>
-      <c r="G95" s="382">
+      <c r="N102" s="11"/>
+    </row>
+    <row r="103" spans="2:14" ht="31" customHeight="1">
+      <c r="B103" s="393"/>
+      <c r="C103" s="390"/>
+      <c r="D103" s="390"/>
+      <c r="E103" s="381"/>
+      <c r="F103" s="381"/>
+      <c r="G103" s="249">
         <v>4</v>
       </c>
-      <c r="H95" s="382"/>
-      <c r="I95" s="380"/>
-      <c r="J95" s="380"/>
-      <c r="L95" s="133" t="s">
+      <c r="H103" s="249"/>
+      <c r="I103" s="364"/>
+      <c r="J103" s="364"/>
+      <c r="L103" s="133" t="s">
         <v>475</v>
       </c>
-      <c r="M95" s="141" t="s">
+      <c r="M103" s="141" t="s">
         <v>460</v>
       </c>
-      <c r="N95" s="11"/>
-    </row>
-    <row r="96" spans="2:14" ht="31" customHeight="1">
-      <c r="B96" s="398"/>
-      <c r="C96" s="395" t="s">
+      <c r="N103" s="11"/>
+    </row>
+    <row r="104" spans="2:14" ht="31" customHeight="1">
+      <c r="B104" s="393"/>
+      <c r="C104" s="390" t="s">
         <v>307</v>
       </c>
-      <c r="D96" s="395"/>
-      <c r="E96" s="382" t="s">
+      <c r="D104" s="390"/>
+      <c r="E104" s="381" t="s">
         <v>308</v>
       </c>
-      <c r="F96" s="382"/>
-      <c r="G96" s="380"/>
-      <c r="H96" s="380"/>
-      <c r="I96" s="380"/>
-      <c r="J96" s="380"/>
-      <c r="L96" s="133" t="s">
+      <c r="F104" s="381"/>
+      <c r="G104" s="379"/>
+      <c r="H104" s="379"/>
+      <c r="I104" s="379"/>
+      <c r="J104" s="379"/>
+      <c r="L104" s="133" t="s">
         <v>90</v>
       </c>
-      <c r="M96" s="116">
+      <c r="M104" s="116">
         <v>0</v>
       </c>
-      <c r="N96" s="11"/>
-    </row>
-    <row r="97" spans="2:14" ht="31" customHeight="1">
-      <c r="B97" s="398"/>
-      <c r="C97" s="395"/>
-      <c r="D97" s="395"/>
-      <c r="E97" s="382" t="s">
+      <c r="N104" s="11"/>
+    </row>
+    <row r="105" spans="2:14" ht="31" customHeight="1">
+      <c r="B105" s="393"/>
+      <c r="C105" s="390"/>
+      <c r="D105" s="390"/>
+      <c r="E105" s="381" t="s">
         <v>309</v>
       </c>
-      <c r="F97" s="382"/>
-      <c r="G97" s="380"/>
-      <c r="H97" s="380"/>
-      <c r="I97" s="380"/>
-      <c r="J97" s="380"/>
-      <c r="L97" s="133" t="s">
+      <c r="F105" s="381"/>
+      <c r="G105" s="379"/>
+      <c r="H105" s="379"/>
+      <c r="I105" s="379"/>
+      <c r="J105" s="379"/>
+      <c r="L105" s="133" t="s">
         <v>475</v>
       </c>
-      <c r="M97" s="141" t="s">
+      <c r="M105" s="141" t="s">
         <v>460</v>
       </c>
-      <c r="N97" s="11"/>
-    </row>
-    <row r="98" spans="2:14" ht="26">
-      <c r="B98" s="376"/>
-      <c r="C98" s="396"/>
-    </row>
-    <row r="99" spans="2:14" ht="26">
-      <c r="B99" s="376"/>
-      <c r="C99" s="396"/>
+      <c r="N105" s="11"/>
+    </row>
+    <row r="106" spans="2:14" ht="26">
+      <c r="B106" s="376"/>
+      <c r="C106" s="391"/>
+    </row>
+    <row r="107" spans="2:14" ht="26">
+      <c r="B107" s="376"/>
+      <c r="C107" s="391"/>
     </row>
   </sheetData>
-  <mergeCells count="170">
-    <mergeCell ref="A1:I1"/>
+  <mergeCells count="201">
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="E67:E70"/>
+    <mergeCell ref="F67:F70"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="G69:H70"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I90:I91"/>
+    <mergeCell ref="I100:J100"/>
+    <mergeCell ref="I101:J101"/>
+    <mergeCell ref="I102:J102"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="I82:J82"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="I63:J63"/>
     <mergeCell ref="C5:J5"/>
-    <mergeCell ref="G91:J91"/>
-    <mergeCell ref="I93:J93"/>
-    <mergeCell ref="I94:J94"/>
-    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="G99:J99"/>
+    <mergeCell ref="C63:D70"/>
+    <mergeCell ref="E63:E66"/>
+    <mergeCell ref="F63:F66"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="G104:J104"/>
+    <mergeCell ref="G105:J105"/>
     <mergeCell ref="G96:J96"/>
-    <mergeCell ref="G97:J97"/>
+    <mergeCell ref="I103:J103"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="E93:J93"/>
+    <mergeCell ref="E94:J94"/>
+    <mergeCell ref="E97:J97"/>
+    <mergeCell ref="E98:J98"/>
+    <mergeCell ref="C104:D105"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="E100:F103"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="C95:D96"/>
+    <mergeCell ref="C99:D103"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="G90:G91"/>
+    <mergeCell ref="H90:H91"/>
+    <mergeCell ref="G95:J95"/>
+    <mergeCell ref="G83:J86"/>
+    <mergeCell ref="E79:J79"/>
+    <mergeCell ref="E80:J80"/>
+    <mergeCell ref="E77:J77"/>
+    <mergeCell ref="E78:J78"/>
+    <mergeCell ref="G87:J87"/>
     <mergeCell ref="G88:J88"/>
+    <mergeCell ref="G89:J89"/>
+    <mergeCell ref="G92:J92"/>
+    <mergeCell ref="C83:D92"/>
+    <mergeCell ref="E83:F86"/>
+    <mergeCell ref="E90:F91"/>
     <mergeCell ref="E87:F87"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="E85:J85"/>
-    <mergeCell ref="E86:J86"/>
-    <mergeCell ref="E89:J89"/>
-    <mergeCell ref="E90:J90"/>
-    <mergeCell ref="I92:J92"/>
-    <mergeCell ref="C96:D97"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="E97:F97"/>
-    <mergeCell ref="E92:F95"/>
-    <mergeCell ref="E91:F91"/>
     <mergeCell ref="E88:F88"/>
-    <mergeCell ref="C87:D88"/>
-    <mergeCell ref="C91:D95"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="G82:G83"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="I82:I83"/>
-    <mergeCell ref="G87:J87"/>
-    <mergeCell ref="G75:J78"/>
-    <mergeCell ref="E71:J71"/>
-    <mergeCell ref="E72:J72"/>
-    <mergeCell ref="E69:J69"/>
-    <mergeCell ref="E70:J70"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="G79:J79"/>
-    <mergeCell ref="G80:J80"/>
-    <mergeCell ref="G81:J81"/>
-    <mergeCell ref="G84:J84"/>
-    <mergeCell ref="C75:D84"/>
-    <mergeCell ref="E75:F78"/>
-    <mergeCell ref="E82:F83"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="E82:F82"/>
     <mergeCell ref="E81:F81"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E73:F73"/>
     <mergeCell ref="G61:J61"/>
     <mergeCell ref="G62:J62"/>
-    <mergeCell ref="G64:J64"/>
-    <mergeCell ref="G65:J65"/>
-    <mergeCell ref="G67:J67"/>
-    <mergeCell ref="G68:J68"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="E63:J63"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="C64:D68"/>
-    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="G72:J72"/>
+    <mergeCell ref="G73:J73"/>
+    <mergeCell ref="G75:J75"/>
+    <mergeCell ref="G76:J76"/>
+    <mergeCell ref="E71:J71"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="G65:H66"/>
+    <mergeCell ref="C72:D76"/>
+    <mergeCell ref="C71:D71"/>
     <mergeCell ref="C62:D62"/>
     <mergeCell ref="C61:D61"/>
     <mergeCell ref="E42:J42"/>
@@ -6575,14 +6850,10 @@
     <mergeCell ref="G28:J28"/>
     <mergeCell ref="G27:J27"/>
     <mergeCell ref="G25:J25"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
     <mergeCell ref="G26:J26"/>
     <mergeCell ref="G29:G40"/>
     <mergeCell ref="H33:H36"/>
     <mergeCell ref="H37:H40"/>
-    <mergeCell ref="I32:J32"/>
     <mergeCell ref="E29:E40"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="E27:F27"/>
@@ -6620,15 +6891,13 @@
     <mergeCell ref="C9:D15"/>
     <mergeCell ref="C16:C40"/>
     <mergeCell ref="D16:D24"/>
-    <mergeCell ref="B69:B84"/>
+    <mergeCell ref="B77:B92"/>
     <mergeCell ref="B6:B46"/>
-    <mergeCell ref="B85:B97"/>
+    <mergeCell ref="B93:B105"/>
     <mergeCell ref="B56:B60"/>
-    <mergeCell ref="B61:B68"/>
+    <mergeCell ref="B61:B76"/>
     <mergeCell ref="B47:B55"/>
     <mergeCell ref="F18:F24"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="E18:E24"/>
     <mergeCell ref="G17:J17"/>
@@ -6646,7 +6915,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="BL4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="CO10" sqref="CO10:CO11"/>
+      <selection pane="bottomRight" activeCell="CA19" sqref="CA19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6740,7 +7009,7 @@
       <c r="BU1" t="s">
         <v>518</v>
       </c>
-      <c r="BV1" s="179">
+      <c r="BV1" s="178">
         <v>263818936320</v>
       </c>
     </row>
@@ -6751,7 +7020,7 @@
       <c r="BU2" t="s">
         <v>517</v>
       </c>
-      <c r="BV2" s="181">
+      <c r="BV2" s="180">
         <v>151461527552</v>
       </c>
     </row>
@@ -6820,481 +7089,481 @@
       <c r="C5" s="160" t="s">
         <v>289</v>
       </c>
-      <c r="D5" s="264" t="s">
+      <c r="D5" s="263" t="s">
         <v>263</v>
       </c>
-      <c r="E5" s="265"/>
-      <c r="F5" s="265"/>
-      <c r="G5" s="265"/>
-      <c r="H5" s="265"/>
-      <c r="I5" s="265"/>
-      <c r="J5" s="265"/>
-      <c r="K5" s="265"/>
-      <c r="L5" s="265"/>
-      <c r="M5" s="265"/>
-      <c r="N5" s="265"/>
-      <c r="O5" s="265"/>
-      <c r="P5" s="265"/>
-      <c r="Q5" s="265"/>
-      <c r="R5" s="265"/>
-      <c r="S5" s="265"/>
-      <c r="T5" s="265"/>
-      <c r="U5" s="265"/>
-      <c r="V5" s="265"/>
-      <c r="W5" s="265"/>
-      <c r="X5" s="265"/>
-      <c r="Y5" s="265"/>
-      <c r="Z5" s="265"/>
-      <c r="AA5" s="265"/>
-      <c r="AB5" s="265"/>
-      <c r="AC5" s="265"/>
-      <c r="AD5" s="265"/>
-      <c r="AE5" s="265"/>
-      <c r="AF5" s="265"/>
-      <c r="AG5" s="265"/>
-      <c r="AH5" s="265"/>
-      <c r="AI5" s="265"/>
-      <c r="AJ5" s="265"/>
-      <c r="AK5" s="265"/>
-      <c r="AL5" s="265"/>
-      <c r="AM5" s="265"/>
-      <c r="AN5" s="265"/>
-      <c r="AO5" s="265"/>
-      <c r="AP5" s="265"/>
-      <c r="AQ5" s="265"/>
-      <c r="AR5" s="265"/>
-      <c r="AS5" s="264" t="s">
+      <c r="E5" s="264"/>
+      <c r="F5" s="264"/>
+      <c r="G5" s="264"/>
+      <c r="H5" s="264"/>
+      <c r="I5" s="264"/>
+      <c r="J5" s="264"/>
+      <c r="K5" s="264"/>
+      <c r="L5" s="264"/>
+      <c r="M5" s="264"/>
+      <c r="N5" s="264"/>
+      <c r="O5" s="264"/>
+      <c r="P5" s="264"/>
+      <c r="Q5" s="264"/>
+      <c r="R5" s="264"/>
+      <c r="S5" s="264"/>
+      <c r="T5" s="264"/>
+      <c r="U5" s="264"/>
+      <c r="V5" s="264"/>
+      <c r="W5" s="264"/>
+      <c r="X5" s="264"/>
+      <c r="Y5" s="264"/>
+      <c r="Z5" s="264"/>
+      <c r="AA5" s="264"/>
+      <c r="AB5" s="264"/>
+      <c r="AC5" s="264"/>
+      <c r="AD5" s="264"/>
+      <c r="AE5" s="264"/>
+      <c r="AF5" s="264"/>
+      <c r="AG5" s="264"/>
+      <c r="AH5" s="264"/>
+      <c r="AI5" s="264"/>
+      <c r="AJ5" s="264"/>
+      <c r="AK5" s="264"/>
+      <c r="AL5" s="264"/>
+      <c r="AM5" s="264"/>
+      <c r="AN5" s="264"/>
+      <c r="AO5" s="264"/>
+      <c r="AP5" s="264"/>
+      <c r="AQ5" s="264"/>
+      <c r="AR5" s="264"/>
+      <c r="AS5" s="263" t="s">
         <v>258</v>
       </c>
-      <c r="AT5" s="265"/>
-      <c r="AU5" s="265"/>
-      <c r="AV5" s="265"/>
-      <c r="AW5" s="265"/>
-      <c r="AX5" s="265"/>
-      <c r="AY5" s="265"/>
-      <c r="AZ5" s="265"/>
-      <c r="BA5" s="266"/>
-      <c r="BB5" s="276" t="s">
+      <c r="AT5" s="264"/>
+      <c r="AU5" s="264"/>
+      <c r="AV5" s="264"/>
+      <c r="AW5" s="264"/>
+      <c r="AX5" s="264"/>
+      <c r="AY5" s="264"/>
+      <c r="AZ5" s="264"/>
+      <c r="BA5" s="265"/>
+      <c r="BB5" s="275" t="s">
         <v>508</v>
       </c>
-      <c r="BC5" s="277"/>
-      <c r="BD5" s="277"/>
-      <c r="BE5" s="277"/>
-      <c r="BF5" s="278"/>
-      <c r="BG5" s="264" t="s">
+      <c r="BC5" s="276"/>
+      <c r="BD5" s="276"/>
+      <c r="BE5" s="276"/>
+      <c r="BF5" s="277"/>
+      <c r="BG5" s="263" t="s">
         <v>310</v>
       </c>
-      <c r="BH5" s="265"/>
-      <c r="BI5" s="265"/>
-      <c r="BJ5" s="265"/>
-      <c r="BK5" s="265"/>
-      <c r="BL5" s="265"/>
-      <c r="BM5" s="265"/>
-      <c r="BN5" s="266"/>
-      <c r="BO5" s="267" t="s">
+      <c r="BH5" s="264"/>
+      <c r="BI5" s="264"/>
+      <c r="BJ5" s="264"/>
+      <c r="BK5" s="264"/>
+      <c r="BL5" s="264"/>
+      <c r="BM5" s="264"/>
+      <c r="BN5" s="265"/>
+      <c r="BO5" s="266" t="s">
         <v>257</v>
       </c>
-      <c r="BP5" s="267"/>
-      <c r="BQ5" s="267"/>
-      <c r="BR5" s="267"/>
-      <c r="BS5" s="267"/>
-      <c r="BT5" s="267"/>
-      <c r="BU5" s="267"/>
-      <c r="BV5" s="267"/>
-      <c r="BW5" s="267"/>
-      <c r="BX5" s="267"/>
-      <c r="BY5" s="267"/>
-      <c r="BZ5" s="267"/>
-      <c r="CA5" s="267"/>
-      <c r="CB5" s="267"/>
-      <c r="CC5" s="267"/>
-      <c r="CD5" s="267"/>
-      <c r="CE5" s="268" t="s">
+      <c r="BP5" s="266"/>
+      <c r="BQ5" s="266"/>
+      <c r="BR5" s="266"/>
+      <c r="BS5" s="266"/>
+      <c r="BT5" s="266"/>
+      <c r="BU5" s="266"/>
+      <c r="BV5" s="266"/>
+      <c r="BW5" s="266"/>
+      <c r="BX5" s="266"/>
+      <c r="BY5" s="266"/>
+      <c r="BZ5" s="266"/>
+      <c r="CA5" s="266"/>
+      <c r="CB5" s="266"/>
+      <c r="CC5" s="266"/>
+      <c r="CD5" s="266"/>
+      <c r="CE5" s="267" t="s">
         <v>467</v>
       </c>
-      <c r="CF5" s="268"/>
-      <c r="CG5" s="268"/>
-      <c r="CH5" s="268"/>
-      <c r="CI5" s="268"/>
-      <c r="CJ5" s="268"/>
-      <c r="CK5" s="268"/>
-      <c r="CL5" s="268"/>
-      <c r="CM5" s="268"/>
-      <c r="CN5" s="268"/>
-      <c r="CO5" s="268"/>
-      <c r="CP5" s="268"/>
-      <c r="CQ5" s="268"/>
+      <c r="CF5" s="267"/>
+      <c r="CG5" s="267"/>
+      <c r="CH5" s="267"/>
+      <c r="CI5" s="267"/>
+      <c r="CJ5" s="267"/>
+      <c r="CK5" s="267"/>
+      <c r="CL5" s="267"/>
+      <c r="CM5" s="267"/>
+      <c r="CN5" s="267"/>
+      <c r="CO5" s="267"/>
+      <c r="CP5" s="267"/>
+      <c r="CQ5" s="267"/>
     </row>
     <row r="6" spans="1:174" s="60" customFormat="1" ht="26" customHeight="1">
-      <c r="A6" s="256" t="s">
+      <c r="A6" s="255" t="s">
         <v>344</v>
       </c>
       <c r="B6" s="108"/>
-      <c r="C6" s="225"/>
-      <c r="D6" s="234" t="s">
+      <c r="C6" s="224"/>
+      <c r="D6" s="233" t="s">
         <v>286</v>
       </c>
-      <c r="E6" s="234" t="s">
+      <c r="E6" s="233" t="s">
         <v>285</v>
       </c>
-      <c r="F6" s="234" t="s">
+      <c r="F6" s="233" t="s">
         <v>288</v>
       </c>
-      <c r="G6" s="233" t="s">
+      <c r="G6" s="232" t="s">
         <v>262</v>
       </c>
-      <c r="H6" s="233"/>
-      <c r="I6" s="233"/>
-      <c r="J6" s="233"/>
-      <c r="K6" s="233"/>
-      <c r="L6" s="233"/>
-      <c r="M6" s="233"/>
-      <c r="N6" s="282" t="s">
+      <c r="H6" s="232"/>
+      <c r="I6" s="232"/>
+      <c r="J6" s="232"/>
+      <c r="K6" s="232"/>
+      <c r="L6" s="232"/>
+      <c r="M6" s="232"/>
+      <c r="N6" s="281" t="s">
         <v>502</v>
       </c>
-      <c r="O6" s="282"/>
-      <c r="P6" s="282"/>
-      <c r="Q6" s="282"/>
-      <c r="R6" s="282"/>
-      <c r="S6" s="282"/>
-      <c r="T6" s="282"/>
-      <c r="U6" s="282"/>
-      <c r="V6" s="282"/>
-      <c r="W6" s="282"/>
-      <c r="X6" s="282"/>
-      <c r="Y6" s="282"/>
-      <c r="Z6" s="282"/>
-      <c r="AA6" s="282"/>
-      <c r="AB6" s="282"/>
-      <c r="AC6" s="282"/>
-      <c r="AD6" s="282"/>
-      <c r="AE6" s="282"/>
-      <c r="AF6" s="282"/>
-      <c r="AG6" s="282"/>
-      <c r="AH6" s="282"/>
-      <c r="AI6" s="282"/>
-      <c r="AJ6" s="282"/>
-      <c r="AK6" s="282"/>
-      <c r="AL6" s="282"/>
-      <c r="AM6" s="227" t="s">
+      <c r="O6" s="281"/>
+      <c r="P6" s="281"/>
+      <c r="Q6" s="281"/>
+      <c r="R6" s="281"/>
+      <c r="S6" s="281"/>
+      <c r="T6" s="281"/>
+      <c r="U6" s="281"/>
+      <c r="V6" s="281"/>
+      <c r="W6" s="281"/>
+      <c r="X6" s="281"/>
+      <c r="Y6" s="281"/>
+      <c r="Z6" s="281"/>
+      <c r="AA6" s="281"/>
+      <c r="AB6" s="281"/>
+      <c r="AC6" s="281"/>
+      <c r="AD6" s="281"/>
+      <c r="AE6" s="281"/>
+      <c r="AF6" s="281"/>
+      <c r="AG6" s="281"/>
+      <c r="AH6" s="281"/>
+      <c r="AI6" s="281"/>
+      <c r="AJ6" s="281"/>
+      <c r="AK6" s="281"/>
+      <c r="AL6" s="281"/>
+      <c r="AM6" s="226" t="s">
         <v>28</v>
       </c>
-      <c r="AN6" s="228"/>
-      <c r="AO6" s="228"/>
-      <c r="AP6" s="228"/>
-      <c r="AQ6" s="228"/>
-      <c r="AR6" s="229"/>
-      <c r="AS6" s="233" t="s">
+      <c r="AN6" s="227"/>
+      <c r="AO6" s="227"/>
+      <c r="AP6" s="227"/>
+      <c r="AQ6" s="227"/>
+      <c r="AR6" s="228"/>
+      <c r="AS6" s="232" t="s">
         <v>275</v>
       </c>
-      <c r="AT6" s="233"/>
-      <c r="AU6" s="233"/>
-      <c r="AV6" s="233"/>
-      <c r="AW6" s="233"/>
-      <c r="AX6" s="233" t="s">
+      <c r="AT6" s="232"/>
+      <c r="AU6" s="232"/>
+      <c r="AV6" s="232"/>
+      <c r="AW6" s="232"/>
+      <c r="AX6" s="232" t="s">
         <v>276</v>
       </c>
-      <c r="AY6" s="233"/>
-      <c r="AZ6" s="233"/>
-      <c r="BA6" s="233"/>
-      <c r="BB6" s="259" t="s">
+      <c r="AY6" s="232"/>
+      <c r="AZ6" s="232"/>
+      <c r="BA6" s="232"/>
+      <c r="BB6" s="258" t="s">
         <v>513</v>
       </c>
-      <c r="BC6" s="279" t="s">
+      <c r="BC6" s="278" t="s">
         <v>510</v>
       </c>
-      <c r="BD6" s="259" t="s">
+      <c r="BD6" s="258" t="s">
         <v>512</v>
       </c>
       <c r="BE6" s="164"/>
       <c r="BF6" s="165"/>
-      <c r="BG6" s="234" t="s">
+      <c r="BG6" s="233" t="s">
         <v>290</v>
       </c>
-      <c r="BH6" s="234" t="s">
+      <c r="BH6" s="233" t="s">
         <v>387</v>
       </c>
-      <c r="BI6" s="234" t="s">
+      <c r="BI6" s="233" t="s">
         <v>515</v>
       </c>
-      <c r="BJ6" s="233" t="s">
+      <c r="BJ6" s="232" t="s">
         <v>259</v>
       </c>
-      <c r="BK6" s="233"/>
-      <c r="BL6" s="233"/>
-      <c r="BM6" s="233"/>
-      <c r="BN6" s="233"/>
-      <c r="BO6" s="235" t="s">
+      <c r="BK6" s="232"/>
+      <c r="BL6" s="232"/>
+      <c r="BM6" s="232"/>
+      <c r="BN6" s="232"/>
+      <c r="BO6" s="234" t="s">
         <v>353</v>
       </c>
-      <c r="BP6" s="235" t="s">
+      <c r="BP6" s="234" t="s">
         <v>354</v>
       </c>
-      <c r="BQ6" s="235" t="s">
+      <c r="BQ6" s="234" t="s">
         <v>297</v>
       </c>
-      <c r="BR6" s="235" t="s">
+      <c r="BR6" s="234" t="s">
         <v>391</v>
       </c>
-      <c r="BS6" s="227" t="s">
+      <c r="BS6" s="226" t="s">
         <v>266</v>
       </c>
-      <c r="BT6" s="229"/>
-      <c r="BU6" s="270" t="s">
+      <c r="BT6" s="228"/>
+      <c r="BU6" s="269" t="s">
         <v>479</v>
       </c>
-      <c r="BV6" s="271"/>
-      <c r="BW6" s="271"/>
-      <c r="BX6" s="271"/>
-      <c r="BY6" s="271"/>
-      <c r="BZ6" s="271"/>
-      <c r="CA6" s="271"/>
-      <c r="CB6" s="271"/>
-      <c r="CC6" s="271"/>
-      <c r="CD6" s="272"/>
-      <c r="CE6" s="235" t="s">
+      <c r="BV6" s="270"/>
+      <c r="BW6" s="270"/>
+      <c r="BX6" s="270"/>
+      <c r="BY6" s="270"/>
+      <c r="BZ6" s="270"/>
+      <c r="CA6" s="270"/>
+      <c r="CB6" s="270"/>
+      <c r="CC6" s="270"/>
+      <c r="CD6" s="271"/>
+      <c r="CE6" s="234" t="s">
         <v>137</v>
       </c>
-      <c r="CF6" s="235" t="s">
+      <c r="CF6" s="234" t="s">
         <v>283</v>
       </c>
-      <c r="CG6" s="270" t="s">
+      <c r="CG6" s="269" t="s">
         <v>306</v>
       </c>
-      <c r="CH6" s="272"/>
-      <c r="CI6" s="235" t="s">
+      <c r="CH6" s="271"/>
+      <c r="CI6" s="234" t="s">
         <v>28</v>
       </c>
-      <c r="CJ6" s="235" t="s">
+      <c r="CJ6" s="234" t="s">
         <v>386</v>
       </c>
-      <c r="CK6" s="270" t="s">
+      <c r="CK6" s="269" t="s">
         <v>305</v>
       </c>
-      <c r="CL6" s="271"/>
-      <c r="CM6" s="271"/>
-      <c r="CN6" s="271"/>
-      <c r="CO6" s="272"/>
-      <c r="CP6" s="220" t="s">
+      <c r="CL6" s="270"/>
+      <c r="CM6" s="270"/>
+      <c r="CN6" s="270"/>
+      <c r="CO6" s="271"/>
+      <c r="CP6" s="219" t="s">
         <v>307</v>
       </c>
-      <c r="CQ6" s="221"/>
+      <c r="CQ6" s="220"/>
     </row>
     <row r="7" spans="1:174" s="59" customFormat="1" ht="104" customHeight="1">
-      <c r="A7" s="256"/>
+      <c r="A7" s="255"/>
       <c r="B7" s="101"/>
-      <c r="C7" s="226"/>
-      <c r="D7" s="234"/>
-      <c r="E7" s="234"/>
-      <c r="F7" s="234"/>
-      <c r="G7" s="233"/>
-      <c r="H7" s="233"/>
-      <c r="I7" s="233"/>
-      <c r="J7" s="233"/>
-      <c r="K7" s="233"/>
-      <c r="L7" s="233"/>
-      <c r="M7" s="233"/>
-      <c r="N7" s="269" t="s">
+      <c r="C7" s="225"/>
+      <c r="D7" s="233"/>
+      <c r="E7" s="233"/>
+      <c r="F7" s="233"/>
+      <c r="G7" s="232"/>
+      <c r="H7" s="232"/>
+      <c r="I7" s="232"/>
+      <c r="J7" s="232"/>
+      <c r="K7" s="232"/>
+      <c r="L7" s="232"/>
+      <c r="M7" s="232"/>
+      <c r="N7" s="268" t="s">
         <v>429</v>
       </c>
-      <c r="O7" s="265"/>
-      <c r="P7" s="265"/>
-      <c r="Q7" s="265"/>
-      <c r="R7" s="265"/>
-      <c r="S7" s="265"/>
-      <c r="T7" s="265"/>
-      <c r="U7" s="265"/>
-      <c r="V7" s="266"/>
-      <c r="W7" s="234" t="s">
+      <c r="O7" s="264"/>
+      <c r="P7" s="264"/>
+      <c r="Q7" s="264"/>
+      <c r="R7" s="264"/>
+      <c r="S7" s="264"/>
+      <c r="T7" s="264"/>
+      <c r="U7" s="264"/>
+      <c r="V7" s="265"/>
+      <c r="W7" s="233" t="s">
         <v>430</v>
       </c>
-      <c r="X7" s="233"/>
-      <c r="Y7" s="233"/>
-      <c r="Z7" s="233"/>
-      <c r="AA7" s="233"/>
-      <c r="AB7" s="233"/>
-      <c r="AC7" s="233"/>
-      <c r="AD7" s="233"/>
-      <c r="AE7" s="233"/>
-      <c r="AF7" s="233"/>
-      <c r="AG7" s="233"/>
-      <c r="AH7" s="233"/>
-      <c r="AI7" s="233"/>
-      <c r="AJ7" s="233"/>
-      <c r="AK7" s="233"/>
-      <c r="AL7" s="233"/>
-      <c r="AM7" s="230"/>
-      <c r="AN7" s="231"/>
-      <c r="AO7" s="231"/>
-      <c r="AP7" s="231"/>
-      <c r="AQ7" s="231"/>
-      <c r="AR7" s="232"/>
-      <c r="AS7" s="233"/>
-      <c r="AT7" s="233"/>
-      <c r="AU7" s="233"/>
-      <c r="AV7" s="233"/>
-      <c r="AW7" s="233"/>
-      <c r="AX7" s="233"/>
-      <c r="AY7" s="233"/>
-      <c r="AZ7" s="233"/>
-      <c r="BA7" s="233"/>
-      <c r="BB7" s="259"/>
-      <c r="BC7" s="280"/>
-      <c r="BD7" s="259"/>
+      <c r="X7" s="232"/>
+      <c r="Y7" s="232"/>
+      <c r="Z7" s="232"/>
+      <c r="AA7" s="232"/>
+      <c r="AB7" s="232"/>
+      <c r="AC7" s="232"/>
+      <c r="AD7" s="232"/>
+      <c r="AE7" s="232"/>
+      <c r="AF7" s="232"/>
+      <c r="AG7" s="232"/>
+      <c r="AH7" s="232"/>
+      <c r="AI7" s="232"/>
+      <c r="AJ7" s="232"/>
+      <c r="AK7" s="232"/>
+      <c r="AL7" s="232"/>
+      <c r="AM7" s="229"/>
+      <c r="AN7" s="230"/>
+      <c r="AO7" s="230"/>
+      <c r="AP7" s="230"/>
+      <c r="AQ7" s="230"/>
+      <c r="AR7" s="231"/>
+      <c r="AS7" s="232"/>
+      <c r="AT7" s="232"/>
+      <c r="AU7" s="232"/>
+      <c r="AV7" s="232"/>
+      <c r="AW7" s="232"/>
+      <c r="AX7" s="232"/>
+      <c r="AY7" s="232"/>
+      <c r="AZ7" s="232"/>
+      <c r="BA7" s="232"/>
+      <c r="BB7" s="258"/>
+      <c r="BC7" s="279"/>
+      <c r="BD7" s="258"/>
       <c r="BE7" s="166"/>
       <c r="BF7" s="167"/>
-      <c r="BG7" s="234"/>
-      <c r="BH7" s="234"/>
-      <c r="BI7" s="234"/>
-      <c r="BJ7" s="233"/>
-      <c r="BK7" s="233"/>
-      <c r="BL7" s="233"/>
-      <c r="BM7" s="233"/>
-      <c r="BN7" s="233"/>
-      <c r="BO7" s="236"/>
-      <c r="BP7" s="236"/>
-      <c r="BQ7" s="236"/>
-      <c r="BR7" s="236"/>
-      <c r="BS7" s="230"/>
-      <c r="BT7" s="232"/>
-      <c r="BU7" s="273"/>
-      <c r="BV7" s="274"/>
-      <c r="BW7" s="274"/>
-      <c r="BX7" s="274"/>
-      <c r="BY7" s="274"/>
-      <c r="BZ7" s="274"/>
-      <c r="CA7" s="274"/>
-      <c r="CB7" s="274"/>
-      <c r="CC7" s="274"/>
-      <c r="CD7" s="275"/>
-      <c r="CE7" s="236"/>
-      <c r="CF7" s="236"/>
-      <c r="CG7" s="273"/>
-      <c r="CH7" s="275"/>
-      <c r="CI7" s="236"/>
-      <c r="CJ7" s="236"/>
-      <c r="CK7" s="273"/>
-      <c r="CL7" s="274"/>
-      <c r="CM7" s="274"/>
-      <c r="CN7" s="274"/>
-      <c r="CO7" s="275"/>
-      <c r="CP7" s="222"/>
-      <c r="CQ7" s="223"/>
+      <c r="BG7" s="233"/>
+      <c r="BH7" s="233"/>
+      <c r="BI7" s="233"/>
+      <c r="BJ7" s="232"/>
+      <c r="BK7" s="232"/>
+      <c r="BL7" s="232"/>
+      <c r="BM7" s="232"/>
+      <c r="BN7" s="232"/>
+      <c r="BO7" s="235"/>
+      <c r="BP7" s="235"/>
+      <c r="BQ7" s="235"/>
+      <c r="BR7" s="235"/>
+      <c r="BS7" s="229"/>
+      <c r="BT7" s="231"/>
+      <c r="BU7" s="272"/>
+      <c r="BV7" s="273"/>
+      <c r="BW7" s="273"/>
+      <c r="BX7" s="273"/>
+      <c r="BY7" s="273"/>
+      <c r="BZ7" s="273"/>
+      <c r="CA7" s="273"/>
+      <c r="CB7" s="273"/>
+      <c r="CC7" s="273"/>
+      <c r="CD7" s="274"/>
+      <c r="CE7" s="235"/>
+      <c r="CF7" s="235"/>
+      <c r="CG7" s="272"/>
+      <c r="CH7" s="274"/>
+      <c r="CI7" s="235"/>
+      <c r="CJ7" s="235"/>
+      <c r="CK7" s="272"/>
+      <c r="CL7" s="273"/>
+      <c r="CM7" s="273"/>
+      <c r="CN7" s="273"/>
+      <c r="CO7" s="274"/>
+      <c r="CP7" s="221"/>
+      <c r="CQ7" s="222"/>
     </row>
     <row r="8" spans="1:174" ht="23" customHeight="1">
-      <c r="A8" s="294" t="s">
+      <c r="A8" s="293" t="s">
         <v>373</v>
       </c>
       <c r="B8" s="101"/>
-      <c r="C8" s="226"/>
-      <c r="D8" s="246"/>
-      <c r="E8" s="246"/>
-      <c r="F8" s="246"/>
-      <c r="G8" s="257" t="s">
+      <c r="C8" s="225"/>
+      <c r="D8" s="245"/>
+      <c r="E8" s="245"/>
+      <c r="F8" s="245"/>
+      <c r="G8" s="256" t="s">
         <v>375</v>
       </c>
-      <c r="H8" s="257" t="s">
+      <c r="H8" s="256" t="s">
         <v>267</v>
       </c>
-      <c r="I8" s="257" t="s">
+      <c r="I8" s="256" t="s">
         <v>268</v>
       </c>
-      <c r="J8" s="257" t="s">
+      <c r="J8" s="256" t="s">
         <v>261</v>
       </c>
-      <c r="K8" s="257" t="s">
+      <c r="K8" s="256" t="s">
         <v>269</v>
       </c>
-      <c r="L8" s="257" t="s">
+      <c r="L8" s="256" t="s">
         <v>284</v>
       </c>
-      <c r="M8" s="257" t="s">
+      <c r="M8" s="256" t="s">
         <v>283</v>
       </c>
-      <c r="N8" s="257" t="s">
+      <c r="N8" s="256" t="s">
         <v>431</v>
       </c>
-      <c r="O8" s="257" t="s">
+      <c r="O8" s="256" t="s">
         <v>395</v>
       </c>
-      <c r="P8" s="260" t="s">
+      <c r="P8" s="259" t="s">
         <v>499</v>
       </c>
-      <c r="Q8" s="261"/>
-      <c r="R8" s="261"/>
-      <c r="S8" s="261"/>
-      <c r="T8" s="261"/>
-      <c r="U8" s="261"/>
-      <c r="V8" s="262"/>
-      <c r="W8" s="257" t="s">
+      <c r="Q8" s="260"/>
+      <c r="R8" s="260"/>
+      <c r="S8" s="260"/>
+      <c r="T8" s="260"/>
+      <c r="U8" s="260"/>
+      <c r="V8" s="261"/>
+      <c r="W8" s="256" t="s">
         <v>379</v>
       </c>
-      <c r="X8" s="257" t="s">
+      <c r="X8" s="256" t="s">
         <v>279</v>
       </c>
-      <c r="Y8" s="257" t="s">
+      <c r="Y8" s="256" t="s">
         <v>507</v>
       </c>
-      <c r="Z8" s="257" t="s">
+      <c r="Z8" s="256" t="s">
         <v>399</v>
       </c>
-      <c r="AA8" s="282" t="s">
+      <c r="AA8" s="281" t="s">
         <v>500</v>
       </c>
-      <c r="AB8" s="282"/>
-      <c r="AC8" s="282"/>
-      <c r="AD8" s="282"/>
-      <c r="AE8" s="282"/>
-      <c r="AF8" s="282"/>
-      <c r="AG8" s="282"/>
-      <c r="AH8" s="282"/>
-      <c r="AI8" s="282"/>
-      <c r="AJ8" s="282"/>
-      <c r="AK8" s="282"/>
-      <c r="AL8" s="282"/>
-      <c r="AM8" s="283" t="s">
+      <c r="AB8" s="281"/>
+      <c r="AC8" s="281"/>
+      <c r="AD8" s="281"/>
+      <c r="AE8" s="281"/>
+      <c r="AF8" s="281"/>
+      <c r="AG8" s="281"/>
+      <c r="AH8" s="281"/>
+      <c r="AI8" s="281"/>
+      <c r="AJ8" s="281"/>
+      <c r="AK8" s="281"/>
+      <c r="AL8" s="281"/>
+      <c r="AM8" s="282" t="s">
         <v>446</v>
       </c>
-      <c r="AN8" s="283" t="s">
+      <c r="AN8" s="282" t="s">
         <v>447</v>
       </c>
-      <c r="AO8" s="283" t="s">
+      <c r="AO8" s="282" t="s">
         <v>448</v>
       </c>
-      <c r="AP8" s="283" t="s">
+      <c r="AP8" s="282" t="s">
         <v>449</v>
       </c>
-      <c r="AQ8" s="283" t="s">
+      <c r="AQ8" s="282" t="s">
         <v>450</v>
       </c>
-      <c r="AR8" s="283" t="s">
+      <c r="AR8" s="282" t="s">
         <v>451</v>
       </c>
-      <c r="AS8" s="257" t="s">
+      <c r="AS8" s="256" t="s">
         <v>258</v>
       </c>
-      <c r="AT8" s="257" t="s">
+      <c r="AT8" s="256" t="s">
         <v>274</v>
       </c>
-      <c r="AU8" s="257" t="s">
+      <c r="AU8" s="256" t="s">
         <v>277</v>
       </c>
-      <c r="AV8" s="257" t="s">
+      <c r="AV8" s="256" t="s">
         <v>261</v>
       </c>
-      <c r="AW8" s="257" t="s">
+      <c r="AW8" s="256" t="s">
         <v>273</v>
       </c>
-      <c r="AX8" s="257" t="s">
+      <c r="AX8" s="256" t="s">
         <v>508</v>
       </c>
-      <c r="AY8" s="257" t="s">
+      <c r="AY8" s="256" t="s">
         <v>272</v>
       </c>
-      <c r="AZ8" s="257" t="s">
+      <c r="AZ8" s="256" t="s">
         <v>44</v>
       </c>
-      <c r="BA8" s="257" t="s">
+      <c r="BA8" s="256" t="s">
         <v>273</v>
       </c>
       <c r="BB8" s="168" t="s">
@@ -7303,7 +7572,7 @@
       <c r="BC8" s="168" t="s">
         <v>514</v>
       </c>
-      <c r="BD8" s="259"/>
+      <c r="BD8" s="258"/>
       <c r="BE8" s="168"/>
       <c r="BF8" s="168"/>
       <c r="BG8" s="161" t="s">
@@ -7313,140 +7582,140 @@
         <v>269</v>
       </c>
       <c r="BI8" s="170"/>
-      <c r="BJ8" s="257" t="s">
+      <c r="BJ8" s="256" t="s">
         <v>270</v>
       </c>
-      <c r="BK8" s="257" t="s">
+      <c r="BK8" s="256" t="s">
         <v>268</v>
       </c>
-      <c r="BL8" s="257" t="s">
+      <c r="BL8" s="256" t="s">
         <v>314</v>
       </c>
-      <c r="BM8" s="257" t="s">
+      <c r="BM8" s="256" t="s">
         <v>313</v>
       </c>
-      <c r="BN8" s="257" t="s">
+      <c r="BN8" s="256" t="s">
         <v>312</v>
       </c>
-      <c r="BO8" s="246"/>
-      <c r="BP8" s="246"/>
-      <c r="BQ8" s="246"/>
-      <c r="BR8" s="246"/>
-      <c r="BS8" s="257" t="s">
+      <c r="BO8" s="245"/>
+      <c r="BP8" s="245"/>
+      <c r="BQ8" s="245"/>
+      <c r="BR8" s="245"/>
+      <c r="BS8" s="256" t="s">
         <v>356</v>
       </c>
-      <c r="BT8" s="257" t="s">
+      <c r="BT8" s="256" t="s">
         <v>1</v>
       </c>
-      <c r="BU8" s="239" t="s">
+      <c r="BU8" s="238" t="s">
         <v>388</v>
       </c>
-      <c r="BV8" s="240"/>
-      <c r="BW8" s="240"/>
-      <c r="BX8" s="241"/>
-      <c r="BY8" s="257" t="s">
+      <c r="BV8" s="239"/>
+      <c r="BW8" s="239"/>
+      <c r="BX8" s="240"/>
+      <c r="BY8" s="256" t="s">
         <v>516</v>
       </c>
-      <c r="BZ8" s="257" t="s">
+      <c r="BZ8" s="256" t="s">
         <v>422</v>
       </c>
-      <c r="CA8" s="257" t="s">
+      <c r="CA8" s="256" t="s">
         <v>505</v>
       </c>
-      <c r="CB8" s="239" t="s">
+      <c r="CB8" s="238" t="s">
         <v>501</v>
       </c>
-      <c r="CC8" s="241"/>
-      <c r="CD8" s="257" t="s">
+      <c r="CC8" s="240"/>
+      <c r="CD8" s="256" t="s">
         <v>483</v>
       </c>
-      <c r="CE8" s="246"/>
-      <c r="CF8" s="246"/>
-      <c r="CG8" s="250" t="s">
+      <c r="CE8" s="245"/>
+      <c r="CF8" s="245"/>
+      <c r="CG8" s="249" t="s">
         <v>470</v>
       </c>
-      <c r="CH8" s="250" t="s">
+      <c r="CH8" s="249" t="s">
         <v>471</v>
       </c>
-      <c r="CI8" s="246"/>
-      <c r="CJ8" s="246"/>
-      <c r="CK8" s="245" t="s">
+      <c r="CI8" s="245"/>
+      <c r="CJ8" s="245"/>
+      <c r="CK8" s="244" t="s">
         <v>384</v>
       </c>
-      <c r="CL8" s="245" t="s">
+      <c r="CL8" s="244" t="s">
         <v>385</v>
       </c>
-      <c r="CM8" s="245"/>
-      <c r="CN8" s="245"/>
-      <c r="CO8" s="245"/>
-      <c r="CP8" s="250" t="s">
+      <c r="CM8" s="244"/>
+      <c r="CN8" s="244"/>
+      <c r="CO8" s="244"/>
+      <c r="CP8" s="249" t="s">
         <v>308</v>
       </c>
-      <c r="CQ8" s="250" t="s">
+      <c r="CQ8" s="249" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="9" spans="1:174" ht="47" customHeight="1">
-      <c r="A9" s="295"/>
+      <c r="A9" s="294"/>
       <c r="B9" s="101"/>
-      <c r="C9" s="226"/>
-      <c r="D9" s="247"/>
-      <c r="E9" s="247"/>
-      <c r="F9" s="247"/>
-      <c r="G9" s="258"/>
-      <c r="H9" s="258"/>
-      <c r="I9" s="258"/>
-      <c r="J9" s="258"/>
-      <c r="K9" s="258"/>
-      <c r="L9" s="258"/>
-      <c r="M9" s="258"/>
-      <c r="N9" s="258"/>
-      <c r="O9" s="258"/>
-      <c r="P9" s="296" t="s">
+      <c r="C9" s="225"/>
+      <c r="D9" s="246"/>
+      <c r="E9" s="246"/>
+      <c r="F9" s="246"/>
+      <c r="G9" s="257"/>
+      <c r="H9" s="257"/>
+      <c r="I9" s="257"/>
+      <c r="J9" s="257"/>
+      <c r="K9" s="257"/>
+      <c r="L9" s="257"/>
+      <c r="M9" s="257"/>
+      <c r="N9" s="257"/>
+      <c r="O9" s="257"/>
+      <c r="P9" s="295" t="s">
         <v>445</v>
       </c>
-      <c r="Q9" s="297"/>
-      <c r="R9" s="297"/>
-      <c r="S9" s="297"/>
-      <c r="T9" s="297"/>
-      <c r="U9" s="297"/>
-      <c r="V9" s="298"/>
-      <c r="W9" s="258"/>
-      <c r="X9" s="258"/>
-      <c r="Y9" s="258"/>
-      <c r="Z9" s="258"/>
-      <c r="AA9" s="290" t="s">
+      <c r="Q9" s="296"/>
+      <c r="R9" s="296"/>
+      <c r="S9" s="296"/>
+      <c r="T9" s="296"/>
+      <c r="U9" s="296"/>
+      <c r="V9" s="297"/>
+      <c r="W9" s="257"/>
+      <c r="X9" s="257"/>
+      <c r="Y9" s="257"/>
+      <c r="Z9" s="257"/>
+      <c r="AA9" s="289" t="s">
         <v>444</v>
       </c>
-      <c r="AB9" s="290"/>
-      <c r="AC9" s="290"/>
-      <c r="AD9" s="290"/>
-      <c r="AE9" s="290"/>
-      <c r="AF9" s="290"/>
-      <c r="AG9" s="290"/>
-      <c r="AH9" s="290"/>
-      <c r="AI9" s="290"/>
-      <c r="AJ9" s="290"/>
-      <c r="AK9" s="290"/>
-      <c r="AL9" s="290"/>
-      <c r="AM9" s="283"/>
-      <c r="AN9" s="283"/>
-      <c r="AO9" s="283"/>
-      <c r="AP9" s="283"/>
-      <c r="AQ9" s="283"/>
-      <c r="AR9" s="283"/>
-      <c r="AS9" s="258"/>
-      <c r="AT9" s="258"/>
-      <c r="AU9" s="258"/>
-      <c r="AV9" s="258"/>
-      <c r="AW9" s="258"/>
-      <c r="AX9" s="258"/>
-      <c r="AY9" s="258"/>
-      <c r="AZ9" s="258"/>
-      <c r="BA9" s="258"/>
+      <c r="AB9" s="289"/>
+      <c r="AC9" s="289"/>
+      <c r="AD9" s="289"/>
+      <c r="AE9" s="289"/>
+      <c r="AF9" s="289"/>
+      <c r="AG9" s="289"/>
+      <c r="AH9" s="289"/>
+      <c r="AI9" s="289"/>
+      <c r="AJ9" s="289"/>
+      <c r="AK9" s="289"/>
+      <c r="AL9" s="289"/>
+      <c r="AM9" s="282"/>
+      <c r="AN9" s="282"/>
+      <c r="AO9" s="282"/>
+      <c r="AP9" s="282"/>
+      <c r="AQ9" s="282"/>
+      <c r="AR9" s="282"/>
+      <c r="AS9" s="257"/>
+      <c r="AT9" s="257"/>
+      <c r="AU9" s="257"/>
+      <c r="AV9" s="257"/>
+      <c r="AW9" s="257"/>
+      <c r="AX9" s="257"/>
+      <c r="AY9" s="257"/>
+      <c r="AZ9" s="257"/>
+      <c r="BA9" s="257"/>
       <c r="BB9" s="169"/>
       <c r="BC9" s="169"/>
-      <c r="BD9" s="259"/>
+      <c r="BD9" s="258"/>
       <c r="BE9" s="169"/>
       <c r="BF9" s="169"/>
       <c r="BG9" s="162" t="s">
@@ -7456,207 +7725,207 @@
         <v>456</v>
       </c>
       <c r="BI9" s="171"/>
-      <c r="BJ9" s="258"/>
-      <c r="BK9" s="258"/>
-      <c r="BL9" s="258"/>
-      <c r="BM9" s="258"/>
-      <c r="BN9" s="258"/>
-      <c r="BO9" s="247"/>
-      <c r="BP9" s="247"/>
-      <c r="BQ9" s="247"/>
-      <c r="BR9" s="247"/>
-      <c r="BS9" s="258"/>
-      <c r="BT9" s="258"/>
-      <c r="BU9" s="242"/>
-      <c r="BV9" s="243"/>
-      <c r="BW9" s="243"/>
-      <c r="BX9" s="244"/>
-      <c r="BY9" s="258"/>
-      <c r="BZ9" s="258"/>
-      <c r="CA9" s="258"/>
-      <c r="CB9" s="242"/>
-      <c r="CC9" s="244"/>
-      <c r="CD9" s="258"/>
-      <c r="CE9" s="247"/>
-      <c r="CF9" s="247"/>
-      <c r="CG9" s="250"/>
-      <c r="CH9" s="250"/>
-      <c r="CI9" s="247"/>
-      <c r="CJ9" s="247"/>
-      <c r="CK9" s="245"/>
-      <c r="CL9" s="245"/>
-      <c r="CM9" s="245"/>
-      <c r="CN9" s="245"/>
-      <c r="CO9" s="245"/>
-      <c r="CP9" s="250"/>
-      <c r="CQ9" s="250"/>
+      <c r="BJ9" s="257"/>
+      <c r="BK9" s="257"/>
+      <c r="BL9" s="257"/>
+      <c r="BM9" s="257"/>
+      <c r="BN9" s="257"/>
+      <c r="BO9" s="246"/>
+      <c r="BP9" s="246"/>
+      <c r="BQ9" s="246"/>
+      <c r="BR9" s="246"/>
+      <c r="BS9" s="257"/>
+      <c r="BT9" s="257"/>
+      <c r="BU9" s="241"/>
+      <c r="BV9" s="242"/>
+      <c r="BW9" s="242"/>
+      <c r="BX9" s="243"/>
+      <c r="BY9" s="257"/>
+      <c r="BZ9" s="257"/>
+      <c r="CA9" s="257"/>
+      <c r="CB9" s="241"/>
+      <c r="CC9" s="243"/>
+      <c r="CD9" s="257"/>
+      <c r="CE9" s="246"/>
+      <c r="CF9" s="246"/>
+      <c r="CG9" s="249"/>
+      <c r="CH9" s="249"/>
+      <c r="CI9" s="246"/>
+      <c r="CJ9" s="246"/>
+      <c r="CK9" s="244"/>
+      <c r="CL9" s="244"/>
+      <c r="CM9" s="244"/>
+      <c r="CN9" s="244"/>
+      <c r="CO9" s="244"/>
+      <c r="CP9" s="249"/>
+      <c r="CQ9" s="249"/>
     </row>
     <row r="10" spans="1:174" ht="32" customHeight="1">
-      <c r="A10" s="256" t="s">
+      <c r="A10" s="255" t="s">
         <v>374</v>
       </c>
       <c r="B10" s="127"/>
-      <c r="C10" s="226"/>
-      <c r="D10" s="247"/>
-      <c r="E10" s="247"/>
-      <c r="F10" s="247"/>
-      <c r="G10" s="253"/>
-      <c r="H10" s="253"/>
-      <c r="I10" s="253"/>
-      <c r="J10" s="253"/>
-      <c r="K10" s="253"/>
-      <c r="L10" s="253"/>
-      <c r="M10" s="253"/>
-      <c r="N10" s="253"/>
-      <c r="O10" s="253"/>
-      <c r="P10" s="260" t="s">
+      <c r="C10" s="225"/>
+      <c r="D10" s="246"/>
+      <c r="E10" s="246"/>
+      <c r="F10" s="246"/>
+      <c r="G10" s="252"/>
+      <c r="H10" s="252"/>
+      <c r="I10" s="252"/>
+      <c r="J10" s="252"/>
+      <c r="K10" s="252"/>
+      <c r="L10" s="252"/>
+      <c r="M10" s="252"/>
+      <c r="N10" s="252"/>
+      <c r="O10" s="252"/>
+      <c r="P10" s="259" t="s">
         <v>263</v>
       </c>
-      <c r="Q10" s="261"/>
-      <c r="R10" s="261"/>
-      <c r="S10" s="261"/>
-      <c r="T10" s="261"/>
-      <c r="U10" s="261"/>
-      <c r="V10" s="262"/>
-      <c r="W10" s="253"/>
-      <c r="X10" s="253"/>
-      <c r="Y10" s="253" t="s">
+      <c r="Q10" s="260"/>
+      <c r="R10" s="260"/>
+      <c r="S10" s="260"/>
+      <c r="T10" s="260"/>
+      <c r="U10" s="260"/>
+      <c r="V10" s="261"/>
+      <c r="W10" s="252"/>
+      <c r="X10" s="252"/>
+      <c r="Y10" s="252" t="s">
         <v>506</v>
       </c>
-      <c r="Z10" s="253"/>
-      <c r="AA10" s="282" t="s">
+      <c r="Z10" s="252"/>
+      <c r="AA10" s="281" t="s">
         <v>263</v>
       </c>
-      <c r="AB10" s="282"/>
-      <c r="AC10" s="282"/>
-      <c r="AD10" s="282"/>
-      <c r="AE10" s="282"/>
-      <c r="AF10" s="282"/>
-      <c r="AG10" s="282"/>
-      <c r="AH10" s="282"/>
-      <c r="AI10" s="282"/>
-      <c r="AJ10" s="282"/>
-      <c r="AK10" s="282"/>
-      <c r="AL10" s="282"/>
-      <c r="AM10" s="253"/>
-      <c r="AN10" s="253"/>
-      <c r="AO10" s="253"/>
-      <c r="AP10" s="253"/>
-      <c r="AQ10" s="253"/>
-      <c r="AR10" s="253"/>
-      <c r="AS10" s="253"/>
-      <c r="AT10" s="253"/>
-      <c r="AU10" s="253"/>
-      <c r="AV10" s="253"/>
-      <c r="AW10" s="253"/>
-      <c r="AX10" s="253"/>
+      <c r="AB10" s="281"/>
+      <c r="AC10" s="281"/>
+      <c r="AD10" s="281"/>
+      <c r="AE10" s="281"/>
+      <c r="AF10" s="281"/>
+      <c r="AG10" s="281"/>
+      <c r="AH10" s="281"/>
+      <c r="AI10" s="281"/>
+      <c r="AJ10" s="281"/>
+      <c r="AK10" s="281"/>
+      <c r="AL10" s="281"/>
+      <c r="AM10" s="252"/>
+      <c r="AN10" s="252"/>
+      <c r="AO10" s="252"/>
+      <c r="AP10" s="252"/>
+      <c r="AQ10" s="252"/>
+      <c r="AR10" s="252"/>
+      <c r="AS10" s="252"/>
+      <c r="AT10" s="252"/>
+      <c r="AU10" s="252"/>
+      <c r="AV10" s="252"/>
+      <c r="AW10" s="252"/>
+      <c r="AX10" s="252"/>
       <c r="AY10" s="157"/>
-      <c r="AZ10" s="253"/>
-      <c r="BA10" s="253"/>
+      <c r="AZ10" s="252"/>
+      <c r="BA10" s="252"/>
       <c r="BB10" s="157"/>
       <c r="BC10" s="157"/>
       <c r="BD10" s="157"/>
       <c r="BE10" s="157"/>
       <c r="BF10" s="157"/>
-      <c r="BG10" s="253"/>
-      <c r="BH10" s="253"/>
+      <c r="BG10" s="252"/>
+      <c r="BH10" s="252"/>
       <c r="BI10" s="157"/>
-      <c r="BJ10" s="253"/>
-      <c r="BK10" s="253"/>
+      <c r="BJ10" s="252"/>
+      <c r="BK10" s="252"/>
       <c r="BL10" s="143" t="s">
         <v>269</v>
       </c>
-      <c r="BM10" s="253"/>
+      <c r="BM10" s="252"/>
       <c r="BN10" s="69"/>
-      <c r="BO10" s="247"/>
-      <c r="BP10" s="247"/>
-      <c r="BQ10" s="247"/>
-      <c r="BR10" s="247"/>
+      <c r="BO10" s="246"/>
+      <c r="BP10" s="246"/>
+      <c r="BQ10" s="246"/>
+      <c r="BR10" s="246"/>
       <c r="BS10" s="146" t="s">
         <v>466</v>
       </c>
       <c r="BT10" s="146" t="s">
         <v>465</v>
       </c>
-      <c r="BU10" s="245" t="s">
+      <c r="BU10" s="244" t="s">
         <v>301</v>
       </c>
-      <c r="BV10" s="245" t="s">
+      <c r="BV10" s="244" t="s">
         <v>268</v>
       </c>
-      <c r="BW10" s="245" t="s">
+      <c r="BW10" s="244" t="s">
         <v>261</v>
       </c>
-      <c r="BX10" s="245" t="s">
+      <c r="BX10" s="244" t="s">
         <v>269</v>
       </c>
       <c r="BY10" s="155"/>
-      <c r="BZ10" s="246"/>
+      <c r="BZ10" s="245"/>
       <c r="CA10" s="143" t="s">
         <v>269</v>
       </c>
-      <c r="CB10" s="291" t="s">
+      <c r="CB10" s="290" t="s">
         <v>269</v>
       </c>
-      <c r="CC10" s="291"/>
+      <c r="CC10" s="290"/>
       <c r="CD10" s="153" t="s">
         <v>269</v>
       </c>
-      <c r="CE10" s="247"/>
-      <c r="CF10" s="247"/>
-      <c r="CG10" s="237"/>
-      <c r="CH10" s="237"/>
-      <c r="CI10" s="247"/>
-      <c r="CJ10" s="247"/>
-      <c r="CK10" s="237"/>
-      <c r="CL10" s="250">
+      <c r="CE10" s="246"/>
+      <c r="CF10" s="246"/>
+      <c r="CG10" s="236"/>
+      <c r="CH10" s="236"/>
+      <c r="CI10" s="246"/>
+      <c r="CJ10" s="246"/>
+      <c r="CK10" s="236"/>
+      <c r="CL10" s="249">
         <v>1</v>
       </c>
-      <c r="CM10" s="250">
+      <c r="CM10" s="249">
         <v>2</v>
       </c>
-      <c r="CN10" s="250">
+      <c r="CN10" s="249">
         <v>3</v>
       </c>
-      <c r="CO10" s="250">
+      <c r="CO10" s="249">
         <v>4</v>
       </c>
-      <c r="CP10" s="237"/>
-      <c r="CQ10" s="237"/>
+      <c r="CP10" s="236"/>
+      <c r="CQ10" s="236"/>
     </row>
     <row r="11" spans="1:174" ht="34">
-      <c r="A11" s="256"/>
+      <c r="A11" s="255"/>
       <c r="B11" s="127"/>
-      <c r="C11" s="226"/>
-      <c r="D11" s="247"/>
-      <c r="E11" s="247"/>
-      <c r="F11" s="247"/>
-      <c r="G11" s="254"/>
-      <c r="H11" s="254"/>
-      <c r="I11" s="254"/>
-      <c r="J11" s="254"/>
-      <c r="K11" s="254"/>
-      <c r="L11" s="254"/>
-      <c r="M11" s="254"/>
-      <c r="N11" s="254"/>
-      <c r="O11" s="254"/>
+      <c r="C11" s="225"/>
+      <c r="D11" s="246"/>
+      <c r="E11" s="246"/>
+      <c r="F11" s="246"/>
+      <c r="G11" s="253"/>
+      <c r="H11" s="253"/>
+      <c r="I11" s="253"/>
+      <c r="J11" s="253"/>
+      <c r="K11" s="253"/>
+      <c r="L11" s="253"/>
+      <c r="M11" s="253"/>
+      <c r="N11" s="253"/>
+      <c r="O11" s="253"/>
       <c r="P11" s="129" t="s">
         <v>136</v>
       </c>
       <c r="Q11" s="129" t="s">
         <v>137</v>
       </c>
-      <c r="R11" s="284" t="s">
+      <c r="R11" s="283" t="s">
         <v>426</v>
       </c>
-      <c r="S11" s="285"/>
-      <c r="T11" s="285"/>
-      <c r="U11" s="285"/>
-      <c r="V11" s="286"/>
-      <c r="W11" s="254"/>
-      <c r="X11" s="254"/>
-      <c r="Y11" s="254"/>
-      <c r="Z11" s="254"/>
+      <c r="S11" s="284"/>
+      <c r="T11" s="284"/>
+      <c r="U11" s="284"/>
+      <c r="V11" s="285"/>
+      <c r="W11" s="253"/>
+      <c r="X11" s="253"/>
+      <c r="Y11" s="253"/>
+      <c r="Z11" s="253"/>
       <c r="AA11" s="139" t="s">
         <v>136</v>
       </c>
@@ -7669,294 +7938,294 @@
       <c r="AD11" s="139" t="s">
         <v>281</v>
       </c>
-      <c r="AE11" s="287" t="s">
+      <c r="AE11" s="286" t="s">
         <v>426</v>
       </c>
-      <c r="AF11" s="288"/>
-      <c r="AG11" s="288"/>
-      <c r="AH11" s="289"/>
-      <c r="AI11" s="287" t="s">
+      <c r="AF11" s="287"/>
+      <c r="AG11" s="287"/>
+      <c r="AH11" s="288"/>
+      <c r="AI11" s="286" t="s">
         <v>140</v>
       </c>
-      <c r="AJ11" s="288"/>
-      <c r="AK11" s="288"/>
-      <c r="AL11" s="289"/>
-      <c r="AM11" s="254"/>
-      <c r="AN11" s="254"/>
-      <c r="AO11" s="254"/>
-      <c r="AP11" s="254"/>
-      <c r="AQ11" s="254"/>
-      <c r="AR11" s="254"/>
-      <c r="AS11" s="254"/>
-      <c r="AT11" s="254"/>
-      <c r="AU11" s="254"/>
-      <c r="AV11" s="254"/>
-      <c r="AW11" s="254"/>
-      <c r="AX11" s="254"/>
+      <c r="AJ11" s="287"/>
+      <c r="AK11" s="287"/>
+      <c r="AL11" s="288"/>
+      <c r="AM11" s="253"/>
+      <c r="AN11" s="253"/>
+      <c r="AO11" s="253"/>
+      <c r="AP11" s="253"/>
+      <c r="AQ11" s="253"/>
+      <c r="AR11" s="253"/>
+      <c r="AS11" s="253"/>
+      <c r="AT11" s="253"/>
+      <c r="AU11" s="253"/>
+      <c r="AV11" s="253"/>
+      <c r="AW11" s="253"/>
+      <c r="AX11" s="253"/>
       <c r="AY11" s="158"/>
-      <c r="AZ11" s="254"/>
-      <c r="BA11" s="254"/>
+      <c r="AZ11" s="253"/>
+      <c r="BA11" s="253"/>
       <c r="BB11" s="158"/>
       <c r="BC11" s="158"/>
       <c r="BD11" s="158"/>
       <c r="BE11" s="158"/>
       <c r="BF11" s="158"/>
-      <c r="BG11" s="254"/>
-      <c r="BH11" s="254"/>
+      <c r="BG11" s="253"/>
+      <c r="BH11" s="253"/>
       <c r="BI11" s="158"/>
-      <c r="BJ11" s="254"/>
-      <c r="BK11" s="254"/>
+      <c r="BJ11" s="253"/>
+      <c r="BK11" s="253"/>
       <c r="BL11" s="96" t="s">
         <v>458</v>
       </c>
-      <c r="BM11" s="254"/>
+      <c r="BM11" s="253"/>
       <c r="BN11" s="69"/>
-      <c r="BO11" s="247"/>
-      <c r="BP11" s="247"/>
-      <c r="BQ11" s="247"/>
-      <c r="BR11" s="247"/>
+      <c r="BO11" s="246"/>
+      <c r="BP11" s="246"/>
+      <c r="BQ11" s="246"/>
+      <c r="BR11" s="246"/>
       <c r="BS11" s="54" t="s">
         <v>464</v>
       </c>
       <c r="BT11" s="54" t="s">
         <v>444</v>
       </c>
-      <c r="BU11" s="245"/>
-      <c r="BV11" s="245"/>
-      <c r="BW11" s="245"/>
-      <c r="BX11" s="245"/>
+      <c r="BU11" s="244"/>
+      <c r="BV11" s="244"/>
+      <c r="BW11" s="244"/>
+      <c r="BX11" s="244"/>
       <c r="BY11" s="155"/>
-      <c r="BZ11" s="247"/>
+      <c r="BZ11" s="246"/>
       <c r="CA11" s="96" t="s">
         <v>458</v>
       </c>
-      <c r="CB11" s="292" t="s">
+      <c r="CB11" s="291" t="s">
         <v>455</v>
       </c>
-      <c r="CC11" s="292"/>
+      <c r="CC11" s="291"/>
       <c r="CD11" s="154" t="s">
         <v>455</v>
       </c>
-      <c r="CE11" s="247"/>
-      <c r="CF11" s="247"/>
-      <c r="CG11" s="238"/>
-      <c r="CH11" s="238"/>
-      <c r="CI11" s="247"/>
-      <c r="CJ11" s="247"/>
-      <c r="CK11" s="238"/>
-      <c r="CL11" s="250"/>
-      <c r="CM11" s="250"/>
-      <c r="CN11" s="250"/>
-      <c r="CO11" s="250"/>
-      <c r="CP11" s="238"/>
-      <c r="CQ11" s="238"/>
+      <c r="CE11" s="246"/>
+      <c r="CF11" s="246"/>
+      <c r="CG11" s="237"/>
+      <c r="CH11" s="237"/>
+      <c r="CI11" s="246"/>
+      <c r="CJ11" s="246"/>
+      <c r="CK11" s="237"/>
+      <c r="CL11" s="249"/>
+      <c r="CM11" s="249"/>
+      <c r="CN11" s="249"/>
+      <c r="CO11" s="249"/>
+      <c r="CP11" s="237"/>
+      <c r="CQ11" s="237"/>
     </row>
     <row r="12" spans="1:174" ht="37" customHeight="1">
-      <c r="A12" s="294" t="s">
+      <c r="A12" s="293" t="s">
         <v>404</v>
       </c>
       <c r="B12" s="127"/>
-      <c r="C12" s="226"/>
-      <c r="D12" s="247"/>
-      <c r="E12" s="247"/>
-      <c r="F12" s="247"/>
-      <c r="G12" s="254"/>
-      <c r="H12" s="254"/>
-      <c r="I12" s="254"/>
-      <c r="J12" s="254"/>
-      <c r="K12" s="254"/>
-      <c r="L12" s="254"/>
-      <c r="M12" s="254"/>
-      <c r="N12" s="254"/>
-      <c r="O12" s="254"/>
-      <c r="P12" s="251"/>
-      <c r="Q12" s="251"/>
-      <c r="R12" s="250" t="s">
+      <c r="C12" s="225"/>
+      <c r="D12" s="246"/>
+      <c r="E12" s="246"/>
+      <c r="F12" s="246"/>
+      <c r="G12" s="253"/>
+      <c r="H12" s="253"/>
+      <c r="I12" s="253"/>
+      <c r="J12" s="253"/>
+      <c r="K12" s="253"/>
+      <c r="L12" s="253"/>
+      <c r="M12" s="253"/>
+      <c r="N12" s="253"/>
+      <c r="O12" s="253"/>
+      <c r="P12" s="250"/>
+      <c r="Q12" s="250"/>
+      <c r="R12" s="249" t="s">
         <v>141</v>
       </c>
-      <c r="S12" s="263" t="s">
+      <c r="S12" s="262" t="s">
         <v>146</v>
       </c>
-      <c r="T12" s="263" t="s">
+      <c r="T12" s="262" t="s">
         <v>408</v>
       </c>
-      <c r="U12" s="263" t="s">
+      <c r="U12" s="262" t="s">
         <v>409</v>
       </c>
-      <c r="V12" s="263" t="s">
+      <c r="V12" s="262" t="s">
         <v>410</v>
       </c>
-      <c r="W12" s="254"/>
-      <c r="X12" s="254"/>
-      <c r="Y12" s="254"/>
-      <c r="Z12" s="254"/>
-      <c r="AA12" s="251"/>
-      <c r="AB12" s="251"/>
-      <c r="AC12" s="251"/>
-      <c r="AD12" s="251"/>
-      <c r="AE12" s="255" t="s">
+      <c r="W12" s="253"/>
+      <c r="X12" s="253"/>
+      <c r="Y12" s="253"/>
+      <c r="Z12" s="253"/>
+      <c r="AA12" s="250"/>
+      <c r="AB12" s="250"/>
+      <c r="AC12" s="250"/>
+      <c r="AD12" s="250"/>
+      <c r="AE12" s="254" t="s">
         <v>141</v>
       </c>
-      <c r="AF12" s="255" t="s">
+      <c r="AF12" s="254" t="s">
         <v>146</v>
       </c>
-      <c r="AG12" s="255" t="s">
+      <c r="AG12" s="254" t="s">
         <v>400</v>
       </c>
-      <c r="AH12" s="255" t="s">
+      <c r="AH12" s="254" t="s">
         <v>401</v>
       </c>
-      <c r="AI12" s="255" t="s">
+      <c r="AI12" s="254" t="s">
         <v>141</v>
       </c>
-      <c r="AJ12" s="255" t="s">
+      <c r="AJ12" s="254" t="s">
         <v>142</v>
       </c>
-      <c r="AK12" s="255" t="s">
+      <c r="AK12" s="254" t="s">
         <v>143</v>
       </c>
-      <c r="AL12" s="255" t="s">
+      <c r="AL12" s="254" t="s">
         <v>144</v>
       </c>
-      <c r="AM12" s="254"/>
-      <c r="AN12" s="254"/>
-      <c r="AO12" s="254"/>
-      <c r="AP12" s="254"/>
-      <c r="AQ12" s="254"/>
-      <c r="AR12" s="254"/>
-      <c r="AS12" s="254"/>
-      <c r="AT12" s="254"/>
-      <c r="AU12" s="254"/>
-      <c r="AV12" s="254"/>
-      <c r="AW12" s="254"/>
-      <c r="AX12" s="254"/>
+      <c r="AM12" s="253"/>
+      <c r="AN12" s="253"/>
+      <c r="AO12" s="253"/>
+      <c r="AP12" s="253"/>
+      <c r="AQ12" s="253"/>
+      <c r="AR12" s="253"/>
+      <c r="AS12" s="253"/>
+      <c r="AT12" s="253"/>
+      <c r="AU12" s="253"/>
+      <c r="AV12" s="253"/>
+      <c r="AW12" s="253"/>
+      <c r="AX12" s="253"/>
       <c r="AY12" s="158"/>
-      <c r="AZ12" s="254"/>
-      <c r="BA12" s="254"/>
+      <c r="AZ12" s="253"/>
+      <c r="BA12" s="253"/>
       <c r="BB12" s="158"/>
       <c r="BC12" s="158"/>
       <c r="BD12" s="158"/>
       <c r="BE12" s="158"/>
       <c r="BF12" s="158"/>
-      <c r="BG12" s="254"/>
-      <c r="BH12" s="254"/>
+      <c r="BG12" s="253"/>
+      <c r="BH12" s="253"/>
       <c r="BI12" s="158"/>
-      <c r="BJ12" s="254"/>
-      <c r="BK12" s="254"/>
-      <c r="BL12" s="248"/>
-      <c r="BM12" s="254"/>
+      <c r="BJ12" s="253"/>
+      <c r="BK12" s="253"/>
+      <c r="BL12" s="247"/>
+      <c r="BM12" s="253"/>
       <c r="BN12" s="69"/>
-      <c r="BO12" s="247"/>
-      <c r="BP12" s="247"/>
-      <c r="BQ12" s="247"/>
-      <c r="BR12" s="247"/>
-      <c r="BS12" s="248"/>
-      <c r="BT12" s="248"/>
-      <c r="BU12" s="248"/>
-      <c r="BV12" s="248"/>
+      <c r="BO12" s="246"/>
+      <c r="BP12" s="246"/>
+      <c r="BQ12" s="246"/>
+      <c r="BR12" s="246"/>
+      <c r="BS12" s="247"/>
+      <c r="BT12" s="247"/>
+      <c r="BU12" s="247"/>
+      <c r="BV12" s="247"/>
       <c r="BW12" s="149"/>
-      <c r="BX12" s="248"/>
+      <c r="BX12" s="247"/>
       <c r="BY12" s="155"/>
-      <c r="BZ12" s="247"/>
+      <c r="BZ12" s="246"/>
       <c r="CA12" s="134"/>
-      <c r="CB12" s="293" t="s">
+      <c r="CB12" s="292" t="s">
         <v>484</v>
       </c>
-      <c r="CC12" s="293"/>
-      <c r="CD12" s="248"/>
-      <c r="CE12" s="247"/>
-      <c r="CF12" s="247"/>
-      <c r="CG12" s="238"/>
-      <c r="CH12" s="238"/>
-      <c r="CI12" s="247"/>
-      <c r="CJ12" s="247"/>
-      <c r="CK12" s="238"/>
-      <c r="CL12" s="248"/>
-      <c r="CM12" s="248"/>
-      <c r="CN12" s="248"/>
-      <c r="CO12" s="248"/>
-      <c r="CP12" s="238"/>
-      <c r="CQ12" s="238"/>
+      <c r="CC12" s="292"/>
+      <c r="CD12" s="247"/>
+      <c r="CE12" s="246"/>
+      <c r="CF12" s="246"/>
+      <c r="CG12" s="237"/>
+      <c r="CH12" s="237"/>
+      <c r="CI12" s="246"/>
+      <c r="CJ12" s="246"/>
+      <c r="CK12" s="237"/>
+      <c r="CL12" s="247"/>
+      <c r="CM12" s="247"/>
+      <c r="CN12" s="247"/>
+      <c r="CO12" s="247"/>
+      <c r="CP12" s="237"/>
+      <c r="CQ12" s="237"/>
     </row>
     <row r="13" spans="1:174" ht="47" customHeight="1">
-      <c r="A13" s="295"/>
+      <c r="A13" s="294"/>
       <c r="B13" s="101"/>
-      <c r="C13" s="226"/>
-      <c r="D13" s="247"/>
-      <c r="E13" s="247"/>
-      <c r="F13" s="247"/>
-      <c r="G13" s="254"/>
-      <c r="H13" s="254"/>
-      <c r="I13" s="254"/>
-      <c r="J13" s="254"/>
-      <c r="K13" s="254"/>
-      <c r="L13" s="254"/>
-      <c r="M13" s="254"/>
-      <c r="N13" s="254"/>
-      <c r="O13" s="254"/>
-      <c r="P13" s="252"/>
-      <c r="Q13" s="252"/>
-      <c r="R13" s="250"/>
-      <c r="S13" s="263"/>
-      <c r="T13" s="263"/>
-      <c r="U13" s="263"/>
-      <c r="V13" s="263"/>
-      <c r="W13" s="254"/>
-      <c r="X13" s="254"/>
-      <c r="Y13" s="254"/>
-      <c r="Z13" s="254"/>
-      <c r="AA13" s="252"/>
-      <c r="AB13" s="252"/>
-      <c r="AC13" s="252"/>
-      <c r="AD13" s="252"/>
-      <c r="AE13" s="255"/>
-      <c r="AF13" s="255"/>
-      <c r="AG13" s="255"/>
-      <c r="AH13" s="255"/>
-      <c r="AI13" s="255"/>
-      <c r="AJ13" s="255"/>
-      <c r="AK13" s="255"/>
-      <c r="AL13" s="255"/>
-      <c r="AM13" s="254"/>
-      <c r="AN13" s="254"/>
-      <c r="AO13" s="254"/>
-      <c r="AP13" s="254"/>
-      <c r="AQ13" s="254"/>
-      <c r="AR13" s="254"/>
-      <c r="AS13" s="254"/>
-      <c r="AT13" s="254"/>
-      <c r="AU13" s="254"/>
-      <c r="AV13" s="254"/>
-      <c r="AW13" s="254"/>
-      <c r="AX13" s="254"/>
+      <c r="C13" s="225"/>
+      <c r="D13" s="246"/>
+      <c r="E13" s="246"/>
+      <c r="F13" s="246"/>
+      <c r="G13" s="253"/>
+      <c r="H13" s="253"/>
+      <c r="I13" s="253"/>
+      <c r="J13" s="253"/>
+      <c r="K13" s="253"/>
+      <c r="L13" s="253"/>
+      <c r="M13" s="253"/>
+      <c r="N13" s="253"/>
+      <c r="O13" s="253"/>
+      <c r="P13" s="251"/>
+      <c r="Q13" s="251"/>
+      <c r="R13" s="249"/>
+      <c r="S13" s="262"/>
+      <c r="T13" s="262"/>
+      <c r="U13" s="262"/>
+      <c r="V13" s="262"/>
+      <c r="W13" s="253"/>
+      <c r="X13" s="253"/>
+      <c r="Y13" s="253"/>
+      <c r="Z13" s="253"/>
+      <c r="AA13" s="251"/>
+      <c r="AB13" s="251"/>
+      <c r="AC13" s="251"/>
+      <c r="AD13" s="251"/>
+      <c r="AE13" s="254"/>
+      <c r="AF13" s="254"/>
+      <c r="AG13" s="254"/>
+      <c r="AH13" s="254"/>
+      <c r="AI13" s="254"/>
+      <c r="AJ13" s="254"/>
+      <c r="AK13" s="254"/>
+      <c r="AL13" s="254"/>
+      <c r="AM13" s="253"/>
+      <c r="AN13" s="253"/>
+      <c r="AO13" s="253"/>
+      <c r="AP13" s="253"/>
+      <c r="AQ13" s="253"/>
+      <c r="AR13" s="253"/>
+      <c r="AS13" s="253"/>
+      <c r="AT13" s="253"/>
+      <c r="AU13" s="253"/>
+      <c r="AV13" s="253"/>
+      <c r="AW13" s="253"/>
+      <c r="AX13" s="253"/>
       <c r="AY13" s="158"/>
-      <c r="AZ13" s="254"/>
-      <c r="BA13" s="254"/>
+      <c r="AZ13" s="253"/>
+      <c r="BA13" s="253"/>
       <c r="BB13" s="158"/>
       <c r="BC13" s="158"/>
       <c r="BD13" s="158"/>
       <c r="BE13" s="158"/>
       <c r="BF13" s="158"/>
-      <c r="BG13" s="254"/>
-      <c r="BH13" s="254"/>
+      <c r="BG13" s="253"/>
+      <c r="BH13" s="253"/>
       <c r="BI13" s="158"/>
-      <c r="BJ13" s="254"/>
-      <c r="BK13" s="254"/>
-      <c r="BL13" s="249"/>
-      <c r="BM13" s="254"/>
+      <c r="BJ13" s="253"/>
+      <c r="BK13" s="253"/>
+      <c r="BL13" s="248"/>
+      <c r="BM13" s="253"/>
       <c r="BN13" s="69"/>
-      <c r="BO13" s="247"/>
-      <c r="BP13" s="247"/>
-      <c r="BQ13" s="247"/>
-      <c r="BR13" s="247"/>
-      <c r="BS13" s="249"/>
-      <c r="BT13" s="249"/>
-      <c r="BU13" s="249"/>
-      <c r="BV13" s="249"/>
+      <c r="BO13" s="246"/>
+      <c r="BP13" s="246"/>
+      <c r="BQ13" s="246"/>
+      <c r="BR13" s="246"/>
+      <c r="BS13" s="248"/>
+      <c r="BT13" s="248"/>
+      <c r="BU13" s="248"/>
+      <c r="BV13" s="248"/>
       <c r="BW13" s="148"/>
-      <c r="BX13" s="249"/>
+      <c r="BX13" s="248"/>
       <c r="BY13" s="155"/>
-      <c r="BZ13" s="247"/>
+      <c r="BZ13" s="246"/>
       <c r="CA13" s="134"/>
       <c r="CB13" s="96" t="s">
         <v>477</v>
@@ -7964,216 +8233,216 @@
       <c r="CC13" s="96" t="s">
         <v>482</v>
       </c>
-      <c r="CD13" s="249"/>
-      <c r="CE13" s="247"/>
-      <c r="CF13" s="247"/>
-      <c r="CG13" s="238"/>
-      <c r="CH13" s="238"/>
-      <c r="CI13" s="247"/>
-      <c r="CJ13" s="247"/>
-      <c r="CK13" s="238"/>
-      <c r="CL13" s="249"/>
-      <c r="CM13" s="249"/>
-      <c r="CN13" s="249"/>
-      <c r="CO13" s="249"/>
-      <c r="CP13" s="238"/>
-      <c r="CQ13" s="238"/>
+      <c r="CD13" s="248"/>
+      <c r="CE13" s="246"/>
+      <c r="CF13" s="246"/>
+      <c r="CG13" s="237"/>
+      <c r="CH13" s="237"/>
+      <c r="CI13" s="246"/>
+      <c r="CJ13" s="246"/>
+      <c r="CK13" s="237"/>
+      <c r="CL13" s="248"/>
+      <c r="CM13" s="248"/>
+      <c r="CN13" s="248"/>
+      <c r="CO13" s="248"/>
+      <c r="CP13" s="237"/>
+      <c r="CQ13" s="237"/>
     </row>
     <row r="14" spans="1:174" ht="51" customHeight="1">
-      <c r="A14" s="256" t="s">
+      <c r="A14" s="255" t="s">
         <v>476</v>
       </c>
       <c r="B14" s="101"/>
-      <c r="C14" s="226"/>
-      <c r="D14" s="247"/>
-      <c r="E14" s="247"/>
-      <c r="F14" s="247"/>
-      <c r="G14" s="254"/>
-      <c r="H14" s="254"/>
-      <c r="I14" s="254"/>
-      <c r="J14" s="254"/>
-      <c r="K14" s="254"/>
-      <c r="L14" s="254"/>
-      <c r="M14" s="254"/>
-      <c r="N14" s="254"/>
-      <c r="O14" s="254"/>
-      <c r="P14" s="252"/>
-      <c r="Q14" s="252"/>
-      <c r="R14" s="251"/>
-      <c r="S14" s="251"/>
-      <c r="T14" s="251"/>
-      <c r="U14" s="251"/>
-      <c r="V14" s="251"/>
-      <c r="W14" s="254"/>
-      <c r="X14" s="254"/>
-      <c r="Y14" s="254"/>
-      <c r="Z14" s="254"/>
-      <c r="AA14" s="252"/>
-      <c r="AB14" s="252"/>
-      <c r="AC14" s="252"/>
-      <c r="AD14" s="252"/>
-      <c r="AE14" s="251"/>
-      <c r="AF14" s="251"/>
-      <c r="AG14" s="251"/>
-      <c r="AH14" s="251"/>
-      <c r="AI14" s="251"/>
-      <c r="AJ14" s="251"/>
-      <c r="AK14" s="251"/>
-      <c r="AL14" s="251"/>
-      <c r="AM14" s="254"/>
-      <c r="AN14" s="254"/>
-      <c r="AO14" s="254"/>
-      <c r="AP14" s="254"/>
-      <c r="AQ14" s="254"/>
-      <c r="AR14" s="254"/>
-      <c r="AS14" s="254"/>
-      <c r="AT14" s="254"/>
-      <c r="AU14" s="254"/>
-      <c r="AV14" s="254"/>
-      <c r="AW14" s="254"/>
-      <c r="AX14" s="254"/>
+      <c r="C14" s="225"/>
+      <c r="D14" s="246"/>
+      <c r="E14" s="246"/>
+      <c r="F14" s="246"/>
+      <c r="G14" s="253"/>
+      <c r="H14" s="253"/>
+      <c r="I14" s="253"/>
+      <c r="J14" s="253"/>
+      <c r="K14" s="253"/>
+      <c r="L14" s="253"/>
+      <c r="M14" s="253"/>
+      <c r="N14" s="253"/>
+      <c r="O14" s="253"/>
+      <c r="P14" s="251"/>
+      <c r="Q14" s="251"/>
+      <c r="R14" s="250"/>
+      <c r="S14" s="250"/>
+      <c r="T14" s="250"/>
+      <c r="U14" s="250"/>
+      <c r="V14" s="250"/>
+      <c r="W14" s="253"/>
+      <c r="X14" s="253"/>
+      <c r="Y14" s="253"/>
+      <c r="Z14" s="253"/>
+      <c r="AA14" s="251"/>
+      <c r="AB14" s="251"/>
+      <c r="AC14" s="251"/>
+      <c r="AD14" s="251"/>
+      <c r="AE14" s="250"/>
+      <c r="AF14" s="250"/>
+      <c r="AG14" s="250"/>
+      <c r="AH14" s="250"/>
+      <c r="AI14" s="250"/>
+      <c r="AJ14" s="250"/>
+      <c r="AK14" s="250"/>
+      <c r="AL14" s="250"/>
+      <c r="AM14" s="253"/>
+      <c r="AN14" s="253"/>
+      <c r="AO14" s="253"/>
+      <c r="AP14" s="253"/>
+      <c r="AQ14" s="253"/>
+      <c r="AR14" s="253"/>
+      <c r="AS14" s="253"/>
+      <c r="AT14" s="253"/>
+      <c r="AU14" s="253"/>
+      <c r="AV14" s="253"/>
+      <c r="AW14" s="253"/>
+      <c r="AX14" s="253"/>
       <c r="AY14" s="158"/>
-      <c r="AZ14" s="254"/>
-      <c r="BA14" s="254"/>
+      <c r="AZ14" s="253"/>
+      <c r="BA14" s="253"/>
       <c r="BB14" s="158"/>
       <c r="BC14" s="158"/>
       <c r="BD14" s="158"/>
       <c r="BE14" s="158"/>
       <c r="BF14" s="158"/>
-      <c r="BG14" s="254"/>
-      <c r="BH14" s="254"/>
+      <c r="BG14" s="253"/>
+      <c r="BH14" s="253"/>
       <c r="BI14" s="158"/>
-      <c r="BJ14" s="254"/>
-      <c r="BK14" s="254"/>
-      <c r="BL14" s="249"/>
-      <c r="BM14" s="254"/>
-      <c r="BN14" s="224"/>
-      <c r="BO14" s="247"/>
-      <c r="BP14" s="247"/>
-      <c r="BQ14" s="247"/>
-      <c r="BR14" s="247"/>
-      <c r="BS14" s="249"/>
-      <c r="BT14" s="249"/>
-      <c r="BU14" s="249"/>
-      <c r="BV14" s="249"/>
+      <c r="BJ14" s="253"/>
+      <c r="BK14" s="253"/>
+      <c r="BL14" s="248"/>
+      <c r="BM14" s="253"/>
+      <c r="BN14" s="223"/>
+      <c r="BO14" s="246"/>
+      <c r="BP14" s="246"/>
+      <c r="BQ14" s="246"/>
+      <c r="BR14" s="246"/>
+      <c r="BS14" s="248"/>
+      <c r="BT14" s="248"/>
+      <c r="BU14" s="248"/>
+      <c r="BV14" s="248"/>
       <c r="BW14" s="148"/>
-      <c r="BX14" s="249"/>
+      <c r="BX14" s="248"/>
       <c r="BY14" s="155"/>
-      <c r="BZ14" s="247"/>
+      <c r="BZ14" s="246"/>
       <c r="CA14" s="134"/>
       <c r="CB14" s="134"/>
       <c r="CC14" s="134"/>
-      <c r="CD14" s="249"/>
-      <c r="CE14" s="247"/>
-      <c r="CF14" s="247"/>
-      <c r="CG14" s="238"/>
-      <c r="CH14" s="238"/>
-      <c r="CI14" s="247"/>
-      <c r="CJ14" s="247"/>
-      <c r="CK14" s="238"/>
-      <c r="CL14" s="249"/>
-      <c r="CM14" s="249"/>
-      <c r="CN14" s="249"/>
-      <c r="CO14" s="249"/>
-      <c r="CP14" s="238"/>
-      <c r="CQ14" s="238"/>
+      <c r="CD14" s="248"/>
+      <c r="CE14" s="246"/>
+      <c r="CF14" s="246"/>
+      <c r="CG14" s="237"/>
+      <c r="CH14" s="237"/>
+      <c r="CI14" s="246"/>
+      <c r="CJ14" s="246"/>
+      <c r="CK14" s="237"/>
+      <c r="CL14" s="248"/>
+      <c r="CM14" s="248"/>
+      <c r="CN14" s="248"/>
+      <c r="CO14" s="248"/>
+      <c r="CP14" s="237"/>
+      <c r="CQ14" s="237"/>
     </row>
     <row r="15" spans="1:174" ht="47" customHeight="1">
-      <c r="A15" s="256"/>
+      <c r="A15" s="255"/>
       <c r="B15" s="101"/>
-      <c r="C15" s="226"/>
-      <c r="D15" s="247"/>
-      <c r="E15" s="247"/>
-      <c r="F15" s="247"/>
-      <c r="G15" s="254"/>
-      <c r="H15" s="254"/>
-      <c r="I15" s="254"/>
-      <c r="J15" s="254"/>
-      <c r="K15" s="254"/>
-      <c r="L15" s="254"/>
-      <c r="M15" s="254"/>
-      <c r="N15" s="254"/>
-      <c r="O15" s="254"/>
-      <c r="P15" s="252"/>
-      <c r="Q15" s="252"/>
-      <c r="R15" s="252"/>
-      <c r="S15" s="252"/>
-      <c r="T15" s="252"/>
-      <c r="U15" s="252"/>
-      <c r="V15" s="252"/>
-      <c r="W15" s="254"/>
-      <c r="X15" s="254"/>
-      <c r="Y15" s="254"/>
-      <c r="Z15" s="254"/>
-      <c r="AA15" s="252"/>
-      <c r="AB15" s="252"/>
-      <c r="AC15" s="252"/>
-      <c r="AD15" s="252"/>
-      <c r="AE15" s="252"/>
-      <c r="AF15" s="252"/>
-      <c r="AG15" s="252"/>
-      <c r="AH15" s="252"/>
-      <c r="AI15" s="252"/>
-      <c r="AJ15" s="252"/>
-      <c r="AK15" s="252"/>
-      <c r="AL15" s="252"/>
-      <c r="AM15" s="254"/>
-      <c r="AN15" s="254"/>
-      <c r="AO15" s="254"/>
-      <c r="AP15" s="254"/>
-      <c r="AQ15" s="254"/>
-      <c r="AR15" s="254"/>
-      <c r="AS15" s="254"/>
-      <c r="AT15" s="254"/>
-      <c r="AU15" s="254"/>
-      <c r="AV15" s="254"/>
-      <c r="AW15" s="254"/>
-      <c r="AX15" s="254"/>
+      <c r="C15" s="225"/>
+      <c r="D15" s="246"/>
+      <c r="E15" s="246"/>
+      <c r="F15" s="246"/>
+      <c r="G15" s="253"/>
+      <c r="H15" s="253"/>
+      <c r="I15" s="253"/>
+      <c r="J15" s="253"/>
+      <c r="K15" s="253"/>
+      <c r="L15" s="253"/>
+      <c r="M15" s="253"/>
+      <c r="N15" s="253"/>
+      <c r="O15" s="253"/>
+      <c r="P15" s="251"/>
+      <c r="Q15" s="251"/>
+      <c r="R15" s="251"/>
+      <c r="S15" s="251"/>
+      <c r="T15" s="251"/>
+      <c r="U15" s="251"/>
+      <c r="V15" s="251"/>
+      <c r="W15" s="253"/>
+      <c r="X15" s="253"/>
+      <c r="Y15" s="253"/>
+      <c r="Z15" s="253"/>
+      <c r="AA15" s="251"/>
+      <c r="AB15" s="251"/>
+      <c r="AC15" s="251"/>
+      <c r="AD15" s="251"/>
+      <c r="AE15" s="251"/>
+      <c r="AF15" s="251"/>
+      <c r="AG15" s="251"/>
+      <c r="AH15" s="251"/>
+      <c r="AI15" s="251"/>
+      <c r="AJ15" s="251"/>
+      <c r="AK15" s="251"/>
+      <c r="AL15" s="251"/>
+      <c r="AM15" s="253"/>
+      <c r="AN15" s="253"/>
+      <c r="AO15" s="253"/>
+      <c r="AP15" s="253"/>
+      <c r="AQ15" s="253"/>
+      <c r="AR15" s="253"/>
+      <c r="AS15" s="253"/>
+      <c r="AT15" s="253"/>
+      <c r="AU15" s="253"/>
+      <c r="AV15" s="253"/>
+      <c r="AW15" s="253"/>
+      <c r="AX15" s="253"/>
       <c r="AY15" s="158"/>
-      <c r="AZ15" s="254"/>
-      <c r="BA15" s="254"/>
+      <c r="AZ15" s="253"/>
+      <c r="BA15" s="253"/>
       <c r="BB15" s="158"/>
       <c r="BC15" s="158"/>
       <c r="BD15" s="158"/>
       <c r="BE15" s="158"/>
       <c r="BF15" s="158"/>
-      <c r="BG15" s="254"/>
-      <c r="BH15" s="254"/>
+      <c r="BG15" s="253"/>
+      <c r="BH15" s="253"/>
       <c r="BI15" s="158"/>
-      <c r="BJ15" s="254"/>
-      <c r="BK15" s="254"/>
-      <c r="BL15" s="249"/>
-      <c r="BM15" s="254"/>
-      <c r="BN15" s="224"/>
-      <c r="BO15" s="247"/>
-      <c r="BP15" s="247"/>
-      <c r="BQ15" s="247"/>
-      <c r="BR15" s="247"/>
-      <c r="BS15" s="249"/>
-      <c r="BT15" s="249"/>
-      <c r="BU15" s="249"/>
-      <c r="BV15" s="249"/>
+      <c r="BJ15" s="253"/>
+      <c r="BK15" s="253"/>
+      <c r="BL15" s="248"/>
+      <c r="BM15" s="253"/>
+      <c r="BN15" s="223"/>
+      <c r="BO15" s="246"/>
+      <c r="BP15" s="246"/>
+      <c r="BQ15" s="246"/>
+      <c r="BR15" s="246"/>
+      <c r="BS15" s="248"/>
+      <c r="BT15" s="248"/>
+      <c r="BU15" s="248"/>
+      <c r="BV15" s="248"/>
       <c r="BW15" s="148"/>
-      <c r="BX15" s="249"/>
+      <c r="BX15" s="248"/>
       <c r="BY15" s="155"/>
-      <c r="BZ15" s="247"/>
+      <c r="BZ15" s="246"/>
       <c r="CA15" s="134"/>
       <c r="CB15" s="134"/>
       <c r="CC15" s="134"/>
-      <c r="CD15" s="249"/>
-      <c r="CE15" s="247"/>
-      <c r="CF15" s="247"/>
-      <c r="CG15" s="238"/>
-      <c r="CH15" s="238"/>
-      <c r="CI15" s="247"/>
-      <c r="CJ15" s="247"/>
-      <c r="CK15" s="238"/>
-      <c r="CL15" s="249"/>
-      <c r="CM15" s="249"/>
-      <c r="CN15" s="249"/>
-      <c r="CO15" s="249"/>
-      <c r="CP15" s="238"/>
-      <c r="CQ15" s="238"/>
+      <c r="CD15" s="248"/>
+      <c r="CE15" s="246"/>
+      <c r="CF15" s="246"/>
+      <c r="CG15" s="237"/>
+      <c r="CH15" s="237"/>
+      <c r="CI15" s="246"/>
+      <c r="CJ15" s="246"/>
+      <c r="CK15" s="237"/>
+      <c r="CL15" s="248"/>
+      <c r="CM15" s="248"/>
+      <c r="CN15" s="248"/>
+      <c r="CO15" s="248"/>
+      <c r="CP15" s="237"/>
+      <c r="CQ15" s="237"/>
     </row>
     <row r="16" spans="1:174" ht="24">
       <c r="A16" s="127"/>
@@ -9077,10 +9346,10 @@
       <c r="AK23" s="58"/>
     </row>
     <row r="24" spans="1:95" ht="44" customHeight="1">
-      <c r="BU24" s="281"/>
-      <c r="BV24" s="281"/>
-      <c r="BW24" s="281"/>
-      <c r="BX24" s="281"/>
+      <c r="BU24" s="280"/>
+      <c r="BV24" s="280"/>
+      <c r="BW24" s="280"/>
+      <c r="BX24" s="280"/>
       <c r="BY24" s="156"/>
     </row>
     <row r="28" spans="1:95">
@@ -9359,13 +9628,13 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="21">
-      <c r="A4" s="187" t="s">
+      <c r="A4" s="186" t="s">
         <v>537</v>
       </c>
       <c r="C4" t="s">
         <v>519</v>
       </c>
-      <c r="D4" s="182">
+      <c r="D4" s="181">
         <v>1706390016</v>
       </c>
       <c r="E4" t="s">
@@ -9373,47 +9642,47 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="D8" s="183"/>
-      <c r="E8" s="202"/>
+      <c r="D8" s="182"/>
+      <c r="E8" s="201"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="D9" s="202"/>
+      <c r="D9" s="201"/>
     </row>
     <row r="10" spans="1:6" ht="21">
-      <c r="C10" s="187"/>
+      <c r="C10" s="186"/>
     </row>
     <row r="11" spans="1:6" ht="21">
-      <c r="C11" s="201"/>
+      <c r="C11" s="200"/>
     </row>
     <row r="13" spans="1:6" ht="21">
-      <c r="A13" s="201" t="s">
+      <c r="A13" s="200" t="s">
         <v>544</v>
       </c>
       <c r="C13" t="s">
         <v>520</v>
       </c>
-      <c r="D13" s="203">
+      <c r="D13" s="202">
         <v>8842999808</v>
       </c>
-      <c r="E13" s="205"/>
-    </row>
-    <row r="14" spans="1:6" s="199" customFormat="1">
-      <c r="A14" s="209" t="s">
+      <c r="E13" s="204"/>
+    </row>
+    <row r="14" spans="1:6" s="198" customFormat="1">
+      <c r="A14" s="208" t="s">
         <v>546</v>
       </c>
-      <c r="C14" s="199" t="s">
+      <c r="C14" s="198" t="s">
         <v>545</v>
       </c>
-      <c r="D14" s="210">
+      <c r="D14" s="209">
         <f>D13/D4</f>
         <v>5.182285248438772</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="21">
-      <c r="A15" s="201" t="s">
+      <c r="A15" s="200" t="s">
         <v>540</v>
       </c>
-      <c r="D15" s="206" t="s">
+      <c r="D15" s="205" t="s">
         <v>547</v>
       </c>
       <c r="E15" t="s">
@@ -9421,10 +9690,10 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="21">
-      <c r="A16" s="192" t="s">
+      <c r="A16" s="191" t="s">
         <v>549</v>
       </c>
-      <c r="D16" s="207" t="s">
+      <c r="D16" s="206" t="s">
         <v>548</v>
       </c>
       <c r="E16" t="s">
@@ -9432,91 +9701,91 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="21">
-      <c r="C22" s="192"/>
-      <c r="D22" s="193"/>
+      <c r="C22" s="191"/>
+      <c r="D22" s="192"/>
     </row>
     <row r="23" spans="1:5" ht="21">
-      <c r="A23" s="186" t="s">
+      <c r="A23" s="185" t="s">
         <v>525</v>
       </c>
-      <c r="D23" s="203">
+      <c r="D23" s="202">
         <v>23972000000</v>
       </c>
-      <c r="E23" s="185">
+      <c r="E23" s="184">
         <v>23972000000</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="21">
-      <c r="A24" s="192" t="s">
+      <c r="A24" s="191" t="s">
         <v>541</v>
       </c>
-      <c r="D24" s="203">
+      <c r="D24" s="202">
         <v>158097997824</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="21">
-      <c r="A25" s="192" t="s">
+      <c r="A25" s="191" t="s">
         <v>542</v>
       </c>
-      <c r="D25" s="203">
+      <c r="D25" s="202">
         <v>249914998784</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="21">
-      <c r="A26" s="192" t="s">
+      <c r="A26" s="191" t="s">
         <v>543</v>
       </c>
       <c r="C26" t="s">
         <v>524</v>
       </c>
-      <c r="D26" s="203">
+      <c r="D26" s="202">
         <v>23971999744</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="21">
-      <c r="A27" s="201" t="s">
+      <c r="A27" s="200" t="s">
         <v>544</v>
       </c>
       <c r="C27" t="s">
         <v>520</v>
       </c>
-      <c r="D27" s="203">
+      <c r="D27" s="202">
         <v>8842999808</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="21">
-      <c r="C28" s="192"/>
-      <c r="D28" s="193"/>
+      <c r="C28" s="191"/>
+      <c r="D28" s="192"/>
     </row>
     <row r="29" spans="1:5" ht="21">
-      <c r="C29" s="192"/>
-      <c r="D29" s="193"/>
+      <c r="C29" s="191"/>
+      <c r="D29" s="192"/>
     </row>
     <row r="30" spans="1:5" ht="21">
-      <c r="C30" s="192"/>
-      <c r="D30" s="193"/>
+      <c r="C30" s="191"/>
+      <c r="D30" s="192"/>
     </row>
     <row r="36" spans="1:5" ht="24">
-      <c r="A36" s="204" t="s">
+      <c r="A36" s="203" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="21">
-      <c r="A37" s="187" t="s">
+      <c r="A37" s="186" t="s">
         <v>537</v>
       </c>
       <c r="C37" t="s">
         <v>519</v>
       </c>
-      <c r="D37" s="182">
+      <c r="D37" s="181">
         <v>1706390016</v>
       </c>
-      <c r="E37" s="187" t="s">
+      <c r="E37" s="186" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="21">
-      <c r="A38" s="186" t="s">
+      <c r="A38" s="185" t="s">
         <v>534</v>
       </c>
       <c r="C38" t="s">
@@ -9526,30 +9795,30 @@
         <v>94.81</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="199" customFormat="1" ht="21">
-      <c r="A39" s="198" t="s">
+    <row r="39" spans="1:5" s="198" customFormat="1" ht="21">
+      <c r="A39" s="197" t="s">
         <v>538</v>
       </c>
-      <c r="C39" s="198" t="s">
+      <c r="C39" s="197" t="s">
         <v>533</v>
       </c>
-      <c r="D39" s="200">
+      <c r="D39" s="199">
         <f>D37*D38</f>
         <v>161782837416.95999</v>
       </c>
-      <c r="E39" s="208">
+      <c r="E39" s="207">
         <f>D37*D38</f>
         <v>161782837416.95999</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="21">
-      <c r="A41" s="187" t="s">
+      <c r="A41" s="186" t="s">
         <v>533</v>
       </c>
       <c r="C41" t="s">
         <v>528</v>
       </c>
-      <c r="D41" s="196">
+      <c r="D41" s="195">
         <v>161782841344</v>
       </c>
       <c r="E41" t="s">
@@ -9557,7 +9826,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="24">
-      <c r="A45" s="204" t="s">
+      <c r="A45" s="203" t="s">
         <v>518</v>
       </c>
       <c r="E45" t="s">
@@ -9568,85 +9837,85 @@
       <c r="B47" t="s">
         <v>526</v>
       </c>
-      <c r="D47" s="194" t="s">
+      <c r="D47" s="193" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="D48" s="197" t="s">
+      <c r="D48" s="196" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="49" spans="3:7" ht="20">
-      <c r="C49" s="180" t="s">
+      <c r="C49" s="179" t="s">
         <v>522</v>
       </c>
-      <c r="D49" s="189">
+      <c r="D49" s="188">
         <v>259866214400</v>
       </c>
       <c r="F49" t="s">
         <v>528</v>
       </c>
-      <c r="G49" s="196">
+      <c r="G49" s="195">
         <v>161782841344</v>
       </c>
     </row>
     <row r="50" spans="3:7" ht="20">
-      <c r="C50" s="180" t="s">
+      <c r="C50" s="179" t="s">
         <v>523</v>
       </c>
-      <c r="D50" s="191">
+      <c r="D50" s="190">
         <v>10.84</v>
       </c>
-      <c r="E50" s="190" t="e">
+      <c r="E50" s="189" t="e">
         <f>D49/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F50" s="184" t="s">
+      <c r="F50" s="183" t="s">
         <v>529</v>
       </c>
-      <c r="G50" s="299">
+      <c r="G50" s="298">
         <v>-249914998784</v>
       </c>
     </row>
     <row r="51" spans="3:7" ht="21">
-      <c r="F51" s="188" t="s">
+      <c r="F51" s="187" t="s">
         <v>530</v>
       </c>
-      <c r="G51" s="299"/>
+      <c r="G51" s="298"/>
     </row>
     <row r="52" spans="3:7">
       <c r="F52" t="s">
         <v>531</v>
       </c>
-      <c r="G52" s="193">
+      <c r="G52" s="192">
         <v>158097997824</v>
       </c>
     </row>
     <row r="54" spans="3:7" ht="17" thickBot="1">
-      <c r="G54" s="195">
+      <c r="G54" s="194">
         <f>SUM(G49:G52)</f>
         <v>69965840384</v>
       </c>
     </row>
     <row r="55" spans="3:7" ht="17" thickTop="1"/>
     <row r="56" spans="3:7">
-      <c r="G56" s="184">
+      <c r="G56" s="183">
         <f>G54-D49</f>
         <v>-189900374016</v>
       </c>
     </row>
     <row r="57" spans="3:7">
-      <c r="G57" s="184"/>
+      <c r="G57" s="183"/>
     </row>
     <row r="58" spans="3:7">
-      <c r="G58" s="184"/>
+      <c r="G58" s="183"/>
     </row>
     <row r="59" spans="3:7">
-      <c r="G59" s="184"/>
+      <c r="G59" s="183"/>
     </row>
     <row r="92" spans="5:5">
-      <c r="E92" s="193">
+      <c r="E92" s="192">
         <f>SUM(E89:E90)</f>
         <v>0</v>
       </c>
@@ -9671,32 +9940,32 @@
   <cols>
     <col min="2" max="2" width="17.1640625" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" style="212" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" style="212" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22" style="212" customWidth="1"/>
-    <col min="7" max="8" width="19.83203125" style="212" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="18.33203125" style="212" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="212"/>
+    <col min="4" max="4" width="21.1640625" style="211" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" style="211" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" style="211" customWidth="1"/>
+    <col min="7" max="8" width="19.83203125" style="211" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="18.33203125" style="211" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" style="211"/>
     <col min="12" max="12" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12">
-      <c r="E2" s="212" t="s">
+      <c r="E2" s="211" t="s">
         <v>582</v>
       </c>
-      <c r="F2" s="212" t="s">
+      <c r="F2" s="211" t="s">
         <v>584</v>
       </c>
-      <c r="G2" s="212" t="s">
+      <c r="G2" s="211" t="s">
         <v>581</v>
       </c>
-      <c r="H2" s="212" t="s">
+      <c r="H2" s="211" t="s">
         <v>585</v>
       </c>
-      <c r="I2" s="212" t="s">
+      <c r="I2" s="211" t="s">
         <v>583</v>
       </c>
-      <c r="J2" s="212" t="s">
+      <c r="J2" s="211" t="s">
         <v>589</v>
       </c>
       <c r="L2" t="s">
@@ -9707,33 +9976,33 @@
       <c r="A6" t="s">
         <v>585</v>
       </c>
-      <c r="C6" s="211" t="s">
+      <c r="C6" s="210" t="s">
         <v>572</v>
       </c>
-      <c r="D6" s="213">
+      <c r="D6" s="212">
         <v>1625000000</v>
       </c>
-      <c r="H6" s="212">
+      <c r="H6" s="211">
         <f>D6</f>
         <v>1625000000</v>
       </c>
-      <c r="L6" s="216">
+      <c r="L6" s="215">
         <f>SUM(E6:K6)-D6</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="C7" s="211" t="s">
+      <c r="C7" s="210" t="s">
         <v>570</v>
       </c>
-      <c r="D7" s="213">
+      <c r="D7" s="212">
         <v>2067000000</v>
       </c>
-      <c r="G7" s="212">
+      <c r="G7" s="211">
         <f>D7</f>
         <v>2067000000</v>
       </c>
-      <c r="L7" s="216">
+      <c r="L7" s="215">
         <f t="shared" ref="L7:L25" si="0">SUM(E7:K7)-D7</f>
         <v>0</v>
       </c>
@@ -9742,52 +10011,52 @@
       <c r="A8" t="s">
         <v>585</v>
       </c>
-      <c r="C8" s="211" t="s">
+      <c r="C8" s="210" t="s">
         <v>576</v>
       </c>
-      <c r="D8" s="213">
+      <c r="D8" s="212">
         <v>2145000000</v>
       </c>
-      <c r="H8" s="212">
+      <c r="H8" s="211">
         <f>D8</f>
         <v>2145000000</v>
       </c>
-      <c r="L8" s="216">
+      <c r="L8" s="215">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="145"/>
-      <c r="C9" s="211" t="s">
+      <c r="C9" s="210" t="s">
         <v>566</v>
       </c>
-      <c r="D9" s="213">
+      <c r="D9" s="212">
         <v>3123000000</v>
       </c>
-      <c r="L9" s="216">
+      <c r="L9" s="215">
         <f t="shared" si="0"/>
         <v>-3123000000</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="218" t="s">
+      <c r="A10" s="217" t="s">
         <v>584</v>
       </c>
       <c r="B10" t="s">
         <v>584</v>
       </c>
-      <c r="C10" s="219" t="s">
+      <c r="C10" s="218" t="s">
         <v>556</v>
       </c>
-      <c r="D10" s="213">
+      <c r="D10" s="212">
         <v>3249000000</v>
       </c>
-      <c r="F10" s="214">
+      <c r="F10" s="213">
         <f>D10</f>
         <v>3249000000</v>
       </c>
-      <c r="L10" s="216">
+      <c r="L10" s="215">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -9799,17 +10068,17 @@
       <c r="B11" t="s">
         <v>587</v>
       </c>
-      <c r="C11" s="211" t="s">
+      <c r="C11" s="210" t="s">
         <v>557</v>
       </c>
-      <c r="D11" s="213">
+      <c r="D11" s="212">
         <v>5284000000</v>
       </c>
-      <c r="H11" s="212">
+      <c r="H11" s="211">
         <f>D11</f>
         <v>5284000000</v>
       </c>
-      <c r="L11" s="216">
+      <c r="L11" s="215">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -9818,17 +10087,17 @@
       <c r="A12" t="s">
         <v>585</v>
       </c>
-      <c r="C12" s="211" t="s">
+      <c r="C12" s="210" t="s">
         <v>571</v>
       </c>
-      <c r="D12" s="213">
+      <c r="D12" s="212">
         <v>5317000000</v>
       </c>
-      <c r="H12" s="212">
+      <c r="H12" s="211">
         <f>D12</f>
         <v>5317000000</v>
       </c>
-      <c r="L12" s="216">
+      <c r="L12" s="215">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -9837,21 +10106,21 @@
       <c r="A13" t="s">
         <v>581</v>
       </c>
-      <c r="C13" s="211" t="s">
+      <c r="C13" s="210" t="s">
         <v>555</v>
       </c>
-      <c r="D13" s="213">
+      <c r="D13" s="212">
         <v>5772000000</v>
       </c>
-      <c r="G13" s="212">
+      <c r="G13" s="211">
         <f>D13</f>
         <v>5772000000</v>
       </c>
-      <c r="J13" s="212">
+      <c r="J13" s="211">
         <f>D13</f>
         <v>5772000000</v>
       </c>
-      <c r="L13" s="216">
+      <c r="L13" s="215">
         <f t="shared" si="0"/>
         <v>5772000000</v>
       </c>
@@ -9863,21 +10132,21 @@
       <c r="B14" t="s">
         <v>586</v>
       </c>
-      <c r="C14" s="211" t="s">
+      <c r="C14" s="210" t="s">
         <v>579</v>
       </c>
-      <c r="D14" s="213">
+      <c r="D14" s="212">
         <v>7055000000</v>
       </c>
-      <c r="H14" s="212">
+      <c r="H14" s="211">
         <f>D14</f>
         <v>7055000000</v>
       </c>
-      <c r="I14" s="212">
+      <c r="I14" s="211">
         <f>D14</f>
         <v>7055000000</v>
       </c>
-      <c r="L14" s="216">
+      <c r="L14" s="215">
         <f t="shared" si="0"/>
         <v>7055000000</v>
       </c>
@@ -9889,21 +10158,21 @@
       <c r="B15" t="s">
         <v>586</v>
       </c>
-      <c r="C15" s="211" t="s">
+      <c r="C15" s="210" t="s">
         <v>580</v>
       </c>
-      <c r="D15" s="213">
+      <c r="D15" s="212">
         <v>7331000000</v>
       </c>
-      <c r="G15" s="212">
+      <c r="G15" s="211">
         <f>D15</f>
         <v>7331000000</v>
       </c>
-      <c r="J15" s="212">
+      <c r="J15" s="211">
         <f>D15</f>
         <v>7331000000</v>
       </c>
-      <c r="L15" s="216">
+      <c r="L15" s="215">
         <f t="shared" si="0"/>
         <v>7331000000</v>
       </c>
@@ -9915,21 +10184,21 @@
       <c r="B16" t="s">
         <v>586</v>
       </c>
-      <c r="C16" s="211" t="s">
+      <c r="C16" s="210" t="s">
         <v>560</v>
       </c>
-      <c r="D16" s="213">
+      <c r="D16" s="212">
         <v>12666000000</v>
       </c>
-      <c r="H16" s="212">
+      <c r="H16" s="211">
         <f>D16</f>
         <v>12666000000</v>
       </c>
-      <c r="I16" s="212">
+      <c r="I16" s="211">
         <f>D16</f>
         <v>12666000000</v>
       </c>
-      <c r="L16" s="216">
+      <c r="L16" s="215">
         <f t="shared" si="0"/>
         <v>12666000000</v>
       </c>
@@ -9941,17 +10210,17 @@
       <c r="B17" t="s">
         <v>584</v>
       </c>
-      <c r="C17" s="219" t="s">
+      <c r="C17" s="218" t="s">
         <v>558</v>
       </c>
-      <c r="D17" s="213">
+      <c r="D17" s="212">
         <v>37044000000</v>
       </c>
-      <c r="F17" s="214">
+      <c r="F17" s="213">
         <f>D17</f>
         <v>37044000000</v>
       </c>
-      <c r="L17" s="216">
+      <c r="L17" s="215">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -9963,21 +10232,21 @@
       <c r="B18" t="s">
         <v>584</v>
       </c>
-      <c r="C18" s="211" t="s">
+      <c r="C18" s="210" t="s">
         <v>569</v>
       </c>
-      <c r="D18" s="213">
+      <c r="D18" s="212">
         <v>38546000000</v>
       </c>
-      <c r="F18" s="212">
+      <c r="F18" s="211">
         <f>D18</f>
         <v>38546000000</v>
       </c>
-      <c r="J18" s="212">
+      <c r="J18" s="211">
         <f>D18</f>
         <v>38546000000</v>
       </c>
-      <c r="L18" s="216">
+      <c r="L18" s="215">
         <f t="shared" si="0"/>
         <v>38546000000</v>
       </c>
@@ -9989,21 +10258,21 @@
       <c r="B19" t="s">
         <v>587</v>
       </c>
-      <c r="C19" s="211" t="s">
+      <c r="C19" s="210" t="s">
         <v>559</v>
       </c>
-      <c r="D19" s="213">
+      <c r="D19" s="212">
         <v>45588000000</v>
       </c>
-      <c r="G19" s="212">
+      <c r="G19" s="211">
         <f>D19</f>
         <v>45588000000</v>
       </c>
-      <c r="J19" s="212">
+      <c r="J19" s="211">
         <f>D19</f>
         <v>45588000000</v>
       </c>
-      <c r="L19" s="216">
+      <c r="L19" s="215">
         <f t="shared" si="0"/>
         <v>45588000000</v>
       </c>
@@ -10012,17 +10281,17 @@
       <c r="A20" t="s">
         <v>585</v>
       </c>
-      <c r="C20" s="211" t="s">
+      <c r="C20" s="210" t="s">
         <v>577</v>
       </c>
-      <c r="D20" s="213">
+      <c r="D20" s="212">
         <v>71771000000</v>
       </c>
-      <c r="H20" s="212">
+      <c r="H20" s="211">
         <f>D20</f>
         <v>71771000000</v>
       </c>
-      <c r="L20" s="216">
+      <c r="L20" s="215">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -10031,21 +10300,21 @@
       <c r="A21" t="s">
         <v>585</v>
       </c>
-      <c r="C21" s="211" t="s">
+      <c r="C21" s="210" t="s">
         <v>568</v>
       </c>
-      <c r="D21" s="213">
+      <c r="D21" s="212">
         <v>87375000000</v>
       </c>
-      <c r="H21" s="212">
+      <c r="H21" s="211">
         <f>D21</f>
         <v>87375000000</v>
       </c>
-      <c r="I21" s="212">
+      <c r="I21" s="211">
         <f>D21</f>
         <v>87375000000</v>
       </c>
-      <c r="L21" s="216">
+      <c r="L21" s="215">
         <f t="shared" si="0"/>
         <v>87375000000</v>
       </c>
@@ -10057,17 +10326,17 @@
       <c r="B22" t="s">
         <v>587</v>
       </c>
-      <c r="C22" s="211" t="s">
+      <c r="C22" s="210" t="s">
         <v>574</v>
       </c>
-      <c r="D22" s="213">
+      <c r="D22" s="212">
         <v>94912000000</v>
       </c>
-      <c r="H22" s="212">
+      <c r="H22" s="211">
         <f>D22</f>
         <v>94912000000</v>
       </c>
-      <c r="L22" s="216">
+      <c r="L22" s="215">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -10079,17 +10348,17 @@
       <c r="B23" t="s">
         <v>587</v>
       </c>
-      <c r="C23" s="211" t="s">
+      <c r="C23" s="210" t="s">
         <v>573</v>
       </c>
-      <c r="D23" s="213">
+      <c r="D23" s="212">
         <v>160425000000</v>
       </c>
-      <c r="G23" s="212">
+      <c r="G23" s="211">
         <f>D23</f>
         <v>160425000000</v>
       </c>
-      <c r="L23" s="216">
+      <c r="L23" s="215">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -10101,21 +10370,21 @@
       <c r="B24" t="s">
         <v>586</v>
       </c>
-      <c r="C24" s="211" t="s">
+      <c r="C24" s="210" t="s">
         <v>567</v>
       </c>
-      <c r="D24" s="213">
+      <c r="D24" s="212">
         <v>747063000000</v>
       </c>
-      <c r="G24" s="212">
+      <c r="G24" s="211">
         <f>D24</f>
         <v>747063000000</v>
       </c>
-      <c r="J24" s="212">
+      <c r="J24" s="211">
         <f>D24</f>
         <v>747063000000</v>
       </c>
-      <c r="L24" s="216">
+      <c r="L24" s="215">
         <f t="shared" si="0"/>
         <v>747063000000</v>
       </c>
@@ -10124,17 +10393,17 @@
       <c r="A25" t="s">
         <v>585</v>
       </c>
-      <c r="C25" s="211" t="s">
+      <c r="C25" s="210" t="s">
         <v>578</v>
       </c>
-      <c r="D25" s="213">
+      <c r="D25" s="212">
         <v>817061000000</v>
       </c>
-      <c r="H25" s="212">
+      <c r="H25" s="211">
         <f>D25</f>
         <v>817061000000</v>
       </c>
-      <c r="L25" s="216">
+      <c r="L25" s="215">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -10143,17 +10412,17 @@
       <c r="A28" t="s">
         <v>585</v>
       </c>
-      <c r="C28" s="219" t="s">
+      <c r="C28" s="218" t="s">
         <v>561</v>
       </c>
-      <c r="D28" s="217">
+      <c r="D28" s="216">
         <v>1091962000000</v>
       </c>
-      <c r="E28" s="212">
+      <c r="E28" s="211">
         <f>D28</f>
         <v>1091962000000</v>
       </c>
-      <c r="H28" s="212">
+      <c r="H28" s="211">
         <f>-E28</f>
         <v>-1091962000000</v>
       </c>
@@ -10162,13 +10431,13 @@
       <c r="A29" t="s">
         <v>585</v>
       </c>
-      <c r="C29" s="211" t="s">
+      <c r="C29" s="210" t="s">
         <v>562</v>
       </c>
-      <c r="D29" s="213">
+      <c r="D29" s="212">
         <v>167763000000</v>
       </c>
-      <c r="I29" s="212">
+      <c r="I29" s="211">
         <f>-D29</f>
         <v>-167763000000</v>
       </c>
@@ -10177,13 +10446,13 @@
       <c r="A30" t="s">
         <v>581</v>
       </c>
-      <c r="C30" s="211" t="s">
+      <c r="C30" s="210" t="s">
         <v>563</v>
       </c>
-      <c r="D30" s="213">
+      <c r="D30" s="212">
         <v>844366000000</v>
       </c>
-      <c r="J30" s="212">
+      <c r="J30" s="211">
         <f>-D30</f>
         <v>-844366000000</v>
       </c>
@@ -10192,17 +10461,17 @@
       <c r="A31" t="s">
         <v>581</v>
       </c>
-      <c r="C31" s="219" t="s">
+      <c r="C31" s="218" t="s">
         <v>564</v>
       </c>
-      <c r="D31" s="217">
+      <c r="D31" s="216">
         <v>1013244000000</v>
       </c>
-      <c r="E31" s="212">
+      <c r="E31" s="211">
         <f>-D31</f>
         <v>-1013244000000</v>
       </c>
-      <c r="G31" s="212">
+      <c r="G31" s="211">
         <f>-D31</f>
         <v>-1013244000000</v>
       </c>
@@ -10211,17 +10480,17 @@
       <c r="A32" t="s">
         <v>584</v>
       </c>
-      <c r="C32" s="219" t="s">
+      <c r="C32" s="218" t="s">
         <v>565</v>
       </c>
-      <c r="D32" s="217">
+      <c r="D32" s="216">
         <v>78713000000</v>
       </c>
-      <c r="E32" s="212">
+      <c r="E32" s="211">
         <f>-D32</f>
         <v>-78713000000</v>
       </c>
-      <c r="F32" s="212">
+      <c r="F32" s="211">
         <f>-D32</f>
         <v>-78713000000</v>
       </c>
@@ -10233,47 +10502,47 @@
       <c r="B33" t="s">
         <v>584</v>
       </c>
-      <c r="C33" s="219" t="s">
+      <c r="C33" s="218" t="s">
         <v>575</v>
       </c>
-      <c r="D33" s="217">
+      <c r="D33" s="216">
         <v>5000000</v>
       </c>
-      <c r="E33" s="212">
+      <c r="E33" s="211">
         <f>-D33</f>
         <v>-5000000</v>
       </c>
-      <c r="F33" s="212">
+      <c r="F33" s="211">
         <f>-D33</f>
         <v>-5000000</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="17" thickBot="1">
-      <c r="D36" s="212">
+      <c r="D36" s="211">
         <f>D28-D31</f>
         <v>78718000000</v>
       </c>
-      <c r="E36" s="215">
+      <c r="E36" s="214">
         <f t="shared" ref="E36:J36" si="1">SUM(E6:E35)</f>
         <v>0</v>
       </c>
-      <c r="F36" s="215">
+      <c r="F36" s="214">
         <f t="shared" si="1"/>
         <v>121000000</v>
       </c>
-      <c r="G36" s="215">
+      <c r="G36" s="214">
         <f t="shared" si="1"/>
         <v>-44998000000</v>
       </c>
-      <c r="H36" s="215">
+      <c r="H36" s="214">
         <f t="shared" si="1"/>
         <v>13249000000</v>
       </c>
-      <c r="I36" s="215">
+      <c r="I36" s="214">
         <f t="shared" si="1"/>
         <v>-60667000000</v>
       </c>
-      <c r="J36" s="215">
+      <c r="J36" s="214">
         <f t="shared" si="1"/>
         <v>-66000000</v>
       </c>
@@ -10305,25 +10574,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="E1" s="300" t="s">
+      <c r="E1" s="299" t="s">
         <v>490</v>
       </c>
-      <c r="F1" s="300"/>
-      <c r="G1" s="300"/>
+      <c r="F1" s="299"/>
+      <c r="G1" s="299"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>485</v>
       </c>
-      <c r="B3" s="300" t="s">
+      <c r="B3" s="299" t="s">
         <v>403</v>
       </c>
-      <c r="C3" s="300"/>
-      <c r="E3" s="300" t="s">
+      <c r="C3" s="299"/>
+      <c r="E3" s="299" t="s">
         <v>425</v>
       </c>
-      <c r="F3" s="300"/>
-      <c r="G3" s="300"/>
+      <c r="F3" s="299"/>
+      <c r="G3" s="299"/>
       <c r="I3" t="s">
         <v>496</v>
       </c>
@@ -10466,88 +10735,88 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:92" ht="67" customHeight="1">
-      <c r="B4" s="301" t="s">
+      <c r="B4" s="300" t="s">
         <v>264</v>
       </c>
-      <c r="C4" s="301"/>
-      <c r="D4" s="301"/>
-      <c r="E4" s="301"/>
-      <c r="F4" s="301"/>
-      <c r="G4" s="301"/>
-      <c r="H4" s="301"/>
-      <c r="I4" s="301"/>
-      <c r="J4" s="301"/>
-      <c r="K4" s="301"/>
-      <c r="L4" s="301"/>
-      <c r="M4" s="301"/>
-      <c r="N4" s="301"/>
-      <c r="O4" s="301"/>
-      <c r="P4" s="301"/>
-      <c r="Q4" s="301"/>
-      <c r="R4" s="301"/>
-      <c r="S4" s="301"/>
-      <c r="T4" s="301"/>
-      <c r="U4" s="301"/>
-      <c r="V4" s="301"/>
-      <c r="W4" s="301"/>
-      <c r="X4" s="301"/>
-      <c r="Y4" s="301"/>
-      <c r="Z4" s="301"/>
-      <c r="AA4" s="301"/>
-      <c r="AB4" s="301"/>
-      <c r="AC4" s="301"/>
-      <c r="AD4" s="301"/>
-      <c r="AE4" s="301"/>
-      <c r="AF4" s="301"/>
-      <c r="AG4" s="301"/>
-      <c r="AH4" s="301"/>
-      <c r="AI4" s="301"/>
-      <c r="AJ4" s="301"/>
-      <c r="AK4" s="301"/>
-      <c r="AL4" s="301"/>
-      <c r="AM4" s="301"/>
-      <c r="AN4" s="301"/>
-      <c r="AO4" s="301"/>
-      <c r="AP4" s="301"/>
-      <c r="AQ4" s="301"/>
-      <c r="AR4" s="301"/>
-      <c r="AS4" s="301"/>
-      <c r="AT4" s="301"/>
-      <c r="AU4" s="301"/>
-      <c r="AV4" s="301"/>
-      <c r="AW4" s="301"/>
-      <c r="AX4" s="301"/>
-      <c r="AY4" s="301"/>
-      <c r="AZ4" s="301"/>
-      <c r="BA4" s="301"/>
-      <c r="BB4" s="301"/>
-      <c r="BC4" s="301"/>
-      <c r="BD4" s="301"/>
-      <c r="BE4" s="301"/>
-      <c r="BF4" s="301"/>
-      <c r="BG4" s="301"/>
-      <c r="BH4" s="301"/>
-      <c r="BI4" s="301"/>
-      <c r="BJ4" s="301"/>
-      <c r="BK4" s="301"/>
-      <c r="BL4" s="301"/>
-      <c r="BM4" s="301"/>
-      <c r="BN4" s="301"/>
-      <c r="BO4" s="301"/>
-      <c r="BP4" s="301"/>
-      <c r="BQ4" s="301"/>
-      <c r="BR4" s="301"/>
-      <c r="BS4" s="301"/>
-      <c r="BT4" s="301"/>
-      <c r="BU4" s="301"/>
-      <c r="BV4" s="301"/>
-      <c r="BW4" s="301"/>
-      <c r="BX4" s="301"/>
-      <c r="BY4" s="301"/>
-      <c r="BZ4" s="301"/>
-      <c r="CA4" s="301"/>
-      <c r="CB4" s="301"/>
-      <c r="CC4" s="301"/>
+      <c r="C4" s="300"/>
+      <c r="D4" s="300"/>
+      <c r="E4" s="300"/>
+      <c r="F4" s="300"/>
+      <c r="G4" s="300"/>
+      <c r="H4" s="300"/>
+      <c r="I4" s="300"/>
+      <c r="J4" s="300"/>
+      <c r="K4" s="300"/>
+      <c r="L4" s="300"/>
+      <c r="M4" s="300"/>
+      <c r="N4" s="300"/>
+      <c r="O4" s="300"/>
+      <c r="P4" s="300"/>
+      <c r="Q4" s="300"/>
+      <c r="R4" s="300"/>
+      <c r="S4" s="300"/>
+      <c r="T4" s="300"/>
+      <c r="U4" s="300"/>
+      <c r="V4" s="300"/>
+      <c r="W4" s="300"/>
+      <c r="X4" s="300"/>
+      <c r="Y4" s="300"/>
+      <c r="Z4" s="300"/>
+      <c r="AA4" s="300"/>
+      <c r="AB4" s="300"/>
+      <c r="AC4" s="300"/>
+      <c r="AD4" s="300"/>
+      <c r="AE4" s="300"/>
+      <c r="AF4" s="300"/>
+      <c r="AG4" s="300"/>
+      <c r="AH4" s="300"/>
+      <c r="AI4" s="300"/>
+      <c r="AJ4" s="300"/>
+      <c r="AK4" s="300"/>
+      <c r="AL4" s="300"/>
+      <c r="AM4" s="300"/>
+      <c r="AN4" s="300"/>
+      <c r="AO4" s="300"/>
+      <c r="AP4" s="300"/>
+      <c r="AQ4" s="300"/>
+      <c r="AR4" s="300"/>
+      <c r="AS4" s="300"/>
+      <c r="AT4" s="300"/>
+      <c r="AU4" s="300"/>
+      <c r="AV4" s="300"/>
+      <c r="AW4" s="300"/>
+      <c r="AX4" s="300"/>
+      <c r="AY4" s="300"/>
+      <c r="AZ4" s="300"/>
+      <c r="BA4" s="300"/>
+      <c r="BB4" s="300"/>
+      <c r="BC4" s="300"/>
+      <c r="BD4" s="300"/>
+      <c r="BE4" s="300"/>
+      <c r="BF4" s="300"/>
+      <c r="BG4" s="300"/>
+      <c r="BH4" s="300"/>
+      <c r="BI4" s="300"/>
+      <c r="BJ4" s="300"/>
+      <c r="BK4" s="300"/>
+      <c r="BL4" s="300"/>
+      <c r="BM4" s="300"/>
+      <c r="BN4" s="300"/>
+      <c r="BO4" s="300"/>
+      <c r="BP4" s="300"/>
+      <c r="BQ4" s="300"/>
+      <c r="BR4" s="300"/>
+      <c r="BS4" s="300"/>
+      <c r="BT4" s="300"/>
+      <c r="BU4" s="300"/>
+      <c r="BV4" s="300"/>
+      <c r="BW4" s="300"/>
+      <c r="BX4" s="300"/>
+      <c r="BY4" s="300"/>
+      <c r="BZ4" s="300"/>
+      <c r="CA4" s="300"/>
+      <c r="CB4" s="300"/>
+      <c r="CC4" s="300"/>
     </row>
     <row r="6" spans="1:92">
       <c r="B6" s="6"/>
@@ -10602,106 +10871,106 @@
       <c r="B7" s="113" t="s">
         <v>289</v>
       </c>
-      <c r="C7" s="304" t="s">
+      <c r="C7" s="303" t="s">
         <v>263</v>
       </c>
-      <c r="D7" s="305"/>
-      <c r="E7" s="305"/>
-      <c r="F7" s="305"/>
-      <c r="G7" s="305"/>
-      <c r="H7" s="305"/>
-      <c r="I7" s="305"/>
-      <c r="J7" s="305"/>
-      <c r="K7" s="305"/>
-      <c r="L7" s="305"/>
-      <c r="M7" s="305"/>
-      <c r="N7" s="305"/>
-      <c r="O7" s="305"/>
-      <c r="P7" s="305"/>
-      <c r="Q7" s="305"/>
-      <c r="R7" s="305"/>
-      <c r="S7" s="305"/>
-      <c r="T7" s="305"/>
-      <c r="U7" s="305"/>
-      <c r="V7" s="305"/>
-      <c r="W7" s="305"/>
-      <c r="X7" s="305"/>
-      <c r="Y7" s="305"/>
-      <c r="Z7" s="305"/>
-      <c r="AA7" s="305"/>
-      <c r="AB7" s="305"/>
-      <c r="AC7" s="305"/>
-      <c r="AD7" s="305"/>
-      <c r="AE7" s="305"/>
-      <c r="AF7" s="305"/>
-      <c r="AG7" s="305"/>
-      <c r="AH7" s="305"/>
-      <c r="AI7" s="305"/>
-      <c r="AJ7" s="305"/>
-      <c r="AK7" s="305"/>
-      <c r="AL7" s="306"/>
-      <c r="AM7" s="304" t="s">
+      <c r="D7" s="304"/>
+      <c r="E7" s="304"/>
+      <c r="F7" s="304"/>
+      <c r="G7" s="304"/>
+      <c r="H7" s="304"/>
+      <c r="I7" s="304"/>
+      <c r="J7" s="304"/>
+      <c r="K7" s="304"/>
+      <c r="L7" s="304"/>
+      <c r="M7" s="304"/>
+      <c r="N7" s="304"/>
+      <c r="O7" s="304"/>
+      <c r="P7" s="304"/>
+      <c r="Q7" s="304"/>
+      <c r="R7" s="304"/>
+      <c r="S7" s="304"/>
+      <c r="T7" s="304"/>
+      <c r="U7" s="304"/>
+      <c r="V7" s="304"/>
+      <c r="W7" s="304"/>
+      <c r="X7" s="304"/>
+      <c r="Y7" s="304"/>
+      <c r="Z7" s="304"/>
+      <c r="AA7" s="304"/>
+      <c r="AB7" s="304"/>
+      <c r="AC7" s="304"/>
+      <c r="AD7" s="304"/>
+      <c r="AE7" s="304"/>
+      <c r="AF7" s="304"/>
+      <c r="AG7" s="304"/>
+      <c r="AH7" s="304"/>
+      <c r="AI7" s="304"/>
+      <c r="AJ7" s="304"/>
+      <c r="AK7" s="304"/>
+      <c r="AL7" s="305"/>
+      <c r="AM7" s="303" t="s">
         <v>258</v>
       </c>
-      <c r="AN7" s="305"/>
-      <c r="AO7" s="305"/>
-      <c r="AP7" s="305"/>
-      <c r="AQ7" s="305"/>
-      <c r="AR7" s="305"/>
-      <c r="AS7" s="305"/>
-      <c r="AT7" s="306"/>
-      <c r="AU7" s="304" t="s">
+      <c r="AN7" s="304"/>
+      <c r="AO7" s="304"/>
+      <c r="AP7" s="304"/>
+      <c r="AQ7" s="304"/>
+      <c r="AR7" s="304"/>
+      <c r="AS7" s="304"/>
+      <c r="AT7" s="305"/>
+      <c r="AU7" s="303" t="s">
         <v>310</v>
       </c>
-      <c r="AV7" s="305"/>
-      <c r="AW7" s="305"/>
-      <c r="AX7" s="305"/>
-      <c r="AY7" s="305"/>
-      <c r="AZ7" s="305"/>
-      <c r="BA7" s="306"/>
-      <c r="BB7" s="307" t="s">
+      <c r="AV7" s="304"/>
+      <c r="AW7" s="304"/>
+      <c r="AX7" s="304"/>
+      <c r="AY7" s="304"/>
+      <c r="AZ7" s="304"/>
+      <c r="BA7" s="305"/>
+      <c r="BB7" s="306" t="s">
         <v>257</v>
       </c>
-      <c r="BC7" s="307"/>
-      <c r="BD7" s="307"/>
-      <c r="BE7" s="307"/>
-      <c r="BF7" s="307"/>
-      <c r="BG7" s="307"/>
-      <c r="BH7" s="307"/>
-      <c r="BI7" s="307"/>
-      <c r="BJ7" s="307"/>
-      <c r="BK7" s="307"/>
-      <c r="BL7" s="307"/>
-      <c r="BM7" s="307"/>
-      <c r="BN7" s="307"/>
-      <c r="BO7" s="307"/>
-      <c r="BP7" s="307"/>
-      <c r="BQ7" s="307"/>
-      <c r="BR7" s="307"/>
-      <c r="BS7" s="307"/>
-      <c r="BT7" s="307"/>
-      <c r="BU7" s="307" t="s">
+      <c r="BC7" s="306"/>
+      <c r="BD7" s="306"/>
+      <c r="BE7" s="306"/>
+      <c r="BF7" s="306"/>
+      <c r="BG7" s="306"/>
+      <c r="BH7" s="306"/>
+      <c r="BI7" s="306"/>
+      <c r="BJ7" s="306"/>
+      <c r="BK7" s="306"/>
+      <c r="BL7" s="306"/>
+      <c r="BM7" s="306"/>
+      <c r="BN7" s="306"/>
+      <c r="BO7" s="306"/>
+      <c r="BP7" s="306"/>
+      <c r="BQ7" s="306"/>
+      <c r="BR7" s="306"/>
+      <c r="BS7" s="306"/>
+      <c r="BT7" s="306"/>
+      <c r="BU7" s="306" t="s">
         <v>260</v>
       </c>
-      <c r="BV7" s="307"/>
-      <c r="BW7" s="307"/>
-      <c r="BX7" s="307"/>
-      <c r="BY7" s="307"/>
-      <c r="BZ7" s="307"/>
-      <c r="CA7" s="307"/>
-      <c r="CB7" s="307"/>
-      <c r="CC7" s="307"/>
-      <c r="CF7" s="304" t="s">
+      <c r="BV7" s="306"/>
+      <c r="BW7" s="306"/>
+      <c r="BX7" s="306"/>
+      <c r="BY7" s="306"/>
+      <c r="BZ7" s="306"/>
+      <c r="CA7" s="306"/>
+      <c r="CB7" s="306"/>
+      <c r="CC7" s="306"/>
+      <c r="CF7" s="303" t="s">
         <v>31</v>
       </c>
-      <c r="CG7" s="305"/>
-      <c r="CH7" s="305"/>
-      <c r="CI7" s="305"/>
-      <c r="CJ7" s="305"/>
-      <c r="CK7" s="305"/>
-      <c r="CL7" s="305"/>
-      <c r="CM7" s="305"/>
-      <c r="CN7" s="306"/>
+      <c r="CG7" s="304"/>
+      <c r="CH7" s="304"/>
+      <c r="CI7" s="304"/>
+      <c r="CJ7" s="304"/>
+      <c r="CK7" s="304"/>
+      <c r="CL7" s="304"/>
+      <c r="CM7" s="304"/>
+      <c r="CN7" s="305"/>
     </row>
     <row r="8" spans="1:92" s="59" customFormat="1" ht="104" customHeight="1">
       <c r="A8" s="107" t="s">
@@ -10717,72 +10986,72 @@
       <c r="E8" s="111" t="s">
         <v>288</v>
       </c>
-      <c r="F8" s="308" t="s">
+      <c r="F8" s="307" t="s">
         <v>262</v>
       </c>
-      <c r="G8" s="308"/>
-      <c r="H8" s="308"/>
-      <c r="I8" s="308"/>
-      <c r="J8" s="308"/>
-      <c r="K8" s="308"/>
-      <c r="L8" s="308"/>
-      <c r="M8" s="309" t="s">
+      <c r="G8" s="307"/>
+      <c r="H8" s="307"/>
+      <c r="I8" s="307"/>
+      <c r="J8" s="307"/>
+      <c r="K8" s="307"/>
+      <c r="L8" s="307"/>
+      <c r="M8" s="308" t="s">
         <v>356</v>
       </c>
-      <c r="N8" s="310"/>
-      <c r="O8" s="310"/>
-      <c r="P8" s="310"/>
-      <c r="Q8" s="310"/>
-      <c r="R8" s="310"/>
-      <c r="S8" s="310"/>
-      <c r="T8" s="310"/>
-      <c r="U8" s="311"/>
-      <c r="V8" s="308" t="s">
+      <c r="N8" s="309"/>
+      <c r="O8" s="309"/>
+      <c r="P8" s="309"/>
+      <c r="Q8" s="309"/>
+      <c r="R8" s="309"/>
+      <c r="S8" s="309"/>
+      <c r="T8" s="309"/>
+      <c r="U8" s="310"/>
+      <c r="V8" s="307" t="s">
         <v>1</v>
       </c>
-      <c r="W8" s="308"/>
-      <c r="X8" s="308"/>
-      <c r="Y8" s="308"/>
-      <c r="Z8" s="308"/>
-      <c r="AA8" s="308"/>
-      <c r="AB8" s="308"/>
-      <c r="AC8" s="308"/>
-      <c r="AD8" s="308"/>
-      <c r="AE8" s="308"/>
-      <c r="AF8" s="308"/>
-      <c r="AG8" s="308"/>
-      <c r="AH8" s="308"/>
-      <c r="AI8" s="308"/>
-      <c r="AJ8" s="308"/>
-      <c r="AK8" s="308"/>
+      <c r="W8" s="307"/>
+      <c r="X8" s="307"/>
+      <c r="Y8" s="307"/>
+      <c r="Z8" s="307"/>
+      <c r="AA8" s="307"/>
+      <c r="AB8" s="307"/>
+      <c r="AC8" s="307"/>
+      <c r="AD8" s="307"/>
+      <c r="AE8" s="307"/>
+      <c r="AF8" s="307"/>
+      <c r="AG8" s="307"/>
+      <c r="AH8" s="307"/>
+      <c r="AI8" s="307"/>
+      <c r="AJ8" s="307"/>
+      <c r="AK8" s="307"/>
       <c r="AL8" s="112" t="s">
         <v>28</v>
       </c>
-      <c r="AM8" s="308" t="s">
+      <c r="AM8" s="307" t="s">
         <v>275</v>
       </c>
-      <c r="AN8" s="308"/>
-      <c r="AO8" s="308"/>
-      <c r="AP8" s="308"/>
-      <c r="AQ8" s="308"/>
-      <c r="AR8" s="309" t="s">
+      <c r="AN8" s="307"/>
+      <c r="AO8" s="307"/>
+      <c r="AP8" s="307"/>
+      <c r="AQ8" s="307"/>
+      <c r="AR8" s="308" t="s">
         <v>276</v>
       </c>
-      <c r="AS8" s="310"/>
-      <c r="AT8" s="311"/>
+      <c r="AS8" s="309"/>
+      <c r="AT8" s="310"/>
       <c r="AU8" s="118" t="s">
         <v>290</v>
       </c>
       <c r="AV8" s="118" t="s">
         <v>387</v>
       </c>
-      <c r="AW8" s="308" t="s">
+      <c r="AW8" s="307" t="s">
         <v>259</v>
       </c>
-      <c r="AX8" s="308"/>
-      <c r="AY8" s="308"/>
-      <c r="AZ8" s="308"/>
-      <c r="BA8" s="308"/>
+      <c r="AX8" s="307"/>
+      <c r="AY8" s="307"/>
+      <c r="AZ8" s="307"/>
+      <c r="BA8" s="307"/>
       <c r="BB8" s="123" t="s">
         <v>353</v>
       </c>
@@ -10795,27 +11064,27 @@
       <c r="BE8" s="124" t="s">
         <v>391</v>
       </c>
-      <c r="BF8" s="312" t="s">
+      <c r="BF8" s="311" t="s">
         <v>266</v>
       </c>
-      <c r="BG8" s="312"/>
-      <c r="BH8" s="313" t="s">
+      <c r="BG8" s="311"/>
+      <c r="BH8" s="312" t="s">
         <v>390</v>
       </c>
-      <c r="BI8" s="314"/>
-      <c r="BJ8" s="314"/>
-      <c r="BK8" s="314"/>
-      <c r="BL8" s="309" t="s">
+      <c r="BI8" s="313"/>
+      <c r="BJ8" s="313"/>
+      <c r="BK8" s="313"/>
+      <c r="BL8" s="308" t="s">
         <v>265</v>
       </c>
-      <c r="BM8" s="310"/>
-      <c r="BN8" s="310"/>
-      <c r="BO8" s="310"/>
-      <c r="BP8" s="310"/>
-      <c r="BQ8" s="310"/>
-      <c r="BR8" s="310"/>
-      <c r="BS8" s="310"/>
-      <c r="BT8" s="310"/>
+      <c r="BM8" s="309"/>
+      <c r="BN8" s="309"/>
+      <c r="BO8" s="309"/>
+      <c r="BP8" s="309"/>
+      <c r="BQ8" s="309"/>
+      <c r="BR8" s="309"/>
+      <c r="BS8" s="309"/>
+      <c r="BT8" s="309"/>
       <c r="BU8" s="111" t="s">
         <v>137</v>
       </c>
@@ -10831,14 +11100,14 @@
       <c r="BY8" s="111" t="s">
         <v>386</v>
       </c>
-      <c r="BZ8" s="313" t="s">
+      <c r="BZ8" s="312" t="s">
         <v>305</v>
       </c>
-      <c r="CA8" s="316"/>
-      <c r="CB8" s="320" t="s">
+      <c r="CA8" s="315"/>
+      <c r="CB8" s="319" t="s">
         <v>307</v>
       </c>
-      <c r="CC8" s="320"/>
+      <c r="CC8" s="319"/>
       <c r="CF8" s="59" t="s">
         <v>355</v>
       </c>
@@ -10878,15 +11147,15 @@
       <c r="N9" s="114" t="s">
         <v>395</v>
       </c>
-      <c r="O9" s="302" t="s">
+      <c r="O9" s="301" t="s">
         <v>417</v>
       </c>
-      <c r="P9" s="303"/>
-      <c r="Q9" s="303"/>
-      <c r="R9" s="303"/>
-      <c r="S9" s="303"/>
-      <c r="T9" s="303"/>
-      <c r="U9" s="315"/>
+      <c r="P9" s="302"/>
+      <c r="Q9" s="302"/>
+      <c r="R9" s="302"/>
+      <c r="S9" s="302"/>
+      <c r="T9" s="302"/>
+      <c r="U9" s="314"/>
       <c r="V9" s="98" t="s">
         <v>379</v>
       </c>
@@ -10899,20 +11168,20 @@
       <c r="Y9" s="98" t="s">
         <v>399</v>
       </c>
-      <c r="Z9" s="321" t="s">
+      <c r="Z9" s="320" t="s">
         <v>416</v>
       </c>
-      <c r="AA9" s="321"/>
-      <c r="AB9" s="321"/>
-      <c r="AC9" s="321"/>
-      <c r="AD9" s="321"/>
-      <c r="AE9" s="321"/>
-      <c r="AF9" s="321"/>
-      <c r="AG9" s="321"/>
-      <c r="AH9" s="321"/>
-      <c r="AI9" s="321"/>
-      <c r="AJ9" s="321"/>
-      <c r="AK9" s="321"/>
+      <c r="AA9" s="320"/>
+      <c r="AB9" s="320"/>
+      <c r="AC9" s="320"/>
+      <c r="AD9" s="320"/>
+      <c r="AE9" s="320"/>
+      <c r="AF9" s="320"/>
+      <c r="AG9" s="320"/>
+      <c r="AH9" s="320"/>
+      <c r="AI9" s="320"/>
+      <c r="AJ9" s="320"/>
+      <c r="AK9" s="320"/>
       <c r="AL9" s="11"/>
       <c r="AM9" s="98" t="s">
         <v>258</v>
@@ -10972,20 +11241,20 @@
       <c r="BH9" s="98" t="s">
         <v>422</v>
       </c>
-      <c r="BI9" s="302" t="s">
+      <c r="BI9" s="301" t="s">
         <v>407</v>
       </c>
-      <c r="BJ9" s="303"/>
+      <c r="BJ9" s="302"/>
       <c r="BK9" s="114" t="s">
         <v>403</v>
       </c>
       <c r="BL9" s="98" t="s">
         <v>422</v>
       </c>
-      <c r="BM9" s="302" t="s">
+      <c r="BM9" s="301" t="s">
         <v>407</v>
       </c>
-      <c r="BN9" s="315"/>
+      <c r="BN9" s="314"/>
       <c r="BO9" s="114" t="s">
         <v>403</v>
       </c>
@@ -10995,11 +11264,11 @@
       <c r="BQ9" s="121" t="s">
         <v>372</v>
       </c>
-      <c r="BR9" s="317" t="s">
+      <c r="BR9" s="316" t="s">
         <v>388</v>
       </c>
-      <c r="BS9" s="318"/>
-      <c r="BT9" s="319"/>
+      <c r="BS9" s="317"/>
+      <c r="BT9" s="318"/>
       <c r="BU9" s="63"/>
       <c r="BV9" s="63"/>
       <c r="BW9" s="63"/>
@@ -11050,13 +11319,13 @@
       <c r="P10" s="98" t="s">
         <v>137</v>
       </c>
-      <c r="Q10" s="302" t="s">
+      <c r="Q10" s="301" t="s">
         <v>145</v>
       </c>
-      <c r="R10" s="303"/>
-      <c r="S10" s="303"/>
-      <c r="T10" s="303"/>
-      <c r="U10" s="315"/>
+      <c r="R10" s="302"/>
+      <c r="S10" s="302"/>
+      <c r="T10" s="302"/>
+      <c r="U10" s="314"/>
       <c r="V10" s="11"/>
       <c r="W10" s="11"/>
       <c r="X10" s="11"/>
@@ -11073,18 +11342,18 @@
       <c r="AC10" s="37" t="s">
         <v>281</v>
       </c>
-      <c r="AD10" s="322" t="s">
+      <c r="AD10" s="321" t="s">
         <v>145</v>
       </c>
-      <c r="AE10" s="323"/>
-      <c r="AF10" s="323"/>
-      <c r="AG10" s="324"/>
-      <c r="AH10" s="322" t="s">
+      <c r="AE10" s="322"/>
+      <c r="AF10" s="322"/>
+      <c r="AG10" s="323"/>
+      <c r="AH10" s="321" t="s">
         <v>140</v>
       </c>
-      <c r="AI10" s="323"/>
-      <c r="AJ10" s="323"/>
-      <c r="AK10" s="324"/>
+      <c r="AI10" s="322"/>
+      <c r="AJ10" s="322"/>
+      <c r="AK10" s="323"/>
       <c r="AL10" s="11"/>
       <c r="AM10" s="11"/>
       <c r="AN10" s="11"/>
@@ -11331,10 +11600,10 @@
       <c r="BN15" s="55"/>
     </row>
     <row r="16" spans="1:92">
-      <c r="BM16" s="300" t="s">
+      <c r="BM16" s="299" t="s">
         <v>424</v>
       </c>
-      <c r="BN16" s="300"/>
+      <c r="BN16" s="299"/>
     </row>
     <row r="17" spans="4:67" ht="44" customHeight="1">
       <c r="BF17" t="s">
@@ -11577,13 +11846,13 @@
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="B7" s="337" t="s">
+      <c r="B7" s="336" t="s">
         <v>369</v>
       </c>
-      <c r="C7" s="337"/>
-      <c r="D7" s="337"/>
-      <c r="E7" s="337"/>
-      <c r="F7" s="337"/>
+      <c r="C7" s="336"/>
+      <c r="D7" s="336"/>
+      <c r="E7" s="336"/>
+      <c r="F7" s="336"/>
       <c r="H7" s="20" t="s">
         <v>316</v>
       </c>
@@ -11626,7 +11895,7 @@
       <c r="N9" s="77"/>
     </row>
     <row r="10" spans="1:14" ht="17">
-      <c r="B10" s="325" t="s">
+      <c r="B10" s="324" t="s">
         <v>263</v>
       </c>
       <c r="C10" s="19" t="s">
@@ -11647,7 +11916,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="17">
-      <c r="B11" s="325"/>
+      <c r="B11" s="324"/>
       <c r="C11" s="19" t="s">
         <v>285</v>
       </c>
@@ -11666,7 +11935,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="17">
-      <c r="B12" s="325"/>
+      <c r="B12" s="324"/>
       <c r="C12" s="19" t="s">
         <v>288</v>
       </c>
@@ -11685,8 +11954,8 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="17">
-      <c r="B13" s="325"/>
-      <c r="C13" s="332" t="s">
+      <c r="B13" s="324"/>
+      <c r="C13" s="331" t="s">
         <v>262</v>
       </c>
       <c r="D13" s="19" t="s">
@@ -11706,8 +11975,8 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="17">
-      <c r="B14" s="325"/>
-      <c r="C14" s="332"/>
+      <c r="B14" s="324"/>
+      <c r="C14" s="331"/>
       <c r="D14" s="19" t="s">
         <v>267</v>
       </c>
@@ -11727,8 +11996,8 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="17">
-      <c r="B15" s="325"/>
-      <c r="C15" s="332"/>
+      <c r="B15" s="324"/>
+      <c r="C15" s="331"/>
       <c r="D15" s="19" t="s">
         <v>268</v>
       </c>
@@ -11748,8 +12017,8 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="17">
-      <c r="B16" s="325"/>
-      <c r="C16" s="332"/>
+      <c r="B16" s="324"/>
+      <c r="C16" s="331"/>
       <c r="D16" s="19" t="s">
         <v>261</v>
       </c>
@@ -11767,8 +12036,8 @@
       </c>
     </row>
     <row r="17" spans="2:12" ht="17">
-      <c r="B17" s="325"/>
-      <c r="C17" s="332"/>
+      <c r="B17" s="324"/>
+      <c r="C17" s="331"/>
       <c r="D17" s="19" t="s">
         <v>269</v>
       </c>
@@ -11786,8 +12055,8 @@
       </c>
     </row>
     <row r="18" spans="2:12" ht="17">
-      <c r="B18" s="325"/>
-      <c r="C18" s="332"/>
+      <c r="B18" s="324"/>
+      <c r="C18" s="331"/>
       <c r="D18" s="19" t="s">
         <v>284</v>
       </c>
@@ -11805,8 +12074,8 @@
       </c>
     </row>
     <row r="19" spans="2:12" ht="17">
-      <c r="B19" s="325"/>
-      <c r="C19" s="332"/>
+      <c r="B19" s="324"/>
+      <c r="C19" s="331"/>
       <c r="D19" s="19" t="s">
         <v>283</v>
       </c>
@@ -11824,8 +12093,8 @@
       </c>
     </row>
     <row r="20" spans="2:12" ht="17">
-      <c r="B20" s="325"/>
-      <c r="C20" s="330" t="s">
+      <c r="B20" s="324"/>
+      <c r="C20" s="329" t="s">
         <v>356</v>
       </c>
       <c r="D20" s="102" t="s">
@@ -11847,8 +12116,8 @@
       </c>
     </row>
     <row r="21" spans="2:12" ht="17">
-      <c r="B21" s="325"/>
-      <c r="C21" s="331"/>
+      <c r="B21" s="324"/>
+      <c r="C21" s="330"/>
       <c r="D21" s="102" t="s">
         <v>396</v>
       </c>
@@ -11866,9 +12135,9 @@
       </c>
     </row>
     <row r="22" spans="2:12" ht="17">
-      <c r="B22" s="325"/>
-      <c r="C22" s="331"/>
-      <c r="D22" s="327" t="s">
+      <c r="B22" s="324"/>
+      <c r="C22" s="330"/>
+      <c r="D22" s="326" t="s">
         <v>370</v>
       </c>
       <c r="E22" s="103" t="s">
@@ -11881,7 +12150,7 @@
       <c r="I22" s="82" t="b">
         <v>1</v>
       </c>
-      <c r="J22" s="337" t="s">
+      <c r="J22" s="336" t="s">
         <v>82</v>
       </c>
       <c r="L22" s="19" t="s">
@@ -11889,9 +12158,9 @@
       </c>
     </row>
     <row r="23" spans="2:12" ht="17">
-      <c r="B23" s="325"/>
-      <c r="C23" s="331"/>
-      <c r="D23" s="328"/>
+      <c r="B23" s="324"/>
+      <c r="C23" s="330"/>
+      <c r="D23" s="327"/>
       <c r="E23" s="103" t="s">
         <v>137</v>
       </c>
@@ -11902,16 +12171,16 @@
       <c r="I23" s="37" t="s">
         <v>243</v>
       </c>
-      <c r="J23" s="337"/>
+      <c r="J23" s="336"/>
       <c r="L23" s="19" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="24" spans="2:12" ht="17">
-      <c r="B24" s="325"/>
-      <c r="C24" s="331"/>
-      <c r="D24" s="328"/>
-      <c r="E24" s="326" t="s">
+      <c r="B24" s="324"/>
+      <c r="C24" s="330"/>
+      <c r="D24" s="327"/>
+      <c r="E24" s="325" t="s">
         <v>145</v>
       </c>
       <c r="F24" s="19" t="s">
@@ -11921,16 +12190,16 @@
         <v>141</v>
       </c>
       <c r="I24" s="11"/>
-      <c r="J24" s="337"/>
+      <c r="J24" s="336"/>
       <c r="L24" s="19" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="25" spans="2:12" ht="17">
-      <c r="B25" s="325"/>
-      <c r="C25" s="331"/>
-      <c r="D25" s="328"/>
-      <c r="E25" s="326"/>
+      <c r="B25" s="324"/>
+      <c r="C25" s="330"/>
+      <c r="D25" s="327"/>
+      <c r="E25" s="325"/>
       <c r="F25" s="19" t="s">
         <v>146</v>
       </c>
@@ -11938,16 +12207,16 @@
         <v>97</v>
       </c>
       <c r="I25" s="11"/>
-      <c r="J25" s="337"/>
+      <c r="J25" s="336"/>
       <c r="L25" s="19" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="26" spans="2:12" ht="17">
-      <c r="B26" s="325"/>
-      <c r="C26" s="331"/>
-      <c r="D26" s="329"/>
-      <c r="E26" s="326"/>
+      <c r="B26" s="324"/>
+      <c r="C26" s="330"/>
+      <c r="D26" s="328"/>
+      <c r="E26" s="325"/>
       <c r="F26" s="19" t="s">
         <v>328</v>
       </c>
@@ -11955,14 +12224,14 @@
         <v>329</v>
       </c>
       <c r="I26" s="11"/>
-      <c r="J26" s="337"/>
+      <c r="J26" s="336"/>
       <c r="L26" s="19" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="27" spans="2:12" ht="17">
-      <c r="B27" s="325"/>
-      <c r="C27" s="333" t="s">
+      <c r="B27" s="324"/>
+      <c r="C27" s="332" t="s">
         <v>1</v>
       </c>
       <c r="D27" s="19" t="s">
@@ -11982,8 +12251,8 @@
       </c>
     </row>
     <row r="28" spans="2:12" ht="17">
-      <c r="B28" s="325"/>
-      <c r="C28" s="334"/>
+      <c r="B28" s="324"/>
+      <c r="C28" s="333"/>
       <c r="D28" s="19" t="s">
         <v>279</v>
       </c>
@@ -12001,8 +12270,8 @@
       </c>
     </row>
     <row r="29" spans="2:12" ht="17">
-      <c r="B29" s="325"/>
-      <c r="C29" s="334"/>
+      <c r="B29" s="324"/>
+      <c r="C29" s="333"/>
       <c r="D29" s="19" t="s">
         <v>280</v>
       </c>
@@ -12020,9 +12289,9 @@
       </c>
     </row>
     <row r="30" spans="2:12" ht="17" customHeight="1">
-      <c r="B30" s="325"/>
-      <c r="C30" s="334"/>
-      <c r="D30" s="336" t="s">
+      <c r="B30" s="324"/>
+      <c r="C30" s="333"/>
+      <c r="D30" s="335" t="s">
         <v>389</v>
       </c>
       <c r="E30" s="19" t="s">
@@ -12035,7 +12304,7 @@
       <c r="I30" s="82" t="b">
         <v>1</v>
       </c>
-      <c r="J30" s="337" t="s">
+      <c r="J30" s="336" t="s">
         <v>60</v>
       </c>
       <c r="L30" s="19" t="s">
@@ -12043,9 +12312,9 @@
       </c>
     </row>
     <row r="31" spans="2:12" ht="17" customHeight="1">
-      <c r="B31" s="325"/>
-      <c r="C31" s="334"/>
-      <c r="D31" s="336"/>
+      <c r="B31" s="324"/>
+      <c r="C31" s="333"/>
+      <c r="D31" s="335"/>
       <c r="E31" s="19" t="s">
         <v>137</v>
       </c>
@@ -12056,15 +12325,15 @@
       <c r="I31" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="J31" s="337"/>
+      <c r="J31" s="336"/>
       <c r="L31" s="19" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="32" spans="2:12" ht="17" customHeight="1">
-      <c r="B32" s="325"/>
-      <c r="C32" s="334"/>
-      <c r="D32" s="336"/>
+      <c r="B32" s="324"/>
+      <c r="C32" s="333"/>
+      <c r="D32" s="335"/>
       <c r="E32" s="19" t="s">
         <v>282</v>
       </c>
@@ -12075,15 +12344,15 @@
       <c r="I32" s="82" t="b">
         <v>0</v>
       </c>
-      <c r="J32" s="337"/>
+      <c r="J32" s="336"/>
       <c r="L32" s="19" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="33" spans="2:12" ht="17" customHeight="1">
-      <c r="B33" s="325"/>
-      <c r="C33" s="334"/>
-      <c r="D33" s="336"/>
+      <c r="B33" s="324"/>
+      <c r="C33" s="333"/>
+      <c r="D33" s="335"/>
       <c r="E33" s="19" t="s">
         <v>281</v>
       </c>
@@ -12094,16 +12363,16 @@
       <c r="I33" s="82" t="b">
         <v>0</v>
       </c>
-      <c r="J33" s="337"/>
+      <c r="J33" s="336"/>
       <c r="L33" s="19" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="34" spans="2:12" ht="17" customHeight="1">
-      <c r="B34" s="325"/>
-      <c r="C34" s="334"/>
-      <c r="D34" s="336"/>
-      <c r="E34" s="336" t="s">
+      <c r="B34" s="324"/>
+      <c r="C34" s="333"/>
+      <c r="D34" s="335"/>
+      <c r="E34" s="335" t="s">
         <v>145</v>
       </c>
       <c r="F34" s="19" t="s">
@@ -12113,16 +12382,16 @@
         <v>141</v>
       </c>
       <c r="I34" s="11"/>
-      <c r="J34" s="337"/>
+      <c r="J34" s="336"/>
       <c r="L34" s="19" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="35" spans="2:12" ht="17" customHeight="1">
-      <c r="B35" s="325"/>
-      <c r="C35" s="334"/>
-      <c r="D35" s="336"/>
-      <c r="E35" s="336"/>
+      <c r="B35" s="324"/>
+      <c r="C35" s="333"/>
+      <c r="D35" s="335"/>
+      <c r="E35" s="335"/>
       <c r="F35" s="19" t="s">
         <v>146</v>
       </c>
@@ -12130,16 +12399,16 @@
         <v>97</v>
       </c>
       <c r="I35" s="11"/>
-      <c r="J35" s="337"/>
+      <c r="J35" s="336"/>
       <c r="L35" s="19" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="36" spans="2:12" ht="17" customHeight="1">
-      <c r="B36" s="325"/>
-      <c r="C36" s="334"/>
-      <c r="D36" s="336"/>
-      <c r="E36" s="336"/>
+      <c r="B36" s="324"/>
+      <c r="C36" s="333"/>
+      <c r="D36" s="335"/>
+      <c r="E36" s="335"/>
       <c r="F36" s="19" t="s">
         <v>328</v>
       </c>
@@ -12147,16 +12416,16 @@
         <v>329</v>
       </c>
       <c r="I36" s="11"/>
-      <c r="J36" s="337"/>
+      <c r="J36" s="336"/>
       <c r="L36" s="19" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="37" spans="2:12" ht="17" customHeight="1">
-      <c r="B37" s="325"/>
-      <c r="C37" s="334"/>
-      <c r="D37" s="336"/>
-      <c r="E37" s="336" t="s">
+      <c r="B37" s="324"/>
+      <c r="C37" s="333"/>
+      <c r="D37" s="335"/>
+      <c r="E37" s="335" t="s">
         <v>140</v>
       </c>
       <c r="F37" s="19" t="s">
@@ -12168,16 +12437,16 @@
       <c r="I37" s="82" t="s">
         <v>158</v>
       </c>
-      <c r="J37" s="337"/>
+      <c r="J37" s="336"/>
       <c r="L37" s="19" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="38" spans="2:12" ht="17" customHeight="1">
-      <c r="B38" s="325"/>
-      <c r="C38" s="334"/>
-      <c r="D38" s="336"/>
-      <c r="E38" s="336"/>
+      <c r="B38" s="324"/>
+      <c r="C38" s="333"/>
+      <c r="D38" s="335"/>
+      <c r="E38" s="335"/>
       <c r="F38" s="19" t="s">
         <v>142</v>
       </c>
@@ -12187,16 +12456,16 @@
       <c r="I38" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="J38" s="337"/>
+      <c r="J38" s="336"/>
       <c r="L38" s="19" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="39" spans="2:12" ht="17" customHeight="1">
-      <c r="B39" s="325"/>
-      <c r="C39" s="334"/>
-      <c r="D39" s="336"/>
-      <c r="E39" s="336"/>
+      <c r="B39" s="324"/>
+      <c r="C39" s="333"/>
+      <c r="D39" s="335"/>
+      <c r="E39" s="335"/>
       <c r="F39" s="19" t="s">
         <v>143</v>
       </c>
@@ -12206,16 +12475,16 @@
       <c r="I39" s="91">
         <v>0.5</v>
       </c>
-      <c r="J39" s="337"/>
+      <c r="J39" s="336"/>
       <c r="L39" s="19" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="40" spans="2:12" ht="17" customHeight="1">
-      <c r="B40" s="325"/>
-      <c r="C40" s="335"/>
-      <c r="D40" s="336"/>
-      <c r="E40" s="336"/>
+      <c r="B40" s="324"/>
+      <c r="C40" s="334"/>
+      <c r="D40" s="335"/>
+      <c r="E40" s="335"/>
       <c r="F40" s="19" t="s">
         <v>144</v>
       </c>
@@ -12225,13 +12494,13 @@
       <c r="I40" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="J40" s="337"/>
+      <c r="J40" s="336"/>
       <c r="L40" s="19" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="41" spans="2:12" ht="34">
-      <c r="B41" s="325"/>
+      <c r="B41" s="324"/>
       <c r="C41" s="12" t="s">
         <v>28</v>
       </c>
@@ -12250,10 +12519,10 @@
       </c>
     </row>
     <row r="42" spans="2:12" ht="17">
-      <c r="B42" s="325" t="s">
+      <c r="B42" s="324" t="s">
         <v>258</v>
       </c>
-      <c r="C42" s="332" t="s">
+      <c r="C42" s="331" t="s">
         <v>275</v>
       </c>
       <c r="D42" s="19" t="s">
@@ -12271,8 +12540,8 @@
       </c>
     </row>
     <row r="43" spans="2:12" ht="17">
-      <c r="B43" s="325"/>
-      <c r="C43" s="332"/>
+      <c r="B43" s="324"/>
+      <c r="C43" s="331"/>
       <c r="D43" s="89" t="s">
         <v>274</v>
       </c>
@@ -12291,8 +12560,8 @@
       </c>
     </row>
     <row r="44" spans="2:12" ht="17">
-      <c r="B44" s="325"/>
-      <c r="C44" s="332"/>
+      <c r="B44" s="324"/>
+      <c r="C44" s="331"/>
       <c r="D44" s="19" t="s">
         <v>277</v>
       </c>
@@ -12308,8 +12577,8 @@
       </c>
     </row>
     <row r="45" spans="2:12" ht="17">
-      <c r="B45" s="325"/>
-      <c r="C45" s="332"/>
+      <c r="B45" s="324"/>
+      <c r="C45" s="331"/>
       <c r="D45" s="19" t="s">
         <v>261</v>
       </c>
@@ -12325,8 +12594,8 @@
       </c>
     </row>
     <row r="46" spans="2:12" ht="17">
-      <c r="B46" s="325"/>
-      <c r="C46" s="332"/>
+      <c r="B46" s="324"/>
+      <c r="C46" s="331"/>
       <c r="D46" s="19" t="s">
         <v>273</v>
       </c>
@@ -12342,8 +12611,8 @@
       </c>
     </row>
     <row r="47" spans="2:12" ht="17">
-      <c r="B47" s="325"/>
-      <c r="C47" s="332" t="s">
+      <c r="B47" s="324"/>
+      <c r="C47" s="331" t="s">
         <v>276</v>
       </c>
       <c r="D47" s="19" t="s">
@@ -12361,8 +12630,8 @@
       </c>
     </row>
     <row r="48" spans="2:12" ht="17">
-      <c r="B48" s="325"/>
-      <c r="C48" s="332"/>
+      <c r="B48" s="324"/>
+      <c r="C48" s="331"/>
       <c r="D48" s="19" t="s">
         <v>44</v>
       </c>
@@ -12378,8 +12647,8 @@
       </c>
     </row>
     <row r="49" spans="2:12" ht="17">
-      <c r="B49" s="325"/>
-      <c r="C49" s="332"/>
+      <c r="B49" s="324"/>
+      <c r="C49" s="331"/>
       <c r="D49" s="19" t="s">
         <v>273</v>
       </c>
@@ -12395,7 +12664,7 @@
       </c>
     </row>
     <row r="50" spans="2:12" ht="17">
-      <c r="B50" s="325" t="s">
+      <c r="B50" s="324" t="s">
         <v>310</v>
       </c>
       <c r="C50" s="90" t="s">
@@ -12416,7 +12685,7 @@
       </c>
     </row>
     <row r="51" spans="2:12" ht="17">
-      <c r="B51" s="325"/>
+      <c r="B51" s="324"/>
       <c r="C51" s="90" t="s">
         <v>291</v>
       </c>
@@ -12435,8 +12704,8 @@
       </c>
     </row>
     <row r="52" spans="2:12" ht="17">
-      <c r="B52" s="325"/>
-      <c r="C52" s="332" t="s">
+      <c r="B52" s="324"/>
+      <c r="C52" s="331" t="s">
         <v>259</v>
       </c>
       <c r="D52" s="19" t="s">
@@ -12456,8 +12725,8 @@
       </c>
     </row>
     <row r="53" spans="2:12" ht="17">
-      <c r="B53" s="325"/>
-      <c r="C53" s="332"/>
+      <c r="B53" s="324"/>
+      <c r="C53" s="331"/>
       <c r="D53" s="19" t="s">
         <v>268</v>
       </c>
@@ -12475,8 +12744,8 @@
       </c>
     </row>
     <row r="54" spans="2:12" ht="17">
-      <c r="B54" s="325"/>
-      <c r="C54" s="332"/>
+      <c r="B54" s="324"/>
+      <c r="C54" s="331"/>
       <c r="D54" s="19" t="s">
         <v>314</v>
       </c>
@@ -12497,8 +12766,8 @@
       </c>
     </row>
     <row r="55" spans="2:12" ht="17">
-      <c r="B55" s="325"/>
-      <c r="C55" s="332"/>
+      <c r="B55" s="324"/>
+      <c r="C55" s="331"/>
       <c r="D55" s="19" t="s">
         <v>313</v>
       </c>
@@ -12516,8 +12785,8 @@
       </c>
     </row>
     <row r="56" spans="2:12" ht="34">
-      <c r="B56" s="325"/>
-      <c r="C56" s="332"/>
+      <c r="B56" s="324"/>
+      <c r="C56" s="331"/>
       <c r="D56" s="19" t="s">
         <v>312</v>
       </c>
@@ -12538,7 +12807,7 @@
       </c>
     </row>
     <row r="57" spans="2:12" ht="17">
-      <c r="B57" s="325" t="s">
+      <c r="B57" s="324" t="s">
         <v>257</v>
       </c>
       <c r="C57" s="12" t="s">
@@ -12564,7 +12833,7 @@
       </c>
     </row>
     <row r="58" spans="2:12" ht="17">
-      <c r="B58" s="325"/>
+      <c r="B58" s="324"/>
       <c r="C58" s="12" t="s">
         <v>351</v>
       </c>
@@ -12588,7 +12857,7 @@
       </c>
     </row>
     <row r="59" spans="2:12" ht="17">
-      <c r="B59" s="325"/>
+      <c r="B59" s="324"/>
       <c r="C59" s="19" t="s">
         <v>297</v>
       </c>
@@ -12605,7 +12874,7 @@
       </c>
     </row>
     <row r="60" spans="2:12" ht="17">
-      <c r="B60" s="325"/>
+      <c r="B60" s="324"/>
       <c r="C60" s="19" t="s">
         <v>392</v>
       </c>
@@ -12624,8 +12893,8 @@
       </c>
     </row>
     <row r="61" spans="2:12" ht="17">
-      <c r="B61" s="325"/>
-      <c r="C61" s="332" t="s">
+      <c r="B61" s="324"/>
+      <c r="C61" s="331" t="s">
         <v>266</v>
       </c>
       <c r="D61" s="19" t="s">
@@ -12647,8 +12916,8 @@
       </c>
     </row>
     <row r="62" spans="2:12" ht="17">
-      <c r="B62" s="325"/>
-      <c r="C62" s="332"/>
+      <c r="B62" s="324"/>
+      <c r="C62" s="331"/>
       <c r="D62" s="19" t="s">
         <v>295</v>
       </c>
@@ -12668,8 +12937,8 @@
       </c>
     </row>
     <row r="63" spans="2:12" ht="17">
-      <c r="B63" s="325"/>
-      <c r="C63" s="336" t="s">
+      <c r="B63" s="324"/>
+      <c r="C63" s="335" t="s">
         <v>311</v>
       </c>
       <c r="D63" s="103" t="s">
@@ -12689,8 +12958,8 @@
       </c>
     </row>
     <row r="64" spans="2:12" ht="17">
-      <c r="B64" s="325"/>
-      <c r="C64" s="336"/>
+      <c r="B64" s="324"/>
+      <c r="C64" s="335"/>
       <c r="D64" s="103" t="s">
         <v>302</v>
       </c>
@@ -12708,8 +12977,8 @@
       </c>
     </row>
     <row r="65" spans="2:12" ht="17">
-      <c r="B65" s="325"/>
-      <c r="C65" s="336"/>
+      <c r="B65" s="324"/>
+      <c r="C65" s="335"/>
       <c r="D65" s="103" t="s">
         <v>300</v>
       </c>
@@ -12727,8 +12996,8 @@
       </c>
     </row>
     <row r="66" spans="2:12" ht="17">
-      <c r="B66" s="325"/>
-      <c r="C66" s="336"/>
+      <c r="B66" s="324"/>
+      <c r="C66" s="335"/>
       <c r="D66" s="103" t="s">
         <v>294</v>
       </c>
@@ -12748,8 +13017,8 @@
       </c>
     </row>
     <row r="67" spans="2:12" ht="17">
-      <c r="B67" s="325"/>
-      <c r="C67" s="332" t="s">
+      <c r="B67" s="324"/>
+      <c r="C67" s="331" t="s">
         <v>265</v>
       </c>
       <c r="D67" s="103" t="s">
@@ -12769,8 +13038,8 @@
       </c>
     </row>
     <row r="68" spans="2:12" ht="17">
-      <c r="B68" s="325"/>
-      <c r="C68" s="332"/>
+      <c r="B68" s="324"/>
+      <c r="C68" s="331"/>
       <c r="D68" s="103" t="s">
         <v>299</v>
       </c>
@@ -12788,8 +13057,8 @@
       </c>
     </row>
     <row r="69" spans="2:12" ht="17">
-      <c r="B69" s="325"/>
-      <c r="C69" s="332"/>
+      <c r="B69" s="324"/>
+      <c r="C69" s="331"/>
       <c r="D69" s="103" t="s">
         <v>300</v>
       </c>
@@ -12807,8 +13076,8 @@
       </c>
     </row>
     <row r="70" spans="2:12" ht="17">
-      <c r="B70" s="325"/>
-      <c r="C70" s="332"/>
+      <c r="B70" s="324"/>
+      <c r="C70" s="331"/>
       <c r="D70" s="103" t="s">
         <v>295</v>
       </c>
@@ -12828,8 +13097,8 @@
       </c>
     </row>
     <row r="71" spans="2:12" ht="17">
-      <c r="B71" s="325"/>
-      <c r="C71" s="332"/>
+      <c r="B71" s="324"/>
+      <c r="C71" s="331"/>
       <c r="D71" s="103" t="s">
         <v>367</v>
       </c>
@@ -12848,8 +13117,8 @@
       </c>
     </row>
     <row r="72" spans="2:12" ht="17">
-      <c r="B72" s="325"/>
-      <c r="C72" s="332"/>
+      <c r="B72" s="324"/>
+      <c r="C72" s="331"/>
       <c r="D72" s="103" t="s">
         <v>368</v>
       </c>
@@ -12866,8 +13135,8 @@
       </c>
     </row>
     <row r="73" spans="2:12" ht="17">
-      <c r="B73" s="325"/>
-      <c r="C73" s="332"/>
+      <c r="B73" s="324"/>
+      <c r="C73" s="331"/>
       <c r="D73" s="19" t="s">
         <v>301</v>
       </c>
@@ -12885,8 +13154,8 @@
       </c>
     </row>
     <row r="74" spans="2:12" ht="17">
-      <c r="B74" s="325"/>
-      <c r="C74" s="332"/>
+      <c r="B74" s="324"/>
+      <c r="C74" s="331"/>
       <c r="D74" s="19" t="s">
         <v>268</v>
       </c>
@@ -12904,8 +13173,8 @@
       </c>
     </row>
     <row r="75" spans="2:12" ht="17">
-      <c r="B75" s="325"/>
-      <c r="C75" s="332"/>
+      <c r="B75" s="324"/>
+      <c r="C75" s="331"/>
       <c r="D75" s="19" t="s">
         <v>261</v>
       </c>
@@ -12923,7 +13192,7 @@
       </c>
     </row>
     <row r="76" spans="2:12" ht="17">
-      <c r="B76" s="325" t="s">
+      <c r="B76" s="324" t="s">
         <v>260</v>
       </c>
       <c r="C76" s="19" t="s">
@@ -12944,7 +13213,7 @@
       </c>
     </row>
     <row r="77" spans="2:12" ht="21">
-      <c r="B77" s="325"/>
+      <c r="B77" s="324"/>
       <c r="C77" s="19" t="s">
         <v>305</v>
       </c>
@@ -12964,7 +13233,7 @@
       </c>
     </row>
     <row r="78" spans="2:12" ht="17">
-      <c r="B78" s="325"/>
+      <c r="B78" s="324"/>
       <c r="C78" s="19" t="s">
         <v>306</v>
       </c>
@@ -12983,7 +13252,7 @@
       </c>
     </row>
     <row r="79" spans="2:12" ht="17">
-      <c r="B79" s="325"/>
+      <c r="B79" s="324"/>
       <c r="C79" s="19" t="s">
         <v>137</v>
       </c>
@@ -13002,7 +13271,7 @@
       </c>
     </row>
     <row r="80" spans="2:12" ht="17">
-      <c r="B80" s="325"/>
+      <c r="B80" s="324"/>
       <c r="C80" s="19" t="s">
         <v>283</v>
       </c>
@@ -13021,8 +13290,8 @@
       </c>
     </row>
     <row r="81" spans="2:12" ht="17">
-      <c r="B81" s="325"/>
-      <c r="C81" s="336" t="s">
+      <c r="B81" s="324"/>
+      <c r="C81" s="335" t="s">
         <v>307</v>
       </c>
       <c r="D81" s="19" t="s">
@@ -13042,8 +13311,8 @@
       </c>
     </row>
     <row r="82" spans="2:12" ht="17">
-      <c r="B82" s="325"/>
-      <c r="C82" s="336"/>
+      <c r="B82" s="324"/>
+      <c r="C82" s="335"/>
       <c r="D82" s="19" t="s">
         <v>305</v>
       </c>
@@ -13061,8 +13330,8 @@
       </c>
     </row>
     <row r="83" spans="2:12" ht="17">
-      <c r="B83" s="325"/>
-      <c r="C83" s="336"/>
+      <c r="B83" s="324"/>
+      <c r="C83" s="335"/>
       <c r="D83" s="19" t="s">
         <v>309</v>
       </c>
@@ -13080,7 +13349,7 @@
       </c>
     </row>
     <row r="84" spans="2:12" ht="17">
-      <c r="B84" s="325"/>
+      <c r="B84" s="324"/>
       <c r="C84" s="19" t="s">
         <v>28</v>
       </c>
@@ -13221,12 +13490,12 @@
       <c r="D5" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E5" s="356" t="s">
+      <c r="E5" s="355" t="s">
         <v>116</v>
       </c>
-      <c r="F5" s="357"/>
-      <c r="G5" s="357"/>
-      <c r="H5" s="358"/>
+      <c r="F5" s="356"/>
+      <c r="G5" s="356"/>
+      <c r="H5" s="357"/>
       <c r="I5" s="10" t="s">
         <v>89</v>
       </c>
@@ -13501,16 +13770,16 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="17">
-      <c r="B16" s="337">
+      <c r="B16" s="336">
         <v>3</v>
       </c>
-      <c r="C16" s="354" t="s">
+      <c r="C16" s="353" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="354" t="s">
+      <c r="D16" s="353" t="s">
         <v>185</v>
       </c>
-      <c r="E16" s="337" t="s">
+      <c r="E16" s="336" t="s">
         <v>186</v>
       </c>
       <c r="F16" s="40" t="s">
@@ -13534,10 +13803,10 @@
       </c>
     </row>
     <row r="17" spans="2:16" ht="34">
-      <c r="B17" s="337"/>
-      <c r="C17" s="354"/>
-      <c r="D17" s="354"/>
-      <c r="E17" s="337"/>
+      <c r="B17" s="336"/>
+      <c r="C17" s="353"/>
+      <c r="D17" s="353"/>
+      <c r="E17" s="336"/>
       <c r="F17" s="40" t="s">
         <v>193</v>
       </c>
@@ -13561,10 +13830,10 @@
       </c>
     </row>
     <row r="18" spans="2:16" ht="51">
-      <c r="B18" s="337"/>
-      <c r="C18" s="354"/>
-      <c r="D18" s="354"/>
-      <c r="E18" s="337"/>
+      <c r="B18" s="336"/>
+      <c r="C18" s="353"/>
+      <c r="D18" s="353"/>
+      <c r="E18" s="336"/>
       <c r="F18" s="40" t="s">
         <v>190</v>
       </c>
@@ -13588,79 +13857,79 @@
       </c>
     </row>
     <row r="19" spans="2:16" ht="68">
-      <c r="B19" s="337"/>
-      <c r="C19" s="354"/>
-      <c r="D19" s="354"/>
-      <c r="E19" s="337"/>
-      <c r="F19" s="348" t="s">
+      <c r="B19" s="336"/>
+      <c r="C19" s="353"/>
+      <c r="D19" s="353"/>
+      <c r="E19" s="336"/>
+      <c r="F19" s="347" t="s">
         <v>191</v>
       </c>
-      <c r="G19" s="348" t="s">
+      <c r="G19" s="347" t="s">
         <v>199</v>
       </c>
       <c r="H19" s="11"/>
-      <c r="I19" s="337" t="s">
+      <c r="I19" s="336" t="s">
         <v>92</v>
       </c>
-      <c r="J19" s="361" t="s">
+      <c r="J19" s="360" t="s">
         <v>127</v>
       </c>
-      <c r="K19" s="361" t="s">
+      <c r="K19" s="360" t="s">
         <v>201</v>
       </c>
       <c r="L19" s="45" t="s">
         <v>213</v>
       </c>
-      <c r="M19" s="348" t="s">
+      <c r="M19" s="347" t="s">
         <v>223</v>
       </c>
-      <c r="O19" s="360" t="s">
+      <c r="O19" s="359" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="20" spans="2:16" ht="17">
-      <c r="B20" s="337"/>
-      <c r="C20" s="354"/>
-      <c r="D20" s="354"/>
-      <c r="E20" s="337"/>
-      <c r="F20" s="349"/>
-      <c r="G20" s="349"/>
+      <c r="B20" s="336"/>
+      <c r="C20" s="353"/>
+      <c r="D20" s="353"/>
+      <c r="E20" s="336"/>
+      <c r="F20" s="348"/>
+      <c r="G20" s="348"/>
       <c r="H20" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="I20" s="337"/>
-      <c r="J20" s="361"/>
-      <c r="K20" s="361"/>
+      <c r="I20" s="336"/>
+      <c r="J20" s="360"/>
+      <c r="K20" s="360"/>
       <c r="L20" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="M20" s="349"/>
-      <c r="O20" s="360"/>
+      <c r="M20" s="348"/>
+      <c r="O20" s="359"/>
     </row>
     <row r="21" spans="2:16" ht="17">
-      <c r="B21" s="337"/>
-      <c r="C21" s="354"/>
-      <c r="D21" s="354"/>
-      <c r="E21" s="337"/>
-      <c r="F21" s="350"/>
-      <c r="G21" s="350"/>
+      <c r="B21" s="336"/>
+      <c r="C21" s="353"/>
+      <c r="D21" s="353"/>
+      <c r="E21" s="336"/>
+      <c r="F21" s="349"/>
+      <c r="G21" s="349"/>
       <c r="H21" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="I21" s="337"/>
-      <c r="J21" s="361"/>
-      <c r="K21" s="361"/>
+      <c r="I21" s="336"/>
+      <c r="J21" s="360"/>
+      <c r="K21" s="360"/>
       <c r="L21" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="M21" s="350"/>
-      <c r="O21" s="360"/>
+      <c r="M21" s="349"/>
+      <c r="O21" s="359"/>
     </row>
     <row r="22" spans="2:16" ht="17">
-      <c r="B22" s="337"/>
-      <c r="C22" s="354"/>
-      <c r="D22" s="354"/>
-      <c r="E22" s="337"/>
+      <c r="B22" s="336"/>
+      <c r="C22" s="353"/>
+      <c r="D22" s="353"/>
+      <c r="E22" s="336"/>
       <c r="F22" s="12" t="s">
         <v>194</v>
       </c>
@@ -13682,10 +13951,10 @@
       </c>
     </row>
     <row r="23" spans="2:16" ht="17">
-      <c r="B23" s="337"/>
-      <c r="C23" s="354"/>
-      <c r="D23" s="354"/>
-      <c r="E23" s="337"/>
+      <c r="B23" s="336"/>
+      <c r="C23" s="353"/>
+      <c r="D23" s="353"/>
+      <c r="E23" s="336"/>
       <c r="F23" s="12" t="s">
         <v>195</v>
       </c>
@@ -13707,10 +13976,10 @@
       </c>
     </row>
     <row r="24" spans="2:16" ht="17">
-      <c r="B24" s="337"/>
-      <c r="C24" s="354"/>
-      <c r="D24" s="354"/>
-      <c r="E24" s="337"/>
+      <c r="B24" s="336"/>
+      <c r="C24" s="353"/>
+      <c r="D24" s="353"/>
+      <c r="E24" s="336"/>
       <c r="F24" s="12" t="s">
         <v>196</v>
       </c>
@@ -13732,10 +14001,10 @@
       </c>
     </row>
     <row r="25" spans="2:16" ht="17">
-      <c r="B25" s="337"/>
-      <c r="C25" s="354"/>
-      <c r="D25" s="354"/>
-      <c r="E25" s="359" t="s">
+      <c r="B25" s="336"/>
+      <c r="C25" s="353"/>
+      <c r="D25" s="353"/>
+      <c r="E25" s="358" t="s">
         <v>187</v>
       </c>
       <c r="F25" s="40" t="s">
@@ -13759,10 +14028,10 @@
       </c>
     </row>
     <row r="26" spans="2:16" ht="34">
-      <c r="B26" s="337"/>
-      <c r="C26" s="354"/>
-      <c r="D26" s="354"/>
-      <c r="E26" s="359"/>
+      <c r="B26" s="336"/>
+      <c r="C26" s="353"/>
+      <c r="D26" s="353"/>
+      <c r="E26" s="358"/>
       <c r="F26" s="46" t="s">
         <v>189</v>
       </c>
@@ -13784,10 +14053,10 @@
       </c>
     </row>
     <row r="27" spans="2:16" ht="51">
-      <c r="B27" s="337"/>
-      <c r="C27" s="354"/>
-      <c r="D27" s="354"/>
-      <c r="E27" s="359"/>
+      <c r="B27" s="336"/>
+      <c r="C27" s="353"/>
+      <c r="D27" s="353"/>
+      <c r="E27" s="358"/>
       <c r="F27" s="40" t="s">
         <v>190</v>
       </c>
@@ -13811,73 +14080,73 @@
       </c>
     </row>
     <row r="28" spans="2:16" ht="68">
-      <c r="B28" s="337"/>
-      <c r="C28" s="354"/>
-      <c r="D28" s="354"/>
-      <c r="E28" s="359"/>
-      <c r="F28" s="348" t="s">
+      <c r="B28" s="336"/>
+      <c r="C28" s="353"/>
+      <c r="D28" s="353"/>
+      <c r="E28" s="358"/>
+      <c r="F28" s="347" t="s">
         <v>192</v>
       </c>
-      <c r="G28" s="348" t="s">
+      <c r="G28" s="347" t="s">
         <v>199</v>
       </c>
       <c r="H28" s="11"/>
-      <c r="I28" s="341" t="s">
+      <c r="I28" s="340" t="s">
         <v>92</v>
       </c>
-      <c r="J28" s="345" t="s">
+      <c r="J28" s="344" t="s">
         <v>127</v>
       </c>
-      <c r="K28" s="345" t="s">
+      <c r="K28" s="344" t="s">
         <v>209</v>
       </c>
       <c r="L28" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="M28" s="351" t="s">
+      <c r="M28" s="350" t="s">
         <v>224</v>
       </c>
-      <c r="O28" s="360" t="s">
+      <c r="O28" s="359" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="29" spans="2:16" ht="17">
-      <c r="B29" s="337"/>
-      <c r="C29" s="354"/>
-      <c r="D29" s="354"/>
-      <c r="E29" s="359"/>
-      <c r="F29" s="349"/>
-      <c r="G29" s="349"/>
+      <c r="B29" s="336"/>
+      <c r="C29" s="353"/>
+      <c r="D29" s="353"/>
+      <c r="E29" s="358"/>
+      <c r="F29" s="348"/>
+      <c r="G29" s="348"/>
       <c r="H29" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="I29" s="342"/>
-      <c r="J29" s="346"/>
-      <c r="K29" s="346"/>
+      <c r="I29" s="341"/>
+      <c r="J29" s="345"/>
+      <c r="K29" s="345"/>
       <c r="L29" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="M29" s="352"/>
-      <c r="O29" s="360"/>
+      <c r="M29" s="351"/>
+      <c r="O29" s="359"/>
     </row>
     <row r="30" spans="2:16" ht="17">
-      <c r="B30" s="337"/>
-      <c r="C30" s="354"/>
-      <c r="D30" s="354"/>
-      <c r="E30" s="359"/>
-      <c r="F30" s="350"/>
-      <c r="G30" s="350"/>
+      <c r="B30" s="336"/>
+      <c r="C30" s="353"/>
+      <c r="D30" s="353"/>
+      <c r="E30" s="358"/>
+      <c r="F30" s="349"/>
+      <c r="G30" s="349"/>
       <c r="H30" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="I30" s="343"/>
-      <c r="J30" s="347"/>
-      <c r="K30" s="347"/>
+      <c r="I30" s="342"/>
+      <c r="J30" s="346"/>
+      <c r="K30" s="346"/>
       <c r="L30" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="M30" s="353"/>
-      <c r="O30" s="360"/>
+      <c r="M30" s="352"/>
+      <c r="O30" s="359"/>
     </row>
     <row r="31" spans="2:16" ht="68">
       <c r="B31" s="10">
@@ -14650,16 +14919,16 @@
       </c>
     </row>
     <row r="57" spans="2:16" ht="34">
-      <c r="B57" s="341">
+      <c r="B57" s="340">
         <v>7</v>
       </c>
-      <c r="C57" s="330" t="s">
+      <c r="C57" s="329" t="s">
         <v>74</v>
       </c>
-      <c r="D57" s="330" t="s">
+      <c r="D57" s="329" t="s">
         <v>1</v>
       </c>
-      <c r="E57" s="341" t="s">
+      <c r="E57" s="340" t="s">
         <v>151</v>
       </c>
       <c r="F57" s="36" t="s">
@@ -14681,15 +14950,15 @@
       <c r="O57" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="P57" s="355" t="s">
+      <c r="P57" s="354" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="58" spans="2:16" ht="17" customHeight="1">
-      <c r="B58" s="342"/>
-      <c r="C58" s="331"/>
-      <c r="D58" s="331"/>
-      <c r="E58" s="342"/>
+      <c r="B58" s="341"/>
+      <c r="C58" s="330"/>
+      <c r="D58" s="330"/>
+      <c r="E58" s="341"/>
       <c r="F58" s="36" t="s">
         <v>137</v>
       </c>
@@ -14709,13 +14978,13 @@
       <c r="O58" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="P58" s="355"/>
+      <c r="P58" s="354"/>
     </row>
     <row r="59" spans="2:16" ht="34">
-      <c r="B59" s="342"/>
-      <c r="C59" s="331"/>
-      <c r="D59" s="331"/>
-      <c r="E59" s="342"/>
+      <c r="B59" s="341"/>
+      <c r="C59" s="330"/>
+      <c r="D59" s="330"/>
+      <c r="E59" s="341"/>
       <c r="F59" s="36" t="s">
         <v>138</v>
       </c>
@@ -14735,13 +15004,13 @@
       <c r="O59" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="P59" s="355"/>
+      <c r="P59" s="354"/>
     </row>
     <row r="60" spans="2:16" ht="34">
-      <c r="B60" s="342"/>
-      <c r="C60" s="331"/>
-      <c r="D60" s="331"/>
-      <c r="E60" s="342"/>
+      <c r="B60" s="341"/>
+      <c r="C60" s="330"/>
+      <c r="D60" s="330"/>
+      <c r="E60" s="341"/>
       <c r="F60" s="36" t="s">
         <v>139</v>
       </c>
@@ -14761,14 +15030,14 @@
       <c r="O60" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="P60" s="355"/>
+      <c r="P60" s="354"/>
     </row>
     <row r="61" spans="2:16" ht="51">
-      <c r="B61" s="342"/>
-      <c r="C61" s="331"/>
-      <c r="D61" s="331"/>
-      <c r="E61" s="342"/>
-      <c r="F61" s="330" t="s">
+      <c r="B61" s="341"/>
+      <c r="C61" s="330"/>
+      <c r="D61" s="330"/>
+      <c r="E61" s="341"/>
+      <c r="F61" s="329" t="s">
         <v>145</v>
       </c>
       <c r="G61" s="39"/>
@@ -14783,14 +15052,14 @@
       <c r="O61" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="P61" s="355"/>
+      <c r="P61" s="354"/>
     </row>
     <row r="62" spans="2:16" ht="34">
-      <c r="B62" s="342"/>
-      <c r="C62" s="331"/>
-      <c r="D62" s="331"/>
-      <c r="E62" s="342"/>
-      <c r="F62" s="331"/>
+      <c r="B62" s="341"/>
+      <c r="C62" s="330"/>
+      <c r="D62" s="330"/>
+      <c r="E62" s="341"/>
+      <c r="F62" s="330"/>
       <c r="G62" s="39"/>
       <c r="H62" s="12" t="s">
         <v>141</v>
@@ -14809,14 +15078,14 @@
       <c r="O62" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="P62" s="355"/>
+      <c r="P62" s="354"/>
     </row>
     <row r="63" spans="2:16" ht="17">
-      <c r="B63" s="342"/>
-      <c r="C63" s="331"/>
-      <c r="D63" s="331"/>
-      <c r="E63" s="342"/>
-      <c r="F63" s="331"/>
+      <c r="B63" s="341"/>
+      <c r="C63" s="330"/>
+      <c r="D63" s="330"/>
+      <c r="E63" s="341"/>
+      <c r="F63" s="330"/>
       <c r="G63" s="39"/>
       <c r="H63" s="12" t="s">
         <v>146</v>
@@ -14835,14 +15104,14 @@
       <c r="O63" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="P63" s="355"/>
+      <c r="P63" s="354"/>
     </row>
     <row r="64" spans="2:16" ht="17">
-      <c r="B64" s="342"/>
-      <c r="C64" s="331"/>
-      <c r="D64" s="331"/>
-      <c r="E64" s="342"/>
-      <c r="F64" s="331"/>
+      <c r="B64" s="341"/>
+      <c r="C64" s="330"/>
+      <c r="D64" s="330"/>
+      <c r="E64" s="341"/>
+      <c r="F64" s="330"/>
       <c r="G64" s="39"/>
       <c r="H64" s="12" t="s">
         <v>147</v>
@@ -14859,14 +15128,14 @@
       <c r="O64" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="P64" s="355"/>
+      <c r="P64" s="354"/>
     </row>
     <row r="65" spans="2:16" ht="17">
-      <c r="B65" s="342"/>
-      <c r="C65" s="331"/>
-      <c r="D65" s="331"/>
-      <c r="E65" s="342"/>
-      <c r="F65" s="331"/>
+      <c r="B65" s="341"/>
+      <c r="C65" s="330"/>
+      <c r="D65" s="330"/>
+      <c r="E65" s="341"/>
+      <c r="F65" s="330"/>
       <c r="G65" s="39"/>
       <c r="H65" s="12" t="s">
         <v>148</v>
@@ -14883,14 +15152,14 @@
       <c r="O65" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="P65" s="355"/>
+      <c r="P65" s="354"/>
     </row>
     <row r="66" spans="2:16" ht="18" customHeight="1">
-      <c r="B66" s="342"/>
-      <c r="C66" s="331"/>
-      <c r="D66" s="331"/>
-      <c r="E66" s="342"/>
-      <c r="F66" s="344"/>
+      <c r="B66" s="341"/>
+      <c r="C66" s="330"/>
+      <c r="D66" s="330"/>
+      <c r="E66" s="341"/>
+      <c r="F66" s="343"/>
       <c r="G66" s="39"/>
       <c r="H66" s="12" t="s">
         <v>149</v>
@@ -14907,14 +15176,14 @@
       <c r="O66" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="P66" s="355"/>
+      <c r="P66" s="354"/>
     </row>
     <row r="67" spans="2:16" ht="34">
-      <c r="B67" s="342"/>
-      <c r="C67" s="331"/>
-      <c r="D67" s="331"/>
-      <c r="E67" s="342"/>
-      <c r="F67" s="330" t="s">
+      <c r="B67" s="341"/>
+      <c r="C67" s="330"/>
+      <c r="D67" s="330"/>
+      <c r="E67" s="341"/>
+      <c r="F67" s="329" t="s">
         <v>140</v>
       </c>
       <c r="G67" s="31"/>
@@ -14929,14 +15198,14 @@
       <c r="O67" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="P67" s="355"/>
+      <c r="P67" s="354"/>
     </row>
     <row r="68" spans="2:16" ht="17" customHeight="1">
-      <c r="B68" s="342"/>
-      <c r="C68" s="331"/>
-      <c r="D68" s="331"/>
-      <c r="E68" s="342"/>
-      <c r="F68" s="331"/>
+      <c r="B68" s="341"/>
+      <c r="C68" s="330"/>
+      <c r="D68" s="330"/>
+      <c r="E68" s="341"/>
+      <c r="F68" s="330"/>
       <c r="G68" s="31"/>
       <c r="H68" s="12" t="s">
         <v>141</v>
@@ -14955,14 +15224,14 @@
       <c r="O68" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="P68" s="355"/>
+      <c r="P68" s="354"/>
     </row>
     <row r="69" spans="2:16" ht="17" customHeight="1">
-      <c r="B69" s="342"/>
-      <c r="C69" s="331"/>
-      <c r="D69" s="331"/>
-      <c r="E69" s="342"/>
-      <c r="F69" s="331"/>
+      <c r="B69" s="341"/>
+      <c r="C69" s="330"/>
+      <c r="D69" s="330"/>
+      <c r="E69" s="341"/>
+      <c r="F69" s="330"/>
       <c r="G69" s="31"/>
       <c r="H69" s="12" t="s">
         <v>142</v>
@@ -14981,14 +15250,14 @@
       <c r="O69" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="P69" s="355"/>
+      <c r="P69" s="354"/>
     </row>
     <row r="70" spans="2:16" ht="17" customHeight="1">
-      <c r="B70" s="342"/>
-      <c r="C70" s="331"/>
-      <c r="D70" s="331"/>
-      <c r="E70" s="342"/>
-      <c r="F70" s="331"/>
+      <c r="B70" s="341"/>
+      <c r="C70" s="330"/>
+      <c r="D70" s="330"/>
+      <c r="E70" s="341"/>
+      <c r="F70" s="330"/>
       <c r="G70" s="31"/>
       <c r="H70" s="12" t="s">
         <v>143</v>
@@ -15007,14 +15276,14 @@
       <c r="O70" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="P70" s="355"/>
+      <c r="P70" s="354"/>
     </row>
     <row r="71" spans="2:16" ht="17" customHeight="1">
-      <c r="B71" s="342"/>
-      <c r="C71" s="331"/>
-      <c r="D71" s="331"/>
-      <c r="E71" s="342"/>
-      <c r="F71" s="344"/>
+      <c r="B71" s="341"/>
+      <c r="C71" s="330"/>
+      <c r="D71" s="330"/>
+      <c r="E71" s="341"/>
+      <c r="F71" s="343"/>
       <c r="G71" s="31"/>
       <c r="H71" s="12" t="s">
         <v>144</v>
@@ -15033,12 +15302,12 @@
       <c r="O71" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="P71" s="355"/>
+      <c r="P71" s="354"/>
     </row>
     <row r="72" spans="2:16">
-      <c r="B72" s="343"/>
-      <c r="C72" s="344"/>
-      <c r="D72" s="344"/>
+      <c r="B72" s="342"/>
+      <c r="C72" s="343"/>
+      <c r="D72" s="343"/>
       <c r="E72" s="12" t="s">
         <v>255</v>
       </c>
@@ -15053,7 +15322,7 @@
       <c r="O72" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="P72" s="355"/>
+      <c r="P72" s="354"/>
     </row>
     <row r="73" spans="2:16" ht="34">
       <c r="B73" s="10">
@@ -15205,13 +15474,13 @@
       <c r="B78" s="10">
         <v>9</v>
       </c>
-      <c r="C78" s="330" t="s">
+      <c r="C78" s="329" t="s">
         <v>79</v>
       </c>
-      <c r="D78" s="330" t="s">
+      <c r="D78" s="329" t="s">
         <v>31</v>
       </c>
-      <c r="E78" s="341" t="s">
+      <c r="E78" s="340" t="s">
         <v>232</v>
       </c>
       <c r="F78" s="49"/>
@@ -15223,13 +15492,13 @@
       <c r="J78" s="51" t="s">
         <v>241</v>
       </c>
-      <c r="K78" s="338" t="s">
+      <c r="K78" s="337" t="s">
         <v>231</v>
       </c>
       <c r="L78" s="48" t="s">
         <v>247</v>
       </c>
-      <c r="M78" s="341" t="s">
+      <c r="M78" s="340" t="s">
         <v>82</v>
       </c>
       <c r="O78" s="4" t="s">
@@ -15241,9 +15510,9 @@
     </row>
     <row r="79" spans="2:16">
       <c r="B79" s="10"/>
-      <c r="C79" s="331"/>
-      <c r="D79" s="331"/>
-      <c r="E79" s="342"/>
+      <c r="C79" s="330"/>
+      <c r="D79" s="330"/>
+      <c r="E79" s="341"/>
       <c r="F79" s="10" t="s">
         <v>233</v>
       </c>
@@ -15255,15 +15524,15 @@
       <c r="J79" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="K79" s="339"/>
+      <c r="K79" s="338"/>
       <c r="L79" s="53"/>
-      <c r="M79" s="342"/>
+      <c r="M79" s="341"/>
     </row>
     <row r="80" spans="2:16" ht="17">
       <c r="B80" s="10"/>
-      <c r="C80" s="331"/>
-      <c r="D80" s="331"/>
-      <c r="E80" s="342"/>
+      <c r="C80" s="330"/>
+      <c r="D80" s="330"/>
+      <c r="E80" s="341"/>
       <c r="F80" s="10" t="s">
         <v>235</v>
       </c>
@@ -15275,16 +15544,16 @@
       <c r="J80" s="29" t="s">
         <v>243</v>
       </c>
-      <c r="K80" s="339"/>
+      <c r="K80" s="338"/>
       <c r="L80" s="53"/>
-      <c r="M80" s="342"/>
+      <c r="M80" s="341"/>
     </row>
     <row r="81" spans="2:16" ht="17">
       <c r="B81" s="10"/>
-      <c r="C81" s="331"/>
-      <c r="D81" s="331"/>
-      <c r="E81" s="342"/>
-      <c r="F81" s="337" t="s">
+      <c r="C81" s="330"/>
+      <c r="D81" s="330"/>
+      <c r="E81" s="341"/>
+      <c r="F81" s="336" t="s">
         <v>234</v>
       </c>
       <c r="G81" s="10" t="s">
@@ -15297,16 +15566,16 @@
       <c r="J81" s="29" t="s">
         <v>244</v>
       </c>
-      <c r="K81" s="339"/>
+      <c r="K81" s="338"/>
       <c r="L81" s="53"/>
-      <c r="M81" s="342"/>
+      <c r="M81" s="341"/>
     </row>
     <row r="82" spans="2:16" ht="17">
       <c r="B82" s="10"/>
-      <c r="C82" s="331"/>
-      <c r="D82" s="331"/>
-      <c r="E82" s="342"/>
-      <c r="F82" s="337"/>
+      <c r="C82" s="330"/>
+      <c r="D82" s="330"/>
+      <c r="E82" s="341"/>
+      <c r="F82" s="336"/>
       <c r="G82" s="52" t="s">
         <v>237</v>
       </c>
@@ -15317,16 +15586,16 @@
       <c r="J82" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="K82" s="339"/>
+      <c r="K82" s="338"/>
       <c r="L82" s="53"/>
-      <c r="M82" s="342"/>
+      <c r="M82" s="341"/>
     </row>
     <row r="83" spans="2:16" ht="17">
       <c r="B83" s="10"/>
-      <c r="C83" s="331"/>
-      <c r="D83" s="331"/>
-      <c r="E83" s="342"/>
-      <c r="F83" s="337"/>
+      <c r="C83" s="330"/>
+      <c r="D83" s="330"/>
+      <c r="E83" s="341"/>
+      <c r="F83" s="336"/>
       <c r="G83" s="52" t="s">
         <v>238</v>
       </c>
@@ -15337,16 +15606,16 @@
       <c r="J83" s="29" t="s">
         <v>246</v>
       </c>
-      <c r="K83" s="339"/>
+      <c r="K83" s="338"/>
       <c r="L83" s="53"/>
-      <c r="M83" s="342"/>
+      <c r="M83" s="341"/>
     </row>
     <row r="84" spans="2:16">
       <c r="B84" s="10"/>
-      <c r="C84" s="331"/>
-      <c r="D84" s="331"/>
-      <c r="E84" s="342"/>
-      <c r="F84" s="337"/>
+      <c r="C84" s="330"/>
+      <c r="D84" s="330"/>
+      <c r="E84" s="341"/>
+      <c r="F84" s="336"/>
       <c r="G84" s="52" t="s">
         <v>239</v>
       </c>
@@ -15357,16 +15626,16 @@
       <c r="J84" s="29">
         <v>4</v>
       </c>
-      <c r="K84" s="339"/>
+      <c r="K84" s="338"/>
       <c r="L84" s="53"/>
-      <c r="M84" s="342"/>
+      <c r="M84" s="341"/>
     </row>
     <row r="85" spans="2:16">
       <c r="B85" s="10"/>
-      <c r="C85" s="344"/>
-      <c r="D85" s="344"/>
-      <c r="E85" s="343"/>
-      <c r="F85" s="337"/>
+      <c r="C85" s="343"/>
+      <c r="D85" s="343"/>
+      <c r="E85" s="342"/>
+      <c r="F85" s="336"/>
       <c r="G85" s="52" t="s">
         <v>240</v>
       </c>
@@ -15377,9 +15646,9 @@
       <c r="J85" s="29">
         <v>10</v>
       </c>
-      <c r="K85" s="340"/>
+      <c r="K85" s="339"/>
       <c r="L85" s="53"/>
-      <c r="M85" s="343"/>
+      <c r="M85" s="342"/>
     </row>
     <row r="86" spans="2:16" ht="17">
       <c r="B86" s="10">
@@ -15817,153 +16086,153 @@
       </c>
     </row>
     <row r="13" spans="1:70" ht="48" customHeight="1">
-      <c r="E13" s="301" t="s">
+      <c r="E13" s="300" t="s">
         <v>264</v>
       </c>
-      <c r="F13" s="301"/>
-      <c r="G13" s="301"/>
-      <c r="H13" s="301"/>
-      <c r="I13" s="301"/>
-      <c r="J13" s="301"/>
-      <c r="K13" s="301"/>
-      <c r="L13" s="301"/>
-      <c r="M13" s="301"/>
-      <c r="N13" s="301"/>
-      <c r="O13" s="301"/>
-      <c r="P13" s="301"/>
-      <c r="Q13" s="301"/>
-      <c r="R13" s="301"/>
-      <c r="S13" s="301"/>
-      <c r="T13" s="301"/>
-      <c r="U13" s="301"/>
-      <c r="V13" s="301"/>
-      <c r="W13" s="301"/>
-      <c r="X13" s="301"/>
-      <c r="Y13" s="301"/>
-      <c r="Z13" s="301"/>
-      <c r="AA13" s="301"/>
-      <c r="AB13" s="301"/>
-      <c r="AC13" s="301"/>
-      <c r="AD13" s="301"/>
-      <c r="AE13" s="301"/>
-      <c r="AF13" s="301"/>
-      <c r="AG13" s="301"/>
-      <c r="AH13" s="301"/>
-      <c r="AI13" s="301"/>
-      <c r="AJ13" s="301"/>
-      <c r="AK13" s="301"/>
-      <c r="AL13" s="301"/>
-      <c r="AM13" s="301"/>
-      <c r="AN13" s="301"/>
-      <c r="AO13" s="301"/>
-      <c r="AP13" s="301"/>
-      <c r="AQ13" s="301"/>
-      <c r="AR13" s="301"/>
-      <c r="AS13" s="301"/>
-      <c r="AT13" s="301"/>
-      <c r="AU13" s="301"/>
-      <c r="AV13" s="301"/>
-      <c r="AW13" s="301"/>
-      <c r="AX13" s="301"/>
-      <c r="AY13" s="301"/>
-      <c r="AZ13" s="301"/>
-      <c r="BA13" s="301"/>
-      <c r="BB13" s="301"/>
-      <c r="BC13" s="301"/>
-      <c r="BD13" s="301"/>
-      <c r="BE13" s="301"/>
-      <c r="BF13" s="301"/>
-      <c r="BG13" s="301"/>
-      <c r="BH13" s="301"/>
-      <c r="BI13" s="301"/>
-      <c r="BJ13" s="301"/>
-      <c r="BK13" s="301"/>
-      <c r="BL13" s="301"/>
-      <c r="BM13" s="301"/>
-      <c r="BN13" s="301"/>
-      <c r="BO13" s="301"/>
-      <c r="BP13" s="301"/>
-      <c r="BQ13" s="301"/>
-      <c r="BR13" s="301"/>
+      <c r="F13" s="300"/>
+      <c r="G13" s="300"/>
+      <c r="H13" s="300"/>
+      <c r="I13" s="300"/>
+      <c r="J13" s="300"/>
+      <c r="K13" s="300"/>
+      <c r="L13" s="300"/>
+      <c r="M13" s="300"/>
+      <c r="N13" s="300"/>
+      <c r="O13" s="300"/>
+      <c r="P13" s="300"/>
+      <c r="Q13" s="300"/>
+      <c r="R13" s="300"/>
+      <c r="S13" s="300"/>
+      <c r="T13" s="300"/>
+      <c r="U13" s="300"/>
+      <c r="V13" s="300"/>
+      <c r="W13" s="300"/>
+      <c r="X13" s="300"/>
+      <c r="Y13" s="300"/>
+      <c r="Z13" s="300"/>
+      <c r="AA13" s="300"/>
+      <c r="AB13" s="300"/>
+      <c r="AC13" s="300"/>
+      <c r="AD13" s="300"/>
+      <c r="AE13" s="300"/>
+      <c r="AF13" s="300"/>
+      <c r="AG13" s="300"/>
+      <c r="AH13" s="300"/>
+      <c r="AI13" s="300"/>
+      <c r="AJ13" s="300"/>
+      <c r="AK13" s="300"/>
+      <c r="AL13" s="300"/>
+      <c r="AM13" s="300"/>
+      <c r="AN13" s="300"/>
+      <c r="AO13" s="300"/>
+      <c r="AP13" s="300"/>
+      <c r="AQ13" s="300"/>
+      <c r="AR13" s="300"/>
+      <c r="AS13" s="300"/>
+      <c r="AT13" s="300"/>
+      <c r="AU13" s="300"/>
+      <c r="AV13" s="300"/>
+      <c r="AW13" s="300"/>
+      <c r="AX13" s="300"/>
+      <c r="AY13" s="300"/>
+      <c r="AZ13" s="300"/>
+      <c r="BA13" s="300"/>
+      <c r="BB13" s="300"/>
+      <c r="BC13" s="300"/>
+      <c r="BD13" s="300"/>
+      <c r="BE13" s="300"/>
+      <c r="BF13" s="300"/>
+      <c r="BG13" s="300"/>
+      <c r="BH13" s="300"/>
+      <c r="BI13" s="300"/>
+      <c r="BJ13" s="300"/>
+      <c r="BK13" s="300"/>
+      <c r="BL13" s="300"/>
+      <c r="BM13" s="300"/>
+      <c r="BN13" s="300"/>
+      <c r="BO13" s="300"/>
+      <c r="BP13" s="300"/>
+      <c r="BQ13" s="300"/>
+      <c r="BR13" s="300"/>
     </row>
     <row r="15" spans="1:70" s="6" customFormat="1" ht="43" customHeight="1"/>
     <row r="16" spans="1:70" s="6" customFormat="1" ht="43" customHeight="1">
-      <c r="E16" s="337" t="s">
+      <c r="E16" s="336" t="s">
         <v>263</v>
       </c>
-      <c r="F16" s="337"/>
-      <c r="G16" s="337"/>
-      <c r="H16" s="337"/>
-      <c r="I16" s="337"/>
-      <c r="J16" s="337"/>
-      <c r="K16" s="337"/>
-      <c r="L16" s="337"/>
-      <c r="M16" s="337"/>
-      <c r="N16" s="337"/>
-      <c r="O16" s="337"/>
-      <c r="P16" s="337"/>
-      <c r="Q16" s="337"/>
-      <c r="R16" s="337"/>
-      <c r="S16" s="337"/>
-      <c r="T16" s="337"/>
-      <c r="U16" s="337"/>
-      <c r="V16" s="337"/>
-      <c r="W16" s="337"/>
-      <c r="X16" s="337"/>
-      <c r="Y16" s="337"/>
-      <c r="Z16" s="337"/>
-      <c r="AA16" s="337"/>
-      <c r="AB16" s="337"/>
-      <c r="AC16" s="337"/>
-      <c r="AD16" s="337"/>
-      <c r="AE16" s="356" t="s">
+      <c r="F16" s="336"/>
+      <c r="G16" s="336"/>
+      <c r="H16" s="336"/>
+      <c r="I16" s="336"/>
+      <c r="J16" s="336"/>
+      <c r="K16" s="336"/>
+      <c r="L16" s="336"/>
+      <c r="M16" s="336"/>
+      <c r="N16" s="336"/>
+      <c r="O16" s="336"/>
+      <c r="P16" s="336"/>
+      <c r="Q16" s="336"/>
+      <c r="R16" s="336"/>
+      <c r="S16" s="336"/>
+      <c r="T16" s="336"/>
+      <c r="U16" s="336"/>
+      <c r="V16" s="336"/>
+      <c r="W16" s="336"/>
+      <c r="X16" s="336"/>
+      <c r="Y16" s="336"/>
+      <c r="Z16" s="336"/>
+      <c r="AA16" s="336"/>
+      <c r="AB16" s="336"/>
+      <c r="AC16" s="336"/>
+      <c r="AD16" s="336"/>
+      <c r="AE16" s="355" t="s">
         <v>258</v>
       </c>
-      <c r="AF16" s="357"/>
-      <c r="AG16" s="357"/>
-      <c r="AH16" s="357"/>
-      <c r="AI16" s="357"/>
-      <c r="AJ16" s="357"/>
-      <c r="AK16" s="357"/>
-      <c r="AL16" s="358"/>
-      <c r="AM16" s="356" t="s">
+      <c r="AF16" s="356"/>
+      <c r="AG16" s="356"/>
+      <c r="AH16" s="356"/>
+      <c r="AI16" s="356"/>
+      <c r="AJ16" s="356"/>
+      <c r="AK16" s="356"/>
+      <c r="AL16" s="357"/>
+      <c r="AM16" s="355" t="s">
         <v>310</v>
       </c>
-      <c r="AN16" s="357"/>
-      <c r="AO16" s="357"/>
-      <c r="AP16" s="357"/>
-      <c r="AQ16" s="357"/>
-      <c r="AR16" s="357"/>
-      <c r="AS16" s="358"/>
-      <c r="AT16" s="337" t="s">
+      <c r="AN16" s="356"/>
+      <c r="AO16" s="356"/>
+      <c r="AP16" s="356"/>
+      <c r="AQ16" s="356"/>
+      <c r="AR16" s="356"/>
+      <c r="AS16" s="357"/>
+      <c r="AT16" s="336" t="s">
         <v>257</v>
       </c>
-      <c r="AU16" s="337"/>
-      <c r="AV16" s="337"/>
-      <c r="AW16" s="337"/>
-      <c r="AX16" s="337"/>
-      <c r="AY16" s="337"/>
-      <c r="AZ16" s="337"/>
-      <c r="BA16" s="337"/>
-      <c r="BB16" s="337"/>
-      <c r="BC16" s="337"/>
-      <c r="BD16" s="337"/>
-      <c r="BE16" s="337"/>
-      <c r="BF16" s="337"/>
-      <c r="BG16" s="337"/>
-      <c r="BH16" s="337"/>
-      <c r="BI16" s="337"/>
-      <c r="BJ16" s="356" t="s">
+      <c r="AU16" s="336"/>
+      <c r="AV16" s="336"/>
+      <c r="AW16" s="336"/>
+      <c r="AX16" s="336"/>
+      <c r="AY16" s="336"/>
+      <c r="AZ16" s="336"/>
+      <c r="BA16" s="336"/>
+      <c r="BB16" s="336"/>
+      <c r="BC16" s="336"/>
+      <c r="BD16" s="336"/>
+      <c r="BE16" s="336"/>
+      <c r="BF16" s="336"/>
+      <c r="BG16" s="336"/>
+      <c r="BH16" s="336"/>
+      <c r="BI16" s="336"/>
+      <c r="BJ16" s="355" t="s">
         <v>260</v>
       </c>
-      <c r="BK16" s="357"/>
-      <c r="BL16" s="357"/>
-      <c r="BM16" s="357"/>
-      <c r="BN16" s="357"/>
-      <c r="BO16" s="357"/>
-      <c r="BP16" s="357"/>
-      <c r="BQ16" s="357"/>
-      <c r="BR16" s="358"/>
+      <c r="BK16" s="356"/>
+      <c r="BL16" s="356"/>
+      <c r="BM16" s="356"/>
+      <c r="BN16" s="356"/>
+      <c r="BO16" s="356"/>
+      <c r="BP16" s="356"/>
+      <c r="BQ16" s="356"/>
+      <c r="BR16" s="357"/>
     </row>
     <row r="17" spans="2:70" s="6" customFormat="1" ht="60" customHeight="1">
       <c r="E17" s="37" t="s">
@@ -15978,83 +16247,83 @@
       <c r="H17" s="37" t="s">
         <v>288</v>
       </c>
-      <c r="I17" s="337" t="s">
+      <c r="I17" s="336" t="s">
         <v>262</v>
       </c>
-      <c r="J17" s="337"/>
-      <c r="K17" s="337"/>
-      <c r="L17" s="337"/>
-      <c r="M17" s="337"/>
-      <c r="N17" s="337"/>
-      <c r="O17" s="337"/>
-      <c r="P17" s="337" t="s">
+      <c r="J17" s="336"/>
+      <c r="K17" s="336"/>
+      <c r="L17" s="336"/>
+      <c r="M17" s="336"/>
+      <c r="N17" s="336"/>
+      <c r="O17" s="336"/>
+      <c r="P17" s="336" t="s">
         <v>1</v>
       </c>
-      <c r="Q17" s="337"/>
-      <c r="R17" s="337"/>
-      <c r="S17" s="337"/>
-      <c r="T17" s="337"/>
-      <c r="U17" s="337"/>
-      <c r="V17" s="337"/>
-      <c r="W17" s="337"/>
-      <c r="X17" s="337"/>
-      <c r="Y17" s="337"/>
-      <c r="Z17" s="337"/>
-      <c r="AA17" s="337"/>
-      <c r="AB17" s="337"/>
-      <c r="AC17" s="337"/>
+      <c r="Q17" s="336"/>
+      <c r="R17" s="336"/>
+      <c r="S17" s="336"/>
+      <c r="T17" s="336"/>
+      <c r="U17" s="336"/>
+      <c r="V17" s="336"/>
+      <c r="W17" s="336"/>
+      <c r="X17" s="336"/>
+      <c r="Y17" s="336"/>
+      <c r="Z17" s="336"/>
+      <c r="AA17" s="336"/>
+      <c r="AB17" s="336"/>
+      <c r="AC17" s="336"/>
       <c r="AD17" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="AE17" s="337" t="s">
+      <c r="AE17" s="336" t="s">
         <v>275</v>
       </c>
-      <c r="AF17" s="337"/>
-      <c r="AG17" s="337"/>
-      <c r="AH17" s="337"/>
-      <c r="AI17" s="337"/>
-      <c r="AJ17" s="356" t="s">
+      <c r="AF17" s="336"/>
+      <c r="AG17" s="336"/>
+      <c r="AH17" s="336"/>
+      <c r="AI17" s="336"/>
+      <c r="AJ17" s="355" t="s">
         <v>276</v>
       </c>
-      <c r="AK17" s="357"/>
-      <c r="AL17" s="358"/>
+      <c r="AK17" s="356"/>
+      <c r="AL17" s="357"/>
       <c r="AM17" s="64" t="s">
         <v>290</v>
       </c>
       <c r="AN17" s="64" t="s">
         <v>291</v>
       </c>
-      <c r="AO17" s="337" t="s">
+      <c r="AO17" s="336" t="s">
         <v>259</v>
       </c>
-      <c r="AP17" s="337"/>
-      <c r="AQ17" s="337"/>
-      <c r="AR17" s="337"/>
-      <c r="AS17" s="337"/>
-      <c r="AT17" s="337" t="s">
+      <c r="AP17" s="336"/>
+      <c r="AQ17" s="336"/>
+      <c r="AR17" s="336"/>
+      <c r="AS17" s="336"/>
+      <c r="AT17" s="336" t="s">
         <v>263</v>
       </c>
-      <c r="AU17" s="337"/>
-      <c r="AV17" s="337"/>
-      <c r="AW17" s="337" t="s">
+      <c r="AU17" s="336"/>
+      <c r="AV17" s="336"/>
+      <c r="AW17" s="336" t="s">
         <v>266</v>
       </c>
-      <c r="AX17" s="337"/>
-      <c r="AY17" s="356" t="s">
+      <c r="AX17" s="336"/>
+      <c r="AY17" s="355" t="s">
         <v>311</v>
       </c>
-      <c r="AZ17" s="357"/>
-      <c r="BA17" s="357"/>
-      <c r="BB17" s="357"/>
-      <c r="BC17" s="356" t="s">
+      <c r="AZ17" s="356"/>
+      <c r="BA17" s="356"/>
+      <c r="BB17" s="356"/>
+      <c r="BC17" s="355" t="s">
         <v>265</v>
       </c>
-      <c r="BD17" s="357"/>
-      <c r="BE17" s="357"/>
-      <c r="BF17" s="357"/>
-      <c r="BG17" s="357"/>
-      <c r="BH17" s="357"/>
-      <c r="BI17" s="357"/>
+      <c r="BD17" s="356"/>
+      <c r="BE17" s="356"/>
+      <c r="BF17" s="356"/>
+      <c r="BG17" s="356"/>
+      <c r="BH17" s="356"/>
+      <c r="BI17" s="356"/>
       <c r="BJ17" s="37" t="s">
         <v>304</v>
       </c>
@@ -16070,11 +16339,11 @@
       <c r="BN17" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="BO17" s="359" t="s">
+      <c r="BO17" s="358" t="s">
         <v>307</v>
       </c>
-      <c r="BP17" s="359"/>
-      <c r="BQ17" s="359"/>
+      <c r="BP17" s="358"/>
+      <c r="BQ17" s="358"/>
       <c r="BR17" s="37" t="s">
         <v>28</v>
       </c>
@@ -16114,19 +16383,19 @@
       <c r="R18" s="37" t="s">
         <v>280</v>
       </c>
-      <c r="S18" s="359" t="s">
+      <c r="S18" s="358" t="s">
         <v>271</v>
       </c>
-      <c r="T18" s="359"/>
-      <c r="U18" s="359"/>
-      <c r="V18" s="359"/>
-      <c r="W18" s="359"/>
-      <c r="X18" s="359"/>
-      <c r="Y18" s="359"/>
-      <c r="Z18" s="359"/>
-      <c r="AA18" s="359"/>
-      <c r="AB18" s="359"/>
-      <c r="AC18" s="359"/>
+      <c r="T18" s="358"/>
+      <c r="U18" s="358"/>
+      <c r="V18" s="358"/>
+      <c r="W18" s="358"/>
+      <c r="X18" s="358"/>
+      <c r="Y18" s="358"/>
+      <c r="Z18" s="358"/>
+      <c r="AA18" s="358"/>
+      <c r="AB18" s="358"/>
+      <c r="AC18" s="358"/>
       <c r="AD18" s="11"/>
       <c r="AE18" s="37" t="s">
         <v>258</v>
@@ -16260,17 +16529,17 @@
       <c r="V19" s="37" t="s">
         <v>281</v>
       </c>
-      <c r="W19" s="322" t="s">
+      <c r="W19" s="321" t="s">
         <v>145</v>
       </c>
-      <c r="X19" s="323"/>
-      <c r="Y19" s="324"/>
-      <c r="Z19" s="322" t="s">
+      <c r="X19" s="322"/>
+      <c r="Y19" s="323"/>
+      <c r="Z19" s="321" t="s">
         <v>140</v>
       </c>
-      <c r="AA19" s="323"/>
-      <c r="AB19" s="323"/>
-      <c r="AC19" s="324"/>
+      <c r="AA19" s="322"/>
+      <c r="AB19" s="322"/>
+      <c r="AC19" s="323"/>
       <c r="AD19" s="11"/>
       <c r="AE19" s="11"/>
       <c r="AF19" s="11"/>

--- a/docs/session_variables.xlsx
+++ b/docs/session_variables.xlsx
@@ -8,25 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robhay/git_repo/share_screener/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75B742F-57D3-8A4E-B405-026DF97362AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474BCC5C-6A2C-3448-829D-2F57C4DAD29A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="-7580" windowWidth="38400" windowHeight="21100" xr2:uid="{EB3C945B-FE01-FA47-AE59-A0DC3CDF521B}"/>
+    <workbookView xWindow="-20" yWindow="500" windowWidth="25600" windowHeight="14500" activeTab="1" xr2:uid="{EB3C945B-FE01-FA47-AE59-A0DC3CDF521B}"/>
   </bookViews>
   <sheets>
     <sheet name="Application Structure (2)" sheetId="10" r:id="rId1"/>
-    <sheet name="Application Structure" sheetId="6" r:id="rId2"/>
-    <sheet name="Research" sheetId="8" r:id="rId3"/>
-    <sheet name="financials" sheetId="9" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId5"/>
-    <sheet name="Application Structure - backup" sheetId="5" r:id="rId6"/>
-    <sheet name="Overview" sheetId="4" r:id="rId7"/>
-    <sheet name="scope" sheetId="1" r:id="rId8"/>
-    <sheet name="old o-view" sheetId="2" r:id="rId9"/>
+    <sheet name="Process" sheetId="11" r:id="rId2"/>
+    <sheet name="Application Structure" sheetId="6" r:id="rId3"/>
+    <sheet name="Research" sheetId="8" r:id="rId4"/>
+    <sheet name="financials" sheetId="9" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId6"/>
+    <sheet name="Application Structure - backup" sheetId="5" r:id="rId7"/>
+    <sheet name="Overview" sheetId="4" r:id="rId8"/>
+    <sheet name="scope" sheetId="1" r:id="rId9"/>
+    <sheet name="old o-view" sheetId="2" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">financials!$A$5:$K$25</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Overview!$A$8:$Q$85</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">scope!$B$7:$O$94</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">financials!$A$5:$K$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Overview!$A$8:$Q$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">scope!$B$7:$O$94</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2014" uniqueCount="610">
   <si>
     <t>chart_colours</t>
   </si>
@@ -2226,6 +2227,59 @@
   </si>
   <si>
     <t>ie NAB.AX</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ie </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>NAB.AX</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ie </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>WBC.AX</t>
+    </r>
+  </si>
+  <si>
+    <t>page_df</t>
+  </si>
+  <si>
+    <t>single</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>these are really status - so status - replace_page_df</t>
+  </si>
+  <si>
+    <t>status = replace_cols_for_macd</t>
+  </si>
+  <si>
+    <t>Users</t>
+  </si>
+  <si>
+    <t>Strategy</t>
+  </si>
+  <si>
+    <t>Dropdowns</t>
+  </si>
+  <si>
+    <t>shoul be widgets</t>
   </si>
 </sst>
 </file>
@@ -2950,7 +3004,7 @@
     <xf numFmtId="43" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="422">
+  <cellXfs count="425">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3956,6 +4010,9 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4119,6 +4176,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4138,6 +4201,1861 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38BEC5A3-7CD9-E941-8DBD-880E02A8961E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2565400" y="1041400"/>
+          <a:ext cx="1371600" cy="1244600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Ticker Data Downloader</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{604E2D67-7055-7049-AEB8-0E812A360A32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="876300" y="1041400"/>
+          <a:ext cx="1320800" cy="1219200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Ticker Loader</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FBDBCD1-568F-4E4C-BEB2-114EC47C553E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="876300" y="635000"/>
+          <a:ext cx="3073400" cy="355600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Ticker Index</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAED6741-B8D6-4E4F-99DB-8B863BDB231A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8267700" y="355600"/>
+          <a:ext cx="4279900" cy="1054100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Apps</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>(single, screener, intraday)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52136218-B114-8145-9504-DA3E8E555742}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8293100" y="3302000"/>
+          <a:ext cx="4254500" cy="520700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Ticker</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> List</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>(list of selected Tickers for app)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectangle 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3672E898-7CEE-3145-8372-CCB797AC1D28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8280400" y="1460500"/>
+          <a:ext cx="2273300" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Config</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94E58870-0488-6243-AA2D-30280F4CE05F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8293100" y="2184400"/>
+          <a:ext cx="4254500" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Ticker Selectors</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectangle 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93ADA72F-C282-8B45-A9B1-377309A11040}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10604500" y="1460500"/>
+          <a:ext cx="1917700" cy="584200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Search Results</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rectangle 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14C193A3-18A1-3D49-80D9-F32E436FB1AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6451600" y="3632200"/>
+          <a:ext cx="1536700" cy="1003300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Charts (config)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rectangle 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B86990DB-8D8B-C241-880C-0CF975E972B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4622800" y="4381500"/>
+          <a:ext cx="1536700" cy="977900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Col Adders (config)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82771B59-60AF-C644-80D7-D6BE519BEDD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="1"/>
+          <a:endCxn id="15" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6159500" y="4133850"/>
+          <a:ext cx="292100" cy="736600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Rounded Rectangle 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4D0AE17-B5F0-8248-AA15-6C7EC806585B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4648200" y="1308100"/>
+          <a:ext cx="1574800" cy="1041400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Ticker Loader</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Rounded Rectangle 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{925815C5-2CA7-754D-9DE4-562A4EE5D52E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6362700" y="1308100"/>
+          <a:ext cx="1574800" cy="1041400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Ticker Downloader</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Rounded Rectangle 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE99C2BB-1E55-E741-BA65-034A6D91ABD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4648200" y="2463800"/>
+          <a:ext cx="2768600" cy="1041400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Ticker</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Status Manager</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Rounded Rectangle 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02E095F8-C38E-4B44-A57D-4D846FD1CD55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5041900" y="5753100"/>
+          <a:ext cx="2044700" cy="1231900"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Ticker</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Data Files</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Rounded Rectangle 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ECE4EA9-141C-904F-900A-EA69648E3FC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="6489700"/>
+          <a:ext cx="1193800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>DF &amp;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Col Status</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Rounded Rectangle 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AADAD0F6-496A-2143-960D-94F0D5EB3E86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8267700" y="5727700"/>
+          <a:ext cx="1574800" cy="1041400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Column</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Adder</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Rounded Rectangle 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14761E0E-2A6A-4243-B2E4-F061583D17D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14465300" y="2781300"/>
+          <a:ext cx="3378200" cy="520700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Ticker</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Index File</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Rounded Rectangle 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE947769-989E-0840-BF74-D372B84F2384}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15989300" y="812800"/>
+          <a:ext cx="977900" cy="520700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Index</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Downloader</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Rounded Rectangle 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E85C33C-3324-EB4C-BF61-5FE23957AC62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14452600" y="800100"/>
+          <a:ext cx="1231900" cy="1130300"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>index</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Loader</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Rounded Rectangle 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73248A1F-2258-7E45-8123-3DC0359A77C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14439900" y="215900"/>
+          <a:ext cx="2705100" cy="520700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Ticker</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Index</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Rounded Rectangle 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A930BC4F-2EF9-0B41-82C7-6529083E6B32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17119600" y="1422400"/>
+          <a:ext cx="660400" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Index</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Saver</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Elbow Connector 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A4E68AF-949F-D847-BFF5-64447D897F8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="27" idx="2"/>
+          <a:endCxn id="25" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="15186025" y="1812925"/>
+          <a:ext cx="850900" cy="1085850"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Rounded Rectangle 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AB97EF9-A399-AF4F-9BD0-178B40D072EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16002000" y="1587500"/>
+          <a:ext cx="977900" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Index</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Updater</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>806450</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="Elbow Connector 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A96E3DBF-2B79-F548-922B-35CD56363330}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="33" idx="2"/>
+          <a:endCxn id="25" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="15992475" y="2282825"/>
+          <a:ext cx="660400" cy="336550"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>793750</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>806450</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Elbow Connector 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{114A1E03-F3E2-AE4D-9165-03430541E8F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="26" idx="2"/>
+          <a:endCxn id="33" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="16357600" y="1454150"/>
+          <a:ext cx="254000" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="Elbow Connector 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A00101B8-BD77-AF47-AB51-7F020F0EE8FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="27" idx="2"/>
+          <a:endCxn id="29" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="16227425" y="771525"/>
+          <a:ext cx="63500" cy="2381250"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 460000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="Elbow Connector 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D2AAB6E-906A-FE4F-BEDE-7FC971739F25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="33" idx="3"/>
+          <a:endCxn id="29" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="16979900" y="1708150"/>
+          <a:ext cx="139700" cy="146050"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4437,19 +6355,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4BE9BCD-FFB7-0845-95F9-377ADF3DB526}">
-  <dimension ref="A1:T107"/>
+  <dimension ref="A1:T112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B55" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G72" sqref="G72:J72"/>
+      <selection pane="bottomRight" activeCell="C75" sqref="C75:D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="4.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="20.5" style="373" customWidth="1"/>
+    <col min="2" max="2" width="20.5" style="374" customWidth="1"/>
     <col min="3" max="3" width="9" style="70" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" style="70" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.1640625" style="70" customWidth="1"/>
@@ -4481,22 +6399,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="59" customHeight="1">
-      <c r="A1" s="420" t="s">
+      <c r="A1" s="421" t="s">
         <v>480</v>
       </c>
-      <c r="B1" s="421"/>
-      <c r="C1" s="421"/>
-      <c r="D1" s="421"/>
-      <c r="E1" s="421"/>
-      <c r="F1" s="421"/>
-      <c r="G1" s="421"/>
-      <c r="H1" s="421"/>
-      <c r="J1" s="418" t="s">
+      <c r="B1" s="422"/>
+      <c r="C1" s="422"/>
+      <c r="D1" s="422"/>
+      <c r="E1" s="422"/>
+      <c r="F1" s="422"/>
+      <c r="G1" s="422"/>
+      <c r="H1" s="422"/>
+      <c r="J1" s="419" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="2" spans="1:20">
-      <c r="J2" s="419" t="s">
+      <c r="J2" s="420" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4531,39 +6449,39 @@
       </c>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="369"/>
-      <c r="B4" s="374"/>
-      <c r="C4" s="377"/>
-      <c r="D4" s="377"/>
-      <c r="E4" s="377"/>
-      <c r="F4" s="377"/>
-      <c r="G4" s="377"/>
-      <c r="H4" s="377"/>
-      <c r="I4" s="377"/>
-      <c r="J4" s="377"/>
+      <c r="A4" s="370"/>
+      <c r="B4" s="375"/>
+      <c r="C4" s="378"/>
+      <c r="D4" s="378"/>
+      <c r="E4" s="378"/>
+      <c r="F4" s="378"/>
+      <c r="G4" s="378"/>
+      <c r="H4" s="378"/>
+      <c r="I4" s="378"/>
+      <c r="J4" s="378"/>
       <c r="K4" s="6"/>
-      <c r="L4" s="369"/>
-      <c r="M4" s="369"/>
-      <c r="N4" s="369"/>
-      <c r="O4" s="369"/>
-      <c r="P4" s="369"/>
-      <c r="Q4" s="369"/>
-      <c r="R4" s="369"/>
-      <c r="S4" s="369"/>
-      <c r="T4" s="369"/>
+      <c r="L4" s="370"/>
+      <c r="M4" s="370"/>
+      <c r="N4" s="370"/>
+      <c r="O4" s="370"/>
+      <c r="P4" s="370"/>
+      <c r="Q4" s="370"/>
+      <c r="R4" s="370"/>
+      <c r="S4" s="370"/>
+      <c r="T4" s="370"/>
     </row>
     <row r="5" spans="1:20" ht="31" customHeight="1">
-      <c r="B5" s="392" t="s">
+      <c r="B5" s="393" t="s">
         <v>289</v>
       </c>
-      <c r="C5" s="378"/>
-      <c r="D5" s="378"/>
-      <c r="E5" s="378"/>
-      <c r="F5" s="378"/>
-      <c r="G5" s="378"/>
-      <c r="H5" s="378"/>
-      <c r="I5" s="378"/>
-      <c r="J5" s="378"/>
+      <c r="C5" s="379"/>
+      <c r="D5" s="379"/>
+      <c r="E5" s="379"/>
+      <c r="F5" s="379"/>
+      <c r="G5" s="379"/>
+      <c r="H5" s="379"/>
+      <c r="I5" s="379"/>
+      <c r="J5" s="379"/>
       <c r="K5" s="6"/>
       <c r="L5" s="133" t="s">
         <v>96</v>
@@ -4574,40 +6492,40 @@
       <c r="N5" s="11"/>
     </row>
     <row r="6" spans="1:20" ht="31" customHeight="1">
-      <c r="B6" s="375" t="s">
+      <c r="B6" s="376" t="s">
         <v>263</v>
       </c>
-      <c r="C6" s="390" t="s">
+      <c r="C6" s="391" t="s">
         <v>286</v>
       </c>
-      <c r="D6" s="390"/>
-      <c r="E6" s="379"/>
-      <c r="F6" s="379"/>
-      <c r="G6" s="379"/>
-      <c r="H6" s="379"/>
-      <c r="I6" s="379"/>
-      <c r="J6" s="379"/>
+      <c r="D6" s="391"/>
+      <c r="E6" s="380"/>
+      <c r="F6" s="380"/>
+      <c r="G6" s="380"/>
+      <c r="H6" s="380"/>
+      <c r="I6" s="380"/>
+      <c r="J6" s="380"/>
       <c r="K6" s="6"/>
       <c r="L6" s="133" t="s">
         <v>434</v>
       </c>
-      <c r="M6" s="372" t="s">
+      <c r="M6" s="373" t="s">
         <v>100</v>
       </c>
       <c r="N6" s="11"/>
     </row>
     <row r="7" spans="1:20" ht="31" customHeight="1">
-      <c r="B7" s="375"/>
-      <c r="C7" s="390" t="s">
+      <c r="B7" s="376"/>
+      <c r="C7" s="391" t="s">
         <v>285</v>
       </c>
-      <c r="D7" s="390"/>
-      <c r="E7" s="379"/>
-      <c r="F7" s="379"/>
-      <c r="G7" s="379"/>
-      <c r="H7" s="379"/>
-      <c r="I7" s="379"/>
-      <c r="J7" s="379"/>
+      <c r="D7" s="391"/>
+      <c r="E7" s="380"/>
+      <c r="F7" s="380"/>
+      <c r="G7" s="380"/>
+      <c r="H7" s="380"/>
+      <c r="I7" s="380"/>
+      <c r="J7" s="380"/>
       <c r="K7" s="6"/>
       <c r="L7" s="133" t="s">
         <v>98</v>
@@ -4618,17 +6536,17 @@
       <c r="N7" s="11"/>
     </row>
     <row r="8" spans="1:20" ht="31" customHeight="1">
-      <c r="B8" s="375"/>
-      <c r="C8" s="390" t="s">
+      <c r="B8" s="376"/>
+      <c r="C8" s="391" t="s">
         <v>288</v>
       </c>
-      <c r="D8" s="390"/>
-      <c r="E8" s="379"/>
-      <c r="F8" s="379"/>
-      <c r="G8" s="379"/>
-      <c r="H8" s="379"/>
-      <c r="I8" s="379"/>
-      <c r="J8" s="379"/>
+      <c r="D8" s="391"/>
+      <c r="E8" s="380"/>
+      <c r="F8" s="380"/>
+      <c r="G8" s="380"/>
+      <c r="H8" s="380"/>
+      <c r="I8" s="380"/>
+      <c r="J8" s="380"/>
       <c r="K8" s="6"/>
       <c r="L8" s="133" t="s">
         <v>434</v>
@@ -4639,19 +6557,19 @@
       <c r="N8" s="11"/>
     </row>
     <row r="9" spans="1:20" ht="31" customHeight="1">
-      <c r="B9" s="375"/>
-      <c r="C9" s="371" t="s">
+      <c r="B9" s="376"/>
+      <c r="C9" s="372" t="s">
         <v>262</v>
       </c>
-      <c r="D9" s="371"/>
-      <c r="E9" s="381" t="s">
+      <c r="D9" s="372"/>
+      <c r="E9" s="382" t="s">
         <v>375</v>
       </c>
-      <c r="F9" s="381"/>
-      <c r="G9" s="379"/>
-      <c r="H9" s="379"/>
-      <c r="I9" s="379"/>
-      <c r="J9" s="379"/>
+      <c r="F9" s="382"/>
+      <c r="G9" s="380"/>
+      <c r="H9" s="380"/>
+      <c r="I9" s="380"/>
+      <c r="J9" s="380"/>
       <c r="K9" s="6"/>
       <c r="L9" s="133" t="s">
         <v>96</v>
@@ -4662,17 +6580,17 @@
       <c r="N9" s="11"/>
     </row>
     <row r="10" spans="1:20" ht="31" customHeight="1">
-      <c r="B10" s="375"/>
-      <c r="C10" s="371"/>
-      <c r="D10" s="371"/>
-      <c r="E10" s="381" t="s">
+      <c r="B10" s="376"/>
+      <c r="C10" s="372"/>
+      <c r="D10" s="372"/>
+      <c r="E10" s="382" t="s">
         <v>267</v>
       </c>
-      <c r="F10" s="381"/>
-      <c r="G10" s="379"/>
-      <c r="H10" s="379"/>
-      <c r="I10" s="379"/>
-      <c r="J10" s="379"/>
+      <c r="F10" s="382"/>
+      <c r="G10" s="380"/>
+      <c r="H10" s="380"/>
+      <c r="I10" s="380"/>
+      <c r="J10" s="380"/>
       <c r="K10" s="6"/>
       <c r="L10" s="133" t="s">
         <v>91</v>
@@ -4683,17 +6601,17 @@
       <c r="N10" s="11"/>
     </row>
     <row r="11" spans="1:20" ht="31" customHeight="1">
-      <c r="B11" s="375"/>
-      <c r="C11" s="371"/>
-      <c r="D11" s="371"/>
-      <c r="E11" s="381" t="s">
+      <c r="B11" s="376"/>
+      <c r="C11" s="372"/>
+      <c r="D11" s="372"/>
+      <c r="E11" s="382" t="s">
         <v>268</v>
       </c>
-      <c r="F11" s="381"/>
-      <c r="G11" s="379"/>
-      <c r="H11" s="379"/>
-      <c r="I11" s="379"/>
-      <c r="J11" s="379"/>
+      <c r="F11" s="382"/>
+      <c r="G11" s="380"/>
+      <c r="H11" s="380"/>
+      <c r="I11" s="380"/>
+      <c r="J11" s="380"/>
       <c r="K11" s="6"/>
       <c r="L11" s="133" t="s">
         <v>91</v>
@@ -4704,17 +6622,17 @@
       <c r="N11" s="11"/>
     </row>
     <row r="12" spans="1:20" ht="31" customHeight="1">
-      <c r="B12" s="375"/>
-      <c r="C12" s="371"/>
-      <c r="D12" s="371"/>
-      <c r="E12" s="381" t="s">
+      <c r="B12" s="376"/>
+      <c r="C12" s="372"/>
+      <c r="D12" s="372"/>
+      <c r="E12" s="382" t="s">
         <v>261</v>
       </c>
-      <c r="F12" s="381"/>
-      <c r="G12" s="379"/>
-      <c r="H12" s="379"/>
-      <c r="I12" s="379"/>
-      <c r="J12" s="379"/>
+      <c r="F12" s="382"/>
+      <c r="G12" s="380"/>
+      <c r="H12" s="380"/>
+      <c r="I12" s="380"/>
+      <c r="J12" s="380"/>
       <c r="K12" s="6"/>
       <c r="L12" s="133" t="s">
         <v>91</v>
@@ -4725,17 +6643,17 @@
       <c r="N12" s="11"/>
     </row>
     <row r="13" spans="1:20" ht="31" customHeight="1">
-      <c r="B13" s="375"/>
-      <c r="C13" s="371"/>
-      <c r="D13" s="371"/>
-      <c r="E13" s="381" t="s">
+      <c r="B13" s="376"/>
+      <c r="C13" s="372"/>
+      <c r="D13" s="372"/>
+      <c r="E13" s="382" t="s">
         <v>269</v>
       </c>
-      <c r="F13" s="381"/>
-      <c r="G13" s="379"/>
-      <c r="H13" s="379"/>
-      <c r="I13" s="379"/>
-      <c r="J13" s="379"/>
+      <c r="F13" s="382"/>
+      <c r="G13" s="380"/>
+      <c r="H13" s="380"/>
+      <c r="I13" s="380"/>
+      <c r="J13" s="380"/>
       <c r="K13" s="6"/>
       <c r="L13" s="133" t="s">
         <v>91</v>
@@ -4746,17 +6664,17 @@
       <c r="N13" s="11"/>
     </row>
     <row r="14" spans="1:20" ht="31" customHeight="1">
-      <c r="B14" s="375"/>
-      <c r="C14" s="371"/>
-      <c r="D14" s="371"/>
-      <c r="E14" s="381" t="s">
+      <c r="B14" s="376"/>
+      <c r="C14" s="372"/>
+      <c r="D14" s="372"/>
+      <c r="E14" s="382" t="s">
         <v>284</v>
       </c>
-      <c r="F14" s="381"/>
-      <c r="G14" s="379"/>
-      <c r="H14" s="379"/>
-      <c r="I14" s="379"/>
-      <c r="J14" s="379"/>
+      <c r="F14" s="382"/>
+      <c r="G14" s="380"/>
+      <c r="H14" s="380"/>
+      <c r="I14" s="380"/>
+      <c r="J14" s="380"/>
       <c r="K14" s="6"/>
       <c r="L14" s="133" t="s">
         <v>91</v>
@@ -4767,17 +6685,17 @@
       <c r="N14" s="11"/>
     </row>
     <row r="15" spans="1:20" ht="31" customHeight="1">
-      <c r="B15" s="375"/>
-      <c r="C15" s="371"/>
-      <c r="D15" s="371"/>
-      <c r="E15" s="381" t="s">
+      <c r="B15" s="376"/>
+      <c r="C15" s="372"/>
+      <c r="D15" s="372"/>
+      <c r="E15" s="382" t="s">
         <v>283</v>
       </c>
-      <c r="F15" s="381"/>
-      <c r="G15" s="379"/>
-      <c r="H15" s="379"/>
-      <c r="I15" s="379"/>
-      <c r="J15" s="379"/>
+      <c r="F15" s="382"/>
+      <c r="G15" s="380"/>
+      <c r="H15" s="380"/>
+      <c r="I15" s="380"/>
+      <c r="J15" s="380"/>
       <c r="K15" s="6"/>
       <c r="L15" s="133" t="s">
         <v>91</v>
@@ -4788,21 +6706,21 @@
       <c r="N15" s="11"/>
     </row>
     <row r="16" spans="1:20" ht="31" customHeight="1">
-      <c r="B16" s="375"/>
+      <c r="B16" s="376"/>
       <c r="C16" s="365" t="s">
         <v>502</v>
       </c>
-      <c r="D16" s="390" t="s">
+      <c r="D16" s="391" t="s">
         <v>429</v>
       </c>
-      <c r="E16" s="381" t="s">
+      <c r="E16" s="382" t="s">
         <v>431</v>
       </c>
-      <c r="F16" s="381"/>
-      <c r="G16" s="379"/>
-      <c r="H16" s="379"/>
-      <c r="I16" s="379"/>
-      <c r="J16" s="379"/>
+      <c r="F16" s="382"/>
+      <c r="G16" s="380"/>
+      <c r="H16" s="380"/>
+      <c r="I16" s="380"/>
+      <c r="J16" s="380"/>
       <c r="K16" s="6"/>
       <c r="L16" s="133" t="s">
         <v>91</v>
@@ -4813,17 +6731,17 @@
       <c r="N16" s="11"/>
     </row>
     <row r="17" spans="2:14" ht="31" customHeight="1">
-      <c r="B17" s="375"/>
+      <c r="B17" s="376"/>
       <c r="C17" s="365"/>
-      <c r="D17" s="390"/>
-      <c r="E17" s="381" t="s">
+      <c r="D17" s="391"/>
+      <c r="E17" s="382" t="s">
         <v>395</v>
       </c>
-      <c r="F17" s="381"/>
-      <c r="G17" s="379"/>
-      <c r="H17" s="379"/>
-      <c r="I17" s="379"/>
-      <c r="J17" s="379"/>
+      <c r="F17" s="382"/>
+      <c r="G17" s="380"/>
+      <c r="H17" s="380"/>
+      <c r="I17" s="380"/>
+      <c r="J17" s="380"/>
       <c r="K17" s="6"/>
       <c r="L17" s="133" t="s">
         <v>91</v>
@@ -4834,19 +6752,19 @@
       <c r="N17" s="11"/>
     </row>
     <row r="18" spans="2:14" ht="31" customHeight="1">
-      <c r="B18" s="375"/>
+      <c r="B18" s="376"/>
       <c r="C18" s="365"/>
-      <c r="D18" s="390"/>
+      <c r="D18" s="391"/>
       <c r="E18" s="365" t="s">
         <v>499</v>
       </c>
-      <c r="F18" s="397" t="s">
+      <c r="F18" s="398" t="s">
         <v>445</v>
       </c>
       <c r="G18" s="365" t="s">
         <v>263</v>
       </c>
-      <c r="H18" s="380" t="s">
+      <c r="H18" s="381" t="s">
         <v>136</v>
       </c>
       <c r="I18" s="364"/>
@@ -4861,13 +6779,13 @@
       <c r="N18" s="11"/>
     </row>
     <row r="19" spans="2:14" ht="31" customHeight="1">
-      <c r="B19" s="375"/>
+      <c r="B19" s="376"/>
       <c r="C19" s="365"/>
-      <c r="D19" s="390"/>
+      <c r="D19" s="391"/>
       <c r="E19" s="365"/>
-      <c r="F19" s="397"/>
+      <c r="F19" s="398"/>
       <c r="G19" s="365"/>
-      <c r="H19" s="380" t="s">
+      <c r="H19" s="381" t="s">
         <v>137</v>
       </c>
       <c r="I19" s="364"/>
@@ -4882,19 +6800,19 @@
       </c>
     </row>
     <row r="20" spans="2:14" ht="31" customHeight="1">
-      <c r="B20" s="375"/>
+      <c r="B20" s="376"/>
       <c r="C20" s="365"/>
-      <c r="D20" s="390"/>
+      <c r="D20" s="391"/>
       <c r="E20" s="365"/>
-      <c r="F20" s="397"/>
+      <c r="F20" s="398"/>
       <c r="G20" s="365"/>
-      <c r="H20" s="381" t="s">
+      <c r="H20" s="382" t="s">
         <v>426</v>
       </c>
-      <c r="I20" s="412" t="s">
+      <c r="I20" s="413" t="s">
         <v>141</v>
       </c>
-      <c r="J20" s="413"/>
+      <c r="J20" s="414"/>
       <c r="K20" s="6"/>
       <c r="L20" s="133" t="s">
         <v>141</v>
@@ -4905,17 +6823,17 @@
       </c>
     </row>
     <row r="21" spans="2:14" ht="31" customHeight="1">
-      <c r="B21" s="375"/>
+      <c r="B21" s="376"/>
       <c r="C21" s="365"/>
-      <c r="D21" s="390"/>
+      <c r="D21" s="391"/>
       <c r="E21" s="365"/>
-      <c r="F21" s="397"/>
+      <c r="F21" s="398"/>
       <c r="G21" s="365"/>
-      <c r="H21" s="381"/>
-      <c r="I21" s="410" t="s">
+      <c r="H21" s="382"/>
+      <c r="I21" s="411" t="s">
         <v>146</v>
       </c>
-      <c r="J21" s="411"/>
+      <c r="J21" s="412"/>
       <c r="K21" s="6"/>
       <c r="L21" s="133" t="s">
         <v>434</v>
@@ -4926,17 +6844,17 @@
       </c>
     </row>
     <row r="22" spans="2:14" ht="31" customHeight="1">
-      <c r="B22" s="375"/>
+      <c r="B22" s="376"/>
       <c r="C22" s="365"/>
-      <c r="D22" s="390"/>
+      <c r="D22" s="391"/>
       <c r="E22" s="365"/>
-      <c r="F22" s="397"/>
+      <c r="F22" s="398"/>
       <c r="G22" s="365"/>
-      <c r="H22" s="381"/>
-      <c r="I22" s="410" t="s">
+      <c r="H22" s="382"/>
+      <c r="I22" s="411" t="s">
         <v>408</v>
       </c>
-      <c r="J22" s="411"/>
+      <c r="J22" s="412"/>
       <c r="K22" s="6"/>
       <c r="L22" s="133" t="s">
         <v>434</v>
@@ -4947,17 +6865,17 @@
       </c>
     </row>
     <row r="23" spans="2:14" ht="31" customHeight="1">
-      <c r="B23" s="375"/>
+      <c r="B23" s="376"/>
       <c r="C23" s="365"/>
-      <c r="D23" s="390"/>
+      <c r="D23" s="391"/>
       <c r="E23" s="365"/>
-      <c r="F23" s="397"/>
+      <c r="F23" s="398"/>
       <c r="G23" s="365"/>
-      <c r="H23" s="381"/>
-      <c r="I23" s="410" t="s">
+      <c r="H23" s="382"/>
+      <c r="I23" s="411" t="s">
         <v>409</v>
       </c>
-      <c r="J23" s="411"/>
+      <c r="J23" s="412"/>
       <c r="K23" s="6"/>
       <c r="L23" s="133" t="s">
         <v>90</v>
@@ -4968,17 +6886,17 @@
       </c>
     </row>
     <row r="24" spans="2:14" ht="31" customHeight="1">
-      <c r="B24" s="375"/>
+      <c r="B24" s="376"/>
       <c r="C24" s="365"/>
-      <c r="D24" s="390"/>
+      <c r="D24" s="391"/>
       <c r="E24" s="365"/>
-      <c r="F24" s="397"/>
+      <c r="F24" s="398"/>
       <c r="G24" s="365"/>
-      <c r="H24" s="381"/>
-      <c r="I24" s="410" t="s">
+      <c r="H24" s="382"/>
+      <c r="I24" s="411" t="s">
         <v>410</v>
       </c>
-      <c r="J24" s="411"/>
+      <c r="J24" s="412"/>
       <c r="K24" s="6"/>
       <c r="L24" s="133" t="s">
         <v>90</v>
@@ -4989,19 +6907,19 @@
       </c>
     </row>
     <row r="25" spans="2:14" ht="31" customHeight="1">
-      <c r="B25" s="375"/>
+      <c r="B25" s="376"/>
       <c r="C25" s="365"/>
-      <c r="D25" s="390" t="s">
+      <c r="D25" s="391" t="s">
         <v>430</v>
       </c>
-      <c r="E25" s="381" t="s">
+      <c r="E25" s="382" t="s">
         <v>379</v>
       </c>
-      <c r="F25" s="381"/>
-      <c r="G25" s="382"/>
-      <c r="H25" s="382"/>
-      <c r="I25" s="382"/>
-      <c r="J25" s="382"/>
+      <c r="F25" s="382"/>
+      <c r="G25" s="383"/>
+      <c r="H25" s="383"/>
+      <c r="I25" s="383"/>
+      <c r="J25" s="383"/>
       <c r="K25" s="6"/>
       <c r="L25" s="133" t="s">
         <v>91</v>
@@ -5012,17 +6930,17 @@
       </c>
     </row>
     <row r="26" spans="2:14" ht="31" customHeight="1">
-      <c r="B26" s="375"/>
+      <c r="B26" s="376"/>
       <c r="C26" s="365"/>
-      <c r="D26" s="390"/>
-      <c r="E26" s="381" t="s">
+      <c r="D26" s="391"/>
+      <c r="E26" s="382" t="s">
         <v>279</v>
       </c>
-      <c r="F26" s="381"/>
-      <c r="G26" s="382"/>
-      <c r="H26" s="382"/>
-      <c r="I26" s="382"/>
-      <c r="J26" s="382"/>
+      <c r="F26" s="382"/>
+      <c r="G26" s="383"/>
+      <c r="H26" s="383"/>
+      <c r="I26" s="383"/>
+      <c r="J26" s="383"/>
       <c r="K26" s="6"/>
       <c r="L26" s="133" t="s">
         <v>90</v>
@@ -5033,17 +6951,17 @@
       <c r="N26" s="11"/>
     </row>
     <row r="27" spans="2:14" ht="31" customHeight="1">
-      <c r="B27" s="375"/>
+      <c r="B27" s="376"/>
       <c r="C27" s="365"/>
-      <c r="D27" s="390"/>
-      <c r="E27" s="381" t="s">
+      <c r="D27" s="391"/>
+      <c r="E27" s="382" t="s">
         <v>507</v>
       </c>
-      <c r="F27" s="381"/>
-      <c r="G27" s="382"/>
-      <c r="H27" s="382"/>
-      <c r="I27" s="382"/>
-      <c r="J27" s="382"/>
+      <c r="F27" s="382"/>
+      <c r="G27" s="383"/>
+      <c r="H27" s="383"/>
+      <c r="I27" s="383"/>
+      <c r="J27" s="383"/>
       <c r="K27" s="6"/>
       <c r="L27" s="133" t="s">
         <v>90</v>
@@ -5054,17 +6972,17 @@
       <c r="N27" s="11"/>
     </row>
     <row r="28" spans="2:14" ht="31" customHeight="1">
-      <c r="B28" s="375"/>
+      <c r="B28" s="376"/>
       <c r="C28" s="365"/>
-      <c r="D28" s="390"/>
-      <c r="E28" s="381" t="s">
+      <c r="D28" s="391"/>
+      <c r="E28" s="382" t="s">
         <v>399</v>
       </c>
-      <c r="F28" s="381"/>
-      <c r="G28" s="382"/>
-      <c r="H28" s="382"/>
-      <c r="I28" s="382"/>
-      <c r="J28" s="382"/>
+      <c r="F28" s="382"/>
+      <c r="G28" s="383"/>
+      <c r="H28" s="383"/>
+      <c r="I28" s="383"/>
+      <c r="J28" s="383"/>
       <c r="K28" s="6"/>
       <c r="L28" s="133" t="s">
         <v>91</v>
@@ -5075,19 +6993,19 @@
       <c r="N28" s="11"/>
     </row>
     <row r="29" spans="2:14" ht="31" customHeight="1">
-      <c r="B29" s="375"/>
+      <c r="B29" s="376"/>
       <c r="C29" s="365"/>
-      <c r="D29" s="390"/>
+      <c r="D29" s="391"/>
       <c r="E29" s="365" t="s">
         <v>500</v>
       </c>
-      <c r="F29" s="397" t="s">
+      <c r="F29" s="398" t="s">
         <v>444</v>
       </c>
       <c r="G29" s="365" t="s">
         <v>263</v>
       </c>
-      <c r="H29" s="383" t="s">
+      <c r="H29" s="384" t="s">
         <v>136</v>
       </c>
       <c r="I29" s="364"/>
@@ -5102,13 +7020,13 @@
       <c r="N29" s="11"/>
     </row>
     <row r="30" spans="2:14" ht="31" customHeight="1">
-      <c r="B30" s="375"/>
+      <c r="B30" s="376"/>
       <c r="C30" s="365"/>
-      <c r="D30" s="390"/>
+      <c r="D30" s="391"/>
       <c r="E30" s="365"/>
-      <c r="F30" s="397"/>
+      <c r="F30" s="398"/>
       <c r="G30" s="365"/>
-      <c r="H30" s="383" t="s">
+      <c r="H30" s="384" t="s">
         <v>137</v>
       </c>
       <c r="I30" s="364"/>
@@ -5123,13 +7041,13 @@
       </c>
     </row>
     <row r="31" spans="2:14" ht="31" customHeight="1">
-      <c r="B31" s="375"/>
+      <c r="B31" s="376"/>
       <c r="C31" s="365"/>
-      <c r="D31" s="390"/>
+      <c r="D31" s="391"/>
       <c r="E31" s="365"/>
-      <c r="F31" s="397"/>
+      <c r="F31" s="398"/>
       <c r="G31" s="365"/>
-      <c r="H31" s="383" t="s">
+      <c r="H31" s="384" t="s">
         <v>282</v>
       </c>
       <c r="I31" s="364"/>
@@ -5144,13 +7062,13 @@
       </c>
     </row>
     <row r="32" spans="2:14" ht="31" customHeight="1">
-      <c r="B32" s="375"/>
+      <c r="B32" s="376"/>
       <c r="C32" s="365"/>
-      <c r="D32" s="390"/>
+      <c r="D32" s="391"/>
       <c r="E32" s="365"/>
-      <c r="F32" s="397"/>
+      <c r="F32" s="398"/>
       <c r="G32" s="365"/>
-      <c r="H32" s="383" t="s">
+      <c r="H32" s="384" t="s">
         <v>281</v>
       </c>
       <c r="I32" s="364"/>
@@ -5165,19 +7083,19 @@
       </c>
     </row>
     <row r="33" spans="2:14" ht="31" customHeight="1">
-      <c r="B33" s="375"/>
+      <c r="B33" s="376"/>
       <c r="C33" s="365"/>
-      <c r="D33" s="390"/>
+      <c r="D33" s="391"/>
       <c r="E33" s="365"/>
-      <c r="F33" s="397"/>
+      <c r="F33" s="398"/>
       <c r="G33" s="365"/>
-      <c r="H33" s="384" t="s">
+      <c r="H33" s="385" t="s">
         <v>426</v>
       </c>
-      <c r="I33" s="384" t="s">
+      <c r="I33" s="385" t="s">
         <v>141</v>
       </c>
-      <c r="J33" s="384"/>
+      <c r="J33" s="385"/>
       <c r="K33" s="6"/>
       <c r="L33" s="133" t="s">
         <v>141</v>
@@ -5188,17 +7106,17 @@
       </c>
     </row>
     <row r="34" spans="2:14" ht="31" customHeight="1">
-      <c r="B34" s="375"/>
+      <c r="B34" s="376"/>
       <c r="C34" s="365"/>
-      <c r="D34" s="390"/>
+      <c r="D34" s="391"/>
       <c r="E34" s="365"/>
-      <c r="F34" s="397"/>
+      <c r="F34" s="398"/>
       <c r="G34" s="365"/>
-      <c r="H34" s="384"/>
-      <c r="I34" s="384" t="s">
+      <c r="H34" s="385"/>
+      <c r="I34" s="385" t="s">
         <v>146</v>
       </c>
-      <c r="J34" s="384"/>
+      <c r="J34" s="385"/>
       <c r="K34" s="6"/>
       <c r="L34" s="133" t="s">
         <v>434</v>
@@ -5209,17 +7127,17 @@
       </c>
     </row>
     <row r="35" spans="2:14" ht="31" customHeight="1">
-      <c r="B35" s="375"/>
+      <c r="B35" s="376"/>
       <c r="C35" s="365"/>
-      <c r="D35" s="390"/>
+      <c r="D35" s="391"/>
       <c r="E35" s="365"/>
-      <c r="F35" s="397"/>
+      <c r="F35" s="398"/>
       <c r="G35" s="365"/>
-      <c r="H35" s="384"/>
-      <c r="I35" s="384" t="s">
+      <c r="H35" s="385"/>
+      <c r="I35" s="385" t="s">
         <v>400</v>
       </c>
-      <c r="J35" s="384"/>
+      <c r="J35" s="385"/>
       <c r="K35" s="6"/>
       <c r="L35" s="133" t="s">
         <v>90</v>
@@ -5230,17 +7148,17 @@
       </c>
     </row>
     <row r="36" spans="2:14" ht="31" customHeight="1">
-      <c r="B36" s="375"/>
+      <c r="B36" s="376"/>
       <c r="C36" s="365"/>
-      <c r="D36" s="390"/>
+      <c r="D36" s="391"/>
       <c r="E36" s="365"/>
-      <c r="F36" s="397"/>
+      <c r="F36" s="398"/>
       <c r="G36" s="365"/>
-      <c r="H36" s="384"/>
-      <c r="I36" s="384" t="s">
+      <c r="H36" s="385"/>
+      <c r="I36" s="385" t="s">
         <v>401</v>
       </c>
-      <c r="J36" s="384"/>
+      <c r="J36" s="385"/>
       <c r="K36" s="6"/>
       <c r="L36" s="133" t="s">
         <v>90</v>
@@ -5251,19 +7169,19 @@
       </c>
     </row>
     <row r="37" spans="2:14" ht="31" customHeight="1">
-      <c r="B37" s="375"/>
+      <c r="B37" s="376"/>
       <c r="C37" s="365"/>
-      <c r="D37" s="390"/>
+      <c r="D37" s="391"/>
       <c r="E37" s="365"/>
-      <c r="F37" s="397"/>
+      <c r="F37" s="398"/>
       <c r="G37" s="365"/>
-      <c r="H37" s="384" t="s">
+      <c r="H37" s="385" t="s">
         <v>140</v>
       </c>
-      <c r="I37" s="384" t="s">
+      <c r="I37" s="385" t="s">
         <v>141</v>
       </c>
-      <c r="J37" s="384"/>
+      <c r="J37" s="385"/>
       <c r="K37" s="6"/>
       <c r="L37" s="133" t="s">
         <v>141</v>
@@ -5274,17 +7192,17 @@
       </c>
     </row>
     <row r="38" spans="2:14" ht="31" customHeight="1">
-      <c r="B38" s="375"/>
+      <c r="B38" s="376"/>
       <c r="C38" s="365"/>
-      <c r="D38" s="390"/>
+      <c r="D38" s="391"/>
       <c r="E38" s="365"/>
-      <c r="F38" s="397"/>
+      <c r="F38" s="398"/>
       <c r="G38" s="365"/>
-      <c r="H38" s="384"/>
-      <c r="I38" s="384" t="s">
+      <c r="H38" s="385"/>
+      <c r="I38" s="385" t="s">
         <v>142</v>
       </c>
-      <c r="J38" s="384"/>
+      <c r="J38" s="385"/>
       <c r="K38" s="6"/>
       <c r="L38" s="133" t="s">
         <v>434</v>
@@ -5295,17 +7213,17 @@
       </c>
     </row>
     <row r="39" spans="2:14" ht="31" customHeight="1">
-      <c r="B39" s="375"/>
+      <c r="B39" s="376"/>
       <c r="C39" s="365"/>
-      <c r="D39" s="390"/>
+      <c r="D39" s="391"/>
       <c r="E39" s="365"/>
-      <c r="F39" s="397"/>
+      <c r="F39" s="398"/>
       <c r="G39" s="365"/>
-      <c r="H39" s="384"/>
-      <c r="I39" s="384" t="s">
+      <c r="H39" s="385"/>
+      <c r="I39" s="385" t="s">
         <v>143</v>
       </c>
-      <c r="J39" s="384"/>
+      <c r="J39" s="385"/>
       <c r="K39" s="6"/>
       <c r="L39" s="133" t="s">
         <v>442</v>
@@ -5316,17 +7234,17 @@
       </c>
     </row>
     <row r="40" spans="2:14" ht="31" customHeight="1">
-      <c r="B40" s="375"/>
+      <c r="B40" s="376"/>
       <c r="C40" s="365"/>
-      <c r="D40" s="390"/>
+      <c r="D40" s="391"/>
       <c r="E40" s="365"/>
-      <c r="F40" s="397"/>
+      <c r="F40" s="398"/>
       <c r="G40" s="365"/>
-      <c r="H40" s="384"/>
-      <c r="I40" s="384" t="s">
+      <c r="H40" s="385"/>
+      <c r="I40" s="385" t="s">
         <v>144</v>
       </c>
-      <c r="J40" s="384"/>
+      <c r="J40" s="385"/>
       <c r="K40" s="6"/>
       <c r="L40" s="133" t="s">
         <v>434</v>
@@ -5337,19 +7255,19 @@
       </c>
     </row>
     <row r="41" spans="2:14" ht="31" customHeight="1">
-      <c r="B41" s="375"/>
-      <c r="C41" s="371" t="s">
+      <c r="B41" s="376"/>
+      <c r="C41" s="372" t="s">
         <v>28</v>
       </c>
-      <c r="D41" s="396" t="s">
+      <c r="D41" s="397" t="s">
         <v>446</v>
       </c>
-      <c r="E41" s="385"/>
-      <c r="F41" s="385"/>
-      <c r="G41" s="385"/>
-      <c r="H41" s="385"/>
-      <c r="I41" s="385"/>
-      <c r="J41" s="385"/>
+      <c r="E41" s="386"/>
+      <c r="F41" s="386"/>
+      <c r="G41" s="386"/>
+      <c r="H41" s="386"/>
+      <c r="I41" s="386"/>
+      <c r="J41" s="386"/>
       <c r="K41" s="6"/>
       <c r="L41" s="133" t="s">
         <v>434</v>
@@ -5360,17 +7278,17 @@
       <c r="N41" s="11"/>
     </row>
     <row r="42" spans="2:14" ht="31" customHeight="1">
-      <c r="B42" s="375"/>
-      <c r="C42" s="371"/>
-      <c r="D42" s="396" t="s">
+      <c r="B42" s="376"/>
+      <c r="C42" s="372"/>
+      <c r="D42" s="397" t="s">
         <v>447</v>
       </c>
-      <c r="E42" s="385"/>
-      <c r="F42" s="385"/>
-      <c r="G42" s="385"/>
-      <c r="H42" s="385"/>
-      <c r="I42" s="385"/>
-      <c r="J42" s="385"/>
+      <c r="E42" s="386"/>
+      <c r="F42" s="386"/>
+      <c r="G42" s="386"/>
+      <c r="H42" s="386"/>
+      <c r="I42" s="386"/>
+      <c r="J42" s="386"/>
       <c r="K42" s="6"/>
       <c r="L42" s="133" t="s">
         <v>434</v>
@@ -5381,17 +7299,17 @@
       <c r="N42" s="11"/>
     </row>
     <row r="43" spans="2:14" ht="31" customHeight="1">
-      <c r="B43" s="375"/>
-      <c r="C43" s="371"/>
-      <c r="D43" s="396" t="s">
+      <c r="B43" s="376"/>
+      <c r="C43" s="372"/>
+      <c r="D43" s="397" t="s">
         <v>448</v>
       </c>
-      <c r="E43" s="385"/>
-      <c r="F43" s="385"/>
-      <c r="G43" s="385"/>
-      <c r="H43" s="385"/>
-      <c r="I43" s="385"/>
-      <c r="J43" s="385"/>
+      <c r="E43" s="386"/>
+      <c r="F43" s="386"/>
+      <c r="G43" s="386"/>
+      <c r="H43" s="386"/>
+      <c r="I43" s="386"/>
+      <c r="J43" s="386"/>
       <c r="K43" s="6"/>
       <c r="L43" s="133" t="s">
         <v>434</v>
@@ -5402,17 +7320,17 @@
       <c r="N43" s="11"/>
     </row>
     <row r="44" spans="2:14" ht="31" customHeight="1">
-      <c r="B44" s="375"/>
-      <c r="C44" s="371"/>
-      <c r="D44" s="396" t="s">
+      <c r="B44" s="376"/>
+      <c r="C44" s="372"/>
+      <c r="D44" s="397" t="s">
         <v>449</v>
       </c>
-      <c r="E44" s="385"/>
-      <c r="F44" s="385"/>
-      <c r="G44" s="385"/>
-      <c r="H44" s="385"/>
-      <c r="I44" s="385"/>
-      <c r="J44" s="385"/>
+      <c r="E44" s="386"/>
+      <c r="F44" s="386"/>
+      <c r="G44" s="386"/>
+      <c r="H44" s="386"/>
+      <c r="I44" s="386"/>
+      <c r="J44" s="386"/>
       <c r="K44" s="6"/>
       <c r="L44" s="133" t="s">
         <v>90</v>
@@ -5423,17 +7341,17 @@
       <c r="N44" s="11"/>
     </row>
     <row r="45" spans="2:14" ht="31" customHeight="1">
-      <c r="B45" s="375"/>
-      <c r="C45" s="371"/>
-      <c r="D45" s="396" t="s">
+      <c r="B45" s="376"/>
+      <c r="C45" s="372"/>
+      <c r="D45" s="397" t="s">
         <v>450</v>
       </c>
-      <c r="E45" s="385"/>
-      <c r="F45" s="385"/>
-      <c r="G45" s="385"/>
-      <c r="H45" s="385"/>
-      <c r="I45" s="385"/>
-      <c r="J45" s="385"/>
+      <c r="E45" s="386"/>
+      <c r="F45" s="386"/>
+      <c r="G45" s="386"/>
+      <c r="H45" s="386"/>
+      <c r="I45" s="386"/>
+      <c r="J45" s="386"/>
       <c r="K45" s="6"/>
       <c r="L45" s="133" t="s">
         <v>90</v>
@@ -5444,17 +7362,17 @@
       <c r="N45" s="11"/>
     </row>
     <row r="46" spans="2:14" ht="31" customHeight="1">
-      <c r="B46" s="375"/>
-      <c r="C46" s="371"/>
-      <c r="D46" s="396" t="s">
+      <c r="B46" s="376"/>
+      <c r="C46" s="372"/>
+      <c r="D46" s="397" t="s">
         <v>451</v>
       </c>
-      <c r="E46" s="385"/>
-      <c r="F46" s="385"/>
-      <c r="G46" s="385"/>
-      <c r="H46" s="385"/>
-      <c r="I46" s="385"/>
-      <c r="J46" s="385"/>
+      <c r="E46" s="386"/>
+      <c r="F46" s="386"/>
+      <c r="G46" s="386"/>
+      <c r="H46" s="386"/>
+      <c r="I46" s="386"/>
+      <c r="J46" s="386"/>
       <c r="K46" s="6"/>
       <c r="L46" s="133" t="s">
         <v>90</v>
@@ -5465,21 +7383,21 @@
       <c r="N46" s="11"/>
     </row>
     <row r="47" spans="2:14" ht="31" customHeight="1">
-      <c r="B47" s="375" t="s">
+      <c r="B47" s="376" t="s">
         <v>258</v>
       </c>
-      <c r="C47" s="371" t="s">
+      <c r="C47" s="372" t="s">
         <v>275</v>
       </c>
-      <c r="D47" s="371"/>
-      <c r="E47" s="381" t="s">
+      <c r="D47" s="372"/>
+      <c r="E47" s="382" t="s">
         <v>258</v>
       </c>
-      <c r="F47" s="381"/>
-      <c r="G47" s="379"/>
-      <c r="H47" s="379"/>
-      <c r="I47" s="379"/>
-      <c r="J47" s="379"/>
+      <c r="F47" s="382"/>
+      <c r="G47" s="380"/>
+      <c r="H47" s="380"/>
+      <c r="I47" s="380"/>
+      <c r="J47" s="380"/>
       <c r="K47" s="6"/>
       <c r="L47" s="133" t="s">
         <v>113</v>
@@ -5488,17 +7406,17 @@
       <c r="N47" s="11"/>
     </row>
     <row r="48" spans="2:14" ht="31" customHeight="1">
-      <c r="B48" s="375"/>
-      <c r="C48" s="371"/>
-      <c r="D48" s="371"/>
-      <c r="E48" s="381" t="s">
+      <c r="B48" s="376"/>
+      <c r="C48" s="372"/>
+      <c r="D48" s="372"/>
+      <c r="E48" s="382" t="s">
         <v>274</v>
       </c>
-      <c r="F48" s="381"/>
-      <c r="G48" s="379"/>
-      <c r="H48" s="379"/>
-      <c r="I48" s="379"/>
-      <c r="J48" s="379"/>
+      <c r="F48" s="382"/>
+      <c r="G48" s="380"/>
+      <c r="H48" s="380"/>
+      <c r="I48" s="380"/>
+      <c r="J48" s="380"/>
       <c r="L48" s="133" t="s">
         <v>113</v>
       </c>
@@ -5506,17 +7424,17 @@
       <c r="N48" s="11"/>
     </row>
     <row r="49" spans="2:15" ht="31" customHeight="1">
-      <c r="B49" s="375"/>
-      <c r="C49" s="371"/>
-      <c r="D49" s="371"/>
-      <c r="E49" s="381" t="s">
+      <c r="B49" s="376"/>
+      <c r="C49" s="372"/>
+      <c r="D49" s="372"/>
+      <c r="E49" s="382" t="s">
         <v>277</v>
       </c>
-      <c r="F49" s="381"/>
-      <c r="G49" s="379"/>
-      <c r="H49" s="379"/>
-      <c r="I49" s="379"/>
-      <c r="J49" s="379"/>
+      <c r="F49" s="382"/>
+      <c r="G49" s="380"/>
+      <c r="H49" s="380"/>
+      <c r="I49" s="380"/>
+      <c r="J49" s="380"/>
       <c r="L49" s="133" t="s">
         <v>113</v>
       </c>
@@ -5524,17 +7442,17 @@
       <c r="N49" s="11"/>
     </row>
     <row r="50" spans="2:15" ht="31" customHeight="1">
-      <c r="B50" s="375"/>
-      <c r="C50" s="371"/>
-      <c r="D50" s="371"/>
-      <c r="E50" s="381" t="s">
+      <c r="B50" s="376"/>
+      <c r="C50" s="372"/>
+      <c r="D50" s="372"/>
+      <c r="E50" s="382" t="s">
         <v>261</v>
       </c>
-      <c r="F50" s="381"/>
-      <c r="G50" s="379"/>
-      <c r="H50" s="379"/>
-      <c r="I50" s="379"/>
-      <c r="J50" s="379"/>
+      <c r="F50" s="382"/>
+      <c r="G50" s="380"/>
+      <c r="H50" s="380"/>
+      <c r="I50" s="380"/>
+      <c r="J50" s="380"/>
       <c r="L50" s="133" t="s">
         <v>113</v>
       </c>
@@ -5542,17 +7460,17 @@
       <c r="N50" s="11"/>
     </row>
     <row r="51" spans="2:15" ht="31" customHeight="1">
-      <c r="B51" s="375"/>
-      <c r="C51" s="371"/>
-      <c r="D51" s="371"/>
-      <c r="E51" s="381" t="s">
+      <c r="B51" s="376"/>
+      <c r="C51" s="372"/>
+      <c r="D51" s="372"/>
+      <c r="E51" s="382" t="s">
         <v>273</v>
       </c>
-      <c r="F51" s="381"/>
-      <c r="G51" s="379"/>
-      <c r="H51" s="379"/>
-      <c r="I51" s="379"/>
-      <c r="J51" s="379"/>
+      <c r="F51" s="382"/>
+      <c r="G51" s="380"/>
+      <c r="H51" s="380"/>
+      <c r="I51" s="380"/>
+      <c r="J51" s="380"/>
       <c r="L51" s="133" t="s">
         <v>113</v>
       </c>
@@ -5560,19 +7478,19 @@
       <c r="N51" s="11"/>
     </row>
     <row r="52" spans="2:15" ht="31" customHeight="1">
-      <c r="B52" s="375"/>
-      <c r="C52" s="371" t="s">
+      <c r="B52" s="376"/>
+      <c r="C52" s="372" t="s">
         <v>276</v>
       </c>
-      <c r="D52" s="371"/>
-      <c r="E52" s="381" t="s">
+      <c r="D52" s="372"/>
+      <c r="E52" s="382" t="s">
         <v>508</v>
       </c>
-      <c r="F52" s="381"/>
-      <c r="G52" s="379"/>
-      <c r="H52" s="379"/>
-      <c r="I52" s="379"/>
-      <c r="J52" s="379"/>
+      <c r="F52" s="382"/>
+      <c r="G52" s="380"/>
+      <c r="H52" s="380"/>
+      <c r="I52" s="380"/>
+      <c r="J52" s="380"/>
       <c r="L52" s="133" t="s">
         <v>97</v>
       </c>
@@ -5580,17 +7498,17 @@
       <c r="N52" s="11"/>
     </row>
     <row r="53" spans="2:15" ht="31" customHeight="1">
-      <c r="B53" s="375"/>
-      <c r="C53" s="371"/>
-      <c r="D53" s="371"/>
-      <c r="E53" s="381" t="s">
+      <c r="B53" s="376"/>
+      <c r="C53" s="372"/>
+      <c r="D53" s="372"/>
+      <c r="E53" s="382" t="s">
         <v>272</v>
       </c>
-      <c r="F53" s="381"/>
-      <c r="G53" s="379"/>
-      <c r="H53" s="379"/>
-      <c r="I53" s="379"/>
-      <c r="J53" s="379"/>
+      <c r="F53" s="382"/>
+      <c r="G53" s="380"/>
+      <c r="H53" s="380"/>
+      <c r="I53" s="380"/>
+      <c r="J53" s="380"/>
       <c r="L53" s="133" t="s">
         <v>97</v>
       </c>
@@ -5600,17 +7518,17 @@
       <c r="N53" s="11"/>
     </row>
     <row r="54" spans="2:15" ht="31" customHeight="1">
-      <c r="B54" s="375"/>
-      <c r="C54" s="371"/>
-      <c r="D54" s="371"/>
-      <c r="E54" s="381" t="s">
+      <c r="B54" s="376"/>
+      <c r="C54" s="372"/>
+      <c r="D54" s="372"/>
+      <c r="E54" s="382" t="s">
         <v>44</v>
       </c>
-      <c r="F54" s="381"/>
-      <c r="G54" s="379"/>
-      <c r="H54" s="379"/>
-      <c r="I54" s="379"/>
-      <c r="J54" s="379"/>
+      <c r="F54" s="382"/>
+      <c r="G54" s="380"/>
+      <c r="H54" s="380"/>
+      <c r="I54" s="380"/>
+      <c r="J54" s="380"/>
       <c r="L54" s="133" t="s">
         <v>97</v>
       </c>
@@ -5618,17 +7536,17 @@
       <c r="N54" s="11"/>
     </row>
     <row r="55" spans="2:15" ht="31" customHeight="1">
-      <c r="B55" s="375"/>
-      <c r="C55" s="371"/>
-      <c r="D55" s="371"/>
-      <c r="E55" s="381" t="s">
+      <c r="B55" s="376"/>
+      <c r="C55" s="372"/>
+      <c r="D55" s="372"/>
+      <c r="E55" s="382" t="s">
         <v>273</v>
       </c>
-      <c r="F55" s="381"/>
-      <c r="G55" s="379"/>
-      <c r="H55" s="379"/>
-      <c r="I55" s="379"/>
-      <c r="J55" s="379"/>
+      <c r="F55" s="382"/>
+      <c r="G55" s="380"/>
+      <c r="H55" s="380"/>
+      <c r="I55" s="380"/>
+      <c r="J55" s="380"/>
       <c r="L55" s="133" t="s">
         <v>97</v>
       </c>
@@ -5636,19 +7554,19 @@
       <c r="N55" s="11"/>
     </row>
     <row r="56" spans="2:15" ht="31" customHeight="1">
-      <c r="B56" s="375" t="s">
+      <c r="B56" s="376" t="s">
         <v>508</v>
       </c>
-      <c r="C56" s="371" t="s">
+      <c r="C56" s="372" t="s">
         <v>513</v>
       </c>
-      <c r="D56" s="371"/>
-      <c r="E56" s="379"/>
-      <c r="F56" s="379"/>
-      <c r="G56" s="379"/>
-      <c r="H56" s="379"/>
-      <c r="I56" s="379"/>
-      <c r="J56" s="379"/>
+      <c r="D56" s="372"/>
+      <c r="E56" s="380"/>
+      <c r="F56" s="380"/>
+      <c r="G56" s="380"/>
+      <c r="H56" s="380"/>
+      <c r="I56" s="380"/>
+      <c r="J56" s="380"/>
       <c r="L56" s="133" t="s">
         <v>453</v>
       </c>
@@ -5658,17 +7576,17 @@
       </c>
     </row>
     <row r="57" spans="2:15" ht="31" customHeight="1">
-      <c r="B57" s="375"/>
-      <c r="C57" s="371" t="s">
+      <c r="B57" s="376"/>
+      <c r="C57" s="372" t="s">
         <v>510</v>
       </c>
-      <c r="D57" s="371"/>
-      <c r="E57" s="379"/>
-      <c r="F57" s="379"/>
-      <c r="G57" s="379"/>
-      <c r="H57" s="379"/>
-      <c r="I57" s="379"/>
-      <c r="J57" s="379"/>
+      <c r="D57" s="372"/>
+      <c r="E57" s="380"/>
+      <c r="F57" s="380"/>
+      <c r="G57" s="380"/>
+      <c r="H57" s="380"/>
+      <c r="I57" s="380"/>
+      <c r="J57" s="380"/>
       <c r="L57" s="133" t="s">
         <v>91</v>
       </c>
@@ -5678,17 +7596,17 @@
       </c>
     </row>
     <row r="58" spans="2:15" ht="31" customHeight="1">
-      <c r="B58" s="375"/>
-      <c r="C58" s="371" t="s">
+      <c r="B58" s="376"/>
+      <c r="C58" s="372" t="s">
         <v>512</v>
       </c>
-      <c r="D58" s="371"/>
-      <c r="E58" s="379"/>
-      <c r="F58" s="379"/>
-      <c r="G58" s="379"/>
-      <c r="H58" s="379"/>
-      <c r="I58" s="379"/>
-      <c r="J58" s="379"/>
+      <c r="D58" s="372"/>
+      <c r="E58" s="380"/>
+      <c r="F58" s="380"/>
+      <c r="G58" s="380"/>
+      <c r="H58" s="380"/>
+      <c r="I58" s="380"/>
+      <c r="J58" s="380"/>
       <c r="L58" s="133" t="s">
         <v>97</v>
       </c>
@@ -5698,15 +7616,15 @@
       <c r="N58" s="11"/>
     </row>
     <row r="59" spans="2:15" ht="31" customHeight="1">
-      <c r="B59" s="375"/>
-      <c r="C59" s="386"/>
-      <c r="D59" s="386"/>
-      <c r="E59" s="386"/>
-      <c r="F59" s="386"/>
-      <c r="G59" s="386"/>
-      <c r="H59" s="386"/>
-      <c r="I59" s="386"/>
-      <c r="J59" s="386"/>
+      <c r="B59" s="376"/>
+      <c r="C59" s="387"/>
+      <c r="D59" s="387"/>
+      <c r="E59" s="387"/>
+      <c r="F59" s="387"/>
+      <c r="G59" s="387"/>
+      <c r="H59" s="387"/>
+      <c r="I59" s="387"/>
+      <c r="J59" s="387"/>
       <c r="K59" s="361"/>
       <c r="L59" s="366"/>
       <c r="M59" s="366"/>
@@ -5714,15 +7632,15 @@
       <c r="O59" s="361"/>
     </row>
     <row r="60" spans="2:15" ht="31" customHeight="1">
-      <c r="B60" s="375"/>
-      <c r="C60" s="386"/>
-      <c r="D60" s="386"/>
-      <c r="E60" s="386"/>
-      <c r="F60" s="386"/>
-      <c r="G60" s="386"/>
-      <c r="H60" s="386"/>
-      <c r="I60" s="386"/>
-      <c r="J60" s="386"/>
+      <c r="B60" s="376"/>
+      <c r="C60" s="387"/>
+      <c r="D60" s="387"/>
+      <c r="E60" s="387"/>
+      <c r="F60" s="387"/>
+      <c r="G60" s="387"/>
+      <c r="H60" s="387"/>
+      <c r="I60" s="387"/>
+      <c r="J60" s="387"/>
       <c r="K60" s="361"/>
       <c r="L60" s="366"/>
       <c r="M60" s="366"/>
@@ -5730,23 +7648,23 @@
       <c r="O60" s="361"/>
     </row>
     <row r="61" spans="2:15" ht="31" customHeight="1">
-      <c r="B61" s="375" t="s">
+      <c r="B61" s="376" t="s">
         <v>310</v>
       </c>
-      <c r="C61" s="390" t="s">
+      <c r="C61" s="391" t="s">
         <v>290</v>
       </c>
-      <c r="D61" s="390"/>
-      <c r="E61" s="394" t="s">
+      <c r="D61" s="391"/>
+      <c r="E61" s="395" t="s">
         <v>269</v>
       </c>
-      <c r="F61" s="395" t="s">
+      <c r="F61" s="396" t="s">
         <v>455</v>
       </c>
-      <c r="G61" s="379"/>
-      <c r="H61" s="379"/>
-      <c r="I61" s="379"/>
-      <c r="J61" s="379"/>
+      <c r="G61" s="380"/>
+      <c r="H61" s="380"/>
+      <c r="I61" s="380"/>
+      <c r="J61" s="380"/>
       <c r="L61" s="133" t="s">
         <v>453</v>
       </c>
@@ -5758,21 +7676,21 @@
       </c>
     </row>
     <row r="62" spans="2:15" ht="31" customHeight="1">
-      <c r="B62" s="375"/>
-      <c r="C62" s="390" t="s">
+      <c r="B62" s="376"/>
+      <c r="C62" s="391" t="s">
         <v>387</v>
       </c>
-      <c r="D62" s="390"/>
-      <c r="E62" s="394" t="s">
+      <c r="D62" s="391"/>
+      <c r="E62" s="395" t="s">
         <v>269</v>
       </c>
-      <c r="F62" s="395" t="s">
+      <c r="F62" s="396" t="s">
         <v>456</v>
       </c>
-      <c r="G62" s="379"/>
-      <c r="H62" s="379"/>
-      <c r="I62" s="379"/>
-      <c r="J62" s="379"/>
+      <c r="G62" s="380"/>
+      <c r="H62" s="380"/>
+      <c r="I62" s="380"/>
+      <c r="J62" s="380"/>
       <c r="L62" s="133" t="s">
         <v>453</v>
       </c>
@@ -5784,25 +7702,25 @@
       </c>
     </row>
     <row r="63" spans="2:15" ht="31" customHeight="1">
-      <c r="B63" s="375"/>
-      <c r="C63" s="398" t="s">
-        <v>387</v>
-      </c>
-      <c r="D63" s="399"/>
-      <c r="E63" s="404" t="s">
+      <c r="B63" s="376"/>
+      <c r="C63" s="399" t="s">
+        <v>261</v>
+      </c>
+      <c r="D63" s="400"/>
+      <c r="E63" s="405" t="s">
         <v>269</v>
       </c>
-      <c r="F63" s="407" t="s">
+      <c r="F63" s="408" t="s">
         <v>455</v>
       </c>
-      <c r="G63" s="381" t="s">
-        <v>591</v>
-      </c>
-      <c r="H63" s="381"/>
+      <c r="G63" s="382" t="s">
+        <v>403</v>
+      </c>
+      <c r="H63" s="382"/>
       <c r="I63" s="364"/>
       <c r="J63" s="364"/>
       <c r="L63" s="133" t="s">
-        <v>597</v>
+        <v>453</v>
       </c>
       <c r="M63" s="141" t="s">
         <v>473</v>
@@ -5810,492 +7728,524 @@
       <c r="N63" s="11"/>
     </row>
     <row r="64" spans="2:15" ht="31" customHeight="1">
-      <c r="B64" s="375"/>
-      <c r="C64" s="400"/>
-      <c r="D64" s="401"/>
-      <c r="E64" s="405"/>
-      <c r="F64" s="408"/>
-      <c r="G64" s="412" t="s">
-        <v>505</v>
-      </c>
-      <c r="H64" s="413"/>
+      <c r="B64" s="376"/>
+      <c r="C64" s="401"/>
+      <c r="D64" s="402"/>
+      <c r="E64" s="406"/>
+      <c r="F64" s="409"/>
+      <c r="G64" s="415" t="s">
+        <v>601</v>
+      </c>
+      <c r="H64" s="416"/>
       <c r="I64" s="364"/>
       <c r="J64" s="364"/>
       <c r="L64" s="133" t="s">
-        <v>122</v>
-      </c>
-      <c r="M64" s="116" t="s">
-        <v>411</v>
-      </c>
-      <c r="N64" s="11"/>
+        <v>453</v>
+      </c>
+      <c r="M64" s="141" t="s">
+        <v>473</v>
+      </c>
+      <c r="N64" s="116" t="s">
+        <v>602</v>
+      </c>
     </row>
     <row r="65" spans="2:15" ht="31" customHeight="1">
-      <c r="B65" s="375"/>
-      <c r="C65" s="400"/>
-      <c r="D65" s="401"/>
-      <c r="E65" s="405"/>
-      <c r="F65" s="408"/>
-      <c r="G65" s="414" t="s">
-        <v>501</v>
-      </c>
-      <c r="H65" s="415"/>
-      <c r="I65" s="367" t="s">
-        <v>484</v>
-      </c>
-      <c r="J65" s="387" t="s">
-        <v>477</v>
-      </c>
+      <c r="B65" s="376"/>
+      <c r="C65" s="401"/>
+      <c r="D65" s="402"/>
+      <c r="E65" s="406"/>
+      <c r="F65" s="409"/>
+      <c r="G65" s="423"/>
+      <c r="H65" s="424"/>
+      <c r="I65" s="364"/>
+      <c r="J65" s="364"/>
       <c r="L65" s="133" t="s">
-        <v>122</v>
-      </c>
-      <c r="M65" s="116" t="s">
-        <v>411</v>
-      </c>
-      <c r="N65" s="11"/>
+        <v>453</v>
+      </c>
+      <c r="M65" s="141" t="s">
+        <v>473</v>
+      </c>
+      <c r="N65" s="116" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="66" spans="2:15" ht="31" customHeight="1">
-      <c r="B66" s="375"/>
-      <c r="C66" s="400"/>
-      <c r="D66" s="401"/>
+      <c r="B66" s="376"/>
+      <c r="C66" s="401"/>
+      <c r="D66" s="402"/>
       <c r="E66" s="406"/>
       <c r="F66" s="409"/>
-      <c r="G66" s="416"/>
-      <c r="H66" s="417"/>
-      <c r="I66" s="368"/>
-      <c r="J66" s="387" t="s">
-        <v>482</v>
-      </c>
+      <c r="G66" s="417"/>
+      <c r="H66" s="418"/>
+      <c r="I66" s="364"/>
+      <c r="J66" s="364"/>
       <c r="L66" s="133" t="s">
-        <v>122</v>
-      </c>
-      <c r="M66" s="116" t="s">
-        <v>411</v>
-      </c>
-      <c r="N66" s="11"/>
+        <v>453</v>
+      </c>
+      <c r="M66" s="141" t="s">
+        <v>473</v>
+      </c>
+      <c r="N66" s="116" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="67" spans="2:15" ht="31" customHeight="1">
-      <c r="B67" s="375"/>
-      <c r="C67" s="400"/>
-      <c r="D67" s="401"/>
-      <c r="E67" s="404" t="s">
-        <v>269</v>
-      </c>
-      <c r="F67" s="407" t="s">
-        <v>598</v>
-      </c>
-      <c r="G67" s="381" t="s">
-        <v>591</v>
-      </c>
-      <c r="H67" s="381"/>
+      <c r="B67" s="376"/>
+      <c r="C67" s="401"/>
+      <c r="D67" s="402"/>
+      <c r="E67" s="406"/>
+      <c r="F67" s="409"/>
+      <c r="G67" s="413" t="s">
+        <v>505</v>
+      </c>
+      <c r="H67" s="414"/>
       <c r="I67" s="364"/>
       <c r="J67" s="364"/>
-      <c r="L67" s="133"/>
-      <c r="M67" s="116"/>
+      <c r="L67" s="133" t="s">
+        <v>122</v>
+      </c>
+      <c r="M67" s="116" t="s">
+        <v>411</v>
+      </c>
       <c r="N67" s="11"/>
+      <c r="O67" s="4" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="68" spans="2:15" ht="31" customHeight="1">
-      <c r="B68" s="375"/>
-      <c r="C68" s="400"/>
-      <c r="D68" s="401"/>
-      <c r="E68" s="405"/>
-      <c r="F68" s="408"/>
-      <c r="G68" s="412" t="s">
+      <c r="B68" s="376"/>
+      <c r="C68" s="401"/>
+      <c r="D68" s="402"/>
+      <c r="E68" s="406"/>
+      <c r="F68" s="409"/>
+      <c r="G68" s="415" t="s">
+        <v>501</v>
+      </c>
+      <c r="H68" s="416"/>
+      <c r="I68" s="368" t="s">
+        <v>484</v>
+      </c>
+      <c r="J68" s="388" t="s">
+        <v>477</v>
+      </c>
+      <c r="L68" s="133" t="s">
+        <v>122</v>
+      </c>
+      <c r="M68" s="116" t="s">
+        <v>411</v>
+      </c>
+      <c r="N68" s="11"/>
+      <c r="O68" s="4" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" ht="31" customHeight="1">
+      <c r="B69" s="376"/>
+      <c r="C69" s="401"/>
+      <c r="D69" s="402"/>
+      <c r="E69" s="407"/>
+      <c r="F69" s="410"/>
+      <c r="G69" s="417"/>
+      <c r="H69" s="418"/>
+      <c r="I69" s="369"/>
+      <c r="J69" s="388" t="s">
+        <v>482</v>
+      </c>
+      <c r="L69" s="133" t="s">
+        <v>122</v>
+      </c>
+      <c r="M69" s="116" t="s">
+        <v>411</v>
+      </c>
+      <c r="N69" s="11"/>
+    </row>
+    <row r="70" spans="2:15" ht="31" customHeight="1">
+      <c r="B70" s="376"/>
+      <c r="C70" s="401"/>
+      <c r="D70" s="402"/>
+      <c r="E70" s="405" t="s">
+        <v>269</v>
+      </c>
+      <c r="F70" s="408" t="s">
+        <v>598</v>
+      </c>
+      <c r="G70" s="382" t="s">
+        <v>591</v>
+      </c>
+      <c r="H70" s="382"/>
+      <c r="I70" s="364"/>
+      <c r="J70" s="364"/>
+      <c r="L70" s="133" t="s">
+        <v>597</v>
+      </c>
+      <c r="M70" s="141" t="s">
+        <v>473</v>
+      </c>
+      <c r="N70" s="11"/>
+    </row>
+    <row r="71" spans="2:15" ht="31" customHeight="1">
+      <c r="B71" s="376"/>
+      <c r="C71" s="401"/>
+      <c r="D71" s="402"/>
+      <c r="E71" s="406"/>
+      <c r="F71" s="409"/>
+      <c r="G71" s="413" t="s">
         <v>505</v>
       </c>
-      <c r="H68" s="413"/>
-      <c r="I68" s="364"/>
-      <c r="J68" s="364"/>
-      <c r="L68" s="133"/>
-      <c r="M68" s="141"/>
-      <c r="N68" s="116"/>
-    </row>
-    <row r="69" spans="2:15" ht="31" customHeight="1">
-      <c r="B69" s="375"/>
-      <c r="C69" s="400"/>
-      <c r="D69" s="401"/>
-      <c r="E69" s="405"/>
-      <c r="F69" s="408"/>
-      <c r="G69" s="414" t="s">
+      <c r="H71" s="414"/>
+      <c r="I71" s="364"/>
+      <c r="J71" s="364"/>
+      <c r="L71" s="133" t="s">
+        <v>122</v>
+      </c>
+      <c r="M71" s="116" t="s">
+        <v>411</v>
+      </c>
+      <c r="N71" s="11"/>
+    </row>
+    <row r="72" spans="2:15" ht="31" customHeight="1">
+      <c r="B72" s="376"/>
+      <c r="C72" s="401"/>
+      <c r="D72" s="402"/>
+      <c r="E72" s="406"/>
+      <c r="F72" s="409"/>
+      <c r="G72" s="415" t="s">
         <v>501</v>
       </c>
-      <c r="H69" s="415"/>
-      <c r="I69" s="367" t="s">
+      <c r="H72" s="416"/>
+      <c r="I72" s="368" t="s">
         <v>484</v>
       </c>
-      <c r="J69" s="387" t="s">
+      <c r="J72" s="388" t="s">
         <v>477</v>
       </c>
-      <c r="L69" s="133"/>
-      <c r="M69" s="141"/>
-      <c r="N69" s="116"/>
-    </row>
-    <row r="70" spans="2:15" ht="31" customHeight="1">
-      <c r="B70" s="375"/>
-      <c r="C70" s="402"/>
-      <c r="D70" s="403"/>
-      <c r="E70" s="406"/>
-      <c r="F70" s="409"/>
-      <c r="G70" s="416"/>
-      <c r="H70" s="417"/>
-      <c r="I70" s="368"/>
-      <c r="J70" s="387" t="s">
+      <c r="L72" s="133" t="s">
+        <v>122</v>
+      </c>
+      <c r="M72" s="116" t="s">
+        <v>411</v>
+      </c>
+      <c r="N72" s="11"/>
+    </row>
+    <row r="73" spans="2:15" ht="31" customHeight="1">
+      <c r="B73" s="376"/>
+      <c r="C73" s="403"/>
+      <c r="D73" s="404"/>
+      <c r="E73" s="407"/>
+      <c r="F73" s="410"/>
+      <c r="G73" s="417"/>
+      <c r="H73" s="418"/>
+      <c r="I73" s="369"/>
+      <c r="J73" s="388" t="s">
         <v>482</v>
       </c>
-      <c r="L70" s="133"/>
-      <c r="M70" s="141"/>
-      <c r="N70" s="116"/>
-    </row>
-    <row r="71" spans="2:15" ht="31" customHeight="1">
-      <c r="B71" s="375"/>
-      <c r="C71" s="390" t="s">
+      <c r="L73" s="133" t="s">
+        <v>122</v>
+      </c>
+      <c r="M73" s="116" t="s">
+        <v>411</v>
+      </c>
+      <c r="N73" s="11"/>
+    </row>
+    <row r="74" spans="2:15" ht="31" customHeight="1">
+      <c r="B74" s="376"/>
+      <c r="C74" s="391" t="s">
         <v>515</v>
       </c>
-      <c r="D71" s="390"/>
-      <c r="E71" s="379"/>
-      <c r="F71" s="379"/>
-      <c r="G71" s="379"/>
-      <c r="H71" s="379"/>
-      <c r="I71" s="379"/>
-      <c r="J71" s="379"/>
-      <c r="L71" s="133" t="s">
+      <c r="D74" s="391"/>
+      <c r="E74" s="380"/>
+      <c r="F74" s="380"/>
+      <c r="G74" s="380"/>
+      <c r="H74" s="380"/>
+      <c r="I74" s="380"/>
+      <c r="J74" s="380"/>
+      <c r="L74" s="133" t="s">
         <v>474</v>
       </c>
-      <c r="M71" s="141"/>
-      <c r="N71" s="11"/>
-    </row>
-    <row r="72" spans="2:15" ht="31" customHeight="1">
-      <c r="B72" s="375"/>
-      <c r="C72" s="371" t="s">
+      <c r="M74" s="141"/>
+      <c r="N74" s="11"/>
+    </row>
+    <row r="75" spans="2:15" ht="31" customHeight="1">
+      <c r="B75" s="376"/>
+      <c r="C75" s="372" t="s">
         <v>259</v>
       </c>
-      <c r="D72" s="371"/>
-      <c r="E72" s="381" t="s">
+      <c r="D75" s="372"/>
+      <c r="E75" s="382" t="s">
         <v>270</v>
       </c>
-      <c r="F72" s="381"/>
-      <c r="G72" s="379"/>
-      <c r="H72" s="379"/>
-      <c r="I72" s="379"/>
-      <c r="J72" s="379"/>
-      <c r="L72" s="133" t="s">
+      <c r="F75" s="382"/>
+      <c r="G75" s="380"/>
+      <c r="H75" s="380"/>
+      <c r="I75" s="380"/>
+      <c r="J75" s="380"/>
+      <c r="L75" s="133" t="s">
         <v>90</v>
       </c>
-      <c r="M72" s="116">
+      <c r="M75" s="116">
         <v>7</v>
       </c>
-      <c r="N72" s="11"/>
-    </row>
-    <row r="73" spans="2:15" ht="31" customHeight="1">
-      <c r="B73" s="375"/>
-      <c r="C73" s="371"/>
-      <c r="D73" s="371"/>
-      <c r="E73" s="381" t="s">
+      <c r="N75" s="11"/>
+    </row>
+    <row r="76" spans="2:15" ht="31" customHeight="1">
+      <c r="B76" s="376"/>
+      <c r="C76" s="372"/>
+      <c r="D76" s="372"/>
+      <c r="E76" s="382" t="s">
         <v>268</v>
       </c>
-      <c r="F73" s="381"/>
-      <c r="G73" s="379"/>
-      <c r="H73" s="379"/>
-      <c r="I73" s="379"/>
-      <c r="J73" s="379"/>
-      <c r="L73" s="133" t="s">
+      <c r="F76" s="382"/>
+      <c r="G76" s="380"/>
+      <c r="H76" s="380"/>
+      <c r="I76" s="380"/>
+      <c r="J76" s="380"/>
+      <c r="L76" s="133" t="s">
         <v>91</v>
       </c>
-      <c r="M73" s="141" t="s">
+      <c r="M76" s="141" t="s">
         <v>481</v>
       </c>
-      <c r="N73" s="11"/>
-    </row>
-    <row r="74" spans="2:15" ht="31" customHeight="1">
-      <c r="B74" s="375"/>
-      <c r="C74" s="371"/>
-      <c r="D74" s="371"/>
-      <c r="E74" s="381" t="s">
+      <c r="N76" s="11"/>
+    </row>
+    <row r="77" spans="2:15" ht="31" customHeight="1">
+      <c r="B77" s="376"/>
+      <c r="C77" s="372"/>
+      <c r="D77" s="372"/>
+      <c r="E77" s="382" t="s">
         <v>314</v>
       </c>
-      <c r="F74" s="381"/>
-      <c r="G74" s="172" t="s">
+      <c r="F77" s="382"/>
+      <c r="G77" s="172" t="s">
         <v>269</v>
       </c>
-      <c r="H74" s="387" t="s">
+      <c r="H77" s="388" t="s">
         <v>458</v>
       </c>
-      <c r="I74" s="364"/>
-      <c r="J74" s="364"/>
-      <c r="L74" s="133" t="s">
+      <c r="I77" s="364"/>
+      <c r="J77" s="364"/>
+      <c r="L77" s="133" t="s">
         <v>453</v>
       </c>
-      <c r="M74" s="141" t="s">
+      <c r="M77" s="141" t="s">
         <v>473</v>
       </c>
-      <c r="N74" s="116" t="s">
+      <c r="N77" s="116" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="75" spans="2:15" ht="31" customHeight="1">
-      <c r="B75" s="375"/>
-      <c r="C75" s="371"/>
-      <c r="D75" s="371"/>
-      <c r="E75" s="381" t="s">
+    <row r="78" spans="2:15" ht="31" customHeight="1">
+      <c r="B78" s="376"/>
+      <c r="C78" s="372"/>
+      <c r="D78" s="372"/>
+      <c r="E78" s="382" t="s">
         <v>313</v>
       </c>
-      <c r="F75" s="381"/>
-      <c r="G75" s="379"/>
-      <c r="H75" s="379"/>
-      <c r="I75" s="379"/>
-      <c r="J75" s="379"/>
-      <c r="L75" s="133" t="s">
+      <c r="F78" s="382"/>
+      <c r="G78" s="380"/>
+      <c r="H78" s="380"/>
+      <c r="I78" s="380"/>
+      <c r="J78" s="380"/>
+      <c r="L78" s="133" t="s">
         <v>91</v>
       </c>
-      <c r="M75" s="141" t="s">
+      <c r="M78" s="141" t="s">
         <v>472</v>
       </c>
-      <c r="N75" s="11"/>
-    </row>
-    <row r="76" spans="2:15" ht="31" customHeight="1">
-      <c r="B76" s="375"/>
-      <c r="C76" s="371"/>
-      <c r="D76" s="371"/>
-      <c r="E76" s="381" t="s">
+      <c r="N78" s="11"/>
+    </row>
+    <row r="79" spans="2:15" ht="31" customHeight="1">
+      <c r="B79" s="376"/>
+      <c r="C79" s="372"/>
+      <c r="D79" s="372"/>
+      <c r="E79" s="382" t="s">
         <v>312</v>
       </c>
-      <c r="F76" s="381"/>
-      <c r="G76" s="379"/>
-      <c r="H76" s="379"/>
-      <c r="I76" s="379"/>
-      <c r="J76" s="379"/>
-      <c r="L76" s="144" t="s">
+      <c r="F79" s="382"/>
+      <c r="G79" s="380"/>
+      <c r="H79" s="380"/>
+      <c r="I79" s="380"/>
+      <c r="J79" s="380"/>
+      <c r="L79" s="144" t="s">
         <v>457</v>
       </c>
-      <c r="M76" s="141" t="s">
+      <c r="M79" s="141" t="s">
         <v>473</v>
       </c>
-      <c r="N76" s="11"/>
-      <c r="O76" s="370" t="s">
+      <c r="N79" s="11"/>
+      <c r="O79" s="371" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="77" spans="2:15" ht="31" customHeight="1">
-      <c r="B77" s="375" t="s">
+    <row r="80" spans="2:15" ht="31" customHeight="1">
+      <c r="B80" s="376" t="s">
         <v>257</v>
       </c>
-      <c r="C77" s="390" t="s">
+      <c r="C80" s="391" t="s">
         <v>353</v>
       </c>
-      <c r="D77" s="390"/>
-      <c r="E77" s="379"/>
-      <c r="F77" s="379"/>
-      <c r="G77" s="379"/>
-      <c r="H77" s="379"/>
-      <c r="I77" s="379"/>
-      <c r="J77" s="379"/>
-      <c r="L77" s="133" t="s">
+      <c r="D80" s="391"/>
+      <c r="E80" s="380"/>
+      <c r="F80" s="380"/>
+      <c r="G80" s="380"/>
+      <c r="H80" s="380"/>
+      <c r="I80" s="380"/>
+      <c r="J80" s="380"/>
+      <c r="L80" s="133" t="s">
         <v>90</v>
       </c>
-      <c r="M77" s="116">
+      <c r="M80" s="116">
         <v>100</v>
       </c>
-      <c r="N77" s="11"/>
-    </row>
-    <row r="78" spans="2:15" ht="31" customHeight="1">
-      <c r="B78" s="375"/>
-      <c r="C78" s="390" t="s">
+      <c r="N80" s="11"/>
+    </row>
+    <row r="81" spans="2:14" ht="31" customHeight="1">
+      <c r="B81" s="376"/>
+      <c r="C81" s="391" t="s">
         <v>354</v>
       </c>
-      <c r="D78" s="390"/>
-      <c r="E78" s="379"/>
-      <c r="F78" s="379"/>
-      <c r="G78" s="379"/>
-      <c r="H78" s="379"/>
-      <c r="I78" s="379"/>
-      <c r="J78" s="379"/>
-      <c r="L78" s="133" t="s">
+      <c r="D81" s="391"/>
+      <c r="E81" s="380"/>
+      <c r="F81" s="380"/>
+      <c r="G81" s="380"/>
+      <c r="H81" s="380"/>
+      <c r="I81" s="380"/>
+      <c r="J81" s="380"/>
+      <c r="L81" s="133" t="s">
         <v>97</v>
       </c>
-      <c r="M78" s="174" t="s">
+      <c r="M81" s="174" t="s">
         <v>107</v>
       </c>
-      <c r="N78" s="11"/>
-    </row>
-    <row r="79" spans="2:15" ht="31" customHeight="1">
-      <c r="B79" s="375"/>
-      <c r="C79" s="390" t="s">
+      <c r="N81" s="11"/>
+    </row>
+    <row r="82" spans="2:14" ht="31" customHeight="1">
+      <c r="B82" s="376"/>
+      <c r="C82" s="391" t="s">
         <v>297</v>
       </c>
-      <c r="D79" s="390"/>
-      <c r="E79" s="379"/>
-      <c r="F79" s="379"/>
-      <c r="G79" s="379"/>
-      <c r="H79" s="379"/>
-      <c r="I79" s="379"/>
-      <c r="J79" s="379"/>
-      <c r="L79" s="133" t="s">
+      <c r="D82" s="391"/>
+      <c r="E82" s="380"/>
+      <c r="F82" s="380"/>
+      <c r="G82" s="380"/>
+      <c r="H82" s="380"/>
+      <c r="I82" s="380"/>
+      <c r="J82" s="380"/>
+      <c r="L82" s="133" t="s">
         <v>596</v>
       </c>
-      <c r="M79" s="116" t="s">
+      <c r="M82" s="116" t="s">
         <v>99</v>
       </c>
-      <c r="N79" s="11"/>
-    </row>
-    <row r="80" spans="2:15" ht="31" customHeight="1">
-      <c r="B80" s="375"/>
-      <c r="C80" s="390" t="s">
+      <c r="N82" s="11"/>
+    </row>
+    <row r="83" spans="2:14" ht="31" customHeight="1">
+      <c r="B83" s="376"/>
+      <c r="C83" s="391" t="s">
         <v>391</v>
       </c>
-      <c r="D80" s="390"/>
-      <c r="E80" s="379"/>
-      <c r="F80" s="379"/>
-      <c r="G80" s="379"/>
-      <c r="H80" s="379"/>
-      <c r="I80" s="379"/>
-      <c r="J80" s="379"/>
-      <c r="L80" s="133" t="s">
+      <c r="D83" s="391"/>
+      <c r="E83" s="380"/>
+      <c r="F83" s="380"/>
+      <c r="G83" s="380"/>
+      <c r="H83" s="380"/>
+      <c r="I83" s="380"/>
+      <c r="J83" s="380"/>
+      <c r="L83" s="133" t="s">
         <v>91</v>
       </c>
-      <c r="M80" s="138" t="s">
+      <c r="M83" s="138" t="s">
         <v>595</v>
       </c>
-      <c r="N80" s="11"/>
-    </row>
-    <row r="81" spans="2:14" ht="31" customHeight="1">
-      <c r="B81" s="375"/>
-      <c r="C81" s="371" t="s">
+      <c r="N83" s="11"/>
+    </row>
+    <row r="84" spans="2:14" ht="31" customHeight="1">
+      <c r="B84" s="376"/>
+      <c r="C84" s="372" t="s">
         <v>266</v>
       </c>
-      <c r="D81" s="371"/>
-      <c r="E81" s="381" t="s">
+      <c r="D84" s="372"/>
+      <c r="E84" s="382" t="s">
         <v>356</v>
       </c>
-      <c r="F81" s="381"/>
-      <c r="G81" s="173" t="s">
+      <c r="F84" s="382"/>
+      <c r="G84" s="173" t="s">
         <v>466</v>
       </c>
-      <c r="H81" s="29" t="s">
+      <c r="H84" s="29" t="s">
         <v>464</v>
       </c>
-      <c r="I81" s="364"/>
-      <c r="J81" s="364"/>
-      <c r="L81" s="133" t="s">
+      <c r="I84" s="364"/>
+      <c r="J84" s="364"/>
+      <c r="L84" s="133" t="s">
         <v>122</v>
       </c>
-      <c r="M81" s="116" t="s">
+      <c r="M84" s="116" t="s">
         <v>411</v>
       </c>
-      <c r="N81" s="11"/>
-    </row>
-    <row r="82" spans="2:14" ht="31" customHeight="1">
-      <c r="B82" s="375"/>
-      <c r="C82" s="371"/>
-      <c r="D82" s="371"/>
-      <c r="E82" s="381" t="s">
+      <c r="N84" s="11"/>
+    </row>
+    <row r="85" spans="2:14" ht="31" customHeight="1">
+      <c r="B85" s="376"/>
+      <c r="C85" s="372"/>
+      <c r="D85" s="372"/>
+      <c r="E85" s="382" t="s">
         <v>1</v>
       </c>
-      <c r="F82" s="381"/>
-      <c r="G82" s="173" t="s">
+      <c r="F85" s="382"/>
+      <c r="G85" s="173" t="s">
         <v>465</v>
       </c>
-      <c r="H82" s="29" t="s">
+      <c r="H85" s="29" t="s">
         <v>444</v>
       </c>
-      <c r="I82" s="364"/>
-      <c r="J82" s="364"/>
-      <c r="L82" s="133" t="s">
+      <c r="I85" s="364"/>
+      <c r="J85" s="364"/>
+      <c r="L85" s="133" t="s">
         <v>122</v>
       </c>
-      <c r="M82" s="116" t="s">
+      <c r="M85" s="116" t="s">
         <v>411</v>
       </c>
-      <c r="N82" s="11"/>
-    </row>
-    <row r="83" spans="2:14" ht="31" customHeight="1">
-      <c r="B83" s="375"/>
-      <c r="C83" s="390" t="s">
+      <c r="N85" s="11"/>
+    </row>
+    <row r="86" spans="2:14" ht="31" customHeight="1">
+      <c r="B86" s="376"/>
+      <c r="C86" s="391" t="s">
         <v>479</v>
       </c>
-      <c r="D83" s="390"/>
-      <c r="E83" s="381" t="s">
+      <c r="D86" s="391"/>
+      <c r="E86" s="382" t="s">
         <v>388</v>
       </c>
-      <c r="F83" s="381"/>
-      <c r="G83" s="379"/>
-      <c r="H83" s="379"/>
-      <c r="I83" s="379"/>
-      <c r="J83" s="379"/>
-      <c r="L83" s="133" t="s">
-        <v>478</v>
-      </c>
-      <c r="M83" s="147" t="s">
-        <v>108</v>
-      </c>
-      <c r="N83" s="11"/>
-    </row>
-    <row r="84" spans="2:14" ht="31" customHeight="1">
-      <c r="B84" s="375"/>
-      <c r="C84" s="390"/>
-      <c r="D84" s="390"/>
-      <c r="E84" s="381"/>
-      <c r="F84" s="381"/>
-      <c r="G84" s="379"/>
-      <c r="H84" s="379"/>
-      <c r="I84" s="379"/>
-      <c r="J84" s="379"/>
-      <c r="L84" s="133" t="s">
-        <v>468</v>
-      </c>
-      <c r="M84" s="141" t="s">
-        <v>472</v>
-      </c>
-      <c r="N84" s="11"/>
-    </row>
-    <row r="85" spans="2:14" ht="31" customHeight="1">
-      <c r="B85" s="375"/>
-      <c r="C85" s="390"/>
-      <c r="D85" s="390"/>
-      <c r="E85" s="381"/>
-      <c r="F85" s="381"/>
-      <c r="G85" s="379"/>
-      <c r="H85" s="379"/>
-      <c r="I85" s="379"/>
-      <c r="J85" s="379"/>
-      <c r="L85" s="133" t="s">
-        <v>468</v>
-      </c>
-      <c r="M85" s="141" t="s">
-        <v>472</v>
-      </c>
-      <c r="N85" s="11"/>
-    </row>
-    <row r="86" spans="2:14" ht="31" customHeight="1">
-      <c r="B86" s="375"/>
-      <c r="C86" s="390"/>
-      <c r="D86" s="390"/>
-      <c r="E86" s="381"/>
-      <c r="F86" s="381"/>
-      <c r="G86" s="379"/>
-      <c r="H86" s="379"/>
-      <c r="I86" s="379"/>
-      <c r="J86" s="379"/>
+      <c r="F86" s="382"/>
+      <c r="G86" s="413" t="s">
+        <v>301</v>
+      </c>
+      <c r="H86" s="414"/>
+      <c r="I86" s="88"/>
+      <c r="J86" s="88"/>
       <c r="L86" s="133" t="s">
         <v>478</v>
       </c>
       <c r="M86" s="147" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N86" s="11"/>
     </row>
     <row r="87" spans="2:14" ht="31" customHeight="1">
-      <c r="B87" s="375"/>
-      <c r="C87" s="390"/>
-      <c r="D87" s="390"/>
-      <c r="E87" s="381" t="s">
-        <v>516</v>
-      </c>
-      <c r="F87" s="381"/>
-      <c r="G87" s="379"/>
-      <c r="H87" s="379"/>
-      <c r="I87" s="379"/>
-      <c r="J87" s="379"/>
+      <c r="B87" s="376"/>
+      <c r="C87" s="391"/>
+      <c r="D87" s="391"/>
+      <c r="E87" s="382"/>
+      <c r="F87" s="382"/>
+      <c r="G87" s="413" t="s">
+        <v>268</v>
+      </c>
+      <c r="H87" s="414"/>
+      <c r="I87" s="88"/>
+      <c r="J87" s="88"/>
       <c r="L87" s="133" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="M87" s="141" t="s">
         <v>472</v>
@@ -6303,181 +8253,179 @@
       <c r="N87" s="11"/>
     </row>
     <row r="88" spans="2:14" ht="31" customHeight="1">
-      <c r="B88" s="375"/>
-      <c r="C88" s="390"/>
-      <c r="D88" s="390"/>
-      <c r="E88" s="381" t="s">
-        <v>422</v>
-      </c>
-      <c r="F88" s="381"/>
-      <c r="G88" s="379"/>
-      <c r="H88" s="379"/>
-      <c r="I88" s="379"/>
-      <c r="J88" s="379"/>
+      <c r="B88" s="376"/>
+      <c r="C88" s="391"/>
+      <c r="D88" s="391"/>
+      <c r="E88" s="382"/>
+      <c r="F88" s="382"/>
+      <c r="G88" s="413" t="s">
+        <v>261</v>
+      </c>
+      <c r="H88" s="414"/>
+      <c r="I88" s="88"/>
+      <c r="J88" s="88"/>
       <c r="L88" s="133" t="s">
         <v>468</v>
       </c>
       <c r="M88" s="141" t="s">
         <v>472</v>
       </c>
-      <c r="N88" s="116" t="s">
+      <c r="N88" s="11"/>
+    </row>
+    <row r="89" spans="2:14" ht="31" customHeight="1">
+      <c r="B89" s="376"/>
+      <c r="C89" s="391"/>
+      <c r="D89" s="391"/>
+      <c r="E89" s="382"/>
+      <c r="F89" s="382"/>
+      <c r="G89" s="413" t="s">
+        <v>269</v>
+      </c>
+      <c r="H89" s="414"/>
+      <c r="I89" s="88"/>
+      <c r="J89" s="88"/>
+      <c r="L89" s="133" t="s">
+        <v>478</v>
+      </c>
+      <c r="M89" s="147" t="s">
+        <v>109</v>
+      </c>
+      <c r="N89" s="11"/>
+    </row>
+    <row r="90" spans="2:14" ht="31" customHeight="1">
+      <c r="B90" s="376"/>
+      <c r="C90" s="391"/>
+      <c r="D90" s="391"/>
+      <c r="E90" s="382" t="s">
+        <v>516</v>
+      </c>
+      <c r="F90" s="382"/>
+      <c r="G90" s="380"/>
+      <c r="H90" s="380"/>
+      <c r="I90" s="380"/>
+      <c r="J90" s="380"/>
+      <c r="L90" s="133" t="s">
+        <v>474</v>
+      </c>
+      <c r="M90" s="141" t="s">
+        <v>472</v>
+      </c>
+      <c r="N90" s="11"/>
+    </row>
+    <row r="91" spans="2:14" ht="31" customHeight="1">
+      <c r="B91" s="376"/>
+      <c r="C91" s="391"/>
+      <c r="D91" s="391"/>
+      <c r="E91" s="382" t="s">
+        <v>422</v>
+      </c>
+      <c r="F91" s="382"/>
+      <c r="G91" s="380"/>
+      <c r="H91" s="380"/>
+      <c r="I91" s="380"/>
+      <c r="J91" s="380"/>
+      <c r="L91" s="133" t="s">
+        <v>468</v>
+      </c>
+      <c r="M91" s="141" t="s">
+        <v>472</v>
+      </c>
+      <c r="N91" s="116" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="89" spans="2:14" ht="31" customHeight="1">
-      <c r="B89" s="375"/>
-      <c r="C89" s="390"/>
-      <c r="D89" s="390"/>
-      <c r="E89" s="381" t="s">
+    <row r="92" spans="2:14" ht="31" customHeight="1">
+      <c r="B92" s="376"/>
+      <c r="C92" s="391"/>
+      <c r="D92" s="391"/>
+      <c r="E92" s="382" t="s">
         <v>505</v>
       </c>
-      <c r="F89" s="381"/>
-      <c r="G89" s="379"/>
-      <c r="H89" s="379"/>
-      <c r="I89" s="379"/>
-      <c r="J89" s="379"/>
-      <c r="L89" s="133" t="s">
+      <c r="F92" s="382"/>
+      <c r="G92" s="380"/>
+      <c r="H92" s="380"/>
+      <c r="I92" s="380"/>
+      <c r="J92" s="380"/>
+      <c r="L92" s="133" t="s">
         <v>122</v>
-      </c>
-      <c r="M89" s="141" t="s">
-        <v>473</v>
-      </c>
-      <c r="N89" s="116" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="90" spans="2:14" ht="31" customHeight="1">
-      <c r="B90" s="375"/>
-      <c r="C90" s="390"/>
-      <c r="D90" s="390"/>
-      <c r="E90" s="381" t="s">
-        <v>501</v>
-      </c>
-      <c r="F90" s="381"/>
-      <c r="G90" s="388" t="s">
-        <v>269</v>
-      </c>
-      <c r="H90" s="389" t="s">
-        <v>455</v>
-      </c>
-      <c r="I90" s="367" t="s">
-        <v>484</v>
-      </c>
-      <c r="J90" s="387" t="s">
-        <v>477</v>
-      </c>
-      <c r="L90" s="133" t="s">
-        <v>122</v>
-      </c>
-      <c r="M90" s="141" t="s">
-        <v>473</v>
-      </c>
-      <c r="N90" s="116" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="91" spans="2:14" ht="31" customHeight="1">
-      <c r="B91" s="375"/>
-      <c r="C91" s="390"/>
-      <c r="D91" s="390"/>
-      <c r="E91" s="381"/>
-      <c r="F91" s="381"/>
-      <c r="G91" s="388"/>
-      <c r="H91" s="389"/>
-      <c r="I91" s="368"/>
-      <c r="J91" s="387" t="s">
-        <v>482</v>
-      </c>
-      <c r="L91" s="133" t="s">
-        <v>122</v>
-      </c>
-      <c r="M91" s="141" t="s">
-        <v>473</v>
-      </c>
-      <c r="N91" s="116" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="92" spans="2:14" ht="31" customHeight="1">
-      <c r="B92" s="375"/>
-      <c r="C92" s="390"/>
-      <c r="D92" s="390"/>
-      <c r="E92" s="381" t="s">
-        <v>483</v>
-      </c>
-      <c r="F92" s="381"/>
-      <c r="G92" s="379"/>
-      <c r="H92" s="379"/>
-      <c r="I92" s="379"/>
-      <c r="J92" s="379"/>
-      <c r="L92" s="133" t="s">
-        <v>453</v>
       </c>
       <c r="M92" s="141" t="s">
         <v>473</v>
       </c>
-      <c r="N92" s="68" t="s">
-        <v>412</v>
+      <c r="N92" s="116" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="93" spans="2:14" ht="31" customHeight="1">
-      <c r="B93" s="393" t="s">
-        <v>467</v>
-      </c>
-      <c r="C93" s="390" t="s">
-        <v>137</v>
-      </c>
-      <c r="D93" s="390"/>
-      <c r="E93" s="379"/>
-      <c r="F93" s="379"/>
-      <c r="G93" s="379"/>
-      <c r="H93" s="379"/>
-      <c r="I93" s="379"/>
-      <c r="J93" s="379"/>
+      <c r="B93" s="376"/>
+      <c r="C93" s="391"/>
+      <c r="D93" s="391"/>
+      <c r="E93" s="382" t="s">
+        <v>501</v>
+      </c>
+      <c r="F93" s="382"/>
+      <c r="G93" s="389" t="s">
+        <v>269</v>
+      </c>
+      <c r="H93" s="390" t="s">
+        <v>455</v>
+      </c>
+      <c r="I93" s="368" t="s">
+        <v>484</v>
+      </c>
+      <c r="J93" s="388" t="s">
+        <v>477</v>
+      </c>
       <c r="L93" s="133" t="s">
-        <v>97</v>
-      </c>
-      <c r="M93" s="147" t="s">
-        <v>129</v>
-      </c>
-      <c r="N93" s="11"/>
+        <v>122</v>
+      </c>
+      <c r="M93" s="141" t="s">
+        <v>473</v>
+      </c>
+      <c r="N93" s="116" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="94" spans="2:14" ht="31" customHeight="1">
-      <c r="B94" s="393"/>
-      <c r="C94" s="390" t="s">
-        <v>283</v>
-      </c>
-      <c r="D94" s="390"/>
-      <c r="E94" s="379"/>
-      <c r="F94" s="379"/>
-      <c r="G94" s="379"/>
-      <c r="H94" s="379"/>
-      <c r="I94" s="379"/>
-      <c r="J94" s="379"/>
+      <c r="B94" s="376"/>
+      <c r="C94" s="391"/>
+      <c r="D94" s="391"/>
+      <c r="E94" s="382"/>
+      <c r="F94" s="382"/>
+      <c r="G94" s="389"/>
+      <c r="H94" s="390"/>
+      <c r="I94" s="369"/>
+      <c r="J94" s="388" t="s">
+        <v>482</v>
+      </c>
       <c r="L94" s="133" t="s">
-        <v>468</v>
-      </c>
-      <c r="M94" s="138" t="s">
-        <v>469</v>
-      </c>
-      <c r="N94" s="11"/>
+        <v>122</v>
+      </c>
+      <c r="M94" s="141" t="s">
+        <v>473</v>
+      </c>
+      <c r="N94" s="116" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="95" spans="2:14" ht="31" customHeight="1">
-      <c r="B95" s="393"/>
-      <c r="C95" s="390" t="s">
-        <v>306</v>
-      </c>
-      <c r="D95" s="390"/>
-      <c r="E95" s="381" t="s">
-        <v>470</v>
-      </c>
-      <c r="F95" s="381"/>
-      <c r="G95" s="379"/>
-      <c r="H95" s="379"/>
-      <c r="I95" s="379"/>
-      <c r="J95" s="379"/>
+      <c r="B95" s="376"/>
+      <c r="C95" s="391"/>
+      <c r="D95" s="391"/>
+      <c r="E95" s="415" t="s">
+        <v>483</v>
+      </c>
+      <c r="F95" s="416"/>
+      <c r="G95" s="367" t="s">
+        <v>269</v>
+      </c>
+      <c r="H95" s="47" t="s">
+        <v>455</v>
+      </c>
+      <c r="I95" s="364"/>
+      <c r="J95" s="364"/>
       <c r="L95" s="133" t="s">
-        <v>474</v>
+        <v>453</v>
       </c>
       <c r="M95" s="141" t="s">
         <v>473</v>
@@ -6485,39 +8433,43 @@
       <c r="N95" s="11"/>
     </row>
     <row r="96" spans="2:14" ht="31" customHeight="1">
-      <c r="B96" s="393"/>
-      <c r="C96" s="390"/>
-      <c r="D96" s="390"/>
-      <c r="E96" s="381" t="s">
-        <v>471</v>
-      </c>
-      <c r="F96" s="381"/>
-      <c r="G96" s="379"/>
-      <c r="H96" s="379"/>
-      <c r="I96" s="379"/>
-      <c r="J96" s="379"/>
+      <c r="B96" s="376"/>
+      <c r="C96" s="391"/>
+      <c r="D96" s="391"/>
+      <c r="E96" s="423"/>
+      <c r="F96" s="424"/>
+      <c r="G96" s="367" t="s">
+        <v>269</v>
+      </c>
+      <c r="H96" s="47" t="s">
+        <v>599</v>
+      </c>
+      <c r="I96" s="364"/>
+      <c r="J96" s="364"/>
       <c r="L96" s="133" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="M96" s="141" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="N96" s="11"/>
     </row>
     <row r="97" spans="2:14" ht="31" customHeight="1">
-      <c r="B97" s="393"/>
-      <c r="C97" s="390" t="s">
-        <v>28</v>
-      </c>
-      <c r="D97" s="390"/>
-      <c r="E97" s="379"/>
-      <c r="F97" s="379"/>
-      <c r="G97" s="379"/>
-      <c r="H97" s="379"/>
-      <c r="I97" s="379"/>
-      <c r="J97" s="379"/>
+      <c r="B97" s="376"/>
+      <c r="C97" s="391"/>
+      <c r="D97" s="391"/>
+      <c r="E97" s="423"/>
+      <c r="F97" s="424"/>
+      <c r="G97" s="367" t="s">
+        <v>269</v>
+      </c>
+      <c r="H97" s="47" t="s">
+        <v>600</v>
+      </c>
+      <c r="I97" s="364"/>
+      <c r="J97" s="364"/>
       <c r="L97" s="133" t="s">
-        <v>474</v>
+        <v>453</v>
       </c>
       <c r="M97" s="141" t="s">
         <v>473</v>
@@ -6525,163 +8477,165 @@
       <c r="N97" s="11"/>
     </row>
     <row r="98" spans="2:14" ht="31" customHeight="1">
-      <c r="B98" s="393"/>
-      <c r="C98" s="390" t="s">
+      <c r="B98" s="394" t="s">
+        <v>467</v>
+      </c>
+      <c r="C98" s="391" t="s">
+        <v>137</v>
+      </c>
+      <c r="D98" s="391"/>
+      <c r="E98" s="380"/>
+      <c r="F98" s="380"/>
+      <c r="G98" s="380"/>
+      <c r="H98" s="380"/>
+      <c r="I98" s="380"/>
+      <c r="J98" s="380"/>
+      <c r="L98" s="133" t="s">
+        <v>97</v>
+      </c>
+      <c r="M98" s="147" t="s">
+        <v>129</v>
+      </c>
+      <c r="N98" s="11"/>
+    </row>
+    <row r="99" spans="2:14" ht="31" customHeight="1">
+      <c r="B99" s="394"/>
+      <c r="C99" s="391" t="s">
+        <v>283</v>
+      </c>
+      <c r="D99" s="391"/>
+      <c r="E99" s="380"/>
+      <c r="F99" s="380"/>
+      <c r="G99" s="380"/>
+      <c r="H99" s="380"/>
+      <c r="I99" s="380"/>
+      <c r="J99" s="380"/>
+      <c r="L99" s="133" t="s">
+        <v>468</v>
+      </c>
+      <c r="M99" s="138" t="s">
+        <v>469</v>
+      </c>
+      <c r="N99" s="11"/>
+    </row>
+    <row r="100" spans="2:14" ht="31" customHeight="1">
+      <c r="B100" s="394"/>
+      <c r="C100" s="391" t="s">
+        <v>306</v>
+      </c>
+      <c r="D100" s="391"/>
+      <c r="E100" s="382" t="s">
+        <v>470</v>
+      </c>
+      <c r="F100" s="382"/>
+      <c r="G100" s="380"/>
+      <c r="H100" s="380"/>
+      <c r="I100" s="380"/>
+      <c r="J100" s="380"/>
+      <c r="L100" s="133" t="s">
+        <v>474</v>
+      </c>
+      <c r="M100" s="141" t="s">
+        <v>473</v>
+      </c>
+      <c r="N100" s="11"/>
+    </row>
+    <row r="101" spans="2:14" ht="31" customHeight="1">
+      <c r="B101" s="394"/>
+      <c r="C101" s="391"/>
+      <c r="D101" s="391"/>
+      <c r="E101" s="382" t="s">
+        <v>471</v>
+      </c>
+      <c r="F101" s="382"/>
+      <c r="G101" s="380"/>
+      <c r="H101" s="380"/>
+      <c r="I101" s="380"/>
+      <c r="J101" s="380"/>
+      <c r="L101" s="133" t="s">
+        <v>468</v>
+      </c>
+      <c r="M101" s="141" t="s">
+        <v>472</v>
+      </c>
+      <c r="N101" s="11"/>
+    </row>
+    <row r="102" spans="2:14" ht="31" customHeight="1">
+      <c r="B102" s="394"/>
+      <c r="C102" s="391" t="s">
+        <v>28</v>
+      </c>
+      <c r="D102" s="391"/>
+      <c r="E102" s="380"/>
+      <c r="F102" s="380"/>
+      <c r="G102" s="380"/>
+      <c r="H102" s="380"/>
+      <c r="I102" s="380"/>
+      <c r="J102" s="380"/>
+      <c r="L102" s="133" t="s">
+        <v>474</v>
+      </c>
+      <c r="M102" s="141" t="s">
+        <v>473</v>
+      </c>
+      <c r="N102" s="11"/>
+    </row>
+    <row r="103" spans="2:14" ht="31" customHeight="1">
+      <c r="B103" s="394"/>
+      <c r="C103" s="391" t="s">
         <v>386</v>
       </c>
-      <c r="D98" s="390"/>
-      <c r="E98" s="379"/>
-      <c r="F98" s="379"/>
-      <c r="G98" s="379"/>
-      <c r="H98" s="379"/>
-      <c r="I98" s="379"/>
-      <c r="J98" s="379"/>
-      <c r="L98" s="133" t="s">
+      <c r="D103" s="391"/>
+      <c r="E103" s="380"/>
+      <c r="F103" s="380"/>
+      <c r="G103" s="380"/>
+      <c r="H103" s="380"/>
+      <c r="I103" s="380"/>
+      <c r="J103" s="380"/>
+      <c r="L103" s="133" t="s">
         <v>122</v>
       </c>
-      <c r="M98" s="116" t="b">
+      <c r="M103" s="116" t="b">
         <v>1</v>
       </c>
-      <c r="N98" s="11"/>
-    </row>
-    <row r="99" spans="2:14" ht="31" customHeight="1">
-      <c r="B99" s="393"/>
-      <c r="C99" s="390" t="s">
+      <c r="N103" s="11"/>
+    </row>
+    <row r="104" spans="2:14" ht="31" customHeight="1">
+      <c r="B104" s="394"/>
+      <c r="C104" s="391" t="s">
         <v>305</v>
       </c>
-      <c r="D99" s="390"/>
-      <c r="E99" s="381" t="s">
+      <c r="D104" s="391"/>
+      <c r="E104" s="382" t="s">
         <v>384</v>
       </c>
-      <c r="F99" s="381"/>
-      <c r="G99" s="379"/>
-      <c r="H99" s="379"/>
-      <c r="I99" s="379"/>
-      <c r="J99" s="379"/>
-      <c r="L99" s="133" t="s">
+      <c r="F104" s="382"/>
+      <c r="G104" s="380"/>
+      <c r="H104" s="380"/>
+      <c r="I104" s="380"/>
+      <c r="J104" s="380"/>
+      <c r="L104" s="133" t="s">
         <v>122</v>
       </c>
-      <c r="M99" s="116" t="b">
+      <c r="M104" s="116" t="b">
         <v>1</v>
       </c>
-      <c r="N99" s="11"/>
-    </row>
-    <row r="100" spans="2:14" ht="31" customHeight="1">
-      <c r="B100" s="393"/>
-      <c r="C100" s="390"/>
-      <c r="D100" s="390"/>
-      <c r="E100" s="381" t="s">
+      <c r="N104" s="11"/>
+    </row>
+    <row r="105" spans="2:14" ht="31" customHeight="1">
+      <c r="B105" s="394"/>
+      <c r="C105" s="391"/>
+      <c r="D105" s="391"/>
+      <c r="E105" s="382" t="s">
         <v>385</v>
       </c>
-      <c r="F100" s="381"/>
-      <c r="G100" s="249">
+      <c r="F105" s="382"/>
+      <c r="G105" s="249">
         <v>1</v>
       </c>
-      <c r="H100" s="249"/>
-      <c r="I100" s="364"/>
-      <c r="J100" s="364"/>
-      <c r="L100" s="133" t="s">
-        <v>475</v>
-      </c>
-      <c r="M100" s="141" t="s">
-        <v>460</v>
-      </c>
-      <c r="N100" s="11"/>
-    </row>
-    <row r="101" spans="2:14" ht="31" customHeight="1">
-      <c r="B101" s="393"/>
-      <c r="C101" s="390"/>
-      <c r="D101" s="390"/>
-      <c r="E101" s="381"/>
-      <c r="F101" s="381"/>
-      <c r="G101" s="249">
-        <v>2</v>
-      </c>
-      <c r="H101" s="249"/>
-      <c r="I101" s="364"/>
-      <c r="J101" s="364"/>
-      <c r="L101" s="133" t="s">
-        <v>475</v>
-      </c>
-      <c r="M101" s="141" t="s">
-        <v>460</v>
-      </c>
-      <c r="N101" s="11"/>
-    </row>
-    <row r="102" spans="2:14" ht="31" customHeight="1">
-      <c r="B102" s="393"/>
-      <c r="C102" s="390"/>
-      <c r="D102" s="390"/>
-      <c r="E102" s="381"/>
-      <c r="F102" s="381"/>
-      <c r="G102" s="249">
-        <v>3</v>
-      </c>
-      <c r="H102" s="249"/>
-      <c r="I102" s="364"/>
-      <c r="J102" s="364"/>
-      <c r="L102" s="133" t="s">
-        <v>475</v>
-      </c>
-      <c r="M102" s="141" t="s">
-        <v>460</v>
-      </c>
-      <c r="N102" s="11"/>
-    </row>
-    <row r="103" spans="2:14" ht="31" customHeight="1">
-      <c r="B103" s="393"/>
-      <c r="C103" s="390"/>
-      <c r="D103" s="390"/>
-      <c r="E103" s="381"/>
-      <c r="F103" s="381"/>
-      <c r="G103" s="249">
-        <v>4</v>
-      </c>
-      <c r="H103" s="249"/>
-      <c r="I103" s="364"/>
-      <c r="J103" s="364"/>
-      <c r="L103" s="133" t="s">
-        <v>475</v>
-      </c>
-      <c r="M103" s="141" t="s">
-        <v>460</v>
-      </c>
-      <c r="N103" s="11"/>
-    </row>
-    <row r="104" spans="2:14" ht="31" customHeight="1">
-      <c r="B104" s="393"/>
-      <c r="C104" s="390" t="s">
-        <v>307</v>
-      </c>
-      <c r="D104" s="390"/>
-      <c r="E104" s="381" t="s">
-        <v>308</v>
-      </c>
-      <c r="F104" s="381"/>
-      <c r="G104" s="379"/>
-      <c r="H104" s="379"/>
-      <c r="I104" s="379"/>
-      <c r="J104" s="379"/>
-      <c r="L104" s="133" t="s">
-        <v>90</v>
-      </c>
-      <c r="M104" s="116">
-        <v>0</v>
-      </c>
-      <c r="N104" s="11"/>
-    </row>
-    <row r="105" spans="2:14" ht="31" customHeight="1">
-      <c r="B105" s="393"/>
-      <c r="C105" s="390"/>
-      <c r="D105" s="390"/>
-      <c r="E105" s="381" t="s">
-        <v>309</v>
-      </c>
-      <c r="F105" s="381"/>
-      <c r="G105" s="379"/>
-      <c r="H105" s="379"/>
-      <c r="I105" s="379"/>
-      <c r="J105" s="379"/>
+      <c r="H105" s="249"/>
+      <c r="I105" s="364"/>
+      <c r="J105" s="364"/>
       <c r="L105" s="133" t="s">
         <v>475</v>
       </c>
@@ -6690,26 +8644,137 @@
       </c>
       <c r="N105" s="11"/>
     </row>
-    <row r="106" spans="2:14" ht="26">
-      <c r="B106" s="376"/>
+    <row r="106" spans="2:14" ht="31" customHeight="1">
+      <c r="B106" s="394"/>
       <c r="C106" s="391"/>
-    </row>
-    <row r="107" spans="2:14" ht="26">
-      <c r="B107" s="376"/>
+      <c r="D106" s="391"/>
+      <c r="E106" s="382"/>
+      <c r="F106" s="382"/>
+      <c r="G106" s="249">
+        <v>2</v>
+      </c>
+      <c r="H106" s="249"/>
+      <c r="I106" s="364"/>
+      <c r="J106" s="364"/>
+      <c r="L106" s="133" t="s">
+        <v>475</v>
+      </c>
+      <c r="M106" s="141" t="s">
+        <v>460</v>
+      </c>
+      <c r="N106" s="11"/>
+    </row>
+    <row r="107" spans="2:14" ht="31" customHeight="1">
+      <c r="B107" s="394"/>
       <c r="C107" s="391"/>
+      <c r="D107" s="391"/>
+      <c r="E107" s="382"/>
+      <c r="F107" s="382"/>
+      <c r="G107" s="249">
+        <v>3</v>
+      </c>
+      <c r="H107" s="249"/>
+      <c r="I107" s="364"/>
+      <c r="J107" s="364"/>
+      <c r="L107" s="133" t="s">
+        <v>475</v>
+      </c>
+      <c r="M107" s="141" t="s">
+        <v>460</v>
+      </c>
+      <c r="N107" s="11"/>
+    </row>
+    <row r="108" spans="2:14" ht="31" customHeight="1">
+      <c r="B108" s="394"/>
+      <c r="C108" s="391"/>
+      <c r="D108" s="391"/>
+      <c r="E108" s="382"/>
+      <c r="F108" s="382"/>
+      <c r="G108" s="249">
+        <v>4</v>
+      </c>
+      <c r="H108" s="249"/>
+      <c r="I108" s="364"/>
+      <c r="J108" s="364"/>
+      <c r="L108" s="133" t="s">
+        <v>475</v>
+      </c>
+      <c r="M108" s="141" t="s">
+        <v>460</v>
+      </c>
+      <c r="N108" s="11"/>
+    </row>
+    <row r="109" spans="2:14" ht="31" customHeight="1">
+      <c r="B109" s="394"/>
+      <c r="C109" s="391" t="s">
+        <v>307</v>
+      </c>
+      <c r="D109" s="391"/>
+      <c r="E109" s="382" t="s">
+        <v>308</v>
+      </c>
+      <c r="F109" s="382"/>
+      <c r="G109" s="380"/>
+      <c r="H109" s="380"/>
+      <c r="I109" s="380"/>
+      <c r="J109" s="380"/>
+      <c r="L109" s="133" t="s">
+        <v>90</v>
+      </c>
+      <c r="M109" s="116">
+        <v>0</v>
+      </c>
+      <c r="N109" s="11"/>
+    </row>
+    <row r="110" spans="2:14" ht="31" customHeight="1">
+      <c r="B110" s="394"/>
+      <c r="C110" s="391"/>
+      <c r="D110" s="391"/>
+      <c r="E110" s="382" t="s">
+        <v>309</v>
+      </c>
+      <c r="F110" s="382"/>
+      <c r="G110" s="380"/>
+      <c r="H110" s="380"/>
+      <c r="I110" s="380"/>
+      <c r="J110" s="380"/>
+      <c r="L110" s="133" t="s">
+        <v>475</v>
+      </c>
+      <c r="M110" s="141" t="s">
+        <v>460</v>
+      </c>
+      <c r="N110" s="11"/>
+    </row>
+    <row r="111" spans="2:14" ht="26">
+      <c r="B111" s="377"/>
+      <c r="C111" s="392"/>
+    </row>
+    <row r="112" spans="2:14" ht="26">
+      <c r="B112" s="377"/>
+      <c r="C112" s="392"/>
     </row>
   </sheetData>
-  <mergeCells count="201">
+  <mergeCells count="210">
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="I97:J97"/>
+    <mergeCell ref="G64:H66"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G88:H88"/>
     <mergeCell ref="I19:J19"/>
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="E67:E70"/>
-    <mergeCell ref="F67:F70"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="G69:H70"/>
+    <mergeCell ref="E70:E73"/>
+    <mergeCell ref="F70:F73"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="G72:H73"/>
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="I35:J35"/>
     <mergeCell ref="I34:J34"/>
@@ -6719,8 +8784,8 @@
     <mergeCell ref="I22:J22"/>
     <mergeCell ref="I23:J23"/>
     <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="I67:J67"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="I31:J31"/>
@@ -6730,88 +8795,88 @@
     <mergeCell ref="I38:J38"/>
     <mergeCell ref="I37:J37"/>
     <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I90:I91"/>
-    <mergeCell ref="I100:J100"/>
-    <mergeCell ref="I101:J101"/>
-    <mergeCell ref="I102:J102"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="I82:J82"/>
-    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="I93:I94"/>
+    <mergeCell ref="I105:J105"/>
+    <mergeCell ref="I106:J106"/>
+    <mergeCell ref="I107:J107"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="I77:J77"/>
     <mergeCell ref="I63:J63"/>
     <mergeCell ref="C5:J5"/>
-    <mergeCell ref="G99:J99"/>
-    <mergeCell ref="C63:D70"/>
-    <mergeCell ref="E63:E66"/>
-    <mergeCell ref="F63:F66"/>
+    <mergeCell ref="G104:J104"/>
+    <mergeCell ref="C63:D73"/>
+    <mergeCell ref="E63:E69"/>
+    <mergeCell ref="F63:F69"/>
     <mergeCell ref="G63:H63"/>
-    <mergeCell ref="G104:J104"/>
-    <mergeCell ref="G105:J105"/>
-    <mergeCell ref="G96:J96"/>
-    <mergeCell ref="I103:J103"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="E93:J93"/>
-    <mergeCell ref="E94:J94"/>
-    <mergeCell ref="E97:J97"/>
+    <mergeCell ref="G109:J109"/>
+    <mergeCell ref="G110:J110"/>
+    <mergeCell ref="G101:J101"/>
+    <mergeCell ref="I108:J108"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="G108:H108"/>
+    <mergeCell ref="G107:H107"/>
+    <mergeCell ref="G106:H106"/>
+    <mergeCell ref="G105:H105"/>
     <mergeCell ref="E98:J98"/>
-    <mergeCell ref="C104:D105"/>
+    <mergeCell ref="E99:J99"/>
+    <mergeCell ref="E102:J102"/>
+    <mergeCell ref="E103:J103"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="E105:F108"/>
     <mergeCell ref="E104:F104"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="E100:F103"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="C95:D96"/>
-    <mergeCell ref="C99:D103"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="C100:D101"/>
+    <mergeCell ref="C104:D108"/>
     <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="G90:G91"/>
-    <mergeCell ref="H90:H91"/>
-    <mergeCell ref="G95:J95"/>
-    <mergeCell ref="G83:J86"/>
-    <mergeCell ref="E79:J79"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="H93:H94"/>
+    <mergeCell ref="G100:J100"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="E82:J82"/>
+    <mergeCell ref="E83:J83"/>
     <mergeCell ref="E80:J80"/>
-    <mergeCell ref="E77:J77"/>
-    <mergeCell ref="E78:J78"/>
-    <mergeCell ref="G87:J87"/>
-    <mergeCell ref="G88:J88"/>
-    <mergeCell ref="G89:J89"/>
+    <mergeCell ref="E81:J81"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G90:J90"/>
+    <mergeCell ref="G91:J91"/>
     <mergeCell ref="G92:J92"/>
-    <mergeCell ref="C83:D92"/>
-    <mergeCell ref="E83:F86"/>
-    <mergeCell ref="E90:F91"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="C86:D97"/>
+    <mergeCell ref="E86:F89"/>
+    <mergeCell ref="E93:F94"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="E91:F91"/>
     <mergeCell ref="E92:F92"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="E95:F97"/>
     <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D82"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D85"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="E84:F84"/>
     <mergeCell ref="G61:J61"/>
     <mergeCell ref="G62:J62"/>
-    <mergeCell ref="G72:J72"/>
-    <mergeCell ref="G73:J73"/>
     <mergeCell ref="G75:J75"/>
     <mergeCell ref="G76:J76"/>
-    <mergeCell ref="E71:J71"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="G78:J78"/>
+    <mergeCell ref="G79:J79"/>
+    <mergeCell ref="E74:J74"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="I72:I73"/>
     <mergeCell ref="E75:F75"/>
     <mergeCell ref="E76:F76"/>
-    <mergeCell ref="G65:H66"/>
-    <mergeCell ref="C72:D76"/>
-    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="G68:H69"/>
+    <mergeCell ref="C75:D79"/>
+    <mergeCell ref="C74:D74"/>
     <mergeCell ref="C62:D62"/>
     <mergeCell ref="C61:D61"/>
     <mergeCell ref="E42:J42"/>
@@ -6891,11 +8956,11 @@
     <mergeCell ref="C9:D15"/>
     <mergeCell ref="C16:C40"/>
     <mergeCell ref="D16:D24"/>
-    <mergeCell ref="B77:B92"/>
+    <mergeCell ref="B80:B97"/>
     <mergeCell ref="B6:B46"/>
-    <mergeCell ref="B93:B105"/>
+    <mergeCell ref="B98:B110"/>
     <mergeCell ref="B56:B60"/>
-    <mergeCell ref="B61:B76"/>
+    <mergeCell ref="B61:B79"/>
     <mergeCell ref="B47:B55"/>
     <mergeCell ref="F18:F24"/>
     <mergeCell ref="E17:F17"/>
@@ -6906,16 +8971,1157 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C504361-025B-B148-928B-4225D2B7DF53}">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:BR28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16:BR20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="5" max="5" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.6640625" customWidth="1"/>
+    <col min="22" max="22" width="8.1640625" customWidth="1"/>
+    <col min="23" max="23" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="29" width="7.33203125" customWidth="1"/>
+    <col min="30" max="30" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="5.83203125" customWidth="1"/>
+    <col min="44" max="44" width="8" customWidth="1"/>
+    <col min="45" max="45" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="8" bestFit="1" customWidth="1"/>
+    <col min="53" max="54" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="10" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="7" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="62" max="63" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="8" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="8" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:70" ht="31">
+      <c r="A1" s="61" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:70" ht="27" customHeight="1">
+      <c r="B3" s="67" t="s">
+        <v>331</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="4" spans="1:70" ht="29" customHeight="1">
+      <c r="B4" s="74" t="s">
+        <v>332</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="5" spans="1:70" ht="29" customHeight="1">
+      <c r="B5" s="75" t="s">
+        <v>333</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:70" ht="30" customHeight="1">
+      <c r="B6" s="76" t="s">
+        <v>334</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:70" ht="48" customHeight="1">
+      <c r="E13" s="300" t="s">
+        <v>264</v>
+      </c>
+      <c r="F13" s="300"/>
+      <c r="G13" s="300"/>
+      <c r="H13" s="300"/>
+      <c r="I13" s="300"/>
+      <c r="J13" s="300"/>
+      <c r="K13" s="300"/>
+      <c r="L13" s="300"/>
+      <c r="M13" s="300"/>
+      <c r="N13" s="300"/>
+      <c r="O13" s="300"/>
+      <c r="P13" s="300"/>
+      <c r="Q13" s="300"/>
+      <c r="R13" s="300"/>
+      <c r="S13" s="300"/>
+      <c r="T13" s="300"/>
+      <c r="U13" s="300"/>
+      <c r="V13" s="300"/>
+      <c r="W13" s="300"/>
+      <c r="X13" s="300"/>
+      <c r="Y13" s="300"/>
+      <c r="Z13" s="300"/>
+      <c r="AA13" s="300"/>
+      <c r="AB13" s="300"/>
+      <c r="AC13" s="300"/>
+      <c r="AD13" s="300"/>
+      <c r="AE13" s="300"/>
+      <c r="AF13" s="300"/>
+      <c r="AG13" s="300"/>
+      <c r="AH13" s="300"/>
+      <c r="AI13" s="300"/>
+      <c r="AJ13" s="300"/>
+      <c r="AK13" s="300"/>
+      <c r="AL13" s="300"/>
+      <c r="AM13" s="300"/>
+      <c r="AN13" s="300"/>
+      <c r="AO13" s="300"/>
+      <c r="AP13" s="300"/>
+      <c r="AQ13" s="300"/>
+      <c r="AR13" s="300"/>
+      <c r="AS13" s="300"/>
+      <c r="AT13" s="300"/>
+      <c r="AU13" s="300"/>
+      <c r="AV13" s="300"/>
+      <c r="AW13" s="300"/>
+      <c r="AX13" s="300"/>
+      <c r="AY13" s="300"/>
+      <c r="AZ13" s="300"/>
+      <c r="BA13" s="300"/>
+      <c r="BB13" s="300"/>
+      <c r="BC13" s="300"/>
+      <c r="BD13" s="300"/>
+      <c r="BE13" s="300"/>
+      <c r="BF13" s="300"/>
+      <c r="BG13" s="300"/>
+      <c r="BH13" s="300"/>
+      <c r="BI13" s="300"/>
+      <c r="BJ13" s="300"/>
+      <c r="BK13" s="300"/>
+      <c r="BL13" s="300"/>
+      <c r="BM13" s="300"/>
+      <c r="BN13" s="300"/>
+      <c r="BO13" s="300"/>
+      <c r="BP13" s="300"/>
+      <c r="BQ13" s="300"/>
+      <c r="BR13" s="300"/>
+    </row>
+    <row r="15" spans="1:70" s="6" customFormat="1" ht="43" customHeight="1"/>
+    <row r="16" spans="1:70" s="6" customFormat="1" ht="43" customHeight="1">
+      <c r="E16" s="336" t="s">
+        <v>263</v>
+      </c>
+      <c r="F16" s="336"/>
+      <c r="G16" s="336"/>
+      <c r="H16" s="336"/>
+      <c r="I16" s="336"/>
+      <c r="J16" s="336"/>
+      <c r="K16" s="336"/>
+      <c r="L16" s="336"/>
+      <c r="M16" s="336"/>
+      <c r="N16" s="336"/>
+      <c r="O16" s="336"/>
+      <c r="P16" s="336"/>
+      <c r="Q16" s="336"/>
+      <c r="R16" s="336"/>
+      <c r="S16" s="336"/>
+      <c r="T16" s="336"/>
+      <c r="U16" s="336"/>
+      <c r="V16" s="336"/>
+      <c r="W16" s="336"/>
+      <c r="X16" s="336"/>
+      <c r="Y16" s="336"/>
+      <c r="Z16" s="336"/>
+      <c r="AA16" s="336"/>
+      <c r="AB16" s="336"/>
+      <c r="AC16" s="336"/>
+      <c r="AD16" s="336"/>
+      <c r="AE16" s="355" t="s">
+        <v>258</v>
+      </c>
+      <c r="AF16" s="356"/>
+      <c r="AG16" s="356"/>
+      <c r="AH16" s="356"/>
+      <c r="AI16" s="356"/>
+      <c r="AJ16" s="356"/>
+      <c r="AK16" s="356"/>
+      <c r="AL16" s="357"/>
+      <c r="AM16" s="355" t="s">
+        <v>310</v>
+      </c>
+      <c r="AN16" s="356"/>
+      <c r="AO16" s="356"/>
+      <c r="AP16" s="356"/>
+      <c r="AQ16" s="356"/>
+      <c r="AR16" s="356"/>
+      <c r="AS16" s="357"/>
+      <c r="AT16" s="336" t="s">
+        <v>257</v>
+      </c>
+      <c r="AU16" s="336"/>
+      <c r="AV16" s="336"/>
+      <c r="AW16" s="336"/>
+      <c r="AX16" s="336"/>
+      <c r="AY16" s="336"/>
+      <c r="AZ16" s="336"/>
+      <c r="BA16" s="336"/>
+      <c r="BB16" s="336"/>
+      <c r="BC16" s="336"/>
+      <c r="BD16" s="336"/>
+      <c r="BE16" s="336"/>
+      <c r="BF16" s="336"/>
+      <c r="BG16" s="336"/>
+      <c r="BH16" s="336"/>
+      <c r="BI16" s="336"/>
+      <c r="BJ16" s="355" t="s">
+        <v>260</v>
+      </c>
+      <c r="BK16" s="356"/>
+      <c r="BL16" s="356"/>
+      <c r="BM16" s="356"/>
+      <c r="BN16" s="356"/>
+      <c r="BO16" s="356"/>
+      <c r="BP16" s="356"/>
+      <c r="BQ16" s="356"/>
+      <c r="BR16" s="357"/>
+    </row>
+    <row r="17" spans="2:70" s="6" customFormat="1" ht="60" customHeight="1">
+      <c r="E17" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="F17" s="37" t="s">
+        <v>286</v>
+      </c>
+      <c r="G17" s="37" t="s">
+        <v>285</v>
+      </c>
+      <c r="H17" s="37" t="s">
+        <v>288</v>
+      </c>
+      <c r="I17" s="336" t="s">
+        <v>262</v>
+      </c>
+      <c r="J17" s="336"/>
+      <c r="K17" s="336"/>
+      <c r="L17" s="336"/>
+      <c r="M17" s="336"/>
+      <c r="N17" s="336"/>
+      <c r="O17" s="336"/>
+      <c r="P17" s="336" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="336"/>
+      <c r="R17" s="336"/>
+      <c r="S17" s="336"/>
+      <c r="T17" s="336"/>
+      <c r="U17" s="336"/>
+      <c r="V17" s="336"/>
+      <c r="W17" s="336"/>
+      <c r="X17" s="336"/>
+      <c r="Y17" s="336"/>
+      <c r="Z17" s="336"/>
+      <c r="AA17" s="336"/>
+      <c r="AB17" s="336"/>
+      <c r="AC17" s="336"/>
+      <c r="AD17" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE17" s="336" t="s">
+        <v>275</v>
+      </c>
+      <c r="AF17" s="336"/>
+      <c r="AG17" s="336"/>
+      <c r="AH17" s="336"/>
+      <c r="AI17" s="336"/>
+      <c r="AJ17" s="355" t="s">
+        <v>276</v>
+      </c>
+      <c r="AK17" s="356"/>
+      <c r="AL17" s="357"/>
+      <c r="AM17" s="64" t="s">
+        <v>290</v>
+      </c>
+      <c r="AN17" s="64" t="s">
+        <v>291</v>
+      </c>
+      <c r="AO17" s="336" t="s">
+        <v>259</v>
+      </c>
+      <c r="AP17" s="336"/>
+      <c r="AQ17" s="336"/>
+      <c r="AR17" s="336"/>
+      <c r="AS17" s="336"/>
+      <c r="AT17" s="336" t="s">
+        <v>263</v>
+      </c>
+      <c r="AU17" s="336"/>
+      <c r="AV17" s="336"/>
+      <c r="AW17" s="336" t="s">
+        <v>266</v>
+      </c>
+      <c r="AX17" s="336"/>
+      <c r="AY17" s="355" t="s">
+        <v>311</v>
+      </c>
+      <c r="AZ17" s="356"/>
+      <c r="BA17" s="356"/>
+      <c r="BB17" s="356"/>
+      <c r="BC17" s="355" t="s">
+        <v>265</v>
+      </c>
+      <c r="BD17" s="356"/>
+      <c r="BE17" s="356"/>
+      <c r="BF17" s="356"/>
+      <c r="BG17" s="356"/>
+      <c r="BH17" s="356"/>
+      <c r="BI17" s="356"/>
+      <c r="BJ17" s="37" t="s">
+        <v>304</v>
+      </c>
+      <c r="BK17" s="37" t="s">
+        <v>305</v>
+      </c>
+      <c r="BL17" s="37" t="s">
+        <v>306</v>
+      </c>
+      <c r="BM17" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="BN17" s="37" t="s">
+        <v>283</v>
+      </c>
+      <c r="BO17" s="358" t="s">
+        <v>307</v>
+      </c>
+      <c r="BP17" s="358"/>
+      <c r="BQ17" s="358"/>
+      <c r="BR17" s="37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="2:70" s="2" customFormat="1" ht="77" customHeight="1">
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="37" t="s">
+        <v>296</v>
+      </c>
+      <c r="J18" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="K18" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="L18" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="M18" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="N18" s="37" t="s">
+        <v>284</v>
+      </c>
+      <c r="O18" s="37" t="s">
+        <v>283</v>
+      </c>
+      <c r="P18" s="37" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q18" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="R18" s="37" t="s">
+        <v>280</v>
+      </c>
+      <c r="S18" s="358" t="s">
+        <v>271</v>
+      </c>
+      <c r="T18" s="358"/>
+      <c r="U18" s="358"/>
+      <c r="V18" s="358"/>
+      <c r="W18" s="358"/>
+      <c r="X18" s="358"/>
+      <c r="Y18" s="358"/>
+      <c r="Z18" s="358"/>
+      <c r="AA18" s="358"/>
+      <c r="AB18" s="358"/>
+      <c r="AC18" s="358"/>
+      <c r="AD18" s="11"/>
+      <c r="AE18" s="37" t="s">
+        <v>258</v>
+      </c>
+      <c r="AF18" s="69" t="s">
+        <v>274</v>
+      </c>
+      <c r="AG18" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="AH18" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="AI18" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="AJ18" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="AK18" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL18" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="AM18" s="11"/>
+      <c r="AN18" s="11"/>
+      <c r="AO18" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="AP18" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="AQ18" s="37" t="s">
+        <v>314</v>
+      </c>
+      <c r="AR18" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="AS18" s="37" t="s">
+        <v>312</v>
+      </c>
+      <c r="AT18" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="AU18" s="62" t="s">
+        <v>293</v>
+      </c>
+      <c r="AV18" s="62" t="s">
+        <v>297</v>
+      </c>
+      <c r="AW18" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="AX18" s="37" t="s">
+        <v>295</v>
+      </c>
+      <c r="AY18" s="65" t="s">
+        <v>298</v>
+      </c>
+      <c r="AZ18" s="64" t="s">
+        <v>302</v>
+      </c>
+      <c r="BA18" s="66" t="s">
+        <v>300</v>
+      </c>
+      <c r="BB18" s="66" t="s">
+        <v>294</v>
+      </c>
+      <c r="BC18" s="65" t="s">
+        <v>298</v>
+      </c>
+      <c r="BD18" s="64" t="s">
+        <v>299</v>
+      </c>
+      <c r="BE18" s="66" t="s">
+        <v>300</v>
+      </c>
+      <c r="BF18" s="66" t="s">
+        <v>295</v>
+      </c>
+      <c r="BG18" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="BH18" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="BI18" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="BJ18" s="63"/>
+      <c r="BK18" s="63"/>
+      <c r="BL18" s="63"/>
+      <c r="BM18" s="63"/>
+      <c r="BN18" s="63"/>
+      <c r="BO18" s="37" t="s">
+        <v>308</v>
+      </c>
+      <c r="BP18" s="37" t="s">
+        <v>305</v>
+      </c>
+      <c r="BQ18" s="37" t="s">
+        <v>309</v>
+      </c>
+      <c r="BR18" s="63"/>
+    </row>
+    <row r="19" spans="2:70" s="2" customFormat="1" ht="77" customHeight="1">
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="T19" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="U19" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="V19" s="37" t="s">
+        <v>281</v>
+      </c>
+      <c r="W19" s="321" t="s">
+        <v>145</v>
+      </c>
+      <c r="X19" s="322"/>
+      <c r="Y19" s="323"/>
+      <c r="Z19" s="321" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA19" s="322"/>
+      <c r="AB19" s="322"/>
+      <c r="AC19" s="323"/>
+      <c r="AD19" s="11"/>
+      <c r="AE19" s="11"/>
+      <c r="AF19" s="11"/>
+      <c r="AG19" s="11"/>
+      <c r="AH19" s="11"/>
+      <c r="AI19" s="11"/>
+      <c r="AJ19" s="11"/>
+      <c r="AK19" s="11"/>
+      <c r="AL19" s="11"/>
+      <c r="AM19" s="11"/>
+      <c r="AN19" s="11"/>
+      <c r="AO19" s="11"/>
+      <c r="AP19" s="11"/>
+      <c r="AQ19" s="11"/>
+      <c r="AR19" s="11"/>
+      <c r="AS19" s="11"/>
+      <c r="AT19" s="11"/>
+      <c r="AU19" s="11"/>
+      <c r="AV19" s="11"/>
+      <c r="AW19" s="11"/>
+      <c r="AX19" s="11"/>
+      <c r="AY19" s="11"/>
+      <c r="AZ19" s="11"/>
+      <c r="BA19" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="BB19" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="BC19" s="11"/>
+      <c r="BD19" s="11"/>
+      <c r="BE19" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="BF19" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="BG19" s="11"/>
+      <c r="BH19" s="11"/>
+      <c r="BI19" s="11"/>
+      <c r="BJ19" s="11"/>
+      <c r="BK19" s="11"/>
+      <c r="BL19" s="11"/>
+      <c r="BM19" s="11"/>
+      <c r="BN19" s="11"/>
+      <c r="BO19" s="11"/>
+      <c r="BP19" s="11"/>
+      <c r="BQ19" s="11"/>
+      <c r="BR19" s="11"/>
+    </row>
+    <row r="20" spans="2:70" s="2" customFormat="1" ht="77" customHeight="1">
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="X20" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y20" s="37" t="s">
+        <v>328</v>
+      </c>
+      <c r="Z20" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA20" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB20" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC20" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD20" s="11"/>
+      <c r="AE20" s="11"/>
+      <c r="AF20" s="11"/>
+      <c r="AG20" s="11"/>
+      <c r="AH20" s="11"/>
+      <c r="AI20" s="11"/>
+      <c r="AJ20" s="11"/>
+      <c r="AK20" s="11"/>
+      <c r="AL20" s="11"/>
+      <c r="AM20" s="11"/>
+      <c r="AN20" s="11"/>
+      <c r="AO20" s="11"/>
+      <c r="AP20" s="11"/>
+      <c r="AQ20" s="11"/>
+      <c r="AR20" s="11"/>
+      <c r="AS20" s="11"/>
+      <c r="AT20" s="11"/>
+      <c r="AU20" s="11"/>
+      <c r="AV20" s="11"/>
+      <c r="AW20" s="11"/>
+      <c r="AX20" s="11"/>
+      <c r="AY20" s="11"/>
+      <c r="AZ20" s="11"/>
+      <c r="BA20" s="11"/>
+      <c r="BB20" s="11"/>
+      <c r="BC20" s="11"/>
+      <c r="BD20" s="11"/>
+      <c r="BE20" s="11"/>
+      <c r="BF20" s="11"/>
+      <c r="BG20" s="11"/>
+      <c r="BH20" s="11"/>
+      <c r="BI20" s="11"/>
+      <c r="BJ20" s="11"/>
+      <c r="BK20" s="11"/>
+      <c r="BL20" s="11"/>
+      <c r="BM20" s="11"/>
+      <c r="BN20" s="11"/>
+      <c r="BO20" s="11"/>
+      <c r="BP20" s="11"/>
+      <c r="BQ20" s="11"/>
+      <c r="BR20" s="11"/>
+    </row>
+    <row r="21" spans="2:70" s="6" customFormat="1" ht="43" customHeight="1"/>
+    <row r="22" spans="2:70" s="6" customFormat="1" ht="43" customHeight="1">
+      <c r="B22" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="I22" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="J22" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="K22" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="L22" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="M22" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="N22" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="O22" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="P22" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q22" s="71" t="s">
+        <v>90</v>
+      </c>
+      <c r="R22" s="71" t="s">
+        <v>90</v>
+      </c>
+      <c r="S22" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="T22" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="U22" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="V22" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="W22" s="72" t="s">
+        <v>141</v>
+      </c>
+      <c r="X22" s="69"/>
+      <c r="Y22" s="73" t="s">
+        <v>329</v>
+      </c>
+      <c r="Z22" s="72" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA22" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB22" s="71" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC22" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD22" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="AE22" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF22" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="AG22" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH22" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI22" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ22" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK22" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL22" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM22" s="67" t="s">
+        <v>331</v>
+      </c>
+      <c r="AN22" s="67" t="s">
+        <v>331</v>
+      </c>
+      <c r="AO22" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="AP22" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ22" s="67" t="s">
+        <v>331</v>
+      </c>
+      <c r="AR22" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS22" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="AT22" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="AU22" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV22" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="AW22" s="76" t="s">
+        <v>333</v>
+      </c>
+      <c r="AX22" s="76" t="s">
+        <v>334</v>
+      </c>
+      <c r="AY22" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ22" s="67" t="s">
+        <v>331</v>
+      </c>
+      <c r="BA22" s="74" t="s">
+        <v>332</v>
+      </c>
+      <c r="BB22" s="76" t="s">
+        <v>333</v>
+      </c>
+      <c r="BC22" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="BD22" s="67" t="s">
+        <v>331</v>
+      </c>
+      <c r="BE22" s="74" t="s">
+        <v>332</v>
+      </c>
+      <c r="BF22" s="76" t="s">
+        <v>334</v>
+      </c>
+      <c r="BG22" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="BH22" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="BI22" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="BJ22" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="BK22" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="BL22" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="BM22" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="BN22" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="BO22" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="BP22" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="BQ22" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="BR22" s="20" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="23" spans="2:70" s="77" customFormat="1" ht="43" customHeight="1">
+      <c r="B23" s="80" t="s">
+        <v>319</v>
+      </c>
+      <c r="E23" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" s="79" t="s">
+        <v>100</v>
+      </c>
+      <c r="G23" s="79" t="s">
+        <v>101</v>
+      </c>
+      <c r="H23" s="79" t="s">
+        <v>102</v>
+      </c>
+      <c r="I23" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" s="79" t="s">
+        <v>324</v>
+      </c>
+      <c r="N23" s="79" t="s">
+        <v>325</v>
+      </c>
+      <c r="O23" s="79" t="s">
+        <v>326</v>
+      </c>
+      <c r="P23" s="79" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q23" s="79">
+        <v>500</v>
+      </c>
+      <c r="R23" s="79">
+        <v>500</v>
+      </c>
+      <c r="S23" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="T23" s="79" t="s">
+        <v>150</v>
+      </c>
+      <c r="U23" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="V23" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="79" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA23" s="79" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB23" s="81">
+        <v>0.5</v>
+      </c>
+      <c r="AC23" s="83" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD23" s="85" t="s">
+        <v>340</v>
+      </c>
+      <c r="AE23" s="11"/>
+      <c r="AF23" s="11"/>
+      <c r="AG23" s="11"/>
+      <c r="AH23" s="11"/>
+      <c r="AI23" s="11"/>
+      <c r="AJ23" s="11"/>
+      <c r="AK23" s="11"/>
+      <c r="AL23" s="11"/>
+      <c r="AM23" s="78" t="s">
+        <v>337</v>
+      </c>
+      <c r="AN23" s="78" t="s">
+        <v>337</v>
+      </c>
+      <c r="AO23" s="79">
+        <v>7</v>
+      </c>
+      <c r="AP23" s="84" t="s">
+        <v>320</v>
+      </c>
+      <c r="AQ23" s="78" t="s">
+        <v>337</v>
+      </c>
+      <c r="AR23" s="84" t="s">
+        <v>320</v>
+      </c>
+      <c r="AT23" s="82">
+        <v>100</v>
+      </c>
+      <c r="AU23" s="79" t="s">
+        <v>107</v>
+      </c>
+      <c r="AV23" s="11"/>
+      <c r="AW23" s="78" t="s">
+        <v>337</v>
+      </c>
+      <c r="AX23" s="78" t="s">
+        <v>337</v>
+      </c>
+      <c r="AY23" s="84" t="s">
+        <v>321</v>
+      </c>
+      <c r="AZ23" s="78" t="s">
+        <v>337</v>
+      </c>
+      <c r="BA23" s="78" t="s">
+        <v>337</v>
+      </c>
+      <c r="BB23" s="78" t="s">
+        <v>337</v>
+      </c>
+      <c r="BC23" s="84" t="s">
+        <v>320</v>
+      </c>
+      <c r="BD23" s="78" t="s">
+        <v>337</v>
+      </c>
+      <c r="BE23" s="78" t="s">
+        <v>337</v>
+      </c>
+      <c r="BF23" s="78" t="s">
+        <v>337</v>
+      </c>
+      <c r="BG23" s="79" t="s">
+        <v>327</v>
+      </c>
+      <c r="BH23" s="84" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI23" s="84" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ23" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="BK23" s="79" t="s">
+        <v>125</v>
+      </c>
+      <c r="BL23" s="85" t="s">
+        <v>340</v>
+      </c>
+      <c r="BM23" s="86" t="s">
+        <v>339</v>
+      </c>
+      <c r="BN23" s="79" t="s">
+        <v>322</v>
+      </c>
+      <c r="BO23" s="79">
+        <v>0</v>
+      </c>
+      <c r="BP23" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="BQ23" s="84" t="s">
+        <v>106</v>
+      </c>
+      <c r="BR23" s="85" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="24" spans="2:70" s="6" customFormat="1" ht="43" customHeight="1">
+      <c r="AF24" s="70" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="25" spans="2:70" s="6" customFormat="1" ht="43" customHeight="1">
+      <c r="AQ25" s="69" t="s">
+        <v>341</v>
+      </c>
+      <c r="AS25" s="69" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="26" spans="2:70" s="6" customFormat="1" ht="43" customHeight="1"/>
+    <row r="27" spans="2:70" s="6" customFormat="1" ht="43" customHeight="1"/>
+    <row r="28" spans="2:70" s="6" customFormat="1" ht="43" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="Z19:AC19"/>
+    <mergeCell ref="W19:Y19"/>
+    <mergeCell ref="BC17:BI17"/>
+    <mergeCell ref="BJ16:BR16"/>
+    <mergeCell ref="BO17:BQ17"/>
+    <mergeCell ref="E16:AD16"/>
+    <mergeCell ref="AM16:AS16"/>
+    <mergeCell ref="AE16:AL16"/>
+    <mergeCell ref="AY17:BB17"/>
+    <mergeCell ref="P17:AC17"/>
+    <mergeCell ref="S18:AC18"/>
+    <mergeCell ref="AJ17:AL17"/>
+    <mergeCell ref="AE17:AI17"/>
+    <mergeCell ref="AT17:AV17"/>
+    <mergeCell ref="E13:BR13"/>
+    <mergeCell ref="AT16:BI16"/>
+    <mergeCell ref="I17:O17"/>
+    <mergeCell ref="AW17:AX17"/>
+    <mergeCell ref="AO17:AS17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657F1319-18D0-224C-96EE-875DBB0E113F}">
+  <dimension ref="K25:L27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="W11" sqref="W11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="25" spans="11:12">
+      <c r="K25" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="26" spans="11:12">
+      <c r="K26" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="27" spans="11:12">
+      <c r="K27" t="s">
+        <v>608</v>
+      </c>
+      <c r="L27" t="s">
+        <v>609</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB030FA-EA0F-904E-89A7-6D6B5810B515}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:FR35"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="BL4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="BK7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="CA19" sqref="CA19"/>
+      <selection pane="bottomRight" activeCell="BU10" sqref="BU10:BX18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9601,7 +12807,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEAAB008-EC43-BD4C-81B8-96DEA0083935}">
   <dimension ref="A1:G92"/>
   <sheetViews>
@@ -9928,7 +13134,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B62115-99F1-E442-B45A-15034E866766}">
   <dimension ref="A2:L37"/>
   <sheetViews>
@@ -10558,7 +13764,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AF16E0C-747B-414A-A49D-22BD454448D6}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J5"/>
@@ -10653,7 +13859,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38B2EA65-21F2-2F4D-89F2-3DF9C5011AEE}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A4:CN28"/>
@@ -11728,7 +14934,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6180D86-3E8D-DE43-B0D1-6D6FAA66BA84}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:N86"/>
@@ -13405,7 +16611,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B3883BC-C9C7-0743-A4D3-9B3F0EDC8175}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:P97"/>
@@ -15974,1111 +19180,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C504361-025B-B148-928B-4225D2B7DF53}">
-  <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:BR28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:BR20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.6640625" customWidth="1"/>
-    <col min="22" max="22" width="8.1640625" customWidth="1"/>
-    <col min="23" max="23" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="29" width="7.33203125" customWidth="1"/>
-    <col min="30" max="30" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="5.83203125" customWidth="1"/>
-    <col min="44" max="44" width="8" customWidth="1"/>
-    <col min="45" max="45" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="8" bestFit="1" customWidth="1"/>
-    <col min="53" max="54" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="10" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="7" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="62" max="63" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="8" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="8" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="11" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:70" ht="31">
-      <c r="A1" s="61" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="3" spans="1:70" ht="27" customHeight="1">
-      <c r="B3" s="67" t="s">
-        <v>331</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="4" spans="1:70" ht="29" customHeight="1">
-      <c r="B4" s="74" t="s">
-        <v>332</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="5" spans="1:70" ht="29" customHeight="1">
-      <c r="B5" s="75" t="s">
-        <v>333</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="6" spans="1:70" ht="30" customHeight="1">
-      <c r="B6" s="76" t="s">
-        <v>334</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="13" spans="1:70" ht="48" customHeight="1">
-      <c r="E13" s="300" t="s">
-        <v>264</v>
-      </c>
-      <c r="F13" s="300"/>
-      <c r="G13" s="300"/>
-      <c r="H13" s="300"/>
-      <c r="I13" s="300"/>
-      <c r="J13" s="300"/>
-      <c r="K13" s="300"/>
-      <c r="L13" s="300"/>
-      <c r="M13" s="300"/>
-      <c r="N13" s="300"/>
-      <c r="O13" s="300"/>
-      <c r="P13" s="300"/>
-      <c r="Q13" s="300"/>
-      <c r="R13" s="300"/>
-      <c r="S13" s="300"/>
-      <c r="T13" s="300"/>
-      <c r="U13" s="300"/>
-      <c r="V13" s="300"/>
-      <c r="W13" s="300"/>
-      <c r="X13" s="300"/>
-      <c r="Y13" s="300"/>
-      <c r="Z13" s="300"/>
-      <c r="AA13" s="300"/>
-      <c r="AB13" s="300"/>
-      <c r="AC13" s="300"/>
-      <c r="AD13" s="300"/>
-      <c r="AE13" s="300"/>
-      <c r="AF13" s="300"/>
-      <c r="AG13" s="300"/>
-      <c r="AH13" s="300"/>
-      <c r="AI13" s="300"/>
-      <c r="AJ13" s="300"/>
-      <c r="AK13" s="300"/>
-      <c r="AL13" s="300"/>
-      <c r="AM13" s="300"/>
-      <c r="AN13" s="300"/>
-      <c r="AO13" s="300"/>
-      <c r="AP13" s="300"/>
-      <c r="AQ13" s="300"/>
-      <c r="AR13" s="300"/>
-      <c r="AS13" s="300"/>
-      <c r="AT13" s="300"/>
-      <c r="AU13" s="300"/>
-      <c r="AV13" s="300"/>
-      <c r="AW13" s="300"/>
-      <c r="AX13" s="300"/>
-      <c r="AY13" s="300"/>
-      <c r="AZ13" s="300"/>
-      <c r="BA13" s="300"/>
-      <c r="BB13" s="300"/>
-      <c r="BC13" s="300"/>
-      <c r="BD13" s="300"/>
-      <c r="BE13" s="300"/>
-      <c r="BF13" s="300"/>
-      <c r="BG13" s="300"/>
-      <c r="BH13" s="300"/>
-      <c r="BI13" s="300"/>
-      <c r="BJ13" s="300"/>
-      <c r="BK13" s="300"/>
-      <c r="BL13" s="300"/>
-      <c r="BM13" s="300"/>
-      <c r="BN13" s="300"/>
-      <c r="BO13" s="300"/>
-      <c r="BP13" s="300"/>
-      <c r="BQ13" s="300"/>
-      <c r="BR13" s="300"/>
-    </row>
-    <row r="15" spans="1:70" s="6" customFormat="1" ht="43" customHeight="1"/>
-    <row r="16" spans="1:70" s="6" customFormat="1" ht="43" customHeight="1">
-      <c r="E16" s="336" t="s">
-        <v>263</v>
-      </c>
-      <c r="F16" s="336"/>
-      <c r="G16" s="336"/>
-      <c r="H16" s="336"/>
-      <c r="I16" s="336"/>
-      <c r="J16" s="336"/>
-      <c r="K16" s="336"/>
-      <c r="L16" s="336"/>
-      <c r="M16" s="336"/>
-      <c r="N16" s="336"/>
-      <c r="O16" s="336"/>
-      <c r="P16" s="336"/>
-      <c r="Q16" s="336"/>
-      <c r="R16" s="336"/>
-      <c r="S16" s="336"/>
-      <c r="T16" s="336"/>
-      <c r="U16" s="336"/>
-      <c r="V16" s="336"/>
-      <c r="W16" s="336"/>
-      <c r="X16" s="336"/>
-      <c r="Y16" s="336"/>
-      <c r="Z16" s="336"/>
-      <c r="AA16" s="336"/>
-      <c r="AB16" s="336"/>
-      <c r="AC16" s="336"/>
-      <c r="AD16" s="336"/>
-      <c r="AE16" s="355" t="s">
-        <v>258</v>
-      </c>
-      <c r="AF16" s="356"/>
-      <c r="AG16" s="356"/>
-      <c r="AH16" s="356"/>
-      <c r="AI16" s="356"/>
-      <c r="AJ16" s="356"/>
-      <c r="AK16" s="356"/>
-      <c r="AL16" s="357"/>
-      <c r="AM16" s="355" t="s">
-        <v>310</v>
-      </c>
-      <c r="AN16" s="356"/>
-      <c r="AO16" s="356"/>
-      <c r="AP16" s="356"/>
-      <c r="AQ16" s="356"/>
-      <c r="AR16" s="356"/>
-      <c r="AS16" s="357"/>
-      <c r="AT16" s="336" t="s">
-        <v>257</v>
-      </c>
-      <c r="AU16" s="336"/>
-      <c r="AV16" s="336"/>
-      <c r="AW16" s="336"/>
-      <c r="AX16" s="336"/>
-      <c r="AY16" s="336"/>
-      <c r="AZ16" s="336"/>
-      <c r="BA16" s="336"/>
-      <c r="BB16" s="336"/>
-      <c r="BC16" s="336"/>
-      <c r="BD16" s="336"/>
-      <c r="BE16" s="336"/>
-      <c r="BF16" s="336"/>
-      <c r="BG16" s="336"/>
-      <c r="BH16" s="336"/>
-      <c r="BI16" s="336"/>
-      <c r="BJ16" s="355" t="s">
-        <v>260</v>
-      </c>
-      <c r="BK16" s="356"/>
-      <c r="BL16" s="356"/>
-      <c r="BM16" s="356"/>
-      <c r="BN16" s="356"/>
-      <c r="BO16" s="356"/>
-      <c r="BP16" s="356"/>
-      <c r="BQ16" s="356"/>
-      <c r="BR16" s="357"/>
-    </row>
-    <row r="17" spans="2:70" s="6" customFormat="1" ht="60" customHeight="1">
-      <c r="E17" s="37" t="s">
-        <v>289</v>
-      </c>
-      <c r="F17" s="37" t="s">
-        <v>286</v>
-      </c>
-      <c r="G17" s="37" t="s">
-        <v>285</v>
-      </c>
-      <c r="H17" s="37" t="s">
-        <v>288</v>
-      </c>
-      <c r="I17" s="336" t="s">
-        <v>262</v>
-      </c>
-      <c r="J17" s="336"/>
-      <c r="K17" s="336"/>
-      <c r="L17" s="336"/>
-      <c r="M17" s="336"/>
-      <c r="N17" s="336"/>
-      <c r="O17" s="336"/>
-      <c r="P17" s="336" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="336"/>
-      <c r="R17" s="336"/>
-      <c r="S17" s="336"/>
-      <c r="T17" s="336"/>
-      <c r="U17" s="336"/>
-      <c r="V17" s="336"/>
-      <c r="W17" s="336"/>
-      <c r="X17" s="336"/>
-      <c r="Y17" s="336"/>
-      <c r="Z17" s="336"/>
-      <c r="AA17" s="336"/>
-      <c r="AB17" s="336"/>
-      <c r="AC17" s="336"/>
-      <c r="AD17" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE17" s="336" t="s">
-        <v>275</v>
-      </c>
-      <c r="AF17" s="336"/>
-      <c r="AG17" s="336"/>
-      <c r="AH17" s="336"/>
-      <c r="AI17" s="336"/>
-      <c r="AJ17" s="355" t="s">
-        <v>276</v>
-      </c>
-      <c r="AK17" s="356"/>
-      <c r="AL17" s="357"/>
-      <c r="AM17" s="64" t="s">
-        <v>290</v>
-      </c>
-      <c r="AN17" s="64" t="s">
-        <v>291</v>
-      </c>
-      <c r="AO17" s="336" t="s">
-        <v>259</v>
-      </c>
-      <c r="AP17" s="336"/>
-      <c r="AQ17" s="336"/>
-      <c r="AR17" s="336"/>
-      <c r="AS17" s="336"/>
-      <c r="AT17" s="336" t="s">
-        <v>263</v>
-      </c>
-      <c r="AU17" s="336"/>
-      <c r="AV17" s="336"/>
-      <c r="AW17" s="336" t="s">
-        <v>266</v>
-      </c>
-      <c r="AX17" s="336"/>
-      <c r="AY17" s="355" t="s">
-        <v>311</v>
-      </c>
-      <c r="AZ17" s="356"/>
-      <c r="BA17" s="356"/>
-      <c r="BB17" s="356"/>
-      <c r="BC17" s="355" t="s">
-        <v>265</v>
-      </c>
-      <c r="BD17" s="356"/>
-      <c r="BE17" s="356"/>
-      <c r="BF17" s="356"/>
-      <c r="BG17" s="356"/>
-      <c r="BH17" s="356"/>
-      <c r="BI17" s="356"/>
-      <c r="BJ17" s="37" t="s">
-        <v>304</v>
-      </c>
-      <c r="BK17" s="37" t="s">
-        <v>305</v>
-      </c>
-      <c r="BL17" s="37" t="s">
-        <v>306</v>
-      </c>
-      <c r="BM17" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="BN17" s="37" t="s">
-        <v>283</v>
-      </c>
-      <c r="BO17" s="358" t="s">
-        <v>307</v>
-      </c>
-      <c r="BP17" s="358"/>
-      <c r="BQ17" s="358"/>
-      <c r="BR17" s="37" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="2:70" s="2" customFormat="1" ht="77" customHeight="1">
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="37" t="s">
-        <v>296</v>
-      </c>
-      <c r="J18" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="K18" s="37" t="s">
-        <v>268</v>
-      </c>
-      <c r="L18" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="M18" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="N18" s="37" t="s">
-        <v>284</v>
-      </c>
-      <c r="O18" s="37" t="s">
-        <v>283</v>
-      </c>
-      <c r="P18" s="37" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q18" s="37" t="s">
-        <v>279</v>
-      </c>
-      <c r="R18" s="37" t="s">
-        <v>280</v>
-      </c>
-      <c r="S18" s="358" t="s">
-        <v>271</v>
-      </c>
-      <c r="T18" s="358"/>
-      <c r="U18" s="358"/>
-      <c r="V18" s="358"/>
-      <c r="W18" s="358"/>
-      <c r="X18" s="358"/>
-      <c r="Y18" s="358"/>
-      <c r="Z18" s="358"/>
-      <c r="AA18" s="358"/>
-      <c r="AB18" s="358"/>
-      <c r="AC18" s="358"/>
-      <c r="AD18" s="11"/>
-      <c r="AE18" s="37" t="s">
-        <v>258</v>
-      </c>
-      <c r="AF18" s="69" t="s">
-        <v>274</v>
-      </c>
-      <c r="AG18" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="AH18" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="AI18" s="37" t="s">
-        <v>273</v>
-      </c>
-      <c r="AJ18" s="37" t="s">
-        <v>272</v>
-      </c>
-      <c r="AK18" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="AL18" s="37" t="s">
-        <v>273</v>
-      </c>
-      <c r="AM18" s="11"/>
-      <c r="AN18" s="11"/>
-      <c r="AO18" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="AP18" s="37" t="s">
-        <v>268</v>
-      </c>
-      <c r="AQ18" s="37" t="s">
-        <v>314</v>
-      </c>
-      <c r="AR18" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="AS18" s="37" t="s">
-        <v>312</v>
-      </c>
-      <c r="AT18" s="62" t="s">
-        <v>292</v>
-      </c>
-      <c r="AU18" s="62" t="s">
-        <v>293</v>
-      </c>
-      <c r="AV18" s="62" t="s">
-        <v>297</v>
-      </c>
-      <c r="AW18" s="37" t="s">
-        <v>294</v>
-      </c>
-      <c r="AX18" s="37" t="s">
-        <v>295</v>
-      </c>
-      <c r="AY18" s="65" t="s">
-        <v>298</v>
-      </c>
-      <c r="AZ18" s="64" t="s">
-        <v>302</v>
-      </c>
-      <c r="BA18" s="66" t="s">
-        <v>300</v>
-      </c>
-      <c r="BB18" s="66" t="s">
-        <v>294</v>
-      </c>
-      <c r="BC18" s="65" t="s">
-        <v>298</v>
-      </c>
-      <c r="BD18" s="64" t="s">
-        <v>299</v>
-      </c>
-      <c r="BE18" s="66" t="s">
-        <v>300</v>
-      </c>
-      <c r="BF18" s="66" t="s">
-        <v>295</v>
-      </c>
-      <c r="BG18" s="37" t="s">
-        <v>301</v>
-      </c>
-      <c r="BH18" s="37" t="s">
-        <v>268</v>
-      </c>
-      <c r="BI18" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="BJ18" s="63"/>
-      <c r="BK18" s="63"/>
-      <c r="BL18" s="63"/>
-      <c r="BM18" s="63"/>
-      <c r="BN18" s="63"/>
-      <c r="BO18" s="37" t="s">
-        <v>308</v>
-      </c>
-      <c r="BP18" s="37" t="s">
-        <v>305</v>
-      </c>
-      <c r="BQ18" s="37" t="s">
-        <v>309</v>
-      </c>
-      <c r="BR18" s="63"/>
-    </row>
-    <row r="19" spans="2:70" s="2" customFormat="1" ht="77" customHeight="1">
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="T19" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="U19" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="V19" s="37" t="s">
-        <v>281</v>
-      </c>
-      <c r="W19" s="321" t="s">
-        <v>145</v>
-      </c>
-      <c r="X19" s="322"/>
-      <c r="Y19" s="323"/>
-      <c r="Z19" s="321" t="s">
-        <v>140</v>
-      </c>
-      <c r="AA19" s="322"/>
-      <c r="AB19" s="322"/>
-      <c r="AC19" s="323"/>
-      <c r="AD19" s="11"/>
-      <c r="AE19" s="11"/>
-      <c r="AF19" s="11"/>
-      <c r="AG19" s="11"/>
-      <c r="AH19" s="11"/>
-      <c r="AI19" s="11"/>
-      <c r="AJ19" s="11"/>
-      <c r="AK19" s="11"/>
-      <c r="AL19" s="11"/>
-      <c r="AM19" s="11"/>
-      <c r="AN19" s="11"/>
-      <c r="AO19" s="11"/>
-      <c r="AP19" s="11"/>
-      <c r="AQ19" s="11"/>
-      <c r="AR19" s="11"/>
-      <c r="AS19" s="11"/>
-      <c r="AT19" s="11"/>
-      <c r="AU19" s="11"/>
-      <c r="AV19" s="11"/>
-      <c r="AW19" s="11"/>
-      <c r="AX19" s="11"/>
-      <c r="AY19" s="11"/>
-      <c r="AZ19" s="11"/>
-      <c r="BA19" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="BB19" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="BC19" s="11"/>
-      <c r="BD19" s="11"/>
-      <c r="BE19" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="BF19" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="BG19" s="11"/>
-      <c r="BH19" s="11"/>
-      <c r="BI19" s="11"/>
-      <c r="BJ19" s="11"/>
-      <c r="BK19" s="11"/>
-      <c r="BL19" s="11"/>
-      <c r="BM19" s="11"/>
-      <c r="BN19" s="11"/>
-      <c r="BO19" s="11"/>
-      <c r="BP19" s="11"/>
-      <c r="BQ19" s="11"/>
-      <c r="BR19" s="11"/>
-    </row>
-    <row r="20" spans="2:70" s="2" customFormat="1" ht="77" customHeight="1">
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="X20" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="Y20" s="37" t="s">
-        <v>328</v>
-      </c>
-      <c r="Z20" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA20" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="AB20" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="AC20" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD20" s="11"/>
-      <c r="AE20" s="11"/>
-      <c r="AF20" s="11"/>
-      <c r="AG20" s="11"/>
-      <c r="AH20" s="11"/>
-      <c r="AI20" s="11"/>
-      <c r="AJ20" s="11"/>
-      <c r="AK20" s="11"/>
-      <c r="AL20" s="11"/>
-      <c r="AM20" s="11"/>
-      <c r="AN20" s="11"/>
-      <c r="AO20" s="11"/>
-      <c r="AP20" s="11"/>
-      <c r="AQ20" s="11"/>
-      <c r="AR20" s="11"/>
-      <c r="AS20" s="11"/>
-      <c r="AT20" s="11"/>
-      <c r="AU20" s="11"/>
-      <c r="AV20" s="11"/>
-      <c r="AW20" s="11"/>
-      <c r="AX20" s="11"/>
-      <c r="AY20" s="11"/>
-      <c r="AZ20" s="11"/>
-      <c r="BA20" s="11"/>
-      <c r="BB20" s="11"/>
-      <c r="BC20" s="11"/>
-      <c r="BD20" s="11"/>
-      <c r="BE20" s="11"/>
-      <c r="BF20" s="11"/>
-      <c r="BG20" s="11"/>
-      <c r="BH20" s="11"/>
-      <c r="BI20" s="11"/>
-      <c r="BJ20" s="11"/>
-      <c r="BK20" s="11"/>
-      <c r="BL20" s="11"/>
-      <c r="BM20" s="11"/>
-      <c r="BN20" s="11"/>
-      <c r="BO20" s="11"/>
-      <c r="BP20" s="11"/>
-      <c r="BQ20" s="11"/>
-      <c r="BR20" s="11"/>
-    </row>
-    <row r="21" spans="2:70" s="6" customFormat="1" ht="43" customHeight="1"/>
-    <row r="22" spans="2:70" s="6" customFormat="1" ht="43" customHeight="1">
-      <c r="B22" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>317</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="H22" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="I22" s="20" t="s">
-        <v>317</v>
-      </c>
-      <c r="J22" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="K22" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="L22" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="M22" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="N22" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="O22" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="P22" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q22" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="R22" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="S22" s="20" t="s">
-        <v>317</v>
-      </c>
-      <c r="T22" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="U22" s="20" t="s">
-        <v>317</v>
-      </c>
-      <c r="V22" s="20" t="s">
-        <v>317</v>
-      </c>
-      <c r="W22" s="72" t="s">
-        <v>141</v>
-      </c>
-      <c r="X22" s="69"/>
-      <c r="Y22" s="73" t="s">
-        <v>329</v>
-      </c>
-      <c r="Z22" s="72" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA22" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB22" s="71" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC22" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD22" s="20" t="s">
-        <v>338</v>
-      </c>
-      <c r="AE22" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="AF22" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="AG22" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH22" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="AI22" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="AJ22" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK22" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL22" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="AM22" s="67" t="s">
-        <v>331</v>
-      </c>
-      <c r="AN22" s="67" t="s">
-        <v>331</v>
-      </c>
-      <c r="AO22" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="AP22" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="AQ22" s="67" t="s">
-        <v>331</v>
-      </c>
-      <c r="AR22" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="AS22" s="20" t="s">
-        <v>338</v>
-      </c>
-      <c r="AT22" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="AU22" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="AV22" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="AW22" s="76" t="s">
-        <v>333</v>
-      </c>
-      <c r="AX22" s="76" t="s">
-        <v>334</v>
-      </c>
-      <c r="AY22" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="AZ22" s="67" t="s">
-        <v>331</v>
-      </c>
-      <c r="BA22" s="74" t="s">
-        <v>332</v>
-      </c>
-      <c r="BB22" s="76" t="s">
-        <v>333</v>
-      </c>
-      <c r="BC22" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="BD22" s="67" t="s">
-        <v>331</v>
-      </c>
-      <c r="BE22" s="74" t="s">
-        <v>332</v>
-      </c>
-      <c r="BF22" s="76" t="s">
-        <v>334</v>
-      </c>
-      <c r="BG22" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="BH22" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="BI22" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="BJ22" s="20" t="s">
-        <v>317</v>
-      </c>
-      <c r="BK22" s="20" t="s">
-        <v>338</v>
-      </c>
-      <c r="BL22" s="20" t="s">
-        <v>338</v>
-      </c>
-      <c r="BM22" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="BN22" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="BO22" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="BP22" s="20" t="s">
-        <v>317</v>
-      </c>
-      <c r="BQ22" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="BR22" s="20" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="23" spans="2:70" s="77" customFormat="1" ht="43" customHeight="1">
-      <c r="B23" s="80" t="s">
-        <v>319</v>
-      </c>
-      <c r="E23" s="79" t="b">
-        <v>1</v>
-      </c>
-      <c r="F23" s="79" t="s">
-        <v>100</v>
-      </c>
-      <c r="G23" s="79" t="s">
-        <v>101</v>
-      </c>
-      <c r="H23" s="79" t="s">
-        <v>102</v>
-      </c>
-      <c r="I23" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" s="79" t="s">
-        <v>324</v>
-      </c>
-      <c r="N23" s="79" t="s">
-        <v>325</v>
-      </c>
-      <c r="O23" s="79" t="s">
-        <v>326</v>
-      </c>
-      <c r="P23" s="79" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q23" s="79">
-        <v>500</v>
-      </c>
-      <c r="R23" s="79">
-        <v>500</v>
-      </c>
-      <c r="S23" s="79" t="b">
-        <v>1</v>
-      </c>
-      <c r="T23" s="79" t="s">
-        <v>150</v>
-      </c>
-      <c r="U23" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="V23" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="W23" s="11"/>
-      <c r="X23" s="11"/>
-      <c r="Y23" s="11"/>
-      <c r="Z23" s="79" t="s">
-        <v>158</v>
-      </c>
-      <c r="AA23" s="79" t="s">
-        <v>150</v>
-      </c>
-      <c r="AB23" s="81">
-        <v>0.5</v>
-      </c>
-      <c r="AC23" s="83" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD23" s="85" t="s">
-        <v>340</v>
-      </c>
-      <c r="AE23" s="11"/>
-      <c r="AF23" s="11"/>
-      <c r="AG23" s="11"/>
-      <c r="AH23" s="11"/>
-      <c r="AI23" s="11"/>
-      <c r="AJ23" s="11"/>
-      <c r="AK23" s="11"/>
-      <c r="AL23" s="11"/>
-      <c r="AM23" s="78" t="s">
-        <v>337</v>
-      </c>
-      <c r="AN23" s="78" t="s">
-        <v>337</v>
-      </c>
-      <c r="AO23" s="79">
-        <v>7</v>
-      </c>
-      <c r="AP23" s="84" t="s">
-        <v>320</v>
-      </c>
-      <c r="AQ23" s="78" t="s">
-        <v>337</v>
-      </c>
-      <c r="AR23" s="84" t="s">
-        <v>320</v>
-      </c>
-      <c r="AT23" s="82">
-        <v>100</v>
-      </c>
-      <c r="AU23" s="79" t="s">
-        <v>107</v>
-      </c>
-      <c r="AV23" s="11"/>
-      <c r="AW23" s="78" t="s">
-        <v>337</v>
-      </c>
-      <c r="AX23" s="78" t="s">
-        <v>337</v>
-      </c>
-      <c r="AY23" s="84" t="s">
-        <v>321</v>
-      </c>
-      <c r="AZ23" s="78" t="s">
-        <v>337</v>
-      </c>
-      <c r="BA23" s="78" t="s">
-        <v>337</v>
-      </c>
-      <c r="BB23" s="78" t="s">
-        <v>337</v>
-      </c>
-      <c r="BC23" s="84" t="s">
-        <v>320</v>
-      </c>
-      <c r="BD23" s="78" t="s">
-        <v>337</v>
-      </c>
-      <c r="BE23" s="78" t="s">
-        <v>337</v>
-      </c>
-      <c r="BF23" s="78" t="s">
-        <v>337</v>
-      </c>
-      <c r="BG23" s="79" t="s">
-        <v>327</v>
-      </c>
-      <c r="BH23" s="84" t="s">
-        <v>99</v>
-      </c>
-      <c r="BI23" s="84" t="s">
-        <v>99</v>
-      </c>
-      <c r="BJ23" s="79" t="b">
-        <v>1</v>
-      </c>
-      <c r="BK23" s="79" t="s">
-        <v>125</v>
-      </c>
-      <c r="BL23" s="85" t="s">
-        <v>340</v>
-      </c>
-      <c r="BM23" s="86" t="s">
-        <v>339</v>
-      </c>
-      <c r="BN23" s="79" t="s">
-        <v>322</v>
-      </c>
-      <c r="BO23" s="79">
-        <v>0</v>
-      </c>
-      <c r="BP23" s="79" t="b">
-        <v>1</v>
-      </c>
-      <c r="BQ23" s="84" t="s">
-        <v>106</v>
-      </c>
-      <c r="BR23" s="85" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="24" spans="2:70" s="6" customFormat="1" ht="43" customHeight="1">
-      <c r="AF24" s="70" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="25" spans="2:70" s="6" customFormat="1" ht="43" customHeight="1">
-      <c r="AQ25" s="69" t="s">
-        <v>341</v>
-      </c>
-      <c r="AS25" s="69" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="26" spans="2:70" s="6" customFormat="1" ht="43" customHeight="1"/>
-    <row r="27" spans="2:70" s="6" customFormat="1" ht="43" customHeight="1"/>
-    <row r="28" spans="2:70" s="6" customFormat="1" ht="43" customHeight="1"/>
-  </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="Z19:AC19"/>
-    <mergeCell ref="W19:Y19"/>
-    <mergeCell ref="BC17:BI17"/>
-    <mergeCell ref="BJ16:BR16"/>
-    <mergeCell ref="BO17:BQ17"/>
-    <mergeCell ref="E16:AD16"/>
-    <mergeCell ref="AM16:AS16"/>
-    <mergeCell ref="AE16:AL16"/>
-    <mergeCell ref="AY17:BB17"/>
-    <mergeCell ref="P17:AC17"/>
-    <mergeCell ref="S18:AC18"/>
-    <mergeCell ref="AJ17:AL17"/>
-    <mergeCell ref="AE17:AI17"/>
-    <mergeCell ref="AT17:AV17"/>
-    <mergeCell ref="E13:BR13"/>
-    <mergeCell ref="AT16:BI16"/>
-    <mergeCell ref="I17:O17"/>
-    <mergeCell ref="AW17:AX17"/>
-    <mergeCell ref="AO17:AS17"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/docs/session_variables.xlsx
+++ b/docs/session_variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robhay/git_repo/share_screener/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474BCC5C-6A2C-3448-829D-2F57C4DAD29A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D4FD93-B9C1-3143-B76E-C9F9AD5AFE95}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="500" windowWidth="25600" windowHeight="14500" activeTab="1" xr2:uid="{EB3C945B-FE01-FA47-AE59-A0DC3CDF521B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14500" xr2:uid="{EB3C945B-FE01-FA47-AE59-A0DC3CDF521B}"/>
   </bookViews>
   <sheets>
     <sheet name="Application Structure (2)" sheetId="10" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2014" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2016" uniqueCount="612">
   <si>
     <t>chart_colours</t>
   </si>
@@ -2280,6 +2280,12 @@
   </si>
   <si>
     <t>shoul be widgets</t>
+  </si>
+  <si>
+    <t>This will include the dataframes and the column status and the dataframe status</t>
+  </si>
+  <si>
+    <t>might be able to remove this one</t>
   </si>
 </sst>
 </file>
@@ -3004,7 +3010,7 @@
     <xf numFmtId="43" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="425">
+  <cellXfs count="432">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4019,6 +4025,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4031,12 +4040,18 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="58" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4106,24 +4121,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4183,6 +4180,36 @@
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4388,358 +4415,6 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>Ticker Index</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Rectangle 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAED6741-B8D6-4E4F-99DB-8B863BDB231A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8267700" y="355600"/>
-          <a:ext cx="4279900" cy="1054100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="7030A0"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Apps</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>(single, screener, intraday)</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Rectangle 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52136218-B114-8145-9504-DA3E8E555742}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8293100" y="3302000"/>
-          <a:ext cx="4254500" cy="520700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="7030A0"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Ticker</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> List</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>(list of selected Tickers for app)</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Rectangle 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3672E898-7CEE-3145-8372-CCB797AC1D28}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8280400" y="1460500"/>
-          <a:ext cx="2273300" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Config</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Rectangle 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94E58870-0488-6243-AA2D-30280F4CE05F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8293100" y="2184400"/>
-          <a:ext cx="4254500" cy="1028700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="7030A0"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Ticker Selectors</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Rectangle 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93ADA72F-C282-8B45-A9B1-377309A11040}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10604500" y="1460500"/>
-          <a:ext cx="1917700" cy="584200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Search Results</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5349,15 +5024,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5372,8 +5047,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14465300" y="2781300"/>
-          <a:ext cx="3378200" cy="520700"/>
+          <a:off x="14490700" y="3022600"/>
+          <a:ext cx="2768600" cy="520700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5423,7 +5098,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:colOff>635000</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -5441,7 +5116,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15989300" y="812800"/>
-          <a:ext cx="977900" cy="520700"/>
+          <a:ext cx="1155700" cy="520700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5491,9 +5166,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5509,7 +5184,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14452600" y="800100"/>
-          <a:ext cx="1231900" cy="1130300"/>
+          <a:ext cx="1422400" cy="1206500"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5635,16 +5310,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5659,7 +5334,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17119600" y="1422400"/>
+          <a:off x="15621000" y="2197100"/>
           <a:ext cx="660400" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -5704,15 +5379,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5730,8 +5405,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="15186025" y="1812925"/>
-          <a:ext cx="850900" cy="1085850"/>
+          <a:off x="15011400" y="2159000"/>
+          <a:ext cx="1016000" cy="711200"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -5762,15 +5437,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5785,8 +5460,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16002000" y="1587500"/>
-          <a:ext cx="977900" cy="533400"/>
+          <a:off x="15989300" y="1460500"/>
+          <a:ext cx="1168400" cy="533400"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5830,15 +5505,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>806450</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5856,8 +5531,122 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="15992475" y="2282825"/>
-          <a:ext cx="660400" cy="336550"/>
+          <a:off x="15709900" y="2159000"/>
+          <a:ext cx="1028700" cy="698500"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Elbow Connector 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{114A1E03-F3E2-AE4D-9165-03430541E8F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="26" idx="2"/>
+          <a:endCxn id="33" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="16506825" y="1393825"/>
+          <a:ext cx="127000" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="Elbow Connector 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A00101B8-BD77-AF47-AB51-7F020F0EE8FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="27" idx="2"/>
+          <a:endCxn id="29" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="15462250" y="1708150"/>
+          <a:ext cx="190500" cy="787400"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -5888,94 +5677,38 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>793750</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>806450</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="37" name="Elbow Connector 36">
+        <xdr:cNvPr id="63" name="Elbow Connector 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{114A1E03-F3E2-AE4D-9165-03430541E8F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D2AAB6E-906A-FE4F-BEDE-7FC971739F25}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="26" idx="2"/>
-          <a:endCxn id="33" idx="0"/>
+          <a:stCxn id="33" idx="2"/>
+          <a:endCxn id="29" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="16357600" y="1454150"/>
-          <a:ext cx="254000" cy="12700"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="45" name="Elbow Connector 44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A00101B8-BD77-AF47-AB51-7F020F0EE8FC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="27" idx="2"/>
-          <a:endCxn id="29" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="16227425" y="771525"/>
-          <a:ext cx="63500" cy="2381250"/>
+        <a:xfrm rot="5400000">
+          <a:off x="16160750" y="1784350"/>
+          <a:ext cx="203200" cy="622300"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 460000"/>
+            <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -6001,58 +5734,375 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="63" name="Elbow Connector 62">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="109" name="Rounded Rectangle 108">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D2AAB6E-906A-FE4F-BEDE-7FC971739F25}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{079DC555-4BB1-894A-9B9E-877366A6D344}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="33" idx="3"/>
-          <a:endCxn id="29" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="16979900" y="1708150"/>
-          <a:ext cx="139700" cy="146050"/>
+        <a:xfrm>
+          <a:off x="17754600" y="254000"/>
+          <a:ext cx="2705100" cy="647700"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
+        <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
         </a:lnRef>
-        <a:fillRef idx="0">
+        <a:fillRef idx="1">
           <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
-    </xdr:cxnSp>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Apps</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(single, screener, intraday)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="110" name="Rounded Rectangle 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37FFC2D1-A46C-2943-ABF6-963534CA788D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17703800" y="1028700"/>
+          <a:ext cx="1587500" cy="558800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Config</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="111" name="Rounded Rectangle 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4426E487-C44B-0044-AF70-2D9E7E617A4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19392900" y="1028700"/>
+          <a:ext cx="1574800" cy="584200"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Search</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Results</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="112" name="Rounded Rectangle 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF66E79A-CFA0-4D48-A325-7EC954927411}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17678400" y="1765300"/>
+          <a:ext cx="3340100" cy="1041400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Selectors</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>( for Ticker(s) )</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="113" name="Rounded Rectangle 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C0B758D-6FFB-114C-BEF5-70DA154EAB70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17703800" y="2933700"/>
+          <a:ext cx="3378200" cy="1041400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Ticker List</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>( list of selected tickers for each App)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6357,17 +6407,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4BE9BCD-FFB7-0845-95F9-377ADF3DB526}">
   <dimension ref="A1:T112"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C75" sqref="C75:D79"/>
+      <selection pane="bottomRight" activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="4.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="20.5" style="374" customWidth="1"/>
+    <col min="2" max="2" width="20.5" style="376" customWidth="1"/>
     <col min="3" max="3" width="9" style="70" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" style="70" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.1640625" style="70" customWidth="1"/>
@@ -6399,22 +6449,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="59" customHeight="1">
-      <c r="A1" s="421" t="s">
+      <c r="A1" s="418" t="s">
         <v>480</v>
       </c>
-      <c r="B1" s="422"/>
-      <c r="C1" s="422"/>
-      <c r="D1" s="422"/>
-      <c r="E1" s="422"/>
-      <c r="F1" s="422"/>
-      <c r="G1" s="422"/>
-      <c r="H1" s="422"/>
-      <c r="J1" s="419" t="s">
+      <c r="B1" s="419"/>
+      <c r="C1" s="419"/>
+      <c r="D1" s="419"/>
+      <c r="E1" s="419"/>
+      <c r="F1" s="419"/>
+      <c r="G1" s="419"/>
+      <c r="H1" s="419"/>
+      <c r="J1" s="416" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="2" spans="1:20">
-      <c r="J2" s="420" t="s">
+      <c r="J2" s="417" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6449,39 +6499,39 @@
       </c>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="370"/>
-      <c r="B4" s="375"/>
-      <c r="C4" s="378"/>
-      <c r="D4" s="378"/>
-      <c r="E4" s="378"/>
-      <c r="F4" s="378"/>
-      <c r="G4" s="378"/>
-      <c r="H4" s="378"/>
-      <c r="I4" s="378"/>
-      <c r="J4" s="378"/>
+      <c r="A4" s="371"/>
+      <c r="B4" s="377"/>
+      <c r="C4" s="381"/>
+      <c r="D4" s="381"/>
+      <c r="E4" s="381"/>
+      <c r="F4" s="381"/>
+      <c r="G4" s="381"/>
+      <c r="H4" s="381"/>
+      <c r="I4" s="381"/>
+      <c r="J4" s="381"/>
       <c r="K4" s="6"/>
-      <c r="L4" s="370"/>
-      <c r="M4" s="370"/>
-      <c r="N4" s="370"/>
-      <c r="O4" s="370"/>
-      <c r="P4" s="370"/>
-      <c r="Q4" s="370"/>
-      <c r="R4" s="370"/>
-      <c r="S4" s="370"/>
-      <c r="T4" s="370"/>
+      <c r="L4" s="371"/>
+      <c r="M4" s="371"/>
+      <c r="N4" s="371"/>
+      <c r="O4" s="371"/>
+      <c r="P4" s="371"/>
+      <c r="Q4" s="371"/>
+      <c r="R4" s="371"/>
+      <c r="S4" s="371"/>
+      <c r="T4" s="371"/>
     </row>
     <row r="5" spans="1:20" ht="31" customHeight="1">
-      <c r="B5" s="393" t="s">
+      <c r="B5" s="396" t="s">
         <v>289</v>
       </c>
-      <c r="C5" s="379"/>
-      <c r="D5" s="379"/>
-      <c r="E5" s="379"/>
-      <c r="F5" s="379"/>
-      <c r="G5" s="379"/>
-      <c r="H5" s="379"/>
-      <c r="I5" s="379"/>
-      <c r="J5" s="379"/>
+      <c r="C5" s="382"/>
+      <c r="D5" s="382"/>
+      <c r="E5" s="382"/>
+      <c r="F5" s="382"/>
+      <c r="G5" s="382"/>
+      <c r="H5" s="382"/>
+      <c r="I5" s="382"/>
+      <c r="J5" s="382"/>
       <c r="K5" s="6"/>
       <c r="L5" s="133" t="s">
         <v>96</v>
@@ -6492,40 +6542,40 @@
       <c r="N5" s="11"/>
     </row>
     <row r="6" spans="1:20" ht="31" customHeight="1">
-      <c r="B6" s="376" t="s">
+      <c r="B6" s="429" t="s">
         <v>263</v>
       </c>
-      <c r="C6" s="391" t="s">
+      <c r="C6" s="370" t="s">
         <v>286</v>
       </c>
-      <c r="D6" s="391"/>
-      <c r="E6" s="380"/>
-      <c r="F6" s="380"/>
-      <c r="G6" s="380"/>
-      <c r="H6" s="380"/>
-      <c r="I6" s="380"/>
-      <c r="J6" s="380"/>
+      <c r="D6" s="370"/>
+      <c r="E6" s="383"/>
+      <c r="F6" s="383"/>
+      <c r="G6" s="383"/>
+      <c r="H6" s="383"/>
+      <c r="I6" s="383"/>
+      <c r="J6" s="383"/>
       <c r="K6" s="6"/>
       <c r="L6" s="133" t="s">
         <v>434</v>
       </c>
-      <c r="M6" s="373" t="s">
+      <c r="M6" s="374" t="s">
         <v>100</v>
       </c>
       <c r="N6" s="11"/>
     </row>
     <row r="7" spans="1:20" ht="31" customHeight="1">
-      <c r="B7" s="376"/>
-      <c r="C7" s="391" t="s">
+      <c r="B7" s="430"/>
+      <c r="C7" s="370" t="s">
         <v>285</v>
       </c>
-      <c r="D7" s="391"/>
-      <c r="E7" s="380"/>
-      <c r="F7" s="380"/>
-      <c r="G7" s="380"/>
-      <c r="H7" s="380"/>
-      <c r="I7" s="380"/>
-      <c r="J7" s="380"/>
+      <c r="D7" s="370"/>
+      <c r="E7" s="383"/>
+      <c r="F7" s="383"/>
+      <c r="G7" s="383"/>
+      <c r="H7" s="383"/>
+      <c r="I7" s="383"/>
+      <c r="J7" s="383"/>
       <c r="K7" s="6"/>
       <c r="L7" s="133" t="s">
         <v>98</v>
@@ -6536,17 +6586,17 @@
       <c r="N7" s="11"/>
     </row>
     <row r="8" spans="1:20" ht="31" customHeight="1">
-      <c r="B8" s="376"/>
-      <c r="C8" s="391" t="s">
+      <c r="B8" s="430"/>
+      <c r="C8" s="370" t="s">
         <v>288</v>
       </c>
-      <c r="D8" s="391"/>
-      <c r="E8" s="380"/>
-      <c r="F8" s="380"/>
-      <c r="G8" s="380"/>
-      <c r="H8" s="380"/>
-      <c r="I8" s="380"/>
-      <c r="J8" s="380"/>
+      <c r="D8" s="370"/>
+      <c r="E8" s="383"/>
+      <c r="F8" s="383"/>
+      <c r="G8" s="383"/>
+      <c r="H8" s="383"/>
+      <c r="I8" s="383"/>
+      <c r="J8" s="383"/>
       <c r="K8" s="6"/>
       <c r="L8" s="133" t="s">
         <v>434</v>
@@ -6557,19 +6607,19 @@
       <c r="N8" s="11"/>
     </row>
     <row r="9" spans="1:20" ht="31" customHeight="1">
-      <c r="B9" s="376"/>
-      <c r="C9" s="372" t="s">
+      <c r="B9" s="430"/>
+      <c r="C9" s="375" t="s">
         <v>262</v>
       </c>
-      <c r="D9" s="372"/>
-      <c r="E9" s="382" t="s">
+      <c r="D9" s="375"/>
+      <c r="E9" s="385" t="s">
         <v>375</v>
       </c>
-      <c r="F9" s="382"/>
-      <c r="G9" s="380"/>
-      <c r="H9" s="380"/>
-      <c r="I9" s="380"/>
-      <c r="J9" s="380"/>
+      <c r="F9" s="385"/>
+      <c r="G9" s="383"/>
+      <c r="H9" s="383"/>
+      <c r="I9" s="383"/>
+      <c r="J9" s="383"/>
       <c r="K9" s="6"/>
       <c r="L9" s="133" t="s">
         <v>96</v>
@@ -6578,19 +6628,22 @@
         <v>0</v>
       </c>
       <c r="N9" s="11"/>
+      <c r="O9" s="4" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="10" spans="1:20" ht="31" customHeight="1">
-      <c r="B10" s="376"/>
-      <c r="C10" s="372"/>
-      <c r="D10" s="372"/>
-      <c r="E10" s="382" t="s">
+      <c r="B10" s="430"/>
+      <c r="C10" s="375"/>
+      <c r="D10" s="375"/>
+      <c r="E10" s="385" t="s">
         <v>267</v>
       </c>
-      <c r="F10" s="382"/>
-      <c r="G10" s="380"/>
-      <c r="H10" s="380"/>
-      <c r="I10" s="380"/>
-      <c r="J10" s="380"/>
+      <c r="F10" s="385"/>
+      <c r="G10" s="383"/>
+      <c r="H10" s="383"/>
+      <c r="I10" s="383"/>
+      <c r="J10" s="383"/>
       <c r="K10" s="6"/>
       <c r="L10" s="133" t="s">
         <v>91</v>
@@ -6601,17 +6654,17 @@
       <c r="N10" s="11"/>
     </row>
     <row r="11" spans="1:20" ht="31" customHeight="1">
-      <c r="B11" s="376"/>
-      <c r="C11" s="372"/>
-      <c r="D11" s="372"/>
-      <c r="E11" s="382" t="s">
+      <c r="B11" s="430"/>
+      <c r="C11" s="375"/>
+      <c r="D11" s="375"/>
+      <c r="E11" s="385" t="s">
         <v>268</v>
       </c>
-      <c r="F11" s="382"/>
-      <c r="G11" s="380"/>
-      <c r="H11" s="380"/>
-      <c r="I11" s="380"/>
-      <c r="J11" s="380"/>
+      <c r="F11" s="385"/>
+      <c r="G11" s="383"/>
+      <c r="H11" s="383"/>
+      <c r="I11" s="383"/>
+      <c r="J11" s="383"/>
       <c r="K11" s="6"/>
       <c r="L11" s="133" t="s">
         <v>91</v>
@@ -6622,17 +6675,17 @@
       <c r="N11" s="11"/>
     </row>
     <row r="12" spans="1:20" ht="31" customHeight="1">
-      <c r="B12" s="376"/>
-      <c r="C12" s="372"/>
-      <c r="D12" s="372"/>
-      <c r="E12" s="382" t="s">
+      <c r="B12" s="430"/>
+      <c r="C12" s="375"/>
+      <c r="D12" s="375"/>
+      <c r="E12" s="385" t="s">
         <v>261</v>
       </c>
-      <c r="F12" s="382"/>
-      <c r="G12" s="380"/>
-      <c r="H12" s="380"/>
-      <c r="I12" s="380"/>
-      <c r="J12" s="380"/>
+      <c r="F12" s="385"/>
+      <c r="G12" s="383"/>
+      <c r="H12" s="383"/>
+      <c r="I12" s="383"/>
+      <c r="J12" s="383"/>
       <c r="K12" s="6"/>
       <c r="L12" s="133" t="s">
         <v>91</v>
@@ -6643,17 +6696,17 @@
       <c r="N12" s="11"/>
     </row>
     <row r="13" spans="1:20" ht="31" customHeight="1">
-      <c r="B13" s="376"/>
-      <c r="C13" s="372"/>
-      <c r="D13" s="372"/>
-      <c r="E13" s="382" t="s">
+      <c r="B13" s="430"/>
+      <c r="C13" s="375"/>
+      <c r="D13" s="375"/>
+      <c r="E13" s="385" t="s">
         <v>269</v>
       </c>
-      <c r="F13" s="382"/>
-      <c r="G13" s="380"/>
-      <c r="H13" s="380"/>
-      <c r="I13" s="380"/>
-      <c r="J13" s="380"/>
+      <c r="F13" s="385"/>
+      <c r="G13" s="383"/>
+      <c r="H13" s="383"/>
+      <c r="I13" s="383"/>
+      <c r="J13" s="383"/>
       <c r="K13" s="6"/>
       <c r="L13" s="133" t="s">
         <v>91</v>
@@ -6664,17 +6717,17 @@
       <c r="N13" s="11"/>
     </row>
     <row r="14" spans="1:20" ht="31" customHeight="1">
-      <c r="B14" s="376"/>
-      <c r="C14" s="372"/>
-      <c r="D14" s="372"/>
-      <c r="E14" s="382" t="s">
+      <c r="B14" s="430"/>
+      <c r="C14" s="375"/>
+      <c r="D14" s="375"/>
+      <c r="E14" s="385" t="s">
         <v>284</v>
       </c>
-      <c r="F14" s="382"/>
-      <c r="G14" s="380"/>
-      <c r="H14" s="380"/>
-      <c r="I14" s="380"/>
-      <c r="J14" s="380"/>
+      <c r="F14" s="385"/>
+      <c r="G14" s="383"/>
+      <c r="H14" s="383"/>
+      <c r="I14" s="383"/>
+      <c r="J14" s="383"/>
       <c r="K14" s="6"/>
       <c r="L14" s="133" t="s">
         <v>91</v>
@@ -6685,17 +6738,17 @@
       <c r="N14" s="11"/>
     </row>
     <row r="15" spans="1:20" ht="31" customHeight="1">
-      <c r="B15" s="376"/>
-      <c r="C15" s="372"/>
-      <c r="D15" s="372"/>
-      <c r="E15" s="382" t="s">
+      <c r="B15" s="431"/>
+      <c r="C15" s="375"/>
+      <c r="D15" s="375"/>
+      <c r="E15" s="385" t="s">
         <v>283</v>
       </c>
-      <c r="F15" s="382"/>
-      <c r="G15" s="380"/>
-      <c r="H15" s="380"/>
-      <c r="I15" s="380"/>
-      <c r="J15" s="380"/>
+      <c r="F15" s="385"/>
+      <c r="G15" s="383"/>
+      <c r="H15" s="383"/>
+      <c r="I15" s="383"/>
+      <c r="J15" s="383"/>
       <c r="K15" s="6"/>
       <c r="L15" s="133" t="s">
         <v>91</v>
@@ -6706,216 +6759,188 @@
       <c r="N15" s="11"/>
     </row>
     <row r="16" spans="1:20" ht="31" customHeight="1">
-      <c r="B16" s="376"/>
-      <c r="C16" s="365" t="s">
-        <v>502</v>
-      </c>
-      <c r="D16" s="391" t="s">
-        <v>429</v>
-      </c>
-      <c r="E16" s="382" t="s">
-        <v>431</v>
-      </c>
-      <c r="F16" s="382"/>
-      <c r="G16" s="380"/>
-      <c r="H16" s="380"/>
-      <c r="I16" s="380"/>
-      <c r="J16" s="380"/>
+      <c r="B16" s="378" t="s">
+        <v>258</v>
+      </c>
+      <c r="C16" s="375" t="s">
+        <v>275</v>
+      </c>
+      <c r="D16" s="375"/>
+      <c r="E16" s="385" t="s">
+        <v>258</v>
+      </c>
+      <c r="F16" s="385"/>
+      <c r="G16" s="383"/>
+      <c r="H16" s="383"/>
+      <c r="I16" s="383"/>
+      <c r="J16" s="383"/>
       <c r="K16" s="6"/>
       <c r="L16" s="133" t="s">
-        <v>91</v>
-      </c>
-      <c r="M16" s="138" t="s">
-        <v>438</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="M16" s="11"/>
       <c r="N16" s="11"/>
     </row>
     <row r="17" spans="2:14" ht="31" customHeight="1">
-      <c r="B17" s="376"/>
-      <c r="C17" s="365"/>
-      <c r="D17" s="391"/>
-      <c r="E17" s="382" t="s">
-        <v>395</v>
-      </c>
-      <c r="F17" s="382"/>
-      <c r="G17" s="380"/>
-      <c r="H17" s="380"/>
-      <c r="I17" s="380"/>
-      <c r="J17" s="380"/>
-      <c r="K17" s="6"/>
+      <c r="B17" s="378"/>
+      <c r="C17" s="375"/>
+      <c r="D17" s="375"/>
+      <c r="E17" s="385" t="s">
+        <v>274</v>
+      </c>
+      <c r="F17" s="385"/>
+      <c r="G17" s="383"/>
+      <c r="H17" s="383"/>
+      <c r="I17" s="383"/>
+      <c r="J17" s="383"/>
       <c r="L17" s="133" t="s">
-        <v>91</v>
-      </c>
-      <c r="M17" s="138" t="s">
-        <v>592</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="M17" s="11"/>
       <c r="N17" s="11"/>
     </row>
     <row r="18" spans="2:14" ht="31" customHeight="1">
-      <c r="B18" s="376"/>
-      <c r="C18" s="365"/>
-      <c r="D18" s="391"/>
-      <c r="E18" s="365" t="s">
-        <v>499</v>
-      </c>
-      <c r="F18" s="398" t="s">
-        <v>445</v>
-      </c>
-      <c r="G18" s="365" t="s">
-        <v>263</v>
-      </c>
-      <c r="H18" s="381" t="s">
-        <v>136</v>
-      </c>
-      <c r="I18" s="364"/>
-      <c r="J18" s="364"/>
-      <c r="K18" s="6"/>
+      <c r="B18" s="378"/>
+      <c r="C18" s="375"/>
+      <c r="D18" s="375"/>
+      <c r="E18" s="385" t="s">
+        <v>277</v>
+      </c>
+      <c r="F18" s="385"/>
+      <c r="G18" s="383"/>
+      <c r="H18" s="383"/>
+      <c r="I18" s="383"/>
+      <c r="J18" s="383"/>
       <c r="L18" s="133" t="s">
-        <v>96</v>
-      </c>
-      <c r="M18" s="116" t="s">
-        <v>411</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="M18" s="11"/>
       <c r="N18" s="11"/>
     </row>
     <row r="19" spans="2:14" ht="31" customHeight="1">
-      <c r="B19" s="376"/>
-      <c r="C19" s="365"/>
-      <c r="D19" s="391"/>
-      <c r="E19" s="365"/>
-      <c r="F19" s="398"/>
-      <c r="G19" s="365"/>
-      <c r="H19" s="381" t="s">
-        <v>137</v>
-      </c>
-      <c r="I19" s="364"/>
-      <c r="J19" s="364"/>
-      <c r="K19" s="6"/>
+      <c r="B19" s="378"/>
+      <c r="C19" s="375"/>
+      <c r="D19" s="375"/>
+      <c r="E19" s="385" t="s">
+        <v>261</v>
+      </c>
+      <c r="F19" s="385"/>
+      <c r="G19" s="383"/>
+      <c r="H19" s="383"/>
+      <c r="I19" s="383"/>
+      <c r="J19" s="383"/>
       <c r="L19" s="133" t="s">
-        <v>434</v>
+        <v>113</v>
       </c>
       <c r="M19" s="11"/>
-      <c r="N19" s="175" t="s">
-        <v>436</v>
-      </c>
+      <c r="N19" s="11"/>
     </row>
     <row r="20" spans="2:14" ht="31" customHeight="1">
-      <c r="B20" s="376"/>
-      <c r="C20" s="365"/>
-      <c r="D20" s="391"/>
-      <c r="E20" s="365"/>
-      <c r="F20" s="398"/>
-      <c r="G20" s="365"/>
-      <c r="H20" s="382" t="s">
-        <v>426</v>
-      </c>
-      <c r="I20" s="413" t="s">
-        <v>141</v>
-      </c>
-      <c r="J20" s="414"/>
-      <c r="K20" s="6"/>
+      <c r="B20" s="378"/>
+      <c r="C20" s="375"/>
+      <c r="D20" s="375"/>
+      <c r="E20" s="385" t="s">
+        <v>273</v>
+      </c>
+      <c r="F20" s="385"/>
+      <c r="G20" s="383"/>
+      <c r="H20" s="383"/>
+      <c r="I20" s="383"/>
+      <c r="J20" s="383"/>
       <c r="L20" s="133" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="M20" s="11"/>
-      <c r="N20" s="141" t="s">
-        <v>244</v>
-      </c>
+      <c r="N20" s="11"/>
     </row>
     <row r="21" spans="2:14" ht="31" customHeight="1">
-      <c r="B21" s="376"/>
-      <c r="C21" s="365"/>
-      <c r="D21" s="391"/>
-      <c r="E21" s="365"/>
-      <c r="F21" s="398"/>
-      <c r="G21" s="365"/>
-      <c r="H21" s="382"/>
-      <c r="I21" s="411" t="s">
-        <v>146</v>
-      </c>
-      <c r="J21" s="412"/>
-      <c r="K21" s="6"/>
+      <c r="B21" s="378"/>
+      <c r="C21" s="375" t="s">
+        <v>276</v>
+      </c>
+      <c r="D21" s="375"/>
+      <c r="E21" s="385" t="s">
+        <v>508</v>
+      </c>
+      <c r="F21" s="385"/>
+      <c r="G21" s="383"/>
+      <c r="H21" s="383"/>
+      <c r="I21" s="383"/>
+      <c r="J21" s="383"/>
       <c r="L21" s="133" t="s">
-        <v>434</v>
+        <v>97</v>
       </c>
       <c r="M21" s="11"/>
-      <c r="N21" s="175" t="s">
-        <v>245</v>
-      </c>
+      <c r="N21" s="11"/>
     </row>
     <row r="22" spans="2:14" ht="31" customHeight="1">
-      <c r="B22" s="376"/>
-      <c r="C22" s="365"/>
-      <c r="D22" s="391"/>
-      <c r="E22" s="365"/>
-      <c r="F22" s="398"/>
-      <c r="G22" s="365"/>
-      <c r="H22" s="382"/>
-      <c r="I22" s="411" t="s">
-        <v>408</v>
-      </c>
-      <c r="J22" s="412"/>
-      <c r="K22" s="6"/>
+      <c r="B22" s="378"/>
+      <c r="C22" s="375"/>
+      <c r="D22" s="375"/>
+      <c r="E22" s="385" t="s">
+        <v>272</v>
+      </c>
+      <c r="F22" s="385"/>
+      <c r="G22" s="383"/>
+      <c r="H22" s="383"/>
+      <c r="I22" s="383"/>
+      <c r="J22" s="383"/>
       <c r="L22" s="133" t="s">
-        <v>434</v>
-      </c>
-      <c r="M22" s="11"/>
-      <c r="N22" s="175" t="s">
-        <v>246</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="M22" s="175" t="s">
+        <v>114</v>
+      </c>
+      <c r="N22" s="11"/>
     </row>
     <row r="23" spans="2:14" ht="31" customHeight="1">
-      <c r="B23" s="376"/>
-      <c r="C23" s="365"/>
-      <c r="D23" s="391"/>
-      <c r="E23" s="365"/>
-      <c r="F23" s="398"/>
-      <c r="G23" s="365"/>
-      <c r="H23" s="382"/>
-      <c r="I23" s="411" t="s">
-        <v>409</v>
-      </c>
-      <c r="J23" s="412"/>
-      <c r="K23" s="6"/>
+      <c r="B23" s="378"/>
+      <c r="C23" s="375"/>
+      <c r="D23" s="375"/>
+      <c r="E23" s="385" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="385"/>
+      <c r="G23" s="383"/>
+      <c r="H23" s="383"/>
+      <c r="I23" s="383"/>
+      <c r="J23" s="383"/>
       <c r="L23" s="133" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="M23" s="11"/>
-      <c r="N23" s="68">
-        <v>4</v>
-      </c>
+      <c r="N23" s="11"/>
     </row>
     <row r="24" spans="2:14" ht="31" customHeight="1">
-      <c r="B24" s="376"/>
-      <c r="C24" s="365"/>
-      <c r="D24" s="391"/>
-      <c r="E24" s="365"/>
-      <c r="F24" s="398"/>
-      <c r="G24" s="365"/>
-      <c r="H24" s="382"/>
-      <c r="I24" s="411" t="s">
-        <v>410</v>
-      </c>
-      <c r="J24" s="412"/>
-      <c r="K24" s="6"/>
+      <c r="B24" s="378"/>
+      <c r="C24" s="375"/>
+      <c r="D24" s="375"/>
+      <c r="E24" s="385" t="s">
+        <v>273</v>
+      </c>
+      <c r="F24" s="385"/>
+      <c r="G24" s="383"/>
+      <c r="H24" s="383"/>
+      <c r="I24" s="383"/>
+      <c r="J24" s="383"/>
       <c r="L24" s="133" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="M24" s="11"/>
-      <c r="N24" s="68">
-        <v>10</v>
-      </c>
+      <c r="N24" s="11"/>
     </row>
     <row r="25" spans="2:14" ht="31" customHeight="1">
-      <c r="B25" s="376"/>
-      <c r="C25" s="365"/>
-      <c r="D25" s="391" t="s">
-        <v>430</v>
-      </c>
-      <c r="E25" s="382" t="s">
-        <v>379</v>
-      </c>
-      <c r="F25" s="382"/>
+      <c r="B25" s="428"/>
+      <c r="C25" s="365" t="s">
+        <v>502</v>
+      </c>
+      <c r="D25" s="394" t="s">
+        <v>429</v>
+      </c>
+      <c r="E25" s="385" t="s">
+        <v>431</v>
+      </c>
+      <c r="F25" s="385"/>
       <c r="G25" s="383"/>
       <c r="H25" s="383"/>
       <c r="I25" s="383"/>
@@ -6924,649 +6949,677 @@
       <c r="L25" s="133" t="s">
         <v>91</v>
       </c>
-      <c r="M25" s="177"/>
-      <c r="N25" s="138" t="s">
-        <v>440</v>
-      </c>
+      <c r="M25" s="138" t="s">
+        <v>438</v>
+      </c>
+      <c r="N25" s="11"/>
     </row>
     <row r="26" spans="2:14" ht="31" customHeight="1">
-      <c r="B26" s="376"/>
+      <c r="B26" s="428"/>
       <c r="C26" s="365"/>
-      <c r="D26" s="391"/>
-      <c r="E26" s="382" t="s">
-        <v>279</v>
-      </c>
-      <c r="F26" s="382"/>
+      <c r="D26" s="394"/>
+      <c r="E26" s="385" t="s">
+        <v>395</v>
+      </c>
+      <c r="F26" s="385"/>
       <c r="G26" s="383"/>
       <c r="H26" s="383"/>
       <c r="I26" s="383"/>
       <c r="J26" s="383"/>
       <c r="K26" s="6"/>
       <c r="L26" s="133" t="s">
-        <v>90</v>
-      </c>
-      <c r="M26" s="116">
-        <v>500</v>
+        <v>91</v>
+      </c>
+      <c r="M26" s="138" t="s">
+        <v>592</v>
       </c>
       <c r="N26" s="11"/>
     </row>
     <row r="27" spans="2:14" ht="31" customHeight="1">
-      <c r="B27" s="376"/>
+      <c r="B27" s="428"/>
       <c r="C27" s="365"/>
-      <c r="D27" s="391"/>
-      <c r="E27" s="382" t="s">
-        <v>507</v>
-      </c>
-      <c r="F27" s="382"/>
-      <c r="G27" s="383"/>
-      <c r="H27" s="383"/>
-      <c r="I27" s="383"/>
-      <c r="J27" s="383"/>
+      <c r="D27" s="394"/>
+      <c r="E27" s="365" t="s">
+        <v>499</v>
+      </c>
+      <c r="F27" s="401" t="s">
+        <v>445</v>
+      </c>
+      <c r="G27" s="365" t="s">
+        <v>263</v>
+      </c>
+      <c r="H27" s="384" t="s">
+        <v>136</v>
+      </c>
+      <c r="I27" s="364"/>
+      <c r="J27" s="364"/>
       <c r="K27" s="6"/>
       <c r="L27" s="133" t="s">
-        <v>90</v>
-      </c>
-      <c r="M27" s="116">
-        <v>500</v>
+        <v>96</v>
+      </c>
+      <c r="M27" s="116" t="s">
+        <v>411</v>
       </c>
       <c r="N27" s="11"/>
     </row>
     <row r="28" spans="2:14" ht="31" customHeight="1">
-      <c r="B28" s="376"/>
+      <c r="B28" s="428"/>
       <c r="C28" s="365"/>
-      <c r="D28" s="391"/>
-      <c r="E28" s="382" t="s">
-        <v>399</v>
-      </c>
-      <c r="F28" s="382"/>
-      <c r="G28" s="383"/>
-      <c r="H28" s="383"/>
-      <c r="I28" s="383"/>
-      <c r="J28" s="383"/>
+      <c r="D28" s="394"/>
+      <c r="E28" s="365"/>
+      <c r="F28" s="401"/>
+      <c r="G28" s="365"/>
+      <c r="H28" s="384" t="s">
+        <v>137</v>
+      </c>
+      <c r="I28" s="364"/>
+      <c r="J28" s="364"/>
       <c r="K28" s="6"/>
       <c r="L28" s="133" t="s">
-        <v>91</v>
-      </c>
-      <c r="M28" s="138" t="s">
-        <v>593</v>
-      </c>
-      <c r="N28" s="11"/>
+        <v>434</v>
+      </c>
+      <c r="M28" s="11"/>
+      <c r="N28" s="175" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="29" spans="2:14" ht="31" customHeight="1">
-      <c r="B29" s="376"/>
+      <c r="B29" s="428"/>
       <c r="C29" s="365"/>
-      <c r="D29" s="391"/>
-      <c r="E29" s="365" t="s">
-        <v>500</v>
-      </c>
-      <c r="F29" s="398" t="s">
-        <v>444</v>
-      </c>
-      <c r="G29" s="365" t="s">
-        <v>263</v>
-      </c>
-      <c r="H29" s="384" t="s">
-        <v>136</v>
-      </c>
-      <c r="I29" s="364"/>
-      <c r="J29" s="364"/>
+      <c r="D29" s="394"/>
+      <c r="E29" s="365"/>
+      <c r="F29" s="401"/>
+      <c r="G29" s="365"/>
+      <c r="H29" s="385" t="s">
+        <v>426</v>
+      </c>
+      <c r="I29" s="410" t="s">
+        <v>141</v>
+      </c>
+      <c r="J29" s="411"/>
       <c r="K29" s="6"/>
       <c r="L29" s="133" t="s">
-        <v>122</v>
-      </c>
-      <c r="M29" s="116" t="s">
-        <v>411</v>
-      </c>
-      <c r="N29" s="11"/>
+        <v>141</v>
+      </c>
+      <c r="M29" s="11"/>
+      <c r="N29" s="141" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="30" spans="2:14" ht="31" customHeight="1">
-      <c r="B30" s="376"/>
+      <c r="B30" s="428"/>
       <c r="C30" s="365"/>
-      <c r="D30" s="391"/>
+      <c r="D30" s="394"/>
       <c r="E30" s="365"/>
-      <c r="F30" s="398"/>
+      <c r="F30" s="401"/>
       <c r="G30" s="365"/>
-      <c r="H30" s="384" t="s">
-        <v>137</v>
-      </c>
-      <c r="I30" s="364"/>
-      <c r="J30" s="364"/>
+      <c r="H30" s="385"/>
+      <c r="I30" s="408" t="s">
+        <v>146</v>
+      </c>
+      <c r="J30" s="409"/>
       <c r="K30" s="6"/>
       <c r="L30" s="133" t="s">
         <v>434</v>
       </c>
       <c r="M30" s="11"/>
       <c r="N30" s="175" t="s">
-        <v>150</v>
+        <v>245</v>
       </c>
     </row>
     <row r="31" spans="2:14" ht="31" customHeight="1">
-      <c r="B31" s="376"/>
+      <c r="B31" s="428"/>
       <c r="C31" s="365"/>
-      <c r="D31" s="391"/>
+      <c r="D31" s="394"/>
       <c r="E31" s="365"/>
-      <c r="F31" s="398"/>
+      <c r="F31" s="401"/>
       <c r="G31" s="365"/>
-      <c r="H31" s="384" t="s">
-        <v>282</v>
-      </c>
-      <c r="I31" s="364"/>
-      <c r="J31" s="364"/>
+      <c r="H31" s="385"/>
+      <c r="I31" s="408" t="s">
+        <v>408</v>
+      </c>
+      <c r="J31" s="409"/>
       <c r="K31" s="6"/>
       <c r="L31" s="133" t="s">
-        <v>122</v>
+        <v>434</v>
       </c>
       <c r="M31" s="11"/>
-      <c r="N31" s="116" t="b">
-        <v>0</v>
+      <c r="N31" s="175" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="32" spans="2:14" ht="31" customHeight="1">
-      <c r="B32" s="376"/>
+      <c r="B32" s="428"/>
       <c r="C32" s="365"/>
-      <c r="D32" s="391"/>
+      <c r="D32" s="394"/>
       <c r="E32" s="365"/>
-      <c r="F32" s="398"/>
+      <c r="F32" s="401"/>
       <c r="G32" s="365"/>
-      <c r="H32" s="384" t="s">
-        <v>281</v>
-      </c>
-      <c r="I32" s="364"/>
-      <c r="J32" s="364"/>
+      <c r="H32" s="385"/>
+      <c r="I32" s="408" t="s">
+        <v>409</v>
+      </c>
+      <c r="J32" s="409"/>
       <c r="K32" s="6"/>
       <c r="L32" s="133" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="M32" s="11"/>
-      <c r="N32" s="116" t="b">
-        <v>0</v>
+      <c r="N32" s="68">
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="2:14" ht="31" customHeight="1">
-      <c r="B33" s="376"/>
+      <c r="B33" s="428"/>
       <c r="C33" s="365"/>
-      <c r="D33" s="391"/>
+      <c r="D33" s="394"/>
       <c r="E33" s="365"/>
-      <c r="F33" s="398"/>
+      <c r="F33" s="401"/>
       <c r="G33" s="365"/>
-      <c r="H33" s="385" t="s">
-        <v>426</v>
-      </c>
-      <c r="I33" s="385" t="s">
-        <v>141</v>
-      </c>
-      <c r="J33" s="385"/>
+      <c r="H33" s="385"/>
+      <c r="I33" s="408" t="s">
+        <v>410</v>
+      </c>
+      <c r="J33" s="409"/>
       <c r="K33" s="6"/>
       <c r="L33" s="133" t="s">
-        <v>141</v>
+        <v>90</v>
       </c>
       <c r="M33" s="11"/>
-      <c r="N33" s="141" t="s">
-        <v>159</v>
+      <c r="N33" s="68">
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="2:14" ht="31" customHeight="1">
-      <c r="B34" s="376"/>
+      <c r="B34" s="428"/>
       <c r="C34" s="365"/>
-      <c r="D34" s="391"/>
-      <c r="E34" s="365"/>
-      <c r="F34" s="398"/>
-      <c r="G34" s="365"/>
-      <c r="H34" s="385"/>
-      <c r="I34" s="385" t="s">
-        <v>146</v>
-      </c>
-      <c r="J34" s="385"/>
+      <c r="D34" s="394" t="s">
+        <v>430</v>
+      </c>
+      <c r="E34" s="385" t="s">
+        <v>379</v>
+      </c>
+      <c r="F34" s="385"/>
+      <c r="G34" s="386"/>
+      <c r="H34" s="386"/>
+      <c r="I34" s="386"/>
+      <c r="J34" s="386"/>
       <c r="K34" s="6"/>
       <c r="L34" s="133" t="s">
-        <v>434</v>
-      </c>
-      <c r="M34" s="11"/>
-      <c r="N34" s="175" t="s">
-        <v>160</v>
+        <v>91</v>
+      </c>
+      <c r="M34" s="177"/>
+      <c r="N34" s="138" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="35" spans="2:14" ht="31" customHeight="1">
-      <c r="B35" s="376"/>
+      <c r="B35" s="428"/>
       <c r="C35" s="365"/>
-      <c r="D35" s="391"/>
-      <c r="E35" s="365"/>
-      <c r="F35" s="398"/>
-      <c r="G35" s="365"/>
-      <c r="H35" s="385"/>
-      <c r="I35" s="385" t="s">
-        <v>400</v>
-      </c>
-      <c r="J35" s="385"/>
+      <c r="D35" s="394"/>
+      <c r="E35" s="385" t="s">
+        <v>279</v>
+      </c>
+      <c r="F35" s="385"/>
+      <c r="G35" s="386"/>
+      <c r="H35" s="386"/>
+      <c r="I35" s="386"/>
+      <c r="J35" s="386"/>
       <c r="K35" s="6"/>
       <c r="L35" s="133" t="s">
         <v>90</v>
       </c>
-      <c r="M35" s="11"/>
-      <c r="N35" s="116">
-        <v>26</v>
-      </c>
+      <c r="M35" s="116">
+        <v>500</v>
+      </c>
+      <c r="N35" s="11"/>
     </row>
     <row r="36" spans="2:14" ht="31" customHeight="1">
-      <c r="B36" s="376"/>
+      <c r="B36" s="428"/>
       <c r="C36" s="365"/>
-      <c r="D36" s="391"/>
-      <c r="E36" s="365"/>
-      <c r="F36" s="398"/>
-      <c r="G36" s="365"/>
-      <c r="H36" s="385"/>
-      <c r="I36" s="385" t="s">
-        <v>401</v>
-      </c>
-      <c r="J36" s="385"/>
+      <c r="D36" s="394"/>
+      <c r="E36" s="385" t="s">
+        <v>507</v>
+      </c>
+      <c r="F36" s="385"/>
+      <c r="G36" s="386"/>
+      <c r="H36" s="386"/>
+      <c r="I36" s="386"/>
+      <c r="J36" s="386"/>
       <c r="K36" s="6"/>
       <c r="L36" s="133" t="s">
         <v>90</v>
       </c>
-      <c r="M36" s="11"/>
-      <c r="N36" s="116">
-        <v>12</v>
-      </c>
+      <c r="M36" s="116">
+        <v>500</v>
+      </c>
+      <c r="N36" s="11"/>
     </row>
     <row r="37" spans="2:14" ht="31" customHeight="1">
-      <c r="B37" s="376"/>
+      <c r="B37" s="428"/>
       <c r="C37" s="365"/>
-      <c r="D37" s="391"/>
-      <c r="E37" s="365"/>
-      <c r="F37" s="398"/>
-      <c r="G37" s="365"/>
-      <c r="H37" s="385" t="s">
-        <v>140</v>
-      </c>
-      <c r="I37" s="385" t="s">
-        <v>141</v>
-      </c>
-      <c r="J37" s="385"/>
+      <c r="D37" s="394"/>
+      <c r="E37" s="385" t="s">
+        <v>399</v>
+      </c>
+      <c r="F37" s="385"/>
+      <c r="G37" s="386"/>
+      <c r="H37" s="386"/>
+      <c r="I37" s="386"/>
+      <c r="J37" s="386"/>
       <c r="K37" s="6"/>
       <c r="L37" s="133" t="s">
-        <v>141</v>
-      </c>
-      <c r="M37" s="11"/>
-      <c r="N37" s="141" t="s">
-        <v>158</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="M37" s="138" t="s">
+        <v>593</v>
+      </c>
+      <c r="N37" s="11"/>
     </row>
     <row r="38" spans="2:14" ht="31" customHeight="1">
-      <c r="B38" s="376"/>
+      <c r="B38" s="428"/>
       <c r="C38" s="365"/>
-      <c r="D38" s="391"/>
-      <c r="E38" s="365"/>
-      <c r="F38" s="398"/>
-      <c r="G38" s="365"/>
-      <c r="H38" s="385"/>
-      <c r="I38" s="385" t="s">
-        <v>142</v>
-      </c>
-      <c r="J38" s="385"/>
+      <c r="D38" s="394"/>
+      <c r="E38" s="365" t="s">
+        <v>500</v>
+      </c>
+      <c r="F38" s="401" t="s">
+        <v>444</v>
+      </c>
+      <c r="G38" s="365" t="s">
+        <v>263</v>
+      </c>
+      <c r="H38" s="387" t="s">
+        <v>136</v>
+      </c>
+      <c r="I38" s="364"/>
+      <c r="J38" s="364"/>
       <c r="K38" s="6"/>
       <c r="L38" s="133" t="s">
-        <v>434</v>
-      </c>
-      <c r="M38" s="11"/>
-      <c r="N38" s="175" t="s">
-        <v>150</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="M38" s="116" t="s">
+        <v>411</v>
+      </c>
+      <c r="N38" s="11"/>
     </row>
     <row r="39" spans="2:14" ht="31" customHeight="1">
-      <c r="B39" s="376"/>
+      <c r="B39" s="428"/>
       <c r="C39" s="365"/>
-      <c r="D39" s="391"/>
+      <c r="D39" s="394"/>
       <c r="E39" s="365"/>
-      <c r="F39" s="398"/>
+      <c r="F39" s="401"/>
       <c r="G39" s="365"/>
-      <c r="H39" s="385"/>
-      <c r="I39" s="385" t="s">
-        <v>143</v>
-      </c>
-      <c r="J39" s="385"/>
+      <c r="H39" s="387" t="s">
+        <v>137</v>
+      </c>
+      <c r="I39" s="364"/>
+      <c r="J39" s="364"/>
       <c r="K39" s="6"/>
       <c r="L39" s="133" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="M39" s="11"/>
-      <c r="N39" s="140" t="s">
-        <v>441</v>
+      <c r="N39" s="175" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="40" spans="2:14" ht="31" customHeight="1">
-      <c r="B40" s="376"/>
+      <c r="B40" s="428"/>
       <c r="C40" s="365"/>
-      <c r="D40" s="391"/>
+      <c r="D40" s="394"/>
       <c r="E40" s="365"/>
-      <c r="F40" s="398"/>
+      <c r="F40" s="401"/>
       <c r="G40" s="365"/>
-      <c r="H40" s="385"/>
-      <c r="I40" s="385" t="s">
-        <v>144</v>
-      </c>
-      <c r="J40" s="385"/>
+      <c r="H40" s="387" t="s">
+        <v>282</v>
+      </c>
+      <c r="I40" s="364"/>
+      <c r="J40" s="364"/>
       <c r="K40" s="6"/>
       <c r="L40" s="133" t="s">
-        <v>434</v>
+        <v>122</v>
       </c>
       <c r="M40" s="11"/>
-      <c r="N40" s="175" t="s">
-        <v>157</v>
+      <c r="N40" s="116" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:14" ht="31" customHeight="1">
-      <c r="B41" s="376"/>
-      <c r="C41" s="372" t="s">
-        <v>28</v>
-      </c>
-      <c r="D41" s="397" t="s">
-        <v>446</v>
-      </c>
-      <c r="E41" s="386"/>
-      <c r="F41" s="386"/>
-      <c r="G41" s="386"/>
-      <c r="H41" s="386"/>
-      <c r="I41" s="386"/>
-      <c r="J41" s="386"/>
+      <c r="B41" s="428"/>
+      <c r="C41" s="365"/>
+      <c r="D41" s="394"/>
+      <c r="E41" s="365"/>
+      <c r="F41" s="401"/>
+      <c r="G41" s="365"/>
+      <c r="H41" s="387" t="s">
+        <v>281</v>
+      </c>
+      <c r="I41" s="364"/>
+      <c r="J41" s="364"/>
       <c r="K41" s="6"/>
       <c r="L41" s="133" t="s">
-        <v>434</v>
-      </c>
-      <c r="M41" s="141" t="s">
-        <v>460</v>
-      </c>
-      <c r="N41" s="11"/>
+        <v>122</v>
+      </c>
+      <c r="M41" s="11"/>
+      <c r="N41" s="116" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="2:14" ht="31" customHeight="1">
-      <c r="B42" s="376"/>
-      <c r="C42" s="372"/>
-      <c r="D42" s="397" t="s">
-        <v>447</v>
-      </c>
-      <c r="E42" s="386"/>
-      <c r="F42" s="386"/>
-      <c r="G42" s="386"/>
-      <c r="H42" s="386"/>
-      <c r="I42" s="386"/>
-      <c r="J42" s="386"/>
+      <c r="B42" s="428"/>
+      <c r="C42" s="365"/>
+      <c r="D42" s="394"/>
+      <c r="E42" s="365"/>
+      <c r="F42" s="401"/>
+      <c r="G42" s="365"/>
+      <c r="H42" s="388" t="s">
+        <v>426</v>
+      </c>
+      <c r="I42" s="388" t="s">
+        <v>141</v>
+      </c>
+      <c r="J42" s="388"/>
       <c r="K42" s="6"/>
       <c r="L42" s="133" t="s">
-        <v>434</v>
-      </c>
-      <c r="M42" s="141" t="s">
-        <v>460</v>
-      </c>
-      <c r="N42" s="11"/>
+        <v>141</v>
+      </c>
+      <c r="M42" s="11"/>
+      <c r="N42" s="141" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="43" spans="2:14" ht="31" customHeight="1">
-      <c r="B43" s="376"/>
-      <c r="C43" s="372"/>
-      <c r="D43" s="397" t="s">
-        <v>448</v>
-      </c>
-      <c r="E43" s="386"/>
-      <c r="F43" s="386"/>
-      <c r="G43" s="386"/>
-      <c r="H43" s="386"/>
-      <c r="I43" s="386"/>
-      <c r="J43" s="386"/>
+      <c r="B43" s="428"/>
+      <c r="C43" s="365"/>
+      <c r="D43" s="394"/>
+      <c r="E43" s="365"/>
+      <c r="F43" s="401"/>
+      <c r="G43" s="365"/>
+      <c r="H43" s="388"/>
+      <c r="I43" s="388" t="s">
+        <v>146</v>
+      </c>
+      <c r="J43" s="388"/>
       <c r="K43" s="6"/>
       <c r="L43" s="133" t="s">
         <v>434</v>
       </c>
-      <c r="M43" s="141" t="s">
-        <v>460</v>
-      </c>
-      <c r="N43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="175" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="44" spans="2:14" ht="31" customHeight="1">
-      <c r="B44" s="376"/>
-      <c r="C44" s="372"/>
-      <c r="D44" s="397" t="s">
-        <v>449</v>
-      </c>
-      <c r="E44" s="386"/>
-      <c r="F44" s="386"/>
-      <c r="G44" s="386"/>
-      <c r="H44" s="386"/>
-      <c r="I44" s="386"/>
-      <c r="J44" s="386"/>
+      <c r="B44" s="428"/>
+      <c r="C44" s="365"/>
+      <c r="D44" s="394"/>
+      <c r="E44" s="365"/>
+      <c r="F44" s="401"/>
+      <c r="G44" s="365"/>
+      <c r="H44" s="388"/>
+      <c r="I44" s="388" t="s">
+        <v>400</v>
+      </c>
+      <c r="J44" s="388"/>
       <c r="K44" s="6"/>
       <c r="L44" s="133" t="s">
         <v>90</v>
       </c>
-      <c r="M44" s="116">
-        <v>0</v>
-      </c>
-      <c r="N44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="116">
+        <v>26</v>
+      </c>
     </row>
     <row r="45" spans="2:14" ht="31" customHeight="1">
-      <c r="B45" s="376"/>
-      <c r="C45" s="372"/>
-      <c r="D45" s="397" t="s">
-        <v>450</v>
-      </c>
-      <c r="E45" s="386"/>
-      <c r="F45" s="386"/>
-      <c r="G45" s="386"/>
-      <c r="H45" s="386"/>
-      <c r="I45" s="386"/>
-      <c r="J45" s="386"/>
+      <c r="B45" s="428"/>
+      <c r="C45" s="365"/>
+      <c r="D45" s="394"/>
+      <c r="E45" s="365"/>
+      <c r="F45" s="401"/>
+      <c r="G45" s="365"/>
+      <c r="H45" s="388"/>
+      <c r="I45" s="388" t="s">
+        <v>401</v>
+      </c>
+      <c r="J45" s="388"/>
       <c r="K45" s="6"/>
       <c r="L45" s="133" t="s">
         <v>90</v>
       </c>
-      <c r="M45" s="116">
-        <v>0</v>
-      </c>
-      <c r="N45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="116">
+        <v>12</v>
+      </c>
     </row>
     <row r="46" spans="2:14" ht="31" customHeight="1">
-      <c r="B46" s="376"/>
-      <c r="C46" s="372"/>
-      <c r="D46" s="397" t="s">
-        <v>451</v>
-      </c>
-      <c r="E46" s="386"/>
-      <c r="F46" s="386"/>
-      <c r="G46" s="386"/>
-      <c r="H46" s="386"/>
-      <c r="I46" s="386"/>
-      <c r="J46" s="386"/>
+      <c r="B46" s="428"/>
+      <c r="C46" s="365"/>
+      <c r="D46" s="394"/>
+      <c r="E46" s="365"/>
+      <c r="F46" s="401"/>
+      <c r="G46" s="365"/>
+      <c r="H46" s="388" t="s">
+        <v>140</v>
+      </c>
+      <c r="I46" s="388" t="s">
+        <v>141</v>
+      </c>
+      <c r="J46" s="388"/>
       <c r="K46" s="6"/>
       <c r="L46" s="133" t="s">
-        <v>90</v>
-      </c>
-      <c r="M46" s="116">
-        <v>0</v>
-      </c>
-      <c r="N46" s="11"/>
+        <v>141</v>
+      </c>
+      <c r="M46" s="11"/>
+      <c r="N46" s="141" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="47" spans="2:14" ht="31" customHeight="1">
-      <c r="B47" s="376" t="s">
-        <v>258</v>
-      </c>
-      <c r="C47" s="372" t="s">
-        <v>275</v>
-      </c>
-      <c r="D47" s="372"/>
-      <c r="E47" s="382" t="s">
-        <v>258</v>
-      </c>
-      <c r="F47" s="382"/>
-      <c r="G47" s="380"/>
-      <c r="H47" s="380"/>
-      <c r="I47" s="380"/>
-      <c r="J47" s="380"/>
+      <c r="B47" s="428"/>
+      <c r="C47" s="365"/>
+      <c r="D47" s="394"/>
+      <c r="E47" s="365"/>
+      <c r="F47" s="401"/>
+      <c r="G47" s="365"/>
+      <c r="H47" s="388"/>
+      <c r="I47" s="388" t="s">
+        <v>142</v>
+      </c>
+      <c r="J47" s="388"/>
       <c r="K47" s="6"/>
       <c r="L47" s="133" t="s">
-        <v>113</v>
+        <v>434</v>
       </c>
       <c r="M47" s="11"/>
-      <c r="N47" s="11"/>
+      <c r="N47" s="175" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="48" spans="2:14" ht="31" customHeight="1">
-      <c r="B48" s="376"/>
-      <c r="C48" s="372"/>
-      <c r="D48" s="372"/>
-      <c r="E48" s="382" t="s">
-        <v>274</v>
-      </c>
-      <c r="F48" s="382"/>
-      <c r="G48" s="380"/>
-      <c r="H48" s="380"/>
-      <c r="I48" s="380"/>
-      <c r="J48" s="380"/>
+      <c r="B48" s="428"/>
+      <c r="C48" s="365"/>
+      <c r="D48" s="394"/>
+      <c r="E48" s="365"/>
+      <c r="F48" s="401"/>
+      <c r="G48" s="365"/>
+      <c r="H48" s="388"/>
+      <c r="I48" s="388" t="s">
+        <v>143</v>
+      </c>
+      <c r="J48" s="388"/>
+      <c r="K48" s="6"/>
       <c r="L48" s="133" t="s">
-        <v>113</v>
+        <v>442</v>
       </c>
       <c r="M48" s="11"/>
-      <c r="N48" s="11"/>
+      <c r="N48" s="140" t="s">
+        <v>441</v>
+      </c>
     </row>
     <row r="49" spans="2:15" ht="31" customHeight="1">
-      <c r="B49" s="376"/>
-      <c r="C49" s="372"/>
-      <c r="D49" s="372"/>
-      <c r="E49" s="382" t="s">
-        <v>277</v>
-      </c>
-      <c r="F49" s="382"/>
-      <c r="G49" s="380"/>
-      <c r="H49" s="380"/>
-      <c r="I49" s="380"/>
-      <c r="J49" s="380"/>
+      <c r="B49" s="428"/>
+      <c r="C49" s="365"/>
+      <c r="D49" s="394"/>
+      <c r="E49" s="365"/>
+      <c r="F49" s="401"/>
+      <c r="G49" s="365"/>
+      <c r="H49" s="388"/>
+      <c r="I49" s="388" t="s">
+        <v>144</v>
+      </c>
+      <c r="J49" s="388"/>
+      <c r="K49" s="6"/>
       <c r="L49" s="133" t="s">
-        <v>113</v>
+        <v>434</v>
       </c>
       <c r="M49" s="11"/>
-      <c r="N49" s="11"/>
+      <c r="N49" s="175" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="50" spans="2:15" ht="31" customHeight="1">
-      <c r="B50" s="376"/>
-      <c r="C50" s="372"/>
-      <c r="D50" s="372"/>
-      <c r="E50" s="382" t="s">
-        <v>261</v>
-      </c>
-      <c r="F50" s="382"/>
-      <c r="G50" s="380"/>
-      <c r="H50" s="380"/>
-      <c r="I50" s="380"/>
-      <c r="J50" s="380"/>
+      <c r="B50" s="428"/>
+      <c r="C50" s="373" t="s">
+        <v>28</v>
+      </c>
+      <c r="D50" s="400" t="s">
+        <v>446</v>
+      </c>
+      <c r="E50" s="389"/>
+      <c r="F50" s="389"/>
+      <c r="G50" s="389"/>
+      <c r="H50" s="389"/>
+      <c r="I50" s="389"/>
+      <c r="J50" s="389"/>
+      <c r="K50" s="6"/>
       <c r="L50" s="133" t="s">
-        <v>113</v>
-      </c>
-      <c r="M50" s="11"/>
+        <v>434</v>
+      </c>
+      <c r="M50" s="141" t="s">
+        <v>460</v>
+      </c>
       <c r="N50" s="11"/>
     </row>
     <row r="51" spans="2:15" ht="31" customHeight="1">
-      <c r="B51" s="376"/>
-      <c r="C51" s="372"/>
-      <c r="D51" s="372"/>
-      <c r="E51" s="382" t="s">
-        <v>273</v>
-      </c>
-      <c r="F51" s="382"/>
-      <c r="G51" s="380"/>
-      <c r="H51" s="380"/>
-      <c r="I51" s="380"/>
-      <c r="J51" s="380"/>
+      <c r="B51" s="428"/>
+      <c r="C51" s="373"/>
+      <c r="D51" s="400" t="s">
+        <v>447</v>
+      </c>
+      <c r="E51" s="389"/>
+      <c r="F51" s="389"/>
+      <c r="G51" s="389"/>
+      <c r="H51" s="389"/>
+      <c r="I51" s="389"/>
+      <c r="J51" s="389"/>
+      <c r="K51" s="6"/>
       <c r="L51" s="133" t="s">
-        <v>113</v>
-      </c>
-      <c r="M51" s="11"/>
+        <v>434</v>
+      </c>
+      <c r="M51" s="141" t="s">
+        <v>460</v>
+      </c>
       <c r="N51" s="11"/>
     </row>
     <row r="52" spans="2:15" ht="31" customHeight="1">
-      <c r="B52" s="376"/>
-      <c r="C52" s="372" t="s">
-        <v>276</v>
-      </c>
-      <c r="D52" s="372"/>
-      <c r="E52" s="382" t="s">
+      <c r="B52" s="428"/>
+      <c r="C52" s="373"/>
+      <c r="D52" s="400" t="s">
+        <v>448</v>
+      </c>
+      <c r="E52" s="389"/>
+      <c r="F52" s="389"/>
+      <c r="G52" s="389"/>
+      <c r="H52" s="389"/>
+      <c r="I52" s="389"/>
+      <c r="J52" s="389"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="133" t="s">
+        <v>434</v>
+      </c>
+      <c r="M52" s="141" t="s">
+        <v>460</v>
+      </c>
+      <c r="N52" s="11"/>
+    </row>
+    <row r="53" spans="2:15" ht="31" customHeight="1">
+      <c r="B53" s="428"/>
+      <c r="C53" s="373"/>
+      <c r="D53" s="400" t="s">
+        <v>449</v>
+      </c>
+      <c r="E53" s="389"/>
+      <c r="F53" s="389"/>
+      <c r="G53" s="389"/>
+      <c r="H53" s="389"/>
+      <c r="I53" s="389"/>
+      <c r="J53" s="389"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="133" t="s">
+        <v>90</v>
+      </c>
+      <c r="M53" s="116">
+        <v>0</v>
+      </c>
+      <c r="N53" s="11"/>
+    </row>
+    <row r="54" spans="2:15" ht="31" customHeight="1">
+      <c r="B54" s="428"/>
+      <c r="C54" s="373"/>
+      <c r="D54" s="400" t="s">
+        <v>450</v>
+      </c>
+      <c r="E54" s="389"/>
+      <c r="F54" s="389"/>
+      <c r="G54" s="389"/>
+      <c r="H54" s="389"/>
+      <c r="I54" s="389"/>
+      <c r="J54" s="389"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="133" t="s">
+        <v>90</v>
+      </c>
+      <c r="M54" s="116">
+        <v>0</v>
+      </c>
+      <c r="N54" s="11"/>
+    </row>
+    <row r="55" spans="2:15" ht="31" customHeight="1">
+      <c r="B55" s="428"/>
+      <c r="C55" s="373"/>
+      <c r="D55" s="400" t="s">
+        <v>451</v>
+      </c>
+      <c r="E55" s="389"/>
+      <c r="F55" s="389"/>
+      <c r="G55" s="389"/>
+      <c r="H55" s="389"/>
+      <c r="I55" s="389"/>
+      <c r="J55" s="389"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="133" t="s">
+        <v>90</v>
+      </c>
+      <c r="M55" s="116">
+        <v>0</v>
+      </c>
+      <c r="N55" s="11"/>
+    </row>
+    <row r="56" spans="2:15" ht="31" customHeight="1">
+      <c r="B56" s="379" t="s">
         <v>508</v>
       </c>
-      <c r="F52" s="382"/>
-      <c r="G52" s="380"/>
-      <c r="H52" s="380"/>
-      <c r="I52" s="380"/>
-      <c r="J52" s="380"/>
-      <c r="L52" s="133" t="s">
-        <v>97</v>
-      </c>
-      <c r="M52" s="11"/>
-      <c r="N52" s="11"/>
-    </row>
-    <row r="53" spans="2:15" ht="31" customHeight="1">
-      <c r="B53" s="376"/>
-      <c r="C53" s="372"/>
-      <c r="D53" s="372"/>
-      <c r="E53" s="382" t="s">
-        <v>272</v>
-      </c>
-      <c r="F53" s="382"/>
-      <c r="G53" s="380"/>
-      <c r="H53" s="380"/>
-      <c r="I53" s="380"/>
-      <c r="J53" s="380"/>
-      <c r="L53" s="133" t="s">
-        <v>97</v>
-      </c>
-      <c r="M53" s="175" t="s">
-        <v>114</v>
-      </c>
-      <c r="N53" s="11"/>
-    </row>
-    <row r="54" spans="2:15" ht="31" customHeight="1">
-      <c r="B54" s="376"/>
-      <c r="C54" s="372"/>
-      <c r="D54" s="372"/>
-      <c r="E54" s="382" t="s">
-        <v>44</v>
-      </c>
-      <c r="F54" s="382"/>
-      <c r="G54" s="380"/>
-      <c r="H54" s="380"/>
-      <c r="I54" s="380"/>
-      <c r="J54" s="380"/>
-      <c r="L54" s="133" t="s">
-        <v>97</v>
-      </c>
-      <c r="M54" s="11"/>
-      <c r="N54" s="11"/>
-    </row>
-    <row r="55" spans="2:15" ht="31" customHeight="1">
-      <c r="B55" s="376"/>
-      <c r="C55" s="372"/>
-      <c r="D55" s="372"/>
-      <c r="E55" s="382" t="s">
-        <v>273</v>
-      </c>
-      <c r="F55" s="382"/>
-      <c r="G55" s="380"/>
-      <c r="H55" s="380"/>
-      <c r="I55" s="380"/>
-      <c r="J55" s="380"/>
-      <c r="L55" s="133" t="s">
-        <v>97</v>
-      </c>
-      <c r="M55" s="11"/>
-      <c r="N55" s="11"/>
-    </row>
-    <row r="56" spans="2:15" ht="31" customHeight="1">
-      <c r="B56" s="376" t="s">
-        <v>508</v>
-      </c>
-      <c r="C56" s="372" t="s">
+      <c r="C56" s="373" t="s">
         <v>513</v>
       </c>
-      <c r="D56" s="372"/>
-      <c r="E56" s="380"/>
-      <c r="F56" s="380"/>
-      <c r="G56" s="380"/>
-      <c r="H56" s="380"/>
-      <c r="I56" s="380"/>
-      <c r="J56" s="380"/>
+      <c r="D56" s="373"/>
+      <c r="E56" s="383"/>
+      <c r="F56" s="383"/>
+      <c r="G56" s="383"/>
+      <c r="H56" s="383"/>
+      <c r="I56" s="383"/>
+      <c r="J56" s="383"/>
       <c r="L56" s="133" t="s">
         <v>453</v>
       </c>
@@ -7576,17 +7629,17 @@
       </c>
     </row>
     <row r="57" spans="2:15" ht="31" customHeight="1">
-      <c r="B57" s="376"/>
-      <c r="C57" s="372" t="s">
+      <c r="B57" s="379"/>
+      <c r="C57" s="373" t="s">
         <v>510</v>
       </c>
-      <c r="D57" s="372"/>
-      <c r="E57" s="380"/>
-      <c r="F57" s="380"/>
-      <c r="G57" s="380"/>
-      <c r="H57" s="380"/>
-      <c r="I57" s="380"/>
-      <c r="J57" s="380"/>
+      <c r="D57" s="373"/>
+      <c r="E57" s="383"/>
+      <c r="F57" s="383"/>
+      <c r="G57" s="383"/>
+      <c r="H57" s="383"/>
+      <c r="I57" s="383"/>
+      <c r="J57" s="383"/>
       <c r="L57" s="133" t="s">
         <v>91</v>
       </c>
@@ -7596,17 +7649,17 @@
       </c>
     </row>
     <row r="58" spans="2:15" ht="31" customHeight="1">
-      <c r="B58" s="376"/>
-      <c r="C58" s="372" t="s">
+      <c r="B58" s="379"/>
+      <c r="C58" s="373" t="s">
         <v>512</v>
       </c>
-      <c r="D58" s="372"/>
-      <c r="E58" s="380"/>
-      <c r="F58" s="380"/>
-      <c r="G58" s="380"/>
-      <c r="H58" s="380"/>
-      <c r="I58" s="380"/>
-      <c r="J58" s="380"/>
+      <c r="D58" s="373"/>
+      <c r="E58" s="383"/>
+      <c r="F58" s="383"/>
+      <c r="G58" s="383"/>
+      <c r="H58" s="383"/>
+      <c r="I58" s="383"/>
+      <c r="J58" s="383"/>
       <c r="L58" s="133" t="s">
         <v>97</v>
       </c>
@@ -7616,15 +7669,15 @@
       <c r="N58" s="11"/>
     </row>
     <row r="59" spans="2:15" ht="31" customHeight="1">
-      <c r="B59" s="376"/>
-      <c r="C59" s="387"/>
-      <c r="D59" s="387"/>
-      <c r="E59" s="387"/>
-      <c r="F59" s="387"/>
-      <c r="G59" s="387"/>
-      <c r="H59" s="387"/>
-      <c r="I59" s="387"/>
-      <c r="J59" s="387"/>
+      <c r="B59" s="379"/>
+      <c r="C59" s="390"/>
+      <c r="D59" s="390"/>
+      <c r="E59" s="390"/>
+      <c r="F59" s="390"/>
+      <c r="G59" s="390"/>
+      <c r="H59" s="390"/>
+      <c r="I59" s="390"/>
+      <c r="J59" s="390"/>
       <c r="K59" s="361"/>
       <c r="L59" s="366"/>
       <c r="M59" s="366"/>
@@ -7632,15 +7685,15 @@
       <c r="O59" s="361"/>
     </row>
     <row r="60" spans="2:15" ht="31" customHeight="1">
-      <c r="B60" s="376"/>
-      <c r="C60" s="387"/>
-      <c r="D60" s="387"/>
-      <c r="E60" s="387"/>
-      <c r="F60" s="387"/>
-      <c r="G60" s="387"/>
-      <c r="H60" s="387"/>
-      <c r="I60" s="387"/>
-      <c r="J60" s="387"/>
+      <c r="B60" s="379"/>
+      <c r="C60" s="390"/>
+      <c r="D60" s="390"/>
+      <c r="E60" s="390"/>
+      <c r="F60" s="390"/>
+      <c r="G60" s="390"/>
+      <c r="H60" s="390"/>
+      <c r="I60" s="390"/>
+      <c r="J60" s="390"/>
       <c r="K60" s="361"/>
       <c r="L60" s="366"/>
       <c r="M60" s="366"/>
@@ -7648,23 +7701,23 @@
       <c r="O60" s="361"/>
     </row>
     <row r="61" spans="2:15" ht="31" customHeight="1">
-      <c r="B61" s="376" t="s">
+      <c r="B61" s="379" t="s">
         <v>310</v>
       </c>
-      <c r="C61" s="391" t="s">
+      <c r="C61" s="370" t="s">
         <v>290</v>
       </c>
-      <c r="D61" s="391"/>
-      <c r="E61" s="395" t="s">
+      <c r="D61" s="370"/>
+      <c r="E61" s="398" t="s">
         <v>269</v>
       </c>
-      <c r="F61" s="396" t="s">
+      <c r="F61" s="399" t="s">
         <v>455</v>
       </c>
-      <c r="G61" s="380"/>
-      <c r="H61" s="380"/>
-      <c r="I61" s="380"/>
-      <c r="J61" s="380"/>
+      <c r="G61" s="383"/>
+      <c r="H61" s="383"/>
+      <c r="I61" s="383"/>
+      <c r="J61" s="383"/>
       <c r="L61" s="133" t="s">
         <v>453</v>
       </c>
@@ -7676,21 +7729,21 @@
       </c>
     </row>
     <row r="62" spans="2:15" ht="31" customHeight="1">
-      <c r="B62" s="376"/>
-      <c r="C62" s="391" t="s">
+      <c r="B62" s="379"/>
+      <c r="C62" s="370" t="s">
         <v>387</v>
       </c>
-      <c r="D62" s="391"/>
-      <c r="E62" s="395" t="s">
+      <c r="D62" s="370"/>
+      <c r="E62" s="398" t="s">
         <v>269</v>
       </c>
-      <c r="F62" s="396" t="s">
+      <c r="F62" s="399" t="s">
         <v>456</v>
       </c>
-      <c r="G62" s="380"/>
-      <c r="H62" s="380"/>
-      <c r="I62" s="380"/>
-      <c r="J62" s="380"/>
+      <c r="G62" s="383"/>
+      <c r="H62" s="383"/>
+      <c r="I62" s="383"/>
+      <c r="J62" s="383"/>
       <c r="L62" s="133" t="s">
         <v>453</v>
       </c>
@@ -7700,23 +7753,26 @@
       <c r="N62" s="116" t="s">
         <v>454</v>
       </c>
+      <c r="O62" s="9" t="s">
+        <v>610</v>
+      </c>
     </row>
     <row r="63" spans="2:15" ht="31" customHeight="1">
-      <c r="B63" s="376"/>
-      <c r="C63" s="399" t="s">
+      <c r="B63" s="379"/>
+      <c r="C63" s="422" t="s">
         <v>261</v>
       </c>
-      <c r="D63" s="400"/>
-      <c r="E63" s="405" t="s">
+      <c r="D63" s="423"/>
+      <c r="E63" s="402" t="s">
         <v>269</v>
       </c>
-      <c r="F63" s="408" t="s">
+      <c r="F63" s="405" t="s">
         <v>455</v>
       </c>
-      <c r="G63" s="382" t="s">
+      <c r="G63" s="385" t="s">
         <v>403</v>
       </c>
-      <c r="H63" s="382"/>
+      <c r="H63" s="385"/>
       <c r="I63" s="364"/>
       <c r="J63" s="364"/>
       <c r="L63" s="133" t="s">
@@ -7728,15 +7784,15 @@
       <c r="N63" s="11"/>
     </row>
     <row r="64" spans="2:15" ht="31" customHeight="1">
-      <c r="B64" s="376"/>
-      <c r="C64" s="401"/>
-      <c r="D64" s="402"/>
-      <c r="E64" s="406"/>
-      <c r="F64" s="409"/>
-      <c r="G64" s="415" t="s">
+      <c r="B64" s="379"/>
+      <c r="C64" s="424"/>
+      <c r="D64" s="425"/>
+      <c r="E64" s="403"/>
+      <c r="F64" s="406"/>
+      <c r="G64" s="412" t="s">
         <v>601</v>
       </c>
-      <c r="H64" s="416"/>
+      <c r="H64" s="413"/>
       <c r="I64" s="364"/>
       <c r="J64" s="364"/>
       <c r="L64" s="133" t="s">
@@ -7750,13 +7806,13 @@
       </c>
     </row>
     <row r="65" spans="2:15" ht="31" customHeight="1">
-      <c r="B65" s="376"/>
-      <c r="C65" s="401"/>
-      <c r="D65" s="402"/>
-      <c r="E65" s="406"/>
-      <c r="F65" s="409"/>
-      <c r="G65" s="423"/>
-      <c r="H65" s="424"/>
+      <c r="B65" s="379"/>
+      <c r="C65" s="424"/>
+      <c r="D65" s="425"/>
+      <c r="E65" s="403"/>
+      <c r="F65" s="406"/>
+      <c r="G65" s="420"/>
+      <c r="H65" s="421"/>
       <c r="I65" s="364"/>
       <c r="J65" s="364"/>
       <c r="L65" s="133" t="s">
@@ -7770,13 +7826,13 @@
       </c>
     </row>
     <row r="66" spans="2:15" ht="31" customHeight="1">
-      <c r="B66" s="376"/>
-      <c r="C66" s="401"/>
-      <c r="D66" s="402"/>
-      <c r="E66" s="406"/>
-      <c r="F66" s="409"/>
-      <c r="G66" s="417"/>
-      <c r="H66" s="418"/>
+      <c r="B66" s="379"/>
+      <c r="C66" s="424"/>
+      <c r="D66" s="425"/>
+      <c r="E66" s="403"/>
+      <c r="F66" s="406"/>
+      <c r="G66" s="414"/>
+      <c r="H66" s="415"/>
       <c r="I66" s="364"/>
       <c r="J66" s="364"/>
       <c r="L66" s="133" t="s">
@@ -7790,15 +7846,15 @@
       </c>
     </row>
     <row r="67" spans="2:15" ht="31" customHeight="1">
-      <c r="B67" s="376"/>
-      <c r="C67" s="401"/>
-      <c r="D67" s="402"/>
-      <c r="E67" s="406"/>
-      <c r="F67" s="409"/>
-      <c r="G67" s="413" t="s">
+      <c r="B67" s="379"/>
+      <c r="C67" s="424"/>
+      <c r="D67" s="425"/>
+      <c r="E67" s="403"/>
+      <c r="F67" s="406"/>
+      <c r="G67" s="410" t="s">
         <v>505</v>
       </c>
-      <c r="H67" s="414"/>
+      <c r="H67" s="411"/>
       <c r="I67" s="364"/>
       <c r="J67" s="364"/>
       <c r="L67" s="133" t="s">
@@ -7813,19 +7869,19 @@
       </c>
     </row>
     <row r="68" spans="2:15" ht="31" customHeight="1">
-      <c r="B68" s="376"/>
-      <c r="C68" s="401"/>
-      <c r="D68" s="402"/>
-      <c r="E68" s="406"/>
-      <c r="F68" s="409"/>
-      <c r="G68" s="415" t="s">
+      <c r="B68" s="379"/>
+      <c r="C68" s="424"/>
+      <c r="D68" s="425"/>
+      <c r="E68" s="403"/>
+      <c r="F68" s="406"/>
+      <c r="G68" s="412" t="s">
         <v>501</v>
       </c>
-      <c r="H68" s="416"/>
+      <c r="H68" s="413"/>
       <c r="I68" s="368" t="s">
         <v>484</v>
       </c>
-      <c r="J68" s="388" t="s">
+      <c r="J68" s="391" t="s">
         <v>477</v>
       </c>
       <c r="L68" s="133" t="s">
@@ -7840,15 +7896,15 @@
       </c>
     </row>
     <row r="69" spans="2:15" ht="31" customHeight="1">
-      <c r="B69" s="376"/>
-      <c r="C69" s="401"/>
-      <c r="D69" s="402"/>
-      <c r="E69" s="407"/>
-      <c r="F69" s="410"/>
-      <c r="G69" s="417"/>
-      <c r="H69" s="418"/>
+      <c r="B69" s="379"/>
+      <c r="C69" s="424"/>
+      <c r="D69" s="425"/>
+      <c r="E69" s="404"/>
+      <c r="F69" s="407"/>
+      <c r="G69" s="414"/>
+      <c r="H69" s="415"/>
       <c r="I69" s="369"/>
-      <c r="J69" s="388" t="s">
+      <c r="J69" s="391" t="s">
         <v>482</v>
       </c>
       <c r="L69" s="133" t="s">
@@ -7860,19 +7916,19 @@
       <c r="N69" s="11"/>
     </row>
     <row r="70" spans="2:15" ht="31" customHeight="1">
-      <c r="B70" s="376"/>
-      <c r="C70" s="401"/>
-      <c r="D70" s="402"/>
-      <c r="E70" s="405" t="s">
+      <c r="B70" s="379"/>
+      <c r="C70" s="424"/>
+      <c r="D70" s="425"/>
+      <c r="E70" s="402" t="s">
         <v>269</v>
       </c>
-      <c r="F70" s="408" t="s">
+      <c r="F70" s="405" t="s">
         <v>598</v>
       </c>
-      <c r="G70" s="382" t="s">
+      <c r="G70" s="385" t="s">
         <v>591</v>
       </c>
-      <c r="H70" s="382"/>
+      <c r="H70" s="385"/>
       <c r="I70" s="364"/>
       <c r="J70" s="364"/>
       <c r="L70" s="133" t="s">
@@ -7884,15 +7940,15 @@
       <c r="N70" s="11"/>
     </row>
     <row r="71" spans="2:15" ht="31" customHeight="1">
-      <c r="B71" s="376"/>
-      <c r="C71" s="401"/>
-      <c r="D71" s="402"/>
-      <c r="E71" s="406"/>
-      <c r="F71" s="409"/>
-      <c r="G71" s="413" t="s">
+      <c r="B71" s="379"/>
+      <c r="C71" s="424"/>
+      <c r="D71" s="425"/>
+      <c r="E71" s="403"/>
+      <c r="F71" s="406"/>
+      <c r="G71" s="410" t="s">
         <v>505</v>
       </c>
-      <c r="H71" s="414"/>
+      <c r="H71" s="411"/>
       <c r="I71" s="364"/>
       <c r="J71" s="364"/>
       <c r="L71" s="133" t="s">
@@ -7904,19 +7960,19 @@
       <c r="N71" s="11"/>
     </row>
     <row r="72" spans="2:15" ht="31" customHeight="1">
-      <c r="B72" s="376"/>
-      <c r="C72" s="401"/>
-      <c r="D72" s="402"/>
-      <c r="E72" s="406"/>
-      <c r="F72" s="409"/>
-      <c r="G72" s="415" t="s">
+      <c r="B72" s="379"/>
+      <c r="C72" s="424"/>
+      <c r="D72" s="425"/>
+      <c r="E72" s="403"/>
+      <c r="F72" s="406"/>
+      <c r="G72" s="412" t="s">
         <v>501</v>
       </c>
-      <c r="H72" s="416"/>
+      <c r="H72" s="413"/>
       <c r="I72" s="368" t="s">
         <v>484</v>
       </c>
-      <c r="J72" s="388" t="s">
+      <c r="J72" s="391" t="s">
         <v>477</v>
       </c>
       <c r="L72" s="133" t="s">
@@ -7928,15 +7984,15 @@
       <c r="N72" s="11"/>
     </row>
     <row r="73" spans="2:15" ht="31" customHeight="1">
-      <c r="B73" s="376"/>
-      <c r="C73" s="403"/>
-      <c r="D73" s="404"/>
-      <c r="E73" s="407"/>
-      <c r="F73" s="410"/>
-      <c r="G73" s="417"/>
-      <c r="H73" s="418"/>
+      <c r="B73" s="379"/>
+      <c r="C73" s="426"/>
+      <c r="D73" s="427"/>
+      <c r="E73" s="404"/>
+      <c r="F73" s="407"/>
+      <c r="G73" s="414"/>
+      <c r="H73" s="415"/>
       <c r="I73" s="369"/>
-      <c r="J73" s="388" t="s">
+      <c r="J73" s="391" t="s">
         <v>482</v>
       </c>
       <c r="L73" s="133" t="s">
@@ -7948,17 +8004,17 @@
       <c r="N73" s="11"/>
     </row>
     <row r="74" spans="2:15" ht="31" customHeight="1">
-      <c r="B74" s="376"/>
-      <c r="C74" s="391" t="s">
+      <c r="B74" s="379"/>
+      <c r="C74" s="370" t="s">
         <v>515</v>
       </c>
-      <c r="D74" s="391"/>
-      <c r="E74" s="380"/>
-      <c r="F74" s="380"/>
-      <c r="G74" s="380"/>
-      <c r="H74" s="380"/>
-      <c r="I74" s="380"/>
-      <c r="J74" s="380"/>
+      <c r="D74" s="370"/>
+      <c r="E74" s="383"/>
+      <c r="F74" s="383"/>
+      <c r="G74" s="383"/>
+      <c r="H74" s="383"/>
+      <c r="I74" s="383"/>
+      <c r="J74" s="383"/>
       <c r="L74" s="133" t="s">
         <v>474</v>
       </c>
@@ -7966,19 +8022,19 @@
       <c r="N74" s="11"/>
     </row>
     <row r="75" spans="2:15" ht="31" customHeight="1">
-      <c r="B75" s="376"/>
-      <c r="C75" s="372" t="s">
+      <c r="B75" s="379"/>
+      <c r="C75" s="375" t="s">
         <v>259</v>
       </c>
-      <c r="D75" s="372"/>
-      <c r="E75" s="382" t="s">
+      <c r="D75" s="375"/>
+      <c r="E75" s="385" t="s">
         <v>270</v>
       </c>
-      <c r="F75" s="382"/>
-      <c r="G75" s="380"/>
-      <c r="H75" s="380"/>
-      <c r="I75" s="380"/>
-      <c r="J75" s="380"/>
+      <c r="F75" s="385"/>
+      <c r="G75" s="383"/>
+      <c r="H75" s="383"/>
+      <c r="I75" s="383"/>
+      <c r="J75" s="383"/>
       <c r="L75" s="133" t="s">
         <v>90</v>
       </c>
@@ -7988,17 +8044,17 @@
       <c r="N75" s="11"/>
     </row>
     <row r="76" spans="2:15" ht="31" customHeight="1">
-      <c r="B76" s="376"/>
-      <c r="C76" s="372"/>
-      <c r="D76" s="372"/>
-      <c r="E76" s="382" t="s">
+      <c r="B76" s="379"/>
+      <c r="C76" s="375"/>
+      <c r="D76" s="375"/>
+      <c r="E76" s="385" t="s">
         <v>268</v>
       </c>
-      <c r="F76" s="382"/>
-      <c r="G76" s="380"/>
-      <c r="H76" s="380"/>
-      <c r="I76" s="380"/>
-      <c r="J76" s="380"/>
+      <c r="F76" s="385"/>
+      <c r="G76" s="383"/>
+      <c r="H76" s="383"/>
+      <c r="I76" s="383"/>
+      <c r="J76" s="383"/>
       <c r="L76" s="133" t="s">
         <v>91</v>
       </c>
@@ -8008,17 +8064,17 @@
       <c r="N76" s="11"/>
     </row>
     <row r="77" spans="2:15" ht="31" customHeight="1">
-      <c r="B77" s="376"/>
-      <c r="C77" s="372"/>
-      <c r="D77" s="372"/>
-      <c r="E77" s="382" t="s">
+      <c r="B77" s="379"/>
+      <c r="C77" s="375"/>
+      <c r="D77" s="375"/>
+      <c r="E77" s="385" t="s">
         <v>314</v>
       </c>
-      <c r="F77" s="382"/>
+      <c r="F77" s="385"/>
       <c r="G77" s="172" t="s">
         <v>269</v>
       </c>
-      <c r="H77" s="388" t="s">
+      <c r="H77" s="391" t="s">
         <v>458</v>
       </c>
       <c r="I77" s="364"/>
@@ -8034,17 +8090,17 @@
       </c>
     </row>
     <row r="78" spans="2:15" ht="31" customHeight="1">
-      <c r="B78" s="376"/>
-      <c r="C78" s="372"/>
-      <c r="D78" s="372"/>
-      <c r="E78" s="382" t="s">
+      <c r="B78" s="379"/>
+      <c r="C78" s="375"/>
+      <c r="D78" s="375"/>
+      <c r="E78" s="385" t="s">
         <v>313</v>
       </c>
-      <c r="F78" s="382"/>
-      <c r="G78" s="380"/>
-      <c r="H78" s="380"/>
-      <c r="I78" s="380"/>
-      <c r="J78" s="380"/>
+      <c r="F78" s="385"/>
+      <c r="G78" s="383"/>
+      <c r="H78" s="383"/>
+      <c r="I78" s="383"/>
+      <c r="J78" s="383"/>
       <c r="L78" s="133" t="s">
         <v>91</v>
       </c>
@@ -8054,17 +8110,17 @@
       <c r="N78" s="11"/>
     </row>
     <row r="79" spans="2:15" ht="31" customHeight="1">
-      <c r="B79" s="376"/>
-      <c r="C79" s="372"/>
-      <c r="D79" s="372"/>
-      <c r="E79" s="382" t="s">
+      <c r="B79" s="379"/>
+      <c r="C79" s="375"/>
+      <c r="D79" s="375"/>
+      <c r="E79" s="385" t="s">
         <v>312</v>
       </c>
-      <c r="F79" s="382"/>
-      <c r="G79" s="380"/>
-      <c r="H79" s="380"/>
-      <c r="I79" s="380"/>
-      <c r="J79" s="380"/>
+      <c r="F79" s="385"/>
+      <c r="G79" s="383"/>
+      <c r="H79" s="383"/>
+      <c r="I79" s="383"/>
+      <c r="J79" s="383"/>
       <c r="L79" s="144" t="s">
         <v>457</v>
       </c>
@@ -8072,24 +8128,24 @@
         <v>473</v>
       </c>
       <c r="N79" s="11"/>
-      <c r="O79" s="371" t="s">
+      <c r="O79" s="372" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="80" spans="2:15" ht="31" customHeight="1">
-      <c r="B80" s="376" t="s">
+      <c r="B80" s="379" t="s">
         <v>257</v>
       </c>
-      <c r="C80" s="391" t="s">
+      <c r="C80" s="394" t="s">
         <v>353</v>
       </c>
-      <c r="D80" s="391"/>
-      <c r="E80" s="380"/>
-      <c r="F80" s="380"/>
-      <c r="G80" s="380"/>
-      <c r="H80" s="380"/>
-      <c r="I80" s="380"/>
-      <c r="J80" s="380"/>
+      <c r="D80" s="394"/>
+      <c r="E80" s="383"/>
+      <c r="F80" s="383"/>
+      <c r="G80" s="383"/>
+      <c r="H80" s="383"/>
+      <c r="I80" s="383"/>
+      <c r="J80" s="383"/>
       <c r="L80" s="133" t="s">
         <v>90</v>
       </c>
@@ -8099,17 +8155,17 @@
       <c r="N80" s="11"/>
     </row>
     <row r="81" spans="2:14" ht="31" customHeight="1">
-      <c r="B81" s="376"/>
-      <c r="C81" s="391" t="s">
+      <c r="B81" s="379"/>
+      <c r="C81" s="394" t="s">
         <v>354</v>
       </c>
-      <c r="D81" s="391"/>
-      <c r="E81" s="380"/>
-      <c r="F81" s="380"/>
-      <c r="G81" s="380"/>
-      <c r="H81" s="380"/>
-      <c r="I81" s="380"/>
-      <c r="J81" s="380"/>
+      <c r="D81" s="394"/>
+      <c r="E81" s="383"/>
+      <c r="F81" s="383"/>
+      <c r="G81" s="383"/>
+      <c r="H81" s="383"/>
+      <c r="I81" s="383"/>
+      <c r="J81" s="383"/>
       <c r="L81" s="133" t="s">
         <v>97</v>
       </c>
@@ -8119,17 +8175,17 @@
       <c r="N81" s="11"/>
     </row>
     <row r="82" spans="2:14" ht="31" customHeight="1">
-      <c r="B82" s="376"/>
-      <c r="C82" s="391" t="s">
+      <c r="B82" s="379"/>
+      <c r="C82" s="394" t="s">
         <v>297</v>
       </c>
-      <c r="D82" s="391"/>
-      <c r="E82" s="380"/>
-      <c r="F82" s="380"/>
-      <c r="G82" s="380"/>
-      <c r="H82" s="380"/>
-      <c r="I82" s="380"/>
-      <c r="J82" s="380"/>
+      <c r="D82" s="394"/>
+      <c r="E82" s="383"/>
+      <c r="F82" s="383"/>
+      <c r="G82" s="383"/>
+      <c r="H82" s="383"/>
+      <c r="I82" s="383"/>
+      <c r="J82" s="383"/>
       <c r="L82" s="133" t="s">
         <v>596</v>
       </c>
@@ -8139,17 +8195,17 @@
       <c r="N82" s="11"/>
     </row>
     <row r="83" spans="2:14" ht="31" customHeight="1">
-      <c r="B83" s="376"/>
-      <c r="C83" s="391" t="s">
+      <c r="B83" s="379"/>
+      <c r="C83" s="394" t="s">
         <v>391</v>
       </c>
-      <c r="D83" s="391"/>
-      <c r="E83" s="380"/>
-      <c r="F83" s="380"/>
-      <c r="G83" s="380"/>
-      <c r="H83" s="380"/>
-      <c r="I83" s="380"/>
-      <c r="J83" s="380"/>
+      <c r="D83" s="394"/>
+      <c r="E83" s="383"/>
+      <c r="F83" s="383"/>
+      <c r="G83" s="383"/>
+      <c r="H83" s="383"/>
+      <c r="I83" s="383"/>
+      <c r="J83" s="383"/>
       <c r="L83" s="133" t="s">
         <v>91</v>
       </c>
@@ -8159,15 +8215,15 @@
       <c r="N83" s="11"/>
     </row>
     <row r="84" spans="2:14" ht="31" customHeight="1">
-      <c r="B84" s="376"/>
-      <c r="C84" s="372" t="s">
+      <c r="B84" s="379"/>
+      <c r="C84" s="373" t="s">
         <v>266</v>
       </c>
-      <c r="D84" s="372"/>
-      <c r="E84" s="382" t="s">
+      <c r="D84" s="373"/>
+      <c r="E84" s="385" t="s">
         <v>356</v>
       </c>
-      <c r="F84" s="382"/>
+      <c r="F84" s="385"/>
       <c r="G84" s="173" t="s">
         <v>466</v>
       </c>
@@ -8185,13 +8241,13 @@
       <c r="N84" s="11"/>
     </row>
     <row r="85" spans="2:14" ht="31" customHeight="1">
-      <c r="B85" s="376"/>
-      <c r="C85" s="372"/>
-      <c r="D85" s="372"/>
-      <c r="E85" s="382" t="s">
+      <c r="B85" s="379"/>
+      <c r="C85" s="373"/>
+      <c r="D85" s="373"/>
+      <c r="E85" s="385" t="s">
         <v>1</v>
       </c>
-      <c r="F85" s="382"/>
+      <c r="F85" s="385"/>
       <c r="G85" s="173" t="s">
         <v>465</v>
       </c>
@@ -8209,19 +8265,19 @@
       <c r="N85" s="11"/>
     </row>
     <row r="86" spans="2:14" ht="31" customHeight="1">
-      <c r="B86" s="376"/>
-      <c r="C86" s="391" t="s">
+      <c r="B86" s="379"/>
+      <c r="C86" s="394" t="s">
         <v>479</v>
       </c>
-      <c r="D86" s="391"/>
-      <c r="E86" s="382" t="s">
+      <c r="D86" s="394"/>
+      <c r="E86" s="385" t="s">
         <v>388</v>
       </c>
-      <c r="F86" s="382"/>
-      <c r="G86" s="413" t="s">
+      <c r="F86" s="385"/>
+      <c r="G86" s="410" t="s">
         <v>301</v>
       </c>
-      <c r="H86" s="414"/>
+      <c r="H86" s="411"/>
       <c r="I86" s="88"/>
       <c r="J86" s="88"/>
       <c r="L86" s="133" t="s">
@@ -8233,15 +8289,15 @@
       <c r="N86" s="11"/>
     </row>
     <row r="87" spans="2:14" ht="31" customHeight="1">
-      <c r="B87" s="376"/>
-      <c r="C87" s="391"/>
-      <c r="D87" s="391"/>
-      <c r="E87" s="382"/>
-      <c r="F87" s="382"/>
-      <c r="G87" s="413" t="s">
+      <c r="B87" s="379"/>
+      <c r="C87" s="394"/>
+      <c r="D87" s="394"/>
+      <c r="E87" s="385"/>
+      <c r="F87" s="385"/>
+      <c r="G87" s="410" t="s">
         <v>268</v>
       </c>
-      <c r="H87" s="414"/>
+      <c r="H87" s="411"/>
       <c r="I87" s="88"/>
       <c r="J87" s="88"/>
       <c r="L87" s="133" t="s">
@@ -8253,15 +8309,15 @@
       <c r="N87" s="11"/>
     </row>
     <row r="88" spans="2:14" ht="31" customHeight="1">
-      <c r="B88" s="376"/>
-      <c r="C88" s="391"/>
-      <c r="D88" s="391"/>
-      <c r="E88" s="382"/>
-      <c r="F88" s="382"/>
-      <c r="G88" s="413" t="s">
+      <c r="B88" s="379"/>
+      <c r="C88" s="394"/>
+      <c r="D88" s="394"/>
+      <c r="E88" s="385"/>
+      <c r="F88" s="385"/>
+      <c r="G88" s="410" t="s">
         <v>261</v>
       </c>
-      <c r="H88" s="414"/>
+      <c r="H88" s="411"/>
       <c r="I88" s="88"/>
       <c r="J88" s="88"/>
       <c r="L88" s="133" t="s">
@@ -8273,15 +8329,15 @@
       <c r="N88" s="11"/>
     </row>
     <row r="89" spans="2:14" ht="31" customHeight="1">
-      <c r="B89" s="376"/>
-      <c r="C89" s="391"/>
-      <c r="D89" s="391"/>
-      <c r="E89" s="382"/>
-      <c r="F89" s="382"/>
-      <c r="G89" s="413" t="s">
+      <c r="B89" s="379"/>
+      <c r="C89" s="394"/>
+      <c r="D89" s="394"/>
+      <c r="E89" s="385"/>
+      <c r="F89" s="385"/>
+      <c r="G89" s="410" t="s">
         <v>269</v>
       </c>
-      <c r="H89" s="414"/>
+      <c r="H89" s="411"/>
       <c r="I89" s="88"/>
       <c r="J89" s="88"/>
       <c r="L89" s="133" t="s">
@@ -8293,17 +8349,17 @@
       <c r="N89" s="11"/>
     </row>
     <row r="90" spans="2:14" ht="31" customHeight="1">
-      <c r="B90" s="376"/>
-      <c r="C90" s="391"/>
-      <c r="D90" s="391"/>
-      <c r="E90" s="382" t="s">
+      <c r="B90" s="379"/>
+      <c r="C90" s="394"/>
+      <c r="D90" s="394"/>
+      <c r="E90" s="385" t="s">
         <v>516</v>
       </c>
-      <c r="F90" s="382"/>
-      <c r="G90" s="380"/>
-      <c r="H90" s="380"/>
-      <c r="I90" s="380"/>
-      <c r="J90" s="380"/>
+      <c r="F90" s="385"/>
+      <c r="G90" s="383"/>
+      <c r="H90" s="383"/>
+      <c r="I90" s="383"/>
+      <c r="J90" s="383"/>
       <c r="L90" s="133" t="s">
         <v>474</v>
       </c>
@@ -8313,17 +8369,17 @@
       <c r="N90" s="11"/>
     </row>
     <row r="91" spans="2:14" ht="31" customHeight="1">
-      <c r="B91" s="376"/>
-      <c r="C91" s="391"/>
-      <c r="D91" s="391"/>
-      <c r="E91" s="382" t="s">
+      <c r="B91" s="379"/>
+      <c r="C91" s="394"/>
+      <c r="D91" s="394"/>
+      <c r="E91" s="385" t="s">
         <v>422</v>
       </c>
-      <c r="F91" s="382"/>
-      <c r="G91" s="380"/>
-      <c r="H91" s="380"/>
-      <c r="I91" s="380"/>
-      <c r="J91" s="380"/>
+      <c r="F91" s="385"/>
+      <c r="G91" s="383"/>
+      <c r="H91" s="383"/>
+      <c r="I91" s="383"/>
+      <c r="J91" s="383"/>
       <c r="L91" s="133" t="s">
         <v>468</v>
       </c>
@@ -8335,17 +8391,17 @@
       </c>
     </row>
     <row r="92" spans="2:14" ht="31" customHeight="1">
-      <c r="B92" s="376"/>
-      <c r="C92" s="391"/>
-      <c r="D92" s="391"/>
-      <c r="E92" s="382" t="s">
+      <c r="B92" s="379"/>
+      <c r="C92" s="394"/>
+      <c r="D92" s="394"/>
+      <c r="E92" s="385" t="s">
         <v>505</v>
       </c>
-      <c r="F92" s="382"/>
-      <c r="G92" s="380"/>
-      <c r="H92" s="380"/>
-      <c r="I92" s="380"/>
-      <c r="J92" s="380"/>
+      <c r="F92" s="385"/>
+      <c r="G92" s="383"/>
+      <c r="H92" s="383"/>
+      <c r="I92" s="383"/>
+      <c r="J92" s="383"/>
       <c r="L92" s="133" t="s">
         <v>122</v>
       </c>
@@ -8357,23 +8413,23 @@
       </c>
     </row>
     <row r="93" spans="2:14" ht="31" customHeight="1">
-      <c r="B93" s="376"/>
-      <c r="C93" s="391"/>
-      <c r="D93" s="391"/>
-      <c r="E93" s="382" t="s">
+      <c r="B93" s="379"/>
+      <c r="C93" s="394"/>
+      <c r="D93" s="394"/>
+      <c r="E93" s="385" t="s">
         <v>501</v>
       </c>
-      <c r="F93" s="382"/>
-      <c r="G93" s="389" t="s">
+      <c r="F93" s="385"/>
+      <c r="G93" s="392" t="s">
         <v>269</v>
       </c>
-      <c r="H93" s="390" t="s">
+      <c r="H93" s="393" t="s">
         <v>455</v>
       </c>
       <c r="I93" s="368" t="s">
         <v>484</v>
       </c>
-      <c r="J93" s="388" t="s">
+      <c r="J93" s="391" t="s">
         <v>477</v>
       </c>
       <c r="L93" s="133" t="s">
@@ -8387,15 +8443,15 @@
       </c>
     </row>
     <row r="94" spans="2:14" ht="31" customHeight="1">
-      <c r="B94" s="376"/>
-      <c r="C94" s="391"/>
-      <c r="D94" s="391"/>
-      <c r="E94" s="382"/>
-      <c r="F94" s="382"/>
-      <c r="G94" s="389"/>
-      <c r="H94" s="390"/>
+      <c r="B94" s="379"/>
+      <c r="C94" s="394"/>
+      <c r="D94" s="394"/>
+      <c r="E94" s="385"/>
+      <c r="F94" s="385"/>
+      <c r="G94" s="392"/>
+      <c r="H94" s="393"/>
       <c r="I94" s="369"/>
-      <c r="J94" s="388" t="s">
+      <c r="J94" s="391" t="s">
         <v>482</v>
       </c>
       <c r="L94" s="133" t="s">
@@ -8409,13 +8465,13 @@
       </c>
     </row>
     <row r="95" spans="2:14" ht="31" customHeight="1">
-      <c r="B95" s="376"/>
-      <c r="C95" s="391"/>
-      <c r="D95" s="391"/>
-      <c r="E95" s="415" t="s">
+      <c r="B95" s="379"/>
+      <c r="C95" s="394"/>
+      <c r="D95" s="394"/>
+      <c r="E95" s="412" t="s">
         <v>483</v>
       </c>
-      <c r="F95" s="416"/>
+      <c r="F95" s="413"/>
       <c r="G95" s="367" t="s">
         <v>269</v>
       </c>
@@ -8433,11 +8489,11 @@
       <c r="N95" s="11"/>
     </row>
     <row r="96" spans="2:14" ht="31" customHeight="1">
-      <c r="B96" s="376"/>
-      <c r="C96" s="391"/>
-      <c r="D96" s="391"/>
-      <c r="E96" s="423"/>
-      <c r="F96" s="424"/>
+      <c r="B96" s="379"/>
+      <c r="C96" s="394"/>
+      <c r="D96" s="394"/>
+      <c r="E96" s="420"/>
+      <c r="F96" s="421"/>
       <c r="G96" s="367" t="s">
         <v>269</v>
       </c>
@@ -8455,11 +8511,11 @@
       <c r="N96" s="11"/>
     </row>
     <row r="97" spans="2:14" ht="31" customHeight="1">
-      <c r="B97" s="376"/>
-      <c r="C97" s="391"/>
-      <c r="D97" s="391"/>
-      <c r="E97" s="423"/>
-      <c r="F97" s="424"/>
+      <c r="B97" s="379"/>
+      <c r="C97" s="394"/>
+      <c r="D97" s="394"/>
+      <c r="E97" s="420"/>
+      <c r="F97" s="421"/>
       <c r="G97" s="367" t="s">
         <v>269</v>
       </c>
@@ -8477,19 +8533,19 @@
       <c r="N97" s="11"/>
     </row>
     <row r="98" spans="2:14" ht="31" customHeight="1">
-      <c r="B98" s="394" t="s">
+      <c r="B98" s="397" t="s">
         <v>467</v>
       </c>
-      <c r="C98" s="391" t="s">
+      <c r="C98" s="394" t="s">
         <v>137</v>
       </c>
-      <c r="D98" s="391"/>
-      <c r="E98" s="380"/>
-      <c r="F98" s="380"/>
-      <c r="G98" s="380"/>
-      <c r="H98" s="380"/>
-      <c r="I98" s="380"/>
-      <c r="J98" s="380"/>
+      <c r="D98" s="394"/>
+      <c r="E98" s="383"/>
+      <c r="F98" s="383"/>
+      <c r="G98" s="383"/>
+      <c r="H98" s="383"/>
+      <c r="I98" s="383"/>
+      <c r="J98" s="383"/>
       <c r="L98" s="133" t="s">
         <v>97</v>
       </c>
@@ -8499,17 +8555,17 @@
       <c r="N98" s="11"/>
     </row>
     <row r="99" spans="2:14" ht="31" customHeight="1">
-      <c r="B99" s="394"/>
-      <c r="C99" s="391" t="s">
+      <c r="B99" s="397"/>
+      <c r="C99" s="394" t="s">
         <v>283</v>
       </c>
-      <c r="D99" s="391"/>
-      <c r="E99" s="380"/>
-      <c r="F99" s="380"/>
-      <c r="G99" s="380"/>
-      <c r="H99" s="380"/>
-      <c r="I99" s="380"/>
-      <c r="J99" s="380"/>
+      <c r="D99" s="394"/>
+      <c r="E99" s="383"/>
+      <c r="F99" s="383"/>
+      <c r="G99" s="383"/>
+      <c r="H99" s="383"/>
+      <c r="I99" s="383"/>
+      <c r="J99" s="383"/>
       <c r="L99" s="133" t="s">
         <v>468</v>
       </c>
@@ -8519,19 +8575,19 @@
       <c r="N99" s="11"/>
     </row>
     <row r="100" spans="2:14" ht="31" customHeight="1">
-      <c r="B100" s="394"/>
-      <c r="C100" s="391" t="s">
+      <c r="B100" s="397"/>
+      <c r="C100" s="394" t="s">
         <v>306</v>
       </c>
-      <c r="D100" s="391"/>
-      <c r="E100" s="382" t="s">
+      <c r="D100" s="394"/>
+      <c r="E100" s="385" t="s">
         <v>470</v>
       </c>
-      <c r="F100" s="382"/>
-      <c r="G100" s="380"/>
-      <c r="H100" s="380"/>
-      <c r="I100" s="380"/>
-      <c r="J100" s="380"/>
+      <c r="F100" s="385"/>
+      <c r="G100" s="383"/>
+      <c r="H100" s="383"/>
+      <c r="I100" s="383"/>
+      <c r="J100" s="383"/>
       <c r="L100" s="133" t="s">
         <v>474</v>
       </c>
@@ -8541,17 +8597,17 @@
       <c r="N100" s="11"/>
     </row>
     <row r="101" spans="2:14" ht="31" customHeight="1">
-      <c r="B101" s="394"/>
-      <c r="C101" s="391"/>
-      <c r="D101" s="391"/>
-      <c r="E101" s="382" t="s">
+      <c r="B101" s="397"/>
+      <c r="C101" s="394"/>
+      <c r="D101" s="394"/>
+      <c r="E101" s="385" t="s">
         <v>471</v>
       </c>
-      <c r="F101" s="382"/>
-      <c r="G101" s="380"/>
-      <c r="H101" s="380"/>
-      <c r="I101" s="380"/>
-      <c r="J101" s="380"/>
+      <c r="F101" s="385"/>
+      <c r="G101" s="383"/>
+      <c r="H101" s="383"/>
+      <c r="I101" s="383"/>
+      <c r="J101" s="383"/>
       <c r="L101" s="133" t="s">
         <v>468</v>
       </c>
@@ -8561,17 +8617,17 @@
       <c r="N101" s="11"/>
     </row>
     <row r="102" spans="2:14" ht="31" customHeight="1">
-      <c r="B102" s="394"/>
-      <c r="C102" s="391" t="s">
+      <c r="B102" s="397"/>
+      <c r="C102" s="394" t="s">
         <v>28</v>
       </c>
-      <c r="D102" s="391"/>
-      <c r="E102" s="380"/>
-      <c r="F102" s="380"/>
-      <c r="G102" s="380"/>
-      <c r="H102" s="380"/>
-      <c r="I102" s="380"/>
-      <c r="J102" s="380"/>
+      <c r="D102" s="394"/>
+      <c r="E102" s="383"/>
+      <c r="F102" s="383"/>
+      <c r="G102" s="383"/>
+      <c r="H102" s="383"/>
+      <c r="I102" s="383"/>
+      <c r="J102" s="383"/>
       <c r="L102" s="133" t="s">
         <v>474</v>
       </c>
@@ -8581,17 +8637,17 @@
       <c r="N102" s="11"/>
     </row>
     <row r="103" spans="2:14" ht="31" customHeight="1">
-      <c r="B103" s="394"/>
-      <c r="C103" s="391" t="s">
+      <c r="B103" s="397"/>
+      <c r="C103" s="394" t="s">
         <v>386</v>
       </c>
-      <c r="D103" s="391"/>
-      <c r="E103" s="380"/>
-      <c r="F103" s="380"/>
-      <c r="G103" s="380"/>
-      <c r="H103" s="380"/>
-      <c r="I103" s="380"/>
-      <c r="J103" s="380"/>
+      <c r="D103" s="394"/>
+      <c r="E103" s="383"/>
+      <c r="F103" s="383"/>
+      <c r="G103" s="383"/>
+      <c r="H103" s="383"/>
+      <c r="I103" s="383"/>
+      <c r="J103" s="383"/>
       <c r="L103" s="133" t="s">
         <v>122</v>
       </c>
@@ -8601,19 +8657,19 @@
       <c r="N103" s="11"/>
     </row>
     <row r="104" spans="2:14" ht="31" customHeight="1">
-      <c r="B104" s="394"/>
-      <c r="C104" s="391" t="s">
+      <c r="B104" s="397"/>
+      <c r="C104" s="394" t="s">
         <v>305</v>
       </c>
-      <c r="D104" s="391"/>
-      <c r="E104" s="382" t="s">
+      <c r="D104" s="394"/>
+      <c r="E104" s="385" t="s">
         <v>384</v>
       </c>
-      <c r="F104" s="382"/>
-      <c r="G104" s="380"/>
-      <c r="H104" s="380"/>
-      <c r="I104" s="380"/>
-      <c r="J104" s="380"/>
+      <c r="F104" s="385"/>
+      <c r="G104" s="383"/>
+      <c r="H104" s="383"/>
+      <c r="I104" s="383"/>
+      <c r="J104" s="383"/>
       <c r="L104" s="133" t="s">
         <v>122</v>
       </c>
@@ -8623,13 +8679,13 @@
       <c r="N104" s="11"/>
     </row>
     <row r="105" spans="2:14" ht="31" customHeight="1">
-      <c r="B105" s="394"/>
-      <c r="C105" s="391"/>
-      <c r="D105" s="391"/>
-      <c r="E105" s="382" t="s">
+      <c r="B105" s="397"/>
+      <c r="C105" s="394"/>
+      <c r="D105" s="394"/>
+      <c r="E105" s="385" t="s">
         <v>385</v>
       </c>
-      <c r="F105" s="382"/>
+      <c r="F105" s="385"/>
       <c r="G105" s="249">
         <v>1</v>
       </c>
@@ -8645,11 +8701,11 @@
       <c r="N105" s="11"/>
     </row>
     <row r="106" spans="2:14" ht="31" customHeight="1">
-      <c r="B106" s="394"/>
-      <c r="C106" s="391"/>
-      <c r="D106" s="391"/>
-      <c r="E106" s="382"/>
-      <c r="F106" s="382"/>
+      <c r="B106" s="397"/>
+      <c r="C106" s="394"/>
+      <c r="D106" s="394"/>
+      <c r="E106" s="385"/>
+      <c r="F106" s="385"/>
       <c r="G106" s="249">
         <v>2</v>
       </c>
@@ -8665,11 +8721,11 @@
       <c r="N106" s="11"/>
     </row>
     <row r="107" spans="2:14" ht="31" customHeight="1">
-      <c r="B107" s="394"/>
-      <c r="C107" s="391"/>
-      <c r="D107" s="391"/>
-      <c r="E107" s="382"/>
-      <c r="F107" s="382"/>
+      <c r="B107" s="397"/>
+      <c r="C107" s="394"/>
+      <c r="D107" s="394"/>
+      <c r="E107" s="385"/>
+      <c r="F107" s="385"/>
       <c r="G107" s="249">
         <v>3</v>
       </c>
@@ -8685,11 +8741,11 @@
       <c r="N107" s="11"/>
     </row>
     <row r="108" spans="2:14" ht="31" customHeight="1">
-      <c r="B108" s="394"/>
-      <c r="C108" s="391"/>
-      <c r="D108" s="391"/>
-      <c r="E108" s="382"/>
-      <c r="F108" s="382"/>
+      <c r="B108" s="397"/>
+      <c r="C108" s="394"/>
+      <c r="D108" s="394"/>
+      <c r="E108" s="385"/>
+      <c r="F108" s="385"/>
       <c r="G108" s="249">
         <v>4</v>
       </c>
@@ -8705,19 +8761,19 @@
       <c r="N108" s="11"/>
     </row>
     <row r="109" spans="2:14" ht="31" customHeight="1">
-      <c r="B109" s="394"/>
-      <c r="C109" s="391" t="s">
+      <c r="B109" s="397"/>
+      <c r="C109" s="394" t="s">
         <v>307</v>
       </c>
-      <c r="D109" s="391"/>
-      <c r="E109" s="382" t="s">
+      <c r="D109" s="394"/>
+      <c r="E109" s="385" t="s">
         <v>308</v>
       </c>
-      <c r="F109" s="382"/>
-      <c r="G109" s="380"/>
-      <c r="H109" s="380"/>
-      <c r="I109" s="380"/>
-      <c r="J109" s="380"/>
+      <c r="F109" s="385"/>
+      <c r="G109" s="383"/>
+      <c r="H109" s="383"/>
+      <c r="I109" s="383"/>
+      <c r="J109" s="383"/>
       <c r="L109" s="133" t="s">
         <v>90</v>
       </c>
@@ -8727,17 +8783,17 @@
       <c r="N109" s="11"/>
     </row>
     <row r="110" spans="2:14" ht="31" customHeight="1">
-      <c r="B110" s="394"/>
-      <c r="C110" s="391"/>
-      <c r="D110" s="391"/>
-      <c r="E110" s="382" t="s">
+      <c r="B110" s="397"/>
+      <c r="C110" s="394"/>
+      <c r="D110" s="394"/>
+      <c r="E110" s="385" t="s">
         <v>309</v>
       </c>
-      <c r="F110" s="382"/>
-      <c r="G110" s="380"/>
-      <c r="H110" s="380"/>
-      <c r="I110" s="380"/>
-      <c r="J110" s="380"/>
+      <c r="F110" s="385"/>
+      <c r="G110" s="383"/>
+      <c r="H110" s="383"/>
+      <c r="I110" s="383"/>
+      <c r="J110" s="383"/>
       <c r="L110" s="133" t="s">
         <v>475</v>
       </c>
@@ -8747,15 +8803,16 @@
       <c r="N110" s="11"/>
     </row>
     <row r="111" spans="2:14" ht="26">
-      <c r="B111" s="377"/>
-      <c r="C111" s="392"/>
+      <c r="B111" s="380"/>
+      <c r="C111" s="395"/>
     </row>
     <row r="112" spans="2:14" ht="26">
-      <c r="B112" s="377"/>
-      <c r="C112" s="392"/>
+      <c r="B112" s="380"/>
+      <c r="C112" s="395"/>
     </row>
   </sheetData>
   <mergeCells count="210">
+    <mergeCell ref="B6:B15"/>
     <mergeCell ref="I96:J96"/>
     <mergeCell ref="I97:J97"/>
     <mergeCell ref="G64:H66"/>
@@ -8765,8 +8822,8 @@
     <mergeCell ref="G86:H86"/>
     <mergeCell ref="G87:H87"/>
     <mergeCell ref="G88:H88"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I27:J27"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="E70:E73"/>
     <mergeCell ref="F70:F73"/>
@@ -8775,25 +8832,25 @@
     <mergeCell ref="G71:H71"/>
     <mergeCell ref="I71:J71"/>
     <mergeCell ref="G72:H73"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="I42:J42"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="I31:J31"/>
     <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I39:J39"/>
     <mergeCell ref="I40:J40"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="I46:J46"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="I93:I94"/>
     <mergeCell ref="I105:J105"/>
@@ -8879,69 +8936,69 @@
     <mergeCell ref="C74:D74"/>
     <mergeCell ref="C62:D62"/>
     <mergeCell ref="C61:D61"/>
-    <mergeCell ref="E42:J42"/>
-    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E51:J51"/>
+    <mergeCell ref="E50:J50"/>
     <mergeCell ref="C58:D58"/>
     <mergeCell ref="C57:D57"/>
     <mergeCell ref="C56:D56"/>
     <mergeCell ref="E56:J56"/>
     <mergeCell ref="E57:J57"/>
     <mergeCell ref="E58:J58"/>
-    <mergeCell ref="G53:J53"/>
-    <mergeCell ref="G54:J54"/>
-    <mergeCell ref="G55:J55"/>
-    <mergeCell ref="E43:J43"/>
-    <mergeCell ref="E44:J44"/>
-    <mergeCell ref="E45:J45"/>
-    <mergeCell ref="E46:J46"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="G47:J47"/>
-    <mergeCell ref="G48:J48"/>
-    <mergeCell ref="G49:J49"/>
-    <mergeCell ref="G50:J50"/>
-    <mergeCell ref="G51:J51"/>
-    <mergeCell ref="G52:J52"/>
-    <mergeCell ref="C41:C46"/>
-    <mergeCell ref="C47:D51"/>
-    <mergeCell ref="C52:D55"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="G29:G40"/>
-    <mergeCell ref="H33:H36"/>
-    <mergeCell ref="H37:H40"/>
-    <mergeCell ref="E29:E40"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="F29:F40"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="E52:J52"/>
+    <mergeCell ref="E53:J53"/>
+    <mergeCell ref="E54:J54"/>
+    <mergeCell ref="E55:J55"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="C50:C55"/>
+    <mergeCell ref="C16:D20"/>
+    <mergeCell ref="C21:D24"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="G38:G49"/>
+    <mergeCell ref="H42:H45"/>
+    <mergeCell ref="H46:H49"/>
+    <mergeCell ref="E38:E49"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="F38:F49"/>
     <mergeCell ref="G11:J11"/>
     <mergeCell ref="G12:J12"/>
     <mergeCell ref="G13:J13"/>
     <mergeCell ref="G14:J14"/>
     <mergeCell ref="G15:J15"/>
-    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="G25:J25"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G18:G24"/>
-    <mergeCell ref="H20:H24"/>
+    <mergeCell ref="G27:G33"/>
+    <mergeCell ref="H29:H33"/>
     <mergeCell ref="E6:J6"/>
     <mergeCell ref="E7:J7"/>
     <mergeCell ref="E8:J8"/>
     <mergeCell ref="G9:J9"/>
     <mergeCell ref="G10:J10"/>
-    <mergeCell ref="D25:D40"/>
+    <mergeCell ref="D34:D49"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E9:F9"/>
@@ -8949,23 +9006,22 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E25:F25"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C9:D15"/>
-    <mergeCell ref="C16:C40"/>
-    <mergeCell ref="D16:D24"/>
+    <mergeCell ref="C25:C49"/>
+    <mergeCell ref="D25:D33"/>
     <mergeCell ref="B80:B97"/>
-    <mergeCell ref="B6:B46"/>
     <mergeCell ref="B98:B110"/>
     <mergeCell ref="B56:B60"/>
     <mergeCell ref="B61:B79"/>
-    <mergeCell ref="B47:B55"/>
-    <mergeCell ref="F18:F24"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:E24"/>
-    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="B16:B24"/>
+    <mergeCell ref="F27:F33"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:E33"/>
+    <mergeCell ref="G26:J26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10082,8 +10138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657F1319-18D0-224C-96EE-875DBB0E113F}">
   <dimension ref="K25:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="W11" sqref="W11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/docs/session_variables.xlsx
+++ b/docs/session_variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robhay/git_repo/share_screener/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D4FD93-B9C1-3143-B76E-C9F9AD5AFE95}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFE77E8-6B2D-8D47-A1C5-DB4EAA8C37B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14500" xr2:uid="{EB3C945B-FE01-FA47-AE59-A0DC3CDF521B}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2016" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2015" uniqueCount="613">
   <si>
     <t>chart_colours</t>
   </si>
@@ -2285,7 +2285,10 @@
     <t>This will include the dataframes and the column status and the dataframe status</t>
   </si>
   <si>
-    <t>might be able to remove this one</t>
+    <t>progress</t>
+  </si>
+  <si>
+    <t>apps</t>
   </si>
 </sst>
 </file>
@@ -3010,7 +3013,7 @@
     <xf numFmtId="43" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="432">
+  <cellXfs count="438">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4055,6 +4058,9 @@
     <xf numFmtId="0" fontId="58" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="59" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4106,18 +4112,12 @@
     <xf numFmtId="0" fontId="58" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4199,9 +4199,6 @@
     <xf numFmtId="0" fontId="60" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="58" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4210,6 +4207,30 @@
     </xf>
     <xf numFmtId="0" fontId="58" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -6405,13 +6426,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4BE9BCD-FFB7-0845-95F9-377ADF3DB526}">
-  <dimension ref="A1:T112"/>
+  <dimension ref="A1:T111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="O9" sqref="O9"/>
+      <selection pane="bottomRight" activeCell="D30" sqref="D30:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -6449,22 +6470,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="59" customHeight="1">
-      <c r="A1" s="418" t="s">
+      <c r="A1" s="417" t="s">
         <v>480</v>
       </c>
-      <c r="B1" s="419"/>
-      <c r="C1" s="419"/>
-      <c r="D1" s="419"/>
-      <c r="E1" s="419"/>
-      <c r="F1" s="419"/>
-      <c r="G1" s="419"/>
-      <c r="H1" s="419"/>
-      <c r="J1" s="416" t="s">
+      <c r="B1" s="418"/>
+      <c r="C1" s="418"/>
+      <c r="D1" s="418"/>
+      <c r="E1" s="418"/>
+      <c r="F1" s="418"/>
+      <c r="G1" s="418"/>
+      <c r="H1" s="418"/>
+      <c r="J1" s="415" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="2" spans="1:20">
-      <c r="J2" s="417" t="s">
+      <c r="J2" s="416" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6501,14 +6522,14 @@
     <row r="4" spans="1:20">
       <c r="A4" s="371"/>
       <c r="B4" s="377"/>
-      <c r="C4" s="381"/>
-      <c r="D4" s="381"/>
-      <c r="E4" s="381"/>
-      <c r="F4" s="381"/>
-      <c r="G4" s="381"/>
-      <c r="H4" s="381"/>
-      <c r="I4" s="381"/>
-      <c r="J4" s="381"/>
+      <c r="C4" s="382"/>
+      <c r="D4" s="382"/>
+      <c r="E4" s="382"/>
+      <c r="F4" s="382"/>
+      <c r="G4" s="382"/>
+      <c r="H4" s="382"/>
+      <c r="I4" s="382"/>
+      <c r="J4" s="382"/>
       <c r="K4" s="6"/>
       <c r="L4" s="371"/>
       <c r="M4" s="371"/>
@@ -6521,17 +6542,17 @@
       <c r="T4" s="371"/>
     </row>
     <row r="5" spans="1:20" ht="31" customHeight="1">
-      <c r="B5" s="396" t="s">
+      <c r="B5" s="397" t="s">
         <v>289</v>
       </c>
-      <c r="C5" s="382"/>
-      <c r="D5" s="382"/>
-      <c r="E5" s="382"/>
-      <c r="F5" s="382"/>
-      <c r="G5" s="382"/>
-      <c r="H5" s="382"/>
-      <c r="I5" s="382"/>
-      <c r="J5" s="382"/>
+      <c r="C5" s="383"/>
+      <c r="D5" s="383"/>
+      <c r="E5" s="383"/>
+      <c r="F5" s="383"/>
+      <c r="G5" s="383"/>
+      <c r="H5" s="383"/>
+      <c r="I5" s="383"/>
+      <c r="J5" s="383"/>
       <c r="K5" s="6"/>
       <c r="L5" s="133" t="s">
         <v>96</v>
@@ -6542,19 +6563,19 @@
       <c r="N5" s="11"/>
     </row>
     <row r="6" spans="1:20" ht="31" customHeight="1">
-      <c r="B6" s="429" t="s">
+      <c r="B6" s="427" t="s">
         <v>263</v>
       </c>
       <c r="C6" s="370" t="s">
         <v>286</v>
       </c>
       <c r="D6" s="370"/>
-      <c r="E6" s="383"/>
-      <c r="F6" s="383"/>
-      <c r="G6" s="383"/>
-      <c r="H6" s="383"/>
-      <c r="I6" s="383"/>
-      <c r="J6" s="383"/>
+      <c r="E6" s="384"/>
+      <c r="F6" s="384"/>
+      <c r="G6" s="384"/>
+      <c r="H6" s="384"/>
+      <c r="I6" s="384"/>
+      <c r="J6" s="384"/>
       <c r="K6" s="6"/>
       <c r="L6" s="133" t="s">
         <v>434</v>
@@ -6565,17 +6586,17 @@
       <c r="N6" s="11"/>
     </row>
     <row r="7" spans="1:20" ht="31" customHeight="1">
-      <c r="B7" s="430"/>
+      <c r="B7" s="428"/>
       <c r="C7" s="370" t="s">
         <v>285</v>
       </c>
       <c r="D7" s="370"/>
-      <c r="E7" s="383"/>
-      <c r="F7" s="383"/>
-      <c r="G7" s="383"/>
-      <c r="H7" s="383"/>
-      <c r="I7" s="383"/>
-      <c r="J7" s="383"/>
+      <c r="E7" s="384"/>
+      <c r="F7" s="384"/>
+      <c r="G7" s="384"/>
+      <c r="H7" s="384"/>
+      <c r="I7" s="384"/>
+      <c r="J7" s="384"/>
       <c r="K7" s="6"/>
       <c r="L7" s="133" t="s">
         <v>98</v>
@@ -6586,17 +6607,17 @@
       <c r="N7" s="11"/>
     </row>
     <row r="8" spans="1:20" ht="31" customHeight="1">
-      <c r="B8" s="430"/>
+      <c r="B8" s="428"/>
       <c r="C8" s="370" t="s">
         <v>288</v>
       </c>
       <c r="D8" s="370"/>
-      <c r="E8" s="383"/>
-      <c r="F8" s="383"/>
-      <c r="G8" s="383"/>
-      <c r="H8" s="383"/>
-      <c r="I8" s="383"/>
-      <c r="J8" s="383"/>
+      <c r="E8" s="384"/>
+      <c r="F8" s="384"/>
+      <c r="G8" s="384"/>
+      <c r="H8" s="384"/>
+      <c r="I8" s="384"/>
+      <c r="J8" s="384"/>
       <c r="K8" s="6"/>
       <c r="L8" s="133" t="s">
         <v>434</v>
@@ -6607,43 +6628,40 @@
       <c r="N8" s="11"/>
     </row>
     <row r="9" spans="1:20" ht="31" customHeight="1">
-      <c r="B9" s="430"/>
-      <c r="C9" s="375" t="s">
+      <c r="B9" s="428"/>
+      <c r="C9" s="430" t="s">
         <v>262</v>
       </c>
-      <c r="D9" s="375"/>
-      <c r="E9" s="385" t="s">
-        <v>375</v>
-      </c>
-      <c r="F9" s="385"/>
-      <c r="G9" s="383"/>
-      <c r="H9" s="383"/>
-      <c r="I9" s="383"/>
-      <c r="J9" s="383"/>
+      <c r="D9" s="431"/>
+      <c r="E9" s="386" t="s">
+        <v>267</v>
+      </c>
+      <c r="F9" s="386"/>
+      <c r="G9" s="384"/>
+      <c r="H9" s="384"/>
+      <c r="I9" s="384"/>
+      <c r="J9" s="384"/>
       <c r="K9" s="6"/>
       <c r="L9" s="133" t="s">
-        <v>96</v>
-      </c>
-      <c r="M9" s="116" t="b">
-        <v>0</v>
+        <v>91</v>
+      </c>
+      <c r="M9" s="141" t="s">
+        <v>472</v>
       </c>
       <c r="N9" s="11"/>
-      <c r="O9" s="4" t="s">
-        <v>611</v>
-      </c>
     </row>
     <row r="10" spans="1:20" ht="31" customHeight="1">
-      <c r="B10" s="430"/>
-      <c r="C10" s="375"/>
-      <c r="D10" s="375"/>
-      <c r="E10" s="385" t="s">
-        <v>267</v>
-      </c>
-      <c r="F10" s="385"/>
-      <c r="G10" s="383"/>
-      <c r="H10" s="383"/>
-      <c r="I10" s="383"/>
-      <c r="J10" s="383"/>
+      <c r="B10" s="428"/>
+      <c r="C10" s="432"/>
+      <c r="D10" s="433"/>
+      <c r="E10" s="386" t="s">
+        <v>268</v>
+      </c>
+      <c r="F10" s="386"/>
+      <c r="G10" s="384"/>
+      <c r="H10" s="384"/>
+      <c r="I10" s="384"/>
+      <c r="J10" s="384"/>
       <c r="K10" s="6"/>
       <c r="L10" s="133" t="s">
         <v>91</v>
@@ -6654,17 +6672,17 @@
       <c r="N10" s="11"/>
     </row>
     <row r="11" spans="1:20" ht="31" customHeight="1">
-      <c r="B11" s="430"/>
-      <c r="C11" s="375"/>
-      <c r="D11" s="375"/>
-      <c r="E11" s="385" t="s">
-        <v>268</v>
-      </c>
-      <c r="F11" s="385"/>
-      <c r="G11" s="383"/>
-      <c r="H11" s="383"/>
-      <c r="I11" s="383"/>
-      <c r="J11" s="383"/>
+      <c r="B11" s="428"/>
+      <c r="C11" s="432"/>
+      <c r="D11" s="433"/>
+      <c r="E11" s="386" t="s">
+        <v>261</v>
+      </c>
+      <c r="F11" s="386"/>
+      <c r="G11" s="384"/>
+      <c r="H11" s="384"/>
+      <c r="I11" s="384"/>
+      <c r="J11" s="384"/>
       <c r="K11" s="6"/>
       <c r="L11" s="133" t="s">
         <v>91</v>
@@ -6675,17 +6693,17 @@
       <c r="N11" s="11"/>
     </row>
     <row r="12" spans="1:20" ht="31" customHeight="1">
-      <c r="B12" s="430"/>
-      <c r="C12" s="375"/>
-      <c r="D12" s="375"/>
-      <c r="E12" s="385" t="s">
-        <v>261</v>
-      </c>
-      <c r="F12" s="385"/>
-      <c r="G12" s="383"/>
-      <c r="H12" s="383"/>
-      <c r="I12" s="383"/>
-      <c r="J12" s="383"/>
+      <c r="B12" s="428"/>
+      <c r="C12" s="432"/>
+      <c r="D12" s="433"/>
+      <c r="E12" s="386" t="s">
+        <v>269</v>
+      </c>
+      <c r="F12" s="386"/>
+      <c r="G12" s="384"/>
+      <c r="H12" s="384"/>
+      <c r="I12" s="384"/>
+      <c r="J12" s="384"/>
       <c r="K12" s="6"/>
       <c r="L12" s="133" t="s">
         <v>91</v>
@@ -6696,38 +6714,38 @@
       <c r="N12" s="11"/>
     </row>
     <row r="13" spans="1:20" ht="31" customHeight="1">
-      <c r="B13" s="430"/>
-      <c r="C13" s="375"/>
-      <c r="D13" s="375"/>
-      <c r="E13" s="385" t="s">
-        <v>269</v>
-      </c>
-      <c r="F13" s="385"/>
-      <c r="G13" s="383"/>
-      <c r="H13" s="383"/>
-      <c r="I13" s="383"/>
-      <c r="J13" s="383"/>
+      <c r="B13" s="428"/>
+      <c r="C13" s="432"/>
+      <c r="D13" s="433"/>
+      <c r="E13" s="386" t="s">
+        <v>284</v>
+      </c>
+      <c r="F13" s="386"/>
+      <c r="G13" s="384"/>
+      <c r="H13" s="384"/>
+      <c r="I13" s="384"/>
+      <c r="J13" s="384"/>
       <c r="K13" s="6"/>
       <c r="L13" s="133" t="s">
         <v>91</v>
       </c>
-      <c r="M13" s="141" t="s">
-        <v>472</v>
+      <c r="M13" s="138" t="s">
+        <v>437</v>
       </c>
       <c r="N13" s="11"/>
     </row>
     <row r="14" spans="1:20" ht="31" customHeight="1">
-      <c r="B14" s="430"/>
-      <c r="C14" s="375"/>
-      <c r="D14" s="375"/>
-      <c r="E14" s="385" t="s">
-        <v>284</v>
-      </c>
-      <c r="F14" s="385"/>
-      <c r="G14" s="383"/>
-      <c r="H14" s="383"/>
-      <c r="I14" s="383"/>
-      <c r="J14" s="383"/>
+      <c r="B14" s="429"/>
+      <c r="C14" s="434"/>
+      <c r="D14" s="435"/>
+      <c r="E14" s="386" t="s">
+        <v>283</v>
+      </c>
+      <c r="F14" s="386"/>
+      <c r="G14" s="384"/>
+      <c r="H14" s="384"/>
+      <c r="I14" s="384"/>
+      <c r="J14" s="384"/>
       <c r="K14" s="6"/>
       <c r="L14" s="133" t="s">
         <v>91</v>
@@ -6738,43 +6756,40 @@
       <c r="N14" s="11"/>
     </row>
     <row r="15" spans="1:20" ht="31" customHeight="1">
-      <c r="B15" s="431"/>
-      <c r="C15" s="375"/>
+      <c r="B15" s="378" t="s">
+        <v>258</v>
+      </c>
+      <c r="C15" s="375" t="s">
+        <v>275</v>
+      </c>
       <c r="D15" s="375"/>
-      <c r="E15" s="385" t="s">
-        <v>283</v>
-      </c>
-      <c r="F15" s="385"/>
-      <c r="G15" s="383"/>
-      <c r="H15" s="383"/>
-      <c r="I15" s="383"/>
-      <c r="J15" s="383"/>
+      <c r="E15" s="386" t="s">
+        <v>258</v>
+      </c>
+      <c r="F15" s="386"/>
+      <c r="G15" s="384"/>
+      <c r="H15" s="384"/>
+      <c r="I15" s="384"/>
+      <c r="J15" s="384"/>
       <c r="K15" s="6"/>
       <c r="L15" s="133" t="s">
-        <v>91</v>
-      </c>
-      <c r="M15" s="138" t="s">
-        <v>437</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="M15" s="11"/>
       <c r="N15" s="11"/>
     </row>
     <row r="16" spans="1:20" ht="31" customHeight="1">
-      <c r="B16" s="378" t="s">
-        <v>258</v>
-      </c>
-      <c r="C16" s="375" t="s">
-        <v>275</v>
-      </c>
+      <c r="B16" s="378"/>
+      <c r="C16" s="375"/>
       <c r="D16" s="375"/>
-      <c r="E16" s="385" t="s">
-        <v>258</v>
-      </c>
-      <c r="F16" s="385"/>
-      <c r="G16" s="383"/>
-      <c r="H16" s="383"/>
-      <c r="I16" s="383"/>
-      <c r="J16" s="383"/>
-      <c r="K16" s="6"/>
+      <c r="E16" s="386" t="s">
+        <v>274</v>
+      </c>
+      <c r="F16" s="386"/>
+      <c r="G16" s="384"/>
+      <c r="H16" s="384"/>
+      <c r="I16" s="384"/>
+      <c r="J16" s="384"/>
       <c r="L16" s="133" t="s">
         <v>113</v>
       </c>
@@ -6785,14 +6800,14 @@
       <c r="B17" s="378"/>
       <c r="C17" s="375"/>
       <c r="D17" s="375"/>
-      <c r="E17" s="385" t="s">
-        <v>274</v>
-      </c>
-      <c r="F17" s="385"/>
-      <c r="G17" s="383"/>
-      <c r="H17" s="383"/>
-      <c r="I17" s="383"/>
-      <c r="J17" s="383"/>
+      <c r="E17" s="386" t="s">
+        <v>277</v>
+      </c>
+      <c r="F17" s="386"/>
+      <c r="G17" s="384"/>
+      <c r="H17" s="384"/>
+      <c r="I17" s="384"/>
+      <c r="J17" s="384"/>
       <c r="L17" s="133" t="s">
         <v>113</v>
       </c>
@@ -6803,14 +6818,14 @@
       <c r="B18" s="378"/>
       <c r="C18" s="375"/>
       <c r="D18" s="375"/>
-      <c r="E18" s="385" t="s">
-        <v>277</v>
-      </c>
-      <c r="F18" s="385"/>
-      <c r="G18" s="383"/>
-      <c r="H18" s="383"/>
-      <c r="I18" s="383"/>
-      <c r="J18" s="383"/>
+      <c r="E18" s="386" t="s">
+        <v>261</v>
+      </c>
+      <c r="F18" s="386"/>
+      <c r="G18" s="384"/>
+      <c r="H18" s="384"/>
+      <c r="I18" s="384"/>
+      <c r="J18" s="384"/>
       <c r="L18" s="133" t="s">
         <v>113</v>
       </c>
@@ -6821,14 +6836,14 @@
       <c r="B19" s="378"/>
       <c r="C19" s="375"/>
       <c r="D19" s="375"/>
-      <c r="E19" s="385" t="s">
-        <v>261</v>
-      </c>
-      <c r="F19" s="385"/>
-      <c r="G19" s="383"/>
-      <c r="H19" s="383"/>
-      <c r="I19" s="383"/>
-      <c r="J19" s="383"/>
+      <c r="E19" s="386" t="s">
+        <v>273</v>
+      </c>
+      <c r="F19" s="386"/>
+      <c r="G19" s="384"/>
+      <c r="H19" s="384"/>
+      <c r="I19" s="384"/>
+      <c r="J19" s="384"/>
       <c r="L19" s="133" t="s">
         <v>113</v>
       </c>
@@ -6837,74 +6852,74 @@
     </row>
     <row r="20" spans="2:14" ht="31" customHeight="1">
       <c r="B20" s="378"/>
-      <c r="C20" s="375"/>
+      <c r="C20" s="375" t="s">
+        <v>276</v>
+      </c>
       <c r="D20" s="375"/>
-      <c r="E20" s="385" t="s">
-        <v>273</v>
-      </c>
-      <c r="F20" s="385"/>
-      <c r="G20" s="383"/>
-      <c r="H20" s="383"/>
-      <c r="I20" s="383"/>
-      <c r="J20" s="383"/>
+      <c r="E20" s="386" t="s">
+        <v>508</v>
+      </c>
+      <c r="F20" s="386"/>
+      <c r="G20" s="384"/>
+      <c r="H20" s="384"/>
+      <c r="I20" s="384"/>
+      <c r="J20" s="384"/>
       <c r="L20" s="133" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
     </row>
     <row r="21" spans="2:14" ht="31" customHeight="1">
       <c r="B21" s="378"/>
-      <c r="C21" s="375" t="s">
-        <v>276</v>
-      </c>
+      <c r="C21" s="375"/>
       <c r="D21" s="375"/>
-      <c r="E21" s="385" t="s">
-        <v>508</v>
-      </c>
-      <c r="F21" s="385"/>
-      <c r="G21" s="383"/>
-      <c r="H21" s="383"/>
-      <c r="I21" s="383"/>
-      <c r="J21" s="383"/>
+      <c r="E21" s="386" t="s">
+        <v>272</v>
+      </c>
+      <c r="F21" s="386"/>
+      <c r="G21" s="384"/>
+      <c r="H21" s="384"/>
+      <c r="I21" s="384"/>
+      <c r="J21" s="384"/>
       <c r="L21" s="133" t="s">
         <v>97</v>
       </c>
-      <c r="M21" s="11"/>
+      <c r="M21" s="175" t="s">
+        <v>114</v>
+      </c>
       <c r="N21" s="11"/>
     </row>
     <row r="22" spans="2:14" ht="31" customHeight="1">
       <c r="B22" s="378"/>
       <c r="C22" s="375"/>
       <c r="D22" s="375"/>
-      <c r="E22" s="385" t="s">
-        <v>272</v>
-      </c>
-      <c r="F22" s="385"/>
-      <c r="G22" s="383"/>
-      <c r="H22" s="383"/>
-      <c r="I22" s="383"/>
-      <c r="J22" s="383"/>
+      <c r="E22" s="386" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="386"/>
+      <c r="G22" s="384"/>
+      <c r="H22" s="384"/>
+      <c r="I22" s="384"/>
+      <c r="J22" s="384"/>
       <c r="L22" s="133" t="s">
         <v>97</v>
       </c>
-      <c r="M22" s="175" t="s">
-        <v>114</v>
-      </c>
+      <c r="M22" s="11"/>
       <c r="N22" s="11"/>
     </row>
     <row r="23" spans="2:14" ht="31" customHeight="1">
       <c r="B23" s="378"/>
       <c r="C23" s="375"/>
       <c r="D23" s="375"/>
-      <c r="E23" s="385" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" s="385"/>
-      <c r="G23" s="383"/>
-      <c r="H23" s="383"/>
-      <c r="I23" s="383"/>
-      <c r="J23" s="383"/>
+      <c r="E23" s="386" t="s">
+        <v>273</v>
+      </c>
+      <c r="F23" s="386"/>
+      <c r="G23" s="384"/>
+      <c r="H23" s="384"/>
+      <c r="I23" s="384"/>
+      <c r="J23" s="384"/>
       <c r="L23" s="133" t="s">
         <v>97</v>
       </c>
@@ -6912,772 +6927,774 @@
       <c r="N23" s="11"/>
     </row>
     <row r="24" spans="2:14" ht="31" customHeight="1">
-      <c r="B24" s="378"/>
-      <c r="C24" s="375"/>
-      <c r="D24" s="375"/>
-      <c r="E24" s="385" t="s">
-        <v>273</v>
-      </c>
-      <c r="F24" s="385"/>
-      <c r="G24" s="383"/>
-      <c r="H24" s="383"/>
-      <c r="I24" s="383"/>
-      <c r="J24" s="383"/>
+      <c r="B24" s="375" t="s">
+        <v>611</v>
+      </c>
+      <c r="C24" s="436" t="s">
+        <v>446</v>
+      </c>
+      <c r="D24" s="437"/>
+      <c r="E24" s="390"/>
+      <c r="F24" s="390"/>
+      <c r="G24" s="390"/>
+      <c r="H24" s="390"/>
+      <c r="I24" s="390"/>
+      <c r="J24" s="390"/>
+      <c r="K24" s="6"/>
       <c r="L24" s="133" t="s">
-        <v>97</v>
-      </c>
-      <c r="M24" s="11"/>
+        <v>434</v>
+      </c>
+      <c r="M24" s="141" t="s">
+        <v>460</v>
+      </c>
       <c r="N24" s="11"/>
     </row>
     <row r="25" spans="2:14" ht="31" customHeight="1">
-      <c r="B25" s="428"/>
-      <c r="C25" s="365" t="s">
-        <v>502</v>
-      </c>
-      <c r="D25" s="394" t="s">
-        <v>429</v>
-      </c>
-      <c r="E25" s="385" t="s">
-        <v>431</v>
-      </c>
-      <c r="F25" s="385"/>
-      <c r="G25" s="383"/>
-      <c r="H25" s="383"/>
-      <c r="I25" s="383"/>
-      <c r="J25" s="383"/>
+      <c r="B25" s="375"/>
+      <c r="C25" s="436" t="s">
+        <v>447</v>
+      </c>
+      <c r="D25" s="437"/>
+      <c r="E25" s="390"/>
+      <c r="F25" s="390"/>
+      <c r="G25" s="390"/>
+      <c r="H25" s="390"/>
+      <c r="I25" s="390"/>
+      <c r="J25" s="390"/>
       <c r="K25" s="6"/>
       <c r="L25" s="133" t="s">
-        <v>91</v>
-      </c>
-      <c r="M25" s="138" t="s">
-        <v>438</v>
+        <v>434</v>
+      </c>
+      <c r="M25" s="141" t="s">
+        <v>460</v>
       </c>
       <c r="N25" s="11"/>
     </row>
     <row r="26" spans="2:14" ht="31" customHeight="1">
-      <c r="B26" s="428"/>
-      <c r="C26" s="365"/>
-      <c r="D26" s="394"/>
-      <c r="E26" s="385" t="s">
-        <v>395</v>
-      </c>
-      <c r="F26" s="385"/>
-      <c r="G26" s="383"/>
-      <c r="H26" s="383"/>
-      <c r="I26" s="383"/>
-      <c r="J26" s="383"/>
+      <c r="B26" s="375"/>
+      <c r="C26" s="436" t="s">
+        <v>448</v>
+      </c>
+      <c r="D26" s="437"/>
+      <c r="E26" s="390"/>
+      <c r="F26" s="390"/>
+      <c r="G26" s="390"/>
+      <c r="H26" s="390"/>
+      <c r="I26" s="390"/>
+      <c r="J26" s="390"/>
       <c r="K26" s="6"/>
       <c r="L26" s="133" t="s">
-        <v>91</v>
-      </c>
-      <c r="M26" s="138" t="s">
-        <v>592</v>
+        <v>434</v>
+      </c>
+      <c r="M26" s="141" t="s">
+        <v>460</v>
       </c>
       <c r="N26" s="11"/>
     </row>
     <row r="27" spans="2:14" ht="31" customHeight="1">
-      <c r="B27" s="428"/>
-      <c r="C27" s="365"/>
-      <c r="D27" s="394"/>
-      <c r="E27" s="365" t="s">
-        <v>499</v>
-      </c>
-      <c r="F27" s="401" t="s">
-        <v>445</v>
-      </c>
-      <c r="G27" s="365" t="s">
-        <v>263</v>
-      </c>
-      <c r="H27" s="384" t="s">
-        <v>136</v>
-      </c>
-      <c r="I27" s="364"/>
-      <c r="J27" s="364"/>
+      <c r="B27" s="375"/>
+      <c r="C27" s="436" t="s">
+        <v>449</v>
+      </c>
+      <c r="D27" s="437"/>
+      <c r="E27" s="390"/>
+      <c r="F27" s="390"/>
+      <c r="G27" s="390"/>
+      <c r="H27" s="390"/>
+      <c r="I27" s="390"/>
+      <c r="J27" s="390"/>
       <c r="K27" s="6"/>
       <c r="L27" s="133" t="s">
-        <v>96</v>
-      </c>
-      <c r="M27" s="116" t="s">
-        <v>411</v>
+        <v>90</v>
+      </c>
+      <c r="M27" s="116">
+        <v>0</v>
       </c>
       <c r="N27" s="11"/>
     </row>
     <row r="28" spans="2:14" ht="31" customHeight="1">
-      <c r="B28" s="428"/>
-      <c r="C28" s="365"/>
-      <c r="D28" s="394"/>
-      <c r="E28" s="365"/>
-      <c r="F28" s="401"/>
-      <c r="G28" s="365"/>
-      <c r="H28" s="384" t="s">
-        <v>137</v>
-      </c>
-      <c r="I28" s="364"/>
-      <c r="J28" s="364"/>
+      <c r="B28" s="375"/>
+      <c r="C28" s="436" t="s">
+        <v>450</v>
+      </c>
+      <c r="D28" s="437"/>
+      <c r="E28" s="390"/>
+      <c r="F28" s="390"/>
+      <c r="G28" s="390"/>
+      <c r="H28" s="390"/>
+      <c r="I28" s="390"/>
+      <c r="J28" s="390"/>
       <c r="K28" s="6"/>
       <c r="L28" s="133" t="s">
-        <v>434</v>
-      </c>
-      <c r="M28" s="11"/>
-      <c r="N28" s="175" t="s">
-        <v>436</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="M28" s="116">
+        <v>0</v>
+      </c>
+      <c r="N28" s="11"/>
     </row>
     <row r="29" spans="2:14" ht="31" customHeight="1">
-      <c r="B29" s="428"/>
-      <c r="C29" s="365"/>
-      <c r="D29" s="394"/>
-      <c r="E29" s="365"/>
-      <c r="F29" s="401"/>
-      <c r="G29" s="365"/>
-      <c r="H29" s="385" t="s">
-        <v>426</v>
-      </c>
-      <c r="I29" s="410" t="s">
-        <v>141</v>
-      </c>
-      <c r="J29" s="411"/>
+      <c r="B29" s="375"/>
+      <c r="C29" s="436" t="s">
+        <v>451</v>
+      </c>
+      <c r="D29" s="437"/>
+      <c r="E29" s="390"/>
+      <c r="F29" s="390"/>
+      <c r="G29" s="390"/>
+      <c r="H29" s="390"/>
+      <c r="I29" s="390"/>
+      <c r="J29" s="390"/>
       <c r="K29" s="6"/>
       <c r="L29" s="133" t="s">
-        <v>141</v>
-      </c>
-      <c r="M29" s="11"/>
-      <c r="N29" s="141" t="s">
-        <v>244</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="M29" s="116">
+        <v>0</v>
+      </c>
+      <c r="N29" s="11"/>
     </row>
     <row r="30" spans="2:14" ht="31" customHeight="1">
-      <c r="B30" s="428"/>
-      <c r="C30" s="365"/>
-      <c r="D30" s="394"/>
-      <c r="E30" s="365"/>
-      <c r="F30" s="401"/>
-      <c r="G30" s="365"/>
-      <c r="H30" s="385"/>
-      <c r="I30" s="408" t="s">
-        <v>146</v>
-      </c>
-      <c r="J30" s="409"/>
+      <c r="B30" s="395" t="s">
+        <v>429</v>
+      </c>
+      <c r="C30" s="365" t="s">
+        <v>502</v>
+      </c>
+      <c r="D30" s="395" t="s">
+        <v>429</v>
+      </c>
+      <c r="E30" s="386" t="s">
+        <v>431</v>
+      </c>
+      <c r="F30" s="386"/>
+      <c r="G30" s="384"/>
+      <c r="H30" s="384"/>
+      <c r="I30" s="384"/>
+      <c r="J30" s="384"/>
       <c r="K30" s="6"/>
       <c r="L30" s="133" t="s">
-        <v>434</v>
-      </c>
-      <c r="M30" s="11"/>
-      <c r="N30" s="175" t="s">
-        <v>245</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="M30" s="138" t="s">
+        <v>438</v>
+      </c>
+      <c r="N30" s="11"/>
     </row>
     <row r="31" spans="2:14" ht="31" customHeight="1">
-      <c r="B31" s="428"/>
+      <c r="B31" s="395"/>
       <c r="C31" s="365"/>
-      <c r="D31" s="394"/>
-      <c r="E31" s="365"/>
-      <c r="F31" s="401"/>
-      <c r="G31" s="365"/>
-      <c r="H31" s="385"/>
-      <c r="I31" s="408" t="s">
-        <v>408</v>
-      </c>
-      <c r="J31" s="409"/>
+      <c r="D31" s="395"/>
+      <c r="E31" s="386" t="s">
+        <v>395</v>
+      </c>
+      <c r="F31" s="386"/>
+      <c r="G31" s="384"/>
+      <c r="H31" s="384"/>
+      <c r="I31" s="384"/>
+      <c r="J31" s="384"/>
       <c r="K31" s="6"/>
       <c r="L31" s="133" t="s">
-        <v>434</v>
-      </c>
-      <c r="M31" s="11"/>
-      <c r="N31" s="175" t="s">
-        <v>246</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="M31" s="138" t="s">
+        <v>592</v>
+      </c>
+      <c r="N31" s="11"/>
     </row>
     <row r="32" spans="2:14" ht="31" customHeight="1">
-      <c r="B32" s="428"/>
+      <c r="B32" s="395"/>
       <c r="C32" s="365"/>
-      <c r="D32" s="394"/>
-      <c r="E32" s="365"/>
-      <c r="F32" s="401"/>
-      <c r="G32" s="365"/>
-      <c r="H32" s="385"/>
-      <c r="I32" s="408" t="s">
-        <v>409</v>
-      </c>
-      <c r="J32" s="409"/>
+      <c r="D32" s="395"/>
+      <c r="E32" s="365" t="s">
+        <v>499</v>
+      </c>
+      <c r="F32" s="400" t="s">
+        <v>445</v>
+      </c>
+      <c r="G32" s="365" t="s">
+        <v>263</v>
+      </c>
+      <c r="H32" s="385" t="s">
+        <v>136</v>
+      </c>
+      <c r="I32" s="364"/>
+      <c r="J32" s="364"/>
       <c r="K32" s="6"/>
       <c r="L32" s="133" t="s">
-        <v>90</v>
-      </c>
-      <c r="M32" s="11"/>
-      <c r="N32" s="68">
-        <v>4</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="M32" s="116" t="s">
+        <v>411</v>
+      </c>
+      <c r="N32" s="11"/>
     </row>
     <row r="33" spans="2:14" ht="31" customHeight="1">
-      <c r="B33" s="428"/>
+      <c r="B33" s="395"/>
       <c r="C33" s="365"/>
-      <c r="D33" s="394"/>
+      <c r="D33" s="395"/>
       <c r="E33" s="365"/>
-      <c r="F33" s="401"/>
+      <c r="F33" s="400"/>
       <c r="G33" s="365"/>
-      <c r="H33" s="385"/>
-      <c r="I33" s="408" t="s">
-        <v>410</v>
-      </c>
-      <c r="J33" s="409"/>
+      <c r="H33" s="385" t="s">
+        <v>137</v>
+      </c>
+      <c r="I33" s="364"/>
+      <c r="J33" s="364"/>
       <c r="K33" s="6"/>
       <c r="L33" s="133" t="s">
-        <v>90</v>
+        <v>434</v>
       </c>
       <c r="M33" s="11"/>
-      <c r="N33" s="68">
-        <v>10</v>
+      <c r="N33" s="175" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="34" spans="2:14" ht="31" customHeight="1">
-      <c r="B34" s="428"/>
+      <c r="B34" s="395"/>
       <c r="C34" s="365"/>
-      <c r="D34" s="394" t="s">
-        <v>430</v>
-      </c>
-      <c r="E34" s="385" t="s">
-        <v>379</v>
-      </c>
-      <c r="F34" s="385"/>
-      <c r="G34" s="386"/>
-      <c r="H34" s="386"/>
-      <c r="I34" s="386"/>
-      <c r="J34" s="386"/>
+      <c r="D34" s="395"/>
+      <c r="E34" s="365"/>
+      <c r="F34" s="400"/>
+      <c r="G34" s="365"/>
+      <c r="H34" s="386" t="s">
+        <v>426</v>
+      </c>
+      <c r="I34" s="409" t="s">
+        <v>141</v>
+      </c>
+      <c r="J34" s="410"/>
       <c r="K34" s="6"/>
       <c r="L34" s="133" t="s">
-        <v>91</v>
-      </c>
-      <c r="M34" s="177"/>
-      <c r="N34" s="138" t="s">
-        <v>440</v>
+        <v>141</v>
+      </c>
+      <c r="M34" s="11"/>
+      <c r="N34" s="141" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="35" spans="2:14" ht="31" customHeight="1">
-      <c r="B35" s="428"/>
+      <c r="B35" s="395"/>
       <c r="C35" s="365"/>
-      <c r="D35" s="394"/>
-      <c r="E35" s="385" t="s">
-        <v>279</v>
-      </c>
-      <c r="F35" s="385"/>
-      <c r="G35" s="386"/>
+      <c r="D35" s="395"/>
+      <c r="E35" s="365"/>
+      <c r="F35" s="400"/>
+      <c r="G35" s="365"/>
       <c r="H35" s="386"/>
-      <c r="I35" s="386"/>
-      <c r="J35" s="386"/>
+      <c r="I35" s="407" t="s">
+        <v>146</v>
+      </c>
+      <c r="J35" s="408"/>
       <c r="K35" s="6"/>
       <c r="L35" s="133" t="s">
-        <v>90</v>
-      </c>
-      <c r="M35" s="116">
-        <v>500</v>
-      </c>
-      <c r="N35" s="11"/>
+        <v>434</v>
+      </c>
+      <c r="M35" s="11"/>
+      <c r="N35" s="175" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="36" spans="2:14" ht="31" customHeight="1">
-      <c r="B36" s="428"/>
+      <c r="B36" s="395"/>
       <c r="C36" s="365"/>
-      <c r="D36" s="394"/>
-      <c r="E36" s="385" t="s">
-        <v>507</v>
-      </c>
-      <c r="F36" s="385"/>
-      <c r="G36" s="386"/>
+      <c r="D36" s="395"/>
+      <c r="E36" s="365"/>
+      <c r="F36" s="400"/>
+      <c r="G36" s="365"/>
       <c r="H36" s="386"/>
-      <c r="I36" s="386"/>
-      <c r="J36" s="386"/>
+      <c r="I36" s="407" t="s">
+        <v>408</v>
+      </c>
+      <c r="J36" s="408"/>
       <c r="K36" s="6"/>
       <c r="L36" s="133" t="s">
-        <v>90</v>
-      </c>
-      <c r="M36" s="116">
-        <v>500</v>
-      </c>
-      <c r="N36" s="11"/>
+        <v>434</v>
+      </c>
+      <c r="M36" s="11"/>
+      <c r="N36" s="175" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="37" spans="2:14" ht="31" customHeight="1">
-      <c r="B37" s="428"/>
+      <c r="B37" s="395"/>
       <c r="C37" s="365"/>
-      <c r="D37" s="394"/>
-      <c r="E37" s="385" t="s">
-        <v>399</v>
-      </c>
-      <c r="F37" s="385"/>
-      <c r="G37" s="386"/>
+      <c r="D37" s="395"/>
+      <c r="E37" s="365"/>
+      <c r="F37" s="400"/>
+      <c r="G37" s="365"/>
       <c r="H37" s="386"/>
-      <c r="I37" s="386"/>
-      <c r="J37" s="386"/>
+      <c r="I37" s="407" t="s">
+        <v>409</v>
+      </c>
+      <c r="J37" s="408"/>
       <c r="K37" s="6"/>
       <c r="L37" s="133" t="s">
-        <v>91</v>
-      </c>
-      <c r="M37" s="138" t="s">
-        <v>593</v>
-      </c>
-      <c r="N37" s="11"/>
+        <v>90</v>
+      </c>
+      <c r="M37" s="11"/>
+      <c r="N37" s="68">
+        <v>4</v>
+      </c>
     </row>
     <row r="38" spans="2:14" ht="31" customHeight="1">
-      <c r="B38" s="428"/>
+      <c r="B38" s="395"/>
       <c r="C38" s="365"/>
-      <c r="D38" s="394"/>
-      <c r="E38" s="365" t="s">
-        <v>500</v>
-      </c>
-      <c r="F38" s="401" t="s">
-        <v>444</v>
-      </c>
-      <c r="G38" s="365" t="s">
-        <v>263</v>
-      </c>
-      <c r="H38" s="387" t="s">
-        <v>136</v>
-      </c>
-      <c r="I38" s="364"/>
-      <c r="J38" s="364"/>
+      <c r="D38" s="395"/>
+      <c r="E38" s="365"/>
+      <c r="F38" s="400"/>
+      <c r="G38" s="365"/>
+      <c r="H38" s="386"/>
+      <c r="I38" s="407" t="s">
+        <v>410</v>
+      </c>
+      <c r="J38" s="408"/>
       <c r="K38" s="6"/>
       <c r="L38" s="133" t="s">
-        <v>122</v>
-      </c>
-      <c r="M38" s="116" t="s">
-        <v>411</v>
-      </c>
-      <c r="N38" s="11"/>
+        <v>90</v>
+      </c>
+      <c r="M38" s="11"/>
+      <c r="N38" s="68">
+        <v>10</v>
+      </c>
     </row>
     <row r="39" spans="2:14" ht="31" customHeight="1">
-      <c r="B39" s="428"/>
+      <c r="B39" s="395" t="s">
+        <v>430</v>
+      </c>
       <c r="C39" s="365"/>
-      <c r="D39" s="394"/>
-      <c r="E39" s="365"/>
-      <c r="F39" s="401"/>
-      <c r="G39" s="365"/>
-      <c r="H39" s="387" t="s">
-        <v>137</v>
-      </c>
-      <c r="I39" s="364"/>
-      <c r="J39" s="364"/>
+      <c r="D39" s="395" t="s">
+        <v>430</v>
+      </c>
+      <c r="E39" s="386" t="s">
+        <v>379</v>
+      </c>
+      <c r="F39" s="386"/>
+      <c r="G39" s="387"/>
+      <c r="H39" s="387"/>
+      <c r="I39" s="387"/>
+      <c r="J39" s="387"/>
       <c r="K39" s="6"/>
       <c r="L39" s="133" t="s">
-        <v>434</v>
-      </c>
-      <c r="M39" s="11"/>
-      <c r="N39" s="175" t="s">
-        <v>150</v>
+        <v>91</v>
+      </c>
+      <c r="M39" s="177"/>
+      <c r="N39" s="138" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="40" spans="2:14" ht="31" customHeight="1">
-      <c r="B40" s="428"/>
+      <c r="B40" s="395"/>
       <c r="C40" s="365"/>
-      <c r="D40" s="394"/>
-      <c r="E40" s="365"/>
-      <c r="F40" s="401"/>
-      <c r="G40" s="365"/>
-      <c r="H40" s="387" t="s">
-        <v>282</v>
-      </c>
-      <c r="I40" s="364"/>
-      <c r="J40" s="364"/>
+      <c r="D40" s="395"/>
+      <c r="E40" s="386" t="s">
+        <v>279</v>
+      </c>
+      <c r="F40" s="386"/>
+      <c r="G40" s="387"/>
+      <c r="H40" s="387"/>
+      <c r="I40" s="387"/>
+      <c r="J40" s="387"/>
       <c r="K40" s="6"/>
       <c r="L40" s="133" t="s">
-        <v>122</v>
-      </c>
-      <c r="M40" s="11"/>
-      <c r="N40" s="116" t="b">
-        <v>0</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="M40" s="116">
+        <v>500</v>
+      </c>
+      <c r="N40" s="11"/>
     </row>
     <row r="41" spans="2:14" ht="31" customHeight="1">
-      <c r="B41" s="428"/>
+      <c r="B41" s="395"/>
       <c r="C41" s="365"/>
-      <c r="D41" s="394"/>
-      <c r="E41" s="365"/>
-      <c r="F41" s="401"/>
-      <c r="G41" s="365"/>
-      <c r="H41" s="387" t="s">
-        <v>281</v>
-      </c>
-      <c r="I41" s="364"/>
-      <c r="J41" s="364"/>
+      <c r="D41" s="395"/>
+      <c r="E41" s="386" t="s">
+        <v>507</v>
+      </c>
+      <c r="F41" s="386"/>
+      <c r="G41" s="387"/>
+      <c r="H41" s="387"/>
+      <c r="I41" s="387"/>
+      <c r="J41" s="387"/>
       <c r="K41" s="6"/>
       <c r="L41" s="133" t="s">
-        <v>122</v>
-      </c>
-      <c r="M41" s="11"/>
-      <c r="N41" s="116" t="b">
-        <v>0</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="M41" s="116">
+        <v>500</v>
+      </c>
+      <c r="N41" s="11"/>
     </row>
     <row r="42" spans="2:14" ht="31" customHeight="1">
-      <c r="B42" s="428"/>
+      <c r="B42" s="395"/>
       <c r="C42" s="365"/>
-      <c r="D42" s="394"/>
-      <c r="E42" s="365"/>
-      <c r="F42" s="401"/>
-      <c r="G42" s="365"/>
-      <c r="H42" s="388" t="s">
-        <v>426</v>
-      </c>
-      <c r="I42" s="388" t="s">
-        <v>141</v>
-      </c>
-      <c r="J42" s="388"/>
+      <c r="D42" s="395"/>
+      <c r="E42" s="386" t="s">
+        <v>399</v>
+      </c>
+      <c r="F42" s="386"/>
+      <c r="G42" s="387"/>
+      <c r="H42" s="387"/>
+      <c r="I42" s="387"/>
+      <c r="J42" s="387"/>
       <c r="K42" s="6"/>
       <c r="L42" s="133" t="s">
-        <v>141</v>
-      </c>
-      <c r="M42" s="11"/>
-      <c r="N42" s="141" t="s">
-        <v>159</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="M42" s="138" t="s">
+        <v>593</v>
+      </c>
+      <c r="N42" s="11"/>
     </row>
     <row r="43" spans="2:14" ht="31" customHeight="1">
-      <c r="B43" s="428"/>
+      <c r="B43" s="395"/>
       <c r="C43" s="365"/>
-      <c r="D43" s="394"/>
-      <c r="E43" s="365"/>
-      <c r="F43" s="401"/>
-      <c r="G43" s="365"/>
-      <c r="H43" s="388"/>
-      <c r="I43" s="388" t="s">
-        <v>146</v>
-      </c>
-      <c r="J43" s="388"/>
+      <c r="D43" s="395"/>
+      <c r="E43" s="365" t="s">
+        <v>500</v>
+      </c>
+      <c r="F43" s="400" t="s">
+        <v>444</v>
+      </c>
+      <c r="G43" s="365" t="s">
+        <v>263</v>
+      </c>
+      <c r="H43" s="388" t="s">
+        <v>136</v>
+      </c>
+      <c r="I43" s="364"/>
+      <c r="J43" s="364"/>
       <c r="K43" s="6"/>
       <c r="L43" s="133" t="s">
-        <v>434</v>
-      </c>
-      <c r="M43" s="11"/>
-      <c r="N43" s="175" t="s">
-        <v>160</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="M43" s="116" t="s">
+        <v>411</v>
+      </c>
+      <c r="N43" s="11"/>
     </row>
     <row r="44" spans="2:14" ht="31" customHeight="1">
-      <c r="B44" s="428"/>
+      <c r="B44" s="395"/>
       <c r="C44" s="365"/>
-      <c r="D44" s="394"/>
+      <c r="D44" s="395"/>
       <c r="E44" s="365"/>
-      <c r="F44" s="401"/>
+      <c r="F44" s="400"/>
       <c r="G44" s="365"/>
-      <c r="H44" s="388"/>
-      <c r="I44" s="388" t="s">
-        <v>400</v>
-      </c>
-      <c r="J44" s="388"/>
+      <c r="H44" s="388" t="s">
+        <v>137</v>
+      </c>
+      <c r="I44" s="364"/>
+      <c r="J44" s="364"/>
       <c r="K44" s="6"/>
       <c r="L44" s="133" t="s">
-        <v>90</v>
+        <v>434</v>
       </c>
       <c r="M44" s="11"/>
-      <c r="N44" s="116">
-        <v>26</v>
+      <c r="N44" s="175" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="45" spans="2:14" ht="31" customHeight="1">
-      <c r="B45" s="428"/>
+      <c r="B45" s="395"/>
       <c r="C45" s="365"/>
-      <c r="D45" s="394"/>
+      <c r="D45" s="395"/>
       <c r="E45" s="365"/>
-      <c r="F45" s="401"/>
+      <c r="F45" s="400"/>
       <c r="G45" s="365"/>
-      <c r="H45" s="388"/>
-      <c r="I45" s="388" t="s">
-        <v>401</v>
-      </c>
-      <c r="J45" s="388"/>
+      <c r="H45" s="388" t="s">
+        <v>282</v>
+      </c>
+      <c r="I45" s="364"/>
+      <c r="J45" s="364"/>
       <c r="K45" s="6"/>
       <c r="L45" s="133" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="M45" s="11"/>
-      <c r="N45" s="116">
-        <v>12</v>
+      <c r="N45" s="116" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="2:14" ht="31" customHeight="1">
-      <c r="B46" s="428"/>
+      <c r="B46" s="395"/>
       <c r="C46" s="365"/>
-      <c r="D46" s="394"/>
+      <c r="D46" s="395"/>
       <c r="E46" s="365"/>
-      <c r="F46" s="401"/>
+      <c r="F46" s="400"/>
       <c r="G46" s="365"/>
       <c r="H46" s="388" t="s">
-        <v>140</v>
-      </c>
-      <c r="I46" s="388" t="s">
-        <v>141</v>
-      </c>
-      <c r="J46" s="388"/>
+        <v>281</v>
+      </c>
+      <c r="I46" s="364"/>
+      <c r="J46" s="364"/>
       <c r="K46" s="6"/>
       <c r="L46" s="133" t="s">
+        <v>122</v>
+      </c>
+      <c r="M46" s="11"/>
+      <c r="N46" s="116" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" ht="31" customHeight="1">
+      <c r="B47" s="395"/>
+      <c r="C47" s="365"/>
+      <c r="D47" s="395"/>
+      <c r="E47" s="365"/>
+      <c r="F47" s="400"/>
+      <c r="G47" s="365"/>
+      <c r="H47" s="389" t="s">
+        <v>426</v>
+      </c>
+      <c r="I47" s="389" t="s">
         <v>141</v>
       </c>
-      <c r="M46" s="11"/>
-      <c r="N46" s="141" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" ht="31" customHeight="1">
-      <c r="B47" s="428"/>
-      <c r="C47" s="365"/>
-      <c r="D47" s="394"/>
-      <c r="E47" s="365"/>
-      <c r="F47" s="401"/>
-      <c r="G47" s="365"/>
-      <c r="H47" s="388"/>
-      <c r="I47" s="388" t="s">
-        <v>142</v>
-      </c>
-      <c r="J47" s="388"/>
+      <c r="J47" s="389"/>
       <c r="K47" s="6"/>
       <c r="L47" s="133" t="s">
-        <v>434</v>
+        <v>141</v>
       </c>
       <c r="M47" s="11"/>
-      <c r="N47" s="175" t="s">
-        <v>150</v>
+      <c r="N47" s="141" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="2:14" ht="31" customHeight="1">
-      <c r="B48" s="428"/>
+      <c r="B48" s="395"/>
       <c r="C48" s="365"/>
-      <c r="D48" s="394"/>
+      <c r="D48" s="395"/>
       <c r="E48" s="365"/>
-      <c r="F48" s="401"/>
+      <c r="F48" s="400"/>
       <c r="G48" s="365"/>
-      <c r="H48" s="388"/>
-      <c r="I48" s="388" t="s">
-        <v>143</v>
-      </c>
-      <c r="J48" s="388"/>
+      <c r="H48" s="389"/>
+      <c r="I48" s="389" t="s">
+        <v>146</v>
+      </c>
+      <c r="J48" s="389"/>
       <c r="K48" s="6"/>
       <c r="L48" s="133" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="M48" s="11"/>
-      <c r="N48" s="140" t="s">
-        <v>441</v>
+      <c r="N48" s="175" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="49" spans="2:15" ht="31" customHeight="1">
-      <c r="B49" s="428"/>
+      <c r="B49" s="395"/>
       <c r="C49" s="365"/>
-      <c r="D49" s="394"/>
+      <c r="D49" s="395"/>
       <c r="E49" s="365"/>
-      <c r="F49" s="401"/>
+      <c r="F49" s="400"/>
       <c r="G49" s="365"/>
-      <c r="H49" s="388"/>
-      <c r="I49" s="388" t="s">
-        <v>144</v>
-      </c>
-      <c r="J49" s="388"/>
+      <c r="H49" s="389"/>
+      <c r="I49" s="389" t="s">
+        <v>400</v>
+      </c>
+      <c r="J49" s="389"/>
       <c r="K49" s="6"/>
       <c r="L49" s="133" t="s">
-        <v>434</v>
+        <v>90</v>
       </c>
       <c r="M49" s="11"/>
-      <c r="N49" s="175" t="s">
-        <v>157</v>
+      <c r="N49" s="116">
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="2:15" ht="31" customHeight="1">
-      <c r="B50" s="428"/>
-      <c r="C50" s="373" t="s">
-        <v>28</v>
-      </c>
-      <c r="D50" s="400" t="s">
-        <v>446</v>
-      </c>
-      <c r="E50" s="389"/>
-      <c r="F50" s="389"/>
-      <c r="G50" s="389"/>
+      <c r="B50" s="395"/>
+      <c r="C50" s="365"/>
+      <c r="D50" s="395"/>
+      <c r="E50" s="365"/>
+      <c r="F50" s="400"/>
+      <c r="G50" s="365"/>
       <c r="H50" s="389"/>
-      <c r="I50" s="389"/>
+      <c r="I50" s="389" t="s">
+        <v>401</v>
+      </c>
       <c r="J50" s="389"/>
       <c r="K50" s="6"/>
       <c r="L50" s="133" t="s">
-        <v>434</v>
-      </c>
-      <c r="M50" s="141" t="s">
-        <v>460</v>
-      </c>
-      <c r="N50" s="11"/>
+        <v>90</v>
+      </c>
+      <c r="M50" s="11"/>
+      <c r="N50" s="116">
+        <v>12</v>
+      </c>
     </row>
     <row r="51" spans="2:15" ht="31" customHeight="1">
-      <c r="B51" s="428"/>
-      <c r="C51" s="373"/>
-      <c r="D51" s="400" t="s">
-        <v>447</v>
-      </c>
-      <c r="E51" s="389"/>
-      <c r="F51" s="389"/>
-      <c r="G51" s="389"/>
-      <c r="H51" s="389"/>
-      <c r="I51" s="389"/>
+      <c r="B51" s="395"/>
+      <c r="C51" s="365"/>
+      <c r="D51" s="395"/>
+      <c r="E51" s="365"/>
+      <c r="F51" s="400"/>
+      <c r="G51" s="365"/>
+      <c r="H51" s="389" t="s">
+        <v>140</v>
+      </c>
+      <c r="I51" s="389" t="s">
+        <v>141</v>
+      </c>
       <c r="J51" s="389"/>
       <c r="K51" s="6"/>
       <c r="L51" s="133" t="s">
-        <v>434</v>
-      </c>
-      <c r="M51" s="141" t="s">
-        <v>460</v>
-      </c>
-      <c r="N51" s="11"/>
+        <v>141</v>
+      </c>
+      <c r="M51" s="11"/>
+      <c r="N51" s="141" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="52" spans="2:15" ht="31" customHeight="1">
-      <c r="B52" s="428"/>
-      <c r="C52" s="373"/>
-      <c r="D52" s="400" t="s">
-        <v>448</v>
-      </c>
-      <c r="E52" s="389"/>
-      <c r="F52" s="389"/>
-      <c r="G52" s="389"/>
+      <c r="B52" s="395"/>
+      <c r="C52" s="365"/>
+      <c r="D52" s="395"/>
+      <c r="E52" s="365"/>
+      <c r="F52" s="400"/>
+      <c r="G52" s="365"/>
       <c r="H52" s="389"/>
-      <c r="I52" s="389"/>
+      <c r="I52" s="389" t="s">
+        <v>142</v>
+      </c>
       <c r="J52" s="389"/>
       <c r="K52" s="6"/>
       <c r="L52" s="133" t="s">
         <v>434</v>
       </c>
-      <c r="M52" s="141" t="s">
-        <v>460</v>
-      </c>
-      <c r="N52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="175" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="53" spans="2:15" ht="31" customHeight="1">
-      <c r="B53" s="428"/>
-      <c r="C53" s="373"/>
-      <c r="D53" s="400" t="s">
-        <v>449</v>
-      </c>
-      <c r="E53" s="389"/>
-      <c r="F53" s="389"/>
-      <c r="G53" s="389"/>
+      <c r="B53" s="395"/>
+      <c r="C53" s="365"/>
+      <c r="D53" s="395"/>
+      <c r="E53" s="365"/>
+      <c r="F53" s="400"/>
+      <c r="G53" s="365"/>
       <c r="H53" s="389"/>
-      <c r="I53" s="389"/>
+      <c r="I53" s="389" t="s">
+        <v>143</v>
+      </c>
       <c r="J53" s="389"/>
       <c r="K53" s="6"/>
       <c r="L53" s="133" t="s">
-        <v>90</v>
-      </c>
-      <c r="M53" s="116">
-        <v>0</v>
-      </c>
-      <c r="N53" s="11"/>
+        <v>442</v>
+      </c>
+      <c r="M53" s="11"/>
+      <c r="N53" s="140" t="s">
+        <v>441</v>
+      </c>
     </row>
     <row r="54" spans="2:15" ht="31" customHeight="1">
-      <c r="B54" s="428"/>
-      <c r="C54" s="373"/>
-      <c r="D54" s="400" t="s">
-        <v>450</v>
-      </c>
-      <c r="E54" s="389"/>
-      <c r="F54" s="389"/>
-      <c r="G54" s="389"/>
+      <c r="B54" s="395"/>
+      <c r="C54" s="365"/>
+      <c r="D54" s="395"/>
+      <c r="E54" s="365"/>
+      <c r="F54" s="400"/>
+      <c r="G54" s="365"/>
       <c r="H54" s="389"/>
-      <c r="I54" s="389"/>
+      <c r="I54" s="389" t="s">
+        <v>144</v>
+      </c>
       <c r="J54" s="389"/>
       <c r="K54" s="6"/>
       <c r="L54" s="133" t="s">
-        <v>90</v>
-      </c>
-      <c r="M54" s="116">
-        <v>0</v>
-      </c>
-      <c r="N54" s="11"/>
+        <v>434</v>
+      </c>
+      <c r="M54" s="11"/>
+      <c r="N54" s="175" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="55" spans="2:15" ht="31" customHeight="1">
-      <c r="B55" s="428"/>
-      <c r="C55" s="373"/>
-      <c r="D55" s="400" t="s">
-        <v>451</v>
-      </c>
-      <c r="E55" s="389"/>
-      <c r="F55" s="389"/>
-      <c r="G55" s="389"/>
-      <c r="H55" s="389"/>
-      <c r="I55" s="389"/>
-      <c r="J55" s="389"/>
-      <c r="K55" s="6"/>
+      <c r="B55" s="378" t="s">
+        <v>508</v>
+      </c>
+      <c r="C55" s="373" t="s">
+        <v>513</v>
+      </c>
+      <c r="D55" s="373"/>
+      <c r="E55" s="384"/>
+      <c r="F55" s="384"/>
+      <c r="G55" s="384"/>
+      <c r="H55" s="384"/>
+      <c r="I55" s="384"/>
+      <c r="J55" s="384"/>
       <c r="L55" s="133" t="s">
-        <v>90</v>
-      </c>
-      <c r="M55" s="116">
-        <v>0</v>
-      </c>
-      <c r="N55" s="11"/>
+        <v>453</v>
+      </c>
+      <c r="M55" s="177"/>
+      <c r="N55" s="116" t="s">
+        <v>454</v>
+      </c>
     </row>
     <row r="56" spans="2:15" ht="31" customHeight="1">
-      <c r="B56" s="379" t="s">
-        <v>508</v>
-      </c>
+      <c r="B56" s="378"/>
       <c r="C56" s="373" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D56" s="373"/>
-      <c r="E56" s="383"/>
-      <c r="F56" s="383"/>
-      <c r="G56" s="383"/>
-      <c r="H56" s="383"/>
-      <c r="I56" s="383"/>
-      <c r="J56" s="383"/>
+      <c r="E56" s="384"/>
+      <c r="F56" s="384"/>
+      <c r="G56" s="384"/>
+      <c r="H56" s="384"/>
+      <c r="I56" s="384"/>
+      <c r="J56" s="384"/>
       <c r="L56" s="133" t="s">
-        <v>453</v>
-      </c>
-      <c r="M56" s="177"/>
-      <c r="N56" s="116" t="s">
-        <v>454</v>
+        <v>91</v>
+      </c>
+      <c r="M56" s="11"/>
+      <c r="N56" s="138" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="57" spans="2:15" ht="31" customHeight="1">
-      <c r="B57" s="379"/>
+      <c r="B57" s="378"/>
       <c r="C57" s="373" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D57" s="373"/>
-      <c r="E57" s="383"/>
-      <c r="F57" s="383"/>
-      <c r="G57" s="383"/>
-      <c r="H57" s="383"/>
-      <c r="I57" s="383"/>
-      <c r="J57" s="383"/>
+      <c r="E57" s="384"/>
+      <c r="F57" s="384"/>
+      <c r="G57" s="384"/>
+      <c r="H57" s="384"/>
+      <c r="I57" s="384"/>
+      <c r="J57" s="384"/>
       <c r="L57" s="133" t="s">
-        <v>91</v>
-      </c>
-      <c r="M57" s="11"/>
-      <c r="N57" s="138" t="s">
-        <v>594</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="M57" s="163" t="s">
+        <v>509</v>
+      </c>
+      <c r="N57" s="11"/>
     </row>
     <row r="58" spans="2:15" ht="31" customHeight="1">
-      <c r="B58" s="379"/>
-      <c r="C58" s="373" t="s">
-        <v>512</v>
-      </c>
-      <c r="D58" s="373"/>
-      <c r="E58" s="383"/>
-      <c r="F58" s="383"/>
-      <c r="G58" s="383"/>
-      <c r="H58" s="383"/>
-      <c r="I58" s="383"/>
-      <c r="J58" s="383"/>
-      <c r="L58" s="133" t="s">
-        <v>97</v>
-      </c>
-      <c r="M58" s="163" t="s">
-        <v>509</v>
-      </c>
-      <c r="N58" s="11"/>
+      <c r="B58" s="378"/>
+      <c r="C58" s="391"/>
+      <c r="D58" s="391"/>
+      <c r="E58" s="391"/>
+      <c r="F58" s="391"/>
+      <c r="G58" s="391"/>
+      <c r="H58" s="391"/>
+      <c r="I58" s="391"/>
+      <c r="J58" s="391"/>
+      <c r="K58" s="361"/>
+      <c r="L58" s="366"/>
+      <c r="M58" s="366"/>
+      <c r="N58" s="366"/>
+      <c r="O58" s="361"/>
     </row>
     <row r="59" spans="2:15" ht="31" customHeight="1">
-      <c r="B59" s="379"/>
-      <c r="C59" s="390"/>
-      <c r="D59" s="390"/>
-      <c r="E59" s="390"/>
-      <c r="F59" s="390"/>
-      <c r="G59" s="390"/>
-      <c r="H59" s="390"/>
-      <c r="I59" s="390"/>
-      <c r="J59" s="390"/>
+      <c r="B59" s="378"/>
+      <c r="C59" s="391"/>
+      <c r="D59" s="391"/>
+      <c r="E59" s="391"/>
+      <c r="F59" s="391"/>
+      <c r="G59" s="391"/>
+      <c r="H59" s="391"/>
+      <c r="I59" s="391"/>
+      <c r="J59" s="391"/>
       <c r="K59" s="361"/>
       <c r="L59" s="366"/>
       <c r="M59" s="366"/>
@@ -7685,39 +7702,49 @@
       <c r="O59" s="361"/>
     </row>
     <row r="60" spans="2:15" ht="31" customHeight="1">
-      <c r="B60" s="379"/>
-      <c r="C60" s="390"/>
-      <c r="D60" s="390"/>
-      <c r="E60" s="390"/>
-      <c r="F60" s="390"/>
-      <c r="G60" s="390"/>
-      <c r="H60" s="390"/>
-      <c r="I60" s="390"/>
-      <c r="J60" s="390"/>
-      <c r="K60" s="361"/>
-      <c r="L60" s="366"/>
-      <c r="M60" s="366"/>
-      <c r="N60" s="366"/>
-      <c r="O60" s="361"/>
+      <c r="B60" s="378" t="s">
+        <v>310</v>
+      </c>
+      <c r="C60" s="370" t="s">
+        <v>290</v>
+      </c>
+      <c r="D60" s="370"/>
+      <c r="E60" s="398" t="s">
+        <v>269</v>
+      </c>
+      <c r="F60" s="399" t="s">
+        <v>455</v>
+      </c>
+      <c r="G60" s="384"/>
+      <c r="H60" s="384"/>
+      <c r="I60" s="384"/>
+      <c r="J60" s="384"/>
+      <c r="L60" s="133" t="s">
+        <v>453</v>
+      </c>
+      <c r="M60" s="141" t="s">
+        <v>473</v>
+      </c>
+      <c r="N60" s="116" t="s">
+        <v>454</v>
+      </c>
     </row>
     <row r="61" spans="2:15" ht="31" customHeight="1">
-      <c r="B61" s="379" t="s">
-        <v>310</v>
-      </c>
+      <c r="B61" s="378"/>
       <c r="C61" s="370" t="s">
-        <v>290</v>
+        <v>387</v>
       </c>
       <c r="D61" s="370"/>
       <c r="E61" s="398" t="s">
         <v>269</v>
       </c>
       <c r="F61" s="399" t="s">
-        <v>455</v>
-      </c>
-      <c r="G61" s="383"/>
-      <c r="H61" s="383"/>
-      <c r="I61" s="383"/>
-      <c r="J61" s="383"/>
+        <v>456</v>
+      </c>
+      <c r="G61" s="384"/>
+      <c r="H61" s="384"/>
+      <c r="I61" s="384"/>
+      <c r="J61" s="384"/>
       <c r="L61" s="133" t="s">
         <v>453</v>
       </c>
@@ -7727,52 +7754,46 @@
       <c r="N61" s="116" t="s">
         <v>454</v>
       </c>
+      <c r="O61" s="9" t="s">
+        <v>610</v>
+      </c>
     </row>
     <row r="62" spans="2:15" ht="31" customHeight="1">
-      <c r="B62" s="379"/>
-      <c r="C62" s="370" t="s">
-        <v>387</v>
-      </c>
-      <c r="D62" s="370"/>
-      <c r="E62" s="398" t="s">
+      <c r="B62" s="378"/>
+      <c r="C62" s="421" t="s">
+        <v>261</v>
+      </c>
+      <c r="D62" s="422"/>
+      <c r="E62" s="401" t="s">
         <v>269</v>
       </c>
-      <c r="F62" s="399" t="s">
-        <v>456</v>
-      </c>
-      <c r="G62" s="383"/>
-      <c r="H62" s="383"/>
-      <c r="I62" s="383"/>
-      <c r="J62" s="383"/>
+      <c r="F62" s="404" t="s">
+        <v>455</v>
+      </c>
+      <c r="G62" s="386" t="s">
+        <v>403</v>
+      </c>
+      <c r="H62" s="386"/>
+      <c r="I62" s="364"/>
+      <c r="J62" s="364"/>
       <c r="L62" s="133" t="s">
         <v>453</v>
       </c>
       <c r="M62" s="141" t="s">
         <v>473</v>
       </c>
-      <c r="N62" s="116" t="s">
-        <v>454</v>
-      </c>
-      <c r="O62" s="9" t="s">
-        <v>610</v>
-      </c>
+      <c r="N62" s="11"/>
     </row>
     <row r="63" spans="2:15" ht="31" customHeight="1">
-      <c r="B63" s="379"/>
-      <c r="C63" s="422" t="s">
-        <v>261</v>
-      </c>
-      <c r="D63" s="423"/>
-      <c r="E63" s="402" t="s">
-        <v>269</v>
-      </c>
-      <c r="F63" s="405" t="s">
-        <v>455</v>
-      </c>
-      <c r="G63" s="385" t="s">
-        <v>403</v>
-      </c>
-      <c r="H63" s="385"/>
+      <c r="B63" s="378"/>
+      <c r="C63" s="423"/>
+      <c r="D63" s="424"/>
+      <c r="E63" s="402"/>
+      <c r="F63" s="405"/>
+      <c r="G63" s="411" t="s">
+        <v>601</v>
+      </c>
+      <c r="H63" s="412"/>
       <c r="I63" s="364"/>
       <c r="J63" s="364"/>
       <c r="L63" s="133" t="s">
@@ -7781,18 +7802,18 @@
       <c r="M63" s="141" t="s">
         <v>473</v>
       </c>
-      <c r="N63" s="11"/>
+      <c r="N63" s="116" t="s">
+        <v>602</v>
+      </c>
     </row>
     <row r="64" spans="2:15" ht="31" customHeight="1">
-      <c r="B64" s="379"/>
-      <c r="C64" s="424"/>
-      <c r="D64" s="425"/>
-      <c r="E64" s="403"/>
-      <c r="F64" s="406"/>
-      <c r="G64" s="412" t="s">
-        <v>601</v>
-      </c>
-      <c r="H64" s="413"/>
+      <c r="B64" s="378"/>
+      <c r="C64" s="423"/>
+      <c r="D64" s="424"/>
+      <c r="E64" s="402"/>
+      <c r="F64" s="405"/>
+      <c r="G64" s="419"/>
+      <c r="H64" s="420"/>
       <c r="I64" s="364"/>
       <c r="J64" s="364"/>
       <c r="L64" s="133" t="s">
@@ -7802,17 +7823,17 @@
         <v>473</v>
       </c>
       <c r="N64" s="116" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="65" spans="2:15" ht="31" customHeight="1">
-      <c r="B65" s="379"/>
-      <c r="C65" s="424"/>
-      <c r="D65" s="425"/>
-      <c r="E65" s="403"/>
-      <c r="F65" s="406"/>
-      <c r="G65" s="420"/>
-      <c r="H65" s="421"/>
+      <c r="B65" s="378"/>
+      <c r="C65" s="423"/>
+      <c r="D65" s="424"/>
+      <c r="E65" s="402"/>
+      <c r="F65" s="405"/>
+      <c r="G65" s="413"/>
+      <c r="H65" s="414"/>
       <c r="I65" s="364"/>
       <c r="J65" s="364"/>
       <c r="L65" s="133" t="s">
@@ -7822,41 +7843,48 @@
         <v>473</v>
       </c>
       <c r="N65" s="116" t="s">
-        <v>603</v>
+        <v>265</v>
       </c>
     </row>
     <row r="66" spans="2:15" ht="31" customHeight="1">
-      <c r="B66" s="379"/>
-      <c r="C66" s="424"/>
-      <c r="D66" s="425"/>
-      <c r="E66" s="403"/>
-      <c r="F66" s="406"/>
-      <c r="G66" s="414"/>
-      <c r="H66" s="415"/>
+      <c r="B66" s="378"/>
+      <c r="C66" s="423"/>
+      <c r="D66" s="424"/>
+      <c r="E66" s="402"/>
+      <c r="F66" s="405"/>
+      <c r="G66" s="409" t="s">
+        <v>505</v>
+      </c>
+      <c r="H66" s="410"/>
       <c r="I66" s="364"/>
       <c r="J66" s="364"/>
       <c r="L66" s="133" t="s">
-        <v>453</v>
-      </c>
-      <c r="M66" s="141" t="s">
-        <v>473</v>
-      </c>
-      <c r="N66" s="116" t="s">
-        <v>265</v>
+        <v>122</v>
+      </c>
+      <c r="M66" s="116" t="s">
+        <v>411</v>
+      </c>
+      <c r="N66" s="11"/>
+      <c r="O66" s="4" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="67" spans="2:15" ht="31" customHeight="1">
-      <c r="B67" s="379"/>
-      <c r="C67" s="424"/>
-      <c r="D67" s="425"/>
-      <c r="E67" s="403"/>
-      <c r="F67" s="406"/>
-      <c r="G67" s="410" t="s">
-        <v>505</v>
-      </c>
-      <c r="H67" s="411"/>
-      <c r="I67" s="364"/>
-      <c r="J67" s="364"/>
+      <c r="B67" s="378"/>
+      <c r="C67" s="423"/>
+      <c r="D67" s="424"/>
+      <c r="E67" s="402"/>
+      <c r="F67" s="405"/>
+      <c r="G67" s="411" t="s">
+        <v>501</v>
+      </c>
+      <c r="H67" s="412"/>
+      <c r="I67" s="368" t="s">
+        <v>484</v>
+      </c>
+      <c r="J67" s="392" t="s">
+        <v>477</v>
+      </c>
       <c r="L67" s="133" t="s">
         <v>122</v>
       </c>
@@ -7865,24 +7893,20 @@
       </c>
       <c r="N67" s="11"/>
       <c r="O67" s="4" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="68" spans="2:15" ht="31" customHeight="1">
-      <c r="B68" s="379"/>
-      <c r="C68" s="424"/>
-      <c r="D68" s="425"/>
+      <c r="B68" s="378"/>
+      <c r="C68" s="423"/>
+      <c r="D68" s="424"/>
       <c r="E68" s="403"/>
       <c r="F68" s="406"/>
-      <c r="G68" s="412" t="s">
-        <v>501</v>
-      </c>
-      <c r="H68" s="413"/>
-      <c r="I68" s="368" t="s">
-        <v>484</v>
-      </c>
-      <c r="J68" s="391" t="s">
-        <v>477</v>
+      <c r="G68" s="413"/>
+      <c r="H68" s="414"/>
+      <c r="I68" s="369"/>
+      <c r="J68" s="392" t="s">
+        <v>482</v>
       </c>
       <c r="L68" s="133" t="s">
         <v>122</v>
@@ -7891,66 +7915,67 @@
         <v>411</v>
       </c>
       <c r="N68" s="11"/>
-      <c r="O68" s="4" t="s">
-        <v>605</v>
-      </c>
     </row>
     <row r="69" spans="2:15" ht="31" customHeight="1">
-      <c r="B69" s="379"/>
-      <c r="C69" s="424"/>
-      <c r="D69" s="425"/>
-      <c r="E69" s="404"/>
-      <c r="F69" s="407"/>
-      <c r="G69" s="414"/>
-      <c r="H69" s="415"/>
-      <c r="I69" s="369"/>
-      <c r="J69" s="391" t="s">
-        <v>482</v>
-      </c>
+      <c r="B69" s="378"/>
+      <c r="C69" s="423"/>
+      <c r="D69" s="424"/>
+      <c r="E69" s="401" t="s">
+        <v>269</v>
+      </c>
+      <c r="F69" s="404" t="s">
+        <v>598</v>
+      </c>
+      <c r="G69" s="386" t="s">
+        <v>591</v>
+      </c>
+      <c r="H69" s="386"/>
+      <c r="I69" s="364"/>
+      <c r="J69" s="364"/>
       <c r="L69" s="133" t="s">
-        <v>122</v>
-      </c>
-      <c r="M69" s="116" t="s">
-        <v>411</v>
+        <v>597</v>
+      </c>
+      <c r="M69" s="141" t="s">
+        <v>473</v>
       </c>
       <c r="N69" s="11"/>
     </row>
     <row r="70" spans="2:15" ht="31" customHeight="1">
-      <c r="B70" s="379"/>
-      <c r="C70" s="424"/>
-      <c r="D70" s="425"/>
-      <c r="E70" s="402" t="s">
-        <v>269</v>
-      </c>
-      <c r="F70" s="405" t="s">
-        <v>598</v>
-      </c>
-      <c r="G70" s="385" t="s">
-        <v>591</v>
-      </c>
-      <c r="H70" s="385"/>
+      <c r="B70" s="378"/>
+      <c r="C70" s="423"/>
+      <c r="D70" s="424"/>
+      <c r="E70" s="402"/>
+      <c r="F70" s="405"/>
+      <c r="G70" s="409" t="s">
+        <v>505</v>
+      </c>
+      <c r="H70" s="410"/>
       <c r="I70" s="364"/>
       <c r="J70" s="364"/>
       <c r="L70" s="133" t="s">
-        <v>597</v>
-      </c>
-      <c r="M70" s="141" t="s">
-        <v>473</v>
+        <v>122</v>
+      </c>
+      <c r="M70" s="116" t="s">
+        <v>411</v>
       </c>
       <c r="N70" s="11"/>
     </row>
     <row r="71" spans="2:15" ht="31" customHeight="1">
-      <c r="B71" s="379"/>
-      <c r="C71" s="424"/>
-      <c r="D71" s="425"/>
-      <c r="E71" s="403"/>
-      <c r="F71" s="406"/>
-      <c r="G71" s="410" t="s">
-        <v>505</v>
-      </c>
-      <c r="H71" s="411"/>
-      <c r="I71" s="364"/>
-      <c r="J71" s="364"/>
+      <c r="B71" s="378"/>
+      <c r="C71" s="423"/>
+      <c r="D71" s="424"/>
+      <c r="E71" s="402"/>
+      <c r="F71" s="405"/>
+      <c r="G71" s="411" t="s">
+        <v>501</v>
+      </c>
+      <c r="H71" s="412"/>
+      <c r="I71" s="368" t="s">
+        <v>484</v>
+      </c>
+      <c r="J71" s="392" t="s">
+        <v>477</v>
+      </c>
       <c r="L71" s="133" t="s">
         <v>122</v>
       </c>
@@ -7960,20 +7985,16 @@
       <c r="N71" s="11"/>
     </row>
     <row r="72" spans="2:15" ht="31" customHeight="1">
-      <c r="B72" s="379"/>
-      <c r="C72" s="424"/>
-      <c r="D72" s="425"/>
+      <c r="B72" s="378"/>
+      <c r="C72" s="425"/>
+      <c r="D72" s="426"/>
       <c r="E72" s="403"/>
       <c r="F72" s="406"/>
-      <c r="G72" s="412" t="s">
-        <v>501</v>
-      </c>
-      <c r="H72" s="413"/>
-      <c r="I72" s="368" t="s">
-        <v>484</v>
-      </c>
-      <c r="J72" s="391" t="s">
-        <v>477</v>
+      <c r="G72" s="413"/>
+      <c r="H72" s="414"/>
+      <c r="I72" s="369"/>
+      <c r="J72" s="392" t="s">
+        <v>482</v>
       </c>
       <c r="L72" s="133" t="s">
         <v>122</v>
@@ -7984,251 +8005,255 @@
       <c r="N72" s="11"/>
     </row>
     <row r="73" spans="2:15" ht="31" customHeight="1">
-      <c r="B73" s="379"/>
-      <c r="C73" s="426"/>
-      <c r="D73" s="427"/>
-      <c r="E73" s="404"/>
-      <c r="F73" s="407"/>
-      <c r="G73" s="414"/>
-      <c r="H73" s="415"/>
-      <c r="I73" s="369"/>
-      <c r="J73" s="391" t="s">
-        <v>482</v>
-      </c>
+      <c r="B73" s="378"/>
+      <c r="C73" s="370" t="s">
+        <v>515</v>
+      </c>
+      <c r="D73" s="370"/>
+      <c r="E73" s="384"/>
+      <c r="F73" s="384"/>
+      <c r="G73" s="384"/>
+      <c r="H73" s="384"/>
+      <c r="I73" s="384"/>
+      <c r="J73" s="384"/>
       <c r="L73" s="133" t="s">
-        <v>122</v>
-      </c>
-      <c r="M73" s="116" t="s">
-        <v>411</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="M73" s="141"/>
       <c r="N73" s="11"/>
     </row>
     <row r="74" spans="2:15" ht="31" customHeight="1">
-      <c r="B74" s="379"/>
-      <c r="C74" s="370" t="s">
-        <v>515</v>
-      </c>
-      <c r="D74" s="370"/>
-      <c r="E74" s="383"/>
-      <c r="F74" s="383"/>
-      <c r="G74" s="383"/>
-      <c r="H74" s="383"/>
-      <c r="I74" s="383"/>
-      <c r="J74" s="383"/>
+      <c r="B74" s="378"/>
+      <c r="C74" s="375" t="s">
+        <v>259</v>
+      </c>
+      <c r="D74" s="375"/>
+      <c r="E74" s="386" t="s">
+        <v>270</v>
+      </c>
+      <c r="F74" s="386"/>
+      <c r="G74" s="384"/>
+      <c r="H74" s="384"/>
+      <c r="I74" s="384"/>
+      <c r="J74" s="384"/>
       <c r="L74" s="133" t="s">
-        <v>474</v>
-      </c>
-      <c r="M74" s="141"/>
+        <v>90</v>
+      </c>
+      <c r="M74" s="116">
+        <v>7</v>
+      </c>
       <c r="N74" s="11"/>
     </row>
     <row r="75" spans="2:15" ht="31" customHeight="1">
-      <c r="B75" s="379"/>
-      <c r="C75" s="375" t="s">
-        <v>259</v>
-      </c>
+      <c r="B75" s="378"/>
+      <c r="C75" s="375"/>
       <c r="D75" s="375"/>
-      <c r="E75" s="385" t="s">
-        <v>270</v>
-      </c>
-      <c r="F75" s="385"/>
-      <c r="G75" s="383"/>
-      <c r="H75" s="383"/>
-      <c r="I75" s="383"/>
-      <c r="J75" s="383"/>
+      <c r="E75" s="386" t="s">
+        <v>268</v>
+      </c>
+      <c r="F75" s="386"/>
+      <c r="G75" s="384"/>
+      <c r="H75" s="384"/>
+      <c r="I75" s="384"/>
+      <c r="J75" s="384"/>
       <c r="L75" s="133" t="s">
-        <v>90</v>
-      </c>
-      <c r="M75" s="116">
-        <v>7</v>
+        <v>91</v>
+      </c>
+      <c r="M75" s="141" t="s">
+        <v>481</v>
       </c>
       <c r="N75" s="11"/>
     </row>
     <row r="76" spans="2:15" ht="31" customHeight="1">
-      <c r="B76" s="379"/>
+      <c r="B76" s="378"/>
       <c r="C76" s="375"/>
       <c r="D76" s="375"/>
-      <c r="E76" s="385" t="s">
-        <v>268</v>
-      </c>
-      <c r="F76" s="385"/>
-      <c r="G76" s="383"/>
-      <c r="H76" s="383"/>
-      <c r="I76" s="383"/>
-      <c r="J76" s="383"/>
+      <c r="E76" s="386" t="s">
+        <v>314</v>
+      </c>
+      <c r="F76" s="386"/>
+      <c r="G76" s="172" t="s">
+        <v>269</v>
+      </c>
+      <c r="H76" s="392" t="s">
+        <v>458</v>
+      </c>
+      <c r="I76" s="364"/>
+      <c r="J76" s="364"/>
       <c r="L76" s="133" t="s">
-        <v>91</v>
+        <v>453</v>
       </c>
       <c r="M76" s="141" t="s">
-        <v>481</v>
-      </c>
-      <c r="N76" s="11"/>
+        <v>473</v>
+      </c>
+      <c r="N76" s="116" t="s">
+        <v>454</v>
+      </c>
     </row>
     <row r="77" spans="2:15" ht="31" customHeight="1">
-      <c r="B77" s="379"/>
+      <c r="B77" s="378"/>
       <c r="C77" s="375"/>
       <c r="D77" s="375"/>
-      <c r="E77" s="385" t="s">
-        <v>314</v>
-      </c>
-      <c r="F77" s="385"/>
-      <c r="G77" s="172" t="s">
-        <v>269</v>
-      </c>
-      <c r="H77" s="391" t="s">
-        <v>458</v>
-      </c>
-      <c r="I77" s="364"/>
-      <c r="J77" s="364"/>
+      <c r="E77" s="386" t="s">
+        <v>313</v>
+      </c>
+      <c r="F77" s="386"/>
+      <c r="G77" s="384"/>
+      <c r="H77" s="384"/>
+      <c r="I77" s="384"/>
+      <c r="J77" s="384"/>
       <c r="L77" s="133" t="s">
-        <v>453</v>
+        <v>91</v>
       </c>
       <c r="M77" s="141" t="s">
-        <v>473</v>
-      </c>
-      <c r="N77" s="116" t="s">
-        <v>454</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="N77" s="11"/>
     </row>
     <row r="78" spans="2:15" ht="31" customHeight="1">
-      <c r="B78" s="379"/>
+      <c r="B78" s="378"/>
       <c r="C78" s="375"/>
       <c r="D78" s="375"/>
-      <c r="E78" s="385" t="s">
-        <v>313</v>
-      </c>
-      <c r="F78" s="385"/>
-      <c r="G78" s="383"/>
-      <c r="H78" s="383"/>
-      <c r="I78" s="383"/>
-      <c r="J78" s="383"/>
-      <c r="L78" s="133" t="s">
-        <v>91</v>
+      <c r="E78" s="386" t="s">
+        <v>312</v>
+      </c>
+      <c r="F78" s="386"/>
+      <c r="G78" s="384"/>
+      <c r="H78" s="384"/>
+      <c r="I78" s="384"/>
+      <c r="J78" s="384"/>
+      <c r="L78" s="144" t="s">
+        <v>457</v>
       </c>
       <c r="M78" s="141" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="N78" s="11"/>
+      <c r="O78" s="372" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="79" spans="2:15" ht="31" customHeight="1">
-      <c r="B79" s="379"/>
-      <c r="C79" s="375"/>
-      <c r="D79" s="375"/>
-      <c r="E79" s="385" t="s">
-        <v>312</v>
-      </c>
-      <c r="F79" s="385"/>
-      <c r="G79" s="383"/>
-      <c r="H79" s="383"/>
-      <c r="I79" s="383"/>
-      <c r="J79" s="383"/>
-      <c r="L79" s="144" t="s">
-        <v>457</v>
-      </c>
-      <c r="M79" s="141" t="s">
-        <v>473</v>
+      <c r="B79" s="379" t="s">
+        <v>612</v>
+      </c>
+      <c r="C79" s="395" t="s">
+        <v>353</v>
+      </c>
+      <c r="D79" s="395"/>
+      <c r="E79" s="384"/>
+      <c r="F79" s="384"/>
+      <c r="G79" s="384"/>
+      <c r="H79" s="384"/>
+      <c r="I79" s="384"/>
+      <c r="J79" s="384"/>
+      <c r="L79" s="133" t="s">
+        <v>90</v>
+      </c>
+      <c r="M79" s="116">
+        <v>100</v>
       </c>
       <c r="N79" s="11"/>
-      <c r="O79" s="372" t="s">
-        <v>459</v>
-      </c>
     </row>
     <row r="80" spans="2:15" ht="31" customHeight="1">
-      <c r="B80" s="379" t="s">
-        <v>257</v>
-      </c>
-      <c r="C80" s="394" t="s">
-        <v>353</v>
-      </c>
-      <c r="D80" s="394"/>
-      <c r="E80" s="383"/>
-      <c r="F80" s="383"/>
-      <c r="G80" s="383"/>
-      <c r="H80" s="383"/>
-      <c r="I80" s="383"/>
-      <c r="J80" s="383"/>
+      <c r="B80" s="379"/>
+      <c r="C80" s="395" t="s">
+        <v>354</v>
+      </c>
+      <c r="D80" s="395"/>
+      <c r="E80" s="384"/>
+      <c r="F80" s="384"/>
+      <c r="G80" s="384"/>
+      <c r="H80" s="384"/>
+      <c r="I80" s="384"/>
+      <c r="J80" s="384"/>
       <c r="L80" s="133" t="s">
-        <v>90</v>
-      </c>
-      <c r="M80" s="116">
-        <v>100</v>
+        <v>97</v>
+      </c>
+      <c r="M80" s="174" t="s">
+        <v>107</v>
       </c>
       <c r="N80" s="11"/>
     </row>
     <row r="81" spans="2:14" ht="31" customHeight="1">
       <c r="B81" s="379"/>
-      <c r="C81" s="394" t="s">
-        <v>354</v>
-      </c>
-      <c r="D81" s="394"/>
-      <c r="E81" s="383"/>
-      <c r="F81" s="383"/>
-      <c r="G81" s="383"/>
-      <c r="H81" s="383"/>
-      <c r="I81" s="383"/>
-      <c r="J81" s="383"/>
+      <c r="C81" s="395" t="s">
+        <v>297</v>
+      </c>
+      <c r="D81" s="395"/>
+      <c r="E81" s="384"/>
+      <c r="F81" s="384"/>
+      <c r="G81" s="384"/>
+      <c r="H81" s="384"/>
+      <c r="I81" s="384"/>
+      <c r="J81" s="384"/>
       <c r="L81" s="133" t="s">
-        <v>97</v>
-      </c>
-      <c r="M81" s="174" t="s">
-        <v>107</v>
+        <v>596</v>
+      </c>
+      <c r="M81" s="116" t="s">
+        <v>99</v>
       </c>
       <c r="N81" s="11"/>
     </row>
     <row r="82" spans="2:14" ht="31" customHeight="1">
       <c r="B82" s="379"/>
-      <c r="C82" s="394" t="s">
-        <v>297</v>
-      </c>
-      <c r="D82" s="394"/>
-      <c r="E82" s="383"/>
-      <c r="F82" s="383"/>
-      <c r="G82" s="383"/>
-      <c r="H82" s="383"/>
-      <c r="I82" s="383"/>
-      <c r="J82" s="383"/>
+      <c r="C82" s="395" t="s">
+        <v>391</v>
+      </c>
+      <c r="D82" s="395"/>
+      <c r="E82" s="384"/>
+      <c r="F82" s="384"/>
+      <c r="G82" s="384"/>
+      <c r="H82" s="384"/>
+      <c r="I82" s="384"/>
+      <c r="J82" s="384"/>
       <c r="L82" s="133" t="s">
-        <v>596</v>
-      </c>
-      <c r="M82" s="116" t="s">
-        <v>99</v>
+        <v>91</v>
+      </c>
+      <c r="M82" s="138" t="s">
+        <v>595</v>
       </c>
       <c r="N82" s="11"/>
     </row>
     <row r="83" spans="2:14" ht="31" customHeight="1">
       <c r="B83" s="379"/>
-      <c r="C83" s="394" t="s">
-        <v>391</v>
-      </c>
-      <c r="D83" s="394"/>
-      <c r="E83" s="383"/>
-      <c r="F83" s="383"/>
-      <c r="G83" s="383"/>
-      <c r="H83" s="383"/>
-      <c r="I83" s="383"/>
-      <c r="J83" s="383"/>
+      <c r="C83" s="373" t="s">
+        <v>266</v>
+      </c>
+      <c r="D83" s="373"/>
+      <c r="E83" s="386" t="s">
+        <v>356</v>
+      </c>
+      <c r="F83" s="386"/>
+      <c r="G83" s="173" t="s">
+        <v>466</v>
+      </c>
+      <c r="H83" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="I83" s="364"/>
+      <c r="J83" s="364"/>
       <c r="L83" s="133" t="s">
-        <v>91</v>
-      </c>
-      <c r="M83" s="138" t="s">
-        <v>595</v>
+        <v>122</v>
+      </c>
+      <c r="M83" s="116" t="s">
+        <v>411</v>
       </c>
       <c r="N83" s="11"/>
     </row>
     <row r="84" spans="2:14" ht="31" customHeight="1">
       <c r="B84" s="379"/>
-      <c r="C84" s="373" t="s">
-        <v>266</v>
-      </c>
+      <c r="C84" s="373"/>
       <c r="D84" s="373"/>
-      <c r="E84" s="385" t="s">
-        <v>356</v>
-      </c>
-      <c r="F84" s="385"/>
+      <c r="E84" s="386" t="s">
+        <v>1</v>
+      </c>
+      <c r="F84" s="386"/>
       <c r="G84" s="173" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H84" s="29" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="I84" s="364"/>
       <c r="J84" s="364"/>
@@ -8242,62 +8267,58 @@
     </row>
     <row r="85" spans="2:14" ht="31" customHeight="1">
       <c r="B85" s="379"/>
-      <c r="C85" s="373"/>
-      <c r="D85" s="373"/>
-      <c r="E85" s="385" t="s">
-        <v>1</v>
-      </c>
-      <c r="F85" s="385"/>
-      <c r="G85" s="173" t="s">
-        <v>465</v>
-      </c>
-      <c r="H85" s="29" t="s">
-        <v>444</v>
-      </c>
-      <c r="I85" s="364"/>
-      <c r="J85" s="364"/>
+      <c r="C85" s="395" t="s">
+        <v>479</v>
+      </c>
+      <c r="D85" s="395"/>
+      <c r="E85" s="386" t="s">
+        <v>388</v>
+      </c>
+      <c r="F85" s="386"/>
+      <c r="G85" s="409" t="s">
+        <v>301</v>
+      </c>
+      <c r="H85" s="410"/>
+      <c r="I85" s="88"/>
+      <c r="J85" s="88"/>
       <c r="L85" s="133" t="s">
-        <v>122</v>
-      </c>
-      <c r="M85" s="116" t="s">
-        <v>411</v>
+        <v>478</v>
+      </c>
+      <c r="M85" s="147" t="s">
+        <v>108</v>
       </c>
       <c r="N85" s="11"/>
     </row>
     <row r="86" spans="2:14" ht="31" customHeight="1">
       <c r="B86" s="379"/>
-      <c r="C86" s="394" t="s">
-        <v>479</v>
-      </c>
-      <c r="D86" s="394"/>
-      <c r="E86" s="385" t="s">
-        <v>388</v>
-      </c>
-      <c r="F86" s="385"/>
-      <c r="G86" s="410" t="s">
-        <v>301</v>
-      </c>
-      <c r="H86" s="411"/>
+      <c r="C86" s="395"/>
+      <c r="D86" s="395"/>
+      <c r="E86" s="386"/>
+      <c r="F86" s="386"/>
+      <c r="G86" s="409" t="s">
+        <v>268</v>
+      </c>
+      <c r="H86" s="410"/>
       <c r="I86" s="88"/>
       <c r="J86" s="88"/>
       <c r="L86" s="133" t="s">
-        <v>478</v>
-      </c>
-      <c r="M86" s="147" t="s">
-        <v>108</v>
+        <v>468</v>
+      </c>
+      <c r="M86" s="141" t="s">
+        <v>472</v>
       </c>
       <c r="N86" s="11"/>
     </row>
     <row r="87" spans="2:14" ht="31" customHeight="1">
       <c r="B87" s="379"/>
-      <c r="C87" s="394"/>
-      <c r="D87" s="394"/>
-      <c r="E87" s="385"/>
-      <c r="F87" s="385"/>
-      <c r="G87" s="410" t="s">
-        <v>268</v>
-      </c>
-      <c r="H87" s="411"/>
+      <c r="C87" s="395"/>
+      <c r="D87" s="395"/>
+      <c r="E87" s="386"/>
+      <c r="F87" s="386"/>
+      <c r="G87" s="409" t="s">
+        <v>261</v>
+      </c>
+      <c r="H87" s="410"/>
       <c r="I87" s="88"/>
       <c r="J87" s="88"/>
       <c r="L87" s="133" t="s">
@@ -8310,98 +8331,108 @@
     </row>
     <row r="88" spans="2:14" ht="31" customHeight="1">
       <c r="B88" s="379"/>
-      <c r="C88" s="394"/>
-      <c r="D88" s="394"/>
-      <c r="E88" s="385"/>
-      <c r="F88" s="385"/>
-      <c r="G88" s="410" t="s">
-        <v>261</v>
-      </c>
-      <c r="H88" s="411"/>
+      <c r="C88" s="395"/>
+      <c r="D88" s="395"/>
+      <c r="E88" s="386"/>
+      <c r="F88" s="386"/>
+      <c r="G88" s="409" t="s">
+        <v>269</v>
+      </c>
+      <c r="H88" s="410"/>
       <c r="I88" s="88"/>
       <c r="J88" s="88"/>
       <c r="L88" s="133" t="s">
-        <v>468</v>
-      </c>
-      <c r="M88" s="141" t="s">
-        <v>472</v>
+        <v>478</v>
+      </c>
+      <c r="M88" s="147" t="s">
+        <v>109</v>
       </c>
       <c r="N88" s="11"/>
     </row>
     <row r="89" spans="2:14" ht="31" customHeight="1">
       <c r="B89" s="379"/>
-      <c r="C89" s="394"/>
-      <c r="D89" s="394"/>
-      <c r="E89" s="385"/>
-      <c r="F89" s="385"/>
-      <c r="G89" s="410" t="s">
-        <v>269</v>
-      </c>
-      <c r="H89" s="411"/>
-      <c r="I89" s="88"/>
-      <c r="J89" s="88"/>
+      <c r="C89" s="395"/>
+      <c r="D89" s="395"/>
+      <c r="E89" s="386" t="s">
+        <v>516</v>
+      </c>
+      <c r="F89" s="386"/>
+      <c r="G89" s="384"/>
+      <c r="H89" s="384"/>
+      <c r="I89" s="384"/>
+      <c r="J89" s="384"/>
       <c r="L89" s="133" t="s">
-        <v>478</v>
-      </c>
-      <c r="M89" s="147" t="s">
-        <v>109</v>
+        <v>474</v>
+      </c>
+      <c r="M89" s="141" t="s">
+        <v>472</v>
       </c>
       <c r="N89" s="11"/>
     </row>
     <row r="90" spans="2:14" ht="31" customHeight="1">
       <c r="B90" s="379"/>
-      <c r="C90" s="394"/>
-      <c r="D90" s="394"/>
-      <c r="E90" s="385" t="s">
-        <v>516</v>
-      </c>
-      <c r="F90" s="385"/>
-      <c r="G90" s="383"/>
-      <c r="H90" s="383"/>
-      <c r="I90" s="383"/>
-      <c r="J90" s="383"/>
+      <c r="C90" s="395"/>
+      <c r="D90" s="395"/>
+      <c r="E90" s="386" t="s">
+        <v>422</v>
+      </c>
+      <c r="F90" s="386"/>
+      <c r="G90" s="384"/>
+      <c r="H90" s="384"/>
+      <c r="I90" s="384"/>
+      <c r="J90" s="384"/>
       <c r="L90" s="133" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="M90" s="141" t="s">
         <v>472</v>
       </c>
-      <c r="N90" s="11"/>
+      <c r="N90" s="116" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="91" spans="2:14" ht="31" customHeight="1">
       <c r="B91" s="379"/>
-      <c r="C91" s="394"/>
-      <c r="D91" s="394"/>
-      <c r="E91" s="385" t="s">
-        <v>422</v>
-      </c>
-      <c r="F91" s="385"/>
-      <c r="G91" s="383"/>
-      <c r="H91" s="383"/>
-      <c r="I91" s="383"/>
-      <c r="J91" s="383"/>
+      <c r="C91" s="395"/>
+      <c r="D91" s="395"/>
+      <c r="E91" s="386" t="s">
+        <v>505</v>
+      </c>
+      <c r="F91" s="386"/>
+      <c r="G91" s="384"/>
+      <c r="H91" s="384"/>
+      <c r="I91" s="384"/>
+      <c r="J91" s="384"/>
       <c r="L91" s="133" t="s">
-        <v>468</v>
+        <v>122</v>
       </c>
       <c r="M91" s="141" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="N91" s="116" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="92" spans="2:14" ht="31" customHeight="1">
       <c r="B92" s="379"/>
-      <c r="C92" s="394"/>
-      <c r="D92" s="394"/>
-      <c r="E92" s="385" t="s">
-        <v>505</v>
-      </c>
-      <c r="F92" s="385"/>
-      <c r="G92" s="383"/>
-      <c r="H92" s="383"/>
-      <c r="I92" s="383"/>
-      <c r="J92" s="383"/>
+      <c r="C92" s="395"/>
+      <c r="D92" s="395"/>
+      <c r="E92" s="386" t="s">
+        <v>501</v>
+      </c>
+      <c r="F92" s="386"/>
+      <c r="G92" s="393" t="s">
+        <v>269</v>
+      </c>
+      <c r="H92" s="394" t="s">
+        <v>455</v>
+      </c>
+      <c r="I92" s="368" t="s">
+        <v>484</v>
+      </c>
+      <c r="J92" s="392" t="s">
+        <v>477</v>
+      </c>
       <c r="L92" s="133" t="s">
         <v>122</v>
       </c>
@@ -8414,23 +8445,15 @@
     </row>
     <row r="93" spans="2:14" ht="31" customHeight="1">
       <c r="B93" s="379"/>
-      <c r="C93" s="394"/>
-      <c r="D93" s="394"/>
-      <c r="E93" s="385" t="s">
-        <v>501</v>
-      </c>
-      <c r="F93" s="385"/>
-      <c r="G93" s="392" t="s">
-        <v>269</v>
-      </c>
-      <c r="H93" s="393" t="s">
-        <v>455</v>
-      </c>
-      <c r="I93" s="368" t="s">
-        <v>484</v>
-      </c>
-      <c r="J93" s="391" t="s">
-        <v>477</v>
+      <c r="C93" s="395"/>
+      <c r="D93" s="395"/>
+      <c r="E93" s="386"/>
+      <c r="F93" s="386"/>
+      <c r="G93" s="393"/>
+      <c r="H93" s="394"/>
+      <c r="I93" s="369"/>
+      <c r="J93" s="392" t="s">
+        <v>482</v>
       </c>
       <c r="L93" s="133" t="s">
         <v>122</v>
@@ -8444,39 +8467,39 @@
     </row>
     <row r="94" spans="2:14" ht="31" customHeight="1">
       <c r="B94" s="379"/>
-      <c r="C94" s="394"/>
-      <c r="D94" s="394"/>
-      <c r="E94" s="385"/>
-      <c r="F94" s="385"/>
-      <c r="G94" s="392"/>
-      <c r="H94" s="393"/>
-      <c r="I94" s="369"/>
-      <c r="J94" s="391" t="s">
-        <v>482</v>
-      </c>
+      <c r="C94" s="395"/>
+      <c r="D94" s="395"/>
+      <c r="E94" s="411" t="s">
+        <v>483</v>
+      </c>
+      <c r="F94" s="412"/>
+      <c r="G94" s="367" t="s">
+        <v>269</v>
+      </c>
+      <c r="H94" s="47" t="s">
+        <v>455</v>
+      </c>
+      <c r="I94" s="364"/>
+      <c r="J94" s="364"/>
       <c r="L94" s="133" t="s">
-        <v>122</v>
+        <v>453</v>
       </c>
       <c r="M94" s="141" t="s">
         <v>473</v>
       </c>
-      <c r="N94" s="116" t="s">
-        <v>411</v>
-      </c>
+      <c r="N94" s="11"/>
     </row>
     <row r="95" spans="2:14" ht="31" customHeight="1">
       <c r="B95" s="379"/>
-      <c r="C95" s="394"/>
-      <c r="D95" s="394"/>
-      <c r="E95" s="412" t="s">
-        <v>483</v>
-      </c>
-      <c r="F95" s="413"/>
+      <c r="C95" s="395"/>
+      <c r="D95" s="395"/>
+      <c r="E95" s="419"/>
+      <c r="F95" s="420"/>
       <c r="G95" s="367" t="s">
         <v>269</v>
       </c>
       <c r="H95" s="47" t="s">
-        <v>455</v>
+        <v>599</v>
       </c>
       <c r="I95" s="364"/>
       <c r="J95" s="364"/>
@@ -8490,15 +8513,15 @@
     </row>
     <row r="96" spans="2:14" ht="31" customHeight="1">
       <c r="B96" s="379"/>
-      <c r="C96" s="394"/>
-      <c r="D96" s="394"/>
-      <c r="E96" s="420"/>
-      <c r="F96" s="421"/>
+      <c r="C96" s="395"/>
+      <c r="D96" s="395"/>
+      <c r="E96" s="419"/>
+      <c r="F96" s="420"/>
       <c r="G96" s="367" t="s">
         <v>269</v>
       </c>
       <c r="H96" s="47" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="I96" s="364"/>
       <c r="J96" s="364"/>
@@ -8511,143 +8534,143 @@
       <c r="N96" s="11"/>
     </row>
     <row r="97" spans="2:14" ht="31" customHeight="1">
-      <c r="B97" s="379"/>
-      <c r="C97" s="394"/>
-      <c r="D97" s="394"/>
-      <c r="E97" s="420"/>
-      <c r="F97" s="421"/>
-      <c r="G97" s="367" t="s">
-        <v>269</v>
-      </c>
-      <c r="H97" s="47" t="s">
-        <v>600</v>
-      </c>
-      <c r="I97" s="364"/>
-      <c r="J97" s="364"/>
+      <c r="B97" s="380" t="s">
+        <v>467</v>
+      </c>
+      <c r="C97" s="395" t="s">
+        <v>137</v>
+      </c>
+      <c r="D97" s="395"/>
+      <c r="E97" s="384"/>
+      <c r="F97" s="384"/>
+      <c r="G97" s="384"/>
+      <c r="H97" s="384"/>
+      <c r="I97" s="384"/>
+      <c r="J97" s="384"/>
       <c r="L97" s="133" t="s">
-        <v>453</v>
-      </c>
-      <c r="M97" s="141" t="s">
+        <v>97</v>
+      </c>
+      <c r="M97" s="147" t="s">
+        <v>129</v>
+      </c>
+      <c r="N97" s="11"/>
+    </row>
+    <row r="98" spans="2:14" ht="31" customHeight="1">
+      <c r="B98" s="380"/>
+      <c r="C98" s="395" t="s">
+        <v>283</v>
+      </c>
+      <c r="D98" s="395"/>
+      <c r="E98" s="384"/>
+      <c r="F98" s="384"/>
+      <c r="G98" s="384"/>
+      <c r="H98" s="384"/>
+      <c r="I98" s="384"/>
+      <c r="J98" s="384"/>
+      <c r="L98" s="133" t="s">
+        <v>468</v>
+      </c>
+      <c r="M98" s="138" t="s">
+        <v>469</v>
+      </c>
+      <c r="N98" s="11"/>
+    </row>
+    <row r="99" spans="2:14" ht="31" customHeight="1">
+      <c r="B99" s="380"/>
+      <c r="C99" s="395" t="s">
+        <v>306</v>
+      </c>
+      <c r="D99" s="395"/>
+      <c r="E99" s="386" t="s">
+        <v>470</v>
+      </c>
+      <c r="F99" s="386"/>
+      <c r="G99" s="384"/>
+      <c r="H99" s="384"/>
+      <c r="I99" s="384"/>
+      <c r="J99" s="384"/>
+      <c r="L99" s="133" t="s">
+        <v>474</v>
+      </c>
+      <c r="M99" s="141" t="s">
         <v>473</v>
       </c>
-      <c r="N97" s="11"/>
-    </row>
-    <row r="98" spans="2:14" ht="31" customHeight="1">
-      <c r="B98" s="397" t="s">
-        <v>467</v>
-      </c>
-      <c r="C98" s="394" t="s">
-        <v>137</v>
-      </c>
-      <c r="D98" s="394"/>
-      <c r="E98" s="383"/>
-      <c r="F98" s="383"/>
-      <c r="G98" s="383"/>
-      <c r="H98" s="383